--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -607,11 +607,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1760813240"/>
-        <c:axId val="265596145"/>
+        <c:axId val="779135751"/>
+        <c:axId val="1555051546"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1760813240"/>
+        <c:axId val="779135751"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -663,10 +663,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="265596145"/>
+        <c:crossAx val="1555051546"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="265596145"/>
+        <c:axId val="1555051546"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -741,7 +741,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1760813240"/>
+        <c:crossAx val="779135751"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -864,11 +864,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1117046844"/>
-        <c:axId val="1449747630"/>
+        <c:axId val="1499504368"/>
+        <c:axId val="595278711"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1117046844"/>
+        <c:axId val="1499504368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -920,10 +920,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1449747630"/>
+        <c:crossAx val="595278711"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1449747630"/>
+        <c:axId val="595278711"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -998,7 +998,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1117046844"/>
+        <c:crossAx val="1499504368"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -28634,6 +28634,14 @@
         <v>646.0</v>
       </c>
     </row>
+    <row r="48">
+      <c r="A48" s="19">
+        <v>45419.0</v>
+      </c>
+      <c r="B48" s="2">
+        <v>653.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -607,11 +607,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="779135751"/>
-        <c:axId val="1555051546"/>
+        <c:axId val="1494827790"/>
+        <c:axId val="945303745"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="779135751"/>
+        <c:axId val="1494827790"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -663,10 +663,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1555051546"/>
+        <c:crossAx val="945303745"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1555051546"/>
+        <c:axId val="945303745"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -741,7 +741,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="779135751"/>
+        <c:crossAx val="1494827790"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -864,11 +864,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1499504368"/>
-        <c:axId val="595278711"/>
+        <c:axId val="2122211374"/>
+        <c:axId val="2026888165"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1499504368"/>
+        <c:axId val="2122211374"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -920,10 +920,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="595278711"/>
+        <c:crossAx val="2026888165"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="595278711"/>
+        <c:axId val="2026888165"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -998,7 +998,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1499504368"/>
+        <c:crossAx val="2122211374"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -607,11 +607,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1494827790"/>
-        <c:axId val="945303745"/>
+        <c:axId val="705496986"/>
+        <c:axId val="601318502"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1494827790"/>
+        <c:axId val="705496986"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -663,10 +663,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="945303745"/>
+        <c:crossAx val="601318502"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="945303745"/>
+        <c:axId val="601318502"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -741,7 +741,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1494827790"/>
+        <c:crossAx val="705496986"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -864,11 +864,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="2122211374"/>
-        <c:axId val="2026888165"/>
+        <c:axId val="2023962574"/>
+        <c:axId val="1727568656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2122211374"/>
+        <c:axId val="2023962574"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -920,10 +920,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2026888165"/>
+        <c:crossAx val="1727568656"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2026888165"/>
+        <c:axId val="1727568656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -998,7 +998,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2122211374"/>
+        <c:crossAx val="2023962574"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -607,11 +607,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="705496986"/>
-        <c:axId val="601318502"/>
+        <c:axId val="714721389"/>
+        <c:axId val="2044669794"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="705496986"/>
+        <c:axId val="714721389"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -663,10 +663,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="601318502"/>
+        <c:crossAx val="2044669794"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="601318502"/>
+        <c:axId val="2044669794"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -741,7 +741,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="705496986"/>
+        <c:crossAx val="714721389"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -864,11 +864,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="2023962574"/>
-        <c:axId val="1727568656"/>
+        <c:axId val="1813794417"/>
+        <c:axId val="1723018880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2023962574"/>
+        <c:axId val="1813794417"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -920,10 +920,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1727568656"/>
+        <c:crossAx val="1723018880"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1727568656"/>
+        <c:axId val="1723018880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -998,7 +998,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2023962574"/>
+        <c:crossAx val="1813794417"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -607,11 +607,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="714721389"/>
-        <c:axId val="2044669794"/>
+        <c:axId val="174674833"/>
+        <c:axId val="2030319941"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="714721389"/>
+        <c:axId val="174674833"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -663,10 +663,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2044669794"/>
+        <c:crossAx val="2030319941"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2044669794"/>
+        <c:axId val="2030319941"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -741,7 +741,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="714721389"/>
+        <c:crossAx val="174674833"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -864,11 +864,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1813794417"/>
-        <c:axId val="1723018880"/>
+        <c:axId val="931339555"/>
+        <c:axId val="56365796"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1813794417"/>
+        <c:axId val="931339555"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -920,10 +920,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1723018880"/>
+        <c:crossAx val="56365796"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1723018880"/>
+        <c:axId val="56365796"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -998,7 +998,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1813794417"/>
+        <c:crossAx val="931339555"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -607,11 +607,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="174674833"/>
-        <c:axId val="2030319941"/>
+        <c:axId val="1323439652"/>
+        <c:axId val="1375092604"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="174674833"/>
+        <c:axId val="1323439652"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -663,10 +663,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2030319941"/>
+        <c:crossAx val="1375092604"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2030319941"/>
+        <c:axId val="1375092604"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -741,7 +741,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="174674833"/>
+        <c:crossAx val="1323439652"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -864,11 +864,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="931339555"/>
-        <c:axId val="56365796"/>
+        <c:axId val="1336994308"/>
+        <c:axId val="1458122508"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="931339555"/>
+        <c:axId val="1336994308"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -920,10 +920,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56365796"/>
+        <c:crossAx val="1458122508"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56365796"/>
+        <c:axId val="1458122508"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -998,7 +998,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="931339555"/>
+        <c:crossAx val="1336994308"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -607,11 +607,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1323439652"/>
-        <c:axId val="1375092604"/>
+        <c:axId val="971534866"/>
+        <c:axId val="852225500"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1323439652"/>
+        <c:axId val="971534866"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -663,10 +663,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1375092604"/>
+        <c:crossAx val="852225500"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1375092604"/>
+        <c:axId val="852225500"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -741,7 +741,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1323439652"/>
+        <c:crossAx val="971534866"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -864,11 +864,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1336994308"/>
-        <c:axId val="1458122508"/>
+        <c:axId val="1452718676"/>
+        <c:axId val="1367366901"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1336994308"/>
+        <c:axId val="1452718676"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -920,10 +920,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1458122508"/>
+        <c:crossAx val="1367366901"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1458122508"/>
+        <c:axId val="1367366901"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -998,7 +998,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1336994308"/>
+        <c:crossAx val="1452718676"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -28642,6 +28642,50 @@
         <v>653.0</v>
       </c>
     </row>
+    <row r="49">
+      <c r="A49" s="19">
+        <v>45420.0</v>
+      </c>
+      <c r="B49" s="2">
+        <v>657.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="19">
+        <v>45421.0</v>
+      </c>
+      <c r="B50" s="2">
+        <v>665.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="19">
+        <v>45422.0</v>
+      </c>
+      <c r="B51" s="2">
+        <v>676.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="19">
+        <v>45423.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="19">
+        <v>45424.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="19">
+        <v>45425.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="19">
+        <v>45426.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="108">
   <si>
     <t>Total New Arrivals to Date</t>
   </si>
@@ -328,6 +328,9 @@
     <t>SOURCE : Mayor's Office</t>
   </si>
   <si>
+    <t>694 (interpolated)</t>
+  </si>
+  <si>
     <t>NEW ARRIVALS CENSUS</t>
   </si>
   <si>
@@ -403,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -487,6 +490,9 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -563,12 +569,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Charts!$B$2:$AW$2</c:f>
+              <c:f>Charts!$B$2:$AX$2</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$B$3:$AW$3</c:f>
+              <c:f>Charts!$B$3:$AX$3</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -597,21 +603,21 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Charts!$B$2:$AW$2</c:f>
+              <c:f>Charts!$B$2:$AX$2</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$B$4:$AW$4</c:f>
+              <c:f>Charts!$B$4:$AX$4</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="971534866"/>
-        <c:axId val="852225500"/>
+        <c:axId val="111253300"/>
+        <c:axId val="477044282"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="971534866"/>
+        <c:axId val="111253300"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -663,10 +669,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="852225500"/>
+        <c:crossAx val="477044282"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="852225500"/>
+        <c:axId val="477044282"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -741,7 +747,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="971534866"/>
+        <c:crossAx val="111253300"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -823,12 +829,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Charts!$B$38:$AJ$38</c:f>
+              <c:f>Charts!$B$38:$AK$38</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$B$39:$AJ$39</c:f>
+              <c:f>Charts!$B$39:$AK$39</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -853,22 +859,22 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Charts!$B$38:$AJ$38</c:f>
+              <c:f>Charts!$B$38:$AK$38</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$B$40:$AJ$40</c:f>
+              <c:f>Charts!$B$40:$AK$40</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1452718676"/>
-        <c:axId val="1367366901"/>
+        <c:axId val="934020363"/>
+        <c:axId val="1183323933"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1452718676"/>
+        <c:axId val="934020363"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -920,10 +926,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1367366901"/>
+        <c:crossAx val="1183323933"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1367366901"/>
+        <c:axId val="1183323933"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -998,7 +1004,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1452718676"/>
+        <c:crossAx val="934020363"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1458,6 +1464,9 @@
       <c r="AW1" s="1">
         <v>45415.0</v>
       </c>
+      <c r="AX1" s="1">
+        <v>45422.0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1605,6 +1614,9 @@
       <c r="AW2" s="3">
         <v>40916.0</v>
       </c>
+      <c r="AX2" s="3">
+        <v>41279.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -1751,6 +1763,9 @@
       <c r="AW3" s="2">
         <v>7212.0</v>
       </c>
+      <c r="AX3" s="2">
+        <v>7213.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -1888,6 +1903,9 @@
       </c>
       <c r="AW4" s="3">
         <v>27676.0</v>
+      </c>
+      <c r="AX4" s="3">
+        <v>28372.0</v>
       </c>
     </row>
     <row r="5">
@@ -2142,6 +2160,9 @@
       </c>
       <c r="AW1" s="1">
         <v>45415.0</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>45422.0</v>
       </c>
     </row>
     <row r="2">
@@ -2183,6 +2204,7 @@
       <c r="AU2" s="2"/>
       <c r="AV2" s="2"/>
       <c r="AW2" s="2"/>
+      <c r="AX2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -2291,6 +2313,9 @@
         <v>0.0</v>
       </c>
       <c r="AW3" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AX3" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -2354,6 +2379,9 @@
       </c>
       <c r="AW4" s="2">
         <v>7.0</v>
+      </c>
+      <c r="AX4" s="2">
+        <v>5.0</v>
       </c>
     </row>
     <row r="5">
@@ -2403,6 +2431,7 @@
       <c r="AU5" s="2"/>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2"/>
+      <c r="AX5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -2453,6 +2482,7 @@
       <c r="AU6" s="2"/>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2"/>
+      <c r="AX6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
@@ -2507,7 +2537,10 @@
         <v>177.0</v>
       </c>
       <c r="AW7" s="2">
-        <v>611.0</v>
+        <v>232.0</v>
+      </c>
+      <c r="AX7" s="2">
+        <v>55.0</v>
       </c>
     </row>
     <row r="8">
@@ -2646,6 +2679,9 @@
       </c>
       <c r="AW8" s="2">
         <v>250.0</v>
+      </c>
+      <c r="AX8" s="2">
+        <v>155.0</v>
       </c>
     </row>
     <row r="9">
@@ -2701,6 +2737,7 @@
       </c>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2"/>
+      <c r="AX9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
@@ -2759,6 +2796,9 @@
       <c r="AW10" s="2">
         <v>83.0</v>
       </c>
+      <c r="AX10" s="2">
+        <v>33.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
@@ -2814,6 +2854,9 @@
       </c>
       <c r="AW11" s="2">
         <v>548.0</v>
+      </c>
+      <c r="AX11" s="2">
+        <v>345.0</v>
       </c>
     </row>
     <row r="12">
@@ -2865,6 +2908,7 @@
       <c r="AU12" s="2"/>
       <c r="AV12" s="2"/>
       <c r="AW12" s="2"/>
+      <c r="AX12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
@@ -3011,6 +3055,9 @@
       <c r="AW13" s="2">
         <v>178.0</v>
       </c>
+      <c r="AX13" s="2">
+        <v>109.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
@@ -3157,6 +3204,9 @@
       <c r="AW14" s="2">
         <v>33.0</v>
       </c>
+      <c r="AX14" s="2">
+        <v>27.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
@@ -3302,6 +3352,9 @@
       </c>
       <c r="AW15" s="2">
         <v>337.0</v>
+      </c>
+      <c r="AX15" s="2">
+        <v>209.0</v>
       </c>
     </row>
     <row r="16">
@@ -3478,6 +3531,7 @@
       </c>
       <c r="AV17" s="2"/>
       <c r="AW17" s="2"/>
+      <c r="AX17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
@@ -3534,6 +3588,9 @@
       <c r="AW18" s="2">
         <v>548.0</v>
       </c>
+      <c r="AX18" s="2">
+        <v>329.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="C19" s="6"/>
@@ -3970,6 +4027,9 @@
       <c r="AV1" s="1">
         <v>45415.0</v>
       </c>
+      <c r="AW1" s="1">
+        <v>45422.0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -4116,6 +4176,9 @@
       <c r="AV2" s="7">
         <v>16.0</v>
       </c>
+      <c r="AW2" s="7">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -4208,6 +4271,9 @@
       </c>
       <c r="AV3" s="7">
         <v>14.0</v>
+      </c>
+      <c r="AW3" s="7">
+        <v>12.0</v>
       </c>
     </row>
     <row r="4">
@@ -4270,6 +4336,9 @@
       <c r="AV4" s="7">
         <v>13.0</v>
       </c>
+      <c r="AW4" s="7">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
@@ -4415,6 +4484,9 @@
       </c>
       <c r="AV5" s="7">
         <v>638.0</v>
+      </c>
+      <c r="AW5" s="7">
+        <v>608.0</v>
       </c>
     </row>
     <row r="6">
@@ -4506,6 +4578,9 @@
       </c>
       <c r="AV6" s="7">
         <v>13.0</v>
+      </c>
+      <c r="AW6" s="7">
+        <v>12.0</v>
       </c>
     </row>
     <row r="7">
@@ -4530,6 +4605,7 @@
       <c r="AT7" s="8"/>
       <c r="AU7" s="8"/>
       <c r="AV7" s="8"/>
+      <c r="AW7" s="8"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
@@ -4675,6 +4751,9 @@
       </c>
       <c r="AV8" s="7">
         <v>281.0</v>
+      </c>
+      <c r="AW8" s="7">
+        <v>282.0</v>
       </c>
     </row>
     <row r="9">
@@ -4737,6 +4816,7 @@
       <c r="AT9" s="7"/>
       <c r="AU9" s="7"/>
       <c r="AV9" s="7"/>
+      <c r="AW9" s="7"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
@@ -4827,6 +4907,9 @@
       <c r="AV10" s="7">
         <v>15.0</v>
       </c>
+      <c r="AW10" s="7">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
@@ -4944,6 +5027,9 @@
       <c r="AV11" s="7">
         <v>67.0</v>
       </c>
+      <c r="AW11" s="7">
+        <v>61.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
@@ -5090,6 +5176,9 @@
       <c r="AV12" s="7">
         <v>35.0</v>
       </c>
+      <c r="AW12" s="7">
+        <v>34.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
@@ -5196,6 +5285,7 @@
         <v>11.0</v>
       </c>
       <c r="AV13" s="7"/>
+      <c r="AW13" s="7"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
@@ -5341,6 +5431,9 @@
       </c>
       <c r="AV14" s="7">
         <v>16.0</v>
+      </c>
+      <c r="AW14" s="7">
+        <v>20.0</v>
       </c>
     </row>
     <row r="15">
@@ -5398,6 +5491,7 @@
       <c r="AT15" s="7"/>
       <c r="AU15" s="7"/>
       <c r="AV15" s="7"/>
+      <c r="AW15" s="7"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
@@ -5544,6 +5638,9 @@
       <c r="AV16" s="7">
         <v>19.0</v>
       </c>
+      <c r="AW16" s="7">
+        <v>23.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
@@ -5677,6 +5774,9 @@
       <c r="AV17" s="7">
         <v>10.0</v>
       </c>
+      <c r="AW17" s="7">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
@@ -5822,6 +5922,9 @@
       </c>
       <c r="AV18" s="7">
         <v>105.0</v>
+      </c>
+      <c r="AW18" s="7">
+        <v>103.0</v>
       </c>
     </row>
     <row r="19">
@@ -5850,6 +5953,7 @@
       <c r="AT19" s="8"/>
       <c r="AU19" s="8"/>
       <c r="AV19" s="8"/>
+      <c r="AW19" s="8"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
@@ -5909,6 +6013,9 @@
       <c r="AV20" s="13">
         <v>10.0</v>
       </c>
+      <c r="AW20" s="13">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
@@ -6052,6 +6159,9 @@
       <c r="AV21" s="13">
         <v>904.0</v>
       </c>
+      <c r="AW21" s="13">
+        <v>839.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
@@ -6197,6 +6307,9 @@
       </c>
       <c r="AV22" s="7">
         <v>6881.0</v>
+      </c>
+      <c r="AW22" s="7">
+        <v>6440.0</v>
       </c>
     </row>
     <row r="23">
@@ -6500,6 +6613,9 @@
       </c>
       <c r="AV1" s="1">
         <v>45415.0</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>45422.0</v>
       </c>
     </row>
     <row r="2">
@@ -6553,6 +6669,7 @@
       <c r="AT2" s="2"/>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2"/>
+      <c r="AW2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -6699,6 +6816,7 @@
       <c r="AV3" s="2">
         <v>0.0</v>
       </c>
+      <c r="AW3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -6765,6 +6883,7 @@
       <c r="AV4" s="2">
         <v>0.0</v>
       </c>
+      <c r="AW4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
@@ -6911,6 +7030,7 @@
       <c r="AV5" s="2">
         <v>0.0</v>
       </c>
+      <c r="AW5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -7057,6 +7177,7 @@
       <c r="AV6" s="2">
         <v>0.0</v>
       </c>
+      <c r="AW6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
@@ -7203,6 +7324,7 @@
       <c r="AV7" s="2">
         <v>0.0</v>
       </c>
+      <c r="AW7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
@@ -7349,6 +7471,7 @@
       <c r="AV8" s="2">
         <v>0.0</v>
       </c>
+      <c r="AW8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
@@ -7495,6 +7618,7 @@
       <c r="AV9" s="2">
         <v>0.0</v>
       </c>
+      <c r="AW9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
@@ -7557,6 +7681,7 @@
       <c r="AV10" s="2">
         <v>0.0</v>
       </c>
+      <c r="AW10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
@@ -7703,6 +7828,7 @@
       <c r="AV11" s="2">
         <v>0.0</v>
       </c>
+      <c r="AW11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
@@ -7849,6 +7975,7 @@
       <c r="AV12" s="2">
         <v>0.0</v>
       </c>
+      <c r="AW12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
@@ -7995,6 +8122,7 @@
       <c r="AV13" s="2">
         <v>0.0</v>
       </c>
+      <c r="AW13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
@@ -8141,6 +8269,7 @@
       <c r="AV14" s="2">
         <v>0.0</v>
       </c>
+      <c r="AW14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
@@ -8287,6 +8416,7 @@
       <c r="AV15" s="2">
         <v>0.0</v>
       </c>
+      <c r="AW15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
@@ -8433,6 +8563,7 @@
       <c r="AV16" s="2">
         <v>0.0</v>
       </c>
+      <c r="AW16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
@@ -8579,6 +8710,7 @@
       <c r="AV17" s="2">
         <v>0.0</v>
       </c>
+      <c r="AW17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
@@ -8725,6 +8857,7 @@
       <c r="AV18" s="2">
         <v>0.0</v>
       </c>
+      <c r="AW18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
@@ -8871,6 +9004,7 @@
       <c r="AV19" s="2">
         <v>0.0</v>
       </c>
+      <c r="AW19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
@@ -9017,6 +9151,7 @@
       <c r="AV20" s="2">
         <v>0.0</v>
       </c>
+      <c r="AW20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
@@ -9163,6 +9298,7 @@
       <c r="AV21" s="2">
         <v>0.0</v>
       </c>
+      <c r="AW21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
@@ -9308,6 +9444,9 @@
       </c>
       <c r="AV22" s="2">
         <v>3.0</v>
+      </c>
+      <c r="AW22" s="2">
+        <v>4.0</v>
       </c>
     </row>
     <row r="23">
@@ -9377,6 +9516,7 @@
       <c r="AT25" s="10"/>
       <c r="AU25" s="10"/>
       <c r="AV25" s="10"/>
+      <c r="AW25" s="10"/>
     </row>
     <row r="26">
       <c r="B26" s="6"/>
@@ -9415,6 +9555,7 @@
       <c r="AT26" s="10"/>
       <c r="AU26" s="10"/>
       <c r="AV26" s="10"/>
+      <c r="AW26" s="10"/>
     </row>
     <row r="27">
       <c r="B27" s="6"/>
@@ -9882,6 +10023,9 @@
       <c r="AW1" s="20">
         <v>45415.0</v>
       </c>
+      <c r="AX1" s="20">
+        <v>45422.0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -9940,6 +10084,9 @@
       <c r="AW2" s="21">
         <v>17.0</v>
       </c>
+      <c r="AX2" s="21">
+        <v>44.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -10088,6 +10235,9 @@
       </c>
       <c r="AW3" s="21">
         <v>7.0</v>
+      </c>
+      <c r="AX3" s="21">
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -10222,6 +10372,9 @@
       <c r="AW4" s="21">
         <v>0.0</v>
       </c>
+      <c r="AX4" s="21">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
@@ -10371,6 +10524,9 @@
       <c r="AW5" s="21">
         <v>5.0</v>
       </c>
+      <c r="AX5" s="21">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -10565,6 +10721,9 @@
       </c>
       <c r="AW6" s="13">
         <v>29.0</v>
+      </c>
+      <c r="AX6" s="13">
+        <v>53.0</v>
       </c>
     </row>
     <row r="7">
@@ -10700,6 +10859,7 @@
       <c r="AU7" s="6"/>
       <c r="AV7" s="6"/>
       <c r="AW7" s="6"/>
+      <c r="AX7" s="6"/>
     </row>
     <row r="8">
       <c r="A8" s="2"/>
@@ -10748,6 +10908,7 @@
       <c r="AU8" s="23"/>
       <c r="AV8" s="23"/>
       <c r="AW8" s="23"/>
+      <c r="AX8" s="23"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
@@ -10930,6 +11091,9 @@
       </c>
       <c r="AW9" s="20">
         <v>45415.0</v>
+      </c>
+      <c r="AX9" s="20">
+        <v>45422.0</v>
       </c>
     </row>
     <row r="10">
@@ -11058,6 +11222,9 @@
       <c r="AW10" s="25">
         <v>914.0</v>
       </c>
+      <c r="AX10" s="25">
+        <v>913.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
@@ -11206,6 +11373,9 @@
       </c>
       <c r="AW11" s="25">
         <v>137.0</v>
+      </c>
+      <c r="AX11" s="25">
+        <v>123.0</v>
       </c>
     </row>
     <row r="12">
@@ -11284,6 +11454,9 @@
       <c r="AW12" s="25">
         <v>711.0</v>
       </c>
+      <c r="AX12" s="25">
+        <v>752.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
@@ -11390,6 +11563,9 @@
       </c>
       <c r="AW13" s="26">
         <v>729.0</v>
+      </c>
+      <c r="AX13" s="26">
+        <v>647.0</v>
       </c>
     </row>
     <row r="14">
@@ -11438,6 +11614,7 @@
       <c r="AU14" s="21"/>
       <c r="AV14" s="21"/>
       <c r="AW14" s="21"/>
+      <c r="AX14" s="21"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
@@ -11583,6 +11760,7 @@
       </c>
       <c r="AV15" s="21"/>
       <c r="AW15" s="21"/>
+      <c r="AX15" s="21"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
@@ -11731,6 +11909,9 @@
       </c>
       <c r="AW16" s="27">
         <v>949.0</v>
+      </c>
+      <c r="AX16" s="27">
+        <v>891.0</v>
       </c>
     </row>
     <row r="17">
@@ -11844,6 +12025,9 @@
       </c>
       <c r="AW17" s="21">
         <v>406.0</v>
+      </c>
+      <c r="AX17" s="21">
+        <v>381.0</v>
       </c>
     </row>
     <row r="18">
@@ -11905,6 +12089,9 @@
       <c r="AW18" s="21">
         <v>180.0</v>
       </c>
+      <c r="AX18" s="21">
+        <v>165.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
@@ -12013,6 +12200,9 @@
       <c r="AW19" s="21">
         <v>281.0</v>
       </c>
+      <c r="AX19" s="21">
+        <v>405.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
@@ -12099,6 +12289,9 @@
       <c r="AW20" s="21">
         <v>129.0</v>
       </c>
+      <c r="AX20" s="21">
+        <v>131.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
@@ -12206,6 +12399,9 @@
       <c r="AW21" s="21">
         <v>988.0</v>
       </c>
+      <c r="AX21" s="21">
+        <v>913.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
@@ -12313,6 +12509,9 @@
       <c r="AW22" s="21">
         <v>69.0</v>
       </c>
+      <c r="AX22" s="21">
+        <v>106.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
@@ -12461,6 +12660,9 @@
       </c>
       <c r="AW23" s="21">
         <v>816.0</v>
+      </c>
+      <c r="AX23" s="21">
+        <v>873.0</v>
       </c>
     </row>
     <row r="24">
@@ -12525,6 +12727,9 @@
       <c r="AW24" s="21">
         <v>0.0</v>
       </c>
+      <c r="AX24" s="21">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
@@ -12654,6 +12859,9 @@
       <c r="AW25" s="21">
         <v>216.0</v>
       </c>
+      <c r="AX25" s="21">
+        <v>216.0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
@@ -12802,6 +13010,9 @@
       </c>
       <c r="AW26" s="21">
         <v>503.0</v>
+      </c>
+      <c r="AX26" s="21">
+        <v>84.0</v>
       </c>
     </row>
     <row r="27">
@@ -12908,6 +13119,9 @@
       </c>
       <c r="AW27" s="21">
         <v>791.0</v>
+      </c>
+      <c r="AX27" s="21">
+        <v>768.0</v>
       </c>
     </row>
     <row r="28">
@@ -13007,6 +13221,9 @@
       <c r="AW28" s="21">
         <v>213.0</v>
       </c>
+      <c r="AX28" s="21">
+        <v>229.0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
@@ -13155,6 +13372,9 @@
       </c>
       <c r="AW29" s="21">
         <v>158.0</v>
+      </c>
+      <c r="AX29" s="21">
+        <v>196.0</v>
       </c>
     </row>
     <row r="30">
@@ -13172,6 +13392,7 @@
       <c r="AU30" s="23"/>
       <c r="AV30" s="23"/>
       <c r="AW30" s="23"/>
+      <c r="AX30" s="23"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
@@ -13191,6 +13412,7 @@
       <c r="AU31" s="23"/>
       <c r="AV31" s="23"/>
       <c r="AW31" s="23"/>
+      <c r="AX31" s="23"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
@@ -13250,6 +13472,7 @@
       <c r="AU32" s="25"/>
       <c r="AV32" s="25"/>
       <c r="AW32" s="25"/>
+      <c r="AX32" s="25"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
@@ -13393,6 +13616,7 @@
       <c r="AU33" s="25"/>
       <c r="AV33" s="25"/>
       <c r="AW33" s="25"/>
+      <c r="AX33" s="25"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
@@ -13512,6 +13736,7 @@
       <c r="AU34" s="25"/>
       <c r="AV34" s="25"/>
       <c r="AW34" s="25"/>
+      <c r="AX34" s="25"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
@@ -13583,6 +13808,7 @@
       <c r="AU35" s="21"/>
       <c r="AV35" s="21"/>
       <c r="AW35" s="21"/>
+      <c r="AX35" s="21"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
@@ -13718,6 +13944,7 @@
       <c r="AU36" s="25"/>
       <c r="AV36" s="25"/>
       <c r="AW36" s="25"/>
+      <c r="AX36" s="25"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
@@ -13857,6 +14084,7 @@
       <c r="AU37" s="21"/>
       <c r="AV37" s="21"/>
       <c r="AW37" s="21"/>
+      <c r="AX37" s="21"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
@@ -13972,6 +14200,7 @@
       <c r="AU38" s="21"/>
       <c r="AV38" s="21"/>
       <c r="AW38" s="21"/>
+      <c r="AX38" s="21"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
@@ -14073,6 +14302,7 @@
       <c r="AU39" s="21"/>
       <c r="AV39" s="21"/>
       <c r="AW39" s="21"/>
+      <c r="AX39" s="21"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
@@ -14200,6 +14430,7 @@
       <c r="AU40" s="21"/>
       <c r="AV40" s="21"/>
       <c r="AW40" s="21"/>
+      <c r="AX40" s="21"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
@@ -14339,6 +14570,7 @@
       <c r="AU41" s="21"/>
       <c r="AV41" s="21"/>
       <c r="AW41" s="21"/>
+      <c r="AX41" s="21"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
@@ -14365,6 +14597,7 @@
       <c r="AU42" s="23"/>
       <c r="AV42" s="23"/>
       <c r="AW42" s="23"/>
+      <c r="AX42" s="23"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
@@ -14408,6 +14641,7 @@
       <c r="AU43" s="23"/>
       <c r="AV43" s="23"/>
       <c r="AW43" s="23"/>
+      <c r="AX43" s="23"/>
     </row>
     <row r="44">
       <c r="B44" s="16"/>
@@ -14424,13 +14658,14 @@
       <c r="AU44" s="23"/>
       <c r="AV44" s="23"/>
       <c r="AW44" s="23"/>
+      <c r="AX44" s="23"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B45" s="16">
-        <f t="shared" ref="B45:AW45" si="3">sum(B10:B43)</f>
+        <f t="shared" ref="B45:AX45" si="3">sum(B10:B43)</f>
         <v>4647</v>
       </c>
       <c r="C45" s="16">
@@ -14621,6 +14856,10 @@
         <f t="shared" si="3"/>
         <v>8190</v>
       </c>
+      <c r="AX45" s="16">
+        <f t="shared" si="3"/>
+        <v>7793</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
@@ -14766,6 +15005,9 @@
       </c>
       <c r="AW46" s="2">
         <v>2850.0</v>
+      </c>
+      <c r="AX46" s="7">
+        <v>2754.0</v>
       </c>
     </row>
     <row r="47">
@@ -14783,6 +15025,7 @@
       <c r="AU47" s="23"/>
       <c r="AV47" s="23"/>
       <c r="AW47" s="23"/>
+      <c r="AX47" s="23"/>
     </row>
     <row r="48">
       <c r="B48" s="16"/>
@@ -14799,6 +15042,7 @@
       <c r="AU48" s="23"/>
       <c r="AV48" s="23"/>
       <c r="AW48" s="23"/>
+      <c r="AX48" s="23"/>
     </row>
     <row r="49">
       <c r="B49" s="16"/>
@@ -14815,6 +15059,7 @@
       <c r="AU49" s="23"/>
       <c r="AV49" s="23"/>
       <c r="AW49" s="23"/>
+      <c r="AX49" s="23"/>
     </row>
     <row r="50">
       <c r="B50" s="16"/>
@@ -14831,6 +15076,7 @@
       <c r="AU50" s="23"/>
       <c r="AV50" s="23"/>
       <c r="AW50" s="23"/>
+      <c r="AX50" s="23"/>
     </row>
     <row r="51">
       <c r="B51" s="16"/>
@@ -14847,6 +15093,7 @@
       <c r="AU51" s="23"/>
       <c r="AV51" s="23"/>
       <c r="AW51" s="23"/>
+      <c r="AX51" s="23"/>
     </row>
     <row r="52">
       <c r="B52" s="16"/>
@@ -14863,6 +15110,7 @@
       <c r="AU52" s="23"/>
       <c r="AV52" s="23"/>
       <c r="AW52" s="23"/>
+      <c r="AX52" s="23"/>
     </row>
     <row r="53">
       <c r="B53" s="16"/>
@@ -14879,6 +15127,7 @@
       <c r="AU53" s="23"/>
       <c r="AV53" s="23"/>
       <c r="AW53" s="23"/>
+      <c r="AX53" s="23"/>
     </row>
     <row r="54">
       <c r="B54" s="16"/>
@@ -14894,6 +15143,7 @@
       <c r="AU54" s="23"/>
       <c r="AV54" s="23"/>
       <c r="AW54" s="23"/>
+      <c r="AX54" s="23"/>
     </row>
     <row r="55">
       <c r="B55" s="16"/>
@@ -14909,6 +15159,7 @@
       <c r="AU55" s="23"/>
       <c r="AV55" s="23"/>
       <c r="AW55" s="23"/>
+      <c r="AX55" s="23"/>
     </row>
     <row r="56">
       <c r="B56" s="5"/>
@@ -14924,6 +15175,7 @@
       <c r="AU56" s="23"/>
       <c r="AV56" s="23"/>
       <c r="AW56" s="23"/>
+      <c r="AX56" s="23"/>
     </row>
     <row r="57">
       <c r="B57" s="5"/>
@@ -14939,6 +15191,7 @@
       <c r="AU57" s="23"/>
       <c r="AV57" s="23"/>
       <c r="AW57" s="23"/>
+      <c r="AX57" s="23"/>
     </row>
     <row r="58">
       <c r="B58" s="5"/>
@@ -14954,6 +15207,7 @@
       <c r="AU58" s="23"/>
       <c r="AV58" s="23"/>
       <c r="AW58" s="23"/>
+      <c r="AX58" s="23"/>
     </row>
     <row r="59">
       <c r="B59" s="5"/>
@@ -14969,6 +15223,7 @@
       <c r="AU59" s="23"/>
       <c r="AV59" s="23"/>
       <c r="AW59" s="23"/>
+      <c r="AX59" s="23"/>
     </row>
     <row r="60">
       <c r="B60" s="5"/>
@@ -14984,6 +15239,7 @@
       <c r="AU60" s="23"/>
       <c r="AV60" s="23"/>
       <c r="AW60" s="23"/>
+      <c r="AX60" s="23"/>
     </row>
     <row r="61">
       <c r="B61" s="5"/>
@@ -14999,6 +15255,7 @@
       <c r="AU61" s="23"/>
       <c r="AV61" s="23"/>
       <c r="AW61" s="23"/>
+      <c r="AX61" s="23"/>
     </row>
     <row r="62">
       <c r="B62" s="5"/>
@@ -15014,6 +15271,7 @@
       <c r="AU62" s="23"/>
       <c r="AV62" s="23"/>
       <c r="AW62" s="23"/>
+      <c r="AX62" s="23"/>
     </row>
     <row r="63">
       <c r="B63" s="5"/>
@@ -15029,6 +15287,7 @@
       <c r="AU63" s="23"/>
       <c r="AV63" s="23"/>
       <c r="AW63" s="23"/>
+      <c r="AX63" s="23"/>
     </row>
     <row r="64">
       <c r="B64" s="5"/>
@@ -15044,6 +15303,7 @@
       <c r="AU64" s="23"/>
       <c r="AV64" s="23"/>
       <c r="AW64" s="23"/>
+      <c r="AX64" s="23"/>
     </row>
     <row r="65">
       <c r="B65" s="5"/>
@@ -15059,6 +15319,7 @@
       <c r="AU65" s="23"/>
       <c r="AV65" s="23"/>
       <c r="AW65" s="23"/>
+      <c r="AX65" s="23"/>
     </row>
     <row r="66">
       <c r="B66" s="5"/>
@@ -15074,6 +15335,7 @@
       <c r="AU66" s="23"/>
       <c r="AV66" s="23"/>
       <c r="AW66" s="23"/>
+      <c r="AX66" s="23"/>
     </row>
     <row r="67">
       <c r="B67" s="5"/>
@@ -15089,6 +15351,7 @@
       <c r="AU67" s="23"/>
       <c r="AV67" s="23"/>
       <c r="AW67" s="23"/>
+      <c r="AX67" s="23"/>
     </row>
     <row r="68">
       <c r="B68" s="5"/>
@@ -15104,6 +15367,7 @@
       <c r="AU68" s="23"/>
       <c r="AV68" s="23"/>
       <c r="AW68" s="23"/>
+      <c r="AX68" s="23"/>
     </row>
     <row r="69">
       <c r="B69" s="5"/>
@@ -15119,6 +15383,7 @@
       <c r="AU69" s="23"/>
       <c r="AV69" s="23"/>
       <c r="AW69" s="23"/>
+      <c r="AX69" s="23"/>
     </row>
     <row r="70">
       <c r="B70" s="5"/>
@@ -15134,6 +15399,7 @@
       <c r="AU70" s="23"/>
       <c r="AV70" s="23"/>
       <c r="AW70" s="23"/>
+      <c r="AX70" s="23"/>
     </row>
     <row r="71">
       <c r="AL71" s="23"/>
@@ -15148,6 +15414,7 @@
       <c r="AU71" s="23"/>
       <c r="AV71" s="23"/>
       <c r="AW71" s="23"/>
+      <c r="AX71" s="23"/>
     </row>
     <row r="72">
       <c r="AL72" s="23"/>
@@ -15162,6 +15429,7 @@
       <c r="AU72" s="23"/>
       <c r="AV72" s="23"/>
       <c r="AW72" s="23"/>
+      <c r="AX72" s="23"/>
     </row>
     <row r="73">
       <c r="AL73" s="23"/>
@@ -15176,6 +15444,7 @@
       <c r="AU73" s="23"/>
       <c r="AV73" s="23"/>
       <c r="AW73" s="23"/>
+      <c r="AX73" s="23"/>
     </row>
     <row r="74">
       <c r="AL74" s="23"/>
@@ -15190,6 +15459,7 @@
       <c r="AU74" s="23"/>
       <c r="AV74" s="23"/>
       <c r="AW74" s="23"/>
+      <c r="AX74" s="23"/>
     </row>
     <row r="75">
       <c r="AL75" s="23"/>
@@ -15204,6 +15474,7 @@
       <c r="AU75" s="23"/>
       <c r="AV75" s="23"/>
       <c r="AW75" s="23"/>
+      <c r="AX75" s="23"/>
     </row>
     <row r="76">
       <c r="AL76" s="23"/>
@@ -15218,6 +15489,7 @@
       <c r="AU76" s="23"/>
       <c r="AV76" s="23"/>
       <c r="AW76" s="23"/>
+      <c r="AX76" s="23"/>
     </row>
     <row r="77">
       <c r="AL77" s="23"/>
@@ -15232,6 +15504,7 @@
       <c r="AU77" s="23"/>
       <c r="AV77" s="23"/>
       <c r="AW77" s="23"/>
+      <c r="AX77" s="23"/>
     </row>
     <row r="78">
       <c r="AL78" s="23"/>
@@ -15246,6 +15519,7 @@
       <c r="AU78" s="23"/>
       <c r="AV78" s="23"/>
       <c r="AW78" s="23"/>
+      <c r="AX78" s="23"/>
     </row>
     <row r="79">
       <c r="AL79" s="23"/>
@@ -15260,6 +15534,7 @@
       <c r="AU79" s="23"/>
       <c r="AV79" s="23"/>
       <c r="AW79" s="23"/>
+      <c r="AX79" s="23"/>
     </row>
     <row r="80">
       <c r="AL80" s="23"/>
@@ -15274,6 +15549,7 @@
       <c r="AU80" s="23"/>
       <c r="AV80" s="23"/>
       <c r="AW80" s="23"/>
+      <c r="AX80" s="23"/>
     </row>
     <row r="81">
       <c r="AL81" s="23"/>
@@ -15288,6 +15564,7 @@
       <c r="AU81" s="23"/>
       <c r="AV81" s="23"/>
       <c r="AW81" s="23"/>
+      <c r="AX81" s="23"/>
     </row>
     <row r="82">
       <c r="AL82" s="23"/>
@@ -15302,6 +15579,7 @@
       <c r="AU82" s="23"/>
       <c r="AV82" s="23"/>
       <c r="AW82" s="23"/>
+      <c r="AX82" s="23"/>
     </row>
     <row r="83">
       <c r="AL83" s="23"/>
@@ -15316,6 +15594,7 @@
       <c r="AU83" s="23"/>
       <c r="AV83" s="23"/>
       <c r="AW83" s="23"/>
+      <c r="AX83" s="23"/>
     </row>
     <row r="84">
       <c r="AL84" s="23"/>
@@ -15330,6 +15609,7 @@
       <c r="AU84" s="23"/>
       <c r="AV84" s="23"/>
       <c r="AW84" s="23"/>
+      <c r="AX84" s="23"/>
     </row>
     <row r="85">
       <c r="AL85" s="23"/>
@@ -15344,6 +15624,7 @@
       <c r="AU85" s="23"/>
       <c r="AV85" s="23"/>
       <c r="AW85" s="23"/>
+      <c r="AX85" s="23"/>
     </row>
     <row r="86">
       <c r="AL86" s="23"/>
@@ -15358,6 +15639,7 @@
       <c r="AU86" s="23"/>
       <c r="AV86" s="23"/>
       <c r="AW86" s="23"/>
+      <c r="AX86" s="23"/>
     </row>
     <row r="87">
       <c r="AL87" s="23"/>
@@ -15372,6 +15654,7 @@
       <c r="AU87" s="23"/>
       <c r="AV87" s="23"/>
       <c r="AW87" s="23"/>
+      <c r="AX87" s="23"/>
     </row>
     <row r="88">
       <c r="AL88" s="23"/>
@@ -15386,6 +15669,7 @@
       <c r="AU88" s="23"/>
       <c r="AV88" s="23"/>
       <c r="AW88" s="23"/>
+      <c r="AX88" s="23"/>
     </row>
     <row r="89">
       <c r="AL89" s="23"/>
@@ -15400,6 +15684,7 @@
       <c r="AU89" s="23"/>
       <c r="AV89" s="23"/>
       <c r="AW89" s="23"/>
+      <c r="AX89" s="23"/>
     </row>
     <row r="90">
       <c r="AL90" s="23"/>
@@ -15414,6 +15699,7 @@
       <c r="AU90" s="23"/>
       <c r="AV90" s="23"/>
       <c r="AW90" s="23"/>
+      <c r="AX90" s="23"/>
     </row>
     <row r="91">
       <c r="AL91" s="23"/>
@@ -15428,6 +15714,7 @@
       <c r="AU91" s="23"/>
       <c r="AV91" s="23"/>
       <c r="AW91" s="23"/>
+      <c r="AX91" s="23"/>
     </row>
     <row r="92">
       <c r="AL92" s="23"/>
@@ -15442,6 +15729,7 @@
       <c r="AU92" s="23"/>
       <c r="AV92" s="23"/>
       <c r="AW92" s="23"/>
+      <c r="AX92" s="23"/>
     </row>
     <row r="93">
       <c r="AL93" s="23"/>
@@ -15456,6 +15744,7 @@
       <c r="AU93" s="23"/>
       <c r="AV93" s="23"/>
       <c r="AW93" s="23"/>
+      <c r="AX93" s="23"/>
     </row>
     <row r="94">
       <c r="AL94" s="23"/>
@@ -15470,6 +15759,7 @@
       <c r="AU94" s="23"/>
       <c r="AV94" s="23"/>
       <c r="AW94" s="23"/>
+      <c r="AX94" s="23"/>
     </row>
     <row r="95">
       <c r="AL95" s="23"/>
@@ -15484,6 +15774,7 @@
       <c r="AU95" s="23"/>
       <c r="AV95" s="23"/>
       <c r="AW95" s="23"/>
+      <c r="AX95" s="23"/>
     </row>
     <row r="96">
       <c r="AL96" s="23"/>
@@ -15498,6 +15789,7 @@
       <c r="AU96" s="23"/>
       <c r="AV96" s="23"/>
       <c r="AW96" s="23"/>
+      <c r="AX96" s="23"/>
     </row>
     <row r="97">
       <c r="AL97" s="23"/>
@@ -15512,6 +15804,7 @@
       <c r="AU97" s="23"/>
       <c r="AV97" s="23"/>
       <c r="AW97" s="23"/>
+      <c r="AX97" s="23"/>
     </row>
     <row r="98">
       <c r="AL98" s="23"/>
@@ -15526,6 +15819,7 @@
       <c r="AU98" s="23"/>
       <c r="AV98" s="23"/>
       <c r="AW98" s="23"/>
+      <c r="AX98" s="23"/>
     </row>
     <row r="99">
       <c r="AL99" s="23"/>
@@ -15540,6 +15834,7 @@
       <c r="AU99" s="23"/>
       <c r="AV99" s="23"/>
       <c r="AW99" s="23"/>
+      <c r="AX99" s="23"/>
     </row>
     <row r="100">
       <c r="AL100" s="23"/>
@@ -15554,6 +15849,7 @@
       <c r="AU100" s="23"/>
       <c r="AV100" s="23"/>
       <c r="AW100" s="23"/>
+      <c r="AX100" s="23"/>
     </row>
     <row r="101">
       <c r="AL101" s="23"/>
@@ -15568,6 +15864,7 @@
       <c r="AU101" s="23"/>
       <c r="AV101" s="23"/>
       <c r="AW101" s="23"/>
+      <c r="AX101" s="23"/>
     </row>
     <row r="102">
       <c r="AL102" s="23"/>
@@ -15582,6 +15879,7 @@
       <c r="AU102" s="23"/>
       <c r="AV102" s="23"/>
       <c r="AW102" s="23"/>
+      <c r="AX102" s="23"/>
     </row>
     <row r="103">
       <c r="AL103" s="23"/>
@@ -15596,6 +15894,7 @@
       <c r="AU103" s="23"/>
       <c r="AV103" s="23"/>
       <c r="AW103" s="23"/>
+      <c r="AX103" s="23"/>
     </row>
     <row r="104">
       <c r="AL104" s="23"/>
@@ -15610,6 +15909,7 @@
       <c r="AU104" s="23"/>
       <c r="AV104" s="23"/>
       <c r="AW104" s="23"/>
+      <c r="AX104" s="23"/>
     </row>
     <row r="105">
       <c r="AL105" s="23"/>
@@ -15624,6 +15924,7 @@
       <c r="AU105" s="23"/>
       <c r="AV105" s="23"/>
       <c r="AW105" s="23"/>
+      <c r="AX105" s="23"/>
     </row>
     <row r="106">
       <c r="AL106" s="23"/>
@@ -15638,6 +15939,7 @@
       <c r="AU106" s="23"/>
       <c r="AV106" s="23"/>
       <c r="AW106" s="23"/>
+      <c r="AX106" s="23"/>
     </row>
     <row r="107">
       <c r="AL107" s="23"/>
@@ -15652,6 +15954,7 @@
       <c r="AU107" s="23"/>
       <c r="AV107" s="23"/>
       <c r="AW107" s="23"/>
+      <c r="AX107" s="23"/>
     </row>
     <row r="108">
       <c r="AL108" s="23"/>
@@ -15666,6 +15969,7 @@
       <c r="AU108" s="23"/>
       <c r="AV108" s="23"/>
       <c r="AW108" s="23"/>
+      <c r="AX108" s="23"/>
     </row>
     <row r="109">
       <c r="AL109" s="23"/>
@@ -15680,6 +15984,7 @@
       <c r="AU109" s="23"/>
       <c r="AV109" s="23"/>
       <c r="AW109" s="23"/>
+      <c r="AX109" s="23"/>
     </row>
     <row r="110">
       <c r="AL110" s="23"/>
@@ -15694,6 +15999,7 @@
       <c r="AU110" s="23"/>
       <c r="AV110" s="23"/>
       <c r="AW110" s="23"/>
+      <c r="AX110" s="23"/>
     </row>
     <row r="111">
       <c r="AL111" s="23"/>
@@ -15708,6 +16014,7 @@
       <c r="AU111" s="23"/>
       <c r="AV111" s="23"/>
       <c r="AW111" s="23"/>
+      <c r="AX111" s="23"/>
     </row>
     <row r="112">
       <c r="AL112" s="23"/>
@@ -15722,6 +16029,7 @@
       <c r="AU112" s="23"/>
       <c r="AV112" s="23"/>
       <c r="AW112" s="23"/>
+      <c r="AX112" s="23"/>
     </row>
     <row r="113">
       <c r="AL113" s="23"/>
@@ -15736,6 +16044,7 @@
       <c r="AU113" s="23"/>
       <c r="AV113" s="23"/>
       <c r="AW113" s="23"/>
+      <c r="AX113" s="23"/>
     </row>
     <row r="114">
       <c r="AL114" s="23"/>
@@ -15750,6 +16059,7 @@
       <c r="AU114" s="23"/>
       <c r="AV114" s="23"/>
       <c r="AW114" s="23"/>
+      <c r="AX114" s="23"/>
     </row>
     <row r="115">
       <c r="AL115" s="23"/>
@@ -15764,6 +16074,7 @@
       <c r="AU115" s="23"/>
       <c r="AV115" s="23"/>
       <c r="AW115" s="23"/>
+      <c r="AX115" s="23"/>
     </row>
     <row r="116">
       <c r="AL116" s="23"/>
@@ -15778,6 +16089,7 @@
       <c r="AU116" s="23"/>
       <c r="AV116" s="23"/>
       <c r="AW116" s="23"/>
+      <c r="AX116" s="23"/>
     </row>
     <row r="117">
       <c r="AL117" s="23"/>
@@ -15792,6 +16104,7 @@
       <c r="AU117" s="23"/>
       <c r="AV117" s="23"/>
       <c r="AW117" s="23"/>
+      <c r="AX117" s="23"/>
     </row>
     <row r="118">
       <c r="AL118" s="23"/>
@@ -15806,6 +16119,7 @@
       <c r="AU118" s="23"/>
       <c r="AV118" s="23"/>
       <c r="AW118" s="23"/>
+      <c r="AX118" s="23"/>
     </row>
     <row r="119">
       <c r="AL119" s="23"/>
@@ -15820,6 +16134,7 @@
       <c r="AU119" s="23"/>
       <c r="AV119" s="23"/>
       <c r="AW119" s="23"/>
+      <c r="AX119" s="23"/>
     </row>
     <row r="120">
       <c r="AL120" s="23"/>
@@ -15834,6 +16149,7 @@
       <c r="AU120" s="23"/>
       <c r="AV120" s="23"/>
       <c r="AW120" s="23"/>
+      <c r="AX120" s="23"/>
     </row>
     <row r="121">
       <c r="AL121" s="23"/>
@@ -15848,6 +16164,7 @@
       <c r="AU121" s="23"/>
       <c r="AV121" s="23"/>
       <c r="AW121" s="23"/>
+      <c r="AX121" s="23"/>
     </row>
     <row r="122">
       <c r="AL122" s="23"/>
@@ -15862,6 +16179,7 @@
       <c r="AU122" s="23"/>
       <c r="AV122" s="23"/>
       <c r="AW122" s="23"/>
+      <c r="AX122" s="23"/>
     </row>
     <row r="123">
       <c r="AL123" s="23"/>
@@ -15876,6 +16194,7 @@
       <c r="AU123" s="23"/>
       <c r="AV123" s="23"/>
       <c r="AW123" s="23"/>
+      <c r="AX123" s="23"/>
     </row>
     <row r="124">
       <c r="AL124" s="23"/>
@@ -15890,6 +16209,7 @@
       <c r="AU124" s="23"/>
       <c r="AV124" s="23"/>
       <c r="AW124" s="23"/>
+      <c r="AX124" s="23"/>
     </row>
     <row r="125">
       <c r="AL125" s="23"/>
@@ -15904,6 +16224,7 @@
       <c r="AU125" s="23"/>
       <c r="AV125" s="23"/>
       <c r="AW125" s="23"/>
+      <c r="AX125" s="23"/>
     </row>
     <row r="126">
       <c r="AL126" s="23"/>
@@ -15918,6 +16239,7 @@
       <c r="AU126" s="23"/>
       <c r="AV126" s="23"/>
       <c r="AW126" s="23"/>
+      <c r="AX126" s="23"/>
     </row>
     <row r="127">
       <c r="AL127" s="23"/>
@@ -15932,6 +16254,7 @@
       <c r="AU127" s="23"/>
       <c r="AV127" s="23"/>
       <c r="AW127" s="23"/>
+      <c r="AX127" s="23"/>
     </row>
     <row r="128">
       <c r="AL128" s="23"/>
@@ -15946,6 +16269,7 @@
       <c r="AU128" s="23"/>
       <c r="AV128" s="23"/>
       <c r="AW128" s="23"/>
+      <c r="AX128" s="23"/>
     </row>
     <row r="129">
       <c r="AL129" s="23"/>
@@ -15960,6 +16284,7 @@
       <c r="AU129" s="23"/>
       <c r="AV129" s="23"/>
       <c r="AW129" s="23"/>
+      <c r="AX129" s="23"/>
     </row>
     <row r="130">
       <c r="AL130" s="23"/>
@@ -15974,6 +16299,7 @@
       <c r="AU130" s="23"/>
       <c r="AV130" s="23"/>
       <c r="AW130" s="23"/>
+      <c r="AX130" s="23"/>
     </row>
     <row r="131">
       <c r="AL131" s="23"/>
@@ -15988,6 +16314,7 @@
       <c r="AU131" s="23"/>
       <c r="AV131" s="23"/>
       <c r="AW131" s="23"/>
+      <c r="AX131" s="23"/>
     </row>
     <row r="132">
       <c r="AL132" s="23"/>
@@ -16002,6 +16329,7 @@
       <c r="AU132" s="23"/>
       <c r="AV132" s="23"/>
       <c r="AW132" s="23"/>
+      <c r="AX132" s="23"/>
     </row>
     <row r="133">
       <c r="AL133" s="23"/>
@@ -16016,6 +16344,7 @@
       <c r="AU133" s="23"/>
       <c r="AV133" s="23"/>
       <c r="AW133" s="23"/>
+      <c r="AX133" s="23"/>
     </row>
     <row r="134">
       <c r="AL134" s="23"/>
@@ -16030,6 +16359,7 @@
       <c r="AU134" s="23"/>
       <c r="AV134" s="23"/>
       <c r="AW134" s="23"/>
+      <c r="AX134" s="23"/>
     </row>
     <row r="135">
       <c r="AL135" s="23"/>
@@ -16044,6 +16374,7 @@
       <c r="AU135" s="23"/>
       <c r="AV135" s="23"/>
       <c r="AW135" s="23"/>
+      <c r="AX135" s="23"/>
     </row>
     <row r="136">
       <c r="AL136" s="23"/>
@@ -16058,6 +16389,7 @@
       <c r="AU136" s="23"/>
       <c r="AV136" s="23"/>
       <c r="AW136" s="23"/>
+      <c r="AX136" s="23"/>
     </row>
     <row r="137">
       <c r="AL137" s="23"/>
@@ -16072,6 +16404,7 @@
       <c r="AU137" s="23"/>
       <c r="AV137" s="23"/>
       <c r="AW137" s="23"/>
+      <c r="AX137" s="23"/>
     </row>
     <row r="138">
       <c r="AL138" s="23"/>
@@ -16086,6 +16419,7 @@
       <c r="AU138" s="23"/>
       <c r="AV138" s="23"/>
       <c r="AW138" s="23"/>
+      <c r="AX138" s="23"/>
     </row>
     <row r="139">
       <c r="AL139" s="23"/>
@@ -16100,6 +16434,7 @@
       <c r="AU139" s="23"/>
       <c r="AV139" s="23"/>
       <c r="AW139" s="23"/>
+      <c r="AX139" s="23"/>
     </row>
     <row r="140">
       <c r="AL140" s="23"/>
@@ -16114,6 +16449,7 @@
       <c r="AU140" s="23"/>
       <c r="AV140" s="23"/>
       <c r="AW140" s="23"/>
+      <c r="AX140" s="23"/>
     </row>
     <row r="141">
       <c r="AL141" s="23"/>
@@ -16128,6 +16464,7 @@
       <c r="AU141" s="23"/>
       <c r="AV141" s="23"/>
       <c r="AW141" s="23"/>
+      <c r="AX141" s="23"/>
     </row>
     <row r="142">
       <c r="AL142" s="23"/>
@@ -16142,6 +16479,7 @@
       <c r="AU142" s="23"/>
       <c r="AV142" s="23"/>
       <c r="AW142" s="23"/>
+      <c r="AX142" s="23"/>
     </row>
     <row r="143">
       <c r="AL143" s="23"/>
@@ -16156,6 +16494,7 @@
       <c r="AU143" s="23"/>
       <c r="AV143" s="23"/>
       <c r="AW143" s="23"/>
+      <c r="AX143" s="23"/>
     </row>
     <row r="144">
       <c r="AL144" s="23"/>
@@ -16170,6 +16509,7 @@
       <c r="AU144" s="23"/>
       <c r="AV144" s="23"/>
       <c r="AW144" s="23"/>
+      <c r="AX144" s="23"/>
     </row>
     <row r="145">
       <c r="AL145" s="23"/>
@@ -16184,6 +16524,7 @@
       <c r="AU145" s="23"/>
       <c r="AV145" s="23"/>
       <c r="AW145" s="23"/>
+      <c r="AX145" s="23"/>
     </row>
     <row r="146">
       <c r="AL146" s="23"/>
@@ -16198,6 +16539,7 @@
       <c r="AU146" s="23"/>
       <c r="AV146" s="23"/>
       <c r="AW146" s="23"/>
+      <c r="AX146" s="23"/>
     </row>
     <row r="147">
       <c r="AL147" s="23"/>
@@ -16212,6 +16554,7 @@
       <c r="AU147" s="23"/>
       <c r="AV147" s="23"/>
       <c r="AW147" s="23"/>
+      <c r="AX147" s="23"/>
     </row>
     <row r="148">
       <c r="AL148" s="23"/>
@@ -16226,6 +16569,7 @@
       <c r="AU148" s="23"/>
       <c r="AV148" s="23"/>
       <c r="AW148" s="23"/>
+      <c r="AX148" s="23"/>
     </row>
     <row r="149">
       <c r="AL149" s="23"/>
@@ -16240,6 +16584,7 @@
       <c r="AU149" s="23"/>
       <c r="AV149" s="23"/>
       <c r="AW149" s="23"/>
+      <c r="AX149" s="23"/>
     </row>
     <row r="150">
       <c r="AL150" s="23"/>
@@ -16254,6 +16599,7 @@
       <c r="AU150" s="23"/>
       <c r="AV150" s="23"/>
       <c r="AW150" s="23"/>
+      <c r="AX150" s="23"/>
     </row>
     <row r="151">
       <c r="AL151" s="23"/>
@@ -16268,6 +16614,7 @@
       <c r="AU151" s="23"/>
       <c r="AV151" s="23"/>
       <c r="AW151" s="23"/>
+      <c r="AX151" s="23"/>
     </row>
     <row r="152">
       <c r="AL152" s="23"/>
@@ -16282,6 +16629,7 @@
       <c r="AU152" s="23"/>
       <c r="AV152" s="23"/>
       <c r="AW152" s="23"/>
+      <c r="AX152" s="23"/>
     </row>
     <row r="153">
       <c r="AL153" s="23"/>
@@ -16296,6 +16644,7 @@
       <c r="AU153" s="23"/>
       <c r="AV153" s="23"/>
       <c r="AW153" s="23"/>
+      <c r="AX153" s="23"/>
     </row>
     <row r="154">
       <c r="AL154" s="23"/>
@@ -16310,6 +16659,7 @@
       <c r="AU154" s="23"/>
       <c r="AV154" s="23"/>
       <c r="AW154" s="23"/>
+      <c r="AX154" s="23"/>
     </row>
     <row r="155">
       <c r="AL155" s="23"/>
@@ -16324,6 +16674,7 @@
       <c r="AU155" s="23"/>
       <c r="AV155" s="23"/>
       <c r="AW155" s="23"/>
+      <c r="AX155" s="23"/>
     </row>
     <row r="156">
       <c r="AL156" s="23"/>
@@ -16338,6 +16689,7 @@
       <c r="AU156" s="23"/>
       <c r="AV156" s="23"/>
       <c r="AW156" s="23"/>
+      <c r="AX156" s="23"/>
     </row>
     <row r="157">
       <c r="AL157" s="23"/>
@@ -16352,6 +16704,7 @@
       <c r="AU157" s="23"/>
       <c r="AV157" s="23"/>
       <c r="AW157" s="23"/>
+      <c r="AX157" s="23"/>
     </row>
     <row r="158">
       <c r="AL158" s="23"/>
@@ -16366,6 +16719,7 @@
       <c r="AU158" s="23"/>
       <c r="AV158" s="23"/>
       <c r="AW158" s="23"/>
+      <c r="AX158" s="23"/>
     </row>
     <row r="159">
       <c r="AL159" s="23"/>
@@ -16380,6 +16734,7 @@
       <c r="AU159" s="23"/>
       <c r="AV159" s="23"/>
       <c r="AW159" s="23"/>
+      <c r="AX159" s="23"/>
     </row>
     <row r="160">
       <c r="AL160" s="23"/>
@@ -16394,6 +16749,7 @@
       <c r="AU160" s="23"/>
       <c r="AV160" s="23"/>
       <c r="AW160" s="23"/>
+      <c r="AX160" s="23"/>
     </row>
     <row r="161">
       <c r="AL161" s="23"/>
@@ -16408,6 +16764,7 @@
       <c r="AU161" s="23"/>
       <c r="AV161" s="23"/>
       <c r="AW161" s="23"/>
+      <c r="AX161" s="23"/>
     </row>
     <row r="162">
       <c r="AL162" s="23"/>
@@ -16422,6 +16779,7 @@
       <c r="AU162" s="23"/>
       <c r="AV162" s="23"/>
       <c r="AW162" s="23"/>
+      <c r="AX162" s="23"/>
     </row>
     <row r="163">
       <c r="AL163" s="23"/>
@@ -16436,6 +16794,7 @@
       <c r="AU163" s="23"/>
       <c r="AV163" s="23"/>
       <c r="AW163" s="23"/>
+      <c r="AX163" s="23"/>
     </row>
     <row r="164">
       <c r="AL164" s="23"/>
@@ -16450,6 +16809,7 @@
       <c r="AU164" s="23"/>
       <c r="AV164" s="23"/>
       <c r="AW164" s="23"/>
+      <c r="AX164" s="23"/>
     </row>
     <row r="165">
       <c r="AL165" s="23"/>
@@ -16464,6 +16824,7 @@
       <c r="AU165" s="23"/>
       <c r="AV165" s="23"/>
       <c r="AW165" s="23"/>
+      <c r="AX165" s="23"/>
     </row>
     <row r="166">
       <c r="AL166" s="23"/>
@@ -16478,6 +16839,7 @@
       <c r="AU166" s="23"/>
       <c r="AV166" s="23"/>
       <c r="AW166" s="23"/>
+      <c r="AX166" s="23"/>
     </row>
     <row r="167">
       <c r="AL167" s="23"/>
@@ -16492,6 +16854,7 @@
       <c r="AU167" s="23"/>
       <c r="AV167" s="23"/>
       <c r="AW167" s="23"/>
+      <c r="AX167" s="23"/>
     </row>
     <row r="168">
       <c r="AL168" s="23"/>
@@ -16506,6 +16869,7 @@
       <c r="AU168" s="23"/>
       <c r="AV168" s="23"/>
       <c r="AW168" s="23"/>
+      <c r="AX168" s="23"/>
     </row>
     <row r="169">
       <c r="AL169" s="23"/>
@@ -16520,6 +16884,7 @@
       <c r="AU169" s="23"/>
       <c r="AV169" s="23"/>
       <c r="AW169" s="23"/>
+      <c r="AX169" s="23"/>
     </row>
     <row r="170">
       <c r="AL170" s="23"/>
@@ -16534,6 +16899,7 @@
       <c r="AU170" s="23"/>
       <c r="AV170" s="23"/>
       <c r="AW170" s="23"/>
+      <c r="AX170" s="23"/>
     </row>
     <row r="171">
       <c r="AL171" s="23"/>
@@ -16548,6 +16914,7 @@
       <c r="AU171" s="23"/>
       <c r="AV171" s="23"/>
       <c r="AW171" s="23"/>
+      <c r="AX171" s="23"/>
     </row>
     <row r="172">
       <c r="AL172" s="23"/>
@@ -16562,6 +16929,7 @@
       <c r="AU172" s="23"/>
       <c r="AV172" s="23"/>
       <c r="AW172" s="23"/>
+      <c r="AX172" s="23"/>
     </row>
     <row r="173">
       <c r="AL173" s="23"/>
@@ -16576,6 +16944,7 @@
       <c r="AU173" s="23"/>
       <c r="AV173" s="23"/>
       <c r="AW173" s="23"/>
+      <c r="AX173" s="23"/>
     </row>
     <row r="174">
       <c r="AL174" s="23"/>
@@ -16590,6 +16959,7 @@
       <c r="AU174" s="23"/>
       <c r="AV174" s="23"/>
       <c r="AW174" s="23"/>
+      <c r="AX174" s="23"/>
     </row>
     <row r="175">
       <c r="AL175" s="23"/>
@@ -16604,6 +16974,7 @@
       <c r="AU175" s="23"/>
       <c r="AV175" s="23"/>
       <c r="AW175" s="23"/>
+      <c r="AX175" s="23"/>
     </row>
     <row r="176">
       <c r="AL176" s="23"/>
@@ -16618,6 +16989,7 @@
       <c r="AU176" s="23"/>
       <c r="AV176" s="23"/>
       <c r="AW176" s="23"/>
+      <c r="AX176" s="23"/>
     </row>
     <row r="177">
       <c r="AL177" s="23"/>
@@ -16632,6 +17004,7 @@
       <c r="AU177" s="23"/>
       <c r="AV177" s="23"/>
       <c r="AW177" s="23"/>
+      <c r="AX177" s="23"/>
     </row>
     <row r="178">
       <c r="H178" s="16"/>
@@ -16647,6 +17020,7 @@
       <c r="AU178" s="23"/>
       <c r="AV178" s="23"/>
       <c r="AW178" s="23"/>
+      <c r="AX178" s="23"/>
     </row>
     <row r="179">
       <c r="AL179" s="23"/>
@@ -16661,6 +17035,7 @@
       <c r="AU179" s="23"/>
       <c r="AV179" s="23"/>
       <c r="AW179" s="23"/>
+      <c r="AX179" s="23"/>
     </row>
     <row r="180">
       <c r="AL180" s="23"/>
@@ -16675,6 +17050,7 @@
       <c r="AU180" s="23"/>
       <c r="AV180" s="23"/>
       <c r="AW180" s="23"/>
+      <c r="AX180" s="23"/>
     </row>
     <row r="181">
       <c r="AL181" s="23"/>
@@ -16689,6 +17065,7 @@
       <c r="AU181" s="23"/>
       <c r="AV181" s="23"/>
       <c r="AW181" s="23"/>
+      <c r="AX181" s="23"/>
     </row>
     <row r="182">
       <c r="AL182" s="23"/>
@@ -16703,6 +17080,7 @@
       <c r="AU182" s="23"/>
       <c r="AV182" s="23"/>
       <c r="AW182" s="23"/>
+      <c r="AX182" s="23"/>
     </row>
     <row r="183">
       <c r="AL183" s="23"/>
@@ -16717,6 +17095,7 @@
       <c r="AU183" s="23"/>
       <c r="AV183" s="23"/>
       <c r="AW183" s="23"/>
+      <c r="AX183" s="23"/>
     </row>
     <row r="184">
       <c r="AL184" s="23"/>
@@ -16731,6 +17110,7 @@
       <c r="AU184" s="23"/>
       <c r="AV184" s="23"/>
       <c r="AW184" s="23"/>
+      <c r="AX184" s="23"/>
     </row>
     <row r="185">
       <c r="AL185" s="23"/>
@@ -16745,6 +17125,7 @@
       <c r="AU185" s="23"/>
       <c r="AV185" s="23"/>
       <c r="AW185" s="23"/>
+      <c r="AX185" s="23"/>
     </row>
     <row r="186">
       <c r="AL186" s="23"/>
@@ -16759,6 +17140,7 @@
       <c r="AU186" s="23"/>
       <c r="AV186" s="23"/>
       <c r="AW186" s="23"/>
+      <c r="AX186" s="23"/>
     </row>
     <row r="187">
       <c r="AL187" s="23"/>
@@ -16773,6 +17155,7 @@
       <c r="AU187" s="23"/>
       <c r="AV187" s="23"/>
       <c r="AW187" s="23"/>
+      <c r="AX187" s="23"/>
     </row>
     <row r="188">
       <c r="AL188" s="23"/>
@@ -16787,6 +17170,7 @@
       <c r="AU188" s="23"/>
       <c r="AV188" s="23"/>
       <c r="AW188" s="23"/>
+      <c r="AX188" s="23"/>
     </row>
     <row r="189">
       <c r="AL189" s="23"/>
@@ -16801,6 +17185,7 @@
       <c r="AU189" s="23"/>
       <c r="AV189" s="23"/>
       <c r="AW189" s="23"/>
+      <c r="AX189" s="23"/>
     </row>
     <row r="190">
       <c r="AL190" s="23"/>
@@ -16815,6 +17200,7 @@
       <c r="AU190" s="23"/>
       <c r="AV190" s="23"/>
       <c r="AW190" s="23"/>
+      <c r="AX190" s="23"/>
     </row>
     <row r="191">
       <c r="AL191" s="23"/>
@@ -16829,6 +17215,7 @@
       <c r="AU191" s="23"/>
       <c r="AV191" s="23"/>
       <c r="AW191" s="23"/>
+      <c r="AX191" s="23"/>
     </row>
     <row r="192">
       <c r="AL192" s="23"/>
@@ -16843,6 +17230,7 @@
       <c r="AU192" s="23"/>
       <c r="AV192" s="23"/>
       <c r="AW192" s="23"/>
+      <c r="AX192" s="23"/>
     </row>
     <row r="193">
       <c r="AL193" s="23"/>
@@ -16857,6 +17245,7 @@
       <c r="AU193" s="23"/>
       <c r="AV193" s="23"/>
       <c r="AW193" s="23"/>
+      <c r="AX193" s="23"/>
     </row>
     <row r="194">
       <c r="AL194" s="23"/>
@@ -16871,6 +17260,7 @@
       <c r="AU194" s="23"/>
       <c r="AV194" s="23"/>
       <c r="AW194" s="23"/>
+      <c r="AX194" s="23"/>
     </row>
     <row r="195">
       <c r="AL195" s="23"/>
@@ -16885,6 +17275,7 @@
       <c r="AU195" s="23"/>
       <c r="AV195" s="23"/>
       <c r="AW195" s="23"/>
+      <c r="AX195" s="23"/>
     </row>
     <row r="196">
       <c r="AL196" s="23"/>
@@ -16899,6 +17290,7 @@
       <c r="AU196" s="23"/>
       <c r="AV196" s="23"/>
       <c r="AW196" s="23"/>
+      <c r="AX196" s="23"/>
     </row>
     <row r="197">
       <c r="AL197" s="23"/>
@@ -16913,6 +17305,7 @@
       <c r="AU197" s="23"/>
       <c r="AV197" s="23"/>
       <c r="AW197" s="23"/>
+      <c r="AX197" s="23"/>
     </row>
     <row r="198">
       <c r="AL198" s="23"/>
@@ -16927,6 +17320,7 @@
       <c r="AU198" s="23"/>
       <c r="AV198" s="23"/>
       <c r="AW198" s="23"/>
+      <c r="AX198" s="23"/>
     </row>
     <row r="199">
       <c r="AL199" s="23"/>
@@ -16941,6 +17335,7 @@
       <c r="AU199" s="23"/>
       <c r="AV199" s="23"/>
       <c r="AW199" s="23"/>
+      <c r="AX199" s="23"/>
     </row>
     <row r="200">
       <c r="AL200" s="23"/>
@@ -16955,6 +17350,7 @@
       <c r="AU200" s="23"/>
       <c r="AV200" s="23"/>
       <c r="AW200" s="23"/>
+      <c r="AX200" s="23"/>
     </row>
     <row r="201">
       <c r="AL201" s="23"/>
@@ -16969,6 +17365,7 @@
       <c r="AU201" s="23"/>
       <c r="AV201" s="23"/>
       <c r="AW201" s="23"/>
+      <c r="AX201" s="23"/>
     </row>
     <row r="202">
       <c r="AL202" s="23"/>
@@ -16983,6 +17380,7 @@
       <c r="AU202" s="23"/>
       <c r="AV202" s="23"/>
       <c r="AW202" s="23"/>
+      <c r="AX202" s="23"/>
     </row>
     <row r="203">
       <c r="AL203" s="23"/>
@@ -16997,6 +17395,7 @@
       <c r="AU203" s="23"/>
       <c r="AV203" s="23"/>
       <c r="AW203" s="23"/>
+      <c r="AX203" s="23"/>
     </row>
     <row r="204">
       <c r="AL204" s="23"/>
@@ -17011,6 +17410,7 @@
       <c r="AU204" s="23"/>
       <c r="AV204" s="23"/>
       <c r="AW204" s="23"/>
+      <c r="AX204" s="23"/>
     </row>
     <row r="205">
       <c r="AL205" s="23"/>
@@ -17025,6 +17425,7 @@
       <c r="AU205" s="23"/>
       <c r="AV205" s="23"/>
       <c r="AW205" s="23"/>
+      <c r="AX205" s="23"/>
     </row>
     <row r="206">
       <c r="AL206" s="23"/>
@@ -17039,6 +17440,7 @@
       <c r="AU206" s="23"/>
       <c r="AV206" s="23"/>
       <c r="AW206" s="23"/>
+      <c r="AX206" s="23"/>
     </row>
     <row r="207">
       <c r="AL207" s="23"/>
@@ -17053,6 +17455,7 @@
       <c r="AU207" s="23"/>
       <c r="AV207" s="23"/>
       <c r="AW207" s="23"/>
+      <c r="AX207" s="23"/>
     </row>
     <row r="208">
       <c r="AL208" s="23"/>
@@ -17067,6 +17470,7 @@
       <c r="AU208" s="23"/>
       <c r="AV208" s="23"/>
       <c r="AW208" s="23"/>
+      <c r="AX208" s="23"/>
     </row>
     <row r="209">
       <c r="AL209" s="23"/>
@@ -17081,6 +17485,7 @@
       <c r="AU209" s="23"/>
       <c r="AV209" s="23"/>
       <c r="AW209" s="23"/>
+      <c r="AX209" s="23"/>
     </row>
     <row r="210">
       <c r="AL210" s="23"/>
@@ -17095,6 +17500,7 @@
       <c r="AU210" s="23"/>
       <c r="AV210" s="23"/>
       <c r="AW210" s="23"/>
+      <c r="AX210" s="23"/>
     </row>
     <row r="211">
       <c r="AL211" s="23"/>
@@ -17109,6 +17515,7 @@
       <c r="AU211" s="23"/>
       <c r="AV211" s="23"/>
       <c r="AW211" s="23"/>
+      <c r="AX211" s="23"/>
     </row>
     <row r="212">
       <c r="AL212" s="23"/>
@@ -17123,6 +17530,7 @@
       <c r="AU212" s="23"/>
       <c r="AV212" s="23"/>
       <c r="AW212" s="23"/>
+      <c r="AX212" s="23"/>
     </row>
     <row r="213">
       <c r="AL213" s="23"/>
@@ -17137,6 +17545,7 @@
       <c r="AU213" s="23"/>
       <c r="AV213" s="23"/>
       <c r="AW213" s="23"/>
+      <c r="AX213" s="23"/>
     </row>
     <row r="214">
       <c r="AL214" s="23"/>
@@ -17151,6 +17560,7 @@
       <c r="AU214" s="23"/>
       <c r="AV214" s="23"/>
       <c r="AW214" s="23"/>
+      <c r="AX214" s="23"/>
     </row>
     <row r="215">
       <c r="AL215" s="23"/>
@@ -17165,6 +17575,7 @@
       <c r="AU215" s="23"/>
       <c r="AV215" s="23"/>
       <c r="AW215" s="23"/>
+      <c r="AX215" s="23"/>
     </row>
     <row r="216">
       <c r="AL216" s="23"/>
@@ -17179,6 +17590,7 @@
       <c r="AU216" s="23"/>
       <c r="AV216" s="23"/>
       <c r="AW216" s="23"/>
+      <c r="AX216" s="23"/>
     </row>
     <row r="217">
       <c r="AL217" s="23"/>
@@ -17193,6 +17605,7 @@
       <c r="AU217" s="23"/>
       <c r="AV217" s="23"/>
       <c r="AW217" s="23"/>
+      <c r="AX217" s="23"/>
     </row>
     <row r="218">
       <c r="AL218" s="23"/>
@@ -17207,6 +17620,7 @@
       <c r="AU218" s="23"/>
       <c r="AV218" s="23"/>
       <c r="AW218" s="23"/>
+      <c r="AX218" s="23"/>
     </row>
     <row r="219">
       <c r="AL219" s="23"/>
@@ -17221,6 +17635,7 @@
       <c r="AU219" s="23"/>
       <c r="AV219" s="23"/>
       <c r="AW219" s="23"/>
+      <c r="AX219" s="23"/>
     </row>
     <row r="220">
       <c r="AL220" s="23"/>
@@ -17235,6 +17650,7 @@
       <c r="AU220" s="23"/>
       <c r="AV220" s="23"/>
       <c r="AW220" s="23"/>
+      <c r="AX220" s="23"/>
     </row>
     <row r="221">
       <c r="AL221" s="23"/>
@@ -17249,6 +17665,7 @@
       <c r="AU221" s="23"/>
       <c r="AV221" s="23"/>
       <c r="AW221" s="23"/>
+      <c r="AX221" s="23"/>
     </row>
     <row r="222">
       <c r="AL222" s="23"/>
@@ -17263,6 +17680,7 @@
       <c r="AU222" s="23"/>
       <c r="AV222" s="23"/>
       <c r="AW222" s="23"/>
+      <c r="AX222" s="23"/>
     </row>
     <row r="223">
       <c r="AL223" s="23"/>
@@ -17277,6 +17695,7 @@
       <c r="AU223" s="23"/>
       <c r="AV223" s="23"/>
       <c r="AW223" s="23"/>
+      <c r="AX223" s="23"/>
     </row>
     <row r="224">
       <c r="AL224" s="23"/>
@@ -17291,6 +17710,7 @@
       <c r="AU224" s="23"/>
       <c r="AV224" s="23"/>
       <c r="AW224" s="23"/>
+      <c r="AX224" s="23"/>
     </row>
     <row r="225">
       <c r="AL225" s="23"/>
@@ -17305,6 +17725,7 @@
       <c r="AU225" s="23"/>
       <c r="AV225" s="23"/>
       <c r="AW225" s="23"/>
+      <c r="AX225" s="23"/>
     </row>
     <row r="226">
       <c r="AL226" s="23"/>
@@ -17319,6 +17740,7 @@
       <c r="AU226" s="23"/>
       <c r="AV226" s="23"/>
       <c r="AW226" s="23"/>
+      <c r="AX226" s="23"/>
     </row>
     <row r="227">
       <c r="AL227" s="23"/>
@@ -17333,6 +17755,7 @@
       <c r="AU227" s="23"/>
       <c r="AV227" s="23"/>
       <c r="AW227" s="23"/>
+      <c r="AX227" s="23"/>
     </row>
     <row r="228">
       <c r="AL228" s="23"/>
@@ -17347,6 +17770,7 @@
       <c r="AU228" s="23"/>
       <c r="AV228" s="23"/>
       <c r="AW228" s="23"/>
+      <c r="AX228" s="23"/>
     </row>
     <row r="229">
       <c r="AL229" s="23"/>
@@ -17361,6 +17785,7 @@
       <c r="AU229" s="23"/>
       <c r="AV229" s="23"/>
       <c r="AW229" s="23"/>
+      <c r="AX229" s="23"/>
     </row>
     <row r="230">
       <c r="AL230" s="23"/>
@@ -17375,6 +17800,7 @@
       <c r="AU230" s="23"/>
       <c r="AV230" s="23"/>
       <c r="AW230" s="23"/>
+      <c r="AX230" s="23"/>
     </row>
     <row r="231">
       <c r="AL231" s="23"/>
@@ -17389,6 +17815,7 @@
       <c r="AU231" s="23"/>
       <c r="AV231" s="23"/>
       <c r="AW231" s="23"/>
+      <c r="AX231" s="23"/>
     </row>
     <row r="232">
       <c r="AL232" s="23"/>
@@ -17403,6 +17830,7 @@
       <c r="AU232" s="23"/>
       <c r="AV232" s="23"/>
       <c r="AW232" s="23"/>
+      <c r="AX232" s="23"/>
     </row>
     <row r="233">
       <c r="AL233" s="23"/>
@@ -17417,6 +17845,7 @@
       <c r="AU233" s="23"/>
       <c r="AV233" s="23"/>
       <c r="AW233" s="23"/>
+      <c r="AX233" s="23"/>
     </row>
     <row r="234">
       <c r="AL234" s="23"/>
@@ -17431,6 +17860,7 @@
       <c r="AU234" s="23"/>
       <c r="AV234" s="23"/>
       <c r="AW234" s="23"/>
+      <c r="AX234" s="23"/>
     </row>
     <row r="235">
       <c r="AL235" s="23"/>
@@ -17445,6 +17875,7 @@
       <c r="AU235" s="23"/>
       <c r="AV235" s="23"/>
       <c r="AW235" s="23"/>
+      <c r="AX235" s="23"/>
     </row>
     <row r="236">
       <c r="AL236" s="23"/>
@@ -17459,6 +17890,7 @@
       <c r="AU236" s="23"/>
       <c r="AV236" s="23"/>
       <c r="AW236" s="23"/>
+      <c r="AX236" s="23"/>
     </row>
     <row r="237">
       <c r="AL237" s="23"/>
@@ -17473,6 +17905,7 @@
       <c r="AU237" s="23"/>
       <c r="AV237" s="23"/>
       <c r="AW237" s="23"/>
+      <c r="AX237" s="23"/>
     </row>
     <row r="238">
       <c r="AL238" s="23"/>
@@ -17487,6 +17920,7 @@
       <c r="AU238" s="23"/>
       <c r="AV238" s="23"/>
       <c r="AW238" s="23"/>
+      <c r="AX238" s="23"/>
     </row>
     <row r="239">
       <c r="AL239" s="23"/>
@@ -17501,6 +17935,7 @@
       <c r="AU239" s="23"/>
       <c r="AV239" s="23"/>
       <c r="AW239" s="23"/>
+      <c r="AX239" s="23"/>
     </row>
     <row r="240">
       <c r="AL240" s="23"/>
@@ -17515,6 +17950,7 @@
       <c r="AU240" s="23"/>
       <c r="AV240" s="23"/>
       <c r="AW240" s="23"/>
+      <c r="AX240" s="23"/>
     </row>
     <row r="241">
       <c r="AL241" s="23"/>
@@ -17529,6 +17965,7 @@
       <c r="AU241" s="23"/>
       <c r="AV241" s="23"/>
       <c r="AW241" s="23"/>
+      <c r="AX241" s="23"/>
     </row>
     <row r="242">
       <c r="AL242" s="23"/>
@@ -17543,6 +17980,7 @@
       <c r="AU242" s="23"/>
       <c r="AV242" s="23"/>
       <c r="AW242" s="23"/>
+      <c r="AX242" s="23"/>
     </row>
     <row r="243">
       <c r="AL243" s="23"/>
@@ -17557,6 +17995,7 @@
       <c r="AU243" s="23"/>
       <c r="AV243" s="23"/>
       <c r="AW243" s="23"/>
+      <c r="AX243" s="23"/>
     </row>
     <row r="244">
       <c r="AL244" s="23"/>
@@ -17571,6 +18010,7 @@
       <c r="AU244" s="23"/>
       <c r="AV244" s="23"/>
       <c r="AW244" s="23"/>
+      <c r="AX244" s="23"/>
     </row>
     <row r="245">
       <c r="AL245" s="23"/>
@@ -17585,6 +18025,7 @@
       <c r="AU245" s="23"/>
       <c r="AV245" s="23"/>
       <c r="AW245" s="23"/>
+      <c r="AX245" s="23"/>
     </row>
     <row r="246">
       <c r="AL246" s="23"/>
@@ -17599,6 +18040,7 @@
       <c r="AU246" s="23"/>
       <c r="AV246" s="23"/>
       <c r="AW246" s="23"/>
+      <c r="AX246" s="23"/>
     </row>
     <row r="247">
       <c r="AL247" s="23"/>
@@ -17613,6 +18055,7 @@
       <c r="AU247" s="23"/>
       <c r="AV247" s="23"/>
       <c r="AW247" s="23"/>
+      <c r="AX247" s="23"/>
     </row>
     <row r="248">
       <c r="AL248" s="23"/>
@@ -17627,6 +18070,7 @@
       <c r="AU248" s="23"/>
       <c r="AV248" s="23"/>
       <c r="AW248" s="23"/>
+      <c r="AX248" s="23"/>
     </row>
     <row r="249">
       <c r="AL249" s="23"/>
@@ -17641,6 +18085,7 @@
       <c r="AU249" s="23"/>
       <c r="AV249" s="23"/>
       <c r="AW249" s="23"/>
+      <c r="AX249" s="23"/>
     </row>
     <row r="250">
       <c r="AL250" s="23"/>
@@ -17655,6 +18100,7 @@
       <c r="AU250" s="23"/>
       <c r="AV250" s="23"/>
       <c r="AW250" s="23"/>
+      <c r="AX250" s="23"/>
     </row>
     <row r="251">
       <c r="AL251" s="23"/>
@@ -17669,6 +18115,7 @@
       <c r="AU251" s="23"/>
       <c r="AV251" s="23"/>
       <c r="AW251" s="23"/>
+      <c r="AX251" s="23"/>
     </row>
     <row r="252">
       <c r="AL252" s="23"/>
@@ -17683,6 +18130,7 @@
       <c r="AU252" s="23"/>
       <c r="AV252" s="23"/>
       <c r="AW252" s="23"/>
+      <c r="AX252" s="23"/>
     </row>
     <row r="253">
       <c r="AL253" s="23"/>
@@ -17697,6 +18145,7 @@
       <c r="AU253" s="23"/>
       <c r="AV253" s="23"/>
       <c r="AW253" s="23"/>
+      <c r="AX253" s="23"/>
     </row>
     <row r="254">
       <c r="AL254" s="23"/>
@@ -17711,6 +18160,7 @@
       <c r="AU254" s="23"/>
       <c r="AV254" s="23"/>
       <c r="AW254" s="23"/>
+      <c r="AX254" s="23"/>
     </row>
     <row r="255">
       <c r="AL255" s="23"/>
@@ -17725,6 +18175,7 @@
       <c r="AU255" s="23"/>
       <c r="AV255" s="23"/>
       <c r="AW255" s="23"/>
+      <c r="AX255" s="23"/>
     </row>
     <row r="256">
       <c r="AL256" s="23"/>
@@ -17739,6 +18190,7 @@
       <c r="AU256" s="23"/>
       <c r="AV256" s="23"/>
       <c r="AW256" s="23"/>
+      <c r="AX256" s="23"/>
     </row>
     <row r="257">
       <c r="AL257" s="23"/>
@@ -17753,6 +18205,7 @@
       <c r="AU257" s="23"/>
       <c r="AV257" s="23"/>
       <c r="AW257" s="23"/>
+      <c r="AX257" s="23"/>
     </row>
     <row r="258">
       <c r="AL258" s="23"/>
@@ -17767,6 +18220,7 @@
       <c r="AU258" s="23"/>
       <c r="AV258" s="23"/>
       <c r="AW258" s="23"/>
+      <c r="AX258" s="23"/>
     </row>
     <row r="259">
       <c r="AL259" s="23"/>
@@ -17781,6 +18235,7 @@
       <c r="AU259" s="23"/>
       <c r="AV259" s="23"/>
       <c r="AW259" s="23"/>
+      <c r="AX259" s="23"/>
     </row>
     <row r="260">
       <c r="AL260" s="23"/>
@@ -17795,6 +18250,7 @@
       <c r="AU260" s="23"/>
       <c r="AV260" s="23"/>
       <c r="AW260" s="23"/>
+      <c r="AX260" s="23"/>
     </row>
     <row r="261">
       <c r="AL261" s="23"/>
@@ -17809,6 +18265,7 @@
       <c r="AU261" s="23"/>
       <c r="AV261" s="23"/>
       <c r="AW261" s="23"/>
+      <c r="AX261" s="23"/>
     </row>
     <row r="262">
       <c r="AL262" s="23"/>
@@ -17823,6 +18280,7 @@
       <c r="AU262" s="23"/>
       <c r="AV262" s="23"/>
       <c r="AW262" s="23"/>
+      <c r="AX262" s="23"/>
     </row>
     <row r="263">
       <c r="AL263" s="23"/>
@@ -17837,6 +18295,7 @@
       <c r="AU263" s="23"/>
       <c r="AV263" s="23"/>
       <c r="AW263" s="23"/>
+      <c r="AX263" s="23"/>
     </row>
     <row r="264">
       <c r="AL264" s="23"/>
@@ -17851,6 +18310,7 @@
       <c r="AU264" s="23"/>
       <c r="AV264" s="23"/>
       <c r="AW264" s="23"/>
+      <c r="AX264" s="23"/>
     </row>
     <row r="265">
       <c r="AL265" s="23"/>
@@ -17865,6 +18325,7 @@
       <c r="AU265" s="23"/>
       <c r="AV265" s="23"/>
       <c r="AW265" s="23"/>
+      <c r="AX265" s="23"/>
     </row>
     <row r="266">
       <c r="AL266" s="23"/>
@@ -17879,6 +18340,7 @@
       <c r="AU266" s="23"/>
       <c r="AV266" s="23"/>
       <c r="AW266" s="23"/>
+      <c r="AX266" s="23"/>
     </row>
     <row r="267">
       <c r="AL267" s="23"/>
@@ -17893,6 +18355,7 @@
       <c r="AU267" s="23"/>
       <c r="AV267" s="23"/>
       <c r="AW267" s="23"/>
+      <c r="AX267" s="23"/>
     </row>
     <row r="268">
       <c r="AL268" s="23"/>
@@ -17907,6 +18370,7 @@
       <c r="AU268" s="23"/>
       <c r="AV268" s="23"/>
       <c r="AW268" s="23"/>
+      <c r="AX268" s="23"/>
     </row>
     <row r="269">
       <c r="AL269" s="23"/>
@@ -17921,6 +18385,7 @@
       <c r="AU269" s="23"/>
       <c r="AV269" s="23"/>
       <c r="AW269" s="23"/>
+      <c r="AX269" s="23"/>
     </row>
     <row r="270">
       <c r="AL270" s="23"/>
@@ -17935,6 +18400,7 @@
       <c r="AU270" s="23"/>
       <c r="AV270" s="23"/>
       <c r="AW270" s="23"/>
+      <c r="AX270" s="23"/>
     </row>
     <row r="271">
       <c r="AL271" s="23"/>
@@ -17949,6 +18415,7 @@
       <c r="AU271" s="23"/>
       <c r="AV271" s="23"/>
       <c r="AW271" s="23"/>
+      <c r="AX271" s="23"/>
     </row>
     <row r="272">
       <c r="AL272" s="23"/>
@@ -17963,6 +18430,7 @@
       <c r="AU272" s="23"/>
       <c r="AV272" s="23"/>
       <c r="AW272" s="23"/>
+      <c r="AX272" s="23"/>
     </row>
     <row r="273">
       <c r="AL273" s="23"/>
@@ -17977,6 +18445,7 @@
       <c r="AU273" s="23"/>
       <c r="AV273" s="23"/>
       <c r="AW273" s="23"/>
+      <c r="AX273" s="23"/>
     </row>
     <row r="274">
       <c r="AL274" s="23"/>
@@ -17991,6 +18460,7 @@
       <c r="AU274" s="23"/>
       <c r="AV274" s="23"/>
       <c r="AW274" s="23"/>
+      <c r="AX274" s="23"/>
     </row>
     <row r="275">
       <c r="AL275" s="23"/>
@@ -18005,6 +18475,7 @@
       <c r="AU275" s="23"/>
       <c r="AV275" s="23"/>
       <c r="AW275" s="23"/>
+      <c r="AX275" s="23"/>
     </row>
     <row r="276">
       <c r="AL276" s="23"/>
@@ -18019,6 +18490,7 @@
       <c r="AU276" s="23"/>
       <c r="AV276" s="23"/>
       <c r="AW276" s="23"/>
+      <c r="AX276" s="23"/>
     </row>
     <row r="277">
       <c r="AL277" s="23"/>
@@ -18033,6 +18505,7 @@
       <c r="AU277" s="23"/>
       <c r="AV277" s="23"/>
       <c r="AW277" s="23"/>
+      <c r="AX277" s="23"/>
     </row>
     <row r="278">
       <c r="AL278" s="23"/>
@@ -18047,6 +18520,7 @@
       <c r="AU278" s="23"/>
       <c r="AV278" s="23"/>
       <c r="AW278" s="23"/>
+      <c r="AX278" s="23"/>
     </row>
     <row r="279">
       <c r="AL279" s="23"/>
@@ -18061,6 +18535,7 @@
       <c r="AU279" s="23"/>
       <c r="AV279" s="23"/>
       <c r="AW279" s="23"/>
+      <c r="AX279" s="23"/>
     </row>
     <row r="280">
       <c r="AL280" s="23"/>
@@ -18075,6 +18550,7 @@
       <c r="AU280" s="23"/>
       <c r="AV280" s="23"/>
       <c r="AW280" s="23"/>
+      <c r="AX280" s="23"/>
     </row>
     <row r="281">
       <c r="AL281" s="23"/>
@@ -18089,6 +18565,7 @@
       <c r="AU281" s="23"/>
       <c r="AV281" s="23"/>
       <c r="AW281" s="23"/>
+      <c r="AX281" s="23"/>
     </row>
     <row r="282">
       <c r="AL282" s="23"/>
@@ -18103,6 +18580,7 @@
       <c r="AU282" s="23"/>
       <c r="AV282" s="23"/>
       <c r="AW282" s="23"/>
+      <c r="AX282" s="23"/>
     </row>
     <row r="283">
       <c r="AL283" s="23"/>
@@ -18117,6 +18595,7 @@
       <c r="AU283" s="23"/>
       <c r="AV283" s="23"/>
       <c r="AW283" s="23"/>
+      <c r="AX283" s="23"/>
     </row>
     <row r="284">
       <c r="AL284" s="23"/>
@@ -18131,6 +18610,7 @@
       <c r="AU284" s="23"/>
       <c r="AV284" s="23"/>
       <c r="AW284" s="23"/>
+      <c r="AX284" s="23"/>
     </row>
     <row r="285">
       <c r="AL285" s="23"/>
@@ -18145,6 +18625,7 @@
       <c r="AU285" s="23"/>
       <c r="AV285" s="23"/>
       <c r="AW285" s="23"/>
+      <c r="AX285" s="23"/>
     </row>
     <row r="286">
       <c r="AL286" s="23"/>
@@ -18159,6 +18640,7 @@
       <c r="AU286" s="23"/>
       <c r="AV286" s="23"/>
       <c r="AW286" s="23"/>
+      <c r="AX286" s="23"/>
     </row>
     <row r="287">
       <c r="AL287" s="23"/>
@@ -18173,6 +18655,7 @@
       <c r="AU287" s="23"/>
       <c r="AV287" s="23"/>
       <c r="AW287" s="23"/>
+      <c r="AX287" s="23"/>
     </row>
     <row r="288">
       <c r="AL288" s="23"/>
@@ -18187,6 +18670,7 @@
       <c r="AU288" s="23"/>
       <c r="AV288" s="23"/>
       <c r="AW288" s="23"/>
+      <c r="AX288" s="23"/>
     </row>
     <row r="289">
       <c r="AL289" s="23"/>
@@ -18201,6 +18685,7 @@
       <c r="AU289" s="23"/>
       <c r="AV289" s="23"/>
       <c r="AW289" s="23"/>
+      <c r="AX289" s="23"/>
     </row>
     <row r="290">
       <c r="AL290" s="23"/>
@@ -18215,6 +18700,7 @@
       <c r="AU290" s="23"/>
       <c r="AV290" s="23"/>
       <c r="AW290" s="23"/>
+      <c r="AX290" s="23"/>
     </row>
     <row r="291">
       <c r="AL291" s="23"/>
@@ -18229,6 +18715,7 @@
       <c r="AU291" s="23"/>
       <c r="AV291" s="23"/>
       <c r="AW291" s="23"/>
+      <c r="AX291" s="23"/>
     </row>
     <row r="292">
       <c r="AL292" s="23"/>
@@ -18243,6 +18730,7 @@
       <c r="AU292" s="23"/>
       <c r="AV292" s="23"/>
       <c r="AW292" s="23"/>
+      <c r="AX292" s="23"/>
     </row>
     <row r="293">
       <c r="AL293" s="23"/>
@@ -18257,6 +18745,7 @@
       <c r="AU293" s="23"/>
       <c r="AV293" s="23"/>
       <c r="AW293" s="23"/>
+      <c r="AX293" s="23"/>
     </row>
     <row r="294">
       <c r="AL294" s="23"/>
@@ -18271,6 +18760,7 @@
       <c r="AU294" s="23"/>
       <c r="AV294" s="23"/>
       <c r="AW294" s="23"/>
+      <c r="AX294" s="23"/>
     </row>
     <row r="295">
       <c r="AL295" s="23"/>
@@ -18285,6 +18775,7 @@
       <c r="AU295" s="23"/>
       <c r="AV295" s="23"/>
       <c r="AW295" s="23"/>
+      <c r="AX295" s="23"/>
     </row>
     <row r="296">
       <c r="AL296" s="23"/>
@@ -18299,6 +18790,7 @@
       <c r="AU296" s="23"/>
       <c r="AV296" s="23"/>
       <c r="AW296" s="23"/>
+      <c r="AX296" s="23"/>
     </row>
     <row r="297">
       <c r="AL297" s="23"/>
@@ -18313,6 +18805,7 @@
       <c r="AU297" s="23"/>
       <c r="AV297" s="23"/>
       <c r="AW297" s="23"/>
+      <c r="AX297" s="23"/>
     </row>
     <row r="298">
       <c r="AL298" s="23"/>
@@ -18327,6 +18820,7 @@
       <c r="AU298" s="23"/>
       <c r="AV298" s="23"/>
       <c r="AW298" s="23"/>
+      <c r="AX298" s="23"/>
     </row>
     <row r="299">
       <c r="AL299" s="23"/>
@@ -18341,6 +18835,7 @@
       <c r="AU299" s="23"/>
       <c r="AV299" s="23"/>
       <c r="AW299" s="23"/>
+      <c r="AX299" s="23"/>
     </row>
     <row r="300">
       <c r="AL300" s="23"/>
@@ -18355,6 +18850,7 @@
       <c r="AU300" s="23"/>
       <c r="AV300" s="23"/>
       <c r="AW300" s="23"/>
+      <c r="AX300" s="23"/>
     </row>
     <row r="301">
       <c r="AL301" s="23"/>
@@ -18369,6 +18865,7 @@
       <c r="AU301" s="23"/>
       <c r="AV301" s="23"/>
       <c r="AW301" s="23"/>
+      <c r="AX301" s="23"/>
     </row>
     <row r="302">
       <c r="AL302" s="23"/>
@@ -18383,6 +18880,7 @@
       <c r="AU302" s="23"/>
       <c r="AV302" s="23"/>
       <c r="AW302" s="23"/>
+      <c r="AX302" s="23"/>
     </row>
     <row r="303">
       <c r="AL303" s="23"/>
@@ -18397,6 +18895,7 @@
       <c r="AU303" s="23"/>
       <c r="AV303" s="23"/>
       <c r="AW303" s="23"/>
+      <c r="AX303" s="23"/>
     </row>
     <row r="304">
       <c r="AL304" s="23"/>
@@ -18411,6 +18910,7 @@
       <c r="AU304" s="23"/>
       <c r="AV304" s="23"/>
       <c r="AW304" s="23"/>
+      <c r="AX304" s="23"/>
     </row>
     <row r="305">
       <c r="AL305" s="23"/>
@@ -18425,6 +18925,7 @@
       <c r="AU305" s="23"/>
       <c r="AV305" s="23"/>
       <c r="AW305" s="23"/>
+      <c r="AX305" s="23"/>
     </row>
     <row r="306">
       <c r="AL306" s="23"/>
@@ -18439,6 +18940,7 @@
       <c r="AU306" s="23"/>
       <c r="AV306" s="23"/>
       <c r="AW306" s="23"/>
+      <c r="AX306" s="23"/>
     </row>
     <row r="307">
       <c r="AL307" s="23"/>
@@ -18453,6 +18955,7 @@
       <c r="AU307" s="23"/>
       <c r="AV307" s="23"/>
       <c r="AW307" s="23"/>
+      <c r="AX307" s="23"/>
     </row>
     <row r="308">
       <c r="AL308" s="23"/>
@@ -18467,6 +18970,7 @@
       <c r="AU308" s="23"/>
       <c r="AV308" s="23"/>
       <c r="AW308" s="23"/>
+      <c r="AX308" s="23"/>
     </row>
     <row r="309">
       <c r="AL309" s="23"/>
@@ -18481,6 +18985,7 @@
       <c r="AU309" s="23"/>
       <c r="AV309" s="23"/>
       <c r="AW309" s="23"/>
+      <c r="AX309" s="23"/>
     </row>
     <row r="310">
       <c r="AL310" s="23"/>
@@ -18495,6 +19000,7 @@
       <c r="AU310" s="23"/>
       <c r="AV310" s="23"/>
       <c r="AW310" s="23"/>
+      <c r="AX310" s="23"/>
     </row>
     <row r="311">
       <c r="AL311" s="23"/>
@@ -18509,6 +19015,7 @@
       <c r="AU311" s="23"/>
       <c r="AV311" s="23"/>
       <c r="AW311" s="23"/>
+      <c r="AX311" s="23"/>
     </row>
     <row r="312">
       <c r="AL312" s="23"/>
@@ -18523,6 +19030,7 @@
       <c r="AU312" s="23"/>
       <c r="AV312" s="23"/>
       <c r="AW312" s="23"/>
+      <c r="AX312" s="23"/>
     </row>
     <row r="313">
       <c r="AL313" s="23"/>
@@ -18537,6 +19045,7 @@
       <c r="AU313" s="23"/>
       <c r="AV313" s="23"/>
       <c r="AW313" s="23"/>
+      <c r="AX313" s="23"/>
     </row>
     <row r="314">
       <c r="AL314" s="23"/>
@@ -18551,6 +19060,7 @@
       <c r="AU314" s="23"/>
       <c r="AV314" s="23"/>
       <c r="AW314" s="23"/>
+      <c r="AX314" s="23"/>
     </row>
     <row r="315">
       <c r="AL315" s="23"/>
@@ -18565,6 +19075,7 @@
       <c r="AU315" s="23"/>
       <c r="AV315" s="23"/>
       <c r="AW315" s="23"/>
+      <c r="AX315" s="23"/>
     </row>
     <row r="316">
       <c r="AL316" s="23"/>
@@ -18579,6 +19090,7 @@
       <c r="AU316" s="23"/>
       <c r="AV316" s="23"/>
       <c r="AW316" s="23"/>
+      <c r="AX316" s="23"/>
     </row>
     <row r="317">
       <c r="AL317" s="23"/>
@@ -18593,6 +19105,7 @@
       <c r="AU317" s="23"/>
       <c r="AV317" s="23"/>
       <c r="AW317" s="23"/>
+      <c r="AX317" s="23"/>
     </row>
     <row r="318">
       <c r="AL318" s="23"/>
@@ -18607,6 +19120,7 @@
       <c r="AU318" s="23"/>
       <c r="AV318" s="23"/>
       <c r="AW318" s="23"/>
+      <c r="AX318" s="23"/>
     </row>
     <row r="319">
       <c r="AL319" s="23"/>
@@ -18621,6 +19135,7 @@
       <c r="AU319" s="23"/>
       <c r="AV319" s="23"/>
       <c r="AW319" s="23"/>
+      <c r="AX319" s="23"/>
     </row>
     <row r="320">
       <c r="AL320" s="23"/>
@@ -18635,6 +19150,7 @@
       <c r="AU320" s="23"/>
       <c r="AV320" s="23"/>
       <c r="AW320" s="23"/>
+      <c r="AX320" s="23"/>
     </row>
     <row r="321">
       <c r="AL321" s="23"/>
@@ -18649,6 +19165,7 @@
       <c r="AU321" s="23"/>
       <c r="AV321" s="23"/>
       <c r="AW321" s="23"/>
+      <c r="AX321" s="23"/>
     </row>
     <row r="322">
       <c r="AL322" s="23"/>
@@ -18663,6 +19180,7 @@
       <c r="AU322" s="23"/>
       <c r="AV322" s="23"/>
       <c r="AW322" s="23"/>
+      <c r="AX322" s="23"/>
     </row>
     <row r="323">
       <c r="AL323" s="23"/>
@@ -18677,6 +19195,7 @@
       <c r="AU323" s="23"/>
       <c r="AV323" s="23"/>
       <c r="AW323" s="23"/>
+      <c r="AX323" s="23"/>
     </row>
     <row r="324">
       <c r="AL324" s="23"/>
@@ -18691,6 +19210,7 @@
       <c r="AU324" s="23"/>
       <c r="AV324" s="23"/>
       <c r="AW324" s="23"/>
+      <c r="AX324" s="23"/>
     </row>
     <row r="325">
       <c r="AL325" s="23"/>
@@ -18705,6 +19225,7 @@
       <c r="AU325" s="23"/>
       <c r="AV325" s="23"/>
       <c r="AW325" s="23"/>
+      <c r="AX325" s="23"/>
     </row>
     <row r="326">
       <c r="AL326" s="23"/>
@@ -18719,6 +19240,7 @@
       <c r="AU326" s="23"/>
       <c r="AV326" s="23"/>
       <c r="AW326" s="23"/>
+      <c r="AX326" s="23"/>
     </row>
     <row r="327">
       <c r="AL327" s="23"/>
@@ -18733,6 +19255,7 @@
       <c r="AU327" s="23"/>
       <c r="AV327" s="23"/>
       <c r="AW327" s="23"/>
+      <c r="AX327" s="23"/>
     </row>
     <row r="328">
       <c r="AL328" s="23"/>
@@ -18747,6 +19270,7 @@
       <c r="AU328" s="23"/>
       <c r="AV328" s="23"/>
       <c r="AW328" s="23"/>
+      <c r="AX328" s="23"/>
     </row>
     <row r="329">
       <c r="AL329" s="23"/>
@@ -18761,6 +19285,7 @@
       <c r="AU329" s="23"/>
       <c r="AV329" s="23"/>
       <c r="AW329" s="23"/>
+      <c r="AX329" s="23"/>
     </row>
     <row r="330">
       <c r="AL330" s="23"/>
@@ -18775,6 +19300,7 @@
       <c r="AU330" s="23"/>
       <c r="AV330" s="23"/>
       <c r="AW330" s="23"/>
+      <c r="AX330" s="23"/>
     </row>
     <row r="331">
       <c r="AL331" s="23"/>
@@ -18789,6 +19315,7 @@
       <c r="AU331" s="23"/>
       <c r="AV331" s="23"/>
       <c r="AW331" s="23"/>
+      <c r="AX331" s="23"/>
     </row>
     <row r="332">
       <c r="AL332" s="23"/>
@@ -18803,6 +19330,7 @@
       <c r="AU332" s="23"/>
       <c r="AV332" s="23"/>
       <c r="AW332" s="23"/>
+      <c r="AX332" s="23"/>
     </row>
     <row r="333">
       <c r="AL333" s="23"/>
@@ -18817,6 +19345,7 @@
       <c r="AU333" s="23"/>
       <c r="AV333" s="23"/>
       <c r="AW333" s="23"/>
+      <c r="AX333" s="23"/>
     </row>
     <row r="334">
       <c r="AL334" s="23"/>
@@ -18831,6 +19360,7 @@
       <c r="AU334" s="23"/>
       <c r="AV334" s="23"/>
       <c r="AW334" s="23"/>
+      <c r="AX334" s="23"/>
     </row>
     <row r="335">
       <c r="AL335" s="23"/>
@@ -18845,6 +19375,7 @@
       <c r="AU335" s="23"/>
       <c r="AV335" s="23"/>
       <c r="AW335" s="23"/>
+      <c r="AX335" s="23"/>
     </row>
     <row r="336">
       <c r="AL336" s="23"/>
@@ -18859,6 +19390,7 @@
       <c r="AU336" s="23"/>
       <c r="AV336" s="23"/>
       <c r="AW336" s="23"/>
+      <c r="AX336" s="23"/>
     </row>
     <row r="337">
       <c r="AL337" s="23"/>
@@ -18873,6 +19405,7 @@
       <c r="AU337" s="23"/>
       <c r="AV337" s="23"/>
       <c r="AW337" s="23"/>
+      <c r="AX337" s="23"/>
     </row>
     <row r="338">
       <c r="AL338" s="23"/>
@@ -18887,6 +19420,7 @@
       <c r="AU338" s="23"/>
       <c r="AV338" s="23"/>
       <c r="AW338" s="23"/>
+      <c r="AX338" s="23"/>
     </row>
     <row r="339">
       <c r="AL339" s="23"/>
@@ -18901,6 +19435,7 @@
       <c r="AU339" s="23"/>
       <c r="AV339" s="23"/>
       <c r="AW339" s="23"/>
+      <c r="AX339" s="23"/>
     </row>
     <row r="340">
       <c r="AL340" s="23"/>
@@ -18915,6 +19450,7 @@
       <c r="AU340" s="23"/>
       <c r="AV340" s="23"/>
       <c r="AW340" s="23"/>
+      <c r="AX340" s="23"/>
     </row>
     <row r="341">
       <c r="AL341" s="23"/>
@@ -18929,6 +19465,7 @@
       <c r="AU341" s="23"/>
       <c r="AV341" s="23"/>
       <c r="AW341" s="23"/>
+      <c r="AX341" s="23"/>
     </row>
     <row r="342">
       <c r="AL342" s="23"/>
@@ -18943,6 +19480,7 @@
       <c r="AU342" s="23"/>
       <c r="AV342" s="23"/>
       <c r="AW342" s="23"/>
+      <c r="AX342" s="23"/>
     </row>
     <row r="343">
       <c r="AL343" s="23"/>
@@ -18957,6 +19495,7 @@
       <c r="AU343" s="23"/>
       <c r="AV343" s="23"/>
       <c r="AW343" s="23"/>
+      <c r="AX343" s="23"/>
     </row>
     <row r="344">
       <c r="AL344" s="23"/>
@@ -18971,6 +19510,7 @@
       <c r="AU344" s="23"/>
       <c r="AV344" s="23"/>
       <c r="AW344" s="23"/>
+      <c r="AX344" s="23"/>
     </row>
     <row r="345">
       <c r="AL345" s="23"/>
@@ -18985,6 +19525,7 @@
       <c r="AU345" s="23"/>
       <c r="AV345" s="23"/>
       <c r="AW345" s="23"/>
+      <c r="AX345" s="23"/>
     </row>
     <row r="346">
       <c r="AL346" s="23"/>
@@ -18999,6 +19540,7 @@
       <c r="AU346" s="23"/>
       <c r="AV346" s="23"/>
       <c r="AW346" s="23"/>
+      <c r="AX346" s="23"/>
     </row>
     <row r="347">
       <c r="AL347" s="23"/>
@@ -19013,6 +19555,7 @@
       <c r="AU347" s="23"/>
       <c r="AV347" s="23"/>
       <c r="AW347" s="23"/>
+      <c r="AX347" s="23"/>
     </row>
     <row r="348">
       <c r="AL348" s="23"/>
@@ -19027,6 +19570,7 @@
       <c r="AU348" s="23"/>
       <c r="AV348" s="23"/>
       <c r="AW348" s="23"/>
+      <c r="AX348" s="23"/>
     </row>
     <row r="349">
       <c r="AL349" s="23"/>
@@ -19041,6 +19585,7 @@
       <c r="AU349" s="23"/>
       <c r="AV349" s="23"/>
       <c r="AW349" s="23"/>
+      <c r="AX349" s="23"/>
     </row>
     <row r="350">
       <c r="AL350" s="23"/>
@@ -19055,6 +19600,7 @@
       <c r="AU350" s="23"/>
       <c r="AV350" s="23"/>
       <c r="AW350" s="23"/>
+      <c r="AX350" s="23"/>
     </row>
     <row r="351">
       <c r="AL351" s="23"/>
@@ -19069,6 +19615,7 @@
       <c r="AU351" s="23"/>
       <c r="AV351" s="23"/>
       <c r="AW351" s="23"/>
+      <c r="AX351" s="23"/>
     </row>
     <row r="352">
       <c r="AL352" s="23"/>
@@ -19083,6 +19630,7 @@
       <c r="AU352" s="23"/>
       <c r="AV352" s="23"/>
       <c r="AW352" s="23"/>
+      <c r="AX352" s="23"/>
     </row>
     <row r="353">
       <c r="AL353" s="23"/>
@@ -19097,6 +19645,7 @@
       <c r="AU353" s="23"/>
       <c r="AV353" s="23"/>
       <c r="AW353" s="23"/>
+      <c r="AX353" s="23"/>
     </row>
     <row r="354">
       <c r="AL354" s="23"/>
@@ -19111,6 +19660,7 @@
       <c r="AU354" s="23"/>
       <c r="AV354" s="23"/>
       <c r="AW354" s="23"/>
+      <c r="AX354" s="23"/>
     </row>
     <row r="355">
       <c r="AL355" s="23"/>
@@ -19125,6 +19675,7 @@
       <c r="AU355" s="23"/>
       <c r="AV355" s="23"/>
       <c r="AW355" s="23"/>
+      <c r="AX355" s="23"/>
     </row>
     <row r="356">
       <c r="AL356" s="23"/>
@@ -19139,6 +19690,7 @@
       <c r="AU356" s="23"/>
       <c r="AV356" s="23"/>
       <c r="AW356" s="23"/>
+      <c r="AX356" s="23"/>
     </row>
     <row r="357">
       <c r="AL357" s="23"/>
@@ -19153,6 +19705,7 @@
       <c r="AU357" s="23"/>
       <c r="AV357" s="23"/>
       <c r="AW357" s="23"/>
+      <c r="AX357" s="23"/>
     </row>
     <row r="358">
       <c r="AL358" s="23"/>
@@ -19167,6 +19720,7 @@
       <c r="AU358" s="23"/>
       <c r="AV358" s="23"/>
       <c r="AW358" s="23"/>
+      <c r="AX358" s="23"/>
     </row>
     <row r="359">
       <c r="AL359" s="23"/>
@@ -19181,6 +19735,7 @@
       <c r="AU359" s="23"/>
       <c r="AV359" s="23"/>
       <c r="AW359" s="23"/>
+      <c r="AX359" s="23"/>
     </row>
     <row r="360">
       <c r="AL360" s="23"/>
@@ -19195,6 +19750,7 @@
       <c r="AU360" s="23"/>
       <c r="AV360" s="23"/>
       <c r="AW360" s="23"/>
+      <c r="AX360" s="23"/>
     </row>
     <row r="361">
       <c r="AL361" s="23"/>
@@ -19209,6 +19765,7 @@
       <c r="AU361" s="23"/>
       <c r="AV361" s="23"/>
       <c r="AW361" s="23"/>
+      <c r="AX361" s="23"/>
     </row>
     <row r="362">
       <c r="AL362" s="23"/>
@@ -19223,6 +19780,7 @@
       <c r="AU362" s="23"/>
       <c r="AV362" s="23"/>
       <c r="AW362" s="23"/>
+      <c r="AX362" s="23"/>
     </row>
     <row r="363">
       <c r="AL363" s="23"/>
@@ -19237,6 +19795,7 @@
       <c r="AU363" s="23"/>
       <c r="AV363" s="23"/>
       <c r="AW363" s="23"/>
+      <c r="AX363" s="23"/>
     </row>
     <row r="364">
       <c r="AL364" s="23"/>
@@ -19251,6 +19810,7 @@
       <c r="AU364" s="23"/>
       <c r="AV364" s="23"/>
       <c r="AW364" s="23"/>
+      <c r="AX364" s="23"/>
     </row>
     <row r="365">
       <c r="AL365" s="23"/>
@@ -19265,6 +19825,7 @@
       <c r="AU365" s="23"/>
       <c r="AV365" s="23"/>
       <c r="AW365" s="23"/>
+      <c r="AX365" s="23"/>
     </row>
     <row r="366">
       <c r="AL366" s="23"/>
@@ -19279,6 +19840,7 @@
       <c r="AU366" s="23"/>
       <c r="AV366" s="23"/>
       <c r="AW366" s="23"/>
+      <c r="AX366" s="23"/>
     </row>
     <row r="367">
       <c r="AL367" s="23"/>
@@ -19293,6 +19855,7 @@
       <c r="AU367" s="23"/>
       <c r="AV367" s="23"/>
       <c r="AW367" s="23"/>
+      <c r="AX367" s="23"/>
     </row>
     <row r="368">
       <c r="AL368" s="23"/>
@@ -19307,6 +19870,7 @@
       <c r="AU368" s="23"/>
       <c r="AV368" s="23"/>
       <c r="AW368" s="23"/>
+      <c r="AX368" s="23"/>
     </row>
     <row r="369">
       <c r="AL369" s="23"/>
@@ -19321,6 +19885,7 @@
       <c r="AU369" s="23"/>
       <c r="AV369" s="23"/>
       <c r="AW369" s="23"/>
+      <c r="AX369" s="23"/>
     </row>
     <row r="370">
       <c r="AL370" s="23"/>
@@ -19335,6 +19900,7 @@
       <c r="AU370" s="23"/>
       <c r="AV370" s="23"/>
       <c r="AW370" s="23"/>
+      <c r="AX370" s="23"/>
     </row>
     <row r="371">
       <c r="AL371" s="23"/>
@@ -19349,6 +19915,7 @@
       <c r="AU371" s="23"/>
       <c r="AV371" s="23"/>
       <c r="AW371" s="23"/>
+      <c r="AX371" s="23"/>
     </row>
     <row r="372">
       <c r="AL372" s="23"/>
@@ -19363,6 +19930,7 @@
       <c r="AU372" s="23"/>
       <c r="AV372" s="23"/>
       <c r="AW372" s="23"/>
+      <c r="AX372" s="23"/>
     </row>
     <row r="373">
       <c r="AL373" s="23"/>
@@ -19377,6 +19945,7 @@
       <c r="AU373" s="23"/>
       <c r="AV373" s="23"/>
       <c r="AW373" s="23"/>
+      <c r="AX373" s="23"/>
     </row>
     <row r="374">
       <c r="AL374" s="23"/>
@@ -19391,6 +19960,7 @@
       <c r="AU374" s="23"/>
       <c r="AV374" s="23"/>
       <c r="AW374" s="23"/>
+      <c r="AX374" s="23"/>
     </row>
     <row r="375">
       <c r="AL375" s="23"/>
@@ -19405,6 +19975,7 @@
       <c r="AU375" s="23"/>
       <c r="AV375" s="23"/>
       <c r="AW375" s="23"/>
+      <c r="AX375" s="23"/>
     </row>
     <row r="376">
       <c r="AL376" s="23"/>
@@ -19419,6 +19990,7 @@
       <c r="AU376" s="23"/>
       <c r="AV376" s="23"/>
       <c r="AW376" s="23"/>
+      <c r="AX376" s="23"/>
     </row>
     <row r="377">
       <c r="AL377" s="23"/>
@@ -19433,6 +20005,7 @@
       <c r="AU377" s="23"/>
       <c r="AV377" s="23"/>
       <c r="AW377" s="23"/>
+      <c r="AX377" s="23"/>
     </row>
     <row r="378">
       <c r="AL378" s="23"/>
@@ -19447,6 +20020,7 @@
       <c r="AU378" s="23"/>
       <c r="AV378" s="23"/>
       <c r="AW378" s="23"/>
+      <c r="AX378" s="23"/>
     </row>
     <row r="379">
       <c r="AL379" s="23"/>
@@ -19461,6 +20035,7 @@
       <c r="AU379" s="23"/>
       <c r="AV379" s="23"/>
       <c r="AW379" s="23"/>
+      <c r="AX379" s="23"/>
     </row>
     <row r="380">
       <c r="AL380" s="23"/>
@@ -19475,6 +20050,7 @@
       <c r="AU380" s="23"/>
       <c r="AV380" s="23"/>
       <c r="AW380" s="23"/>
+      <c r="AX380" s="23"/>
     </row>
     <row r="381">
       <c r="AL381" s="23"/>
@@ -19489,6 +20065,7 @@
       <c r="AU381" s="23"/>
       <c r="AV381" s="23"/>
       <c r="AW381" s="23"/>
+      <c r="AX381" s="23"/>
     </row>
     <row r="382">
       <c r="AL382" s="23"/>
@@ -19503,6 +20080,7 @@
       <c r="AU382" s="23"/>
       <c r="AV382" s="23"/>
       <c r="AW382" s="23"/>
+      <c r="AX382" s="23"/>
     </row>
     <row r="383">
       <c r="AL383" s="23"/>
@@ -19517,6 +20095,7 @@
       <c r="AU383" s="23"/>
       <c r="AV383" s="23"/>
       <c r="AW383" s="23"/>
+      <c r="AX383" s="23"/>
     </row>
     <row r="384">
       <c r="AL384" s="23"/>
@@ -19531,6 +20110,7 @@
       <c r="AU384" s="23"/>
       <c r="AV384" s="23"/>
       <c r="AW384" s="23"/>
+      <c r="AX384" s="23"/>
     </row>
     <row r="385">
       <c r="AL385" s="23"/>
@@ -19545,6 +20125,7 @@
       <c r="AU385" s="23"/>
       <c r="AV385" s="23"/>
       <c r="AW385" s="23"/>
+      <c r="AX385" s="23"/>
     </row>
     <row r="386">
       <c r="AL386" s="23"/>
@@ -19559,6 +20140,7 @@
       <c r="AU386" s="23"/>
       <c r="AV386" s="23"/>
       <c r="AW386" s="23"/>
+      <c r="AX386" s="23"/>
     </row>
     <row r="387">
       <c r="AL387" s="23"/>
@@ -19573,6 +20155,7 @@
       <c r="AU387" s="23"/>
       <c r="AV387" s="23"/>
       <c r="AW387" s="23"/>
+      <c r="AX387" s="23"/>
     </row>
     <row r="388">
       <c r="AL388" s="23"/>
@@ -19587,6 +20170,7 @@
       <c r="AU388" s="23"/>
       <c r="AV388" s="23"/>
       <c r="AW388" s="23"/>
+      <c r="AX388" s="23"/>
     </row>
     <row r="389">
       <c r="AL389" s="23"/>
@@ -19601,6 +20185,7 @@
       <c r="AU389" s="23"/>
       <c r="AV389" s="23"/>
       <c r="AW389" s="23"/>
+      <c r="AX389" s="23"/>
     </row>
     <row r="390">
       <c r="AL390" s="23"/>
@@ -19615,6 +20200,7 @@
       <c r="AU390" s="23"/>
       <c r="AV390" s="23"/>
       <c r="AW390" s="23"/>
+      <c r="AX390" s="23"/>
     </row>
     <row r="391">
       <c r="AL391" s="23"/>
@@ -19629,6 +20215,7 @@
       <c r="AU391" s="23"/>
       <c r="AV391" s="23"/>
       <c r="AW391" s="23"/>
+      <c r="AX391" s="23"/>
     </row>
     <row r="392">
       <c r="AL392" s="23"/>
@@ -19643,6 +20230,7 @@
       <c r="AU392" s="23"/>
       <c r="AV392" s="23"/>
       <c r="AW392" s="23"/>
+      <c r="AX392" s="23"/>
     </row>
     <row r="393">
       <c r="AL393" s="23"/>
@@ -19657,6 +20245,7 @@
       <c r="AU393" s="23"/>
       <c r="AV393" s="23"/>
       <c r="AW393" s="23"/>
+      <c r="AX393" s="23"/>
     </row>
     <row r="394">
       <c r="AL394" s="23"/>
@@ -19671,6 +20260,7 @@
       <c r="AU394" s="23"/>
       <c r="AV394" s="23"/>
       <c r="AW394" s="23"/>
+      <c r="AX394" s="23"/>
     </row>
     <row r="395">
       <c r="AL395" s="23"/>
@@ -19685,6 +20275,7 @@
       <c r="AU395" s="23"/>
       <c r="AV395" s="23"/>
       <c r="AW395" s="23"/>
+      <c r="AX395" s="23"/>
     </row>
     <row r="396">
       <c r="AL396" s="23"/>
@@ -19699,6 +20290,7 @@
       <c r="AU396" s="23"/>
       <c r="AV396" s="23"/>
       <c r="AW396" s="23"/>
+      <c r="AX396" s="23"/>
     </row>
     <row r="397">
       <c r="AL397" s="23"/>
@@ -19713,6 +20305,7 @@
       <c r="AU397" s="23"/>
       <c r="AV397" s="23"/>
       <c r="AW397" s="23"/>
+      <c r="AX397" s="23"/>
     </row>
     <row r="398">
       <c r="AL398" s="23"/>
@@ -19727,6 +20320,7 @@
       <c r="AU398" s="23"/>
       <c r="AV398" s="23"/>
       <c r="AW398" s="23"/>
+      <c r="AX398" s="23"/>
     </row>
     <row r="399">
       <c r="AL399" s="23"/>
@@ -19741,6 +20335,7 @@
       <c r="AU399" s="23"/>
       <c r="AV399" s="23"/>
       <c r="AW399" s="23"/>
+      <c r="AX399" s="23"/>
     </row>
     <row r="400">
       <c r="AL400" s="23"/>
@@ -19755,6 +20350,7 @@
       <c r="AU400" s="23"/>
       <c r="AV400" s="23"/>
       <c r="AW400" s="23"/>
+      <c r="AX400" s="23"/>
     </row>
     <row r="401">
       <c r="AL401" s="23"/>
@@ -19769,6 +20365,7 @@
       <c r="AU401" s="23"/>
       <c r="AV401" s="23"/>
       <c r="AW401" s="23"/>
+      <c r="AX401" s="23"/>
     </row>
     <row r="402">
       <c r="AL402" s="23"/>
@@ -19783,6 +20380,7 @@
       <c r="AU402" s="23"/>
       <c r="AV402" s="23"/>
       <c r="AW402" s="23"/>
+      <c r="AX402" s="23"/>
     </row>
     <row r="403">
       <c r="AL403" s="23"/>
@@ -19797,6 +20395,7 @@
       <c r="AU403" s="23"/>
       <c r="AV403" s="23"/>
       <c r="AW403" s="23"/>
+      <c r="AX403" s="23"/>
     </row>
     <row r="404">
       <c r="AL404" s="23"/>
@@ -19811,6 +20410,7 @@
       <c r="AU404" s="23"/>
       <c r="AV404" s="23"/>
       <c r="AW404" s="23"/>
+      <c r="AX404" s="23"/>
     </row>
     <row r="405">
       <c r="AL405" s="23"/>
@@ -19825,6 +20425,7 @@
       <c r="AU405" s="23"/>
       <c r="AV405" s="23"/>
       <c r="AW405" s="23"/>
+      <c r="AX405" s="23"/>
     </row>
     <row r="406">
       <c r="AL406" s="23"/>
@@ -19839,6 +20440,7 @@
       <c r="AU406" s="23"/>
       <c r="AV406" s="23"/>
       <c r="AW406" s="23"/>
+      <c r="AX406" s="23"/>
     </row>
     <row r="407">
       <c r="AL407" s="23"/>
@@ -19853,6 +20455,7 @@
       <c r="AU407" s="23"/>
       <c r="AV407" s="23"/>
       <c r="AW407" s="23"/>
+      <c r="AX407" s="23"/>
     </row>
     <row r="408">
       <c r="AL408" s="23"/>
@@ -19867,6 +20470,7 @@
       <c r="AU408" s="23"/>
       <c r="AV408" s="23"/>
       <c r="AW408" s="23"/>
+      <c r="AX408" s="23"/>
     </row>
     <row r="409">
       <c r="AL409" s="23"/>
@@ -19881,6 +20485,7 @@
       <c r="AU409" s="23"/>
       <c r="AV409" s="23"/>
       <c r="AW409" s="23"/>
+      <c r="AX409" s="23"/>
     </row>
     <row r="410">
       <c r="AL410" s="23"/>
@@ -19895,6 +20500,7 @@
       <c r="AU410" s="23"/>
       <c r="AV410" s="23"/>
       <c r="AW410" s="23"/>
+      <c r="AX410" s="23"/>
     </row>
     <row r="411">
       <c r="AL411" s="23"/>
@@ -19909,6 +20515,7 @@
       <c r="AU411" s="23"/>
       <c r="AV411" s="23"/>
       <c r="AW411" s="23"/>
+      <c r="AX411" s="23"/>
     </row>
     <row r="412">
       <c r="AL412" s="23"/>
@@ -19923,6 +20530,7 @@
       <c r="AU412" s="23"/>
       <c r="AV412" s="23"/>
       <c r="AW412" s="23"/>
+      <c r="AX412" s="23"/>
     </row>
     <row r="413">
       <c r="AL413" s="23"/>
@@ -19937,6 +20545,7 @@
       <c r="AU413" s="23"/>
       <c r="AV413" s="23"/>
       <c r="AW413" s="23"/>
+      <c r="AX413" s="23"/>
     </row>
     <row r="414">
       <c r="AL414" s="23"/>
@@ -19951,6 +20560,7 @@
       <c r="AU414" s="23"/>
       <c r="AV414" s="23"/>
       <c r="AW414" s="23"/>
+      <c r="AX414" s="23"/>
     </row>
     <row r="415">
       <c r="AL415" s="23"/>
@@ -19965,6 +20575,7 @@
       <c r="AU415" s="23"/>
       <c r="AV415" s="23"/>
       <c r="AW415" s="23"/>
+      <c r="AX415" s="23"/>
     </row>
     <row r="416">
       <c r="AL416" s="23"/>
@@ -19979,6 +20590,7 @@
       <c r="AU416" s="23"/>
       <c r="AV416" s="23"/>
       <c r="AW416" s="23"/>
+      <c r="AX416" s="23"/>
     </row>
     <row r="417">
       <c r="AL417" s="23"/>
@@ -19993,6 +20605,7 @@
       <c r="AU417" s="23"/>
       <c r="AV417" s="23"/>
       <c r="AW417" s="23"/>
+      <c r="AX417" s="23"/>
     </row>
     <row r="418">
       <c r="AL418" s="23"/>
@@ -20007,6 +20620,7 @@
       <c r="AU418" s="23"/>
       <c r="AV418" s="23"/>
       <c r="AW418" s="23"/>
+      <c r="AX418" s="23"/>
     </row>
     <row r="419">
       <c r="AL419" s="23"/>
@@ -20021,6 +20635,7 @@
       <c r="AU419" s="23"/>
       <c r="AV419" s="23"/>
       <c r="AW419" s="23"/>
+      <c r="AX419" s="23"/>
     </row>
     <row r="420">
       <c r="AL420" s="23"/>
@@ -20035,6 +20650,7 @@
       <c r="AU420" s="23"/>
       <c r="AV420" s="23"/>
       <c r="AW420" s="23"/>
+      <c r="AX420" s="23"/>
     </row>
     <row r="421">
       <c r="AL421" s="23"/>
@@ -20049,6 +20665,7 @@
       <c r="AU421" s="23"/>
       <c r="AV421" s="23"/>
       <c r="AW421" s="23"/>
+      <c r="AX421" s="23"/>
     </row>
     <row r="422">
       <c r="AL422" s="23"/>
@@ -20063,6 +20680,7 @@
       <c r="AU422" s="23"/>
       <c r="AV422" s="23"/>
       <c r="AW422" s="23"/>
+      <c r="AX422" s="23"/>
     </row>
     <row r="423">
       <c r="AL423" s="23"/>
@@ -20077,6 +20695,7 @@
       <c r="AU423" s="23"/>
       <c r="AV423" s="23"/>
       <c r="AW423" s="23"/>
+      <c r="AX423" s="23"/>
     </row>
     <row r="424">
       <c r="AL424" s="23"/>
@@ -20091,6 +20710,7 @@
       <c r="AU424" s="23"/>
       <c r="AV424" s="23"/>
       <c r="AW424" s="23"/>
+      <c r="AX424" s="23"/>
     </row>
     <row r="425">
       <c r="AL425" s="23"/>
@@ -20105,6 +20725,7 @@
       <c r="AU425" s="23"/>
       <c r="AV425" s="23"/>
       <c r="AW425" s="23"/>
+      <c r="AX425" s="23"/>
     </row>
     <row r="426">
       <c r="AL426" s="23"/>
@@ -20119,6 +20740,7 @@
       <c r="AU426" s="23"/>
       <c r="AV426" s="23"/>
       <c r="AW426" s="23"/>
+      <c r="AX426" s="23"/>
     </row>
     <row r="427">
       <c r="AL427" s="23"/>
@@ -20133,6 +20755,7 @@
       <c r="AU427" s="23"/>
       <c r="AV427" s="23"/>
       <c r="AW427" s="23"/>
+      <c r="AX427" s="23"/>
     </row>
     <row r="428">
       <c r="AL428" s="23"/>
@@ -20147,6 +20770,7 @@
       <c r="AU428" s="23"/>
       <c r="AV428" s="23"/>
       <c r="AW428" s="23"/>
+      <c r="AX428" s="23"/>
     </row>
     <row r="429">
       <c r="AL429" s="23"/>
@@ -20161,6 +20785,7 @@
       <c r="AU429" s="23"/>
       <c r="AV429" s="23"/>
       <c r="AW429" s="23"/>
+      <c r="AX429" s="23"/>
     </row>
     <row r="430">
       <c r="AL430" s="23"/>
@@ -20175,6 +20800,7 @@
       <c r="AU430" s="23"/>
       <c r="AV430" s="23"/>
       <c r="AW430" s="23"/>
+      <c r="AX430" s="23"/>
     </row>
     <row r="431">
       <c r="AL431" s="23"/>
@@ -20189,6 +20815,7 @@
       <c r="AU431" s="23"/>
       <c r="AV431" s="23"/>
       <c r="AW431" s="23"/>
+      <c r="AX431" s="23"/>
     </row>
     <row r="432">
       <c r="AL432" s="23"/>
@@ -20203,6 +20830,7 @@
       <c r="AU432" s="23"/>
       <c r="AV432" s="23"/>
       <c r="AW432" s="23"/>
+      <c r="AX432" s="23"/>
     </row>
     <row r="433">
       <c r="AL433" s="23"/>
@@ -20217,6 +20845,7 @@
       <c r="AU433" s="23"/>
       <c r="AV433" s="23"/>
       <c r="AW433" s="23"/>
+      <c r="AX433" s="23"/>
     </row>
     <row r="434">
       <c r="AL434" s="23"/>
@@ -20231,6 +20860,7 @@
       <c r="AU434" s="23"/>
       <c r="AV434" s="23"/>
       <c r="AW434" s="23"/>
+      <c r="AX434" s="23"/>
     </row>
     <row r="435">
       <c r="AL435" s="23"/>
@@ -20245,6 +20875,7 @@
       <c r="AU435" s="23"/>
       <c r="AV435" s="23"/>
       <c r="AW435" s="23"/>
+      <c r="AX435" s="23"/>
     </row>
     <row r="436">
       <c r="AL436" s="23"/>
@@ -20259,6 +20890,7 @@
       <c r="AU436" s="23"/>
       <c r="AV436" s="23"/>
       <c r="AW436" s="23"/>
+      <c r="AX436" s="23"/>
     </row>
     <row r="437">
       <c r="AL437" s="23"/>
@@ -20273,6 +20905,7 @@
       <c r="AU437" s="23"/>
       <c r="AV437" s="23"/>
       <c r="AW437" s="23"/>
+      <c r="AX437" s="23"/>
     </row>
     <row r="438">
       <c r="AL438" s="23"/>
@@ -20287,6 +20920,7 @@
       <c r="AU438" s="23"/>
       <c r="AV438" s="23"/>
       <c r="AW438" s="23"/>
+      <c r="AX438" s="23"/>
     </row>
     <row r="439">
       <c r="AL439" s="23"/>
@@ -20301,6 +20935,7 @@
       <c r="AU439" s="23"/>
       <c r="AV439" s="23"/>
       <c r="AW439" s="23"/>
+      <c r="AX439" s="23"/>
     </row>
     <row r="440">
       <c r="AL440" s="23"/>
@@ -20315,6 +20950,7 @@
       <c r="AU440" s="23"/>
       <c r="AV440" s="23"/>
       <c r="AW440" s="23"/>
+      <c r="AX440" s="23"/>
     </row>
     <row r="441">
       <c r="AL441" s="23"/>
@@ -20329,6 +20965,7 @@
       <c r="AU441" s="23"/>
       <c r="AV441" s="23"/>
       <c r="AW441" s="23"/>
+      <c r="AX441" s="23"/>
     </row>
     <row r="442">
       <c r="AL442" s="23"/>
@@ -20343,6 +20980,7 @@
       <c r="AU442" s="23"/>
       <c r="AV442" s="23"/>
       <c r="AW442" s="23"/>
+      <c r="AX442" s="23"/>
     </row>
     <row r="443">
       <c r="AL443" s="23"/>
@@ -20357,6 +20995,7 @@
       <c r="AU443" s="23"/>
       <c r="AV443" s="23"/>
       <c r="AW443" s="23"/>
+      <c r="AX443" s="23"/>
     </row>
     <row r="444">
       <c r="AL444" s="23"/>
@@ -20371,6 +21010,7 @@
       <c r="AU444" s="23"/>
       <c r="AV444" s="23"/>
       <c r="AW444" s="23"/>
+      <c r="AX444" s="23"/>
     </row>
     <row r="445">
       <c r="AL445" s="23"/>
@@ -20385,6 +21025,7 @@
       <c r="AU445" s="23"/>
       <c r="AV445" s="23"/>
       <c r="AW445" s="23"/>
+      <c r="AX445" s="23"/>
     </row>
     <row r="446">
       <c r="AL446" s="23"/>
@@ -20399,6 +21040,7 @@
       <c r="AU446" s="23"/>
       <c r="AV446" s="23"/>
       <c r="AW446" s="23"/>
+      <c r="AX446" s="23"/>
     </row>
     <row r="447">
       <c r="AL447" s="23"/>
@@ -20413,6 +21055,7 @@
       <c r="AU447" s="23"/>
       <c r="AV447" s="23"/>
       <c r="AW447" s="23"/>
+      <c r="AX447" s="23"/>
     </row>
     <row r="448">
       <c r="AL448" s="23"/>
@@ -20427,6 +21070,7 @@
       <c r="AU448" s="23"/>
       <c r="AV448" s="23"/>
       <c r="AW448" s="23"/>
+      <c r="AX448" s="23"/>
     </row>
     <row r="449">
       <c r="AL449" s="23"/>
@@ -20441,6 +21085,7 @@
       <c r="AU449" s="23"/>
       <c r="AV449" s="23"/>
       <c r="AW449" s="23"/>
+      <c r="AX449" s="23"/>
     </row>
     <row r="450">
       <c r="AL450" s="23"/>
@@ -20455,6 +21100,7 @@
       <c r="AU450" s="23"/>
       <c r="AV450" s="23"/>
       <c r="AW450" s="23"/>
+      <c r="AX450" s="23"/>
     </row>
     <row r="451">
       <c r="AL451" s="23"/>
@@ -20469,6 +21115,7 @@
       <c r="AU451" s="23"/>
       <c r="AV451" s="23"/>
       <c r="AW451" s="23"/>
+      <c r="AX451" s="23"/>
     </row>
     <row r="452">
       <c r="AL452" s="23"/>
@@ -20483,6 +21130,7 @@
       <c r="AU452" s="23"/>
       <c r="AV452" s="23"/>
       <c r="AW452" s="23"/>
+      <c r="AX452" s="23"/>
     </row>
     <row r="453">
       <c r="AL453" s="23"/>
@@ -20497,6 +21145,7 @@
       <c r="AU453" s="23"/>
       <c r="AV453" s="23"/>
       <c r="AW453" s="23"/>
+      <c r="AX453" s="23"/>
     </row>
     <row r="454">
       <c r="AL454" s="23"/>
@@ -20511,6 +21160,7 @@
       <c r="AU454" s="23"/>
       <c r="AV454" s="23"/>
       <c r="AW454" s="23"/>
+      <c r="AX454" s="23"/>
     </row>
     <row r="455">
       <c r="AL455" s="23"/>
@@ -20525,6 +21175,7 @@
       <c r="AU455" s="23"/>
       <c r="AV455" s="23"/>
       <c r="AW455" s="23"/>
+      <c r="AX455" s="23"/>
     </row>
     <row r="456">
       <c r="AL456" s="23"/>
@@ -20539,6 +21190,7 @@
       <c r="AU456" s="23"/>
       <c r="AV456" s="23"/>
       <c r="AW456" s="23"/>
+      <c r="AX456" s="23"/>
     </row>
     <row r="457">
       <c r="AL457" s="23"/>
@@ -20553,6 +21205,7 @@
       <c r="AU457" s="23"/>
       <c r="AV457" s="23"/>
       <c r="AW457" s="23"/>
+      <c r="AX457" s="23"/>
     </row>
     <row r="458">
       <c r="AL458" s="23"/>
@@ -20567,6 +21220,7 @@
       <c r="AU458" s="23"/>
       <c r="AV458" s="23"/>
       <c r="AW458" s="23"/>
+      <c r="AX458" s="23"/>
     </row>
     <row r="459">
       <c r="AL459" s="23"/>
@@ -20581,6 +21235,7 @@
       <c r="AU459" s="23"/>
       <c r="AV459" s="23"/>
       <c r="AW459" s="23"/>
+      <c r="AX459" s="23"/>
     </row>
     <row r="460">
       <c r="AL460" s="23"/>
@@ -20595,6 +21250,7 @@
       <c r="AU460" s="23"/>
       <c r="AV460" s="23"/>
       <c r="AW460" s="23"/>
+      <c r="AX460" s="23"/>
     </row>
     <row r="461">
       <c r="AL461" s="23"/>
@@ -20609,6 +21265,7 @@
       <c r="AU461" s="23"/>
       <c r="AV461" s="23"/>
       <c r="AW461" s="23"/>
+      <c r="AX461" s="23"/>
     </row>
     <row r="462">
       <c r="AL462" s="23"/>
@@ -20623,6 +21280,7 @@
       <c r="AU462" s="23"/>
       <c r="AV462" s="23"/>
       <c r="AW462" s="23"/>
+      <c r="AX462" s="23"/>
     </row>
     <row r="463">
       <c r="AL463" s="23"/>
@@ -20637,6 +21295,7 @@
       <c r="AU463" s="23"/>
       <c r="AV463" s="23"/>
       <c r="AW463" s="23"/>
+      <c r="AX463" s="23"/>
     </row>
     <row r="464">
       <c r="AL464" s="23"/>
@@ -20651,6 +21310,7 @@
       <c r="AU464" s="23"/>
       <c r="AV464" s="23"/>
       <c r="AW464" s="23"/>
+      <c r="AX464" s="23"/>
     </row>
     <row r="465">
       <c r="AL465" s="23"/>
@@ -20665,6 +21325,7 @@
       <c r="AU465" s="23"/>
       <c r="AV465" s="23"/>
       <c r="AW465" s="23"/>
+      <c r="AX465" s="23"/>
     </row>
     <row r="466">
       <c r="AL466" s="23"/>
@@ -20679,6 +21340,7 @@
       <c r="AU466" s="23"/>
       <c r="AV466" s="23"/>
       <c r="AW466" s="23"/>
+      <c r="AX466" s="23"/>
     </row>
     <row r="467">
       <c r="AL467" s="23"/>
@@ -20693,6 +21355,7 @@
       <c r="AU467" s="23"/>
       <c r="AV467" s="23"/>
       <c r="AW467" s="23"/>
+      <c r="AX467" s="23"/>
     </row>
     <row r="468">
       <c r="AL468" s="23"/>
@@ -20707,6 +21370,7 @@
       <c r="AU468" s="23"/>
       <c r="AV468" s="23"/>
       <c r="AW468" s="23"/>
+      <c r="AX468" s="23"/>
     </row>
     <row r="469">
       <c r="AL469" s="23"/>
@@ -20721,6 +21385,7 @@
       <c r="AU469" s="23"/>
       <c r="AV469" s="23"/>
       <c r="AW469" s="23"/>
+      <c r="AX469" s="23"/>
     </row>
     <row r="470">
       <c r="AL470" s="23"/>
@@ -20735,6 +21400,7 @@
       <c r="AU470" s="23"/>
       <c r="AV470" s="23"/>
       <c r="AW470" s="23"/>
+      <c r="AX470" s="23"/>
     </row>
     <row r="471">
       <c r="AL471" s="23"/>
@@ -20749,6 +21415,7 @@
       <c r="AU471" s="23"/>
       <c r="AV471" s="23"/>
       <c r="AW471" s="23"/>
+      <c r="AX471" s="23"/>
     </row>
     <row r="472">
       <c r="AL472" s="23"/>
@@ -20763,6 +21430,7 @@
       <c r="AU472" s="23"/>
       <c r="AV472" s="23"/>
       <c r="AW472" s="23"/>
+      <c r="AX472" s="23"/>
     </row>
     <row r="473">
       <c r="AL473" s="23"/>
@@ -20777,6 +21445,7 @@
       <c r="AU473" s="23"/>
       <c r="AV473" s="23"/>
       <c r="AW473" s="23"/>
+      <c r="AX473" s="23"/>
     </row>
     <row r="474">
       <c r="AL474" s="23"/>
@@ -20791,6 +21460,7 @@
       <c r="AU474" s="23"/>
       <c r="AV474" s="23"/>
       <c r="AW474" s="23"/>
+      <c r="AX474" s="23"/>
     </row>
     <row r="475">
       <c r="AL475" s="23"/>
@@ -20805,6 +21475,7 @@
       <c r="AU475" s="23"/>
       <c r="AV475" s="23"/>
       <c r="AW475" s="23"/>
+      <c r="AX475" s="23"/>
     </row>
     <row r="476">
       <c r="AL476" s="23"/>
@@ -20819,6 +21490,7 @@
       <c r="AU476" s="23"/>
       <c r="AV476" s="23"/>
       <c r="AW476" s="23"/>
+      <c r="AX476" s="23"/>
     </row>
     <row r="477">
       <c r="AL477" s="23"/>
@@ -20833,6 +21505,7 @@
       <c r="AU477" s="23"/>
       <c r="AV477" s="23"/>
       <c r="AW477" s="23"/>
+      <c r="AX477" s="23"/>
     </row>
     <row r="478">
       <c r="AL478" s="23"/>
@@ -20847,6 +21520,7 @@
       <c r="AU478" s="23"/>
       <c r="AV478" s="23"/>
       <c r="AW478" s="23"/>
+      <c r="AX478" s="23"/>
     </row>
     <row r="479">
       <c r="AL479" s="23"/>
@@ -20861,6 +21535,7 @@
       <c r="AU479" s="23"/>
       <c r="AV479" s="23"/>
       <c r="AW479" s="23"/>
+      <c r="AX479" s="23"/>
     </row>
     <row r="480">
       <c r="AL480" s="23"/>
@@ -20875,6 +21550,7 @@
       <c r="AU480" s="23"/>
       <c r="AV480" s="23"/>
       <c r="AW480" s="23"/>
+      <c r="AX480" s="23"/>
     </row>
     <row r="481">
       <c r="AL481" s="23"/>
@@ -20889,6 +21565,7 @@
       <c r="AU481" s="23"/>
       <c r="AV481" s="23"/>
       <c r="AW481" s="23"/>
+      <c r="AX481" s="23"/>
     </row>
     <row r="482">
       <c r="AL482" s="23"/>
@@ -20903,6 +21580,7 @@
       <c r="AU482" s="23"/>
       <c r="AV482" s="23"/>
       <c r="AW482" s="23"/>
+      <c r="AX482" s="23"/>
     </row>
     <row r="483">
       <c r="AL483" s="23"/>
@@ -20917,6 +21595,7 @@
       <c r="AU483" s="23"/>
       <c r="AV483" s="23"/>
       <c r="AW483" s="23"/>
+      <c r="AX483" s="23"/>
     </row>
     <row r="484">
       <c r="AL484" s="23"/>
@@ -20931,6 +21610,7 @@
       <c r="AU484" s="23"/>
       <c r="AV484" s="23"/>
       <c r="AW484" s="23"/>
+      <c r="AX484" s="23"/>
     </row>
     <row r="485">
       <c r="AL485" s="23"/>
@@ -20945,6 +21625,7 @@
       <c r="AU485" s="23"/>
       <c r="AV485" s="23"/>
       <c r="AW485" s="23"/>
+      <c r="AX485" s="23"/>
     </row>
     <row r="486">
       <c r="AL486" s="23"/>
@@ -20959,6 +21640,7 @@
       <c r="AU486" s="23"/>
       <c r="AV486" s="23"/>
       <c r="AW486" s="23"/>
+      <c r="AX486" s="23"/>
     </row>
     <row r="487">
       <c r="AL487" s="23"/>
@@ -20973,6 +21655,7 @@
       <c r="AU487" s="23"/>
       <c r="AV487" s="23"/>
       <c r="AW487" s="23"/>
+      <c r="AX487" s="23"/>
     </row>
     <row r="488">
       <c r="AL488" s="23"/>
@@ -20987,6 +21670,7 @@
       <c r="AU488" s="23"/>
       <c r="AV488" s="23"/>
       <c r="AW488" s="23"/>
+      <c r="AX488" s="23"/>
     </row>
     <row r="489">
       <c r="AL489" s="23"/>
@@ -21001,6 +21685,7 @@
       <c r="AU489" s="23"/>
       <c r="AV489" s="23"/>
       <c r="AW489" s="23"/>
+      <c r="AX489" s="23"/>
     </row>
     <row r="490">
       <c r="AL490" s="23"/>
@@ -21015,6 +21700,7 @@
       <c r="AU490" s="23"/>
       <c r="AV490" s="23"/>
       <c r="AW490" s="23"/>
+      <c r="AX490" s="23"/>
     </row>
     <row r="491">
       <c r="AL491" s="23"/>
@@ -21029,6 +21715,7 @@
       <c r="AU491" s="23"/>
       <c r="AV491" s="23"/>
       <c r="AW491" s="23"/>
+      <c r="AX491" s="23"/>
     </row>
     <row r="492">
       <c r="AL492" s="23"/>
@@ -21043,6 +21730,7 @@
       <c r="AU492" s="23"/>
       <c r="AV492" s="23"/>
       <c r="AW492" s="23"/>
+      <c r="AX492" s="23"/>
     </row>
     <row r="493">
       <c r="AL493" s="23"/>
@@ -21057,6 +21745,7 @@
       <c r="AU493" s="23"/>
       <c r="AV493" s="23"/>
       <c r="AW493" s="23"/>
+      <c r="AX493" s="23"/>
     </row>
     <row r="494">
       <c r="AL494" s="23"/>
@@ -21071,6 +21760,7 @@
       <c r="AU494" s="23"/>
       <c r="AV494" s="23"/>
       <c r="AW494" s="23"/>
+      <c r="AX494" s="23"/>
     </row>
     <row r="495">
       <c r="AL495" s="23"/>
@@ -21085,6 +21775,7 @@
       <c r="AU495" s="23"/>
       <c r="AV495" s="23"/>
       <c r="AW495" s="23"/>
+      <c r="AX495" s="23"/>
     </row>
     <row r="496">
       <c r="AL496" s="23"/>
@@ -21099,6 +21790,7 @@
       <c r="AU496" s="23"/>
       <c r="AV496" s="23"/>
       <c r="AW496" s="23"/>
+      <c r="AX496" s="23"/>
     </row>
     <row r="497">
       <c r="AL497" s="23"/>
@@ -21113,6 +21805,7 @@
       <c r="AU497" s="23"/>
       <c r="AV497" s="23"/>
       <c r="AW497" s="23"/>
+      <c r="AX497" s="23"/>
     </row>
     <row r="498">
       <c r="AL498" s="23"/>
@@ -21127,6 +21820,7 @@
       <c r="AU498" s="23"/>
       <c r="AV498" s="23"/>
       <c r="AW498" s="23"/>
+      <c r="AX498" s="23"/>
     </row>
     <row r="499">
       <c r="AL499" s="23"/>
@@ -21141,6 +21835,7 @@
       <c r="AU499" s="23"/>
       <c r="AV499" s="23"/>
       <c r="AW499" s="23"/>
+      <c r="AX499" s="23"/>
     </row>
     <row r="500">
       <c r="AL500" s="23"/>
@@ -21155,6 +21850,7 @@
       <c r="AU500" s="23"/>
       <c r="AV500" s="23"/>
       <c r="AW500" s="23"/>
+      <c r="AX500" s="23"/>
     </row>
     <row r="501">
       <c r="AL501" s="23"/>
@@ -21169,6 +21865,7 @@
       <c r="AU501" s="23"/>
       <c r="AV501" s="23"/>
       <c r="AW501" s="23"/>
+      <c r="AX501" s="23"/>
     </row>
     <row r="502">
       <c r="AL502" s="23"/>
@@ -21183,6 +21880,7 @@
       <c r="AU502" s="23"/>
       <c r="AV502" s="23"/>
       <c r="AW502" s="23"/>
+      <c r="AX502" s="23"/>
     </row>
     <row r="503">
       <c r="AL503" s="23"/>
@@ -21197,6 +21895,7 @@
       <c r="AU503" s="23"/>
       <c r="AV503" s="23"/>
       <c r="AW503" s="23"/>
+      <c r="AX503" s="23"/>
     </row>
     <row r="504">
       <c r="AL504" s="23"/>
@@ -21211,6 +21910,7 @@
       <c r="AU504" s="23"/>
       <c r="AV504" s="23"/>
       <c r="AW504" s="23"/>
+      <c r="AX504" s="23"/>
     </row>
     <row r="505">
       <c r="AL505" s="23"/>
@@ -21225,6 +21925,7 @@
       <c r="AU505" s="23"/>
       <c r="AV505" s="23"/>
       <c r="AW505" s="23"/>
+      <c r="AX505" s="23"/>
     </row>
     <row r="506">
       <c r="AL506" s="23"/>
@@ -21239,6 +21940,7 @@
       <c r="AU506" s="23"/>
       <c r="AV506" s="23"/>
       <c r="AW506" s="23"/>
+      <c r="AX506" s="23"/>
     </row>
     <row r="507">
       <c r="AL507" s="23"/>
@@ -21253,6 +21955,7 @@
       <c r="AU507" s="23"/>
       <c r="AV507" s="23"/>
       <c r="AW507" s="23"/>
+      <c r="AX507" s="23"/>
     </row>
     <row r="508">
       <c r="AL508" s="23"/>
@@ -21267,6 +21970,7 @@
       <c r="AU508" s="23"/>
       <c r="AV508" s="23"/>
       <c r="AW508" s="23"/>
+      <c r="AX508" s="23"/>
     </row>
     <row r="509">
       <c r="AL509" s="23"/>
@@ -21281,6 +21985,7 @@
       <c r="AU509" s="23"/>
       <c r="AV509" s="23"/>
       <c r="AW509" s="23"/>
+      <c r="AX509" s="23"/>
     </row>
     <row r="510">
       <c r="AL510" s="23"/>
@@ -21295,6 +22000,7 @@
       <c r="AU510" s="23"/>
       <c r="AV510" s="23"/>
       <c r="AW510" s="23"/>
+      <c r="AX510" s="23"/>
     </row>
     <row r="511">
       <c r="AL511" s="23"/>
@@ -21309,6 +22015,7 @@
       <c r="AU511" s="23"/>
       <c r="AV511" s="23"/>
       <c r="AW511" s="23"/>
+      <c r="AX511" s="23"/>
     </row>
     <row r="512">
       <c r="AL512" s="23"/>
@@ -21323,6 +22030,7 @@
       <c r="AU512" s="23"/>
       <c r="AV512" s="23"/>
       <c r="AW512" s="23"/>
+      <c r="AX512" s="23"/>
     </row>
     <row r="513">
       <c r="AL513" s="23"/>
@@ -21337,6 +22045,7 @@
       <c r="AU513" s="23"/>
       <c r="AV513" s="23"/>
       <c r="AW513" s="23"/>
+      <c r="AX513" s="23"/>
     </row>
     <row r="514">
       <c r="AL514" s="23"/>
@@ -21351,6 +22060,7 @@
       <c r="AU514" s="23"/>
       <c r="AV514" s="23"/>
       <c r="AW514" s="23"/>
+      <c r="AX514" s="23"/>
     </row>
     <row r="515">
       <c r="AL515" s="23"/>
@@ -21365,6 +22075,7 @@
       <c r="AU515" s="23"/>
       <c r="AV515" s="23"/>
       <c r="AW515" s="23"/>
+      <c r="AX515" s="23"/>
     </row>
     <row r="516">
       <c r="AL516" s="23"/>
@@ -21379,6 +22090,7 @@
       <c r="AU516" s="23"/>
       <c r="AV516" s="23"/>
       <c r="AW516" s="23"/>
+      <c r="AX516" s="23"/>
     </row>
     <row r="517">
       <c r="AL517" s="23"/>
@@ -21393,6 +22105,7 @@
       <c r="AU517" s="23"/>
       <c r="AV517" s="23"/>
       <c r="AW517" s="23"/>
+      <c r="AX517" s="23"/>
     </row>
     <row r="518">
       <c r="AL518" s="23"/>
@@ -21407,6 +22120,7 @@
       <c r="AU518" s="23"/>
       <c r="AV518" s="23"/>
       <c r="AW518" s="23"/>
+      <c r="AX518" s="23"/>
     </row>
     <row r="519">
       <c r="AL519" s="23"/>
@@ -21421,6 +22135,7 @@
       <c r="AU519" s="23"/>
       <c r="AV519" s="23"/>
       <c r="AW519" s="23"/>
+      <c r="AX519" s="23"/>
     </row>
     <row r="520">
       <c r="AL520" s="23"/>
@@ -21435,6 +22150,7 @@
       <c r="AU520" s="23"/>
       <c r="AV520" s="23"/>
       <c r="AW520" s="23"/>
+      <c r="AX520" s="23"/>
     </row>
     <row r="521">
       <c r="AL521" s="23"/>
@@ -21449,6 +22165,7 @@
       <c r="AU521" s="23"/>
       <c r="AV521" s="23"/>
       <c r="AW521" s="23"/>
+      <c r="AX521" s="23"/>
     </row>
     <row r="522">
       <c r="AL522" s="23"/>
@@ -21463,6 +22180,7 @@
       <c r="AU522" s="23"/>
       <c r="AV522" s="23"/>
       <c r="AW522" s="23"/>
+      <c r="AX522" s="23"/>
     </row>
     <row r="523">
       <c r="AL523" s="23"/>
@@ -21477,6 +22195,7 @@
       <c r="AU523" s="23"/>
       <c r="AV523" s="23"/>
       <c r="AW523" s="23"/>
+      <c r="AX523" s="23"/>
     </row>
     <row r="524">
       <c r="AL524" s="23"/>
@@ -21491,6 +22210,7 @@
       <c r="AU524" s="23"/>
       <c r="AV524" s="23"/>
       <c r="AW524" s="23"/>
+      <c r="AX524" s="23"/>
     </row>
     <row r="525">
       <c r="AL525" s="23"/>
@@ -21505,6 +22225,7 @@
       <c r="AU525" s="23"/>
       <c r="AV525" s="23"/>
       <c r="AW525" s="23"/>
+      <c r="AX525" s="23"/>
     </row>
     <row r="526">
       <c r="AL526" s="23"/>
@@ -21519,6 +22240,7 @@
       <c r="AU526" s="23"/>
       <c r="AV526" s="23"/>
       <c r="AW526" s="23"/>
+      <c r="AX526" s="23"/>
     </row>
     <row r="527">
       <c r="AL527" s="23"/>
@@ -21533,6 +22255,7 @@
       <c r="AU527" s="23"/>
       <c r="AV527" s="23"/>
       <c r="AW527" s="23"/>
+      <c r="AX527" s="23"/>
     </row>
     <row r="528">
       <c r="AL528" s="23"/>
@@ -21547,6 +22270,7 @@
       <c r="AU528" s="23"/>
       <c r="AV528" s="23"/>
       <c r="AW528" s="23"/>
+      <c r="AX528" s="23"/>
     </row>
     <row r="529">
       <c r="AL529" s="23"/>
@@ -21561,6 +22285,7 @@
       <c r="AU529" s="23"/>
       <c r="AV529" s="23"/>
       <c r="AW529" s="23"/>
+      <c r="AX529" s="23"/>
     </row>
     <row r="530">
       <c r="AL530" s="23"/>
@@ -21575,6 +22300,7 @@
       <c r="AU530" s="23"/>
       <c r="AV530" s="23"/>
       <c r="AW530" s="23"/>
+      <c r="AX530" s="23"/>
     </row>
     <row r="531">
       <c r="AL531" s="23"/>
@@ -21589,6 +22315,7 @@
       <c r="AU531" s="23"/>
       <c r="AV531" s="23"/>
       <c r="AW531" s="23"/>
+      <c r="AX531" s="23"/>
     </row>
     <row r="532">
       <c r="AL532" s="23"/>
@@ -21603,6 +22330,7 @@
       <c r="AU532" s="23"/>
       <c r="AV532" s="23"/>
       <c r="AW532" s="23"/>
+      <c r="AX532" s="23"/>
     </row>
     <row r="533">
       <c r="AL533" s="23"/>
@@ -21617,6 +22345,7 @@
       <c r="AU533" s="23"/>
       <c r="AV533" s="23"/>
       <c r="AW533" s="23"/>
+      <c r="AX533" s="23"/>
     </row>
     <row r="534">
       <c r="AL534" s="23"/>
@@ -21631,6 +22360,7 @@
       <c r="AU534" s="23"/>
       <c r="AV534" s="23"/>
       <c r="AW534" s="23"/>
+      <c r="AX534" s="23"/>
     </row>
     <row r="535">
       <c r="AL535" s="23"/>
@@ -21645,6 +22375,7 @@
       <c r="AU535" s="23"/>
       <c r="AV535" s="23"/>
       <c r="AW535" s="23"/>
+      <c r="AX535" s="23"/>
     </row>
     <row r="536">
       <c r="AL536" s="23"/>
@@ -21659,6 +22390,7 @@
       <c r="AU536" s="23"/>
       <c r="AV536" s="23"/>
       <c r="AW536" s="23"/>
+      <c r="AX536" s="23"/>
     </row>
     <row r="537">
       <c r="AL537" s="23"/>
@@ -21673,6 +22405,7 @@
       <c r="AU537" s="23"/>
       <c r="AV537" s="23"/>
       <c r="AW537" s="23"/>
+      <c r="AX537" s="23"/>
     </row>
     <row r="538">
       <c r="AL538" s="23"/>
@@ -21687,6 +22420,7 @@
       <c r="AU538" s="23"/>
       <c r="AV538" s="23"/>
       <c r="AW538" s="23"/>
+      <c r="AX538" s="23"/>
     </row>
     <row r="539">
       <c r="AL539" s="23"/>
@@ -21701,6 +22435,7 @@
       <c r="AU539" s="23"/>
       <c r="AV539" s="23"/>
       <c r="AW539" s="23"/>
+      <c r="AX539" s="23"/>
     </row>
     <row r="540">
       <c r="AL540" s="23"/>
@@ -21715,6 +22450,7 @@
       <c r="AU540" s="23"/>
       <c r="AV540" s="23"/>
       <c r="AW540" s="23"/>
+      <c r="AX540" s="23"/>
     </row>
     <row r="541">
       <c r="AL541" s="23"/>
@@ -21729,6 +22465,7 @@
       <c r="AU541" s="23"/>
       <c r="AV541" s="23"/>
       <c r="AW541" s="23"/>
+      <c r="AX541" s="23"/>
     </row>
     <row r="542">
       <c r="AL542" s="23"/>
@@ -21743,6 +22480,7 @@
       <c r="AU542" s="23"/>
       <c r="AV542" s="23"/>
       <c r="AW542" s="23"/>
+      <c r="AX542" s="23"/>
     </row>
     <row r="543">
       <c r="AL543" s="23"/>
@@ -21757,6 +22495,7 @@
       <c r="AU543" s="23"/>
       <c r="AV543" s="23"/>
       <c r="AW543" s="23"/>
+      <c r="AX543" s="23"/>
     </row>
     <row r="544">
       <c r="AL544" s="23"/>
@@ -21771,6 +22510,7 @@
       <c r="AU544" s="23"/>
       <c r="AV544" s="23"/>
       <c r="AW544" s="23"/>
+      <c r="AX544" s="23"/>
     </row>
     <row r="545">
       <c r="AL545" s="23"/>
@@ -21785,6 +22525,7 @@
       <c r="AU545" s="23"/>
       <c r="AV545" s="23"/>
       <c r="AW545" s="23"/>
+      <c r="AX545" s="23"/>
     </row>
     <row r="546">
       <c r="AL546" s="23"/>
@@ -21799,6 +22540,7 @@
       <c r="AU546" s="23"/>
       <c r="AV546" s="23"/>
       <c r="AW546" s="23"/>
+      <c r="AX546" s="23"/>
     </row>
     <row r="547">
       <c r="AL547" s="23"/>
@@ -21813,6 +22555,7 @@
       <c r="AU547" s="23"/>
       <c r="AV547" s="23"/>
       <c r="AW547" s="23"/>
+      <c r="AX547" s="23"/>
     </row>
     <row r="548">
       <c r="AL548" s="23"/>
@@ -21827,6 +22570,7 @@
       <c r="AU548" s="23"/>
       <c r="AV548" s="23"/>
       <c r="AW548" s="23"/>
+      <c r="AX548" s="23"/>
     </row>
     <row r="549">
       <c r="AL549" s="23"/>
@@ -21841,6 +22585,7 @@
       <c r="AU549" s="23"/>
       <c r="AV549" s="23"/>
       <c r="AW549" s="23"/>
+      <c r="AX549" s="23"/>
     </row>
     <row r="550">
       <c r="AL550" s="23"/>
@@ -21855,6 +22600,7 @@
       <c r="AU550" s="23"/>
       <c r="AV550" s="23"/>
       <c r="AW550" s="23"/>
+      <c r="AX550" s="23"/>
     </row>
     <row r="551">
       <c r="AL551" s="23"/>
@@ -21869,6 +22615,7 @@
       <c r="AU551" s="23"/>
       <c r="AV551" s="23"/>
       <c r="AW551" s="23"/>
+      <c r="AX551" s="23"/>
     </row>
     <row r="552">
       <c r="AL552" s="23"/>
@@ -21883,6 +22630,7 @@
       <c r="AU552" s="23"/>
       <c r="AV552" s="23"/>
       <c r="AW552" s="23"/>
+      <c r="AX552" s="23"/>
     </row>
     <row r="553">
       <c r="AL553" s="23"/>
@@ -21897,6 +22645,7 @@
       <c r="AU553" s="23"/>
       <c r="AV553" s="23"/>
       <c r="AW553" s="23"/>
+      <c r="AX553" s="23"/>
     </row>
     <row r="554">
       <c r="AL554" s="23"/>
@@ -21911,6 +22660,7 @@
       <c r="AU554" s="23"/>
       <c r="AV554" s="23"/>
       <c r="AW554" s="23"/>
+      <c r="AX554" s="23"/>
     </row>
     <row r="555">
       <c r="AL555" s="23"/>
@@ -21925,6 +22675,7 @@
       <c r="AU555" s="23"/>
       <c r="AV555" s="23"/>
       <c r="AW555" s="23"/>
+      <c r="AX555" s="23"/>
     </row>
     <row r="556">
       <c r="AL556" s="23"/>
@@ -21939,6 +22690,7 @@
       <c r="AU556" s="23"/>
       <c r="AV556" s="23"/>
       <c r="AW556" s="23"/>
+      <c r="AX556" s="23"/>
     </row>
     <row r="557">
       <c r="AL557" s="23"/>
@@ -21953,6 +22705,7 @@
       <c r="AU557" s="23"/>
       <c r="AV557" s="23"/>
       <c r="AW557" s="23"/>
+      <c r="AX557" s="23"/>
     </row>
     <row r="558">
       <c r="AL558" s="23"/>
@@ -21967,6 +22720,7 @@
       <c r="AU558" s="23"/>
       <c r="AV558" s="23"/>
       <c r="AW558" s="23"/>
+      <c r="AX558" s="23"/>
     </row>
     <row r="559">
       <c r="AL559" s="23"/>
@@ -21981,6 +22735,7 @@
       <c r="AU559" s="23"/>
       <c r="AV559" s="23"/>
       <c r="AW559" s="23"/>
+      <c r="AX559" s="23"/>
     </row>
     <row r="560">
       <c r="AL560" s="23"/>
@@ -21995,6 +22750,7 @@
       <c r="AU560" s="23"/>
       <c r="AV560" s="23"/>
       <c r="AW560" s="23"/>
+      <c r="AX560" s="23"/>
     </row>
     <row r="561">
       <c r="AL561" s="23"/>
@@ -22009,6 +22765,7 @@
       <c r="AU561" s="23"/>
       <c r="AV561" s="23"/>
       <c r="AW561" s="23"/>
+      <c r="AX561" s="23"/>
     </row>
     <row r="562">
       <c r="AL562" s="23"/>
@@ -22023,6 +22780,7 @@
       <c r="AU562" s="23"/>
       <c r="AV562" s="23"/>
       <c r="AW562" s="23"/>
+      <c r="AX562" s="23"/>
     </row>
     <row r="563">
       <c r="AL563" s="23"/>
@@ -22037,6 +22795,7 @@
       <c r="AU563" s="23"/>
       <c r="AV563" s="23"/>
       <c r="AW563" s="23"/>
+      <c r="AX563" s="23"/>
     </row>
     <row r="564">
       <c r="AL564" s="23"/>
@@ -22051,6 +22810,7 @@
       <c r="AU564" s="23"/>
       <c r="AV564" s="23"/>
       <c r="AW564" s="23"/>
+      <c r="AX564" s="23"/>
     </row>
     <row r="565">
       <c r="AL565" s="23"/>
@@ -22065,6 +22825,7 @@
       <c r="AU565" s="23"/>
       <c r="AV565" s="23"/>
       <c r="AW565" s="23"/>
+      <c r="AX565" s="23"/>
     </row>
     <row r="566">
       <c r="AL566" s="23"/>
@@ -22079,6 +22840,7 @@
       <c r="AU566" s="23"/>
       <c r="AV566" s="23"/>
       <c r="AW566" s="23"/>
+      <c r="AX566" s="23"/>
     </row>
     <row r="567">
       <c r="AL567" s="23"/>
@@ -22093,6 +22855,7 @@
       <c r="AU567" s="23"/>
       <c r="AV567" s="23"/>
       <c r="AW567" s="23"/>
+      <c r="AX567" s="23"/>
     </row>
     <row r="568">
       <c r="AL568" s="23"/>
@@ -22107,6 +22870,7 @@
       <c r="AU568" s="23"/>
       <c r="AV568" s="23"/>
       <c r="AW568" s="23"/>
+      <c r="AX568" s="23"/>
     </row>
     <row r="569">
       <c r="AL569" s="23"/>
@@ -22121,6 +22885,7 @@
       <c r="AU569" s="23"/>
       <c r="AV569" s="23"/>
       <c r="AW569" s="23"/>
+      <c r="AX569" s="23"/>
     </row>
     <row r="570">
       <c r="AL570" s="23"/>
@@ -22135,6 +22900,7 @@
       <c r="AU570" s="23"/>
       <c r="AV570" s="23"/>
       <c r="AW570" s="23"/>
+      <c r="AX570" s="23"/>
     </row>
     <row r="571">
       <c r="AL571" s="23"/>
@@ -22149,6 +22915,7 @@
       <c r="AU571" s="23"/>
       <c r="AV571" s="23"/>
       <c r="AW571" s="23"/>
+      <c r="AX571" s="23"/>
     </row>
     <row r="572">
       <c r="AL572" s="23"/>
@@ -22163,6 +22930,7 @@
       <c r="AU572" s="23"/>
       <c r="AV572" s="23"/>
       <c r="AW572" s="23"/>
+      <c r="AX572" s="23"/>
     </row>
     <row r="573">
       <c r="AL573" s="23"/>
@@ -22177,6 +22945,7 @@
       <c r="AU573" s="23"/>
       <c r="AV573" s="23"/>
       <c r="AW573" s="23"/>
+      <c r="AX573" s="23"/>
     </row>
     <row r="574">
       <c r="AL574" s="23"/>
@@ -22191,6 +22960,7 @@
       <c r="AU574" s="23"/>
       <c r="AV574" s="23"/>
       <c r="AW574" s="23"/>
+      <c r="AX574" s="23"/>
     </row>
     <row r="575">
       <c r="AL575" s="23"/>
@@ -22205,6 +22975,7 @@
       <c r="AU575" s="23"/>
       <c r="AV575" s="23"/>
       <c r="AW575" s="23"/>
+      <c r="AX575" s="23"/>
     </row>
     <row r="576">
       <c r="AL576" s="23"/>
@@ -22219,6 +22990,7 @@
       <c r="AU576" s="23"/>
       <c r="AV576" s="23"/>
       <c r="AW576" s="23"/>
+      <c r="AX576" s="23"/>
     </row>
     <row r="577">
       <c r="AL577" s="23"/>
@@ -22233,6 +23005,7 @@
       <c r="AU577" s="23"/>
       <c r="AV577" s="23"/>
       <c r="AW577" s="23"/>
+      <c r="AX577" s="23"/>
     </row>
     <row r="578">
       <c r="AL578" s="23"/>
@@ -22247,6 +23020,7 @@
       <c r="AU578" s="23"/>
       <c r="AV578" s="23"/>
       <c r="AW578" s="23"/>
+      <c r="AX578" s="23"/>
     </row>
     <row r="579">
       <c r="AL579" s="23"/>
@@ -22261,6 +23035,7 @@
       <c r="AU579" s="23"/>
       <c r="AV579" s="23"/>
       <c r="AW579" s="23"/>
+      <c r="AX579" s="23"/>
     </row>
     <row r="580">
       <c r="AL580" s="23"/>
@@ -22275,6 +23050,7 @@
       <c r="AU580" s="23"/>
       <c r="AV580" s="23"/>
       <c r="AW580" s="23"/>
+      <c r="AX580" s="23"/>
     </row>
     <row r="581">
       <c r="AL581" s="23"/>
@@ -22289,6 +23065,7 @@
       <c r="AU581" s="23"/>
       <c r="AV581" s="23"/>
       <c r="AW581" s="23"/>
+      <c r="AX581" s="23"/>
     </row>
     <row r="582">
       <c r="AL582" s="23"/>
@@ -22303,6 +23080,7 @@
       <c r="AU582" s="23"/>
       <c r="AV582" s="23"/>
       <c r="AW582" s="23"/>
+      <c r="AX582" s="23"/>
     </row>
     <row r="583">
       <c r="AL583" s="23"/>
@@ -22317,6 +23095,7 @@
       <c r="AU583" s="23"/>
       <c r="AV583" s="23"/>
       <c r="AW583" s="23"/>
+      <c r="AX583" s="23"/>
     </row>
     <row r="584">
       <c r="AL584" s="23"/>
@@ -22331,6 +23110,7 @@
       <c r="AU584" s="23"/>
       <c r="AV584" s="23"/>
       <c r="AW584" s="23"/>
+      <c r="AX584" s="23"/>
     </row>
     <row r="585">
       <c r="AL585" s="23"/>
@@ -22345,6 +23125,7 @@
       <c r="AU585" s="23"/>
       <c r="AV585" s="23"/>
       <c r="AW585" s="23"/>
+      <c r="AX585" s="23"/>
     </row>
     <row r="586">
       <c r="AL586" s="23"/>
@@ -22359,6 +23140,7 @@
       <c r="AU586" s="23"/>
       <c r="AV586" s="23"/>
       <c r="AW586" s="23"/>
+      <c r="AX586" s="23"/>
     </row>
     <row r="587">
       <c r="AL587" s="23"/>
@@ -22373,6 +23155,7 @@
       <c r="AU587" s="23"/>
       <c r="AV587" s="23"/>
       <c r="AW587" s="23"/>
+      <c r="AX587" s="23"/>
     </row>
     <row r="588">
       <c r="AL588" s="23"/>
@@ -22387,6 +23170,7 @@
       <c r="AU588" s="23"/>
       <c r="AV588" s="23"/>
       <c r="AW588" s="23"/>
+      <c r="AX588" s="23"/>
     </row>
     <row r="589">
       <c r="AL589" s="23"/>
@@ -22401,6 +23185,7 @@
       <c r="AU589" s="23"/>
       <c r="AV589" s="23"/>
       <c r="AW589" s="23"/>
+      <c r="AX589" s="23"/>
     </row>
     <row r="590">
       <c r="AL590" s="23"/>
@@ -22415,6 +23200,7 @@
       <c r="AU590" s="23"/>
       <c r="AV590" s="23"/>
       <c r="AW590" s="23"/>
+      <c r="AX590" s="23"/>
     </row>
     <row r="591">
       <c r="AL591" s="23"/>
@@ -22429,6 +23215,7 @@
       <c r="AU591" s="23"/>
       <c r="AV591" s="23"/>
       <c r="AW591" s="23"/>
+      <c r="AX591" s="23"/>
     </row>
     <row r="592">
       <c r="AL592" s="23"/>
@@ -22443,6 +23230,7 @@
       <c r="AU592" s="23"/>
       <c r="AV592" s="23"/>
       <c r="AW592" s="23"/>
+      <c r="AX592" s="23"/>
     </row>
     <row r="593">
       <c r="AL593" s="23"/>
@@ -22457,6 +23245,7 @@
       <c r="AU593" s="23"/>
       <c r="AV593" s="23"/>
       <c r="AW593" s="23"/>
+      <c r="AX593" s="23"/>
     </row>
     <row r="594">
       <c r="AL594" s="23"/>
@@ -22471,6 +23260,7 @@
       <c r="AU594" s="23"/>
       <c r="AV594" s="23"/>
       <c r="AW594" s="23"/>
+      <c r="AX594" s="23"/>
     </row>
     <row r="595">
       <c r="AL595" s="23"/>
@@ -22485,6 +23275,7 @@
       <c r="AU595" s="23"/>
       <c r="AV595" s="23"/>
       <c r="AW595" s="23"/>
+      <c r="AX595" s="23"/>
     </row>
     <row r="596">
       <c r="AL596" s="23"/>
@@ -22499,6 +23290,7 @@
       <c r="AU596" s="23"/>
       <c r="AV596" s="23"/>
       <c r="AW596" s="23"/>
+      <c r="AX596" s="23"/>
     </row>
     <row r="597">
       <c r="AL597" s="23"/>
@@ -22513,6 +23305,7 @@
       <c r="AU597" s="23"/>
       <c r="AV597" s="23"/>
       <c r="AW597" s="23"/>
+      <c r="AX597" s="23"/>
     </row>
     <row r="598">
       <c r="AL598" s="23"/>
@@ -22527,6 +23320,7 @@
       <c r="AU598" s="23"/>
       <c r="AV598" s="23"/>
       <c r="AW598" s="23"/>
+      <c r="AX598" s="23"/>
     </row>
     <row r="599">
       <c r="AL599" s="23"/>
@@ -22541,6 +23335,7 @@
       <c r="AU599" s="23"/>
       <c r="AV599" s="23"/>
       <c r="AW599" s="23"/>
+      <c r="AX599" s="23"/>
     </row>
     <row r="600">
       <c r="AL600" s="23"/>
@@ -22555,6 +23350,7 @@
       <c r="AU600" s="23"/>
       <c r="AV600" s="23"/>
       <c r="AW600" s="23"/>
+      <c r="AX600" s="23"/>
     </row>
     <row r="601">
       <c r="AL601" s="23"/>
@@ -22569,6 +23365,7 @@
       <c r="AU601" s="23"/>
       <c r="AV601" s="23"/>
       <c r="AW601" s="23"/>
+      <c r="AX601" s="23"/>
     </row>
     <row r="602">
       <c r="AL602" s="23"/>
@@ -22583,6 +23380,7 @@
       <c r="AU602" s="23"/>
       <c r="AV602" s="23"/>
       <c r="AW602" s="23"/>
+      <c r="AX602" s="23"/>
     </row>
     <row r="603">
       <c r="AL603" s="23"/>
@@ -22597,6 +23395,7 @@
       <c r="AU603" s="23"/>
       <c r="AV603" s="23"/>
       <c r="AW603" s="23"/>
+      <c r="AX603" s="23"/>
     </row>
     <row r="604">
       <c r="AL604" s="23"/>
@@ -22611,6 +23410,7 @@
       <c r="AU604" s="23"/>
       <c r="AV604" s="23"/>
       <c r="AW604" s="23"/>
+      <c r="AX604" s="23"/>
     </row>
     <row r="605">
       <c r="AL605" s="23"/>
@@ -22625,6 +23425,7 @@
       <c r="AU605" s="23"/>
       <c r="AV605" s="23"/>
       <c r="AW605" s="23"/>
+      <c r="AX605" s="23"/>
     </row>
     <row r="606">
       <c r="AL606" s="23"/>
@@ -22639,6 +23440,7 @@
       <c r="AU606" s="23"/>
       <c r="AV606" s="23"/>
       <c r="AW606" s="23"/>
+      <c r="AX606" s="23"/>
     </row>
     <row r="607">
       <c r="AL607" s="23"/>
@@ -22653,6 +23455,7 @@
       <c r="AU607" s="23"/>
       <c r="AV607" s="23"/>
       <c r="AW607" s="23"/>
+      <c r="AX607" s="23"/>
     </row>
     <row r="608">
       <c r="AL608" s="23"/>
@@ -22667,6 +23470,7 @@
       <c r="AU608" s="23"/>
       <c r="AV608" s="23"/>
       <c r="AW608" s="23"/>
+      <c r="AX608" s="23"/>
     </row>
     <row r="609">
       <c r="AL609" s="23"/>
@@ -22681,6 +23485,7 @@
       <c r="AU609" s="23"/>
       <c r="AV609" s="23"/>
       <c r="AW609" s="23"/>
+      <c r="AX609" s="23"/>
     </row>
     <row r="610">
       <c r="AL610" s="23"/>
@@ -22695,6 +23500,7 @@
       <c r="AU610" s="23"/>
       <c r="AV610" s="23"/>
       <c r="AW610" s="23"/>
+      <c r="AX610" s="23"/>
     </row>
     <row r="611">
       <c r="AL611" s="23"/>
@@ -22709,6 +23515,7 @@
       <c r="AU611" s="23"/>
       <c r="AV611" s="23"/>
       <c r="AW611" s="23"/>
+      <c r="AX611" s="23"/>
     </row>
     <row r="612">
       <c r="AL612" s="23"/>
@@ -22723,6 +23530,7 @@
       <c r="AU612" s="23"/>
       <c r="AV612" s="23"/>
       <c r="AW612" s="23"/>
+      <c r="AX612" s="23"/>
     </row>
     <row r="613">
       <c r="AL613" s="23"/>
@@ -22737,6 +23545,7 @@
       <c r="AU613" s="23"/>
       <c r="AV613" s="23"/>
       <c r="AW613" s="23"/>
+      <c r="AX613" s="23"/>
     </row>
     <row r="614">
       <c r="AL614" s="23"/>
@@ -22751,6 +23560,7 @@
       <c r="AU614" s="23"/>
       <c r="AV614" s="23"/>
       <c r="AW614" s="23"/>
+      <c r="AX614" s="23"/>
     </row>
     <row r="615">
       <c r="AL615" s="23"/>
@@ -22765,6 +23575,7 @@
       <c r="AU615" s="23"/>
       <c r="AV615" s="23"/>
       <c r="AW615" s="23"/>
+      <c r="AX615" s="23"/>
     </row>
     <row r="616">
       <c r="AL616" s="23"/>
@@ -22779,6 +23590,7 @@
       <c r="AU616" s="23"/>
       <c r="AV616" s="23"/>
       <c r="AW616" s="23"/>
+      <c r="AX616" s="23"/>
     </row>
     <row r="617">
       <c r="AL617" s="23"/>
@@ -22793,6 +23605,7 @@
       <c r="AU617" s="23"/>
       <c r="AV617" s="23"/>
       <c r="AW617" s="23"/>
+      <c r="AX617" s="23"/>
     </row>
     <row r="618">
       <c r="AL618" s="23"/>
@@ -22807,6 +23620,7 @@
       <c r="AU618" s="23"/>
       <c r="AV618" s="23"/>
       <c r="AW618" s="23"/>
+      <c r="AX618" s="23"/>
     </row>
     <row r="619">
       <c r="AL619" s="23"/>
@@ -22821,6 +23635,7 @@
       <c r="AU619" s="23"/>
       <c r="AV619" s="23"/>
       <c r="AW619" s="23"/>
+      <c r="AX619" s="23"/>
     </row>
     <row r="620">
       <c r="AL620" s="23"/>
@@ -22835,6 +23650,7 @@
       <c r="AU620" s="23"/>
       <c r="AV620" s="23"/>
       <c r="AW620" s="23"/>
+      <c r="AX620" s="23"/>
     </row>
     <row r="621">
       <c r="AL621" s="23"/>
@@ -22849,6 +23665,7 @@
       <c r="AU621" s="23"/>
       <c r="AV621" s="23"/>
       <c r="AW621" s="23"/>
+      <c r="AX621" s="23"/>
     </row>
     <row r="622">
       <c r="AL622" s="23"/>
@@ -22863,6 +23680,7 @@
       <c r="AU622" s="23"/>
       <c r="AV622" s="23"/>
       <c r="AW622" s="23"/>
+      <c r="AX622" s="23"/>
     </row>
     <row r="623">
       <c r="AL623" s="23"/>
@@ -22877,6 +23695,7 @@
       <c r="AU623" s="23"/>
       <c r="AV623" s="23"/>
       <c r="AW623" s="23"/>
+      <c r="AX623" s="23"/>
     </row>
     <row r="624">
       <c r="AL624" s="23"/>
@@ -22891,6 +23710,7 @@
       <c r="AU624" s="23"/>
       <c r="AV624" s="23"/>
       <c r="AW624" s="23"/>
+      <c r="AX624" s="23"/>
     </row>
     <row r="625">
       <c r="AL625" s="23"/>
@@ -22905,6 +23725,7 @@
       <c r="AU625" s="23"/>
       <c r="AV625" s="23"/>
       <c r="AW625" s="23"/>
+      <c r="AX625" s="23"/>
     </row>
     <row r="626">
       <c r="AL626" s="23"/>
@@ -22919,6 +23740,7 @@
       <c r="AU626" s="23"/>
       <c r="AV626" s="23"/>
       <c r="AW626" s="23"/>
+      <c r="AX626" s="23"/>
     </row>
     <row r="627">
       <c r="AL627" s="23"/>
@@ -22933,6 +23755,7 @@
       <c r="AU627" s="23"/>
       <c r="AV627" s="23"/>
       <c r="AW627" s="23"/>
+      <c r="AX627" s="23"/>
     </row>
     <row r="628">
       <c r="AL628" s="23"/>
@@ -22947,6 +23770,7 @@
       <c r="AU628" s="23"/>
       <c r="AV628" s="23"/>
       <c r="AW628" s="23"/>
+      <c r="AX628" s="23"/>
     </row>
     <row r="629">
       <c r="AL629" s="23"/>
@@ -22961,6 +23785,7 @@
       <c r="AU629" s="23"/>
       <c r="AV629" s="23"/>
       <c r="AW629" s="23"/>
+      <c r="AX629" s="23"/>
     </row>
     <row r="630">
       <c r="AL630" s="23"/>
@@ -22975,6 +23800,7 @@
       <c r="AU630" s="23"/>
       <c r="AV630" s="23"/>
       <c r="AW630" s="23"/>
+      <c r="AX630" s="23"/>
     </row>
     <row r="631">
       <c r="AL631" s="23"/>
@@ -22989,6 +23815,7 @@
       <c r="AU631" s="23"/>
       <c r="AV631" s="23"/>
       <c r="AW631" s="23"/>
+      <c r="AX631" s="23"/>
     </row>
     <row r="632">
       <c r="AL632" s="23"/>
@@ -23003,6 +23830,7 @@
       <c r="AU632" s="23"/>
       <c r="AV632" s="23"/>
       <c r="AW632" s="23"/>
+      <c r="AX632" s="23"/>
     </row>
     <row r="633">
       <c r="AL633" s="23"/>
@@ -23017,6 +23845,7 @@
       <c r="AU633" s="23"/>
       <c r="AV633" s="23"/>
       <c r="AW633" s="23"/>
+      <c r="AX633" s="23"/>
     </row>
     <row r="634">
       <c r="AL634" s="23"/>
@@ -23031,6 +23860,7 @@
       <c r="AU634" s="23"/>
       <c r="AV634" s="23"/>
       <c r="AW634" s="23"/>
+      <c r="AX634" s="23"/>
     </row>
     <row r="635">
       <c r="AL635" s="23"/>
@@ -23045,6 +23875,7 @@
       <c r="AU635" s="23"/>
       <c r="AV635" s="23"/>
       <c r="AW635" s="23"/>
+      <c r="AX635" s="23"/>
     </row>
     <row r="636">
       <c r="AL636" s="23"/>
@@ -23059,6 +23890,7 @@
       <c r="AU636" s="23"/>
       <c r="AV636" s="23"/>
       <c r="AW636" s="23"/>
+      <c r="AX636" s="23"/>
     </row>
     <row r="637">
       <c r="AL637" s="23"/>
@@ -23073,6 +23905,7 @@
       <c r="AU637" s="23"/>
       <c r="AV637" s="23"/>
       <c r="AW637" s="23"/>
+      <c r="AX637" s="23"/>
     </row>
     <row r="638">
       <c r="AL638" s="23"/>
@@ -23087,6 +23920,7 @@
       <c r="AU638" s="23"/>
       <c r="AV638" s="23"/>
       <c r="AW638" s="23"/>
+      <c r="AX638" s="23"/>
     </row>
     <row r="639">
       <c r="AL639" s="23"/>
@@ -23101,6 +23935,7 @@
       <c r="AU639" s="23"/>
       <c r="AV639" s="23"/>
       <c r="AW639" s="23"/>
+      <c r="AX639" s="23"/>
     </row>
     <row r="640">
       <c r="AL640" s="23"/>
@@ -23115,6 +23950,7 @@
       <c r="AU640" s="23"/>
       <c r="AV640" s="23"/>
       <c r="AW640" s="23"/>
+      <c r="AX640" s="23"/>
     </row>
     <row r="641">
       <c r="AL641" s="23"/>
@@ -23129,6 +23965,7 @@
       <c r="AU641" s="23"/>
       <c r="AV641" s="23"/>
       <c r="AW641" s="23"/>
+      <c r="AX641" s="23"/>
     </row>
     <row r="642">
       <c r="AL642" s="23"/>
@@ -23143,6 +23980,7 @@
       <c r="AU642" s="23"/>
       <c r="AV642" s="23"/>
       <c r="AW642" s="23"/>
+      <c r="AX642" s="23"/>
     </row>
     <row r="643">
       <c r="AL643" s="23"/>
@@ -23157,6 +23995,7 @@
       <c r="AU643" s="23"/>
       <c r="AV643" s="23"/>
       <c r="AW643" s="23"/>
+      <c r="AX643" s="23"/>
     </row>
     <row r="644">
       <c r="AL644" s="23"/>
@@ -23171,6 +24010,7 @@
       <c r="AU644" s="23"/>
       <c r="AV644" s="23"/>
       <c r="AW644" s="23"/>
+      <c r="AX644" s="23"/>
     </row>
     <row r="645">
       <c r="AL645" s="23"/>
@@ -23185,6 +24025,7 @@
       <c r="AU645" s="23"/>
       <c r="AV645" s="23"/>
       <c r="AW645" s="23"/>
+      <c r="AX645" s="23"/>
     </row>
     <row r="646">
       <c r="AL646" s="23"/>
@@ -23199,6 +24040,7 @@
       <c r="AU646" s="23"/>
       <c r="AV646" s="23"/>
       <c r="AW646" s="23"/>
+      <c r="AX646" s="23"/>
     </row>
     <row r="647">
       <c r="AL647" s="23"/>
@@ -23213,6 +24055,7 @@
       <c r="AU647" s="23"/>
       <c r="AV647" s="23"/>
       <c r="AW647" s="23"/>
+      <c r="AX647" s="23"/>
     </row>
     <row r="648">
       <c r="AL648" s="23"/>
@@ -23227,6 +24070,7 @@
       <c r="AU648" s="23"/>
       <c r="AV648" s="23"/>
       <c r="AW648" s="23"/>
+      <c r="AX648" s="23"/>
     </row>
     <row r="649">
       <c r="AL649" s="23"/>
@@ -23241,6 +24085,7 @@
       <c r="AU649" s="23"/>
       <c r="AV649" s="23"/>
       <c r="AW649" s="23"/>
+      <c r="AX649" s="23"/>
     </row>
     <row r="650">
       <c r="AL650" s="23"/>
@@ -23255,6 +24100,7 @@
       <c r="AU650" s="23"/>
       <c r="AV650" s="23"/>
       <c r="AW650" s="23"/>
+      <c r="AX650" s="23"/>
     </row>
     <row r="651">
       <c r="AL651" s="23"/>
@@ -23269,6 +24115,7 @@
       <c r="AU651" s="23"/>
       <c r="AV651" s="23"/>
       <c r="AW651" s="23"/>
+      <c r="AX651" s="23"/>
     </row>
     <row r="652">
       <c r="AL652" s="23"/>
@@ -23283,6 +24130,7 @@
       <c r="AU652" s="23"/>
       <c r="AV652" s="23"/>
       <c r="AW652" s="23"/>
+      <c r="AX652" s="23"/>
     </row>
     <row r="653">
       <c r="AL653" s="23"/>
@@ -23297,6 +24145,7 @@
       <c r="AU653" s="23"/>
       <c r="AV653" s="23"/>
       <c r="AW653" s="23"/>
+      <c r="AX653" s="23"/>
     </row>
     <row r="654">
       <c r="AL654" s="23"/>
@@ -23311,6 +24160,7 @@
       <c r="AU654" s="23"/>
       <c r="AV654" s="23"/>
       <c r="AW654" s="23"/>
+      <c r="AX654" s="23"/>
     </row>
     <row r="655">
       <c r="AL655" s="23"/>
@@ -23325,6 +24175,7 @@
       <c r="AU655" s="23"/>
       <c r="AV655" s="23"/>
       <c r="AW655" s="23"/>
+      <c r="AX655" s="23"/>
     </row>
     <row r="656">
       <c r="AL656" s="23"/>
@@ -23339,6 +24190,7 @@
       <c r="AU656" s="23"/>
       <c r="AV656" s="23"/>
       <c r="AW656" s="23"/>
+      <c r="AX656" s="23"/>
     </row>
     <row r="657">
       <c r="AL657" s="23"/>
@@ -23353,6 +24205,7 @@
       <c r="AU657" s="23"/>
       <c r="AV657" s="23"/>
       <c r="AW657" s="23"/>
+      <c r="AX657" s="23"/>
     </row>
     <row r="658">
       <c r="AL658" s="23"/>
@@ -23367,6 +24220,7 @@
       <c r="AU658" s="23"/>
       <c r="AV658" s="23"/>
       <c r="AW658" s="23"/>
+      <c r="AX658" s="23"/>
     </row>
     <row r="659">
       <c r="AL659" s="23"/>
@@ -23381,6 +24235,7 @@
       <c r="AU659" s="23"/>
       <c r="AV659" s="23"/>
       <c r="AW659" s="23"/>
+      <c r="AX659" s="23"/>
     </row>
     <row r="660">
       <c r="AL660" s="23"/>
@@ -23395,6 +24250,7 @@
       <c r="AU660" s="23"/>
       <c r="AV660" s="23"/>
       <c r="AW660" s="23"/>
+      <c r="AX660" s="23"/>
     </row>
     <row r="661">
       <c r="AL661" s="23"/>
@@ -23409,6 +24265,7 @@
       <c r="AU661" s="23"/>
       <c r="AV661" s="23"/>
       <c r="AW661" s="23"/>
+      <c r="AX661" s="23"/>
     </row>
     <row r="662">
       <c r="AL662" s="23"/>
@@ -23423,6 +24280,7 @@
       <c r="AU662" s="23"/>
       <c r="AV662" s="23"/>
       <c r="AW662" s="23"/>
+      <c r="AX662" s="23"/>
     </row>
     <row r="663">
       <c r="AL663" s="23"/>
@@ -23437,6 +24295,7 @@
       <c r="AU663" s="23"/>
       <c r="AV663" s="23"/>
       <c r="AW663" s="23"/>
+      <c r="AX663" s="23"/>
     </row>
     <row r="664">
       <c r="AL664" s="23"/>
@@ -23451,6 +24310,7 @@
       <c r="AU664" s="23"/>
       <c r="AV664" s="23"/>
       <c r="AW664" s="23"/>
+      <c r="AX664" s="23"/>
     </row>
     <row r="665">
       <c r="AL665" s="23"/>
@@ -23465,6 +24325,7 @@
       <c r="AU665" s="23"/>
       <c r="AV665" s="23"/>
       <c r="AW665" s="23"/>
+      <c r="AX665" s="23"/>
     </row>
     <row r="666">
       <c r="AL666" s="23"/>
@@ -23479,6 +24340,7 @@
       <c r="AU666" s="23"/>
       <c r="AV666" s="23"/>
       <c r="AW666" s="23"/>
+      <c r="AX666" s="23"/>
     </row>
     <row r="667">
       <c r="AL667" s="23"/>
@@ -23493,6 +24355,7 @@
       <c r="AU667" s="23"/>
       <c r="AV667" s="23"/>
       <c r="AW667" s="23"/>
+      <c r="AX667" s="23"/>
     </row>
     <row r="668">
       <c r="AL668" s="23"/>
@@ -23507,6 +24370,7 @@
       <c r="AU668" s="23"/>
       <c r="AV668" s="23"/>
       <c r="AW668" s="23"/>
+      <c r="AX668" s="23"/>
     </row>
     <row r="669">
       <c r="AL669" s="23"/>
@@ -23521,6 +24385,7 @@
       <c r="AU669" s="23"/>
       <c r="AV669" s="23"/>
       <c r="AW669" s="23"/>
+      <c r="AX669" s="23"/>
     </row>
     <row r="670">
       <c r="AL670" s="23"/>
@@ -23535,6 +24400,7 @@
       <c r="AU670" s="23"/>
       <c r="AV670" s="23"/>
       <c r="AW670" s="23"/>
+      <c r="AX670" s="23"/>
     </row>
     <row r="671">
       <c r="AL671" s="23"/>
@@ -23549,6 +24415,7 @@
       <c r="AU671" s="23"/>
       <c r="AV671" s="23"/>
       <c r="AW671" s="23"/>
+      <c r="AX671" s="23"/>
     </row>
     <row r="672">
       <c r="AL672" s="23"/>
@@ -23563,6 +24430,7 @@
       <c r="AU672" s="23"/>
       <c r="AV672" s="23"/>
       <c r="AW672" s="23"/>
+      <c r="AX672" s="23"/>
     </row>
     <row r="673">
       <c r="AL673" s="23"/>
@@ -23577,6 +24445,7 @@
       <c r="AU673" s="23"/>
       <c r="AV673" s="23"/>
       <c r="AW673" s="23"/>
+      <c r="AX673" s="23"/>
     </row>
     <row r="674">
       <c r="AL674" s="23"/>
@@ -23591,6 +24460,7 @@
       <c r="AU674" s="23"/>
       <c r="AV674" s="23"/>
       <c r="AW674" s="23"/>
+      <c r="AX674" s="23"/>
     </row>
     <row r="675">
       <c r="AL675" s="23"/>
@@ -23605,6 +24475,7 @@
       <c r="AU675" s="23"/>
       <c r="AV675" s="23"/>
       <c r="AW675" s="23"/>
+      <c r="AX675" s="23"/>
     </row>
     <row r="676">
       <c r="AL676" s="23"/>
@@ -23619,6 +24490,7 @@
       <c r="AU676" s="23"/>
       <c r="AV676" s="23"/>
       <c r="AW676" s="23"/>
+      <c r="AX676" s="23"/>
     </row>
     <row r="677">
       <c r="AL677" s="23"/>
@@ -23633,6 +24505,7 @@
       <c r="AU677" s="23"/>
       <c r="AV677" s="23"/>
       <c r="AW677" s="23"/>
+      <c r="AX677" s="23"/>
     </row>
     <row r="678">
       <c r="AL678" s="23"/>
@@ -23647,6 +24520,7 @@
       <c r="AU678" s="23"/>
       <c r="AV678" s="23"/>
       <c r="AW678" s="23"/>
+      <c r="AX678" s="23"/>
     </row>
     <row r="679">
       <c r="AL679" s="23"/>
@@ -23661,6 +24535,7 @@
       <c r="AU679" s="23"/>
       <c r="AV679" s="23"/>
       <c r="AW679" s="23"/>
+      <c r="AX679" s="23"/>
     </row>
     <row r="680">
       <c r="AL680" s="23"/>
@@ -23675,6 +24550,7 @@
       <c r="AU680" s="23"/>
       <c r="AV680" s="23"/>
       <c r="AW680" s="23"/>
+      <c r="AX680" s="23"/>
     </row>
     <row r="681">
       <c r="AL681" s="23"/>
@@ -23689,6 +24565,7 @@
       <c r="AU681" s="23"/>
       <c r="AV681" s="23"/>
       <c r="AW681" s="23"/>
+      <c r="AX681" s="23"/>
     </row>
     <row r="682">
       <c r="AL682" s="23"/>
@@ -23703,6 +24580,7 @@
       <c r="AU682" s="23"/>
       <c r="AV682" s="23"/>
       <c r="AW682" s="23"/>
+      <c r="AX682" s="23"/>
     </row>
     <row r="683">
       <c r="AL683" s="23"/>
@@ -23717,6 +24595,7 @@
       <c r="AU683" s="23"/>
       <c r="AV683" s="23"/>
       <c r="AW683" s="23"/>
+      <c r="AX683" s="23"/>
     </row>
     <row r="684">
       <c r="AL684" s="23"/>
@@ -23731,6 +24610,7 @@
       <c r="AU684" s="23"/>
       <c r="AV684" s="23"/>
       <c r="AW684" s="23"/>
+      <c r="AX684" s="23"/>
     </row>
     <row r="685">
       <c r="AL685" s="23"/>
@@ -23745,6 +24625,7 @@
       <c r="AU685" s="23"/>
       <c r="AV685" s="23"/>
       <c r="AW685" s="23"/>
+      <c r="AX685" s="23"/>
     </row>
     <row r="686">
       <c r="AL686" s="23"/>
@@ -23759,6 +24640,7 @@
       <c r="AU686" s="23"/>
       <c r="AV686" s="23"/>
       <c r="AW686" s="23"/>
+      <c r="AX686" s="23"/>
     </row>
     <row r="687">
       <c r="AL687" s="23"/>
@@ -23773,6 +24655,7 @@
       <c r="AU687" s="23"/>
       <c r="AV687" s="23"/>
       <c r="AW687" s="23"/>
+      <c r="AX687" s="23"/>
     </row>
     <row r="688">
       <c r="AL688" s="23"/>
@@ -23787,6 +24670,7 @@
       <c r="AU688" s="23"/>
       <c r="AV688" s="23"/>
       <c r="AW688" s="23"/>
+      <c r="AX688" s="23"/>
     </row>
     <row r="689">
       <c r="AL689" s="23"/>
@@ -23801,6 +24685,7 @@
       <c r="AU689" s="23"/>
       <c r="AV689" s="23"/>
       <c r="AW689" s="23"/>
+      <c r="AX689" s="23"/>
     </row>
     <row r="690">
       <c r="AL690" s="23"/>
@@ -23815,6 +24700,7 @@
       <c r="AU690" s="23"/>
       <c r="AV690" s="23"/>
       <c r="AW690" s="23"/>
+      <c r="AX690" s="23"/>
     </row>
     <row r="691">
       <c r="AL691" s="23"/>
@@ -23829,6 +24715,7 @@
       <c r="AU691" s="23"/>
       <c r="AV691" s="23"/>
       <c r="AW691" s="23"/>
+      <c r="AX691" s="23"/>
     </row>
     <row r="692">
       <c r="AL692" s="23"/>
@@ -23843,6 +24730,7 @@
       <c r="AU692" s="23"/>
       <c r="AV692" s="23"/>
       <c r="AW692" s="23"/>
+      <c r="AX692" s="23"/>
     </row>
     <row r="693">
       <c r="AL693" s="23"/>
@@ -23857,6 +24745,7 @@
       <c r="AU693" s="23"/>
       <c r="AV693" s="23"/>
       <c r="AW693" s="23"/>
+      <c r="AX693" s="23"/>
     </row>
     <row r="694">
       <c r="AL694" s="23"/>
@@ -23871,6 +24760,7 @@
       <c r="AU694" s="23"/>
       <c r="AV694" s="23"/>
       <c r="AW694" s="23"/>
+      <c r="AX694" s="23"/>
     </row>
     <row r="695">
       <c r="AL695" s="23"/>
@@ -23885,6 +24775,7 @@
       <c r="AU695" s="23"/>
       <c r="AV695" s="23"/>
       <c r="AW695" s="23"/>
+      <c r="AX695" s="23"/>
     </row>
     <row r="696">
       <c r="AL696" s="23"/>
@@ -23899,6 +24790,7 @@
       <c r="AU696" s="23"/>
       <c r="AV696" s="23"/>
       <c r="AW696" s="23"/>
+      <c r="AX696" s="23"/>
     </row>
     <row r="697">
       <c r="AL697" s="23"/>
@@ -23913,6 +24805,7 @@
       <c r="AU697" s="23"/>
       <c r="AV697" s="23"/>
       <c r="AW697" s="23"/>
+      <c r="AX697" s="23"/>
     </row>
     <row r="698">
       <c r="AL698" s="23"/>
@@ -23927,6 +24820,7 @@
       <c r="AU698" s="23"/>
       <c r="AV698" s="23"/>
       <c r="AW698" s="23"/>
+      <c r="AX698" s="23"/>
     </row>
     <row r="699">
       <c r="AL699" s="23"/>
@@ -23941,6 +24835,7 @@
       <c r="AU699" s="23"/>
       <c r="AV699" s="23"/>
       <c r="AW699" s="23"/>
+      <c r="AX699" s="23"/>
     </row>
     <row r="700">
       <c r="AL700" s="23"/>
@@ -23955,6 +24850,7 @@
       <c r="AU700" s="23"/>
       <c r="AV700" s="23"/>
       <c r="AW700" s="23"/>
+      <c r="AX700" s="23"/>
     </row>
     <row r="701">
       <c r="AL701" s="23"/>
@@ -23969,6 +24865,7 @@
       <c r="AU701" s="23"/>
       <c r="AV701" s="23"/>
       <c r="AW701" s="23"/>
+      <c r="AX701" s="23"/>
     </row>
     <row r="702">
       <c r="AL702" s="23"/>
@@ -23983,6 +24880,7 @@
       <c r="AU702" s="23"/>
       <c r="AV702" s="23"/>
       <c r="AW702" s="23"/>
+      <c r="AX702" s="23"/>
     </row>
     <row r="703">
       <c r="AL703" s="23"/>
@@ -23997,6 +24895,7 @@
       <c r="AU703" s="23"/>
       <c r="AV703" s="23"/>
       <c r="AW703" s="23"/>
+      <c r="AX703" s="23"/>
     </row>
     <row r="704">
       <c r="AL704" s="23"/>
@@ -24011,6 +24910,7 @@
       <c r="AU704" s="23"/>
       <c r="AV704" s="23"/>
       <c r="AW704" s="23"/>
+      <c r="AX704" s="23"/>
     </row>
     <row r="705">
       <c r="AL705" s="23"/>
@@ -24025,6 +24925,7 @@
       <c r="AU705" s="23"/>
       <c r="AV705" s="23"/>
       <c r="AW705" s="23"/>
+      <c r="AX705" s="23"/>
     </row>
     <row r="706">
       <c r="AL706" s="23"/>
@@ -24039,6 +24940,7 @@
       <c r="AU706" s="23"/>
       <c r="AV706" s="23"/>
       <c r="AW706" s="23"/>
+      <c r="AX706" s="23"/>
     </row>
     <row r="707">
       <c r="AL707" s="23"/>
@@ -24053,6 +24955,7 @@
       <c r="AU707" s="23"/>
       <c r="AV707" s="23"/>
       <c r="AW707" s="23"/>
+      <c r="AX707" s="23"/>
     </row>
     <row r="708">
       <c r="AL708" s="23"/>
@@ -24067,6 +24970,7 @@
       <c r="AU708" s="23"/>
       <c r="AV708" s="23"/>
       <c r="AW708" s="23"/>
+      <c r="AX708" s="23"/>
     </row>
     <row r="709">
       <c r="AL709" s="23"/>
@@ -24081,6 +24985,7 @@
       <c r="AU709" s="23"/>
       <c r="AV709" s="23"/>
       <c r="AW709" s="23"/>
+      <c r="AX709" s="23"/>
     </row>
     <row r="710">
       <c r="AL710" s="23"/>
@@ -24095,6 +25000,7 @@
       <c r="AU710" s="23"/>
       <c r="AV710" s="23"/>
       <c r="AW710" s="23"/>
+      <c r="AX710" s="23"/>
     </row>
     <row r="711">
       <c r="AL711" s="23"/>
@@ -24109,6 +25015,7 @@
       <c r="AU711" s="23"/>
       <c r="AV711" s="23"/>
       <c r="AW711" s="23"/>
+      <c r="AX711" s="23"/>
     </row>
     <row r="712">
       <c r="AL712" s="23"/>
@@ -24123,6 +25030,7 @@
       <c r="AU712" s="23"/>
       <c r="AV712" s="23"/>
       <c r="AW712" s="23"/>
+      <c r="AX712" s="23"/>
     </row>
     <row r="713">
       <c r="AL713" s="23"/>
@@ -24137,6 +25045,7 @@
       <c r="AU713" s="23"/>
       <c r="AV713" s="23"/>
       <c r="AW713" s="23"/>
+      <c r="AX713" s="23"/>
     </row>
     <row r="714">
       <c r="AL714" s="23"/>
@@ -24151,6 +25060,7 @@
       <c r="AU714" s="23"/>
       <c r="AV714" s="23"/>
       <c r="AW714" s="23"/>
+      <c r="AX714" s="23"/>
     </row>
     <row r="715">
       <c r="AL715" s="23"/>
@@ -24165,6 +25075,7 @@
       <c r="AU715" s="23"/>
       <c r="AV715" s="23"/>
       <c r="AW715" s="23"/>
+      <c r="AX715" s="23"/>
     </row>
     <row r="716">
       <c r="AL716" s="23"/>
@@ -24179,6 +25090,7 @@
       <c r="AU716" s="23"/>
       <c r="AV716" s="23"/>
       <c r="AW716" s="23"/>
+      <c r="AX716" s="23"/>
     </row>
     <row r="717">
       <c r="AL717" s="23"/>
@@ -24193,6 +25105,7 @@
       <c r="AU717" s="23"/>
       <c r="AV717" s="23"/>
       <c r="AW717" s="23"/>
+      <c r="AX717" s="23"/>
     </row>
     <row r="718">
       <c r="AL718" s="23"/>
@@ -24207,6 +25120,7 @@
       <c r="AU718" s="23"/>
       <c r="AV718" s="23"/>
       <c r="AW718" s="23"/>
+      <c r="AX718" s="23"/>
     </row>
     <row r="719">
       <c r="AL719" s="23"/>
@@ -24221,6 +25135,7 @@
       <c r="AU719" s="23"/>
       <c r="AV719" s="23"/>
       <c r="AW719" s="23"/>
+      <c r="AX719" s="23"/>
     </row>
     <row r="720">
       <c r="AL720" s="23"/>
@@ -24235,6 +25150,7 @@
       <c r="AU720" s="23"/>
       <c r="AV720" s="23"/>
       <c r="AW720" s="23"/>
+      <c r="AX720" s="23"/>
     </row>
     <row r="721">
       <c r="AL721" s="23"/>
@@ -24249,6 +25165,7 @@
       <c r="AU721" s="23"/>
       <c r="AV721" s="23"/>
       <c r="AW721" s="23"/>
+      <c r="AX721" s="23"/>
     </row>
     <row r="722">
       <c r="AL722" s="23"/>
@@ -24263,6 +25180,7 @@
       <c r="AU722" s="23"/>
       <c r="AV722" s="23"/>
       <c r="AW722" s="23"/>
+      <c r="AX722" s="23"/>
     </row>
     <row r="723">
       <c r="AL723" s="23"/>
@@ -24277,6 +25195,7 @@
       <c r="AU723" s="23"/>
       <c r="AV723" s="23"/>
       <c r="AW723" s="23"/>
+      <c r="AX723" s="23"/>
     </row>
     <row r="724">
       <c r="AL724" s="23"/>
@@ -24291,6 +25210,7 @@
       <c r="AU724" s="23"/>
       <c r="AV724" s="23"/>
       <c r="AW724" s="23"/>
+      <c r="AX724" s="23"/>
     </row>
     <row r="725">
       <c r="AL725" s="23"/>
@@ -24305,6 +25225,7 @@
       <c r="AU725" s="23"/>
       <c r="AV725" s="23"/>
       <c r="AW725" s="23"/>
+      <c r="AX725" s="23"/>
     </row>
     <row r="726">
       <c r="AL726" s="23"/>
@@ -24319,6 +25240,7 @@
       <c r="AU726" s="23"/>
       <c r="AV726" s="23"/>
       <c r="AW726" s="23"/>
+      <c r="AX726" s="23"/>
     </row>
     <row r="727">
       <c r="AL727" s="23"/>
@@ -24333,6 +25255,7 @@
       <c r="AU727" s="23"/>
       <c r="AV727" s="23"/>
       <c r="AW727" s="23"/>
+      <c r="AX727" s="23"/>
     </row>
     <row r="728">
       <c r="AL728" s="23"/>
@@ -24347,6 +25270,7 @@
       <c r="AU728" s="23"/>
       <c r="AV728" s="23"/>
       <c r="AW728" s="23"/>
+      <c r="AX728" s="23"/>
     </row>
     <row r="729">
       <c r="AL729" s="23"/>
@@ -24361,6 +25285,7 @@
       <c r="AU729" s="23"/>
       <c r="AV729" s="23"/>
       <c r="AW729" s="23"/>
+      <c r="AX729" s="23"/>
     </row>
     <row r="730">
       <c r="AL730" s="23"/>
@@ -24375,6 +25300,7 @@
       <c r="AU730" s="23"/>
       <c r="AV730" s="23"/>
       <c r="AW730" s="23"/>
+      <c r="AX730" s="23"/>
     </row>
     <row r="731">
       <c r="AL731" s="23"/>
@@ -24389,6 +25315,7 @@
       <c r="AU731" s="23"/>
       <c r="AV731" s="23"/>
       <c r="AW731" s="23"/>
+      <c r="AX731" s="23"/>
     </row>
     <row r="732">
       <c r="AL732" s="23"/>
@@ -24403,6 +25330,7 @@
       <c r="AU732" s="23"/>
       <c r="AV732" s="23"/>
       <c r="AW732" s="23"/>
+      <c r="AX732" s="23"/>
     </row>
     <row r="733">
       <c r="AL733" s="23"/>
@@ -24417,6 +25345,7 @@
       <c r="AU733" s="23"/>
       <c r="AV733" s="23"/>
       <c r="AW733" s="23"/>
+      <c r="AX733" s="23"/>
     </row>
     <row r="734">
       <c r="AL734" s="23"/>
@@ -24431,6 +25360,7 @@
       <c r="AU734" s="23"/>
       <c r="AV734" s="23"/>
       <c r="AW734" s="23"/>
+      <c r="AX734" s="23"/>
     </row>
     <row r="735">
       <c r="AL735" s="23"/>
@@ -24445,6 +25375,7 @@
       <c r="AU735" s="23"/>
       <c r="AV735" s="23"/>
       <c r="AW735" s="23"/>
+      <c r="AX735" s="23"/>
     </row>
     <row r="736">
       <c r="AL736" s="23"/>
@@ -24459,6 +25390,7 @@
       <c r="AU736" s="23"/>
       <c r="AV736" s="23"/>
       <c r="AW736" s="23"/>
+      <c r="AX736" s="23"/>
     </row>
     <row r="737">
       <c r="AL737" s="23"/>
@@ -24473,6 +25405,7 @@
       <c r="AU737" s="23"/>
       <c r="AV737" s="23"/>
       <c r="AW737" s="23"/>
+      <c r="AX737" s="23"/>
     </row>
     <row r="738">
       <c r="AL738" s="23"/>
@@ -24487,6 +25420,7 @@
       <c r="AU738" s="23"/>
       <c r="AV738" s="23"/>
       <c r="AW738" s="23"/>
+      <c r="AX738" s="23"/>
     </row>
     <row r="739">
       <c r="AL739" s="23"/>
@@ -24501,6 +25435,7 @@
       <c r="AU739" s="23"/>
       <c r="AV739" s="23"/>
       <c r="AW739" s="23"/>
+      <c r="AX739" s="23"/>
     </row>
     <row r="740">
       <c r="AL740" s="23"/>
@@ -24515,6 +25450,7 @@
       <c r="AU740" s="23"/>
       <c r="AV740" s="23"/>
       <c r="AW740" s="23"/>
+      <c r="AX740" s="23"/>
     </row>
     <row r="741">
       <c r="AL741" s="23"/>
@@ -24529,6 +25465,7 @@
       <c r="AU741" s="23"/>
       <c r="AV741" s="23"/>
       <c r="AW741" s="23"/>
+      <c r="AX741" s="23"/>
     </row>
     <row r="742">
       <c r="AL742" s="23"/>
@@ -24543,6 +25480,7 @@
       <c r="AU742" s="23"/>
       <c r="AV742" s="23"/>
       <c r="AW742" s="23"/>
+      <c r="AX742" s="23"/>
     </row>
     <row r="743">
       <c r="AL743" s="23"/>
@@ -24557,6 +25495,7 @@
       <c r="AU743" s="23"/>
       <c r="AV743" s="23"/>
       <c r="AW743" s="23"/>
+      <c r="AX743" s="23"/>
     </row>
     <row r="744">
       <c r="AL744" s="23"/>
@@ -24571,6 +25510,7 @@
       <c r="AU744" s="23"/>
       <c r="AV744" s="23"/>
       <c r="AW744" s="23"/>
+      <c r="AX744" s="23"/>
     </row>
     <row r="745">
       <c r="AL745" s="23"/>
@@ -24585,6 +25525,7 @@
       <c r="AU745" s="23"/>
       <c r="AV745" s="23"/>
       <c r="AW745" s="23"/>
+      <c r="AX745" s="23"/>
     </row>
     <row r="746">
       <c r="AL746" s="23"/>
@@ -24599,6 +25540,7 @@
       <c r="AU746" s="23"/>
       <c r="AV746" s="23"/>
       <c r="AW746" s="23"/>
+      <c r="AX746" s="23"/>
     </row>
     <row r="747">
       <c r="AL747" s="23"/>
@@ -24613,6 +25555,7 @@
       <c r="AU747" s="23"/>
       <c r="AV747" s="23"/>
       <c r="AW747" s="23"/>
+      <c r="AX747" s="23"/>
     </row>
     <row r="748">
       <c r="AL748" s="23"/>
@@ -24627,6 +25570,7 @@
       <c r="AU748" s="23"/>
       <c r="AV748" s="23"/>
       <c r="AW748" s="23"/>
+      <c r="AX748" s="23"/>
     </row>
     <row r="749">
       <c r="AL749" s="23"/>
@@ -24641,6 +25585,7 @@
       <c r="AU749" s="23"/>
       <c r="AV749" s="23"/>
       <c r="AW749" s="23"/>
+      <c r="AX749" s="23"/>
     </row>
     <row r="750">
       <c r="AL750" s="23"/>
@@ -24655,6 +25600,7 @@
       <c r="AU750" s="23"/>
       <c r="AV750" s="23"/>
       <c r="AW750" s="23"/>
+      <c r="AX750" s="23"/>
     </row>
     <row r="751">
       <c r="AL751" s="23"/>
@@ -24669,6 +25615,7 @@
       <c r="AU751" s="23"/>
       <c r="AV751" s="23"/>
       <c r="AW751" s="23"/>
+      <c r="AX751" s="23"/>
     </row>
     <row r="752">
       <c r="AL752" s="23"/>
@@ -24683,6 +25630,7 @@
       <c r="AU752" s="23"/>
       <c r="AV752" s="23"/>
       <c r="AW752" s="23"/>
+      <c r="AX752" s="23"/>
     </row>
     <row r="753">
       <c r="AL753" s="23"/>
@@ -24697,6 +25645,7 @@
       <c r="AU753" s="23"/>
       <c r="AV753" s="23"/>
       <c r="AW753" s="23"/>
+      <c r="AX753" s="23"/>
     </row>
     <row r="754">
       <c r="AL754" s="23"/>
@@ -24711,6 +25660,7 @@
       <c r="AU754" s="23"/>
       <c r="AV754" s="23"/>
       <c r="AW754" s="23"/>
+      <c r="AX754" s="23"/>
     </row>
     <row r="755">
       <c r="AL755" s="23"/>
@@ -24725,6 +25675,7 @@
       <c r="AU755" s="23"/>
       <c r="AV755" s="23"/>
       <c r="AW755" s="23"/>
+      <c r="AX755" s="23"/>
     </row>
     <row r="756">
       <c r="AL756" s="23"/>
@@ -24739,6 +25690,7 @@
       <c r="AU756" s="23"/>
       <c r="AV756" s="23"/>
       <c r="AW756" s="23"/>
+      <c r="AX756" s="23"/>
     </row>
     <row r="757">
       <c r="AL757" s="23"/>
@@ -24753,6 +25705,7 @@
       <c r="AU757" s="23"/>
       <c r="AV757" s="23"/>
       <c r="AW757" s="23"/>
+      <c r="AX757" s="23"/>
     </row>
     <row r="758">
       <c r="AL758" s="23"/>
@@ -24767,6 +25720,7 @@
       <c r="AU758" s="23"/>
       <c r="AV758" s="23"/>
       <c r="AW758" s="23"/>
+      <c r="AX758" s="23"/>
     </row>
     <row r="759">
       <c r="AL759" s="23"/>
@@ -24781,6 +25735,7 @@
       <c r="AU759" s="23"/>
       <c r="AV759" s="23"/>
       <c r="AW759" s="23"/>
+      <c r="AX759" s="23"/>
     </row>
     <row r="760">
       <c r="AL760" s="23"/>
@@ -24795,6 +25750,7 @@
       <c r="AU760" s="23"/>
       <c r="AV760" s="23"/>
       <c r="AW760" s="23"/>
+      <c r="AX760" s="23"/>
     </row>
     <row r="761">
       <c r="AL761" s="23"/>
@@ -24809,6 +25765,7 @@
       <c r="AU761" s="23"/>
       <c r="AV761" s="23"/>
       <c r="AW761" s="23"/>
+      <c r="AX761" s="23"/>
     </row>
     <row r="762">
       <c r="AL762" s="23"/>
@@ -24823,6 +25780,7 @@
       <c r="AU762" s="23"/>
       <c r="AV762" s="23"/>
       <c r="AW762" s="23"/>
+      <c r="AX762" s="23"/>
     </row>
     <row r="763">
       <c r="AL763" s="23"/>
@@ -24837,6 +25795,7 @@
       <c r="AU763" s="23"/>
       <c r="AV763" s="23"/>
       <c r="AW763" s="23"/>
+      <c r="AX763" s="23"/>
     </row>
     <row r="764">
       <c r="AL764" s="23"/>
@@ -24851,6 +25810,7 @@
       <c r="AU764" s="23"/>
       <c r="AV764" s="23"/>
       <c r="AW764" s="23"/>
+      <c r="AX764" s="23"/>
     </row>
     <row r="765">
       <c r="AL765" s="23"/>
@@ -24865,6 +25825,7 @@
       <c r="AU765" s="23"/>
       <c r="AV765" s="23"/>
       <c r="AW765" s="23"/>
+      <c r="AX765" s="23"/>
     </row>
     <row r="766">
       <c r="AL766" s="23"/>
@@ -24879,6 +25840,7 @@
       <c r="AU766" s="23"/>
       <c r="AV766" s="23"/>
       <c r="AW766" s="23"/>
+      <c r="AX766" s="23"/>
     </row>
     <row r="767">
       <c r="AL767" s="23"/>
@@ -24893,6 +25855,7 @@
       <c r="AU767" s="23"/>
       <c r="AV767" s="23"/>
       <c r="AW767" s="23"/>
+      <c r="AX767" s="23"/>
     </row>
     <row r="768">
       <c r="AL768" s="23"/>
@@ -24907,6 +25870,7 @@
       <c r="AU768" s="23"/>
       <c r="AV768" s="23"/>
       <c r="AW768" s="23"/>
+      <c r="AX768" s="23"/>
     </row>
     <row r="769">
       <c r="AL769" s="23"/>
@@ -24921,6 +25885,7 @@
       <c r="AU769" s="23"/>
       <c r="AV769" s="23"/>
       <c r="AW769" s="23"/>
+      <c r="AX769" s="23"/>
     </row>
     <row r="770">
       <c r="AL770" s="23"/>
@@ -24935,6 +25900,7 @@
       <c r="AU770" s="23"/>
       <c r="AV770" s="23"/>
       <c r="AW770" s="23"/>
+      <c r="AX770" s="23"/>
     </row>
     <row r="771">
       <c r="AL771" s="23"/>
@@ -24949,6 +25915,7 @@
       <c r="AU771" s="23"/>
       <c r="AV771" s="23"/>
       <c r="AW771" s="23"/>
+      <c r="AX771" s="23"/>
     </row>
     <row r="772">
       <c r="AL772" s="23"/>
@@ -24963,6 +25930,7 @@
       <c r="AU772" s="23"/>
       <c r="AV772" s="23"/>
       <c r="AW772" s="23"/>
+      <c r="AX772" s="23"/>
     </row>
     <row r="773">
       <c r="AL773" s="23"/>
@@ -24977,6 +25945,7 @@
       <c r="AU773" s="23"/>
       <c r="AV773" s="23"/>
       <c r="AW773" s="23"/>
+      <c r="AX773" s="23"/>
     </row>
     <row r="774">
       <c r="AL774" s="23"/>
@@ -24991,6 +25960,7 @@
       <c r="AU774" s="23"/>
       <c r="AV774" s="23"/>
       <c r="AW774" s="23"/>
+      <c r="AX774" s="23"/>
     </row>
     <row r="775">
       <c r="AL775" s="23"/>
@@ -25005,6 +25975,7 @@
       <c r="AU775" s="23"/>
       <c r="AV775" s="23"/>
       <c r="AW775" s="23"/>
+      <c r="AX775" s="23"/>
     </row>
     <row r="776">
       <c r="AL776" s="23"/>
@@ -25019,6 +25990,7 @@
       <c r="AU776" s="23"/>
       <c r="AV776" s="23"/>
       <c r="AW776" s="23"/>
+      <c r="AX776" s="23"/>
     </row>
     <row r="777">
       <c r="AL777" s="23"/>
@@ -25033,6 +26005,7 @@
       <c r="AU777" s="23"/>
       <c r="AV777" s="23"/>
       <c r="AW777" s="23"/>
+      <c r="AX777" s="23"/>
     </row>
     <row r="778">
       <c r="AL778" s="23"/>
@@ -25047,6 +26020,7 @@
       <c r="AU778" s="23"/>
       <c r="AV778" s="23"/>
       <c r="AW778" s="23"/>
+      <c r="AX778" s="23"/>
     </row>
     <row r="779">
       <c r="AL779" s="23"/>
@@ -25061,6 +26035,7 @@
       <c r="AU779" s="23"/>
       <c r="AV779" s="23"/>
       <c r="AW779" s="23"/>
+      <c r="AX779" s="23"/>
     </row>
     <row r="780">
       <c r="AL780" s="23"/>
@@ -25075,6 +26050,7 @@
       <c r="AU780" s="23"/>
       <c r="AV780" s="23"/>
       <c r="AW780" s="23"/>
+      <c r="AX780" s="23"/>
     </row>
     <row r="781">
       <c r="AL781" s="23"/>
@@ -25089,6 +26065,7 @@
       <c r="AU781" s="23"/>
       <c r="AV781" s="23"/>
       <c r="AW781" s="23"/>
+      <c r="AX781" s="23"/>
     </row>
     <row r="782">
       <c r="AL782" s="23"/>
@@ -25103,6 +26080,7 @@
       <c r="AU782" s="23"/>
       <c r="AV782" s="23"/>
       <c r="AW782" s="23"/>
+      <c r="AX782" s="23"/>
     </row>
     <row r="783">
       <c r="AL783" s="23"/>
@@ -25117,6 +26095,7 @@
       <c r="AU783" s="23"/>
       <c r="AV783" s="23"/>
       <c r="AW783" s="23"/>
+      <c r="AX783" s="23"/>
     </row>
     <row r="784">
       <c r="AL784" s="23"/>
@@ -25131,6 +26110,7 @@
       <c r="AU784" s="23"/>
       <c r="AV784" s="23"/>
       <c r="AW784" s="23"/>
+      <c r="AX784" s="23"/>
     </row>
     <row r="785">
       <c r="AL785" s="23"/>
@@ -25145,6 +26125,7 @@
       <c r="AU785" s="23"/>
       <c r="AV785" s="23"/>
       <c r="AW785" s="23"/>
+      <c r="AX785" s="23"/>
     </row>
     <row r="786">
       <c r="AL786" s="23"/>
@@ -25159,6 +26140,7 @@
       <c r="AU786" s="23"/>
       <c r="AV786" s="23"/>
       <c r="AW786" s="23"/>
+      <c r="AX786" s="23"/>
     </row>
     <row r="787">
       <c r="AL787" s="23"/>
@@ -25173,6 +26155,7 @@
       <c r="AU787" s="23"/>
       <c r="AV787" s="23"/>
       <c r="AW787" s="23"/>
+      <c r="AX787" s="23"/>
     </row>
     <row r="788">
       <c r="AL788" s="23"/>
@@ -25187,6 +26170,7 @@
       <c r="AU788" s="23"/>
       <c r="AV788" s="23"/>
       <c r="AW788" s="23"/>
+      <c r="AX788" s="23"/>
     </row>
     <row r="789">
       <c r="AL789" s="23"/>
@@ -25201,6 +26185,7 @@
       <c r="AU789" s="23"/>
       <c r="AV789" s="23"/>
       <c r="AW789" s="23"/>
+      <c r="AX789" s="23"/>
     </row>
     <row r="790">
       <c r="AL790" s="23"/>
@@ -25215,6 +26200,7 @@
       <c r="AU790" s="23"/>
       <c r="AV790" s="23"/>
       <c r="AW790" s="23"/>
+      <c r="AX790" s="23"/>
     </row>
     <row r="791">
       <c r="AL791" s="23"/>
@@ -25229,6 +26215,7 @@
       <c r="AU791" s="23"/>
       <c r="AV791" s="23"/>
       <c r="AW791" s="23"/>
+      <c r="AX791" s="23"/>
     </row>
     <row r="792">
       <c r="AL792" s="23"/>
@@ -25243,6 +26230,7 @@
       <c r="AU792" s="23"/>
       <c r="AV792" s="23"/>
       <c r="AW792" s="23"/>
+      <c r="AX792" s="23"/>
     </row>
     <row r="793">
       <c r="AL793" s="23"/>
@@ -25257,6 +26245,7 @@
       <c r="AU793" s="23"/>
       <c r="AV793" s="23"/>
       <c r="AW793" s="23"/>
+      <c r="AX793" s="23"/>
     </row>
     <row r="794">
       <c r="AL794" s="23"/>
@@ -25271,6 +26260,7 @@
       <c r="AU794" s="23"/>
       <c r="AV794" s="23"/>
       <c r="AW794" s="23"/>
+      <c r="AX794" s="23"/>
     </row>
     <row r="795">
       <c r="AL795" s="23"/>
@@ -25285,6 +26275,7 @@
       <c r="AU795" s="23"/>
       <c r="AV795" s="23"/>
       <c r="AW795" s="23"/>
+      <c r="AX795" s="23"/>
     </row>
     <row r="796">
       <c r="AL796" s="23"/>
@@ -25299,6 +26290,7 @@
       <c r="AU796" s="23"/>
       <c r="AV796" s="23"/>
       <c r="AW796" s="23"/>
+      <c r="AX796" s="23"/>
     </row>
     <row r="797">
       <c r="AL797" s="23"/>
@@ -25313,6 +26305,7 @@
       <c r="AU797" s="23"/>
       <c r="AV797" s="23"/>
       <c r="AW797" s="23"/>
+      <c r="AX797" s="23"/>
     </row>
     <row r="798">
       <c r="AL798" s="23"/>
@@ -25327,6 +26320,7 @@
       <c r="AU798" s="23"/>
       <c r="AV798" s="23"/>
       <c r="AW798" s="23"/>
+      <c r="AX798" s="23"/>
     </row>
     <row r="799">
       <c r="AL799" s="23"/>
@@ -25341,6 +26335,7 @@
       <c r="AU799" s="23"/>
       <c r="AV799" s="23"/>
       <c r="AW799" s="23"/>
+      <c r="AX799" s="23"/>
     </row>
     <row r="800">
       <c r="AL800" s="23"/>
@@ -25355,6 +26350,7 @@
       <c r="AU800" s="23"/>
       <c r="AV800" s="23"/>
       <c r="AW800" s="23"/>
+      <c r="AX800" s="23"/>
     </row>
     <row r="801">
       <c r="AL801" s="23"/>
@@ -25369,6 +26365,7 @@
       <c r="AU801" s="23"/>
       <c r="AV801" s="23"/>
       <c r="AW801" s="23"/>
+      <c r="AX801" s="23"/>
     </row>
     <row r="802">
       <c r="AL802" s="23"/>
@@ -25383,6 +26380,7 @@
       <c r="AU802" s="23"/>
       <c r="AV802" s="23"/>
       <c r="AW802" s="23"/>
+      <c r="AX802" s="23"/>
     </row>
     <row r="803">
       <c r="AL803" s="23"/>
@@ -25397,6 +26395,7 @@
       <c r="AU803" s="23"/>
       <c r="AV803" s="23"/>
       <c r="AW803" s="23"/>
+      <c r="AX803" s="23"/>
     </row>
     <row r="804">
       <c r="AL804" s="23"/>
@@ -25411,6 +26410,7 @@
       <c r="AU804" s="23"/>
       <c r="AV804" s="23"/>
       <c r="AW804" s="23"/>
+      <c r="AX804" s="23"/>
     </row>
     <row r="805">
       <c r="AL805" s="23"/>
@@ -25425,6 +26425,7 @@
       <c r="AU805" s="23"/>
       <c r="AV805" s="23"/>
       <c r="AW805" s="23"/>
+      <c r="AX805" s="23"/>
     </row>
     <row r="806">
       <c r="AL806" s="23"/>
@@ -25439,6 +26440,7 @@
       <c r="AU806" s="23"/>
       <c r="AV806" s="23"/>
       <c r="AW806" s="23"/>
+      <c r="AX806" s="23"/>
     </row>
     <row r="807">
       <c r="AL807" s="23"/>
@@ -25453,6 +26455,7 @@
       <c r="AU807" s="23"/>
       <c r="AV807" s="23"/>
       <c r="AW807" s="23"/>
+      <c r="AX807" s="23"/>
     </row>
     <row r="808">
       <c r="AL808" s="23"/>
@@ -25467,6 +26470,7 @@
       <c r="AU808" s="23"/>
       <c r="AV808" s="23"/>
       <c r="AW808" s="23"/>
+      <c r="AX808" s="23"/>
     </row>
     <row r="809">
       <c r="AL809" s="23"/>
@@ -25481,6 +26485,7 @@
       <c r="AU809" s="23"/>
       <c r="AV809" s="23"/>
       <c r="AW809" s="23"/>
+      <c r="AX809" s="23"/>
     </row>
     <row r="810">
       <c r="AL810" s="23"/>
@@ -25495,6 +26500,7 @@
       <c r="AU810" s="23"/>
       <c r="AV810" s="23"/>
       <c r="AW810" s="23"/>
+      <c r="AX810" s="23"/>
     </row>
     <row r="811">
       <c r="AL811" s="23"/>
@@ -25509,6 +26515,7 @@
       <c r="AU811" s="23"/>
       <c r="AV811" s="23"/>
       <c r="AW811" s="23"/>
+      <c r="AX811" s="23"/>
     </row>
     <row r="812">
       <c r="AL812" s="23"/>
@@ -25523,6 +26530,7 @@
       <c r="AU812" s="23"/>
       <c r="AV812" s="23"/>
       <c r="AW812" s="23"/>
+      <c r="AX812" s="23"/>
     </row>
     <row r="813">
       <c r="AL813" s="23"/>
@@ -25537,6 +26545,7 @@
       <c r="AU813" s="23"/>
       <c r="AV813" s="23"/>
       <c r="AW813" s="23"/>
+      <c r="AX813" s="23"/>
     </row>
     <row r="814">
       <c r="AL814" s="23"/>
@@ -25551,6 +26560,7 @@
       <c r="AU814" s="23"/>
       <c r="AV814" s="23"/>
       <c r="AW814" s="23"/>
+      <c r="AX814" s="23"/>
     </row>
     <row r="815">
       <c r="AL815" s="23"/>
@@ -25565,6 +26575,7 @@
       <c r="AU815" s="23"/>
       <c r="AV815" s="23"/>
       <c r="AW815" s="23"/>
+      <c r="AX815" s="23"/>
     </row>
     <row r="816">
       <c r="AL816" s="23"/>
@@ -25579,6 +26590,7 @@
       <c r="AU816" s="23"/>
       <c r="AV816" s="23"/>
       <c r="AW816" s="23"/>
+      <c r="AX816" s="23"/>
     </row>
     <row r="817">
       <c r="AL817" s="23"/>
@@ -25593,6 +26605,7 @@
       <c r="AU817" s="23"/>
       <c r="AV817" s="23"/>
       <c r="AW817" s="23"/>
+      <c r="AX817" s="23"/>
     </row>
     <row r="818">
       <c r="AL818" s="23"/>
@@ -25607,6 +26620,7 @@
       <c r="AU818" s="23"/>
       <c r="AV818" s="23"/>
       <c r="AW818" s="23"/>
+      <c r="AX818" s="23"/>
     </row>
     <row r="819">
       <c r="AL819" s="23"/>
@@ -25621,6 +26635,7 @@
       <c r="AU819" s="23"/>
       <c r="AV819" s="23"/>
       <c r="AW819" s="23"/>
+      <c r="AX819" s="23"/>
     </row>
     <row r="820">
       <c r="AL820" s="23"/>
@@ -25635,6 +26650,7 @@
       <c r="AU820" s="23"/>
       <c r="AV820" s="23"/>
       <c r="AW820" s="23"/>
+      <c r="AX820" s="23"/>
     </row>
     <row r="821">
       <c r="AL821" s="23"/>
@@ -25649,6 +26665,7 @@
       <c r="AU821" s="23"/>
       <c r="AV821" s="23"/>
       <c r="AW821" s="23"/>
+      <c r="AX821" s="23"/>
     </row>
     <row r="822">
       <c r="AL822" s="23"/>
@@ -25663,6 +26680,7 @@
       <c r="AU822" s="23"/>
       <c r="AV822" s="23"/>
       <c r="AW822" s="23"/>
+      <c r="AX822" s="23"/>
     </row>
     <row r="823">
       <c r="AL823" s="23"/>
@@ -25677,6 +26695,7 @@
       <c r="AU823" s="23"/>
       <c r="AV823" s="23"/>
       <c r="AW823" s="23"/>
+      <c r="AX823" s="23"/>
     </row>
     <row r="824">
       <c r="AL824" s="23"/>
@@ -25691,6 +26710,7 @@
       <c r="AU824" s="23"/>
       <c r="AV824" s="23"/>
       <c r="AW824" s="23"/>
+      <c r="AX824" s="23"/>
     </row>
     <row r="825">
       <c r="AL825" s="23"/>
@@ -25705,6 +26725,7 @@
       <c r="AU825" s="23"/>
       <c r="AV825" s="23"/>
       <c r="AW825" s="23"/>
+      <c r="AX825" s="23"/>
     </row>
     <row r="826">
       <c r="AL826" s="23"/>
@@ -25719,6 +26740,7 @@
       <c r="AU826" s="23"/>
       <c r="AV826" s="23"/>
       <c r="AW826" s="23"/>
+      <c r="AX826" s="23"/>
     </row>
     <row r="827">
       <c r="AL827" s="23"/>
@@ -25733,6 +26755,7 @@
       <c r="AU827" s="23"/>
       <c r="AV827" s="23"/>
       <c r="AW827" s="23"/>
+      <c r="AX827" s="23"/>
     </row>
     <row r="828">
       <c r="AL828" s="23"/>
@@ -25747,6 +26770,7 @@
       <c r="AU828" s="23"/>
       <c r="AV828" s="23"/>
       <c r="AW828" s="23"/>
+      <c r="AX828" s="23"/>
     </row>
     <row r="829">
       <c r="AL829" s="23"/>
@@ -25761,6 +26785,7 @@
       <c r="AU829" s="23"/>
       <c r="AV829" s="23"/>
       <c r="AW829" s="23"/>
+      <c r="AX829" s="23"/>
     </row>
     <row r="830">
       <c r="AL830" s="23"/>
@@ -25775,6 +26800,7 @@
       <c r="AU830" s="23"/>
       <c r="AV830" s="23"/>
       <c r="AW830" s="23"/>
+      <c r="AX830" s="23"/>
     </row>
     <row r="831">
       <c r="AL831" s="23"/>
@@ -25789,6 +26815,7 @@
       <c r="AU831" s="23"/>
       <c r="AV831" s="23"/>
       <c r="AW831" s="23"/>
+      <c r="AX831" s="23"/>
     </row>
     <row r="832">
       <c r="AL832" s="23"/>
@@ -25803,6 +26830,7 @@
       <c r="AU832" s="23"/>
       <c r="AV832" s="23"/>
       <c r="AW832" s="23"/>
+      <c r="AX832" s="23"/>
     </row>
     <row r="833">
       <c r="AL833" s="23"/>
@@ -25817,6 +26845,7 @@
       <c r="AU833" s="23"/>
       <c r="AV833" s="23"/>
       <c r="AW833" s="23"/>
+      <c r="AX833" s="23"/>
     </row>
     <row r="834">
       <c r="AL834" s="23"/>
@@ -25831,6 +26860,7 @@
       <c r="AU834" s="23"/>
       <c r="AV834" s="23"/>
       <c r="AW834" s="23"/>
+      <c r="AX834" s="23"/>
     </row>
     <row r="835">
       <c r="AL835" s="23"/>
@@ -25845,6 +26875,7 @@
       <c r="AU835" s="23"/>
       <c r="AV835" s="23"/>
       <c r="AW835" s="23"/>
+      <c r="AX835" s="23"/>
     </row>
     <row r="836">
       <c r="AL836" s="23"/>
@@ -25859,6 +26890,7 @@
       <c r="AU836" s="23"/>
       <c r="AV836" s="23"/>
       <c r="AW836" s="23"/>
+      <c r="AX836" s="23"/>
     </row>
     <row r="837">
       <c r="AL837" s="23"/>
@@ -25873,6 +26905,7 @@
       <c r="AU837" s="23"/>
       <c r="AV837" s="23"/>
       <c r="AW837" s="23"/>
+      <c r="AX837" s="23"/>
     </row>
     <row r="838">
       <c r="AL838" s="23"/>
@@ -25887,6 +26920,7 @@
       <c r="AU838" s="23"/>
       <c r="AV838" s="23"/>
       <c r="AW838" s="23"/>
+      <c r="AX838" s="23"/>
     </row>
     <row r="839">
       <c r="AL839" s="23"/>
@@ -25901,6 +26935,7 @@
       <c r="AU839" s="23"/>
       <c r="AV839" s="23"/>
       <c r="AW839" s="23"/>
+      <c r="AX839" s="23"/>
     </row>
     <row r="840">
       <c r="AL840" s="23"/>
@@ -25915,6 +26950,7 @@
       <c r="AU840" s="23"/>
       <c r="AV840" s="23"/>
       <c r="AW840" s="23"/>
+      <c r="AX840" s="23"/>
     </row>
     <row r="841">
       <c r="AL841" s="23"/>
@@ -25929,6 +26965,7 @@
       <c r="AU841" s="23"/>
       <c r="AV841" s="23"/>
       <c r="AW841" s="23"/>
+      <c r="AX841" s="23"/>
     </row>
     <row r="842">
       <c r="AL842" s="23"/>
@@ -25943,6 +26980,7 @@
       <c r="AU842" s="23"/>
       <c r="AV842" s="23"/>
       <c r="AW842" s="23"/>
+      <c r="AX842" s="23"/>
     </row>
     <row r="843">
       <c r="AL843" s="23"/>
@@ -25957,6 +26995,7 @@
       <c r="AU843" s="23"/>
       <c r="AV843" s="23"/>
       <c r="AW843" s="23"/>
+      <c r="AX843" s="23"/>
     </row>
     <row r="844">
       <c r="AL844" s="23"/>
@@ -25971,6 +27010,7 @@
       <c r="AU844" s="23"/>
       <c r="AV844" s="23"/>
       <c r="AW844" s="23"/>
+      <c r="AX844" s="23"/>
     </row>
     <row r="845">
       <c r="AL845" s="23"/>
@@ -25985,6 +27025,7 @@
       <c r="AU845" s="23"/>
       <c r="AV845" s="23"/>
       <c r="AW845" s="23"/>
+      <c r="AX845" s="23"/>
     </row>
     <row r="846">
       <c r="AL846" s="23"/>
@@ -25999,6 +27040,7 @@
       <c r="AU846" s="23"/>
       <c r="AV846" s="23"/>
       <c r="AW846" s="23"/>
+      <c r="AX846" s="23"/>
     </row>
     <row r="847">
       <c r="AL847" s="23"/>
@@ -26013,6 +27055,7 @@
       <c r="AU847" s="23"/>
       <c r="AV847" s="23"/>
       <c r="AW847" s="23"/>
+      <c r="AX847" s="23"/>
     </row>
     <row r="848">
       <c r="AL848" s="23"/>
@@ -26027,6 +27070,7 @@
       <c r="AU848" s="23"/>
       <c r="AV848" s="23"/>
       <c r="AW848" s="23"/>
+      <c r="AX848" s="23"/>
     </row>
     <row r="849">
       <c r="AL849" s="23"/>
@@ -26041,6 +27085,7 @@
       <c r="AU849" s="23"/>
       <c r="AV849" s="23"/>
       <c r="AW849" s="23"/>
+      <c r="AX849" s="23"/>
     </row>
     <row r="850">
       <c r="AL850" s="23"/>
@@ -26055,6 +27100,7 @@
       <c r="AU850" s="23"/>
       <c r="AV850" s="23"/>
       <c r="AW850" s="23"/>
+      <c r="AX850" s="23"/>
     </row>
     <row r="851">
       <c r="AL851" s="23"/>
@@ -26069,6 +27115,7 @@
       <c r="AU851" s="23"/>
       <c r="AV851" s="23"/>
       <c r="AW851" s="23"/>
+      <c r="AX851" s="23"/>
     </row>
     <row r="852">
       <c r="AL852" s="23"/>
@@ -26083,6 +27130,7 @@
       <c r="AU852" s="23"/>
       <c r="AV852" s="23"/>
       <c r="AW852" s="23"/>
+      <c r="AX852" s="23"/>
     </row>
     <row r="853">
       <c r="AL853" s="23"/>
@@ -26097,6 +27145,7 @@
       <c r="AU853" s="23"/>
       <c r="AV853" s="23"/>
       <c r="AW853" s="23"/>
+      <c r="AX853" s="23"/>
     </row>
     <row r="854">
       <c r="AL854" s="23"/>
@@ -26111,6 +27160,7 @@
       <c r="AU854" s="23"/>
       <c r="AV854" s="23"/>
       <c r="AW854" s="23"/>
+      <c r="AX854" s="23"/>
     </row>
     <row r="855">
       <c r="AL855" s="23"/>
@@ -26125,6 +27175,7 @@
       <c r="AU855" s="23"/>
       <c r="AV855" s="23"/>
       <c r="AW855" s="23"/>
+      <c r="AX855" s="23"/>
     </row>
     <row r="856">
       <c r="AL856" s="23"/>
@@ -26139,6 +27190,7 @@
       <c r="AU856" s="23"/>
       <c r="AV856" s="23"/>
       <c r="AW856" s="23"/>
+      <c r="AX856" s="23"/>
     </row>
     <row r="857">
       <c r="AL857" s="23"/>
@@ -26153,6 +27205,7 @@
       <c r="AU857" s="23"/>
       <c r="AV857" s="23"/>
       <c r="AW857" s="23"/>
+      <c r="AX857" s="23"/>
     </row>
     <row r="858">
       <c r="AL858" s="23"/>
@@ -26167,6 +27220,7 @@
       <c r="AU858" s="23"/>
       <c r="AV858" s="23"/>
       <c r="AW858" s="23"/>
+      <c r="AX858" s="23"/>
     </row>
     <row r="859">
       <c r="AL859" s="23"/>
@@ -26181,6 +27235,7 @@
       <c r="AU859" s="23"/>
       <c r="AV859" s="23"/>
       <c r="AW859" s="23"/>
+      <c r="AX859" s="23"/>
     </row>
     <row r="860">
       <c r="AL860" s="23"/>
@@ -26195,6 +27250,7 @@
       <c r="AU860" s="23"/>
       <c r="AV860" s="23"/>
       <c r="AW860" s="23"/>
+      <c r="AX860" s="23"/>
     </row>
     <row r="861">
       <c r="AL861" s="23"/>
@@ -26209,6 +27265,7 @@
       <c r="AU861" s="23"/>
       <c r="AV861" s="23"/>
       <c r="AW861" s="23"/>
+      <c r="AX861" s="23"/>
     </row>
     <row r="862">
       <c r="AL862" s="23"/>
@@ -26223,6 +27280,7 @@
       <c r="AU862" s="23"/>
       <c r="AV862" s="23"/>
       <c r="AW862" s="23"/>
+      <c r="AX862" s="23"/>
     </row>
     <row r="863">
       <c r="AL863" s="23"/>
@@ -26237,6 +27295,7 @@
       <c r="AU863" s="23"/>
       <c r="AV863" s="23"/>
       <c r="AW863" s="23"/>
+      <c r="AX863" s="23"/>
     </row>
     <row r="864">
       <c r="AL864" s="23"/>
@@ -26251,6 +27310,7 @@
       <c r="AU864" s="23"/>
       <c r="AV864" s="23"/>
       <c r="AW864" s="23"/>
+      <c r="AX864" s="23"/>
     </row>
     <row r="865">
       <c r="AL865" s="23"/>
@@ -26265,6 +27325,7 @@
       <c r="AU865" s="23"/>
       <c r="AV865" s="23"/>
       <c r="AW865" s="23"/>
+      <c r="AX865" s="23"/>
     </row>
     <row r="866">
       <c r="AL866" s="23"/>
@@ -26279,6 +27340,7 @@
       <c r="AU866" s="23"/>
       <c r="AV866" s="23"/>
       <c r="AW866" s="23"/>
+      <c r="AX866" s="23"/>
     </row>
     <row r="867">
       <c r="AL867" s="23"/>
@@ -26293,6 +27355,7 @@
       <c r="AU867" s="23"/>
       <c r="AV867" s="23"/>
       <c r="AW867" s="23"/>
+      <c r="AX867" s="23"/>
     </row>
     <row r="868">
       <c r="AL868" s="23"/>
@@ -26307,6 +27370,7 @@
       <c r="AU868" s="23"/>
       <c r="AV868" s="23"/>
       <c r="AW868" s="23"/>
+      <c r="AX868" s="23"/>
     </row>
     <row r="869">
       <c r="AL869" s="23"/>
@@ -26321,6 +27385,7 @@
       <c r="AU869" s="23"/>
       <c r="AV869" s="23"/>
       <c r="AW869" s="23"/>
+      <c r="AX869" s="23"/>
     </row>
     <row r="870">
       <c r="AL870" s="23"/>
@@ -26335,6 +27400,7 @@
       <c r="AU870" s="23"/>
       <c r="AV870" s="23"/>
       <c r="AW870" s="23"/>
+      <c r="AX870" s="23"/>
     </row>
     <row r="871">
       <c r="AL871" s="23"/>
@@ -26349,6 +27415,7 @@
       <c r="AU871" s="23"/>
       <c r="AV871" s="23"/>
       <c r="AW871" s="23"/>
+      <c r="AX871" s="23"/>
     </row>
     <row r="872">
       <c r="AL872" s="23"/>
@@ -26363,6 +27430,7 @@
       <c r="AU872" s="23"/>
       <c r="AV872" s="23"/>
       <c r="AW872" s="23"/>
+      <c r="AX872" s="23"/>
     </row>
     <row r="873">
       <c r="AL873" s="23"/>
@@ -26377,6 +27445,7 @@
       <c r="AU873" s="23"/>
       <c r="AV873" s="23"/>
       <c r="AW873" s="23"/>
+      <c r="AX873" s="23"/>
     </row>
     <row r="874">
       <c r="AL874" s="23"/>
@@ -26391,6 +27460,7 @@
       <c r="AU874" s="23"/>
       <c r="AV874" s="23"/>
       <c r="AW874" s="23"/>
+      <c r="AX874" s="23"/>
     </row>
     <row r="875">
       <c r="AL875" s="23"/>
@@ -26405,6 +27475,7 @@
       <c r="AU875" s="23"/>
       <c r="AV875" s="23"/>
       <c r="AW875" s="23"/>
+      <c r="AX875" s="23"/>
     </row>
     <row r="876">
       <c r="AL876" s="23"/>
@@ -26419,6 +27490,7 @@
       <c r="AU876" s="23"/>
       <c r="AV876" s="23"/>
       <c r="AW876" s="23"/>
+      <c r="AX876" s="23"/>
     </row>
     <row r="877">
       <c r="AL877" s="23"/>
@@ -26433,6 +27505,7 @@
       <c r="AU877" s="23"/>
       <c r="AV877" s="23"/>
       <c r="AW877" s="23"/>
+      <c r="AX877" s="23"/>
     </row>
     <row r="878">
       <c r="AL878" s="23"/>
@@ -26447,6 +27520,7 @@
       <c r="AU878" s="23"/>
       <c r="AV878" s="23"/>
       <c r="AW878" s="23"/>
+      <c r="AX878" s="23"/>
     </row>
     <row r="879">
       <c r="AL879" s="23"/>
@@ -26461,6 +27535,7 @@
       <c r="AU879" s="23"/>
       <c r="AV879" s="23"/>
       <c r="AW879" s="23"/>
+      <c r="AX879" s="23"/>
     </row>
     <row r="880">
       <c r="AL880" s="23"/>
@@ -26475,6 +27550,7 @@
       <c r="AU880" s="23"/>
       <c r="AV880" s="23"/>
       <c r="AW880" s="23"/>
+      <c r="AX880" s="23"/>
     </row>
     <row r="881">
       <c r="AL881" s="23"/>
@@ -26489,6 +27565,7 @@
       <c r="AU881" s="23"/>
       <c r="AV881" s="23"/>
       <c r="AW881" s="23"/>
+      <c r="AX881" s="23"/>
     </row>
     <row r="882">
       <c r="AL882" s="23"/>
@@ -26503,6 +27580,7 @@
       <c r="AU882" s="23"/>
       <c r="AV882" s="23"/>
       <c r="AW882" s="23"/>
+      <c r="AX882" s="23"/>
     </row>
     <row r="883">
       <c r="AL883" s="23"/>
@@ -26517,6 +27595,7 @@
       <c r="AU883" s="23"/>
       <c r="AV883" s="23"/>
       <c r="AW883" s="23"/>
+      <c r="AX883" s="23"/>
     </row>
     <row r="884">
       <c r="AL884" s="23"/>
@@ -26531,6 +27610,7 @@
       <c r="AU884" s="23"/>
       <c r="AV884" s="23"/>
       <c r="AW884" s="23"/>
+      <c r="AX884" s="23"/>
     </row>
     <row r="885">
       <c r="AL885" s="23"/>
@@ -26545,6 +27625,7 @@
       <c r="AU885" s="23"/>
       <c r="AV885" s="23"/>
       <c r="AW885" s="23"/>
+      <c r="AX885" s="23"/>
     </row>
     <row r="886">
       <c r="AL886" s="23"/>
@@ -26559,6 +27640,7 @@
       <c r="AU886" s="23"/>
       <c r="AV886" s="23"/>
       <c r="AW886" s="23"/>
+      <c r="AX886" s="23"/>
     </row>
     <row r="887">
       <c r="AL887" s="23"/>
@@ -26573,6 +27655,7 @@
       <c r="AU887" s="23"/>
       <c r="AV887" s="23"/>
       <c r="AW887" s="23"/>
+      <c r="AX887" s="23"/>
     </row>
     <row r="888">
       <c r="AL888" s="23"/>
@@ -26587,6 +27670,7 @@
       <c r="AU888" s="23"/>
       <c r="AV888" s="23"/>
       <c r="AW888" s="23"/>
+      <c r="AX888" s="23"/>
     </row>
     <row r="889">
       <c r="AL889" s="23"/>
@@ -26601,6 +27685,7 @@
       <c r="AU889" s="23"/>
       <c r="AV889" s="23"/>
       <c r="AW889" s="23"/>
+      <c r="AX889" s="23"/>
     </row>
     <row r="890">
       <c r="AL890" s="23"/>
@@ -26615,6 +27700,7 @@
       <c r="AU890" s="23"/>
       <c r="AV890" s="23"/>
       <c r="AW890" s="23"/>
+      <c r="AX890" s="23"/>
     </row>
     <row r="891">
       <c r="AL891" s="23"/>
@@ -26629,6 +27715,7 @@
       <c r="AU891" s="23"/>
       <c r="AV891" s="23"/>
       <c r="AW891" s="23"/>
+      <c r="AX891" s="23"/>
     </row>
     <row r="892">
       <c r="AL892" s="23"/>
@@ -26643,6 +27730,7 @@
       <c r="AU892" s="23"/>
       <c r="AV892" s="23"/>
       <c r="AW892" s="23"/>
+      <c r="AX892" s="23"/>
     </row>
     <row r="893">
       <c r="AL893" s="23"/>
@@ -26657,6 +27745,7 @@
       <c r="AU893" s="23"/>
       <c r="AV893" s="23"/>
       <c r="AW893" s="23"/>
+      <c r="AX893" s="23"/>
     </row>
     <row r="894">
       <c r="AL894" s="23"/>
@@ -26671,6 +27760,7 @@
       <c r="AU894" s="23"/>
       <c r="AV894" s="23"/>
       <c r="AW894" s="23"/>
+      <c r="AX894" s="23"/>
     </row>
     <row r="895">
       <c r="AL895" s="23"/>
@@ -26685,6 +27775,7 @@
       <c r="AU895" s="23"/>
       <c r="AV895" s="23"/>
       <c r="AW895" s="23"/>
+      <c r="AX895" s="23"/>
     </row>
     <row r="896">
       <c r="AL896" s="23"/>
@@ -26699,6 +27790,7 @@
       <c r="AU896" s="23"/>
       <c r="AV896" s="23"/>
       <c r="AW896" s="23"/>
+      <c r="AX896" s="23"/>
     </row>
     <row r="897">
       <c r="AL897" s="23"/>
@@ -26713,6 +27805,7 @@
       <c r="AU897" s="23"/>
       <c r="AV897" s="23"/>
       <c r="AW897" s="23"/>
+      <c r="AX897" s="23"/>
     </row>
     <row r="898">
       <c r="AL898" s="23"/>
@@ -26727,6 +27820,7 @@
       <c r="AU898" s="23"/>
       <c r="AV898" s="23"/>
       <c r="AW898" s="23"/>
+      <c r="AX898" s="23"/>
     </row>
     <row r="899">
       <c r="AL899" s="23"/>
@@ -26741,6 +27835,7 @@
       <c r="AU899" s="23"/>
       <c r="AV899" s="23"/>
       <c r="AW899" s="23"/>
+      <c r="AX899" s="23"/>
     </row>
     <row r="900">
       <c r="AL900" s="23"/>
@@ -26755,6 +27850,7 @@
       <c r="AU900" s="23"/>
       <c r="AV900" s="23"/>
       <c r="AW900" s="23"/>
+      <c r="AX900" s="23"/>
     </row>
     <row r="901">
       <c r="AL901" s="23"/>
@@ -26769,6 +27865,7 @@
       <c r="AU901" s="23"/>
       <c r="AV901" s="23"/>
       <c r="AW901" s="23"/>
+      <c r="AX901" s="23"/>
     </row>
     <row r="902">
       <c r="AL902" s="23"/>
@@ -26783,6 +27880,7 @@
       <c r="AU902" s="23"/>
       <c r="AV902" s="23"/>
       <c r="AW902" s="23"/>
+      <c r="AX902" s="23"/>
     </row>
     <row r="903">
       <c r="AL903" s="23"/>
@@ -26797,6 +27895,7 @@
       <c r="AU903" s="23"/>
       <c r="AV903" s="23"/>
       <c r="AW903" s="23"/>
+      <c r="AX903" s="23"/>
     </row>
     <row r="904">
       <c r="AL904" s="23"/>
@@ -26811,6 +27910,7 @@
       <c r="AU904" s="23"/>
       <c r="AV904" s="23"/>
       <c r="AW904" s="23"/>
+      <c r="AX904" s="23"/>
     </row>
     <row r="905">
       <c r="AL905" s="23"/>
@@ -26825,6 +27925,7 @@
       <c r="AU905" s="23"/>
       <c r="AV905" s="23"/>
       <c r="AW905" s="23"/>
+      <c r="AX905" s="23"/>
     </row>
     <row r="906">
       <c r="AL906" s="23"/>
@@ -26839,6 +27940,7 @@
       <c r="AU906" s="23"/>
       <c r="AV906" s="23"/>
       <c r="AW906" s="23"/>
+      <c r="AX906" s="23"/>
     </row>
     <row r="907">
       <c r="AL907" s="23"/>
@@ -26853,6 +27955,7 @@
       <c r="AU907" s="23"/>
       <c r="AV907" s="23"/>
       <c r="AW907" s="23"/>
+      <c r="AX907" s="23"/>
     </row>
     <row r="908">
       <c r="AL908" s="23"/>
@@ -26867,6 +27970,7 @@
       <c r="AU908" s="23"/>
       <c r="AV908" s="23"/>
       <c r="AW908" s="23"/>
+      <c r="AX908" s="23"/>
     </row>
     <row r="909">
       <c r="AL909" s="23"/>
@@ -26881,6 +27985,7 @@
       <c r="AU909" s="23"/>
       <c r="AV909" s="23"/>
       <c r="AW909" s="23"/>
+      <c r="AX909" s="23"/>
     </row>
     <row r="910">
       <c r="AL910" s="23"/>
@@ -26895,6 +28000,7 @@
       <c r="AU910" s="23"/>
       <c r="AV910" s="23"/>
       <c r="AW910" s="23"/>
+      <c r="AX910" s="23"/>
     </row>
     <row r="911">
       <c r="AL911" s="23"/>
@@ -26909,6 +28015,7 @@
       <c r="AU911" s="23"/>
       <c r="AV911" s="23"/>
       <c r="AW911" s="23"/>
+      <c r="AX911" s="23"/>
     </row>
     <row r="912">
       <c r="AL912" s="23"/>
@@ -26923,6 +28030,7 @@
       <c r="AU912" s="23"/>
       <c r="AV912" s="23"/>
       <c r="AW912" s="23"/>
+      <c r="AX912" s="23"/>
     </row>
     <row r="913">
       <c r="AL913" s="23"/>
@@ -26937,6 +28045,7 @@
       <c r="AU913" s="23"/>
       <c r="AV913" s="23"/>
       <c r="AW913" s="23"/>
+      <c r="AX913" s="23"/>
     </row>
     <row r="914">
       <c r="AL914" s="23"/>
@@ -26951,6 +28060,7 @@
       <c r="AU914" s="23"/>
       <c r="AV914" s="23"/>
       <c r="AW914" s="23"/>
+      <c r="AX914" s="23"/>
     </row>
     <row r="915">
       <c r="AL915" s="23"/>
@@ -26965,6 +28075,7 @@
       <c r="AU915" s="23"/>
       <c r="AV915" s="23"/>
       <c r="AW915" s="23"/>
+      <c r="AX915" s="23"/>
     </row>
     <row r="916">
       <c r="AL916" s="23"/>
@@ -26979,6 +28090,7 @@
       <c r="AU916" s="23"/>
       <c r="AV916" s="23"/>
       <c r="AW916" s="23"/>
+      <c r="AX916" s="23"/>
     </row>
     <row r="917">
       <c r="AL917" s="23"/>
@@ -26993,6 +28105,7 @@
       <c r="AU917" s="23"/>
       <c r="AV917" s="23"/>
       <c r="AW917" s="23"/>
+      <c r="AX917" s="23"/>
     </row>
     <row r="918">
       <c r="AL918" s="23"/>
@@ -27007,6 +28120,7 @@
       <c r="AU918" s="23"/>
       <c r="AV918" s="23"/>
       <c r="AW918" s="23"/>
+      <c r="AX918" s="23"/>
     </row>
     <row r="919">
       <c r="AL919" s="23"/>
@@ -27021,6 +28135,7 @@
       <c r="AU919" s="23"/>
       <c r="AV919" s="23"/>
       <c r="AW919" s="23"/>
+      <c r="AX919" s="23"/>
     </row>
     <row r="920">
       <c r="AL920" s="23"/>
@@ -27035,6 +28150,7 @@
       <c r="AU920" s="23"/>
       <c r="AV920" s="23"/>
       <c r="AW920" s="23"/>
+      <c r="AX920" s="23"/>
     </row>
     <row r="921">
       <c r="AL921" s="23"/>
@@ -27049,6 +28165,7 @@
       <c r="AU921" s="23"/>
       <c r="AV921" s="23"/>
       <c r="AW921" s="23"/>
+      <c r="AX921" s="23"/>
     </row>
     <row r="922">
       <c r="AL922" s="23"/>
@@ -27063,6 +28180,7 @@
       <c r="AU922" s="23"/>
       <c r="AV922" s="23"/>
       <c r="AW922" s="23"/>
+      <c r="AX922" s="23"/>
     </row>
     <row r="923">
       <c r="AL923" s="23"/>
@@ -27077,6 +28195,7 @@
       <c r="AU923" s="23"/>
       <c r="AV923" s="23"/>
       <c r="AW923" s="23"/>
+      <c r="AX923" s="23"/>
     </row>
     <row r="924">
       <c r="AL924" s="23"/>
@@ -27091,6 +28210,7 @@
       <c r="AU924" s="23"/>
       <c r="AV924" s="23"/>
       <c r="AW924" s="23"/>
+      <c r="AX924" s="23"/>
     </row>
     <row r="925">
       <c r="AL925" s="23"/>
@@ -27105,6 +28225,7 @@
       <c r="AU925" s="23"/>
       <c r="AV925" s="23"/>
       <c r="AW925" s="23"/>
+      <c r="AX925" s="23"/>
     </row>
     <row r="926">
       <c r="AL926" s="23"/>
@@ -27119,6 +28240,7 @@
       <c r="AU926" s="23"/>
       <c r="AV926" s="23"/>
       <c r="AW926" s="23"/>
+      <c r="AX926" s="23"/>
     </row>
     <row r="927">
       <c r="AL927" s="23"/>
@@ -27133,6 +28255,7 @@
       <c r="AU927" s="23"/>
       <c r="AV927" s="23"/>
       <c r="AW927" s="23"/>
+      <c r="AX927" s="23"/>
     </row>
     <row r="928">
       <c r="AL928" s="23"/>
@@ -27147,6 +28270,7 @@
       <c r="AU928" s="23"/>
       <c r="AV928" s="23"/>
       <c r="AW928" s="23"/>
+      <c r="AX928" s="23"/>
     </row>
     <row r="929">
       <c r="AL929" s="23"/>
@@ -27161,6 +28285,7 @@
       <c r="AU929" s="23"/>
       <c r="AV929" s="23"/>
       <c r="AW929" s="23"/>
+      <c r="AX929" s="23"/>
     </row>
     <row r="930">
       <c r="AL930" s="23"/>
@@ -27175,6 +28300,7 @@
       <c r="AU930" s="23"/>
       <c r="AV930" s="23"/>
       <c r="AW930" s="23"/>
+      <c r="AX930" s="23"/>
     </row>
     <row r="931">
       <c r="AL931" s="23"/>
@@ -27189,6 +28315,7 @@
       <c r="AU931" s="23"/>
       <c r="AV931" s="23"/>
       <c r="AW931" s="23"/>
+      <c r="AX931" s="23"/>
     </row>
     <row r="932">
       <c r="AL932" s="23"/>
@@ -27203,6 +28330,7 @@
       <c r="AU932" s="23"/>
       <c r="AV932" s="23"/>
       <c r="AW932" s="23"/>
+      <c r="AX932" s="23"/>
     </row>
     <row r="933">
       <c r="AL933" s="23"/>
@@ -27217,6 +28345,7 @@
       <c r="AU933" s="23"/>
       <c r="AV933" s="23"/>
       <c r="AW933" s="23"/>
+      <c r="AX933" s="23"/>
     </row>
     <row r="934">
       <c r="AL934" s="23"/>
@@ -27231,6 +28360,7 @@
       <c r="AU934" s="23"/>
       <c r="AV934" s="23"/>
       <c r="AW934" s="23"/>
+      <c r="AX934" s="23"/>
     </row>
     <row r="935">
       <c r="AL935" s="23"/>
@@ -27245,6 +28375,7 @@
       <c r="AU935" s="23"/>
       <c r="AV935" s="23"/>
       <c r="AW935" s="23"/>
+      <c r="AX935" s="23"/>
     </row>
     <row r="936">
       <c r="AL936" s="23"/>
@@ -27259,6 +28390,7 @@
       <c r="AU936" s="23"/>
       <c r="AV936" s="23"/>
       <c r="AW936" s="23"/>
+      <c r="AX936" s="23"/>
     </row>
     <row r="937">
       <c r="AL937" s="23"/>
@@ -27273,6 +28405,7 @@
       <c r="AU937" s="23"/>
       <c r="AV937" s="23"/>
       <c r="AW937" s="23"/>
+      <c r="AX937" s="23"/>
     </row>
     <row r="938">
       <c r="AL938" s="23"/>
@@ -27287,6 +28420,7 @@
       <c r="AU938" s="23"/>
       <c r="AV938" s="23"/>
       <c r="AW938" s="23"/>
+      <c r="AX938" s="23"/>
     </row>
     <row r="939">
       <c r="AL939" s="23"/>
@@ -27301,6 +28435,7 @@
       <c r="AU939" s="23"/>
       <c r="AV939" s="23"/>
       <c r="AW939" s="23"/>
+      <c r="AX939" s="23"/>
     </row>
     <row r="940">
       <c r="AL940" s="23"/>
@@ -27315,6 +28450,7 @@
       <c r="AU940" s="23"/>
       <c r="AV940" s="23"/>
       <c r="AW940" s="23"/>
+      <c r="AX940" s="23"/>
     </row>
     <row r="941">
       <c r="AL941" s="23"/>
@@ -27329,6 +28465,7 @@
       <c r="AU941" s="23"/>
       <c r="AV941" s="23"/>
       <c r="AW941" s="23"/>
+      <c r="AX941" s="23"/>
     </row>
     <row r="942">
       <c r="AL942" s="23"/>
@@ -27343,6 +28480,7 @@
       <c r="AU942" s="23"/>
       <c r="AV942" s="23"/>
       <c r="AW942" s="23"/>
+      <c r="AX942" s="23"/>
     </row>
     <row r="943">
       <c r="AL943" s="23"/>
@@ -27357,6 +28495,7 @@
       <c r="AU943" s="23"/>
       <c r="AV943" s="23"/>
       <c r="AW943" s="23"/>
+      <c r="AX943" s="23"/>
     </row>
     <row r="944">
       <c r="AL944" s="23"/>
@@ -27371,6 +28510,7 @@
       <c r="AU944" s="23"/>
       <c r="AV944" s="23"/>
       <c r="AW944" s="23"/>
+      <c r="AX944" s="23"/>
     </row>
     <row r="945">
       <c r="AL945" s="23"/>
@@ -27385,6 +28525,7 @@
       <c r="AU945" s="23"/>
       <c r="AV945" s="23"/>
       <c r="AW945" s="23"/>
+      <c r="AX945" s="23"/>
     </row>
     <row r="946">
       <c r="AL946" s="23"/>
@@ -27399,6 +28540,7 @@
       <c r="AU946" s="23"/>
       <c r="AV946" s="23"/>
       <c r="AW946" s="23"/>
+      <c r="AX946" s="23"/>
     </row>
     <row r="947">
       <c r="AL947" s="23"/>
@@ -27413,6 +28555,7 @@
       <c r="AU947" s="23"/>
       <c r="AV947" s="23"/>
       <c r="AW947" s="23"/>
+      <c r="AX947" s="23"/>
     </row>
     <row r="948">
       <c r="AL948" s="23"/>
@@ -27427,6 +28570,7 @@
       <c r="AU948" s="23"/>
       <c r="AV948" s="23"/>
       <c r="AW948" s="23"/>
+      <c r="AX948" s="23"/>
     </row>
     <row r="949">
       <c r="AL949" s="23"/>
@@ -27441,6 +28585,7 @@
       <c r="AU949" s="23"/>
       <c r="AV949" s="23"/>
       <c r="AW949" s="23"/>
+      <c r="AX949" s="23"/>
     </row>
     <row r="950">
       <c r="AL950" s="23"/>
@@ -27455,6 +28600,7 @@
       <c r="AU950" s="23"/>
       <c r="AV950" s="23"/>
       <c r="AW950" s="23"/>
+      <c r="AX950" s="23"/>
     </row>
     <row r="951">
       <c r="AL951" s="23"/>
@@ -27469,6 +28615,7 @@
       <c r="AU951" s="23"/>
       <c r="AV951" s="23"/>
       <c r="AW951" s="23"/>
+      <c r="AX951" s="23"/>
     </row>
     <row r="952">
       <c r="AL952" s="23"/>
@@ -27483,6 +28630,7 @@
       <c r="AU952" s="23"/>
       <c r="AV952" s="23"/>
       <c r="AW952" s="23"/>
+      <c r="AX952" s="23"/>
     </row>
     <row r="953">
       <c r="AL953" s="23"/>
@@ -27497,6 +28645,7 @@
       <c r="AU953" s="23"/>
       <c r="AV953" s="23"/>
       <c r="AW953" s="23"/>
+      <c r="AX953" s="23"/>
     </row>
     <row r="954">
       <c r="AL954" s="23"/>
@@ -27511,6 +28660,7 @@
       <c r="AU954" s="23"/>
       <c r="AV954" s="23"/>
       <c r="AW954" s="23"/>
+      <c r="AX954" s="23"/>
     </row>
     <row r="955">
       <c r="AL955" s="23"/>
@@ -27525,6 +28675,7 @@
       <c r="AU955" s="23"/>
       <c r="AV955" s="23"/>
       <c r="AW955" s="23"/>
+      <c r="AX955" s="23"/>
     </row>
     <row r="956">
       <c r="AL956" s="23"/>
@@ -27539,6 +28690,7 @@
       <c r="AU956" s="23"/>
       <c r="AV956" s="23"/>
       <c r="AW956" s="23"/>
+      <c r="AX956" s="23"/>
     </row>
     <row r="957">
       <c r="AL957" s="23"/>
@@ -27553,6 +28705,7 @@
       <c r="AU957" s="23"/>
       <c r="AV957" s="23"/>
       <c r="AW957" s="23"/>
+      <c r="AX957" s="23"/>
     </row>
     <row r="958">
       <c r="AL958" s="23"/>
@@ -27567,6 +28720,7 @@
       <c r="AU958" s="23"/>
       <c r="AV958" s="23"/>
       <c r="AW958" s="23"/>
+      <c r="AX958" s="23"/>
     </row>
     <row r="959">
       <c r="AL959" s="23"/>
@@ -27581,6 +28735,7 @@
       <c r="AU959" s="23"/>
       <c r="AV959" s="23"/>
       <c r="AW959" s="23"/>
+      <c r="AX959" s="23"/>
     </row>
     <row r="960">
       <c r="AL960" s="23"/>
@@ -27595,6 +28750,7 @@
       <c r="AU960" s="23"/>
       <c r="AV960" s="23"/>
       <c r="AW960" s="23"/>
+      <c r="AX960" s="23"/>
     </row>
     <row r="961">
       <c r="AL961" s="23"/>
@@ -27609,6 +28765,7 @@
       <c r="AU961" s="23"/>
       <c r="AV961" s="23"/>
       <c r="AW961" s="23"/>
+      <c r="AX961" s="23"/>
     </row>
     <row r="962">
       <c r="AL962" s="23"/>
@@ -27623,6 +28780,7 @@
       <c r="AU962" s="23"/>
       <c r="AV962" s="23"/>
       <c r="AW962" s="23"/>
+      <c r="AX962" s="23"/>
     </row>
     <row r="963">
       <c r="AL963" s="23"/>
@@ -27637,6 +28795,7 @@
       <c r="AU963" s="23"/>
       <c r="AV963" s="23"/>
       <c r="AW963" s="23"/>
+      <c r="AX963" s="23"/>
     </row>
     <row r="964">
       <c r="AL964" s="23"/>
@@ -27651,6 +28810,7 @@
       <c r="AU964" s="23"/>
       <c r="AV964" s="23"/>
       <c r="AW964" s="23"/>
+      <c r="AX964" s="23"/>
     </row>
     <row r="965">
       <c r="AL965" s="23"/>
@@ -27665,6 +28825,7 @@
       <c r="AU965" s="23"/>
       <c r="AV965" s="23"/>
       <c r="AW965" s="23"/>
+      <c r="AX965" s="23"/>
     </row>
     <row r="966">
       <c r="AL966" s="23"/>
@@ -27679,6 +28840,7 @@
       <c r="AU966" s="23"/>
       <c r="AV966" s="23"/>
       <c r="AW966" s="23"/>
+      <c r="AX966" s="23"/>
     </row>
     <row r="967">
       <c r="AL967" s="23"/>
@@ -27693,6 +28855,7 @@
       <c r="AU967" s="23"/>
       <c r="AV967" s="23"/>
       <c r="AW967" s="23"/>
+      <c r="AX967" s="23"/>
     </row>
     <row r="968">
       <c r="AL968" s="23"/>
@@ -27707,6 +28870,7 @@
       <c r="AU968" s="23"/>
       <c r="AV968" s="23"/>
       <c r="AW968" s="23"/>
+      <c r="AX968" s="23"/>
     </row>
     <row r="969">
       <c r="AL969" s="23"/>
@@ -27721,6 +28885,7 @@
       <c r="AU969" s="23"/>
       <c r="AV969" s="23"/>
       <c r="AW969" s="23"/>
+      <c r="AX969" s="23"/>
     </row>
     <row r="970">
       <c r="AL970" s="23"/>
@@ -27735,6 +28900,7 @@
       <c r="AU970" s="23"/>
       <c r="AV970" s="23"/>
       <c r="AW970" s="23"/>
+      <c r="AX970" s="23"/>
     </row>
     <row r="971">
       <c r="AL971" s="23"/>
@@ -27749,6 +28915,7 @@
       <c r="AU971" s="23"/>
       <c r="AV971" s="23"/>
       <c r="AW971" s="23"/>
+      <c r="AX971" s="23"/>
     </row>
     <row r="972">
       <c r="AL972" s="23"/>
@@ -27763,6 +28930,7 @@
       <c r="AU972" s="23"/>
       <c r="AV972" s="23"/>
       <c r="AW972" s="23"/>
+      <c r="AX972" s="23"/>
     </row>
     <row r="973">
       <c r="AL973" s="23"/>
@@ -27777,6 +28945,7 @@
       <c r="AU973" s="23"/>
       <c r="AV973" s="23"/>
       <c r="AW973" s="23"/>
+      <c r="AX973" s="23"/>
     </row>
     <row r="974">
       <c r="AL974" s="23"/>
@@ -27791,6 +28960,7 @@
       <c r="AU974" s="23"/>
       <c r="AV974" s="23"/>
       <c r="AW974" s="23"/>
+      <c r="AX974" s="23"/>
     </row>
     <row r="975">
       <c r="AL975" s="23"/>
@@ -27805,6 +28975,7 @@
       <c r="AU975" s="23"/>
       <c r="AV975" s="23"/>
       <c r="AW975" s="23"/>
+      <c r="AX975" s="23"/>
     </row>
     <row r="976">
       <c r="AL976" s="23"/>
@@ -27819,6 +28990,7 @@
       <c r="AU976" s="23"/>
       <c r="AV976" s="23"/>
       <c r="AW976" s="23"/>
+      <c r="AX976" s="23"/>
     </row>
     <row r="977">
       <c r="AL977" s="23"/>
@@ -27833,6 +29005,7 @@
       <c r="AU977" s="23"/>
       <c r="AV977" s="23"/>
       <c r="AW977" s="23"/>
+      <c r="AX977" s="23"/>
     </row>
     <row r="978">
       <c r="AL978" s="23"/>
@@ -27847,6 +29020,7 @@
       <c r="AU978" s="23"/>
       <c r="AV978" s="23"/>
       <c r="AW978" s="23"/>
+      <c r="AX978" s="23"/>
     </row>
     <row r="979">
       <c r="AL979" s="23"/>
@@ -27861,6 +29035,7 @@
       <c r="AU979" s="23"/>
       <c r="AV979" s="23"/>
       <c r="AW979" s="23"/>
+      <c r="AX979" s="23"/>
     </row>
     <row r="980">
       <c r="AL980" s="23"/>
@@ -27875,6 +29050,7 @@
       <c r="AU980" s="23"/>
       <c r="AV980" s="23"/>
       <c r="AW980" s="23"/>
+      <c r="AX980" s="23"/>
     </row>
     <row r="981">
       <c r="AL981" s="23"/>
@@ -27889,6 +29065,7 @@
       <c r="AU981" s="23"/>
       <c r="AV981" s="23"/>
       <c r="AW981" s="23"/>
+      <c r="AX981" s="23"/>
     </row>
     <row r="982">
       <c r="AL982" s="23"/>
@@ -27903,6 +29080,7 @@
       <c r="AU982" s="23"/>
       <c r="AV982" s="23"/>
       <c r="AW982" s="23"/>
+      <c r="AX982" s="23"/>
     </row>
     <row r="983">
       <c r="AL983" s="23"/>
@@ -27917,6 +29095,7 @@
       <c r="AU983" s="23"/>
       <c r="AV983" s="23"/>
       <c r="AW983" s="23"/>
+      <c r="AX983" s="23"/>
     </row>
     <row r="984">
       <c r="AL984" s="23"/>
@@ -27931,6 +29110,7 @@
       <c r="AU984" s="23"/>
       <c r="AV984" s="23"/>
       <c r="AW984" s="23"/>
+      <c r="AX984" s="23"/>
     </row>
     <row r="985">
       <c r="AL985" s="23"/>
@@ -27945,6 +29125,7 @@
       <c r="AU985" s="23"/>
       <c r="AV985" s="23"/>
       <c r="AW985" s="23"/>
+      <c r="AX985" s="23"/>
     </row>
     <row r="986">
       <c r="AL986" s="23"/>
@@ -27959,6 +29140,7 @@
       <c r="AU986" s="23"/>
       <c r="AV986" s="23"/>
       <c r="AW986" s="23"/>
+      <c r="AX986" s="23"/>
     </row>
     <row r="987">
       <c r="AL987" s="23"/>
@@ -27973,6 +29155,7 @@
       <c r="AU987" s="23"/>
       <c r="AV987" s="23"/>
       <c r="AW987" s="23"/>
+      <c r="AX987" s="23"/>
     </row>
     <row r="988">
       <c r="AL988" s="23"/>
@@ -27987,6 +29170,7 @@
       <c r="AU988" s="23"/>
       <c r="AV988" s="23"/>
       <c r="AW988" s="23"/>
+      <c r="AX988" s="23"/>
     </row>
     <row r="989">
       <c r="AL989" s="23"/>
@@ -28001,6 +29185,7 @@
       <c r="AU989" s="23"/>
       <c r="AV989" s="23"/>
       <c r="AW989" s="23"/>
+      <c r="AX989" s="23"/>
     </row>
     <row r="990">
       <c r="AL990" s="23"/>
@@ -28015,6 +29200,7 @@
       <c r="AU990" s="23"/>
       <c r="AV990" s="23"/>
       <c r="AW990" s="23"/>
+      <c r="AX990" s="23"/>
     </row>
     <row r="991">
       <c r="AL991" s="23"/>
@@ -28029,6 +29215,7 @@
       <c r="AU991" s="23"/>
       <c r="AV991" s="23"/>
       <c r="AW991" s="23"/>
+      <c r="AX991" s="23"/>
     </row>
     <row r="992">
       <c r="AL992" s="23"/>
@@ -28043,6 +29230,7 @@
       <c r="AU992" s="23"/>
       <c r="AV992" s="23"/>
       <c r="AW992" s="23"/>
+      <c r="AX992" s="23"/>
     </row>
     <row r="993">
       <c r="AL993" s="23"/>
@@ -28057,6 +29245,7 @@
       <c r="AU993" s="23"/>
       <c r="AV993" s="23"/>
       <c r="AW993" s="23"/>
+      <c r="AX993" s="23"/>
     </row>
     <row r="994">
       <c r="AL994" s="23"/>
@@ -28071,6 +29260,7 @@
       <c r="AU994" s="23"/>
       <c r="AV994" s="23"/>
       <c r="AW994" s="23"/>
+      <c r="AX994" s="23"/>
     </row>
     <row r="995">
       <c r="AL995" s="23"/>
@@ -28085,6 +29275,7 @@
       <c r="AU995" s="23"/>
       <c r="AV995" s="23"/>
       <c r="AW995" s="23"/>
+      <c r="AX995" s="23"/>
     </row>
     <row r="996">
       <c r="AL996" s="23"/>
@@ -28099,6 +29290,7 @@
       <c r="AU996" s="23"/>
       <c r="AV996" s="23"/>
       <c r="AW996" s="23"/>
+      <c r="AX996" s="23"/>
     </row>
     <row r="997">
       <c r="AL997" s="23"/>
@@ -28113,6 +29305,7 @@
       <c r="AU997" s="23"/>
       <c r="AV997" s="23"/>
       <c r="AW997" s="23"/>
+      <c r="AX997" s="23"/>
     </row>
     <row r="998">
       <c r="AL998" s="23"/>
@@ -28127,6 +29320,7 @@
       <c r="AU998" s="23"/>
       <c r="AV998" s="23"/>
       <c r="AW998" s="23"/>
+      <c r="AX998" s="23"/>
     </row>
     <row r="999">
       <c r="AL999" s="23"/>
@@ -28141,6 +29335,7 @@
       <c r="AU999" s="23"/>
       <c r="AV999" s="23"/>
       <c r="AW999" s="23"/>
+      <c r="AX999" s="23"/>
     </row>
     <row r="1000">
       <c r="AL1000" s="23"/>
@@ -28155,6 +29350,7 @@
       <c r="AU1000" s="23"/>
       <c r="AV1000" s="23"/>
       <c r="AW1000" s="23"/>
+      <c r="AX1000" s="23"/>
     </row>
     <row r="1001">
       <c r="AL1001" s="23"/>
@@ -28169,6 +29365,7 @@
       <c r="AU1001" s="23"/>
       <c r="AV1001" s="23"/>
       <c r="AW1001" s="23"/>
+      <c r="AX1001" s="23"/>
     </row>
     <row r="1002">
       <c r="AL1002" s="23"/>
@@ -28183,6 +29380,7 @@
       <c r="AU1002" s="23"/>
       <c r="AV1002" s="23"/>
       <c r="AW1002" s="23"/>
+      <c r="AX1002" s="23"/>
     </row>
     <row r="1003">
       <c r="AL1003" s="23"/>
@@ -28197,6 +29395,7 @@
       <c r="AU1003" s="23"/>
       <c r="AV1003" s="23"/>
       <c r="AW1003" s="23"/>
+      <c r="AX1003" s="23"/>
     </row>
     <row r="1004">
       <c r="AL1004" s="23"/>
@@ -28211,6 +29410,7 @@
       <c r="AU1004" s="23"/>
       <c r="AV1004" s="23"/>
       <c r="AW1004" s="23"/>
+      <c r="AX1004" s="23"/>
     </row>
     <row r="1005">
       <c r="AL1005" s="23"/>
@@ -28225,6 +29425,7 @@
       <c r="AU1005" s="23"/>
       <c r="AV1005" s="23"/>
       <c r="AW1005" s="23"/>
+      <c r="AX1005" s="23"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -28665,20 +29866,32 @@
       <c r="B51" s="2">
         <v>676.0</v>
       </c>
+      <c r="C51" s="2">
+        <v>665.0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="19">
         <v>45423.0</v>
       </c>
+      <c r="B52" s="2">
+        <v>689.0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="19">
         <v>45424.0</v>
       </c>
+      <c r="B53" s="29" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="19">
         <v>45425.0</v>
+      </c>
+      <c r="B54" s="2">
+        <v>699.0</v>
       </c>
     </row>
     <row r="55">
@@ -28697,7 +29910,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection activeCell="C2" sqref="C2" pane="topRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
@@ -28705,8 +29921,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="29" t="s">
-        <v>103</v>
+      <c r="A1" s="30" t="s">
+        <v>104</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -28721,7 +29937,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
-      <c r="O1" s="30"/>
+      <c r="O1" s="31"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
@@ -28739,7 +29955,7 @@
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
-      <c r="AG1" s="30"/>
+      <c r="AG1" s="31"/>
       <c r="AH1" s="1"/>
       <c r="AI1" s="19"/>
       <c r="AJ1" s="19"/>
@@ -28756,9 +29972,10 @@
       <c r="AU1" s="20"/>
       <c r="AV1" s="20"/>
       <c r="AW1" s="20"/>
+      <c r="AX1" s="20"/>
     </row>
     <row r="2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>99</v>
       </c>
       <c r="B2" s="1">
@@ -28813,7 +30030,7 @@
         <f>Census!N1</f>
         <v>45170</v>
       </c>
-      <c r="O2" s="30">
+      <c r="O2" s="31">
         <f>Census!O1</f>
         <v>45177</v>
       </c>
@@ -28885,7 +30102,7 @@
         <f>Census!AF1</f>
         <v>45296</v>
       </c>
-      <c r="AG2" s="30">
+      <c r="AG2" s="31">
         <f>Census!AG1</f>
         <v>45303</v>
       </c>
@@ -28950,9 +30167,12 @@
       <c r="AW2" s="20">
         <v>45415.0</v>
       </c>
+      <c r="AX2" s="20">
+        <v>45422.0</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="32" t="s">
         <v>97</v>
       </c>
       <c r="B3" s="7">
@@ -29007,7 +30227,7 @@
         <f>Census!N45</f>
         <v>6662</v>
       </c>
-      <c r="O3" s="32">
+      <c r="O3" s="33">
         <f>Census!O45</f>
         <v>6991</v>
       </c>
@@ -29079,7 +30299,7 @@
         <f>Census!AF45</f>
         <v>14734</v>
       </c>
-      <c r="AG3" s="32">
+      <c r="AG3" s="33">
         <f>Census!AG45</f>
         <v>14824</v>
       </c>
@@ -29147,9 +30367,13 @@
         <f>Census!AW45</f>
         <v>8190</v>
       </c>
+      <c r="AX3" s="27">
+        <f>Census!AX45</f>
+        <v>7793</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="32" t="s">
         <v>61</v>
       </c>
       <c r="B4" s="7">
@@ -29204,7 +30428,7 @@
         <f>Census!N6</f>
         <v>1994</v>
       </c>
-      <c r="O4" s="32">
+      <c r="O4" s="33">
         <f>Census!O6</f>
         <v>2032</v>
       </c>
@@ -29276,7 +30500,7 @@
         <f>Census!AF6</f>
         <v>262</v>
       </c>
-      <c r="AG4" s="32">
+      <c r="AG4" s="33">
         <f>Census!AG6</f>
         <v>406</v>
       </c>
@@ -29344,14 +30568,18 @@
         <f>Census!AW6</f>
         <v>29</v>
       </c>
+      <c r="AX4" s="27">
+        <f>Census!AX6</f>
+        <v>53</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="29" t="s">
-        <v>104</v>
+      <c r="A37" s="30" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="30" t="s">
         <v>99</v>
       </c>
       <c r="B38" s="1">
@@ -29491,7 +30719,9 @@
       <c r="AJ38" s="1">
         <v>45415.0</v>
       </c>
-      <c r="AK38" s="1"/>
+      <c r="AK38" s="1">
+        <v>45422.0</v>
+      </c>
       <c r="AL38" s="1"/>
       <c r="AM38" s="1"/>
       <c r="AN38" s="1"/>
@@ -29504,16 +30734,17 @@
       <c r="AU38" s="1"/>
       <c r="AV38" s="1"/>
       <c r="AW38" s="1"/>
+      <c r="AX38" s="1"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B39" s="2">
         <f>WeeklyMovement!O3</f>
         <v>11</v>
       </c>
-      <c r="C39" s="33">
+      <c r="C39" s="34">
         <f>WeeklyMovement!P3</f>
         <v>13</v>
       </c>
@@ -29649,10 +30880,14 @@
         <f>WeeklyMovement!AW3</f>
         <v>0</v>
       </c>
+      <c r="AK39" s="2">
+        <f>WeeklyMovement!AX3</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Z40" s="2">
         <f>WeeklyMovement!AM4</f>
@@ -29697,6 +30932,10 @@
       <c r="AJ40" s="2">
         <f>WeeklyMovement!AW4</f>
         <v>7</v>
+      </c>
+      <c r="AK40" s="2">
+        <f>WeeklyMovement!AX4</f>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -613,11 +613,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="111253300"/>
-        <c:axId val="477044282"/>
+        <c:axId val="2001569422"/>
+        <c:axId val="1033429440"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="111253300"/>
+        <c:axId val="2001569422"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -669,10 +669,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477044282"/>
+        <c:crossAx val="1033429440"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="477044282"/>
+        <c:axId val="1033429440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -747,7 +747,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111253300"/>
+        <c:crossAx val="2001569422"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -870,11 +870,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="934020363"/>
-        <c:axId val="1183323933"/>
+        <c:axId val="360115306"/>
+        <c:axId val="1066351006"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="934020363"/>
+        <c:axId val="360115306"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -926,10 +926,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1183323933"/>
+        <c:crossAx val="1066351006"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1183323933"/>
+        <c:axId val="1066351006"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1004,7 +1004,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="934020363"/>
+        <c:crossAx val="360115306"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -29882,21 +29882,24 @@
       <c r="A53" s="19">
         <v>45424.0</v>
       </c>
-      <c r="B53" s="29" t="s">
-        <v>103</v>
+      <c r="B53" s="2">
+        <v>689.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="19">
         <v>45425.0</v>
       </c>
-      <c r="B54" s="2">
-        <v>699.0</v>
+      <c r="B54" s="29" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="19">
         <v>45426.0</v>
+      </c>
+      <c r="B55" s="2">
+        <v>699.0</v>
       </c>
     </row>
   </sheetData>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -613,11 +613,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="2001569422"/>
-        <c:axId val="1033429440"/>
+        <c:axId val="1648414683"/>
+        <c:axId val="1414392767"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="2001569422"/>
+        <c:axId val="1648414683"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -669,10 +669,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1033429440"/>
+        <c:crossAx val="1414392767"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1033429440"/>
+        <c:axId val="1414392767"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -747,7 +747,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2001569422"/>
+        <c:crossAx val="1648414683"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -870,11 +870,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="360115306"/>
-        <c:axId val="1066351006"/>
+        <c:axId val="429269476"/>
+        <c:axId val="1128300261"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="360115306"/>
+        <c:axId val="429269476"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -926,10 +926,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1066351006"/>
+        <c:crossAx val="1128300261"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1066351006"/>
+        <c:axId val="1128300261"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1004,7 +1004,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="360115306"/>
+        <c:crossAx val="429269476"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -613,11 +613,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1648414683"/>
-        <c:axId val="1414392767"/>
+        <c:axId val="526582295"/>
+        <c:axId val="165689410"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1648414683"/>
+        <c:axId val="526582295"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -669,10 +669,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1414392767"/>
+        <c:crossAx val="165689410"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1414392767"/>
+        <c:axId val="165689410"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -747,7 +747,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1648414683"/>
+        <c:crossAx val="526582295"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -870,11 +870,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="429269476"/>
-        <c:axId val="1128300261"/>
+        <c:axId val="737132100"/>
+        <c:axId val="2084150519"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="429269476"/>
+        <c:axId val="737132100"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -926,10 +926,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1128300261"/>
+        <c:crossAx val="2084150519"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1128300261"/>
+        <c:axId val="2084150519"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1004,7 +1004,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429269476"/>
+        <c:crossAx val="737132100"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -613,11 +613,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="526582295"/>
-        <c:axId val="165689410"/>
+        <c:axId val="1134472927"/>
+        <c:axId val="1681451587"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="526582295"/>
+        <c:axId val="1134472927"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -669,10 +669,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165689410"/>
+        <c:crossAx val="1681451587"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="165689410"/>
+        <c:axId val="1681451587"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -747,7 +747,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="526582295"/>
+        <c:crossAx val="1134472927"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -870,11 +870,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="737132100"/>
-        <c:axId val="2084150519"/>
+        <c:axId val="1154748906"/>
+        <c:axId val="2040925087"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="737132100"/>
+        <c:axId val="1154748906"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -926,10 +926,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2084150519"/>
+        <c:crossAx val="2040925087"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2084150519"/>
+        <c:axId val="2040925087"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1004,7 +1004,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="737132100"/>
+        <c:crossAx val="1154748906"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -619,11 +619,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="991421132"/>
-        <c:axId val="1597158382"/>
+        <c:axId val="1051346046"/>
+        <c:axId val="1304135505"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="991421132"/>
+        <c:axId val="1051346046"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -675,10 +675,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1597158382"/>
+        <c:crossAx val="1304135505"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1597158382"/>
+        <c:axId val="1304135505"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -753,7 +753,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="991421132"/>
+        <c:crossAx val="1051346046"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -876,11 +876,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="477421760"/>
-        <c:axId val="2101172242"/>
+        <c:axId val="848615685"/>
+        <c:axId val="1467680724"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="477421760"/>
+        <c:axId val="848615685"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -932,10 +932,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2101172242"/>
+        <c:crossAx val="1467680724"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2101172242"/>
+        <c:axId val="1467680724"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1010,7 +1010,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477421760"/>
+        <c:crossAx val="848615685"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -619,11 +619,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1051346046"/>
-        <c:axId val="1304135505"/>
+        <c:axId val="319960740"/>
+        <c:axId val="1846115580"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1051346046"/>
+        <c:axId val="319960740"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -675,10 +675,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1304135505"/>
+        <c:crossAx val="1846115580"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1304135505"/>
+        <c:axId val="1846115580"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -753,7 +753,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1051346046"/>
+        <c:crossAx val="319960740"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -876,11 +876,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="848615685"/>
-        <c:axId val="1467680724"/>
+        <c:axId val="1747364860"/>
+        <c:axId val="1107691128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="848615685"/>
+        <c:axId val="1747364860"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -932,10 +932,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1467680724"/>
+        <c:crossAx val="1107691128"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1467680724"/>
+        <c:axId val="1107691128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1010,7 +1010,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="848615685"/>
+        <c:crossAx val="1747364860"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -356,7 +356,7 @@
     <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="167" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -384,6 +384,10 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -395,12 +399,18 @@
       <name val="&quot;Google Sans Mono&quot;"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -409,7 +419,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -499,15 +509,18 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -619,11 +632,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="319960740"/>
-        <c:axId val="1846115580"/>
+        <c:axId val="652800497"/>
+        <c:axId val="1589161365"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="319960740"/>
+        <c:axId val="652800497"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -675,10 +688,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1846115580"/>
+        <c:crossAx val="1589161365"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1846115580"/>
+        <c:axId val="1589161365"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -753,7 +766,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="319960740"/>
+        <c:crossAx val="652800497"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -876,11 +889,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1747364860"/>
-        <c:axId val="1107691128"/>
+        <c:axId val="1484617569"/>
+        <c:axId val="721721912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1747364860"/>
+        <c:axId val="1484617569"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -932,10 +945,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1107691128"/>
+        <c:crossAx val="721721912"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1107691128"/>
+        <c:axId val="721721912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1010,7 +1023,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1747364860"/>
+        <c:crossAx val="1484617569"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -31223,6 +31236,17 @@
       <c r="A61" s="20">
         <v>45432.0</v>
       </c>
+      <c r="B61" s="2">
+        <v>747.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="20">
+        <v>45433.0</v>
+      </c>
+      <c r="B62" s="31">
+        <v>750.0</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -31246,7 +31270,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>105</v>
       </c>
       <c r="B1" s="1"/>
@@ -31262,7 +31286,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
-      <c r="O1" s="32"/>
+      <c r="O1" s="33"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
@@ -31280,7 +31304,7 @@
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
-      <c r="AG1" s="32"/>
+      <c r="AG1" s="33"/>
       <c r="AH1" s="1"/>
       <c r="AI1" s="20"/>
       <c r="AJ1" s="20"/>
@@ -31301,7 +31325,7 @@
       <c r="AY1" s="21"/>
     </row>
     <row r="2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>100</v>
       </c>
       <c r="B2" s="1">
@@ -31356,7 +31380,7 @@
         <f>Census!N1</f>
         <v>45170</v>
       </c>
-      <c r="O2" s="32">
+      <c r="O2" s="33">
         <f>Census!O1</f>
         <v>45177</v>
       </c>
@@ -31428,7 +31452,7 @@
         <f>Census!AF1</f>
         <v>45296</v>
       </c>
-      <c r="AG2" s="32">
+      <c r="AG2" s="33">
         <f>Census!AG1</f>
         <v>45303</v>
       </c>
@@ -31501,7 +31525,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="34" t="s">
         <v>98</v>
       </c>
       <c r="B3" s="7">
@@ -31556,7 +31580,7 @@
         <f>Census!N45</f>
         <v>6662</v>
       </c>
-      <c r="O3" s="34">
+      <c r="O3" s="35">
         <f>Census!O45</f>
         <v>6991</v>
       </c>
@@ -31628,7 +31652,7 @@
         <f>Census!AF45</f>
         <v>14734</v>
       </c>
-      <c r="AG3" s="34">
+      <c r="AG3" s="35">
         <f>Census!AG45</f>
         <v>14824</v>
       </c>
@@ -31706,7 +31730,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="34" t="s">
         <v>62</v>
       </c>
       <c r="B4" s="7">
@@ -31761,7 +31785,7 @@
         <f>Census!N6</f>
         <v>1994</v>
       </c>
-      <c r="O4" s="34">
+      <c r="O4" s="35">
         <f>Census!O6</f>
         <v>2032</v>
       </c>
@@ -31833,7 +31857,7 @@
         <f>Census!AF6</f>
         <v>262</v>
       </c>
-      <c r="AG4" s="34">
+      <c r="AG4" s="35">
         <f>Census!AG6</f>
         <v>406</v>
       </c>
@@ -31911,12 +31935,12 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="32" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="32" t="s">
         <v>100</v>
       </c>
       <c r="B38" s="1">
@@ -32084,7 +32108,7 @@
         <f>WeeklyMovement!O3</f>
         <v>11</v>
       </c>
-      <c r="C39" s="35">
+      <c r="C39" s="36">
         <f>WeeklyMovement!P3</f>
         <v>13</v>
       </c>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -632,11 +632,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="652800497"/>
-        <c:axId val="1589161365"/>
+        <c:axId val="1876469592"/>
+        <c:axId val="131798647"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="652800497"/>
+        <c:axId val="1876469592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -688,10 +688,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1589161365"/>
+        <c:crossAx val="131798647"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1589161365"/>
+        <c:axId val="131798647"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -766,7 +766,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="652800497"/>
+        <c:crossAx val="1876469592"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -889,11 +889,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1484617569"/>
-        <c:axId val="721721912"/>
+        <c:axId val="1180794964"/>
+        <c:axId val="533183669"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1484617569"/>
+        <c:axId val="1180794964"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -945,10 +945,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="721721912"/>
+        <c:crossAx val="533183669"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="721721912"/>
+        <c:axId val="533183669"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1023,7 +1023,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1484617569"/>
+        <c:crossAx val="1180794964"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -632,11 +632,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1876469592"/>
-        <c:axId val="131798647"/>
+        <c:axId val="1996588640"/>
+        <c:axId val="1956079517"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1876469592"/>
+        <c:axId val="1996588640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -688,10 +688,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131798647"/>
+        <c:crossAx val="1956079517"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="131798647"/>
+        <c:axId val="1956079517"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -766,7 +766,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1876469592"/>
+        <c:crossAx val="1996588640"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -889,11 +889,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1180794964"/>
-        <c:axId val="533183669"/>
+        <c:axId val="1194951126"/>
+        <c:axId val="1454659956"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1180794964"/>
+        <c:axId val="1194951126"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -945,10 +945,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533183669"/>
+        <c:crossAx val="1454659956"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="533183669"/>
+        <c:axId val="1454659956"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1023,7 +1023,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1180794964"/>
+        <c:crossAx val="1194951126"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -632,11 +632,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1996588640"/>
-        <c:axId val="1956079517"/>
+        <c:axId val="618814510"/>
+        <c:axId val="833896223"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1996588640"/>
+        <c:axId val="618814510"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -688,10 +688,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1956079517"/>
+        <c:crossAx val="833896223"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1956079517"/>
+        <c:axId val="833896223"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -766,7 +766,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1996588640"/>
+        <c:crossAx val="618814510"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -889,11 +889,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1194951126"/>
-        <c:axId val="1454659956"/>
+        <c:axId val="1147067886"/>
+        <c:axId val="1113893559"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1194951126"/>
+        <c:axId val="1147067886"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -945,10 +945,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1454659956"/>
+        <c:crossAx val="1113893559"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1454659956"/>
+        <c:axId val="1113893559"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1023,7 +1023,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1194951126"/>
+        <c:crossAx val="1147067886"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -632,11 +632,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="618814510"/>
-        <c:axId val="833896223"/>
+        <c:axId val="1973876033"/>
+        <c:axId val="1455407688"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="618814510"/>
+        <c:axId val="1973876033"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -688,10 +688,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="833896223"/>
+        <c:crossAx val="1455407688"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="833896223"/>
+        <c:axId val="1455407688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -766,7 +766,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="618814510"/>
+        <c:crossAx val="1973876033"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -889,11 +889,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1147067886"/>
-        <c:axId val="1113893559"/>
+        <c:axId val="1399749141"/>
+        <c:axId val="350215707"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1147067886"/>
+        <c:axId val="1399749141"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -945,10 +945,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1113893559"/>
+        <c:crossAx val="350215707"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1113893559"/>
+        <c:axId val="350215707"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1023,7 +1023,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1147067886"/>
+        <c:crossAx val="1399749141"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -644,11 +644,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1843188427"/>
-        <c:axId val="1906000201"/>
+        <c:axId val="1910074195"/>
+        <c:axId val="1044682436"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1843188427"/>
+        <c:axId val="1910074195"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -700,10 +700,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1906000201"/>
+        <c:crossAx val="1044682436"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1906000201"/>
+        <c:axId val="1044682436"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -778,7 +778,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1843188427"/>
+        <c:crossAx val="1910074195"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -901,11 +901,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1153745528"/>
-        <c:axId val="99066961"/>
+        <c:axId val="667044959"/>
+        <c:axId val="370507573"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1153745528"/>
+        <c:axId val="667044959"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -957,10 +957,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99066961"/>
+        <c:crossAx val="370507573"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99066961"/>
+        <c:axId val="370507573"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1035,7 +1035,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1153745528"/>
+        <c:crossAx val="667044959"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -32547,6 +32547,9 @@
       <c r="A69" s="21">
         <v>45440.0</v>
       </c>
+      <c r="B69" s="2">
+        <v>822.0</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -644,11 +644,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1910074195"/>
-        <c:axId val="1044682436"/>
+        <c:axId val="1454661255"/>
+        <c:axId val="1658343340"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1910074195"/>
+        <c:axId val="1454661255"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -700,10 +700,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1044682436"/>
+        <c:crossAx val="1658343340"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1044682436"/>
+        <c:axId val="1658343340"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -778,7 +778,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1910074195"/>
+        <c:crossAx val="1454661255"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -901,11 +901,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="667044959"/>
-        <c:axId val="370507573"/>
+        <c:axId val="957537267"/>
+        <c:axId val="1793285771"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="667044959"/>
+        <c:axId val="957537267"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -957,10 +957,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370507573"/>
+        <c:crossAx val="1793285771"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="370507573"/>
+        <c:axId val="1793285771"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1035,7 +1035,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="667044959"/>
+        <c:crossAx val="957537267"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -644,11 +644,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1454661255"/>
-        <c:axId val="1658343340"/>
+        <c:axId val="1382546197"/>
+        <c:axId val="759813728"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1454661255"/>
+        <c:axId val="1382546197"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -700,10 +700,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1658343340"/>
+        <c:crossAx val="759813728"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1658343340"/>
+        <c:axId val="759813728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -778,7 +778,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1454661255"/>
+        <c:crossAx val="1382546197"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -901,11 +901,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="957537267"/>
-        <c:axId val="1793285771"/>
+        <c:axId val="749253483"/>
+        <c:axId val="15202610"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="957537267"/>
+        <c:axId val="749253483"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -957,10 +957,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1793285771"/>
+        <c:crossAx val="15202610"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1793285771"/>
+        <c:axId val="15202610"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1035,7 +1035,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="957537267"/>
+        <c:crossAx val="749253483"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -644,11 +644,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1382546197"/>
-        <c:axId val="759813728"/>
+        <c:axId val="1139025178"/>
+        <c:axId val="393882965"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1382546197"/>
+        <c:axId val="1139025178"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -700,10 +700,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="759813728"/>
+        <c:crossAx val="393882965"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="759813728"/>
+        <c:axId val="393882965"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -778,7 +778,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1382546197"/>
+        <c:crossAx val="1139025178"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -901,11 +901,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="749253483"/>
-        <c:axId val="15202610"/>
+        <c:axId val="1266622775"/>
+        <c:axId val="175060223"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="749253483"/>
+        <c:axId val="1266622775"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -957,10 +957,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15202610"/>
+        <c:crossAx val="175060223"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="15202610"/>
+        <c:axId val="175060223"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1035,7 +1035,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="749253483"/>
+        <c:crossAx val="1266622775"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -644,11 +644,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1139025178"/>
-        <c:axId val="393882965"/>
+        <c:axId val="1455556140"/>
+        <c:axId val="2069250947"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1139025178"/>
+        <c:axId val="1455556140"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -700,10 +700,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393882965"/>
+        <c:crossAx val="2069250947"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="393882965"/>
+        <c:axId val="2069250947"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -778,7 +778,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1139025178"/>
+        <c:crossAx val="1455556140"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -901,11 +901,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1266622775"/>
-        <c:axId val="175060223"/>
+        <c:axId val="844820417"/>
+        <c:axId val="35527098"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1266622775"/>
+        <c:axId val="844820417"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -957,10 +957,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="175060223"/>
+        <c:crossAx val="35527098"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="175060223"/>
+        <c:axId val="35527098"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1035,7 +1035,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1266622775"/>
+        <c:crossAx val="844820417"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -644,11 +644,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1455556140"/>
-        <c:axId val="2069250947"/>
+        <c:axId val="861790979"/>
+        <c:axId val="547251990"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1455556140"/>
+        <c:axId val="861790979"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -700,10 +700,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2069250947"/>
+        <c:crossAx val="547251990"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2069250947"/>
+        <c:axId val="547251990"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -778,7 +778,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1455556140"/>
+        <c:crossAx val="861790979"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -901,11 +901,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="844820417"/>
-        <c:axId val="35527098"/>
+        <c:axId val="356360986"/>
+        <c:axId val="1697742189"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="844820417"/>
+        <c:axId val="356360986"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -957,10 +957,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35527098"/>
+        <c:crossAx val="1697742189"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="35527098"/>
+        <c:axId val="1697742189"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1035,7 +1035,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="844820417"/>
+        <c:crossAx val="356360986"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -644,11 +644,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="861790979"/>
-        <c:axId val="547251990"/>
+        <c:axId val="1153389700"/>
+        <c:axId val="1701932968"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="861790979"/>
+        <c:axId val="1153389700"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -700,10 +700,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="547251990"/>
+        <c:crossAx val="1701932968"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="547251990"/>
+        <c:axId val="1701932968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -778,7 +778,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="861790979"/>
+        <c:crossAx val="1153389700"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -901,11 +901,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="356360986"/>
-        <c:axId val="1697742189"/>
+        <c:axId val="1632918440"/>
+        <c:axId val="227560719"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="356360986"/>
+        <c:axId val="1632918440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -957,10 +957,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1697742189"/>
+        <c:crossAx val="227560719"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1697742189"/>
+        <c:axId val="227560719"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1035,7 +1035,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="356360986"/>
+        <c:crossAx val="1632918440"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -644,11 +644,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1153389700"/>
-        <c:axId val="1701932968"/>
+        <c:axId val="472573989"/>
+        <c:axId val="1837447908"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1153389700"/>
+        <c:axId val="472573989"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -700,10 +700,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1701932968"/>
+        <c:crossAx val="1837447908"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1701932968"/>
+        <c:axId val="1837447908"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -778,7 +778,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1153389700"/>
+        <c:crossAx val="472573989"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -901,11 +901,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1632918440"/>
-        <c:axId val="227560719"/>
+        <c:axId val="317058160"/>
+        <c:axId val="1223549766"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1632918440"/>
+        <c:axId val="317058160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -957,10 +957,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="227560719"/>
+        <c:crossAx val="1223549766"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="227560719"/>
+        <c:axId val="1223549766"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1035,7 +1035,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1632918440"/>
+        <c:crossAx val="317058160"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="113">
   <si>
     <t>Total New Arrivals to Date</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>(on 05/23/24)</t>
+  </si>
+  <si>
+    <t>(on 05/30/24)</t>
   </si>
   <si>
     <t>Africa</t>
@@ -600,12 +603,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Charts!$B$2:$AZ$2</c:f>
+              <c:f>Charts!$B$2:$BA$2</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$B$3:$AZ$3</c:f>
+              <c:f>Charts!$B$3:$BA$3</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -634,21 +637,21 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Charts!$B$2:$AZ$2</c:f>
+              <c:f>Charts!$B$2:$BA$2</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$B$4:$AZ$4</c:f>
+              <c:f>Charts!$B$4:$BA$4</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="472573989"/>
-        <c:axId val="1837447908"/>
+        <c:axId val="227798779"/>
+        <c:axId val="1640847593"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="472573989"/>
+        <c:axId val="227798779"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -700,10 +703,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1837447908"/>
+        <c:crossAx val="1640847593"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1837447908"/>
+        <c:axId val="1640847593"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -778,7 +781,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472573989"/>
+        <c:crossAx val="227798779"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -860,12 +863,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Charts!$B$38:$AM$38</c:f>
+              <c:f>Charts!$B$38:$AN$38</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$B$39:$AM$39</c:f>
+              <c:f>Charts!$B$39:$AN$39</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -890,22 +893,22 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Charts!$B$38:$AM$38</c:f>
+              <c:f>Charts!$B$38:$AN$38</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$B$40:$AM$40</c:f>
+              <c:f>Charts!$B$40:$AN$40</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="317058160"/>
-        <c:axId val="1223549766"/>
+        <c:axId val="1708628894"/>
+        <c:axId val="1559548152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="317058160"/>
+        <c:axId val="1708628894"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -957,10 +960,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1223549766"/>
+        <c:crossAx val="1559548152"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1223549766"/>
+        <c:axId val="1559548152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1035,7 +1038,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317058160"/>
+        <c:crossAx val="1708628894"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1504,6 +1507,9 @@
       <c r="AZ1" s="1">
         <v>45436.0</v>
       </c>
+      <c r="BA1" s="1">
+        <v>45443.0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1660,6 +1666,9 @@
       <c r="AZ2" s="3">
         <v>42201.0</v>
       </c>
+      <c r="BA2" s="3">
+        <v>42637.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -1815,6 +1824,9 @@
       <c r="AZ3" s="2">
         <v>7217.0</v>
       </c>
+      <c r="BA3" s="2">
+        <v>7217.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -1961,6 +1973,9 @@
       </c>
       <c r="AZ4" s="3">
         <v>29525.0</v>
+      </c>
+      <c r="BA4" s="3">
+        <v>30104.0</v>
       </c>
     </row>
     <row r="5">
@@ -2224,6 +2239,9 @@
       </c>
       <c r="AZ1" s="1">
         <v>45436.0</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>45443.0</v>
       </c>
     </row>
     <row r="2">
@@ -2268,6 +2286,7 @@
       <c r="AX2" s="2"/>
       <c r="AY2" s="2"/>
       <c r="AZ2" s="2"/>
+      <c r="BA2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -2385,6 +2404,9 @@
         <v>0.0</v>
       </c>
       <c r="AZ3" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="BA3" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -2456,6 +2478,9 @@
         <v>7.0</v>
       </c>
       <c r="AZ4" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="BA4" s="2">
         <v>7.0</v>
       </c>
     </row>
@@ -2509,6 +2534,7 @@
       <c r="AX5" s="2"/>
       <c r="AY5" s="2"/>
       <c r="AZ5" s="2"/>
+      <c r="BA5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -2562,6 +2588,7 @@
       <c r="AX6" s="2"/>
       <c r="AY6" s="2"/>
       <c r="AZ6" s="2"/>
+      <c r="BA6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
@@ -2626,6 +2653,9 @@
       </c>
       <c r="AZ7" s="2">
         <v>51.0</v>
+      </c>
+      <c r="BA7" s="2">
+        <v>68.0</v>
       </c>
     </row>
     <row r="8">
@@ -2694,6 +2724,9 @@
       <c r="AZ8" s="2">
         <v>37.0</v>
       </c>
+      <c r="BA8" s="2">
+        <v>45.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
@@ -2840,6 +2873,9 @@
       </c>
       <c r="AZ9" s="2">
         <v>272.0</v>
+      </c>
+      <c r="BA9" s="2">
+        <v>262.0</v>
       </c>
     </row>
     <row r="10">
@@ -2898,6 +2934,7 @@
       <c r="AX10" s="2"/>
       <c r="AY10" s="2"/>
       <c r="AZ10" s="2"/>
+      <c r="BA10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
@@ -2962,6 +2999,9 @@
       </c>
       <c r="AZ11" s="2">
         <v>441.0</v>
+      </c>
+      <c r="BA11" s="2">
+        <v>424.0</v>
       </c>
     </row>
     <row r="12">
@@ -3016,6 +3056,7 @@
       <c r="AX12" s="2"/>
       <c r="AY12" s="2"/>
       <c r="AZ12" s="2"/>
+      <c r="BA12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
@@ -3171,6 +3212,9 @@
       <c r="AZ13" s="2">
         <v>129.0</v>
       </c>
+      <c r="BA13" s="2">
+        <v>141.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
@@ -3326,6 +3370,9 @@
       <c r="AZ14" s="2">
         <v>29.0</v>
       </c>
+      <c r="BA14" s="2">
+        <v>28.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
@@ -3480,6 +3527,9 @@
       </c>
       <c r="AZ15" s="2">
         <v>283.0</v>
+      </c>
+      <c r="BA15" s="2">
+        <v>255.0</v>
       </c>
     </row>
     <row r="16">
@@ -3722,6 +3772,9 @@
       <c r="AZ18" s="2">
         <v>298.0</v>
       </c>
+      <c r="BA18" s="2">
+        <v>389.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="C19" s="6"/>
@@ -4167,6 +4220,9 @@
       <c r="AY1" s="1">
         <v>45436.0</v>
       </c>
+      <c r="AZ1" s="1">
+        <v>45443.0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -4322,6 +4378,9 @@
       <c r="AY2" s="7">
         <v>13.0</v>
       </c>
+      <c r="AZ2" s="7">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -4422,6 +4481,9 @@
         <v>13.0</v>
       </c>
       <c r="AY3" s="7">
+        <v>12.0</v>
+      </c>
+      <c r="AZ3" s="7">
         <v>12.0</v>
       </c>
     </row>
@@ -4494,6 +4556,9 @@
       <c r="AY4" s="7">
         <v>11.0</v>
       </c>
+      <c r="AZ4" s="7">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
@@ -4648,6 +4713,9 @@
       </c>
       <c r="AY5" s="7">
         <v>569.0</v>
+      </c>
+      <c r="AZ5" s="7">
+        <v>552.0</v>
       </c>
     </row>
     <row r="6">
@@ -4745,6 +4813,7 @@
       </c>
       <c r="AX6" s="7"/>
       <c r="AY6" s="7"/>
+      <c r="AZ6" s="7"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
@@ -4771,6 +4840,7 @@
       <c r="AW7" s="8"/>
       <c r="AX7" s="8"/>
       <c r="AY7" s="8"/>
+      <c r="AZ7" s="8"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
@@ -4925,6 +4995,9 @@
       </c>
       <c r="AY8" s="7">
         <v>272.0</v>
+      </c>
+      <c r="AZ8" s="7">
+        <v>270.0</v>
       </c>
     </row>
     <row r="9">
@@ -4990,6 +5063,7 @@
       <c r="AW9" s="7"/>
       <c r="AX9" s="7"/>
       <c r="AY9" s="7"/>
+      <c r="AZ9" s="7"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
@@ -5089,6 +5163,9 @@
       <c r="AY10" s="7">
         <v>15.0</v>
       </c>
+      <c r="AZ10" s="7">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
@@ -5215,6 +5292,9 @@
       <c r="AY11" s="7">
         <v>60.0</v>
       </c>
+      <c r="AZ11" s="7">
+        <v>54.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
@@ -5369,6 +5449,9 @@
       </c>
       <c r="AY12" s="7">
         <v>38.0</v>
+      </c>
+      <c r="AZ12" s="7">
+        <v>36.0</v>
       </c>
     </row>
     <row r="13">
@@ -5479,6 +5562,7 @@
       <c r="AW13" s="7"/>
       <c r="AX13" s="7"/>
       <c r="AY13" s="7"/>
+      <c r="AZ13" s="7"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
@@ -5633,6 +5717,9 @@
       </c>
       <c r="AY14" s="7">
         <v>17.0</v>
+      </c>
+      <c r="AZ14" s="7">
+        <v>21.0</v>
       </c>
     </row>
     <row r="15">
@@ -5693,6 +5780,7 @@
       <c r="AW15" s="7"/>
       <c r="AX15" s="7"/>
       <c r="AY15" s="7"/>
+      <c r="AZ15" s="7"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
@@ -5848,6 +5936,9 @@
       <c r="AY16" s="7">
         <v>24.0</v>
       </c>
+      <c r="AZ16" s="7">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
@@ -5990,6 +6081,9 @@
       <c r="AY17" s="7">
         <v>10.0</v>
       </c>
+      <c r="AZ17" s="7">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
@@ -6144,6 +6238,9 @@
       </c>
       <c r="AY18" s="7">
         <v>96.0</v>
+      </c>
+      <c r="AZ18" s="7">
+        <v>92.0</v>
       </c>
     </row>
     <row r="19">
@@ -6175,6 +6272,7 @@
       <c r="AW19" s="8"/>
       <c r="AX19" s="8"/>
       <c r="AY19" s="8"/>
+      <c r="AZ19" s="8"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
@@ -6239,6 +6337,7 @@
       </c>
       <c r="AX20" s="14"/>
       <c r="AY20" s="14"/>
+      <c r="AZ20" s="14"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
@@ -6391,6 +6490,7 @@
       <c r="AY21" s="14">
         <v>914.0</v>
       </c>
+      <c r="AZ21" s="14"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
@@ -6545,6 +6645,9 @@
       </c>
       <c r="AY22" s="7">
         <v>5953.0</v>
+      </c>
+      <c r="AZ22" s="7">
+        <v>5577.0</v>
       </c>
     </row>
     <row r="23">
@@ -6860,6 +6963,9 @@
       </c>
       <c r="AY1" s="1">
         <v>45436.0</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>45443.0</v>
       </c>
     </row>
     <row r="2">
@@ -6918,10 +7024,13 @@
       <c r="AY2" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="AZ2" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B3" s="2">
         <v>0.0</v>
@@ -7073,10 +7182,13 @@
       <c r="AY3" s="2">
         <v>0.0</v>
       </c>
+      <c r="AZ3" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -7148,6 +7260,9 @@
       <c r="AY4" s="2">
         <v>0.0</v>
       </c>
+      <c r="AZ4" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
@@ -7303,6 +7418,9 @@
       <c r="AY5" s="2">
         <v>0.0</v>
       </c>
+      <c r="AZ5" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -7458,6 +7576,9 @@
       <c r="AY6" s="2">
         <v>0.0</v>
       </c>
+      <c r="AZ6" s="2">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
@@ -7613,6 +7734,9 @@
       <c r="AY7" s="2">
         <v>0.0</v>
       </c>
+      <c r="AZ7" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
@@ -7768,6 +7892,9 @@
       <c r="AY8" s="2">
         <v>0.0</v>
       </c>
+      <c r="AZ8" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
@@ -7923,10 +8050,13 @@
       <c r="AY9" s="2">
         <v>0.0</v>
       </c>
+      <c r="AZ9" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -7994,6 +8124,9 @@
       <c r="AY10" s="2">
         <v>0.0</v>
       </c>
+      <c r="AZ10" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
@@ -8149,10 +8282,13 @@
       <c r="AY11" s="2">
         <v>0.0</v>
       </c>
+      <c r="AZ11" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B12" s="2">
         <v>0.0</v>
@@ -8302,6 +8438,9 @@
         <v>0.0</v>
       </c>
       <c r="AY12" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AZ12" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -8459,10 +8598,13 @@
       <c r="AY13" s="2">
         <v>0.0</v>
       </c>
+      <c r="AZ13" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B14" s="2">
         <v>1.0</v>
@@ -8614,10 +8756,13 @@
       <c r="AY14" s="2">
         <v>0.0</v>
       </c>
+      <c r="AZ14" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B15" s="2">
         <v>5.0</v>
@@ -8769,10 +8914,13 @@
       <c r="AY15" s="2">
         <v>4.0</v>
       </c>
+      <c r="AZ15" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B16" s="2">
         <v>1.0</v>
@@ -8924,10 +9072,13 @@
       <c r="AY16" s="2">
         <v>0.0</v>
       </c>
+      <c r="AZ16" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B17" s="2">
         <v>0.0</v>
@@ -9079,10 +9230,13 @@
       <c r="AY17" s="2">
         <v>0.0</v>
       </c>
+      <c r="AZ17" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B18" s="2">
         <v>0.0</v>
@@ -9234,10 +9388,13 @@
       <c r="AY18" s="2">
         <v>0.0</v>
       </c>
+      <c r="AZ18" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B19" s="2">
         <v>0.0</v>
@@ -9389,10 +9546,13 @@
       <c r="AY19" s="2">
         <v>0.0</v>
       </c>
+      <c r="AZ19" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B20" s="2">
         <v>2.0</v>
@@ -9544,10 +9704,13 @@
       <c r="AY20" s="2">
         <v>0.0</v>
       </c>
+      <c r="AZ20" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B21" s="6">
         <v>1.0</v>
@@ -9699,10 +9862,13 @@
       <c r="AY21" s="2">
         <v>2.0</v>
       </c>
+      <c r="AZ21" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B22" s="2">
         <v>128.0</v>
@@ -9853,6 +10019,9 @@
       </c>
       <c r="AY22" s="2">
         <v>4.0</v>
+      </c>
+      <c r="AZ22" s="2">
+        <v>19.0</v>
       </c>
     </row>
     <row r="23">
@@ -9870,10 +10039,11 @@
       <c r="Z23" s="18"/>
       <c r="AA23" s="11"/>
       <c r="AW23" s="19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AX23" s="19"/>
       <c r="AY23" s="19"/>
+      <c r="AZ23" s="19"/>
     </row>
     <row r="24">
       <c r="B24" s="11"/>
@@ -9930,6 +10100,7 @@
       <c r="AW25" s="11"/>
       <c r="AX25" s="11"/>
       <c r="AY25" s="11"/>
+      <c r="AZ25" s="11"/>
     </row>
     <row r="26">
       <c r="B26" s="6"/>
@@ -9971,6 +10142,7 @@
       <c r="AW26" s="11"/>
       <c r="AX26" s="11"/>
       <c r="AY26" s="11"/>
+      <c r="AZ26" s="11"/>
     </row>
     <row r="27">
       <c r="B27" s="6"/>
@@ -10292,7 +10464,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1">
         <v>45086.0</v>
@@ -10447,10 +10619,13 @@
       <c r="AZ1" s="22">
         <v>45436.0</v>
       </c>
+      <c r="BA1" s="22">
+        <v>45443.0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B2" s="4"/>
       <c r="F2" s="4"/>
@@ -10514,10 +10689,13 @@
       <c r="AZ2" s="23">
         <v>37.0</v>
       </c>
+      <c r="BA2" s="23">
+        <v>34.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B3" s="2">
         <v>11.0</v>
@@ -10672,10 +10850,13 @@
       <c r="AZ3" s="23">
         <v>0.0</v>
       </c>
+      <c r="BA3" s="23">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B4" s="6"/>
       <c r="F4" s="4"/>
@@ -10814,10 +10995,13 @@
       <c r="AZ4" s="23">
         <v>0.0</v>
       </c>
+      <c r="BA4" s="23">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B5" s="6">
         <v>459.0</v>
@@ -10972,10 +11156,13 @@
       <c r="AZ5" s="23">
         <v>3.0</v>
       </c>
+      <c r="BA5" s="23">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B6" s="24">
         <f t="shared" ref="B6:AU6" si="1">SUM(B2:B5)</f>
@@ -11176,10 +11363,13 @@
       <c r="AZ6" s="14">
         <v>40.0</v>
       </c>
+      <c r="BA6" s="14">
+        <v>34.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C7" s="5">
         <v>35.0</v>
@@ -11313,6 +11503,7 @@
       <c r="AX7" s="6"/>
       <c r="AY7" s="6"/>
       <c r="AZ7" s="6"/>
+      <c r="BA7" s="6"/>
     </row>
     <row r="8">
       <c r="A8" s="2"/>
@@ -11364,10 +11555,11 @@
       <c r="AX8" s="25"/>
       <c r="AY8" s="25"/>
       <c r="AZ8" s="25"/>
+      <c r="BA8" s="25"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" ref="B9:AI9" si="2">B1</f>
@@ -11556,10 +11748,13 @@
       <c r="AZ9" s="22">
         <v>45436.0</v>
       </c>
+      <c r="BA9" s="22">
+        <v>45443.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B10" s="6"/>
       <c r="F10" s="4"/>
@@ -11692,10 +11887,13 @@
       <c r="AZ10" s="27">
         <v>998.0</v>
       </c>
+      <c r="BA10" s="27">
+        <v>1027.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B11" s="6">
         <v>172.0</v>
@@ -11850,10 +12048,13 @@
       <c r="AZ11" s="27">
         <v>110.0</v>
       </c>
+      <c r="BA11" s="27">
+        <v>99.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B12" s="6"/>
       <c r="F12" s="4"/>
@@ -11936,10 +12137,13 @@
       <c r="AZ12" s="27">
         <v>720.0</v>
       </c>
+      <c r="BA12" s="27">
+        <v>741.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B13" s="6"/>
       <c r="F13" s="4"/>
@@ -12052,10 +12256,13 @@
       <c r="AZ13" s="28">
         <v>545.0</v>
       </c>
+      <c r="BA13" s="28">
+        <v>480.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B14" s="6"/>
       <c r="F14" s="4"/>
@@ -12102,10 +12309,11 @@
       <c r="AX14" s="23"/>
       <c r="AY14" s="23"/>
       <c r="AZ14" s="23"/>
+      <c r="BA14" s="23"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B15" s="6">
         <v>1432.0</v>
@@ -12260,10 +12468,13 @@
       <c r="AZ15" s="29">
         <v>827.0</v>
       </c>
+      <c r="BA15" s="29">
+        <v>788.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B16" s="6"/>
       <c r="F16" s="4"/>
@@ -12382,10 +12593,13 @@
       <c r="AZ16" s="23">
         <v>352.0</v>
       </c>
+      <c r="BA16" s="23">
+        <v>311.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B17" s="17"/>
       <c r="F17" s="4"/>
@@ -12451,10 +12665,13 @@
       <c r="AZ17" s="23">
         <v>173.0</v>
       </c>
+      <c r="BA17" s="23">
+        <v>173.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B18" s="17"/>
       <c r="F18" s="4"/>
@@ -12568,10 +12785,13 @@
       <c r="AZ18" s="23">
         <v>358.0</v>
       </c>
+      <c r="BA18" s="23">
+        <v>345.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B19" s="6"/>
       <c r="J19" s="6"/>
@@ -12663,10 +12883,13 @@
       <c r="AZ19" s="23">
         <v>133.0</v>
       </c>
+      <c r="BA19" s="23">
+        <v>119.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B20" s="6"/>
       <c r="J20" s="6"/>
@@ -12779,10 +13002,13 @@
       <c r="AZ20" s="23">
         <v>800.0</v>
       </c>
+      <c r="BA20" s="23">
+        <v>806.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B21" s="6"/>
       <c r="J21" s="6"/>
@@ -12895,10 +13121,13 @@
       <c r="AZ21" s="23">
         <v>105.0</v>
       </c>
+      <c r="BA21" s="23">
+        <v>109.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B22" s="6">
         <v>1026.0</v>
@@ -13053,10 +13282,13 @@
       <c r="AZ22" s="23">
         <v>901.0</v>
       </c>
+      <c r="BA22" s="23">
+        <v>828.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -13125,10 +13357,13 @@
       <c r="AZ23" s="23">
         <v>106.0</v>
       </c>
+      <c r="BA23" s="23">
+        <v>132.0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B24" s="6"/>
       <c r="I24" s="2">
@@ -13263,10 +13498,13 @@
       <c r="AZ24" s="23">
         <v>186.0</v>
       </c>
+      <c r="BA24" s="23">
+        <v>175.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B25" s="6">
         <v>596.0</v>
@@ -13417,10 +13655,11 @@
       </c>
       <c r="AY25" s="23"/>
       <c r="AZ25" s="23"/>
+      <c r="BA25" s="23"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B26" s="6"/>
       <c r="O26" s="5"/>
@@ -13532,10 +13771,13 @@
       <c r="AZ26" s="23">
         <v>708.0</v>
       </c>
+      <c r="BA26" s="23">
+        <v>699.0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B27" s="6"/>
       <c r="O27" s="5"/>
@@ -13639,10 +13881,13 @@
       <c r="AZ27" s="23">
         <v>192.0</v>
       </c>
+      <c r="BA27" s="23">
+        <v>199.0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B28" s="17">
         <v>247.0</v>
@@ -13796,6 +14041,9 @@
       </c>
       <c r="AZ28" s="23">
         <v>173.0</v>
+      </c>
+      <c r="BA28" s="23">
+        <v>151.0</v>
       </c>
     </row>
     <row r="29">
@@ -13816,10 +14064,11 @@
       <c r="AX29" s="25"/>
       <c r="AY29" s="25"/>
       <c r="AZ29" s="25"/>
+      <c r="BA29" s="25"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B30" s="17"/>
       <c r="Q30" s="17"/>
@@ -13838,10 +14087,11 @@
       <c r="AX30" s="25"/>
       <c r="AY30" s="25"/>
       <c r="AZ30" s="25"/>
+      <c r="BA30" s="25"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -13900,10 +14150,11 @@
       <c r="AX31" s="27"/>
       <c r="AY31" s="27"/>
       <c r="AZ31" s="27"/>
+      <c r="BA31" s="27"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B32" s="6">
         <v>169.0</v>
@@ -14046,10 +14297,11 @@
       <c r="AX32" s="27"/>
       <c r="AY32" s="27"/>
       <c r="AZ32" s="27"/>
+      <c r="BA32" s="27"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B33" s="6"/>
       <c r="F33" s="4"/>
@@ -14168,10 +14420,11 @@
       <c r="AX33" s="27"/>
       <c r="AY33" s="27"/>
       <c r="AZ33" s="27"/>
+      <c r="BA33" s="27"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B34" s="6"/>
       <c r="F34" s="4"/>
@@ -14242,10 +14495,11 @@
       <c r="AX34" s="23"/>
       <c r="AY34" s="23"/>
       <c r="AZ34" s="23"/>
+      <c r="BA34" s="23"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B35" s="6"/>
       <c r="E35" s="2">
@@ -14380,10 +14634,11 @@
       <c r="AX35" s="27"/>
       <c r="AY35" s="27"/>
       <c r="AZ35" s="27"/>
+      <c r="BA35" s="27"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B36" s="17">
         <v>100.0</v>
@@ -14522,10 +14777,11 @@
       <c r="AX36" s="23"/>
       <c r="AY36" s="23"/>
       <c r="AZ36" s="23"/>
+      <c r="BA36" s="23"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B37" s="6">
         <v>158.0</v>
@@ -14670,10 +14926,11 @@
       <c r="AX37" s="23"/>
       <c r="AY37" s="23"/>
       <c r="AZ37" s="23"/>
+      <c r="BA37" s="23"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B38" s="17"/>
       <c r="F38" s="4"/>
@@ -14788,10 +15045,11 @@
       <c r="AX38" s="23"/>
       <c r="AY38" s="23"/>
       <c r="AZ38" s="23"/>
+      <c r="BA38" s="23"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B39" s="17"/>
       <c r="F39" s="2">
@@ -14892,10 +15150,11 @@
       <c r="AX39" s="23"/>
       <c r="AY39" s="23"/>
       <c r="AZ39" s="23"/>
+      <c r="BA39" s="23"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B40" s="6">
         <v>92.0</v>
@@ -15022,10 +15281,11 @@
       <c r="AX40" s="23"/>
       <c r="AY40" s="23"/>
       <c r="AZ40" s="23"/>
+      <c r="BA40" s="23"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B41" s="6">
         <v>195.0</v>
@@ -15164,10 +15424,11 @@
       <c r="AX41" s="23"/>
       <c r="AY41" s="23"/>
       <c r="AZ41" s="23"/>
+      <c r="BA41" s="23"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B42" s="6">
         <v>92.0</v>
@@ -15193,10 +15454,11 @@
       <c r="AX42" s="25"/>
       <c r="AY42" s="25"/>
       <c r="AZ42" s="25"/>
+      <c r="BA42" s="25"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B43" s="17">
         <v>368.0</v>
@@ -15239,6 +15501,7 @@
       <c r="AX43" s="25"/>
       <c r="AY43" s="25"/>
       <c r="AZ43" s="25"/>
+      <c r="BA43" s="25"/>
     </row>
     <row r="44">
       <c r="B44" s="17"/>
@@ -15258,13 +15521,14 @@
       <c r="AX44" s="25"/>
       <c r="AY44" s="25"/>
       <c r="AZ44" s="25"/>
+      <c r="BA44" s="25"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B45" s="17">
-        <f t="shared" ref="B45:AZ45" si="3">sum(B10:B43)</f>
+        <f t="shared" ref="B45:BA45" si="3">sum(B10:B43)</f>
         <v>4647</v>
       </c>
       <c r="C45" s="17">
@@ -15467,10 +15731,14 @@
         <f t="shared" si="3"/>
         <v>7387</v>
       </c>
+      <c r="BA45" s="17">
+        <f t="shared" si="3"/>
+        <v>7182</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C46" s="2">
         <v>1219.0</v>
@@ -15621,6 +15889,9 @@
       </c>
       <c r="AZ46" s="7">
         <v>2643.0</v>
+      </c>
+      <c r="BA46" s="7">
+        <v>2558.0</v>
       </c>
     </row>
     <row r="47">
@@ -15641,6 +15912,7 @@
       <c r="AX47" s="25"/>
       <c r="AY47" s="25"/>
       <c r="AZ47" s="25"/>
+      <c r="BA47" s="25"/>
     </row>
     <row r="48">
       <c r="B48" s="17"/>
@@ -15660,6 +15932,7 @@
       <c r="AX48" s="25"/>
       <c r="AY48" s="25"/>
       <c r="AZ48" s="25"/>
+      <c r="BA48" s="25"/>
     </row>
     <row r="49">
       <c r="B49" s="17"/>
@@ -15679,6 +15952,7 @@
       <c r="AX49" s="25"/>
       <c r="AY49" s="25"/>
       <c r="AZ49" s="25"/>
+      <c r="BA49" s="25"/>
     </row>
     <row r="50">
       <c r="B50" s="17"/>
@@ -15698,6 +15972,7 @@
       <c r="AX50" s="25"/>
       <c r="AY50" s="25"/>
       <c r="AZ50" s="25"/>
+      <c r="BA50" s="25"/>
     </row>
     <row r="51">
       <c r="B51" s="17"/>
@@ -15717,6 +15992,7 @@
       <c r="AX51" s="25"/>
       <c r="AY51" s="25"/>
       <c r="AZ51" s="25"/>
+      <c r="BA51" s="25"/>
     </row>
     <row r="52">
       <c r="B52" s="17"/>
@@ -15736,6 +16012,7 @@
       <c r="AX52" s="25"/>
       <c r="AY52" s="25"/>
       <c r="AZ52" s="25"/>
+      <c r="BA52" s="25"/>
     </row>
     <row r="53">
       <c r="B53" s="17"/>
@@ -15755,6 +16032,7 @@
       <c r="AX53" s="25"/>
       <c r="AY53" s="25"/>
       <c r="AZ53" s="25"/>
+      <c r="BA53" s="25"/>
     </row>
     <row r="54">
       <c r="B54" s="17"/>
@@ -15773,6 +16051,7 @@
       <c r="AX54" s="25"/>
       <c r="AY54" s="25"/>
       <c r="AZ54" s="25"/>
+      <c r="BA54" s="25"/>
     </row>
     <row r="55">
       <c r="B55" s="17"/>
@@ -15791,6 +16070,7 @@
       <c r="AX55" s="25"/>
       <c r="AY55" s="25"/>
       <c r="AZ55" s="25"/>
+      <c r="BA55" s="25"/>
     </row>
     <row r="56">
       <c r="B56" s="5"/>
@@ -15809,6 +16089,7 @@
       <c r="AX56" s="25"/>
       <c r="AY56" s="25"/>
       <c r="AZ56" s="25"/>
+      <c r="BA56" s="25"/>
     </row>
     <row r="57">
       <c r="B57" s="5"/>
@@ -15827,6 +16108,7 @@
       <c r="AX57" s="25"/>
       <c r="AY57" s="25"/>
       <c r="AZ57" s="25"/>
+      <c r="BA57" s="25"/>
     </row>
     <row r="58">
       <c r="B58" s="5"/>
@@ -15845,6 +16127,7 @@
       <c r="AX58" s="25"/>
       <c r="AY58" s="25"/>
       <c r="AZ58" s="25"/>
+      <c r="BA58" s="25"/>
     </row>
     <row r="59">
       <c r="B59" s="5"/>
@@ -15863,6 +16146,7 @@
       <c r="AX59" s="25"/>
       <c r="AY59" s="25"/>
       <c r="AZ59" s="25"/>
+      <c r="BA59" s="25"/>
     </row>
     <row r="60">
       <c r="B60" s="5"/>
@@ -15881,6 +16165,7 @@
       <c r="AX60" s="25"/>
       <c r="AY60" s="25"/>
       <c r="AZ60" s="25"/>
+      <c r="BA60" s="25"/>
     </row>
     <row r="61">
       <c r="B61" s="5"/>
@@ -15899,6 +16184,7 @@
       <c r="AX61" s="25"/>
       <c r="AY61" s="25"/>
       <c r="AZ61" s="25"/>
+      <c r="BA61" s="25"/>
     </row>
     <row r="62">
       <c r="B62" s="5"/>
@@ -15917,6 +16203,7 @@
       <c r="AX62" s="25"/>
       <c r="AY62" s="25"/>
       <c r="AZ62" s="25"/>
+      <c r="BA62" s="25"/>
     </row>
     <row r="63">
       <c r="B63" s="5"/>
@@ -15935,6 +16222,7 @@
       <c r="AX63" s="25"/>
       <c r="AY63" s="25"/>
       <c r="AZ63" s="25"/>
+      <c r="BA63" s="25"/>
     </row>
     <row r="64">
       <c r="B64" s="5"/>
@@ -15953,6 +16241,7 @@
       <c r="AX64" s="25"/>
       <c r="AY64" s="25"/>
       <c r="AZ64" s="25"/>
+      <c r="BA64" s="25"/>
     </row>
     <row r="65">
       <c r="B65" s="5"/>
@@ -15971,6 +16260,7 @@
       <c r="AX65" s="25"/>
       <c r="AY65" s="25"/>
       <c r="AZ65" s="25"/>
+      <c r="BA65" s="25"/>
     </row>
     <row r="66">
       <c r="B66" s="5"/>
@@ -15989,6 +16279,7 @@
       <c r="AX66" s="25"/>
       <c r="AY66" s="25"/>
       <c r="AZ66" s="25"/>
+      <c r="BA66" s="25"/>
     </row>
     <row r="67">
       <c r="B67" s="5"/>
@@ -16007,6 +16298,7 @@
       <c r="AX67" s="25"/>
       <c r="AY67" s="25"/>
       <c r="AZ67" s="25"/>
+      <c r="BA67" s="25"/>
     </row>
     <row r="68">
       <c r="B68" s="5"/>
@@ -16025,6 +16317,7 @@
       <c r="AX68" s="25"/>
       <c r="AY68" s="25"/>
       <c r="AZ68" s="25"/>
+      <c r="BA68" s="25"/>
     </row>
     <row r="69">
       <c r="B69" s="5"/>
@@ -16043,6 +16336,7 @@
       <c r="AX69" s="25"/>
       <c r="AY69" s="25"/>
       <c r="AZ69" s="25"/>
+      <c r="BA69" s="25"/>
     </row>
     <row r="70">
       <c r="B70" s="5"/>
@@ -16061,6 +16355,7 @@
       <c r="AX70" s="25"/>
       <c r="AY70" s="25"/>
       <c r="AZ70" s="25"/>
+      <c r="BA70" s="25"/>
     </row>
     <row r="71">
       <c r="AL71" s="25"/>
@@ -16078,6 +16373,7 @@
       <c r="AX71" s="25"/>
       <c r="AY71" s="25"/>
       <c r="AZ71" s="25"/>
+      <c r="BA71" s="25"/>
     </row>
     <row r="72">
       <c r="AL72" s="25"/>
@@ -16095,6 +16391,7 @@
       <c r="AX72" s="25"/>
       <c r="AY72" s="25"/>
       <c r="AZ72" s="25"/>
+      <c r="BA72" s="25"/>
     </row>
     <row r="73">
       <c r="AL73" s="25"/>
@@ -16112,6 +16409,7 @@
       <c r="AX73" s="25"/>
       <c r="AY73" s="25"/>
       <c r="AZ73" s="25"/>
+      <c r="BA73" s="25"/>
     </row>
     <row r="74">
       <c r="AL74" s="25"/>
@@ -16129,6 +16427,7 @@
       <c r="AX74" s="25"/>
       <c r="AY74" s="25"/>
       <c r="AZ74" s="25"/>
+      <c r="BA74" s="25"/>
     </row>
     <row r="75">
       <c r="AL75" s="25"/>
@@ -16146,6 +16445,7 @@
       <c r="AX75" s="25"/>
       <c r="AY75" s="25"/>
       <c r="AZ75" s="25"/>
+      <c r="BA75" s="25"/>
     </row>
     <row r="76">
       <c r="AL76" s="25"/>
@@ -16163,6 +16463,7 @@
       <c r="AX76" s="25"/>
       <c r="AY76" s="25"/>
       <c r="AZ76" s="25"/>
+      <c r="BA76" s="25"/>
     </row>
     <row r="77">
       <c r="AL77" s="25"/>
@@ -16180,6 +16481,7 @@
       <c r="AX77" s="25"/>
       <c r="AY77" s="25"/>
       <c r="AZ77" s="25"/>
+      <c r="BA77" s="25"/>
     </row>
     <row r="78">
       <c r="AL78" s="25"/>
@@ -16197,6 +16499,7 @@
       <c r="AX78" s="25"/>
       <c r="AY78" s="25"/>
       <c r="AZ78" s="25"/>
+      <c r="BA78" s="25"/>
     </row>
     <row r="79">
       <c r="AL79" s="25"/>
@@ -16214,6 +16517,7 @@
       <c r="AX79" s="25"/>
       <c r="AY79" s="25"/>
       <c r="AZ79" s="25"/>
+      <c r="BA79" s="25"/>
     </row>
     <row r="80">
       <c r="AL80" s="25"/>
@@ -16231,6 +16535,7 @@
       <c r="AX80" s="25"/>
       <c r="AY80" s="25"/>
       <c r="AZ80" s="25"/>
+      <c r="BA80" s="25"/>
     </row>
     <row r="81">
       <c r="AL81" s="25"/>
@@ -16248,6 +16553,7 @@
       <c r="AX81" s="25"/>
       <c r="AY81" s="25"/>
       <c r="AZ81" s="25"/>
+      <c r="BA81" s="25"/>
     </row>
     <row r="82">
       <c r="AL82" s="25"/>
@@ -16265,6 +16571,7 @@
       <c r="AX82" s="25"/>
       <c r="AY82" s="25"/>
       <c r="AZ82" s="25"/>
+      <c r="BA82" s="25"/>
     </row>
     <row r="83">
       <c r="AL83" s="25"/>
@@ -16282,6 +16589,7 @@
       <c r="AX83" s="25"/>
       <c r="AY83" s="25"/>
       <c r="AZ83" s="25"/>
+      <c r="BA83" s="25"/>
     </row>
     <row r="84">
       <c r="AL84" s="25"/>
@@ -16299,6 +16607,7 @@
       <c r="AX84" s="25"/>
       <c r="AY84" s="25"/>
       <c r="AZ84" s="25"/>
+      <c r="BA84" s="25"/>
     </row>
     <row r="85">
       <c r="AL85" s="25"/>
@@ -16316,6 +16625,7 @@
       <c r="AX85" s="25"/>
       <c r="AY85" s="25"/>
       <c r="AZ85" s="25"/>
+      <c r="BA85" s="25"/>
     </row>
     <row r="86">
       <c r="AL86" s="25"/>
@@ -16333,6 +16643,7 @@
       <c r="AX86" s="25"/>
       <c r="AY86" s="25"/>
       <c r="AZ86" s="25"/>
+      <c r="BA86" s="25"/>
     </row>
     <row r="87">
       <c r="AL87" s="25"/>
@@ -16350,6 +16661,7 @@
       <c r="AX87" s="25"/>
       <c r="AY87" s="25"/>
       <c r="AZ87" s="25"/>
+      <c r="BA87" s="25"/>
     </row>
     <row r="88">
       <c r="AL88" s="25"/>
@@ -16367,6 +16679,7 @@
       <c r="AX88" s="25"/>
       <c r="AY88" s="25"/>
       <c r="AZ88" s="25"/>
+      <c r="BA88" s="25"/>
     </row>
     <row r="89">
       <c r="AL89" s="25"/>
@@ -16384,6 +16697,7 @@
       <c r="AX89" s="25"/>
       <c r="AY89" s="25"/>
       <c r="AZ89" s="25"/>
+      <c r="BA89" s="25"/>
     </row>
     <row r="90">
       <c r="AL90" s="25"/>
@@ -16401,6 +16715,7 @@
       <c r="AX90" s="25"/>
       <c r="AY90" s="25"/>
       <c r="AZ90" s="25"/>
+      <c r="BA90" s="25"/>
     </row>
     <row r="91">
       <c r="AL91" s="25"/>
@@ -16418,6 +16733,7 @@
       <c r="AX91" s="25"/>
       <c r="AY91" s="25"/>
       <c r="AZ91" s="25"/>
+      <c r="BA91" s="25"/>
     </row>
     <row r="92">
       <c r="AL92" s="25"/>
@@ -16435,6 +16751,7 @@
       <c r="AX92" s="25"/>
       <c r="AY92" s="25"/>
       <c r="AZ92" s="25"/>
+      <c r="BA92" s="25"/>
     </row>
     <row r="93">
       <c r="AL93" s="25"/>
@@ -16452,6 +16769,7 @@
       <c r="AX93" s="25"/>
       <c r="AY93" s="25"/>
       <c r="AZ93" s="25"/>
+      <c r="BA93" s="25"/>
     </row>
     <row r="94">
       <c r="AL94" s="25"/>
@@ -16469,6 +16787,7 @@
       <c r="AX94" s="25"/>
       <c r="AY94" s="25"/>
       <c r="AZ94" s="25"/>
+      <c r="BA94" s="25"/>
     </row>
     <row r="95">
       <c r="AL95" s="25"/>
@@ -16486,6 +16805,7 @@
       <c r="AX95" s="25"/>
       <c r="AY95" s="25"/>
       <c r="AZ95" s="25"/>
+      <c r="BA95" s="25"/>
     </row>
     <row r="96">
       <c r="AL96" s="25"/>
@@ -16503,6 +16823,7 @@
       <c r="AX96" s="25"/>
       <c r="AY96" s="25"/>
       <c r="AZ96" s="25"/>
+      <c r="BA96" s="25"/>
     </row>
     <row r="97">
       <c r="AL97" s="25"/>
@@ -16520,6 +16841,7 @@
       <c r="AX97" s="25"/>
       <c r="AY97" s="25"/>
       <c r="AZ97" s="25"/>
+      <c r="BA97" s="25"/>
     </row>
     <row r="98">
       <c r="AL98" s="25"/>
@@ -16537,6 +16859,7 @@
       <c r="AX98" s="25"/>
       <c r="AY98" s="25"/>
       <c r="AZ98" s="25"/>
+      <c r="BA98" s="25"/>
     </row>
     <row r="99">
       <c r="AL99" s="25"/>
@@ -16554,6 +16877,7 @@
       <c r="AX99" s="25"/>
       <c r="AY99" s="25"/>
       <c r="AZ99" s="25"/>
+      <c r="BA99" s="25"/>
     </row>
     <row r="100">
       <c r="AL100" s="25"/>
@@ -16571,6 +16895,7 @@
       <c r="AX100" s="25"/>
       <c r="AY100" s="25"/>
       <c r="AZ100" s="25"/>
+      <c r="BA100" s="25"/>
     </row>
     <row r="101">
       <c r="AL101" s="25"/>
@@ -16588,6 +16913,7 @@
       <c r="AX101" s="25"/>
       <c r="AY101" s="25"/>
       <c r="AZ101" s="25"/>
+      <c r="BA101" s="25"/>
     </row>
     <row r="102">
       <c r="AL102" s="25"/>
@@ -16605,6 +16931,7 @@
       <c r="AX102" s="25"/>
       <c r="AY102" s="25"/>
       <c r="AZ102" s="25"/>
+      <c r="BA102" s="25"/>
     </row>
     <row r="103">
       <c r="AL103" s="25"/>
@@ -16622,6 +16949,7 @@
       <c r="AX103" s="25"/>
       <c r="AY103" s="25"/>
       <c r="AZ103" s="25"/>
+      <c r="BA103" s="25"/>
     </row>
     <row r="104">
       <c r="AL104" s="25"/>
@@ -16639,6 +16967,7 @@
       <c r="AX104" s="25"/>
       <c r="AY104" s="25"/>
       <c r="AZ104" s="25"/>
+      <c r="BA104" s="25"/>
     </row>
     <row r="105">
       <c r="AL105" s="25"/>
@@ -16656,6 +16985,7 @@
       <c r="AX105" s="25"/>
       <c r="AY105" s="25"/>
       <c r="AZ105" s="25"/>
+      <c r="BA105" s="25"/>
     </row>
     <row r="106">
       <c r="AL106" s="25"/>
@@ -16673,6 +17003,7 @@
       <c r="AX106" s="25"/>
       <c r="AY106" s="25"/>
       <c r="AZ106" s="25"/>
+      <c r="BA106" s="25"/>
     </row>
     <row r="107">
       <c r="AL107" s="25"/>
@@ -16690,6 +17021,7 @@
       <c r="AX107" s="25"/>
       <c r="AY107" s="25"/>
       <c r="AZ107" s="25"/>
+      <c r="BA107" s="25"/>
     </row>
     <row r="108">
       <c r="AL108" s="25"/>
@@ -16707,6 +17039,7 @@
       <c r="AX108" s="25"/>
       <c r="AY108" s="25"/>
       <c r="AZ108" s="25"/>
+      <c r="BA108" s="25"/>
     </row>
     <row r="109">
       <c r="AL109" s="25"/>
@@ -16724,6 +17057,7 @@
       <c r="AX109" s="25"/>
       <c r="AY109" s="25"/>
       <c r="AZ109" s="25"/>
+      <c r="BA109" s="25"/>
     </row>
     <row r="110">
       <c r="AL110" s="25"/>
@@ -16741,6 +17075,7 @@
       <c r="AX110" s="25"/>
       <c r="AY110" s="25"/>
       <c r="AZ110" s="25"/>
+      <c r="BA110" s="25"/>
     </row>
     <row r="111">
       <c r="AL111" s="25"/>
@@ -16758,6 +17093,7 @@
       <c r="AX111" s="25"/>
       <c r="AY111" s="25"/>
       <c r="AZ111" s="25"/>
+      <c r="BA111" s="25"/>
     </row>
     <row r="112">
       <c r="AL112" s="25"/>
@@ -16775,6 +17111,7 @@
       <c r="AX112" s="25"/>
       <c r="AY112" s="25"/>
       <c r="AZ112" s="25"/>
+      <c r="BA112" s="25"/>
     </row>
     <row r="113">
       <c r="AL113" s="25"/>
@@ -16792,6 +17129,7 @@
       <c r="AX113" s="25"/>
       <c r="AY113" s="25"/>
       <c r="AZ113" s="25"/>
+      <c r="BA113" s="25"/>
     </row>
     <row r="114">
       <c r="AL114" s="25"/>
@@ -16809,6 +17147,7 @@
       <c r="AX114" s="25"/>
       <c r="AY114" s="25"/>
       <c r="AZ114" s="25"/>
+      <c r="BA114" s="25"/>
     </row>
     <row r="115">
       <c r="AL115" s="25"/>
@@ -16826,6 +17165,7 @@
       <c r="AX115" s="25"/>
       <c r="AY115" s="25"/>
       <c r="AZ115" s="25"/>
+      <c r="BA115" s="25"/>
     </row>
     <row r="116">
       <c r="AL116" s="25"/>
@@ -16843,6 +17183,7 @@
       <c r="AX116" s="25"/>
       <c r="AY116" s="25"/>
       <c r="AZ116" s="25"/>
+      <c r="BA116" s="25"/>
     </row>
     <row r="117">
       <c r="AL117" s="25"/>
@@ -16860,6 +17201,7 @@
       <c r="AX117" s="25"/>
       <c r="AY117" s="25"/>
       <c r="AZ117" s="25"/>
+      <c r="BA117" s="25"/>
     </row>
     <row r="118">
       <c r="AL118" s="25"/>
@@ -16877,6 +17219,7 @@
       <c r="AX118" s="25"/>
       <c r="AY118" s="25"/>
       <c r="AZ118" s="25"/>
+      <c r="BA118" s="25"/>
     </row>
     <row r="119">
       <c r="AL119" s="25"/>
@@ -16894,6 +17237,7 @@
       <c r="AX119" s="25"/>
       <c r="AY119" s="25"/>
       <c r="AZ119" s="25"/>
+      <c r="BA119" s="25"/>
     </row>
     <row r="120">
       <c r="AL120" s="25"/>
@@ -16911,6 +17255,7 @@
       <c r="AX120" s="25"/>
       <c r="AY120" s="25"/>
       <c r="AZ120" s="25"/>
+      <c r="BA120" s="25"/>
     </row>
     <row r="121">
       <c r="AL121" s="25"/>
@@ -16928,6 +17273,7 @@
       <c r="AX121" s="25"/>
       <c r="AY121" s="25"/>
       <c r="AZ121" s="25"/>
+      <c r="BA121" s="25"/>
     </row>
     <row r="122">
       <c r="AL122" s="25"/>
@@ -16945,6 +17291,7 @@
       <c r="AX122" s="25"/>
       <c r="AY122" s="25"/>
       <c r="AZ122" s="25"/>
+      <c r="BA122" s="25"/>
     </row>
     <row r="123">
       <c r="AL123" s="25"/>
@@ -16962,6 +17309,7 @@
       <c r="AX123" s="25"/>
       <c r="AY123" s="25"/>
       <c r="AZ123" s="25"/>
+      <c r="BA123" s="25"/>
     </row>
     <row r="124">
       <c r="AL124" s="25"/>
@@ -16979,6 +17327,7 @@
       <c r="AX124" s="25"/>
       <c r="AY124" s="25"/>
       <c r="AZ124" s="25"/>
+      <c r="BA124" s="25"/>
     </row>
     <row r="125">
       <c r="AL125" s="25"/>
@@ -16996,6 +17345,7 @@
       <c r="AX125" s="25"/>
       <c r="AY125" s="25"/>
       <c r="AZ125" s="25"/>
+      <c r="BA125" s="25"/>
     </row>
     <row r="126">
       <c r="AL126" s="25"/>
@@ -17013,6 +17363,7 @@
       <c r="AX126" s="25"/>
       <c r="AY126" s="25"/>
       <c r="AZ126" s="25"/>
+      <c r="BA126" s="25"/>
     </row>
     <row r="127">
       <c r="AL127" s="25"/>
@@ -17030,6 +17381,7 @@
       <c r="AX127" s="25"/>
       <c r="AY127" s="25"/>
       <c r="AZ127" s="25"/>
+      <c r="BA127" s="25"/>
     </row>
     <row r="128">
       <c r="AL128" s="25"/>
@@ -17047,6 +17399,7 @@
       <c r="AX128" s="25"/>
       <c r="AY128" s="25"/>
       <c r="AZ128" s="25"/>
+      <c r="BA128" s="25"/>
     </row>
     <row r="129">
       <c r="AL129" s="25"/>
@@ -17064,6 +17417,7 @@
       <c r="AX129" s="25"/>
       <c r="AY129" s="25"/>
       <c r="AZ129" s="25"/>
+      <c r="BA129" s="25"/>
     </row>
     <row r="130">
       <c r="AL130" s="25"/>
@@ -17081,6 +17435,7 @@
       <c r="AX130" s="25"/>
       <c r="AY130" s="25"/>
       <c r="AZ130" s="25"/>
+      <c r="BA130" s="25"/>
     </row>
     <row r="131">
       <c r="AL131" s="25"/>
@@ -17098,6 +17453,7 @@
       <c r="AX131" s="25"/>
       <c r="AY131" s="25"/>
       <c r="AZ131" s="25"/>
+      <c r="BA131" s="25"/>
     </row>
     <row r="132">
       <c r="AL132" s="25"/>
@@ -17115,6 +17471,7 @@
       <c r="AX132" s="25"/>
       <c r="AY132" s="25"/>
       <c r="AZ132" s="25"/>
+      <c r="BA132" s="25"/>
     </row>
     <row r="133">
       <c r="AL133" s="25"/>
@@ -17132,6 +17489,7 @@
       <c r="AX133" s="25"/>
       <c r="AY133" s="25"/>
       <c r="AZ133" s="25"/>
+      <c r="BA133" s="25"/>
     </row>
     <row r="134">
       <c r="AL134" s="25"/>
@@ -17149,6 +17507,7 @@
       <c r="AX134" s="25"/>
       <c r="AY134" s="25"/>
       <c r="AZ134" s="25"/>
+      <c r="BA134" s="25"/>
     </row>
     <row r="135">
       <c r="AL135" s="25"/>
@@ -17166,6 +17525,7 @@
       <c r="AX135" s="25"/>
       <c r="AY135" s="25"/>
       <c r="AZ135" s="25"/>
+      <c r="BA135" s="25"/>
     </row>
     <row r="136">
       <c r="AL136" s="25"/>
@@ -17183,6 +17543,7 @@
       <c r="AX136" s="25"/>
       <c r="AY136" s="25"/>
       <c r="AZ136" s="25"/>
+      <c r="BA136" s="25"/>
     </row>
     <row r="137">
       <c r="AL137" s="25"/>
@@ -17200,6 +17561,7 @@
       <c r="AX137" s="25"/>
       <c r="AY137" s="25"/>
       <c r="AZ137" s="25"/>
+      <c r="BA137" s="25"/>
     </row>
     <row r="138">
       <c r="AL138" s="25"/>
@@ -17217,6 +17579,7 @@
       <c r="AX138" s="25"/>
       <c r="AY138" s="25"/>
       <c r="AZ138" s="25"/>
+      <c r="BA138" s="25"/>
     </row>
     <row r="139">
       <c r="AL139" s="25"/>
@@ -17234,6 +17597,7 @@
       <c r="AX139" s="25"/>
       <c r="AY139" s="25"/>
       <c r="AZ139" s="25"/>
+      <c r="BA139" s="25"/>
     </row>
     <row r="140">
       <c r="AL140" s="25"/>
@@ -17251,6 +17615,7 @@
       <c r="AX140" s="25"/>
       <c r="AY140" s="25"/>
       <c r="AZ140" s="25"/>
+      <c r="BA140" s="25"/>
     </row>
     <row r="141">
       <c r="AL141" s="25"/>
@@ -17268,6 +17633,7 @@
       <c r="AX141" s="25"/>
       <c r="AY141" s="25"/>
       <c r="AZ141" s="25"/>
+      <c r="BA141" s="25"/>
     </row>
     <row r="142">
       <c r="AL142" s="25"/>
@@ -17285,6 +17651,7 @@
       <c r="AX142" s="25"/>
       <c r="AY142" s="25"/>
       <c r="AZ142" s="25"/>
+      <c r="BA142" s="25"/>
     </row>
     <row r="143">
       <c r="AL143" s="25"/>
@@ -17302,6 +17669,7 @@
       <c r="AX143" s="25"/>
       <c r="AY143" s="25"/>
       <c r="AZ143" s="25"/>
+      <c r="BA143" s="25"/>
     </row>
     <row r="144">
       <c r="AL144" s="25"/>
@@ -17319,6 +17687,7 @@
       <c r="AX144" s="25"/>
       <c r="AY144" s="25"/>
       <c r="AZ144" s="25"/>
+      <c r="BA144" s="25"/>
     </row>
     <row r="145">
       <c r="AL145" s="25"/>
@@ -17336,6 +17705,7 @@
       <c r="AX145" s="25"/>
       <c r="AY145" s="25"/>
       <c r="AZ145" s="25"/>
+      <c r="BA145" s="25"/>
     </row>
     <row r="146">
       <c r="AL146" s="25"/>
@@ -17353,6 +17723,7 @@
       <c r="AX146" s="25"/>
       <c r="AY146" s="25"/>
       <c r="AZ146" s="25"/>
+      <c r="BA146" s="25"/>
     </row>
     <row r="147">
       <c r="AL147" s="25"/>
@@ -17370,6 +17741,7 @@
       <c r="AX147" s="25"/>
       <c r="AY147" s="25"/>
       <c r="AZ147" s="25"/>
+      <c r="BA147" s="25"/>
     </row>
     <row r="148">
       <c r="AL148" s="25"/>
@@ -17387,6 +17759,7 @@
       <c r="AX148" s="25"/>
       <c r="AY148" s="25"/>
       <c r="AZ148" s="25"/>
+      <c r="BA148" s="25"/>
     </row>
     <row r="149">
       <c r="AL149" s="25"/>
@@ -17404,6 +17777,7 @@
       <c r="AX149" s="25"/>
       <c r="AY149" s="25"/>
       <c r="AZ149" s="25"/>
+      <c r="BA149" s="25"/>
     </row>
     <row r="150">
       <c r="AL150" s="25"/>
@@ -17421,6 +17795,7 @@
       <c r="AX150" s="25"/>
       <c r="AY150" s="25"/>
       <c r="AZ150" s="25"/>
+      <c r="BA150" s="25"/>
     </row>
     <row r="151">
       <c r="AL151" s="25"/>
@@ -17438,6 +17813,7 @@
       <c r="AX151" s="25"/>
       <c r="AY151" s="25"/>
       <c r="AZ151" s="25"/>
+      <c r="BA151" s="25"/>
     </row>
     <row r="152">
       <c r="AL152" s="25"/>
@@ -17455,6 +17831,7 @@
       <c r="AX152" s="25"/>
       <c r="AY152" s="25"/>
       <c r="AZ152" s="25"/>
+      <c r="BA152" s="25"/>
     </row>
     <row r="153">
       <c r="AL153" s="25"/>
@@ -17472,6 +17849,7 @@
       <c r="AX153" s="25"/>
       <c r="AY153" s="25"/>
       <c r="AZ153" s="25"/>
+      <c r="BA153" s="25"/>
     </row>
     <row r="154">
       <c r="AL154" s="25"/>
@@ -17489,6 +17867,7 @@
       <c r="AX154" s="25"/>
       <c r="AY154" s="25"/>
       <c r="AZ154" s="25"/>
+      <c r="BA154" s="25"/>
     </row>
     <row r="155">
       <c r="AL155" s="25"/>
@@ -17506,6 +17885,7 @@
       <c r="AX155" s="25"/>
       <c r="AY155" s="25"/>
       <c r="AZ155" s="25"/>
+      <c r="BA155" s="25"/>
     </row>
     <row r="156">
       <c r="AL156" s="25"/>
@@ -17523,6 +17903,7 @@
       <c r="AX156" s="25"/>
       <c r="AY156" s="25"/>
       <c r="AZ156" s="25"/>
+      <c r="BA156" s="25"/>
     </row>
     <row r="157">
       <c r="AL157" s="25"/>
@@ -17540,6 +17921,7 @@
       <c r="AX157" s="25"/>
       <c r="AY157" s="25"/>
       <c r="AZ157" s="25"/>
+      <c r="BA157" s="25"/>
     </row>
     <row r="158">
       <c r="AL158" s="25"/>
@@ -17557,6 +17939,7 @@
       <c r="AX158" s="25"/>
       <c r="AY158" s="25"/>
       <c r="AZ158" s="25"/>
+      <c r="BA158" s="25"/>
     </row>
     <row r="159">
       <c r="AL159" s="25"/>
@@ -17574,6 +17957,7 @@
       <c r="AX159" s="25"/>
       <c r="AY159" s="25"/>
       <c r="AZ159" s="25"/>
+      <c r="BA159" s="25"/>
     </row>
     <row r="160">
       <c r="AL160" s="25"/>
@@ -17591,6 +17975,7 @@
       <c r="AX160" s="25"/>
       <c r="AY160" s="25"/>
       <c r="AZ160" s="25"/>
+      <c r="BA160" s="25"/>
     </row>
     <row r="161">
       <c r="AL161" s="25"/>
@@ -17608,6 +17993,7 @@
       <c r="AX161" s="25"/>
       <c r="AY161" s="25"/>
       <c r="AZ161" s="25"/>
+      <c r="BA161" s="25"/>
     </row>
     <row r="162">
       <c r="AL162" s="25"/>
@@ -17625,6 +18011,7 @@
       <c r="AX162" s="25"/>
       <c r="AY162" s="25"/>
       <c r="AZ162" s="25"/>
+      <c r="BA162" s="25"/>
     </row>
     <row r="163">
       <c r="AL163" s="25"/>
@@ -17642,6 +18029,7 @@
       <c r="AX163" s="25"/>
       <c r="AY163" s="25"/>
       <c r="AZ163" s="25"/>
+      <c r="BA163" s="25"/>
     </row>
     <row r="164">
       <c r="AL164" s="25"/>
@@ -17659,6 +18047,7 @@
       <c r="AX164" s="25"/>
       <c r="AY164" s="25"/>
       <c r="AZ164" s="25"/>
+      <c r="BA164" s="25"/>
     </row>
     <row r="165">
       <c r="AL165" s="25"/>
@@ -17676,6 +18065,7 @@
       <c r="AX165" s="25"/>
       <c r="AY165" s="25"/>
       <c r="AZ165" s="25"/>
+      <c r="BA165" s="25"/>
     </row>
     <row r="166">
       <c r="AL166" s="25"/>
@@ -17693,6 +18083,7 @@
       <c r="AX166" s="25"/>
       <c r="AY166" s="25"/>
       <c r="AZ166" s="25"/>
+      <c r="BA166" s="25"/>
     </row>
     <row r="167">
       <c r="AL167" s="25"/>
@@ -17710,6 +18101,7 @@
       <c r="AX167" s="25"/>
       <c r="AY167" s="25"/>
       <c r="AZ167" s="25"/>
+      <c r="BA167" s="25"/>
     </row>
     <row r="168">
       <c r="AL168" s="25"/>
@@ -17727,6 +18119,7 @@
       <c r="AX168" s="25"/>
       <c r="AY168" s="25"/>
       <c r="AZ168" s="25"/>
+      <c r="BA168" s="25"/>
     </row>
     <row r="169">
       <c r="AL169" s="25"/>
@@ -17744,6 +18137,7 @@
       <c r="AX169" s="25"/>
       <c r="AY169" s="25"/>
       <c r="AZ169" s="25"/>
+      <c r="BA169" s="25"/>
     </row>
     <row r="170">
       <c r="AL170" s="25"/>
@@ -17761,6 +18155,7 @@
       <c r="AX170" s="25"/>
       <c r="AY170" s="25"/>
       <c r="AZ170" s="25"/>
+      <c r="BA170" s="25"/>
     </row>
     <row r="171">
       <c r="AL171" s="25"/>
@@ -17778,6 +18173,7 @@
       <c r="AX171" s="25"/>
       <c r="AY171" s="25"/>
       <c r="AZ171" s="25"/>
+      <c r="BA171" s="25"/>
     </row>
     <row r="172">
       <c r="AL172" s="25"/>
@@ -17795,6 +18191,7 @@
       <c r="AX172" s="25"/>
       <c r="AY172" s="25"/>
       <c r="AZ172" s="25"/>
+      <c r="BA172" s="25"/>
     </row>
     <row r="173">
       <c r="AL173" s="25"/>
@@ -17812,6 +18209,7 @@
       <c r="AX173" s="25"/>
       <c r="AY173" s="25"/>
       <c r="AZ173" s="25"/>
+      <c r="BA173" s="25"/>
     </row>
     <row r="174">
       <c r="AL174" s="25"/>
@@ -17829,6 +18227,7 @@
       <c r="AX174" s="25"/>
       <c r="AY174" s="25"/>
       <c r="AZ174" s="25"/>
+      <c r="BA174" s="25"/>
     </row>
     <row r="175">
       <c r="AL175" s="25"/>
@@ -17846,6 +18245,7 @@
       <c r="AX175" s="25"/>
       <c r="AY175" s="25"/>
       <c r="AZ175" s="25"/>
+      <c r="BA175" s="25"/>
     </row>
     <row r="176">
       <c r="AL176" s="25"/>
@@ -17863,6 +18263,7 @@
       <c r="AX176" s="25"/>
       <c r="AY176" s="25"/>
       <c r="AZ176" s="25"/>
+      <c r="BA176" s="25"/>
     </row>
     <row r="177">
       <c r="AL177" s="25"/>
@@ -17880,6 +18281,7 @@
       <c r="AX177" s="25"/>
       <c r="AY177" s="25"/>
       <c r="AZ177" s="25"/>
+      <c r="BA177" s="25"/>
     </row>
     <row r="178">
       <c r="H178" s="17"/>
@@ -17898,6 +18300,7 @@
       <c r="AX178" s="25"/>
       <c r="AY178" s="25"/>
       <c r="AZ178" s="25"/>
+      <c r="BA178" s="25"/>
     </row>
     <row r="179">
       <c r="AL179" s="25"/>
@@ -17915,6 +18318,7 @@
       <c r="AX179" s="25"/>
       <c r="AY179" s="25"/>
       <c r="AZ179" s="25"/>
+      <c r="BA179" s="25"/>
     </row>
     <row r="180">
       <c r="AL180" s="25"/>
@@ -17932,6 +18336,7 @@
       <c r="AX180" s="25"/>
       <c r="AY180" s="25"/>
       <c r="AZ180" s="25"/>
+      <c r="BA180" s="25"/>
     </row>
     <row r="181">
       <c r="AL181" s="25"/>
@@ -17949,6 +18354,7 @@
       <c r="AX181" s="25"/>
       <c r="AY181" s="25"/>
       <c r="AZ181" s="25"/>
+      <c r="BA181" s="25"/>
     </row>
     <row r="182">
       <c r="AL182" s="25"/>
@@ -17966,6 +18372,7 @@
       <c r="AX182" s="25"/>
       <c r="AY182" s="25"/>
       <c r="AZ182" s="25"/>
+      <c r="BA182" s="25"/>
     </row>
     <row r="183">
       <c r="AL183" s="25"/>
@@ -17983,6 +18390,7 @@
       <c r="AX183" s="25"/>
       <c r="AY183" s="25"/>
       <c r="AZ183" s="25"/>
+      <c r="BA183" s="25"/>
     </row>
     <row r="184">
       <c r="AL184" s="25"/>
@@ -18000,6 +18408,7 @@
       <c r="AX184" s="25"/>
       <c r="AY184" s="25"/>
       <c r="AZ184" s="25"/>
+      <c r="BA184" s="25"/>
     </row>
     <row r="185">
       <c r="AL185" s="25"/>
@@ -18017,6 +18426,7 @@
       <c r="AX185" s="25"/>
       <c r="AY185" s="25"/>
       <c r="AZ185" s="25"/>
+      <c r="BA185" s="25"/>
     </row>
     <row r="186">
       <c r="AL186" s="25"/>
@@ -18034,6 +18444,7 @@
       <c r="AX186" s="25"/>
       <c r="AY186" s="25"/>
       <c r="AZ186" s="25"/>
+      <c r="BA186" s="25"/>
     </row>
     <row r="187">
       <c r="AL187" s="25"/>
@@ -18051,6 +18462,7 @@
       <c r="AX187" s="25"/>
       <c r="AY187" s="25"/>
       <c r="AZ187" s="25"/>
+      <c r="BA187" s="25"/>
     </row>
     <row r="188">
       <c r="AL188" s="25"/>
@@ -18068,6 +18480,7 @@
       <c r="AX188" s="25"/>
       <c r="AY188" s="25"/>
       <c r="AZ188" s="25"/>
+      <c r="BA188" s="25"/>
     </row>
     <row r="189">
       <c r="AL189" s="25"/>
@@ -18085,6 +18498,7 @@
       <c r="AX189" s="25"/>
       <c r="AY189" s="25"/>
       <c r="AZ189" s="25"/>
+      <c r="BA189" s="25"/>
     </row>
     <row r="190">
       <c r="AL190" s="25"/>
@@ -18102,6 +18516,7 @@
       <c r="AX190" s="25"/>
       <c r="AY190" s="25"/>
       <c r="AZ190" s="25"/>
+      <c r="BA190" s="25"/>
     </row>
     <row r="191">
       <c r="AL191" s="25"/>
@@ -18119,6 +18534,7 @@
       <c r="AX191" s="25"/>
       <c r="AY191" s="25"/>
       <c r="AZ191" s="25"/>
+      <c r="BA191" s="25"/>
     </row>
     <row r="192">
       <c r="AL192" s="25"/>
@@ -18136,6 +18552,7 @@
       <c r="AX192" s="25"/>
       <c r="AY192" s="25"/>
       <c r="AZ192" s="25"/>
+      <c r="BA192" s="25"/>
     </row>
     <row r="193">
       <c r="AL193" s="25"/>
@@ -18153,6 +18570,7 @@
       <c r="AX193" s="25"/>
       <c r="AY193" s="25"/>
       <c r="AZ193" s="25"/>
+      <c r="BA193" s="25"/>
     </row>
     <row r="194">
       <c r="AL194" s="25"/>
@@ -18170,6 +18588,7 @@
       <c r="AX194" s="25"/>
       <c r="AY194" s="25"/>
       <c r="AZ194" s="25"/>
+      <c r="BA194" s="25"/>
     </row>
     <row r="195">
       <c r="AL195" s="25"/>
@@ -18187,6 +18606,7 @@
       <c r="AX195" s="25"/>
       <c r="AY195" s="25"/>
       <c r="AZ195" s="25"/>
+      <c r="BA195" s="25"/>
     </row>
     <row r="196">
       <c r="AL196" s="25"/>
@@ -18204,6 +18624,7 @@
       <c r="AX196" s="25"/>
       <c r="AY196" s="25"/>
       <c r="AZ196" s="25"/>
+      <c r="BA196" s="25"/>
     </row>
     <row r="197">
       <c r="AL197" s="25"/>
@@ -18221,6 +18642,7 @@
       <c r="AX197" s="25"/>
       <c r="AY197" s="25"/>
       <c r="AZ197" s="25"/>
+      <c r="BA197" s="25"/>
     </row>
     <row r="198">
       <c r="AL198" s="25"/>
@@ -18238,6 +18660,7 @@
       <c r="AX198" s="25"/>
       <c r="AY198" s="25"/>
       <c r="AZ198" s="25"/>
+      <c r="BA198" s="25"/>
     </row>
     <row r="199">
       <c r="AL199" s="25"/>
@@ -18255,6 +18678,7 @@
       <c r="AX199" s="25"/>
       <c r="AY199" s="25"/>
       <c r="AZ199" s="25"/>
+      <c r="BA199" s="25"/>
     </row>
     <row r="200">
       <c r="AL200" s="25"/>
@@ -18272,6 +18696,7 @@
       <c r="AX200" s="25"/>
       <c r="AY200" s="25"/>
       <c r="AZ200" s="25"/>
+      <c r="BA200" s="25"/>
     </row>
     <row r="201">
       <c r="AL201" s="25"/>
@@ -18289,6 +18714,7 @@
       <c r="AX201" s="25"/>
       <c r="AY201" s="25"/>
       <c r="AZ201" s="25"/>
+      <c r="BA201" s="25"/>
     </row>
     <row r="202">
       <c r="AL202" s="25"/>
@@ -18306,6 +18732,7 @@
       <c r="AX202" s="25"/>
       <c r="AY202" s="25"/>
       <c r="AZ202" s="25"/>
+      <c r="BA202" s="25"/>
     </row>
     <row r="203">
       <c r="AL203" s="25"/>
@@ -18323,6 +18750,7 @@
       <c r="AX203" s="25"/>
       <c r="AY203" s="25"/>
       <c r="AZ203" s="25"/>
+      <c r="BA203" s="25"/>
     </row>
     <row r="204">
       <c r="AL204" s="25"/>
@@ -18340,6 +18768,7 @@
       <c r="AX204" s="25"/>
       <c r="AY204" s="25"/>
       <c r="AZ204" s="25"/>
+      <c r="BA204" s="25"/>
     </row>
     <row r="205">
       <c r="AL205" s="25"/>
@@ -18357,6 +18786,7 @@
       <c r="AX205" s="25"/>
       <c r="AY205" s="25"/>
       <c r="AZ205" s="25"/>
+      <c r="BA205" s="25"/>
     </row>
     <row r="206">
       <c r="AL206" s="25"/>
@@ -18374,6 +18804,7 @@
       <c r="AX206" s="25"/>
       <c r="AY206" s="25"/>
       <c r="AZ206" s="25"/>
+      <c r="BA206" s="25"/>
     </row>
     <row r="207">
       <c r="AL207" s="25"/>
@@ -18391,6 +18822,7 @@
       <c r="AX207" s="25"/>
       <c r="AY207" s="25"/>
       <c r="AZ207" s="25"/>
+      <c r="BA207" s="25"/>
     </row>
     <row r="208">
       <c r="AL208" s="25"/>
@@ -18408,6 +18840,7 @@
       <c r="AX208" s="25"/>
       <c r="AY208" s="25"/>
       <c r="AZ208" s="25"/>
+      <c r="BA208" s="25"/>
     </row>
     <row r="209">
       <c r="AL209" s="25"/>
@@ -18425,6 +18858,7 @@
       <c r="AX209" s="25"/>
       <c r="AY209" s="25"/>
       <c r="AZ209" s="25"/>
+      <c r="BA209" s="25"/>
     </row>
     <row r="210">
       <c r="AL210" s="25"/>
@@ -18442,6 +18876,7 @@
       <c r="AX210" s="25"/>
       <c r="AY210" s="25"/>
       <c r="AZ210" s="25"/>
+      <c r="BA210" s="25"/>
     </row>
     <row r="211">
       <c r="AL211" s="25"/>
@@ -18459,6 +18894,7 @@
       <c r="AX211" s="25"/>
       <c r="AY211" s="25"/>
       <c r="AZ211" s="25"/>
+      <c r="BA211" s="25"/>
     </row>
     <row r="212">
       <c r="AL212" s="25"/>
@@ -18476,6 +18912,7 @@
       <c r="AX212" s="25"/>
       <c r="AY212" s="25"/>
       <c r="AZ212" s="25"/>
+      <c r="BA212" s="25"/>
     </row>
     <row r="213">
       <c r="AL213" s="25"/>
@@ -18493,6 +18930,7 @@
       <c r="AX213" s="25"/>
       <c r="AY213" s="25"/>
       <c r="AZ213" s="25"/>
+      <c r="BA213" s="25"/>
     </row>
     <row r="214">
       <c r="AL214" s="25"/>
@@ -18510,6 +18948,7 @@
       <c r="AX214" s="25"/>
       <c r="AY214" s="25"/>
       <c r="AZ214" s="25"/>
+      <c r="BA214" s="25"/>
     </row>
     <row r="215">
       <c r="AL215" s="25"/>
@@ -18527,6 +18966,7 @@
       <c r="AX215" s="25"/>
       <c r="AY215" s="25"/>
       <c r="AZ215" s="25"/>
+      <c r="BA215" s="25"/>
     </row>
     <row r="216">
       <c r="AL216" s="25"/>
@@ -18544,6 +18984,7 @@
       <c r="AX216" s="25"/>
       <c r="AY216" s="25"/>
       <c r="AZ216" s="25"/>
+      <c r="BA216" s="25"/>
     </row>
     <row r="217">
       <c r="AL217" s="25"/>
@@ -18561,6 +19002,7 @@
       <c r="AX217" s="25"/>
       <c r="AY217" s="25"/>
       <c r="AZ217" s="25"/>
+      <c r="BA217" s="25"/>
     </row>
     <row r="218">
       <c r="AL218" s="25"/>
@@ -18578,6 +19020,7 @@
       <c r="AX218" s="25"/>
       <c r="AY218" s="25"/>
       <c r="AZ218" s="25"/>
+      <c r="BA218" s="25"/>
     </row>
     <row r="219">
       <c r="AL219" s="25"/>
@@ -18595,6 +19038,7 @@
       <c r="AX219" s="25"/>
       <c r="AY219" s="25"/>
       <c r="AZ219" s="25"/>
+      <c r="BA219" s="25"/>
     </row>
     <row r="220">
       <c r="AL220" s="25"/>
@@ -18612,6 +19056,7 @@
       <c r="AX220" s="25"/>
       <c r="AY220" s="25"/>
       <c r="AZ220" s="25"/>
+      <c r="BA220" s="25"/>
     </row>
     <row r="221">
       <c r="AL221" s="25"/>
@@ -18629,6 +19074,7 @@
       <c r="AX221" s="25"/>
       <c r="AY221" s="25"/>
       <c r="AZ221" s="25"/>
+      <c r="BA221" s="25"/>
     </row>
     <row r="222">
       <c r="AL222" s="25"/>
@@ -18646,6 +19092,7 @@
       <c r="AX222" s="25"/>
       <c r="AY222" s="25"/>
       <c r="AZ222" s="25"/>
+      <c r="BA222" s="25"/>
     </row>
     <row r="223">
       <c r="AL223" s="25"/>
@@ -18663,6 +19110,7 @@
       <c r="AX223" s="25"/>
       <c r="AY223" s="25"/>
       <c r="AZ223" s="25"/>
+      <c r="BA223" s="25"/>
     </row>
     <row r="224">
       <c r="AL224" s="25"/>
@@ -18680,6 +19128,7 @@
       <c r="AX224" s="25"/>
       <c r="AY224" s="25"/>
       <c r="AZ224" s="25"/>
+      <c r="BA224" s="25"/>
     </row>
     <row r="225">
       <c r="AL225" s="25"/>
@@ -18697,6 +19146,7 @@
       <c r="AX225" s="25"/>
       <c r="AY225" s="25"/>
       <c r="AZ225" s="25"/>
+      <c r="BA225" s="25"/>
     </row>
     <row r="226">
       <c r="AL226" s="25"/>
@@ -18714,6 +19164,7 @@
       <c r="AX226" s="25"/>
       <c r="AY226" s="25"/>
       <c r="AZ226" s="25"/>
+      <c r="BA226" s="25"/>
     </row>
     <row r="227">
       <c r="AL227" s="25"/>
@@ -18731,6 +19182,7 @@
       <c r="AX227" s="25"/>
       <c r="AY227" s="25"/>
       <c r="AZ227" s="25"/>
+      <c r="BA227" s="25"/>
     </row>
     <row r="228">
       <c r="AL228" s="25"/>
@@ -18748,6 +19200,7 @@
       <c r="AX228" s="25"/>
       <c r="AY228" s="25"/>
       <c r="AZ228" s="25"/>
+      <c r="BA228" s="25"/>
     </row>
     <row r="229">
       <c r="AL229" s="25"/>
@@ -18765,6 +19218,7 @@
       <c r="AX229" s="25"/>
       <c r="AY229" s="25"/>
       <c r="AZ229" s="25"/>
+      <c r="BA229" s="25"/>
     </row>
     <row r="230">
       <c r="AL230" s="25"/>
@@ -18782,6 +19236,7 @@
       <c r="AX230" s="25"/>
       <c r="AY230" s="25"/>
       <c r="AZ230" s="25"/>
+      <c r="BA230" s="25"/>
     </row>
     <row r="231">
       <c r="AL231" s="25"/>
@@ -18799,6 +19254,7 @@
       <c r="AX231" s="25"/>
       <c r="AY231" s="25"/>
       <c r="AZ231" s="25"/>
+      <c r="BA231" s="25"/>
     </row>
     <row r="232">
       <c r="AL232" s="25"/>
@@ -18816,6 +19272,7 @@
       <c r="AX232" s="25"/>
       <c r="AY232" s="25"/>
       <c r="AZ232" s="25"/>
+      <c r="BA232" s="25"/>
     </row>
     <row r="233">
       <c r="AL233" s="25"/>
@@ -18833,6 +19290,7 @@
       <c r="AX233" s="25"/>
       <c r="AY233" s="25"/>
       <c r="AZ233" s="25"/>
+      <c r="BA233" s="25"/>
     </row>
     <row r="234">
       <c r="AL234" s="25"/>
@@ -18850,6 +19308,7 @@
       <c r="AX234" s="25"/>
       <c r="AY234" s="25"/>
       <c r="AZ234" s="25"/>
+      <c r="BA234" s="25"/>
     </row>
     <row r="235">
       <c r="AL235" s="25"/>
@@ -18867,6 +19326,7 @@
       <c r="AX235" s="25"/>
       <c r="AY235" s="25"/>
       <c r="AZ235" s="25"/>
+      <c r="BA235" s="25"/>
     </row>
     <row r="236">
       <c r="AL236" s="25"/>
@@ -18884,6 +19344,7 @@
       <c r="AX236" s="25"/>
       <c r="AY236" s="25"/>
       <c r="AZ236" s="25"/>
+      <c r="BA236" s="25"/>
     </row>
     <row r="237">
       <c r="AL237" s="25"/>
@@ -18901,6 +19362,7 @@
       <c r="AX237" s="25"/>
       <c r="AY237" s="25"/>
       <c r="AZ237" s="25"/>
+      <c r="BA237" s="25"/>
     </row>
     <row r="238">
       <c r="AL238" s="25"/>
@@ -18918,6 +19380,7 @@
       <c r="AX238" s="25"/>
       <c r="AY238" s="25"/>
       <c r="AZ238" s="25"/>
+      <c r="BA238" s="25"/>
     </row>
     <row r="239">
       <c r="AL239" s="25"/>
@@ -18935,6 +19398,7 @@
       <c r="AX239" s="25"/>
       <c r="AY239" s="25"/>
       <c r="AZ239" s="25"/>
+      <c r="BA239" s="25"/>
     </row>
     <row r="240">
       <c r="AL240" s="25"/>
@@ -18952,6 +19416,7 @@
       <c r="AX240" s="25"/>
       <c r="AY240" s="25"/>
       <c r="AZ240" s="25"/>
+      <c r="BA240" s="25"/>
     </row>
     <row r="241">
       <c r="AL241" s="25"/>
@@ -18969,6 +19434,7 @@
       <c r="AX241" s="25"/>
       <c r="AY241" s="25"/>
       <c r="AZ241" s="25"/>
+      <c r="BA241" s="25"/>
     </row>
     <row r="242">
       <c r="AL242" s="25"/>
@@ -18986,6 +19452,7 @@
       <c r="AX242" s="25"/>
       <c r="AY242" s="25"/>
       <c r="AZ242" s="25"/>
+      <c r="BA242" s="25"/>
     </row>
     <row r="243">
       <c r="AL243" s="25"/>
@@ -19003,6 +19470,7 @@
       <c r="AX243" s="25"/>
       <c r="AY243" s="25"/>
       <c r="AZ243" s="25"/>
+      <c r="BA243" s="25"/>
     </row>
     <row r="244">
       <c r="AL244" s="25"/>
@@ -19020,6 +19488,7 @@
       <c r="AX244" s="25"/>
       <c r="AY244" s="25"/>
       <c r="AZ244" s="25"/>
+      <c r="BA244" s="25"/>
     </row>
     <row r="245">
       <c r="AL245" s="25"/>
@@ -19037,6 +19506,7 @@
       <c r="AX245" s="25"/>
       <c r="AY245" s="25"/>
       <c r="AZ245" s="25"/>
+      <c r="BA245" s="25"/>
     </row>
     <row r="246">
       <c r="AL246" s="25"/>
@@ -19054,6 +19524,7 @@
       <c r="AX246" s="25"/>
       <c r="AY246" s="25"/>
       <c r="AZ246" s="25"/>
+      <c r="BA246" s="25"/>
     </row>
     <row r="247">
       <c r="AL247" s="25"/>
@@ -19071,6 +19542,7 @@
       <c r="AX247" s="25"/>
       <c r="AY247" s="25"/>
       <c r="AZ247" s="25"/>
+      <c r="BA247" s="25"/>
     </row>
     <row r="248">
       <c r="AL248" s="25"/>
@@ -19088,6 +19560,7 @@
       <c r="AX248" s="25"/>
       <c r="AY248" s="25"/>
       <c r="AZ248" s="25"/>
+      <c r="BA248" s="25"/>
     </row>
     <row r="249">
       <c r="AL249" s="25"/>
@@ -19105,6 +19578,7 @@
       <c r="AX249" s="25"/>
       <c r="AY249" s="25"/>
       <c r="AZ249" s="25"/>
+      <c r="BA249" s="25"/>
     </row>
     <row r="250">
       <c r="AL250" s="25"/>
@@ -19122,6 +19596,7 @@
       <c r="AX250" s="25"/>
       <c r="AY250" s="25"/>
       <c r="AZ250" s="25"/>
+      <c r="BA250" s="25"/>
     </row>
     <row r="251">
       <c r="AL251" s="25"/>
@@ -19139,6 +19614,7 @@
       <c r="AX251" s="25"/>
       <c r="AY251" s="25"/>
       <c r="AZ251" s="25"/>
+      <c r="BA251" s="25"/>
     </row>
     <row r="252">
       <c r="AL252" s="25"/>
@@ -19156,6 +19632,7 @@
       <c r="AX252" s="25"/>
       <c r="AY252" s="25"/>
       <c r="AZ252" s="25"/>
+      <c r="BA252" s="25"/>
     </row>
     <row r="253">
       <c r="AL253" s="25"/>
@@ -19173,6 +19650,7 @@
       <c r="AX253" s="25"/>
       <c r="AY253" s="25"/>
       <c r="AZ253" s="25"/>
+      <c r="BA253" s="25"/>
     </row>
     <row r="254">
       <c r="AL254" s="25"/>
@@ -19190,6 +19668,7 @@
       <c r="AX254" s="25"/>
       <c r="AY254" s="25"/>
       <c r="AZ254" s="25"/>
+      <c r="BA254" s="25"/>
     </row>
     <row r="255">
       <c r="AL255" s="25"/>
@@ -19207,6 +19686,7 @@
       <c r="AX255" s="25"/>
       <c r="AY255" s="25"/>
       <c r="AZ255" s="25"/>
+      <c r="BA255" s="25"/>
     </row>
     <row r="256">
       <c r="AL256" s="25"/>
@@ -19224,6 +19704,7 @@
       <c r="AX256" s="25"/>
       <c r="AY256" s="25"/>
       <c r="AZ256" s="25"/>
+      <c r="BA256" s="25"/>
     </row>
     <row r="257">
       <c r="AL257" s="25"/>
@@ -19241,6 +19722,7 @@
       <c r="AX257" s="25"/>
       <c r="AY257" s="25"/>
       <c r="AZ257" s="25"/>
+      <c r="BA257" s="25"/>
     </row>
     <row r="258">
       <c r="AL258" s="25"/>
@@ -19258,6 +19740,7 @@
       <c r="AX258" s="25"/>
       <c r="AY258" s="25"/>
       <c r="AZ258" s="25"/>
+      <c r="BA258" s="25"/>
     </row>
     <row r="259">
       <c r="AL259" s="25"/>
@@ -19275,6 +19758,7 @@
       <c r="AX259" s="25"/>
       <c r="AY259" s="25"/>
       <c r="AZ259" s="25"/>
+      <c r="BA259" s="25"/>
     </row>
     <row r="260">
       <c r="AL260" s="25"/>
@@ -19292,6 +19776,7 @@
       <c r="AX260" s="25"/>
       <c r="AY260" s="25"/>
       <c r="AZ260" s="25"/>
+      <c r="BA260" s="25"/>
     </row>
     <row r="261">
       <c r="AL261" s="25"/>
@@ -19309,6 +19794,7 @@
       <c r="AX261" s="25"/>
       <c r="AY261" s="25"/>
       <c r="AZ261" s="25"/>
+      <c r="BA261" s="25"/>
     </row>
     <row r="262">
       <c r="AL262" s="25"/>
@@ -19326,6 +19812,7 @@
       <c r="AX262" s="25"/>
       <c r="AY262" s="25"/>
       <c r="AZ262" s="25"/>
+      <c r="BA262" s="25"/>
     </row>
     <row r="263">
       <c r="AL263" s="25"/>
@@ -19343,6 +19830,7 @@
       <c r="AX263" s="25"/>
       <c r="AY263" s="25"/>
       <c r="AZ263" s="25"/>
+      <c r="BA263" s="25"/>
     </row>
     <row r="264">
       <c r="AL264" s="25"/>
@@ -19360,6 +19848,7 @@
       <c r="AX264" s="25"/>
       <c r="AY264" s="25"/>
       <c r="AZ264" s="25"/>
+      <c r="BA264" s="25"/>
     </row>
     <row r="265">
       <c r="AL265" s="25"/>
@@ -19377,6 +19866,7 @@
       <c r="AX265" s="25"/>
       <c r="AY265" s="25"/>
       <c r="AZ265" s="25"/>
+      <c r="BA265" s="25"/>
     </row>
     <row r="266">
       <c r="AL266" s="25"/>
@@ -19394,6 +19884,7 @@
       <c r="AX266" s="25"/>
       <c r="AY266" s="25"/>
       <c r="AZ266" s="25"/>
+      <c r="BA266" s="25"/>
     </row>
     <row r="267">
       <c r="AL267" s="25"/>
@@ -19411,6 +19902,7 @@
       <c r="AX267" s="25"/>
       <c r="AY267" s="25"/>
       <c r="AZ267" s="25"/>
+      <c r="BA267" s="25"/>
     </row>
     <row r="268">
       <c r="AL268" s="25"/>
@@ -19428,6 +19920,7 @@
       <c r="AX268" s="25"/>
       <c r="AY268" s="25"/>
       <c r="AZ268" s="25"/>
+      <c r="BA268" s="25"/>
     </row>
     <row r="269">
       <c r="AL269" s="25"/>
@@ -19445,6 +19938,7 @@
       <c r="AX269" s="25"/>
       <c r="AY269" s="25"/>
       <c r="AZ269" s="25"/>
+      <c r="BA269" s="25"/>
     </row>
     <row r="270">
       <c r="AL270" s="25"/>
@@ -19462,6 +19956,7 @@
       <c r="AX270" s="25"/>
       <c r="AY270" s="25"/>
       <c r="AZ270" s="25"/>
+      <c r="BA270" s="25"/>
     </row>
     <row r="271">
       <c r="AL271" s="25"/>
@@ -19479,6 +19974,7 @@
       <c r="AX271" s="25"/>
       <c r="AY271" s="25"/>
       <c r="AZ271" s="25"/>
+      <c r="BA271" s="25"/>
     </row>
     <row r="272">
       <c r="AL272" s="25"/>
@@ -19496,6 +19992,7 @@
       <c r="AX272" s="25"/>
       <c r="AY272" s="25"/>
       <c r="AZ272" s="25"/>
+      <c r="BA272" s="25"/>
     </row>
     <row r="273">
       <c r="AL273" s="25"/>
@@ -19513,6 +20010,7 @@
       <c r="AX273" s="25"/>
       <c r="AY273" s="25"/>
       <c r="AZ273" s="25"/>
+      <c r="BA273" s="25"/>
     </row>
     <row r="274">
       <c r="AL274" s="25"/>
@@ -19530,6 +20028,7 @@
       <c r="AX274" s="25"/>
       <c r="AY274" s="25"/>
       <c r="AZ274" s="25"/>
+      <c r="BA274" s="25"/>
     </row>
     <row r="275">
       <c r="AL275" s="25"/>
@@ -19547,6 +20046,7 @@
       <c r="AX275" s="25"/>
       <c r="AY275" s="25"/>
       <c r="AZ275" s="25"/>
+      <c r="BA275" s="25"/>
     </row>
     <row r="276">
       <c r="AL276" s="25"/>
@@ -19564,6 +20064,7 @@
       <c r="AX276" s="25"/>
       <c r="AY276" s="25"/>
       <c r="AZ276" s="25"/>
+      <c r="BA276" s="25"/>
     </row>
     <row r="277">
       <c r="AL277" s="25"/>
@@ -19581,6 +20082,7 @@
       <c r="AX277" s="25"/>
       <c r="AY277" s="25"/>
       <c r="AZ277" s="25"/>
+      <c r="BA277" s="25"/>
     </row>
     <row r="278">
       <c r="AL278" s="25"/>
@@ -19598,6 +20100,7 @@
       <c r="AX278" s="25"/>
       <c r="AY278" s="25"/>
       <c r="AZ278" s="25"/>
+      <c r="BA278" s="25"/>
     </row>
     <row r="279">
       <c r="AL279" s="25"/>
@@ -19615,6 +20118,7 @@
       <c r="AX279" s="25"/>
       <c r="AY279" s="25"/>
       <c r="AZ279" s="25"/>
+      <c r="BA279" s="25"/>
     </row>
     <row r="280">
       <c r="AL280" s="25"/>
@@ -19632,6 +20136,7 @@
       <c r="AX280" s="25"/>
       <c r="AY280" s="25"/>
       <c r="AZ280" s="25"/>
+      <c r="BA280" s="25"/>
     </row>
     <row r="281">
       <c r="AL281" s="25"/>
@@ -19649,6 +20154,7 @@
       <c r="AX281" s="25"/>
       <c r="AY281" s="25"/>
       <c r="AZ281" s="25"/>
+      <c r="BA281" s="25"/>
     </row>
     <row r="282">
       <c r="AL282" s="25"/>
@@ -19666,6 +20172,7 @@
       <c r="AX282" s="25"/>
       <c r="AY282" s="25"/>
       <c r="AZ282" s="25"/>
+      <c r="BA282" s="25"/>
     </row>
     <row r="283">
       <c r="AL283" s="25"/>
@@ -19683,6 +20190,7 @@
       <c r="AX283" s="25"/>
       <c r="AY283" s="25"/>
       <c r="AZ283" s="25"/>
+      <c r="BA283" s="25"/>
     </row>
     <row r="284">
       <c r="AL284" s="25"/>
@@ -19700,6 +20208,7 @@
       <c r="AX284" s="25"/>
       <c r="AY284" s="25"/>
       <c r="AZ284" s="25"/>
+      <c r="BA284" s="25"/>
     </row>
     <row r="285">
       <c r="AL285" s="25"/>
@@ -19717,6 +20226,7 @@
       <c r="AX285" s="25"/>
       <c r="AY285" s="25"/>
       <c r="AZ285" s="25"/>
+      <c r="BA285" s="25"/>
     </row>
     <row r="286">
       <c r="AL286" s="25"/>
@@ -19734,6 +20244,7 @@
       <c r="AX286" s="25"/>
       <c r="AY286" s="25"/>
       <c r="AZ286" s="25"/>
+      <c r="BA286" s="25"/>
     </row>
     <row r="287">
       <c r="AL287" s="25"/>
@@ -19751,6 +20262,7 @@
       <c r="AX287" s="25"/>
       <c r="AY287" s="25"/>
       <c r="AZ287" s="25"/>
+      <c r="BA287" s="25"/>
     </row>
     <row r="288">
       <c r="AL288" s="25"/>
@@ -19768,6 +20280,7 @@
       <c r="AX288" s="25"/>
       <c r="AY288" s="25"/>
       <c r="AZ288" s="25"/>
+      <c r="BA288" s="25"/>
     </row>
     <row r="289">
       <c r="AL289" s="25"/>
@@ -19785,6 +20298,7 @@
       <c r="AX289" s="25"/>
       <c r="AY289" s="25"/>
       <c r="AZ289" s="25"/>
+      <c r="BA289" s="25"/>
     </row>
     <row r="290">
       <c r="AL290" s="25"/>
@@ -19802,6 +20316,7 @@
       <c r="AX290" s="25"/>
       <c r="AY290" s="25"/>
       <c r="AZ290" s="25"/>
+      <c r="BA290" s="25"/>
     </row>
     <row r="291">
       <c r="AL291" s="25"/>
@@ -19819,6 +20334,7 @@
       <c r="AX291" s="25"/>
       <c r="AY291" s="25"/>
       <c r="AZ291" s="25"/>
+      <c r="BA291" s="25"/>
     </row>
     <row r="292">
       <c r="AL292" s="25"/>
@@ -19836,6 +20352,7 @@
       <c r="AX292" s="25"/>
       <c r="AY292" s="25"/>
       <c r="AZ292" s="25"/>
+      <c r="BA292" s="25"/>
     </row>
     <row r="293">
       <c r="AL293" s="25"/>
@@ -19853,6 +20370,7 @@
       <c r="AX293" s="25"/>
       <c r="AY293" s="25"/>
       <c r="AZ293" s="25"/>
+      <c r="BA293" s="25"/>
     </row>
     <row r="294">
       <c r="AL294" s="25"/>
@@ -19870,6 +20388,7 @@
       <c r="AX294" s="25"/>
       <c r="AY294" s="25"/>
       <c r="AZ294" s="25"/>
+      <c r="BA294" s="25"/>
     </row>
     <row r="295">
       <c r="AL295" s="25"/>
@@ -19887,6 +20406,7 @@
       <c r="AX295" s="25"/>
       <c r="AY295" s="25"/>
       <c r="AZ295" s="25"/>
+      <c r="BA295" s="25"/>
     </row>
     <row r="296">
       <c r="AL296" s="25"/>
@@ -19904,6 +20424,7 @@
       <c r="AX296" s="25"/>
       <c r="AY296" s="25"/>
       <c r="AZ296" s="25"/>
+      <c r="BA296" s="25"/>
     </row>
     <row r="297">
       <c r="AL297" s="25"/>
@@ -19921,6 +20442,7 @@
       <c r="AX297" s="25"/>
       <c r="AY297" s="25"/>
       <c r="AZ297" s="25"/>
+      <c r="BA297" s="25"/>
     </row>
     <row r="298">
       <c r="AL298" s="25"/>
@@ -19938,6 +20460,7 @@
       <c r="AX298" s="25"/>
       <c r="AY298" s="25"/>
       <c r="AZ298" s="25"/>
+      <c r="BA298" s="25"/>
     </row>
     <row r="299">
       <c r="AL299" s="25"/>
@@ -19955,6 +20478,7 @@
       <c r="AX299" s="25"/>
       <c r="AY299" s="25"/>
       <c r="AZ299" s="25"/>
+      <c r="BA299" s="25"/>
     </row>
     <row r="300">
       <c r="AL300" s="25"/>
@@ -19972,6 +20496,7 @@
       <c r="AX300" s="25"/>
       <c r="AY300" s="25"/>
       <c r="AZ300" s="25"/>
+      <c r="BA300" s="25"/>
     </row>
     <row r="301">
       <c r="AL301" s="25"/>
@@ -19989,6 +20514,7 @@
       <c r="AX301" s="25"/>
       <c r="AY301" s="25"/>
       <c r="AZ301" s="25"/>
+      <c r="BA301" s="25"/>
     </row>
     <row r="302">
       <c r="AL302" s="25"/>
@@ -20006,6 +20532,7 @@
       <c r="AX302" s="25"/>
       <c r="AY302" s="25"/>
       <c r="AZ302" s="25"/>
+      <c r="BA302" s="25"/>
     </row>
     <row r="303">
       <c r="AL303" s="25"/>
@@ -20023,6 +20550,7 @@
       <c r="AX303" s="25"/>
       <c r="AY303" s="25"/>
       <c r="AZ303" s="25"/>
+      <c r="BA303" s="25"/>
     </row>
     <row r="304">
       <c r="AL304" s="25"/>
@@ -20040,6 +20568,7 @@
       <c r="AX304" s="25"/>
       <c r="AY304" s="25"/>
       <c r="AZ304" s="25"/>
+      <c r="BA304" s="25"/>
     </row>
     <row r="305">
       <c r="AL305" s="25"/>
@@ -20057,6 +20586,7 @@
       <c r="AX305" s="25"/>
       <c r="AY305" s="25"/>
       <c r="AZ305" s="25"/>
+      <c r="BA305" s="25"/>
     </row>
     <row r="306">
       <c r="AL306" s="25"/>
@@ -20074,6 +20604,7 @@
       <c r="AX306" s="25"/>
       <c r="AY306" s="25"/>
       <c r="AZ306" s="25"/>
+      <c r="BA306" s="25"/>
     </row>
     <row r="307">
       <c r="AL307" s="25"/>
@@ -20091,6 +20622,7 @@
       <c r="AX307" s="25"/>
       <c r="AY307" s="25"/>
       <c r="AZ307" s="25"/>
+      <c r="BA307" s="25"/>
     </row>
     <row r="308">
       <c r="AL308" s="25"/>
@@ -20108,6 +20640,7 @@
       <c r="AX308" s="25"/>
       <c r="AY308" s="25"/>
       <c r="AZ308" s="25"/>
+      <c r="BA308" s="25"/>
     </row>
     <row r="309">
       <c r="AL309" s="25"/>
@@ -20125,6 +20658,7 @@
       <c r="AX309" s="25"/>
       <c r="AY309" s="25"/>
       <c r="AZ309" s="25"/>
+      <c r="BA309" s="25"/>
     </row>
     <row r="310">
       <c r="AL310" s="25"/>
@@ -20142,6 +20676,7 @@
       <c r="AX310" s="25"/>
       <c r="AY310" s="25"/>
       <c r="AZ310" s="25"/>
+      <c r="BA310" s="25"/>
     </row>
     <row r="311">
       <c r="AL311" s="25"/>
@@ -20159,6 +20694,7 @@
       <c r="AX311" s="25"/>
       <c r="AY311" s="25"/>
       <c r="AZ311" s="25"/>
+      <c r="BA311" s="25"/>
     </row>
     <row r="312">
       <c r="AL312" s="25"/>
@@ -20176,6 +20712,7 @@
       <c r="AX312" s="25"/>
       <c r="AY312" s="25"/>
       <c r="AZ312" s="25"/>
+      <c r="BA312" s="25"/>
     </row>
     <row r="313">
       <c r="AL313" s="25"/>
@@ -20193,6 +20730,7 @@
       <c r="AX313" s="25"/>
       <c r="AY313" s="25"/>
       <c r="AZ313" s="25"/>
+      <c r="BA313" s="25"/>
     </row>
     <row r="314">
       <c r="AL314" s="25"/>
@@ -20210,6 +20748,7 @@
       <c r="AX314" s="25"/>
       <c r="AY314" s="25"/>
       <c r="AZ314" s="25"/>
+      <c r="BA314" s="25"/>
     </row>
     <row r="315">
       <c r="AL315" s="25"/>
@@ -20227,6 +20766,7 @@
       <c r="AX315" s="25"/>
       <c r="AY315" s="25"/>
       <c r="AZ315" s="25"/>
+      <c r="BA315" s="25"/>
     </row>
     <row r="316">
       <c r="AL316" s="25"/>
@@ -20244,6 +20784,7 @@
       <c r="AX316" s="25"/>
       <c r="AY316" s="25"/>
       <c r="AZ316" s="25"/>
+      <c r="BA316" s="25"/>
     </row>
     <row r="317">
       <c r="AL317" s="25"/>
@@ -20261,6 +20802,7 @@
       <c r="AX317" s="25"/>
       <c r="AY317" s="25"/>
       <c r="AZ317" s="25"/>
+      <c r="BA317" s="25"/>
     </row>
     <row r="318">
       <c r="AL318" s="25"/>
@@ -20278,6 +20820,7 @@
       <c r="AX318" s="25"/>
       <c r="AY318" s="25"/>
       <c r="AZ318" s="25"/>
+      <c r="BA318" s="25"/>
     </row>
     <row r="319">
       <c r="AL319" s="25"/>
@@ -20295,6 +20838,7 @@
       <c r="AX319" s="25"/>
       <c r="AY319" s="25"/>
       <c r="AZ319" s="25"/>
+      <c r="BA319" s="25"/>
     </row>
     <row r="320">
       <c r="AL320" s="25"/>
@@ -20312,6 +20856,7 @@
       <c r="AX320" s="25"/>
       <c r="AY320" s="25"/>
       <c r="AZ320" s="25"/>
+      <c r="BA320" s="25"/>
     </row>
     <row r="321">
       <c r="AL321" s="25"/>
@@ -20329,6 +20874,7 @@
       <c r="AX321" s="25"/>
       <c r="AY321" s="25"/>
       <c r="AZ321" s="25"/>
+      <c r="BA321" s="25"/>
     </row>
     <row r="322">
       <c r="AL322" s="25"/>
@@ -20346,6 +20892,7 @@
       <c r="AX322" s="25"/>
       <c r="AY322" s="25"/>
       <c r="AZ322" s="25"/>
+      <c r="BA322" s="25"/>
     </row>
     <row r="323">
       <c r="AL323" s="25"/>
@@ -20363,6 +20910,7 @@
       <c r="AX323" s="25"/>
       <c r="AY323" s="25"/>
       <c r="AZ323" s="25"/>
+      <c r="BA323" s="25"/>
     </row>
     <row r="324">
       <c r="AL324" s="25"/>
@@ -20380,6 +20928,7 @@
       <c r="AX324" s="25"/>
       <c r="AY324" s="25"/>
       <c r="AZ324" s="25"/>
+      <c r="BA324" s="25"/>
     </row>
     <row r="325">
       <c r="AL325" s="25"/>
@@ -20397,6 +20946,7 @@
       <c r="AX325" s="25"/>
       <c r="AY325" s="25"/>
       <c r="AZ325" s="25"/>
+      <c r="BA325" s="25"/>
     </row>
     <row r="326">
       <c r="AL326" s="25"/>
@@ -20414,6 +20964,7 @@
       <c r="AX326" s="25"/>
       <c r="AY326" s="25"/>
       <c r="AZ326" s="25"/>
+      <c r="BA326" s="25"/>
     </row>
     <row r="327">
       <c r="AL327" s="25"/>
@@ -20431,6 +20982,7 @@
       <c r="AX327" s="25"/>
       <c r="AY327" s="25"/>
       <c r="AZ327" s="25"/>
+      <c r="BA327" s="25"/>
     </row>
     <row r="328">
       <c r="AL328" s="25"/>
@@ -20448,6 +21000,7 @@
       <c r="AX328" s="25"/>
       <c r="AY328" s="25"/>
       <c r="AZ328" s="25"/>
+      <c r="BA328" s="25"/>
     </row>
     <row r="329">
       <c r="AL329" s="25"/>
@@ -20465,6 +21018,7 @@
       <c r="AX329" s="25"/>
       <c r="AY329" s="25"/>
       <c r="AZ329" s="25"/>
+      <c r="BA329" s="25"/>
     </row>
     <row r="330">
       <c r="AL330" s="25"/>
@@ -20482,6 +21036,7 @@
       <c r="AX330" s="25"/>
       <c r="AY330" s="25"/>
       <c r="AZ330" s="25"/>
+      <c r="BA330" s="25"/>
     </row>
     <row r="331">
       <c r="AL331" s="25"/>
@@ -20499,6 +21054,7 @@
       <c r="AX331" s="25"/>
       <c r="AY331" s="25"/>
       <c r="AZ331" s="25"/>
+      <c r="BA331" s="25"/>
     </row>
     <row r="332">
       <c r="AL332" s="25"/>
@@ -20516,6 +21072,7 @@
       <c r="AX332" s="25"/>
       <c r="AY332" s="25"/>
       <c r="AZ332" s="25"/>
+      <c r="BA332" s="25"/>
     </row>
     <row r="333">
       <c r="AL333" s="25"/>
@@ -20533,6 +21090,7 @@
       <c r="AX333" s="25"/>
       <c r="AY333" s="25"/>
       <c r="AZ333" s="25"/>
+      <c r="BA333" s="25"/>
     </row>
     <row r="334">
       <c r="AL334" s="25"/>
@@ -20550,6 +21108,7 @@
       <c r="AX334" s="25"/>
       <c r="AY334" s="25"/>
       <c r="AZ334" s="25"/>
+      <c r="BA334" s="25"/>
     </row>
     <row r="335">
       <c r="AL335" s="25"/>
@@ -20567,6 +21126,7 @@
       <c r="AX335" s="25"/>
       <c r="AY335" s="25"/>
       <c r="AZ335" s="25"/>
+      <c r="BA335" s="25"/>
     </row>
     <row r="336">
       <c r="AL336" s="25"/>
@@ -20584,6 +21144,7 @@
       <c r="AX336" s="25"/>
       <c r="AY336" s="25"/>
       <c r="AZ336" s="25"/>
+      <c r="BA336" s="25"/>
     </row>
     <row r="337">
       <c r="AL337" s="25"/>
@@ -20601,6 +21162,7 @@
       <c r="AX337" s="25"/>
       <c r="AY337" s="25"/>
       <c r="AZ337" s="25"/>
+      <c r="BA337" s="25"/>
     </row>
     <row r="338">
       <c r="AL338" s="25"/>
@@ -20618,6 +21180,7 @@
       <c r="AX338" s="25"/>
       <c r="AY338" s="25"/>
       <c r="AZ338" s="25"/>
+      <c r="BA338" s="25"/>
     </row>
     <row r="339">
       <c r="AL339" s="25"/>
@@ -20635,6 +21198,7 @@
       <c r="AX339" s="25"/>
       <c r="AY339" s="25"/>
       <c r="AZ339" s="25"/>
+      <c r="BA339" s="25"/>
     </row>
     <row r="340">
       <c r="AL340" s="25"/>
@@ -20652,6 +21216,7 @@
       <c r="AX340" s="25"/>
       <c r="AY340" s="25"/>
       <c r="AZ340" s="25"/>
+      <c r="BA340" s="25"/>
     </row>
     <row r="341">
       <c r="AL341" s="25"/>
@@ -20669,6 +21234,7 @@
       <c r="AX341" s="25"/>
       <c r="AY341" s="25"/>
       <c r="AZ341" s="25"/>
+      <c r="BA341" s="25"/>
     </row>
     <row r="342">
       <c r="AL342" s="25"/>
@@ -20686,6 +21252,7 @@
       <c r="AX342" s="25"/>
       <c r="AY342" s="25"/>
       <c r="AZ342" s="25"/>
+      <c r="BA342" s="25"/>
     </row>
     <row r="343">
       <c r="AL343" s="25"/>
@@ -20703,6 +21270,7 @@
       <c r="AX343" s="25"/>
       <c r="AY343" s="25"/>
       <c r="AZ343" s="25"/>
+      <c r="BA343" s="25"/>
     </row>
     <row r="344">
       <c r="AL344" s="25"/>
@@ -20720,6 +21288,7 @@
       <c r="AX344" s="25"/>
       <c r="AY344" s="25"/>
       <c r="AZ344" s="25"/>
+      <c r="BA344" s="25"/>
     </row>
     <row r="345">
       <c r="AL345" s="25"/>
@@ -20737,6 +21306,7 @@
       <c r="AX345" s="25"/>
       <c r="AY345" s="25"/>
       <c r="AZ345" s="25"/>
+      <c r="BA345" s="25"/>
     </row>
     <row r="346">
       <c r="AL346" s="25"/>
@@ -20754,6 +21324,7 @@
       <c r="AX346" s="25"/>
       <c r="AY346" s="25"/>
       <c r="AZ346" s="25"/>
+      <c r="BA346" s="25"/>
     </row>
     <row r="347">
       <c r="AL347" s="25"/>
@@ -20771,6 +21342,7 @@
       <c r="AX347" s="25"/>
       <c r="AY347" s="25"/>
       <c r="AZ347" s="25"/>
+      <c r="BA347" s="25"/>
     </row>
     <row r="348">
       <c r="AL348" s="25"/>
@@ -20788,6 +21360,7 @@
       <c r="AX348" s="25"/>
       <c r="AY348" s="25"/>
       <c r="AZ348" s="25"/>
+      <c r="BA348" s="25"/>
     </row>
     <row r="349">
       <c r="AL349" s="25"/>
@@ -20805,6 +21378,7 @@
       <c r="AX349" s="25"/>
       <c r="AY349" s="25"/>
       <c r="AZ349" s="25"/>
+      <c r="BA349" s="25"/>
     </row>
     <row r="350">
       <c r="AL350" s="25"/>
@@ -20822,6 +21396,7 @@
       <c r="AX350" s="25"/>
       <c r="AY350" s="25"/>
       <c r="AZ350" s="25"/>
+      <c r="BA350" s="25"/>
     </row>
     <row r="351">
       <c r="AL351" s="25"/>
@@ -20839,6 +21414,7 @@
       <c r="AX351" s="25"/>
       <c r="AY351" s="25"/>
       <c r="AZ351" s="25"/>
+      <c r="BA351" s="25"/>
     </row>
     <row r="352">
       <c r="AL352" s="25"/>
@@ -20856,6 +21432,7 @@
       <c r="AX352" s="25"/>
       <c r="AY352" s="25"/>
       <c r="AZ352" s="25"/>
+      <c r="BA352" s="25"/>
     </row>
     <row r="353">
       <c r="AL353" s="25"/>
@@ -20873,6 +21450,7 @@
       <c r="AX353" s="25"/>
       <c r="AY353" s="25"/>
       <c r="AZ353" s="25"/>
+      <c r="BA353" s="25"/>
     </row>
     <row r="354">
       <c r="AL354" s="25"/>
@@ -20890,6 +21468,7 @@
       <c r="AX354" s="25"/>
       <c r="AY354" s="25"/>
       <c r="AZ354" s="25"/>
+      <c r="BA354" s="25"/>
     </row>
     <row r="355">
       <c r="AL355" s="25"/>
@@ -20907,6 +21486,7 @@
       <c r="AX355" s="25"/>
       <c r="AY355" s="25"/>
       <c r="AZ355" s="25"/>
+      <c r="BA355" s="25"/>
     </row>
     <row r="356">
       <c r="AL356" s="25"/>
@@ -20924,6 +21504,7 @@
       <c r="AX356" s="25"/>
       <c r="AY356" s="25"/>
       <c r="AZ356" s="25"/>
+      <c r="BA356" s="25"/>
     </row>
     <row r="357">
       <c r="AL357" s="25"/>
@@ -20941,6 +21522,7 @@
       <c r="AX357" s="25"/>
       <c r="AY357" s="25"/>
       <c r="AZ357" s="25"/>
+      <c r="BA357" s="25"/>
     </row>
     <row r="358">
       <c r="AL358" s="25"/>
@@ -20958,6 +21540,7 @@
       <c r="AX358" s="25"/>
       <c r="AY358" s="25"/>
       <c r="AZ358" s="25"/>
+      <c r="BA358" s="25"/>
     </row>
     <row r="359">
       <c r="AL359" s="25"/>
@@ -20975,6 +21558,7 @@
       <c r="AX359" s="25"/>
       <c r="AY359" s="25"/>
       <c r="AZ359" s="25"/>
+      <c r="BA359" s="25"/>
     </row>
     <row r="360">
       <c r="AL360" s="25"/>
@@ -20992,6 +21576,7 @@
       <c r="AX360" s="25"/>
       <c r="AY360" s="25"/>
       <c r="AZ360" s="25"/>
+      <c r="BA360" s="25"/>
     </row>
     <row r="361">
       <c r="AL361" s="25"/>
@@ -21009,6 +21594,7 @@
       <c r="AX361" s="25"/>
       <c r="AY361" s="25"/>
       <c r="AZ361" s="25"/>
+      <c r="BA361" s="25"/>
     </row>
     <row r="362">
       <c r="AL362" s="25"/>
@@ -21026,6 +21612,7 @@
       <c r="AX362" s="25"/>
       <c r="AY362" s="25"/>
       <c r="AZ362" s="25"/>
+      <c r="BA362" s="25"/>
     </row>
     <row r="363">
       <c r="AL363" s="25"/>
@@ -21043,6 +21630,7 @@
       <c r="AX363" s="25"/>
       <c r="AY363" s="25"/>
       <c r="AZ363" s="25"/>
+      <c r="BA363" s="25"/>
     </row>
     <row r="364">
       <c r="AL364" s="25"/>
@@ -21060,6 +21648,7 @@
       <c r="AX364" s="25"/>
       <c r="AY364" s="25"/>
       <c r="AZ364" s="25"/>
+      <c r="BA364" s="25"/>
     </row>
     <row r="365">
       <c r="AL365" s="25"/>
@@ -21077,6 +21666,7 @@
       <c r="AX365" s="25"/>
       <c r="AY365" s="25"/>
       <c r="AZ365" s="25"/>
+      <c r="BA365" s="25"/>
     </row>
     <row r="366">
       <c r="AL366" s="25"/>
@@ -21094,6 +21684,7 @@
       <c r="AX366" s="25"/>
       <c r="AY366" s="25"/>
       <c r="AZ366" s="25"/>
+      <c r="BA366" s="25"/>
     </row>
     <row r="367">
       <c r="AL367" s="25"/>
@@ -21111,6 +21702,7 @@
       <c r="AX367" s="25"/>
       <c r="AY367" s="25"/>
       <c r="AZ367" s="25"/>
+      <c r="BA367" s="25"/>
     </row>
     <row r="368">
       <c r="AL368" s="25"/>
@@ -21128,6 +21720,7 @@
       <c r="AX368" s="25"/>
       <c r="AY368" s="25"/>
       <c r="AZ368" s="25"/>
+      <c r="BA368" s="25"/>
     </row>
     <row r="369">
       <c r="AL369" s="25"/>
@@ -21145,6 +21738,7 @@
       <c r="AX369" s="25"/>
       <c r="AY369" s="25"/>
       <c r="AZ369" s="25"/>
+      <c r="BA369" s="25"/>
     </row>
     <row r="370">
       <c r="AL370" s="25"/>
@@ -21162,6 +21756,7 @@
       <c r="AX370" s="25"/>
       <c r="AY370" s="25"/>
       <c r="AZ370" s="25"/>
+      <c r="BA370" s="25"/>
     </row>
     <row r="371">
       <c r="AL371" s="25"/>
@@ -21179,6 +21774,7 @@
       <c r="AX371" s="25"/>
       <c r="AY371" s="25"/>
       <c r="AZ371" s="25"/>
+      <c r="BA371" s="25"/>
     </row>
     <row r="372">
       <c r="AL372" s="25"/>
@@ -21196,6 +21792,7 @@
       <c r="AX372" s="25"/>
       <c r="AY372" s="25"/>
       <c r="AZ372" s="25"/>
+      <c r="BA372" s="25"/>
     </row>
     <row r="373">
       <c r="AL373" s="25"/>
@@ -21213,6 +21810,7 @@
       <c r="AX373" s="25"/>
       <c r="AY373" s="25"/>
       <c r="AZ373" s="25"/>
+      <c r="BA373" s="25"/>
     </row>
     <row r="374">
       <c r="AL374" s="25"/>
@@ -21230,6 +21828,7 @@
       <c r="AX374" s="25"/>
       <c r="AY374" s="25"/>
       <c r="AZ374" s="25"/>
+      <c r="BA374" s="25"/>
     </row>
     <row r="375">
       <c r="AL375" s="25"/>
@@ -21247,6 +21846,7 @@
       <c r="AX375" s="25"/>
       <c r="AY375" s="25"/>
       <c r="AZ375" s="25"/>
+      <c r="BA375" s="25"/>
     </row>
     <row r="376">
       <c r="AL376" s="25"/>
@@ -21264,6 +21864,7 @@
       <c r="AX376" s="25"/>
       <c r="AY376" s="25"/>
       <c r="AZ376" s="25"/>
+      <c r="BA376" s="25"/>
     </row>
     <row r="377">
       <c r="AL377" s="25"/>
@@ -21281,6 +21882,7 @@
       <c r="AX377" s="25"/>
       <c r="AY377" s="25"/>
       <c r="AZ377" s="25"/>
+      <c r="BA377" s="25"/>
     </row>
     <row r="378">
       <c r="AL378" s="25"/>
@@ -21298,6 +21900,7 @@
       <c r="AX378" s="25"/>
       <c r="AY378" s="25"/>
       <c r="AZ378" s="25"/>
+      <c r="BA378" s="25"/>
     </row>
     <row r="379">
       <c r="AL379" s="25"/>
@@ -21315,6 +21918,7 @@
       <c r="AX379" s="25"/>
       <c r="AY379" s="25"/>
       <c r="AZ379" s="25"/>
+      <c r="BA379" s="25"/>
     </row>
     <row r="380">
       <c r="AL380" s="25"/>
@@ -21332,6 +21936,7 @@
       <c r="AX380" s="25"/>
       <c r="AY380" s="25"/>
       <c r="AZ380" s="25"/>
+      <c r="BA380" s="25"/>
     </row>
     <row r="381">
       <c r="AL381" s="25"/>
@@ -21349,6 +21954,7 @@
       <c r="AX381" s="25"/>
       <c r="AY381" s="25"/>
       <c r="AZ381" s="25"/>
+      <c r="BA381" s="25"/>
     </row>
     <row r="382">
       <c r="AL382" s="25"/>
@@ -21366,6 +21972,7 @@
       <c r="AX382" s="25"/>
       <c r="AY382" s="25"/>
       <c r="AZ382" s="25"/>
+      <c r="BA382" s="25"/>
     </row>
     <row r="383">
       <c r="AL383" s="25"/>
@@ -21383,6 +21990,7 @@
       <c r="AX383" s="25"/>
       <c r="AY383" s="25"/>
       <c r="AZ383" s="25"/>
+      <c r="BA383" s="25"/>
     </row>
     <row r="384">
       <c r="AL384" s="25"/>
@@ -21400,6 +22008,7 @@
       <c r="AX384" s="25"/>
       <c r="AY384" s="25"/>
       <c r="AZ384" s="25"/>
+      <c r="BA384" s="25"/>
     </row>
     <row r="385">
       <c r="AL385" s="25"/>
@@ -21417,6 +22026,7 @@
       <c r="AX385" s="25"/>
       <c r="AY385" s="25"/>
       <c r="AZ385" s="25"/>
+      <c r="BA385" s="25"/>
     </row>
     <row r="386">
       <c r="AL386" s="25"/>
@@ -21434,6 +22044,7 @@
       <c r="AX386" s="25"/>
       <c r="AY386" s="25"/>
       <c r="AZ386" s="25"/>
+      <c r="BA386" s="25"/>
     </row>
     <row r="387">
       <c r="AL387" s="25"/>
@@ -21451,6 +22062,7 @@
       <c r="AX387" s="25"/>
       <c r="AY387" s="25"/>
       <c r="AZ387" s="25"/>
+      <c r="BA387" s="25"/>
     </row>
     <row r="388">
       <c r="AL388" s="25"/>
@@ -21468,6 +22080,7 @@
       <c r="AX388" s="25"/>
       <c r="AY388" s="25"/>
       <c r="AZ388" s="25"/>
+      <c r="BA388" s="25"/>
     </row>
     <row r="389">
       <c r="AL389" s="25"/>
@@ -21485,6 +22098,7 @@
       <c r="AX389" s="25"/>
       <c r="AY389" s="25"/>
       <c r="AZ389" s="25"/>
+      <c r="BA389" s="25"/>
     </row>
     <row r="390">
       <c r="AL390" s="25"/>
@@ -21502,6 +22116,7 @@
       <c r="AX390" s="25"/>
       <c r="AY390" s="25"/>
       <c r="AZ390" s="25"/>
+      <c r="BA390" s="25"/>
     </row>
     <row r="391">
       <c r="AL391" s="25"/>
@@ -21519,6 +22134,7 @@
       <c r="AX391" s="25"/>
       <c r="AY391" s="25"/>
       <c r="AZ391" s="25"/>
+      <c r="BA391" s="25"/>
     </row>
     <row r="392">
       <c r="AL392" s="25"/>
@@ -21536,6 +22152,7 @@
       <c r="AX392" s="25"/>
       <c r="AY392" s="25"/>
       <c r="AZ392" s="25"/>
+      <c r="BA392" s="25"/>
     </row>
     <row r="393">
       <c r="AL393" s="25"/>
@@ -21553,6 +22170,7 @@
       <c r="AX393" s="25"/>
       <c r="AY393" s="25"/>
       <c r="AZ393" s="25"/>
+      <c r="BA393" s="25"/>
     </row>
     <row r="394">
       <c r="AL394" s="25"/>
@@ -21570,6 +22188,7 @@
       <c r="AX394" s="25"/>
       <c r="AY394" s="25"/>
       <c r="AZ394" s="25"/>
+      <c r="BA394" s="25"/>
     </row>
     <row r="395">
       <c r="AL395" s="25"/>
@@ -21587,6 +22206,7 @@
       <c r="AX395" s="25"/>
       <c r="AY395" s="25"/>
       <c r="AZ395" s="25"/>
+      <c r="BA395" s="25"/>
     </row>
     <row r="396">
       <c r="AL396" s="25"/>
@@ -21604,6 +22224,7 @@
       <c r="AX396" s="25"/>
       <c r="AY396" s="25"/>
       <c r="AZ396" s="25"/>
+      <c r="BA396" s="25"/>
     </row>
     <row r="397">
       <c r="AL397" s="25"/>
@@ -21621,6 +22242,7 @@
       <c r="AX397" s="25"/>
       <c r="AY397" s="25"/>
       <c r="AZ397" s="25"/>
+      <c r="BA397" s="25"/>
     </row>
     <row r="398">
       <c r="AL398" s="25"/>
@@ -21638,6 +22260,7 @@
       <c r="AX398" s="25"/>
       <c r="AY398" s="25"/>
       <c r="AZ398" s="25"/>
+      <c r="BA398" s="25"/>
     </row>
     <row r="399">
       <c r="AL399" s="25"/>
@@ -21655,6 +22278,7 @@
       <c r="AX399" s="25"/>
       <c r="AY399" s="25"/>
       <c r="AZ399" s="25"/>
+      <c r="BA399" s="25"/>
     </row>
     <row r="400">
       <c r="AL400" s="25"/>
@@ -21672,6 +22296,7 @@
       <c r="AX400" s="25"/>
       <c r="AY400" s="25"/>
       <c r="AZ400" s="25"/>
+      <c r="BA400" s="25"/>
     </row>
     <row r="401">
       <c r="AL401" s="25"/>
@@ -21689,6 +22314,7 @@
       <c r="AX401" s="25"/>
       <c r="AY401" s="25"/>
       <c r="AZ401" s="25"/>
+      <c r="BA401" s="25"/>
     </row>
     <row r="402">
       <c r="AL402" s="25"/>
@@ -21706,6 +22332,7 @@
       <c r="AX402" s="25"/>
       <c r="AY402" s="25"/>
       <c r="AZ402" s="25"/>
+      <c r="BA402" s="25"/>
     </row>
     <row r="403">
       <c r="AL403" s="25"/>
@@ -21723,6 +22350,7 @@
       <c r="AX403" s="25"/>
       <c r="AY403" s="25"/>
       <c r="AZ403" s="25"/>
+      <c r="BA403" s="25"/>
     </row>
     <row r="404">
       <c r="AL404" s="25"/>
@@ -21740,6 +22368,7 @@
       <c r="AX404" s="25"/>
       <c r="AY404" s="25"/>
       <c r="AZ404" s="25"/>
+      <c r="BA404" s="25"/>
     </row>
     <row r="405">
       <c r="AL405" s="25"/>
@@ -21757,6 +22386,7 @@
       <c r="AX405" s="25"/>
       <c r="AY405" s="25"/>
       <c r="AZ405" s="25"/>
+      <c r="BA405" s="25"/>
     </row>
     <row r="406">
       <c r="AL406" s="25"/>
@@ -21774,6 +22404,7 @@
       <c r="AX406" s="25"/>
       <c r="AY406" s="25"/>
       <c r="AZ406" s="25"/>
+      <c r="BA406" s="25"/>
     </row>
     <row r="407">
       <c r="AL407" s="25"/>
@@ -21791,6 +22422,7 @@
       <c r="AX407" s="25"/>
       <c r="AY407" s="25"/>
       <c r="AZ407" s="25"/>
+      <c r="BA407" s="25"/>
     </row>
     <row r="408">
       <c r="AL408" s="25"/>
@@ -21808,6 +22440,7 @@
       <c r="AX408" s="25"/>
       <c r="AY408" s="25"/>
       <c r="AZ408" s="25"/>
+      <c r="BA408" s="25"/>
     </row>
     <row r="409">
       <c r="AL409" s="25"/>
@@ -21825,6 +22458,7 @@
       <c r="AX409" s="25"/>
       <c r="AY409" s="25"/>
       <c r="AZ409" s="25"/>
+      <c r="BA409" s="25"/>
     </row>
     <row r="410">
       <c r="AL410" s="25"/>
@@ -21842,6 +22476,7 @@
       <c r="AX410" s="25"/>
       <c r="AY410" s="25"/>
       <c r="AZ410" s="25"/>
+      <c r="BA410" s="25"/>
     </row>
     <row r="411">
       <c r="AL411" s="25"/>
@@ -21859,6 +22494,7 @@
       <c r="AX411" s="25"/>
       <c r="AY411" s="25"/>
       <c r="AZ411" s="25"/>
+      <c r="BA411" s="25"/>
     </row>
     <row r="412">
       <c r="AL412" s="25"/>
@@ -21876,6 +22512,7 @@
       <c r="AX412" s="25"/>
       <c r="AY412" s="25"/>
       <c r="AZ412" s="25"/>
+      <c r="BA412" s="25"/>
     </row>
     <row r="413">
       <c r="AL413" s="25"/>
@@ -21893,6 +22530,7 @@
       <c r="AX413" s="25"/>
       <c r="AY413" s="25"/>
       <c r="AZ413" s="25"/>
+      <c r="BA413" s="25"/>
     </row>
     <row r="414">
       <c r="AL414" s="25"/>
@@ -21910,6 +22548,7 @@
       <c r="AX414" s="25"/>
       <c r="AY414" s="25"/>
       <c r="AZ414" s="25"/>
+      <c r="BA414" s="25"/>
     </row>
     <row r="415">
       <c r="AL415" s="25"/>
@@ -21927,6 +22566,7 @@
       <c r="AX415" s="25"/>
       <c r="AY415" s="25"/>
       <c r="AZ415" s="25"/>
+      <c r="BA415" s="25"/>
     </row>
     <row r="416">
       <c r="AL416" s="25"/>
@@ -21944,6 +22584,7 @@
       <c r="AX416" s="25"/>
       <c r="AY416" s="25"/>
       <c r="AZ416" s="25"/>
+      <c r="BA416" s="25"/>
     </row>
     <row r="417">
       <c r="AL417" s="25"/>
@@ -21961,6 +22602,7 @@
       <c r="AX417" s="25"/>
       <c r="AY417" s="25"/>
       <c r="AZ417" s="25"/>
+      <c r="BA417" s="25"/>
     </row>
     <row r="418">
       <c r="AL418" s="25"/>
@@ -21978,6 +22620,7 @@
       <c r="AX418" s="25"/>
       <c r="AY418" s="25"/>
       <c r="AZ418" s="25"/>
+      <c r="BA418" s="25"/>
     </row>
     <row r="419">
       <c r="AL419" s="25"/>
@@ -21995,6 +22638,7 @@
       <c r="AX419" s="25"/>
       <c r="AY419" s="25"/>
       <c r="AZ419" s="25"/>
+      <c r="BA419" s="25"/>
     </row>
     <row r="420">
       <c r="AL420" s="25"/>
@@ -22012,6 +22656,7 @@
       <c r="AX420" s="25"/>
       <c r="AY420" s="25"/>
       <c r="AZ420" s="25"/>
+      <c r="BA420" s="25"/>
     </row>
     <row r="421">
       <c r="AL421" s="25"/>
@@ -22029,6 +22674,7 @@
       <c r="AX421" s="25"/>
       <c r="AY421" s="25"/>
       <c r="AZ421" s="25"/>
+      <c r="BA421" s="25"/>
     </row>
     <row r="422">
       <c r="AL422" s="25"/>
@@ -22046,6 +22692,7 @@
       <c r="AX422" s="25"/>
       <c r="AY422" s="25"/>
       <c r="AZ422" s="25"/>
+      <c r="BA422" s="25"/>
     </row>
     <row r="423">
       <c r="AL423" s="25"/>
@@ -22063,6 +22710,7 @@
       <c r="AX423" s="25"/>
       <c r="AY423" s="25"/>
       <c r="AZ423" s="25"/>
+      <c r="BA423" s="25"/>
     </row>
     <row r="424">
       <c r="AL424" s="25"/>
@@ -22080,6 +22728,7 @@
       <c r="AX424" s="25"/>
       <c r="AY424" s="25"/>
       <c r="AZ424" s="25"/>
+      <c r="BA424" s="25"/>
     </row>
     <row r="425">
       <c r="AL425" s="25"/>
@@ -22097,6 +22746,7 @@
       <c r="AX425" s="25"/>
       <c r="AY425" s="25"/>
       <c r="AZ425" s="25"/>
+      <c r="BA425" s="25"/>
     </row>
     <row r="426">
       <c r="AL426" s="25"/>
@@ -22114,6 +22764,7 @@
       <c r="AX426" s="25"/>
       <c r="AY426" s="25"/>
       <c r="AZ426" s="25"/>
+      <c r="BA426" s="25"/>
     </row>
     <row r="427">
       <c r="AL427" s="25"/>
@@ -22131,6 +22782,7 @@
       <c r="AX427" s="25"/>
       <c r="AY427" s="25"/>
       <c r="AZ427" s="25"/>
+      <c r="BA427" s="25"/>
     </row>
     <row r="428">
       <c r="AL428" s="25"/>
@@ -22148,6 +22800,7 @@
       <c r="AX428" s="25"/>
       <c r="AY428" s="25"/>
       <c r="AZ428" s="25"/>
+      <c r="BA428" s="25"/>
     </row>
     <row r="429">
       <c r="AL429" s="25"/>
@@ -22165,6 +22818,7 @@
       <c r="AX429" s="25"/>
       <c r="AY429" s="25"/>
       <c r="AZ429" s="25"/>
+      <c r="BA429" s="25"/>
     </row>
     <row r="430">
       <c r="AL430" s="25"/>
@@ -22182,6 +22836,7 @@
       <c r="AX430" s="25"/>
       <c r="AY430" s="25"/>
       <c r="AZ430" s="25"/>
+      <c r="BA430" s="25"/>
     </row>
     <row r="431">
       <c r="AL431" s="25"/>
@@ -22199,6 +22854,7 @@
       <c r="AX431" s="25"/>
       <c r="AY431" s="25"/>
       <c r="AZ431" s="25"/>
+      <c r="BA431" s="25"/>
     </row>
     <row r="432">
       <c r="AL432" s="25"/>
@@ -22216,6 +22872,7 @@
       <c r="AX432" s="25"/>
       <c r="AY432" s="25"/>
       <c r="AZ432" s="25"/>
+      <c r="BA432" s="25"/>
     </row>
     <row r="433">
       <c r="AL433" s="25"/>
@@ -22233,6 +22890,7 @@
       <c r="AX433" s="25"/>
       <c r="AY433" s="25"/>
       <c r="AZ433" s="25"/>
+      <c r="BA433" s="25"/>
     </row>
     <row r="434">
       <c r="AL434" s="25"/>
@@ -22250,6 +22908,7 @@
       <c r="AX434" s="25"/>
       <c r="AY434" s="25"/>
       <c r="AZ434" s="25"/>
+      <c r="BA434" s="25"/>
     </row>
     <row r="435">
       <c r="AL435" s="25"/>
@@ -22267,6 +22926,7 @@
       <c r="AX435" s="25"/>
       <c r="AY435" s="25"/>
       <c r="AZ435" s="25"/>
+      <c r="BA435" s="25"/>
     </row>
     <row r="436">
       <c r="AL436" s="25"/>
@@ -22284,6 +22944,7 @@
       <c r="AX436" s="25"/>
       <c r="AY436" s="25"/>
       <c r="AZ436" s="25"/>
+      <c r="BA436" s="25"/>
     </row>
     <row r="437">
       <c r="AL437" s="25"/>
@@ -22301,6 +22962,7 @@
       <c r="AX437" s="25"/>
       <c r="AY437" s="25"/>
       <c r="AZ437" s="25"/>
+      <c r="BA437" s="25"/>
     </row>
     <row r="438">
       <c r="AL438" s="25"/>
@@ -22318,6 +22980,7 @@
       <c r="AX438" s="25"/>
       <c r="AY438" s="25"/>
       <c r="AZ438" s="25"/>
+      <c r="BA438" s="25"/>
     </row>
     <row r="439">
       <c r="AL439" s="25"/>
@@ -22335,6 +22998,7 @@
       <c r="AX439" s="25"/>
       <c r="AY439" s="25"/>
       <c r="AZ439" s="25"/>
+      <c r="BA439" s="25"/>
     </row>
     <row r="440">
       <c r="AL440" s="25"/>
@@ -22352,6 +23016,7 @@
       <c r="AX440" s="25"/>
       <c r="AY440" s="25"/>
       <c r="AZ440" s="25"/>
+      <c r="BA440" s="25"/>
     </row>
     <row r="441">
       <c r="AL441" s="25"/>
@@ -22369,6 +23034,7 @@
       <c r="AX441" s="25"/>
       <c r="AY441" s="25"/>
       <c r="AZ441" s="25"/>
+      <c r="BA441" s="25"/>
     </row>
     <row r="442">
       <c r="AL442" s="25"/>
@@ -22386,6 +23052,7 @@
       <c r="AX442" s="25"/>
       <c r="AY442" s="25"/>
       <c r="AZ442" s="25"/>
+      <c r="BA442" s="25"/>
     </row>
     <row r="443">
       <c r="AL443" s="25"/>
@@ -22403,6 +23070,7 @@
       <c r="AX443" s="25"/>
       <c r="AY443" s="25"/>
       <c r="AZ443" s="25"/>
+      <c r="BA443" s="25"/>
     </row>
     <row r="444">
       <c r="AL444" s="25"/>
@@ -22420,6 +23088,7 @@
       <c r="AX444" s="25"/>
       <c r="AY444" s="25"/>
       <c r="AZ444" s="25"/>
+      <c r="BA444" s="25"/>
     </row>
     <row r="445">
       <c r="AL445" s="25"/>
@@ -22437,6 +23106,7 @@
       <c r="AX445" s="25"/>
       <c r="AY445" s="25"/>
       <c r="AZ445" s="25"/>
+      <c r="BA445" s="25"/>
     </row>
     <row r="446">
       <c r="AL446" s="25"/>
@@ -22454,6 +23124,7 @@
       <c r="AX446" s="25"/>
       <c r="AY446" s="25"/>
       <c r="AZ446" s="25"/>
+      <c r="BA446" s="25"/>
     </row>
     <row r="447">
       <c r="AL447" s="25"/>
@@ -22471,6 +23142,7 @@
       <c r="AX447" s="25"/>
       <c r="AY447" s="25"/>
       <c r="AZ447" s="25"/>
+      <c r="BA447" s="25"/>
     </row>
     <row r="448">
       <c r="AL448" s="25"/>
@@ -22488,6 +23160,7 @@
       <c r="AX448" s="25"/>
       <c r="AY448" s="25"/>
       <c r="AZ448" s="25"/>
+      <c r="BA448" s="25"/>
     </row>
     <row r="449">
       <c r="AL449" s="25"/>
@@ -22505,6 +23178,7 @@
       <c r="AX449" s="25"/>
       <c r="AY449" s="25"/>
       <c r="AZ449" s="25"/>
+      <c r="BA449" s="25"/>
     </row>
     <row r="450">
       <c r="AL450" s="25"/>
@@ -22522,6 +23196,7 @@
       <c r="AX450" s="25"/>
       <c r="AY450" s="25"/>
       <c r="AZ450" s="25"/>
+      <c r="BA450" s="25"/>
     </row>
     <row r="451">
       <c r="AL451" s="25"/>
@@ -22539,6 +23214,7 @@
       <c r="AX451" s="25"/>
       <c r="AY451" s="25"/>
       <c r="AZ451" s="25"/>
+      <c r="BA451" s="25"/>
     </row>
     <row r="452">
       <c r="AL452" s="25"/>
@@ -22556,6 +23232,7 @@
       <c r="AX452" s="25"/>
       <c r="AY452" s="25"/>
       <c r="AZ452" s="25"/>
+      <c r="BA452" s="25"/>
     </row>
     <row r="453">
       <c r="AL453" s="25"/>
@@ -22573,6 +23250,7 @@
       <c r="AX453" s="25"/>
       <c r="AY453" s="25"/>
       <c r="AZ453" s="25"/>
+      <c r="BA453" s="25"/>
     </row>
     <row r="454">
       <c r="AL454" s="25"/>
@@ -22590,6 +23268,7 @@
       <c r="AX454" s="25"/>
       <c r="AY454" s="25"/>
       <c r="AZ454" s="25"/>
+      <c r="BA454" s="25"/>
     </row>
     <row r="455">
       <c r="AL455" s="25"/>
@@ -22607,6 +23286,7 @@
       <c r="AX455" s="25"/>
       <c r="AY455" s="25"/>
       <c r="AZ455" s="25"/>
+      <c r="BA455" s="25"/>
     </row>
     <row r="456">
       <c r="AL456" s="25"/>
@@ -22624,6 +23304,7 @@
       <c r="AX456" s="25"/>
       <c r="AY456" s="25"/>
       <c r="AZ456" s="25"/>
+      <c r="BA456" s="25"/>
     </row>
     <row r="457">
       <c r="AL457" s="25"/>
@@ -22641,6 +23322,7 @@
       <c r="AX457" s="25"/>
       <c r="AY457" s="25"/>
       <c r="AZ457" s="25"/>
+      <c r="BA457" s="25"/>
     </row>
     <row r="458">
       <c r="AL458" s="25"/>
@@ -22658,6 +23340,7 @@
       <c r="AX458" s="25"/>
       <c r="AY458" s="25"/>
       <c r="AZ458" s="25"/>
+      <c r="BA458" s="25"/>
     </row>
     <row r="459">
       <c r="AL459" s="25"/>
@@ -22675,6 +23358,7 @@
       <c r="AX459" s="25"/>
       <c r="AY459" s="25"/>
       <c r="AZ459" s="25"/>
+      <c r="BA459" s="25"/>
     </row>
     <row r="460">
       <c r="AL460" s="25"/>
@@ -22692,6 +23376,7 @@
       <c r="AX460" s="25"/>
       <c r="AY460" s="25"/>
       <c r="AZ460" s="25"/>
+      <c r="BA460" s="25"/>
     </row>
     <row r="461">
       <c r="AL461" s="25"/>
@@ -22709,6 +23394,7 @@
       <c r="AX461" s="25"/>
       <c r="AY461" s="25"/>
       <c r="AZ461" s="25"/>
+      <c r="BA461" s="25"/>
     </row>
     <row r="462">
       <c r="AL462" s="25"/>
@@ -22726,6 +23412,7 @@
       <c r="AX462" s="25"/>
       <c r="AY462" s="25"/>
       <c r="AZ462" s="25"/>
+      <c r="BA462" s="25"/>
     </row>
     <row r="463">
       <c r="AL463" s="25"/>
@@ -22743,6 +23430,7 @@
       <c r="AX463" s="25"/>
       <c r="AY463" s="25"/>
       <c r="AZ463" s="25"/>
+      <c r="BA463" s="25"/>
     </row>
     <row r="464">
       <c r="AL464" s="25"/>
@@ -22760,6 +23448,7 @@
       <c r="AX464" s="25"/>
       <c r="AY464" s="25"/>
       <c r="AZ464" s="25"/>
+      <c r="BA464" s="25"/>
     </row>
     <row r="465">
       <c r="AL465" s="25"/>
@@ -22777,6 +23466,7 @@
       <c r="AX465" s="25"/>
       <c r="AY465" s="25"/>
       <c r="AZ465" s="25"/>
+      <c r="BA465" s="25"/>
     </row>
     <row r="466">
       <c r="AL466" s="25"/>
@@ -22794,6 +23484,7 @@
       <c r="AX466" s="25"/>
       <c r="AY466" s="25"/>
       <c r="AZ466" s="25"/>
+      <c r="BA466" s="25"/>
     </row>
     <row r="467">
       <c r="AL467" s="25"/>
@@ -22811,6 +23502,7 @@
       <c r="AX467" s="25"/>
       <c r="AY467" s="25"/>
       <c r="AZ467" s="25"/>
+      <c r="BA467" s="25"/>
     </row>
     <row r="468">
       <c r="AL468" s="25"/>
@@ -22828,6 +23520,7 @@
       <c r="AX468" s="25"/>
       <c r="AY468" s="25"/>
       <c r="AZ468" s="25"/>
+      <c r="BA468" s="25"/>
     </row>
     <row r="469">
       <c r="AL469" s="25"/>
@@ -22845,6 +23538,7 @@
       <c r="AX469" s="25"/>
       <c r="AY469" s="25"/>
       <c r="AZ469" s="25"/>
+      <c r="BA469" s="25"/>
     </row>
     <row r="470">
       <c r="AL470" s="25"/>
@@ -22862,6 +23556,7 @@
       <c r="AX470" s="25"/>
       <c r="AY470" s="25"/>
       <c r="AZ470" s="25"/>
+      <c r="BA470" s="25"/>
     </row>
     <row r="471">
       <c r="AL471" s="25"/>
@@ -22879,6 +23574,7 @@
       <c r="AX471" s="25"/>
       <c r="AY471" s="25"/>
       <c r="AZ471" s="25"/>
+      <c r="BA471" s="25"/>
     </row>
     <row r="472">
       <c r="AL472" s="25"/>
@@ -22896,6 +23592,7 @@
       <c r="AX472" s="25"/>
       <c r="AY472" s="25"/>
       <c r="AZ472" s="25"/>
+      <c r="BA472" s="25"/>
     </row>
     <row r="473">
       <c r="AL473" s="25"/>
@@ -22913,6 +23610,7 @@
       <c r="AX473" s="25"/>
       <c r="AY473" s="25"/>
       <c r="AZ473" s="25"/>
+      <c r="BA473" s="25"/>
     </row>
     <row r="474">
       <c r="AL474" s="25"/>
@@ -22930,6 +23628,7 @@
       <c r="AX474" s="25"/>
       <c r="AY474" s="25"/>
       <c r="AZ474" s="25"/>
+      <c r="BA474" s="25"/>
     </row>
     <row r="475">
       <c r="AL475" s="25"/>
@@ -22947,6 +23646,7 @@
       <c r="AX475" s="25"/>
       <c r="AY475" s="25"/>
       <c r="AZ475" s="25"/>
+      <c r="BA475" s="25"/>
     </row>
     <row r="476">
       <c r="AL476" s="25"/>
@@ -22964,6 +23664,7 @@
       <c r="AX476" s="25"/>
       <c r="AY476" s="25"/>
       <c r="AZ476" s="25"/>
+      <c r="BA476" s="25"/>
     </row>
     <row r="477">
       <c r="AL477" s="25"/>
@@ -22981,6 +23682,7 @@
       <c r="AX477" s="25"/>
       <c r="AY477" s="25"/>
       <c r="AZ477" s="25"/>
+      <c r="BA477" s="25"/>
     </row>
     <row r="478">
       <c r="AL478" s="25"/>
@@ -22998,6 +23700,7 @@
       <c r="AX478" s="25"/>
       <c r="AY478" s="25"/>
       <c r="AZ478" s="25"/>
+      <c r="BA478" s="25"/>
     </row>
     <row r="479">
       <c r="AL479" s="25"/>
@@ -23015,6 +23718,7 @@
       <c r="AX479" s="25"/>
       <c r="AY479" s="25"/>
       <c r="AZ479" s="25"/>
+      <c r="BA479" s="25"/>
     </row>
     <row r="480">
       <c r="AL480" s="25"/>
@@ -23032,6 +23736,7 @@
       <c r="AX480" s="25"/>
       <c r="AY480" s="25"/>
       <c r="AZ480" s="25"/>
+      <c r="BA480" s="25"/>
     </row>
     <row r="481">
       <c r="AL481" s="25"/>
@@ -23049,6 +23754,7 @@
       <c r="AX481" s="25"/>
       <c r="AY481" s="25"/>
       <c r="AZ481" s="25"/>
+      <c r="BA481" s="25"/>
     </row>
     <row r="482">
       <c r="AL482" s="25"/>
@@ -23066,6 +23772,7 @@
       <c r="AX482" s="25"/>
       <c r="AY482" s="25"/>
       <c r="AZ482" s="25"/>
+      <c r="BA482" s="25"/>
     </row>
     <row r="483">
       <c r="AL483" s="25"/>
@@ -23083,6 +23790,7 @@
       <c r="AX483" s="25"/>
       <c r="AY483" s="25"/>
       <c r="AZ483" s="25"/>
+      <c r="BA483" s="25"/>
     </row>
     <row r="484">
       <c r="AL484" s="25"/>
@@ -23100,6 +23808,7 @@
       <c r="AX484" s="25"/>
       <c r="AY484" s="25"/>
       <c r="AZ484" s="25"/>
+      <c r="BA484" s="25"/>
     </row>
     <row r="485">
       <c r="AL485" s="25"/>
@@ -23117,6 +23826,7 @@
       <c r="AX485" s="25"/>
       <c r="AY485" s="25"/>
       <c r="AZ485" s="25"/>
+      <c r="BA485" s="25"/>
     </row>
     <row r="486">
       <c r="AL486" s="25"/>
@@ -23134,6 +23844,7 @@
       <c r="AX486" s="25"/>
       <c r="AY486" s="25"/>
       <c r="AZ486" s="25"/>
+      <c r="BA486" s="25"/>
     </row>
     <row r="487">
       <c r="AL487" s="25"/>
@@ -23151,6 +23862,7 @@
       <c r="AX487" s="25"/>
       <c r="AY487" s="25"/>
       <c r="AZ487" s="25"/>
+      <c r="BA487" s="25"/>
     </row>
     <row r="488">
       <c r="AL488" s="25"/>
@@ -23168,6 +23880,7 @@
       <c r="AX488" s="25"/>
       <c r="AY488" s="25"/>
       <c r="AZ488" s="25"/>
+      <c r="BA488" s="25"/>
     </row>
     <row r="489">
       <c r="AL489" s="25"/>
@@ -23185,6 +23898,7 @@
       <c r="AX489" s="25"/>
       <c r="AY489" s="25"/>
       <c r="AZ489" s="25"/>
+      <c r="BA489" s="25"/>
     </row>
     <row r="490">
       <c r="AL490" s="25"/>
@@ -23202,6 +23916,7 @@
       <c r="AX490" s="25"/>
       <c r="AY490" s="25"/>
       <c r="AZ490" s="25"/>
+      <c r="BA490" s="25"/>
     </row>
     <row r="491">
       <c r="AL491" s="25"/>
@@ -23219,6 +23934,7 @@
       <c r="AX491" s="25"/>
       <c r="AY491" s="25"/>
       <c r="AZ491" s="25"/>
+      <c r="BA491" s="25"/>
     </row>
     <row r="492">
       <c r="AL492" s="25"/>
@@ -23236,6 +23952,7 @@
       <c r="AX492" s="25"/>
       <c r="AY492" s="25"/>
       <c r="AZ492" s="25"/>
+      <c r="BA492" s="25"/>
     </row>
     <row r="493">
       <c r="AL493" s="25"/>
@@ -23253,6 +23970,7 @@
       <c r="AX493" s="25"/>
       <c r="AY493" s="25"/>
       <c r="AZ493" s="25"/>
+      <c r="BA493" s="25"/>
     </row>
     <row r="494">
       <c r="AL494" s="25"/>
@@ -23270,6 +23988,7 @@
       <c r="AX494" s="25"/>
       <c r="AY494" s="25"/>
       <c r="AZ494" s="25"/>
+      <c r="BA494" s="25"/>
     </row>
     <row r="495">
       <c r="AL495" s="25"/>
@@ -23287,6 +24006,7 @@
       <c r="AX495" s="25"/>
       <c r="AY495" s="25"/>
       <c r="AZ495" s="25"/>
+      <c r="BA495" s="25"/>
     </row>
     <row r="496">
       <c r="AL496" s="25"/>
@@ -23304,6 +24024,7 @@
       <c r="AX496" s="25"/>
       <c r="AY496" s="25"/>
       <c r="AZ496" s="25"/>
+      <c r="BA496" s="25"/>
     </row>
     <row r="497">
       <c r="AL497" s="25"/>
@@ -23321,6 +24042,7 @@
       <c r="AX497" s="25"/>
       <c r="AY497" s="25"/>
       <c r="AZ497" s="25"/>
+      <c r="BA497" s="25"/>
     </row>
     <row r="498">
       <c r="AL498" s="25"/>
@@ -23338,6 +24060,7 @@
       <c r="AX498" s="25"/>
       <c r="AY498" s="25"/>
       <c r="AZ498" s="25"/>
+      <c r="BA498" s="25"/>
     </row>
     <row r="499">
       <c r="AL499" s="25"/>
@@ -23355,6 +24078,7 @@
       <c r="AX499" s="25"/>
       <c r="AY499" s="25"/>
       <c r="AZ499" s="25"/>
+      <c r="BA499" s="25"/>
     </row>
     <row r="500">
       <c r="AL500" s="25"/>
@@ -23372,6 +24096,7 @@
       <c r="AX500" s="25"/>
       <c r="AY500" s="25"/>
       <c r="AZ500" s="25"/>
+      <c r="BA500" s="25"/>
     </row>
     <row r="501">
       <c r="AL501" s="25"/>
@@ -23389,6 +24114,7 @@
       <c r="AX501" s="25"/>
       <c r="AY501" s="25"/>
       <c r="AZ501" s="25"/>
+      <c r="BA501" s="25"/>
     </row>
     <row r="502">
       <c r="AL502" s="25"/>
@@ -23406,6 +24132,7 @@
       <c r="AX502" s="25"/>
       <c r="AY502" s="25"/>
       <c r="AZ502" s="25"/>
+      <c r="BA502" s="25"/>
     </row>
     <row r="503">
       <c r="AL503" s="25"/>
@@ -23423,6 +24150,7 @@
       <c r="AX503" s="25"/>
       <c r="AY503" s="25"/>
       <c r="AZ503" s="25"/>
+      <c r="BA503" s="25"/>
     </row>
     <row r="504">
       <c r="AL504" s="25"/>
@@ -23440,6 +24168,7 @@
       <c r="AX504" s="25"/>
       <c r="AY504" s="25"/>
       <c r="AZ504" s="25"/>
+      <c r="BA504" s="25"/>
     </row>
     <row r="505">
       <c r="AL505" s="25"/>
@@ -23457,6 +24186,7 @@
       <c r="AX505" s="25"/>
       <c r="AY505" s="25"/>
       <c r="AZ505" s="25"/>
+      <c r="BA505" s="25"/>
     </row>
     <row r="506">
       <c r="AL506" s="25"/>
@@ -23474,6 +24204,7 @@
       <c r="AX506" s="25"/>
       <c r="AY506" s="25"/>
       <c r="AZ506" s="25"/>
+      <c r="BA506" s="25"/>
     </row>
     <row r="507">
       <c r="AL507" s="25"/>
@@ -23491,6 +24222,7 @@
       <c r="AX507" s="25"/>
       <c r="AY507" s="25"/>
       <c r="AZ507" s="25"/>
+      <c r="BA507" s="25"/>
     </row>
     <row r="508">
       <c r="AL508" s="25"/>
@@ -23508,6 +24240,7 @@
       <c r="AX508" s="25"/>
       <c r="AY508" s="25"/>
       <c r="AZ508" s="25"/>
+      <c r="BA508" s="25"/>
     </row>
     <row r="509">
       <c r="AL509" s="25"/>
@@ -23525,6 +24258,7 @@
       <c r="AX509" s="25"/>
       <c r="AY509" s="25"/>
       <c r="AZ509" s="25"/>
+      <c r="BA509" s="25"/>
     </row>
     <row r="510">
       <c r="AL510" s="25"/>
@@ -23542,6 +24276,7 @@
       <c r="AX510" s="25"/>
       <c r="AY510" s="25"/>
       <c r="AZ510" s="25"/>
+      <c r="BA510" s="25"/>
     </row>
     <row r="511">
       <c r="AL511" s="25"/>
@@ -23559,6 +24294,7 @@
       <c r="AX511" s="25"/>
       <c r="AY511" s="25"/>
       <c r="AZ511" s="25"/>
+      <c r="BA511" s="25"/>
     </row>
     <row r="512">
       <c r="AL512" s="25"/>
@@ -23576,6 +24312,7 @@
       <c r="AX512" s="25"/>
       <c r="AY512" s="25"/>
       <c r="AZ512" s="25"/>
+      <c r="BA512" s="25"/>
     </row>
     <row r="513">
       <c r="AL513" s="25"/>
@@ -23593,6 +24330,7 @@
       <c r="AX513" s="25"/>
       <c r="AY513" s="25"/>
       <c r="AZ513" s="25"/>
+      <c r="BA513" s="25"/>
     </row>
     <row r="514">
       <c r="AL514" s="25"/>
@@ -23610,6 +24348,7 @@
       <c r="AX514" s="25"/>
       <c r="AY514" s="25"/>
       <c r="AZ514" s="25"/>
+      <c r="BA514" s="25"/>
     </row>
     <row r="515">
       <c r="AL515" s="25"/>
@@ -23627,6 +24366,7 @@
       <c r="AX515" s="25"/>
       <c r="AY515" s="25"/>
       <c r="AZ515" s="25"/>
+      <c r="BA515" s="25"/>
     </row>
     <row r="516">
       <c r="AL516" s="25"/>
@@ -23644,6 +24384,7 @@
       <c r="AX516" s="25"/>
       <c r="AY516" s="25"/>
       <c r="AZ516" s="25"/>
+      <c r="BA516" s="25"/>
     </row>
     <row r="517">
       <c r="AL517" s="25"/>
@@ -23661,6 +24402,7 @@
       <c r="AX517" s="25"/>
       <c r="AY517" s="25"/>
       <c r="AZ517" s="25"/>
+      <c r="BA517" s="25"/>
     </row>
     <row r="518">
       <c r="AL518" s="25"/>
@@ -23678,6 +24420,7 @@
       <c r="AX518" s="25"/>
       <c r="AY518" s="25"/>
       <c r="AZ518" s="25"/>
+      <c r="BA518" s="25"/>
     </row>
     <row r="519">
       <c r="AL519" s="25"/>
@@ -23695,6 +24438,7 @@
       <c r="AX519" s="25"/>
       <c r="AY519" s="25"/>
       <c r="AZ519" s="25"/>
+      <c r="BA519" s="25"/>
     </row>
     <row r="520">
       <c r="AL520" s="25"/>
@@ -23712,6 +24456,7 @@
       <c r="AX520" s="25"/>
       <c r="AY520" s="25"/>
       <c r="AZ520" s="25"/>
+      <c r="BA520" s="25"/>
     </row>
     <row r="521">
       <c r="AL521" s="25"/>
@@ -23729,6 +24474,7 @@
       <c r="AX521" s="25"/>
       <c r="AY521" s="25"/>
       <c r="AZ521" s="25"/>
+      <c r="BA521" s="25"/>
     </row>
     <row r="522">
       <c r="AL522" s="25"/>
@@ -23746,6 +24492,7 @@
       <c r="AX522" s="25"/>
       <c r="AY522" s="25"/>
       <c r="AZ522" s="25"/>
+      <c r="BA522" s="25"/>
     </row>
     <row r="523">
       <c r="AL523" s="25"/>
@@ -23763,6 +24510,7 @@
       <c r="AX523" s="25"/>
       <c r="AY523" s="25"/>
       <c r="AZ523" s="25"/>
+      <c r="BA523" s="25"/>
     </row>
     <row r="524">
       <c r="AL524" s="25"/>
@@ -23780,6 +24528,7 @@
       <c r="AX524" s="25"/>
       <c r="AY524" s="25"/>
       <c r="AZ524" s="25"/>
+      <c r="BA524" s="25"/>
     </row>
     <row r="525">
       <c r="AL525" s="25"/>
@@ -23797,6 +24546,7 @@
       <c r="AX525" s="25"/>
       <c r="AY525" s="25"/>
       <c r="AZ525" s="25"/>
+      <c r="BA525" s="25"/>
     </row>
     <row r="526">
       <c r="AL526" s="25"/>
@@ -23814,6 +24564,7 @@
       <c r="AX526" s="25"/>
       <c r="AY526" s="25"/>
       <c r="AZ526" s="25"/>
+      <c r="BA526" s="25"/>
     </row>
     <row r="527">
       <c r="AL527" s="25"/>
@@ -23831,6 +24582,7 @@
       <c r="AX527" s="25"/>
       <c r="AY527" s="25"/>
       <c r="AZ527" s="25"/>
+      <c r="BA527" s="25"/>
     </row>
     <row r="528">
       <c r="AL528" s="25"/>
@@ -23848,6 +24600,7 @@
       <c r="AX528" s="25"/>
       <c r="AY528" s="25"/>
       <c r="AZ528" s="25"/>
+      <c r="BA528" s="25"/>
     </row>
     <row r="529">
       <c r="AL529" s="25"/>
@@ -23865,6 +24618,7 @@
       <c r="AX529" s="25"/>
       <c r="AY529" s="25"/>
       <c r="AZ529" s="25"/>
+      <c r="BA529" s="25"/>
     </row>
     <row r="530">
       <c r="AL530" s="25"/>
@@ -23882,6 +24636,7 @@
       <c r="AX530" s="25"/>
       <c r="AY530" s="25"/>
       <c r="AZ530" s="25"/>
+      <c r="BA530" s="25"/>
     </row>
     <row r="531">
       <c r="AL531" s="25"/>
@@ -23899,6 +24654,7 @@
       <c r="AX531" s="25"/>
       <c r="AY531" s="25"/>
       <c r="AZ531" s="25"/>
+      <c r="BA531" s="25"/>
     </row>
     <row r="532">
       <c r="AL532" s="25"/>
@@ -23916,6 +24672,7 @@
       <c r="AX532" s="25"/>
       <c r="AY532" s="25"/>
       <c r="AZ532" s="25"/>
+      <c r="BA532" s="25"/>
     </row>
     <row r="533">
       <c r="AL533" s="25"/>
@@ -23933,6 +24690,7 @@
       <c r="AX533" s="25"/>
       <c r="AY533" s="25"/>
       <c r="AZ533" s="25"/>
+      <c r="BA533" s="25"/>
     </row>
     <row r="534">
       <c r="AL534" s="25"/>
@@ -23950,6 +24708,7 @@
       <c r="AX534" s="25"/>
       <c r="AY534" s="25"/>
       <c r="AZ534" s="25"/>
+      <c r="BA534" s="25"/>
     </row>
     <row r="535">
       <c r="AL535" s="25"/>
@@ -23967,6 +24726,7 @@
       <c r="AX535" s="25"/>
       <c r="AY535" s="25"/>
       <c r="AZ535" s="25"/>
+      <c r="BA535" s="25"/>
     </row>
     <row r="536">
       <c r="AL536" s="25"/>
@@ -23984,6 +24744,7 @@
       <c r="AX536" s="25"/>
       <c r="AY536" s="25"/>
       <c r="AZ536" s="25"/>
+      <c r="BA536" s="25"/>
     </row>
     <row r="537">
       <c r="AL537" s="25"/>
@@ -24001,6 +24762,7 @@
       <c r="AX537" s="25"/>
       <c r="AY537" s="25"/>
       <c r="AZ537" s="25"/>
+      <c r="BA537" s="25"/>
     </row>
     <row r="538">
       <c r="AL538" s="25"/>
@@ -24018,6 +24780,7 @@
       <c r="AX538" s="25"/>
       <c r="AY538" s="25"/>
       <c r="AZ538" s="25"/>
+      <c r="BA538" s="25"/>
     </row>
     <row r="539">
       <c r="AL539" s="25"/>
@@ -24035,6 +24798,7 @@
       <c r="AX539" s="25"/>
       <c r="AY539" s="25"/>
       <c r="AZ539" s="25"/>
+      <c r="BA539" s="25"/>
     </row>
     <row r="540">
       <c r="AL540" s="25"/>
@@ -24052,6 +24816,7 @@
       <c r="AX540" s="25"/>
       <c r="AY540" s="25"/>
       <c r="AZ540" s="25"/>
+      <c r="BA540" s="25"/>
     </row>
     <row r="541">
       <c r="AL541" s="25"/>
@@ -24069,6 +24834,7 @@
       <c r="AX541" s="25"/>
       <c r="AY541" s="25"/>
       <c r="AZ541" s="25"/>
+      <c r="BA541" s="25"/>
     </row>
     <row r="542">
       <c r="AL542" s="25"/>
@@ -24086,6 +24852,7 @@
       <c r="AX542" s="25"/>
       <c r="AY542" s="25"/>
       <c r="AZ542" s="25"/>
+      <c r="BA542" s="25"/>
     </row>
     <row r="543">
       <c r="AL543" s="25"/>
@@ -24103,6 +24870,7 @@
       <c r="AX543" s="25"/>
       <c r="AY543" s="25"/>
       <c r="AZ543" s="25"/>
+      <c r="BA543" s="25"/>
     </row>
     <row r="544">
       <c r="AL544" s="25"/>
@@ -24120,6 +24888,7 @@
       <c r="AX544" s="25"/>
       <c r="AY544" s="25"/>
       <c r="AZ544" s="25"/>
+      <c r="BA544" s="25"/>
     </row>
     <row r="545">
       <c r="AL545" s="25"/>
@@ -24137,6 +24906,7 @@
       <c r="AX545" s="25"/>
       <c r="AY545" s="25"/>
       <c r="AZ545" s="25"/>
+      <c r="BA545" s="25"/>
     </row>
     <row r="546">
       <c r="AL546" s="25"/>
@@ -24154,6 +24924,7 @@
       <c r="AX546" s="25"/>
       <c r="AY546" s="25"/>
       <c r="AZ546" s="25"/>
+      <c r="BA546" s="25"/>
     </row>
     <row r="547">
       <c r="AL547" s="25"/>
@@ -24171,6 +24942,7 @@
       <c r="AX547" s="25"/>
       <c r="AY547" s="25"/>
       <c r="AZ547" s="25"/>
+      <c r="BA547" s="25"/>
     </row>
     <row r="548">
       <c r="AL548" s="25"/>
@@ -24188,6 +24960,7 @@
       <c r="AX548" s="25"/>
       <c r="AY548" s="25"/>
       <c r="AZ548" s="25"/>
+      <c r="BA548" s="25"/>
     </row>
     <row r="549">
       <c r="AL549" s="25"/>
@@ -24205,6 +24978,7 @@
       <c r="AX549" s="25"/>
       <c r="AY549" s="25"/>
       <c r="AZ549" s="25"/>
+      <c r="BA549" s="25"/>
     </row>
     <row r="550">
       <c r="AL550" s="25"/>
@@ -24222,6 +24996,7 @@
       <c r="AX550" s="25"/>
       <c r="AY550" s="25"/>
       <c r="AZ550" s="25"/>
+      <c r="BA550" s="25"/>
     </row>
     <row r="551">
       <c r="AL551" s="25"/>
@@ -24239,6 +25014,7 @@
       <c r="AX551" s="25"/>
       <c r="AY551" s="25"/>
       <c r="AZ551" s="25"/>
+      <c r="BA551" s="25"/>
     </row>
     <row r="552">
       <c r="AL552" s="25"/>
@@ -24256,6 +25032,7 @@
       <c r="AX552" s="25"/>
       <c r="AY552" s="25"/>
       <c r="AZ552" s="25"/>
+      <c r="BA552" s="25"/>
     </row>
     <row r="553">
       <c r="AL553" s="25"/>
@@ -24273,6 +25050,7 @@
       <c r="AX553" s="25"/>
       <c r="AY553" s="25"/>
       <c r="AZ553" s="25"/>
+      <c r="BA553" s="25"/>
     </row>
     <row r="554">
       <c r="AL554" s="25"/>
@@ -24290,6 +25068,7 @@
       <c r="AX554" s="25"/>
       <c r="AY554" s="25"/>
       <c r="AZ554" s="25"/>
+      <c r="BA554" s="25"/>
     </row>
     <row r="555">
       <c r="AL555" s="25"/>
@@ -24307,6 +25086,7 @@
       <c r="AX555" s="25"/>
       <c r="AY555" s="25"/>
       <c r="AZ555" s="25"/>
+      <c r="BA555" s="25"/>
     </row>
     <row r="556">
       <c r="AL556" s="25"/>
@@ -24324,6 +25104,7 @@
       <c r="AX556" s="25"/>
       <c r="AY556" s="25"/>
       <c r="AZ556" s="25"/>
+      <c r="BA556" s="25"/>
     </row>
     <row r="557">
       <c r="AL557" s="25"/>
@@ -24341,6 +25122,7 @@
       <c r="AX557" s="25"/>
       <c r="AY557" s="25"/>
       <c r="AZ557" s="25"/>
+      <c r="BA557" s="25"/>
     </row>
     <row r="558">
       <c r="AL558" s="25"/>
@@ -24358,6 +25140,7 @@
       <c r="AX558" s="25"/>
       <c r="AY558" s="25"/>
       <c r="AZ558" s="25"/>
+      <c r="BA558" s="25"/>
     </row>
     <row r="559">
       <c r="AL559" s="25"/>
@@ -24375,6 +25158,7 @@
       <c r="AX559" s="25"/>
       <c r="AY559" s="25"/>
       <c r="AZ559" s="25"/>
+      <c r="BA559" s="25"/>
     </row>
     <row r="560">
       <c r="AL560" s="25"/>
@@ -24392,6 +25176,7 @@
       <c r="AX560" s="25"/>
       <c r="AY560" s="25"/>
       <c r="AZ560" s="25"/>
+      <c r="BA560" s="25"/>
     </row>
     <row r="561">
       <c r="AL561" s="25"/>
@@ -24409,6 +25194,7 @@
       <c r="AX561" s="25"/>
       <c r="AY561" s="25"/>
       <c r="AZ561" s="25"/>
+      <c r="BA561" s="25"/>
     </row>
     <row r="562">
       <c r="AL562" s="25"/>
@@ -24426,6 +25212,7 @@
       <c r="AX562" s="25"/>
       <c r="AY562" s="25"/>
       <c r="AZ562" s="25"/>
+      <c r="BA562" s="25"/>
     </row>
     <row r="563">
       <c r="AL563" s="25"/>
@@ -24443,6 +25230,7 @@
       <c r="AX563" s="25"/>
       <c r="AY563" s="25"/>
       <c r="AZ563" s="25"/>
+      <c r="BA563" s="25"/>
     </row>
     <row r="564">
       <c r="AL564" s="25"/>
@@ -24460,6 +25248,7 @@
       <c r="AX564" s="25"/>
       <c r="AY564" s="25"/>
       <c r="AZ564" s="25"/>
+      <c r="BA564" s="25"/>
     </row>
     <row r="565">
       <c r="AL565" s="25"/>
@@ -24477,6 +25266,7 @@
       <c r="AX565" s="25"/>
       <c r="AY565" s="25"/>
       <c r="AZ565" s="25"/>
+      <c r="BA565" s="25"/>
     </row>
     <row r="566">
       <c r="AL566" s="25"/>
@@ -24494,6 +25284,7 @@
       <c r="AX566" s="25"/>
       <c r="AY566" s="25"/>
       <c r="AZ566" s="25"/>
+      <c r="BA566" s="25"/>
     </row>
     <row r="567">
       <c r="AL567" s="25"/>
@@ -24511,6 +25302,7 @@
       <c r="AX567" s="25"/>
       <c r="AY567" s="25"/>
       <c r="AZ567" s="25"/>
+      <c r="BA567" s="25"/>
     </row>
     <row r="568">
       <c r="AL568" s="25"/>
@@ -24528,6 +25320,7 @@
       <c r="AX568" s="25"/>
       <c r="AY568" s="25"/>
       <c r="AZ568" s="25"/>
+      <c r="BA568" s="25"/>
     </row>
     <row r="569">
       <c r="AL569" s="25"/>
@@ -24545,6 +25338,7 @@
       <c r="AX569" s="25"/>
       <c r="AY569" s="25"/>
       <c r="AZ569" s="25"/>
+      <c r="BA569" s="25"/>
     </row>
     <row r="570">
       <c r="AL570" s="25"/>
@@ -24562,6 +25356,7 @@
       <c r="AX570" s="25"/>
       <c r="AY570" s="25"/>
       <c r="AZ570" s="25"/>
+      <c r="BA570" s="25"/>
     </row>
     <row r="571">
       <c r="AL571" s="25"/>
@@ -24579,6 +25374,7 @@
       <c r="AX571" s="25"/>
       <c r="AY571" s="25"/>
       <c r="AZ571" s="25"/>
+      <c r="BA571" s="25"/>
     </row>
     <row r="572">
       <c r="AL572" s="25"/>
@@ -24596,6 +25392,7 @@
       <c r="AX572" s="25"/>
       <c r="AY572" s="25"/>
       <c r="AZ572" s="25"/>
+      <c r="BA572" s="25"/>
     </row>
     <row r="573">
       <c r="AL573" s="25"/>
@@ -24613,6 +25410,7 @@
       <c r="AX573" s="25"/>
       <c r="AY573" s="25"/>
       <c r="AZ573" s="25"/>
+      <c r="BA573" s="25"/>
     </row>
     <row r="574">
       <c r="AL574" s="25"/>
@@ -24630,6 +25428,7 @@
       <c r="AX574" s="25"/>
       <c r="AY574" s="25"/>
       <c r="AZ574" s="25"/>
+      <c r="BA574" s="25"/>
     </row>
     <row r="575">
       <c r="AL575" s="25"/>
@@ -24647,6 +25446,7 @@
       <c r="AX575" s="25"/>
       <c r="AY575" s="25"/>
       <c r="AZ575" s="25"/>
+      <c r="BA575" s="25"/>
     </row>
     <row r="576">
       <c r="AL576" s="25"/>
@@ -24664,6 +25464,7 @@
       <c r="AX576" s="25"/>
       <c r="AY576" s="25"/>
       <c r="AZ576" s="25"/>
+      <c r="BA576" s="25"/>
     </row>
     <row r="577">
       <c r="AL577" s="25"/>
@@ -24681,6 +25482,7 @@
       <c r="AX577" s="25"/>
       <c r="AY577" s="25"/>
       <c r="AZ577" s="25"/>
+      <c r="BA577" s="25"/>
     </row>
     <row r="578">
       <c r="AL578" s="25"/>
@@ -24698,6 +25500,7 @@
       <c r="AX578" s="25"/>
       <c r="AY578" s="25"/>
       <c r="AZ578" s="25"/>
+      <c r="BA578" s="25"/>
     </row>
     <row r="579">
       <c r="AL579" s="25"/>
@@ -24715,6 +25518,7 @@
       <c r="AX579" s="25"/>
       <c r="AY579" s="25"/>
       <c r="AZ579" s="25"/>
+      <c r="BA579" s="25"/>
     </row>
     <row r="580">
       <c r="AL580" s="25"/>
@@ -24732,6 +25536,7 @@
       <c r="AX580" s="25"/>
       <c r="AY580" s="25"/>
       <c r="AZ580" s="25"/>
+      <c r="BA580" s="25"/>
     </row>
     <row r="581">
       <c r="AL581" s="25"/>
@@ -24749,6 +25554,7 @@
       <c r="AX581" s="25"/>
       <c r="AY581" s="25"/>
       <c r="AZ581" s="25"/>
+      <c r="BA581" s="25"/>
     </row>
     <row r="582">
       <c r="AL582" s="25"/>
@@ -24766,6 +25572,7 @@
       <c r="AX582" s="25"/>
       <c r="AY582" s="25"/>
       <c r="AZ582" s="25"/>
+      <c r="BA582" s="25"/>
     </row>
     <row r="583">
       <c r="AL583" s="25"/>
@@ -24783,6 +25590,7 @@
       <c r="AX583" s="25"/>
       <c r="AY583" s="25"/>
       <c r="AZ583" s="25"/>
+      <c r="BA583" s="25"/>
     </row>
     <row r="584">
       <c r="AL584" s="25"/>
@@ -24800,6 +25608,7 @@
       <c r="AX584" s="25"/>
       <c r="AY584" s="25"/>
       <c r="AZ584" s="25"/>
+      <c r="BA584" s="25"/>
     </row>
     <row r="585">
       <c r="AL585" s="25"/>
@@ -24817,6 +25626,7 @@
       <c r="AX585" s="25"/>
       <c r="AY585" s="25"/>
       <c r="AZ585" s="25"/>
+      <c r="BA585" s="25"/>
     </row>
     <row r="586">
       <c r="AL586" s="25"/>
@@ -24834,6 +25644,7 @@
       <c r="AX586" s="25"/>
       <c r="AY586" s="25"/>
       <c r="AZ586" s="25"/>
+      <c r="BA586" s="25"/>
     </row>
     <row r="587">
       <c r="AL587" s="25"/>
@@ -24851,6 +25662,7 @@
       <c r="AX587" s="25"/>
       <c r="AY587" s="25"/>
       <c r="AZ587" s="25"/>
+      <c r="BA587" s="25"/>
     </row>
     <row r="588">
       <c r="AL588" s="25"/>
@@ -24868,6 +25680,7 @@
       <c r="AX588" s="25"/>
       <c r="AY588" s="25"/>
       <c r="AZ588" s="25"/>
+      <c r="BA588" s="25"/>
     </row>
     <row r="589">
       <c r="AL589" s="25"/>
@@ -24885,6 +25698,7 @@
       <c r="AX589" s="25"/>
       <c r="AY589" s="25"/>
       <c r="AZ589" s="25"/>
+      <c r="BA589" s="25"/>
     </row>
     <row r="590">
       <c r="AL590" s="25"/>
@@ -24902,6 +25716,7 @@
       <c r="AX590" s="25"/>
       <c r="AY590" s="25"/>
       <c r="AZ590" s="25"/>
+      <c r="BA590" s="25"/>
     </row>
     <row r="591">
       <c r="AL591" s="25"/>
@@ -24919,6 +25734,7 @@
       <c r="AX591" s="25"/>
       <c r="AY591" s="25"/>
       <c r="AZ591" s="25"/>
+      <c r="BA591" s="25"/>
     </row>
     <row r="592">
       <c r="AL592" s="25"/>
@@ -24936,6 +25752,7 @@
       <c r="AX592" s="25"/>
       <c r="AY592" s="25"/>
       <c r="AZ592" s="25"/>
+      <c r="BA592" s="25"/>
     </row>
     <row r="593">
       <c r="AL593" s="25"/>
@@ -24953,6 +25770,7 @@
       <c r="AX593" s="25"/>
       <c r="AY593" s="25"/>
       <c r="AZ593" s="25"/>
+      <c r="BA593" s="25"/>
     </row>
     <row r="594">
       <c r="AL594" s="25"/>
@@ -24970,6 +25788,7 @@
       <c r="AX594" s="25"/>
       <c r="AY594" s="25"/>
       <c r="AZ594" s="25"/>
+      <c r="BA594" s="25"/>
     </row>
     <row r="595">
       <c r="AL595" s="25"/>
@@ -24987,6 +25806,7 @@
       <c r="AX595" s="25"/>
       <c r="AY595" s="25"/>
       <c r="AZ595" s="25"/>
+      <c r="BA595" s="25"/>
     </row>
     <row r="596">
       <c r="AL596" s="25"/>
@@ -25004,6 +25824,7 @@
       <c r="AX596" s="25"/>
       <c r="AY596" s="25"/>
       <c r="AZ596" s="25"/>
+      <c r="BA596" s="25"/>
     </row>
     <row r="597">
       <c r="AL597" s="25"/>
@@ -25021,6 +25842,7 @@
       <c r="AX597" s="25"/>
       <c r="AY597" s="25"/>
       <c r="AZ597" s="25"/>
+      <c r="BA597" s="25"/>
     </row>
     <row r="598">
       <c r="AL598" s="25"/>
@@ -25038,6 +25860,7 @@
       <c r="AX598" s="25"/>
       <c r="AY598" s="25"/>
       <c r="AZ598" s="25"/>
+      <c r="BA598" s="25"/>
     </row>
     <row r="599">
       <c r="AL599" s="25"/>
@@ -25055,6 +25878,7 @@
       <c r="AX599" s="25"/>
       <c r="AY599" s="25"/>
       <c r="AZ599" s="25"/>
+      <c r="BA599" s="25"/>
     </row>
     <row r="600">
       <c r="AL600" s="25"/>
@@ -25072,6 +25896,7 @@
       <c r="AX600" s="25"/>
       <c r="AY600" s="25"/>
       <c r="AZ600" s="25"/>
+      <c r="BA600" s="25"/>
     </row>
     <row r="601">
       <c r="AL601" s="25"/>
@@ -25089,6 +25914,7 @@
       <c r="AX601" s="25"/>
       <c r="AY601" s="25"/>
       <c r="AZ601" s="25"/>
+      <c r="BA601" s="25"/>
     </row>
     <row r="602">
       <c r="AL602" s="25"/>
@@ -25106,6 +25932,7 @@
       <c r="AX602" s="25"/>
       <c r="AY602" s="25"/>
       <c r="AZ602" s="25"/>
+      <c r="BA602" s="25"/>
     </row>
     <row r="603">
       <c r="AL603" s="25"/>
@@ -25123,6 +25950,7 @@
       <c r="AX603" s="25"/>
       <c r="AY603" s="25"/>
       <c r="AZ603" s="25"/>
+      <c r="BA603" s="25"/>
     </row>
     <row r="604">
       <c r="AL604" s="25"/>
@@ -25140,6 +25968,7 @@
       <c r="AX604" s="25"/>
       <c r="AY604" s="25"/>
       <c r="AZ604" s="25"/>
+      <c r="BA604" s="25"/>
     </row>
     <row r="605">
       <c r="AL605" s="25"/>
@@ -25157,6 +25986,7 @@
       <c r="AX605" s="25"/>
       <c r="AY605" s="25"/>
       <c r="AZ605" s="25"/>
+      <c r="BA605" s="25"/>
     </row>
     <row r="606">
       <c r="AL606" s="25"/>
@@ -25174,6 +26004,7 @@
       <c r="AX606" s="25"/>
       <c r="AY606" s="25"/>
       <c r="AZ606" s="25"/>
+      <c r="BA606" s="25"/>
     </row>
     <row r="607">
       <c r="AL607" s="25"/>
@@ -25191,6 +26022,7 @@
       <c r="AX607" s="25"/>
       <c r="AY607" s="25"/>
       <c r="AZ607" s="25"/>
+      <c r="BA607" s="25"/>
     </row>
     <row r="608">
       <c r="AL608" s="25"/>
@@ -25208,6 +26040,7 @@
       <c r="AX608" s="25"/>
       <c r="AY608" s="25"/>
       <c r="AZ608" s="25"/>
+      <c r="BA608" s="25"/>
     </row>
     <row r="609">
       <c r="AL609" s="25"/>
@@ -25225,6 +26058,7 @@
       <c r="AX609" s="25"/>
       <c r="AY609" s="25"/>
       <c r="AZ609" s="25"/>
+      <c r="BA609" s="25"/>
     </row>
     <row r="610">
       <c r="AL610" s="25"/>
@@ -25242,6 +26076,7 @@
       <c r="AX610" s="25"/>
       <c r="AY610" s="25"/>
       <c r="AZ610" s="25"/>
+      <c r="BA610" s="25"/>
     </row>
     <row r="611">
       <c r="AL611" s="25"/>
@@ -25259,6 +26094,7 @@
       <c r="AX611" s="25"/>
       <c r="AY611" s="25"/>
       <c r="AZ611" s="25"/>
+      <c r="BA611" s="25"/>
     </row>
     <row r="612">
       <c r="AL612" s="25"/>
@@ -25276,6 +26112,7 @@
       <c r="AX612" s="25"/>
       <c r="AY612" s="25"/>
       <c r="AZ612" s="25"/>
+      <c r="BA612" s="25"/>
     </row>
     <row r="613">
       <c r="AL613" s="25"/>
@@ -25293,6 +26130,7 @@
       <c r="AX613" s="25"/>
       <c r="AY613" s="25"/>
       <c r="AZ613" s="25"/>
+      <c r="BA613" s="25"/>
     </row>
     <row r="614">
       <c r="AL614" s="25"/>
@@ -25310,6 +26148,7 @@
       <c r="AX614" s="25"/>
       <c r="AY614" s="25"/>
       <c r="AZ614" s="25"/>
+      <c r="BA614" s="25"/>
     </row>
     <row r="615">
       <c r="AL615" s="25"/>
@@ -25327,6 +26166,7 @@
       <c r="AX615" s="25"/>
       <c r="AY615" s="25"/>
       <c r="AZ615" s="25"/>
+      <c r="BA615" s="25"/>
     </row>
     <row r="616">
       <c r="AL616" s="25"/>
@@ -25344,6 +26184,7 @@
       <c r="AX616" s="25"/>
       <c r="AY616" s="25"/>
       <c r="AZ616" s="25"/>
+      <c r="BA616" s="25"/>
     </row>
     <row r="617">
       <c r="AL617" s="25"/>
@@ -25361,6 +26202,7 @@
       <c r="AX617" s="25"/>
       <c r="AY617" s="25"/>
       <c r="AZ617" s="25"/>
+      <c r="BA617" s="25"/>
     </row>
     <row r="618">
       <c r="AL618" s="25"/>
@@ -25378,6 +26220,7 @@
       <c r="AX618" s="25"/>
       <c r="AY618" s="25"/>
       <c r="AZ618" s="25"/>
+      <c r="BA618" s="25"/>
     </row>
     <row r="619">
       <c r="AL619" s="25"/>
@@ -25395,6 +26238,7 @@
       <c r="AX619" s="25"/>
       <c r="AY619" s="25"/>
       <c r="AZ619" s="25"/>
+      <c r="BA619" s="25"/>
     </row>
     <row r="620">
       <c r="AL620" s="25"/>
@@ -25412,6 +26256,7 @@
       <c r="AX620" s="25"/>
       <c r="AY620" s="25"/>
       <c r="AZ620" s="25"/>
+      <c r="BA620" s="25"/>
     </row>
     <row r="621">
       <c r="AL621" s="25"/>
@@ -25429,6 +26274,7 @@
       <c r="AX621" s="25"/>
       <c r="AY621" s="25"/>
       <c r="AZ621" s="25"/>
+      <c r="BA621" s="25"/>
     </row>
     <row r="622">
       <c r="AL622" s="25"/>
@@ -25446,6 +26292,7 @@
       <c r="AX622" s="25"/>
       <c r="AY622" s="25"/>
       <c r="AZ622" s="25"/>
+      <c r="BA622" s="25"/>
     </row>
     <row r="623">
       <c r="AL623" s="25"/>
@@ -25463,6 +26310,7 @@
       <c r="AX623" s="25"/>
       <c r="AY623" s="25"/>
       <c r="AZ623" s="25"/>
+      <c r="BA623" s="25"/>
     </row>
     <row r="624">
       <c r="AL624" s="25"/>
@@ -25480,6 +26328,7 @@
       <c r="AX624" s="25"/>
       <c r="AY624" s="25"/>
       <c r="AZ624" s="25"/>
+      <c r="BA624" s="25"/>
     </row>
     <row r="625">
       <c r="AL625" s="25"/>
@@ -25497,6 +26346,7 @@
       <c r="AX625" s="25"/>
       <c r="AY625" s="25"/>
       <c r="AZ625" s="25"/>
+      <c r="BA625" s="25"/>
     </row>
     <row r="626">
       <c r="AL626" s="25"/>
@@ -25514,6 +26364,7 @@
       <c r="AX626" s="25"/>
       <c r="AY626" s="25"/>
       <c r="AZ626" s="25"/>
+      <c r="BA626" s="25"/>
     </row>
     <row r="627">
       <c r="AL627" s="25"/>
@@ -25531,6 +26382,7 @@
       <c r="AX627" s="25"/>
       <c r="AY627" s="25"/>
       <c r="AZ627" s="25"/>
+      <c r="BA627" s="25"/>
     </row>
     <row r="628">
       <c r="AL628" s="25"/>
@@ -25548,6 +26400,7 @@
       <c r="AX628" s="25"/>
       <c r="AY628" s="25"/>
       <c r="AZ628" s="25"/>
+      <c r="BA628" s="25"/>
     </row>
     <row r="629">
       <c r="AL629" s="25"/>
@@ -25565,6 +26418,7 @@
       <c r="AX629" s="25"/>
       <c r="AY629" s="25"/>
       <c r="AZ629" s="25"/>
+      <c r="BA629" s="25"/>
     </row>
     <row r="630">
       <c r="AL630" s="25"/>
@@ -25582,6 +26436,7 @@
       <c r="AX630" s="25"/>
       <c r="AY630" s="25"/>
       <c r="AZ630" s="25"/>
+      <c r="BA630" s="25"/>
     </row>
     <row r="631">
       <c r="AL631" s="25"/>
@@ -25599,6 +26454,7 @@
       <c r="AX631" s="25"/>
       <c r="AY631" s="25"/>
       <c r="AZ631" s="25"/>
+      <c r="BA631" s="25"/>
     </row>
     <row r="632">
       <c r="AL632" s="25"/>
@@ -25616,6 +26472,7 @@
       <c r="AX632" s="25"/>
       <c r="AY632" s="25"/>
       <c r="AZ632" s="25"/>
+      <c r="BA632" s="25"/>
     </row>
     <row r="633">
       <c r="AL633" s="25"/>
@@ -25633,6 +26490,7 @@
       <c r="AX633" s="25"/>
       <c r="AY633" s="25"/>
       <c r="AZ633" s="25"/>
+      <c r="BA633" s="25"/>
     </row>
     <row r="634">
       <c r="AL634" s="25"/>
@@ -25650,6 +26508,7 @@
       <c r="AX634" s="25"/>
       <c r="AY634" s="25"/>
       <c r="AZ634" s="25"/>
+      <c r="BA634" s="25"/>
     </row>
     <row r="635">
       <c r="AL635" s="25"/>
@@ -25667,6 +26526,7 @@
       <c r="AX635" s="25"/>
       <c r="AY635" s="25"/>
       <c r="AZ635" s="25"/>
+      <c r="BA635" s="25"/>
     </row>
     <row r="636">
       <c r="AL636" s="25"/>
@@ -25684,6 +26544,7 @@
       <c r="AX636" s="25"/>
       <c r="AY636" s="25"/>
       <c r="AZ636" s="25"/>
+      <c r="BA636" s="25"/>
     </row>
     <row r="637">
       <c r="AL637" s="25"/>
@@ -25701,6 +26562,7 @@
       <c r="AX637" s="25"/>
       <c r="AY637" s="25"/>
       <c r="AZ637" s="25"/>
+      <c r="BA637" s="25"/>
     </row>
     <row r="638">
       <c r="AL638" s="25"/>
@@ -25718,6 +26580,7 @@
       <c r="AX638" s="25"/>
       <c r="AY638" s="25"/>
       <c r="AZ638" s="25"/>
+      <c r="BA638" s="25"/>
     </row>
     <row r="639">
       <c r="AL639" s="25"/>
@@ -25735,6 +26598,7 @@
       <c r="AX639" s="25"/>
       <c r="AY639" s="25"/>
       <c r="AZ639" s="25"/>
+      <c r="BA639" s="25"/>
     </row>
     <row r="640">
       <c r="AL640" s="25"/>
@@ -25752,6 +26616,7 @@
       <c r="AX640" s="25"/>
       <c r="AY640" s="25"/>
       <c r="AZ640" s="25"/>
+      <c r="BA640" s="25"/>
     </row>
     <row r="641">
       <c r="AL641" s="25"/>
@@ -25769,6 +26634,7 @@
       <c r="AX641" s="25"/>
       <c r="AY641" s="25"/>
       <c r="AZ641" s="25"/>
+      <c r="BA641" s="25"/>
     </row>
     <row r="642">
       <c r="AL642" s="25"/>
@@ -25786,6 +26652,7 @@
       <c r="AX642" s="25"/>
       <c r="AY642" s="25"/>
       <c r="AZ642" s="25"/>
+      <c r="BA642" s="25"/>
     </row>
     <row r="643">
       <c r="AL643" s="25"/>
@@ -25803,6 +26670,7 @@
       <c r="AX643" s="25"/>
       <c r="AY643" s="25"/>
       <c r="AZ643" s="25"/>
+      <c r="BA643" s="25"/>
     </row>
     <row r="644">
       <c r="AL644" s="25"/>
@@ -25820,6 +26688,7 @@
       <c r="AX644" s="25"/>
       <c r="AY644" s="25"/>
       <c r="AZ644" s="25"/>
+      <c r="BA644" s="25"/>
     </row>
     <row r="645">
       <c r="AL645" s="25"/>
@@ -25837,6 +26706,7 @@
       <c r="AX645" s="25"/>
       <c r="AY645" s="25"/>
       <c r="AZ645" s="25"/>
+      <c r="BA645" s="25"/>
     </row>
     <row r="646">
       <c r="AL646" s="25"/>
@@ -25854,6 +26724,7 @@
       <c r="AX646" s="25"/>
       <c r="AY646" s="25"/>
       <c r="AZ646" s="25"/>
+      <c r="BA646" s="25"/>
     </row>
     <row r="647">
       <c r="AL647" s="25"/>
@@ -25871,6 +26742,7 @@
       <c r="AX647" s="25"/>
       <c r="AY647" s="25"/>
       <c r="AZ647" s="25"/>
+      <c r="BA647" s="25"/>
     </row>
     <row r="648">
       <c r="AL648" s="25"/>
@@ -25888,6 +26760,7 @@
       <c r="AX648" s="25"/>
       <c r="AY648" s="25"/>
       <c r="AZ648" s="25"/>
+      <c r="BA648" s="25"/>
     </row>
     <row r="649">
       <c r="AL649" s="25"/>
@@ -25905,6 +26778,7 @@
       <c r="AX649" s="25"/>
       <c r="AY649" s="25"/>
       <c r="AZ649" s="25"/>
+      <c r="BA649" s="25"/>
     </row>
     <row r="650">
       <c r="AL650" s="25"/>
@@ -25922,6 +26796,7 @@
       <c r="AX650" s="25"/>
       <c r="AY650" s="25"/>
       <c r="AZ650" s="25"/>
+      <c r="BA650" s="25"/>
     </row>
     <row r="651">
       <c r="AL651" s="25"/>
@@ -25939,6 +26814,7 @@
       <c r="AX651" s="25"/>
       <c r="AY651" s="25"/>
       <c r="AZ651" s="25"/>
+      <c r="BA651" s="25"/>
     </row>
     <row r="652">
       <c r="AL652" s="25"/>
@@ -25956,6 +26832,7 @@
       <c r="AX652" s="25"/>
       <c r="AY652" s="25"/>
       <c r="AZ652" s="25"/>
+      <c r="BA652" s="25"/>
     </row>
     <row r="653">
       <c r="AL653" s="25"/>
@@ -25973,6 +26850,7 @@
       <c r="AX653" s="25"/>
       <c r="AY653" s="25"/>
       <c r="AZ653" s="25"/>
+      <c r="BA653" s="25"/>
     </row>
     <row r="654">
       <c r="AL654" s="25"/>
@@ -25990,6 +26868,7 @@
       <c r="AX654" s="25"/>
       <c r="AY654" s="25"/>
       <c r="AZ654" s="25"/>
+      <c r="BA654" s="25"/>
     </row>
     <row r="655">
       <c r="AL655" s="25"/>
@@ -26007,6 +26886,7 @@
       <c r="AX655" s="25"/>
       <c r="AY655" s="25"/>
       <c r="AZ655" s="25"/>
+      <c r="BA655" s="25"/>
     </row>
     <row r="656">
       <c r="AL656" s="25"/>
@@ -26024,6 +26904,7 @@
       <c r="AX656" s="25"/>
       <c r="AY656" s="25"/>
       <c r="AZ656" s="25"/>
+      <c r="BA656" s="25"/>
     </row>
     <row r="657">
       <c r="AL657" s="25"/>
@@ -26041,6 +26922,7 @@
       <c r="AX657" s="25"/>
       <c r="AY657" s="25"/>
       <c r="AZ657" s="25"/>
+      <c r="BA657" s="25"/>
     </row>
     <row r="658">
       <c r="AL658" s="25"/>
@@ -26058,6 +26940,7 @@
       <c r="AX658" s="25"/>
       <c r="AY658" s="25"/>
       <c r="AZ658" s="25"/>
+      <c r="BA658" s="25"/>
     </row>
     <row r="659">
       <c r="AL659" s="25"/>
@@ -26075,6 +26958,7 @@
       <c r="AX659" s="25"/>
       <c r="AY659" s="25"/>
       <c r="AZ659" s="25"/>
+      <c r="BA659" s="25"/>
     </row>
     <row r="660">
       <c r="AL660" s="25"/>
@@ -26092,6 +26976,7 @@
       <c r="AX660" s="25"/>
       <c r="AY660" s="25"/>
       <c r="AZ660" s="25"/>
+      <c r="BA660" s="25"/>
     </row>
     <row r="661">
       <c r="AL661" s="25"/>
@@ -26109,6 +26994,7 @@
       <c r="AX661" s="25"/>
       <c r="AY661" s="25"/>
       <c r="AZ661" s="25"/>
+      <c r="BA661" s="25"/>
     </row>
     <row r="662">
       <c r="AL662" s="25"/>
@@ -26126,6 +27012,7 @@
       <c r="AX662" s="25"/>
       <c r="AY662" s="25"/>
       <c r="AZ662" s="25"/>
+      <c r="BA662" s="25"/>
     </row>
     <row r="663">
       <c r="AL663" s="25"/>
@@ -26143,6 +27030,7 @@
       <c r="AX663" s="25"/>
       <c r="AY663" s="25"/>
       <c r="AZ663" s="25"/>
+      <c r="BA663" s="25"/>
     </row>
     <row r="664">
       <c r="AL664" s="25"/>
@@ -26160,6 +27048,7 @@
       <c r="AX664" s="25"/>
       <c r="AY664" s="25"/>
       <c r="AZ664" s="25"/>
+      <c r="BA664" s="25"/>
     </row>
     <row r="665">
       <c r="AL665" s="25"/>
@@ -26177,6 +27066,7 @@
       <c r="AX665" s="25"/>
       <c r="AY665" s="25"/>
       <c r="AZ665" s="25"/>
+      <c r="BA665" s="25"/>
     </row>
     <row r="666">
       <c r="AL666" s="25"/>
@@ -26194,6 +27084,7 @@
       <c r="AX666" s="25"/>
       <c r="AY666" s="25"/>
       <c r="AZ666" s="25"/>
+      <c r="BA666" s="25"/>
     </row>
     <row r="667">
       <c r="AL667" s="25"/>
@@ -26211,6 +27102,7 @@
       <c r="AX667" s="25"/>
       <c r="AY667" s="25"/>
       <c r="AZ667" s="25"/>
+      <c r="BA667" s="25"/>
     </row>
     <row r="668">
       <c r="AL668" s="25"/>
@@ -26228,6 +27120,7 @@
       <c r="AX668" s="25"/>
       <c r="AY668" s="25"/>
       <c r="AZ668" s="25"/>
+      <c r="BA668" s="25"/>
     </row>
     <row r="669">
       <c r="AL669" s="25"/>
@@ -26245,6 +27138,7 @@
       <c r="AX669" s="25"/>
       <c r="AY669" s="25"/>
       <c r="AZ669" s="25"/>
+      <c r="BA669" s="25"/>
     </row>
     <row r="670">
       <c r="AL670" s="25"/>
@@ -26262,6 +27156,7 @@
       <c r="AX670" s="25"/>
       <c r="AY670" s="25"/>
       <c r="AZ670" s="25"/>
+      <c r="BA670" s="25"/>
     </row>
     <row r="671">
       <c r="AL671" s="25"/>
@@ -26279,6 +27174,7 @@
       <c r="AX671" s="25"/>
       <c r="AY671" s="25"/>
       <c r="AZ671" s="25"/>
+      <c r="BA671" s="25"/>
     </row>
     <row r="672">
       <c r="AL672" s="25"/>
@@ -26296,6 +27192,7 @@
       <c r="AX672" s="25"/>
       <c r="AY672" s="25"/>
       <c r="AZ672" s="25"/>
+      <c r="BA672" s="25"/>
     </row>
     <row r="673">
       <c r="AL673" s="25"/>
@@ -26313,6 +27210,7 @@
       <c r="AX673" s="25"/>
       <c r="AY673" s="25"/>
       <c r="AZ673" s="25"/>
+      <c r="BA673" s="25"/>
     </row>
     <row r="674">
       <c r="AL674" s="25"/>
@@ -26330,6 +27228,7 @@
       <c r="AX674" s="25"/>
       <c r="AY674" s="25"/>
       <c r="AZ674" s="25"/>
+      <c r="BA674" s="25"/>
     </row>
     <row r="675">
       <c r="AL675" s="25"/>
@@ -26347,6 +27246,7 @@
       <c r="AX675" s="25"/>
       <c r="AY675" s="25"/>
       <c r="AZ675" s="25"/>
+      <c r="BA675" s="25"/>
     </row>
     <row r="676">
       <c r="AL676" s="25"/>
@@ -26364,6 +27264,7 @@
       <c r="AX676" s="25"/>
       <c r="AY676" s="25"/>
       <c r="AZ676" s="25"/>
+      <c r="BA676" s="25"/>
     </row>
     <row r="677">
       <c r="AL677" s="25"/>
@@ -26381,6 +27282,7 @@
       <c r="AX677" s="25"/>
       <c r="AY677" s="25"/>
       <c r="AZ677" s="25"/>
+      <c r="BA677" s="25"/>
     </row>
     <row r="678">
       <c r="AL678" s="25"/>
@@ -26398,6 +27300,7 @@
       <c r="AX678" s="25"/>
       <c r="AY678" s="25"/>
       <c r="AZ678" s="25"/>
+      <c r="BA678" s="25"/>
     </row>
     <row r="679">
       <c r="AL679" s="25"/>
@@ -26415,6 +27318,7 @@
       <c r="AX679" s="25"/>
       <c r="AY679" s="25"/>
       <c r="AZ679" s="25"/>
+      <c r="BA679" s="25"/>
     </row>
     <row r="680">
       <c r="AL680" s="25"/>
@@ -26432,6 +27336,7 @@
       <c r="AX680" s="25"/>
       <c r="AY680" s="25"/>
       <c r="AZ680" s="25"/>
+      <c r="BA680" s="25"/>
     </row>
     <row r="681">
       <c r="AL681" s="25"/>
@@ -26449,6 +27354,7 @@
       <c r="AX681" s="25"/>
       <c r="AY681" s="25"/>
       <c r="AZ681" s="25"/>
+      <c r="BA681" s="25"/>
     </row>
     <row r="682">
       <c r="AL682" s="25"/>
@@ -26466,6 +27372,7 @@
       <c r="AX682" s="25"/>
       <c r="AY682" s="25"/>
       <c r="AZ682" s="25"/>
+      <c r="BA682" s="25"/>
     </row>
     <row r="683">
       <c r="AL683" s="25"/>
@@ -26483,6 +27390,7 @@
       <c r="AX683" s="25"/>
       <c r="AY683" s="25"/>
       <c r="AZ683" s="25"/>
+      <c r="BA683" s="25"/>
     </row>
     <row r="684">
       <c r="AL684" s="25"/>
@@ -26500,6 +27408,7 @@
       <c r="AX684" s="25"/>
       <c r="AY684" s="25"/>
       <c r="AZ684" s="25"/>
+      <c r="BA684" s="25"/>
     </row>
     <row r="685">
       <c r="AL685" s="25"/>
@@ -26517,6 +27426,7 @@
       <c r="AX685" s="25"/>
       <c r="AY685" s="25"/>
       <c r="AZ685" s="25"/>
+      <c r="BA685" s="25"/>
     </row>
     <row r="686">
       <c r="AL686" s="25"/>
@@ -26534,6 +27444,7 @@
       <c r="AX686" s="25"/>
       <c r="AY686" s="25"/>
       <c r="AZ686" s="25"/>
+      <c r="BA686" s="25"/>
     </row>
     <row r="687">
       <c r="AL687" s="25"/>
@@ -26551,6 +27462,7 @@
       <c r="AX687" s="25"/>
       <c r="AY687" s="25"/>
       <c r="AZ687" s="25"/>
+      <c r="BA687" s="25"/>
     </row>
     <row r="688">
       <c r="AL688" s="25"/>
@@ -26568,6 +27480,7 @@
       <c r="AX688" s="25"/>
       <c r="AY688" s="25"/>
       <c r="AZ688" s="25"/>
+      <c r="BA688" s="25"/>
     </row>
     <row r="689">
       <c r="AL689" s="25"/>
@@ -26585,6 +27498,7 @@
       <c r="AX689" s="25"/>
       <c r="AY689" s="25"/>
       <c r="AZ689" s="25"/>
+      <c r="BA689" s="25"/>
     </row>
     <row r="690">
       <c r="AL690" s="25"/>
@@ -26602,6 +27516,7 @@
       <c r="AX690" s="25"/>
       <c r="AY690" s="25"/>
       <c r="AZ690" s="25"/>
+      <c r="BA690" s="25"/>
     </row>
     <row r="691">
       <c r="AL691" s="25"/>
@@ -26619,6 +27534,7 @@
       <c r="AX691" s="25"/>
       <c r="AY691" s="25"/>
       <c r="AZ691" s="25"/>
+      <c r="BA691" s="25"/>
     </row>
     <row r="692">
       <c r="AL692" s="25"/>
@@ -26636,6 +27552,7 @@
       <c r="AX692" s="25"/>
       <c r="AY692" s="25"/>
       <c r="AZ692" s="25"/>
+      <c r="BA692" s="25"/>
     </row>
     <row r="693">
       <c r="AL693" s="25"/>
@@ -26653,6 +27570,7 @@
       <c r="AX693" s="25"/>
       <c r="AY693" s="25"/>
       <c r="AZ693" s="25"/>
+      <c r="BA693" s="25"/>
     </row>
     <row r="694">
       <c r="AL694" s="25"/>
@@ -26670,6 +27588,7 @@
       <c r="AX694" s="25"/>
       <c r="AY694" s="25"/>
       <c r="AZ694" s="25"/>
+      <c r="BA694" s="25"/>
     </row>
     <row r="695">
       <c r="AL695" s="25"/>
@@ -26687,6 +27606,7 @@
       <c r="AX695" s="25"/>
       <c r="AY695" s="25"/>
       <c r="AZ695" s="25"/>
+      <c r="BA695" s="25"/>
     </row>
     <row r="696">
       <c r="AL696" s="25"/>
@@ -26704,6 +27624,7 @@
       <c r="AX696" s="25"/>
       <c r="AY696" s="25"/>
       <c r="AZ696" s="25"/>
+      <c r="BA696" s="25"/>
     </row>
     <row r="697">
       <c r="AL697" s="25"/>
@@ -26721,6 +27642,7 @@
       <c r="AX697" s="25"/>
       <c r="AY697" s="25"/>
       <c r="AZ697" s="25"/>
+      <c r="BA697" s="25"/>
     </row>
     <row r="698">
       <c r="AL698" s="25"/>
@@ -26738,6 +27660,7 @@
       <c r="AX698" s="25"/>
       <c r="AY698" s="25"/>
       <c r="AZ698" s="25"/>
+      <c r="BA698" s="25"/>
     </row>
     <row r="699">
       <c r="AL699" s="25"/>
@@ -26755,6 +27678,7 @@
       <c r="AX699" s="25"/>
       <c r="AY699" s="25"/>
       <c r="AZ699" s="25"/>
+      <c r="BA699" s="25"/>
     </row>
     <row r="700">
       <c r="AL700" s="25"/>
@@ -26772,6 +27696,7 @@
       <c r="AX700" s="25"/>
       <c r="AY700" s="25"/>
       <c r="AZ700" s="25"/>
+      <c r="BA700" s="25"/>
     </row>
     <row r="701">
       <c r="AL701" s="25"/>
@@ -26789,6 +27714,7 @@
       <c r="AX701" s="25"/>
       <c r="AY701" s="25"/>
       <c r="AZ701" s="25"/>
+      <c r="BA701" s="25"/>
     </row>
     <row r="702">
       <c r="AL702" s="25"/>
@@ -26806,6 +27732,7 @@
       <c r="AX702" s="25"/>
       <c r="AY702" s="25"/>
       <c r="AZ702" s="25"/>
+      <c r="BA702" s="25"/>
     </row>
     <row r="703">
       <c r="AL703" s="25"/>
@@ -26823,6 +27750,7 @@
       <c r="AX703" s="25"/>
       <c r="AY703" s="25"/>
       <c r="AZ703" s="25"/>
+      <c r="BA703" s="25"/>
     </row>
     <row r="704">
       <c r="AL704" s="25"/>
@@ -26840,6 +27768,7 @@
       <c r="AX704" s="25"/>
       <c r="AY704" s="25"/>
       <c r="AZ704" s="25"/>
+      <c r="BA704" s="25"/>
     </row>
     <row r="705">
       <c r="AL705" s="25"/>
@@ -26857,6 +27786,7 @@
       <c r="AX705" s="25"/>
       <c r="AY705" s="25"/>
       <c r="AZ705" s="25"/>
+      <c r="BA705" s="25"/>
     </row>
     <row r="706">
       <c r="AL706" s="25"/>
@@ -26874,6 +27804,7 @@
       <c r="AX706" s="25"/>
       <c r="AY706" s="25"/>
       <c r="AZ706" s="25"/>
+      <c r="BA706" s="25"/>
     </row>
     <row r="707">
       <c r="AL707" s="25"/>
@@ -26891,6 +27822,7 @@
       <c r="AX707" s="25"/>
       <c r="AY707" s="25"/>
       <c r="AZ707" s="25"/>
+      <c r="BA707" s="25"/>
     </row>
     <row r="708">
       <c r="AL708" s="25"/>
@@ -26908,6 +27840,7 @@
       <c r="AX708" s="25"/>
       <c r="AY708" s="25"/>
       <c r="AZ708" s="25"/>
+      <c r="BA708" s="25"/>
     </row>
     <row r="709">
       <c r="AL709" s="25"/>
@@ -26925,6 +27858,7 @@
       <c r="AX709" s="25"/>
       <c r="AY709" s="25"/>
       <c r="AZ709" s="25"/>
+      <c r="BA709" s="25"/>
     </row>
     <row r="710">
       <c r="AL710" s="25"/>
@@ -26942,6 +27876,7 @@
       <c r="AX710" s="25"/>
       <c r="AY710" s="25"/>
       <c r="AZ710" s="25"/>
+      <c r="BA710" s="25"/>
     </row>
     <row r="711">
       <c r="AL711" s="25"/>
@@ -26959,6 +27894,7 @@
       <c r="AX711" s="25"/>
       <c r="AY711" s="25"/>
       <c r="AZ711" s="25"/>
+      <c r="BA711" s="25"/>
     </row>
     <row r="712">
       <c r="AL712" s="25"/>
@@ -26976,6 +27912,7 @@
       <c r="AX712" s="25"/>
       <c r="AY712" s="25"/>
       <c r="AZ712" s="25"/>
+      <c r="BA712" s="25"/>
     </row>
     <row r="713">
       <c r="AL713" s="25"/>
@@ -26993,6 +27930,7 @@
       <c r="AX713" s="25"/>
       <c r="AY713" s="25"/>
       <c r="AZ713" s="25"/>
+      <c r="BA713" s="25"/>
     </row>
     <row r="714">
       <c r="AL714" s="25"/>
@@ -27010,6 +27948,7 @@
       <c r="AX714" s="25"/>
       <c r="AY714" s="25"/>
       <c r="AZ714" s="25"/>
+      <c r="BA714" s="25"/>
     </row>
     <row r="715">
       <c r="AL715" s="25"/>
@@ -27027,6 +27966,7 @@
       <c r="AX715" s="25"/>
       <c r="AY715" s="25"/>
       <c r="AZ715" s="25"/>
+      <c r="BA715" s="25"/>
     </row>
     <row r="716">
       <c r="AL716" s="25"/>
@@ -27044,6 +27984,7 @@
       <c r="AX716" s="25"/>
       <c r="AY716" s="25"/>
       <c r="AZ716" s="25"/>
+      <c r="BA716" s="25"/>
     </row>
     <row r="717">
       <c r="AL717" s="25"/>
@@ -27061,6 +28002,7 @@
       <c r="AX717" s="25"/>
       <c r="AY717" s="25"/>
       <c r="AZ717" s="25"/>
+      <c r="BA717" s="25"/>
     </row>
     <row r="718">
       <c r="AL718" s="25"/>
@@ -27078,6 +28020,7 @@
       <c r="AX718" s="25"/>
       <c r="AY718" s="25"/>
       <c r="AZ718" s="25"/>
+      <c r="BA718" s="25"/>
     </row>
     <row r="719">
       <c r="AL719" s="25"/>
@@ -27095,6 +28038,7 @@
       <c r="AX719" s="25"/>
       <c r="AY719" s="25"/>
       <c r="AZ719" s="25"/>
+      <c r="BA719" s="25"/>
     </row>
     <row r="720">
       <c r="AL720" s="25"/>
@@ -27112,6 +28056,7 @@
       <c r="AX720" s="25"/>
       <c r="AY720" s="25"/>
       <c r="AZ720" s="25"/>
+      <c r="BA720" s="25"/>
     </row>
     <row r="721">
       <c r="AL721" s="25"/>
@@ -27129,6 +28074,7 @@
       <c r="AX721" s="25"/>
       <c r="AY721" s="25"/>
       <c r="AZ721" s="25"/>
+      <c r="BA721" s="25"/>
     </row>
     <row r="722">
       <c r="AL722" s="25"/>
@@ -27146,6 +28092,7 @@
       <c r="AX722" s="25"/>
       <c r="AY722" s="25"/>
       <c r="AZ722" s="25"/>
+      <c r="BA722" s="25"/>
     </row>
     <row r="723">
       <c r="AL723" s="25"/>
@@ -27163,6 +28110,7 @@
       <c r="AX723" s="25"/>
       <c r="AY723" s="25"/>
       <c r="AZ723" s="25"/>
+      <c r="BA723" s="25"/>
     </row>
     <row r="724">
       <c r="AL724" s="25"/>
@@ -27180,6 +28128,7 @@
       <c r="AX724" s="25"/>
       <c r="AY724" s="25"/>
       <c r="AZ724" s="25"/>
+      <c r="BA724" s="25"/>
     </row>
     <row r="725">
       <c r="AL725" s="25"/>
@@ -27197,6 +28146,7 @@
       <c r="AX725" s="25"/>
       <c r="AY725" s="25"/>
       <c r="AZ725" s="25"/>
+      <c r="BA725" s="25"/>
     </row>
     <row r="726">
       <c r="AL726" s="25"/>
@@ -27214,6 +28164,7 @@
       <c r="AX726" s="25"/>
       <c r="AY726" s="25"/>
       <c r="AZ726" s="25"/>
+      <c r="BA726" s="25"/>
     </row>
     <row r="727">
       <c r="AL727" s="25"/>
@@ -27231,6 +28182,7 @@
       <c r="AX727" s="25"/>
       <c r="AY727" s="25"/>
       <c r="AZ727" s="25"/>
+      <c r="BA727" s="25"/>
     </row>
     <row r="728">
       <c r="AL728" s="25"/>
@@ -27248,6 +28200,7 @@
       <c r="AX728" s="25"/>
       <c r="AY728" s="25"/>
       <c r="AZ728" s="25"/>
+      <c r="BA728" s="25"/>
     </row>
     <row r="729">
       <c r="AL729" s="25"/>
@@ -27265,6 +28218,7 @@
       <c r="AX729" s="25"/>
       <c r="AY729" s="25"/>
       <c r="AZ729" s="25"/>
+      <c r="BA729" s="25"/>
     </row>
     <row r="730">
       <c r="AL730" s="25"/>
@@ -27282,6 +28236,7 @@
       <c r="AX730" s="25"/>
       <c r="AY730" s="25"/>
       <c r="AZ730" s="25"/>
+      <c r="BA730" s="25"/>
     </row>
     <row r="731">
       <c r="AL731" s="25"/>
@@ -27299,6 +28254,7 @@
       <c r="AX731" s="25"/>
       <c r="AY731" s="25"/>
       <c r="AZ731" s="25"/>
+      <c r="BA731" s="25"/>
     </row>
     <row r="732">
       <c r="AL732" s="25"/>
@@ -27316,6 +28272,7 @@
       <c r="AX732" s="25"/>
       <c r="AY732" s="25"/>
       <c r="AZ732" s="25"/>
+      <c r="BA732" s="25"/>
     </row>
     <row r="733">
       <c r="AL733" s="25"/>
@@ -27333,6 +28290,7 @@
       <c r="AX733" s="25"/>
       <c r="AY733" s="25"/>
       <c r="AZ733" s="25"/>
+      <c r="BA733" s="25"/>
     </row>
     <row r="734">
       <c r="AL734" s="25"/>
@@ -27350,6 +28308,7 @@
       <c r="AX734" s="25"/>
       <c r="AY734" s="25"/>
       <c r="AZ734" s="25"/>
+      <c r="BA734" s="25"/>
     </row>
     <row r="735">
       <c r="AL735" s="25"/>
@@ -27367,6 +28326,7 @@
       <c r="AX735" s="25"/>
       <c r="AY735" s="25"/>
       <c r="AZ735" s="25"/>
+      <c r="BA735" s="25"/>
     </row>
     <row r="736">
       <c r="AL736" s="25"/>
@@ -27384,6 +28344,7 @@
       <c r="AX736" s="25"/>
       <c r="AY736" s="25"/>
       <c r="AZ736" s="25"/>
+      <c r="BA736" s="25"/>
     </row>
     <row r="737">
       <c r="AL737" s="25"/>
@@ -27401,6 +28362,7 @@
       <c r="AX737" s="25"/>
       <c r="AY737" s="25"/>
       <c r="AZ737" s="25"/>
+      <c r="BA737" s="25"/>
     </row>
     <row r="738">
       <c r="AL738" s="25"/>
@@ -27418,6 +28380,7 @@
       <c r="AX738" s="25"/>
       <c r="AY738" s="25"/>
       <c r="AZ738" s="25"/>
+      <c r="BA738" s="25"/>
     </row>
     <row r="739">
       <c r="AL739" s="25"/>
@@ -27435,6 +28398,7 @@
       <c r="AX739" s="25"/>
       <c r="AY739" s="25"/>
       <c r="AZ739" s="25"/>
+      <c r="BA739" s="25"/>
     </row>
     <row r="740">
       <c r="AL740" s="25"/>
@@ -27452,6 +28416,7 @@
       <c r="AX740" s="25"/>
       <c r="AY740" s="25"/>
       <c r="AZ740" s="25"/>
+      <c r="BA740" s="25"/>
     </row>
     <row r="741">
       <c r="AL741" s="25"/>
@@ -27469,6 +28434,7 @@
       <c r="AX741" s="25"/>
       <c r="AY741" s="25"/>
       <c r="AZ741" s="25"/>
+      <c r="BA741" s="25"/>
     </row>
     <row r="742">
       <c r="AL742" s="25"/>
@@ -27486,6 +28452,7 @@
       <c r="AX742" s="25"/>
       <c r="AY742" s="25"/>
       <c r="AZ742" s="25"/>
+      <c r="BA742" s="25"/>
     </row>
     <row r="743">
       <c r="AL743" s="25"/>
@@ -27503,6 +28470,7 @@
       <c r="AX743" s="25"/>
       <c r="AY743" s="25"/>
       <c r="AZ743" s="25"/>
+      <c r="BA743" s="25"/>
     </row>
     <row r="744">
       <c r="AL744" s="25"/>
@@ -27520,6 +28488,7 @@
       <c r="AX744" s="25"/>
       <c r="AY744" s="25"/>
       <c r="AZ744" s="25"/>
+      <c r="BA744" s="25"/>
     </row>
     <row r="745">
       <c r="AL745" s="25"/>
@@ -27537,6 +28506,7 @@
       <c r="AX745" s="25"/>
       <c r="AY745" s="25"/>
       <c r="AZ745" s="25"/>
+      <c r="BA745" s="25"/>
     </row>
     <row r="746">
       <c r="AL746" s="25"/>
@@ -27554,6 +28524,7 @@
       <c r="AX746" s="25"/>
       <c r="AY746" s="25"/>
       <c r="AZ746" s="25"/>
+      <c r="BA746" s="25"/>
     </row>
     <row r="747">
       <c r="AL747" s="25"/>
@@ -27571,6 +28542,7 @@
       <c r="AX747" s="25"/>
       <c r="AY747" s="25"/>
       <c r="AZ747" s="25"/>
+      <c r="BA747" s="25"/>
     </row>
     <row r="748">
       <c r="AL748" s="25"/>
@@ -27588,6 +28560,7 @@
       <c r="AX748" s="25"/>
       <c r="AY748" s="25"/>
       <c r="AZ748" s="25"/>
+      <c r="BA748" s="25"/>
     </row>
     <row r="749">
       <c r="AL749" s="25"/>
@@ -27605,6 +28578,7 @@
       <c r="AX749" s="25"/>
       <c r="AY749" s="25"/>
       <c r="AZ749" s="25"/>
+      <c r="BA749" s="25"/>
     </row>
     <row r="750">
       <c r="AL750" s="25"/>
@@ -27622,6 +28596,7 @@
       <c r="AX750" s="25"/>
       <c r="AY750" s="25"/>
       <c r="AZ750" s="25"/>
+      <c r="BA750" s="25"/>
     </row>
     <row r="751">
       <c r="AL751" s="25"/>
@@ -27639,6 +28614,7 @@
       <c r="AX751" s="25"/>
       <c r="AY751" s="25"/>
       <c r="AZ751" s="25"/>
+      <c r="BA751" s="25"/>
     </row>
     <row r="752">
       <c r="AL752" s="25"/>
@@ -27656,6 +28632,7 @@
       <c r="AX752" s="25"/>
       <c r="AY752" s="25"/>
       <c r="AZ752" s="25"/>
+      <c r="BA752" s="25"/>
     </row>
     <row r="753">
       <c r="AL753" s="25"/>
@@ -27673,6 +28650,7 @@
       <c r="AX753" s="25"/>
       <c r="AY753" s="25"/>
       <c r="AZ753" s="25"/>
+      <c r="BA753" s="25"/>
     </row>
     <row r="754">
       <c r="AL754" s="25"/>
@@ -27690,6 +28668,7 @@
       <c r="AX754" s="25"/>
       <c r="AY754" s="25"/>
       <c r="AZ754" s="25"/>
+      <c r="BA754" s="25"/>
     </row>
     <row r="755">
       <c r="AL755" s="25"/>
@@ -27707,6 +28686,7 @@
       <c r="AX755" s="25"/>
       <c r="AY755" s="25"/>
       <c r="AZ755" s="25"/>
+      <c r="BA755" s="25"/>
     </row>
     <row r="756">
       <c r="AL756" s="25"/>
@@ -27724,6 +28704,7 @@
       <c r="AX756" s="25"/>
       <c r="AY756" s="25"/>
       <c r="AZ756" s="25"/>
+      <c r="BA756" s="25"/>
     </row>
     <row r="757">
       <c r="AL757" s="25"/>
@@ -27741,6 +28722,7 @@
       <c r="AX757" s="25"/>
       <c r="AY757" s="25"/>
       <c r="AZ757" s="25"/>
+      <c r="BA757" s="25"/>
     </row>
     <row r="758">
       <c r="AL758" s="25"/>
@@ -27758,6 +28740,7 @@
       <c r="AX758" s="25"/>
       <c r="AY758" s="25"/>
       <c r="AZ758" s="25"/>
+      <c r="BA758" s="25"/>
     </row>
     <row r="759">
       <c r="AL759" s="25"/>
@@ -27775,6 +28758,7 @@
       <c r="AX759" s="25"/>
       <c r="AY759" s="25"/>
       <c r="AZ759" s="25"/>
+      <c r="BA759" s="25"/>
     </row>
     <row r="760">
       <c r="AL760" s="25"/>
@@ -27792,6 +28776,7 @@
       <c r="AX760" s="25"/>
       <c r="AY760" s="25"/>
       <c r="AZ760" s="25"/>
+      <c r="BA760" s="25"/>
     </row>
     <row r="761">
       <c r="AL761" s="25"/>
@@ -27809,6 +28794,7 @@
       <c r="AX761" s="25"/>
       <c r="AY761" s="25"/>
       <c r="AZ761" s="25"/>
+      <c r="BA761" s="25"/>
     </row>
     <row r="762">
       <c r="AL762" s="25"/>
@@ -27826,6 +28812,7 @@
       <c r="AX762" s="25"/>
       <c r="AY762" s="25"/>
       <c r="AZ762" s="25"/>
+      <c r="BA762" s="25"/>
     </row>
     <row r="763">
       <c r="AL763" s="25"/>
@@ -27843,6 +28830,7 @@
       <c r="AX763" s="25"/>
       <c r="AY763" s="25"/>
       <c r="AZ763" s="25"/>
+      <c r="BA763" s="25"/>
     </row>
     <row r="764">
       <c r="AL764" s="25"/>
@@ -27860,6 +28848,7 @@
       <c r="AX764" s="25"/>
       <c r="AY764" s="25"/>
       <c r="AZ764" s="25"/>
+      <c r="BA764" s="25"/>
     </row>
     <row r="765">
       <c r="AL765" s="25"/>
@@ -27877,6 +28866,7 @@
       <c r="AX765" s="25"/>
       <c r="AY765" s="25"/>
       <c r="AZ765" s="25"/>
+      <c r="BA765" s="25"/>
     </row>
     <row r="766">
       <c r="AL766" s="25"/>
@@ -27894,6 +28884,7 @@
       <c r="AX766" s="25"/>
       <c r="AY766" s="25"/>
       <c r="AZ766" s="25"/>
+      <c r="BA766" s="25"/>
     </row>
     <row r="767">
       <c r="AL767" s="25"/>
@@ -27911,6 +28902,7 @@
       <c r="AX767" s="25"/>
       <c r="AY767" s="25"/>
       <c r="AZ767" s="25"/>
+      <c r="BA767" s="25"/>
     </row>
     <row r="768">
       <c r="AL768" s="25"/>
@@ -27928,6 +28920,7 @@
       <c r="AX768" s="25"/>
       <c r="AY768" s="25"/>
       <c r="AZ768" s="25"/>
+      <c r="BA768" s="25"/>
     </row>
     <row r="769">
       <c r="AL769" s="25"/>
@@ -27945,6 +28938,7 @@
       <c r="AX769" s="25"/>
       <c r="AY769" s="25"/>
       <c r="AZ769" s="25"/>
+      <c r="BA769" s="25"/>
     </row>
     <row r="770">
       <c r="AL770" s="25"/>
@@ -27962,6 +28956,7 @@
       <c r="AX770" s="25"/>
       <c r="AY770" s="25"/>
       <c r="AZ770" s="25"/>
+      <c r="BA770" s="25"/>
     </row>
     <row r="771">
       <c r="AL771" s="25"/>
@@ -27979,6 +28974,7 @@
       <c r="AX771" s="25"/>
       <c r="AY771" s="25"/>
       <c r="AZ771" s="25"/>
+      <c r="BA771" s="25"/>
     </row>
     <row r="772">
       <c r="AL772" s="25"/>
@@ -27996,6 +28992,7 @@
       <c r="AX772" s="25"/>
       <c r="AY772" s="25"/>
       <c r="AZ772" s="25"/>
+      <c r="BA772" s="25"/>
     </row>
     <row r="773">
       <c r="AL773" s="25"/>
@@ -28013,6 +29010,7 @@
       <c r="AX773" s="25"/>
       <c r="AY773" s="25"/>
       <c r="AZ773" s="25"/>
+      <c r="BA773" s="25"/>
     </row>
     <row r="774">
       <c r="AL774" s="25"/>
@@ -28030,6 +29028,7 @@
       <c r="AX774" s="25"/>
       <c r="AY774" s="25"/>
       <c r="AZ774" s="25"/>
+      <c r="BA774" s="25"/>
     </row>
     <row r="775">
       <c r="AL775" s="25"/>
@@ -28047,6 +29046,7 @@
       <c r="AX775" s="25"/>
       <c r="AY775" s="25"/>
       <c r="AZ775" s="25"/>
+      <c r="BA775" s="25"/>
     </row>
     <row r="776">
       <c r="AL776" s="25"/>
@@ -28064,6 +29064,7 @@
       <c r="AX776" s="25"/>
       <c r="AY776" s="25"/>
       <c r="AZ776" s="25"/>
+      <c r="BA776" s="25"/>
     </row>
     <row r="777">
       <c r="AL777" s="25"/>
@@ -28081,6 +29082,7 @@
       <c r="AX777" s="25"/>
       <c r="AY777" s="25"/>
       <c r="AZ777" s="25"/>
+      <c r="BA777" s="25"/>
     </row>
     <row r="778">
       <c r="AL778" s="25"/>
@@ -28098,6 +29100,7 @@
       <c r="AX778" s="25"/>
       <c r="AY778" s="25"/>
       <c r="AZ778" s="25"/>
+      <c r="BA778" s="25"/>
     </row>
     <row r="779">
       <c r="AL779" s="25"/>
@@ -28115,6 +29118,7 @@
       <c r="AX779" s="25"/>
       <c r="AY779" s="25"/>
       <c r="AZ779" s="25"/>
+      <c r="BA779" s="25"/>
     </row>
     <row r="780">
       <c r="AL780" s="25"/>
@@ -28132,6 +29136,7 @@
       <c r="AX780" s="25"/>
       <c r="AY780" s="25"/>
       <c r="AZ780" s="25"/>
+      <c r="BA780" s="25"/>
     </row>
     <row r="781">
       <c r="AL781" s="25"/>
@@ -28149,6 +29154,7 @@
       <c r="AX781" s="25"/>
       <c r="AY781" s="25"/>
       <c r="AZ781" s="25"/>
+      <c r="BA781" s="25"/>
     </row>
     <row r="782">
       <c r="AL782" s="25"/>
@@ -28166,6 +29172,7 @@
       <c r="AX782" s="25"/>
       <c r="AY782" s="25"/>
       <c r="AZ782" s="25"/>
+      <c r="BA782" s="25"/>
     </row>
     <row r="783">
       <c r="AL783" s="25"/>
@@ -28183,6 +29190,7 @@
       <c r="AX783" s="25"/>
       <c r="AY783" s="25"/>
       <c r="AZ783" s="25"/>
+      <c r="BA783" s="25"/>
     </row>
     <row r="784">
       <c r="AL784" s="25"/>
@@ -28200,6 +29208,7 @@
       <c r="AX784" s="25"/>
       <c r="AY784" s="25"/>
       <c r="AZ784" s="25"/>
+      <c r="BA784" s="25"/>
     </row>
     <row r="785">
       <c r="AL785" s="25"/>
@@ -28217,6 +29226,7 @@
       <c r="AX785" s="25"/>
       <c r="AY785" s="25"/>
       <c r="AZ785" s="25"/>
+      <c r="BA785" s="25"/>
     </row>
     <row r="786">
       <c r="AL786" s="25"/>
@@ -28234,6 +29244,7 @@
       <c r="AX786" s="25"/>
       <c r="AY786" s="25"/>
       <c r="AZ786" s="25"/>
+      <c r="BA786" s="25"/>
     </row>
     <row r="787">
       <c r="AL787" s="25"/>
@@ -28251,6 +29262,7 @@
       <c r="AX787" s="25"/>
       <c r="AY787" s="25"/>
       <c r="AZ787" s="25"/>
+      <c r="BA787" s="25"/>
     </row>
     <row r="788">
       <c r="AL788" s="25"/>
@@ -28268,6 +29280,7 @@
       <c r="AX788" s="25"/>
       <c r="AY788" s="25"/>
       <c r="AZ788" s="25"/>
+      <c r="BA788" s="25"/>
     </row>
     <row r="789">
       <c r="AL789" s="25"/>
@@ -28285,6 +29298,7 @@
       <c r="AX789" s="25"/>
       <c r="AY789" s="25"/>
       <c r="AZ789" s="25"/>
+      <c r="BA789" s="25"/>
     </row>
     <row r="790">
       <c r="AL790" s="25"/>
@@ -28302,6 +29316,7 @@
       <c r="AX790" s="25"/>
       <c r="AY790" s="25"/>
       <c r="AZ790" s="25"/>
+      <c r="BA790" s="25"/>
     </row>
     <row r="791">
       <c r="AL791" s="25"/>
@@ -28319,6 +29334,7 @@
       <c r="AX791" s="25"/>
       <c r="AY791" s="25"/>
       <c r="AZ791" s="25"/>
+      <c r="BA791" s="25"/>
     </row>
     <row r="792">
       <c r="AL792" s="25"/>
@@ -28336,6 +29352,7 @@
       <c r="AX792" s="25"/>
       <c r="AY792" s="25"/>
       <c r="AZ792" s="25"/>
+      <c r="BA792" s="25"/>
     </row>
     <row r="793">
       <c r="AL793" s="25"/>
@@ -28353,6 +29370,7 @@
       <c r="AX793" s="25"/>
       <c r="AY793" s="25"/>
       <c r="AZ793" s="25"/>
+      <c r="BA793" s="25"/>
     </row>
     <row r="794">
       <c r="AL794" s="25"/>
@@ -28370,6 +29388,7 @@
       <c r="AX794" s="25"/>
       <c r="AY794" s="25"/>
       <c r="AZ794" s="25"/>
+      <c r="BA794" s="25"/>
     </row>
     <row r="795">
       <c r="AL795" s="25"/>
@@ -28387,6 +29406,7 @@
       <c r="AX795" s="25"/>
       <c r="AY795" s="25"/>
       <c r="AZ795" s="25"/>
+      <c r="BA795" s="25"/>
     </row>
     <row r="796">
       <c r="AL796" s="25"/>
@@ -28404,6 +29424,7 @@
       <c r="AX796" s="25"/>
       <c r="AY796" s="25"/>
       <c r="AZ796" s="25"/>
+      <c r="BA796" s="25"/>
     </row>
     <row r="797">
       <c r="AL797" s="25"/>
@@ -28421,6 +29442,7 @@
       <c r="AX797" s="25"/>
       <c r="AY797" s="25"/>
       <c r="AZ797" s="25"/>
+      <c r="BA797" s="25"/>
     </row>
     <row r="798">
       <c r="AL798" s="25"/>
@@ -28438,6 +29460,7 @@
       <c r="AX798" s="25"/>
       <c r="AY798" s="25"/>
       <c r="AZ798" s="25"/>
+      <c r="BA798" s="25"/>
     </row>
     <row r="799">
       <c r="AL799" s="25"/>
@@ -28455,6 +29478,7 @@
       <c r="AX799" s="25"/>
       <c r="AY799" s="25"/>
       <c r="AZ799" s="25"/>
+      <c r="BA799" s="25"/>
     </row>
     <row r="800">
       <c r="AL800" s="25"/>
@@ -28472,6 +29496,7 @@
       <c r="AX800" s="25"/>
       <c r="AY800" s="25"/>
       <c r="AZ800" s="25"/>
+      <c r="BA800" s="25"/>
     </row>
     <row r="801">
       <c r="AL801" s="25"/>
@@ -28489,6 +29514,7 @@
       <c r="AX801" s="25"/>
       <c r="AY801" s="25"/>
       <c r="AZ801" s="25"/>
+      <c r="BA801" s="25"/>
     </row>
     <row r="802">
       <c r="AL802" s="25"/>
@@ -28506,6 +29532,7 @@
       <c r="AX802" s="25"/>
       <c r="AY802" s="25"/>
       <c r="AZ802" s="25"/>
+      <c r="BA802" s="25"/>
     </row>
     <row r="803">
       <c r="AL803" s="25"/>
@@ -28523,6 +29550,7 @@
       <c r="AX803" s="25"/>
       <c r="AY803" s="25"/>
       <c r="AZ803" s="25"/>
+      <c r="BA803" s="25"/>
     </row>
     <row r="804">
       <c r="AL804" s="25"/>
@@ -28540,6 +29568,7 @@
       <c r="AX804" s="25"/>
       <c r="AY804" s="25"/>
       <c r="AZ804" s="25"/>
+      <c r="BA804" s="25"/>
     </row>
     <row r="805">
       <c r="AL805" s="25"/>
@@ -28557,6 +29586,7 @@
       <c r="AX805" s="25"/>
       <c r="AY805" s="25"/>
       <c r="AZ805" s="25"/>
+      <c r="BA805" s="25"/>
     </row>
     <row r="806">
       <c r="AL806" s="25"/>
@@ -28574,6 +29604,7 @@
       <c r="AX806" s="25"/>
       <c r="AY806" s="25"/>
       <c r="AZ806" s="25"/>
+      <c r="BA806" s="25"/>
     </row>
     <row r="807">
       <c r="AL807" s="25"/>
@@ -28591,6 +29622,7 @@
       <c r="AX807" s="25"/>
       <c r="AY807" s="25"/>
       <c r="AZ807" s="25"/>
+      <c r="BA807" s="25"/>
     </row>
     <row r="808">
       <c r="AL808" s="25"/>
@@ -28608,6 +29640,7 @@
       <c r="AX808" s="25"/>
       <c r="AY808" s="25"/>
       <c r="AZ808" s="25"/>
+      <c r="BA808" s="25"/>
     </row>
     <row r="809">
       <c r="AL809" s="25"/>
@@ -28625,6 +29658,7 @@
       <c r="AX809" s="25"/>
       <c r="AY809" s="25"/>
       <c r="AZ809" s="25"/>
+      <c r="BA809" s="25"/>
     </row>
     <row r="810">
       <c r="AL810" s="25"/>
@@ -28642,6 +29676,7 @@
       <c r="AX810" s="25"/>
       <c r="AY810" s="25"/>
       <c r="AZ810" s="25"/>
+      <c r="BA810" s="25"/>
     </row>
     <row r="811">
       <c r="AL811" s="25"/>
@@ -28659,6 +29694,7 @@
       <c r="AX811" s="25"/>
       <c r="AY811" s="25"/>
       <c r="AZ811" s="25"/>
+      <c r="BA811" s="25"/>
     </row>
     <row r="812">
       <c r="AL812" s="25"/>
@@ -28676,6 +29712,7 @@
       <c r="AX812" s="25"/>
       <c r="AY812" s="25"/>
       <c r="AZ812" s="25"/>
+      <c r="BA812" s="25"/>
     </row>
     <row r="813">
       <c r="AL813" s="25"/>
@@ -28693,6 +29730,7 @@
       <c r="AX813" s="25"/>
       <c r="AY813" s="25"/>
       <c r="AZ813" s="25"/>
+      <c r="BA813" s="25"/>
     </row>
     <row r="814">
       <c r="AL814" s="25"/>
@@ -28710,6 +29748,7 @@
       <c r="AX814" s="25"/>
       <c r="AY814" s="25"/>
       <c r="AZ814" s="25"/>
+      <c r="BA814" s="25"/>
     </row>
     <row r="815">
       <c r="AL815" s="25"/>
@@ -28727,6 +29766,7 @@
       <c r="AX815" s="25"/>
       <c r="AY815" s="25"/>
       <c r="AZ815" s="25"/>
+      <c r="BA815" s="25"/>
     </row>
     <row r="816">
       <c r="AL816" s="25"/>
@@ -28744,6 +29784,7 @@
       <c r="AX816" s="25"/>
       <c r="AY816" s="25"/>
       <c r="AZ816" s="25"/>
+      <c r="BA816" s="25"/>
     </row>
     <row r="817">
       <c r="AL817" s="25"/>
@@ -28761,6 +29802,7 @@
       <c r="AX817" s="25"/>
       <c r="AY817" s="25"/>
       <c r="AZ817" s="25"/>
+      <c r="BA817" s="25"/>
     </row>
     <row r="818">
       <c r="AL818" s="25"/>
@@ -28778,6 +29820,7 @@
       <c r="AX818" s="25"/>
       <c r="AY818" s="25"/>
       <c r="AZ818" s="25"/>
+      <c r="BA818" s="25"/>
     </row>
     <row r="819">
       <c r="AL819" s="25"/>
@@ -28795,6 +29838,7 @@
       <c r="AX819" s="25"/>
       <c r="AY819" s="25"/>
       <c r="AZ819" s="25"/>
+      <c r="BA819" s="25"/>
     </row>
     <row r="820">
       <c r="AL820" s="25"/>
@@ -28812,6 +29856,7 @@
       <c r="AX820" s="25"/>
       <c r="AY820" s="25"/>
       <c r="AZ820" s="25"/>
+      <c r="BA820" s="25"/>
     </row>
     <row r="821">
       <c r="AL821" s="25"/>
@@ -28829,6 +29874,7 @@
       <c r="AX821" s="25"/>
       <c r="AY821" s="25"/>
       <c r="AZ821" s="25"/>
+      <c r="BA821" s="25"/>
     </row>
     <row r="822">
       <c r="AL822" s="25"/>
@@ -28846,6 +29892,7 @@
       <c r="AX822" s="25"/>
       <c r="AY822" s="25"/>
       <c r="AZ822" s="25"/>
+      <c r="BA822" s="25"/>
     </row>
     <row r="823">
       <c r="AL823" s="25"/>
@@ -28863,6 +29910,7 @@
       <c r="AX823" s="25"/>
       <c r="AY823" s="25"/>
       <c r="AZ823" s="25"/>
+      <c r="BA823" s="25"/>
     </row>
     <row r="824">
       <c r="AL824" s="25"/>
@@ -28880,6 +29928,7 @@
       <c r="AX824" s="25"/>
       <c r="AY824" s="25"/>
       <c r="AZ824" s="25"/>
+      <c r="BA824" s="25"/>
     </row>
     <row r="825">
       <c r="AL825" s="25"/>
@@ -28897,6 +29946,7 @@
       <c r="AX825" s="25"/>
       <c r="AY825" s="25"/>
       <c r="AZ825" s="25"/>
+      <c r="BA825" s="25"/>
     </row>
     <row r="826">
       <c r="AL826" s="25"/>
@@ -28914,6 +29964,7 @@
       <c r="AX826" s="25"/>
       <c r="AY826" s="25"/>
       <c r="AZ826" s="25"/>
+      <c r="BA826" s="25"/>
     </row>
     <row r="827">
       <c r="AL827" s="25"/>
@@ -28931,6 +29982,7 @@
       <c r="AX827" s="25"/>
       <c r="AY827" s="25"/>
       <c r="AZ827" s="25"/>
+      <c r="BA827" s="25"/>
     </row>
     <row r="828">
       <c r="AL828" s="25"/>
@@ -28948,6 +30000,7 @@
       <c r="AX828" s="25"/>
       <c r="AY828" s="25"/>
       <c r="AZ828" s="25"/>
+      <c r="BA828" s="25"/>
     </row>
     <row r="829">
       <c r="AL829" s="25"/>
@@ -28965,6 +30018,7 @@
       <c r="AX829" s="25"/>
       <c r="AY829" s="25"/>
       <c r="AZ829" s="25"/>
+      <c r="BA829" s="25"/>
     </row>
     <row r="830">
       <c r="AL830" s="25"/>
@@ -28982,6 +30036,7 @@
       <c r="AX830" s="25"/>
       <c r="AY830" s="25"/>
       <c r="AZ830" s="25"/>
+      <c r="BA830" s="25"/>
     </row>
     <row r="831">
       <c r="AL831" s="25"/>
@@ -28999,6 +30054,7 @@
       <c r="AX831" s="25"/>
       <c r="AY831" s="25"/>
       <c r="AZ831" s="25"/>
+      <c r="BA831" s="25"/>
     </row>
     <row r="832">
       <c r="AL832" s="25"/>
@@ -29016,6 +30072,7 @@
       <c r="AX832" s="25"/>
       <c r="AY832" s="25"/>
       <c r="AZ832" s="25"/>
+      <c r="BA832" s="25"/>
     </row>
     <row r="833">
       <c r="AL833" s="25"/>
@@ -29033,6 +30090,7 @@
       <c r="AX833" s="25"/>
       <c r="AY833" s="25"/>
       <c r="AZ833" s="25"/>
+      <c r="BA833" s="25"/>
     </row>
     <row r="834">
       <c r="AL834" s="25"/>
@@ -29050,6 +30108,7 @@
       <c r="AX834" s="25"/>
       <c r="AY834" s="25"/>
       <c r="AZ834" s="25"/>
+      <c r="BA834" s="25"/>
     </row>
     <row r="835">
       <c r="AL835" s="25"/>
@@ -29067,6 +30126,7 @@
       <c r="AX835" s="25"/>
       <c r="AY835" s="25"/>
       <c r="AZ835" s="25"/>
+      <c r="BA835" s="25"/>
     </row>
     <row r="836">
       <c r="AL836" s="25"/>
@@ -29084,6 +30144,7 @@
       <c r="AX836" s="25"/>
       <c r="AY836" s="25"/>
       <c r="AZ836" s="25"/>
+      <c r="BA836" s="25"/>
     </row>
     <row r="837">
       <c r="AL837" s="25"/>
@@ -29101,6 +30162,7 @@
       <c r="AX837" s="25"/>
       <c r="AY837" s="25"/>
       <c r="AZ837" s="25"/>
+      <c r="BA837" s="25"/>
     </row>
     <row r="838">
       <c r="AL838" s="25"/>
@@ -29118,6 +30180,7 @@
       <c r="AX838" s="25"/>
       <c r="AY838" s="25"/>
       <c r="AZ838" s="25"/>
+      <c r="BA838" s="25"/>
     </row>
     <row r="839">
       <c r="AL839" s="25"/>
@@ -29135,6 +30198,7 @@
       <c r="AX839" s="25"/>
       <c r="AY839" s="25"/>
       <c r="AZ839" s="25"/>
+      <c r="BA839" s="25"/>
     </row>
     <row r="840">
       <c r="AL840" s="25"/>
@@ -29152,6 +30216,7 @@
       <c r="AX840" s="25"/>
       <c r="AY840" s="25"/>
       <c r="AZ840" s="25"/>
+      <c r="BA840" s="25"/>
     </row>
     <row r="841">
       <c r="AL841" s="25"/>
@@ -29169,6 +30234,7 @@
       <c r="AX841" s="25"/>
       <c r="AY841" s="25"/>
       <c r="AZ841" s="25"/>
+      <c r="BA841" s="25"/>
     </row>
     <row r="842">
       <c r="AL842" s="25"/>
@@ -29186,6 +30252,7 @@
       <c r="AX842" s="25"/>
       <c r="AY842" s="25"/>
       <c r="AZ842" s="25"/>
+      <c r="BA842" s="25"/>
     </row>
     <row r="843">
       <c r="AL843" s="25"/>
@@ -29203,6 +30270,7 @@
       <c r="AX843" s="25"/>
       <c r="AY843" s="25"/>
       <c r="AZ843" s="25"/>
+      <c r="BA843" s="25"/>
     </row>
     <row r="844">
       <c r="AL844" s="25"/>
@@ -29220,6 +30288,7 @@
       <c r="AX844" s="25"/>
       <c r="AY844" s="25"/>
       <c r="AZ844" s="25"/>
+      <c r="BA844" s="25"/>
     </row>
     <row r="845">
       <c r="AL845" s="25"/>
@@ -29237,6 +30306,7 @@
       <c r="AX845" s="25"/>
       <c r="AY845" s="25"/>
       <c r="AZ845" s="25"/>
+      <c r="BA845" s="25"/>
     </row>
     <row r="846">
       <c r="AL846" s="25"/>
@@ -29254,6 +30324,7 @@
       <c r="AX846" s="25"/>
       <c r="AY846" s="25"/>
       <c r="AZ846" s="25"/>
+      <c r="BA846" s="25"/>
     </row>
     <row r="847">
       <c r="AL847" s="25"/>
@@ -29271,6 +30342,7 @@
       <c r="AX847" s="25"/>
       <c r="AY847" s="25"/>
       <c r="AZ847" s="25"/>
+      <c r="BA847" s="25"/>
     </row>
     <row r="848">
       <c r="AL848" s="25"/>
@@ -29288,6 +30360,7 @@
       <c r="AX848" s="25"/>
       <c r="AY848" s="25"/>
       <c r="AZ848" s="25"/>
+      <c r="BA848" s="25"/>
     </row>
     <row r="849">
       <c r="AL849" s="25"/>
@@ -29305,6 +30378,7 @@
       <c r="AX849" s="25"/>
       <c r="AY849" s="25"/>
       <c r="AZ849" s="25"/>
+      <c r="BA849" s="25"/>
     </row>
     <row r="850">
       <c r="AL850" s="25"/>
@@ -29322,6 +30396,7 @@
       <c r="AX850" s="25"/>
       <c r="AY850" s="25"/>
       <c r="AZ850" s="25"/>
+      <c r="BA850" s="25"/>
     </row>
     <row r="851">
       <c r="AL851" s="25"/>
@@ -29339,6 +30414,7 @@
       <c r="AX851" s="25"/>
       <c r="AY851" s="25"/>
       <c r="AZ851" s="25"/>
+      <c r="BA851" s="25"/>
     </row>
     <row r="852">
       <c r="AL852" s="25"/>
@@ -29356,6 +30432,7 @@
       <c r="AX852" s="25"/>
       <c r="AY852" s="25"/>
       <c r="AZ852" s="25"/>
+      <c r="BA852" s="25"/>
     </row>
     <row r="853">
       <c r="AL853" s="25"/>
@@ -29373,6 +30450,7 @@
       <c r="AX853" s="25"/>
       <c r="AY853" s="25"/>
       <c r="AZ853" s="25"/>
+      <c r="BA853" s="25"/>
     </row>
     <row r="854">
       <c r="AL854" s="25"/>
@@ -29390,6 +30468,7 @@
       <c r="AX854" s="25"/>
       <c r="AY854" s="25"/>
       <c r="AZ854" s="25"/>
+      <c r="BA854" s="25"/>
     </row>
     <row r="855">
       <c r="AL855" s="25"/>
@@ -29407,6 +30486,7 @@
       <c r="AX855" s="25"/>
       <c r="AY855" s="25"/>
       <c r="AZ855" s="25"/>
+      <c r="BA855" s="25"/>
     </row>
     <row r="856">
       <c r="AL856" s="25"/>
@@ -29424,6 +30504,7 @@
       <c r="AX856" s="25"/>
       <c r="AY856" s="25"/>
       <c r="AZ856" s="25"/>
+      <c r="BA856" s="25"/>
     </row>
     <row r="857">
       <c r="AL857" s="25"/>
@@ -29441,6 +30522,7 @@
       <c r="AX857" s="25"/>
       <c r="AY857" s="25"/>
       <c r="AZ857" s="25"/>
+      <c r="BA857" s="25"/>
     </row>
     <row r="858">
       <c r="AL858" s="25"/>
@@ -29458,6 +30540,7 @@
       <c r="AX858" s="25"/>
       <c r="AY858" s="25"/>
       <c r="AZ858" s="25"/>
+      <c r="BA858" s="25"/>
     </row>
     <row r="859">
       <c r="AL859" s="25"/>
@@ -29475,6 +30558,7 @@
       <c r="AX859" s="25"/>
       <c r="AY859" s="25"/>
       <c r="AZ859" s="25"/>
+      <c r="BA859" s="25"/>
     </row>
     <row r="860">
       <c r="AL860" s="25"/>
@@ -29492,6 +30576,7 @@
       <c r="AX860" s="25"/>
       <c r="AY860" s="25"/>
       <c r="AZ860" s="25"/>
+      <c r="BA860" s="25"/>
     </row>
     <row r="861">
       <c r="AL861" s="25"/>
@@ -29509,6 +30594,7 @@
       <c r="AX861" s="25"/>
       <c r="AY861" s="25"/>
       <c r="AZ861" s="25"/>
+      <c r="BA861" s="25"/>
     </row>
     <row r="862">
       <c r="AL862" s="25"/>
@@ -29526,6 +30612,7 @@
       <c r="AX862" s="25"/>
       <c r="AY862" s="25"/>
       <c r="AZ862" s="25"/>
+      <c r="BA862" s="25"/>
     </row>
     <row r="863">
       <c r="AL863" s="25"/>
@@ -29543,6 +30630,7 @@
       <c r="AX863" s="25"/>
       <c r="AY863" s="25"/>
       <c r="AZ863" s="25"/>
+      <c r="BA863" s="25"/>
     </row>
     <row r="864">
       <c r="AL864" s="25"/>
@@ -29560,6 +30648,7 @@
       <c r="AX864" s="25"/>
       <c r="AY864" s="25"/>
       <c r="AZ864" s="25"/>
+      <c r="BA864" s="25"/>
     </row>
     <row r="865">
       <c r="AL865" s="25"/>
@@ -29577,6 +30666,7 @@
       <c r="AX865" s="25"/>
       <c r="AY865" s="25"/>
       <c r="AZ865" s="25"/>
+      <c r="BA865" s="25"/>
     </row>
     <row r="866">
       <c r="AL866" s="25"/>
@@ -29594,6 +30684,7 @@
       <c r="AX866" s="25"/>
       <c r="AY866" s="25"/>
       <c r="AZ866" s="25"/>
+      <c r="BA866" s="25"/>
     </row>
     <row r="867">
       <c r="AL867" s="25"/>
@@ -29611,6 +30702,7 @@
       <c r="AX867" s="25"/>
       <c r="AY867" s="25"/>
       <c r="AZ867" s="25"/>
+      <c r="BA867" s="25"/>
     </row>
     <row r="868">
       <c r="AL868" s="25"/>
@@ -29628,6 +30720,7 @@
       <c r="AX868" s="25"/>
       <c r="AY868" s="25"/>
       <c r="AZ868" s="25"/>
+      <c r="BA868" s="25"/>
     </row>
     <row r="869">
       <c r="AL869" s="25"/>
@@ -29645,6 +30738,7 @@
       <c r="AX869" s="25"/>
       <c r="AY869" s="25"/>
       <c r="AZ869" s="25"/>
+      <c r="BA869" s="25"/>
     </row>
     <row r="870">
       <c r="AL870" s="25"/>
@@ -29662,6 +30756,7 @@
       <c r="AX870" s="25"/>
       <c r="AY870" s="25"/>
       <c r="AZ870" s="25"/>
+      <c r="BA870" s="25"/>
     </row>
     <row r="871">
       <c r="AL871" s="25"/>
@@ -29679,6 +30774,7 @@
       <c r="AX871" s="25"/>
       <c r="AY871" s="25"/>
       <c r="AZ871" s="25"/>
+      <c r="BA871" s="25"/>
     </row>
     <row r="872">
       <c r="AL872" s="25"/>
@@ -29696,6 +30792,7 @@
       <c r="AX872" s="25"/>
       <c r="AY872" s="25"/>
       <c r="AZ872" s="25"/>
+      <c r="BA872" s="25"/>
     </row>
     <row r="873">
       <c r="AL873" s="25"/>
@@ -29713,6 +30810,7 @@
       <c r="AX873" s="25"/>
       <c r="AY873" s="25"/>
       <c r="AZ873" s="25"/>
+      <c r="BA873" s="25"/>
     </row>
     <row r="874">
       <c r="AL874" s="25"/>
@@ -29730,6 +30828,7 @@
       <c r="AX874" s="25"/>
       <c r="AY874" s="25"/>
       <c r="AZ874" s="25"/>
+      <c r="BA874" s="25"/>
     </row>
     <row r="875">
       <c r="AL875" s="25"/>
@@ -29747,6 +30846,7 @@
       <c r="AX875" s="25"/>
       <c r="AY875" s="25"/>
       <c r="AZ875" s="25"/>
+      <c r="BA875" s="25"/>
     </row>
     <row r="876">
       <c r="AL876" s="25"/>
@@ -29764,6 +30864,7 @@
       <c r="AX876" s="25"/>
       <c r="AY876" s="25"/>
       <c r="AZ876" s="25"/>
+      <c r="BA876" s="25"/>
     </row>
     <row r="877">
       <c r="AL877" s="25"/>
@@ -29781,6 +30882,7 @@
       <c r="AX877" s="25"/>
       <c r="AY877" s="25"/>
       <c r="AZ877" s="25"/>
+      <c r="BA877" s="25"/>
     </row>
     <row r="878">
       <c r="AL878" s="25"/>
@@ -29798,6 +30900,7 @@
       <c r="AX878" s="25"/>
       <c r="AY878" s="25"/>
       <c r="AZ878" s="25"/>
+      <c r="BA878" s="25"/>
     </row>
     <row r="879">
       <c r="AL879" s="25"/>
@@ -29815,6 +30918,7 @@
       <c r="AX879" s="25"/>
       <c r="AY879" s="25"/>
       <c r="AZ879" s="25"/>
+      <c r="BA879" s="25"/>
     </row>
     <row r="880">
       <c r="AL880" s="25"/>
@@ -29832,6 +30936,7 @@
       <c r="AX880" s="25"/>
       <c r="AY880" s="25"/>
       <c r="AZ880" s="25"/>
+      <c r="BA880" s="25"/>
     </row>
     <row r="881">
       <c r="AL881" s="25"/>
@@ -29849,6 +30954,7 @@
       <c r="AX881" s="25"/>
       <c r="AY881" s="25"/>
       <c r="AZ881" s="25"/>
+      <c r="BA881" s="25"/>
     </row>
     <row r="882">
       <c r="AL882" s="25"/>
@@ -29866,6 +30972,7 @@
       <c r="AX882" s="25"/>
       <c r="AY882" s="25"/>
       <c r="AZ882" s="25"/>
+      <c r="BA882" s="25"/>
     </row>
     <row r="883">
       <c r="AL883" s="25"/>
@@ -29883,6 +30990,7 @@
       <c r="AX883" s="25"/>
       <c r="AY883" s="25"/>
       <c r="AZ883" s="25"/>
+      <c r="BA883" s="25"/>
     </row>
     <row r="884">
       <c r="AL884" s="25"/>
@@ -29900,6 +31008,7 @@
       <c r="AX884" s="25"/>
       <c r="AY884" s="25"/>
       <c r="AZ884" s="25"/>
+      <c r="BA884" s="25"/>
     </row>
     <row r="885">
       <c r="AL885" s="25"/>
@@ -29917,6 +31026,7 @@
       <c r="AX885" s="25"/>
       <c r="AY885" s="25"/>
       <c r="AZ885" s="25"/>
+      <c r="BA885" s="25"/>
     </row>
     <row r="886">
       <c r="AL886" s="25"/>
@@ -29934,6 +31044,7 @@
       <c r="AX886" s="25"/>
       <c r="AY886" s="25"/>
       <c r="AZ886" s="25"/>
+      <c r="BA886" s="25"/>
     </row>
     <row r="887">
       <c r="AL887" s="25"/>
@@ -29951,6 +31062,7 @@
       <c r="AX887" s="25"/>
       <c r="AY887" s="25"/>
       <c r="AZ887" s="25"/>
+      <c r="BA887" s="25"/>
     </row>
     <row r="888">
       <c r="AL888" s="25"/>
@@ -29968,6 +31080,7 @@
       <c r="AX888" s="25"/>
       <c r="AY888" s="25"/>
       <c r="AZ888" s="25"/>
+      <c r="BA888" s="25"/>
     </row>
     <row r="889">
       <c r="AL889" s="25"/>
@@ -29985,6 +31098,7 @@
       <c r="AX889" s="25"/>
       <c r="AY889" s="25"/>
       <c r="AZ889" s="25"/>
+      <c r="BA889" s="25"/>
     </row>
     <row r="890">
       <c r="AL890" s="25"/>
@@ -30002,6 +31116,7 @@
       <c r="AX890" s="25"/>
       <c r="AY890" s="25"/>
       <c r="AZ890" s="25"/>
+      <c r="BA890" s="25"/>
     </row>
     <row r="891">
       <c r="AL891" s="25"/>
@@ -30019,6 +31134,7 @@
       <c r="AX891" s="25"/>
       <c r="AY891" s="25"/>
       <c r="AZ891" s="25"/>
+      <c r="BA891" s="25"/>
     </row>
     <row r="892">
       <c r="AL892" s="25"/>
@@ -30036,6 +31152,7 @@
       <c r="AX892" s="25"/>
       <c r="AY892" s="25"/>
       <c r="AZ892" s="25"/>
+      <c r="BA892" s="25"/>
     </row>
     <row r="893">
       <c r="AL893" s="25"/>
@@ -30053,6 +31170,7 @@
       <c r="AX893" s="25"/>
       <c r="AY893" s="25"/>
       <c r="AZ893" s="25"/>
+      <c r="BA893" s="25"/>
     </row>
     <row r="894">
       <c r="AL894" s="25"/>
@@ -30070,6 +31188,7 @@
       <c r="AX894" s="25"/>
       <c r="AY894" s="25"/>
       <c r="AZ894" s="25"/>
+      <c r="BA894" s="25"/>
     </row>
     <row r="895">
       <c r="AL895" s="25"/>
@@ -30087,6 +31206,7 @@
       <c r="AX895" s="25"/>
       <c r="AY895" s="25"/>
       <c r="AZ895" s="25"/>
+      <c r="BA895" s="25"/>
     </row>
     <row r="896">
       <c r="AL896" s="25"/>
@@ -30104,6 +31224,7 @@
       <c r="AX896" s="25"/>
       <c r="AY896" s="25"/>
       <c r="AZ896" s="25"/>
+      <c r="BA896" s="25"/>
     </row>
     <row r="897">
       <c r="AL897" s="25"/>
@@ -30121,6 +31242,7 @@
       <c r="AX897" s="25"/>
       <c r="AY897" s="25"/>
       <c r="AZ897" s="25"/>
+      <c r="BA897" s="25"/>
     </row>
     <row r="898">
       <c r="AL898" s="25"/>
@@ -30138,6 +31260,7 @@
       <c r="AX898" s="25"/>
       <c r="AY898" s="25"/>
       <c r="AZ898" s="25"/>
+      <c r="BA898" s="25"/>
     </row>
     <row r="899">
       <c r="AL899" s="25"/>
@@ -30155,6 +31278,7 @@
       <c r="AX899" s="25"/>
       <c r="AY899" s="25"/>
       <c r="AZ899" s="25"/>
+      <c r="BA899" s="25"/>
     </row>
     <row r="900">
       <c r="AL900" s="25"/>
@@ -30172,6 +31296,7 @@
       <c r="AX900" s="25"/>
       <c r="AY900" s="25"/>
       <c r="AZ900" s="25"/>
+      <c r="BA900" s="25"/>
     </row>
     <row r="901">
       <c r="AL901" s="25"/>
@@ -30189,6 +31314,7 @@
       <c r="AX901" s="25"/>
       <c r="AY901" s="25"/>
       <c r="AZ901" s="25"/>
+      <c r="BA901" s="25"/>
     </row>
     <row r="902">
       <c r="AL902" s="25"/>
@@ -30206,6 +31332,7 @@
       <c r="AX902" s="25"/>
       <c r="AY902" s="25"/>
       <c r="AZ902" s="25"/>
+      <c r="BA902" s="25"/>
     </row>
     <row r="903">
       <c r="AL903" s="25"/>
@@ -30223,6 +31350,7 @@
       <c r="AX903" s="25"/>
       <c r="AY903" s="25"/>
       <c r="AZ903" s="25"/>
+      <c r="BA903" s="25"/>
     </row>
     <row r="904">
       <c r="AL904" s="25"/>
@@ -30240,6 +31368,7 @@
       <c r="AX904" s="25"/>
       <c r="AY904" s="25"/>
       <c r="AZ904" s="25"/>
+      <c r="BA904" s="25"/>
     </row>
     <row r="905">
       <c r="AL905" s="25"/>
@@ -30257,6 +31386,7 @@
       <c r="AX905" s="25"/>
       <c r="AY905" s="25"/>
       <c r="AZ905" s="25"/>
+      <c r="BA905" s="25"/>
     </row>
     <row r="906">
       <c r="AL906" s="25"/>
@@ -30274,6 +31404,7 @@
       <c r="AX906" s="25"/>
       <c r="AY906" s="25"/>
       <c r="AZ906" s="25"/>
+      <c r="BA906" s="25"/>
     </row>
     <row r="907">
       <c r="AL907" s="25"/>
@@ -30291,6 +31422,7 @@
       <c r="AX907" s="25"/>
       <c r="AY907" s="25"/>
       <c r="AZ907" s="25"/>
+      <c r="BA907" s="25"/>
     </row>
     <row r="908">
       <c r="AL908" s="25"/>
@@ -30308,6 +31440,7 @@
       <c r="AX908" s="25"/>
       <c r="AY908" s="25"/>
       <c r="AZ908" s="25"/>
+      <c r="BA908" s="25"/>
     </row>
     <row r="909">
       <c r="AL909" s="25"/>
@@ -30325,6 +31458,7 @@
       <c r="AX909" s="25"/>
       <c r="AY909" s="25"/>
       <c r="AZ909" s="25"/>
+      <c r="BA909" s="25"/>
     </row>
     <row r="910">
       <c r="AL910" s="25"/>
@@ -30342,6 +31476,7 @@
       <c r="AX910" s="25"/>
       <c r="AY910" s="25"/>
       <c r="AZ910" s="25"/>
+      <c r="BA910" s="25"/>
     </row>
     <row r="911">
       <c r="AL911" s="25"/>
@@ -30359,6 +31494,7 @@
       <c r="AX911" s="25"/>
       <c r="AY911" s="25"/>
       <c r="AZ911" s="25"/>
+      <c r="BA911" s="25"/>
     </row>
     <row r="912">
       <c r="AL912" s="25"/>
@@ -30376,6 +31512,7 @@
       <c r="AX912" s="25"/>
       <c r="AY912" s="25"/>
       <c r="AZ912" s="25"/>
+      <c r="BA912" s="25"/>
     </row>
     <row r="913">
       <c r="AL913" s="25"/>
@@ -30393,6 +31530,7 @@
       <c r="AX913" s="25"/>
       <c r="AY913" s="25"/>
       <c r="AZ913" s="25"/>
+      <c r="BA913" s="25"/>
     </row>
     <row r="914">
       <c r="AL914" s="25"/>
@@ -30410,6 +31548,7 @@
       <c r="AX914" s="25"/>
       <c r="AY914" s="25"/>
       <c r="AZ914" s="25"/>
+      <c r="BA914" s="25"/>
     </row>
     <row r="915">
       <c r="AL915" s="25"/>
@@ -30427,6 +31566,7 @@
       <c r="AX915" s="25"/>
       <c r="AY915" s="25"/>
       <c r="AZ915" s="25"/>
+      <c r="BA915" s="25"/>
     </row>
     <row r="916">
       <c r="AL916" s="25"/>
@@ -30444,6 +31584,7 @@
       <c r="AX916" s="25"/>
       <c r="AY916" s="25"/>
       <c r="AZ916" s="25"/>
+      <c r="BA916" s="25"/>
     </row>
     <row r="917">
       <c r="AL917" s="25"/>
@@ -30461,6 +31602,7 @@
       <c r="AX917" s="25"/>
       <c r="AY917" s="25"/>
       <c r="AZ917" s="25"/>
+      <c r="BA917" s="25"/>
     </row>
     <row r="918">
       <c r="AL918" s="25"/>
@@ -30478,6 +31620,7 @@
       <c r="AX918" s="25"/>
       <c r="AY918" s="25"/>
       <c r="AZ918" s="25"/>
+      <c r="BA918" s="25"/>
     </row>
     <row r="919">
       <c r="AL919" s="25"/>
@@ -30495,6 +31638,7 @@
       <c r="AX919" s="25"/>
       <c r="AY919" s="25"/>
       <c r="AZ919" s="25"/>
+      <c r="BA919" s="25"/>
     </row>
     <row r="920">
       <c r="AL920" s="25"/>
@@ -30512,6 +31656,7 @@
       <c r="AX920" s="25"/>
       <c r="AY920" s="25"/>
       <c r="AZ920" s="25"/>
+      <c r="BA920" s="25"/>
     </row>
     <row r="921">
       <c r="AL921" s="25"/>
@@ -30529,6 +31674,7 @@
       <c r="AX921" s="25"/>
       <c r="AY921" s="25"/>
       <c r="AZ921" s="25"/>
+      <c r="BA921" s="25"/>
     </row>
     <row r="922">
       <c r="AL922" s="25"/>
@@ -30546,6 +31692,7 @@
       <c r="AX922" s="25"/>
       <c r="AY922" s="25"/>
       <c r="AZ922" s="25"/>
+      <c r="BA922" s="25"/>
     </row>
     <row r="923">
       <c r="AL923" s="25"/>
@@ -30563,6 +31710,7 @@
       <c r="AX923" s="25"/>
       <c r="AY923" s="25"/>
       <c r="AZ923" s="25"/>
+      <c r="BA923" s="25"/>
     </row>
     <row r="924">
       <c r="AL924" s="25"/>
@@ -30580,6 +31728,7 @@
       <c r="AX924" s="25"/>
       <c r="AY924" s="25"/>
       <c r="AZ924" s="25"/>
+      <c r="BA924" s="25"/>
     </row>
     <row r="925">
       <c r="AL925" s="25"/>
@@ -30597,6 +31746,7 @@
       <c r="AX925" s="25"/>
       <c r="AY925" s="25"/>
       <c r="AZ925" s="25"/>
+      <c r="BA925" s="25"/>
     </row>
     <row r="926">
       <c r="AL926" s="25"/>
@@ -30614,6 +31764,7 @@
       <c r="AX926" s="25"/>
       <c r="AY926" s="25"/>
       <c r="AZ926" s="25"/>
+      <c r="BA926" s="25"/>
     </row>
     <row r="927">
       <c r="AL927" s="25"/>
@@ -30631,6 +31782,7 @@
       <c r="AX927" s="25"/>
       <c r="AY927" s="25"/>
       <c r="AZ927" s="25"/>
+      <c r="BA927" s="25"/>
     </row>
     <row r="928">
       <c r="AL928" s="25"/>
@@ -30648,6 +31800,7 @@
       <c r="AX928" s="25"/>
       <c r="AY928" s="25"/>
       <c r="AZ928" s="25"/>
+      <c r="BA928" s="25"/>
     </row>
     <row r="929">
       <c r="AL929" s="25"/>
@@ -30665,6 +31818,7 @@
       <c r="AX929" s="25"/>
       <c r="AY929" s="25"/>
       <c r="AZ929" s="25"/>
+      <c r="BA929" s="25"/>
     </row>
     <row r="930">
       <c r="AL930" s="25"/>
@@ -30682,6 +31836,7 @@
       <c r="AX930" s="25"/>
       <c r="AY930" s="25"/>
       <c r="AZ930" s="25"/>
+      <c r="BA930" s="25"/>
     </row>
     <row r="931">
       <c r="AL931" s="25"/>
@@ -30699,6 +31854,7 @@
       <c r="AX931" s="25"/>
       <c r="AY931" s="25"/>
       <c r="AZ931" s="25"/>
+      <c r="BA931" s="25"/>
     </row>
     <row r="932">
       <c r="AL932" s="25"/>
@@ -30716,6 +31872,7 @@
       <c r="AX932" s="25"/>
       <c r="AY932" s="25"/>
       <c r="AZ932" s="25"/>
+      <c r="BA932" s="25"/>
     </row>
     <row r="933">
       <c r="AL933" s="25"/>
@@ -30733,6 +31890,7 @@
       <c r="AX933" s="25"/>
       <c r="AY933" s="25"/>
       <c r="AZ933" s="25"/>
+      <c r="BA933" s="25"/>
     </row>
     <row r="934">
       <c r="AL934" s="25"/>
@@ -30750,6 +31908,7 @@
       <c r="AX934" s="25"/>
       <c r="AY934" s="25"/>
       <c r="AZ934" s="25"/>
+      <c r="BA934" s="25"/>
     </row>
     <row r="935">
       <c r="AL935" s="25"/>
@@ -30767,6 +31926,7 @@
       <c r="AX935" s="25"/>
       <c r="AY935" s="25"/>
       <c r="AZ935" s="25"/>
+      <c r="BA935" s="25"/>
     </row>
     <row r="936">
       <c r="AL936" s="25"/>
@@ -30784,6 +31944,7 @@
       <c r="AX936" s="25"/>
       <c r="AY936" s="25"/>
       <c r="AZ936" s="25"/>
+      <c r="BA936" s="25"/>
     </row>
     <row r="937">
       <c r="AL937" s="25"/>
@@ -30801,6 +31962,7 @@
       <c r="AX937" s="25"/>
       <c r="AY937" s="25"/>
       <c r="AZ937" s="25"/>
+      <c r="BA937" s="25"/>
     </row>
     <row r="938">
       <c r="AL938" s="25"/>
@@ -30818,6 +31980,7 @@
       <c r="AX938" s="25"/>
       <c r="AY938" s="25"/>
       <c r="AZ938" s="25"/>
+      <c r="BA938" s="25"/>
     </row>
     <row r="939">
       <c r="AL939" s="25"/>
@@ -30835,6 +31998,7 @@
       <c r="AX939" s="25"/>
       <c r="AY939" s="25"/>
       <c r="AZ939" s="25"/>
+      <c r="BA939" s="25"/>
     </row>
     <row r="940">
       <c r="AL940" s="25"/>
@@ -30852,6 +32016,7 @@
       <c r="AX940" s="25"/>
       <c r="AY940" s="25"/>
       <c r="AZ940" s="25"/>
+      <c r="BA940" s="25"/>
     </row>
     <row r="941">
       <c r="AL941" s="25"/>
@@ -30869,6 +32034,7 @@
       <c r="AX941" s="25"/>
       <c r="AY941" s="25"/>
       <c r="AZ941" s="25"/>
+      <c r="BA941" s="25"/>
     </row>
     <row r="942">
       <c r="AL942" s="25"/>
@@ -30886,6 +32052,7 @@
       <c r="AX942" s="25"/>
       <c r="AY942" s="25"/>
       <c r="AZ942" s="25"/>
+      <c r="BA942" s="25"/>
     </row>
     <row r="943">
       <c r="AL943" s="25"/>
@@ -30903,6 +32070,7 @@
       <c r="AX943" s="25"/>
       <c r="AY943" s="25"/>
       <c r="AZ943" s="25"/>
+      <c r="BA943" s="25"/>
     </row>
     <row r="944">
       <c r="AL944" s="25"/>
@@ -30920,6 +32088,7 @@
       <c r="AX944" s="25"/>
       <c r="AY944" s="25"/>
       <c r="AZ944" s="25"/>
+      <c r="BA944" s="25"/>
     </row>
     <row r="945">
       <c r="AL945" s="25"/>
@@ -30937,6 +32106,7 @@
       <c r="AX945" s="25"/>
       <c r="AY945" s="25"/>
       <c r="AZ945" s="25"/>
+      <c r="BA945" s="25"/>
     </row>
     <row r="946">
       <c r="AL946" s="25"/>
@@ -30954,6 +32124,7 @@
       <c r="AX946" s="25"/>
       <c r="AY946" s="25"/>
       <c r="AZ946" s="25"/>
+      <c r="BA946" s="25"/>
     </row>
     <row r="947">
       <c r="AL947" s="25"/>
@@ -30971,6 +32142,7 @@
       <c r="AX947" s="25"/>
       <c r="AY947" s="25"/>
       <c r="AZ947" s="25"/>
+      <c r="BA947" s="25"/>
     </row>
     <row r="948">
       <c r="AL948" s="25"/>
@@ -30988,6 +32160,7 @@
       <c r="AX948" s="25"/>
       <c r="AY948" s="25"/>
       <c r="AZ948" s="25"/>
+      <c r="BA948" s="25"/>
     </row>
     <row r="949">
       <c r="AL949" s="25"/>
@@ -31005,6 +32178,7 @@
       <c r="AX949" s="25"/>
       <c r="AY949" s="25"/>
       <c r="AZ949" s="25"/>
+      <c r="BA949" s="25"/>
     </row>
     <row r="950">
       <c r="AL950" s="25"/>
@@ -31022,6 +32196,7 @@
       <c r="AX950" s="25"/>
       <c r="AY950" s="25"/>
       <c r="AZ950" s="25"/>
+      <c r="BA950" s="25"/>
     </row>
     <row r="951">
       <c r="AL951" s="25"/>
@@ -31039,6 +32214,7 @@
       <c r="AX951" s="25"/>
       <c r="AY951" s="25"/>
       <c r="AZ951" s="25"/>
+      <c r="BA951" s="25"/>
     </row>
     <row r="952">
       <c r="AL952" s="25"/>
@@ -31056,6 +32232,7 @@
       <c r="AX952" s="25"/>
       <c r="AY952" s="25"/>
       <c r="AZ952" s="25"/>
+      <c r="BA952" s="25"/>
     </row>
     <row r="953">
       <c r="AL953" s="25"/>
@@ -31073,6 +32250,7 @@
       <c r="AX953" s="25"/>
       <c r="AY953" s="25"/>
       <c r="AZ953" s="25"/>
+      <c r="BA953" s="25"/>
     </row>
     <row r="954">
       <c r="AL954" s="25"/>
@@ -31090,6 +32268,7 @@
       <c r="AX954" s="25"/>
       <c r="AY954" s="25"/>
       <c r="AZ954" s="25"/>
+      <c r="BA954" s="25"/>
     </row>
     <row r="955">
       <c r="AL955" s="25"/>
@@ -31107,6 +32286,7 @@
       <c r="AX955" s="25"/>
       <c r="AY955" s="25"/>
       <c r="AZ955" s="25"/>
+      <c r="BA955" s="25"/>
     </row>
     <row r="956">
       <c r="AL956" s="25"/>
@@ -31124,6 +32304,7 @@
       <c r="AX956" s="25"/>
       <c r="AY956" s="25"/>
       <c r="AZ956" s="25"/>
+      <c r="BA956" s="25"/>
     </row>
     <row r="957">
       <c r="AL957" s="25"/>
@@ -31141,6 +32322,7 @@
       <c r="AX957" s="25"/>
       <c r="AY957" s="25"/>
       <c r="AZ957" s="25"/>
+      <c r="BA957" s="25"/>
     </row>
     <row r="958">
       <c r="AL958" s="25"/>
@@ -31158,6 +32340,7 @@
       <c r="AX958" s="25"/>
       <c r="AY958" s="25"/>
       <c r="AZ958" s="25"/>
+      <c r="BA958" s="25"/>
     </row>
     <row r="959">
       <c r="AL959" s="25"/>
@@ -31175,6 +32358,7 @@
       <c r="AX959" s="25"/>
       <c r="AY959" s="25"/>
       <c r="AZ959" s="25"/>
+      <c r="BA959" s="25"/>
     </row>
     <row r="960">
       <c r="AL960" s="25"/>
@@ -31192,6 +32376,7 @@
       <c r="AX960" s="25"/>
       <c r="AY960" s="25"/>
       <c r="AZ960" s="25"/>
+      <c r="BA960" s="25"/>
     </row>
     <row r="961">
       <c r="AL961" s="25"/>
@@ -31209,6 +32394,7 @@
       <c r="AX961" s="25"/>
       <c r="AY961" s="25"/>
       <c r="AZ961" s="25"/>
+      <c r="BA961" s="25"/>
     </row>
     <row r="962">
       <c r="AL962" s="25"/>
@@ -31226,6 +32412,7 @@
       <c r="AX962" s="25"/>
       <c r="AY962" s="25"/>
       <c r="AZ962" s="25"/>
+      <c r="BA962" s="25"/>
     </row>
     <row r="963">
       <c r="AL963" s="25"/>
@@ -31243,6 +32430,7 @@
       <c r="AX963" s="25"/>
       <c r="AY963" s="25"/>
       <c r="AZ963" s="25"/>
+      <c r="BA963" s="25"/>
     </row>
     <row r="964">
       <c r="AL964" s="25"/>
@@ -31260,6 +32448,7 @@
       <c r="AX964" s="25"/>
       <c r="AY964" s="25"/>
       <c r="AZ964" s="25"/>
+      <c r="BA964" s="25"/>
     </row>
     <row r="965">
       <c r="AL965" s="25"/>
@@ -31277,6 +32466,7 @@
       <c r="AX965" s="25"/>
       <c r="AY965" s="25"/>
       <c r="AZ965" s="25"/>
+      <c r="BA965" s="25"/>
     </row>
     <row r="966">
       <c r="AL966" s="25"/>
@@ -31294,6 +32484,7 @@
       <c r="AX966" s="25"/>
       <c r="AY966" s="25"/>
       <c r="AZ966" s="25"/>
+      <c r="BA966" s="25"/>
     </row>
     <row r="967">
       <c r="AL967" s="25"/>
@@ -31311,6 +32502,7 @@
       <c r="AX967" s="25"/>
       <c r="AY967" s="25"/>
       <c r="AZ967" s="25"/>
+      <c r="BA967" s="25"/>
     </row>
     <row r="968">
       <c r="AL968" s="25"/>
@@ -31328,6 +32520,7 @@
       <c r="AX968" s="25"/>
       <c r="AY968" s="25"/>
       <c r="AZ968" s="25"/>
+      <c r="BA968" s="25"/>
     </row>
     <row r="969">
       <c r="AL969" s="25"/>
@@ -31345,6 +32538,7 @@
       <c r="AX969" s="25"/>
       <c r="AY969" s="25"/>
       <c r="AZ969" s="25"/>
+      <c r="BA969" s="25"/>
     </row>
     <row r="970">
       <c r="AL970" s="25"/>
@@ -31362,6 +32556,7 @@
       <c r="AX970" s="25"/>
       <c r="AY970" s="25"/>
       <c r="AZ970" s="25"/>
+      <c r="BA970" s="25"/>
     </row>
     <row r="971">
       <c r="AL971" s="25"/>
@@ -31379,6 +32574,7 @@
       <c r="AX971" s="25"/>
       <c r="AY971" s="25"/>
       <c r="AZ971" s="25"/>
+      <c r="BA971" s="25"/>
     </row>
     <row r="972">
       <c r="AL972" s="25"/>
@@ -31396,6 +32592,7 @@
       <c r="AX972" s="25"/>
       <c r="AY972" s="25"/>
       <c r="AZ972" s="25"/>
+      <c r="BA972" s="25"/>
     </row>
     <row r="973">
       <c r="AL973" s="25"/>
@@ -31413,6 +32610,7 @@
       <c r="AX973" s="25"/>
       <c r="AY973" s="25"/>
       <c r="AZ973" s="25"/>
+      <c r="BA973" s="25"/>
     </row>
     <row r="974">
       <c r="AL974" s="25"/>
@@ -31430,6 +32628,7 @@
       <c r="AX974" s="25"/>
       <c r="AY974" s="25"/>
       <c r="AZ974" s="25"/>
+      <c r="BA974" s="25"/>
     </row>
     <row r="975">
       <c r="AL975" s="25"/>
@@ -31447,6 +32646,7 @@
       <c r="AX975" s="25"/>
       <c r="AY975" s="25"/>
       <c r="AZ975" s="25"/>
+      <c r="BA975" s="25"/>
     </row>
     <row r="976">
       <c r="AL976" s="25"/>
@@ -31464,6 +32664,7 @@
       <c r="AX976" s="25"/>
       <c r="AY976" s="25"/>
       <c r="AZ976" s="25"/>
+      <c r="BA976" s="25"/>
     </row>
     <row r="977">
       <c r="AL977" s="25"/>
@@ -31481,6 +32682,7 @@
       <c r="AX977" s="25"/>
       <c r="AY977" s="25"/>
       <c r="AZ977" s="25"/>
+      <c r="BA977" s="25"/>
     </row>
     <row r="978">
       <c r="AL978" s="25"/>
@@ -31498,6 +32700,7 @@
       <c r="AX978" s="25"/>
       <c r="AY978" s="25"/>
       <c r="AZ978" s="25"/>
+      <c r="BA978" s="25"/>
     </row>
     <row r="979">
       <c r="AL979" s="25"/>
@@ -31515,6 +32718,7 @@
       <c r="AX979" s="25"/>
       <c r="AY979" s="25"/>
       <c r="AZ979" s="25"/>
+      <c r="BA979" s="25"/>
     </row>
     <row r="980">
       <c r="AL980" s="25"/>
@@ -31532,6 +32736,7 @@
       <c r="AX980" s="25"/>
       <c r="AY980" s="25"/>
       <c r="AZ980" s="25"/>
+      <c r="BA980" s="25"/>
     </row>
     <row r="981">
       <c r="AL981" s="25"/>
@@ -31549,6 +32754,7 @@
       <c r="AX981" s="25"/>
       <c r="AY981" s="25"/>
       <c r="AZ981" s="25"/>
+      <c r="BA981" s="25"/>
     </row>
     <row r="982">
       <c r="AL982" s="25"/>
@@ -31566,6 +32772,7 @@
       <c r="AX982" s="25"/>
       <c r="AY982" s="25"/>
       <c r="AZ982" s="25"/>
+      <c r="BA982" s="25"/>
     </row>
     <row r="983">
       <c r="AL983" s="25"/>
@@ -31583,6 +32790,7 @@
       <c r="AX983" s="25"/>
       <c r="AY983" s="25"/>
       <c r="AZ983" s="25"/>
+      <c r="BA983" s="25"/>
     </row>
     <row r="984">
       <c r="AL984" s="25"/>
@@ -31600,6 +32808,7 @@
       <c r="AX984" s="25"/>
       <c r="AY984" s="25"/>
       <c r="AZ984" s="25"/>
+      <c r="BA984" s="25"/>
     </row>
     <row r="985">
       <c r="AL985" s="25"/>
@@ -31617,6 +32826,7 @@
       <c r="AX985" s="25"/>
       <c r="AY985" s="25"/>
       <c r="AZ985" s="25"/>
+      <c r="BA985" s="25"/>
     </row>
     <row r="986">
       <c r="AL986" s="25"/>
@@ -31634,6 +32844,7 @@
       <c r="AX986" s="25"/>
       <c r="AY986" s="25"/>
       <c r="AZ986" s="25"/>
+      <c r="BA986" s="25"/>
     </row>
     <row r="987">
       <c r="AL987" s="25"/>
@@ -31651,6 +32862,7 @@
       <c r="AX987" s="25"/>
       <c r="AY987" s="25"/>
       <c r="AZ987" s="25"/>
+      <c r="BA987" s="25"/>
     </row>
     <row r="988">
       <c r="AL988" s="25"/>
@@ -31668,6 +32880,7 @@
       <c r="AX988" s="25"/>
       <c r="AY988" s="25"/>
       <c r="AZ988" s="25"/>
+      <c r="BA988" s="25"/>
     </row>
     <row r="989">
       <c r="AL989" s="25"/>
@@ -31685,6 +32898,7 @@
       <c r="AX989" s="25"/>
       <c r="AY989" s="25"/>
       <c r="AZ989" s="25"/>
+      <c r="BA989" s="25"/>
     </row>
     <row r="990">
       <c r="AL990" s="25"/>
@@ -31702,6 +32916,7 @@
       <c r="AX990" s="25"/>
       <c r="AY990" s="25"/>
       <c r="AZ990" s="25"/>
+      <c r="BA990" s="25"/>
     </row>
     <row r="991">
       <c r="AL991" s="25"/>
@@ -31719,6 +32934,7 @@
       <c r="AX991" s="25"/>
       <c r="AY991" s="25"/>
       <c r="AZ991" s="25"/>
+      <c r="BA991" s="25"/>
     </row>
     <row r="992">
       <c r="AL992" s="25"/>
@@ -31736,6 +32952,7 @@
       <c r="AX992" s="25"/>
       <c r="AY992" s="25"/>
       <c r="AZ992" s="25"/>
+      <c r="BA992" s="25"/>
     </row>
     <row r="993">
       <c r="AL993" s="25"/>
@@ -31753,6 +32970,7 @@
       <c r="AX993" s="25"/>
       <c r="AY993" s="25"/>
       <c r="AZ993" s="25"/>
+      <c r="BA993" s="25"/>
     </row>
     <row r="994">
       <c r="AL994" s="25"/>
@@ -31770,6 +32988,7 @@
       <c r="AX994" s="25"/>
       <c r="AY994" s="25"/>
       <c r="AZ994" s="25"/>
+      <c r="BA994" s="25"/>
     </row>
     <row r="995">
       <c r="AL995" s="25"/>
@@ -31787,6 +33006,7 @@
       <c r="AX995" s="25"/>
       <c r="AY995" s="25"/>
       <c r="AZ995" s="25"/>
+      <c r="BA995" s="25"/>
     </row>
     <row r="996">
       <c r="AL996" s="25"/>
@@ -31804,6 +33024,7 @@
       <c r="AX996" s="25"/>
       <c r="AY996" s="25"/>
       <c r="AZ996" s="25"/>
+      <c r="BA996" s="25"/>
     </row>
     <row r="997">
       <c r="AL997" s="25"/>
@@ -31821,6 +33042,7 @@
       <c r="AX997" s="25"/>
       <c r="AY997" s="25"/>
       <c r="AZ997" s="25"/>
+      <c r="BA997" s="25"/>
     </row>
     <row r="998">
       <c r="AL998" s="25"/>
@@ -31838,6 +33060,7 @@
       <c r="AX998" s="25"/>
       <c r="AY998" s="25"/>
       <c r="AZ998" s="25"/>
+      <c r="BA998" s="25"/>
     </row>
     <row r="999">
       <c r="AL999" s="25"/>
@@ -31855,6 +33078,7 @@
       <c r="AX999" s="25"/>
       <c r="AY999" s="25"/>
       <c r="AZ999" s="25"/>
+      <c r="BA999" s="25"/>
     </row>
     <row r="1000">
       <c r="AL1000" s="25"/>
@@ -31872,6 +33096,7 @@
       <c r="AX1000" s="25"/>
       <c r="AY1000" s="25"/>
       <c r="AZ1000" s="25"/>
+      <c r="BA1000" s="25"/>
     </row>
     <row r="1001">
       <c r="AL1001" s="25"/>
@@ -31889,6 +33114,7 @@
       <c r="AX1001" s="25"/>
       <c r="AY1001" s="25"/>
       <c r="AZ1001" s="25"/>
+      <c r="BA1001" s="25"/>
     </row>
     <row r="1002">
       <c r="AL1002" s="25"/>
@@ -31906,6 +33132,7 @@
       <c r="AX1002" s="25"/>
       <c r="AY1002" s="25"/>
       <c r="AZ1002" s="25"/>
+      <c r="BA1002" s="25"/>
     </row>
     <row r="1003">
       <c r="AL1003" s="25"/>
@@ -31923,6 +33150,7 @@
       <c r="AX1003" s="25"/>
       <c r="AY1003" s="25"/>
       <c r="AZ1003" s="25"/>
+      <c r="BA1003" s="25"/>
     </row>
     <row r="1004">
       <c r="AL1004" s="25"/>
@@ -31940,6 +33168,7 @@
       <c r="AX1004" s="25"/>
       <c r="AY1004" s="25"/>
       <c r="AZ1004" s="25"/>
+      <c r="BA1004" s="25"/>
     </row>
     <row r="1005">
       <c r="AL1005" s="25"/>
@@ -31957,6 +33186,7 @@
       <c r="AX1005" s="25"/>
       <c r="AY1005" s="25"/>
       <c r="AZ1005" s="25"/>
+      <c r="BA1005" s="25"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -31979,22 +33209,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="21"/>
       <c r="B2" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3">
@@ -32422,7 +33652,7 @@
         <v>45425.0</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55">
@@ -32549,6 +33779,73 @@
       </c>
       <c r="B69" s="2">
         <v>822.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="21">
+        <v>45441.0</v>
+      </c>
+      <c r="B70" s="2">
+        <v>836.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="21">
+        <v>45442.0</v>
+      </c>
+      <c r="B71" s="2">
+        <v>836.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="21">
+        <v>45443.0</v>
+      </c>
+      <c r="B72" s="32">
+        <v>875.0</v>
+      </c>
+      <c r="C72" s="2">
+        <v>836.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="21">
+        <v>45444.0</v>
+      </c>
+      <c r="B73" s="2">
+        <v>890.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="21">
+        <v>45445.0</v>
+      </c>
+      <c r="B74" s="32">
+        <v>892.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="21">
+        <v>45446.0</v>
+      </c>
+      <c r="B75" s="2">
+        <v>901.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="21">
+        <v>45447.0</v>
+      </c>
+      <c r="B76" s="2">
+        <v>912.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="21">
+        <v>45448.0</v>
+      </c>
+      <c r="B77" s="2">
+        <v>921.0</v>
       </c>
     </row>
   </sheetData>
@@ -32574,7 +33871,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="33" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -32627,10 +33924,11 @@
       <c r="AX1" s="22"/>
       <c r="AY1" s="22"/>
       <c r="AZ1" s="22"/>
+      <c r="BA1" s="22"/>
     </row>
     <row r="2">
       <c r="A2" s="33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B2" s="1">
         <f>Census!B1</f>
@@ -32830,10 +34128,13 @@
       <c r="AZ2" s="22">
         <v>45436.0</v>
       </c>
+      <c r="BA2" s="22">
+        <v>45443.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="35" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B3" s="7">
         <f>Census!B45</f>
@@ -33039,10 +34340,14 @@
         <f>Census!AZ45</f>
         <v>7387</v>
       </c>
+      <c r="BA3" s="29">
+        <f>Census!BA45</f>
+        <v>7182</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B4" s="7">
         <f>Census!B6</f>
@@ -33248,15 +34553,19 @@
         <f>Census!AZ6</f>
         <v>40</v>
       </c>
+      <c r="BA4" s="29">
+        <f>Census!BA6</f>
+        <v>34</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B38" s="1">
         <f t="shared" ref="B38:AG38" si="1">O2</f>
@@ -33404,7 +34713,9 @@
       <c r="AM38" s="1">
         <v>45436.0</v>
       </c>
-      <c r="AN38" s="1"/>
+      <c r="AN38" s="1">
+        <v>45443.0</v>
+      </c>
       <c r="AO38" s="1"/>
       <c r="AP38" s="1"/>
       <c r="AQ38" s="1"/>
@@ -33417,10 +34728,11 @@
       <c r="AX38" s="1"/>
       <c r="AY38" s="1"/>
       <c r="AZ38" s="1"/>
+      <c r="BA38" s="1"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B39" s="2">
         <f>WeeklyMovement!O3</f>
@@ -33574,10 +34886,14 @@
         <f>WeeklyMovement!AZ3</f>
         <v>0</v>
       </c>
+      <c r="AN39" s="2">
+        <f>WeeklyMovement!BA3</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Z40" s="2">
         <f>WeeklyMovement!AM4</f>
@@ -33633,6 +34949,10 @@
       </c>
       <c r="AM40" s="2">
         <f>WeeklyMovement!AZ4</f>
+        <v>7</v>
+      </c>
+      <c r="AN40" s="2">
+        <f>WeeklyMovement!BA4</f>
         <v>7</v>
       </c>
     </row>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -647,11 +647,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="227798779"/>
-        <c:axId val="1640847593"/>
+        <c:axId val="189616100"/>
+        <c:axId val="1825411440"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="227798779"/>
+        <c:axId val="189616100"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -703,10 +703,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1640847593"/>
+        <c:crossAx val="1825411440"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1640847593"/>
+        <c:axId val="1825411440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -781,7 +781,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="227798779"/>
+        <c:crossAx val="189616100"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -904,11 +904,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1708628894"/>
-        <c:axId val="1559548152"/>
+        <c:axId val="1161217565"/>
+        <c:axId val="484286591"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1708628894"/>
+        <c:axId val="1161217565"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -960,10 +960,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1559548152"/>
+        <c:crossAx val="484286591"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1559548152"/>
+        <c:axId val="484286591"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1038,7 +1038,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1708628894"/>
+        <c:crossAx val="1161217565"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -647,11 +647,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="189616100"/>
-        <c:axId val="1825411440"/>
+        <c:axId val="1734883093"/>
+        <c:axId val="1338747977"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="189616100"/>
+        <c:axId val="1734883093"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -703,10 +703,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1825411440"/>
+        <c:crossAx val="1338747977"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1825411440"/>
+        <c:axId val="1338747977"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -781,7 +781,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189616100"/>
+        <c:crossAx val="1734883093"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -904,11 +904,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1161217565"/>
-        <c:axId val="484286591"/>
+        <c:axId val="907410907"/>
+        <c:axId val="850550066"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1161217565"/>
+        <c:axId val="907410907"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -960,10 +960,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484286591"/>
+        <c:crossAx val="850550066"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="484286591"/>
+        <c:axId val="850550066"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1038,7 +1038,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1161217565"/>
+        <c:crossAx val="907410907"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -647,11 +647,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1734883093"/>
-        <c:axId val="1338747977"/>
+        <c:axId val="2009437745"/>
+        <c:axId val="2005262869"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1734883093"/>
+        <c:axId val="2009437745"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -703,10 +703,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1338747977"/>
+        <c:crossAx val="2005262869"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1338747977"/>
+        <c:axId val="2005262869"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -781,7 +781,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1734883093"/>
+        <c:crossAx val="2009437745"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -904,11 +904,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="907410907"/>
-        <c:axId val="850550066"/>
+        <c:axId val="1194782535"/>
+        <c:axId val="1379575487"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="907410907"/>
+        <c:axId val="1194782535"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -960,10 +960,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="850550066"/>
+        <c:crossAx val="1379575487"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="850550066"/>
+        <c:axId val="1379575487"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1038,7 +1038,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="907410907"/>
+        <c:crossAx val="1194782535"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -647,11 +647,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="2009437745"/>
-        <c:axId val="2005262869"/>
+        <c:axId val="97961153"/>
+        <c:axId val="1660343275"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="2009437745"/>
+        <c:axId val="97961153"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -703,10 +703,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2005262869"/>
+        <c:crossAx val="1660343275"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2005262869"/>
+        <c:axId val="1660343275"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -781,7 +781,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2009437745"/>
+        <c:crossAx val="97961153"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -904,11 +904,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1194782535"/>
-        <c:axId val="1379575487"/>
+        <c:axId val="1491152365"/>
+        <c:axId val="1110745915"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1194782535"/>
+        <c:axId val="1491152365"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -960,10 +960,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1379575487"/>
+        <c:crossAx val="1110745915"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1379575487"/>
+        <c:axId val="1110745915"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1038,7 +1038,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1194782535"/>
+        <c:crossAx val="1491152365"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -33848,6 +33848,40 @@
         <v>921.0</v>
       </c>
     </row>
+    <row r="78">
+      <c r="A78" s="21">
+        <v>45449.0</v>
+      </c>
+      <c r="B78" s="32">
+        <v>923.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="21">
+        <v>45450.0</v>
+      </c>
+      <c r="B79" s="32">
+        <v>943.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="21">
+        <v>45451.0</v>
+      </c>
+      <c r="B80" s="32">
+        <v>952.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="21">
+        <v>45452.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="21">
+        <v>45453.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -647,11 +647,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="97961153"/>
-        <c:axId val="1660343275"/>
+        <c:axId val="764382455"/>
+        <c:axId val="325134100"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="97961153"/>
+        <c:axId val="764382455"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -703,10 +703,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1660343275"/>
+        <c:crossAx val="325134100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1660343275"/>
+        <c:axId val="325134100"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -781,7 +781,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97961153"/>
+        <c:crossAx val="764382455"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -904,11 +904,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1491152365"/>
-        <c:axId val="1110745915"/>
+        <c:axId val="778785575"/>
+        <c:axId val="988040154"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1491152365"/>
+        <c:axId val="778785575"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -960,10 +960,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1110745915"/>
+        <c:crossAx val="988040154"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1110745915"/>
+        <c:axId val="988040154"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1038,7 +1038,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1491152365"/>
+        <c:crossAx val="778785575"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -244,9 +244,6 @@
     <t>Halsted</t>
   </si>
   <si>
-    <t>Harold Washington Library</t>
-  </si>
-  <si>
     <t>Inn of Chicago</t>
   </si>
   <si>
@@ -302,6 +299,9 @@
   </si>
   <si>
     <t>Gage Park</t>
+  </si>
+  <si>
+    <t>Harold Washington Library</t>
   </si>
   <si>
     <t>Leone Beach</t>
@@ -662,11 +662,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1053195332"/>
-        <c:axId val="1184346330"/>
+        <c:axId val="827066522"/>
+        <c:axId val="1505176056"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1053195332"/>
+        <c:axId val="827066522"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -718,10 +718,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1184346330"/>
+        <c:crossAx val="1505176056"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1184346330"/>
+        <c:axId val="1505176056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -796,7 +796,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1053195332"/>
+        <c:crossAx val="827066522"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -919,11 +919,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1856847861"/>
-        <c:axId val="501863772"/>
+        <c:axId val="2019775072"/>
+        <c:axId val="802842016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1856847861"/>
+        <c:axId val="2019775072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -975,10 +975,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501863772"/>
+        <c:crossAx val="802842016"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="501863772"/>
+        <c:axId val="802842016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1053,7 +1053,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1856847861"/>
+        <c:crossAx val="2019775072"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -12537,344 +12537,367 @@
       <c r="A14" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="F14" s="4"/>
-      <c r="J14" s="6"/>
+      <c r="B14" s="6">
+        <v>1432.0</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1252.0</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1398.0</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1388.0</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1408.0</v>
+      </c>
+      <c r="G14" s="6">
+        <v>1426.0</v>
+      </c>
+      <c r="H14" s="6">
+        <v>1468.0</v>
+      </c>
+      <c r="I14" s="6">
+        <v>1507.0</v>
+      </c>
+      <c r="J14" s="6">
+        <v>1509.0</v>
+      </c>
+      <c r="K14" s="6">
+        <v>1503.0</v>
+      </c>
+      <c r="L14" s="6">
+        <v>1469.0</v>
+      </c>
+      <c r="M14" s="6">
+        <v>1550.0</v>
+      </c>
+      <c r="N14" s="6">
+        <v>1543.0</v>
+      </c>
+      <c r="O14" s="6">
+        <v>1503.0</v>
+      </c>
+      <c r="P14" s="6">
+        <v>1553.0</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>1530.0</v>
+      </c>
+      <c r="R14" s="2">
+        <v>1529.0</v>
+      </c>
+      <c r="S14" s="2">
+        <v>1156.0</v>
+      </c>
+      <c r="T14" s="2">
+        <v>1532.0</v>
+      </c>
+      <c r="U14" s="2">
+        <v>1533.0</v>
+      </c>
+      <c r="V14" s="2">
+        <v>1499.0</v>
+      </c>
+      <c r="W14" s="2">
+        <v>1531.0</v>
+      </c>
+      <c r="X14" s="2">
+        <v>1507.0</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>1488.0</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>1478.0</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>1455.0</v>
+      </c>
+      <c r="AB14" s="2">
+        <v>1388.0</v>
+      </c>
       <c r="AC14" s="2">
-        <v>66.0</v>
+        <v>1366.0</v>
       </c>
       <c r="AD14" s="2">
-        <v>106.0</v>
+        <v>1478.0</v>
       </c>
       <c r="AE14" s="2">
-        <v>113.0</v>
+        <v>1492.0</v>
       </c>
       <c r="AF14" s="2">
-        <v>156.0</v>
+        <v>1522.0</v>
       </c>
       <c r="AG14" s="2">
-        <v>115.0</v>
+        <v>1411.0</v>
       </c>
       <c r="AH14" s="2">
-        <v>113.0</v>
+        <v>1384.0</v>
       </c>
       <c r="AI14" s="2">
-        <v>107.0</v>
+        <v>1371.0</v>
       </c>
       <c r="AJ14" s="2">
-        <v>107.0</v>
+        <v>1294.0</v>
       </c>
       <c r="AK14" s="2">
-        <v>25.0</v>
-      </c>
-      <c r="AL14" s="24"/>
-      <c r="AM14" s="24"/>
-      <c r="AN14" s="24"/>
-      <c r="AO14" s="24"/>
-      <c r="AP14" s="24"/>
-      <c r="AQ14" s="24"/>
-      <c r="AR14" s="24"/>
-      <c r="AS14" s="24"/>
-      <c r="AT14" s="24"/>
-      <c r="AU14" s="24"/>
-      <c r="AV14" s="24"/>
-      <c r="AW14" s="24"/>
-      <c r="AX14" s="24"/>
-      <c r="AY14" s="24"/>
-      <c r="AZ14" s="24"/>
-      <c r="BA14" s="24"/>
-      <c r="BB14" s="24"/>
+        <v>1215.0</v>
+      </c>
+      <c r="AL14" s="24">
+        <v>1180.0</v>
+      </c>
+      <c r="AM14" s="24">
+        <v>1171.0</v>
+      </c>
+      <c r="AN14" s="24">
+        <v>1166.0</v>
+      </c>
+      <c r="AO14" s="24">
+        <v>1152.0</v>
+      </c>
+      <c r="AP14" s="24">
+        <v>1204.0</v>
+      </c>
+      <c r="AQ14" s="24">
+        <v>1167.0</v>
+      </c>
+      <c r="AR14" s="24">
+        <v>1198.0</v>
+      </c>
+      <c r="AS14" s="24">
+        <v>1153.0</v>
+      </c>
+      <c r="AT14" s="30">
+        <v>1090.0</v>
+      </c>
+      <c r="AU14" s="30">
+        <v>1028.0</v>
+      </c>
+      <c r="AV14" s="30">
+        <v>974.0</v>
+      </c>
+      <c r="AW14" s="30">
+        <v>949.0</v>
+      </c>
+      <c r="AX14" s="30">
+        <v>891.0</v>
+      </c>
+      <c r="AY14" s="30">
+        <v>869.0</v>
+      </c>
+      <c r="AZ14" s="30">
+        <v>827.0</v>
+      </c>
+      <c r="BA14" s="30">
+        <v>788.0</v>
+      </c>
+      <c r="BB14" s="30">
+        <v>748.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="6">
-        <v>1432.0</v>
-      </c>
-      <c r="C15" s="6">
-        <v>1252.0</v>
-      </c>
-      <c r="D15" s="6">
-        <v>1398.0</v>
-      </c>
-      <c r="E15" s="6">
-        <v>1388.0</v>
-      </c>
-      <c r="F15" s="6">
-        <v>1408.0</v>
-      </c>
-      <c r="G15" s="6">
-        <v>1426.0</v>
-      </c>
-      <c r="H15" s="6">
-        <v>1468.0</v>
-      </c>
-      <c r="I15" s="6">
-        <v>1507.0</v>
-      </c>
-      <c r="J15" s="6">
-        <v>1509.0</v>
-      </c>
-      <c r="K15" s="6">
-        <v>1503.0</v>
-      </c>
-      <c r="L15" s="6">
-        <v>1469.0</v>
-      </c>
-      <c r="M15" s="6">
-        <v>1550.0</v>
-      </c>
-      <c r="N15" s="6">
-        <v>1543.0</v>
-      </c>
-      <c r="O15" s="6">
-        <v>1503.0</v>
-      </c>
-      <c r="P15" s="6">
-        <v>1553.0</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>1530.0</v>
-      </c>
-      <c r="R15" s="2">
-        <v>1529.0</v>
-      </c>
-      <c r="S15" s="2">
-        <v>1156.0</v>
-      </c>
-      <c r="T15" s="2">
-        <v>1532.0</v>
-      </c>
-      <c r="U15" s="2">
-        <v>1533.0</v>
-      </c>
-      <c r="V15" s="2">
-        <v>1499.0</v>
-      </c>
-      <c r="W15" s="2">
-        <v>1531.0</v>
-      </c>
-      <c r="X15" s="2">
-        <v>1507.0</v>
-      </c>
-      <c r="Y15" s="2">
-        <v>1488.0</v>
-      </c>
-      <c r="Z15" s="2">
-        <v>1478.0</v>
-      </c>
-      <c r="AA15" s="2">
-        <v>1455.0</v>
-      </c>
-      <c r="AB15" s="2">
-        <v>1388.0</v>
-      </c>
-      <c r="AC15" s="2">
-        <v>1366.0</v>
-      </c>
-      <c r="AD15" s="2">
-        <v>1478.0</v>
-      </c>
-      <c r="AE15" s="2">
-        <v>1492.0</v>
-      </c>
-      <c r="AF15" s="2">
-        <v>1522.0</v>
-      </c>
-      <c r="AG15" s="2">
-        <v>1411.0</v>
-      </c>
-      <c r="AH15" s="2">
-        <v>1384.0</v>
+      <c r="B15" s="6"/>
+      <c r="F15" s="4"/>
+      <c r="J15" s="6"/>
+      <c r="O15" s="5">
+        <v>377.0</v>
+      </c>
+      <c r="P15" s="5">
+        <v>603.0</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>602.0</v>
+      </c>
+      <c r="R15" s="5">
+        <v>598.0</v>
+      </c>
+      <c r="S15" s="5">
+        <v>625.0</v>
+      </c>
+      <c r="T15" s="5">
+        <v>616.0</v>
+      </c>
+      <c r="U15" s="5">
+        <v>616.0</v>
+      </c>
+      <c r="V15" s="5">
+        <v>628.0</v>
+      </c>
+      <c r="W15" s="5">
+        <v>607.0</v>
+      </c>
+      <c r="X15" s="5">
+        <v>619.0</v>
+      </c>
+      <c r="Y15" s="5">
+        <v>606.0</v>
+      </c>
+      <c r="Z15" s="5">
+        <v>617.0</v>
+      </c>
+      <c r="AA15" s="5">
+        <v>615.0</v>
+      </c>
+      <c r="AB15" s="5">
+        <v>589.0</v>
+      </c>
+      <c r="AC15" s="5">
+        <v>588.0</v>
+      </c>
+      <c r="AD15" s="5">
+        <v>591.0</v>
+      </c>
+      <c r="AE15" s="5">
+        <v>602.0</v>
+      </c>
+      <c r="AF15" s="5">
+        <v>601.0</v>
+      </c>
+      <c r="AG15" s="5">
+        <v>600.0</v>
+      </c>
+      <c r="AH15" s="6">
+        <v>597.0</v>
       </c>
       <c r="AI15" s="2">
-        <v>1371.0</v>
+        <v>577.0</v>
       </c>
       <c r="AJ15" s="2">
-        <v>1294.0</v>
+        <v>571.0</v>
       </c>
       <c r="AK15" s="2">
-        <v>1215.0</v>
+        <v>553.0</v>
       </c>
       <c r="AL15" s="24">
-        <v>1180.0</v>
+        <v>546.0</v>
       </c>
       <c r="AM15" s="24">
-        <v>1171.0</v>
+        <v>544.0</v>
       </c>
       <c r="AN15" s="24">
-        <v>1166.0</v>
+        <v>532.0</v>
       </c>
       <c r="AO15" s="24">
-        <v>1152.0</v>
+        <v>581.0</v>
       </c>
       <c r="AP15" s="24">
-        <v>1204.0</v>
+        <v>557.0</v>
       </c>
       <c r="AQ15" s="24">
-        <v>1167.0</v>
+        <v>572.0</v>
       </c>
       <c r="AR15" s="24">
-        <v>1198.0</v>
+        <v>518.0</v>
       </c>
       <c r="AS15" s="24">
-        <v>1153.0</v>
-      </c>
-      <c r="AT15" s="30">
-        <v>1090.0</v>
-      </c>
-      <c r="AU15" s="30">
-        <v>1028.0</v>
-      </c>
-      <c r="AV15" s="30">
-        <v>974.0</v>
-      </c>
-      <c r="AW15" s="30">
-        <v>949.0</v>
-      </c>
-      <c r="AX15" s="30">
-        <v>891.0</v>
-      </c>
-      <c r="AY15" s="30">
-        <v>869.0</v>
-      </c>
-      <c r="AZ15" s="30">
-        <v>827.0</v>
-      </c>
-      <c r="BA15" s="30">
-        <v>788.0</v>
-      </c>
-      <c r="BB15" s="30">
-        <v>748.0</v>
+        <v>481.0</v>
+      </c>
+      <c r="AT15" s="24">
+        <v>459.0</v>
+      </c>
+      <c r="AU15" s="24">
+        <v>449.0</v>
+      </c>
+      <c r="AV15" s="24">
+        <v>424.0</v>
+      </c>
+      <c r="AW15" s="24">
+        <v>406.0</v>
+      </c>
+      <c r="AX15" s="24">
+        <v>381.0</v>
+      </c>
+      <c r="AY15" s="24">
+        <v>384.0</v>
+      </c>
+      <c r="AZ15" s="24">
+        <v>352.0</v>
+      </c>
+      <c r="BA15" s="24">
+        <v>311.0</v>
+      </c>
+      <c r="BB15" s="24">
+        <v>427.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="6"/>
+      <c r="B16" s="18"/>
       <c r="F16" s="4"/>
       <c r="J16" s="6"/>
-      <c r="O16" s="5">
-        <v>377.0</v>
-      </c>
-      <c r="P16" s="5">
-        <v>603.0</v>
-      </c>
-      <c r="Q16" s="5">
-        <v>602.0</v>
-      </c>
-      <c r="R16" s="5">
-        <v>598.0</v>
-      </c>
-      <c r="S16" s="5">
-        <v>625.0</v>
-      </c>
-      <c r="T16" s="5">
-        <v>616.0</v>
-      </c>
-      <c r="U16" s="5">
-        <v>616.0</v>
-      </c>
-      <c r="V16" s="5">
-        <v>628.0</v>
-      </c>
-      <c r="W16" s="5">
-        <v>607.0</v>
-      </c>
-      <c r="X16" s="5">
-        <v>619.0</v>
-      </c>
-      <c r="Y16" s="5">
-        <v>606.0</v>
-      </c>
-      <c r="Z16" s="5">
-        <v>617.0</v>
-      </c>
-      <c r="AA16" s="5">
-        <v>615.0</v>
-      </c>
-      <c r="AB16" s="5">
-        <v>589.0</v>
-      </c>
-      <c r="AC16" s="5">
-        <v>588.0</v>
-      </c>
-      <c r="AD16" s="5">
-        <v>591.0</v>
-      </c>
-      <c r="AE16" s="5">
-        <v>602.0</v>
-      </c>
-      <c r="AF16" s="5">
-        <v>601.0</v>
-      </c>
-      <c r="AG16" s="5">
-        <v>600.0</v>
-      </c>
-      <c r="AH16" s="6">
-        <v>597.0</v>
+      <c r="O16" s="5"/>
+      <c r="AG16" s="2">
+        <v>202.0</v>
+      </c>
+      <c r="AH16" s="2">
+        <v>202.0</v>
       </c>
       <c r="AI16" s="2">
-        <v>577.0</v>
+        <v>202.0</v>
       </c>
       <c r="AJ16" s="2">
-        <v>571.0</v>
+        <v>201.0</v>
       </c>
       <c r="AK16" s="2">
-        <v>553.0</v>
+        <v>200.0</v>
       </c>
       <c r="AL16" s="24">
-        <v>546.0</v>
+        <v>206.0</v>
       </c>
       <c r="AM16" s="24">
-        <v>544.0</v>
+        <v>196.0</v>
       </c>
       <c r="AN16" s="24">
-        <v>532.0</v>
+        <v>196.0</v>
       </c>
       <c r="AO16" s="24">
-        <v>581.0</v>
+        <v>193.0</v>
       </c>
       <c r="AP16" s="24">
-        <v>557.0</v>
+        <v>189.0</v>
       </c>
       <c r="AQ16" s="24">
-        <v>572.0</v>
+        <v>185.0</v>
       </c>
       <c r="AR16" s="24">
-        <v>518.0</v>
+        <v>165.0</v>
       </c>
       <c r="AS16" s="24">
-        <v>481.0</v>
+        <v>187.0</v>
       </c>
       <c r="AT16" s="24">
-        <v>459.0</v>
+        <v>188.0</v>
       </c>
       <c r="AU16" s="24">
-        <v>449.0</v>
+        <v>183.0</v>
       </c>
       <c r="AV16" s="24">
-        <v>424.0</v>
+        <v>175.0</v>
       </c>
       <c r="AW16" s="24">
-        <v>406.0</v>
+        <v>180.0</v>
       </c>
       <c r="AX16" s="24">
-        <v>381.0</v>
+        <v>165.0</v>
       </c>
       <c r="AY16" s="24">
-        <v>384.0</v>
+        <v>194.0</v>
       </c>
       <c r="AZ16" s="24">
-        <v>352.0</v>
+        <v>173.0</v>
       </c>
       <c r="BA16" s="24">
-        <v>311.0</v>
+        <v>173.0</v>
       </c>
       <c r="BB16" s="24">
-        <v>427.0</v>
+        <v>155.0</v>
       </c>
     </row>
     <row r="17">
@@ -12885,194 +12908,220 @@
       <c r="F17" s="4"/>
       <c r="J17" s="6"/>
       <c r="O17" s="5"/>
+      <c r="Q17" s="2">
+        <v>390.0</v>
+      </c>
+      <c r="R17" s="2">
+        <v>547.0</v>
+      </c>
+      <c r="S17" s="2">
+        <v>550.0</v>
+      </c>
+      <c r="T17" s="2">
+        <v>548.0</v>
+      </c>
+      <c r="U17" s="2">
+        <v>545.0</v>
+      </c>
+      <c r="V17" s="2">
+        <v>550.0</v>
+      </c>
+      <c r="W17" s="2">
+        <v>542.0</v>
+      </c>
+      <c r="X17" s="2">
+        <v>542.0</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>549.0</v>
+      </c>
+      <c r="Z17" s="2">
+        <v>523.0</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>541.0</v>
+      </c>
+      <c r="AB17" s="2">
+        <v>549.0</v>
+      </c>
+      <c r="AC17" s="2">
+        <v>540.0</v>
+      </c>
+      <c r="AD17" s="2">
+        <v>547.0</v>
+      </c>
+      <c r="AE17" s="2">
+        <v>547.0</v>
+      </c>
+      <c r="AF17" s="2">
+        <v>547.0</v>
+      </c>
       <c r="AG17" s="2">
-        <v>202.0</v>
+        <v>550.0</v>
       </c>
       <c r="AH17" s="2">
-        <v>202.0</v>
+        <v>541.0</v>
       </c>
       <c r="AI17" s="2">
-        <v>202.0</v>
+        <v>547.0</v>
       </c>
       <c r="AJ17" s="2">
-        <v>201.0</v>
+        <v>538.0</v>
       </c>
       <c r="AK17" s="2">
-        <v>200.0</v>
+        <v>528.0</v>
       </c>
       <c r="AL17" s="24">
-        <v>206.0</v>
+        <v>511.0</v>
       </c>
       <c r="AM17" s="24">
-        <v>196.0</v>
+        <v>534.0</v>
       </c>
       <c r="AN17" s="24">
-        <v>196.0</v>
+        <v>515.0</v>
       </c>
       <c r="AO17" s="24">
-        <v>193.0</v>
+        <v>476.0</v>
       </c>
       <c r="AP17" s="24">
-        <v>189.0</v>
+        <v>516.0</v>
       </c>
       <c r="AQ17" s="24">
-        <v>185.0</v>
+        <v>466.0</v>
       </c>
       <c r="AR17" s="24">
-        <v>165.0</v>
+        <v>411.0</v>
       </c>
       <c r="AS17" s="24">
-        <v>187.0</v>
+        <v>398.0</v>
       </c>
       <c r="AT17" s="24">
-        <v>188.0</v>
+        <v>325.0</v>
       </c>
       <c r="AU17" s="24">
-        <v>183.0</v>
+        <v>345.0</v>
       </c>
       <c r="AV17" s="24">
-        <v>175.0</v>
+        <v>294.0</v>
       </c>
       <c r="AW17" s="24">
-        <v>180.0</v>
+        <v>281.0</v>
       </c>
       <c r="AX17" s="24">
-        <v>165.0</v>
+        <v>405.0</v>
       </c>
       <c r="AY17" s="24">
-        <v>194.0</v>
+        <v>376.0</v>
       </c>
       <c r="AZ17" s="24">
-        <v>173.0</v>
+        <v>358.0</v>
       </c>
       <c r="BA17" s="24">
-        <v>173.0</v>
+        <v>345.0</v>
       </c>
       <c r="BB17" s="24">
-        <v>155.0</v>
+        <v>343.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="F18" s="4"/>
+      <c r="B18" s="6"/>
       <c r="J18" s="6"/>
       <c r="O18" s="5"/>
-      <c r="Q18" s="2">
-        <v>390.0</v>
-      </c>
-      <c r="R18" s="2">
-        <v>547.0</v>
-      </c>
-      <c r="S18" s="2">
-        <v>550.0</v>
-      </c>
-      <c r="T18" s="2">
-        <v>548.0</v>
-      </c>
-      <c r="U18" s="2">
-        <v>545.0</v>
-      </c>
-      <c r="V18" s="2">
-        <v>550.0</v>
-      </c>
-      <c r="W18" s="2">
-        <v>542.0</v>
-      </c>
       <c r="X18" s="2">
-        <v>542.0</v>
+        <v>201.0</v>
       </c>
       <c r="Y18" s="2">
-        <v>549.0</v>
+        <v>187.0</v>
       </c>
       <c r="Z18" s="2">
-        <v>523.0</v>
+        <v>186.0</v>
       </c>
       <c r="AA18" s="2">
-        <v>541.0</v>
+        <v>185.0</v>
       </c>
       <c r="AB18" s="2">
-        <v>549.0</v>
+        <v>195.0</v>
       </c>
       <c r="AC18" s="2">
-        <v>540.0</v>
+        <v>200.0</v>
       </c>
       <c r="AD18" s="2">
-        <v>547.0</v>
+        <v>200.0</v>
       </c>
       <c r="AE18" s="2">
-        <v>547.0</v>
+        <v>199.0</v>
       </c>
       <c r="AF18" s="2">
-        <v>547.0</v>
+        <v>199.0</v>
       </c>
       <c r="AG18" s="2">
-        <v>550.0</v>
+        <v>199.0</v>
       </c>
       <c r="AH18" s="2">
-        <v>541.0</v>
+        <v>199.0</v>
       </c>
       <c r="AI18" s="2">
-        <v>547.0</v>
+        <v>191.0</v>
       </c>
       <c r="AJ18" s="2">
-        <v>538.0</v>
+        <v>162.0</v>
       </c>
       <c r="AK18" s="2">
-        <v>528.0</v>
+        <v>144.0</v>
       </c>
       <c r="AL18" s="24">
-        <v>511.0</v>
+        <v>128.0</v>
       </c>
       <c r="AM18" s="24">
-        <v>534.0</v>
+        <v>115.0</v>
       </c>
       <c r="AN18" s="24">
-        <v>515.0</v>
+        <v>106.0</v>
       </c>
       <c r="AO18" s="24">
-        <v>476.0</v>
+        <v>98.0</v>
       </c>
       <c r="AP18" s="24">
-        <v>516.0</v>
+        <v>187.0</v>
       </c>
       <c r="AQ18" s="24">
-        <v>466.0</v>
+        <v>167.0</v>
       </c>
       <c r="AR18" s="24">
-        <v>411.0</v>
+        <v>167.0</v>
       </c>
       <c r="AS18" s="24">
-        <v>398.0</v>
+        <v>162.0</v>
       </c>
       <c r="AT18" s="24">
-        <v>325.0</v>
+        <v>144.0</v>
       </c>
       <c r="AU18" s="24">
-        <v>345.0</v>
+        <v>141.0</v>
       </c>
       <c r="AV18" s="24">
-        <v>294.0</v>
+        <v>130.0</v>
       </c>
       <c r="AW18" s="24">
-        <v>281.0</v>
+        <v>129.0</v>
       </c>
       <c r="AX18" s="24">
-        <v>405.0</v>
+        <v>131.0</v>
       </c>
       <c r="AY18" s="24">
-        <v>376.0</v>
+        <v>133.0</v>
       </c>
       <c r="AZ18" s="24">
-        <v>358.0</v>
+        <v>133.0</v>
       </c>
       <c r="BA18" s="24">
-        <v>345.0</v>
+        <v>119.0</v>
       </c>
       <c r="BB18" s="24">
-        <v>343.0</v>
+        <v>121.0</v>
       </c>
     </row>
     <row r="19">
@@ -13082,98 +13131,119 @@
       <c r="B19" s="6"/>
       <c r="J19" s="6"/>
       <c r="O19" s="5"/>
-      <c r="X19" s="2">
-        <v>201.0</v>
-      </c>
-      <c r="Y19" s="2">
-        <v>187.0</v>
-      </c>
-      <c r="Z19" s="2">
-        <v>186.0</v>
-      </c>
-      <c r="AA19" s="2">
-        <v>185.0</v>
-      </c>
-      <c r="AB19" s="2">
-        <v>195.0</v>
-      </c>
-      <c r="AC19" s="2">
-        <v>200.0</v>
-      </c>
-      <c r="AD19" s="2">
-        <v>200.0</v>
-      </c>
-      <c r="AE19" s="2">
-        <v>199.0</v>
-      </c>
-      <c r="AF19" s="2">
-        <v>199.0</v>
-      </c>
-      <c r="AG19" s="2">
-        <v>199.0</v>
-      </c>
-      <c r="AH19" s="2">
-        <v>199.0</v>
+      <c r="Q19" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="R19" s="5">
+        <v>650.0</v>
+      </c>
+      <c r="S19" s="5">
+        <v>647.0</v>
+      </c>
+      <c r="T19" s="5">
+        <v>881.0</v>
+      </c>
+      <c r="U19" s="5">
+        <v>890.0</v>
+      </c>
+      <c r="V19" s="5">
+        <v>895.0</v>
+      </c>
+      <c r="W19" s="5">
+        <v>882.0</v>
+      </c>
+      <c r="X19" s="5">
+        <v>1127.0</v>
+      </c>
+      <c r="Y19" s="5">
+        <v>1127.0</v>
+      </c>
+      <c r="Z19" s="5">
+        <v>1128.0</v>
+      </c>
+      <c r="AA19" s="5">
+        <v>1135.0</v>
+      </c>
+      <c r="AB19" s="5">
+        <v>1114.0</v>
+      </c>
+      <c r="AC19" s="5">
+        <v>1132.0</v>
+      </c>
+      <c r="AD19" s="5">
+        <v>1134.0</v>
+      </c>
+      <c r="AE19" s="5">
+        <v>1126.0</v>
+      </c>
+      <c r="AF19" s="5">
+        <v>1129.0</v>
+      </c>
+      <c r="AG19" s="5">
+        <v>1109.0</v>
+      </c>
+      <c r="AH19" s="6">
+        <v>1129.0</v>
       </c>
       <c r="AI19" s="2">
-        <v>191.0</v>
+        <v>1128.0</v>
       </c>
       <c r="AJ19" s="2">
-        <v>162.0</v>
+        <v>1068.0</v>
       </c>
       <c r="AK19" s="2">
-        <v>144.0</v>
+        <v>1039.0</v>
       </c>
       <c r="AL19" s="24">
-        <v>128.0</v>
+        <v>1064.0</v>
       </c>
       <c r="AM19" s="24">
-        <v>115.0</v>
+        <v>1010.0</v>
       </c>
       <c r="AN19" s="24">
-        <v>106.0</v>
+        <v>1006.0</v>
       </c>
       <c r="AO19" s="24">
-        <v>98.0</v>
+        <v>929.0</v>
       </c>
       <c r="AP19" s="24">
-        <v>187.0</v>
+        <v>858.0</v>
       </c>
       <c r="AQ19" s="24">
-        <v>167.0</v>
+        <v>815.0</v>
       </c>
       <c r="AR19" s="24">
-        <v>167.0</v>
+        <v>888.0</v>
       </c>
       <c r="AS19" s="24">
-        <v>162.0</v>
+        <v>816.0</v>
       </c>
       <c r="AT19" s="24">
-        <v>144.0</v>
+        <v>901.0</v>
       </c>
       <c r="AU19" s="24">
-        <v>141.0</v>
+        <v>871.0</v>
       </c>
       <c r="AV19" s="24">
-        <v>130.0</v>
+        <v>894.0</v>
       </c>
       <c r="AW19" s="24">
-        <v>129.0</v>
+        <v>988.0</v>
       </c>
       <c r="AX19" s="24">
-        <v>131.0</v>
+        <v>913.0</v>
       </c>
       <c r="AY19" s="24">
-        <v>133.0</v>
+        <v>833.0</v>
       </c>
       <c r="AZ19" s="24">
-        <v>133.0</v>
+        <v>800.0</v>
       </c>
       <c r="BA19" s="24">
-        <v>119.0</v>
+        <v>806.0</v>
       </c>
       <c r="BB19" s="24">
-        <v>121.0</v>
+        <v>743.0</v>
       </c>
     </row>
     <row r="20">
@@ -13183,405 +13253,361 @@
       <c r="B20" s="6"/>
       <c r="J20" s="6"/>
       <c r="O20" s="5"/>
-      <c r="Q20" s="5">
-        <v>100.0</v>
-      </c>
-      <c r="R20" s="5">
-        <v>650.0</v>
-      </c>
-      <c r="S20" s="5">
-        <v>647.0</v>
-      </c>
-      <c r="T20" s="5">
-        <v>881.0</v>
-      </c>
-      <c r="U20" s="5">
-        <v>890.0</v>
-      </c>
-      <c r="V20" s="5">
-        <v>895.0</v>
-      </c>
-      <c r="W20" s="5">
-        <v>882.0</v>
-      </c>
-      <c r="X20" s="5">
-        <v>1127.0</v>
-      </c>
-      <c r="Y20" s="5">
-        <v>1127.0</v>
-      </c>
-      <c r="Z20" s="5">
-        <v>1128.0</v>
-      </c>
-      <c r="AA20" s="5">
-        <v>1135.0</v>
-      </c>
-      <c r="AB20" s="5">
-        <v>1114.0</v>
-      </c>
-      <c r="AC20" s="5">
-        <v>1132.0</v>
-      </c>
-      <c r="AD20" s="5">
-        <v>1134.0</v>
-      </c>
-      <c r="AE20" s="5">
-        <v>1126.0</v>
-      </c>
-      <c r="AF20" s="5">
-        <v>1129.0</v>
-      </c>
-      <c r="AG20" s="5">
-        <v>1109.0</v>
-      </c>
-      <c r="AH20" s="6">
-        <v>1129.0</v>
+      <c r="Q20" s="6">
+        <v>185.0</v>
+      </c>
+      <c r="R20" s="6">
+        <v>184.0</v>
+      </c>
+      <c r="S20" s="6">
+        <v>186.0</v>
+      </c>
+      <c r="T20" s="6">
+        <v>185.0</v>
+      </c>
+      <c r="U20" s="6">
+        <v>178.0</v>
+      </c>
+      <c r="V20" s="6">
+        <v>186.0</v>
+      </c>
+      <c r="W20" s="6">
+        <v>185.0</v>
+      </c>
+      <c r="X20" s="6">
+        <v>182.0</v>
+      </c>
+      <c r="Y20" s="6">
+        <v>182.0</v>
+      </c>
+      <c r="Z20" s="6">
+        <v>183.0</v>
+      </c>
+      <c r="AA20" s="6">
+        <v>185.0</v>
+      </c>
+      <c r="AB20" s="6">
+        <v>186.0</v>
+      </c>
+      <c r="AC20" s="6">
+        <v>185.0</v>
+      </c>
+      <c r="AD20" s="6">
+        <v>186.0</v>
+      </c>
+      <c r="AE20" s="6">
+        <v>186.0</v>
+      </c>
+      <c r="AF20" s="6">
+        <v>186.0</v>
+      </c>
+      <c r="AG20" s="6">
+        <v>185.0</v>
+      </c>
+      <c r="AH20" s="2">
+        <v>184.0</v>
       </c>
       <c r="AI20" s="2">
-        <v>1128.0</v>
+        <v>184.0</v>
       </c>
       <c r="AJ20" s="2">
-        <v>1068.0</v>
+        <v>184.0</v>
       </c>
       <c r="AK20" s="2">
-        <v>1039.0</v>
+        <v>183.0</v>
       </c>
       <c r="AL20" s="24">
-        <v>1064.0</v>
+        <v>184.0</v>
       </c>
       <c r="AM20" s="24">
-        <v>1010.0</v>
+        <v>176.0</v>
       </c>
       <c r="AN20" s="24">
-        <v>1006.0</v>
+        <v>170.0</v>
       </c>
       <c r="AO20" s="24">
-        <v>929.0</v>
+        <v>158.0</v>
       </c>
       <c r="AP20" s="24">
-        <v>858.0</v>
+        <v>158.0</v>
       </c>
       <c r="AQ20" s="24">
-        <v>815.0</v>
+        <v>151.0</v>
       </c>
       <c r="AR20" s="24">
-        <v>888.0</v>
+        <v>137.0</v>
       </c>
       <c r="AS20" s="24">
-        <v>816.0</v>
+        <v>125.0</v>
       </c>
       <c r="AT20" s="24">
-        <v>901.0</v>
+        <v>110.0</v>
       </c>
       <c r="AU20" s="24">
-        <v>871.0</v>
+        <v>114.0</v>
       </c>
       <c r="AV20" s="24">
-        <v>894.0</v>
+        <v>84.0</v>
       </c>
       <c r="AW20" s="24">
-        <v>988.0</v>
+        <v>69.0</v>
       </c>
       <c r="AX20" s="24">
-        <v>913.0</v>
+        <v>106.0</v>
       </c>
       <c r="AY20" s="24">
-        <v>833.0</v>
+        <v>107.0</v>
       </c>
       <c r="AZ20" s="24">
-        <v>800.0</v>
+        <v>105.0</v>
       </c>
       <c r="BA20" s="24">
-        <v>806.0</v>
+        <v>109.0</v>
       </c>
       <c r="BB20" s="24">
-        <v>743.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="O21" s="5"/>
+      <c r="B21" s="6">
+        <v>1026.0</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1033.0</v>
+      </c>
+      <c r="D21" s="6">
+        <v>1084.0</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1147.0</v>
+      </c>
+      <c r="F21" s="6">
+        <v>1167.0</v>
+      </c>
+      <c r="G21" s="6">
+        <v>1182.0</v>
+      </c>
+      <c r="H21" s="6">
+        <v>1169.0</v>
+      </c>
+      <c r="I21" s="6">
+        <v>1179.0</v>
+      </c>
+      <c r="J21" s="6">
+        <v>1185.0</v>
+      </c>
+      <c r="K21" s="6">
+        <v>1182.0</v>
+      </c>
+      <c r="L21" s="6">
+        <v>1190.0</v>
+      </c>
+      <c r="M21" s="6">
+        <v>1187.0</v>
+      </c>
+      <c r="N21" s="6">
+        <v>1176.0</v>
+      </c>
+      <c r="O21" s="6">
+        <v>1179.0</v>
+      </c>
+      <c r="P21" s="6">
+        <v>1170.0</v>
+      </c>
       <c r="Q21" s="6">
-        <v>185.0</v>
+        <v>1191.0</v>
       </c>
       <c r="R21" s="6">
-        <v>184.0</v>
+        <v>1172.0</v>
       </c>
       <c r="S21" s="6">
-        <v>186.0</v>
+        <v>1191.0</v>
       </c>
       <c r="T21" s="6">
-        <v>185.0</v>
+        <v>1190.0</v>
       </c>
       <c r="U21" s="6">
-        <v>178.0</v>
+        <v>1167.0</v>
       </c>
       <c r="V21" s="6">
-        <v>186.0</v>
+        <v>1192.0</v>
       </c>
       <c r="W21" s="6">
-        <v>185.0</v>
+        <v>1196.0</v>
       </c>
       <c r="X21" s="6">
-        <v>182.0</v>
-      </c>
-      <c r="Y21" s="6">
-        <v>182.0</v>
-      </c>
-      <c r="Z21" s="6">
-        <v>183.0</v>
-      </c>
-      <c r="AA21" s="6">
-        <v>185.0</v>
-      </c>
-      <c r="AB21" s="6">
-        <v>186.0</v>
-      </c>
-      <c r="AC21" s="6">
-        <v>185.0</v>
-      </c>
-      <c r="AD21" s="6">
-        <v>186.0</v>
-      </c>
-      <c r="AE21" s="6">
-        <v>186.0</v>
-      </c>
-      <c r="AF21" s="6">
-        <v>186.0</v>
-      </c>
-      <c r="AG21" s="6">
-        <v>185.0</v>
+        <v>1197.0</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>1176.0</v>
+      </c>
+      <c r="Z21" s="2">
+        <v>1185.0</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>1200.0</v>
+      </c>
+      <c r="AB21" s="2">
+        <v>1192.0</v>
+      </c>
+      <c r="AC21" s="2">
+        <v>1175.0</v>
+      </c>
+      <c r="AD21" s="2">
+        <v>1178.0</v>
+      </c>
+      <c r="AE21" s="2">
+        <v>1200.0</v>
+      </c>
+      <c r="AF21" s="2">
+        <v>1197.0</v>
+      </c>
+      <c r="AG21" s="2">
+        <v>1208.0</v>
       </c>
       <c r="AH21" s="2">
-        <v>184.0</v>
+        <v>1192.0</v>
       </c>
       <c r="AI21" s="2">
-        <v>184.0</v>
+        <v>1171.0</v>
       </c>
       <c r="AJ21" s="2">
-        <v>184.0</v>
+        <v>1090.0</v>
       </c>
       <c r="AK21" s="2">
-        <v>183.0</v>
+        <v>1183.0</v>
       </c>
       <c r="AL21" s="24">
-        <v>184.0</v>
+        <v>1106.0</v>
       </c>
       <c r="AM21" s="24">
-        <v>176.0</v>
+        <v>1087.0</v>
       </c>
       <c r="AN21" s="24">
-        <v>170.0</v>
+        <v>1076.0</v>
       </c>
       <c r="AO21" s="24">
-        <v>158.0</v>
+        <v>1019.0</v>
       </c>
       <c r="AP21" s="24">
-        <v>158.0</v>
+        <v>981.0</v>
       </c>
       <c r="AQ21" s="24">
-        <v>151.0</v>
+        <v>902.0</v>
       </c>
       <c r="AR21" s="24">
-        <v>137.0</v>
+        <v>897.0</v>
       </c>
       <c r="AS21" s="24">
-        <v>125.0</v>
+        <v>926.0</v>
       </c>
       <c r="AT21" s="24">
-        <v>110.0</v>
+        <v>945.0</v>
       </c>
       <c r="AU21" s="24">
-        <v>114.0</v>
+        <v>897.0</v>
       </c>
       <c r="AV21" s="24">
-        <v>84.0</v>
+        <v>930.0</v>
       </c>
       <c r="AW21" s="24">
-        <v>69.0</v>
+        <v>816.0</v>
       </c>
       <c r="AX21" s="24">
-        <v>106.0</v>
+        <v>873.0</v>
       </c>
       <c r="AY21" s="24">
-        <v>107.0</v>
+        <v>918.0</v>
       </c>
       <c r="AZ21" s="24">
-        <v>105.0</v>
+        <v>901.0</v>
       </c>
       <c r="BA21" s="24">
-        <v>109.0</v>
+        <v>828.0</v>
       </c>
       <c r="BB21" s="24">
-        <v>95.0</v>
+        <v>633.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="6">
-        <v>1026.0</v>
-      </c>
-      <c r="C22" s="6">
-        <v>1033.0</v>
-      </c>
-      <c r="D22" s="6">
-        <v>1084.0</v>
-      </c>
-      <c r="E22" s="6">
-        <v>1147.0</v>
-      </c>
-      <c r="F22" s="6">
-        <v>1167.0</v>
-      </c>
-      <c r="G22" s="6">
-        <v>1182.0</v>
-      </c>
-      <c r="H22" s="6">
-        <v>1169.0</v>
-      </c>
-      <c r="I22" s="6">
-        <v>1179.0</v>
-      </c>
-      <c r="J22" s="6">
-        <v>1185.0</v>
-      </c>
-      <c r="K22" s="6">
-        <v>1182.0</v>
-      </c>
-      <c r="L22" s="6">
-        <v>1190.0</v>
-      </c>
-      <c r="M22" s="6">
-        <v>1187.0</v>
-      </c>
-      <c r="N22" s="6">
-        <v>1176.0</v>
-      </c>
-      <c r="O22" s="6">
-        <v>1179.0</v>
-      </c>
-      <c r="P22" s="6">
-        <v>1170.0</v>
-      </c>
-      <c r="Q22" s="6">
-        <v>1191.0</v>
-      </c>
-      <c r="R22" s="6">
-        <v>1172.0</v>
-      </c>
-      <c r="S22" s="6">
-        <v>1191.0</v>
-      </c>
-      <c r="T22" s="6">
-        <v>1190.0</v>
-      </c>
-      <c r="U22" s="6">
-        <v>1167.0</v>
-      </c>
-      <c r="V22" s="6">
-        <v>1192.0</v>
-      </c>
-      <c r="W22" s="6">
-        <v>1196.0</v>
-      </c>
-      <c r="X22" s="6">
-        <v>1197.0</v>
-      </c>
-      <c r="Y22" s="2">
-        <v>1176.0</v>
-      </c>
-      <c r="Z22" s="2">
-        <v>1185.0</v>
-      </c>
-      <c r="AA22" s="2">
-        <v>1200.0</v>
-      </c>
-      <c r="AB22" s="2">
-        <v>1192.0</v>
-      </c>
-      <c r="AC22" s="2">
-        <v>1175.0</v>
-      </c>
-      <c r="AD22" s="2">
-        <v>1178.0</v>
-      </c>
-      <c r="AE22" s="2">
-        <v>1200.0</v>
-      </c>
-      <c r="AF22" s="2">
-        <v>1197.0</v>
-      </c>
-      <c r="AG22" s="2">
-        <v>1208.0</v>
-      </c>
-      <c r="AH22" s="2">
-        <v>1192.0</v>
-      </c>
-      <c r="AI22" s="2">
-        <v>1171.0</v>
-      </c>
-      <c r="AJ22" s="2">
-        <v>1090.0</v>
-      </c>
-      <c r="AK22" s="2">
-        <v>1183.0</v>
-      </c>
-      <c r="AL22" s="24">
-        <v>1106.0</v>
-      </c>
-      <c r="AM22" s="24">
-        <v>1087.0</v>
-      </c>
-      <c r="AN22" s="24">
-        <v>1076.0</v>
-      </c>
-      <c r="AO22" s="24">
-        <v>1019.0</v>
-      </c>
-      <c r="AP22" s="24">
-        <v>981.0</v>
-      </c>
-      <c r="AQ22" s="24">
-        <v>902.0</v>
-      </c>
-      <c r="AR22" s="24">
-        <v>897.0</v>
-      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="24"/>
+      <c r="AM22" s="24"/>
+      <c r="AN22" s="24"/>
+      <c r="AO22" s="24"/>
+      <c r="AP22" s="24"/>
+      <c r="AQ22" s="24"/>
+      <c r="AR22" s="24"/>
       <c r="AS22" s="24">
-        <v>926.0</v>
+        <v>31.0</v>
       </c>
       <c r="AT22" s="24">
-        <v>945.0</v>
+        <v>20.0</v>
       </c>
       <c r="AU22" s="24">
-        <v>897.0</v>
+        <v>91.0</v>
       </c>
       <c r="AV22" s="24">
-        <v>930.0</v>
+        <v>152.0</v>
       </c>
       <c r="AW22" s="24">
-        <v>816.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX22" s="24">
-        <v>873.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY22" s="24">
-        <v>918.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ22" s="24">
-        <v>901.0</v>
+        <v>106.0</v>
       </c>
       <c r="BA22" s="24">
-        <v>828.0</v>
+        <v>132.0</v>
       </c>
       <c r="BB22" s="24">
-        <v>633.0</v>
+        <v>143.0</v>
       </c>
     </row>
     <row r="23">
@@ -13589,77 +13615,143 @@
         <v>84</v>
       </c>
       <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
-      <c r="AA23" s="2"/>
-      <c r="AB23" s="2"/>
-      <c r="AC23" s="2"/>
-      <c r="AD23" s="2"/>
-      <c r="AE23" s="2"/>
-      <c r="AF23" s="2"/>
-      <c r="AG23" s="2"/>
-      <c r="AH23" s="2"/>
-      <c r="AI23" s="2"/>
-      <c r="AJ23" s="2"/>
-      <c r="AK23" s="2"/>
-      <c r="AL23" s="24"/>
-      <c r="AM23" s="24"/>
-      <c r="AN23" s="24"/>
-      <c r="AO23" s="24"/>
-      <c r="AP23" s="24"/>
-      <c r="AQ23" s="24"/>
-      <c r="AR23" s="24"/>
+      <c r="I23" s="2">
+        <v>243.0</v>
+      </c>
+      <c r="J23" s="2">
+        <v>258.0</v>
+      </c>
+      <c r="K23" s="2">
+        <v>276.0</v>
+      </c>
+      <c r="L23" s="2">
+        <v>279.0</v>
+      </c>
+      <c r="M23" s="2">
+        <v>282.0</v>
+      </c>
+      <c r="N23" s="2">
+        <v>285.0</v>
+      </c>
+      <c r="O23" s="2">
+        <v>285.0</v>
+      </c>
+      <c r="P23" s="2">
+        <v>278.0</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>283.0</v>
+      </c>
+      <c r="R23" s="2">
+        <v>281.0</v>
+      </c>
+      <c r="S23" s="2">
+        <v>284.0</v>
+      </c>
+      <c r="T23" s="2">
+        <v>281.0</v>
+      </c>
+      <c r="U23" s="2">
+        <v>282.0</v>
+      </c>
+      <c r="V23" s="2">
+        <v>280.0</v>
+      </c>
+      <c r="W23" s="2">
+        <v>282.0</v>
+      </c>
+      <c r="X23" s="2">
+        <v>280.0</v>
+      </c>
+      <c r="Y23" s="2">
+        <v>278.0</v>
+      </c>
+      <c r="Z23" s="2">
+        <v>261.0</v>
+      </c>
+      <c r="AA23" s="2">
+        <v>279.0</v>
+      </c>
+      <c r="AB23" s="2">
+        <v>263.0</v>
+      </c>
+      <c r="AC23" s="2">
+        <v>278.0</v>
+      </c>
+      <c r="AD23" s="2">
+        <v>271.0</v>
+      </c>
+      <c r="AE23" s="2">
+        <v>267.0</v>
+      </c>
+      <c r="AF23" s="2">
+        <v>272.0</v>
+      </c>
+      <c r="AG23" s="2">
+        <v>268.0</v>
+      </c>
+      <c r="AH23" s="2">
+        <v>250.0</v>
+      </c>
+      <c r="AI23" s="2">
+        <v>256.0</v>
+      </c>
+      <c r="AJ23" s="2">
+        <v>237.0</v>
+      </c>
+      <c r="AK23" s="2">
+        <v>191.0</v>
+      </c>
+      <c r="AL23" s="24">
+        <v>180.0</v>
+      </c>
+      <c r="AM23" s="24">
+        <v>232.0</v>
+      </c>
+      <c r="AN23" s="24">
+        <v>227.0</v>
+      </c>
+      <c r="AO23" s="24">
+        <v>233.0</v>
+      </c>
+      <c r="AP23" s="24">
+        <v>233.0</v>
+      </c>
+      <c r="AQ23" s="24">
+        <v>228.0</v>
+      </c>
+      <c r="AR23" s="24">
+        <v>221.0</v>
+      </c>
       <c r="AS23" s="24">
-        <v>31.0</v>
+        <v>223.0</v>
       </c>
       <c r="AT23" s="24">
-        <v>20.0</v>
+        <v>214.0</v>
       </c>
       <c r="AU23" s="24">
-        <v>91.0</v>
+        <v>221.0</v>
       </c>
       <c r="AV23" s="24">
-        <v>152.0</v>
+        <v>225.0</v>
       </c>
       <c r="AW23" s="24">
-        <v>0.0</v>
+        <v>216.0</v>
       </c>
       <c r="AX23" s="24">
-        <v>0.0</v>
+        <v>216.0</v>
       </c>
       <c r="AY23" s="24">
-        <v>0.0</v>
+        <v>207.0</v>
       </c>
       <c r="AZ23" s="24">
-        <v>106.0</v>
+        <v>186.0</v>
       </c>
       <c r="BA23" s="24">
-        <v>132.0</v>
+        <v>175.0</v>
       </c>
       <c r="BB23" s="24">
-        <v>143.0</v>
+        <v>178.0</v>
       </c>
     </row>
     <row r="24">
@@ -13667,143 +13759,120 @@
         <v>85</v>
       </c>
       <c r="B24" s="6"/>
-      <c r="I24" s="2">
-        <v>243.0</v>
-      </c>
-      <c r="J24" s="2">
-        <v>258.0</v>
-      </c>
-      <c r="K24" s="2">
-        <v>276.0</v>
-      </c>
-      <c r="L24" s="2">
-        <v>279.0</v>
-      </c>
-      <c r="M24" s="2">
-        <v>282.0</v>
-      </c>
-      <c r="N24" s="2">
-        <v>285.0</v>
-      </c>
-      <c r="O24" s="2">
-        <v>285.0</v>
-      </c>
-      <c r="P24" s="2">
-        <v>278.0</v>
-      </c>
-      <c r="Q24" s="2">
-        <v>283.0</v>
-      </c>
-      <c r="R24" s="2">
-        <v>281.0</v>
-      </c>
-      <c r="S24" s="2">
-        <v>284.0</v>
-      </c>
-      <c r="T24" s="2">
-        <v>281.0</v>
-      </c>
-      <c r="U24" s="2">
-        <v>282.0</v>
-      </c>
-      <c r="V24" s="2">
-        <v>280.0</v>
-      </c>
-      <c r="W24" s="2">
-        <v>282.0</v>
-      </c>
-      <c r="X24" s="2">
-        <v>280.0</v>
-      </c>
-      <c r="Y24" s="2">
-        <v>278.0</v>
-      </c>
-      <c r="Z24" s="2">
-        <v>261.0</v>
-      </c>
-      <c r="AA24" s="2">
-        <v>279.0</v>
-      </c>
-      <c r="AB24" s="2">
-        <v>263.0</v>
-      </c>
-      <c r="AC24" s="2">
-        <v>278.0</v>
-      </c>
-      <c r="AD24" s="2">
-        <v>271.0</v>
-      </c>
-      <c r="AE24" s="2">
-        <v>267.0</v>
-      </c>
-      <c r="AF24" s="2">
-        <v>272.0</v>
-      </c>
-      <c r="AG24" s="2">
-        <v>268.0</v>
-      </c>
-      <c r="AH24" s="2">
-        <v>250.0</v>
+      <c r="O24" s="5"/>
+      <c r="Q24" s="18">
+        <v>401.0</v>
+      </c>
+      <c r="R24" s="18">
+        <v>544.0</v>
+      </c>
+      <c r="S24" s="18">
+        <v>804.0</v>
+      </c>
+      <c r="T24" s="18">
+        <v>798.0</v>
+      </c>
+      <c r="U24" s="18">
+        <v>798.0</v>
+      </c>
+      <c r="V24" s="18">
+        <v>786.0</v>
+      </c>
+      <c r="W24" s="18">
+        <v>795.0</v>
+      </c>
+      <c r="X24" s="18">
+        <v>780.0</v>
+      </c>
+      <c r="Y24" s="18">
+        <v>839.0</v>
+      </c>
+      <c r="Z24" s="18">
+        <v>875.0</v>
+      </c>
+      <c r="AA24" s="18">
+        <v>854.0</v>
+      </c>
+      <c r="AB24" s="18">
+        <v>863.0</v>
+      </c>
+      <c r="AC24" s="5">
+        <v>881.0</v>
+      </c>
+      <c r="AD24" s="5">
+        <v>877.0</v>
+      </c>
+      <c r="AE24" s="5">
+        <v>880.0</v>
+      </c>
+      <c r="AF24" s="5">
+        <v>879.0</v>
+      </c>
+      <c r="AG24" s="5">
+        <v>878.0</v>
+      </c>
+      <c r="AH24" s="6">
+        <v>856.0</v>
       </c>
       <c r="AI24" s="2">
-        <v>256.0</v>
+        <v>843.0</v>
       </c>
       <c r="AJ24" s="2">
-        <v>237.0</v>
+        <v>860.0</v>
       </c>
       <c r="AK24" s="2">
-        <v>191.0</v>
+        <v>854.0</v>
       </c>
       <c r="AL24" s="24">
-        <v>180.0</v>
+        <v>829.0</v>
       </c>
       <c r="AM24" s="24">
-        <v>232.0</v>
+        <v>839.0</v>
       </c>
       <c r="AN24" s="24">
-        <v>227.0</v>
+        <v>824.0</v>
       </c>
       <c r="AO24" s="24">
-        <v>233.0</v>
+        <v>758.0</v>
       </c>
       <c r="AP24" s="24">
-        <v>233.0</v>
+        <v>635.0</v>
       </c>
       <c r="AQ24" s="24">
-        <v>228.0</v>
+        <v>566.0</v>
       </c>
       <c r="AR24" s="24">
-        <v>221.0</v>
+        <v>527.0</v>
       </c>
       <c r="AS24" s="24">
-        <v>223.0</v>
+        <v>732.0</v>
       </c>
       <c r="AT24" s="24">
-        <v>214.0</v>
+        <v>760.0</v>
       </c>
       <c r="AU24" s="24">
-        <v>221.0</v>
+        <v>717.0</v>
       </c>
       <c r="AV24" s="24">
-        <v>225.0</v>
+        <v>689.0</v>
       </c>
       <c r="AW24" s="24">
-        <v>216.0</v>
+        <v>791.0</v>
       </c>
       <c r="AX24" s="24">
-        <v>216.0</v>
+        <v>768.0</v>
       </c>
       <c r="AY24" s="24">
-        <v>207.0</v>
+        <v>754.0</v>
       </c>
       <c r="AZ24" s="24">
-        <v>186.0</v>
+        <v>708.0</v>
       </c>
       <c r="BA24" s="24">
-        <v>175.0</v>
+        <v>699.0</v>
       </c>
       <c r="BB24" s="24">
-        <v>178.0</v>
+        <v>654.0</v>
       </c>
     </row>
     <row r="25">
@@ -13812,399 +13881,302 @@
       </c>
       <c r="B25" s="6"/>
       <c r="O25" s="5"/>
-      <c r="Q25" s="18">
-        <v>401.0</v>
-      </c>
-      <c r="R25" s="18">
-        <v>544.0</v>
-      </c>
-      <c r="S25" s="18">
-        <v>804.0</v>
-      </c>
-      <c r="T25" s="18">
-        <v>798.0</v>
-      </c>
-      <c r="U25" s="18">
-        <v>798.0</v>
-      </c>
-      <c r="V25" s="18">
-        <v>786.0</v>
-      </c>
-      <c r="W25" s="18">
-        <v>795.0</v>
-      </c>
-      <c r="X25" s="18">
-        <v>780.0</v>
-      </c>
-      <c r="Y25" s="18">
-        <v>839.0</v>
-      </c>
-      <c r="Z25" s="18">
-        <v>875.0</v>
-      </c>
-      <c r="AA25" s="18">
-        <v>854.0</v>
-      </c>
-      <c r="AB25" s="18">
-        <v>863.0</v>
-      </c>
-      <c r="AC25" s="5">
-        <v>881.0</v>
-      </c>
-      <c r="AD25" s="5">
-        <v>877.0</v>
-      </c>
-      <c r="AE25" s="5">
-        <v>880.0</v>
-      </c>
-      <c r="AF25" s="5">
-        <v>879.0</v>
-      </c>
-      <c r="AG25" s="5">
-        <v>878.0</v>
-      </c>
-      <c r="AH25" s="6">
-        <v>856.0</v>
+      <c r="Q25" s="18"/>
+      <c r="T25" s="2">
+        <v>144.0</v>
+      </c>
+      <c r="U25" s="2">
+        <v>150.0</v>
+      </c>
+      <c r="V25" s="2">
+        <v>315.0</v>
+      </c>
+      <c r="W25" s="2">
+        <v>303.0</v>
+      </c>
+      <c r="X25" s="2">
+        <v>300.0</v>
+      </c>
+      <c r="Y25" s="2">
+        <v>286.0</v>
+      </c>
+      <c r="Z25" s="2">
+        <v>299.0</v>
+      </c>
+      <c r="AA25" s="2">
+        <v>299.0</v>
+      </c>
+      <c r="AB25" s="2">
+        <v>298.0</v>
+      </c>
+      <c r="AC25" s="2">
+        <v>297.0</v>
+      </c>
+      <c r="AD25" s="2">
+        <v>299.0</v>
+      </c>
+      <c r="AE25" s="2">
+        <v>296.0</v>
+      </c>
+      <c r="AF25" s="2">
+        <v>298.0</v>
+      </c>
+      <c r="AG25" s="2">
+        <v>300.0</v>
+      </c>
+      <c r="AH25" s="2">
+        <v>295.0</v>
       </c>
       <c r="AI25" s="2">
-        <v>843.0</v>
+        <v>292.0</v>
       </c>
       <c r="AJ25" s="2">
-        <v>860.0</v>
+        <v>292.0</v>
       </c>
       <c r="AK25" s="2">
-        <v>854.0</v>
+        <v>294.0</v>
       </c>
       <c r="AL25" s="24">
-        <v>829.0</v>
+        <v>285.0</v>
       </c>
       <c r="AM25" s="24">
-        <v>839.0</v>
+        <v>281.0</v>
       </c>
       <c r="AN25" s="24">
-        <v>824.0</v>
+        <v>268.0</v>
       </c>
       <c r="AO25" s="24">
-        <v>758.0</v>
+        <v>247.0</v>
       </c>
       <c r="AP25" s="24">
-        <v>635.0</v>
+        <v>234.0</v>
       </c>
       <c r="AQ25" s="24">
-        <v>566.0</v>
+        <v>216.0</v>
       </c>
       <c r="AR25" s="24">
-        <v>527.0</v>
+        <v>203.0</v>
       </c>
       <c r="AS25" s="24">
-        <v>732.0</v>
+        <v>182.0</v>
       </c>
       <c r="AT25" s="24">
-        <v>760.0</v>
+        <v>168.0</v>
       </c>
       <c r="AU25" s="24">
-        <v>717.0</v>
+        <v>197.0</v>
       </c>
       <c r="AV25" s="24">
-        <v>689.0</v>
+        <v>216.0</v>
       </c>
       <c r="AW25" s="24">
-        <v>791.0</v>
+        <v>213.0</v>
       </c>
       <c r="AX25" s="24">
-        <v>768.0</v>
+        <v>229.0</v>
       </c>
       <c r="AY25" s="24">
-        <v>754.0</v>
+        <v>202.0</v>
       </c>
       <c r="AZ25" s="24">
-        <v>708.0</v>
+        <v>192.0</v>
       </c>
       <c r="BA25" s="24">
-        <v>699.0</v>
+        <v>199.0</v>
       </c>
       <c r="BB25" s="24">
-        <v>654.0</v>
+        <v>226.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="O26" s="5"/>
-      <c r="Q26" s="18"/>
-      <c r="T26" s="2">
-        <v>144.0</v>
-      </c>
-      <c r="U26" s="2">
-        <v>150.0</v>
-      </c>
-      <c r="V26" s="2">
-        <v>315.0</v>
-      </c>
-      <c r="W26" s="2">
-        <v>303.0</v>
-      </c>
-      <c r="X26" s="2">
-        <v>300.0</v>
-      </c>
-      <c r="Y26" s="2">
-        <v>286.0</v>
-      </c>
-      <c r="Z26" s="2">
-        <v>299.0</v>
-      </c>
-      <c r="AA26" s="2">
-        <v>299.0</v>
-      </c>
-      <c r="AB26" s="2">
-        <v>298.0</v>
-      </c>
-      <c r="AC26" s="2">
-        <v>297.0</v>
-      </c>
-      <c r="AD26" s="2">
-        <v>299.0</v>
-      </c>
-      <c r="AE26" s="2">
-        <v>296.0</v>
-      </c>
-      <c r="AF26" s="2">
-        <v>298.0</v>
-      </c>
-      <c r="AG26" s="2">
-        <v>300.0</v>
-      </c>
-      <c r="AH26" s="2">
-        <v>295.0</v>
+      <c r="B26" s="18">
+        <v>247.0</v>
+      </c>
+      <c r="C26" s="18">
+        <v>248.0</v>
+      </c>
+      <c r="D26" s="18">
+        <v>248.0</v>
+      </c>
+      <c r="E26" s="18">
+        <v>243.0</v>
+      </c>
+      <c r="F26" s="18">
+        <v>246.0</v>
+      </c>
+      <c r="G26" s="18">
+        <v>248.0</v>
+      </c>
+      <c r="H26" s="18">
+        <v>247.0</v>
+      </c>
+      <c r="I26" s="18">
+        <v>248.0</v>
+      </c>
+      <c r="J26" s="18">
+        <v>249.0</v>
+      </c>
+      <c r="K26" s="18">
+        <v>240.0</v>
+      </c>
+      <c r="L26" s="18">
+        <v>210.0</v>
+      </c>
+      <c r="M26" s="18">
+        <v>248.0</v>
+      </c>
+      <c r="N26" s="18">
+        <v>250.0</v>
+      </c>
+      <c r="O26" s="18">
+        <v>247.0</v>
+      </c>
+      <c r="P26" s="18">
+        <v>246.0</v>
+      </c>
+      <c r="Q26" s="18">
+        <v>245.0</v>
+      </c>
+      <c r="R26" s="18">
+        <v>250.0</v>
+      </c>
+      <c r="S26" s="18">
+        <v>249.0</v>
+      </c>
+      <c r="T26" s="5">
+        <v>249.0</v>
+      </c>
+      <c r="U26" s="5">
+        <v>243.0</v>
+      </c>
+      <c r="V26" s="5">
+        <v>248.0</v>
+      </c>
+      <c r="W26" s="5">
+        <v>244.0</v>
+      </c>
+      <c r="X26" s="5">
+        <v>246.0</v>
+      </c>
+      <c r="Y26" s="5">
+        <v>248.0</v>
+      </c>
+      <c r="Z26" s="5">
+        <v>246.0</v>
+      </c>
+      <c r="AA26" s="5">
+        <v>241.0</v>
+      </c>
+      <c r="AB26" s="5">
+        <v>245.0</v>
+      </c>
+      <c r="AC26" s="5">
+        <v>248.0</v>
+      </c>
+      <c r="AD26" s="5">
+        <v>248.0</v>
+      </c>
+      <c r="AE26" s="5">
+        <v>256.0</v>
+      </c>
+      <c r="AF26" s="5">
+        <v>259.0</v>
+      </c>
+      <c r="AG26" s="5">
+        <v>260.0</v>
+      </c>
+      <c r="AH26" s="6">
+        <v>257.0</v>
       </c>
       <c r="AI26" s="2">
-        <v>292.0</v>
+        <v>232.0</v>
       </c>
       <c r="AJ26" s="2">
-        <v>292.0</v>
+        <v>217.0</v>
       </c>
       <c r="AK26" s="2">
-        <v>294.0</v>
+        <v>198.0</v>
       </c>
       <c r="AL26" s="24">
-        <v>285.0</v>
+        <v>207.0</v>
       </c>
       <c r="AM26" s="24">
-        <v>281.0</v>
+        <v>196.0</v>
       </c>
       <c r="AN26" s="24">
-        <v>268.0</v>
+        <v>237.0</v>
       </c>
       <c r="AO26" s="24">
-        <v>247.0</v>
+        <v>223.0</v>
       </c>
       <c r="AP26" s="24">
-        <v>234.0</v>
+        <v>216.0</v>
       </c>
       <c r="AQ26" s="24">
-        <v>216.0</v>
+        <v>195.0</v>
       </c>
       <c r="AR26" s="24">
-        <v>203.0</v>
+        <v>191.0</v>
       </c>
       <c r="AS26" s="24">
         <v>182.0</v>
       </c>
       <c r="AT26" s="24">
-        <v>168.0</v>
+        <v>208.0</v>
       </c>
       <c r="AU26" s="24">
-        <v>197.0</v>
+        <v>196.0</v>
       </c>
       <c r="AV26" s="24">
-        <v>216.0</v>
+        <v>159.0</v>
       </c>
       <c r="AW26" s="24">
-        <v>213.0</v>
+        <v>158.0</v>
       </c>
       <c r="AX26" s="24">
-        <v>229.0</v>
+        <v>196.0</v>
       </c>
       <c r="AY26" s="24">
-        <v>202.0</v>
+        <v>189.0</v>
       </c>
       <c r="AZ26" s="24">
-        <v>192.0</v>
+        <v>173.0</v>
       </c>
       <c r="BA26" s="24">
-        <v>199.0</v>
+        <v>151.0</v>
       </c>
       <c r="BB26" s="24">
-        <v>226.0</v>
+        <v>190.0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="s">
+      <c r="B27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="AL27" s="26"/>
+      <c r="AM27" s="26"/>
+      <c r="AN27" s="26"/>
+      <c r="AO27" s="26"/>
+      <c r="AP27" s="26"/>
+      <c r="AQ27" s="26"/>
+      <c r="AR27" s="26"/>
+      <c r="AS27" s="26"/>
+      <c r="AT27" s="26"/>
+      <c r="AU27" s="26"/>
+      <c r="AV27" s="26"/>
+      <c r="AW27" s="26"/>
+      <c r="AX27" s="26"/>
+      <c r="AY27" s="26"/>
+      <c r="AZ27" s="26"/>
+      <c r="BA27" s="26"/>
+      <c r="BB27" s="26"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B27" s="18">
-        <v>247.0</v>
-      </c>
-      <c r="C27" s="18">
-        <v>248.0</v>
-      </c>
-      <c r="D27" s="18">
-        <v>248.0</v>
-      </c>
-      <c r="E27" s="18">
-        <v>243.0</v>
-      </c>
-      <c r="F27" s="18">
-        <v>246.0</v>
-      </c>
-      <c r="G27" s="18">
-        <v>248.0</v>
-      </c>
-      <c r="H27" s="18">
-        <v>247.0</v>
-      </c>
-      <c r="I27" s="18">
-        <v>248.0</v>
-      </c>
-      <c r="J27" s="18">
-        <v>249.0</v>
-      </c>
-      <c r="K27" s="18">
-        <v>240.0</v>
-      </c>
-      <c r="L27" s="18">
-        <v>210.0</v>
-      </c>
-      <c r="M27" s="18">
-        <v>248.0</v>
-      </c>
-      <c r="N27" s="18">
-        <v>250.0</v>
-      </c>
-      <c r="O27" s="18">
-        <v>247.0</v>
-      </c>
-      <c r="P27" s="18">
-        <v>246.0</v>
-      </c>
-      <c r="Q27" s="18">
-        <v>245.0</v>
-      </c>
-      <c r="R27" s="18">
-        <v>250.0</v>
-      </c>
-      <c r="S27" s="18">
-        <v>249.0</v>
-      </c>
-      <c r="T27" s="5">
-        <v>249.0</v>
-      </c>
-      <c r="U27" s="5">
-        <v>243.0</v>
-      </c>
-      <c r="V27" s="5">
-        <v>248.0</v>
-      </c>
-      <c r="W27" s="5">
-        <v>244.0</v>
-      </c>
-      <c r="X27" s="5">
-        <v>246.0</v>
-      </c>
-      <c r="Y27" s="5">
-        <v>248.0</v>
-      </c>
-      <c r="Z27" s="5">
-        <v>246.0</v>
-      </c>
-      <c r="AA27" s="5">
-        <v>241.0</v>
-      </c>
-      <c r="AB27" s="5">
-        <v>245.0</v>
-      </c>
-      <c r="AC27" s="5">
-        <v>248.0</v>
-      </c>
-      <c r="AD27" s="5">
-        <v>248.0</v>
-      </c>
-      <c r="AE27" s="5">
-        <v>256.0</v>
-      </c>
-      <c r="AF27" s="5">
-        <v>259.0</v>
-      </c>
-      <c r="AG27" s="5">
-        <v>260.0</v>
-      </c>
-      <c r="AH27" s="6">
-        <v>257.0</v>
-      </c>
-      <c r="AI27" s="2">
-        <v>232.0</v>
-      </c>
-      <c r="AJ27" s="2">
-        <v>217.0</v>
-      </c>
-      <c r="AK27" s="2">
-        <v>198.0</v>
-      </c>
-      <c r="AL27" s="24">
-        <v>207.0</v>
-      </c>
-      <c r="AM27" s="24">
-        <v>196.0</v>
-      </c>
-      <c r="AN27" s="24">
-        <v>237.0</v>
-      </c>
-      <c r="AO27" s="24">
-        <v>223.0</v>
-      </c>
-      <c r="AP27" s="24">
-        <v>216.0</v>
-      </c>
-      <c r="AQ27" s="24">
-        <v>195.0</v>
-      </c>
-      <c r="AR27" s="24">
-        <v>191.0</v>
-      </c>
-      <c r="AS27" s="24">
-        <v>182.0</v>
-      </c>
-      <c r="AT27" s="24">
-        <v>208.0</v>
-      </c>
-      <c r="AU27" s="24">
-        <v>196.0</v>
-      </c>
-      <c r="AV27" s="24">
-        <v>159.0</v>
-      </c>
-      <c r="AW27" s="24">
-        <v>158.0</v>
-      </c>
-      <c r="AX27" s="24">
-        <v>196.0</v>
-      </c>
-      <c r="AY27" s="24">
-        <v>189.0</v>
-      </c>
-      <c r="AZ27" s="24">
-        <v>173.0</v>
-      </c>
-      <c r="BA27" s="24">
-        <v>151.0</v>
-      </c>
-      <c r="BB27" s="24">
-        <v>190.0</v>
-      </c>
-    </row>
-    <row r="28">
       <c r="B28" s="18"/>
       <c r="Q28" s="18"/>
       <c r="AL28" s="26"/>
@@ -14229,81 +14201,205 @@
       <c r="A29" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="Q29" s="18"/>
-      <c r="AL29" s="26"/>
-      <c r="AM29" s="26"/>
-      <c r="AN29" s="26"/>
-      <c r="AO29" s="26"/>
-      <c r="AP29" s="26"/>
-      <c r="AQ29" s="26"/>
-      <c r="AR29" s="26"/>
-      <c r="AS29" s="26"/>
-      <c r="AT29" s="26"/>
-      <c r="AU29" s="26"/>
-      <c r="AV29" s="26"/>
-      <c r="AW29" s="26"/>
-      <c r="AX29" s="26"/>
-      <c r="AY29" s="26"/>
-      <c r="AZ29" s="26"/>
-      <c r="BA29" s="26"/>
-      <c r="BB29" s="26"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="2"/>
+      <c r="AE29" s="2"/>
+      <c r="AF29" s="2"/>
+      <c r="AG29" s="2"/>
+      <c r="AH29" s="2"/>
+      <c r="AI29" s="2"/>
+      <c r="AJ29" s="31"/>
+      <c r="AK29" s="31"/>
+      <c r="AL29" s="28"/>
+      <c r="AM29" s="28"/>
+      <c r="AN29" s="28"/>
+      <c r="AO29" s="28"/>
+      <c r="AP29" s="28">
+        <v>98.0</v>
+      </c>
+      <c r="AQ29" s="28">
+        <v>79.0</v>
+      </c>
+      <c r="AR29" s="28">
+        <v>69.0</v>
+      </c>
+      <c r="AS29" s="28"/>
+      <c r="AT29" s="28"/>
+      <c r="AU29" s="28"/>
+      <c r="AV29" s="28"/>
+      <c r="AW29" s="28"/>
+      <c r="AX29" s="28"/>
+      <c r="AY29" s="28"/>
+      <c r="AZ29" s="28"/>
+      <c r="BA29" s="28"/>
+      <c r="BB29" s="28"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
-      <c r="V30" s="6"/>
-      <c r="W30" s="6"/>
-      <c r="X30" s="6"/>
-      <c r="Y30" s="6"/>
-      <c r="Z30" s="2"/>
-      <c r="AA30" s="2"/>
-      <c r="AB30" s="2"/>
-      <c r="AC30" s="2"/>
-      <c r="AD30" s="2"/>
-      <c r="AE30" s="2"/>
-      <c r="AF30" s="2"/>
-      <c r="AG30" s="2"/>
-      <c r="AH30" s="2"/>
-      <c r="AI30" s="2"/>
-      <c r="AJ30" s="31"/>
-      <c r="AK30" s="31"/>
-      <c r="AL30" s="28"/>
-      <c r="AM30" s="28"/>
-      <c r="AN30" s="28"/>
-      <c r="AO30" s="28"/>
+      <c r="B30" s="6">
+        <v>169.0</v>
+      </c>
+      <c r="C30" s="6">
+        <v>155.0</v>
+      </c>
+      <c r="D30" s="6">
+        <v>144.0</v>
+      </c>
+      <c r="E30" s="6">
+        <v>160.0</v>
+      </c>
+      <c r="F30" s="6">
+        <v>130.0</v>
+      </c>
+      <c r="G30" s="6">
+        <v>145.0</v>
+      </c>
+      <c r="H30" s="6">
+        <v>150.0</v>
+      </c>
+      <c r="I30" s="6">
+        <v>150.0</v>
+      </c>
+      <c r="J30" s="6">
+        <v>151.0</v>
+      </c>
+      <c r="K30" s="6">
+        <v>152.0</v>
+      </c>
+      <c r="L30" s="6">
+        <v>150.0</v>
+      </c>
+      <c r="M30" s="6">
+        <v>150.0</v>
+      </c>
+      <c r="N30" s="6">
+        <v>145.0</v>
+      </c>
+      <c r="O30" s="6">
+        <v>146.0</v>
+      </c>
+      <c r="P30" s="6">
+        <v>139.0</v>
+      </c>
+      <c r="Q30" s="6">
+        <v>151.0</v>
+      </c>
+      <c r="R30" s="6">
+        <v>145.0</v>
+      </c>
+      <c r="S30" s="6">
+        <v>150.0</v>
+      </c>
+      <c r="T30" s="6">
+        <v>145.0</v>
+      </c>
+      <c r="U30" s="6">
+        <v>148.0</v>
+      </c>
+      <c r="V30" s="6">
+        <v>150.0</v>
+      </c>
+      <c r="W30" s="6">
+        <v>146.0</v>
+      </c>
+      <c r="X30" s="6">
+        <v>142.0</v>
+      </c>
+      <c r="Y30" s="6">
+        <v>134.0</v>
+      </c>
+      <c r="Z30" s="2">
+        <v>119.0</v>
+      </c>
+      <c r="AA30" s="2">
+        <v>142.0</v>
+      </c>
+      <c r="AB30" s="2">
+        <v>139.0</v>
+      </c>
+      <c r="AC30" s="2">
+        <v>149.0</v>
+      </c>
+      <c r="AD30" s="2">
+        <v>145.0</v>
+      </c>
+      <c r="AE30" s="2">
+        <v>148.0</v>
+      </c>
+      <c r="AF30" s="2">
+        <v>150.0</v>
+      </c>
+      <c r="AG30" s="2">
+        <v>150.0</v>
+      </c>
+      <c r="AH30" s="2">
+        <v>138.0</v>
+      </c>
+      <c r="AI30" s="2">
+        <v>147.0</v>
+      </c>
+      <c r="AJ30" s="31">
+        <v>147.0</v>
+      </c>
+      <c r="AK30" s="31">
+        <v>149.0</v>
+      </c>
+      <c r="AL30" s="28">
+        <v>138.0</v>
+      </c>
+      <c r="AM30" s="28">
+        <v>136.0</v>
+      </c>
+      <c r="AN30" s="28">
+        <v>118.0</v>
+      </c>
+      <c r="AO30" s="28">
+        <v>111.0</v>
+      </c>
       <c r="AP30" s="28">
-        <v>98.0</v>
+        <v>107.0</v>
       </c>
       <c r="AQ30" s="28">
-        <v>79.0</v>
+        <v>109.0</v>
       </c>
       <c r="AR30" s="28">
-        <v>69.0</v>
-      </c>
-      <c r="AS30" s="28"/>
-      <c r="AT30" s="28"/>
+        <v>115.0</v>
+      </c>
+      <c r="AS30" s="28">
+        <v>90.0</v>
+      </c>
+      <c r="AT30" s="28">
+        <v>78.0</v>
+      </c>
       <c r="AU30" s="28"/>
       <c r="AV30" s="28"/>
       <c r="AW30" s="28"/>
@@ -14317,141 +14413,117 @@
       <c r="A31" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="6">
-        <v>169.0</v>
-      </c>
-      <c r="C31" s="6">
-        <v>155.0</v>
-      </c>
-      <c r="D31" s="6">
-        <v>144.0</v>
-      </c>
-      <c r="E31" s="6">
-        <v>160.0</v>
-      </c>
-      <c r="F31" s="6">
-        <v>130.0</v>
-      </c>
-      <c r="G31" s="6">
-        <v>145.0</v>
-      </c>
-      <c r="H31" s="6">
-        <v>150.0</v>
-      </c>
-      <c r="I31" s="6">
-        <v>150.0</v>
-      </c>
+      <c r="B31" s="6"/>
+      <c r="F31" s="4"/>
       <c r="J31" s="6">
-        <v>151.0</v>
+        <v>267.0</v>
       </c>
       <c r="K31" s="6">
-        <v>152.0</v>
+        <v>269.0</v>
       </c>
       <c r="L31" s="6">
-        <v>150.0</v>
+        <v>343.0</v>
       </c>
       <c r="M31" s="6">
-        <v>150.0</v>
+        <v>347.0</v>
       </c>
       <c r="N31" s="6">
-        <v>145.0</v>
+        <v>350.0</v>
       </c>
       <c r="O31" s="6">
-        <v>146.0</v>
+        <v>349.0</v>
       </c>
       <c r="P31" s="6">
-        <v>139.0</v>
+        <v>350.0</v>
       </c>
       <c r="Q31" s="6">
-        <v>151.0</v>
+        <v>350.0</v>
       </c>
       <c r="R31" s="6">
-        <v>145.0</v>
+        <v>347.0</v>
       </c>
       <c r="S31" s="6">
-        <v>150.0</v>
+        <v>347.0</v>
       </c>
       <c r="T31" s="6">
-        <v>145.0</v>
+        <v>349.0</v>
       </c>
       <c r="U31" s="6">
-        <v>148.0</v>
+        <v>329.0</v>
       </c>
       <c r="V31" s="6">
-        <v>150.0</v>
+        <v>345.0</v>
       </c>
       <c r="W31" s="6">
-        <v>146.0</v>
+        <v>344.0</v>
       </c>
       <c r="X31" s="6">
-        <v>142.0</v>
+        <v>344.0</v>
       </c>
       <c r="Y31" s="6">
-        <v>134.0</v>
-      </c>
-      <c r="Z31" s="2">
-        <v>119.0</v>
-      </c>
-      <c r="AA31" s="2">
-        <v>142.0</v>
-      </c>
-      <c r="AB31" s="2">
-        <v>139.0</v>
-      </c>
-      <c r="AC31" s="2">
-        <v>149.0</v>
-      </c>
-      <c r="AD31" s="2">
-        <v>145.0</v>
-      </c>
-      <c r="AE31" s="2">
-        <v>148.0</v>
-      </c>
-      <c r="AF31" s="2">
-        <v>150.0</v>
+        <v>317.0</v>
+      </c>
+      <c r="Z31" s="6">
+        <v>340.0</v>
+      </c>
+      <c r="AA31" s="6">
+        <v>345.0</v>
+      </c>
+      <c r="AB31" s="6">
+        <v>341.0</v>
+      </c>
+      <c r="AC31" s="6">
+        <v>342.0</v>
+      </c>
+      <c r="AD31" s="6">
+        <v>344.0</v>
+      </c>
+      <c r="AE31" s="6">
+        <v>350.0</v>
+      </c>
+      <c r="AF31" s="6">
+        <v>343.0</v>
       </c>
       <c r="AG31" s="2">
-        <v>150.0</v>
+        <v>346.0</v>
       </c>
       <c r="AH31" s="2">
-        <v>138.0</v>
+        <v>338.0</v>
       </c>
       <c r="AI31" s="2">
-        <v>147.0</v>
-      </c>
-      <c r="AJ31" s="31">
-        <v>147.0</v>
-      </c>
-      <c r="AK31" s="31">
-        <v>149.0</v>
+        <v>310.0</v>
+      </c>
+      <c r="AJ31" s="2">
+        <v>295.0</v>
+      </c>
+      <c r="AK31" s="2">
+        <v>282.0</v>
       </c>
       <c r="AL31" s="28">
-        <v>138.0</v>
+        <v>251.0</v>
       </c>
       <c r="AM31" s="28">
-        <v>136.0</v>
+        <v>254.0</v>
       </c>
       <c r="AN31" s="28">
-        <v>118.0</v>
+        <v>237.0</v>
       </c>
       <c r="AO31" s="28">
-        <v>111.0</v>
+        <v>231.0</v>
       </c>
       <c r="AP31" s="28">
-        <v>107.0</v>
+        <v>223.0</v>
       </c>
       <c r="AQ31" s="28">
-        <v>109.0</v>
+        <v>208.0</v>
       </c>
       <c r="AR31" s="28">
-        <v>115.0</v>
+        <v>195.0</v>
       </c>
       <c r="AS31" s="28">
-        <v>90.0</v>
-      </c>
-      <c r="AT31" s="28">
-        <v>78.0</v>
-      </c>
+        <v>40.0</v>
+      </c>
+      <c r="AT31" s="28"/>
       <c r="AU31" s="28"/>
       <c r="AV31" s="28"/>
       <c r="AW31" s="28"/>
@@ -14467,339 +14539,267 @@
       </c>
       <c r="B32" s="6"/>
       <c r="F32" s="4"/>
-      <c r="J32" s="6">
-        <v>267.0</v>
-      </c>
-      <c r="K32" s="6">
-        <v>269.0</v>
-      </c>
-      <c r="L32" s="6">
-        <v>343.0</v>
-      </c>
-      <c r="M32" s="6">
-        <v>347.0</v>
-      </c>
-      <c r="N32" s="6">
-        <v>350.0</v>
-      </c>
-      <c r="O32" s="6">
-        <v>349.0</v>
-      </c>
-      <c r="P32" s="6">
-        <v>350.0</v>
-      </c>
-      <c r="Q32" s="6">
-        <v>350.0</v>
-      </c>
-      <c r="R32" s="6">
-        <v>347.0</v>
-      </c>
-      <c r="S32" s="6">
-        <v>347.0</v>
-      </c>
-      <c r="T32" s="6">
-        <v>349.0</v>
-      </c>
-      <c r="U32" s="6">
-        <v>329.0</v>
-      </c>
-      <c r="V32" s="6">
-        <v>345.0</v>
-      </c>
-      <c r="W32" s="6">
-        <v>344.0</v>
-      </c>
-      <c r="X32" s="6">
-        <v>344.0</v>
-      </c>
-      <c r="Y32" s="6">
-        <v>317.0</v>
-      </c>
-      <c r="Z32" s="6">
-        <v>340.0</v>
-      </c>
-      <c r="AA32" s="6">
-        <v>345.0</v>
-      </c>
-      <c r="AB32" s="6">
-        <v>341.0</v>
-      </c>
-      <c r="AC32" s="6">
-        <v>342.0</v>
-      </c>
-      <c r="AD32" s="6">
-        <v>344.0</v>
-      </c>
-      <c r="AE32" s="6">
-        <v>350.0</v>
-      </c>
-      <c r="AF32" s="6">
-        <v>343.0</v>
+      <c r="J32" s="6"/>
+      <c r="U32" s="2">
+        <v>31.0</v>
+      </c>
+      <c r="V32" s="2">
+        <v>37.0</v>
+      </c>
+      <c r="W32" s="2">
+        <v>41.0</v>
+      </c>
+      <c r="X32" s="2">
+        <v>41.0</v>
+      </c>
+      <c r="Y32" s="2">
+        <v>43.0</v>
+      </c>
+      <c r="Z32" s="2">
+        <v>45.0</v>
+      </c>
+      <c r="AA32" s="2">
+        <v>39.0</v>
+      </c>
+      <c r="AB32" s="2">
+        <v>42.0</v>
+      </c>
+      <c r="AC32" s="2">
+        <v>54.0</v>
+      </c>
+      <c r="AD32" s="2">
+        <v>51.0</v>
+      </c>
+      <c r="AE32" s="2">
+        <v>48.0</v>
+      </c>
+      <c r="AF32" s="2">
+        <v>34.0</v>
       </c>
       <c r="AG32" s="2">
-        <v>346.0</v>
+        <v>45.0</v>
       </c>
       <c r="AH32" s="2">
-        <v>338.0</v>
+        <v>46.0</v>
       </c>
       <c r="AI32" s="2">
-        <v>310.0</v>
+        <v>34.0</v>
       </c>
       <c r="AJ32" s="2">
-        <v>295.0</v>
+        <v>17.0</v>
       </c>
       <c r="AK32" s="2">
-        <v>282.0</v>
-      </c>
-      <c r="AL32" s="28">
-        <v>251.0</v>
-      </c>
-      <c r="AM32" s="28">
-        <v>254.0</v>
-      </c>
-      <c r="AN32" s="28">
-        <v>237.0</v>
-      </c>
-      <c r="AO32" s="28">
-        <v>231.0</v>
-      </c>
-      <c r="AP32" s="28">
-        <v>223.0</v>
-      </c>
-      <c r="AQ32" s="28">
-        <v>208.0</v>
-      </c>
-      <c r="AR32" s="28">
-        <v>195.0</v>
-      </c>
-      <c r="AS32" s="28">
-        <v>40.0</v>
-      </c>
-      <c r="AT32" s="28"/>
-      <c r="AU32" s="28"/>
-      <c r="AV32" s="28"/>
-      <c r="AW32" s="28"/>
-      <c r="AX32" s="28"/>
-      <c r="AY32" s="28"/>
-      <c r="AZ32" s="28"/>
-      <c r="BA32" s="28"/>
-      <c r="BB32" s="28"/>
+        <v>16.0</v>
+      </c>
+      <c r="AL32" s="24"/>
+      <c r="AM32" s="24"/>
+      <c r="AN32" s="24"/>
+      <c r="AO32" s="24"/>
+      <c r="AP32" s="24"/>
+      <c r="AQ32" s="24"/>
+      <c r="AR32" s="24"/>
+      <c r="AS32" s="24"/>
+      <c r="AT32" s="24"/>
+      <c r="AU32" s="24"/>
+      <c r="AV32" s="24"/>
+      <c r="AW32" s="24"/>
+      <c r="AX32" s="24"/>
+      <c r="AY32" s="24"/>
+      <c r="AZ32" s="24"/>
+      <c r="BA32" s="24"/>
+      <c r="BB32" s="24"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B33" s="6"/>
-      <c r="F33" s="4"/>
-      <c r="J33" s="6"/>
+      <c r="E33" s="2">
+        <v>206.0</v>
+      </c>
+      <c r="F33" s="2">
+        <v>246.0</v>
+      </c>
+      <c r="G33" s="2">
+        <v>253.0</v>
+      </c>
+      <c r="H33" s="2">
+        <v>277.0</v>
+      </c>
+      <c r="I33" s="2">
+        <v>295.0</v>
+      </c>
+      <c r="J33" s="2">
+        <v>282.0</v>
+      </c>
+      <c r="K33" s="2">
+        <v>294.0</v>
+      </c>
+      <c r="L33" s="2">
+        <v>302.0</v>
+      </c>
+      <c r="M33" s="2">
+        <v>313.0</v>
+      </c>
+      <c r="N33" s="2">
+        <v>322.0</v>
+      </c>
+      <c r="O33" s="2">
+        <v>329.0</v>
+      </c>
+      <c r="P33" s="2">
+        <v>329.0</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>326.0</v>
+      </c>
+      <c r="R33" s="2">
+        <v>388.0</v>
+      </c>
+      <c r="S33" s="2">
+        <v>388.0</v>
+      </c>
+      <c r="T33" s="2">
+        <v>384.0</v>
+      </c>
       <c r="U33" s="2">
-        <v>31.0</v>
+        <v>376.0</v>
       </c>
       <c r="V33" s="2">
-        <v>37.0</v>
+        <v>385.0</v>
       </c>
       <c r="W33" s="2">
-        <v>41.0</v>
+        <v>389.0</v>
       </c>
       <c r="X33" s="2">
-        <v>41.0</v>
+        <v>380.0</v>
       </c>
       <c r="Y33" s="2">
-        <v>43.0</v>
+        <v>385.0</v>
       </c>
       <c r="Z33" s="2">
-        <v>45.0</v>
+        <v>381.0</v>
       </c>
       <c r="AA33" s="2">
-        <v>39.0</v>
+        <v>373.0</v>
       </c>
       <c r="AB33" s="2">
-        <v>42.0</v>
+        <v>378.0</v>
       </c>
       <c r="AC33" s="2">
-        <v>54.0</v>
+        <v>369.0</v>
       </c>
       <c r="AD33" s="2">
-        <v>51.0</v>
+        <v>358.0</v>
       </c>
       <c r="AE33" s="2">
-        <v>48.0</v>
+        <v>398.0</v>
       </c>
       <c r="AF33" s="2">
-        <v>34.0</v>
+        <v>393.0</v>
       </c>
       <c r="AG33" s="2">
-        <v>45.0</v>
+        <v>377.0</v>
       </c>
       <c r="AH33" s="2">
-        <v>46.0</v>
+        <v>368.0</v>
       </c>
       <c r="AI33" s="2">
-        <v>34.0</v>
+        <v>344.0</v>
       </c>
       <c r="AJ33" s="2">
-        <v>17.0</v>
+        <v>355.0</v>
       </c>
       <c r="AK33" s="2">
-        <v>16.0</v>
-      </c>
-      <c r="AL33" s="24"/>
-      <c r="AM33" s="24"/>
-      <c r="AN33" s="24"/>
-      <c r="AO33" s="24"/>
-      <c r="AP33" s="24"/>
-      <c r="AQ33" s="24"/>
-      <c r="AR33" s="24"/>
-      <c r="AS33" s="24"/>
-      <c r="AT33" s="24"/>
-      <c r="AU33" s="24"/>
-      <c r="AV33" s="24"/>
-      <c r="AW33" s="24"/>
-      <c r="AX33" s="24"/>
-      <c r="AY33" s="24"/>
-      <c r="AZ33" s="24"/>
-      <c r="BA33" s="24"/>
-      <c r="BB33" s="24"/>
+        <v>354.0</v>
+      </c>
+      <c r="AL33" s="28">
+        <v>353.0</v>
+      </c>
+      <c r="AM33" s="28">
+        <v>344.0</v>
+      </c>
+      <c r="AN33" s="28">
+        <v>310.0</v>
+      </c>
+      <c r="AO33" s="28">
+        <v>309.0</v>
+      </c>
+      <c r="AP33" s="28">
+        <v>297.0</v>
+      </c>
+      <c r="AQ33" s="28">
+        <v>279.0</v>
+      </c>
+      <c r="AR33" s="28">
+        <v>258.0</v>
+      </c>
+      <c r="AS33" s="28">
+        <v>226.0</v>
+      </c>
+      <c r="AT33" s="28">
+        <v>80.0</v>
+      </c>
+      <c r="AU33" s="28"/>
+      <c r="AV33" s="28"/>
+      <c r="AW33" s="28"/>
+      <c r="AX33" s="28"/>
+      <c r="AY33" s="28"/>
+      <c r="AZ33" s="28"/>
+      <c r="BA33" s="28"/>
+      <c r="BB33" s="28"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B34" s="6"/>
-      <c r="E34" s="2">
-        <v>206.0</v>
-      </c>
-      <c r="F34" s="2">
-        <v>246.0</v>
-      </c>
-      <c r="G34" s="2">
-        <v>253.0</v>
-      </c>
-      <c r="H34" s="2">
-        <v>277.0</v>
-      </c>
-      <c r="I34" s="2">
-        <v>295.0</v>
-      </c>
-      <c r="J34" s="2">
-        <v>282.0</v>
-      </c>
-      <c r="K34" s="2">
-        <v>294.0</v>
-      </c>
-      <c r="L34" s="2">
-        <v>302.0</v>
-      </c>
-      <c r="M34" s="2">
-        <v>313.0</v>
-      </c>
-      <c r="N34" s="2">
-        <v>322.0</v>
-      </c>
-      <c r="O34" s="2">
-        <v>329.0</v>
-      </c>
-      <c r="P34" s="2">
-        <v>329.0</v>
-      </c>
-      <c r="Q34" s="2">
-        <v>326.0</v>
-      </c>
-      <c r="R34" s="2">
-        <v>388.0</v>
-      </c>
-      <c r="S34" s="2">
-        <v>388.0</v>
-      </c>
-      <c r="T34" s="2">
-        <v>384.0</v>
-      </c>
-      <c r="U34" s="2">
-        <v>376.0</v>
-      </c>
-      <c r="V34" s="2">
-        <v>385.0</v>
-      </c>
-      <c r="W34" s="2">
-        <v>389.0</v>
-      </c>
-      <c r="X34" s="2">
-        <v>380.0</v>
-      </c>
-      <c r="Y34" s="2">
-        <v>385.0</v>
-      </c>
-      <c r="Z34" s="2">
-        <v>381.0</v>
-      </c>
-      <c r="AA34" s="2">
-        <v>373.0</v>
-      </c>
-      <c r="AB34" s="2">
-        <v>378.0</v>
-      </c>
+      <c r="F34" s="4"/>
+      <c r="J34" s="6"/>
       <c r="AC34" s="2">
-        <v>369.0</v>
+        <v>66.0</v>
       </c>
       <c r="AD34" s="2">
-        <v>358.0</v>
+        <v>106.0</v>
       </c>
       <c r="AE34" s="2">
-        <v>398.0</v>
+        <v>113.0</v>
       </c>
       <c r="AF34" s="2">
-        <v>393.0</v>
+        <v>156.0</v>
       </c>
       <c r="AG34" s="2">
-        <v>377.0</v>
+        <v>115.0</v>
       </c>
       <c r="AH34" s="2">
-        <v>368.0</v>
+        <v>113.0</v>
       </c>
       <c r="AI34" s="2">
-        <v>344.0</v>
+        <v>107.0</v>
       </c>
       <c r="AJ34" s="2">
-        <v>355.0</v>
+        <v>107.0</v>
       </c>
       <c r="AK34" s="2">
-        <v>354.0</v>
-      </c>
-      <c r="AL34" s="28">
-        <v>353.0</v>
-      </c>
-      <c r="AM34" s="28">
-        <v>344.0</v>
-      </c>
-      <c r="AN34" s="28">
-        <v>310.0</v>
-      </c>
-      <c r="AO34" s="28">
-        <v>309.0</v>
-      </c>
-      <c r="AP34" s="28">
-        <v>297.0</v>
-      </c>
-      <c r="AQ34" s="28">
-        <v>279.0</v>
-      </c>
-      <c r="AR34" s="28">
-        <v>258.0</v>
-      </c>
-      <c r="AS34" s="28">
-        <v>226.0</v>
-      </c>
-      <c r="AT34" s="28">
-        <v>80.0</v>
-      </c>
-      <c r="AU34" s="28"/>
-      <c r="AV34" s="28"/>
-      <c r="AW34" s="28"/>
-      <c r="AX34" s="28"/>
-      <c r="AY34" s="28"/>
-      <c r="AZ34" s="28"/>
-      <c r="BA34" s="28"/>
-      <c r="BB34" s="28"/>
+        <v>25.0</v>
+      </c>
+      <c r="AL34" s="24"/>
+      <c r="AM34" s="24"/>
+      <c r="AN34" s="24"/>
+      <c r="AO34" s="24"/>
+      <c r="AP34" s="24"/>
+      <c r="AQ34" s="24"/>
+      <c r="AR34" s="24"/>
+      <c r="AS34" s="24"/>
+      <c r="AT34" s="24"/>
+      <c r="AU34" s="24"/>
+      <c r="AV34" s="24"/>
+      <c r="AW34" s="24"/>
+      <c r="AX34" s="24"/>
+      <c r="AY34" s="24"/>
+      <c r="AZ34" s="24"/>
+      <c r="BA34" s="24"/>
+      <c r="BB34" s="24"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -662,11 +662,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="827066522"/>
-        <c:axId val="1505176056"/>
+        <c:axId val="554114492"/>
+        <c:axId val="649275472"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="827066522"/>
+        <c:axId val="554114492"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -718,10 +718,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1505176056"/>
+        <c:crossAx val="649275472"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1505176056"/>
+        <c:axId val="649275472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -796,7 +796,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="827066522"/>
+        <c:crossAx val="554114492"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -919,11 +919,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="2019775072"/>
-        <c:axId val="802842016"/>
+        <c:axId val="1745420321"/>
+        <c:axId val="2007264342"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2019775072"/>
+        <c:axId val="1745420321"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -975,10 +975,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="802842016"/>
+        <c:crossAx val="2007264342"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="802842016"/>
+        <c:axId val="2007264342"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1053,7 +1053,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2019775072"/>
+        <c:crossAx val="1745420321"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -662,11 +662,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="554114492"/>
-        <c:axId val="649275472"/>
+        <c:axId val="1626697724"/>
+        <c:axId val="901195091"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="554114492"/>
+        <c:axId val="1626697724"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -718,10 +718,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="649275472"/>
+        <c:crossAx val="901195091"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="649275472"/>
+        <c:axId val="901195091"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -796,7 +796,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="554114492"/>
+        <c:crossAx val="1626697724"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -919,11 +919,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1745420321"/>
-        <c:axId val="2007264342"/>
+        <c:axId val="13306995"/>
+        <c:axId val="1625208523"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1745420321"/>
+        <c:axId val="13306995"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -975,10 +975,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2007264342"/>
+        <c:crossAx val="1625208523"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2007264342"/>
+        <c:axId val="1625208523"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1053,7 +1053,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1745420321"/>
+        <c:crossAx val="13306995"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -662,11 +662,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1626697724"/>
-        <c:axId val="901195091"/>
+        <c:axId val="2110682714"/>
+        <c:axId val="583164091"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1626697724"/>
+        <c:axId val="2110682714"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -718,10 +718,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="901195091"/>
+        <c:crossAx val="583164091"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="901195091"/>
+        <c:axId val="583164091"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -796,7 +796,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1626697724"/>
+        <c:crossAx val="2110682714"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -919,11 +919,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="13306995"/>
-        <c:axId val="1625208523"/>
+        <c:axId val="133071172"/>
+        <c:axId val="1482151801"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="13306995"/>
+        <c:axId val="133071172"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -975,10 +975,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1625208523"/>
+        <c:crossAx val="1482151801"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1625208523"/>
+        <c:axId val="1482151801"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1053,7 +1053,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13306995"/>
+        <c:crossAx val="133071172"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -662,11 +662,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="2110682714"/>
-        <c:axId val="583164091"/>
+        <c:axId val="645319217"/>
+        <c:axId val="1595647637"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="2110682714"/>
+        <c:axId val="645319217"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -718,10 +718,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="583164091"/>
+        <c:crossAx val="1595647637"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="583164091"/>
+        <c:axId val="1595647637"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -796,7 +796,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2110682714"/>
+        <c:crossAx val="645319217"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -919,11 +919,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="133071172"/>
-        <c:axId val="1482151801"/>
+        <c:axId val="343349255"/>
+        <c:axId val="1931696681"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="133071172"/>
+        <c:axId val="343349255"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -975,10 +975,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1482151801"/>
+        <c:crossAx val="1931696681"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1482151801"/>
+        <c:axId val="1931696681"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1053,7 +1053,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133071172"/>
+        <c:crossAx val="343349255"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -665,11 +665,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="2100222308"/>
-        <c:axId val="2080114054"/>
+        <c:axId val="127985705"/>
+        <c:axId val="1719172466"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="2100222308"/>
+        <c:axId val="127985705"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -721,10 +721,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2080114054"/>
+        <c:crossAx val="1719172466"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2080114054"/>
+        <c:axId val="1719172466"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -799,7 +799,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2100222308"/>
+        <c:crossAx val="127985705"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -922,11 +922,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1747660345"/>
-        <c:axId val="552437881"/>
+        <c:axId val="1769801392"/>
+        <c:axId val="249171468"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1747660345"/>
+        <c:axId val="1769801392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -978,10 +978,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="552437881"/>
+        <c:crossAx val="249171468"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="552437881"/>
+        <c:axId val="249171468"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1056,7 +1056,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1747660345"/>
+        <c:crossAx val="1769801392"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -665,11 +665,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="127985705"/>
-        <c:axId val="1719172466"/>
+        <c:axId val="488408943"/>
+        <c:axId val="779862846"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="127985705"/>
+        <c:axId val="488408943"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -721,10 +721,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1719172466"/>
+        <c:crossAx val="779862846"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1719172466"/>
+        <c:axId val="779862846"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -799,7 +799,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="127985705"/>
+        <c:crossAx val="488408943"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -922,11 +922,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1769801392"/>
-        <c:axId val="249171468"/>
+        <c:axId val="811069350"/>
+        <c:axId val="941182027"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1769801392"/>
+        <c:axId val="811069350"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -978,10 +978,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249171468"/>
+        <c:crossAx val="941182027"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="249171468"/>
+        <c:axId val="941182027"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1056,7 +1056,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1769801392"/>
+        <c:crossAx val="811069350"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -665,11 +665,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="488408943"/>
-        <c:axId val="779862846"/>
+        <c:axId val="355840515"/>
+        <c:axId val="1225311787"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="488408943"/>
+        <c:axId val="355840515"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -721,10 +721,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="779862846"/>
+        <c:crossAx val="1225311787"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="779862846"/>
+        <c:axId val="1225311787"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -799,7 +799,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488408943"/>
+        <c:crossAx val="355840515"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -922,11 +922,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="811069350"/>
-        <c:axId val="941182027"/>
+        <c:axId val="2111336537"/>
+        <c:axId val="183124048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="811069350"/>
+        <c:axId val="2111336537"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -978,10 +978,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="941182027"/>
+        <c:crossAx val="183124048"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="941182027"/>
+        <c:axId val="183124048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1056,7 +1056,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="811069350"/>
+        <c:crossAx val="2111336537"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -665,11 +665,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="355840515"/>
-        <c:axId val="1225311787"/>
+        <c:axId val="1654420966"/>
+        <c:axId val="569583647"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="355840515"/>
+        <c:axId val="1654420966"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -721,10 +721,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1225311787"/>
+        <c:crossAx val="569583647"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1225311787"/>
+        <c:axId val="569583647"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -799,7 +799,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="355840515"/>
+        <c:crossAx val="1654420966"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -922,11 +922,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="2111336537"/>
-        <c:axId val="183124048"/>
+        <c:axId val="220269797"/>
+        <c:axId val="905061851"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2111336537"/>
+        <c:axId val="220269797"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -978,10 +978,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183124048"/>
+        <c:crossAx val="905061851"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183124048"/>
+        <c:axId val="905061851"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1056,7 +1056,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2111336537"/>
+        <c:crossAx val="220269797"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -665,11 +665,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1654420966"/>
-        <c:axId val="569583647"/>
+        <c:axId val="1975812693"/>
+        <c:axId val="1752027353"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1654420966"/>
+        <c:axId val="1975812693"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -721,10 +721,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="569583647"/>
+        <c:crossAx val="1752027353"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="569583647"/>
+        <c:axId val="1752027353"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -799,7 +799,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1654420966"/>
+        <c:crossAx val="1975812693"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -922,11 +922,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="220269797"/>
-        <c:axId val="905061851"/>
+        <c:axId val="782357229"/>
+        <c:axId val="1099021333"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="220269797"/>
+        <c:axId val="782357229"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -978,10 +978,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="905061851"/>
+        <c:crossAx val="1099021333"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="905061851"/>
+        <c:axId val="1099021333"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1056,7 +1056,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220269797"/>
+        <c:crossAx val="782357229"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -703,11 +703,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1086367681"/>
-        <c:axId val="110592932"/>
+        <c:axId val="804228999"/>
+        <c:axId val="298357831"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1086367681"/>
+        <c:axId val="804228999"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -759,10 +759,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110592932"/>
+        <c:crossAx val="298357831"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110592932"/>
+        <c:axId val="298357831"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -837,7 +837,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1086367681"/>
+        <c:crossAx val="804228999"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -960,11 +960,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1134728444"/>
-        <c:axId val="365361272"/>
+        <c:axId val="1371569355"/>
+        <c:axId val="2020822941"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1134728444"/>
+        <c:axId val="1371569355"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1016,10 +1016,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365361272"/>
+        <c:crossAx val="2020822941"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="365361272"/>
+        <c:axId val="2020822941"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1094,7 +1094,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1134728444"/>
+        <c:crossAx val="1371569355"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -703,11 +703,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="804228999"/>
-        <c:axId val="298357831"/>
+        <c:axId val="1863294519"/>
+        <c:axId val="1969928849"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="804228999"/>
+        <c:axId val="1863294519"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -759,10 +759,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="298357831"/>
+        <c:crossAx val="1969928849"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="298357831"/>
+        <c:axId val="1969928849"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -837,7 +837,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="804228999"/>
+        <c:crossAx val="1863294519"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -960,11 +960,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1371569355"/>
-        <c:axId val="2020822941"/>
+        <c:axId val="1985088068"/>
+        <c:axId val="890420782"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1371569355"/>
+        <c:axId val="1985088068"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1016,10 +1016,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2020822941"/>
+        <c:crossAx val="890420782"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2020822941"/>
+        <c:axId val="890420782"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1094,7 +1094,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1371569355"/>
+        <c:crossAx val="1985088068"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -703,11 +703,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1863294519"/>
-        <c:axId val="1969928849"/>
+        <c:axId val="1820678366"/>
+        <c:axId val="1670782872"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1863294519"/>
+        <c:axId val="1820678366"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -759,10 +759,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1969928849"/>
+        <c:crossAx val="1670782872"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1969928849"/>
+        <c:axId val="1670782872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -837,7 +837,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1863294519"/>
+        <c:crossAx val="1820678366"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -960,11 +960,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1985088068"/>
-        <c:axId val="890420782"/>
+        <c:axId val="1994799509"/>
+        <c:axId val="203244075"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1985088068"/>
+        <c:axId val="1994799509"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1016,10 +1016,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="890420782"/>
+        <c:crossAx val="203244075"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="890420782"/>
+        <c:axId val="203244075"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1094,7 +1094,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1985088068"/>
+        <c:crossAx val="1994799509"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -703,11 +703,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1820678366"/>
-        <c:axId val="1670782872"/>
+        <c:axId val="1978483354"/>
+        <c:axId val="357202720"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1820678366"/>
+        <c:axId val="1978483354"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -759,10 +759,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1670782872"/>
+        <c:crossAx val="357202720"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1670782872"/>
+        <c:axId val="357202720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -837,7 +837,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1820678366"/>
+        <c:crossAx val="1978483354"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -960,11 +960,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1994799509"/>
-        <c:axId val="203244075"/>
+        <c:axId val="1184397138"/>
+        <c:axId val="824679119"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1994799509"/>
+        <c:axId val="1184397138"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1016,10 +1016,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203244075"/>
+        <c:crossAx val="824679119"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="203244075"/>
+        <c:axId val="824679119"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1094,7 +1094,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1994799509"/>
+        <c:crossAx val="1184397138"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -703,11 +703,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1978483354"/>
-        <c:axId val="357202720"/>
+        <c:axId val="764309080"/>
+        <c:axId val="613939295"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1978483354"/>
+        <c:axId val="764309080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -759,10 +759,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357202720"/>
+        <c:crossAx val="613939295"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="357202720"/>
+        <c:axId val="613939295"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -837,7 +837,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1978483354"/>
+        <c:crossAx val="764309080"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -960,11 +960,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1184397138"/>
-        <c:axId val="824679119"/>
+        <c:axId val="209108620"/>
+        <c:axId val="1587394163"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1184397138"/>
+        <c:axId val="209108620"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1016,10 +1016,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="824679119"/>
+        <c:crossAx val="1587394163"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="824679119"/>
+        <c:axId val="1587394163"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1094,7 +1094,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1184397138"/>
+        <c:crossAx val="209108620"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -703,11 +703,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="764309080"/>
-        <c:axId val="613939295"/>
+        <c:axId val="570910077"/>
+        <c:axId val="931053417"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="764309080"/>
+        <c:axId val="570910077"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -759,10 +759,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="613939295"/>
+        <c:crossAx val="931053417"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="613939295"/>
+        <c:axId val="931053417"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -837,7 +837,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="764309080"/>
+        <c:crossAx val="570910077"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -960,11 +960,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="209108620"/>
-        <c:axId val="1587394163"/>
+        <c:axId val="1809742114"/>
+        <c:axId val="388673641"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="209108620"/>
+        <c:axId val="1809742114"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1016,10 +1016,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1587394163"/>
+        <c:crossAx val="388673641"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1587394163"/>
+        <c:axId val="388673641"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1094,7 +1094,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209108620"/>
+        <c:crossAx val="1809742114"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -659,12 +659,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Charts!$B$2:$BD$2</c:f>
+              <c:f>Charts!$B$2:$BE$2</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$B$3:$BD$3</c:f>
+              <c:f>Charts!$B$3:$BE$3</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -693,21 +693,21 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Charts!$B$2:$BD$2</c:f>
+              <c:f>Charts!$B$2:$BE$2</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$B$4:$BD$4</c:f>
+              <c:f>Charts!$B$4:$BE$4</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="570910077"/>
-        <c:axId val="931053417"/>
+        <c:axId val="402824561"/>
+        <c:axId val="316465088"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="570910077"/>
+        <c:axId val="402824561"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -759,10 +759,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="931053417"/>
+        <c:crossAx val="316465088"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="931053417"/>
+        <c:axId val="316465088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -837,7 +837,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="570910077"/>
+        <c:crossAx val="402824561"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -919,12 +919,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Charts!$B$38:$AQ$38</c:f>
+              <c:f>Charts!$B$38:$AR$38</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$B$39:$AQ$39</c:f>
+              <c:f>Charts!$B$39:$AR$39</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -949,22 +949,22 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Charts!$B$38:$AQ$38</c:f>
+              <c:f>Charts!$B$38:$AR$38</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$B$40:$AQ$40</c:f>
+              <c:f>Charts!$B$40:$AR$40</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1809742114"/>
-        <c:axId val="388673641"/>
+        <c:axId val="1229423213"/>
+        <c:axId val="237548525"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1809742114"/>
+        <c:axId val="1229423213"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1016,10 +1016,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="388673641"/>
+        <c:crossAx val="237548525"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="388673641"/>
+        <c:axId val="237548525"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1094,7 +1094,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1809742114"/>
+        <c:crossAx val="1229423213"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1575,6 +1575,9 @@
       <c r="BD1" s="1">
         <v>45464.0</v>
       </c>
+      <c r="BE1" s="1">
+        <v>45471.0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1743,6 +1746,9 @@
       <c r="BD2" s="3">
         <v>43751.0</v>
       </c>
+      <c r="BE2" s="3">
+        <v>44153.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -1910,6 +1916,9 @@
       <c r="BD3" s="2">
         <v>7218.0</v>
       </c>
+      <c r="BE3" s="2">
+        <v>7220.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -2068,6 +2077,9 @@
       </c>
       <c r="BD4" s="3">
         <v>31840.0</v>
+      </c>
+      <c r="BE4" s="3">
+        <v>32501.0</v>
       </c>
     </row>
     <row r="5">
@@ -2343,6 +2355,9 @@
       </c>
       <c r="BD1" s="1">
         <v>45464.0</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>45471.0</v>
       </c>
     </row>
     <row r="2">
@@ -2391,6 +2406,7 @@
       <c r="BB2" s="2"/>
       <c r="BC2" s="2"/>
       <c r="BD2" s="2"/>
+      <c r="BE2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -2520,6 +2536,9 @@
         <v>0.0</v>
       </c>
       <c r="BD3" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="BE3" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -2603,6 +2622,9 @@
         <v>0.0</v>
       </c>
       <c r="BD4" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="BE4" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -2660,6 +2682,7 @@
       <c r="BB5" s="2"/>
       <c r="BC5" s="2"/>
       <c r="BD5" s="2"/>
+      <c r="BE5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -2717,6 +2740,7 @@
       <c r="BB6" s="2"/>
       <c r="BC6" s="2"/>
       <c r="BD6" s="2"/>
+      <c r="BE6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
@@ -2793,6 +2817,9 @@
       </c>
       <c r="BD7" s="2">
         <v>117.0</v>
+      </c>
+      <c r="BE7" s="2">
+        <v>152.0</v>
       </c>
     </row>
     <row r="8">
@@ -2873,6 +2900,9 @@
       <c r="BD8" s="2">
         <v>78.0</v>
       </c>
+      <c r="BE8" s="2">
+        <v>125.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
@@ -3030,6 +3060,9 @@
         <v>0.0</v>
       </c>
       <c r="BD9" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="BE9" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -3093,6 +3126,7 @@
       <c r="BB10" s="2"/>
       <c r="BC10" s="2"/>
       <c r="BD10" s="2"/>
+      <c r="BE10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
@@ -3169,6 +3203,9 @@
       </c>
       <c r="BD11" s="2">
         <v>281.0</v>
+      </c>
+      <c r="BE11" s="2">
+        <v>378.0</v>
       </c>
     </row>
     <row r="12">
@@ -3227,6 +3264,7 @@
       <c r="BB12" s="2"/>
       <c r="BC12" s="2"/>
       <c r="BD12" s="2"/>
+      <c r="BE12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
@@ -3394,6 +3432,9 @@
       <c r="BD13" s="2">
         <v>98.0</v>
       </c>
+      <c r="BE13" s="2">
+        <v>144.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
@@ -3561,6 +3602,9 @@
       <c r="BD14" s="2">
         <v>17.0</v>
       </c>
+      <c r="BE14" s="2">
+        <v>23.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
@@ -3727,6 +3771,9 @@
       </c>
       <c r="BD15" s="2">
         <v>166.0</v>
+      </c>
+      <c r="BE15" s="2">
+        <v>211.0</v>
       </c>
     </row>
     <row r="16">
@@ -3981,6 +4028,9 @@
       <c r="BD18" s="2">
         <v>253.0</v>
       </c>
+      <c r="BE18" s="2">
+        <v>378.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="C19" s="6"/>
@@ -4437,6 +4487,9 @@
       </c>
       <c r="BC1" s="1">
         <v>45464.0</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>45471.0</v>
       </c>
     </row>
     <row r="2">
@@ -4497,6 +4550,7 @@
       <c r="BA2" s="8"/>
       <c r="BB2" s="8"/>
       <c r="BC2" s="8"/>
+      <c r="BD2" s="8"/>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
@@ -4556,6 +4610,7 @@
       <c r="BA3" s="8"/>
       <c r="BB3" s="8"/>
       <c r="BC3" s="8"/>
+      <c r="BD3" s="8"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -4717,6 +4772,9 @@
       <c r="BA4" s="8"/>
       <c r="BB4" s="8"/>
       <c r="BC4" s="8"/>
+      <c r="BD4" s="8">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
@@ -4825,6 +4883,7 @@
       <c r="BA5" s="8"/>
       <c r="BB5" s="8"/>
       <c r="BC5" s="8"/>
+      <c r="BD5" s="8"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -4905,6 +4964,9 @@
         <v>12.0</v>
       </c>
       <c r="BC6" s="8"/>
+      <c r="BD6" s="8">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
@@ -5071,6 +5133,9 @@
       </c>
       <c r="BC7" s="8">
         <v>522.0</v>
+      </c>
+      <c r="BD7" s="8">
+        <v>505.0</v>
       </c>
     </row>
     <row r="8">
@@ -5172,6 +5237,7 @@
       <c r="BA8" s="8"/>
       <c r="BB8" s="8"/>
       <c r="BC8" s="8"/>
+      <c r="BD8" s="8"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
@@ -5202,6 +5268,7 @@
       <c r="BA9" s="9"/>
       <c r="BB9" s="9"/>
       <c r="BC9" s="9"/>
+      <c r="BD9" s="9"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
@@ -5368,6 +5435,9 @@
       </c>
       <c r="BC10" s="8">
         <v>262.0</v>
+      </c>
+      <c r="BD10" s="8">
+        <v>272.0</v>
       </c>
     </row>
     <row r="11">
@@ -5441,6 +5511,7 @@
       <c r="BC11" s="8">
         <v>11.0</v>
       </c>
+      <c r="BD11" s="8"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
@@ -5550,6 +5621,9 @@
         <v>15.0</v>
       </c>
       <c r="BC12" s="8"/>
+      <c r="BD12" s="8">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
@@ -5688,6 +5762,9 @@
       <c r="BC13" s="8">
         <v>40.0</v>
       </c>
+      <c r="BD13" s="8">
+        <v>50.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
@@ -5854,6 +5931,9 @@
       </c>
       <c r="BC14" s="8">
         <v>16.0</v>
+      </c>
+      <c r="BD14" s="8">
+        <v>26.0</v>
       </c>
     </row>
     <row r="15">
@@ -5968,6 +6048,7 @@
       <c r="BA15" s="8"/>
       <c r="BB15" s="8"/>
       <c r="BC15" s="8"/>
+      <c r="BD15" s="8"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
@@ -6134,6 +6215,9 @@
       </c>
       <c r="BC16" s="8">
         <v>21.0</v>
+      </c>
+      <c r="BD16" s="8">
+        <v>26.0</v>
       </c>
     </row>
     <row r="17">
@@ -6198,6 +6282,7 @@
       <c r="BA17" s="8"/>
       <c r="BB17" s="8"/>
       <c r="BC17" s="8"/>
+      <c r="BD17" s="8"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
@@ -6365,6 +6450,9 @@
       <c r="BC18" s="8">
         <v>14.0</v>
       </c>
+      <c r="BD18" s="8">
+        <v>25.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
@@ -6519,6 +6607,9 @@
       <c r="BC19" s="8">
         <v>10.0</v>
       </c>
+      <c r="BD19" s="8">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
@@ -6685,6 +6776,9 @@
       </c>
       <c r="BC20" s="8">
         <v>67.0</v>
+      </c>
+      <c r="BD20" s="8">
+        <v>77.0</v>
       </c>
     </row>
     <row r="21">
@@ -6720,6 +6814,7 @@
       <c r="BA21" s="9"/>
       <c r="BB21" s="9"/>
       <c r="BC21" s="9"/>
+      <c r="BD21" s="9"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
@@ -6790,6 +6885,7 @@
         <v>13.0</v>
       </c>
       <c r="BC22" s="15"/>
+      <c r="BD22" s="15"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
@@ -6946,6 +7042,7 @@
       <c r="BA23" s="15"/>
       <c r="BB23" s="15"/>
       <c r="BC23" s="15"/>
+      <c r="BD23" s="15"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
@@ -7112,6 +7209,9 @@
       </c>
       <c r="BC24" s="8">
         <v>4918.0</v>
+      </c>
+      <c r="BD24" s="8">
+        <v>4791.0</v>
       </c>
     </row>
     <row r="25">
@@ -7439,6 +7539,9 @@
       </c>
       <c r="BC1" s="1">
         <v>45464.0</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>45471.0</v>
       </c>
     </row>
     <row r="2">
@@ -7676,6 +7779,9 @@
       <c r="BC3" s="2">
         <v>0.0</v>
       </c>
+      <c r="BD3" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -7763,6 +7869,9 @@
       <c r="BC4" s="2">
         <v>0.0</v>
       </c>
+      <c r="BD4" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
@@ -7930,6 +8039,9 @@
       <c r="BC5" s="2">
         <v>0.0</v>
       </c>
+      <c r="BD5" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -8097,6 +8209,9 @@
       <c r="BC6" s="2">
         <v>0.0</v>
       </c>
+      <c r="BD6" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
@@ -8264,6 +8379,9 @@
       <c r="BC7" s="2">
         <v>0.0</v>
       </c>
+      <c r="BD7" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
@@ -8431,6 +8549,9 @@
       <c r="BC8" s="2">
         <v>0.0</v>
       </c>
+      <c r="BD8" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
@@ -8596,6 +8717,9 @@
         <v>0.0</v>
       </c>
       <c r="BC9" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="BD9" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -8681,6 +8805,9 @@
       <c r="BC10" s="2">
         <v>0.0</v>
       </c>
+      <c r="BD10" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
@@ -8848,6 +8975,9 @@
       <c r="BC11" s="2">
         <v>0.0</v>
       </c>
+      <c r="BD11" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
@@ -9015,6 +9145,9 @@
       <c r="BC12" s="2">
         <v>0.0</v>
       </c>
+      <c r="BD12" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
@@ -9182,6 +9315,9 @@
       <c r="BC13" s="2">
         <v>0.0</v>
       </c>
+      <c r="BD13" s="2">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
@@ -9349,6 +9485,9 @@
       <c r="BC14" s="2">
         <v>0.0</v>
       </c>
+      <c r="BD14" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
@@ -9516,6 +9655,9 @@
       <c r="BC15" s="2">
         <v>2.0</v>
       </c>
+      <c r="BD15" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
@@ -9683,6 +9825,9 @@
       <c r="BC16" s="2">
         <v>0.0</v>
       </c>
+      <c r="BD16" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
@@ -9850,6 +9995,9 @@
       <c r="BC17" s="2">
         <v>2.0</v>
       </c>
+      <c r="BD17" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
@@ -10017,6 +10165,9 @@
       <c r="BC18" s="2">
         <v>0.0</v>
       </c>
+      <c r="BD18" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
@@ -10184,6 +10335,9 @@
       <c r="BC19" s="2">
         <v>0.0</v>
       </c>
+      <c r="BD19" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
@@ -10351,6 +10505,9 @@
       <c r="BC20" s="2">
         <v>0.0</v>
       </c>
+      <c r="BD20" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
@@ -10518,6 +10675,9 @@
       <c r="BC21" s="2">
         <v>1.0</v>
       </c>
+      <c r="BD21" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
@@ -10684,6 +10844,9 @@
       </c>
       <c r="BC22" s="2">
         <v>0.0</v>
+      </c>
+      <c r="BD22" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="23">
@@ -10709,6 +10872,7 @@
       <c r="BA23" s="20"/>
       <c r="BB23" s="20"/>
       <c r="BC23" s="20"/>
+      <c r="BD23" s="20"/>
     </row>
     <row r="24">
       <c r="B24" s="12"/>
@@ -10769,6 +10933,7 @@
       <c r="BA25" s="12"/>
       <c r="BB25" s="12"/>
       <c r="BC25" s="12"/>
+      <c r="BD25" s="12"/>
     </row>
     <row r="26">
       <c r="B26" s="6"/>
@@ -10814,6 +10979,7 @@
       <c r="BA26" s="12"/>
       <c r="BB26" s="12"/>
       <c r="BC26" s="12"/>
+      <c r="BD26" s="12"/>
     </row>
     <row r="27">
       <c r="B27" s="6"/>
@@ -11302,6 +11468,9 @@
       <c r="BD1" s="23">
         <v>45464.0</v>
       </c>
+      <c r="BE1" s="23">
+        <v>45471.0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -11381,6 +11550,9 @@
       <c r="BD2" s="24">
         <v>14.0</v>
       </c>
+      <c r="BE2" s="24">
+        <v>25.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -11550,6 +11722,9 @@
       </c>
       <c r="BD3" s="24">
         <v>5.0</v>
+      </c>
+      <c r="BE3" s="24">
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
@@ -11705,6 +11880,9 @@
       <c r="BD4" s="24">
         <v>0.0</v>
       </c>
+      <c r="BE4" s="24">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
@@ -11875,6 +12053,9 @@
       <c r="BD5" s="24">
         <v>0.0</v>
       </c>
+      <c r="BE5" s="24">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -12092,6 +12273,9 @@
       </c>
       <c r="BD6" s="15">
         <v>19.0</v>
+      </c>
+      <c r="BE6" s="15">
+        <v>26.0</v>
       </c>
     </row>
     <row r="7">
@@ -12234,6 +12418,7 @@
       <c r="BB7" s="6"/>
       <c r="BC7" s="6"/>
       <c r="BD7" s="6"/>
+      <c r="BE7" s="6"/>
     </row>
     <row r="8">
       <c r="A8" s="2"/>
@@ -12289,6 +12474,7 @@
       <c r="BB8" s="26"/>
       <c r="BC8" s="26"/>
       <c r="BD8" s="26"/>
+      <c r="BE8" s="26"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
@@ -12492,6 +12678,9 @@
       </c>
       <c r="BD9" s="23">
         <v>45464.0</v>
+      </c>
+      <c r="BE9" s="23">
+        <v>45471.0</v>
       </c>
     </row>
     <row r="10">
@@ -12641,6 +12830,9 @@
       <c r="BD10" s="28">
         <v>796.0</v>
       </c>
+      <c r="BE10" s="28">
+        <v>715.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
@@ -12810,6 +13002,9 @@
       </c>
       <c r="BD11" s="28">
         <v>91.0</v>
+      </c>
+      <c r="BE11" s="28">
+        <v>56.0</v>
       </c>
     </row>
     <row r="12">
@@ -12909,6 +13104,9 @@
       <c r="BD12" s="28">
         <v>748.0</v>
       </c>
+      <c r="BE12" s="28">
+        <v>797.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
@@ -13037,6 +13235,9 @@
       <c r="BD13" s="29">
         <v>415.0</v>
       </c>
+      <c r="BE13" s="29">
+        <v>444.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
@@ -13206,6 +13407,9 @@
       </c>
       <c r="BD14" s="30">
         <v>706.0</v>
+      </c>
+      <c r="BE14" s="30">
+        <v>691.0</v>
       </c>
     </row>
     <row r="15">
@@ -13339,6 +13543,9 @@
         <v>402.0</v>
       </c>
       <c r="BD15" s="24">
+        <v>366.0</v>
+      </c>
+      <c r="BE15" s="24">
         <v>366.0</v>
       </c>
     </row>
@@ -13422,6 +13629,9 @@
       <c r="BD16" s="24">
         <v>137.0</v>
       </c>
+      <c r="BE16" s="24">
+        <v>127.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
@@ -13551,6 +13761,9 @@
       <c r="BD17" s="24">
         <v>307.0</v>
       </c>
+      <c r="BE17" s="24">
+        <v>296.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
@@ -13658,6 +13871,9 @@
       <c r="BD18" s="24">
         <v>98.0</v>
       </c>
+      <c r="BE18" s="24">
+        <v>97.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
@@ -13786,6 +14002,9 @@
       <c r="BD19" s="24">
         <v>656.0</v>
       </c>
+      <c r="BE19" s="24">
+        <v>553.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
@@ -13914,6 +14133,9 @@
       <c r="BD20" s="24">
         <v>119.0</v>
       </c>
+      <c r="BE20" s="24">
+        <v>121.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
@@ -14083,6 +14305,9 @@
       </c>
       <c r="BD21" s="24">
         <v>413.0</v>
+      </c>
+      <c r="BE21" s="24">
+        <v>322.0</v>
       </c>
     </row>
     <row r="22">
@@ -14168,6 +14393,9 @@
       <c r="BD22" s="24">
         <v>226.0</v>
       </c>
+      <c r="BE22" s="24">
+        <v>241.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
@@ -14317,6 +14545,9 @@
       </c>
       <c r="BD23" s="24">
         <v>156.0</v>
+      </c>
+      <c r="BE23" s="24">
+        <v>153.0</v>
       </c>
     </row>
     <row r="24">
@@ -14444,6 +14675,9 @@
       </c>
       <c r="BD24" s="24">
         <v>596.0</v>
+      </c>
+      <c r="BE24" s="24">
+        <v>320.0</v>
       </c>
     </row>
     <row r="25">
@@ -14564,6 +14798,9 @@
       <c r="BD25" s="24">
         <v>260.0</v>
       </c>
+      <c r="BE25" s="24">
+        <v>257.0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
@@ -14733,6 +14970,9 @@
       </c>
       <c r="BD26" s="24">
         <v>220.0</v>
+      </c>
+      <c r="BE26" s="24">
+        <v>222.0</v>
       </c>
     </row>
     <row r="27">
@@ -14757,6 +14997,7 @@
       <c r="BB27" s="26"/>
       <c r="BC27" s="26"/>
       <c r="BD27" s="26"/>
+      <c r="BE27" s="26"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
@@ -14783,6 +15024,7 @@
       <c r="BB28" s="26"/>
       <c r="BC28" s="26"/>
       <c r="BD28" s="26"/>
+      <c r="BE28" s="26"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
@@ -14849,6 +15091,7 @@
       <c r="BB29" s="28"/>
       <c r="BC29" s="28"/>
       <c r="BD29" s="28"/>
+      <c r="BE29" s="28"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
@@ -14999,6 +15242,7 @@
       <c r="BB30" s="28"/>
       <c r="BC30" s="28"/>
       <c r="BD30" s="28"/>
+      <c r="BE30" s="28"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
@@ -15125,6 +15369,7 @@
       <c r="BB31" s="28"/>
       <c r="BC31" s="28"/>
       <c r="BD31" s="28"/>
+      <c r="BE31" s="28"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
@@ -15203,6 +15448,7 @@
       <c r="BB32" s="24"/>
       <c r="BC32" s="24"/>
       <c r="BD32" s="24"/>
+      <c r="BE32" s="24"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
@@ -15345,6 +15591,7 @@
       <c r="BB33" s="28"/>
       <c r="BC33" s="28"/>
       <c r="BD33" s="28"/>
+      <c r="BE33" s="28"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
@@ -15399,6 +15646,7 @@
       <c r="BB34" s="24"/>
       <c r="BC34" s="24"/>
       <c r="BD34" s="24"/>
+      <c r="BE34" s="24"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
@@ -15545,6 +15793,7 @@
       <c r="BB35" s="24"/>
       <c r="BC35" s="24"/>
       <c r="BD35" s="24"/>
+      <c r="BE35" s="24"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
@@ -15697,6 +15946,7 @@
       <c r="BB36" s="24"/>
       <c r="BC36" s="24"/>
       <c r="BD36" s="24"/>
+      <c r="BE36" s="24"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
@@ -15819,6 +16069,7 @@
       <c r="BB37" s="24"/>
       <c r="BC37" s="24"/>
       <c r="BD37" s="24"/>
+      <c r="BE37" s="24"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
@@ -15927,6 +16178,7 @@
       <c r="BB38" s="24"/>
       <c r="BC38" s="24"/>
       <c r="BD38" s="24"/>
+      <c r="BE38" s="24"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
@@ -16061,6 +16313,7 @@
       <c r="BB39" s="24"/>
       <c r="BC39" s="24"/>
       <c r="BD39" s="24"/>
+      <c r="BE39" s="24"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
@@ -16207,6 +16460,7 @@
       <c r="BB40" s="24"/>
       <c r="BC40" s="24"/>
       <c r="BD40" s="24"/>
+      <c r="BE40" s="24"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
@@ -16240,6 +16494,7 @@
       <c r="BB41" s="26"/>
       <c r="BC41" s="26"/>
       <c r="BD41" s="26"/>
+      <c r="BE41" s="26"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
@@ -16398,6 +16653,7 @@
       <c r="BB42" s="24"/>
       <c r="BC42" s="24"/>
       <c r="BD42" s="24"/>
+      <c r="BE42" s="24"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
@@ -16448,6 +16704,7 @@
       <c r="BB43" s="26"/>
       <c r="BC43" s="26"/>
       <c r="BD43" s="26"/>
+      <c r="BE43" s="26"/>
     </row>
     <row r="44">
       <c r="B44" s="18"/>
@@ -16471,6 +16728,7 @@
       <c r="BB44" s="26"/>
       <c r="BC44" s="24"/>
       <c r="BD44" s="24"/>
+      <c r="BE44" s="8"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
@@ -16693,8 +16951,12 @@
         <v>6750</v>
       </c>
       <c r="BD45" s="8">
-        <f>sum(BD10:BD43)</f>
+        <f t="shared" ref="BD45:BE45" si="6">sum(BD10:BD43)</f>
         <v>6310</v>
+      </c>
+      <c r="BE45" s="8">
+        <f t="shared" si="6"/>
+        <v>5778</v>
       </c>
     </row>
     <row r="46">
@@ -16862,6 +17124,9 @@
       </c>
       <c r="BD46" s="8">
         <v>2264.0</v>
+      </c>
+      <c r="BE46" s="8">
+        <v>2131.0</v>
       </c>
     </row>
     <row r="47">
@@ -16886,6 +17151,7 @@
       <c r="BB47" s="26"/>
       <c r="BC47" s="26"/>
       <c r="BD47" s="26"/>
+      <c r="BE47" s="26"/>
     </row>
     <row r="48">
       <c r="B48" s="18"/>
@@ -16909,6 +17175,7 @@
       <c r="BB48" s="26"/>
       <c r="BC48" s="26"/>
       <c r="BD48" s="26"/>
+      <c r="BE48" s="26"/>
     </row>
     <row r="49">
       <c r="B49" s="18"/>
@@ -16932,6 +17199,7 @@
       <c r="BB49" s="26"/>
       <c r="BC49" s="26"/>
       <c r="BD49" s="26"/>
+      <c r="BE49" s="26"/>
     </row>
     <row r="50">
       <c r="B50" s="18"/>
@@ -16955,6 +17223,7 @@
       <c r="BB50" s="26"/>
       <c r="BC50" s="26"/>
       <c r="BD50" s="26"/>
+      <c r="BE50" s="26"/>
     </row>
     <row r="51">
       <c r="B51" s="18"/>
@@ -16978,6 +17247,7 @@
       <c r="BB51" s="26"/>
       <c r="BC51" s="26"/>
       <c r="BD51" s="26"/>
+      <c r="BE51" s="26"/>
     </row>
     <row r="52">
       <c r="B52" s="18"/>
@@ -17001,6 +17271,7 @@
       <c r="BB52" s="26"/>
       <c r="BC52" s="26"/>
       <c r="BD52" s="26"/>
+      <c r="BE52" s="26"/>
     </row>
     <row r="53">
       <c r="B53" s="18"/>
@@ -17024,6 +17295,7 @@
       <c r="BB53" s="26"/>
       <c r="BC53" s="26"/>
       <c r="BD53" s="26"/>
+      <c r="BE53" s="26"/>
     </row>
     <row r="54">
       <c r="B54" s="18"/>
@@ -17046,6 +17318,7 @@
       <c r="BB54" s="26"/>
       <c r="BC54" s="26"/>
       <c r="BD54" s="26"/>
+      <c r="BE54" s="26"/>
     </row>
     <row r="55">
       <c r="B55" s="18"/>
@@ -17068,6 +17341,7 @@
       <c r="BB55" s="26"/>
       <c r="BC55" s="26"/>
       <c r="BD55" s="26"/>
+      <c r="BE55" s="26"/>
     </row>
     <row r="56">
       <c r="B56" s="5"/>
@@ -17090,6 +17364,7 @@
       <c r="BB56" s="26"/>
       <c r="BC56" s="26"/>
       <c r="BD56" s="26"/>
+      <c r="BE56" s="26"/>
     </row>
     <row r="57">
       <c r="B57" s="5"/>
@@ -17112,6 +17387,7 @@
       <c r="BB57" s="26"/>
       <c r="BC57" s="26"/>
       <c r="BD57" s="26"/>
+      <c r="BE57" s="26"/>
     </row>
     <row r="58">
       <c r="B58" s="5"/>
@@ -17134,6 +17410,7 @@
       <c r="BB58" s="26"/>
       <c r="BC58" s="26"/>
       <c r="BD58" s="26"/>
+      <c r="BE58" s="26"/>
     </row>
     <row r="59">
       <c r="B59" s="5"/>
@@ -17156,6 +17433,7 @@
       <c r="BB59" s="26"/>
       <c r="BC59" s="26"/>
       <c r="BD59" s="26"/>
+      <c r="BE59" s="26"/>
     </row>
     <row r="60">
       <c r="B60" s="5"/>
@@ -17178,6 +17456,7 @@
       <c r="BB60" s="26"/>
       <c r="BC60" s="26"/>
       <c r="BD60" s="26"/>
+      <c r="BE60" s="26"/>
     </row>
     <row r="61">
       <c r="B61" s="5"/>
@@ -17200,6 +17479,7 @@
       <c r="BB61" s="26"/>
       <c r="BC61" s="26"/>
       <c r="BD61" s="26"/>
+      <c r="BE61" s="26"/>
     </row>
     <row r="62">
       <c r="B62" s="5"/>
@@ -17222,6 +17502,7 @@
       <c r="BB62" s="26"/>
       <c r="BC62" s="26"/>
       <c r="BD62" s="26"/>
+      <c r="BE62" s="26"/>
     </row>
     <row r="63">
       <c r="B63" s="5"/>
@@ -17244,6 +17525,7 @@
       <c r="BB63" s="26"/>
       <c r="BC63" s="26"/>
       <c r="BD63" s="26"/>
+      <c r="BE63" s="26"/>
     </row>
     <row r="64">
       <c r="B64" s="5"/>
@@ -17266,6 +17548,7 @@
       <c r="BB64" s="26"/>
       <c r="BC64" s="26"/>
       <c r="BD64" s="26"/>
+      <c r="BE64" s="26"/>
     </row>
     <row r="65">
       <c r="B65" s="5"/>
@@ -17288,6 +17571,7 @@
       <c r="BB65" s="26"/>
       <c r="BC65" s="26"/>
       <c r="BD65" s="26"/>
+      <c r="BE65" s="26"/>
     </row>
     <row r="66">
       <c r="B66" s="5"/>
@@ -17310,6 +17594,7 @@
       <c r="BB66" s="26"/>
       <c r="BC66" s="26"/>
       <c r="BD66" s="26"/>
+      <c r="BE66" s="26"/>
     </row>
     <row r="67">
       <c r="B67" s="5"/>
@@ -17332,6 +17617,7 @@
       <c r="BB67" s="26"/>
       <c r="BC67" s="26"/>
       <c r="BD67" s="26"/>
+      <c r="BE67" s="26"/>
     </row>
     <row r="68">
       <c r="B68" s="5"/>
@@ -17354,6 +17640,7 @@
       <c r="BB68" s="26"/>
       <c r="BC68" s="26"/>
       <c r="BD68" s="26"/>
+      <c r="BE68" s="26"/>
     </row>
     <row r="69">
       <c r="B69" s="5"/>
@@ -17376,6 +17663,7 @@
       <c r="BB69" s="26"/>
       <c r="BC69" s="26"/>
       <c r="BD69" s="26"/>
+      <c r="BE69" s="26"/>
     </row>
     <row r="70">
       <c r="B70" s="5"/>
@@ -17398,6 +17686,7 @@
       <c r="BB70" s="26"/>
       <c r="BC70" s="26"/>
       <c r="BD70" s="26"/>
+      <c r="BE70" s="26"/>
     </row>
     <row r="71">
       <c r="AL71" s="26"/>
@@ -17419,6 +17708,7 @@
       <c r="BB71" s="26"/>
       <c r="BC71" s="26"/>
       <c r="BD71" s="26"/>
+      <c r="BE71" s="26"/>
     </row>
     <row r="72">
       <c r="AL72" s="26"/>
@@ -17440,6 +17730,7 @@
       <c r="BB72" s="26"/>
       <c r="BC72" s="26"/>
       <c r="BD72" s="26"/>
+      <c r="BE72" s="26"/>
     </row>
     <row r="73">
       <c r="AL73" s="26"/>
@@ -17461,6 +17752,7 @@
       <c r="BB73" s="26"/>
       <c r="BC73" s="26"/>
       <c r="BD73" s="26"/>
+      <c r="BE73" s="26"/>
     </row>
     <row r="74">
       <c r="AL74" s="26"/>
@@ -17482,6 +17774,7 @@
       <c r="BB74" s="26"/>
       <c r="BC74" s="26"/>
       <c r="BD74" s="26"/>
+      <c r="BE74" s="26"/>
     </row>
     <row r="75">
       <c r="AL75" s="26"/>
@@ -17503,6 +17796,7 @@
       <c r="BB75" s="26"/>
       <c r="BC75" s="26"/>
       <c r="BD75" s="26"/>
+      <c r="BE75" s="26"/>
     </row>
     <row r="76">
       <c r="AL76" s="26"/>
@@ -17524,6 +17818,7 @@
       <c r="BB76" s="26"/>
       <c r="BC76" s="26"/>
       <c r="BD76" s="26"/>
+      <c r="BE76" s="26"/>
     </row>
     <row r="77">
       <c r="AL77" s="26"/>
@@ -17545,6 +17840,7 @@
       <c r="BB77" s="26"/>
       <c r="BC77" s="26"/>
       <c r="BD77" s="26"/>
+      <c r="BE77" s="26"/>
     </row>
     <row r="78">
       <c r="AL78" s="26"/>
@@ -17566,6 +17862,7 @@
       <c r="BB78" s="26"/>
       <c r="BC78" s="26"/>
       <c r="BD78" s="26"/>
+      <c r="BE78" s="26"/>
     </row>
     <row r="79">
       <c r="AL79" s="26"/>
@@ -17587,6 +17884,7 @@
       <c r="BB79" s="26"/>
       <c r="BC79" s="26"/>
       <c r="BD79" s="26"/>
+      <c r="BE79" s="26"/>
     </row>
     <row r="80">
       <c r="AL80" s="26"/>
@@ -17608,6 +17906,7 @@
       <c r="BB80" s="26"/>
       <c r="BC80" s="26"/>
       <c r="BD80" s="26"/>
+      <c r="BE80" s="26"/>
     </row>
     <row r="81">
       <c r="AL81" s="26"/>
@@ -17629,6 +17928,7 @@
       <c r="BB81" s="26"/>
       <c r="BC81" s="26"/>
       <c r="BD81" s="26"/>
+      <c r="BE81" s="26"/>
     </row>
     <row r="82">
       <c r="AL82" s="26"/>
@@ -17650,6 +17950,7 @@
       <c r="BB82" s="26"/>
       <c r="BC82" s="26"/>
       <c r="BD82" s="26"/>
+      <c r="BE82" s="26"/>
     </row>
     <row r="83">
       <c r="AL83" s="26"/>
@@ -17671,6 +17972,7 @@
       <c r="BB83" s="26"/>
       <c r="BC83" s="26"/>
       <c r="BD83" s="26"/>
+      <c r="BE83" s="26"/>
     </row>
     <row r="84">
       <c r="AL84" s="26"/>
@@ -17692,6 +17994,7 @@
       <c r="BB84" s="26"/>
       <c r="BC84" s="26"/>
       <c r="BD84" s="26"/>
+      <c r="BE84" s="26"/>
     </row>
     <row r="85">
       <c r="AL85" s="26"/>
@@ -17713,6 +18016,7 @@
       <c r="BB85" s="26"/>
       <c r="BC85" s="26"/>
       <c r="BD85" s="26"/>
+      <c r="BE85" s="26"/>
     </row>
     <row r="86">
       <c r="AL86" s="26"/>
@@ -17734,6 +18038,7 @@
       <c r="BB86" s="26"/>
       <c r="BC86" s="26"/>
       <c r="BD86" s="26"/>
+      <c r="BE86" s="26"/>
     </row>
     <row r="87">
       <c r="AL87" s="26"/>
@@ -17755,6 +18060,7 @@
       <c r="BB87" s="26"/>
       <c r="BC87" s="26"/>
       <c r="BD87" s="26"/>
+      <c r="BE87" s="26"/>
     </row>
     <row r="88">
       <c r="AL88" s="26"/>
@@ -17776,6 +18082,7 @@
       <c r="BB88" s="26"/>
       <c r="BC88" s="26"/>
       <c r="BD88" s="26"/>
+      <c r="BE88" s="26"/>
     </row>
     <row r="89">
       <c r="AL89" s="26"/>
@@ -17797,6 +18104,7 @@
       <c r="BB89" s="26"/>
       <c r="BC89" s="26"/>
       <c r="BD89" s="26"/>
+      <c r="BE89" s="26"/>
     </row>
     <row r="90">
       <c r="AL90" s="26"/>
@@ -17818,6 +18126,7 @@
       <c r="BB90" s="26"/>
       <c r="BC90" s="26"/>
       <c r="BD90" s="26"/>
+      <c r="BE90" s="26"/>
     </row>
     <row r="91">
       <c r="AL91" s="26"/>
@@ -17839,6 +18148,7 @@
       <c r="BB91" s="26"/>
       <c r="BC91" s="26"/>
       <c r="BD91" s="26"/>
+      <c r="BE91" s="26"/>
     </row>
     <row r="92">
       <c r="AL92" s="26"/>
@@ -17860,6 +18170,7 @@
       <c r="BB92" s="26"/>
       <c r="BC92" s="26"/>
       <c r="BD92" s="26"/>
+      <c r="BE92" s="26"/>
     </row>
     <row r="93">
       <c r="AL93" s="26"/>
@@ -17881,6 +18192,7 @@
       <c r="BB93" s="26"/>
       <c r="BC93" s="26"/>
       <c r="BD93" s="26"/>
+      <c r="BE93" s="26"/>
     </row>
     <row r="94">
       <c r="AL94" s="26"/>
@@ -17902,6 +18214,7 @@
       <c r="BB94" s="26"/>
       <c r="BC94" s="26"/>
       <c r="BD94" s="26"/>
+      <c r="BE94" s="26"/>
     </row>
     <row r="95">
       <c r="AL95" s="26"/>
@@ -17923,6 +18236,7 @@
       <c r="BB95" s="26"/>
       <c r="BC95" s="26"/>
       <c r="BD95" s="26"/>
+      <c r="BE95" s="26"/>
     </row>
     <row r="96">
       <c r="AL96" s="26"/>
@@ -17944,6 +18258,7 @@
       <c r="BB96" s="26"/>
       <c r="BC96" s="26"/>
       <c r="BD96" s="26"/>
+      <c r="BE96" s="26"/>
     </row>
     <row r="97">
       <c r="AL97" s="26"/>
@@ -17965,6 +18280,7 @@
       <c r="BB97" s="26"/>
       <c r="BC97" s="26"/>
       <c r="BD97" s="26"/>
+      <c r="BE97" s="26"/>
     </row>
     <row r="98">
       <c r="AL98" s="26"/>
@@ -17986,6 +18302,7 @@
       <c r="BB98" s="26"/>
       <c r="BC98" s="26"/>
       <c r="BD98" s="26"/>
+      <c r="BE98" s="26"/>
     </row>
     <row r="99">
       <c r="AL99" s="26"/>
@@ -18007,6 +18324,7 @@
       <c r="BB99" s="26"/>
       <c r="BC99" s="26"/>
       <c r="BD99" s="26"/>
+      <c r="BE99" s="26"/>
     </row>
     <row r="100">
       <c r="AL100" s="26"/>
@@ -18028,6 +18346,7 @@
       <c r="BB100" s="26"/>
       <c r="BC100" s="26"/>
       <c r="BD100" s="26"/>
+      <c r="BE100" s="26"/>
     </row>
     <row r="101">
       <c r="AL101" s="26"/>
@@ -18049,6 +18368,7 @@
       <c r="BB101" s="26"/>
       <c r="BC101" s="26"/>
       <c r="BD101" s="26"/>
+      <c r="BE101" s="26"/>
     </row>
     <row r="102">
       <c r="AL102" s="26"/>
@@ -18070,6 +18390,7 @@
       <c r="BB102" s="26"/>
       <c r="BC102" s="26"/>
       <c r="BD102" s="26"/>
+      <c r="BE102" s="26"/>
     </row>
     <row r="103">
       <c r="AL103" s="26"/>
@@ -18091,6 +18412,7 @@
       <c r="BB103" s="26"/>
       <c r="BC103" s="26"/>
       <c r="BD103" s="26"/>
+      <c r="BE103" s="26"/>
     </row>
     <row r="104">
       <c r="AL104" s="26"/>
@@ -18112,6 +18434,7 @@
       <c r="BB104" s="26"/>
       <c r="BC104" s="26"/>
       <c r="BD104" s="26"/>
+      <c r="BE104" s="26"/>
     </row>
     <row r="105">
       <c r="AL105" s="26"/>
@@ -18133,6 +18456,7 @@
       <c r="BB105" s="26"/>
       <c r="BC105" s="26"/>
       <c r="BD105" s="26"/>
+      <c r="BE105" s="26"/>
     </row>
     <row r="106">
       <c r="AL106" s="26"/>
@@ -18154,6 +18478,7 @@
       <c r="BB106" s="26"/>
       <c r="BC106" s="26"/>
       <c r="BD106" s="26"/>
+      <c r="BE106" s="26"/>
     </row>
     <row r="107">
       <c r="AL107" s="26"/>
@@ -18175,6 +18500,7 @@
       <c r="BB107" s="26"/>
       <c r="BC107" s="26"/>
       <c r="BD107" s="26"/>
+      <c r="BE107" s="26"/>
     </row>
     <row r="108">
       <c r="AL108" s="26"/>
@@ -18196,6 +18522,7 @@
       <c r="BB108" s="26"/>
       <c r="BC108" s="26"/>
       <c r="BD108" s="26"/>
+      <c r="BE108" s="26"/>
     </row>
     <row r="109">
       <c r="AL109" s="26"/>
@@ -18217,6 +18544,7 @@
       <c r="BB109" s="26"/>
       <c r="BC109" s="26"/>
       <c r="BD109" s="26"/>
+      <c r="BE109" s="26"/>
     </row>
     <row r="110">
       <c r="AL110" s="26"/>
@@ -18238,6 +18566,7 @@
       <c r="BB110" s="26"/>
       <c r="BC110" s="26"/>
       <c r="BD110" s="26"/>
+      <c r="BE110" s="26"/>
     </row>
     <row r="111">
       <c r="AL111" s="26"/>
@@ -18259,6 +18588,7 @@
       <c r="BB111" s="26"/>
       <c r="BC111" s="26"/>
       <c r="BD111" s="26"/>
+      <c r="BE111" s="26"/>
     </row>
     <row r="112">
       <c r="AL112" s="26"/>
@@ -18280,6 +18610,7 @@
       <c r="BB112" s="26"/>
       <c r="BC112" s="26"/>
       <c r="BD112" s="26"/>
+      <c r="BE112" s="26"/>
     </row>
     <row r="113">
       <c r="AL113" s="26"/>
@@ -18301,6 +18632,7 @@
       <c r="BB113" s="26"/>
       <c r="BC113" s="26"/>
       <c r="BD113" s="26"/>
+      <c r="BE113" s="26"/>
     </row>
     <row r="114">
       <c r="AL114" s="26"/>
@@ -18322,6 +18654,7 @@
       <c r="BB114" s="26"/>
       <c r="BC114" s="26"/>
       <c r="BD114" s="26"/>
+      <c r="BE114" s="26"/>
     </row>
     <row r="115">
       <c r="AL115" s="26"/>
@@ -18343,6 +18676,7 @@
       <c r="BB115" s="26"/>
       <c r="BC115" s="26"/>
       <c r="BD115" s="26"/>
+      <c r="BE115" s="26"/>
     </row>
     <row r="116">
       <c r="AL116" s="26"/>
@@ -18364,6 +18698,7 @@
       <c r="BB116" s="26"/>
       <c r="BC116" s="26"/>
       <c r="BD116" s="26"/>
+      <c r="BE116" s="26"/>
     </row>
     <row r="117">
       <c r="AL117" s="26"/>
@@ -18385,6 +18720,7 @@
       <c r="BB117" s="26"/>
       <c r="BC117" s="26"/>
       <c r="BD117" s="26"/>
+      <c r="BE117" s="26"/>
     </row>
     <row r="118">
       <c r="AL118" s="26"/>
@@ -18406,6 +18742,7 @@
       <c r="BB118" s="26"/>
       <c r="BC118" s="26"/>
       <c r="BD118" s="26"/>
+      <c r="BE118" s="26"/>
     </row>
     <row r="119">
       <c r="AL119" s="26"/>
@@ -18427,6 +18764,7 @@
       <c r="BB119" s="26"/>
       <c r="BC119" s="26"/>
       <c r="BD119" s="26"/>
+      <c r="BE119" s="26"/>
     </row>
     <row r="120">
       <c r="AL120" s="26"/>
@@ -18448,6 +18786,7 @@
       <c r="BB120" s="26"/>
       <c r="BC120" s="26"/>
       <c r="BD120" s="26"/>
+      <c r="BE120" s="26"/>
     </row>
     <row r="121">
       <c r="AL121" s="26"/>
@@ -18469,6 +18808,7 @@
       <c r="BB121" s="26"/>
       <c r="BC121" s="26"/>
       <c r="BD121" s="26"/>
+      <c r="BE121" s="26"/>
     </row>
     <row r="122">
       <c r="AL122" s="26"/>
@@ -18490,6 +18830,7 @@
       <c r="BB122" s="26"/>
       <c r="BC122" s="26"/>
       <c r="BD122" s="26"/>
+      <c r="BE122" s="26"/>
     </row>
     <row r="123">
       <c r="AL123" s="26"/>
@@ -18511,6 +18852,7 @@
       <c r="BB123" s="26"/>
       <c r="BC123" s="26"/>
       <c r="BD123" s="26"/>
+      <c r="BE123" s="26"/>
     </row>
     <row r="124">
       <c r="AL124" s="26"/>
@@ -18532,6 +18874,7 @@
       <c r="BB124" s="26"/>
       <c r="BC124" s="26"/>
       <c r="BD124" s="26"/>
+      <c r="BE124" s="26"/>
     </row>
     <row r="125">
       <c r="AL125" s="26"/>
@@ -18553,6 +18896,7 @@
       <c r="BB125" s="26"/>
       <c r="BC125" s="26"/>
       <c r="BD125" s="26"/>
+      <c r="BE125" s="26"/>
     </row>
     <row r="126">
       <c r="AL126" s="26"/>
@@ -18574,6 +18918,7 @@
       <c r="BB126" s="26"/>
       <c r="BC126" s="26"/>
       <c r="BD126" s="26"/>
+      <c r="BE126" s="26"/>
     </row>
     <row r="127">
       <c r="AL127" s="26"/>
@@ -18595,6 +18940,7 @@
       <c r="BB127" s="26"/>
       <c r="BC127" s="26"/>
       <c r="BD127" s="26"/>
+      <c r="BE127" s="26"/>
     </row>
     <row r="128">
       <c r="AL128" s="26"/>
@@ -18616,6 +18962,7 @@
       <c r="BB128" s="26"/>
       <c r="BC128" s="26"/>
       <c r="BD128" s="26"/>
+      <c r="BE128" s="26"/>
     </row>
     <row r="129">
       <c r="AL129" s="26"/>
@@ -18637,6 +18984,7 @@
       <c r="BB129" s="26"/>
       <c r="BC129" s="26"/>
       <c r="BD129" s="26"/>
+      <c r="BE129" s="26"/>
     </row>
     <row r="130">
       <c r="AL130" s="26"/>
@@ -18658,6 +19006,7 @@
       <c r="BB130" s="26"/>
       <c r="BC130" s="26"/>
       <c r="BD130" s="26"/>
+      <c r="BE130" s="26"/>
     </row>
     <row r="131">
       <c r="AL131" s="26"/>
@@ -18679,6 +19028,7 @@
       <c r="BB131" s="26"/>
       <c r="BC131" s="26"/>
       <c r="BD131" s="26"/>
+      <c r="BE131" s="26"/>
     </row>
     <row r="132">
       <c r="AL132" s="26"/>
@@ -18700,6 +19050,7 @@
       <c r="BB132" s="26"/>
       <c r="BC132" s="26"/>
       <c r="BD132" s="26"/>
+      <c r="BE132" s="26"/>
     </row>
     <row r="133">
       <c r="AL133" s="26"/>
@@ -18721,6 +19072,7 @@
       <c r="BB133" s="26"/>
       <c r="BC133" s="26"/>
       <c r="BD133" s="26"/>
+      <c r="BE133" s="26"/>
     </row>
     <row r="134">
       <c r="AL134" s="26"/>
@@ -18742,6 +19094,7 @@
       <c r="BB134" s="26"/>
       <c r="BC134" s="26"/>
       <c r="BD134" s="26"/>
+      <c r="BE134" s="26"/>
     </row>
     <row r="135">
       <c r="AL135" s="26"/>
@@ -18763,6 +19116,7 @@
       <c r="BB135" s="26"/>
       <c r="BC135" s="26"/>
       <c r="BD135" s="26"/>
+      <c r="BE135" s="26"/>
     </row>
     <row r="136">
       <c r="AL136" s="26"/>
@@ -18784,6 +19138,7 @@
       <c r="BB136" s="26"/>
       <c r="BC136" s="26"/>
       <c r="BD136" s="26"/>
+      <c r="BE136" s="26"/>
     </row>
     <row r="137">
       <c r="AL137" s="26"/>
@@ -18805,6 +19160,7 @@
       <c r="BB137" s="26"/>
       <c r="BC137" s="26"/>
       <c r="BD137" s="26"/>
+      <c r="BE137" s="26"/>
     </row>
     <row r="138">
       <c r="AL138" s="26"/>
@@ -18826,6 +19182,7 @@
       <c r="BB138" s="26"/>
       <c r="BC138" s="26"/>
       <c r="BD138" s="26"/>
+      <c r="BE138" s="26"/>
     </row>
     <row r="139">
       <c r="AL139" s="26"/>
@@ -18847,6 +19204,7 @@
       <c r="BB139" s="26"/>
       <c r="BC139" s="26"/>
       <c r="BD139" s="26"/>
+      <c r="BE139" s="26"/>
     </row>
     <row r="140">
       <c r="AL140" s="26"/>
@@ -18868,6 +19226,7 @@
       <c r="BB140" s="26"/>
       <c r="BC140" s="26"/>
       <c r="BD140" s="26"/>
+      <c r="BE140" s="26"/>
     </row>
     <row r="141">
       <c r="AL141" s="26"/>
@@ -18889,6 +19248,7 @@
       <c r="BB141" s="26"/>
       <c r="BC141" s="26"/>
       <c r="BD141" s="26"/>
+      <c r="BE141" s="26"/>
     </row>
     <row r="142">
       <c r="AL142" s="26"/>
@@ -18910,6 +19270,7 @@
       <c r="BB142" s="26"/>
       <c r="BC142" s="26"/>
       <c r="BD142" s="26"/>
+      <c r="BE142" s="26"/>
     </row>
     <row r="143">
       <c r="AL143" s="26"/>
@@ -18931,6 +19292,7 @@
       <c r="BB143" s="26"/>
       <c r="BC143" s="26"/>
       <c r="BD143" s="26"/>
+      <c r="BE143" s="26"/>
     </row>
     <row r="144">
       <c r="AL144" s="26"/>
@@ -18952,6 +19314,7 @@
       <c r="BB144" s="26"/>
       <c r="BC144" s="26"/>
       <c r="BD144" s="26"/>
+      <c r="BE144" s="26"/>
     </row>
     <row r="145">
       <c r="AL145" s="26"/>
@@ -18973,6 +19336,7 @@
       <c r="BB145" s="26"/>
       <c r="BC145" s="26"/>
       <c r="BD145" s="26"/>
+      <c r="BE145" s="26"/>
     </row>
     <row r="146">
       <c r="AL146" s="26"/>
@@ -18994,6 +19358,7 @@
       <c r="BB146" s="26"/>
       <c r="BC146" s="26"/>
       <c r="BD146" s="26"/>
+      <c r="BE146" s="26"/>
     </row>
     <row r="147">
       <c r="AL147" s="26"/>
@@ -19015,6 +19380,7 @@
       <c r="BB147" s="26"/>
       <c r="BC147" s="26"/>
       <c r="BD147" s="26"/>
+      <c r="BE147" s="26"/>
     </row>
     <row r="148">
       <c r="AL148" s="26"/>
@@ -19036,6 +19402,7 @@
       <c r="BB148" s="26"/>
       <c r="BC148" s="26"/>
       <c r="BD148" s="26"/>
+      <c r="BE148" s="26"/>
     </row>
     <row r="149">
       <c r="AL149" s="26"/>
@@ -19057,6 +19424,7 @@
       <c r="BB149" s="26"/>
       <c r="BC149" s="26"/>
       <c r="BD149" s="26"/>
+      <c r="BE149" s="26"/>
     </row>
     <row r="150">
       <c r="AL150" s="26"/>
@@ -19078,6 +19446,7 @@
       <c r="BB150" s="26"/>
       <c r="BC150" s="26"/>
       <c r="BD150" s="26"/>
+      <c r="BE150" s="26"/>
     </row>
     <row r="151">
       <c r="AL151" s="26"/>
@@ -19099,6 +19468,7 @@
       <c r="BB151" s="26"/>
       <c r="BC151" s="26"/>
       <c r="BD151" s="26"/>
+      <c r="BE151" s="26"/>
     </row>
     <row r="152">
       <c r="AL152" s="26"/>
@@ -19120,6 +19490,7 @@
       <c r="BB152" s="26"/>
       <c r="BC152" s="26"/>
       <c r="BD152" s="26"/>
+      <c r="BE152" s="26"/>
     </row>
     <row r="153">
       <c r="AL153" s="26"/>
@@ -19141,6 +19512,7 @@
       <c r="BB153" s="26"/>
       <c r="BC153" s="26"/>
       <c r="BD153" s="26"/>
+      <c r="BE153" s="26"/>
     </row>
     <row r="154">
       <c r="AL154" s="26"/>
@@ -19162,6 +19534,7 @@
       <c r="BB154" s="26"/>
       <c r="BC154" s="26"/>
       <c r="BD154" s="26"/>
+      <c r="BE154" s="26"/>
     </row>
     <row r="155">
       <c r="AL155" s="26"/>
@@ -19183,6 +19556,7 @@
       <c r="BB155" s="26"/>
       <c r="BC155" s="26"/>
       <c r="BD155" s="26"/>
+      <c r="BE155" s="26"/>
     </row>
     <row r="156">
       <c r="AL156" s="26"/>
@@ -19204,6 +19578,7 @@
       <c r="BB156" s="26"/>
       <c r="BC156" s="26"/>
       <c r="BD156" s="26"/>
+      <c r="BE156" s="26"/>
     </row>
     <row r="157">
       <c r="AL157" s="26"/>
@@ -19225,6 +19600,7 @@
       <c r="BB157" s="26"/>
       <c r="BC157" s="26"/>
       <c r="BD157" s="26"/>
+      <c r="BE157" s="26"/>
     </row>
     <row r="158">
       <c r="AL158" s="26"/>
@@ -19246,6 +19622,7 @@
       <c r="BB158" s="26"/>
       <c r="BC158" s="26"/>
       <c r="BD158" s="26"/>
+      <c r="BE158" s="26"/>
     </row>
     <row r="159">
       <c r="AL159" s="26"/>
@@ -19267,6 +19644,7 @@
       <c r="BB159" s="26"/>
       <c r="BC159" s="26"/>
       <c r="BD159" s="26"/>
+      <c r="BE159" s="26"/>
     </row>
     <row r="160">
       <c r="AL160" s="26"/>
@@ -19288,6 +19666,7 @@
       <c r="BB160" s="26"/>
       <c r="BC160" s="26"/>
       <c r="BD160" s="26"/>
+      <c r="BE160" s="26"/>
     </row>
     <row r="161">
       <c r="AL161" s="26"/>
@@ -19309,6 +19688,7 @@
       <c r="BB161" s="26"/>
       <c r="BC161" s="26"/>
       <c r="BD161" s="26"/>
+      <c r="BE161" s="26"/>
     </row>
     <row r="162">
       <c r="AL162" s="26"/>
@@ -19330,6 +19710,7 @@
       <c r="BB162" s="26"/>
       <c r="BC162" s="26"/>
       <c r="BD162" s="26"/>
+      <c r="BE162" s="26"/>
     </row>
     <row r="163">
       <c r="AL163" s="26"/>
@@ -19351,6 +19732,7 @@
       <c r="BB163" s="26"/>
       <c r="BC163" s="26"/>
       <c r="BD163" s="26"/>
+      <c r="BE163" s="26"/>
     </row>
     <row r="164">
       <c r="AL164" s="26"/>
@@ -19372,6 +19754,7 @@
       <c r="BB164" s="26"/>
       <c r="BC164" s="26"/>
       <c r="BD164" s="26"/>
+      <c r="BE164" s="26"/>
     </row>
     <row r="165">
       <c r="AL165" s="26"/>
@@ -19393,6 +19776,7 @@
       <c r="BB165" s="26"/>
       <c r="BC165" s="26"/>
       <c r="BD165" s="26"/>
+      <c r="BE165" s="26"/>
     </row>
     <row r="166">
       <c r="AL166" s="26"/>
@@ -19414,6 +19798,7 @@
       <c r="BB166" s="26"/>
       <c r="BC166" s="26"/>
       <c r="BD166" s="26"/>
+      <c r="BE166" s="26"/>
     </row>
     <row r="167">
       <c r="AL167" s="26"/>
@@ -19435,6 +19820,7 @@
       <c r="BB167" s="26"/>
       <c r="BC167" s="26"/>
       <c r="BD167" s="26"/>
+      <c r="BE167" s="26"/>
     </row>
     <row r="168">
       <c r="AL168" s="26"/>
@@ -19456,6 +19842,7 @@
       <c r="BB168" s="26"/>
       <c r="BC168" s="26"/>
       <c r="BD168" s="26"/>
+      <c r="BE168" s="26"/>
     </row>
     <row r="169">
       <c r="AL169" s="26"/>
@@ -19477,6 +19864,7 @@
       <c r="BB169" s="26"/>
       <c r="BC169" s="26"/>
       <c r="BD169" s="26"/>
+      <c r="BE169" s="26"/>
     </row>
     <row r="170">
       <c r="AL170" s="26"/>
@@ -19498,6 +19886,7 @@
       <c r="BB170" s="26"/>
       <c r="BC170" s="26"/>
       <c r="BD170" s="26"/>
+      <c r="BE170" s="26"/>
     </row>
     <row r="171">
       <c r="AL171" s="26"/>
@@ -19519,6 +19908,7 @@
       <c r="BB171" s="26"/>
       <c r="BC171" s="26"/>
       <c r="BD171" s="26"/>
+      <c r="BE171" s="26"/>
     </row>
     <row r="172">
       <c r="AL172" s="26"/>
@@ -19540,6 +19930,7 @@
       <c r="BB172" s="26"/>
       <c r="BC172" s="26"/>
       <c r="BD172" s="26"/>
+      <c r="BE172" s="26"/>
     </row>
     <row r="173">
       <c r="AL173" s="26"/>
@@ -19561,6 +19952,7 @@
       <c r="BB173" s="26"/>
       <c r="BC173" s="26"/>
       <c r="BD173" s="26"/>
+      <c r="BE173" s="26"/>
     </row>
     <row r="174">
       <c r="AL174" s="26"/>
@@ -19582,6 +19974,7 @@
       <c r="BB174" s="26"/>
       <c r="BC174" s="26"/>
       <c r="BD174" s="26"/>
+      <c r="BE174" s="26"/>
     </row>
     <row r="175">
       <c r="AL175" s="26"/>
@@ -19603,6 +19996,7 @@
       <c r="BB175" s="26"/>
       <c r="BC175" s="26"/>
       <c r="BD175" s="26"/>
+      <c r="BE175" s="26"/>
     </row>
     <row r="176">
       <c r="AL176" s="26"/>
@@ -19624,6 +20018,7 @@
       <c r="BB176" s="26"/>
       <c r="BC176" s="26"/>
       <c r="BD176" s="26"/>
+      <c r="BE176" s="26"/>
     </row>
     <row r="177">
       <c r="AL177" s="26"/>
@@ -19645,6 +20040,7 @@
       <c r="BB177" s="26"/>
       <c r="BC177" s="26"/>
       <c r="BD177" s="26"/>
+      <c r="BE177" s="26"/>
     </row>
     <row r="178">
       <c r="H178" s="18"/>
@@ -19667,6 +20063,7 @@
       <c r="BB178" s="26"/>
       <c r="BC178" s="26"/>
       <c r="BD178" s="26"/>
+      <c r="BE178" s="26"/>
     </row>
     <row r="179">
       <c r="AL179" s="26"/>
@@ -19688,6 +20085,7 @@
       <c r="BB179" s="26"/>
       <c r="BC179" s="26"/>
       <c r="BD179" s="26"/>
+      <c r="BE179" s="26"/>
     </row>
     <row r="180">
       <c r="AL180" s="26"/>
@@ -19709,6 +20107,7 @@
       <c r="BB180" s="26"/>
       <c r="BC180" s="26"/>
       <c r="BD180" s="26"/>
+      <c r="BE180" s="26"/>
     </row>
     <row r="181">
       <c r="AL181" s="26"/>
@@ -19730,6 +20129,7 @@
       <c r="BB181" s="26"/>
       <c r="BC181" s="26"/>
       <c r="BD181" s="26"/>
+      <c r="BE181" s="26"/>
     </row>
     <row r="182">
       <c r="AL182" s="26"/>
@@ -19751,6 +20151,7 @@
       <c r="BB182" s="26"/>
       <c r="BC182" s="26"/>
       <c r="BD182" s="26"/>
+      <c r="BE182" s="26"/>
     </row>
     <row r="183">
       <c r="AL183" s="26"/>
@@ -19772,6 +20173,7 @@
       <c r="BB183" s="26"/>
       <c r="BC183" s="26"/>
       <c r="BD183" s="26"/>
+      <c r="BE183" s="26"/>
     </row>
     <row r="184">
       <c r="AL184" s="26"/>
@@ -19793,6 +20195,7 @@
       <c r="BB184" s="26"/>
       <c r="BC184" s="26"/>
       <c r="BD184" s="26"/>
+      <c r="BE184" s="26"/>
     </row>
     <row r="185">
       <c r="AL185" s="26"/>
@@ -19814,6 +20217,7 @@
       <c r="BB185" s="26"/>
       <c r="BC185" s="26"/>
       <c r="BD185" s="26"/>
+      <c r="BE185" s="26"/>
     </row>
     <row r="186">
       <c r="AL186" s="26"/>
@@ -19835,6 +20239,7 @@
       <c r="BB186" s="26"/>
       <c r="BC186" s="26"/>
       <c r="BD186" s="26"/>
+      <c r="BE186" s="26"/>
     </row>
     <row r="187">
       <c r="AL187" s="26"/>
@@ -19856,6 +20261,7 @@
       <c r="BB187" s="26"/>
       <c r="BC187" s="26"/>
       <c r="BD187" s="26"/>
+      <c r="BE187" s="26"/>
     </row>
     <row r="188">
       <c r="AL188" s="26"/>
@@ -19877,6 +20283,7 @@
       <c r="BB188" s="26"/>
       <c r="BC188" s="26"/>
       <c r="BD188" s="26"/>
+      <c r="BE188" s="26"/>
     </row>
     <row r="189">
       <c r="AL189" s="26"/>
@@ -19898,6 +20305,7 @@
       <c r="BB189" s="26"/>
       <c r="BC189" s="26"/>
       <c r="BD189" s="26"/>
+      <c r="BE189" s="26"/>
     </row>
     <row r="190">
       <c r="AL190" s="26"/>
@@ -19919,6 +20327,7 @@
       <c r="BB190" s="26"/>
       <c r="BC190" s="26"/>
       <c r="BD190" s="26"/>
+      <c r="BE190" s="26"/>
     </row>
     <row r="191">
       <c r="AL191" s="26"/>
@@ -19940,6 +20349,7 @@
       <c r="BB191" s="26"/>
       <c r="BC191" s="26"/>
       <c r="BD191" s="26"/>
+      <c r="BE191" s="26"/>
     </row>
     <row r="192">
       <c r="AL192" s="26"/>
@@ -19961,6 +20371,7 @@
       <c r="BB192" s="26"/>
       <c r="BC192" s="26"/>
       <c r="BD192" s="26"/>
+      <c r="BE192" s="26"/>
     </row>
     <row r="193">
       <c r="AL193" s="26"/>
@@ -19982,6 +20393,7 @@
       <c r="BB193" s="26"/>
       <c r="BC193" s="26"/>
       <c r="BD193" s="26"/>
+      <c r="BE193" s="26"/>
     </row>
     <row r="194">
       <c r="AL194" s="26"/>
@@ -20003,6 +20415,7 @@
       <c r="BB194" s="26"/>
       <c r="BC194" s="26"/>
       <c r="BD194" s="26"/>
+      <c r="BE194" s="26"/>
     </row>
     <row r="195">
       <c r="AL195" s="26"/>
@@ -20024,6 +20437,7 @@
       <c r="BB195" s="26"/>
       <c r="BC195" s="26"/>
       <c r="BD195" s="26"/>
+      <c r="BE195" s="26"/>
     </row>
     <row r="196">
       <c r="AL196" s="26"/>
@@ -20045,6 +20459,7 @@
       <c r="BB196" s="26"/>
       <c r="BC196" s="26"/>
       <c r="BD196" s="26"/>
+      <c r="BE196" s="26"/>
     </row>
     <row r="197">
       <c r="AL197" s="26"/>
@@ -20066,6 +20481,7 @@
       <c r="BB197" s="26"/>
       <c r="BC197" s="26"/>
       <c r="BD197" s="26"/>
+      <c r="BE197" s="26"/>
     </row>
     <row r="198">
       <c r="AL198" s="26"/>
@@ -20087,6 +20503,7 @@
       <c r="BB198" s="26"/>
       <c r="BC198" s="26"/>
       <c r="BD198" s="26"/>
+      <c r="BE198" s="26"/>
     </row>
     <row r="199">
       <c r="AL199" s="26"/>
@@ -20108,6 +20525,7 @@
       <c r="BB199" s="26"/>
       <c r="BC199" s="26"/>
       <c r="BD199" s="26"/>
+      <c r="BE199" s="26"/>
     </row>
     <row r="200">
       <c r="AL200" s="26"/>
@@ -20129,6 +20547,7 @@
       <c r="BB200" s="26"/>
       <c r="BC200" s="26"/>
       <c r="BD200" s="26"/>
+      <c r="BE200" s="26"/>
     </row>
     <row r="201">
       <c r="AL201" s="26"/>
@@ -20150,6 +20569,7 @@
       <c r="BB201" s="26"/>
       <c r="BC201" s="26"/>
       <c r="BD201" s="26"/>
+      <c r="BE201" s="26"/>
     </row>
     <row r="202">
       <c r="AL202" s="26"/>
@@ -20171,6 +20591,7 @@
       <c r="BB202" s="26"/>
       <c r="BC202" s="26"/>
       <c r="BD202" s="26"/>
+      <c r="BE202" s="26"/>
     </row>
     <row r="203">
       <c r="AL203" s="26"/>
@@ -20192,6 +20613,7 @@
       <c r="BB203" s="26"/>
       <c r="BC203" s="26"/>
       <c r="BD203" s="26"/>
+      <c r="BE203" s="26"/>
     </row>
     <row r="204">
       <c r="AL204" s="26"/>
@@ -20213,6 +20635,7 @@
       <c r="BB204" s="26"/>
       <c r="BC204" s="26"/>
       <c r="BD204" s="26"/>
+      <c r="BE204" s="26"/>
     </row>
     <row r="205">
       <c r="AL205" s="26"/>
@@ -20234,6 +20657,7 @@
       <c r="BB205" s="26"/>
       <c r="BC205" s="26"/>
       <c r="BD205" s="26"/>
+      <c r="BE205" s="26"/>
     </row>
     <row r="206">
       <c r="AL206" s="26"/>
@@ -20255,6 +20679,7 @@
       <c r="BB206" s="26"/>
       <c r="BC206" s="26"/>
       <c r="BD206" s="26"/>
+      <c r="BE206" s="26"/>
     </row>
     <row r="207">
       <c r="AL207" s="26"/>
@@ -20276,6 +20701,7 @@
       <c r="BB207" s="26"/>
       <c r="BC207" s="26"/>
       <c r="BD207" s="26"/>
+      <c r="BE207" s="26"/>
     </row>
     <row r="208">
       <c r="AL208" s="26"/>
@@ -20297,6 +20723,7 @@
       <c r="BB208" s="26"/>
       <c r="BC208" s="26"/>
       <c r="BD208" s="26"/>
+      <c r="BE208" s="26"/>
     </row>
     <row r="209">
       <c r="AL209" s="26"/>
@@ -20318,6 +20745,7 @@
       <c r="BB209" s="26"/>
       <c r="BC209" s="26"/>
       <c r="BD209" s="26"/>
+      <c r="BE209" s="26"/>
     </row>
     <row r="210">
       <c r="AL210" s="26"/>
@@ -20339,6 +20767,7 @@
       <c r="BB210" s="26"/>
       <c r="BC210" s="26"/>
       <c r="BD210" s="26"/>
+      <c r="BE210" s="26"/>
     </row>
     <row r="211">
       <c r="AL211" s="26"/>
@@ -20360,6 +20789,7 @@
       <c r="BB211" s="26"/>
       <c r="BC211" s="26"/>
       <c r="BD211" s="26"/>
+      <c r="BE211" s="26"/>
     </row>
     <row r="212">
       <c r="AL212" s="26"/>
@@ -20381,6 +20811,7 @@
       <c r="BB212" s="26"/>
       <c r="BC212" s="26"/>
       <c r="BD212" s="26"/>
+      <c r="BE212" s="26"/>
     </row>
     <row r="213">
       <c r="AL213" s="26"/>
@@ -20402,6 +20833,7 @@
       <c r="BB213" s="26"/>
       <c r="BC213" s="26"/>
       <c r="BD213" s="26"/>
+      <c r="BE213" s="26"/>
     </row>
     <row r="214">
       <c r="AL214" s="26"/>
@@ -20423,6 +20855,7 @@
       <c r="BB214" s="26"/>
       <c r="BC214" s="26"/>
       <c r="BD214" s="26"/>
+      <c r="BE214" s="26"/>
     </row>
     <row r="215">
       <c r="AL215" s="26"/>
@@ -20444,6 +20877,7 @@
       <c r="BB215" s="26"/>
       <c r="BC215" s="26"/>
       <c r="BD215" s="26"/>
+      <c r="BE215" s="26"/>
     </row>
     <row r="216">
       <c r="AL216" s="26"/>
@@ -20465,6 +20899,7 @@
       <c r="BB216" s="26"/>
       <c r="BC216" s="26"/>
       <c r="BD216" s="26"/>
+      <c r="BE216" s="26"/>
     </row>
     <row r="217">
       <c r="AL217" s="26"/>
@@ -20486,6 +20921,7 @@
       <c r="BB217" s="26"/>
       <c r="BC217" s="26"/>
       <c r="BD217" s="26"/>
+      <c r="BE217" s="26"/>
     </row>
     <row r="218">
       <c r="AL218" s="26"/>
@@ -20507,6 +20943,7 @@
       <c r="BB218" s="26"/>
       <c r="BC218" s="26"/>
       <c r="BD218" s="26"/>
+      <c r="BE218" s="26"/>
     </row>
     <row r="219">
       <c r="AL219" s="26"/>
@@ -20528,6 +20965,7 @@
       <c r="BB219" s="26"/>
       <c r="BC219" s="26"/>
       <c r="BD219" s="26"/>
+      <c r="BE219" s="26"/>
     </row>
     <row r="220">
       <c r="AL220" s="26"/>
@@ -20549,6 +20987,7 @@
       <c r="BB220" s="26"/>
       <c r="BC220" s="26"/>
       <c r="BD220" s="26"/>
+      <c r="BE220" s="26"/>
     </row>
     <row r="221">
       <c r="AL221" s="26"/>
@@ -20570,6 +21009,7 @@
       <c r="BB221" s="26"/>
       <c r="BC221" s="26"/>
       <c r="BD221" s="26"/>
+      <c r="BE221" s="26"/>
     </row>
     <row r="222">
       <c r="AL222" s="26"/>
@@ -20591,6 +21031,7 @@
       <c r="BB222" s="26"/>
       <c r="BC222" s="26"/>
       <c r="BD222" s="26"/>
+      <c r="BE222" s="26"/>
     </row>
     <row r="223">
       <c r="AL223" s="26"/>
@@ -20612,6 +21053,7 @@
       <c r="BB223" s="26"/>
       <c r="BC223" s="26"/>
       <c r="BD223" s="26"/>
+      <c r="BE223" s="26"/>
     </row>
     <row r="224">
       <c r="AL224" s="26"/>
@@ -20633,6 +21075,7 @@
       <c r="BB224" s="26"/>
       <c r="BC224" s="26"/>
       <c r="BD224" s="26"/>
+      <c r="BE224" s="26"/>
     </row>
     <row r="225">
       <c r="AL225" s="26"/>
@@ -20654,6 +21097,7 @@
       <c r="BB225" s="26"/>
       <c r="BC225" s="26"/>
       <c r="BD225" s="26"/>
+      <c r="BE225" s="26"/>
     </row>
     <row r="226">
       <c r="AL226" s="26"/>
@@ -20675,6 +21119,7 @@
       <c r="BB226" s="26"/>
       <c r="BC226" s="26"/>
       <c r="BD226" s="26"/>
+      <c r="BE226" s="26"/>
     </row>
     <row r="227">
       <c r="AL227" s="26"/>
@@ -20696,6 +21141,7 @@
       <c r="BB227" s="26"/>
       <c r="BC227" s="26"/>
       <c r="BD227" s="26"/>
+      <c r="BE227" s="26"/>
     </row>
     <row r="228">
       <c r="AL228" s="26"/>
@@ -20717,6 +21163,7 @@
       <c r="BB228" s="26"/>
       <c r="BC228" s="26"/>
       <c r="BD228" s="26"/>
+      <c r="BE228" s="26"/>
     </row>
     <row r="229">
       <c r="AL229" s="26"/>
@@ -20738,6 +21185,7 @@
       <c r="BB229" s="26"/>
       <c r="BC229" s="26"/>
       <c r="BD229" s="26"/>
+      <c r="BE229" s="26"/>
     </row>
     <row r="230">
       <c r="AL230" s="26"/>
@@ -20759,6 +21207,7 @@
       <c r="BB230" s="26"/>
       <c r="BC230" s="26"/>
       <c r="BD230" s="26"/>
+      <c r="BE230" s="26"/>
     </row>
     <row r="231">
       <c r="AL231" s="26"/>
@@ -20780,6 +21229,7 @@
       <c r="BB231" s="26"/>
       <c r="BC231" s="26"/>
       <c r="BD231" s="26"/>
+      <c r="BE231" s="26"/>
     </row>
     <row r="232">
       <c r="AL232" s="26"/>
@@ -20801,6 +21251,7 @@
       <c r="BB232" s="26"/>
       <c r="BC232" s="26"/>
       <c r="BD232" s="26"/>
+      <c r="BE232" s="26"/>
     </row>
     <row r="233">
       <c r="AL233" s="26"/>
@@ -20822,6 +21273,7 @@
       <c r="BB233" s="26"/>
       <c r="BC233" s="26"/>
       <c r="BD233" s="26"/>
+      <c r="BE233" s="26"/>
     </row>
     <row r="234">
       <c r="AL234" s="26"/>
@@ -20843,6 +21295,7 @@
       <c r="BB234" s="26"/>
       <c r="BC234" s="26"/>
       <c r="BD234" s="26"/>
+      <c r="BE234" s="26"/>
     </row>
     <row r="235">
       <c r="AL235" s="26"/>
@@ -20864,6 +21317,7 @@
       <c r="BB235" s="26"/>
       <c r="BC235" s="26"/>
       <c r="BD235" s="26"/>
+      <c r="BE235" s="26"/>
     </row>
     <row r="236">
       <c r="AL236" s="26"/>
@@ -20885,6 +21339,7 @@
       <c r="BB236" s="26"/>
       <c r="BC236" s="26"/>
       <c r="BD236" s="26"/>
+      <c r="BE236" s="26"/>
     </row>
     <row r="237">
       <c r="AL237" s="26"/>
@@ -20906,6 +21361,7 @@
       <c r="BB237" s="26"/>
       <c r="BC237" s="26"/>
       <c r="BD237" s="26"/>
+      <c r="BE237" s="26"/>
     </row>
     <row r="238">
       <c r="AL238" s="26"/>
@@ -20927,6 +21383,7 @@
       <c r="BB238" s="26"/>
       <c r="BC238" s="26"/>
       <c r="BD238" s="26"/>
+      <c r="BE238" s="26"/>
     </row>
     <row r="239">
       <c r="AL239" s="26"/>
@@ -20948,6 +21405,7 @@
       <c r="BB239" s="26"/>
       <c r="BC239" s="26"/>
       <c r="BD239" s="26"/>
+      <c r="BE239" s="26"/>
     </row>
     <row r="240">
       <c r="AL240" s="26"/>
@@ -20969,6 +21427,7 @@
       <c r="BB240" s="26"/>
       <c r="BC240" s="26"/>
       <c r="BD240" s="26"/>
+      <c r="BE240" s="26"/>
     </row>
     <row r="241">
       <c r="AL241" s="26"/>
@@ -20990,6 +21449,7 @@
       <c r="BB241" s="26"/>
       <c r="BC241" s="26"/>
       <c r="BD241" s="26"/>
+      <c r="BE241" s="26"/>
     </row>
     <row r="242">
       <c r="AL242" s="26"/>
@@ -21011,6 +21471,7 @@
       <c r="BB242" s="26"/>
       <c r="BC242" s="26"/>
       <c r="BD242" s="26"/>
+      <c r="BE242" s="26"/>
     </row>
     <row r="243">
       <c r="AL243" s="26"/>
@@ -21032,6 +21493,7 @@
       <c r="BB243" s="26"/>
       <c r="BC243" s="26"/>
       <c r="BD243" s="26"/>
+      <c r="BE243" s="26"/>
     </row>
     <row r="244">
       <c r="AL244" s="26"/>
@@ -21053,6 +21515,7 @@
       <c r="BB244" s="26"/>
       <c r="BC244" s="26"/>
       <c r="BD244" s="26"/>
+      <c r="BE244" s="26"/>
     </row>
     <row r="245">
       <c r="AL245" s="26"/>
@@ -21074,6 +21537,7 @@
       <c r="BB245" s="26"/>
       <c r="BC245" s="26"/>
       <c r="BD245" s="26"/>
+      <c r="BE245" s="26"/>
     </row>
     <row r="246">
       <c r="AL246" s="26"/>
@@ -21095,6 +21559,7 @@
       <c r="BB246" s="26"/>
       <c r="BC246" s="26"/>
       <c r="BD246" s="26"/>
+      <c r="BE246" s="26"/>
     </row>
     <row r="247">
       <c r="AL247" s="26"/>
@@ -21116,6 +21581,7 @@
       <c r="BB247" s="26"/>
       <c r="BC247" s="26"/>
       <c r="BD247" s="26"/>
+      <c r="BE247" s="26"/>
     </row>
     <row r="248">
       <c r="AL248" s="26"/>
@@ -21137,6 +21603,7 @@
       <c r="BB248" s="26"/>
       <c r="BC248" s="26"/>
       <c r="BD248" s="26"/>
+      <c r="BE248" s="26"/>
     </row>
     <row r="249">
       <c r="AL249" s="26"/>
@@ -21158,6 +21625,7 @@
       <c r="BB249" s="26"/>
       <c r="BC249" s="26"/>
       <c r="BD249" s="26"/>
+      <c r="BE249" s="26"/>
     </row>
     <row r="250">
       <c r="AL250" s="26"/>
@@ -21179,6 +21647,7 @@
       <c r="BB250" s="26"/>
       <c r="BC250" s="26"/>
       <c r="BD250" s="26"/>
+      <c r="BE250" s="26"/>
     </row>
     <row r="251">
       <c r="AL251" s="26"/>
@@ -21200,6 +21669,7 @@
       <c r="BB251" s="26"/>
       <c r="BC251" s="26"/>
       <c r="BD251" s="26"/>
+      <c r="BE251" s="26"/>
     </row>
     <row r="252">
       <c r="AL252" s="26"/>
@@ -21221,6 +21691,7 @@
       <c r="BB252" s="26"/>
       <c r="BC252" s="26"/>
       <c r="BD252" s="26"/>
+      <c r="BE252" s="26"/>
     </row>
     <row r="253">
       <c r="AL253" s="26"/>
@@ -21242,6 +21713,7 @@
       <c r="BB253" s="26"/>
       <c r="BC253" s="26"/>
       <c r="BD253" s="26"/>
+      <c r="BE253" s="26"/>
     </row>
     <row r="254">
       <c r="AL254" s="26"/>
@@ -21263,6 +21735,7 @@
       <c r="BB254" s="26"/>
       <c r="BC254" s="26"/>
       <c r="BD254" s="26"/>
+      <c r="BE254" s="26"/>
     </row>
     <row r="255">
       <c r="AL255" s="26"/>
@@ -21284,6 +21757,7 @@
       <c r="BB255" s="26"/>
       <c r="BC255" s="26"/>
       <c r="BD255" s="26"/>
+      <c r="BE255" s="26"/>
     </row>
     <row r="256">
       <c r="AL256" s="26"/>
@@ -21305,6 +21779,7 @@
       <c r="BB256" s="26"/>
       <c r="BC256" s="26"/>
       <c r="BD256" s="26"/>
+      <c r="BE256" s="26"/>
     </row>
     <row r="257">
       <c r="AL257" s="26"/>
@@ -21326,6 +21801,7 @@
       <c r="BB257" s="26"/>
       <c r="BC257" s="26"/>
       <c r="BD257" s="26"/>
+      <c r="BE257" s="26"/>
     </row>
     <row r="258">
       <c r="AL258" s="26"/>
@@ -21347,6 +21823,7 @@
       <c r="BB258" s="26"/>
       <c r="BC258" s="26"/>
       <c r="BD258" s="26"/>
+      <c r="BE258" s="26"/>
     </row>
     <row r="259">
       <c r="AL259" s="26"/>
@@ -21368,6 +21845,7 @@
       <c r="BB259" s="26"/>
       <c r="BC259" s="26"/>
       <c r="BD259" s="26"/>
+      <c r="BE259" s="26"/>
     </row>
     <row r="260">
       <c r="AL260" s="26"/>
@@ -21389,6 +21867,7 @@
       <c r="BB260" s="26"/>
       <c r="BC260" s="26"/>
       <c r="BD260" s="26"/>
+      <c r="BE260" s="26"/>
     </row>
     <row r="261">
       <c r="AL261" s="26"/>
@@ -21410,6 +21889,7 @@
       <c r="BB261" s="26"/>
       <c r="BC261" s="26"/>
       <c r="BD261" s="26"/>
+      <c r="BE261" s="26"/>
     </row>
     <row r="262">
       <c r="AL262" s="26"/>
@@ -21431,6 +21911,7 @@
       <c r="BB262" s="26"/>
       <c r="BC262" s="26"/>
       <c r="BD262" s="26"/>
+      <c r="BE262" s="26"/>
     </row>
     <row r="263">
       <c r="AL263" s="26"/>
@@ -21452,6 +21933,7 @@
       <c r="BB263" s="26"/>
       <c r="BC263" s="26"/>
       <c r="BD263" s="26"/>
+      <c r="BE263" s="26"/>
     </row>
     <row r="264">
       <c r="AL264" s="26"/>
@@ -21473,6 +21955,7 @@
       <c r="BB264" s="26"/>
       <c r="BC264" s="26"/>
       <c r="BD264" s="26"/>
+      <c r="BE264" s="26"/>
     </row>
     <row r="265">
       <c r="AL265" s="26"/>
@@ -21494,6 +21977,7 @@
       <c r="BB265" s="26"/>
       <c r="BC265" s="26"/>
       <c r="BD265" s="26"/>
+      <c r="BE265" s="26"/>
     </row>
     <row r="266">
       <c r="AL266" s="26"/>
@@ -21515,6 +21999,7 @@
       <c r="BB266" s="26"/>
       <c r="BC266" s="26"/>
       <c r="BD266" s="26"/>
+      <c r="BE266" s="26"/>
     </row>
     <row r="267">
       <c r="AL267" s="26"/>
@@ -21536,6 +22021,7 @@
       <c r="BB267" s="26"/>
       <c r="BC267" s="26"/>
       <c r="BD267" s="26"/>
+      <c r="BE267" s="26"/>
     </row>
     <row r="268">
       <c r="AL268" s="26"/>
@@ -21557,6 +22043,7 @@
       <c r="BB268" s="26"/>
       <c r="BC268" s="26"/>
       <c r="BD268" s="26"/>
+      <c r="BE268" s="26"/>
     </row>
     <row r="269">
       <c r="AL269" s="26"/>
@@ -21578,6 +22065,7 @@
       <c r="BB269" s="26"/>
       <c r="BC269" s="26"/>
       <c r="BD269" s="26"/>
+      <c r="BE269" s="26"/>
     </row>
     <row r="270">
       <c r="AL270" s="26"/>
@@ -21599,6 +22087,7 @@
       <c r="BB270" s="26"/>
       <c r="BC270" s="26"/>
       <c r="BD270" s="26"/>
+      <c r="BE270" s="26"/>
     </row>
     <row r="271">
       <c r="AL271" s="26"/>
@@ -21620,6 +22109,7 @@
       <c r="BB271" s="26"/>
       <c r="BC271" s="26"/>
       <c r="BD271" s="26"/>
+      <c r="BE271" s="26"/>
     </row>
     <row r="272">
       <c r="AL272" s="26"/>
@@ -21641,6 +22131,7 @@
       <c r="BB272" s="26"/>
       <c r="BC272" s="26"/>
       <c r="BD272" s="26"/>
+      <c r="BE272" s="26"/>
     </row>
     <row r="273">
       <c r="AL273" s="26"/>
@@ -21662,6 +22153,7 @@
       <c r="BB273" s="26"/>
       <c r="BC273" s="26"/>
       <c r="BD273" s="26"/>
+      <c r="BE273" s="26"/>
     </row>
     <row r="274">
       <c r="AL274" s="26"/>
@@ -21683,6 +22175,7 @@
       <c r="BB274" s="26"/>
       <c r="BC274" s="26"/>
       <c r="BD274" s="26"/>
+      <c r="BE274" s="26"/>
     </row>
     <row r="275">
       <c r="AL275" s="26"/>
@@ -21704,6 +22197,7 @@
       <c r="BB275" s="26"/>
       <c r="BC275" s="26"/>
       <c r="BD275" s="26"/>
+      <c r="BE275" s="26"/>
     </row>
     <row r="276">
       <c r="AL276" s="26"/>
@@ -21725,6 +22219,7 @@
       <c r="BB276" s="26"/>
       <c r="BC276" s="26"/>
       <c r="BD276" s="26"/>
+      <c r="BE276" s="26"/>
     </row>
     <row r="277">
       <c r="AL277" s="26"/>
@@ -21746,6 +22241,7 @@
       <c r="BB277" s="26"/>
       <c r="BC277" s="26"/>
       <c r="BD277" s="26"/>
+      <c r="BE277" s="26"/>
     </row>
     <row r="278">
       <c r="AL278" s="26"/>
@@ -21767,6 +22263,7 @@
       <c r="BB278" s="26"/>
       <c r="BC278" s="26"/>
       <c r="BD278" s="26"/>
+      <c r="BE278" s="26"/>
     </row>
     <row r="279">
       <c r="AL279" s="26"/>
@@ -21788,6 +22285,7 @@
       <c r="BB279" s="26"/>
       <c r="BC279" s="26"/>
       <c r="BD279" s="26"/>
+      <c r="BE279" s="26"/>
     </row>
     <row r="280">
       <c r="AL280" s="26"/>
@@ -21809,6 +22307,7 @@
       <c r="BB280" s="26"/>
       <c r="BC280" s="26"/>
       <c r="BD280" s="26"/>
+      <c r="BE280" s="26"/>
     </row>
     <row r="281">
       <c r="AL281" s="26"/>
@@ -21830,6 +22329,7 @@
       <c r="BB281" s="26"/>
       <c r="BC281" s="26"/>
       <c r="BD281" s="26"/>
+      <c r="BE281" s="26"/>
     </row>
     <row r="282">
       <c r="AL282" s="26"/>
@@ -21851,6 +22351,7 @@
       <c r="BB282" s="26"/>
       <c r="BC282" s="26"/>
       <c r="BD282" s="26"/>
+      <c r="BE282" s="26"/>
     </row>
     <row r="283">
       <c r="AL283" s="26"/>
@@ -21872,6 +22373,7 @@
       <c r="BB283" s="26"/>
       <c r="BC283" s="26"/>
       <c r="BD283" s="26"/>
+      <c r="BE283" s="26"/>
     </row>
     <row r="284">
       <c r="AL284" s="26"/>
@@ -21893,6 +22395,7 @@
       <c r="BB284" s="26"/>
       <c r="BC284" s="26"/>
       <c r="BD284" s="26"/>
+      <c r="BE284" s="26"/>
     </row>
     <row r="285">
       <c r="AL285" s="26"/>
@@ -21914,6 +22417,7 @@
       <c r="BB285" s="26"/>
       <c r="BC285" s="26"/>
       <c r="BD285" s="26"/>
+      <c r="BE285" s="26"/>
     </row>
     <row r="286">
       <c r="AL286" s="26"/>
@@ -21935,6 +22439,7 @@
       <c r="BB286" s="26"/>
       <c r="BC286" s="26"/>
       <c r="BD286" s="26"/>
+      <c r="BE286" s="26"/>
     </row>
     <row r="287">
       <c r="AL287" s="26"/>
@@ -21956,6 +22461,7 @@
       <c r="BB287" s="26"/>
       <c r="BC287" s="26"/>
       <c r="BD287" s="26"/>
+      <c r="BE287" s="26"/>
     </row>
     <row r="288">
       <c r="AL288" s="26"/>
@@ -21977,6 +22483,7 @@
       <c r="BB288" s="26"/>
       <c r="BC288" s="26"/>
       <c r="BD288" s="26"/>
+      <c r="BE288" s="26"/>
     </row>
     <row r="289">
       <c r="AL289" s="26"/>
@@ -21998,6 +22505,7 @@
       <c r="BB289" s="26"/>
       <c r="BC289" s="26"/>
       <c r="BD289" s="26"/>
+      <c r="BE289" s="26"/>
     </row>
     <row r="290">
       <c r="AL290" s="26"/>
@@ -22019,6 +22527,7 @@
       <c r="BB290" s="26"/>
       <c r="BC290" s="26"/>
       <c r="BD290" s="26"/>
+      <c r="BE290" s="26"/>
     </row>
     <row r="291">
       <c r="AL291" s="26"/>
@@ -22040,6 +22549,7 @@
       <c r="BB291" s="26"/>
       <c r="BC291" s="26"/>
       <c r="BD291" s="26"/>
+      <c r="BE291" s="26"/>
     </row>
     <row r="292">
       <c r="AL292" s="26"/>
@@ -22061,6 +22571,7 @@
       <c r="BB292" s="26"/>
       <c r="BC292" s="26"/>
       <c r="BD292" s="26"/>
+      <c r="BE292" s="26"/>
     </row>
     <row r="293">
       <c r="AL293" s="26"/>
@@ -22082,6 +22593,7 @@
       <c r="BB293" s="26"/>
       <c r="BC293" s="26"/>
       <c r="BD293" s="26"/>
+      <c r="BE293" s="26"/>
     </row>
     <row r="294">
       <c r="AL294" s="26"/>
@@ -22103,6 +22615,7 @@
       <c r="BB294" s="26"/>
       <c r="BC294" s="26"/>
       <c r="BD294" s="26"/>
+      <c r="BE294" s="26"/>
     </row>
     <row r="295">
       <c r="AL295" s="26"/>
@@ -22124,6 +22637,7 @@
       <c r="BB295" s="26"/>
       <c r="BC295" s="26"/>
       <c r="BD295" s="26"/>
+      <c r="BE295" s="26"/>
     </row>
     <row r="296">
       <c r="AL296" s="26"/>
@@ -22145,6 +22659,7 @@
       <c r="BB296" s="26"/>
       <c r="BC296" s="26"/>
       <c r="BD296" s="26"/>
+      <c r="BE296" s="26"/>
     </row>
     <row r="297">
       <c r="AL297" s="26"/>
@@ -22166,6 +22681,7 @@
       <c r="BB297" s="26"/>
       <c r="BC297" s="26"/>
       <c r="BD297" s="26"/>
+      <c r="BE297" s="26"/>
     </row>
     <row r="298">
       <c r="AL298" s="26"/>
@@ -22187,6 +22703,7 @@
       <c r="BB298" s="26"/>
       <c r="BC298" s="26"/>
       <c r="BD298" s="26"/>
+      <c r="BE298" s="26"/>
     </row>
     <row r="299">
       <c r="AL299" s="26"/>
@@ -22208,6 +22725,7 @@
       <c r="BB299" s="26"/>
       <c r="BC299" s="26"/>
       <c r="BD299" s="26"/>
+      <c r="BE299" s="26"/>
     </row>
     <row r="300">
       <c r="AL300" s="26"/>
@@ -22229,6 +22747,7 @@
       <c r="BB300" s="26"/>
       <c r="BC300" s="26"/>
       <c r="BD300" s="26"/>
+      <c r="BE300" s="26"/>
     </row>
     <row r="301">
       <c r="AL301" s="26"/>
@@ -22250,6 +22769,7 @@
       <c r="BB301" s="26"/>
       <c r="BC301" s="26"/>
       <c r="BD301" s="26"/>
+      <c r="BE301" s="26"/>
     </row>
     <row r="302">
       <c r="AL302" s="26"/>
@@ -22271,6 +22791,7 @@
       <c r="BB302" s="26"/>
       <c r="BC302" s="26"/>
       <c r="BD302" s="26"/>
+      <c r="BE302" s="26"/>
     </row>
     <row r="303">
       <c r="AL303" s="26"/>
@@ -22292,6 +22813,7 @@
       <c r="BB303" s="26"/>
       <c r="BC303" s="26"/>
       <c r="BD303" s="26"/>
+      <c r="BE303" s="26"/>
     </row>
     <row r="304">
       <c r="AL304" s="26"/>
@@ -22313,6 +22835,7 @@
       <c r="BB304" s="26"/>
       <c r="BC304" s="26"/>
       <c r="BD304" s="26"/>
+      <c r="BE304" s="26"/>
     </row>
     <row r="305">
       <c r="AL305" s="26"/>
@@ -22334,6 +22857,7 @@
       <c r="BB305" s="26"/>
       <c r="BC305" s="26"/>
       <c r="BD305" s="26"/>
+      <c r="BE305" s="26"/>
     </row>
     <row r="306">
       <c r="AL306" s="26"/>
@@ -22355,6 +22879,7 @@
       <c r="BB306" s="26"/>
       <c r="BC306" s="26"/>
       <c r="BD306" s="26"/>
+      <c r="BE306" s="26"/>
     </row>
     <row r="307">
       <c r="AL307" s="26"/>
@@ -22376,6 +22901,7 @@
       <c r="BB307" s="26"/>
       <c r="BC307" s="26"/>
       <c r="BD307" s="26"/>
+      <c r="BE307" s="26"/>
     </row>
     <row r="308">
       <c r="AL308" s="26"/>
@@ -22397,6 +22923,7 @@
       <c r="BB308" s="26"/>
       <c r="BC308" s="26"/>
       <c r="BD308" s="26"/>
+      <c r="BE308" s="26"/>
     </row>
     <row r="309">
       <c r="AL309" s="26"/>
@@ -22418,6 +22945,7 @@
       <c r="BB309" s="26"/>
       <c r="BC309" s="26"/>
       <c r="BD309" s="26"/>
+      <c r="BE309" s="26"/>
     </row>
     <row r="310">
       <c r="AL310" s="26"/>
@@ -22439,6 +22967,7 @@
       <c r="BB310" s="26"/>
       <c r="BC310" s="26"/>
       <c r="BD310" s="26"/>
+      <c r="BE310" s="26"/>
     </row>
     <row r="311">
       <c r="AL311" s="26"/>
@@ -22460,6 +22989,7 @@
       <c r="BB311" s="26"/>
       <c r="BC311" s="26"/>
       <c r="BD311" s="26"/>
+      <c r="BE311" s="26"/>
     </row>
     <row r="312">
       <c r="AL312" s="26"/>
@@ -22481,6 +23011,7 @@
       <c r="BB312" s="26"/>
       <c r="BC312" s="26"/>
       <c r="BD312" s="26"/>
+      <c r="BE312" s="26"/>
     </row>
     <row r="313">
       <c r="AL313" s="26"/>
@@ -22502,6 +23033,7 @@
       <c r="BB313" s="26"/>
       <c r="BC313" s="26"/>
       <c r="BD313" s="26"/>
+      <c r="BE313" s="26"/>
     </row>
     <row r="314">
       <c r="AL314" s="26"/>
@@ -22523,6 +23055,7 @@
       <c r="BB314" s="26"/>
       <c r="BC314" s="26"/>
       <c r="BD314" s="26"/>
+      <c r="BE314" s="26"/>
     </row>
     <row r="315">
       <c r="AL315" s="26"/>
@@ -22544,6 +23077,7 @@
       <c r="BB315" s="26"/>
       <c r="BC315" s="26"/>
       <c r="BD315" s="26"/>
+      <c r="BE315" s="26"/>
     </row>
     <row r="316">
       <c r="AL316" s="26"/>
@@ -22565,6 +23099,7 @@
       <c r="BB316" s="26"/>
       <c r="BC316" s="26"/>
       <c r="BD316" s="26"/>
+      <c r="BE316" s="26"/>
     </row>
     <row r="317">
       <c r="AL317" s="26"/>
@@ -22586,6 +23121,7 @@
       <c r="BB317" s="26"/>
       <c r="BC317" s="26"/>
       <c r="BD317" s="26"/>
+      <c r="BE317" s="26"/>
     </row>
     <row r="318">
       <c r="AL318" s="26"/>
@@ -22607,6 +23143,7 @@
       <c r="BB318" s="26"/>
       <c r="BC318" s="26"/>
       <c r="BD318" s="26"/>
+      <c r="BE318" s="26"/>
     </row>
     <row r="319">
       <c r="AL319" s="26"/>
@@ -22628,6 +23165,7 @@
       <c r="BB319" s="26"/>
       <c r="BC319" s="26"/>
       <c r="BD319" s="26"/>
+      <c r="BE319" s="26"/>
     </row>
     <row r="320">
       <c r="AL320" s="26"/>
@@ -22649,6 +23187,7 @@
       <c r="BB320" s="26"/>
       <c r="BC320" s="26"/>
       <c r="BD320" s="26"/>
+      <c r="BE320" s="26"/>
     </row>
     <row r="321">
       <c r="AL321" s="26"/>
@@ -22670,6 +23209,7 @@
       <c r="BB321" s="26"/>
       <c r="BC321" s="26"/>
       <c r="BD321" s="26"/>
+      <c r="BE321" s="26"/>
     </row>
     <row r="322">
       <c r="AL322" s="26"/>
@@ -22691,6 +23231,7 @@
       <c r="BB322" s="26"/>
       <c r="BC322" s="26"/>
       <c r="BD322" s="26"/>
+      <c r="BE322" s="26"/>
     </row>
     <row r="323">
       <c r="AL323" s="26"/>
@@ -22712,6 +23253,7 @@
       <c r="BB323" s="26"/>
       <c r="BC323" s="26"/>
       <c r="BD323" s="26"/>
+      <c r="BE323" s="26"/>
     </row>
     <row r="324">
       <c r="AL324" s="26"/>
@@ -22733,6 +23275,7 @@
       <c r="BB324" s="26"/>
       <c r="BC324" s="26"/>
       <c r="BD324" s="26"/>
+      <c r="BE324" s="26"/>
     </row>
     <row r="325">
       <c r="AL325" s="26"/>
@@ -22754,6 +23297,7 @@
       <c r="BB325" s="26"/>
       <c r="BC325" s="26"/>
       <c r="BD325" s="26"/>
+      <c r="BE325" s="26"/>
     </row>
     <row r="326">
       <c r="AL326" s="26"/>
@@ -22775,6 +23319,7 @@
       <c r="BB326" s="26"/>
       <c r="BC326" s="26"/>
       <c r="BD326" s="26"/>
+      <c r="BE326" s="26"/>
     </row>
     <row r="327">
       <c r="AL327" s="26"/>
@@ -22796,6 +23341,7 @@
       <c r="BB327" s="26"/>
       <c r="BC327" s="26"/>
       <c r="BD327" s="26"/>
+      <c r="BE327" s="26"/>
     </row>
     <row r="328">
       <c r="AL328" s="26"/>
@@ -22817,6 +23363,7 @@
       <c r="BB328" s="26"/>
       <c r="BC328" s="26"/>
       <c r="BD328" s="26"/>
+      <c r="BE328" s="26"/>
     </row>
     <row r="329">
       <c r="AL329" s="26"/>
@@ -22838,6 +23385,7 @@
       <c r="BB329" s="26"/>
       <c r="BC329" s="26"/>
       <c r="BD329" s="26"/>
+      <c r="BE329" s="26"/>
     </row>
     <row r="330">
       <c r="AL330" s="26"/>
@@ -22859,6 +23407,7 @@
       <c r="BB330" s="26"/>
       <c r="BC330" s="26"/>
       <c r="BD330" s="26"/>
+      <c r="BE330" s="26"/>
     </row>
     <row r="331">
       <c r="AL331" s="26"/>
@@ -22880,6 +23429,7 @@
       <c r="BB331" s="26"/>
       <c r="BC331" s="26"/>
       <c r="BD331" s="26"/>
+      <c r="BE331" s="26"/>
     </row>
     <row r="332">
       <c r="AL332" s="26"/>
@@ -22901,6 +23451,7 @@
       <c r="BB332" s="26"/>
       <c r="BC332" s="26"/>
       <c r="BD332" s="26"/>
+      <c r="BE332" s="26"/>
     </row>
     <row r="333">
       <c r="AL333" s="26"/>
@@ -22922,6 +23473,7 @@
       <c r="BB333" s="26"/>
       <c r="BC333" s="26"/>
       <c r="BD333" s="26"/>
+      <c r="BE333" s="26"/>
     </row>
     <row r="334">
       <c r="AL334" s="26"/>
@@ -22943,6 +23495,7 @@
       <c r="BB334" s="26"/>
       <c r="BC334" s="26"/>
       <c r="BD334" s="26"/>
+      <c r="BE334" s="26"/>
     </row>
     <row r="335">
       <c r="AL335" s="26"/>
@@ -22964,6 +23517,7 @@
       <c r="BB335" s="26"/>
       <c r="BC335" s="26"/>
       <c r="BD335" s="26"/>
+      <c r="BE335" s="26"/>
     </row>
     <row r="336">
       <c r="AL336" s="26"/>
@@ -22985,6 +23539,7 @@
       <c r="BB336" s="26"/>
       <c r="BC336" s="26"/>
       <c r="BD336" s="26"/>
+      <c r="BE336" s="26"/>
     </row>
     <row r="337">
       <c r="AL337" s="26"/>
@@ -23006,6 +23561,7 @@
       <c r="BB337" s="26"/>
       <c r="BC337" s="26"/>
       <c r="BD337" s="26"/>
+      <c r="BE337" s="26"/>
     </row>
     <row r="338">
       <c r="AL338" s="26"/>
@@ -23027,6 +23583,7 @@
       <c r="BB338" s="26"/>
       <c r="BC338" s="26"/>
       <c r="BD338" s="26"/>
+      <c r="BE338" s="26"/>
     </row>
     <row r="339">
       <c r="AL339" s="26"/>
@@ -23048,6 +23605,7 @@
       <c r="BB339" s="26"/>
       <c r="BC339" s="26"/>
       <c r="BD339" s="26"/>
+      <c r="BE339" s="26"/>
     </row>
     <row r="340">
       <c r="AL340" s="26"/>
@@ -23069,6 +23627,7 @@
       <c r="BB340" s="26"/>
       <c r="BC340" s="26"/>
       <c r="BD340" s="26"/>
+      <c r="BE340" s="26"/>
     </row>
     <row r="341">
       <c r="AL341" s="26"/>
@@ -23090,6 +23649,7 @@
       <c r="BB341" s="26"/>
       <c r="BC341" s="26"/>
       <c r="BD341" s="26"/>
+      <c r="BE341" s="26"/>
     </row>
     <row r="342">
       <c r="AL342" s="26"/>
@@ -23111,6 +23671,7 @@
       <c r="BB342" s="26"/>
       <c r="BC342" s="26"/>
       <c r="BD342" s="26"/>
+      <c r="BE342" s="26"/>
     </row>
     <row r="343">
       <c r="AL343" s="26"/>
@@ -23132,6 +23693,7 @@
       <c r="BB343" s="26"/>
       <c r="BC343" s="26"/>
       <c r="BD343" s="26"/>
+      <c r="BE343" s="26"/>
     </row>
     <row r="344">
       <c r="AL344" s="26"/>
@@ -23153,6 +23715,7 @@
       <c r="BB344" s="26"/>
       <c r="BC344" s="26"/>
       <c r="BD344" s="26"/>
+      <c r="BE344" s="26"/>
     </row>
     <row r="345">
       <c r="AL345" s="26"/>
@@ -23174,6 +23737,7 @@
       <c r="BB345" s="26"/>
       <c r="BC345" s="26"/>
       <c r="BD345" s="26"/>
+      <c r="BE345" s="26"/>
     </row>
     <row r="346">
       <c r="AL346" s="26"/>
@@ -23195,6 +23759,7 @@
       <c r="BB346" s="26"/>
       <c r="BC346" s="26"/>
       <c r="BD346" s="26"/>
+      <c r="BE346" s="26"/>
     </row>
     <row r="347">
       <c r="AL347" s="26"/>
@@ -23216,6 +23781,7 @@
       <c r="BB347" s="26"/>
       <c r="BC347" s="26"/>
       <c r="BD347" s="26"/>
+      <c r="BE347" s="26"/>
     </row>
     <row r="348">
       <c r="AL348" s="26"/>
@@ -23237,6 +23803,7 @@
       <c r="BB348" s="26"/>
       <c r="BC348" s="26"/>
       <c r="BD348" s="26"/>
+      <c r="BE348" s="26"/>
     </row>
     <row r="349">
       <c r="AL349" s="26"/>
@@ -23258,6 +23825,7 @@
       <c r="BB349" s="26"/>
       <c r="BC349" s="26"/>
       <c r="BD349" s="26"/>
+      <c r="BE349" s="26"/>
     </row>
     <row r="350">
       <c r="AL350" s="26"/>
@@ -23279,6 +23847,7 @@
       <c r="BB350" s="26"/>
       <c r="BC350" s="26"/>
       <c r="BD350" s="26"/>
+      <c r="BE350" s="26"/>
     </row>
     <row r="351">
       <c r="AL351" s="26"/>
@@ -23300,6 +23869,7 @@
       <c r="BB351" s="26"/>
       <c r="BC351" s="26"/>
       <c r="BD351" s="26"/>
+      <c r="BE351" s="26"/>
     </row>
     <row r="352">
       <c r="AL352" s="26"/>
@@ -23321,6 +23891,7 @@
       <c r="BB352" s="26"/>
       <c r="BC352" s="26"/>
       <c r="BD352" s="26"/>
+      <c r="BE352" s="26"/>
     </row>
     <row r="353">
       <c r="AL353" s="26"/>
@@ -23342,6 +23913,7 @@
       <c r="BB353" s="26"/>
       <c r="BC353" s="26"/>
       <c r="BD353" s="26"/>
+      <c r="BE353" s="26"/>
     </row>
     <row r="354">
       <c r="AL354" s="26"/>
@@ -23363,6 +23935,7 @@
       <c r="BB354" s="26"/>
       <c r="BC354" s="26"/>
       <c r="BD354" s="26"/>
+      <c r="BE354" s="26"/>
     </row>
     <row r="355">
       <c r="AL355" s="26"/>
@@ -23384,6 +23957,7 @@
       <c r="BB355" s="26"/>
       <c r="BC355" s="26"/>
       <c r="BD355" s="26"/>
+      <c r="BE355" s="26"/>
     </row>
     <row r="356">
       <c r="AL356" s="26"/>
@@ -23405,6 +23979,7 @@
       <c r="BB356" s="26"/>
       <c r="BC356" s="26"/>
       <c r="BD356" s="26"/>
+      <c r="BE356" s="26"/>
     </row>
     <row r="357">
       <c r="AL357" s="26"/>
@@ -23426,6 +24001,7 @@
       <c r="BB357" s="26"/>
       <c r="BC357" s="26"/>
       <c r="BD357" s="26"/>
+      <c r="BE357" s="26"/>
     </row>
     <row r="358">
       <c r="AL358" s="26"/>
@@ -23447,6 +24023,7 @@
       <c r="BB358" s="26"/>
       <c r="BC358" s="26"/>
       <c r="BD358" s="26"/>
+      <c r="BE358" s="26"/>
     </row>
     <row r="359">
       <c r="AL359" s="26"/>
@@ -23468,6 +24045,7 @@
       <c r="BB359" s="26"/>
       <c r="BC359" s="26"/>
       <c r="BD359" s="26"/>
+      <c r="BE359" s="26"/>
     </row>
     <row r="360">
       <c r="AL360" s="26"/>
@@ -23489,6 +24067,7 @@
       <c r="BB360" s="26"/>
       <c r="BC360" s="26"/>
       <c r="BD360" s="26"/>
+      <c r="BE360" s="26"/>
     </row>
     <row r="361">
       <c r="AL361" s="26"/>
@@ -23510,6 +24089,7 @@
       <c r="BB361" s="26"/>
       <c r="BC361" s="26"/>
       <c r="BD361" s="26"/>
+      <c r="BE361" s="26"/>
     </row>
     <row r="362">
       <c r="AL362" s="26"/>
@@ -23531,6 +24111,7 @@
       <c r="BB362" s="26"/>
       <c r="BC362" s="26"/>
       <c r="BD362" s="26"/>
+      <c r="BE362" s="26"/>
     </row>
     <row r="363">
       <c r="AL363" s="26"/>
@@ -23552,6 +24133,7 @@
       <c r="BB363" s="26"/>
       <c r="BC363" s="26"/>
       <c r="BD363" s="26"/>
+      <c r="BE363" s="26"/>
     </row>
     <row r="364">
       <c r="AL364" s="26"/>
@@ -23573,6 +24155,7 @@
       <c r="BB364" s="26"/>
       <c r="BC364" s="26"/>
       <c r="BD364" s="26"/>
+      <c r="BE364" s="26"/>
     </row>
     <row r="365">
       <c r="AL365" s="26"/>
@@ -23594,6 +24177,7 @@
       <c r="BB365" s="26"/>
       <c r="BC365" s="26"/>
       <c r="BD365" s="26"/>
+      <c r="BE365" s="26"/>
     </row>
     <row r="366">
       <c r="AL366" s="26"/>
@@ -23615,6 +24199,7 @@
       <c r="BB366" s="26"/>
       <c r="BC366" s="26"/>
       <c r="BD366" s="26"/>
+      <c r="BE366" s="26"/>
     </row>
     <row r="367">
       <c r="AL367" s="26"/>
@@ -23636,6 +24221,7 @@
       <c r="BB367" s="26"/>
       <c r="BC367" s="26"/>
       <c r="BD367" s="26"/>
+      <c r="BE367" s="26"/>
     </row>
     <row r="368">
       <c r="AL368" s="26"/>
@@ -23657,6 +24243,7 @@
       <c r="BB368" s="26"/>
       <c r="BC368" s="26"/>
       <c r="BD368" s="26"/>
+      <c r="BE368" s="26"/>
     </row>
     <row r="369">
       <c r="AL369" s="26"/>
@@ -23678,6 +24265,7 @@
       <c r="BB369" s="26"/>
       <c r="BC369" s="26"/>
       <c r="BD369" s="26"/>
+      <c r="BE369" s="26"/>
     </row>
     <row r="370">
       <c r="AL370" s="26"/>
@@ -23699,6 +24287,7 @@
       <c r="BB370" s="26"/>
       <c r="BC370" s="26"/>
       <c r="BD370" s="26"/>
+      <c r="BE370" s="26"/>
     </row>
     <row r="371">
       <c r="AL371" s="26"/>
@@ -23720,6 +24309,7 @@
       <c r="BB371" s="26"/>
       <c r="BC371" s="26"/>
       <c r="BD371" s="26"/>
+      <c r="BE371" s="26"/>
     </row>
     <row r="372">
       <c r="AL372" s="26"/>
@@ -23741,6 +24331,7 @@
       <c r="BB372" s="26"/>
       <c r="BC372" s="26"/>
       <c r="BD372" s="26"/>
+      <c r="BE372" s="26"/>
     </row>
     <row r="373">
       <c r="AL373" s="26"/>
@@ -23762,6 +24353,7 @@
       <c r="BB373" s="26"/>
       <c r="BC373" s="26"/>
       <c r="BD373" s="26"/>
+      <c r="BE373" s="26"/>
     </row>
     <row r="374">
       <c r="AL374" s="26"/>
@@ -23783,6 +24375,7 @@
       <c r="BB374" s="26"/>
       <c r="BC374" s="26"/>
       <c r="BD374" s="26"/>
+      <c r="BE374" s="26"/>
     </row>
     <row r="375">
       <c r="AL375" s="26"/>
@@ -23804,6 +24397,7 @@
       <c r="BB375" s="26"/>
       <c r="BC375" s="26"/>
       <c r="BD375" s="26"/>
+      <c r="BE375" s="26"/>
     </row>
     <row r="376">
       <c r="AL376" s="26"/>
@@ -23825,6 +24419,7 @@
       <c r="BB376" s="26"/>
       <c r="BC376" s="26"/>
       <c r="BD376" s="26"/>
+      <c r="BE376" s="26"/>
     </row>
     <row r="377">
       <c r="AL377" s="26"/>
@@ -23846,6 +24441,7 @@
       <c r="BB377" s="26"/>
       <c r="BC377" s="26"/>
       <c r="BD377" s="26"/>
+      <c r="BE377" s="26"/>
     </row>
     <row r="378">
       <c r="AL378" s="26"/>
@@ -23867,6 +24463,7 @@
       <c r="BB378" s="26"/>
       <c r="BC378" s="26"/>
       <c r="BD378" s="26"/>
+      <c r="BE378" s="26"/>
     </row>
     <row r="379">
       <c r="AL379" s="26"/>
@@ -23888,6 +24485,7 @@
       <c r="BB379" s="26"/>
       <c r="BC379" s="26"/>
       <c r="BD379" s="26"/>
+      <c r="BE379" s="26"/>
     </row>
     <row r="380">
       <c r="AL380" s="26"/>
@@ -23909,6 +24507,7 @@
       <c r="BB380" s="26"/>
       <c r="BC380" s="26"/>
       <c r="BD380" s="26"/>
+      <c r="BE380" s="26"/>
     </row>
     <row r="381">
       <c r="AL381" s="26"/>
@@ -23930,6 +24529,7 @@
       <c r="BB381" s="26"/>
       <c r="BC381" s="26"/>
       <c r="BD381" s="26"/>
+      <c r="BE381" s="26"/>
     </row>
     <row r="382">
       <c r="AL382" s="26"/>
@@ -23951,6 +24551,7 @@
       <c r="BB382" s="26"/>
       <c r="BC382" s="26"/>
       <c r="BD382" s="26"/>
+      <c r="BE382" s="26"/>
     </row>
     <row r="383">
       <c r="AL383" s="26"/>
@@ -23972,6 +24573,7 @@
       <c r="BB383" s="26"/>
       <c r="BC383" s="26"/>
       <c r="BD383" s="26"/>
+      <c r="BE383" s="26"/>
     </row>
     <row r="384">
       <c r="AL384" s="26"/>
@@ -23993,6 +24595,7 @@
       <c r="BB384" s="26"/>
       <c r="BC384" s="26"/>
       <c r="BD384" s="26"/>
+      <c r="BE384" s="26"/>
     </row>
     <row r="385">
       <c r="AL385" s="26"/>
@@ -24014,6 +24617,7 @@
       <c r="BB385" s="26"/>
       <c r="BC385" s="26"/>
       <c r="BD385" s="26"/>
+      <c r="BE385" s="26"/>
     </row>
     <row r="386">
       <c r="AL386" s="26"/>
@@ -24035,6 +24639,7 @@
       <c r="BB386" s="26"/>
       <c r="BC386" s="26"/>
       <c r="BD386" s="26"/>
+      <c r="BE386" s="26"/>
     </row>
     <row r="387">
       <c r="AL387" s="26"/>
@@ -24056,6 +24661,7 @@
       <c r="BB387" s="26"/>
       <c r="BC387" s="26"/>
       <c r="BD387" s="26"/>
+      <c r="BE387" s="26"/>
     </row>
     <row r="388">
       <c r="AL388" s="26"/>
@@ -24077,6 +24683,7 @@
       <c r="BB388" s="26"/>
       <c r="BC388" s="26"/>
       <c r="BD388" s="26"/>
+      <c r="BE388" s="26"/>
     </row>
     <row r="389">
       <c r="AL389" s="26"/>
@@ -24098,6 +24705,7 @@
       <c r="BB389" s="26"/>
       <c r="BC389" s="26"/>
       <c r="BD389" s="26"/>
+      <c r="BE389" s="26"/>
     </row>
     <row r="390">
       <c r="AL390" s="26"/>
@@ -24119,6 +24727,7 @@
       <c r="BB390" s="26"/>
       <c r="BC390" s="26"/>
       <c r="BD390" s="26"/>
+      <c r="BE390" s="26"/>
     </row>
     <row r="391">
       <c r="AL391" s="26"/>
@@ -24140,6 +24749,7 @@
       <c r="BB391" s="26"/>
       <c r="BC391" s="26"/>
       <c r="BD391" s="26"/>
+      <c r="BE391" s="26"/>
     </row>
     <row r="392">
       <c r="AL392" s="26"/>
@@ -24161,6 +24771,7 @@
       <c r="BB392" s="26"/>
       <c r="BC392" s="26"/>
       <c r="BD392" s="26"/>
+      <c r="BE392" s="26"/>
     </row>
     <row r="393">
       <c r="AL393" s="26"/>
@@ -24182,6 +24793,7 @@
       <c r="BB393" s="26"/>
       <c r="BC393" s="26"/>
       <c r="BD393" s="26"/>
+      <c r="BE393" s="26"/>
     </row>
     <row r="394">
       <c r="AL394" s="26"/>
@@ -24203,6 +24815,7 @@
       <c r="BB394" s="26"/>
       <c r="BC394" s="26"/>
       <c r="BD394" s="26"/>
+      <c r="BE394" s="26"/>
     </row>
     <row r="395">
       <c r="AL395" s="26"/>
@@ -24224,6 +24837,7 @@
       <c r="BB395" s="26"/>
       <c r="BC395" s="26"/>
       <c r="BD395" s="26"/>
+      <c r="BE395" s="26"/>
     </row>
     <row r="396">
       <c r="AL396" s="26"/>
@@ -24245,6 +24859,7 @@
       <c r="BB396" s="26"/>
       <c r="BC396" s="26"/>
       <c r="BD396" s="26"/>
+      <c r="BE396" s="26"/>
     </row>
     <row r="397">
       <c r="AL397" s="26"/>
@@ -24266,6 +24881,7 @@
       <c r="BB397" s="26"/>
       <c r="BC397" s="26"/>
       <c r="BD397" s="26"/>
+      <c r="BE397" s="26"/>
     </row>
     <row r="398">
       <c r="AL398" s="26"/>
@@ -24287,6 +24903,7 @@
       <c r="BB398" s="26"/>
       <c r="BC398" s="26"/>
       <c r="BD398" s="26"/>
+      <c r="BE398" s="26"/>
     </row>
     <row r="399">
       <c r="AL399" s="26"/>
@@ -24308,6 +24925,7 @@
       <c r="BB399" s="26"/>
       <c r="BC399" s="26"/>
       <c r="BD399" s="26"/>
+      <c r="BE399" s="26"/>
     </row>
     <row r="400">
       <c r="AL400" s="26"/>
@@ -24329,6 +24947,7 @@
       <c r="BB400" s="26"/>
       <c r="BC400" s="26"/>
       <c r="BD400" s="26"/>
+      <c r="BE400" s="26"/>
     </row>
     <row r="401">
       <c r="AL401" s="26"/>
@@ -24350,6 +24969,7 @@
       <c r="BB401" s="26"/>
       <c r="BC401" s="26"/>
       <c r="BD401" s="26"/>
+      <c r="BE401" s="26"/>
     </row>
     <row r="402">
       <c r="AL402" s="26"/>
@@ -24371,6 +24991,7 @@
       <c r="BB402" s="26"/>
       <c r="BC402" s="26"/>
       <c r="BD402" s="26"/>
+      <c r="BE402" s="26"/>
     </row>
     <row r="403">
       <c r="AL403" s="26"/>
@@ -24392,6 +25013,7 @@
       <c r="BB403" s="26"/>
       <c r="BC403" s="26"/>
       <c r="BD403" s="26"/>
+      <c r="BE403" s="26"/>
     </row>
     <row r="404">
       <c r="AL404" s="26"/>
@@ -24413,6 +25035,7 @@
       <c r="BB404" s="26"/>
       <c r="BC404" s="26"/>
       <c r="BD404" s="26"/>
+      <c r="BE404" s="26"/>
     </row>
     <row r="405">
       <c r="AL405" s="26"/>
@@ -24434,6 +25057,7 @@
       <c r="BB405" s="26"/>
       <c r="BC405" s="26"/>
       <c r="BD405" s="26"/>
+      <c r="BE405" s="26"/>
     </row>
     <row r="406">
       <c r="AL406" s="26"/>
@@ -24455,6 +25079,7 @@
       <c r="BB406" s="26"/>
       <c r="BC406" s="26"/>
       <c r="BD406" s="26"/>
+      <c r="BE406" s="26"/>
     </row>
     <row r="407">
       <c r="AL407" s="26"/>
@@ -24476,6 +25101,7 @@
       <c r="BB407" s="26"/>
       <c r="BC407" s="26"/>
       <c r="BD407" s="26"/>
+      <c r="BE407" s="26"/>
     </row>
     <row r="408">
       <c r="AL408" s="26"/>
@@ -24497,6 +25123,7 @@
       <c r="BB408" s="26"/>
       <c r="BC408" s="26"/>
       <c r="BD408" s="26"/>
+      <c r="BE408" s="26"/>
     </row>
     <row r="409">
       <c r="AL409" s="26"/>
@@ -24518,6 +25145,7 @@
       <c r="BB409" s="26"/>
       <c r="BC409" s="26"/>
       <c r="BD409" s="26"/>
+      <c r="BE409" s="26"/>
     </row>
     <row r="410">
       <c r="AL410" s="26"/>
@@ -24539,6 +25167,7 @@
       <c r="BB410" s="26"/>
       <c r="BC410" s="26"/>
       <c r="BD410" s="26"/>
+      <c r="BE410" s="26"/>
     </row>
     <row r="411">
       <c r="AL411" s="26"/>
@@ -24560,6 +25189,7 @@
       <c r="BB411" s="26"/>
       <c r="BC411" s="26"/>
       <c r="BD411" s="26"/>
+      <c r="BE411" s="26"/>
     </row>
     <row r="412">
       <c r="AL412" s="26"/>
@@ -24581,6 +25211,7 @@
       <c r="BB412" s="26"/>
       <c r="BC412" s="26"/>
       <c r="BD412" s="26"/>
+      <c r="BE412" s="26"/>
     </row>
     <row r="413">
       <c r="AL413" s="26"/>
@@ -24602,6 +25233,7 @@
       <c r="BB413" s="26"/>
       <c r="BC413" s="26"/>
       <c r="BD413" s="26"/>
+      <c r="BE413" s="26"/>
     </row>
     <row r="414">
       <c r="AL414" s="26"/>
@@ -24623,6 +25255,7 @@
       <c r="BB414" s="26"/>
       <c r="BC414" s="26"/>
       <c r="BD414" s="26"/>
+      <c r="BE414" s="26"/>
     </row>
     <row r="415">
       <c r="AL415" s="26"/>
@@ -24644,6 +25277,7 @@
       <c r="BB415" s="26"/>
       <c r="BC415" s="26"/>
       <c r="BD415" s="26"/>
+      <c r="BE415" s="26"/>
     </row>
     <row r="416">
       <c r="AL416" s="26"/>
@@ -24665,6 +25299,7 @@
       <c r="BB416" s="26"/>
       <c r="BC416" s="26"/>
       <c r="BD416" s="26"/>
+      <c r="BE416" s="26"/>
     </row>
     <row r="417">
       <c r="AL417" s="26"/>
@@ -24686,6 +25321,7 @@
       <c r="BB417" s="26"/>
       <c r="BC417" s="26"/>
       <c r="BD417" s="26"/>
+      <c r="BE417" s="26"/>
     </row>
     <row r="418">
       <c r="AL418" s="26"/>
@@ -24707,6 +25343,7 @@
       <c r="BB418" s="26"/>
       <c r="BC418" s="26"/>
       <c r="BD418" s="26"/>
+      <c r="BE418" s="26"/>
     </row>
     <row r="419">
       <c r="AL419" s="26"/>
@@ -24728,6 +25365,7 @@
       <c r="BB419" s="26"/>
       <c r="BC419" s="26"/>
       <c r="BD419" s="26"/>
+      <c r="BE419" s="26"/>
     </row>
     <row r="420">
       <c r="AL420" s="26"/>
@@ -24749,6 +25387,7 @@
       <c r="BB420" s="26"/>
       <c r="BC420" s="26"/>
       <c r="BD420" s="26"/>
+      <c r="BE420" s="26"/>
     </row>
     <row r="421">
       <c r="AL421" s="26"/>
@@ -24770,6 +25409,7 @@
       <c r="BB421" s="26"/>
       <c r="BC421" s="26"/>
       <c r="BD421" s="26"/>
+      <c r="BE421" s="26"/>
     </row>
     <row r="422">
       <c r="AL422" s="26"/>
@@ -24791,6 +25431,7 @@
       <c r="BB422" s="26"/>
       <c r="BC422" s="26"/>
       <c r="BD422" s="26"/>
+      <c r="BE422" s="26"/>
     </row>
     <row r="423">
       <c r="AL423" s="26"/>
@@ -24812,6 +25453,7 @@
       <c r="BB423" s="26"/>
       <c r="BC423" s="26"/>
       <c r="BD423" s="26"/>
+      <c r="BE423" s="26"/>
     </row>
     <row r="424">
       <c r="AL424" s="26"/>
@@ -24833,6 +25475,7 @@
       <c r="BB424" s="26"/>
       <c r="BC424" s="26"/>
       <c r="BD424" s="26"/>
+      <c r="BE424" s="26"/>
     </row>
     <row r="425">
       <c r="AL425" s="26"/>
@@ -24854,6 +25497,7 @@
       <c r="BB425" s="26"/>
       <c r="BC425" s="26"/>
       <c r="BD425" s="26"/>
+      <c r="BE425" s="26"/>
     </row>
     <row r="426">
       <c r="AL426" s="26"/>
@@ -24875,6 +25519,7 @@
       <c r="BB426" s="26"/>
       <c r="BC426" s="26"/>
       <c r="BD426" s="26"/>
+      <c r="BE426" s="26"/>
     </row>
     <row r="427">
       <c r="AL427" s="26"/>
@@ -24896,6 +25541,7 @@
       <c r="BB427" s="26"/>
       <c r="BC427" s="26"/>
       <c r="BD427" s="26"/>
+      <c r="BE427" s="26"/>
     </row>
     <row r="428">
       <c r="AL428" s="26"/>
@@ -24917,6 +25563,7 @@
       <c r="BB428" s="26"/>
       <c r="BC428" s="26"/>
       <c r="BD428" s="26"/>
+      <c r="BE428" s="26"/>
     </row>
     <row r="429">
       <c r="AL429" s="26"/>
@@ -24938,6 +25585,7 @@
       <c r="BB429" s="26"/>
       <c r="BC429" s="26"/>
       <c r="BD429" s="26"/>
+      <c r="BE429" s="26"/>
     </row>
     <row r="430">
       <c r="AL430" s="26"/>
@@ -24959,6 +25607,7 @@
       <c r="BB430" s="26"/>
       <c r="BC430" s="26"/>
       <c r="BD430" s="26"/>
+      <c r="BE430" s="26"/>
     </row>
     <row r="431">
       <c r="AL431" s="26"/>
@@ -24980,6 +25629,7 @@
       <c r="BB431" s="26"/>
       <c r="BC431" s="26"/>
       <c r="BD431" s="26"/>
+      <c r="BE431" s="26"/>
     </row>
     <row r="432">
       <c r="AL432" s="26"/>
@@ -25001,6 +25651,7 @@
       <c r="BB432" s="26"/>
       <c r="BC432" s="26"/>
       <c r="BD432" s="26"/>
+      <c r="BE432" s="26"/>
     </row>
     <row r="433">
       <c r="AL433" s="26"/>
@@ -25022,6 +25673,7 @@
       <c r="BB433" s="26"/>
       <c r="BC433" s="26"/>
       <c r="BD433" s="26"/>
+      <c r="BE433" s="26"/>
     </row>
     <row r="434">
       <c r="AL434" s="26"/>
@@ -25043,6 +25695,7 @@
       <c r="BB434" s="26"/>
       <c r="BC434" s="26"/>
       <c r="BD434" s="26"/>
+      <c r="BE434" s="26"/>
     </row>
     <row r="435">
       <c r="AL435" s="26"/>
@@ -25064,6 +25717,7 @@
       <c r="BB435" s="26"/>
       <c r="BC435" s="26"/>
       <c r="BD435" s="26"/>
+      <c r="BE435" s="26"/>
     </row>
     <row r="436">
       <c r="AL436" s="26"/>
@@ -25085,6 +25739,7 @@
       <c r="BB436" s="26"/>
       <c r="BC436" s="26"/>
       <c r="BD436" s="26"/>
+      <c r="BE436" s="26"/>
     </row>
     <row r="437">
       <c r="AL437" s="26"/>
@@ -25106,6 +25761,7 @@
       <c r="BB437" s="26"/>
       <c r="BC437" s="26"/>
       <c r="BD437" s="26"/>
+      <c r="BE437" s="26"/>
     </row>
     <row r="438">
       <c r="AL438" s="26"/>
@@ -25127,6 +25783,7 @@
       <c r="BB438" s="26"/>
       <c r="BC438" s="26"/>
       <c r="BD438" s="26"/>
+      <c r="BE438" s="26"/>
     </row>
     <row r="439">
       <c r="AL439" s="26"/>
@@ -25148,6 +25805,7 @@
       <c r="BB439" s="26"/>
       <c r="BC439" s="26"/>
       <c r="BD439" s="26"/>
+      <c r="BE439" s="26"/>
     </row>
     <row r="440">
       <c r="AL440" s="26"/>
@@ -25169,6 +25827,7 @@
       <c r="BB440" s="26"/>
       <c r="BC440" s="26"/>
       <c r="BD440" s="26"/>
+      <c r="BE440" s="26"/>
     </row>
     <row r="441">
       <c r="AL441" s="26"/>
@@ -25190,6 +25849,7 @@
       <c r="BB441" s="26"/>
       <c r="BC441" s="26"/>
       <c r="BD441" s="26"/>
+      <c r="BE441" s="26"/>
     </row>
     <row r="442">
       <c r="AL442" s="26"/>
@@ -25211,6 +25871,7 @@
       <c r="BB442" s="26"/>
       <c r="BC442" s="26"/>
       <c r="BD442" s="26"/>
+      <c r="BE442" s="26"/>
     </row>
     <row r="443">
       <c r="AL443" s="26"/>
@@ -25232,6 +25893,7 @@
       <c r="BB443" s="26"/>
       <c r="BC443" s="26"/>
       <c r="BD443" s="26"/>
+      <c r="BE443" s="26"/>
     </row>
     <row r="444">
       <c r="AL444" s="26"/>
@@ -25253,6 +25915,7 @@
       <c r="BB444" s="26"/>
       <c r="BC444" s="26"/>
       <c r="BD444" s="26"/>
+      <c r="BE444" s="26"/>
     </row>
     <row r="445">
       <c r="AL445" s="26"/>
@@ -25274,6 +25937,7 @@
       <c r="BB445" s="26"/>
       <c r="BC445" s="26"/>
       <c r="BD445" s="26"/>
+      <c r="BE445" s="26"/>
     </row>
     <row r="446">
       <c r="AL446" s="26"/>
@@ -25295,6 +25959,7 @@
       <c r="BB446" s="26"/>
       <c r="BC446" s="26"/>
       <c r="BD446" s="26"/>
+      <c r="BE446" s="26"/>
     </row>
     <row r="447">
       <c r="AL447" s="26"/>
@@ -25316,6 +25981,7 @@
       <c r="BB447" s="26"/>
       <c r="BC447" s="26"/>
       <c r="BD447" s="26"/>
+      <c r="BE447" s="26"/>
     </row>
     <row r="448">
       <c r="AL448" s="26"/>
@@ -25337,6 +26003,7 @@
       <c r="BB448" s="26"/>
       <c r="BC448" s="26"/>
       <c r="BD448" s="26"/>
+      <c r="BE448" s="26"/>
     </row>
     <row r="449">
       <c r="AL449" s="26"/>
@@ -25358,6 +26025,7 @@
       <c r="BB449" s="26"/>
       <c r="BC449" s="26"/>
       <c r="BD449" s="26"/>
+      <c r="BE449" s="26"/>
     </row>
     <row r="450">
       <c r="AL450" s="26"/>
@@ -25379,6 +26047,7 @@
       <c r="BB450" s="26"/>
       <c r="BC450" s="26"/>
       <c r="BD450" s="26"/>
+      <c r="BE450" s="26"/>
     </row>
     <row r="451">
       <c r="AL451" s="26"/>
@@ -25400,6 +26069,7 @@
       <c r="BB451" s="26"/>
       <c r="BC451" s="26"/>
       <c r="BD451" s="26"/>
+      <c r="BE451" s="26"/>
     </row>
     <row r="452">
       <c r="AL452" s="26"/>
@@ -25421,6 +26091,7 @@
       <c r="BB452" s="26"/>
       <c r="BC452" s="26"/>
       <c r="BD452" s="26"/>
+      <c r="BE452" s="26"/>
     </row>
     <row r="453">
       <c r="AL453" s="26"/>
@@ -25442,6 +26113,7 @@
       <c r="BB453" s="26"/>
       <c r="BC453" s="26"/>
       <c r="BD453" s="26"/>
+      <c r="BE453" s="26"/>
     </row>
     <row r="454">
       <c r="AL454" s="26"/>
@@ -25463,6 +26135,7 @@
       <c r="BB454" s="26"/>
       <c r="BC454" s="26"/>
       <c r="BD454" s="26"/>
+      <c r="BE454" s="26"/>
     </row>
     <row r="455">
       <c r="AL455" s="26"/>
@@ -25484,6 +26157,7 @@
       <c r="BB455" s="26"/>
       <c r="BC455" s="26"/>
       <c r="BD455" s="26"/>
+      <c r="BE455" s="26"/>
     </row>
     <row r="456">
       <c r="AL456" s="26"/>
@@ -25505,6 +26179,7 @@
       <c r="BB456" s="26"/>
       <c r="BC456" s="26"/>
       <c r="BD456" s="26"/>
+      <c r="BE456" s="26"/>
     </row>
     <row r="457">
       <c r="AL457" s="26"/>
@@ -25526,6 +26201,7 @@
       <c r="BB457" s="26"/>
       <c r="BC457" s="26"/>
       <c r="BD457" s="26"/>
+      <c r="BE457" s="26"/>
     </row>
     <row r="458">
       <c r="AL458" s="26"/>
@@ -25547,6 +26223,7 @@
       <c r="BB458" s="26"/>
       <c r="BC458" s="26"/>
       <c r="BD458" s="26"/>
+      <c r="BE458" s="26"/>
     </row>
     <row r="459">
       <c r="AL459" s="26"/>
@@ -25568,6 +26245,7 @@
       <c r="BB459" s="26"/>
       <c r="BC459" s="26"/>
       <c r="BD459" s="26"/>
+      <c r="BE459" s="26"/>
     </row>
     <row r="460">
       <c r="AL460" s="26"/>
@@ -25589,6 +26267,7 @@
       <c r="BB460" s="26"/>
       <c r="BC460" s="26"/>
       <c r="BD460" s="26"/>
+      <c r="BE460" s="26"/>
     </row>
     <row r="461">
       <c r="AL461" s="26"/>
@@ -25610,6 +26289,7 @@
       <c r="BB461" s="26"/>
       <c r="BC461" s="26"/>
       <c r="BD461" s="26"/>
+      <c r="BE461" s="26"/>
     </row>
     <row r="462">
       <c r="AL462" s="26"/>
@@ -25631,6 +26311,7 @@
       <c r="BB462" s="26"/>
       <c r="BC462" s="26"/>
       <c r="BD462" s="26"/>
+      <c r="BE462" s="26"/>
     </row>
     <row r="463">
       <c r="AL463" s="26"/>
@@ -25652,6 +26333,7 @@
       <c r="BB463" s="26"/>
       <c r="BC463" s="26"/>
       <c r="BD463" s="26"/>
+      <c r="BE463" s="26"/>
     </row>
     <row r="464">
       <c r="AL464" s="26"/>
@@ -25673,6 +26355,7 @@
       <c r="BB464" s="26"/>
       <c r="BC464" s="26"/>
       <c r="BD464" s="26"/>
+      <c r="BE464" s="26"/>
     </row>
     <row r="465">
       <c r="AL465" s="26"/>
@@ -25694,6 +26377,7 @@
       <c r="BB465" s="26"/>
       <c r="BC465" s="26"/>
       <c r="BD465" s="26"/>
+      <c r="BE465" s="26"/>
     </row>
     <row r="466">
       <c r="AL466" s="26"/>
@@ -25715,6 +26399,7 @@
       <c r="BB466" s="26"/>
       <c r="BC466" s="26"/>
       <c r="BD466" s="26"/>
+      <c r="BE466" s="26"/>
     </row>
     <row r="467">
       <c r="AL467" s="26"/>
@@ -25736,6 +26421,7 @@
       <c r="BB467" s="26"/>
       <c r="BC467" s="26"/>
       <c r="BD467" s="26"/>
+      <c r="BE467" s="26"/>
     </row>
     <row r="468">
       <c r="AL468" s="26"/>
@@ -25757,6 +26443,7 @@
       <c r="BB468" s="26"/>
       <c r="BC468" s="26"/>
       <c r="BD468" s="26"/>
+      <c r="BE468" s="26"/>
     </row>
     <row r="469">
       <c r="AL469" s="26"/>
@@ -25778,6 +26465,7 @@
       <c r="BB469" s="26"/>
       <c r="BC469" s="26"/>
       <c r="BD469" s="26"/>
+      <c r="BE469" s="26"/>
     </row>
     <row r="470">
       <c r="AL470" s="26"/>
@@ -25799,6 +26487,7 @@
       <c r="BB470" s="26"/>
       <c r="BC470" s="26"/>
       <c r="BD470" s="26"/>
+      <c r="BE470" s="26"/>
     </row>
     <row r="471">
       <c r="AL471" s="26"/>
@@ -25820,6 +26509,7 @@
       <c r="BB471" s="26"/>
       <c r="BC471" s="26"/>
       <c r="BD471" s="26"/>
+      <c r="BE471" s="26"/>
     </row>
     <row r="472">
       <c r="AL472" s="26"/>
@@ -25841,6 +26531,7 @@
       <c r="BB472" s="26"/>
       <c r="BC472" s="26"/>
       <c r="BD472" s="26"/>
+      <c r="BE472" s="26"/>
     </row>
     <row r="473">
       <c r="AL473" s="26"/>
@@ -25862,6 +26553,7 @@
       <c r="BB473" s="26"/>
       <c r="BC473" s="26"/>
       <c r="BD473" s="26"/>
+      <c r="BE473" s="26"/>
     </row>
     <row r="474">
       <c r="AL474" s="26"/>
@@ -25883,6 +26575,7 @@
       <c r="BB474" s="26"/>
       <c r="BC474" s="26"/>
       <c r="BD474" s="26"/>
+      <c r="BE474" s="26"/>
     </row>
     <row r="475">
       <c r="AL475" s="26"/>
@@ -25904,6 +26597,7 @@
       <c r="BB475" s="26"/>
       <c r="BC475" s="26"/>
       <c r="BD475" s="26"/>
+      <c r="BE475" s="26"/>
     </row>
     <row r="476">
       <c r="AL476" s="26"/>
@@ -25925,6 +26619,7 @@
       <c r="BB476" s="26"/>
       <c r="BC476" s="26"/>
       <c r="BD476" s="26"/>
+      <c r="BE476" s="26"/>
     </row>
     <row r="477">
       <c r="AL477" s="26"/>
@@ -25946,6 +26641,7 @@
       <c r="BB477" s="26"/>
       <c r="BC477" s="26"/>
       <c r="BD477" s="26"/>
+      <c r="BE477" s="26"/>
     </row>
     <row r="478">
       <c r="AL478" s="26"/>
@@ -25967,6 +26663,7 @@
       <c r="BB478" s="26"/>
       <c r="BC478" s="26"/>
       <c r="BD478" s="26"/>
+      <c r="BE478" s="26"/>
     </row>
     <row r="479">
       <c r="AL479" s="26"/>
@@ -25988,6 +26685,7 @@
       <c r="BB479" s="26"/>
       <c r="BC479" s="26"/>
       <c r="BD479" s="26"/>
+      <c r="BE479" s="26"/>
     </row>
     <row r="480">
       <c r="AL480" s="26"/>
@@ -26009,6 +26707,7 @@
       <c r="BB480" s="26"/>
       <c r="BC480" s="26"/>
       <c r="BD480" s="26"/>
+      <c r="BE480" s="26"/>
     </row>
     <row r="481">
       <c r="AL481" s="26"/>
@@ -26030,6 +26729,7 @@
       <c r="BB481" s="26"/>
       <c r="BC481" s="26"/>
       <c r="BD481" s="26"/>
+      <c r="BE481" s="26"/>
     </row>
     <row r="482">
       <c r="AL482" s="26"/>
@@ -26051,6 +26751,7 @@
       <c r="BB482" s="26"/>
       <c r="BC482" s="26"/>
       <c r="BD482" s="26"/>
+      <c r="BE482" s="26"/>
     </row>
     <row r="483">
       <c r="AL483" s="26"/>
@@ -26072,6 +26773,7 @@
       <c r="BB483" s="26"/>
       <c r="BC483" s="26"/>
       <c r="BD483" s="26"/>
+      <c r="BE483" s="26"/>
     </row>
     <row r="484">
       <c r="AL484" s="26"/>
@@ -26093,6 +26795,7 @@
       <c r="BB484" s="26"/>
       <c r="BC484" s="26"/>
       <c r="BD484" s="26"/>
+      <c r="BE484" s="26"/>
     </row>
     <row r="485">
       <c r="AL485" s="26"/>
@@ -26114,6 +26817,7 @@
       <c r="BB485" s="26"/>
       <c r="BC485" s="26"/>
       <c r="BD485" s="26"/>
+      <c r="BE485" s="26"/>
     </row>
     <row r="486">
       <c r="AL486" s="26"/>
@@ -26135,6 +26839,7 @@
       <c r="BB486" s="26"/>
       <c r="BC486" s="26"/>
       <c r="BD486" s="26"/>
+      <c r="BE486" s="26"/>
     </row>
     <row r="487">
       <c r="AL487" s="26"/>
@@ -26156,6 +26861,7 @@
       <c r="BB487" s="26"/>
       <c r="BC487" s="26"/>
       <c r="BD487" s="26"/>
+      <c r="BE487" s="26"/>
     </row>
     <row r="488">
       <c r="AL488" s="26"/>
@@ -26177,6 +26883,7 @@
       <c r="BB488" s="26"/>
       <c r="BC488" s="26"/>
       <c r="BD488" s="26"/>
+      <c r="BE488" s="26"/>
     </row>
     <row r="489">
       <c r="AL489" s="26"/>
@@ -26198,6 +26905,7 @@
       <c r="BB489" s="26"/>
       <c r="BC489" s="26"/>
       <c r="BD489" s="26"/>
+      <c r="BE489" s="26"/>
     </row>
     <row r="490">
       <c r="AL490" s="26"/>
@@ -26219,6 +26927,7 @@
       <c r="BB490" s="26"/>
       <c r="BC490" s="26"/>
       <c r="BD490" s="26"/>
+      <c r="BE490" s="26"/>
     </row>
     <row r="491">
       <c r="AL491" s="26"/>
@@ -26240,6 +26949,7 @@
       <c r="BB491" s="26"/>
       <c r="BC491" s="26"/>
       <c r="BD491" s="26"/>
+      <c r="BE491" s="26"/>
     </row>
     <row r="492">
       <c r="AL492" s="26"/>
@@ -26261,6 +26971,7 @@
       <c r="BB492" s="26"/>
       <c r="BC492" s="26"/>
       <c r="BD492" s="26"/>
+      <c r="BE492" s="26"/>
     </row>
     <row r="493">
       <c r="AL493" s="26"/>
@@ -26282,6 +26993,7 @@
       <c r="BB493" s="26"/>
       <c r="BC493" s="26"/>
       <c r="BD493" s="26"/>
+      <c r="BE493" s="26"/>
     </row>
     <row r="494">
       <c r="AL494" s="26"/>
@@ -26303,6 +27015,7 @@
       <c r="BB494" s="26"/>
       <c r="BC494" s="26"/>
       <c r="BD494" s="26"/>
+      <c r="BE494" s="26"/>
     </row>
     <row r="495">
       <c r="AL495" s="26"/>
@@ -26324,6 +27037,7 @@
       <c r="BB495" s="26"/>
       <c r="BC495" s="26"/>
       <c r="BD495" s="26"/>
+      <c r="BE495" s="26"/>
     </row>
     <row r="496">
       <c r="AL496" s="26"/>
@@ -26345,6 +27059,7 @@
       <c r="BB496" s="26"/>
       <c r="BC496" s="26"/>
       <c r="BD496" s="26"/>
+      <c r="BE496" s="26"/>
     </row>
     <row r="497">
       <c r="AL497" s="26"/>
@@ -26366,6 +27081,7 @@
       <c r="BB497" s="26"/>
       <c r="BC497" s="26"/>
       <c r="BD497" s="26"/>
+      <c r="BE497" s="26"/>
     </row>
     <row r="498">
       <c r="AL498" s="26"/>
@@ -26387,6 +27103,7 @@
       <c r="BB498" s="26"/>
       <c r="BC498" s="26"/>
       <c r="BD498" s="26"/>
+      <c r="BE498" s="26"/>
     </row>
     <row r="499">
       <c r="AL499" s="26"/>
@@ -26408,6 +27125,7 @@
       <c r="BB499" s="26"/>
       <c r="BC499" s="26"/>
       <c r="BD499" s="26"/>
+      <c r="BE499" s="26"/>
     </row>
     <row r="500">
       <c r="AL500" s="26"/>
@@ -26429,6 +27147,7 @@
       <c r="BB500" s="26"/>
       <c r="BC500" s="26"/>
       <c r="BD500" s="26"/>
+      <c r="BE500" s="26"/>
     </row>
     <row r="501">
       <c r="AL501" s="26"/>
@@ -26450,6 +27169,7 @@
       <c r="BB501" s="26"/>
       <c r="BC501" s="26"/>
       <c r="BD501" s="26"/>
+      <c r="BE501" s="26"/>
     </row>
     <row r="502">
       <c r="AL502" s="26"/>
@@ -26471,6 +27191,7 @@
       <c r="BB502" s="26"/>
       <c r="BC502" s="26"/>
       <c r="BD502" s="26"/>
+      <c r="BE502" s="26"/>
     </row>
     <row r="503">
       <c r="AL503" s="26"/>
@@ -26492,6 +27213,7 @@
       <c r="BB503" s="26"/>
       <c r="BC503" s="26"/>
       <c r="BD503" s="26"/>
+      <c r="BE503" s="26"/>
     </row>
     <row r="504">
       <c r="AL504" s="26"/>
@@ -26513,6 +27235,7 @@
       <c r="BB504" s="26"/>
       <c r="BC504" s="26"/>
       <c r="BD504" s="26"/>
+      <c r="BE504" s="26"/>
     </row>
     <row r="505">
       <c r="AL505" s="26"/>
@@ -26534,6 +27257,7 @@
       <c r="BB505" s="26"/>
       <c r="BC505" s="26"/>
       <c r="BD505" s="26"/>
+      <c r="BE505" s="26"/>
     </row>
     <row r="506">
       <c r="AL506" s="26"/>
@@ -26555,6 +27279,7 @@
       <c r="BB506" s="26"/>
       <c r="BC506" s="26"/>
       <c r="BD506" s="26"/>
+      <c r="BE506" s="26"/>
     </row>
     <row r="507">
       <c r="AL507" s="26"/>
@@ -26576,6 +27301,7 @@
       <c r="BB507" s="26"/>
       <c r="BC507" s="26"/>
       <c r="BD507" s="26"/>
+      <c r="BE507" s="26"/>
     </row>
     <row r="508">
       <c r="AL508" s="26"/>
@@ -26597,6 +27323,7 @@
       <c r="BB508" s="26"/>
       <c r="BC508" s="26"/>
       <c r="BD508" s="26"/>
+      <c r="BE508" s="26"/>
     </row>
     <row r="509">
       <c r="AL509" s="26"/>
@@ -26618,6 +27345,7 @@
       <c r="BB509" s="26"/>
       <c r="BC509" s="26"/>
       <c r="BD509" s="26"/>
+      <c r="BE509" s="26"/>
     </row>
     <row r="510">
       <c r="AL510" s="26"/>
@@ -26639,6 +27367,7 @@
       <c r="BB510" s="26"/>
       <c r="BC510" s="26"/>
       <c r="BD510" s="26"/>
+      <c r="BE510" s="26"/>
     </row>
     <row r="511">
       <c r="AL511" s="26"/>
@@ -26660,6 +27389,7 @@
       <c r="BB511" s="26"/>
       <c r="BC511" s="26"/>
       <c r="BD511" s="26"/>
+      <c r="BE511" s="26"/>
     </row>
     <row r="512">
       <c r="AL512" s="26"/>
@@ -26681,6 +27411,7 @@
       <c r="BB512" s="26"/>
       <c r="BC512" s="26"/>
       <c r="BD512" s="26"/>
+      <c r="BE512" s="26"/>
     </row>
     <row r="513">
       <c r="AL513" s="26"/>
@@ -26702,6 +27433,7 @@
       <c r="BB513" s="26"/>
       <c r="BC513" s="26"/>
       <c r="BD513" s="26"/>
+      <c r="BE513" s="26"/>
     </row>
     <row r="514">
       <c r="AL514" s="26"/>
@@ -26723,6 +27455,7 @@
       <c r="BB514" s="26"/>
       <c r="BC514" s="26"/>
       <c r="BD514" s="26"/>
+      <c r="BE514" s="26"/>
     </row>
     <row r="515">
       <c r="AL515" s="26"/>
@@ -26744,6 +27477,7 @@
       <c r="BB515" s="26"/>
       <c r="BC515" s="26"/>
       <c r="BD515" s="26"/>
+      <c r="BE515" s="26"/>
     </row>
     <row r="516">
       <c r="AL516" s="26"/>
@@ -26765,6 +27499,7 @@
       <c r="BB516" s="26"/>
       <c r="BC516" s="26"/>
       <c r="BD516" s="26"/>
+      <c r="BE516" s="26"/>
     </row>
     <row r="517">
       <c r="AL517" s="26"/>
@@ -26786,6 +27521,7 @@
       <c r="BB517" s="26"/>
       <c r="BC517" s="26"/>
       <c r="BD517" s="26"/>
+      <c r="BE517" s="26"/>
     </row>
     <row r="518">
       <c r="AL518" s="26"/>
@@ -26807,6 +27543,7 @@
       <c r="BB518" s="26"/>
       <c r="BC518" s="26"/>
       <c r="BD518" s="26"/>
+      <c r="BE518" s="26"/>
     </row>
     <row r="519">
       <c r="AL519" s="26"/>
@@ -26828,6 +27565,7 @@
       <c r="BB519" s="26"/>
       <c r="BC519" s="26"/>
       <c r="BD519" s="26"/>
+      <c r="BE519" s="26"/>
     </row>
     <row r="520">
       <c r="AL520" s="26"/>
@@ -26849,6 +27587,7 @@
       <c r="BB520" s="26"/>
       <c r="BC520" s="26"/>
       <c r="BD520" s="26"/>
+      <c r="BE520" s="26"/>
     </row>
     <row r="521">
       <c r="AL521" s="26"/>
@@ -26870,6 +27609,7 @@
       <c r="BB521" s="26"/>
       <c r="BC521" s="26"/>
       <c r="BD521" s="26"/>
+      <c r="BE521" s="26"/>
     </row>
     <row r="522">
       <c r="AL522" s="26"/>
@@ -26891,6 +27631,7 @@
       <c r="BB522" s="26"/>
       <c r="BC522" s="26"/>
       <c r="BD522" s="26"/>
+      <c r="BE522" s="26"/>
     </row>
     <row r="523">
       <c r="AL523" s="26"/>
@@ -26912,6 +27653,7 @@
       <c r="BB523" s="26"/>
       <c r="BC523" s="26"/>
       <c r="BD523" s="26"/>
+      <c r="BE523" s="26"/>
     </row>
     <row r="524">
       <c r="AL524" s="26"/>
@@ -26933,6 +27675,7 @@
       <c r="BB524" s="26"/>
       <c r="BC524" s="26"/>
       <c r="BD524" s="26"/>
+      <c r="BE524" s="26"/>
     </row>
     <row r="525">
       <c r="AL525" s="26"/>
@@ -26954,6 +27697,7 @@
       <c r="BB525" s="26"/>
       <c r="BC525" s="26"/>
       <c r="BD525" s="26"/>
+      <c r="BE525" s="26"/>
     </row>
     <row r="526">
       <c r="AL526" s="26"/>
@@ -26975,6 +27719,7 @@
       <c r="BB526" s="26"/>
       <c r="BC526" s="26"/>
       <c r="BD526" s="26"/>
+      <c r="BE526" s="26"/>
     </row>
     <row r="527">
       <c r="AL527" s="26"/>
@@ -26996,6 +27741,7 @@
       <c r="BB527" s="26"/>
       <c r="BC527" s="26"/>
       <c r="BD527" s="26"/>
+      <c r="BE527" s="26"/>
     </row>
     <row r="528">
       <c r="AL528" s="26"/>
@@ -27017,6 +27763,7 @@
       <c r="BB528" s="26"/>
       <c r="BC528" s="26"/>
       <c r="BD528" s="26"/>
+      <c r="BE528" s="26"/>
     </row>
     <row r="529">
       <c r="AL529" s="26"/>
@@ -27038,6 +27785,7 @@
       <c r="BB529" s="26"/>
       <c r="BC529" s="26"/>
       <c r="BD529" s="26"/>
+      <c r="BE529" s="26"/>
     </row>
     <row r="530">
       <c r="AL530" s="26"/>
@@ -27059,6 +27807,7 @@
       <c r="BB530" s="26"/>
       <c r="BC530" s="26"/>
       <c r="BD530" s="26"/>
+      <c r="BE530" s="26"/>
     </row>
     <row r="531">
       <c r="AL531" s="26"/>
@@ -27080,6 +27829,7 @@
       <c r="BB531" s="26"/>
       <c r="BC531" s="26"/>
       <c r="BD531" s="26"/>
+      <c r="BE531" s="26"/>
     </row>
     <row r="532">
       <c r="AL532" s="26"/>
@@ -27101,6 +27851,7 @@
       <c r="BB532" s="26"/>
       <c r="BC532" s="26"/>
       <c r="BD532" s="26"/>
+      <c r="BE532" s="26"/>
     </row>
     <row r="533">
       <c r="AL533" s="26"/>
@@ -27122,6 +27873,7 @@
       <c r="BB533" s="26"/>
       <c r="BC533" s="26"/>
       <c r="BD533" s="26"/>
+      <c r="BE533" s="26"/>
     </row>
     <row r="534">
       <c r="AL534" s="26"/>
@@ -27143,6 +27895,7 @@
       <c r="BB534" s="26"/>
       <c r="BC534" s="26"/>
       <c r="BD534" s="26"/>
+      <c r="BE534" s="26"/>
     </row>
     <row r="535">
       <c r="AL535" s="26"/>
@@ -27164,6 +27917,7 @@
       <c r="BB535" s="26"/>
       <c r="BC535" s="26"/>
       <c r="BD535" s="26"/>
+      <c r="BE535" s="26"/>
     </row>
     <row r="536">
       <c r="AL536" s="26"/>
@@ -27185,6 +27939,7 @@
       <c r="BB536" s="26"/>
       <c r="BC536" s="26"/>
       <c r="BD536" s="26"/>
+      <c r="BE536" s="26"/>
     </row>
     <row r="537">
       <c r="AL537" s="26"/>
@@ -27206,6 +27961,7 @@
       <c r="BB537" s="26"/>
       <c r="BC537" s="26"/>
       <c r="BD537" s="26"/>
+      <c r="BE537" s="26"/>
     </row>
     <row r="538">
       <c r="AL538" s="26"/>
@@ -27227,6 +27983,7 @@
       <c r="BB538" s="26"/>
       <c r="BC538" s="26"/>
       <c r="BD538" s="26"/>
+      <c r="BE538" s="26"/>
     </row>
     <row r="539">
       <c r="AL539" s="26"/>
@@ -27248,6 +28005,7 @@
       <c r="BB539" s="26"/>
       <c r="BC539" s="26"/>
       <c r="BD539" s="26"/>
+      <c r="BE539" s="26"/>
     </row>
     <row r="540">
       <c r="AL540" s="26"/>
@@ -27269,6 +28027,7 @@
       <c r="BB540" s="26"/>
       <c r="BC540" s="26"/>
       <c r="BD540" s="26"/>
+      <c r="BE540" s="26"/>
     </row>
     <row r="541">
       <c r="AL541" s="26"/>
@@ -27290,6 +28049,7 @@
       <c r="BB541" s="26"/>
       <c r="BC541" s="26"/>
       <c r="BD541" s="26"/>
+      <c r="BE541" s="26"/>
     </row>
     <row r="542">
       <c r="AL542" s="26"/>
@@ -27311,6 +28071,7 @@
       <c r="BB542" s="26"/>
       <c r="BC542" s="26"/>
       <c r="BD542" s="26"/>
+      <c r="BE542" s="26"/>
     </row>
     <row r="543">
       <c r="AL543" s="26"/>
@@ -27332,6 +28093,7 @@
       <c r="BB543" s="26"/>
       <c r="BC543" s="26"/>
       <c r="BD543" s="26"/>
+      <c r="BE543" s="26"/>
     </row>
     <row r="544">
       <c r="AL544" s="26"/>
@@ -27353,6 +28115,7 @@
       <c r="BB544" s="26"/>
       <c r="BC544" s="26"/>
       <c r="BD544" s="26"/>
+      <c r="BE544" s="26"/>
     </row>
     <row r="545">
       <c r="AL545" s="26"/>
@@ -27374,6 +28137,7 @@
       <c r="BB545" s="26"/>
       <c r="BC545" s="26"/>
       <c r="BD545" s="26"/>
+      <c r="BE545" s="26"/>
     </row>
     <row r="546">
       <c r="AL546" s="26"/>
@@ -27395,6 +28159,7 @@
       <c r="BB546" s="26"/>
       <c r="BC546" s="26"/>
       <c r="BD546" s="26"/>
+      <c r="BE546" s="26"/>
     </row>
     <row r="547">
       <c r="AL547" s="26"/>
@@ -27416,6 +28181,7 @@
       <c r="BB547" s="26"/>
       <c r="BC547" s="26"/>
       <c r="BD547" s="26"/>
+      <c r="BE547" s="26"/>
     </row>
     <row r="548">
       <c r="AL548" s="26"/>
@@ -27437,6 +28203,7 @@
       <c r="BB548" s="26"/>
       <c r="BC548" s="26"/>
       <c r="BD548" s="26"/>
+      <c r="BE548" s="26"/>
     </row>
     <row r="549">
       <c r="AL549" s="26"/>
@@ -27458,6 +28225,7 @@
       <c r="BB549" s="26"/>
       <c r="BC549" s="26"/>
       <c r="BD549" s="26"/>
+      <c r="BE549" s="26"/>
     </row>
     <row r="550">
       <c r="AL550" s="26"/>
@@ -27479,6 +28247,7 @@
       <c r="BB550" s="26"/>
       <c r="BC550" s="26"/>
       <c r="BD550" s="26"/>
+      <c r="BE550" s="26"/>
     </row>
     <row r="551">
       <c r="AL551" s="26"/>
@@ -27500,6 +28269,7 @@
       <c r="BB551" s="26"/>
       <c r="BC551" s="26"/>
       <c r="BD551" s="26"/>
+      <c r="BE551" s="26"/>
     </row>
     <row r="552">
       <c r="AL552" s="26"/>
@@ -27521,6 +28291,7 @@
       <c r="BB552" s="26"/>
       <c r="BC552" s="26"/>
       <c r="BD552" s="26"/>
+      <c r="BE552" s="26"/>
     </row>
     <row r="553">
       <c r="AL553" s="26"/>
@@ -27542,6 +28313,7 @@
       <c r="BB553" s="26"/>
       <c r="BC553" s="26"/>
       <c r="BD553" s="26"/>
+      <c r="BE553" s="26"/>
     </row>
     <row r="554">
       <c r="AL554" s="26"/>
@@ -27563,6 +28335,7 @@
       <c r="BB554" s="26"/>
       <c r="BC554" s="26"/>
       <c r="BD554" s="26"/>
+      <c r="BE554" s="26"/>
     </row>
     <row r="555">
       <c r="AL555" s="26"/>
@@ -27584,6 +28357,7 @@
       <c r="BB555" s="26"/>
       <c r="BC555" s="26"/>
       <c r="BD555" s="26"/>
+      <c r="BE555" s="26"/>
     </row>
     <row r="556">
       <c r="AL556" s="26"/>
@@ -27605,6 +28379,7 @@
       <c r="BB556" s="26"/>
       <c r="BC556" s="26"/>
       <c r="BD556" s="26"/>
+      <c r="BE556" s="26"/>
     </row>
     <row r="557">
       <c r="AL557" s="26"/>
@@ -27626,6 +28401,7 @@
       <c r="BB557" s="26"/>
       <c r="BC557" s="26"/>
       <c r="BD557" s="26"/>
+      <c r="BE557" s="26"/>
     </row>
     <row r="558">
       <c r="AL558" s="26"/>
@@ -27647,6 +28423,7 @@
       <c r="BB558" s="26"/>
       <c r="BC558" s="26"/>
       <c r="BD558" s="26"/>
+      <c r="BE558" s="26"/>
     </row>
     <row r="559">
       <c r="AL559" s="26"/>
@@ -27668,6 +28445,7 @@
       <c r="BB559" s="26"/>
       <c r="BC559" s="26"/>
       <c r="BD559" s="26"/>
+      <c r="BE559" s="26"/>
     </row>
     <row r="560">
       <c r="AL560" s="26"/>
@@ -27689,6 +28467,7 @@
       <c r="BB560" s="26"/>
       <c r="BC560" s="26"/>
       <c r="BD560" s="26"/>
+      <c r="BE560" s="26"/>
     </row>
     <row r="561">
       <c r="AL561" s="26"/>
@@ -27710,6 +28489,7 @@
       <c r="BB561" s="26"/>
       <c r="BC561" s="26"/>
       <c r="BD561" s="26"/>
+      <c r="BE561" s="26"/>
     </row>
     <row r="562">
       <c r="AL562" s="26"/>
@@ -27731,6 +28511,7 @@
       <c r="BB562" s="26"/>
       <c r="BC562" s="26"/>
       <c r="BD562" s="26"/>
+      <c r="BE562" s="26"/>
     </row>
     <row r="563">
       <c r="AL563" s="26"/>
@@ -27752,6 +28533,7 @@
       <c r="BB563" s="26"/>
       <c r="BC563" s="26"/>
       <c r="BD563" s="26"/>
+      <c r="BE563" s="26"/>
     </row>
     <row r="564">
       <c r="AL564" s="26"/>
@@ -27773,6 +28555,7 @@
       <c r="BB564" s="26"/>
       <c r="BC564" s="26"/>
       <c r="BD564" s="26"/>
+      <c r="BE564" s="26"/>
     </row>
     <row r="565">
       <c r="AL565" s="26"/>
@@ -27794,6 +28577,7 @@
       <c r="BB565" s="26"/>
       <c r="BC565" s="26"/>
       <c r="BD565" s="26"/>
+      <c r="BE565" s="26"/>
     </row>
     <row r="566">
       <c r="AL566" s="26"/>
@@ -27815,6 +28599,7 @@
       <c r="BB566" s="26"/>
       <c r="BC566" s="26"/>
       <c r="BD566" s="26"/>
+      <c r="BE566" s="26"/>
     </row>
     <row r="567">
       <c r="AL567" s="26"/>
@@ -27836,6 +28621,7 @@
       <c r="BB567" s="26"/>
       <c r="BC567" s="26"/>
       <c r="BD567" s="26"/>
+      <c r="BE567" s="26"/>
     </row>
     <row r="568">
       <c r="AL568" s="26"/>
@@ -27857,6 +28643,7 @@
       <c r="BB568" s="26"/>
       <c r="BC568" s="26"/>
       <c r="BD568" s="26"/>
+      <c r="BE568" s="26"/>
     </row>
     <row r="569">
       <c r="AL569" s="26"/>
@@ -27878,6 +28665,7 @@
       <c r="BB569" s="26"/>
       <c r="BC569" s="26"/>
       <c r="BD569" s="26"/>
+      <c r="BE569" s="26"/>
     </row>
     <row r="570">
       <c r="AL570" s="26"/>
@@ -27899,6 +28687,7 @@
       <c r="BB570" s="26"/>
       <c r="BC570" s="26"/>
       <c r="BD570" s="26"/>
+      <c r="BE570" s="26"/>
     </row>
     <row r="571">
       <c r="AL571" s="26"/>
@@ -27920,6 +28709,7 @@
       <c r="BB571" s="26"/>
       <c r="BC571" s="26"/>
       <c r="BD571" s="26"/>
+      <c r="BE571" s="26"/>
     </row>
     <row r="572">
       <c r="AL572" s="26"/>
@@ -27941,6 +28731,7 @@
       <c r="BB572" s="26"/>
       <c r="BC572" s="26"/>
       <c r="BD572" s="26"/>
+      <c r="BE572" s="26"/>
     </row>
     <row r="573">
       <c r="AL573" s="26"/>
@@ -27962,6 +28753,7 @@
       <c r="BB573" s="26"/>
       <c r="BC573" s="26"/>
       <c r="BD573" s="26"/>
+      <c r="BE573" s="26"/>
     </row>
     <row r="574">
       <c r="AL574" s="26"/>
@@ -27983,6 +28775,7 @@
       <c r="BB574" s="26"/>
       <c r="BC574" s="26"/>
       <c r="BD574" s="26"/>
+      <c r="BE574" s="26"/>
     </row>
     <row r="575">
       <c r="AL575" s="26"/>
@@ -28004,6 +28797,7 @@
       <c r="BB575" s="26"/>
       <c r="BC575" s="26"/>
       <c r="BD575" s="26"/>
+      <c r="BE575" s="26"/>
     </row>
     <row r="576">
       <c r="AL576" s="26"/>
@@ -28025,6 +28819,7 @@
       <c r="BB576" s="26"/>
       <c r="BC576" s="26"/>
       <c r="BD576" s="26"/>
+      <c r="BE576" s="26"/>
     </row>
     <row r="577">
       <c r="AL577" s="26"/>
@@ -28046,6 +28841,7 @@
       <c r="BB577" s="26"/>
       <c r="BC577" s="26"/>
       <c r="BD577" s="26"/>
+      <c r="BE577" s="26"/>
     </row>
     <row r="578">
       <c r="AL578" s="26"/>
@@ -28067,6 +28863,7 @@
       <c r="BB578" s="26"/>
       <c r="BC578" s="26"/>
       <c r="BD578" s="26"/>
+      <c r="BE578" s="26"/>
     </row>
     <row r="579">
       <c r="AL579" s="26"/>
@@ -28088,6 +28885,7 @@
       <c r="BB579" s="26"/>
       <c r="BC579" s="26"/>
       <c r="BD579" s="26"/>
+      <c r="BE579" s="26"/>
     </row>
     <row r="580">
       <c r="AL580" s="26"/>
@@ -28109,6 +28907,7 @@
       <c r="BB580" s="26"/>
       <c r="BC580" s="26"/>
       <c r="BD580" s="26"/>
+      <c r="BE580" s="26"/>
     </row>
     <row r="581">
       <c r="AL581" s="26"/>
@@ -28130,6 +28929,7 @@
       <c r="BB581" s="26"/>
       <c r="BC581" s="26"/>
       <c r="BD581" s="26"/>
+      <c r="BE581" s="26"/>
     </row>
     <row r="582">
       <c r="AL582" s="26"/>
@@ -28151,6 +28951,7 @@
       <c r="BB582" s="26"/>
       <c r="BC582" s="26"/>
       <c r="BD582" s="26"/>
+      <c r="BE582" s="26"/>
     </row>
     <row r="583">
       <c r="AL583" s="26"/>
@@ -28172,6 +28973,7 @@
       <c r="BB583" s="26"/>
       <c r="BC583" s="26"/>
       <c r="BD583" s="26"/>
+      <c r="BE583" s="26"/>
     </row>
     <row r="584">
       <c r="AL584" s="26"/>
@@ -28193,6 +28995,7 @@
       <c r="BB584" s="26"/>
       <c r="BC584" s="26"/>
       <c r="BD584" s="26"/>
+      <c r="BE584" s="26"/>
     </row>
     <row r="585">
       <c r="AL585" s="26"/>
@@ -28214,6 +29017,7 @@
       <c r="BB585" s="26"/>
       <c r="BC585" s="26"/>
       <c r="BD585" s="26"/>
+      <c r="BE585" s="26"/>
     </row>
     <row r="586">
       <c r="AL586" s="26"/>
@@ -28235,6 +29039,7 @@
       <c r="BB586" s="26"/>
       <c r="BC586" s="26"/>
       <c r="BD586" s="26"/>
+      <c r="BE586" s="26"/>
     </row>
     <row r="587">
       <c r="AL587" s="26"/>
@@ -28256,6 +29061,7 @@
       <c r="BB587" s="26"/>
       <c r="BC587" s="26"/>
       <c r="BD587" s="26"/>
+      <c r="BE587" s="26"/>
     </row>
     <row r="588">
       <c r="AL588" s="26"/>
@@ -28277,6 +29083,7 @@
       <c r="BB588" s="26"/>
       <c r="BC588" s="26"/>
       <c r="BD588" s="26"/>
+      <c r="BE588" s="26"/>
     </row>
     <row r="589">
       <c r="AL589" s="26"/>
@@ -28298,6 +29105,7 @@
       <c r="BB589" s="26"/>
       <c r="BC589" s="26"/>
       <c r="BD589" s="26"/>
+      <c r="BE589" s="26"/>
     </row>
     <row r="590">
       <c r="AL590" s="26"/>
@@ -28319,6 +29127,7 @@
       <c r="BB590" s="26"/>
       <c r="BC590" s="26"/>
       <c r="BD590" s="26"/>
+      <c r="BE590" s="26"/>
     </row>
     <row r="591">
       <c r="AL591" s="26"/>
@@ -28340,6 +29149,7 @@
       <c r="BB591" s="26"/>
       <c r="BC591" s="26"/>
       <c r="BD591" s="26"/>
+      <c r="BE591" s="26"/>
     </row>
     <row r="592">
       <c r="AL592" s="26"/>
@@ -28361,6 +29171,7 @@
       <c r="BB592" s="26"/>
       <c r="BC592" s="26"/>
       <c r="BD592" s="26"/>
+      <c r="BE592" s="26"/>
     </row>
     <row r="593">
       <c r="AL593" s="26"/>
@@ -28382,6 +29193,7 @@
       <c r="BB593" s="26"/>
       <c r="BC593" s="26"/>
       <c r="BD593" s="26"/>
+      <c r="BE593" s="26"/>
     </row>
     <row r="594">
       <c r="AL594" s="26"/>
@@ -28403,6 +29215,7 @@
       <c r="BB594" s="26"/>
       <c r="BC594" s="26"/>
       <c r="BD594" s="26"/>
+      <c r="BE594" s="26"/>
     </row>
     <row r="595">
       <c r="AL595" s="26"/>
@@ -28424,6 +29237,7 @@
       <c r="BB595" s="26"/>
       <c r="BC595" s="26"/>
       <c r="BD595" s="26"/>
+      <c r="BE595" s="26"/>
     </row>
     <row r="596">
       <c r="AL596" s="26"/>
@@ -28445,6 +29259,7 @@
       <c r="BB596" s="26"/>
       <c r="BC596" s="26"/>
       <c r="BD596" s="26"/>
+      <c r="BE596" s="26"/>
     </row>
     <row r="597">
       <c r="AL597" s="26"/>
@@ -28466,6 +29281,7 @@
       <c r="BB597" s="26"/>
       <c r="BC597" s="26"/>
       <c r="BD597" s="26"/>
+      <c r="BE597" s="26"/>
     </row>
     <row r="598">
       <c r="AL598" s="26"/>
@@ -28487,6 +29303,7 @@
       <c r="BB598" s="26"/>
       <c r="BC598" s="26"/>
       <c r="BD598" s="26"/>
+      <c r="BE598" s="26"/>
     </row>
     <row r="599">
       <c r="AL599" s="26"/>
@@ -28508,6 +29325,7 @@
       <c r="BB599" s="26"/>
       <c r="BC599" s="26"/>
       <c r="BD599" s="26"/>
+      <c r="BE599" s="26"/>
     </row>
     <row r="600">
       <c r="AL600" s="26"/>
@@ -28529,6 +29347,7 @@
       <c r="BB600" s="26"/>
       <c r="BC600" s="26"/>
       <c r="BD600" s="26"/>
+      <c r="BE600" s="26"/>
     </row>
     <row r="601">
       <c r="AL601" s="26"/>
@@ -28550,6 +29369,7 @@
       <c r="BB601" s="26"/>
       <c r="BC601" s="26"/>
       <c r="BD601" s="26"/>
+      <c r="BE601" s="26"/>
     </row>
     <row r="602">
       <c r="AL602" s="26"/>
@@ -28571,6 +29391,7 @@
       <c r="BB602" s="26"/>
       <c r="BC602" s="26"/>
       <c r="BD602" s="26"/>
+      <c r="BE602" s="26"/>
     </row>
     <row r="603">
       <c r="AL603" s="26"/>
@@ -28592,6 +29413,7 @@
       <c r="BB603" s="26"/>
       <c r="BC603" s="26"/>
       <c r="BD603" s="26"/>
+      <c r="BE603" s="26"/>
     </row>
     <row r="604">
       <c r="AL604" s="26"/>
@@ -28613,6 +29435,7 @@
       <c r="BB604" s="26"/>
       <c r="BC604" s="26"/>
       <c r="BD604" s="26"/>
+      <c r="BE604" s="26"/>
     </row>
     <row r="605">
       <c r="AL605" s="26"/>
@@ -28634,6 +29457,7 @@
       <c r="BB605" s="26"/>
       <c r="BC605" s="26"/>
       <c r="BD605" s="26"/>
+      <c r="BE605" s="26"/>
     </row>
     <row r="606">
       <c r="AL606" s="26"/>
@@ -28655,6 +29479,7 @@
       <c r="BB606" s="26"/>
       <c r="BC606" s="26"/>
       <c r="BD606" s="26"/>
+      <c r="BE606" s="26"/>
     </row>
     <row r="607">
       <c r="AL607" s="26"/>
@@ -28676,6 +29501,7 @@
       <c r="BB607" s="26"/>
       <c r="BC607" s="26"/>
       <c r="BD607" s="26"/>
+      <c r="BE607" s="26"/>
     </row>
     <row r="608">
       <c r="AL608" s="26"/>
@@ -28697,6 +29523,7 @@
       <c r="BB608" s="26"/>
       <c r="BC608" s="26"/>
       <c r="BD608" s="26"/>
+      <c r="BE608" s="26"/>
     </row>
     <row r="609">
       <c r="AL609" s="26"/>
@@ -28718,6 +29545,7 @@
       <c r="BB609" s="26"/>
       <c r="BC609" s="26"/>
       <c r="BD609" s="26"/>
+      <c r="BE609" s="26"/>
     </row>
     <row r="610">
       <c r="AL610" s="26"/>
@@ -28739,6 +29567,7 @@
       <c r="BB610" s="26"/>
       <c r="BC610" s="26"/>
       <c r="BD610" s="26"/>
+      <c r="BE610" s="26"/>
     </row>
     <row r="611">
       <c r="AL611" s="26"/>
@@ -28760,6 +29589,7 @@
       <c r="BB611" s="26"/>
       <c r="BC611" s="26"/>
       <c r="BD611" s="26"/>
+      <c r="BE611" s="26"/>
     </row>
     <row r="612">
       <c r="AL612" s="26"/>
@@ -28781,6 +29611,7 @@
       <c r="BB612" s="26"/>
       <c r="BC612" s="26"/>
       <c r="BD612" s="26"/>
+      <c r="BE612" s="26"/>
     </row>
     <row r="613">
       <c r="AL613" s="26"/>
@@ -28802,6 +29633,7 @@
       <c r="BB613" s="26"/>
       <c r="BC613" s="26"/>
       <c r="BD613" s="26"/>
+      <c r="BE613" s="26"/>
     </row>
     <row r="614">
       <c r="AL614" s="26"/>
@@ -28823,6 +29655,7 @@
       <c r="BB614" s="26"/>
       <c r="BC614" s="26"/>
       <c r="BD614" s="26"/>
+      <c r="BE614" s="26"/>
     </row>
     <row r="615">
       <c r="AL615" s="26"/>
@@ -28844,6 +29677,7 @@
       <c r="BB615" s="26"/>
       <c r="BC615" s="26"/>
       <c r="BD615" s="26"/>
+      <c r="BE615" s="26"/>
     </row>
     <row r="616">
       <c r="AL616" s="26"/>
@@ -28865,6 +29699,7 @@
       <c r="BB616" s="26"/>
       <c r="BC616" s="26"/>
       <c r="BD616" s="26"/>
+      <c r="BE616" s="26"/>
     </row>
     <row r="617">
       <c r="AL617" s="26"/>
@@ -28886,6 +29721,7 @@
       <c r="BB617" s="26"/>
       <c r="BC617" s="26"/>
       <c r="BD617" s="26"/>
+      <c r="BE617" s="26"/>
     </row>
     <row r="618">
       <c r="AL618" s="26"/>
@@ -28907,6 +29743,7 @@
       <c r="BB618" s="26"/>
       <c r="BC618" s="26"/>
       <c r="BD618" s="26"/>
+      <c r="BE618" s="26"/>
     </row>
     <row r="619">
       <c r="AL619" s="26"/>
@@ -28928,6 +29765,7 @@
       <c r="BB619" s="26"/>
       <c r="BC619" s="26"/>
       <c r="BD619" s="26"/>
+      <c r="BE619" s="26"/>
     </row>
     <row r="620">
       <c r="AL620" s="26"/>
@@ -28949,6 +29787,7 @@
       <c r="BB620" s="26"/>
       <c r="BC620" s="26"/>
       <c r="BD620" s="26"/>
+      <c r="BE620" s="26"/>
     </row>
     <row r="621">
       <c r="AL621" s="26"/>
@@ -28970,6 +29809,7 @@
       <c r="BB621" s="26"/>
       <c r="BC621" s="26"/>
       <c r="BD621" s="26"/>
+      <c r="BE621" s="26"/>
     </row>
     <row r="622">
       <c r="AL622" s="26"/>
@@ -28991,6 +29831,7 @@
       <c r="BB622" s="26"/>
       <c r="BC622" s="26"/>
       <c r="BD622" s="26"/>
+      <c r="BE622" s="26"/>
     </row>
     <row r="623">
       <c r="AL623" s="26"/>
@@ -29012,6 +29853,7 @@
       <c r="BB623" s="26"/>
       <c r="BC623" s="26"/>
       <c r="BD623" s="26"/>
+      <c r="BE623" s="26"/>
     </row>
     <row r="624">
       <c r="AL624" s="26"/>
@@ -29033,6 +29875,7 @@
       <c r="BB624" s="26"/>
       <c r="BC624" s="26"/>
       <c r="BD624" s="26"/>
+      <c r="BE624" s="26"/>
     </row>
     <row r="625">
       <c r="AL625" s="26"/>
@@ -29054,6 +29897,7 @@
       <c r="BB625" s="26"/>
       <c r="BC625" s="26"/>
       <c r="BD625" s="26"/>
+      <c r="BE625" s="26"/>
     </row>
     <row r="626">
       <c r="AL626" s="26"/>
@@ -29075,6 +29919,7 @@
       <c r="BB626" s="26"/>
       <c r="BC626" s="26"/>
       <c r="BD626" s="26"/>
+      <c r="BE626" s="26"/>
     </row>
     <row r="627">
       <c r="AL627" s="26"/>
@@ -29096,6 +29941,7 @@
       <c r="BB627" s="26"/>
       <c r="BC627" s="26"/>
       <c r="BD627" s="26"/>
+      <c r="BE627" s="26"/>
     </row>
     <row r="628">
       <c r="AL628" s="26"/>
@@ -29117,6 +29963,7 @@
       <c r="BB628" s="26"/>
       <c r="BC628" s="26"/>
       <c r="BD628" s="26"/>
+      <c r="BE628" s="26"/>
     </row>
     <row r="629">
       <c r="AL629" s="26"/>
@@ -29138,6 +29985,7 @@
       <c r="BB629" s="26"/>
       <c r="BC629" s="26"/>
       <c r="BD629" s="26"/>
+      <c r="BE629" s="26"/>
     </row>
     <row r="630">
       <c r="AL630" s="26"/>
@@ -29159,6 +30007,7 @@
       <c r="BB630" s="26"/>
       <c r="BC630" s="26"/>
       <c r="BD630" s="26"/>
+      <c r="BE630" s="26"/>
     </row>
     <row r="631">
       <c r="AL631" s="26"/>
@@ -29180,6 +30029,7 @@
       <c r="BB631" s="26"/>
       <c r="BC631" s="26"/>
       <c r="BD631" s="26"/>
+      <c r="BE631" s="26"/>
     </row>
     <row r="632">
       <c r="AL632" s="26"/>
@@ -29201,6 +30051,7 @@
       <c r="BB632" s="26"/>
       <c r="BC632" s="26"/>
       <c r="BD632" s="26"/>
+      <c r="BE632" s="26"/>
     </row>
     <row r="633">
       <c r="AL633" s="26"/>
@@ -29222,6 +30073,7 @@
       <c r="BB633" s="26"/>
       <c r="BC633" s="26"/>
       <c r="BD633" s="26"/>
+      <c r="BE633" s="26"/>
     </row>
     <row r="634">
       <c r="AL634" s="26"/>
@@ -29243,6 +30095,7 @@
       <c r="BB634" s="26"/>
       <c r="BC634" s="26"/>
       <c r="BD634" s="26"/>
+      <c r="BE634" s="26"/>
     </row>
     <row r="635">
       <c r="AL635" s="26"/>
@@ -29264,6 +30117,7 @@
       <c r="BB635" s="26"/>
       <c r="BC635" s="26"/>
       <c r="BD635" s="26"/>
+      <c r="BE635" s="26"/>
     </row>
     <row r="636">
       <c r="AL636" s="26"/>
@@ -29285,6 +30139,7 @@
       <c r="BB636" s="26"/>
       <c r="BC636" s="26"/>
       <c r="BD636" s="26"/>
+      <c r="BE636" s="26"/>
     </row>
     <row r="637">
       <c r="AL637" s="26"/>
@@ -29306,6 +30161,7 @@
       <c r="BB637" s="26"/>
       <c r="BC637" s="26"/>
       <c r="BD637" s="26"/>
+      <c r="BE637" s="26"/>
     </row>
     <row r="638">
       <c r="AL638" s="26"/>
@@ -29327,6 +30183,7 @@
       <c r="BB638" s="26"/>
       <c r="BC638" s="26"/>
       <c r="BD638" s="26"/>
+      <c r="BE638" s="26"/>
     </row>
     <row r="639">
       <c r="AL639" s="26"/>
@@ -29348,6 +30205,7 @@
       <c r="BB639" s="26"/>
       <c r="BC639" s="26"/>
       <c r="BD639" s="26"/>
+      <c r="BE639" s="26"/>
     </row>
     <row r="640">
       <c r="AL640" s="26"/>
@@ -29369,6 +30227,7 @@
       <c r="BB640" s="26"/>
       <c r="BC640" s="26"/>
       <c r="BD640" s="26"/>
+      <c r="BE640" s="26"/>
     </row>
     <row r="641">
       <c r="AL641" s="26"/>
@@ -29390,6 +30249,7 @@
       <c r="BB641" s="26"/>
       <c r="BC641" s="26"/>
       <c r="BD641" s="26"/>
+      <c r="BE641" s="26"/>
     </row>
     <row r="642">
       <c r="AL642" s="26"/>
@@ -29411,6 +30271,7 @@
       <c r="BB642" s="26"/>
       <c r="BC642" s="26"/>
       <c r="BD642" s="26"/>
+      <c r="BE642" s="26"/>
     </row>
     <row r="643">
       <c r="AL643" s="26"/>
@@ -29432,6 +30293,7 @@
       <c r="BB643" s="26"/>
       <c r="BC643" s="26"/>
       <c r="BD643" s="26"/>
+      <c r="BE643" s="26"/>
     </row>
     <row r="644">
       <c r="AL644" s="26"/>
@@ -29453,6 +30315,7 @@
       <c r="BB644" s="26"/>
       <c r="BC644" s="26"/>
       <c r="BD644" s="26"/>
+      <c r="BE644" s="26"/>
     </row>
     <row r="645">
       <c r="AL645" s="26"/>
@@ -29474,6 +30337,7 @@
       <c r="BB645" s="26"/>
       <c r="BC645" s="26"/>
       <c r="BD645" s="26"/>
+      <c r="BE645" s="26"/>
     </row>
     <row r="646">
       <c r="AL646" s="26"/>
@@ -29495,6 +30359,7 @@
       <c r="BB646" s="26"/>
       <c r="BC646" s="26"/>
       <c r="BD646" s="26"/>
+      <c r="BE646" s="26"/>
     </row>
     <row r="647">
       <c r="AL647" s="26"/>
@@ -29516,6 +30381,7 @@
       <c r="BB647" s="26"/>
       <c r="BC647" s="26"/>
       <c r="BD647" s="26"/>
+      <c r="BE647" s="26"/>
     </row>
     <row r="648">
       <c r="AL648" s="26"/>
@@ -29537,6 +30403,7 @@
       <c r="BB648" s="26"/>
       <c r="BC648" s="26"/>
       <c r="BD648" s="26"/>
+      <c r="BE648" s="26"/>
     </row>
     <row r="649">
       <c r="AL649" s="26"/>
@@ -29558,6 +30425,7 @@
       <c r="BB649" s="26"/>
       <c r="BC649" s="26"/>
       <c r="BD649" s="26"/>
+      <c r="BE649" s="26"/>
     </row>
     <row r="650">
       <c r="AL650" s="26"/>
@@ -29579,6 +30447,7 @@
       <c r="BB650" s="26"/>
       <c r="BC650" s="26"/>
       <c r="BD650" s="26"/>
+      <c r="BE650" s="26"/>
     </row>
     <row r="651">
       <c r="AL651" s="26"/>
@@ -29600,6 +30469,7 @@
       <c r="BB651" s="26"/>
       <c r="BC651" s="26"/>
       <c r="BD651" s="26"/>
+      <c r="BE651" s="26"/>
     </row>
     <row r="652">
       <c r="AL652" s="26"/>
@@ -29621,6 +30491,7 @@
       <c r="BB652" s="26"/>
       <c r="BC652" s="26"/>
       <c r="BD652" s="26"/>
+      <c r="BE652" s="26"/>
     </row>
     <row r="653">
       <c r="AL653" s="26"/>
@@ -29642,6 +30513,7 @@
       <c r="BB653" s="26"/>
       <c r="BC653" s="26"/>
       <c r="BD653" s="26"/>
+      <c r="BE653" s="26"/>
     </row>
     <row r="654">
       <c r="AL654" s="26"/>
@@ -29663,6 +30535,7 @@
       <c r="BB654" s="26"/>
       <c r="BC654" s="26"/>
       <c r="BD654" s="26"/>
+      <c r="BE654" s="26"/>
     </row>
     <row r="655">
       <c r="AL655" s="26"/>
@@ -29684,6 +30557,7 @@
       <c r="BB655" s="26"/>
       <c r="BC655" s="26"/>
       <c r="BD655" s="26"/>
+      <c r="BE655" s="26"/>
     </row>
     <row r="656">
       <c r="AL656" s="26"/>
@@ -29705,6 +30579,7 @@
       <c r="BB656" s="26"/>
       <c r="BC656" s="26"/>
       <c r="BD656" s="26"/>
+      <c r="BE656" s="26"/>
     </row>
     <row r="657">
       <c r="AL657" s="26"/>
@@ -29726,6 +30601,7 @@
       <c r="BB657" s="26"/>
       <c r="BC657" s="26"/>
       <c r="BD657" s="26"/>
+      <c r="BE657" s="26"/>
     </row>
     <row r="658">
       <c r="AL658" s="26"/>
@@ -29747,6 +30623,7 @@
       <c r="BB658" s="26"/>
       <c r="BC658" s="26"/>
       <c r="BD658" s="26"/>
+      <c r="BE658" s="26"/>
     </row>
     <row r="659">
       <c r="AL659" s="26"/>
@@ -29768,6 +30645,7 @@
       <c r="BB659" s="26"/>
       <c r="BC659" s="26"/>
       <c r="BD659" s="26"/>
+      <c r="BE659" s="26"/>
     </row>
     <row r="660">
       <c r="AL660" s="26"/>
@@ -29789,6 +30667,7 @@
       <c r="BB660" s="26"/>
       <c r="BC660" s="26"/>
       <c r="BD660" s="26"/>
+      <c r="BE660" s="26"/>
     </row>
     <row r="661">
       <c r="AL661" s="26"/>
@@ -29810,6 +30689,7 @@
       <c r="BB661" s="26"/>
       <c r="BC661" s="26"/>
       <c r="BD661" s="26"/>
+      <c r="BE661" s="26"/>
     </row>
     <row r="662">
       <c r="AL662" s="26"/>
@@ -29831,6 +30711,7 @@
       <c r="BB662" s="26"/>
       <c r="BC662" s="26"/>
       <c r="BD662" s="26"/>
+      <c r="BE662" s="26"/>
     </row>
     <row r="663">
       <c r="AL663" s="26"/>
@@ -29852,6 +30733,7 @@
       <c r="BB663" s="26"/>
       <c r="BC663" s="26"/>
       <c r="BD663" s="26"/>
+      <c r="BE663" s="26"/>
     </row>
     <row r="664">
       <c r="AL664" s="26"/>
@@ -29873,6 +30755,7 @@
       <c r="BB664" s="26"/>
       <c r="BC664" s="26"/>
       <c r="BD664" s="26"/>
+      <c r="BE664" s="26"/>
     </row>
     <row r="665">
       <c r="AL665" s="26"/>
@@ -29894,6 +30777,7 @@
       <c r="BB665" s="26"/>
       <c r="BC665" s="26"/>
       <c r="BD665" s="26"/>
+      <c r="BE665" s="26"/>
     </row>
     <row r="666">
       <c r="AL666" s="26"/>
@@ -29915,6 +30799,7 @@
       <c r="BB666" s="26"/>
       <c r="BC666" s="26"/>
       <c r="BD666" s="26"/>
+      <c r="BE666" s="26"/>
     </row>
     <row r="667">
       <c r="AL667" s="26"/>
@@ -29936,6 +30821,7 @@
       <c r="BB667" s="26"/>
       <c r="BC667" s="26"/>
       <c r="BD667" s="26"/>
+      <c r="BE667" s="26"/>
     </row>
     <row r="668">
       <c r="AL668" s="26"/>
@@ -29957,6 +30843,7 @@
       <c r="BB668" s="26"/>
       <c r="BC668" s="26"/>
       <c r="BD668" s="26"/>
+      <c r="BE668" s="26"/>
     </row>
     <row r="669">
       <c r="AL669" s="26"/>
@@ -29978,6 +30865,7 @@
       <c r="BB669" s="26"/>
       <c r="BC669" s="26"/>
       <c r="BD669" s="26"/>
+      <c r="BE669" s="26"/>
     </row>
     <row r="670">
       <c r="AL670" s="26"/>
@@ -29999,6 +30887,7 @@
       <c r="BB670" s="26"/>
       <c r="BC670" s="26"/>
       <c r="BD670" s="26"/>
+      <c r="BE670" s="26"/>
     </row>
     <row r="671">
       <c r="AL671" s="26"/>
@@ -30020,6 +30909,7 @@
       <c r="BB671" s="26"/>
       <c r="BC671" s="26"/>
       <c r="BD671" s="26"/>
+      <c r="BE671" s="26"/>
     </row>
     <row r="672">
       <c r="AL672" s="26"/>
@@ -30041,6 +30931,7 @@
       <c r="BB672" s="26"/>
       <c r="BC672" s="26"/>
       <c r="BD672" s="26"/>
+      <c r="BE672" s="26"/>
     </row>
     <row r="673">
       <c r="AL673" s="26"/>
@@ -30062,6 +30953,7 @@
       <c r="BB673" s="26"/>
       <c r="BC673" s="26"/>
       <c r="BD673" s="26"/>
+      <c r="BE673" s="26"/>
     </row>
     <row r="674">
       <c r="AL674" s="26"/>
@@ -30083,6 +30975,7 @@
       <c r="BB674" s="26"/>
       <c r="BC674" s="26"/>
       <c r="BD674" s="26"/>
+      <c r="BE674" s="26"/>
     </row>
     <row r="675">
       <c r="AL675" s="26"/>
@@ -30104,6 +30997,7 @@
       <c r="BB675" s="26"/>
       <c r="BC675" s="26"/>
       <c r="BD675" s="26"/>
+      <c r="BE675" s="26"/>
     </row>
     <row r="676">
       <c r="AL676" s="26"/>
@@ -30125,6 +31019,7 @@
       <c r="BB676" s="26"/>
       <c r="BC676" s="26"/>
       <c r="BD676" s="26"/>
+      <c r="BE676" s="26"/>
     </row>
     <row r="677">
       <c r="AL677" s="26"/>
@@ -30146,6 +31041,7 @@
       <c r="BB677" s="26"/>
       <c r="BC677" s="26"/>
       <c r="BD677" s="26"/>
+      <c r="BE677" s="26"/>
     </row>
     <row r="678">
       <c r="AL678" s="26"/>
@@ -30167,6 +31063,7 @@
       <c r="BB678" s="26"/>
       <c r="BC678" s="26"/>
       <c r="BD678" s="26"/>
+      <c r="BE678" s="26"/>
     </row>
     <row r="679">
       <c r="AL679" s="26"/>
@@ -30188,6 +31085,7 @@
       <c r="BB679" s="26"/>
       <c r="BC679" s="26"/>
       <c r="BD679" s="26"/>
+      <c r="BE679" s="26"/>
     </row>
     <row r="680">
       <c r="AL680" s="26"/>
@@ -30209,6 +31107,7 @@
       <c r="BB680" s="26"/>
       <c r="BC680" s="26"/>
       <c r="BD680" s="26"/>
+      <c r="BE680" s="26"/>
     </row>
     <row r="681">
       <c r="AL681" s="26"/>
@@ -30230,6 +31129,7 @@
       <c r="BB681" s="26"/>
       <c r="BC681" s="26"/>
       <c r="BD681" s="26"/>
+      <c r="BE681" s="26"/>
     </row>
     <row r="682">
       <c r="AL682" s="26"/>
@@ -30251,6 +31151,7 @@
       <c r="BB682" s="26"/>
       <c r="BC682" s="26"/>
       <c r="BD682" s="26"/>
+      <c r="BE682" s="26"/>
     </row>
     <row r="683">
       <c r="AL683" s="26"/>
@@ -30272,6 +31173,7 @@
       <c r="BB683" s="26"/>
       <c r="BC683" s="26"/>
       <c r="BD683" s="26"/>
+      <c r="BE683" s="26"/>
     </row>
     <row r="684">
       <c r="AL684" s="26"/>
@@ -30293,6 +31195,7 @@
       <c r="BB684" s="26"/>
       <c r="BC684" s="26"/>
       <c r="BD684" s="26"/>
+      <c r="BE684" s="26"/>
     </row>
     <row r="685">
       <c r="AL685" s="26"/>
@@ -30314,6 +31217,7 @@
       <c r="BB685" s="26"/>
       <c r="BC685" s="26"/>
       <c r="BD685" s="26"/>
+      <c r="BE685" s="26"/>
     </row>
     <row r="686">
       <c r="AL686" s="26"/>
@@ -30335,6 +31239,7 @@
       <c r="BB686" s="26"/>
       <c r="BC686" s="26"/>
       <c r="BD686" s="26"/>
+      <c r="BE686" s="26"/>
     </row>
     <row r="687">
       <c r="AL687" s="26"/>
@@ -30356,6 +31261,7 @@
       <c r="BB687" s="26"/>
       <c r="BC687" s="26"/>
       <c r="BD687" s="26"/>
+      <c r="BE687" s="26"/>
     </row>
     <row r="688">
       <c r="AL688" s="26"/>
@@ -30377,6 +31283,7 @@
       <c r="BB688" s="26"/>
       <c r="BC688" s="26"/>
       <c r="BD688" s="26"/>
+      <c r="BE688" s="26"/>
     </row>
     <row r="689">
       <c r="AL689" s="26"/>
@@ -30398,6 +31305,7 @@
       <c r="BB689" s="26"/>
       <c r="BC689" s="26"/>
       <c r="BD689" s="26"/>
+      <c r="BE689" s="26"/>
     </row>
     <row r="690">
       <c r="AL690" s="26"/>
@@ -30419,6 +31327,7 @@
       <c r="BB690" s="26"/>
       <c r="BC690" s="26"/>
       <c r="BD690" s="26"/>
+      <c r="BE690" s="26"/>
     </row>
     <row r="691">
       <c r="AL691" s="26"/>
@@ -30440,6 +31349,7 @@
       <c r="BB691" s="26"/>
       <c r="BC691" s="26"/>
       <c r="BD691" s="26"/>
+      <c r="BE691" s="26"/>
     </row>
     <row r="692">
       <c r="AL692" s="26"/>
@@ -30461,6 +31371,7 @@
       <c r="BB692" s="26"/>
       <c r="BC692" s="26"/>
       <c r="BD692" s="26"/>
+      <c r="BE692" s="26"/>
     </row>
     <row r="693">
       <c r="AL693" s="26"/>
@@ -30482,6 +31393,7 @@
       <c r="BB693" s="26"/>
       <c r="BC693" s="26"/>
       <c r="BD693" s="26"/>
+      <c r="BE693" s="26"/>
     </row>
     <row r="694">
       <c r="AL694" s="26"/>
@@ -30503,6 +31415,7 @@
       <c r="BB694" s="26"/>
       <c r="BC694" s="26"/>
       <c r="BD694" s="26"/>
+      <c r="BE694" s="26"/>
     </row>
     <row r="695">
       <c r="AL695" s="26"/>
@@ -30524,6 +31437,7 @@
       <c r="BB695" s="26"/>
       <c r="BC695" s="26"/>
       <c r="BD695" s="26"/>
+      <c r="BE695" s="26"/>
     </row>
     <row r="696">
       <c r="AL696" s="26"/>
@@ -30545,6 +31459,7 @@
       <c r="BB696" s="26"/>
       <c r="BC696" s="26"/>
       <c r="BD696" s="26"/>
+      <c r="BE696" s="26"/>
     </row>
     <row r="697">
       <c r="AL697" s="26"/>
@@ -30566,6 +31481,7 @@
       <c r="BB697" s="26"/>
       <c r="BC697" s="26"/>
       <c r="BD697" s="26"/>
+      <c r="BE697" s="26"/>
     </row>
     <row r="698">
       <c r="AL698" s="26"/>
@@ -30587,6 +31503,7 @@
       <c r="BB698" s="26"/>
       <c r="BC698" s="26"/>
       <c r="BD698" s="26"/>
+      <c r="BE698" s="26"/>
     </row>
     <row r="699">
       <c r="AL699" s="26"/>
@@ -30608,6 +31525,7 @@
       <c r="BB699" s="26"/>
       <c r="BC699" s="26"/>
       <c r="BD699" s="26"/>
+      <c r="BE699" s="26"/>
     </row>
     <row r="700">
       <c r="AL700" s="26"/>
@@ -30629,6 +31547,7 @@
       <c r="BB700" s="26"/>
       <c r="BC700" s="26"/>
       <c r="BD700" s="26"/>
+      <c r="BE700" s="26"/>
     </row>
     <row r="701">
       <c r="AL701" s="26"/>
@@ -30650,6 +31569,7 @@
       <c r="BB701" s="26"/>
       <c r="BC701" s="26"/>
       <c r="BD701" s="26"/>
+      <c r="BE701" s="26"/>
     </row>
     <row r="702">
       <c r="AL702" s="26"/>
@@ -30671,6 +31591,7 @@
       <c r="BB702" s="26"/>
       <c r="BC702" s="26"/>
       <c r="BD702" s="26"/>
+      <c r="BE702" s="26"/>
     </row>
     <row r="703">
       <c r="AL703" s="26"/>
@@ -30692,6 +31613,7 @@
       <c r="BB703" s="26"/>
       <c r="BC703" s="26"/>
       <c r="BD703" s="26"/>
+      <c r="BE703" s="26"/>
     </row>
     <row r="704">
       <c r="AL704" s="26"/>
@@ -30713,6 +31635,7 @@
       <c r="BB704" s="26"/>
       <c r="BC704" s="26"/>
       <c r="BD704" s="26"/>
+      <c r="BE704" s="26"/>
     </row>
     <row r="705">
       <c r="AL705" s="26"/>
@@ -30734,6 +31657,7 @@
       <c r="BB705" s="26"/>
       <c r="BC705" s="26"/>
       <c r="BD705" s="26"/>
+      <c r="BE705" s="26"/>
     </row>
     <row r="706">
       <c r="AL706" s="26"/>
@@ -30755,6 +31679,7 @@
       <c r="BB706" s="26"/>
       <c r="BC706" s="26"/>
       <c r="BD706" s="26"/>
+      <c r="BE706" s="26"/>
     </row>
     <row r="707">
       <c r="AL707" s="26"/>
@@ -30776,6 +31701,7 @@
       <c r="BB707" s="26"/>
       <c r="BC707" s="26"/>
       <c r="BD707" s="26"/>
+      <c r="BE707" s="26"/>
     </row>
     <row r="708">
       <c r="AL708" s="26"/>
@@ -30797,6 +31723,7 @@
       <c r="BB708" s="26"/>
       <c r="BC708" s="26"/>
       <c r="BD708" s="26"/>
+      <c r="BE708" s="26"/>
     </row>
     <row r="709">
       <c r="AL709" s="26"/>
@@ -30818,6 +31745,7 @@
       <c r="BB709" s="26"/>
       <c r="BC709" s="26"/>
       <c r="BD709" s="26"/>
+      <c r="BE709" s="26"/>
     </row>
     <row r="710">
       <c r="AL710" s="26"/>
@@ -30839,6 +31767,7 @@
       <c r="BB710" s="26"/>
       <c r="BC710" s="26"/>
       <c r="BD710" s="26"/>
+      <c r="BE710" s="26"/>
     </row>
     <row r="711">
       <c r="AL711" s="26"/>
@@ -30860,6 +31789,7 @@
       <c r="BB711" s="26"/>
       <c r="BC711" s="26"/>
       <c r="BD711" s="26"/>
+      <c r="BE711" s="26"/>
     </row>
     <row r="712">
       <c r="AL712" s="26"/>
@@ -30881,6 +31811,7 @@
       <c r="BB712" s="26"/>
       <c r="BC712" s="26"/>
       <c r="BD712" s="26"/>
+      <c r="BE712" s="26"/>
     </row>
     <row r="713">
       <c r="AL713" s="26"/>
@@ -30902,6 +31833,7 @@
       <c r="BB713" s="26"/>
       <c r="BC713" s="26"/>
       <c r="BD713" s="26"/>
+      <c r="BE713" s="26"/>
     </row>
     <row r="714">
       <c r="AL714" s="26"/>
@@ -30923,6 +31855,7 @@
       <c r="BB714" s="26"/>
       <c r="BC714" s="26"/>
       <c r="BD714" s="26"/>
+      <c r="BE714" s="26"/>
     </row>
     <row r="715">
       <c r="AL715" s="26"/>
@@ -30944,6 +31877,7 @@
       <c r="BB715" s="26"/>
       <c r="BC715" s="26"/>
       <c r="BD715" s="26"/>
+      <c r="BE715" s="26"/>
     </row>
     <row r="716">
       <c r="AL716" s="26"/>
@@ -30965,6 +31899,7 @@
       <c r="BB716" s="26"/>
       <c r="BC716" s="26"/>
       <c r="BD716" s="26"/>
+      <c r="BE716" s="26"/>
     </row>
     <row r="717">
       <c r="AL717" s="26"/>
@@ -30986,6 +31921,7 @@
       <c r="BB717" s="26"/>
       <c r="BC717" s="26"/>
       <c r="BD717" s="26"/>
+      <c r="BE717" s="26"/>
     </row>
     <row r="718">
       <c r="AL718" s="26"/>
@@ -31007,6 +31943,7 @@
       <c r="BB718" s="26"/>
       <c r="BC718" s="26"/>
       <c r="BD718" s="26"/>
+      <c r="BE718" s="26"/>
     </row>
     <row r="719">
       <c r="AL719" s="26"/>
@@ -31028,6 +31965,7 @@
       <c r="BB719" s="26"/>
       <c r="BC719" s="26"/>
       <c r="BD719" s="26"/>
+      <c r="BE719" s="26"/>
     </row>
     <row r="720">
       <c r="AL720" s="26"/>
@@ -31049,6 +31987,7 @@
       <c r="BB720" s="26"/>
       <c r="BC720" s="26"/>
       <c r="BD720" s="26"/>
+      <c r="BE720" s="26"/>
     </row>
     <row r="721">
       <c r="AL721" s="26"/>
@@ -31070,6 +32009,7 @@
       <c r="BB721" s="26"/>
       <c r="BC721" s="26"/>
       <c r="BD721" s="26"/>
+      <c r="BE721" s="26"/>
     </row>
     <row r="722">
       <c r="AL722" s="26"/>
@@ -31091,6 +32031,7 @@
       <c r="BB722" s="26"/>
       <c r="BC722" s="26"/>
       <c r="BD722" s="26"/>
+      <c r="BE722" s="26"/>
     </row>
     <row r="723">
       <c r="AL723" s="26"/>
@@ -31112,6 +32053,7 @@
       <c r="BB723" s="26"/>
       <c r="BC723" s="26"/>
       <c r="BD723" s="26"/>
+      <c r="BE723" s="26"/>
     </row>
     <row r="724">
       <c r="AL724" s="26"/>
@@ -31133,6 +32075,7 @@
       <c r="BB724" s="26"/>
       <c r="BC724" s="26"/>
       <c r="BD724" s="26"/>
+      <c r="BE724" s="26"/>
     </row>
     <row r="725">
       <c r="AL725" s="26"/>
@@ -31154,6 +32097,7 @@
       <c r="BB725" s="26"/>
       <c r="BC725" s="26"/>
       <c r="BD725" s="26"/>
+      <c r="BE725" s="26"/>
     </row>
     <row r="726">
       <c r="AL726" s="26"/>
@@ -31175,6 +32119,7 @@
       <c r="BB726" s="26"/>
       <c r="BC726" s="26"/>
       <c r="BD726" s="26"/>
+      <c r="BE726" s="26"/>
     </row>
     <row r="727">
       <c r="AL727" s="26"/>
@@ -31196,6 +32141,7 @@
       <c r="BB727" s="26"/>
       <c r="BC727" s="26"/>
       <c r="BD727" s="26"/>
+      <c r="BE727" s="26"/>
     </row>
     <row r="728">
       <c r="AL728" s="26"/>
@@ -31217,6 +32163,7 @@
       <c r="BB728" s="26"/>
       <c r="BC728" s="26"/>
       <c r="BD728" s="26"/>
+      <c r="BE728" s="26"/>
     </row>
     <row r="729">
       <c r="AL729" s="26"/>
@@ -31238,6 +32185,7 @@
       <c r="BB729" s="26"/>
       <c r="BC729" s="26"/>
       <c r="BD729" s="26"/>
+      <c r="BE729" s="26"/>
     </row>
     <row r="730">
       <c r="AL730" s="26"/>
@@ -31259,6 +32207,7 @@
       <c r="BB730" s="26"/>
       <c r="BC730" s="26"/>
       <c r="BD730" s="26"/>
+      <c r="BE730" s="26"/>
     </row>
     <row r="731">
       <c r="AL731" s="26"/>
@@ -31280,6 +32229,7 @@
       <c r="BB731" s="26"/>
       <c r="BC731" s="26"/>
       <c r="BD731" s="26"/>
+      <c r="BE731" s="26"/>
     </row>
     <row r="732">
       <c r="AL732" s="26"/>
@@ -31301,6 +32251,7 @@
       <c r="BB732" s="26"/>
       <c r="BC732" s="26"/>
       <c r="BD732" s="26"/>
+      <c r="BE732" s="26"/>
     </row>
     <row r="733">
       <c r="AL733" s="26"/>
@@ -31322,6 +32273,7 @@
       <c r="BB733" s="26"/>
       <c r="BC733" s="26"/>
       <c r="BD733" s="26"/>
+      <c r="BE733" s="26"/>
     </row>
     <row r="734">
       <c r="AL734" s="26"/>
@@ -31343,6 +32295,7 @@
       <c r="BB734" s="26"/>
       <c r="BC734" s="26"/>
       <c r="BD734" s="26"/>
+      <c r="BE734" s="26"/>
     </row>
     <row r="735">
       <c r="AL735" s="26"/>
@@ -31364,6 +32317,7 @@
       <c r="BB735" s="26"/>
       <c r="BC735" s="26"/>
       <c r="BD735" s="26"/>
+      <c r="BE735" s="26"/>
     </row>
     <row r="736">
       <c r="AL736" s="26"/>
@@ -31385,6 +32339,7 @@
       <c r="BB736" s="26"/>
       <c r="BC736" s="26"/>
       <c r="BD736" s="26"/>
+      <c r="BE736" s="26"/>
     </row>
     <row r="737">
       <c r="AL737" s="26"/>
@@ -31406,6 +32361,7 @@
       <c r="BB737" s="26"/>
       <c r="BC737" s="26"/>
       <c r="BD737" s="26"/>
+      <c r="BE737" s="26"/>
     </row>
     <row r="738">
       <c r="AL738" s="26"/>
@@ -31427,6 +32383,7 @@
       <c r="BB738" s="26"/>
       <c r="BC738" s="26"/>
       <c r="BD738" s="26"/>
+      <c r="BE738" s="26"/>
     </row>
     <row r="739">
       <c r="AL739" s="26"/>
@@ -31448,6 +32405,7 @@
       <c r="BB739" s="26"/>
       <c r="BC739" s="26"/>
       <c r="BD739" s="26"/>
+      <c r="BE739" s="26"/>
     </row>
     <row r="740">
       <c r="AL740" s="26"/>
@@ -31469,6 +32427,7 @@
       <c r="BB740" s="26"/>
       <c r="BC740" s="26"/>
       <c r="BD740" s="26"/>
+      <c r="BE740" s="26"/>
     </row>
     <row r="741">
       <c r="AL741" s="26"/>
@@ -31490,6 +32449,7 @@
       <c r="BB741" s="26"/>
       <c r="BC741" s="26"/>
       <c r="BD741" s="26"/>
+      <c r="BE741" s="26"/>
     </row>
     <row r="742">
       <c r="AL742" s="26"/>
@@ -31511,6 +32471,7 @@
       <c r="BB742" s="26"/>
       <c r="BC742" s="26"/>
       <c r="BD742" s="26"/>
+      <c r="BE742" s="26"/>
     </row>
     <row r="743">
       <c r="AL743" s="26"/>
@@ -31532,6 +32493,7 @@
       <c r="BB743" s="26"/>
       <c r="BC743" s="26"/>
       <c r="BD743" s="26"/>
+      <c r="BE743" s="26"/>
     </row>
     <row r="744">
       <c r="AL744" s="26"/>
@@ -31553,6 +32515,7 @@
       <c r="BB744" s="26"/>
       <c r="BC744" s="26"/>
       <c r="BD744" s="26"/>
+      <c r="BE744" s="26"/>
     </row>
     <row r="745">
       <c r="AL745" s="26"/>
@@ -31574,6 +32537,7 @@
       <c r="BB745" s="26"/>
       <c r="BC745" s="26"/>
       <c r="BD745" s="26"/>
+      <c r="BE745" s="26"/>
     </row>
     <row r="746">
       <c r="AL746" s="26"/>
@@ -31595,6 +32559,7 @@
       <c r="BB746" s="26"/>
       <c r="BC746" s="26"/>
       <c r="BD746" s="26"/>
+      <c r="BE746" s="26"/>
     </row>
     <row r="747">
       <c r="AL747" s="26"/>
@@ -31616,6 +32581,7 @@
       <c r="BB747" s="26"/>
       <c r="BC747" s="26"/>
       <c r="BD747" s="26"/>
+      <c r="BE747" s="26"/>
     </row>
     <row r="748">
       <c r="AL748" s="26"/>
@@ -31637,6 +32603,7 @@
       <c r="BB748" s="26"/>
       <c r="BC748" s="26"/>
       <c r="BD748" s="26"/>
+      <c r="BE748" s="26"/>
     </row>
     <row r="749">
       <c r="AL749" s="26"/>
@@ -31658,6 +32625,7 @@
       <c r="BB749" s="26"/>
       <c r="BC749" s="26"/>
       <c r="BD749" s="26"/>
+      <c r="BE749" s="26"/>
     </row>
     <row r="750">
       <c r="AL750" s="26"/>
@@ -31679,6 +32647,7 @@
       <c r="BB750" s="26"/>
       <c r="BC750" s="26"/>
       <c r="BD750" s="26"/>
+      <c r="BE750" s="26"/>
     </row>
     <row r="751">
       <c r="AL751" s="26"/>
@@ -31700,6 +32669,7 @@
       <c r="BB751" s="26"/>
       <c r="BC751" s="26"/>
       <c r="BD751" s="26"/>
+      <c r="BE751" s="26"/>
     </row>
     <row r="752">
       <c r="AL752" s="26"/>
@@ -31721,6 +32691,7 @@
       <c r="BB752" s="26"/>
       <c r="BC752" s="26"/>
       <c r="BD752" s="26"/>
+      <c r="BE752" s="26"/>
     </row>
     <row r="753">
       <c r="AL753" s="26"/>
@@ -31742,6 +32713,7 @@
       <c r="BB753" s="26"/>
       <c r="BC753" s="26"/>
       <c r="BD753" s="26"/>
+      <c r="BE753" s="26"/>
     </row>
     <row r="754">
       <c r="AL754" s="26"/>
@@ -31763,6 +32735,7 @@
       <c r="BB754" s="26"/>
       <c r="BC754" s="26"/>
       <c r="BD754" s="26"/>
+      <c r="BE754" s="26"/>
     </row>
     <row r="755">
       <c r="AL755" s="26"/>
@@ -31784,6 +32757,7 @@
       <c r="BB755" s="26"/>
       <c r="BC755" s="26"/>
       <c r="BD755" s="26"/>
+      <c r="BE755" s="26"/>
     </row>
     <row r="756">
       <c r="AL756" s="26"/>
@@ -31805,6 +32779,7 @@
       <c r="BB756" s="26"/>
       <c r="BC756" s="26"/>
       <c r="BD756" s="26"/>
+      <c r="BE756" s="26"/>
     </row>
     <row r="757">
       <c r="AL757" s="26"/>
@@ -31826,6 +32801,7 @@
       <c r="BB757" s="26"/>
       <c r="BC757" s="26"/>
       <c r="BD757" s="26"/>
+      <c r="BE757" s="26"/>
     </row>
     <row r="758">
       <c r="AL758" s="26"/>
@@ -31847,6 +32823,7 @@
       <c r="BB758" s="26"/>
       <c r="BC758" s="26"/>
       <c r="BD758" s="26"/>
+      <c r="BE758" s="26"/>
     </row>
     <row r="759">
       <c r="AL759" s="26"/>
@@ -31868,6 +32845,7 @@
       <c r="BB759" s="26"/>
       <c r="BC759" s="26"/>
       <c r="BD759" s="26"/>
+      <c r="BE759" s="26"/>
     </row>
     <row r="760">
       <c r="AL760" s="26"/>
@@ -31889,6 +32867,7 @@
       <c r="BB760" s="26"/>
       <c r="BC760" s="26"/>
       <c r="BD760" s="26"/>
+      <c r="BE760" s="26"/>
     </row>
     <row r="761">
       <c r="AL761" s="26"/>
@@ -31910,6 +32889,7 @@
       <c r="BB761" s="26"/>
       <c r="BC761" s="26"/>
       <c r="BD761" s="26"/>
+      <c r="BE761" s="26"/>
     </row>
     <row r="762">
       <c r="AL762" s="26"/>
@@ -31931,6 +32911,7 @@
       <c r="BB762" s="26"/>
       <c r="BC762" s="26"/>
       <c r="BD762" s="26"/>
+      <c r="BE762" s="26"/>
     </row>
     <row r="763">
       <c r="AL763" s="26"/>
@@ -31952,6 +32933,7 @@
       <c r="BB763" s="26"/>
       <c r="BC763" s="26"/>
       <c r="BD763" s="26"/>
+      <c r="BE763" s="26"/>
     </row>
     <row r="764">
       <c r="AL764" s="26"/>
@@ -31973,6 +32955,7 @@
       <c r="BB764" s="26"/>
       <c r="BC764" s="26"/>
       <c r="BD764" s="26"/>
+      <c r="BE764" s="26"/>
     </row>
     <row r="765">
       <c r="AL765" s="26"/>
@@ -31994,6 +32977,7 @@
       <c r="BB765" s="26"/>
       <c r="BC765" s="26"/>
       <c r="BD765" s="26"/>
+      <c r="BE765" s="26"/>
     </row>
     <row r="766">
       <c r="AL766" s="26"/>
@@ -32015,6 +32999,7 @@
       <c r="BB766" s="26"/>
       <c r="BC766" s="26"/>
       <c r="BD766" s="26"/>
+      <c r="BE766" s="26"/>
     </row>
     <row r="767">
       <c r="AL767" s="26"/>
@@ -32036,6 +33021,7 @@
       <c r="BB767" s="26"/>
       <c r="BC767" s="26"/>
       <c r="BD767" s="26"/>
+      <c r="BE767" s="26"/>
     </row>
     <row r="768">
       <c r="AL768" s="26"/>
@@ -32057,6 +33043,7 @@
       <c r="BB768" s="26"/>
       <c r="BC768" s="26"/>
       <c r="BD768" s="26"/>
+      <c r="BE768" s="26"/>
     </row>
     <row r="769">
       <c r="AL769" s="26"/>
@@ -32078,6 +33065,7 @@
       <c r="BB769" s="26"/>
       <c r="BC769" s="26"/>
       <c r="BD769" s="26"/>
+      <c r="BE769" s="26"/>
     </row>
     <row r="770">
       <c r="AL770" s="26"/>
@@ -32099,6 +33087,7 @@
       <c r="BB770" s="26"/>
       <c r="BC770" s="26"/>
       <c r="BD770" s="26"/>
+      <c r="BE770" s="26"/>
     </row>
     <row r="771">
       <c r="AL771" s="26"/>
@@ -32120,6 +33109,7 @@
       <c r="BB771" s="26"/>
       <c r="BC771" s="26"/>
       <c r="BD771" s="26"/>
+      <c r="BE771" s="26"/>
     </row>
     <row r="772">
       <c r="AL772" s="26"/>
@@ -32141,6 +33131,7 @@
       <c r="BB772" s="26"/>
       <c r="BC772" s="26"/>
       <c r="BD772" s="26"/>
+      <c r="BE772" s="26"/>
     </row>
     <row r="773">
       <c r="AL773" s="26"/>
@@ -32162,6 +33153,7 @@
       <c r="BB773" s="26"/>
       <c r="BC773" s="26"/>
       <c r="BD773" s="26"/>
+      <c r="BE773" s="26"/>
     </row>
     <row r="774">
       <c r="AL774" s="26"/>
@@ -32183,6 +33175,7 @@
       <c r="BB774" s="26"/>
       <c r="BC774" s="26"/>
       <c r="BD774" s="26"/>
+      <c r="BE774" s="26"/>
     </row>
     <row r="775">
       <c r="AL775" s="26"/>
@@ -32204,6 +33197,7 @@
       <c r="BB775" s="26"/>
       <c r="BC775" s="26"/>
       <c r="BD775" s="26"/>
+      <c r="BE775" s="26"/>
     </row>
     <row r="776">
       <c r="AL776" s="26"/>
@@ -32225,6 +33219,7 @@
       <c r="BB776" s="26"/>
       <c r="BC776" s="26"/>
       <c r="BD776" s="26"/>
+      <c r="BE776" s="26"/>
     </row>
     <row r="777">
       <c r="AL777" s="26"/>
@@ -32246,6 +33241,7 @@
       <c r="BB777" s="26"/>
       <c r="BC777" s="26"/>
       <c r="BD777" s="26"/>
+      <c r="BE777" s="26"/>
     </row>
     <row r="778">
       <c r="AL778" s="26"/>
@@ -32267,6 +33263,7 @@
       <c r="BB778" s="26"/>
       <c r="BC778" s="26"/>
       <c r="BD778" s="26"/>
+      <c r="BE778" s="26"/>
     </row>
     <row r="779">
       <c r="AL779" s="26"/>
@@ -32288,6 +33285,7 @@
       <c r="BB779" s="26"/>
       <c r="BC779" s="26"/>
       <c r="BD779" s="26"/>
+      <c r="BE779" s="26"/>
     </row>
     <row r="780">
       <c r="AL780" s="26"/>
@@ -32309,6 +33307,7 @@
       <c r="BB780" s="26"/>
       <c r="BC780" s="26"/>
       <c r="BD780" s="26"/>
+      <c r="BE780" s="26"/>
     </row>
     <row r="781">
       <c r="AL781" s="26"/>
@@ -32330,6 +33329,7 @@
       <c r="BB781" s="26"/>
       <c r="BC781" s="26"/>
       <c r="BD781" s="26"/>
+      <c r="BE781" s="26"/>
     </row>
     <row r="782">
       <c r="AL782" s="26"/>
@@ -32351,6 +33351,7 @@
       <c r="BB782" s="26"/>
       <c r="BC782" s="26"/>
       <c r="BD782" s="26"/>
+      <c r="BE782" s="26"/>
     </row>
     <row r="783">
       <c r="AL783" s="26"/>
@@ -32372,6 +33373,7 @@
       <c r="BB783" s="26"/>
       <c r="BC783" s="26"/>
       <c r="BD783" s="26"/>
+      <c r="BE783" s="26"/>
     </row>
     <row r="784">
       <c r="AL784" s="26"/>
@@ -32393,6 +33395,7 @@
       <c r="BB784" s="26"/>
       <c r="BC784" s="26"/>
       <c r="BD784" s="26"/>
+      <c r="BE784" s="26"/>
     </row>
     <row r="785">
       <c r="AL785" s="26"/>
@@ -32414,6 +33417,7 @@
       <c r="BB785" s="26"/>
       <c r="BC785" s="26"/>
       <c r="BD785" s="26"/>
+      <c r="BE785" s="26"/>
     </row>
     <row r="786">
       <c r="AL786" s="26"/>
@@ -32435,6 +33439,7 @@
       <c r="BB786" s="26"/>
       <c r="BC786" s="26"/>
       <c r="BD786" s="26"/>
+      <c r="BE786" s="26"/>
     </row>
     <row r="787">
       <c r="AL787" s="26"/>
@@ -32456,6 +33461,7 @@
       <c r="BB787" s="26"/>
       <c r="BC787" s="26"/>
       <c r="BD787" s="26"/>
+      <c r="BE787" s="26"/>
     </row>
     <row r="788">
       <c r="AL788" s="26"/>
@@ -32477,6 +33483,7 @@
       <c r="BB788" s="26"/>
       <c r="BC788" s="26"/>
       <c r="BD788" s="26"/>
+      <c r="BE788" s="26"/>
     </row>
     <row r="789">
       <c r="AL789" s="26"/>
@@ -32498,6 +33505,7 @@
       <c r="BB789" s="26"/>
       <c r="BC789" s="26"/>
       <c r="BD789" s="26"/>
+      <c r="BE789" s="26"/>
     </row>
     <row r="790">
       <c r="AL790" s="26"/>
@@ -32519,6 +33527,7 @@
       <c r="BB790" s="26"/>
       <c r="BC790" s="26"/>
       <c r="BD790" s="26"/>
+      <c r="BE790" s="26"/>
     </row>
     <row r="791">
       <c r="AL791" s="26"/>
@@ -32540,6 +33549,7 @@
       <c r="BB791" s="26"/>
       <c r="BC791" s="26"/>
       <c r="BD791" s="26"/>
+      <c r="BE791" s="26"/>
     </row>
     <row r="792">
       <c r="AL792" s="26"/>
@@ -32561,6 +33571,7 @@
       <c r="BB792" s="26"/>
       <c r="BC792" s="26"/>
       <c r="BD792" s="26"/>
+      <c r="BE792" s="26"/>
     </row>
     <row r="793">
       <c r="AL793" s="26"/>
@@ -32582,6 +33593,7 @@
       <c r="BB793" s="26"/>
       <c r="BC793" s="26"/>
       <c r="BD793" s="26"/>
+      <c r="BE793" s="26"/>
     </row>
     <row r="794">
       <c r="AL794" s="26"/>
@@ -32603,6 +33615,7 @@
       <c r="BB794" s="26"/>
       <c r="BC794" s="26"/>
       <c r="BD794" s="26"/>
+      <c r="BE794" s="26"/>
     </row>
     <row r="795">
       <c r="AL795" s="26"/>
@@ -32624,6 +33637,7 @@
       <c r="BB795" s="26"/>
       <c r="BC795" s="26"/>
       <c r="BD795" s="26"/>
+      <c r="BE795" s="26"/>
     </row>
     <row r="796">
       <c r="AL796" s="26"/>
@@ -32645,6 +33659,7 @@
       <c r="BB796" s="26"/>
       <c r="BC796" s="26"/>
       <c r="BD796" s="26"/>
+      <c r="BE796" s="26"/>
     </row>
     <row r="797">
       <c r="AL797" s="26"/>
@@ -32666,6 +33681,7 @@
       <c r="BB797" s="26"/>
       <c r="BC797" s="26"/>
       <c r="BD797" s="26"/>
+      <c r="BE797" s="26"/>
     </row>
     <row r="798">
       <c r="AL798" s="26"/>
@@ -32687,6 +33703,7 @@
       <c r="BB798" s="26"/>
       <c r="BC798" s="26"/>
       <c r="BD798" s="26"/>
+      <c r="BE798" s="26"/>
     </row>
     <row r="799">
       <c r="AL799" s="26"/>
@@ -32708,6 +33725,7 @@
       <c r="BB799" s="26"/>
       <c r="BC799" s="26"/>
       <c r="BD799" s="26"/>
+      <c r="BE799" s="26"/>
     </row>
     <row r="800">
       <c r="AL800" s="26"/>
@@ -32729,6 +33747,7 @@
       <c r="BB800" s="26"/>
       <c r="BC800" s="26"/>
       <c r="BD800" s="26"/>
+      <c r="BE800" s="26"/>
     </row>
     <row r="801">
       <c r="AL801" s="26"/>
@@ -32750,6 +33769,7 @@
       <c r="BB801" s="26"/>
       <c r="BC801" s="26"/>
       <c r="BD801" s="26"/>
+      <c r="BE801" s="26"/>
     </row>
     <row r="802">
       <c r="AL802" s="26"/>
@@ -32771,6 +33791,7 @@
       <c r="BB802" s="26"/>
       <c r="BC802" s="26"/>
       <c r="BD802" s="26"/>
+      <c r="BE802" s="26"/>
     </row>
     <row r="803">
       <c r="AL803" s="26"/>
@@ -32792,6 +33813,7 @@
       <c r="BB803" s="26"/>
       <c r="BC803" s="26"/>
       <c r="BD803" s="26"/>
+      <c r="BE803" s="26"/>
     </row>
     <row r="804">
       <c r="AL804" s="26"/>
@@ -32813,6 +33835,7 @@
       <c r="BB804" s="26"/>
       <c r="BC804" s="26"/>
       <c r="BD804" s="26"/>
+      <c r="BE804" s="26"/>
     </row>
     <row r="805">
       <c r="AL805" s="26"/>
@@ -32834,6 +33857,7 @@
       <c r="BB805" s="26"/>
       <c r="BC805" s="26"/>
       <c r="BD805" s="26"/>
+      <c r="BE805" s="26"/>
     </row>
     <row r="806">
       <c r="AL806" s="26"/>
@@ -32855,6 +33879,7 @@
       <c r="BB806" s="26"/>
       <c r="BC806" s="26"/>
       <c r="BD806" s="26"/>
+      <c r="BE806" s="26"/>
     </row>
     <row r="807">
       <c r="AL807" s="26"/>
@@ -32876,6 +33901,7 @@
       <c r="BB807" s="26"/>
       <c r="BC807" s="26"/>
       <c r="BD807" s="26"/>
+      <c r="BE807" s="26"/>
     </row>
     <row r="808">
       <c r="AL808" s="26"/>
@@ -32897,6 +33923,7 @@
       <c r="BB808" s="26"/>
       <c r="BC808" s="26"/>
       <c r="BD808" s="26"/>
+      <c r="BE808" s="26"/>
     </row>
     <row r="809">
       <c r="AL809" s="26"/>
@@ -32918,6 +33945,7 @@
       <c r="BB809" s="26"/>
       <c r="BC809" s="26"/>
       <c r="BD809" s="26"/>
+      <c r="BE809" s="26"/>
     </row>
     <row r="810">
       <c r="AL810" s="26"/>
@@ -32939,6 +33967,7 @@
       <c r="BB810" s="26"/>
       <c r="BC810" s="26"/>
       <c r="BD810" s="26"/>
+      <c r="BE810" s="26"/>
     </row>
     <row r="811">
       <c r="AL811" s="26"/>
@@ -32960,6 +33989,7 @@
       <c r="BB811" s="26"/>
       <c r="BC811" s="26"/>
       <c r="BD811" s="26"/>
+      <c r="BE811" s="26"/>
     </row>
     <row r="812">
       <c r="AL812" s="26"/>
@@ -32981,6 +34011,7 @@
       <c r="BB812" s="26"/>
       <c r="BC812" s="26"/>
       <c r="BD812" s="26"/>
+      <c r="BE812" s="26"/>
     </row>
     <row r="813">
       <c r="AL813" s="26"/>
@@ -33002,6 +34033,7 @@
       <c r="BB813" s="26"/>
       <c r="BC813" s="26"/>
       <c r="BD813" s="26"/>
+      <c r="BE813" s="26"/>
     </row>
     <row r="814">
       <c r="AL814" s="26"/>
@@ -33023,6 +34055,7 @@
       <c r="BB814" s="26"/>
       <c r="BC814" s="26"/>
       <c r="BD814" s="26"/>
+      <c r="BE814" s="26"/>
     </row>
     <row r="815">
       <c r="AL815" s="26"/>
@@ -33044,6 +34077,7 @@
       <c r="BB815" s="26"/>
       <c r="BC815" s="26"/>
       <c r="BD815" s="26"/>
+      <c r="BE815" s="26"/>
     </row>
     <row r="816">
       <c r="AL816" s="26"/>
@@ -33065,6 +34099,7 @@
       <c r="BB816" s="26"/>
       <c r="BC816" s="26"/>
       <c r="BD816" s="26"/>
+      <c r="BE816" s="26"/>
     </row>
     <row r="817">
       <c r="AL817" s="26"/>
@@ -33086,6 +34121,7 @@
       <c r="BB817" s="26"/>
       <c r="BC817" s="26"/>
       <c r="BD817" s="26"/>
+      <c r="BE817" s="26"/>
     </row>
     <row r="818">
       <c r="AL818" s="26"/>
@@ -33107,6 +34143,7 @@
       <c r="BB818" s="26"/>
       <c r="BC818" s="26"/>
       <c r="BD818" s="26"/>
+      <c r="BE818" s="26"/>
     </row>
     <row r="819">
       <c r="AL819" s="26"/>
@@ -33128,6 +34165,7 @@
       <c r="BB819" s="26"/>
       <c r="BC819" s="26"/>
       <c r="BD819" s="26"/>
+      <c r="BE819" s="26"/>
     </row>
     <row r="820">
       <c r="AL820" s="26"/>
@@ -33149,6 +34187,7 @@
       <c r="BB820" s="26"/>
       <c r="BC820" s="26"/>
       <c r="BD820" s="26"/>
+      <c r="BE820" s="26"/>
     </row>
     <row r="821">
       <c r="AL821" s="26"/>
@@ -33170,6 +34209,7 @@
       <c r="BB821" s="26"/>
       <c r="BC821" s="26"/>
       <c r="BD821" s="26"/>
+      <c r="BE821" s="26"/>
     </row>
     <row r="822">
       <c r="AL822" s="26"/>
@@ -33191,6 +34231,7 @@
       <c r="BB822" s="26"/>
       <c r="BC822" s="26"/>
       <c r="BD822" s="26"/>
+      <c r="BE822" s="26"/>
     </row>
     <row r="823">
       <c r="AL823" s="26"/>
@@ -33212,6 +34253,7 @@
       <c r="BB823" s="26"/>
       <c r="BC823" s="26"/>
       <c r="BD823" s="26"/>
+      <c r="BE823" s="26"/>
     </row>
     <row r="824">
       <c r="AL824" s="26"/>
@@ -33233,6 +34275,7 @@
       <c r="BB824" s="26"/>
       <c r="BC824" s="26"/>
       <c r="BD824" s="26"/>
+      <c r="BE824" s="26"/>
     </row>
     <row r="825">
       <c r="AL825" s="26"/>
@@ -33254,6 +34297,7 @@
       <c r="BB825" s="26"/>
       <c r="BC825" s="26"/>
       <c r="BD825" s="26"/>
+      <c r="BE825" s="26"/>
     </row>
     <row r="826">
       <c r="AL826" s="26"/>
@@ -33275,6 +34319,7 @@
       <c r="BB826" s="26"/>
       <c r="BC826" s="26"/>
       <c r="BD826" s="26"/>
+      <c r="BE826" s="26"/>
     </row>
     <row r="827">
       <c r="AL827" s="26"/>
@@ -33296,6 +34341,7 @@
       <c r="BB827" s="26"/>
       <c r="BC827" s="26"/>
       <c r="BD827" s="26"/>
+      <c r="BE827" s="26"/>
     </row>
     <row r="828">
       <c r="AL828" s="26"/>
@@ -33317,6 +34363,7 @@
       <c r="BB828" s="26"/>
       <c r="BC828" s="26"/>
       <c r="BD828" s="26"/>
+      <c r="BE828" s="26"/>
     </row>
     <row r="829">
       <c r="AL829" s="26"/>
@@ -33338,6 +34385,7 @@
       <c r="BB829" s="26"/>
       <c r="BC829" s="26"/>
       <c r="BD829" s="26"/>
+      <c r="BE829" s="26"/>
     </row>
     <row r="830">
       <c r="AL830" s="26"/>
@@ -33359,6 +34407,7 @@
       <c r="BB830" s="26"/>
       <c r="BC830" s="26"/>
       <c r="BD830" s="26"/>
+      <c r="BE830" s="26"/>
     </row>
     <row r="831">
       <c r="AL831" s="26"/>
@@ -33380,6 +34429,7 @@
       <c r="BB831" s="26"/>
       <c r="BC831" s="26"/>
       <c r="BD831" s="26"/>
+      <c r="BE831" s="26"/>
     </row>
     <row r="832">
       <c r="AL832" s="26"/>
@@ -33401,6 +34451,7 @@
       <c r="BB832" s="26"/>
       <c r="BC832" s="26"/>
       <c r="BD832" s="26"/>
+      <c r="BE832" s="26"/>
     </row>
     <row r="833">
       <c r="AL833" s="26"/>
@@ -33422,6 +34473,7 @@
       <c r="BB833" s="26"/>
       <c r="BC833" s="26"/>
       <c r="BD833" s="26"/>
+      <c r="BE833" s="26"/>
     </row>
     <row r="834">
       <c r="AL834" s="26"/>
@@ -33443,6 +34495,7 @@
       <c r="BB834" s="26"/>
       <c r="BC834" s="26"/>
       <c r="BD834" s="26"/>
+      <c r="BE834" s="26"/>
     </row>
     <row r="835">
       <c r="AL835" s="26"/>
@@ -33464,6 +34517,7 @@
       <c r="BB835" s="26"/>
       <c r="BC835" s="26"/>
       <c r="BD835" s="26"/>
+      <c r="BE835" s="26"/>
     </row>
     <row r="836">
       <c r="AL836" s="26"/>
@@ -33485,6 +34539,7 @@
       <c r="BB836" s="26"/>
       <c r="BC836" s="26"/>
       <c r="BD836" s="26"/>
+      <c r="BE836" s="26"/>
     </row>
     <row r="837">
       <c r="AL837" s="26"/>
@@ -33506,6 +34561,7 @@
       <c r="BB837" s="26"/>
       <c r="BC837" s="26"/>
       <c r="BD837" s="26"/>
+      <c r="BE837" s="26"/>
     </row>
     <row r="838">
       <c r="AL838" s="26"/>
@@ -33527,6 +34583,7 @@
       <c r="BB838" s="26"/>
       <c r="BC838" s="26"/>
       <c r="BD838" s="26"/>
+      <c r="BE838" s="26"/>
     </row>
     <row r="839">
       <c r="AL839" s="26"/>
@@ -33548,6 +34605,7 @@
       <c r="BB839" s="26"/>
       <c r="BC839" s="26"/>
       <c r="BD839" s="26"/>
+      <c r="BE839" s="26"/>
     </row>
     <row r="840">
       <c r="AL840" s="26"/>
@@ -33569,6 +34627,7 @@
       <c r="BB840" s="26"/>
       <c r="BC840" s="26"/>
       <c r="BD840" s="26"/>
+      <c r="BE840" s="26"/>
     </row>
     <row r="841">
       <c r="AL841" s="26"/>
@@ -33590,6 +34649,7 @@
       <c r="BB841" s="26"/>
       <c r="BC841" s="26"/>
       <c r="BD841" s="26"/>
+      <c r="BE841" s="26"/>
     </row>
     <row r="842">
       <c r="AL842" s="26"/>
@@ -33611,6 +34671,7 @@
       <c r="BB842" s="26"/>
       <c r="BC842" s="26"/>
       <c r="BD842" s="26"/>
+      <c r="BE842" s="26"/>
     </row>
     <row r="843">
       <c r="AL843" s="26"/>
@@ -33632,6 +34693,7 @@
       <c r="BB843" s="26"/>
       <c r="BC843" s="26"/>
       <c r="BD843" s="26"/>
+      <c r="BE843" s="26"/>
     </row>
     <row r="844">
       <c r="AL844" s="26"/>
@@ -33653,6 +34715,7 @@
       <c r="BB844" s="26"/>
       <c r="BC844" s="26"/>
       <c r="BD844" s="26"/>
+      <c r="BE844" s="26"/>
     </row>
     <row r="845">
       <c r="AL845" s="26"/>
@@ -33674,6 +34737,7 @@
       <c r="BB845" s="26"/>
       <c r="BC845" s="26"/>
       <c r="BD845" s="26"/>
+      <c r="BE845" s="26"/>
     </row>
     <row r="846">
       <c r="AL846" s="26"/>
@@ -33695,6 +34759,7 @@
       <c r="BB846" s="26"/>
       <c r="BC846" s="26"/>
       <c r="BD846" s="26"/>
+      <c r="BE846" s="26"/>
     </row>
     <row r="847">
       <c r="AL847" s="26"/>
@@ -33716,6 +34781,7 @@
       <c r="BB847" s="26"/>
       <c r="BC847" s="26"/>
       <c r="BD847" s="26"/>
+      <c r="BE847" s="26"/>
     </row>
     <row r="848">
       <c r="AL848" s="26"/>
@@ -33737,6 +34803,7 @@
       <c r="BB848" s="26"/>
       <c r="BC848" s="26"/>
       <c r="BD848" s="26"/>
+      <c r="BE848" s="26"/>
     </row>
     <row r="849">
       <c r="AL849" s="26"/>
@@ -33758,6 +34825,7 @@
       <c r="BB849" s="26"/>
       <c r="BC849" s="26"/>
       <c r="BD849" s="26"/>
+      <c r="BE849" s="26"/>
     </row>
     <row r="850">
       <c r="AL850" s="26"/>
@@ -33779,6 +34847,7 @@
       <c r="BB850" s="26"/>
       <c r="BC850" s="26"/>
       <c r="BD850" s="26"/>
+      <c r="BE850" s="26"/>
     </row>
     <row r="851">
       <c r="AL851" s="26"/>
@@ -33800,6 +34869,7 @@
       <c r="BB851" s="26"/>
       <c r="BC851" s="26"/>
       <c r="BD851" s="26"/>
+      <c r="BE851" s="26"/>
     </row>
     <row r="852">
       <c r="AL852" s="26"/>
@@ -33821,6 +34891,7 @@
       <c r="BB852" s="26"/>
       <c r="BC852" s="26"/>
       <c r="BD852" s="26"/>
+      <c r="BE852" s="26"/>
     </row>
     <row r="853">
       <c r="AL853" s="26"/>
@@ -33842,6 +34913,7 @@
       <c r="BB853" s="26"/>
       <c r="BC853" s="26"/>
       <c r="BD853" s="26"/>
+      <c r="BE853" s="26"/>
     </row>
     <row r="854">
       <c r="AL854" s="26"/>
@@ -33863,6 +34935,7 @@
       <c r="BB854" s="26"/>
       <c r="BC854" s="26"/>
       <c r="BD854" s="26"/>
+      <c r="BE854" s="26"/>
     </row>
     <row r="855">
       <c r="AL855" s="26"/>
@@ -33884,6 +34957,7 @@
       <c r="BB855" s="26"/>
       <c r="BC855" s="26"/>
       <c r="BD855" s="26"/>
+      <c r="BE855" s="26"/>
     </row>
     <row r="856">
       <c r="AL856" s="26"/>
@@ -33905,6 +34979,7 @@
       <c r="BB856" s="26"/>
       <c r="BC856" s="26"/>
       <c r="BD856" s="26"/>
+      <c r="BE856" s="26"/>
     </row>
     <row r="857">
       <c r="AL857" s="26"/>
@@ -33926,6 +35001,7 @@
       <c r="BB857" s="26"/>
       <c r="BC857" s="26"/>
       <c r="BD857" s="26"/>
+      <c r="BE857" s="26"/>
     </row>
     <row r="858">
       <c r="AL858" s="26"/>
@@ -33947,6 +35023,7 @@
       <c r="BB858" s="26"/>
       <c r="BC858" s="26"/>
       <c r="BD858" s="26"/>
+      <c r="BE858" s="26"/>
     </row>
     <row r="859">
       <c r="AL859" s="26"/>
@@ -33968,6 +35045,7 @@
       <c r="BB859" s="26"/>
       <c r="BC859" s="26"/>
       <c r="BD859" s="26"/>
+      <c r="BE859" s="26"/>
     </row>
     <row r="860">
       <c r="AL860" s="26"/>
@@ -33989,6 +35067,7 @@
       <c r="BB860" s="26"/>
       <c r="BC860" s="26"/>
       <c r="BD860" s="26"/>
+      <c r="BE860" s="26"/>
     </row>
     <row r="861">
       <c r="AL861" s="26"/>
@@ -34010,6 +35089,7 @@
       <c r="BB861" s="26"/>
       <c r="BC861" s="26"/>
       <c r="BD861" s="26"/>
+      <c r="BE861" s="26"/>
     </row>
     <row r="862">
       <c r="AL862" s="26"/>
@@ -34031,6 +35111,7 @@
       <c r="BB862" s="26"/>
       <c r="BC862" s="26"/>
       <c r="BD862" s="26"/>
+      <c r="BE862" s="26"/>
     </row>
     <row r="863">
       <c r="AL863" s="26"/>
@@ -34052,6 +35133,7 @@
       <c r="BB863" s="26"/>
       <c r="BC863" s="26"/>
       <c r="BD863" s="26"/>
+      <c r="BE863" s="26"/>
     </row>
     <row r="864">
       <c r="AL864" s="26"/>
@@ -34073,6 +35155,7 @@
       <c r="BB864" s="26"/>
       <c r="BC864" s="26"/>
       <c r="BD864" s="26"/>
+      <c r="BE864" s="26"/>
     </row>
     <row r="865">
       <c r="AL865" s="26"/>
@@ -34094,6 +35177,7 @@
       <c r="BB865" s="26"/>
       <c r="BC865" s="26"/>
       <c r="BD865" s="26"/>
+      <c r="BE865" s="26"/>
     </row>
     <row r="866">
       <c r="AL866" s="26"/>
@@ -34115,6 +35199,7 @@
       <c r="BB866" s="26"/>
       <c r="BC866" s="26"/>
       <c r="BD866" s="26"/>
+      <c r="BE866" s="26"/>
     </row>
     <row r="867">
       <c r="AL867" s="26"/>
@@ -34136,6 +35221,7 @@
       <c r="BB867" s="26"/>
       <c r="BC867" s="26"/>
       <c r="BD867" s="26"/>
+      <c r="BE867" s="26"/>
     </row>
     <row r="868">
       <c r="AL868" s="26"/>
@@ -34157,6 +35243,7 @@
       <c r="BB868" s="26"/>
       <c r="BC868" s="26"/>
       <c r="BD868" s="26"/>
+      <c r="BE868" s="26"/>
     </row>
     <row r="869">
       <c r="AL869" s="26"/>
@@ -34178,6 +35265,7 @@
       <c r="BB869" s="26"/>
       <c r="BC869" s="26"/>
       <c r="BD869" s="26"/>
+      <c r="BE869" s="26"/>
     </row>
     <row r="870">
       <c r="AL870" s="26"/>
@@ -34199,6 +35287,7 @@
       <c r="BB870" s="26"/>
       <c r="BC870" s="26"/>
       <c r="BD870" s="26"/>
+      <c r="BE870" s="26"/>
     </row>
     <row r="871">
       <c r="AL871" s="26"/>
@@ -34220,6 +35309,7 @@
       <c r="BB871" s="26"/>
       <c r="BC871" s="26"/>
       <c r="BD871" s="26"/>
+      <c r="BE871" s="26"/>
     </row>
     <row r="872">
       <c r="AL872" s="26"/>
@@ -34241,6 +35331,7 @@
       <c r="BB872" s="26"/>
       <c r="BC872" s="26"/>
       <c r="BD872" s="26"/>
+      <c r="BE872" s="26"/>
     </row>
     <row r="873">
       <c r="AL873" s="26"/>
@@ -34262,6 +35353,7 @@
       <c r="BB873" s="26"/>
       <c r="BC873" s="26"/>
       <c r="BD873" s="26"/>
+      <c r="BE873" s="26"/>
     </row>
     <row r="874">
       <c r="AL874" s="26"/>
@@ -34283,6 +35375,7 @@
       <c r="BB874" s="26"/>
       <c r="BC874" s="26"/>
       <c r="BD874" s="26"/>
+      <c r="BE874" s="26"/>
     </row>
     <row r="875">
       <c r="AL875" s="26"/>
@@ -34304,6 +35397,7 @@
       <c r="BB875" s="26"/>
       <c r="BC875" s="26"/>
       <c r="BD875" s="26"/>
+      <c r="BE875" s="26"/>
     </row>
     <row r="876">
       <c r="AL876" s="26"/>
@@ -34325,6 +35419,7 @@
       <c r="BB876" s="26"/>
       <c r="BC876" s="26"/>
       <c r="BD876" s="26"/>
+      <c r="BE876" s="26"/>
     </row>
     <row r="877">
       <c r="AL877" s="26"/>
@@ -34346,6 +35441,7 @@
       <c r="BB877" s="26"/>
       <c r="BC877" s="26"/>
       <c r="BD877" s="26"/>
+      <c r="BE877" s="26"/>
     </row>
     <row r="878">
       <c r="AL878" s="26"/>
@@ -34367,6 +35463,7 @@
       <c r="BB878" s="26"/>
       <c r="BC878" s="26"/>
       <c r="BD878" s="26"/>
+      <c r="BE878" s="26"/>
     </row>
     <row r="879">
       <c r="AL879" s="26"/>
@@ -34388,6 +35485,7 @@
       <c r="BB879" s="26"/>
       <c r="BC879" s="26"/>
       <c r="BD879" s="26"/>
+      <c r="BE879" s="26"/>
     </row>
     <row r="880">
       <c r="AL880" s="26"/>
@@ -34409,6 +35507,7 @@
       <c r="BB880" s="26"/>
       <c r="BC880" s="26"/>
       <c r="BD880" s="26"/>
+      <c r="BE880" s="26"/>
     </row>
     <row r="881">
       <c r="AL881" s="26"/>
@@ -34430,6 +35529,7 @@
       <c r="BB881" s="26"/>
       <c r="BC881" s="26"/>
       <c r="BD881" s="26"/>
+      <c r="BE881" s="26"/>
     </row>
     <row r="882">
       <c r="AL882" s="26"/>
@@ -34451,6 +35551,7 @@
       <c r="BB882" s="26"/>
       <c r="BC882" s="26"/>
       <c r="BD882" s="26"/>
+      <c r="BE882" s="26"/>
     </row>
     <row r="883">
       <c r="AL883" s="26"/>
@@ -34472,6 +35573,7 @@
       <c r="BB883" s="26"/>
       <c r="BC883" s="26"/>
       <c r="BD883" s="26"/>
+      <c r="BE883" s="26"/>
     </row>
     <row r="884">
       <c r="AL884" s="26"/>
@@ -34493,6 +35595,7 @@
       <c r="BB884" s="26"/>
       <c r="BC884" s="26"/>
       <c r="BD884" s="26"/>
+      <c r="BE884" s="26"/>
     </row>
     <row r="885">
       <c r="AL885" s="26"/>
@@ -34514,6 +35617,7 @@
       <c r="BB885" s="26"/>
       <c r="BC885" s="26"/>
       <c r="BD885" s="26"/>
+      <c r="BE885" s="26"/>
     </row>
     <row r="886">
       <c r="AL886" s="26"/>
@@ -34535,6 +35639,7 @@
       <c r="BB886" s="26"/>
       <c r="BC886" s="26"/>
       <c r="BD886" s="26"/>
+      <c r="BE886" s="26"/>
     </row>
     <row r="887">
       <c r="AL887" s="26"/>
@@ -34556,6 +35661,7 @@
       <c r="BB887" s="26"/>
       <c r="BC887" s="26"/>
       <c r="BD887" s="26"/>
+      <c r="BE887" s="26"/>
     </row>
     <row r="888">
       <c r="AL888" s="26"/>
@@ -34577,6 +35683,7 @@
       <c r="BB888" s="26"/>
       <c r="BC888" s="26"/>
       <c r="BD888" s="26"/>
+      <c r="BE888" s="26"/>
     </row>
     <row r="889">
       <c r="AL889" s="26"/>
@@ -34598,6 +35705,7 @@
       <c r="BB889" s="26"/>
       <c r="BC889" s="26"/>
       <c r="BD889" s="26"/>
+      <c r="BE889" s="26"/>
     </row>
     <row r="890">
       <c r="AL890" s="26"/>
@@ -34619,6 +35727,7 @@
       <c r="BB890" s="26"/>
       <c r="BC890" s="26"/>
       <c r="BD890" s="26"/>
+      <c r="BE890" s="26"/>
     </row>
     <row r="891">
       <c r="AL891" s="26"/>
@@ -34640,6 +35749,7 @@
       <c r="BB891" s="26"/>
       <c r="BC891" s="26"/>
       <c r="BD891" s="26"/>
+      <c r="BE891" s="26"/>
     </row>
     <row r="892">
       <c r="AL892" s="26"/>
@@ -34661,6 +35771,7 @@
       <c r="BB892" s="26"/>
       <c r="BC892" s="26"/>
       <c r="BD892" s="26"/>
+      <c r="BE892" s="26"/>
     </row>
     <row r="893">
       <c r="AL893" s="26"/>
@@ -34682,6 +35793,7 @@
       <c r="BB893" s="26"/>
       <c r="BC893" s="26"/>
       <c r="BD893" s="26"/>
+      <c r="BE893" s="26"/>
     </row>
     <row r="894">
       <c r="AL894" s="26"/>
@@ -34703,6 +35815,7 @@
       <c r="BB894" s="26"/>
       <c r="BC894" s="26"/>
       <c r="BD894" s="26"/>
+      <c r="BE894" s="26"/>
     </row>
     <row r="895">
       <c r="AL895" s="26"/>
@@ -34724,6 +35837,7 @@
       <c r="BB895" s="26"/>
       <c r="BC895" s="26"/>
       <c r="BD895" s="26"/>
+      <c r="BE895" s="26"/>
     </row>
     <row r="896">
       <c r="AL896" s="26"/>
@@ -34745,6 +35859,7 @@
       <c r="BB896" s="26"/>
       <c r="BC896" s="26"/>
       <c r="BD896" s="26"/>
+      <c r="BE896" s="26"/>
     </row>
     <row r="897">
       <c r="AL897" s="26"/>
@@ -34766,6 +35881,7 @@
       <c r="BB897" s="26"/>
       <c r="BC897" s="26"/>
       <c r="BD897" s="26"/>
+      <c r="BE897" s="26"/>
     </row>
     <row r="898">
       <c r="AL898" s="26"/>
@@ -34787,6 +35903,7 @@
       <c r="BB898" s="26"/>
       <c r="BC898" s="26"/>
       <c r="BD898" s="26"/>
+      <c r="BE898" s="26"/>
     </row>
     <row r="899">
       <c r="AL899" s="26"/>
@@ -34808,6 +35925,7 @@
       <c r="BB899" s="26"/>
       <c r="BC899" s="26"/>
       <c r="BD899" s="26"/>
+      <c r="BE899" s="26"/>
     </row>
     <row r="900">
       <c r="AL900" s="26"/>
@@ -34829,6 +35947,7 @@
       <c r="BB900" s="26"/>
       <c r="BC900" s="26"/>
       <c r="BD900" s="26"/>
+      <c r="BE900" s="26"/>
     </row>
     <row r="901">
       <c r="AL901" s="26"/>
@@ -34850,6 +35969,7 @@
       <c r="BB901" s="26"/>
       <c r="BC901" s="26"/>
       <c r="BD901" s="26"/>
+      <c r="BE901" s="26"/>
     </row>
     <row r="902">
       <c r="AL902" s="26"/>
@@ -34871,6 +35991,7 @@
       <c r="BB902" s="26"/>
       <c r="BC902" s="26"/>
       <c r="BD902" s="26"/>
+      <c r="BE902" s="26"/>
     </row>
     <row r="903">
       <c r="AL903" s="26"/>
@@ -34892,6 +36013,7 @@
       <c r="BB903" s="26"/>
       <c r="BC903" s="26"/>
       <c r="BD903" s="26"/>
+      <c r="BE903" s="26"/>
     </row>
     <row r="904">
       <c r="AL904" s="26"/>
@@ -34913,6 +36035,7 @@
       <c r="BB904" s="26"/>
       <c r="BC904" s="26"/>
       <c r="BD904" s="26"/>
+      <c r="BE904" s="26"/>
     </row>
     <row r="905">
       <c r="AL905" s="26"/>
@@ -34934,6 +36057,7 @@
       <c r="BB905" s="26"/>
       <c r="BC905" s="26"/>
       <c r="BD905" s="26"/>
+      <c r="BE905" s="26"/>
     </row>
     <row r="906">
       <c r="AL906" s="26"/>
@@ -34955,6 +36079,7 @@
       <c r="BB906" s="26"/>
       <c r="BC906" s="26"/>
       <c r="BD906" s="26"/>
+      <c r="BE906" s="26"/>
     </row>
     <row r="907">
       <c r="AL907" s="26"/>
@@ -34976,6 +36101,7 @@
       <c r="BB907" s="26"/>
       <c r="BC907" s="26"/>
       <c r="BD907" s="26"/>
+      <c r="BE907" s="26"/>
     </row>
     <row r="908">
       <c r="AL908" s="26"/>
@@ -34997,6 +36123,7 @@
       <c r="BB908" s="26"/>
       <c r="BC908" s="26"/>
       <c r="BD908" s="26"/>
+      <c r="BE908" s="26"/>
     </row>
     <row r="909">
       <c r="AL909" s="26"/>
@@ -35018,6 +36145,7 @@
       <c r="BB909" s="26"/>
       <c r="BC909" s="26"/>
       <c r="BD909" s="26"/>
+      <c r="BE909" s="26"/>
     </row>
     <row r="910">
       <c r="AL910" s="26"/>
@@ -35039,6 +36167,7 @@
       <c r="BB910" s="26"/>
       <c r="BC910" s="26"/>
       <c r="BD910" s="26"/>
+      <c r="BE910" s="26"/>
     </row>
     <row r="911">
       <c r="AL911" s="26"/>
@@ -35060,6 +36189,7 @@
       <c r="BB911" s="26"/>
       <c r="BC911" s="26"/>
       <c r="BD911" s="26"/>
+      <c r="BE911" s="26"/>
     </row>
     <row r="912">
       <c r="AL912" s="26"/>
@@ -35081,6 +36211,7 @@
       <c r="BB912" s="26"/>
       <c r="BC912" s="26"/>
       <c r="BD912" s="26"/>
+      <c r="BE912" s="26"/>
     </row>
     <row r="913">
       <c r="AL913" s="26"/>
@@ -35102,6 +36233,7 @@
       <c r="BB913" s="26"/>
       <c r="BC913" s="26"/>
       <c r="BD913" s="26"/>
+      <c r="BE913" s="26"/>
     </row>
     <row r="914">
       <c r="AL914" s="26"/>
@@ -35123,6 +36255,7 @@
       <c r="BB914" s="26"/>
       <c r="BC914" s="26"/>
       <c r="BD914" s="26"/>
+      <c r="BE914" s="26"/>
     </row>
     <row r="915">
       <c r="AL915" s="26"/>
@@ -35144,6 +36277,7 @@
       <c r="BB915" s="26"/>
       <c r="BC915" s="26"/>
       <c r="BD915" s="26"/>
+      <c r="BE915" s="26"/>
     </row>
     <row r="916">
       <c r="AL916" s="26"/>
@@ -35165,6 +36299,7 @@
       <c r="BB916" s="26"/>
       <c r="BC916" s="26"/>
       <c r="BD916" s="26"/>
+      <c r="BE916" s="26"/>
     </row>
     <row r="917">
       <c r="AL917" s="26"/>
@@ -35186,6 +36321,7 @@
       <c r="BB917" s="26"/>
       <c r="BC917" s="26"/>
       <c r="BD917" s="26"/>
+      <c r="BE917" s="26"/>
     </row>
     <row r="918">
       <c r="AL918" s="26"/>
@@ -35207,6 +36343,7 @@
       <c r="BB918" s="26"/>
       <c r="BC918" s="26"/>
       <c r="BD918" s="26"/>
+      <c r="BE918" s="26"/>
     </row>
     <row r="919">
       <c r="AL919" s="26"/>
@@ -35228,6 +36365,7 @@
       <c r="BB919" s="26"/>
       <c r="BC919" s="26"/>
       <c r="BD919" s="26"/>
+      <c r="BE919" s="26"/>
     </row>
     <row r="920">
       <c r="AL920" s="26"/>
@@ -35249,6 +36387,7 @@
       <c r="BB920" s="26"/>
       <c r="BC920" s="26"/>
       <c r="BD920" s="26"/>
+      <c r="BE920" s="26"/>
     </row>
     <row r="921">
       <c r="AL921" s="26"/>
@@ -35270,6 +36409,7 @@
       <c r="BB921" s="26"/>
       <c r="BC921" s="26"/>
       <c r="BD921" s="26"/>
+      <c r="BE921" s="26"/>
     </row>
     <row r="922">
       <c r="AL922" s="26"/>
@@ -35291,6 +36431,7 @@
       <c r="BB922" s="26"/>
       <c r="BC922" s="26"/>
       <c r="BD922" s="26"/>
+      <c r="BE922" s="26"/>
     </row>
     <row r="923">
       <c r="AL923" s="26"/>
@@ -35312,6 +36453,7 @@
       <c r="BB923" s="26"/>
       <c r="BC923" s="26"/>
       <c r="BD923" s="26"/>
+      <c r="BE923" s="26"/>
     </row>
     <row r="924">
       <c r="AL924" s="26"/>
@@ -35333,6 +36475,7 @@
       <c r="BB924" s="26"/>
       <c r="BC924" s="26"/>
       <c r="BD924" s="26"/>
+      <c r="BE924" s="26"/>
     </row>
     <row r="925">
       <c r="AL925" s="26"/>
@@ -35354,6 +36497,7 @@
       <c r="BB925" s="26"/>
       <c r="BC925" s="26"/>
       <c r="BD925" s="26"/>
+      <c r="BE925" s="26"/>
     </row>
     <row r="926">
       <c r="AL926" s="26"/>
@@ -35375,6 +36519,7 @@
       <c r="BB926" s="26"/>
       <c r="BC926" s="26"/>
       <c r="BD926" s="26"/>
+      <c r="BE926" s="26"/>
     </row>
     <row r="927">
       <c r="AL927" s="26"/>
@@ -35396,6 +36541,7 @@
       <c r="BB927" s="26"/>
       <c r="BC927" s="26"/>
       <c r="BD927" s="26"/>
+      <c r="BE927" s="26"/>
     </row>
     <row r="928">
       <c r="AL928" s="26"/>
@@ -35417,6 +36563,7 @@
       <c r="BB928" s="26"/>
       <c r="BC928" s="26"/>
       <c r="BD928" s="26"/>
+      <c r="BE928" s="26"/>
     </row>
     <row r="929">
       <c r="AL929" s="26"/>
@@ -35438,6 +36585,7 @@
       <c r="BB929" s="26"/>
       <c r="BC929" s="26"/>
       <c r="BD929" s="26"/>
+      <c r="BE929" s="26"/>
     </row>
     <row r="930">
       <c r="AL930" s="26"/>
@@ -35459,6 +36607,7 @@
       <c r="BB930" s="26"/>
       <c r="BC930" s="26"/>
       <c r="BD930" s="26"/>
+      <c r="BE930" s="26"/>
     </row>
     <row r="931">
       <c r="AL931" s="26"/>
@@ -35480,6 +36629,7 @@
       <c r="BB931" s="26"/>
       <c r="BC931" s="26"/>
       <c r="BD931" s="26"/>
+      <c r="BE931" s="26"/>
     </row>
     <row r="932">
       <c r="AL932" s="26"/>
@@ -35501,6 +36651,7 @@
       <c r="BB932" s="26"/>
       <c r="BC932" s="26"/>
       <c r="BD932" s="26"/>
+      <c r="BE932" s="26"/>
     </row>
     <row r="933">
       <c r="AL933" s="26"/>
@@ -35522,6 +36673,7 @@
       <c r="BB933" s="26"/>
       <c r="BC933" s="26"/>
       <c r="BD933" s="26"/>
+      <c r="BE933" s="26"/>
     </row>
     <row r="934">
       <c r="AL934" s="26"/>
@@ -35543,6 +36695,7 @@
       <c r="BB934" s="26"/>
       <c r="BC934" s="26"/>
       <c r="BD934" s="26"/>
+      <c r="BE934" s="26"/>
     </row>
     <row r="935">
       <c r="AL935" s="26"/>
@@ -35564,6 +36717,7 @@
       <c r="BB935" s="26"/>
       <c r="BC935" s="26"/>
       <c r="BD935" s="26"/>
+      <c r="BE935" s="26"/>
     </row>
     <row r="936">
       <c r="AL936" s="26"/>
@@ -35585,6 +36739,7 @@
       <c r="BB936" s="26"/>
       <c r="BC936" s="26"/>
       <c r="BD936" s="26"/>
+      <c r="BE936" s="26"/>
     </row>
     <row r="937">
       <c r="AL937" s="26"/>
@@ -35606,6 +36761,7 @@
       <c r="BB937" s="26"/>
       <c r="BC937" s="26"/>
       <c r="BD937" s="26"/>
+      <c r="BE937" s="26"/>
     </row>
     <row r="938">
       <c r="AL938" s="26"/>
@@ -35627,6 +36783,7 @@
       <c r="BB938" s="26"/>
       <c r="BC938" s="26"/>
       <c r="BD938" s="26"/>
+      <c r="BE938" s="26"/>
     </row>
     <row r="939">
       <c r="AL939" s="26"/>
@@ -35648,6 +36805,7 @@
       <c r="BB939" s="26"/>
       <c r="BC939" s="26"/>
       <c r="BD939" s="26"/>
+      <c r="BE939" s="26"/>
     </row>
     <row r="940">
       <c r="AL940" s="26"/>
@@ -35669,6 +36827,7 @@
       <c r="BB940" s="26"/>
       <c r="BC940" s="26"/>
       <c r="BD940" s="26"/>
+      <c r="BE940" s="26"/>
     </row>
     <row r="941">
       <c r="AL941" s="26"/>
@@ -35690,6 +36849,7 @@
       <c r="BB941" s="26"/>
       <c r="BC941" s="26"/>
       <c r="BD941" s="26"/>
+      <c r="BE941" s="26"/>
     </row>
     <row r="942">
       <c r="AL942" s="26"/>
@@ -35711,6 +36871,7 @@
       <c r="BB942" s="26"/>
       <c r="BC942" s="26"/>
       <c r="BD942" s="26"/>
+      <c r="BE942" s="26"/>
     </row>
     <row r="943">
       <c r="AL943" s="26"/>
@@ -35732,6 +36893,7 @@
       <c r="BB943" s="26"/>
       <c r="BC943" s="26"/>
       <c r="BD943" s="26"/>
+      <c r="BE943" s="26"/>
     </row>
     <row r="944">
       <c r="AL944" s="26"/>
@@ -35753,6 +36915,7 @@
       <c r="BB944" s="26"/>
       <c r="BC944" s="26"/>
       <c r="BD944" s="26"/>
+      <c r="BE944" s="26"/>
     </row>
     <row r="945">
       <c r="AL945" s="26"/>
@@ -35774,6 +36937,7 @@
       <c r="BB945" s="26"/>
       <c r="BC945" s="26"/>
       <c r="BD945" s="26"/>
+      <c r="BE945" s="26"/>
     </row>
     <row r="946">
       <c r="AL946" s="26"/>
@@ -35795,6 +36959,7 @@
       <c r="BB946" s="26"/>
       <c r="BC946" s="26"/>
       <c r="BD946" s="26"/>
+      <c r="BE946" s="26"/>
     </row>
     <row r="947">
       <c r="AL947" s="26"/>
@@ -35816,6 +36981,7 @@
       <c r="BB947" s="26"/>
       <c r="BC947" s="26"/>
       <c r="BD947" s="26"/>
+      <c r="BE947" s="26"/>
     </row>
     <row r="948">
       <c r="AL948" s="26"/>
@@ -35837,6 +37003,7 @@
       <c r="BB948" s="26"/>
       <c r="BC948" s="26"/>
       <c r="BD948" s="26"/>
+      <c r="BE948" s="26"/>
     </row>
     <row r="949">
       <c r="AL949" s="26"/>
@@ -35858,6 +37025,7 @@
       <c r="BB949" s="26"/>
       <c r="BC949" s="26"/>
       <c r="BD949" s="26"/>
+      <c r="BE949" s="26"/>
     </row>
     <row r="950">
       <c r="AL950" s="26"/>
@@ -35879,6 +37047,7 @@
       <c r="BB950" s="26"/>
       <c r="BC950" s="26"/>
       <c r="BD950" s="26"/>
+      <c r="BE950" s="26"/>
     </row>
     <row r="951">
       <c r="AL951" s="26"/>
@@ -35900,6 +37069,7 @@
       <c r="BB951" s="26"/>
       <c r="BC951" s="26"/>
       <c r="BD951" s="26"/>
+      <c r="BE951" s="26"/>
     </row>
     <row r="952">
       <c r="AL952" s="26"/>
@@ -35921,6 +37091,7 @@
       <c r="BB952" s="26"/>
       <c r="BC952" s="26"/>
       <c r="BD952" s="26"/>
+      <c r="BE952" s="26"/>
     </row>
     <row r="953">
       <c r="AL953" s="26"/>
@@ -35942,6 +37113,7 @@
       <c r="BB953" s="26"/>
       <c r="BC953" s="26"/>
       <c r="BD953" s="26"/>
+      <c r="BE953" s="26"/>
     </row>
     <row r="954">
       <c r="AL954" s="26"/>
@@ -35963,6 +37135,7 @@
       <c r="BB954" s="26"/>
       <c r="BC954" s="26"/>
       <c r="BD954" s="26"/>
+      <c r="BE954" s="26"/>
     </row>
     <row r="955">
       <c r="AL955" s="26"/>
@@ -35984,6 +37157,7 @@
       <c r="BB955" s="26"/>
       <c r="BC955" s="26"/>
       <c r="BD955" s="26"/>
+      <c r="BE955" s="26"/>
     </row>
     <row r="956">
       <c r="AL956" s="26"/>
@@ -36005,6 +37179,7 @@
       <c r="BB956" s="26"/>
       <c r="BC956" s="26"/>
       <c r="BD956" s="26"/>
+      <c r="BE956" s="26"/>
     </row>
     <row r="957">
       <c r="AL957" s="26"/>
@@ -36026,6 +37201,7 @@
       <c r="BB957" s="26"/>
       <c r="BC957" s="26"/>
       <c r="BD957" s="26"/>
+      <c r="BE957" s="26"/>
     </row>
     <row r="958">
       <c r="AL958" s="26"/>
@@ -36047,6 +37223,7 @@
       <c r="BB958" s="26"/>
       <c r="BC958" s="26"/>
       <c r="BD958" s="26"/>
+      <c r="BE958" s="26"/>
     </row>
     <row r="959">
       <c r="AL959" s="26"/>
@@ -36068,6 +37245,7 @@
       <c r="BB959" s="26"/>
       <c r="BC959" s="26"/>
       <c r="BD959" s="26"/>
+      <c r="BE959" s="26"/>
     </row>
     <row r="960">
       <c r="AL960" s="26"/>
@@ -36089,6 +37267,7 @@
       <c r="BB960" s="26"/>
       <c r="BC960" s="26"/>
       <c r="BD960" s="26"/>
+      <c r="BE960" s="26"/>
     </row>
     <row r="961">
       <c r="AL961" s="26"/>
@@ -36110,6 +37289,7 @@
       <c r="BB961" s="26"/>
       <c r="BC961" s="26"/>
       <c r="BD961" s="26"/>
+      <c r="BE961" s="26"/>
     </row>
     <row r="962">
       <c r="AL962" s="26"/>
@@ -36131,6 +37311,7 @@
       <c r="BB962" s="26"/>
       <c r="BC962" s="26"/>
       <c r="BD962" s="26"/>
+      <c r="BE962" s="26"/>
     </row>
     <row r="963">
       <c r="AL963" s="26"/>
@@ -36152,6 +37333,7 @@
       <c r="BB963" s="26"/>
       <c r="BC963" s="26"/>
       <c r="BD963" s="26"/>
+      <c r="BE963" s="26"/>
     </row>
     <row r="964">
       <c r="AL964" s="26"/>
@@ -36173,6 +37355,7 @@
       <c r="BB964" s="26"/>
       <c r="BC964" s="26"/>
       <c r="BD964" s="26"/>
+      <c r="BE964" s="26"/>
     </row>
     <row r="965">
       <c r="AL965" s="26"/>
@@ -36194,6 +37377,7 @@
       <c r="BB965" s="26"/>
       <c r="BC965" s="26"/>
       <c r="BD965" s="26"/>
+      <c r="BE965" s="26"/>
     </row>
     <row r="966">
       <c r="AL966" s="26"/>
@@ -36215,6 +37399,7 @@
       <c r="BB966" s="26"/>
       <c r="BC966" s="26"/>
       <c r="BD966" s="26"/>
+      <c r="BE966" s="26"/>
     </row>
     <row r="967">
       <c r="AL967" s="26"/>
@@ -36236,6 +37421,7 @@
       <c r="BB967" s="26"/>
       <c r="BC967" s="26"/>
       <c r="BD967" s="26"/>
+      <c r="BE967" s="26"/>
     </row>
     <row r="968">
       <c r="AL968" s="26"/>
@@ -36257,6 +37443,7 @@
       <c r="BB968" s="26"/>
       <c r="BC968" s="26"/>
       <c r="BD968" s="26"/>
+      <c r="BE968" s="26"/>
     </row>
     <row r="969">
       <c r="AL969" s="26"/>
@@ -36278,6 +37465,7 @@
       <c r="BB969" s="26"/>
       <c r="BC969" s="26"/>
       <c r="BD969" s="26"/>
+      <c r="BE969" s="26"/>
     </row>
     <row r="970">
       <c r="AL970" s="26"/>
@@ -36299,6 +37487,7 @@
       <c r="BB970" s="26"/>
       <c r="BC970" s="26"/>
       <c r="BD970" s="26"/>
+      <c r="BE970" s="26"/>
     </row>
     <row r="971">
       <c r="AL971" s="26"/>
@@ -36320,6 +37509,7 @@
       <c r="BB971" s="26"/>
       <c r="BC971" s="26"/>
       <c r="BD971" s="26"/>
+      <c r="BE971" s="26"/>
     </row>
     <row r="972">
       <c r="AL972" s="26"/>
@@ -36341,6 +37531,7 @@
       <c r="BB972" s="26"/>
       <c r="BC972" s="26"/>
       <c r="BD972" s="26"/>
+      <c r="BE972" s="26"/>
     </row>
     <row r="973">
       <c r="AL973" s="26"/>
@@ -36362,6 +37553,7 @@
       <c r="BB973" s="26"/>
       <c r="BC973" s="26"/>
       <c r="BD973" s="26"/>
+      <c r="BE973" s="26"/>
     </row>
     <row r="974">
       <c r="AL974" s="26"/>
@@ -36383,6 +37575,7 @@
       <c r="BB974" s="26"/>
       <c r="BC974" s="26"/>
       <c r="BD974" s="26"/>
+      <c r="BE974" s="26"/>
     </row>
     <row r="975">
       <c r="AL975" s="26"/>
@@ -36404,6 +37597,7 @@
       <c r="BB975" s="26"/>
       <c r="BC975" s="26"/>
       <c r="BD975" s="26"/>
+      <c r="BE975" s="26"/>
     </row>
     <row r="976">
       <c r="AL976" s="26"/>
@@ -36425,6 +37619,7 @@
       <c r="BB976" s="26"/>
       <c r="BC976" s="26"/>
       <c r="BD976" s="26"/>
+      <c r="BE976" s="26"/>
     </row>
     <row r="977">
       <c r="AL977" s="26"/>
@@ -36446,6 +37641,7 @@
       <c r="BB977" s="26"/>
       <c r="BC977" s="26"/>
       <c r="BD977" s="26"/>
+      <c r="BE977" s="26"/>
     </row>
     <row r="978">
       <c r="AL978" s="26"/>
@@ -36467,6 +37663,7 @@
       <c r="BB978" s="26"/>
       <c r="BC978" s="26"/>
       <c r="BD978" s="26"/>
+      <c r="BE978" s="26"/>
     </row>
     <row r="979">
       <c r="AL979" s="26"/>
@@ -36488,6 +37685,7 @@
       <c r="BB979" s="26"/>
       <c r="BC979" s="26"/>
       <c r="BD979" s="26"/>
+      <c r="BE979" s="26"/>
     </row>
     <row r="980">
       <c r="AL980" s="26"/>
@@ -36509,6 +37707,7 @@
       <c r="BB980" s="26"/>
       <c r="BC980" s="26"/>
       <c r="BD980" s="26"/>
+      <c r="BE980" s="26"/>
     </row>
     <row r="981">
       <c r="AL981" s="26"/>
@@ -36530,6 +37729,7 @@
       <c r="BB981" s="26"/>
       <c r="BC981" s="26"/>
       <c r="BD981" s="26"/>
+      <c r="BE981" s="26"/>
     </row>
     <row r="982">
       <c r="AL982" s="26"/>
@@ -36551,6 +37751,7 @@
       <c r="BB982" s="26"/>
       <c r="BC982" s="26"/>
       <c r="BD982" s="26"/>
+      <c r="BE982" s="26"/>
     </row>
     <row r="983">
       <c r="AL983" s="26"/>
@@ -36572,6 +37773,7 @@
       <c r="BB983" s="26"/>
       <c r="BC983" s="26"/>
       <c r="BD983" s="26"/>
+      <c r="BE983" s="26"/>
     </row>
     <row r="984">
       <c r="AL984" s="26"/>
@@ -36593,6 +37795,7 @@
       <c r="BB984" s="26"/>
       <c r="BC984" s="26"/>
       <c r="BD984" s="26"/>
+      <c r="BE984" s="26"/>
     </row>
     <row r="985">
       <c r="AL985" s="26"/>
@@ -36614,6 +37817,7 @@
       <c r="BB985" s="26"/>
       <c r="BC985" s="26"/>
       <c r="BD985" s="26"/>
+      <c r="BE985" s="26"/>
     </row>
     <row r="986">
       <c r="AL986" s="26"/>
@@ -36635,6 +37839,7 @@
       <c r="BB986" s="26"/>
       <c r="BC986" s="26"/>
       <c r="BD986" s="26"/>
+      <c r="BE986" s="26"/>
     </row>
     <row r="987">
       <c r="AL987" s="26"/>
@@ -36656,6 +37861,7 @@
       <c r="BB987" s="26"/>
       <c r="BC987" s="26"/>
       <c r="BD987" s="26"/>
+      <c r="BE987" s="26"/>
     </row>
     <row r="988">
       <c r="AL988" s="26"/>
@@ -36677,6 +37883,7 @@
       <c r="BB988" s="26"/>
       <c r="BC988" s="26"/>
       <c r="BD988" s="26"/>
+      <c r="BE988" s="26"/>
     </row>
     <row r="989">
       <c r="AL989" s="26"/>
@@ -36698,6 +37905,7 @@
       <c r="BB989" s="26"/>
       <c r="BC989" s="26"/>
       <c r="BD989" s="26"/>
+      <c r="BE989" s="26"/>
     </row>
     <row r="990">
       <c r="AL990" s="26"/>
@@ -36719,6 +37927,7 @@
       <c r="BB990" s="26"/>
       <c r="BC990" s="26"/>
       <c r="BD990" s="26"/>
+      <c r="BE990" s="26"/>
     </row>
     <row r="991">
       <c r="AL991" s="26"/>
@@ -36740,6 +37949,7 @@
       <c r="BB991" s="26"/>
       <c r="BC991" s="26"/>
       <c r="BD991" s="26"/>
+      <c r="BE991" s="26"/>
     </row>
     <row r="992">
       <c r="AL992" s="26"/>
@@ -36761,6 +37971,7 @@
       <c r="BB992" s="26"/>
       <c r="BC992" s="26"/>
       <c r="BD992" s="26"/>
+      <c r="BE992" s="26"/>
     </row>
     <row r="993">
       <c r="AL993" s="26"/>
@@ -36782,6 +37993,7 @@
       <c r="BB993" s="26"/>
       <c r="BC993" s="26"/>
       <c r="BD993" s="26"/>
+      <c r="BE993" s="26"/>
     </row>
     <row r="994">
       <c r="AL994" s="26"/>
@@ -36803,6 +38015,7 @@
       <c r="BB994" s="26"/>
       <c r="BC994" s="26"/>
       <c r="BD994" s="26"/>
+      <c r="BE994" s="26"/>
     </row>
     <row r="995">
       <c r="AL995" s="26"/>
@@ -36824,6 +38037,7 @@
       <c r="BB995" s="26"/>
       <c r="BC995" s="26"/>
       <c r="BD995" s="26"/>
+      <c r="BE995" s="26"/>
     </row>
     <row r="996">
       <c r="AL996" s="26"/>
@@ -36845,6 +38059,7 @@
       <c r="BB996" s="26"/>
       <c r="BC996" s="26"/>
       <c r="BD996" s="26"/>
+      <c r="BE996" s="26"/>
     </row>
     <row r="997">
       <c r="AL997" s="26"/>
@@ -36866,6 +38081,7 @@
       <c r="BB997" s="26"/>
       <c r="BC997" s="26"/>
       <c r="BD997" s="26"/>
+      <c r="BE997" s="26"/>
     </row>
     <row r="998">
       <c r="AL998" s="26"/>
@@ -36887,6 +38103,7 @@
       <c r="BB998" s="26"/>
       <c r="BC998" s="26"/>
       <c r="BD998" s="26"/>
+      <c r="BE998" s="26"/>
     </row>
     <row r="999">
       <c r="AL999" s="26"/>
@@ -36908,6 +38125,7 @@
       <c r="BB999" s="26"/>
       <c r="BC999" s="26"/>
       <c r="BD999" s="26"/>
+      <c r="BE999" s="26"/>
     </row>
     <row r="1000">
       <c r="AL1000" s="26"/>
@@ -36929,6 +38147,7 @@
       <c r="BB1000" s="26"/>
       <c r="BC1000" s="26"/>
       <c r="BD1000" s="26"/>
+      <c r="BE1000" s="26"/>
     </row>
     <row r="1001">
       <c r="AL1001" s="26"/>
@@ -36950,6 +38169,7 @@
       <c r="BB1001" s="26"/>
       <c r="BC1001" s="26"/>
       <c r="BD1001" s="26"/>
+      <c r="BE1001" s="26"/>
     </row>
     <row r="1002">
       <c r="AL1002" s="26"/>
@@ -36971,6 +38191,7 @@
       <c r="BB1002" s="26"/>
       <c r="BC1002" s="26"/>
       <c r="BD1002" s="26"/>
+      <c r="BE1002" s="26"/>
     </row>
     <row r="1003">
       <c r="AL1003" s="26"/>
@@ -36992,6 +38213,7 @@
       <c r="BB1003" s="26"/>
       <c r="BC1003" s="26"/>
       <c r="BD1003" s="26"/>
+      <c r="BE1003" s="26"/>
     </row>
     <row r="1004">
       <c r="AL1004" s="26"/>
@@ -37013,6 +38235,7 @@
       <c r="BB1004" s="26"/>
       <c r="BC1004" s="26"/>
       <c r="BD1004" s="26"/>
+      <c r="BE1004" s="26"/>
     </row>
     <row r="1005">
       <c r="AL1005" s="26"/>
@@ -37034,6 +38257,7 @@
       <c r="BB1005" s="26"/>
       <c r="BC1005" s="26"/>
       <c r="BD1005" s="26"/>
+      <c r="BE1005" s="26"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -37821,6 +39045,14 @@
       </c>
       <c r="C93" s="2">
         <v>1091.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="22">
+        <v>45471.0</v>
+      </c>
+      <c r="C94" s="2">
+        <v>1243.0</v>
       </c>
     </row>
   </sheetData>
@@ -37906,6 +39138,7 @@
       <c r="BB1" s="23"/>
       <c r="BC1" s="23"/>
       <c r="BD1" s="23"/>
+      <c r="BE1" s="23"/>
     </row>
     <row r="2">
       <c r="A2" s="36" t="s">
@@ -38121,6 +39354,9 @@
       <c r="BD2" s="23">
         <v>45464.0</v>
       </c>
+      <c r="BE2" s="23">
+        <v>45471.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="38" t="s">
@@ -38346,6 +39582,10 @@
         <f>Census!BD45</f>
         <v>6310</v>
       </c>
+      <c r="BE3" s="30">
+        <f>Census!BE45</f>
+        <v>5778</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="38" t="s">
@@ -38571,6 +39811,10 @@
         <f>Census!BD6</f>
         <v>19</v>
       </c>
+      <c r="BE4" s="30">
+        <f>Census!BE6</f>
+        <v>26</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="36" t="s">
@@ -38739,7 +39983,9 @@
       <c r="AQ38" s="1">
         <v>45464.0</v>
       </c>
-      <c r="AR38" s="1"/>
+      <c r="AR38" s="1">
+        <v>45471.0</v>
+      </c>
       <c r="AS38" s="1"/>
       <c r="AT38" s="1"/>
       <c r="AU38" s="1"/>
@@ -38752,6 +39998,7 @@
       <c r="BB38" s="1"/>
       <c r="BC38" s="1"/>
       <c r="BD38" s="1"/>
+      <c r="BE38" s="1"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
@@ -38925,6 +40172,10 @@
         <f>WeeklyMovement!BD3</f>
         <v>0</v>
       </c>
+      <c r="AR39" s="2">
+        <f>WeeklyMovement!BE3</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
@@ -39000,6 +40251,10 @@
       </c>
       <c r="AQ40" s="2">
         <f>WeeklyMovement!BD4</f>
+        <v>0</v>
+      </c>
+      <c r="AR40" s="2">
+        <f>WeeklyMovement!BE4</f>
         <v>0</v>
       </c>
     </row>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -703,11 +703,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="402824561"/>
-        <c:axId val="316465088"/>
+        <c:axId val="856958757"/>
+        <c:axId val="1807339516"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="402824561"/>
+        <c:axId val="856958757"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -759,10 +759,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316465088"/>
+        <c:crossAx val="1807339516"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="316465088"/>
+        <c:axId val="1807339516"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -837,7 +837,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="402824561"/>
+        <c:crossAx val="856958757"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -960,11 +960,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1229423213"/>
-        <c:axId val="237548525"/>
+        <c:axId val="290742442"/>
+        <c:axId val="2073702029"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1229423213"/>
+        <c:axId val="290742442"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1016,10 +1016,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237548525"/>
+        <c:crossAx val="2073702029"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="237548525"/>
+        <c:axId val="2073702029"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1094,7 +1094,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1229423213"/>
+        <c:crossAx val="290742442"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -703,11 +703,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="856958757"/>
-        <c:axId val="1807339516"/>
+        <c:axId val="370142319"/>
+        <c:axId val="2039113396"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="856958757"/>
+        <c:axId val="370142319"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -759,10 +759,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1807339516"/>
+        <c:crossAx val="2039113396"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1807339516"/>
+        <c:axId val="2039113396"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -837,7 +837,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="856958757"/>
+        <c:crossAx val="370142319"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -960,11 +960,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="290742442"/>
-        <c:axId val="2073702029"/>
+        <c:axId val="1076364472"/>
+        <c:axId val="964337656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="290742442"/>
+        <c:axId val="1076364472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1016,10 +1016,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2073702029"/>
+        <c:crossAx val="964337656"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2073702029"/>
+        <c:axId val="964337656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1094,7 +1094,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="290742442"/>
+        <c:crossAx val="1076364472"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -703,11 +703,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="370142319"/>
-        <c:axId val="2039113396"/>
+        <c:axId val="1225260198"/>
+        <c:axId val="533822529"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="370142319"/>
+        <c:axId val="1225260198"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -759,10 +759,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2039113396"/>
+        <c:crossAx val="533822529"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2039113396"/>
+        <c:axId val="533822529"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -837,7 +837,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370142319"/>
+        <c:crossAx val="1225260198"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -960,11 +960,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1076364472"/>
-        <c:axId val="964337656"/>
+        <c:axId val="1930993868"/>
+        <c:axId val="1741542710"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1076364472"/>
+        <c:axId val="1930993868"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1016,10 +1016,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="964337656"/>
+        <c:crossAx val="1741542710"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="964337656"/>
+        <c:axId val="1741542710"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1094,7 +1094,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1076364472"/>
+        <c:crossAx val="1930993868"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -703,11 +703,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1225260198"/>
-        <c:axId val="533822529"/>
+        <c:axId val="344189814"/>
+        <c:axId val="887726726"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1225260198"/>
+        <c:axId val="344189814"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -759,10 +759,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533822529"/>
+        <c:crossAx val="887726726"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="533822529"/>
+        <c:axId val="887726726"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -837,7 +837,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1225260198"/>
+        <c:crossAx val="344189814"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -960,11 +960,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1930993868"/>
-        <c:axId val="1741542710"/>
+        <c:axId val="412048098"/>
+        <c:axId val="285114588"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1930993868"/>
+        <c:axId val="412048098"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1016,10 +1016,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1741542710"/>
+        <c:crossAx val="285114588"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1741542710"/>
+        <c:axId val="285114588"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1094,7 +1094,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1930993868"/>
+        <c:crossAx val="412048098"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -703,11 +703,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="344189814"/>
-        <c:axId val="887726726"/>
+        <c:axId val="1258481871"/>
+        <c:axId val="877881921"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="344189814"/>
+        <c:axId val="1258481871"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -759,10 +759,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="887726726"/>
+        <c:crossAx val="877881921"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="887726726"/>
+        <c:axId val="877881921"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -837,7 +837,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="344189814"/>
+        <c:crossAx val="1258481871"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -960,11 +960,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="412048098"/>
-        <c:axId val="285114588"/>
+        <c:axId val="506169534"/>
+        <c:axId val="1269611533"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="412048098"/>
+        <c:axId val="506169534"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1016,10 +1016,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="285114588"/>
+        <c:crossAx val="1269611533"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="285114588"/>
+        <c:axId val="1269611533"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1094,7 +1094,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="412048098"/>
+        <c:crossAx val="506169534"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -703,11 +703,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1258481871"/>
-        <c:axId val="877881921"/>
+        <c:axId val="931381311"/>
+        <c:axId val="2129740498"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1258481871"/>
+        <c:axId val="931381311"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -759,10 +759,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="877881921"/>
+        <c:crossAx val="2129740498"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="877881921"/>
+        <c:axId val="2129740498"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -837,7 +837,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1258481871"/>
+        <c:crossAx val="931381311"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -960,11 +960,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="506169534"/>
-        <c:axId val="1269611533"/>
+        <c:axId val="931686998"/>
+        <c:axId val="943915791"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="506169534"/>
+        <c:axId val="931686998"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1016,10 +1016,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1269611533"/>
+        <c:crossAx val="943915791"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1269611533"/>
+        <c:axId val="943915791"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1094,7 +1094,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506169534"/>
+        <c:crossAx val="931686998"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -706,11 +706,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="943277121"/>
-        <c:axId val="1335786702"/>
+        <c:axId val="1421904821"/>
+        <c:axId val="1998942312"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="943277121"/>
+        <c:axId val="1421904821"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -762,10 +762,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1335786702"/>
+        <c:crossAx val="1998942312"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1335786702"/>
+        <c:axId val="1998942312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -840,7 +840,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="943277121"/>
+        <c:crossAx val="1421904821"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -963,11 +963,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1706378129"/>
-        <c:axId val="1600912273"/>
+        <c:axId val="873488579"/>
+        <c:axId val="681131011"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1706378129"/>
+        <c:axId val="873488579"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1019,10 +1019,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1600912273"/>
+        <c:crossAx val="681131011"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1600912273"/>
+        <c:axId val="681131011"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1097,7 +1097,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1706378129"/>
+        <c:crossAx val="873488579"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -706,11 +706,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1421904821"/>
-        <c:axId val="1998942312"/>
+        <c:axId val="1323924474"/>
+        <c:axId val="978678853"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1421904821"/>
+        <c:axId val="1323924474"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -762,10 +762,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1998942312"/>
+        <c:crossAx val="978678853"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1998942312"/>
+        <c:axId val="978678853"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -840,7 +840,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1421904821"/>
+        <c:crossAx val="1323924474"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -963,11 +963,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="873488579"/>
-        <c:axId val="681131011"/>
+        <c:axId val="1692682279"/>
+        <c:axId val="1306627168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="873488579"/>
+        <c:axId val="1692682279"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1019,10 +1019,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="681131011"/>
+        <c:crossAx val="1306627168"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="681131011"/>
+        <c:axId val="1306627168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1097,7 +1097,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="873488579"/>
+        <c:crossAx val="1692682279"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -706,11 +706,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1323924474"/>
-        <c:axId val="978678853"/>
+        <c:axId val="533463524"/>
+        <c:axId val="420497666"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1323924474"/>
+        <c:axId val="533463524"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -762,10 +762,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="978678853"/>
+        <c:crossAx val="420497666"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="978678853"/>
+        <c:axId val="420497666"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -840,7 +840,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1323924474"/>
+        <c:crossAx val="533463524"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -963,11 +963,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1692682279"/>
-        <c:axId val="1306627168"/>
+        <c:axId val="27011067"/>
+        <c:axId val="438545317"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1692682279"/>
+        <c:axId val="27011067"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1019,10 +1019,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1306627168"/>
+        <c:crossAx val="438545317"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1306627168"/>
+        <c:axId val="438545317"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1097,7 +1097,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1692682279"/>
+        <c:crossAx val="27011067"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -706,11 +706,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="533463524"/>
-        <c:axId val="420497666"/>
+        <c:axId val="212263720"/>
+        <c:axId val="926173620"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="533463524"/>
+        <c:axId val="212263720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -762,10 +762,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420497666"/>
+        <c:crossAx val="926173620"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="420497666"/>
+        <c:axId val="926173620"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -840,7 +840,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533463524"/>
+        <c:crossAx val="212263720"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -963,11 +963,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="27011067"/>
-        <c:axId val="438545317"/>
+        <c:axId val="36244145"/>
+        <c:axId val="774428244"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="27011067"/>
+        <c:axId val="36244145"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1019,10 +1019,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="438545317"/>
+        <c:crossAx val="774428244"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="438545317"/>
+        <c:axId val="774428244"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1097,7 +1097,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27011067"/>
+        <c:crossAx val="36244145"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -706,11 +706,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="212263720"/>
-        <c:axId val="926173620"/>
+        <c:axId val="573102593"/>
+        <c:axId val="277375813"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="212263720"/>
+        <c:axId val="573102593"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -762,10 +762,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="926173620"/>
+        <c:crossAx val="277375813"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="926173620"/>
+        <c:axId val="277375813"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -840,7 +840,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="212263720"/>
+        <c:crossAx val="573102593"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -963,11 +963,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="36244145"/>
-        <c:axId val="774428244"/>
+        <c:axId val="1203853335"/>
+        <c:axId val="1324674359"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="36244145"/>
+        <c:axId val="1203853335"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1019,10 +1019,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="774428244"/>
+        <c:crossAx val="1324674359"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="774428244"/>
+        <c:axId val="1324674359"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1097,7 +1097,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36244145"/>
+        <c:crossAx val="1203853335"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -706,11 +706,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="573102593"/>
-        <c:axId val="277375813"/>
+        <c:axId val="1372337736"/>
+        <c:axId val="173616230"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="573102593"/>
+        <c:axId val="1372337736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -762,10 +762,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="277375813"/>
+        <c:crossAx val="173616230"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="277375813"/>
+        <c:axId val="173616230"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -840,7 +840,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="573102593"/>
+        <c:crossAx val="1372337736"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -963,11 +963,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1203853335"/>
-        <c:axId val="1324674359"/>
+        <c:axId val="2041464649"/>
+        <c:axId val="428234343"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1203853335"/>
+        <c:axId val="2041464649"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1019,10 +1019,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1324674359"/>
+        <c:crossAx val="428234343"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1324674359"/>
+        <c:axId val="428234343"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1097,7 +1097,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1203853335"/>
+        <c:crossAx val="2041464649"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -481,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -594,6 +594,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -662,12 +665,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Charts!$B$2:$BF$2</c:f>
+              <c:f>Charts!$B$2:$BG$2</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$B$3:$BF$3</c:f>
+              <c:f>Charts!$B$3:$BG$3</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -696,21 +699,21 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Charts!$B$2:$BF$2</c:f>
+              <c:f>Charts!$B$2:$BG$2</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$B$4:$BF$4</c:f>
+              <c:f>Charts!$B$4:$BG$4</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1372337736"/>
-        <c:axId val="173616230"/>
+        <c:axId val="1676593613"/>
+        <c:axId val="1123372423"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1372337736"/>
+        <c:axId val="1676593613"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -762,10 +765,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173616230"/>
+        <c:crossAx val="1123372423"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="173616230"/>
+        <c:axId val="1123372423"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -840,7 +843,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1372337736"/>
+        <c:crossAx val="1676593613"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -922,12 +925,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Charts!$B$38:$AS$38</c:f>
+              <c:f>Charts!$B$38:$AT$38</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$B$39:$AS$39</c:f>
+              <c:f>Charts!$B$39:$AT$39</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -952,22 +955,22 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Charts!$B$38:$AS$38</c:f>
+              <c:f>Charts!$B$38:$AT$38</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$B$40:$AS$40</c:f>
+              <c:f>Charts!$B$40:$AT$40</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="2041464649"/>
-        <c:axId val="428234343"/>
+        <c:axId val="945125167"/>
+        <c:axId val="925065573"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2041464649"/>
+        <c:axId val="945125167"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1019,10 +1022,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428234343"/>
+        <c:crossAx val="925065573"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="428234343"/>
+        <c:axId val="925065573"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1097,7 +1100,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2041464649"/>
+        <c:crossAx val="945125167"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1584,6 +1587,9 @@
       <c r="BF1" s="1">
         <v>45478.0</v>
       </c>
+      <c r="BG1" s="1">
+        <v>45485.0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1758,6 +1764,9 @@
       <c r="BF2" s="3">
         <v>44390.0</v>
       </c>
+      <c r="BG2" s="3">
+        <v>44655.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -1931,6 +1940,7 @@
       <c r="BF3" s="2">
         <v>7220.0</v>
       </c>
+      <c r="BG3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -2095,6 +2105,9 @@
       </c>
       <c r="BF4" s="3">
         <v>32871.0</v>
+      </c>
+      <c r="BG4" s="3">
+        <v>33157.0</v>
       </c>
     </row>
     <row r="5">
@@ -2376,6 +2389,9 @@
       </c>
       <c r="BF1" s="1">
         <v>45478.0</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>45485.0</v>
       </c>
     </row>
     <row r="2">
@@ -2426,6 +2442,7 @@
       <c r="BD2" s="2"/>
       <c r="BE2" s="2"/>
       <c r="BF2" s="2"/>
+      <c r="BG2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -2561,6 +2578,9 @@
         <v>0.0</v>
       </c>
       <c r="BF3" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="BG3" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -2650,6 +2670,9 @@
         <v>0.0</v>
       </c>
       <c r="BF4" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="BG4" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -2709,6 +2732,7 @@
       <c r="BD5" s="2"/>
       <c r="BE5" s="2"/>
       <c r="BF5" s="2"/>
+      <c r="BG5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -2768,6 +2792,7 @@
       <c r="BD6" s="2"/>
       <c r="BE6" s="2"/>
       <c r="BF6" s="2"/>
+      <c r="BG6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
@@ -2850,6 +2875,9 @@
       </c>
       <c r="BF7" s="2">
         <v>68.0</v>
+      </c>
+      <c r="BG7" s="2">
+        <v>100.0</v>
       </c>
     </row>
     <row r="8">
@@ -2936,6 +2964,9 @@
       <c r="BF8" s="2">
         <v>51.0</v>
       </c>
+      <c r="BG8" s="2">
+        <v>89.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
@@ -3099,6 +3130,9 @@
         <v>0.0</v>
       </c>
       <c r="BF9" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="BG9" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -3164,6 +3198,7 @@
       <c r="BD10" s="2"/>
       <c r="BE10" s="2"/>
       <c r="BF10" s="2"/>
+      <c r="BG10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
@@ -3246,6 +3281,9 @@
       </c>
       <c r="BF11" s="2">
         <v>240.0</v>
+      </c>
+      <c r="BG11" s="2">
+        <v>252.0</v>
       </c>
     </row>
     <row r="12">
@@ -3306,6 +3344,7 @@
       <c r="BD12" s="2"/>
       <c r="BE12" s="2"/>
       <c r="BF12" s="2"/>
+      <c r="BG12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
@@ -3479,6 +3518,9 @@
       <c r="BF13" s="2">
         <v>86.0</v>
       </c>
+      <c r="BG13" s="2">
+        <v>92.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
@@ -3652,6 +3694,9 @@
       <c r="BF14" s="2">
         <v>13.0</v>
       </c>
+      <c r="BG14" s="2">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
@@ -3824,6 +3869,9 @@
       </c>
       <c r="BF15" s="2">
         <v>137.0</v>
+      </c>
+      <c r="BG15" s="2">
+        <v>146.0</v>
       </c>
     </row>
     <row r="16">
@@ -4084,6 +4132,9 @@
       <c r="BF18" s="2">
         <v>223.0</v>
       </c>
+      <c r="BG18" s="2">
+        <v>252.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="C19" s="6"/>
@@ -4546,6 +4597,9 @@
       </c>
       <c r="BE1" s="1">
         <v>45478.0</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>45485.0</v>
       </c>
     </row>
     <row r="2">
@@ -4608,6 +4662,7 @@
       <c r="BC2" s="8"/>
       <c r="BD2" s="8"/>
       <c r="BE2" s="8"/>
+      <c r="BF2" s="8"/>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
@@ -4669,6 +4724,7 @@
       <c r="BC3" s="8"/>
       <c r="BD3" s="8"/>
       <c r="BE3" s="8"/>
+      <c r="BF3" s="8"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -4836,6 +4892,9 @@
       <c r="BE4" s="8">
         <v>11.0</v>
       </c>
+      <c r="BF4" s="8">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
@@ -4946,6 +5005,7 @@
       <c r="BC5" s="8"/>
       <c r="BD5" s="8"/>
       <c r="BE5" s="8"/>
+      <c r="BF5" s="8"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -5032,6 +5092,9 @@
       <c r="BE6" s="8">
         <v>12.0</v>
       </c>
+      <c r="BF6" s="8">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
@@ -5203,6 +5266,9 @@
         <v>505.0</v>
       </c>
       <c r="BE7" s="8">
+        <v>486.0</v>
+      </c>
+      <c r="BF7" s="8">
         <v>486.0</v>
       </c>
     </row>
@@ -5307,6 +5373,7 @@
       <c r="BC8" s="8"/>
       <c r="BD8" s="8"/>
       <c r="BE8" s="8"/>
+      <c r="BF8" s="8"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
@@ -5339,6 +5406,7 @@
       <c r="BC9" s="9"/>
       <c r="BD9" s="9"/>
       <c r="BE9" s="9"/>
+      <c r="BF9" s="9"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
@@ -5511,6 +5579,9 @@
       </c>
       <c r="BE10" s="8">
         <v>254.0</v>
+      </c>
+      <c r="BF10" s="8">
+        <v>267.0</v>
       </c>
     </row>
     <row r="11">
@@ -5586,6 +5657,7 @@
       </c>
       <c r="BD11" s="8"/>
       <c r="BE11" s="8"/>
+      <c r="BF11" s="8"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
@@ -5701,6 +5773,9 @@
       <c r="BE12" s="8">
         <v>15.0</v>
       </c>
+      <c r="BF12" s="8">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
@@ -5845,6 +5920,9 @@
       <c r="BE13" s="8">
         <v>45.0</v>
       </c>
+      <c r="BF13" s="8">
+        <v>58.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
@@ -6017,6 +6095,9 @@
       </c>
       <c r="BE14" s="8">
         <v>23.0</v>
+      </c>
+      <c r="BF14" s="8">
+        <v>22.0</v>
       </c>
     </row>
     <row r="15">
@@ -6133,6 +6214,7 @@
       <c r="BC15" s="8"/>
       <c r="BD15" s="8"/>
       <c r="BE15" s="8"/>
+      <c r="BF15" s="8"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
@@ -6305,6 +6387,9 @@
       </c>
       <c r="BE16" s="8">
         <v>20.0</v>
+      </c>
+      <c r="BF16" s="8">
+        <v>23.0</v>
       </c>
     </row>
     <row r="17">
@@ -6371,6 +6456,7 @@
       <c r="BC17" s="8"/>
       <c r="BD17" s="8"/>
       <c r="BE17" s="8"/>
+      <c r="BF17" s="8"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
@@ -6544,6 +6630,9 @@
       <c r="BE18" s="8">
         <v>23.0</v>
       </c>
+      <c r="BF18" s="8">
+        <v>24.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
@@ -6704,6 +6793,9 @@
       <c r="BE19" s="8">
         <v>10.0</v>
       </c>
+      <c r="BF19" s="8">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
@@ -6876,6 +6968,9 @@
       </c>
       <c r="BE20" s="8">
         <v>72.0</v>
+      </c>
+      <c r="BF20" s="8">
+        <v>71.0</v>
       </c>
     </row>
     <row r="21">
@@ -6913,6 +7008,7 @@
       <c r="BC21" s="9"/>
       <c r="BD21" s="9"/>
       <c r="BE21" s="9"/>
+      <c r="BF21" s="9"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
@@ -6985,6 +7081,9 @@
       <c r="BC22" s="15"/>
       <c r="BD22" s="15"/>
       <c r="BE22" s="15"/>
+      <c r="BF22" s="15">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
@@ -7143,6 +7242,7 @@
       <c r="BC23" s="15"/>
       <c r="BD23" s="15"/>
       <c r="BE23" s="15"/>
+      <c r="BF23" s="15"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
@@ -7315,6 +7415,9 @@
       </c>
       <c r="BE24" s="8">
         <v>4443.0</v>
+      </c>
+      <c r="BF24" s="8">
+        <v>4446.0</v>
       </c>
     </row>
     <row r="25">
@@ -7648,6 +7751,9 @@
       </c>
       <c r="BE1" s="1">
         <v>45478.0</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>45485.0</v>
       </c>
     </row>
     <row r="2">
@@ -7721,6 +7827,7 @@
       <c r="BE2" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="BF2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -7894,6 +8001,7 @@
       <c r="BE3" s="2">
         <v>0.0</v>
       </c>
+      <c r="BF3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -7987,6 +8095,7 @@
       <c r="BE4" s="2">
         <v>0.0</v>
       </c>
+      <c r="BF4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
@@ -8160,6 +8269,7 @@
       <c r="BE5" s="2">
         <v>0.0</v>
       </c>
+      <c r="BF5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -8333,6 +8443,7 @@
       <c r="BE6" s="2">
         <v>0.0</v>
       </c>
+      <c r="BF6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
@@ -8506,6 +8617,7 @@
       <c r="BE7" s="2">
         <v>0.0</v>
       </c>
+      <c r="BF7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
@@ -8679,6 +8791,7 @@
       <c r="BE8" s="2">
         <v>0.0</v>
       </c>
+      <c r="BF8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
@@ -8852,6 +8965,7 @@
       <c r="BE9" s="2">
         <v>4.0</v>
       </c>
+      <c r="BF9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
@@ -8941,6 +9055,7 @@
       <c r="BE10" s="2">
         <v>0.0</v>
       </c>
+      <c r="BF10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
@@ -9114,6 +9229,7 @@
       <c r="BE11" s="2">
         <v>0.0</v>
       </c>
+      <c r="BF11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
@@ -9287,6 +9403,7 @@
       <c r="BE12" s="2">
         <v>0.0</v>
       </c>
+      <c r="BF12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
@@ -9460,6 +9577,7 @@
       <c r="BE13" s="2">
         <v>0.0</v>
       </c>
+      <c r="BF13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
@@ -9633,6 +9751,7 @@
       <c r="BE14" s="2">
         <v>0.0</v>
       </c>
+      <c r="BF14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
@@ -9806,6 +9925,7 @@
       <c r="BE15" s="2">
         <v>2.0</v>
       </c>
+      <c r="BF15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
@@ -9979,6 +10099,7 @@
       <c r="BE16" s="2">
         <v>0.0</v>
       </c>
+      <c r="BF16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
@@ -10152,6 +10273,7 @@
       <c r="BE17" s="2">
         <v>0.0</v>
       </c>
+      <c r="BF17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
@@ -10325,6 +10447,7 @@
       <c r="BE18" s="2">
         <v>0.0</v>
       </c>
+      <c r="BF18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
@@ -10498,6 +10621,7 @@
       <c r="BE19" s="2">
         <v>0.0</v>
       </c>
+      <c r="BF19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
@@ -10671,6 +10795,7 @@
       <c r="BE20" s="2">
         <v>0.0</v>
       </c>
+      <c r="BF20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
@@ -10844,6 +10969,7 @@
       <c r="BE21" s="2">
         <v>0.0</v>
       </c>
+      <c r="BF21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
@@ -11017,6 +11143,7 @@
       <c r="BE22" s="2">
         <v>0.0</v>
       </c>
+      <c r="BF22" s="2"/>
     </row>
     <row r="23">
       <c r="B23" s="12"/>
@@ -11043,6 +11170,7 @@
       <c r="BC23" s="20"/>
       <c r="BD23" s="20"/>
       <c r="BE23" s="20"/>
+      <c r="BF23" s="20"/>
     </row>
     <row r="24">
       <c r="B24" s="12"/>
@@ -11105,6 +11233,7 @@
       <c r="BC25" s="12"/>
       <c r="BD25" s="12"/>
       <c r="BE25" s="12"/>
+      <c r="BF25" s="12"/>
     </row>
     <row r="26">
       <c r="B26" s="6"/>
@@ -11152,6 +11281,7 @@
       <c r="BC26" s="12"/>
       <c r="BD26" s="12"/>
       <c r="BE26" s="12"/>
+      <c r="BF26" s="12"/>
     </row>
     <row r="27">
       <c r="B27" s="6"/>
@@ -11646,6 +11776,9 @@
       <c r="BF1" s="23">
         <v>45478.0</v>
       </c>
+      <c r="BG1" s="23">
+        <v>45485.0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -11731,6 +11864,9 @@
       <c r="BF2" s="24">
         <v>27.0</v>
       </c>
+      <c r="BG2" s="24">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -11906,6 +12042,9 @@
       </c>
       <c r="BF3" s="24">
         <v>2.0</v>
+      </c>
+      <c r="BG3" s="24">
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
@@ -12067,6 +12206,9 @@
       <c r="BF4" s="24">
         <v>0.0</v>
       </c>
+      <c r="BG4" s="24">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
@@ -12243,6 +12385,9 @@
       <c r="BF5" s="24">
         <v>0.0</v>
       </c>
+      <c r="BG5" s="24">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -12465,8 +12610,12 @@
         <v>26.0</v>
       </c>
       <c r="BF6" s="15">
-        <f>SUM(BF2:BF5)</f>
+        <f t="shared" ref="BF6:BG6" si="3">SUM(BF2:BF5)</f>
         <v>29</v>
+      </c>
+      <c r="BG6" s="15">
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -12611,6 +12760,7 @@
       <c r="BD7" s="6"/>
       <c r="BE7" s="6"/>
       <c r="BF7" s="6"/>
+      <c r="BG7" s="6"/>
     </row>
     <row r="8">
       <c r="A8" s="2"/>
@@ -12668,145 +12818,146 @@
       <c r="BD8" s="26"/>
       <c r="BE8" s="26"/>
       <c r="BF8" s="26"/>
+      <c r="BG8" s="26"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B9" s="1">
-        <f t="shared" ref="B9:AI9" si="3">B1</f>
+        <f t="shared" ref="B9:AI9" si="4">B1</f>
         <v>45086</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45093</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45100</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45107</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45114</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45121</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45128</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45135</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45142</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45149</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45156</v>
       </c>
       <c r="M9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45163</v>
       </c>
       <c r="N9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45170</v>
       </c>
       <c r="O9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45177</v>
       </c>
       <c r="P9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45184</v>
       </c>
       <c r="Q9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45191</v>
       </c>
       <c r="R9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45198</v>
       </c>
       <c r="S9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45205</v>
       </c>
       <c r="T9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45212</v>
       </c>
       <c r="U9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45219</v>
       </c>
       <c r="V9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45226</v>
       </c>
       <c r="W9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45233</v>
       </c>
       <c r="X9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45240</v>
       </c>
       <c r="Y9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45247</v>
       </c>
       <c r="Z9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45254</v>
       </c>
       <c r="AA9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45261</v>
       </c>
       <c r="AB9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45268</v>
       </c>
       <c r="AC9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45275</v>
       </c>
       <c r="AD9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45282</v>
       </c>
       <c r="AE9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45289</v>
       </c>
       <c r="AF9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45296</v>
       </c>
       <c r="AG9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45303</v>
       </c>
       <c r="AH9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45310</v>
       </c>
       <c r="AI9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45317</v>
       </c>
       <c r="AJ9" s="1">
@@ -12877,6 +13028,9 @@
       </c>
       <c r="BF9" s="23">
         <v>45478.0</v>
+      </c>
+      <c r="BG9" s="23">
+        <v>45485.0</v>
       </c>
     </row>
     <row r="10">
@@ -13031,6 +13185,9 @@
       </c>
       <c r="BF10" s="28">
         <v>681.0</v>
+      </c>
+      <c r="BG10" s="28">
+        <v>644.0</v>
       </c>
     </row>
     <row r="11">
@@ -13136,6 +13293,9 @@
       <c r="BF11" s="28">
         <v>783.0</v>
       </c>
+      <c r="BG11" s="28">
+        <v>762.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
@@ -13270,6 +13430,9 @@
       <c r="BF12" s="29">
         <v>478.0</v>
       </c>
+      <c r="BG12" s="29">
+        <v>598.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
@@ -13445,6 +13608,9 @@
       </c>
       <c r="BF13" s="30">
         <v>717.0</v>
+      </c>
+      <c r="BG13" s="30">
+        <v>774.0</v>
       </c>
     </row>
     <row r="14">
@@ -13585,6 +13751,9 @@
       </c>
       <c r="BF14" s="24">
         <v>348.0</v>
+      </c>
+      <c r="BG14" s="24">
+        <v>374.0</v>
       </c>
     </row>
     <row r="15">
@@ -13673,6 +13842,9 @@
       <c r="BF15" s="24">
         <v>142.0</v>
       </c>
+      <c r="BG15" s="24">
+        <v>123.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
@@ -13808,6 +13980,9 @@
       <c r="BF16" s="24">
         <v>286.0</v>
       </c>
+      <c r="BG16" s="24">
+        <v>263.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
@@ -13921,6 +14096,9 @@
       <c r="BF17" s="24">
         <v>88.0</v>
       </c>
+      <c r="BG17" s="24">
+        <v>80.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
@@ -14055,6 +14233,9 @@
       <c r="BF18" s="24">
         <v>496.0</v>
       </c>
+      <c r="BG18" s="24">
+        <v>437.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
@@ -14189,6 +14370,9 @@
       <c r="BF19" s="24">
         <v>113.0</v>
       </c>
+      <c r="BG19" s="24">
+        <v>151.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
@@ -14364,6 +14548,9 @@
       </c>
       <c r="BF20" s="24">
         <v>303.0</v>
+      </c>
+      <c r="BG20" s="24">
+        <v>313.0</v>
       </c>
     </row>
     <row r="21">
@@ -14455,6 +14642,9 @@
       <c r="BF21" s="24">
         <v>238.0</v>
       </c>
+      <c r="BG21" s="24">
+        <v>231.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
@@ -14610,6 +14800,9 @@
       </c>
       <c r="BF22" s="24">
         <v>154.0</v>
+      </c>
+      <c r="BG22" s="24">
+        <v>145.0</v>
       </c>
     </row>
     <row r="23">
@@ -14743,6 +14936,9 @@
       </c>
       <c r="BF23" s="24">
         <v>528.0</v>
+      </c>
+      <c r="BG23" s="24">
+        <v>489.0</v>
       </c>
     </row>
     <row r="24">
@@ -14869,6 +15065,9 @@
       <c r="BF24" s="24">
         <v>290.0</v>
       </c>
+      <c r="BG24" s="24">
+        <v>284.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
@@ -15044,6 +15243,9 @@
       </c>
       <c r="BF25" s="24">
         <v>225.0</v>
+      </c>
+      <c r="BG25" s="24">
+        <v>218.0</v>
       </c>
     </row>
     <row r="26">
@@ -15070,6 +15272,7 @@
       <c r="BD26" s="26"/>
       <c r="BE26" s="26"/>
       <c r="BF26" s="26"/>
+      <c r="BG26" s="26"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
@@ -15098,6 +15301,7 @@
       <c r="BD27" s="26"/>
       <c r="BE27" s="26"/>
       <c r="BF27" s="26"/>
+      <c r="BG27" s="26"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
@@ -15166,6 +15370,7 @@
       <c r="BD28" s="28"/>
       <c r="BE28" s="28"/>
       <c r="BF28" s="28"/>
+      <c r="BG28" s="28"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
@@ -15318,6 +15523,7 @@
       <c r="BD29" s="28"/>
       <c r="BE29" s="28"/>
       <c r="BF29" s="28"/>
+      <c r="BG29" s="28"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
@@ -15446,6 +15652,7 @@
       <c r="BD30" s="28"/>
       <c r="BE30" s="28"/>
       <c r="BF30" s="28"/>
+      <c r="BG30" s="28"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
@@ -15526,6 +15733,7 @@
       <c r="BD31" s="24"/>
       <c r="BE31" s="24"/>
       <c r="BF31" s="24"/>
+      <c r="BG31" s="24"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
@@ -15700,6 +15908,7 @@
         <v>56.0</v>
       </c>
       <c r="BF32" s="28"/>
+      <c r="BG32" s="28"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
@@ -15844,6 +16053,7 @@
       <c r="BD33" s="28"/>
       <c r="BE33" s="28"/>
       <c r="BF33" s="28"/>
+      <c r="BG33" s="28"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
@@ -15900,6 +16110,7 @@
       <c r="BD34" s="24"/>
       <c r="BE34" s="24"/>
       <c r="BF34" s="24"/>
+      <c r="BG34" s="24"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
@@ -16048,6 +16259,7 @@
       <c r="BD35" s="24"/>
       <c r="BE35" s="24"/>
       <c r="BF35" s="24"/>
+      <c r="BG35" s="24"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
@@ -16202,6 +16414,7 @@
       <c r="BD36" s="24"/>
       <c r="BE36" s="24"/>
       <c r="BF36" s="24"/>
+      <c r="BG36" s="24"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
@@ -16326,6 +16539,7 @@
       <c r="BD37" s="24"/>
       <c r="BE37" s="24"/>
       <c r="BF37" s="24"/>
+      <c r="BG37" s="24"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
@@ -16436,6 +16650,7 @@
       <c r="BD38" s="24"/>
       <c r="BE38" s="24"/>
       <c r="BF38" s="24"/>
+      <c r="BG38" s="24"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
@@ -16572,6 +16787,7 @@
       <c r="BD39" s="24"/>
       <c r="BE39" s="24"/>
       <c r="BF39" s="24"/>
+      <c r="BG39" s="24"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
@@ -16720,6 +16936,7 @@
       <c r="BD40" s="24"/>
       <c r="BE40" s="24"/>
       <c r="BF40" s="24"/>
+      <c r="BG40" s="24"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
@@ -16755,6 +16972,7 @@
       <c r="BD41" s="26"/>
       <c r="BE41" s="26"/>
       <c r="BF41" s="26"/>
+      <c r="BG41" s="26"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
@@ -16915,6 +17133,7 @@
       <c r="BD42" s="24"/>
       <c r="BE42" s="24"/>
       <c r="BF42" s="24"/>
+      <c r="BG42" s="24"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
@@ -16967,6 +17186,7 @@
       <c r="BD43" s="26"/>
       <c r="BE43" s="26"/>
       <c r="BF43" s="26"/>
+      <c r="BG43" s="26"/>
     </row>
     <row r="44">
       <c r="B44" s="18"/>
@@ -16992,238 +17212,243 @@
       <c r="BD44" s="24"/>
       <c r="BE44" s="8"/>
       <c r="BF44" s="8"/>
+      <c r="BG44" s="8"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B45" s="18">
-        <f t="shared" ref="B45:BA45" si="4">sum(B10:B43)</f>
+        <f t="shared" ref="B45:BA45" si="5">sum(B10:B43)</f>
         <v>4647</v>
       </c>
       <c r="C45" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4693</v>
       </c>
       <c r="D45" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4830</v>
       </c>
       <c r="E45" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5072</v>
       </c>
       <c r="F45" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5166</v>
       </c>
       <c r="G45" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5268</v>
       </c>
       <c r="H45" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5407</v>
       </c>
       <c r="I45" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5763</v>
       </c>
       <c r="J45" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6054</v>
       </c>
       <c r="K45" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6128</v>
       </c>
       <c r="L45" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6360</v>
       </c>
       <c r="M45" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6527</v>
       </c>
       <c r="N45" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6662</v>
       </c>
       <c r="O45" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6991</v>
       </c>
       <c r="P45" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7370</v>
       </c>
       <c r="Q45" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8460</v>
       </c>
       <c r="R45" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9361</v>
       </c>
       <c r="S45" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9860</v>
       </c>
       <c r="T45" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11018</v>
       </c>
       <c r="U45" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11278</v>
       </c>
       <c r="V45" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11749</v>
       </c>
       <c r="W45" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11750</v>
       </c>
       <c r="X45" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12125</v>
       </c>
       <c r="Y45" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12121</v>
       </c>
       <c r="Z45" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12198</v>
       </c>
       <c r="AA45" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13222</v>
       </c>
       <c r="AB45" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13600</v>
       </c>
       <c r="AC45" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14033</v>
       </c>
       <c r="AD45" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14505</v>
       </c>
       <c r="AE45" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14700</v>
       </c>
       <c r="AF45" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14734</v>
       </c>
       <c r="AG45" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14824</v>
       </c>
       <c r="AH45" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14649</v>
       </c>
       <c r="AI45" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14088</v>
       </c>
       <c r="AJ45" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13749</v>
       </c>
       <c r="AK45" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13156</v>
       </c>
       <c r="AL45" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12722</v>
       </c>
       <c r="AM45" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12350</v>
       </c>
       <c r="AN45" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12084</v>
       </c>
       <c r="AO45" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11592</v>
       </c>
       <c r="AP45" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11207</v>
       </c>
       <c r="AQ45" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10643</v>
       </c>
       <c r="AR45" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10208</v>
       </c>
       <c r="AS45" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9700</v>
       </c>
       <c r="AT45" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9398</v>
       </c>
       <c r="AU45" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8967</v>
       </c>
       <c r="AV45" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8605</v>
       </c>
       <c r="AW45" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8190</v>
       </c>
       <c r="AX45" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7793</v>
       </c>
       <c r="AY45" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7603</v>
       </c>
       <c r="AZ45" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7387</v>
       </c>
       <c r="BA45" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7182</v>
       </c>
       <c r="BB45" s="26">
-        <f t="shared" ref="BB45:BC45" si="5">SUM(BB10:BB44)</f>
+        <f t="shared" ref="BB45:BC45" si="6">SUM(BB10:BB44)</f>
         <v>6937</v>
       </c>
       <c r="BC45" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6750</v>
       </c>
       <c r="BD45" s="8">
-        <f t="shared" ref="BD45:BF45" si="6">sum(BD10:BD43)</f>
+        <f t="shared" ref="BD45:BG45" si="7">sum(BD10:BD43)</f>
         <v>6310</v>
       </c>
       <c r="BE45" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5778</v>
       </c>
       <c r="BF45" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5870</v>
+      </c>
+      <c r="BG45" s="8">
+        <f t="shared" si="7"/>
+        <v>5886</v>
       </c>
     </row>
     <row r="46">
@@ -17397,6 +17622,9 @@
       </c>
       <c r="BF46" s="8">
         <v>2060.0</v>
+      </c>
+      <c r="BG46" s="8">
+        <v>2041.0</v>
       </c>
     </row>
     <row r="47">
@@ -17423,6 +17651,7 @@
       <c r="BD47" s="26"/>
       <c r="BE47" s="26"/>
       <c r="BF47" s="26"/>
+      <c r="BG47" s="26"/>
     </row>
     <row r="48">
       <c r="B48" s="18"/>
@@ -17448,6 +17677,7 @@
       <c r="BD48" s="26"/>
       <c r="BE48" s="26"/>
       <c r="BF48" s="26"/>
+      <c r="BG48" s="26"/>
     </row>
     <row r="49">
       <c r="B49" s="18"/>
@@ -17473,6 +17703,7 @@
       <c r="BD49" s="26"/>
       <c r="BE49" s="26"/>
       <c r="BF49" s="26"/>
+      <c r="BG49" s="26"/>
     </row>
     <row r="50">
       <c r="B50" s="18"/>
@@ -17498,6 +17729,7 @@
       <c r="BD50" s="26"/>
       <c r="BE50" s="26"/>
       <c r="BF50" s="26"/>
+      <c r="BG50" s="26"/>
     </row>
     <row r="51">
       <c r="B51" s="18"/>
@@ -17523,6 +17755,7 @@
       <c r="BD51" s="26"/>
       <c r="BE51" s="26"/>
       <c r="BF51" s="26"/>
+      <c r="BG51" s="26"/>
     </row>
     <row r="52">
       <c r="B52" s="18"/>
@@ -17548,6 +17781,7 @@
       <c r="BD52" s="26"/>
       <c r="BE52" s="26"/>
       <c r="BF52" s="26"/>
+      <c r="BG52" s="26"/>
     </row>
     <row r="53">
       <c r="B53" s="18"/>
@@ -17573,6 +17807,7 @@
       <c r="BD53" s="26"/>
       <c r="BE53" s="26"/>
       <c r="BF53" s="26"/>
+      <c r="BG53" s="26"/>
     </row>
     <row r="54">
       <c r="B54" s="18"/>
@@ -17597,6 +17832,7 @@
       <c r="BD54" s="26"/>
       <c r="BE54" s="26"/>
       <c r="BF54" s="26"/>
+      <c r="BG54" s="26"/>
     </row>
     <row r="55">
       <c r="B55" s="18"/>
@@ -17621,6 +17857,7 @@
       <c r="BD55" s="26"/>
       <c r="BE55" s="26"/>
       <c r="BF55" s="26"/>
+      <c r="BG55" s="26"/>
     </row>
     <row r="56">
       <c r="B56" s="5"/>
@@ -17645,6 +17882,7 @@
       <c r="BD56" s="26"/>
       <c r="BE56" s="26"/>
       <c r="BF56" s="26"/>
+      <c r="BG56" s="26"/>
     </row>
     <row r="57">
       <c r="B57" s="5"/>
@@ -17669,6 +17907,7 @@
       <c r="BD57" s="26"/>
       <c r="BE57" s="26"/>
       <c r="BF57" s="26"/>
+      <c r="BG57" s="26"/>
     </row>
     <row r="58">
       <c r="B58" s="5"/>
@@ -17693,6 +17932,7 @@
       <c r="BD58" s="26"/>
       <c r="BE58" s="26"/>
       <c r="BF58" s="26"/>
+      <c r="BG58" s="26"/>
     </row>
     <row r="59">
       <c r="B59" s="5"/>
@@ -17717,6 +17957,7 @@
       <c r="BD59" s="26"/>
       <c r="BE59" s="26"/>
       <c r="BF59" s="26"/>
+      <c r="BG59" s="26"/>
     </row>
     <row r="60">
       <c r="B60" s="5"/>
@@ -17741,6 +17982,7 @@
       <c r="BD60" s="26"/>
       <c r="BE60" s="26"/>
       <c r="BF60" s="26"/>
+      <c r="BG60" s="26"/>
     </row>
     <row r="61">
       <c r="B61" s="5"/>
@@ -17765,6 +18007,7 @@
       <c r="BD61" s="26"/>
       <c r="BE61" s="26"/>
       <c r="BF61" s="26"/>
+      <c r="BG61" s="26"/>
     </row>
     <row r="62">
       <c r="B62" s="5"/>
@@ -17789,6 +18032,7 @@
       <c r="BD62" s="26"/>
       <c r="BE62" s="26"/>
       <c r="BF62" s="26"/>
+      <c r="BG62" s="26"/>
     </row>
     <row r="63">
       <c r="B63" s="5"/>
@@ -17813,6 +18057,7 @@
       <c r="BD63" s="26"/>
       <c r="BE63" s="26"/>
       <c r="BF63" s="26"/>
+      <c r="BG63" s="26"/>
     </row>
     <row r="64">
       <c r="B64" s="5"/>
@@ -17837,6 +18082,7 @@
       <c r="BD64" s="26"/>
       <c r="BE64" s="26"/>
       <c r="BF64" s="26"/>
+      <c r="BG64" s="26"/>
     </row>
     <row r="65">
       <c r="B65" s="5"/>
@@ -17861,6 +18107,7 @@
       <c r="BD65" s="26"/>
       <c r="BE65" s="26"/>
       <c r="BF65" s="26"/>
+      <c r="BG65" s="26"/>
     </row>
     <row r="66">
       <c r="B66" s="5"/>
@@ -17885,6 +18132,7 @@
       <c r="BD66" s="26"/>
       <c r="BE66" s="26"/>
       <c r="BF66" s="26"/>
+      <c r="BG66" s="26"/>
     </row>
     <row r="67">
       <c r="B67" s="5"/>
@@ -17909,6 +18157,7 @@
       <c r="BD67" s="26"/>
       <c r="BE67" s="26"/>
       <c r="BF67" s="26"/>
+      <c r="BG67" s="26"/>
     </row>
     <row r="68">
       <c r="B68" s="5"/>
@@ -17933,6 +18182,7 @@
       <c r="BD68" s="26"/>
       <c r="BE68" s="26"/>
       <c r="BF68" s="26"/>
+      <c r="BG68" s="26"/>
     </row>
     <row r="69">
       <c r="B69" s="5"/>
@@ -17957,6 +18207,7 @@
       <c r="BD69" s="26"/>
       <c r="BE69" s="26"/>
       <c r="BF69" s="26"/>
+      <c r="BG69" s="26"/>
     </row>
     <row r="70">
       <c r="B70" s="5"/>
@@ -17981,6 +18232,7 @@
       <c r="BD70" s="26"/>
       <c r="BE70" s="26"/>
       <c r="BF70" s="26"/>
+      <c r="BG70" s="26"/>
     </row>
     <row r="71">
       <c r="AL71" s="26"/>
@@ -18004,6 +18256,7 @@
       <c r="BD71" s="26"/>
       <c r="BE71" s="26"/>
       <c r="BF71" s="26"/>
+      <c r="BG71" s="26"/>
     </row>
     <row r="72">
       <c r="AL72" s="26"/>
@@ -18027,6 +18280,7 @@
       <c r="BD72" s="26"/>
       <c r="BE72" s="26"/>
       <c r="BF72" s="26"/>
+      <c r="BG72" s="26"/>
     </row>
     <row r="73">
       <c r="AL73" s="26"/>
@@ -18050,6 +18304,7 @@
       <c r="BD73" s="26"/>
       <c r="BE73" s="26"/>
       <c r="BF73" s="26"/>
+      <c r="BG73" s="26"/>
     </row>
     <row r="74">
       <c r="AL74" s="26"/>
@@ -18073,6 +18328,7 @@
       <c r="BD74" s="26"/>
       <c r="BE74" s="26"/>
       <c r="BF74" s="26"/>
+      <c r="BG74" s="26"/>
     </row>
     <row r="75">
       <c r="AL75" s="26"/>
@@ -18096,6 +18352,7 @@
       <c r="BD75" s="26"/>
       <c r="BE75" s="26"/>
       <c r="BF75" s="26"/>
+      <c r="BG75" s="26"/>
     </row>
     <row r="76">
       <c r="AL76" s="26"/>
@@ -18119,6 +18376,7 @@
       <c r="BD76" s="26"/>
       <c r="BE76" s="26"/>
       <c r="BF76" s="26"/>
+      <c r="BG76" s="26"/>
     </row>
     <row r="77">
       <c r="AL77" s="26"/>
@@ -18142,6 +18400,7 @@
       <c r="BD77" s="26"/>
       <c r="BE77" s="26"/>
       <c r="BF77" s="26"/>
+      <c r="BG77" s="26"/>
     </row>
     <row r="78">
       <c r="AL78" s="26"/>
@@ -18165,6 +18424,7 @@
       <c r="BD78" s="26"/>
       <c r="BE78" s="26"/>
       <c r="BF78" s="26"/>
+      <c r="BG78" s="26"/>
     </row>
     <row r="79">
       <c r="AL79" s="26"/>
@@ -18188,6 +18448,7 @@
       <c r="BD79" s="26"/>
       <c r="BE79" s="26"/>
       <c r="BF79" s="26"/>
+      <c r="BG79" s="26"/>
     </row>
     <row r="80">
       <c r="AL80" s="26"/>
@@ -18211,6 +18472,7 @@
       <c r="BD80" s="26"/>
       <c r="BE80" s="26"/>
       <c r="BF80" s="26"/>
+      <c r="BG80" s="26"/>
     </row>
     <row r="81">
       <c r="AL81" s="26"/>
@@ -18234,6 +18496,7 @@
       <c r="BD81" s="26"/>
       <c r="BE81" s="26"/>
       <c r="BF81" s="26"/>
+      <c r="BG81" s="26"/>
     </row>
     <row r="82">
       <c r="AL82" s="26"/>
@@ -18257,6 +18520,7 @@
       <c r="BD82" s="26"/>
       <c r="BE82" s="26"/>
       <c r="BF82" s="26"/>
+      <c r="BG82" s="26"/>
     </row>
     <row r="83">
       <c r="AL83" s="26"/>
@@ -18280,6 +18544,7 @@
       <c r="BD83" s="26"/>
       <c r="BE83" s="26"/>
       <c r="BF83" s="26"/>
+      <c r="BG83" s="26"/>
     </row>
     <row r="84">
       <c r="AL84" s="26"/>
@@ -18303,6 +18568,7 @@
       <c r="BD84" s="26"/>
       <c r="BE84" s="26"/>
       <c r="BF84" s="26"/>
+      <c r="BG84" s="26"/>
     </row>
     <row r="85">
       <c r="AL85" s="26"/>
@@ -18326,6 +18592,7 @@
       <c r="BD85" s="26"/>
       <c r="BE85" s="26"/>
       <c r="BF85" s="26"/>
+      <c r="BG85" s="26"/>
     </row>
     <row r="86">
       <c r="AL86" s="26"/>
@@ -18349,6 +18616,7 @@
       <c r="BD86" s="26"/>
       <c r="BE86" s="26"/>
       <c r="BF86" s="26"/>
+      <c r="BG86" s="26"/>
     </row>
     <row r="87">
       <c r="AL87" s="26"/>
@@ -18372,6 +18640,7 @@
       <c r="BD87" s="26"/>
       <c r="BE87" s="26"/>
       <c r="BF87" s="26"/>
+      <c r="BG87" s="26"/>
     </row>
     <row r="88">
       <c r="AL88" s="26"/>
@@ -18395,6 +18664,7 @@
       <c r="BD88" s="26"/>
       <c r="BE88" s="26"/>
       <c r="BF88" s="26"/>
+      <c r="BG88" s="26"/>
     </row>
     <row r="89">
       <c r="AL89" s="26"/>
@@ -18418,6 +18688,7 @@
       <c r="BD89" s="26"/>
       <c r="BE89" s="26"/>
       <c r="BF89" s="26"/>
+      <c r="BG89" s="26"/>
     </row>
     <row r="90">
       <c r="AL90" s="26"/>
@@ -18441,6 +18712,7 @@
       <c r="BD90" s="26"/>
       <c r="BE90" s="26"/>
       <c r="BF90" s="26"/>
+      <c r="BG90" s="26"/>
     </row>
     <row r="91">
       <c r="AL91" s="26"/>
@@ -18464,6 +18736,7 @@
       <c r="BD91" s="26"/>
       <c r="BE91" s="26"/>
       <c r="BF91" s="26"/>
+      <c r="BG91" s="26"/>
     </row>
     <row r="92">
       <c r="AL92" s="26"/>
@@ -18487,6 +18760,7 @@
       <c r="BD92" s="26"/>
       <c r="BE92" s="26"/>
       <c r="BF92" s="26"/>
+      <c r="BG92" s="26"/>
     </row>
     <row r="93">
       <c r="AL93" s="26"/>
@@ -18510,6 +18784,7 @@
       <c r="BD93" s="26"/>
       <c r="BE93" s="26"/>
       <c r="BF93" s="26"/>
+      <c r="BG93" s="26"/>
     </row>
     <row r="94">
       <c r="AL94" s="26"/>
@@ -18533,6 +18808,7 @@
       <c r="BD94" s="26"/>
       <c r="BE94" s="26"/>
       <c r="BF94" s="26"/>
+      <c r="BG94" s="26"/>
     </row>
     <row r="95">
       <c r="AL95" s="26"/>
@@ -18556,6 +18832,7 @@
       <c r="BD95" s="26"/>
       <c r="BE95" s="26"/>
       <c r="BF95" s="26"/>
+      <c r="BG95" s="26"/>
     </row>
     <row r="96">
       <c r="AL96" s="26"/>
@@ -18579,6 +18856,7 @@
       <c r="BD96" s="26"/>
       <c r="BE96" s="26"/>
       <c r="BF96" s="26"/>
+      <c r="BG96" s="26"/>
     </row>
     <row r="97">
       <c r="AL97" s="26"/>
@@ -18602,6 +18880,7 @@
       <c r="BD97" s="26"/>
       <c r="BE97" s="26"/>
       <c r="BF97" s="26"/>
+      <c r="BG97" s="26"/>
     </row>
     <row r="98">
       <c r="AL98" s="26"/>
@@ -18625,6 +18904,7 @@
       <c r="BD98" s="26"/>
       <c r="BE98" s="26"/>
       <c r="BF98" s="26"/>
+      <c r="BG98" s="26"/>
     </row>
     <row r="99">
       <c r="AL99" s="26"/>
@@ -18648,6 +18928,7 @@
       <c r="BD99" s="26"/>
       <c r="BE99" s="26"/>
       <c r="BF99" s="26"/>
+      <c r="BG99" s="26"/>
     </row>
     <row r="100">
       <c r="AL100" s="26"/>
@@ -18671,6 +18952,7 @@
       <c r="BD100" s="26"/>
       <c r="BE100" s="26"/>
       <c r="BF100" s="26"/>
+      <c r="BG100" s="26"/>
     </row>
     <row r="101">
       <c r="AL101" s="26"/>
@@ -18694,6 +18976,7 @@
       <c r="BD101" s="26"/>
       <c r="BE101" s="26"/>
       <c r="BF101" s="26"/>
+      <c r="BG101" s="26"/>
     </row>
     <row r="102">
       <c r="AL102" s="26"/>
@@ -18717,6 +19000,7 @@
       <c r="BD102" s="26"/>
       <c r="BE102" s="26"/>
       <c r="BF102" s="26"/>
+      <c r="BG102" s="26"/>
     </row>
     <row r="103">
       <c r="AL103" s="26"/>
@@ -18740,6 +19024,7 @@
       <c r="BD103" s="26"/>
       <c r="BE103" s="26"/>
       <c r="BF103" s="26"/>
+      <c r="BG103" s="26"/>
     </row>
     <row r="104">
       <c r="AL104" s="26"/>
@@ -18763,6 +19048,7 @@
       <c r="BD104" s="26"/>
       <c r="BE104" s="26"/>
       <c r="BF104" s="26"/>
+      <c r="BG104" s="26"/>
     </row>
     <row r="105">
       <c r="AL105" s="26"/>
@@ -18786,6 +19072,7 @@
       <c r="BD105" s="26"/>
       <c r="BE105" s="26"/>
       <c r="BF105" s="26"/>
+      <c r="BG105" s="26"/>
     </row>
     <row r="106">
       <c r="AL106" s="26"/>
@@ -18809,6 +19096,7 @@
       <c r="BD106" s="26"/>
       <c r="BE106" s="26"/>
       <c r="BF106" s="26"/>
+      <c r="BG106" s="26"/>
     </row>
     <row r="107">
       <c r="AL107" s="26"/>
@@ -18832,6 +19120,7 @@
       <c r="BD107" s="26"/>
       <c r="BE107" s="26"/>
       <c r="BF107" s="26"/>
+      <c r="BG107" s="26"/>
     </row>
     <row r="108">
       <c r="AL108" s="26"/>
@@ -18855,6 +19144,7 @@
       <c r="BD108" s="26"/>
       <c r="BE108" s="26"/>
       <c r="BF108" s="26"/>
+      <c r="BG108" s="26"/>
     </row>
     <row r="109">
       <c r="AL109" s="26"/>
@@ -18878,6 +19168,7 @@
       <c r="BD109" s="26"/>
       <c r="BE109" s="26"/>
       <c r="BF109" s="26"/>
+      <c r="BG109" s="26"/>
     </row>
     <row r="110">
       <c r="AL110" s="26"/>
@@ -18901,6 +19192,7 @@
       <c r="BD110" s="26"/>
       <c r="BE110" s="26"/>
       <c r="BF110" s="26"/>
+      <c r="BG110" s="26"/>
     </row>
     <row r="111">
       <c r="AL111" s="26"/>
@@ -18924,6 +19216,7 @@
       <c r="BD111" s="26"/>
       <c r="BE111" s="26"/>
       <c r="BF111" s="26"/>
+      <c r="BG111" s="26"/>
     </row>
     <row r="112">
       <c r="AL112" s="26"/>
@@ -18947,6 +19240,7 @@
       <c r="BD112" s="26"/>
       <c r="BE112" s="26"/>
       <c r="BF112" s="26"/>
+      <c r="BG112" s="26"/>
     </row>
     <row r="113">
       <c r="AL113" s="26"/>
@@ -18970,6 +19264,7 @@
       <c r="BD113" s="26"/>
       <c r="BE113" s="26"/>
       <c r="BF113" s="26"/>
+      <c r="BG113" s="26"/>
     </row>
     <row r="114">
       <c r="AL114" s="26"/>
@@ -18993,6 +19288,7 @@
       <c r="BD114" s="26"/>
       <c r="BE114" s="26"/>
       <c r="BF114" s="26"/>
+      <c r="BG114" s="26"/>
     </row>
     <row r="115">
       <c r="AL115" s="26"/>
@@ -19016,6 +19312,7 @@
       <c r="BD115" s="26"/>
       <c r="BE115" s="26"/>
       <c r="BF115" s="26"/>
+      <c r="BG115" s="26"/>
     </row>
     <row r="116">
       <c r="AL116" s="26"/>
@@ -19039,6 +19336,7 @@
       <c r="BD116" s="26"/>
       <c r="BE116" s="26"/>
       <c r="BF116" s="26"/>
+      <c r="BG116" s="26"/>
     </row>
     <row r="117">
       <c r="AL117" s="26"/>
@@ -19062,6 +19360,7 @@
       <c r="BD117" s="26"/>
       <c r="BE117" s="26"/>
       <c r="BF117" s="26"/>
+      <c r="BG117" s="26"/>
     </row>
     <row r="118">
       <c r="AL118" s="26"/>
@@ -19085,6 +19384,7 @@
       <c r="BD118" s="26"/>
       <c r="BE118" s="26"/>
       <c r="BF118" s="26"/>
+      <c r="BG118" s="26"/>
     </row>
     <row r="119">
       <c r="AL119" s="26"/>
@@ -19108,6 +19408,7 @@
       <c r="BD119" s="26"/>
       <c r="BE119" s="26"/>
       <c r="BF119" s="26"/>
+      <c r="BG119" s="26"/>
     </row>
     <row r="120">
       <c r="AL120" s="26"/>
@@ -19131,6 +19432,7 @@
       <c r="BD120" s="26"/>
       <c r="BE120" s="26"/>
       <c r="BF120" s="26"/>
+      <c r="BG120" s="26"/>
     </row>
     <row r="121">
       <c r="AL121" s="26"/>
@@ -19154,6 +19456,7 @@
       <c r="BD121" s="26"/>
       <c r="BE121" s="26"/>
       <c r="BF121" s="26"/>
+      <c r="BG121" s="26"/>
     </row>
     <row r="122">
       <c r="AL122" s="26"/>
@@ -19177,6 +19480,7 @@
       <c r="BD122" s="26"/>
       <c r="BE122" s="26"/>
       <c r="BF122" s="26"/>
+      <c r="BG122" s="26"/>
     </row>
     <row r="123">
       <c r="AL123" s="26"/>
@@ -19200,6 +19504,7 @@
       <c r="BD123" s="26"/>
       <c r="BE123" s="26"/>
       <c r="BF123" s="26"/>
+      <c r="BG123" s="26"/>
     </row>
     <row r="124">
       <c r="AL124" s="26"/>
@@ -19223,6 +19528,7 @@
       <c r="BD124" s="26"/>
       <c r="BE124" s="26"/>
       <c r="BF124" s="26"/>
+      <c r="BG124" s="26"/>
     </row>
     <row r="125">
       <c r="AL125" s="26"/>
@@ -19246,6 +19552,7 @@
       <c r="BD125" s="26"/>
       <c r="BE125" s="26"/>
       <c r="BF125" s="26"/>
+      <c r="BG125" s="26"/>
     </row>
     <row r="126">
       <c r="AL126" s="26"/>
@@ -19269,6 +19576,7 @@
       <c r="BD126" s="26"/>
       <c r="BE126" s="26"/>
       <c r="BF126" s="26"/>
+      <c r="BG126" s="26"/>
     </row>
     <row r="127">
       <c r="AL127" s="26"/>
@@ -19292,6 +19600,7 @@
       <c r="BD127" s="26"/>
       <c r="BE127" s="26"/>
       <c r="BF127" s="26"/>
+      <c r="BG127" s="26"/>
     </row>
     <row r="128">
       <c r="AL128" s="26"/>
@@ -19315,6 +19624,7 @@
       <c r="BD128" s="26"/>
       <c r="BE128" s="26"/>
       <c r="BF128" s="26"/>
+      <c r="BG128" s="26"/>
     </row>
     <row r="129">
       <c r="AL129" s="26"/>
@@ -19338,6 +19648,7 @@
       <c r="BD129" s="26"/>
       <c r="BE129" s="26"/>
       <c r="BF129" s="26"/>
+      <c r="BG129" s="26"/>
     </row>
     <row r="130">
       <c r="AL130" s="26"/>
@@ -19361,6 +19672,7 @@
       <c r="BD130" s="26"/>
       <c r="BE130" s="26"/>
       <c r="BF130" s="26"/>
+      <c r="BG130" s="26"/>
     </row>
     <row r="131">
       <c r="AL131" s="26"/>
@@ -19384,6 +19696,7 @@
       <c r="BD131" s="26"/>
       <c r="BE131" s="26"/>
       <c r="BF131" s="26"/>
+      <c r="BG131" s="26"/>
     </row>
     <row r="132">
       <c r="AL132" s="26"/>
@@ -19407,6 +19720,7 @@
       <c r="BD132" s="26"/>
       <c r="BE132" s="26"/>
       <c r="BF132" s="26"/>
+      <c r="BG132" s="26"/>
     </row>
     <row r="133">
       <c r="AL133" s="26"/>
@@ -19430,6 +19744,7 @@
       <c r="BD133" s="26"/>
       <c r="BE133" s="26"/>
       <c r="BF133" s="26"/>
+      <c r="BG133" s="26"/>
     </row>
     <row r="134">
       <c r="AL134" s="26"/>
@@ -19453,6 +19768,7 @@
       <c r="BD134" s="26"/>
       <c r="BE134" s="26"/>
       <c r="BF134" s="26"/>
+      <c r="BG134" s="26"/>
     </row>
     <row r="135">
       <c r="AL135" s="26"/>
@@ -19476,6 +19792,7 @@
       <c r="BD135" s="26"/>
       <c r="BE135" s="26"/>
       <c r="BF135" s="26"/>
+      <c r="BG135" s="26"/>
     </row>
     <row r="136">
       <c r="AL136" s="26"/>
@@ -19499,6 +19816,7 @@
       <c r="BD136" s="26"/>
       <c r="BE136" s="26"/>
       <c r="BF136" s="26"/>
+      <c r="BG136" s="26"/>
     </row>
     <row r="137">
       <c r="AL137" s="26"/>
@@ -19522,6 +19840,7 @@
       <c r="BD137" s="26"/>
       <c r="BE137" s="26"/>
       <c r="BF137" s="26"/>
+      <c r="BG137" s="26"/>
     </row>
     <row r="138">
       <c r="AL138" s="26"/>
@@ -19545,6 +19864,7 @@
       <c r="BD138" s="26"/>
       <c r="BE138" s="26"/>
       <c r="BF138" s="26"/>
+      <c r="BG138" s="26"/>
     </row>
     <row r="139">
       <c r="AL139" s="26"/>
@@ -19568,6 +19888,7 @@
       <c r="BD139" s="26"/>
       <c r="BE139" s="26"/>
       <c r="BF139" s="26"/>
+      <c r="BG139" s="26"/>
     </row>
     <row r="140">
       <c r="AL140" s="26"/>
@@ -19591,6 +19912,7 @@
       <c r="BD140" s="26"/>
       <c r="BE140" s="26"/>
       <c r="BF140" s="26"/>
+      <c r="BG140" s="26"/>
     </row>
     <row r="141">
       <c r="AL141" s="26"/>
@@ -19614,6 +19936,7 @@
       <c r="BD141" s="26"/>
       <c r="BE141" s="26"/>
       <c r="BF141" s="26"/>
+      <c r="BG141" s="26"/>
     </row>
     <row r="142">
       <c r="AL142" s="26"/>
@@ -19637,6 +19960,7 @@
       <c r="BD142" s="26"/>
       <c r="BE142" s="26"/>
       <c r="BF142" s="26"/>
+      <c r="BG142" s="26"/>
     </row>
     <row r="143">
       <c r="AL143" s="26"/>
@@ -19660,6 +19984,7 @@
       <c r="BD143" s="26"/>
       <c r="BE143" s="26"/>
       <c r="BF143" s="26"/>
+      <c r="BG143" s="26"/>
     </row>
     <row r="144">
       <c r="AL144" s="26"/>
@@ -19683,6 +20008,7 @@
       <c r="BD144" s="26"/>
       <c r="BE144" s="26"/>
       <c r="BF144" s="26"/>
+      <c r="BG144" s="26"/>
     </row>
     <row r="145">
       <c r="AL145" s="26"/>
@@ -19706,6 +20032,7 @@
       <c r="BD145" s="26"/>
       <c r="BE145" s="26"/>
       <c r="BF145" s="26"/>
+      <c r="BG145" s="26"/>
     </row>
     <row r="146">
       <c r="AL146" s="26"/>
@@ -19729,6 +20056,7 @@
       <c r="BD146" s="26"/>
       <c r="BE146" s="26"/>
       <c r="BF146" s="26"/>
+      <c r="BG146" s="26"/>
     </row>
     <row r="147">
       <c r="AL147" s="26"/>
@@ -19752,6 +20080,7 @@
       <c r="BD147" s="26"/>
       <c r="BE147" s="26"/>
       <c r="BF147" s="26"/>
+      <c r="BG147" s="26"/>
     </row>
     <row r="148">
       <c r="AL148" s="26"/>
@@ -19775,6 +20104,7 @@
       <c r="BD148" s="26"/>
       <c r="BE148" s="26"/>
       <c r="BF148" s="26"/>
+      <c r="BG148" s="26"/>
     </row>
     <row r="149">
       <c r="AL149" s="26"/>
@@ -19798,6 +20128,7 @@
       <c r="BD149" s="26"/>
       <c r="BE149" s="26"/>
       <c r="BF149" s="26"/>
+      <c r="BG149" s="26"/>
     </row>
     <row r="150">
       <c r="AL150" s="26"/>
@@ -19821,6 +20152,7 @@
       <c r="BD150" s="26"/>
       <c r="BE150" s="26"/>
       <c r="BF150" s="26"/>
+      <c r="BG150" s="26"/>
     </row>
     <row r="151">
       <c r="AL151" s="26"/>
@@ -19844,6 +20176,7 @@
       <c r="BD151" s="26"/>
       <c r="BE151" s="26"/>
       <c r="BF151" s="26"/>
+      <c r="BG151" s="26"/>
     </row>
     <row r="152">
       <c r="AL152" s="26"/>
@@ -19867,6 +20200,7 @@
       <c r="BD152" s="26"/>
       <c r="BE152" s="26"/>
       <c r="BF152" s="26"/>
+      <c r="BG152" s="26"/>
     </row>
     <row r="153">
       <c r="AL153" s="26"/>
@@ -19890,6 +20224,7 @@
       <c r="BD153" s="26"/>
       <c r="BE153" s="26"/>
       <c r="BF153" s="26"/>
+      <c r="BG153" s="26"/>
     </row>
     <row r="154">
       <c r="AL154" s="26"/>
@@ -19913,6 +20248,7 @@
       <c r="BD154" s="26"/>
       <c r="BE154" s="26"/>
       <c r="BF154" s="26"/>
+      <c r="BG154" s="26"/>
     </row>
     <row r="155">
       <c r="AL155" s="26"/>
@@ -19936,6 +20272,7 @@
       <c r="BD155" s="26"/>
       <c r="BE155" s="26"/>
       <c r="BF155" s="26"/>
+      <c r="BG155" s="26"/>
     </row>
     <row r="156">
       <c r="AL156" s="26"/>
@@ -19959,6 +20296,7 @@
       <c r="BD156" s="26"/>
       <c r="BE156" s="26"/>
       <c r="BF156" s="26"/>
+      <c r="BG156" s="26"/>
     </row>
     <row r="157">
       <c r="AL157" s="26"/>
@@ -19982,6 +20320,7 @@
       <c r="BD157" s="26"/>
       <c r="BE157" s="26"/>
       <c r="BF157" s="26"/>
+      <c r="BG157" s="26"/>
     </row>
     <row r="158">
       <c r="AL158" s="26"/>
@@ -20005,6 +20344,7 @@
       <c r="BD158" s="26"/>
       <c r="BE158" s="26"/>
       <c r="BF158" s="26"/>
+      <c r="BG158" s="26"/>
     </row>
     <row r="159">
       <c r="AL159" s="26"/>
@@ -20028,6 +20368,7 @@
       <c r="BD159" s="26"/>
       <c r="BE159" s="26"/>
       <c r="BF159" s="26"/>
+      <c r="BG159" s="26"/>
     </row>
     <row r="160">
       <c r="AL160" s="26"/>
@@ -20051,6 +20392,7 @@
       <c r="BD160" s="26"/>
       <c r="BE160" s="26"/>
       <c r="BF160" s="26"/>
+      <c r="BG160" s="26"/>
     </row>
     <row r="161">
       <c r="AL161" s="26"/>
@@ -20074,6 +20416,7 @@
       <c r="BD161" s="26"/>
       <c r="BE161" s="26"/>
       <c r="BF161" s="26"/>
+      <c r="BG161" s="26"/>
     </row>
     <row r="162">
       <c r="AL162" s="26"/>
@@ -20097,6 +20440,7 @@
       <c r="BD162" s="26"/>
       <c r="BE162" s="26"/>
       <c r="BF162" s="26"/>
+      <c r="BG162" s="26"/>
     </row>
     <row r="163">
       <c r="AL163" s="26"/>
@@ -20120,6 +20464,7 @@
       <c r="BD163" s="26"/>
       <c r="BE163" s="26"/>
       <c r="BF163" s="26"/>
+      <c r="BG163" s="26"/>
     </row>
     <row r="164">
       <c r="AL164" s="26"/>
@@ -20143,6 +20488,7 @@
       <c r="BD164" s="26"/>
       <c r="BE164" s="26"/>
       <c r="BF164" s="26"/>
+      <c r="BG164" s="26"/>
     </row>
     <row r="165">
       <c r="AL165" s="26"/>
@@ -20166,6 +20512,7 @@
       <c r="BD165" s="26"/>
       <c r="BE165" s="26"/>
       <c r="BF165" s="26"/>
+      <c r="BG165" s="26"/>
     </row>
     <row r="166">
       <c r="AL166" s="26"/>
@@ -20189,6 +20536,7 @@
       <c r="BD166" s="26"/>
       <c r="BE166" s="26"/>
       <c r="BF166" s="26"/>
+      <c r="BG166" s="26"/>
     </row>
     <row r="167">
       <c r="AL167" s="26"/>
@@ -20212,6 +20560,7 @@
       <c r="BD167" s="26"/>
       <c r="BE167" s="26"/>
       <c r="BF167" s="26"/>
+      <c r="BG167" s="26"/>
     </row>
     <row r="168">
       <c r="AL168" s="26"/>
@@ -20235,6 +20584,7 @@
       <c r="BD168" s="26"/>
       <c r="BE168" s="26"/>
       <c r="BF168" s="26"/>
+      <c r="BG168" s="26"/>
     </row>
     <row r="169">
       <c r="AL169" s="26"/>
@@ -20258,6 +20608,7 @@
       <c r="BD169" s="26"/>
       <c r="BE169" s="26"/>
       <c r="BF169" s="26"/>
+      <c r="BG169" s="26"/>
     </row>
     <row r="170">
       <c r="AL170" s="26"/>
@@ -20281,6 +20632,7 @@
       <c r="BD170" s="26"/>
       <c r="BE170" s="26"/>
       <c r="BF170" s="26"/>
+      <c r="BG170" s="26"/>
     </row>
     <row r="171">
       <c r="AL171" s="26"/>
@@ -20304,6 +20656,7 @@
       <c r="BD171" s="26"/>
       <c r="BE171" s="26"/>
       <c r="BF171" s="26"/>
+      <c r="BG171" s="26"/>
     </row>
     <row r="172">
       <c r="AL172" s="26"/>
@@ -20327,6 +20680,7 @@
       <c r="BD172" s="26"/>
       <c r="BE172" s="26"/>
       <c r="BF172" s="26"/>
+      <c r="BG172" s="26"/>
     </row>
     <row r="173">
       <c r="AL173" s="26"/>
@@ -20350,6 +20704,7 @@
       <c r="BD173" s="26"/>
       <c r="BE173" s="26"/>
       <c r="BF173" s="26"/>
+      <c r="BG173" s="26"/>
     </row>
     <row r="174">
       <c r="AL174" s="26"/>
@@ -20373,6 +20728,7 @@
       <c r="BD174" s="26"/>
       <c r="BE174" s="26"/>
       <c r="BF174" s="26"/>
+      <c r="BG174" s="26"/>
     </row>
     <row r="175">
       <c r="AL175" s="26"/>
@@ -20396,6 +20752,7 @@
       <c r="BD175" s="26"/>
       <c r="BE175" s="26"/>
       <c r="BF175" s="26"/>
+      <c r="BG175" s="26"/>
     </row>
     <row r="176">
       <c r="AL176" s="26"/>
@@ -20419,6 +20776,7 @@
       <c r="BD176" s="26"/>
       <c r="BE176" s="26"/>
       <c r="BF176" s="26"/>
+      <c r="BG176" s="26"/>
     </row>
     <row r="177">
       <c r="AL177" s="26"/>
@@ -20442,6 +20800,7 @@
       <c r="BD177" s="26"/>
       <c r="BE177" s="26"/>
       <c r="BF177" s="26"/>
+      <c r="BG177" s="26"/>
     </row>
     <row r="178">
       <c r="H178" s="18"/>
@@ -20466,6 +20825,7 @@
       <c r="BD178" s="26"/>
       <c r="BE178" s="26"/>
       <c r="BF178" s="26"/>
+      <c r="BG178" s="26"/>
     </row>
     <row r="179">
       <c r="AL179" s="26"/>
@@ -20489,6 +20849,7 @@
       <c r="BD179" s="26"/>
       <c r="BE179" s="26"/>
       <c r="BF179" s="26"/>
+      <c r="BG179" s="26"/>
     </row>
     <row r="180">
       <c r="AL180" s="26"/>
@@ -20512,6 +20873,7 @@
       <c r="BD180" s="26"/>
       <c r="BE180" s="26"/>
       <c r="BF180" s="26"/>
+      <c r="BG180" s="26"/>
     </row>
     <row r="181">
       <c r="AL181" s="26"/>
@@ -20535,6 +20897,7 @@
       <c r="BD181" s="26"/>
       <c r="BE181" s="26"/>
       <c r="BF181" s="26"/>
+      <c r="BG181" s="26"/>
     </row>
     <row r="182">
       <c r="AL182" s="26"/>
@@ -20558,6 +20921,7 @@
       <c r="BD182" s="26"/>
       <c r="BE182" s="26"/>
       <c r="BF182" s="26"/>
+      <c r="BG182" s="26"/>
     </row>
     <row r="183">
       <c r="AL183" s="26"/>
@@ -20581,6 +20945,7 @@
       <c r="BD183" s="26"/>
       <c r="BE183" s="26"/>
       <c r="BF183" s="26"/>
+      <c r="BG183" s="26"/>
     </row>
     <row r="184">
       <c r="AL184" s="26"/>
@@ -20604,6 +20969,7 @@
       <c r="BD184" s="26"/>
       <c r="BE184" s="26"/>
       <c r="BF184" s="26"/>
+      <c r="BG184" s="26"/>
     </row>
     <row r="185">
       <c r="AL185" s="26"/>
@@ -20627,6 +20993,7 @@
       <c r="BD185" s="26"/>
       <c r="BE185" s="26"/>
       <c r="BF185" s="26"/>
+      <c r="BG185" s="26"/>
     </row>
     <row r="186">
       <c r="AL186" s="26"/>
@@ -20650,6 +21017,7 @@
       <c r="BD186" s="26"/>
       <c r="BE186" s="26"/>
       <c r="BF186" s="26"/>
+      <c r="BG186" s="26"/>
     </row>
     <row r="187">
       <c r="AL187" s="26"/>
@@ -20673,6 +21041,7 @@
       <c r="BD187" s="26"/>
       <c r="BE187" s="26"/>
       <c r="BF187" s="26"/>
+      <c r="BG187" s="26"/>
     </row>
     <row r="188">
       <c r="AL188" s="26"/>
@@ -20696,6 +21065,7 @@
       <c r="BD188" s="26"/>
       <c r="BE188" s="26"/>
       <c r="BF188" s="26"/>
+      <c r="BG188" s="26"/>
     </row>
     <row r="189">
       <c r="AL189" s="26"/>
@@ -20719,6 +21089,7 @@
       <c r="BD189" s="26"/>
       <c r="BE189" s="26"/>
       <c r="BF189" s="26"/>
+      <c r="BG189" s="26"/>
     </row>
     <row r="190">
       <c r="AL190" s="26"/>
@@ -20742,6 +21113,7 @@
       <c r="BD190" s="26"/>
       <c r="BE190" s="26"/>
       <c r="BF190" s="26"/>
+      <c r="BG190" s="26"/>
     </row>
     <row r="191">
       <c r="AL191" s="26"/>
@@ -20765,6 +21137,7 @@
       <c r="BD191" s="26"/>
       <c r="BE191" s="26"/>
       <c r="BF191" s="26"/>
+      <c r="BG191" s="26"/>
     </row>
     <row r="192">
       <c r="AL192" s="26"/>
@@ -20788,6 +21161,7 @@
       <c r="BD192" s="26"/>
       <c r="BE192" s="26"/>
       <c r="BF192" s="26"/>
+      <c r="BG192" s="26"/>
     </row>
     <row r="193">
       <c r="AL193" s="26"/>
@@ -20811,6 +21185,7 @@
       <c r="BD193" s="26"/>
       <c r="BE193" s="26"/>
       <c r="BF193" s="26"/>
+      <c r="BG193" s="26"/>
     </row>
     <row r="194">
       <c r="AL194" s="26"/>
@@ -20834,6 +21209,7 @@
       <c r="BD194" s="26"/>
       <c r="BE194" s="26"/>
       <c r="BF194" s="26"/>
+      <c r="BG194" s="26"/>
     </row>
     <row r="195">
       <c r="AL195" s="26"/>
@@ -20857,6 +21233,7 @@
       <c r="BD195" s="26"/>
       <c r="BE195" s="26"/>
       <c r="BF195" s="26"/>
+      <c r="BG195" s="26"/>
     </row>
     <row r="196">
       <c r="AL196" s="26"/>
@@ -20880,6 +21257,7 @@
       <c r="BD196" s="26"/>
       <c r="BE196" s="26"/>
       <c r="BF196" s="26"/>
+      <c r="BG196" s="26"/>
     </row>
     <row r="197">
       <c r="AL197" s="26"/>
@@ -20903,6 +21281,7 @@
       <c r="BD197" s="26"/>
       <c r="BE197" s="26"/>
       <c r="BF197" s="26"/>
+      <c r="BG197" s="26"/>
     </row>
     <row r="198">
       <c r="AL198" s="26"/>
@@ -20926,6 +21305,7 @@
       <c r="BD198" s="26"/>
       <c r="BE198" s="26"/>
       <c r="BF198" s="26"/>
+      <c r="BG198" s="26"/>
     </row>
     <row r="199">
       <c r="AL199" s="26"/>
@@ -20949,6 +21329,7 @@
       <c r="BD199" s="26"/>
       <c r="BE199" s="26"/>
       <c r="BF199" s="26"/>
+      <c r="BG199" s="26"/>
     </row>
     <row r="200">
       <c r="AL200" s="26"/>
@@ -20972,6 +21353,7 @@
       <c r="BD200" s="26"/>
       <c r="BE200" s="26"/>
       <c r="BF200" s="26"/>
+      <c r="BG200" s="26"/>
     </row>
     <row r="201">
       <c r="AL201" s="26"/>
@@ -20995,6 +21377,7 @@
       <c r="BD201" s="26"/>
       <c r="BE201" s="26"/>
       <c r="BF201" s="26"/>
+      <c r="BG201" s="26"/>
     </row>
     <row r="202">
       <c r="AL202" s="26"/>
@@ -21018,6 +21401,7 @@
       <c r="BD202" s="26"/>
       <c r="BE202" s="26"/>
       <c r="BF202" s="26"/>
+      <c r="BG202" s="26"/>
     </row>
     <row r="203">
       <c r="AL203" s="26"/>
@@ -21041,6 +21425,7 @@
       <c r="BD203" s="26"/>
       <c r="BE203" s="26"/>
       <c r="BF203" s="26"/>
+      <c r="BG203" s="26"/>
     </row>
     <row r="204">
       <c r="AL204" s="26"/>
@@ -21064,6 +21449,7 @@
       <c r="BD204" s="26"/>
       <c r="BE204" s="26"/>
       <c r="BF204" s="26"/>
+      <c r="BG204" s="26"/>
     </row>
     <row r="205">
       <c r="AL205" s="26"/>
@@ -21087,6 +21473,7 @@
       <c r="BD205" s="26"/>
       <c r="BE205" s="26"/>
       <c r="BF205" s="26"/>
+      <c r="BG205" s="26"/>
     </row>
     <row r="206">
       <c r="AL206" s="26"/>
@@ -21110,6 +21497,7 @@
       <c r="BD206" s="26"/>
       <c r="BE206" s="26"/>
       <c r="BF206" s="26"/>
+      <c r="BG206" s="26"/>
     </row>
     <row r="207">
       <c r="AL207" s="26"/>
@@ -21133,6 +21521,7 @@
       <c r="BD207" s="26"/>
       <c r="BE207" s="26"/>
       <c r="BF207" s="26"/>
+      <c r="BG207" s="26"/>
     </row>
     <row r="208">
       <c r="AL208" s="26"/>
@@ -21156,6 +21545,7 @@
       <c r="BD208" s="26"/>
       <c r="BE208" s="26"/>
       <c r="BF208" s="26"/>
+      <c r="BG208" s="26"/>
     </row>
     <row r="209">
       <c r="AL209" s="26"/>
@@ -21179,6 +21569,7 @@
       <c r="BD209" s="26"/>
       <c r="BE209" s="26"/>
       <c r="BF209" s="26"/>
+      <c r="BG209" s="26"/>
     </row>
     <row r="210">
       <c r="AL210" s="26"/>
@@ -21202,6 +21593,7 @@
       <c r="BD210" s="26"/>
       <c r="BE210" s="26"/>
       <c r="BF210" s="26"/>
+      <c r="BG210" s="26"/>
     </row>
     <row r="211">
       <c r="AL211" s="26"/>
@@ -21225,6 +21617,7 @@
       <c r="BD211" s="26"/>
       <c r="BE211" s="26"/>
       <c r="BF211" s="26"/>
+      <c r="BG211" s="26"/>
     </row>
     <row r="212">
       <c r="AL212" s="26"/>
@@ -21248,6 +21641,7 @@
       <c r="BD212" s="26"/>
       <c r="BE212" s="26"/>
       <c r="BF212" s="26"/>
+      <c r="BG212" s="26"/>
     </row>
     <row r="213">
       <c r="AL213" s="26"/>
@@ -21271,6 +21665,7 @@
       <c r="BD213" s="26"/>
       <c r="BE213" s="26"/>
       <c r="BF213" s="26"/>
+      <c r="BG213" s="26"/>
     </row>
     <row r="214">
       <c r="AL214" s="26"/>
@@ -21294,6 +21689,7 @@
       <c r="BD214" s="26"/>
       <c r="BE214" s="26"/>
       <c r="BF214" s="26"/>
+      <c r="BG214" s="26"/>
     </row>
     <row r="215">
       <c r="AL215" s="26"/>
@@ -21317,6 +21713,7 @@
       <c r="BD215" s="26"/>
       <c r="BE215" s="26"/>
       <c r="BF215" s="26"/>
+      <c r="BG215" s="26"/>
     </row>
     <row r="216">
       <c r="AL216" s="26"/>
@@ -21340,6 +21737,7 @@
       <c r="BD216" s="26"/>
       <c r="BE216" s="26"/>
       <c r="BF216" s="26"/>
+      <c r="BG216" s="26"/>
     </row>
     <row r="217">
       <c r="AL217" s="26"/>
@@ -21363,6 +21761,7 @@
       <c r="BD217" s="26"/>
       <c r="BE217" s="26"/>
       <c r="BF217" s="26"/>
+      <c r="BG217" s="26"/>
     </row>
     <row r="218">
       <c r="AL218" s="26"/>
@@ -21386,6 +21785,7 @@
       <c r="BD218" s="26"/>
       <c r="BE218" s="26"/>
       <c r="BF218" s="26"/>
+      <c r="BG218" s="26"/>
     </row>
     <row r="219">
       <c r="AL219" s="26"/>
@@ -21409,6 +21809,7 @@
       <c r="BD219" s="26"/>
       <c r="BE219" s="26"/>
       <c r="BF219" s="26"/>
+      <c r="BG219" s="26"/>
     </row>
     <row r="220">
       <c r="AL220" s="26"/>
@@ -21432,6 +21833,7 @@
       <c r="BD220" s="26"/>
       <c r="BE220" s="26"/>
       <c r="BF220" s="26"/>
+      <c r="BG220" s="26"/>
     </row>
     <row r="221">
       <c r="AL221" s="26"/>
@@ -21455,6 +21857,7 @@
       <c r="BD221" s="26"/>
       <c r="BE221" s="26"/>
       <c r="BF221" s="26"/>
+      <c r="BG221" s="26"/>
     </row>
     <row r="222">
       <c r="AL222" s="26"/>
@@ -21478,6 +21881,7 @@
       <c r="BD222" s="26"/>
       <c r="BE222" s="26"/>
       <c r="BF222" s="26"/>
+      <c r="BG222" s="26"/>
     </row>
     <row r="223">
       <c r="AL223" s="26"/>
@@ -21501,6 +21905,7 @@
       <c r="BD223" s="26"/>
       <c r="BE223" s="26"/>
       <c r="BF223" s="26"/>
+      <c r="BG223" s="26"/>
     </row>
     <row r="224">
       <c r="AL224" s="26"/>
@@ -21524,6 +21929,7 @@
       <c r="BD224" s="26"/>
       <c r="BE224" s="26"/>
       <c r="BF224" s="26"/>
+      <c r="BG224" s="26"/>
     </row>
     <row r="225">
       <c r="AL225" s="26"/>
@@ -21547,6 +21953,7 @@
       <c r="BD225" s="26"/>
       <c r="BE225" s="26"/>
       <c r="BF225" s="26"/>
+      <c r="BG225" s="26"/>
     </row>
     <row r="226">
       <c r="AL226" s="26"/>
@@ -21570,6 +21977,7 @@
       <c r="BD226" s="26"/>
       <c r="BE226" s="26"/>
       <c r="BF226" s="26"/>
+      <c r="BG226" s="26"/>
     </row>
     <row r="227">
       <c r="AL227" s="26"/>
@@ -21593,6 +22001,7 @@
       <c r="BD227" s="26"/>
       <c r="BE227" s="26"/>
       <c r="BF227" s="26"/>
+      <c r="BG227" s="26"/>
     </row>
     <row r="228">
       <c r="AL228" s="26"/>
@@ -21616,6 +22025,7 @@
       <c r="BD228" s="26"/>
       <c r="BE228" s="26"/>
       <c r="BF228" s="26"/>
+      <c r="BG228" s="26"/>
     </row>
     <row r="229">
       <c r="AL229" s="26"/>
@@ -21639,6 +22049,7 @@
       <c r="BD229" s="26"/>
       <c r="BE229" s="26"/>
       <c r="BF229" s="26"/>
+      <c r="BG229" s="26"/>
     </row>
     <row r="230">
       <c r="AL230" s="26"/>
@@ -21662,6 +22073,7 @@
       <c r="BD230" s="26"/>
       <c r="BE230" s="26"/>
       <c r="BF230" s="26"/>
+      <c r="BG230" s="26"/>
     </row>
     <row r="231">
       <c r="AL231" s="26"/>
@@ -21685,6 +22097,7 @@
       <c r="BD231" s="26"/>
       <c r="BE231" s="26"/>
       <c r="BF231" s="26"/>
+      <c r="BG231" s="26"/>
     </row>
     <row r="232">
       <c r="AL232" s="26"/>
@@ -21708,6 +22121,7 @@
       <c r="BD232" s="26"/>
       <c r="BE232" s="26"/>
       <c r="BF232" s="26"/>
+      <c r="BG232" s="26"/>
     </row>
     <row r="233">
       <c r="AL233" s="26"/>
@@ -21731,6 +22145,7 @@
       <c r="BD233" s="26"/>
       <c r="BE233" s="26"/>
       <c r="BF233" s="26"/>
+      <c r="BG233" s="26"/>
     </row>
     <row r="234">
       <c r="AL234" s="26"/>
@@ -21754,6 +22169,7 @@
       <c r="BD234" s="26"/>
       <c r="BE234" s="26"/>
       <c r="BF234" s="26"/>
+      <c r="BG234" s="26"/>
     </row>
     <row r="235">
       <c r="AL235" s="26"/>
@@ -21777,6 +22193,7 @@
       <c r="BD235" s="26"/>
       <c r="BE235" s="26"/>
       <c r="BF235" s="26"/>
+      <c r="BG235" s="26"/>
     </row>
     <row r="236">
       <c r="AL236" s="26"/>
@@ -21800,6 +22217,7 @@
       <c r="BD236" s="26"/>
       <c r="BE236" s="26"/>
       <c r="BF236" s="26"/>
+      <c r="BG236" s="26"/>
     </row>
     <row r="237">
       <c r="AL237" s="26"/>
@@ -21823,6 +22241,7 @@
       <c r="BD237" s="26"/>
       <c r="BE237" s="26"/>
       <c r="BF237" s="26"/>
+      <c r="BG237" s="26"/>
     </row>
     <row r="238">
       <c r="AL238" s="26"/>
@@ -21846,6 +22265,7 @@
       <c r="BD238" s="26"/>
       <c r="BE238" s="26"/>
       <c r="BF238" s="26"/>
+      <c r="BG238" s="26"/>
     </row>
     <row r="239">
       <c r="AL239" s="26"/>
@@ -21869,6 +22289,7 @@
       <c r="BD239" s="26"/>
       <c r="BE239" s="26"/>
       <c r="BF239" s="26"/>
+      <c r="BG239" s="26"/>
     </row>
     <row r="240">
       <c r="AL240" s="26"/>
@@ -21892,6 +22313,7 @@
       <c r="BD240" s="26"/>
       <c r="BE240" s="26"/>
       <c r="BF240" s="26"/>
+      <c r="BG240" s="26"/>
     </row>
     <row r="241">
       <c r="AL241" s="26"/>
@@ -21915,6 +22337,7 @@
       <c r="BD241" s="26"/>
       <c r="BE241" s="26"/>
       <c r="BF241" s="26"/>
+      <c r="BG241" s="26"/>
     </row>
     <row r="242">
       <c r="AL242" s="26"/>
@@ -21938,6 +22361,7 @@
       <c r="BD242" s="26"/>
       <c r="BE242" s="26"/>
       <c r="BF242" s="26"/>
+      <c r="BG242" s="26"/>
     </row>
     <row r="243">
       <c r="AL243" s="26"/>
@@ -21961,6 +22385,7 @@
       <c r="BD243" s="26"/>
       <c r="BE243" s="26"/>
       <c r="BF243" s="26"/>
+      <c r="BG243" s="26"/>
     </row>
     <row r="244">
       <c r="AL244" s="26"/>
@@ -21984,6 +22409,7 @@
       <c r="BD244" s="26"/>
       <c r="BE244" s="26"/>
       <c r="BF244" s="26"/>
+      <c r="BG244" s="26"/>
     </row>
     <row r="245">
       <c r="AL245" s="26"/>
@@ -22007,6 +22433,7 @@
       <c r="BD245" s="26"/>
       <c r="BE245" s="26"/>
       <c r="BF245" s="26"/>
+      <c r="BG245" s="26"/>
     </row>
     <row r="246">
       <c r="AL246" s="26"/>
@@ -22030,6 +22457,7 @@
       <c r="BD246" s="26"/>
       <c r="BE246" s="26"/>
       <c r="BF246" s="26"/>
+      <c r="BG246" s="26"/>
     </row>
     <row r="247">
       <c r="AL247" s="26"/>
@@ -22053,6 +22481,7 @@
       <c r="BD247" s="26"/>
       <c r="BE247" s="26"/>
       <c r="BF247" s="26"/>
+      <c r="BG247" s="26"/>
     </row>
     <row r="248">
       <c r="AL248" s="26"/>
@@ -22076,6 +22505,7 @@
       <c r="BD248" s="26"/>
       <c r="BE248" s="26"/>
       <c r="BF248" s="26"/>
+      <c r="BG248" s="26"/>
     </row>
     <row r="249">
       <c r="AL249" s="26"/>
@@ -22099,6 +22529,7 @@
       <c r="BD249" s="26"/>
       <c r="BE249" s="26"/>
       <c r="BF249" s="26"/>
+      <c r="BG249" s="26"/>
     </row>
     <row r="250">
       <c r="AL250" s="26"/>
@@ -22122,6 +22553,7 @@
       <c r="BD250" s="26"/>
       <c r="BE250" s="26"/>
       <c r="BF250" s="26"/>
+      <c r="BG250" s="26"/>
     </row>
     <row r="251">
       <c r="AL251" s="26"/>
@@ -22145,6 +22577,7 @@
       <c r="BD251" s="26"/>
       <c r="BE251" s="26"/>
       <c r="BF251" s="26"/>
+      <c r="BG251" s="26"/>
     </row>
     <row r="252">
       <c r="AL252" s="26"/>
@@ -22168,6 +22601,7 @@
       <c r="BD252" s="26"/>
       <c r="BE252" s="26"/>
       <c r="BF252" s="26"/>
+      <c r="BG252" s="26"/>
     </row>
     <row r="253">
       <c r="AL253" s="26"/>
@@ -22191,6 +22625,7 @@
       <c r="BD253" s="26"/>
       <c r="BE253" s="26"/>
       <c r="BF253" s="26"/>
+      <c r="BG253" s="26"/>
     </row>
     <row r="254">
       <c r="AL254" s="26"/>
@@ -22214,6 +22649,7 @@
       <c r="BD254" s="26"/>
       <c r="BE254" s="26"/>
       <c r="BF254" s="26"/>
+      <c r="BG254" s="26"/>
     </row>
     <row r="255">
       <c r="AL255" s="26"/>
@@ -22237,6 +22673,7 @@
       <c r="BD255" s="26"/>
       <c r="BE255" s="26"/>
       <c r="BF255" s="26"/>
+      <c r="BG255" s="26"/>
     </row>
     <row r="256">
       <c r="AL256" s="26"/>
@@ -22260,6 +22697,7 @@
       <c r="BD256" s="26"/>
       <c r="BE256" s="26"/>
       <c r="BF256" s="26"/>
+      <c r="BG256" s="26"/>
     </row>
     <row r="257">
       <c r="AL257" s="26"/>
@@ -22283,6 +22721,7 @@
       <c r="BD257" s="26"/>
       <c r="BE257" s="26"/>
       <c r="BF257" s="26"/>
+      <c r="BG257" s="26"/>
     </row>
     <row r="258">
       <c r="AL258" s="26"/>
@@ -22306,6 +22745,7 @@
       <c r="BD258" s="26"/>
       <c r="BE258" s="26"/>
       <c r="BF258" s="26"/>
+      <c r="BG258" s="26"/>
     </row>
     <row r="259">
       <c r="AL259" s="26"/>
@@ -22329,6 +22769,7 @@
       <c r="BD259" s="26"/>
       <c r="BE259" s="26"/>
       <c r="BF259" s="26"/>
+      <c r="BG259" s="26"/>
     </row>
     <row r="260">
       <c r="AL260" s="26"/>
@@ -22352,6 +22793,7 @@
       <c r="BD260" s="26"/>
       <c r="BE260" s="26"/>
       <c r="BF260" s="26"/>
+      <c r="BG260" s="26"/>
     </row>
     <row r="261">
       <c r="AL261" s="26"/>
@@ -22375,6 +22817,7 @@
       <c r="BD261" s="26"/>
       <c r="BE261" s="26"/>
       <c r="BF261" s="26"/>
+      <c r="BG261" s="26"/>
     </row>
     <row r="262">
       <c r="AL262" s="26"/>
@@ -22398,6 +22841,7 @@
       <c r="BD262" s="26"/>
       <c r="BE262" s="26"/>
       <c r="BF262" s="26"/>
+      <c r="BG262" s="26"/>
     </row>
     <row r="263">
       <c r="AL263" s="26"/>
@@ -22421,6 +22865,7 @@
       <c r="BD263" s="26"/>
       <c r="BE263" s="26"/>
       <c r="BF263" s="26"/>
+      <c r="BG263" s="26"/>
     </row>
     <row r="264">
       <c r="AL264" s="26"/>
@@ -22444,6 +22889,7 @@
       <c r="BD264" s="26"/>
       <c r="BE264" s="26"/>
       <c r="BF264" s="26"/>
+      <c r="BG264" s="26"/>
     </row>
     <row r="265">
       <c r="AL265" s="26"/>
@@ -22467,6 +22913,7 @@
       <c r="BD265" s="26"/>
       <c r="BE265" s="26"/>
       <c r="BF265" s="26"/>
+      <c r="BG265" s="26"/>
     </row>
     <row r="266">
       <c r="AL266" s="26"/>
@@ -22490,6 +22937,7 @@
       <c r="BD266" s="26"/>
       <c r="BE266" s="26"/>
       <c r="BF266" s="26"/>
+      <c r="BG266" s="26"/>
     </row>
     <row r="267">
       <c r="AL267" s="26"/>
@@ -22513,6 +22961,7 @@
       <c r="BD267" s="26"/>
       <c r="BE267" s="26"/>
       <c r="BF267" s="26"/>
+      <c r="BG267" s="26"/>
     </row>
     <row r="268">
       <c r="AL268" s="26"/>
@@ -22536,6 +22985,7 @@
       <c r="BD268" s="26"/>
       <c r="BE268" s="26"/>
       <c r="BF268" s="26"/>
+      <c r="BG268" s="26"/>
     </row>
     <row r="269">
       <c r="AL269" s="26"/>
@@ -22559,6 +23009,7 @@
       <c r="BD269" s="26"/>
       <c r="BE269" s="26"/>
       <c r="BF269" s="26"/>
+      <c r="BG269" s="26"/>
     </row>
     <row r="270">
       <c r="AL270" s="26"/>
@@ -22582,6 +23033,7 @@
       <c r="BD270" s="26"/>
       <c r="BE270" s="26"/>
       <c r="BF270" s="26"/>
+      <c r="BG270" s="26"/>
     </row>
     <row r="271">
       <c r="AL271" s="26"/>
@@ -22605,6 +23057,7 @@
       <c r="BD271" s="26"/>
       <c r="BE271" s="26"/>
       <c r="BF271" s="26"/>
+      <c r="BG271" s="26"/>
     </row>
     <row r="272">
       <c r="AL272" s="26"/>
@@ -22628,6 +23081,7 @@
       <c r="BD272" s="26"/>
       <c r="BE272" s="26"/>
       <c r="BF272" s="26"/>
+      <c r="BG272" s="26"/>
     </row>
     <row r="273">
       <c r="AL273" s="26"/>
@@ -22651,6 +23105,7 @@
       <c r="BD273" s="26"/>
       <c r="BE273" s="26"/>
       <c r="BF273" s="26"/>
+      <c r="BG273" s="26"/>
     </row>
     <row r="274">
       <c r="AL274" s="26"/>
@@ -22674,6 +23129,7 @@
       <c r="BD274" s="26"/>
       <c r="BE274" s="26"/>
       <c r="BF274" s="26"/>
+      <c r="BG274" s="26"/>
     </row>
     <row r="275">
       <c r="AL275" s="26"/>
@@ -22697,6 +23153,7 @@
       <c r="BD275" s="26"/>
       <c r="BE275" s="26"/>
       <c r="BF275" s="26"/>
+      <c r="BG275" s="26"/>
     </row>
     <row r="276">
       <c r="AL276" s="26"/>
@@ -22720,6 +23177,7 @@
       <c r="BD276" s="26"/>
       <c r="BE276" s="26"/>
       <c r="BF276" s="26"/>
+      <c r="BG276" s="26"/>
     </row>
     <row r="277">
       <c r="AL277" s="26"/>
@@ -22743,6 +23201,7 @@
       <c r="BD277" s="26"/>
       <c r="BE277" s="26"/>
       <c r="BF277" s="26"/>
+      <c r="BG277" s="26"/>
     </row>
     <row r="278">
       <c r="AL278" s="26"/>
@@ -22766,6 +23225,7 @@
       <c r="BD278" s="26"/>
       <c r="BE278" s="26"/>
       <c r="BF278" s="26"/>
+      <c r="BG278" s="26"/>
     </row>
     <row r="279">
       <c r="AL279" s="26"/>
@@ -22789,6 +23249,7 @@
       <c r="BD279" s="26"/>
       <c r="BE279" s="26"/>
       <c r="BF279" s="26"/>
+      <c r="BG279" s="26"/>
     </row>
     <row r="280">
       <c r="AL280" s="26"/>
@@ -22812,6 +23273,7 @@
       <c r="BD280" s="26"/>
       <c r="BE280" s="26"/>
       <c r="BF280" s="26"/>
+      <c r="BG280" s="26"/>
     </row>
     <row r="281">
       <c r="AL281" s="26"/>
@@ -22835,6 +23297,7 @@
       <c r="BD281" s="26"/>
       <c r="BE281" s="26"/>
       <c r="BF281" s="26"/>
+      <c r="BG281" s="26"/>
     </row>
     <row r="282">
       <c r="AL282" s="26"/>
@@ -22858,6 +23321,7 @@
       <c r="BD282" s="26"/>
       <c r="BE282" s="26"/>
       <c r="BF282" s="26"/>
+      <c r="BG282" s="26"/>
     </row>
     <row r="283">
       <c r="AL283" s="26"/>
@@ -22881,6 +23345,7 @@
       <c r="BD283" s="26"/>
       <c r="BE283" s="26"/>
       <c r="BF283" s="26"/>
+      <c r="BG283" s="26"/>
     </row>
     <row r="284">
       <c r="AL284" s="26"/>
@@ -22904,6 +23369,7 @@
       <c r="BD284" s="26"/>
       <c r="BE284" s="26"/>
       <c r="BF284" s="26"/>
+      <c r="BG284" s="26"/>
     </row>
     <row r="285">
       <c r="AL285" s="26"/>
@@ -22927,6 +23393,7 @@
       <c r="BD285" s="26"/>
       <c r="BE285" s="26"/>
       <c r="BF285" s="26"/>
+      <c r="BG285" s="26"/>
     </row>
     <row r="286">
       <c r="AL286" s="26"/>
@@ -22950,6 +23417,7 @@
       <c r="BD286" s="26"/>
       <c r="BE286" s="26"/>
       <c r="BF286" s="26"/>
+      <c r="BG286" s="26"/>
     </row>
     <row r="287">
       <c r="AL287" s="26"/>
@@ -22973,6 +23441,7 @@
       <c r="BD287" s="26"/>
       <c r="BE287" s="26"/>
       <c r="BF287" s="26"/>
+      <c r="BG287" s="26"/>
     </row>
     <row r="288">
       <c r="AL288" s="26"/>
@@ -22996,6 +23465,7 @@
       <c r="BD288" s="26"/>
       <c r="BE288" s="26"/>
       <c r="BF288" s="26"/>
+      <c r="BG288" s="26"/>
     </row>
     <row r="289">
       <c r="AL289" s="26"/>
@@ -23019,6 +23489,7 @@
       <c r="BD289" s="26"/>
       <c r="BE289" s="26"/>
       <c r="BF289" s="26"/>
+      <c r="BG289" s="26"/>
     </row>
     <row r="290">
       <c r="AL290" s="26"/>
@@ -23042,6 +23513,7 @@
       <c r="BD290" s="26"/>
       <c r="BE290" s="26"/>
       <c r="BF290" s="26"/>
+      <c r="BG290" s="26"/>
     </row>
     <row r="291">
       <c r="AL291" s="26"/>
@@ -23065,6 +23537,7 @@
       <c r="BD291" s="26"/>
       <c r="BE291" s="26"/>
       <c r="BF291" s="26"/>
+      <c r="BG291" s="26"/>
     </row>
     <row r="292">
       <c r="AL292" s="26"/>
@@ -23088,6 +23561,7 @@
       <c r="BD292" s="26"/>
       <c r="BE292" s="26"/>
       <c r="BF292" s="26"/>
+      <c r="BG292" s="26"/>
     </row>
     <row r="293">
       <c r="AL293" s="26"/>
@@ -23111,6 +23585,7 @@
       <c r="BD293" s="26"/>
       <c r="BE293" s="26"/>
       <c r="BF293" s="26"/>
+      <c r="BG293" s="26"/>
     </row>
     <row r="294">
       <c r="AL294" s="26"/>
@@ -23134,6 +23609,7 @@
       <c r="BD294" s="26"/>
       <c r="BE294" s="26"/>
       <c r="BF294" s="26"/>
+      <c r="BG294" s="26"/>
     </row>
     <row r="295">
       <c r="AL295" s="26"/>
@@ -23157,6 +23633,7 @@
       <c r="BD295" s="26"/>
       <c r="BE295" s="26"/>
       <c r="BF295" s="26"/>
+      <c r="BG295" s="26"/>
     </row>
     <row r="296">
       <c r="AL296" s="26"/>
@@ -23180,6 +23657,7 @@
       <c r="BD296" s="26"/>
       <c r="BE296" s="26"/>
       <c r="BF296" s="26"/>
+      <c r="BG296" s="26"/>
     </row>
     <row r="297">
       <c r="AL297" s="26"/>
@@ -23203,6 +23681,7 @@
       <c r="BD297" s="26"/>
       <c r="BE297" s="26"/>
       <c r="BF297" s="26"/>
+      <c r="BG297" s="26"/>
     </row>
     <row r="298">
       <c r="AL298" s="26"/>
@@ -23226,6 +23705,7 @@
       <c r="BD298" s="26"/>
       <c r="BE298" s="26"/>
       <c r="BF298" s="26"/>
+      <c r="BG298" s="26"/>
     </row>
     <row r="299">
       <c r="AL299" s="26"/>
@@ -23249,6 +23729,7 @@
       <c r="BD299" s="26"/>
       <c r="BE299" s="26"/>
       <c r="BF299" s="26"/>
+      <c r="BG299" s="26"/>
     </row>
     <row r="300">
       <c r="AL300" s="26"/>
@@ -23272,6 +23753,7 @@
       <c r="BD300" s="26"/>
       <c r="BE300" s="26"/>
       <c r="BF300" s="26"/>
+      <c r="BG300" s="26"/>
     </row>
     <row r="301">
       <c r="AL301" s="26"/>
@@ -23295,6 +23777,7 @@
       <c r="BD301" s="26"/>
       <c r="BE301" s="26"/>
       <c r="BF301" s="26"/>
+      <c r="BG301" s="26"/>
     </row>
     <row r="302">
       <c r="AL302" s="26"/>
@@ -23318,6 +23801,7 @@
       <c r="BD302" s="26"/>
       <c r="BE302" s="26"/>
       <c r="BF302" s="26"/>
+      <c r="BG302" s="26"/>
     </row>
     <row r="303">
       <c r="AL303" s="26"/>
@@ -23341,6 +23825,7 @@
       <c r="BD303" s="26"/>
       <c r="BE303" s="26"/>
       <c r="BF303" s="26"/>
+      <c r="BG303" s="26"/>
     </row>
     <row r="304">
       <c r="AL304" s="26"/>
@@ -23364,6 +23849,7 @@
       <c r="BD304" s="26"/>
       <c r="BE304" s="26"/>
       <c r="BF304" s="26"/>
+      <c r="BG304" s="26"/>
     </row>
     <row r="305">
       <c r="AL305" s="26"/>
@@ -23387,6 +23873,7 @@
       <c r="BD305" s="26"/>
       <c r="BE305" s="26"/>
       <c r="BF305" s="26"/>
+      <c r="BG305" s="26"/>
     </row>
     <row r="306">
       <c r="AL306" s="26"/>
@@ -23410,6 +23897,7 @@
       <c r="BD306" s="26"/>
       <c r="BE306" s="26"/>
       <c r="BF306" s="26"/>
+      <c r="BG306" s="26"/>
     </row>
     <row r="307">
       <c r="AL307" s="26"/>
@@ -23433,6 +23921,7 @@
       <c r="BD307" s="26"/>
       <c r="BE307" s="26"/>
       <c r="BF307" s="26"/>
+      <c r="BG307" s="26"/>
     </row>
     <row r="308">
       <c r="AL308" s="26"/>
@@ -23456,6 +23945,7 @@
       <c r="BD308" s="26"/>
       <c r="BE308" s="26"/>
       <c r="BF308" s="26"/>
+      <c r="BG308" s="26"/>
     </row>
     <row r="309">
       <c r="AL309" s="26"/>
@@ -23479,6 +23969,7 @@
       <c r="BD309" s="26"/>
       <c r="BE309" s="26"/>
       <c r="BF309" s="26"/>
+      <c r="BG309" s="26"/>
     </row>
     <row r="310">
       <c r="AL310" s="26"/>
@@ -23502,6 +23993,7 @@
       <c r="BD310" s="26"/>
       <c r="BE310" s="26"/>
       <c r="BF310" s="26"/>
+      <c r="BG310" s="26"/>
     </row>
     <row r="311">
       <c r="AL311" s="26"/>
@@ -23525,6 +24017,7 @@
       <c r="BD311" s="26"/>
       <c r="BE311" s="26"/>
       <c r="BF311" s="26"/>
+      <c r="BG311" s="26"/>
     </row>
     <row r="312">
       <c r="AL312" s="26"/>
@@ -23548,6 +24041,7 @@
       <c r="BD312" s="26"/>
       <c r="BE312" s="26"/>
       <c r="BF312" s="26"/>
+      <c r="BG312" s="26"/>
     </row>
     <row r="313">
       <c r="AL313" s="26"/>
@@ -23571,6 +24065,7 @@
       <c r="BD313" s="26"/>
       <c r="BE313" s="26"/>
       <c r="BF313" s="26"/>
+      <c r="BG313" s="26"/>
     </row>
     <row r="314">
       <c r="AL314" s="26"/>
@@ -23594,6 +24089,7 @@
       <c r="BD314" s="26"/>
       <c r="BE314" s="26"/>
       <c r="BF314" s="26"/>
+      <c r="BG314" s="26"/>
     </row>
     <row r="315">
       <c r="AL315" s="26"/>
@@ -23617,6 +24113,7 @@
       <c r="BD315" s="26"/>
       <c r="BE315" s="26"/>
       <c r="BF315" s="26"/>
+      <c r="BG315" s="26"/>
     </row>
     <row r="316">
       <c r="AL316" s="26"/>
@@ -23640,6 +24137,7 @@
       <c r="BD316" s="26"/>
       <c r="BE316" s="26"/>
       <c r="BF316" s="26"/>
+      <c r="BG316" s="26"/>
     </row>
     <row r="317">
       <c r="AL317" s="26"/>
@@ -23663,6 +24161,7 @@
       <c r="BD317" s="26"/>
       <c r="BE317" s="26"/>
       <c r="BF317" s="26"/>
+      <c r="BG317" s="26"/>
     </row>
     <row r="318">
       <c r="AL318" s="26"/>
@@ -23686,6 +24185,7 @@
       <c r="BD318" s="26"/>
       <c r="BE318" s="26"/>
       <c r="BF318" s="26"/>
+      <c r="BG318" s="26"/>
     </row>
     <row r="319">
       <c r="AL319" s="26"/>
@@ -23709,6 +24209,7 @@
       <c r="BD319" s="26"/>
       <c r="BE319" s="26"/>
       <c r="BF319" s="26"/>
+      <c r="BG319" s="26"/>
     </row>
     <row r="320">
       <c r="AL320" s="26"/>
@@ -23732,6 +24233,7 @@
       <c r="BD320" s="26"/>
       <c r="BE320" s="26"/>
       <c r="BF320" s="26"/>
+      <c r="BG320" s="26"/>
     </row>
     <row r="321">
       <c r="AL321" s="26"/>
@@ -23755,6 +24257,7 @@
       <c r="BD321" s="26"/>
       <c r="BE321" s="26"/>
       <c r="BF321" s="26"/>
+      <c r="BG321" s="26"/>
     </row>
     <row r="322">
       <c r="AL322" s="26"/>
@@ -23778,6 +24281,7 @@
       <c r="BD322" s="26"/>
       <c r="BE322" s="26"/>
       <c r="BF322" s="26"/>
+      <c r="BG322" s="26"/>
     </row>
     <row r="323">
       <c r="AL323" s="26"/>
@@ -23801,6 +24305,7 @@
       <c r="BD323" s="26"/>
       <c r="BE323" s="26"/>
       <c r="BF323" s="26"/>
+      <c r="BG323" s="26"/>
     </row>
     <row r="324">
       <c r="AL324" s="26"/>
@@ -23824,6 +24329,7 @@
       <c r="BD324" s="26"/>
       <c r="BE324" s="26"/>
       <c r="BF324" s="26"/>
+      <c r="BG324" s="26"/>
     </row>
     <row r="325">
       <c r="AL325" s="26"/>
@@ -23847,6 +24353,7 @@
       <c r="BD325" s="26"/>
       <c r="BE325" s="26"/>
       <c r="BF325" s="26"/>
+      <c r="BG325" s="26"/>
     </row>
     <row r="326">
       <c r="AL326" s="26"/>
@@ -23870,6 +24377,7 @@
       <c r="BD326" s="26"/>
       <c r="BE326" s="26"/>
       <c r="BF326" s="26"/>
+      <c r="BG326" s="26"/>
     </row>
     <row r="327">
       <c r="AL327" s="26"/>
@@ -23893,6 +24401,7 @@
       <c r="BD327" s="26"/>
       <c r="BE327" s="26"/>
       <c r="BF327" s="26"/>
+      <c r="BG327" s="26"/>
     </row>
     <row r="328">
       <c r="AL328" s="26"/>
@@ -23916,6 +24425,7 @@
       <c r="BD328" s="26"/>
       <c r="BE328" s="26"/>
       <c r="BF328" s="26"/>
+      <c r="BG328" s="26"/>
     </row>
     <row r="329">
       <c r="AL329" s="26"/>
@@ -23939,6 +24449,7 @@
       <c r="BD329" s="26"/>
       <c r="BE329" s="26"/>
       <c r="BF329" s="26"/>
+      <c r="BG329" s="26"/>
     </row>
     <row r="330">
       <c r="AL330" s="26"/>
@@ -23962,6 +24473,7 @@
       <c r="BD330" s="26"/>
       <c r="BE330" s="26"/>
       <c r="BF330" s="26"/>
+      <c r="BG330" s="26"/>
     </row>
     <row r="331">
       <c r="AL331" s="26"/>
@@ -23985,6 +24497,7 @@
       <c r="BD331" s="26"/>
       <c r="BE331" s="26"/>
       <c r="BF331" s="26"/>
+      <c r="BG331" s="26"/>
     </row>
     <row r="332">
       <c r="AL332" s="26"/>
@@ -24008,6 +24521,7 @@
       <c r="BD332" s="26"/>
       <c r="BE332" s="26"/>
       <c r="BF332" s="26"/>
+      <c r="BG332" s="26"/>
     </row>
     <row r="333">
       <c r="AL333" s="26"/>
@@ -24031,6 +24545,7 @@
       <c r="BD333" s="26"/>
       <c r="BE333" s="26"/>
       <c r="BF333" s="26"/>
+      <c r="BG333" s="26"/>
     </row>
     <row r="334">
       <c r="AL334" s="26"/>
@@ -24054,6 +24569,7 @@
       <c r="BD334" s="26"/>
       <c r="BE334" s="26"/>
       <c r="BF334" s="26"/>
+      <c r="BG334" s="26"/>
     </row>
     <row r="335">
       <c r="AL335" s="26"/>
@@ -24077,6 +24593,7 @@
       <c r="BD335" s="26"/>
       <c r="BE335" s="26"/>
       <c r="BF335" s="26"/>
+      <c r="BG335" s="26"/>
     </row>
     <row r="336">
       <c r="AL336" s="26"/>
@@ -24100,6 +24617,7 @@
       <c r="BD336" s="26"/>
       <c r="BE336" s="26"/>
       <c r="BF336" s="26"/>
+      <c r="BG336" s="26"/>
     </row>
     <row r="337">
       <c r="AL337" s="26"/>
@@ -24123,6 +24641,7 @@
       <c r="BD337" s="26"/>
       <c r="BE337" s="26"/>
       <c r="BF337" s="26"/>
+      <c r="BG337" s="26"/>
     </row>
     <row r="338">
       <c r="AL338" s="26"/>
@@ -24146,6 +24665,7 @@
       <c r="BD338" s="26"/>
       <c r="BE338" s="26"/>
       <c r="BF338" s="26"/>
+      <c r="BG338" s="26"/>
     </row>
     <row r="339">
       <c r="AL339" s="26"/>
@@ -24169,6 +24689,7 @@
       <c r="BD339" s="26"/>
       <c r="BE339" s="26"/>
       <c r="BF339" s="26"/>
+      <c r="BG339" s="26"/>
     </row>
     <row r="340">
       <c r="AL340" s="26"/>
@@ -24192,6 +24713,7 @@
       <c r="BD340" s="26"/>
       <c r="BE340" s="26"/>
       <c r="BF340" s="26"/>
+      <c r="BG340" s="26"/>
     </row>
     <row r="341">
       <c r="AL341" s="26"/>
@@ -24215,6 +24737,7 @@
       <c r="BD341" s="26"/>
       <c r="BE341" s="26"/>
       <c r="BF341" s="26"/>
+      <c r="BG341" s="26"/>
     </row>
     <row r="342">
       <c r="AL342" s="26"/>
@@ -24238,6 +24761,7 @@
       <c r="BD342" s="26"/>
       <c r="BE342" s="26"/>
       <c r="BF342" s="26"/>
+      <c r="BG342" s="26"/>
     </row>
     <row r="343">
       <c r="AL343" s="26"/>
@@ -24261,6 +24785,7 @@
       <c r="BD343" s="26"/>
       <c r="BE343" s="26"/>
       <c r="BF343" s="26"/>
+      <c r="BG343" s="26"/>
     </row>
     <row r="344">
       <c r="AL344" s="26"/>
@@ -24284,6 +24809,7 @@
       <c r="BD344" s="26"/>
       <c r="BE344" s="26"/>
       <c r="BF344" s="26"/>
+      <c r="BG344" s="26"/>
     </row>
     <row r="345">
       <c r="AL345" s="26"/>
@@ -24307,6 +24833,7 @@
       <c r="BD345" s="26"/>
       <c r="BE345" s="26"/>
       <c r="BF345" s="26"/>
+      <c r="BG345" s="26"/>
     </row>
     <row r="346">
       <c r="AL346" s="26"/>
@@ -24330,6 +24857,7 @@
       <c r="BD346" s="26"/>
       <c r="BE346" s="26"/>
       <c r="BF346" s="26"/>
+      <c r="BG346" s="26"/>
     </row>
     <row r="347">
       <c r="AL347" s="26"/>
@@ -24353,6 +24881,7 @@
       <c r="BD347" s="26"/>
       <c r="BE347" s="26"/>
       <c r="BF347" s="26"/>
+      <c r="BG347" s="26"/>
     </row>
     <row r="348">
       <c r="AL348" s="26"/>
@@ -24376,6 +24905,7 @@
       <c r="BD348" s="26"/>
       <c r="BE348" s="26"/>
       <c r="BF348" s="26"/>
+      <c r="BG348" s="26"/>
     </row>
     <row r="349">
       <c r="AL349" s="26"/>
@@ -24399,6 +24929,7 @@
       <c r="BD349" s="26"/>
       <c r="BE349" s="26"/>
       <c r="BF349" s="26"/>
+      <c r="BG349" s="26"/>
     </row>
     <row r="350">
       <c r="AL350" s="26"/>
@@ -24422,6 +24953,7 @@
       <c r="BD350" s="26"/>
       <c r="BE350" s="26"/>
       <c r="BF350" s="26"/>
+      <c r="BG350" s="26"/>
     </row>
     <row r="351">
       <c r="AL351" s="26"/>
@@ -24445,6 +24977,7 @@
       <c r="BD351" s="26"/>
       <c r="BE351" s="26"/>
       <c r="BF351" s="26"/>
+      <c r="BG351" s="26"/>
     </row>
     <row r="352">
       <c r="AL352" s="26"/>
@@ -24468,6 +25001,7 @@
       <c r="BD352" s="26"/>
       <c r="BE352" s="26"/>
       <c r="BF352" s="26"/>
+      <c r="BG352" s="26"/>
     </row>
     <row r="353">
       <c r="AL353" s="26"/>
@@ -24491,6 +25025,7 @@
       <c r="BD353" s="26"/>
       <c r="BE353" s="26"/>
       <c r="BF353" s="26"/>
+      <c r="BG353" s="26"/>
     </row>
     <row r="354">
       <c r="AL354" s="26"/>
@@ -24514,6 +25049,7 @@
       <c r="BD354" s="26"/>
       <c r="BE354" s="26"/>
       <c r="BF354" s="26"/>
+      <c r="BG354" s="26"/>
     </row>
     <row r="355">
       <c r="AL355" s="26"/>
@@ -24537,6 +25073,7 @@
       <c r="BD355" s="26"/>
       <c r="BE355" s="26"/>
       <c r="BF355" s="26"/>
+      <c r="BG355" s="26"/>
     </row>
     <row r="356">
       <c r="AL356" s="26"/>
@@ -24560,6 +25097,7 @@
       <c r="BD356" s="26"/>
       <c r="BE356" s="26"/>
       <c r="BF356" s="26"/>
+      <c r="BG356" s="26"/>
     </row>
     <row r="357">
       <c r="AL357" s="26"/>
@@ -24583,6 +25121,7 @@
       <c r="BD357" s="26"/>
       <c r="BE357" s="26"/>
       <c r="BF357" s="26"/>
+      <c r="BG357" s="26"/>
     </row>
     <row r="358">
       <c r="AL358" s="26"/>
@@ -24606,6 +25145,7 @@
       <c r="BD358" s="26"/>
       <c r="BE358" s="26"/>
       <c r="BF358" s="26"/>
+      <c r="BG358" s="26"/>
     </row>
     <row r="359">
       <c r="AL359" s="26"/>
@@ -24629,6 +25169,7 @@
       <c r="BD359" s="26"/>
       <c r="BE359" s="26"/>
       <c r="BF359" s="26"/>
+      <c r="BG359" s="26"/>
     </row>
     <row r="360">
       <c r="AL360" s="26"/>
@@ -24652,6 +25193,7 @@
       <c r="BD360" s="26"/>
       <c r="BE360" s="26"/>
       <c r="BF360" s="26"/>
+      <c r="BG360" s="26"/>
     </row>
     <row r="361">
       <c r="AL361" s="26"/>
@@ -24675,6 +25217,7 @@
       <c r="BD361" s="26"/>
       <c r="BE361" s="26"/>
       <c r="BF361" s="26"/>
+      <c r="BG361" s="26"/>
     </row>
     <row r="362">
       <c r="AL362" s="26"/>
@@ -24698,6 +25241,7 @@
       <c r="BD362" s="26"/>
       <c r="BE362" s="26"/>
       <c r="BF362" s="26"/>
+      <c r="BG362" s="26"/>
     </row>
     <row r="363">
       <c r="AL363" s="26"/>
@@ -24721,6 +25265,7 @@
       <c r="BD363" s="26"/>
       <c r="BE363" s="26"/>
       <c r="BF363" s="26"/>
+      <c r="BG363" s="26"/>
     </row>
     <row r="364">
       <c r="AL364" s="26"/>
@@ -24744,6 +25289,7 @@
       <c r="BD364" s="26"/>
       <c r="BE364" s="26"/>
       <c r="BF364" s="26"/>
+      <c r="BG364" s="26"/>
     </row>
     <row r="365">
       <c r="AL365" s="26"/>
@@ -24767,6 +25313,7 @@
       <c r="BD365" s="26"/>
       <c r="BE365" s="26"/>
       <c r="BF365" s="26"/>
+      <c r="BG365" s="26"/>
     </row>
     <row r="366">
       <c r="AL366" s="26"/>
@@ -24790,6 +25337,7 @@
       <c r="BD366" s="26"/>
       <c r="BE366" s="26"/>
       <c r="BF366" s="26"/>
+      <c r="BG366" s="26"/>
     </row>
     <row r="367">
       <c r="AL367" s="26"/>
@@ -24813,6 +25361,7 @@
       <c r="BD367" s="26"/>
       <c r="BE367" s="26"/>
       <c r="BF367" s="26"/>
+      <c r="BG367" s="26"/>
     </row>
     <row r="368">
       <c r="AL368" s="26"/>
@@ -24836,6 +25385,7 @@
       <c r="BD368" s="26"/>
       <c r="BE368" s="26"/>
       <c r="BF368" s="26"/>
+      <c r="BG368" s="26"/>
     </row>
     <row r="369">
       <c r="AL369" s="26"/>
@@ -24859,6 +25409,7 @@
       <c r="BD369" s="26"/>
       <c r="BE369" s="26"/>
       <c r="BF369" s="26"/>
+      <c r="BG369" s="26"/>
     </row>
     <row r="370">
       <c r="AL370" s="26"/>
@@ -24882,6 +25433,7 @@
       <c r="BD370" s="26"/>
       <c r="BE370" s="26"/>
       <c r="BF370" s="26"/>
+      <c r="BG370" s="26"/>
     </row>
     <row r="371">
       <c r="AL371" s="26"/>
@@ -24905,6 +25457,7 @@
       <c r="BD371" s="26"/>
       <c r="BE371" s="26"/>
       <c r="BF371" s="26"/>
+      <c r="BG371" s="26"/>
     </row>
     <row r="372">
       <c r="AL372" s="26"/>
@@ -24928,6 +25481,7 @@
       <c r="BD372" s="26"/>
       <c r="BE372" s="26"/>
       <c r="BF372" s="26"/>
+      <c r="BG372" s="26"/>
     </row>
     <row r="373">
       <c r="AL373" s="26"/>
@@ -24951,6 +25505,7 @@
       <c r="BD373" s="26"/>
       <c r="BE373" s="26"/>
       <c r="BF373" s="26"/>
+      <c r="BG373" s="26"/>
     </row>
     <row r="374">
       <c r="AL374" s="26"/>
@@ -24974,6 +25529,7 @@
       <c r="BD374" s="26"/>
       <c r="BE374" s="26"/>
       <c r="BF374" s="26"/>
+      <c r="BG374" s="26"/>
     </row>
     <row r="375">
       <c r="AL375" s="26"/>
@@ -24997,6 +25553,7 @@
       <c r="BD375" s="26"/>
       <c r="BE375" s="26"/>
       <c r="BF375" s="26"/>
+      <c r="BG375" s="26"/>
     </row>
     <row r="376">
       <c r="AL376" s="26"/>
@@ -25020,6 +25577,7 @@
       <c r="BD376" s="26"/>
       <c r="BE376" s="26"/>
       <c r="BF376" s="26"/>
+      <c r="BG376" s="26"/>
     </row>
     <row r="377">
       <c r="AL377" s="26"/>
@@ -25043,6 +25601,7 @@
       <c r="BD377" s="26"/>
       <c r="BE377" s="26"/>
       <c r="BF377" s="26"/>
+      <c r="BG377" s="26"/>
     </row>
     <row r="378">
       <c r="AL378" s="26"/>
@@ -25066,6 +25625,7 @@
       <c r="BD378" s="26"/>
       <c r="BE378" s="26"/>
       <c r="BF378" s="26"/>
+      <c r="BG378" s="26"/>
     </row>
     <row r="379">
       <c r="AL379" s="26"/>
@@ -25089,6 +25649,7 @@
       <c r="BD379" s="26"/>
       <c r="BE379" s="26"/>
       <c r="BF379" s="26"/>
+      <c r="BG379" s="26"/>
     </row>
     <row r="380">
       <c r="AL380" s="26"/>
@@ -25112,6 +25673,7 @@
       <c r="BD380" s="26"/>
       <c r="BE380" s="26"/>
       <c r="BF380" s="26"/>
+      <c r="BG380" s="26"/>
     </row>
     <row r="381">
       <c r="AL381" s="26"/>
@@ -25135,6 +25697,7 @@
       <c r="BD381" s="26"/>
       <c r="BE381" s="26"/>
       <c r="BF381" s="26"/>
+      <c r="BG381" s="26"/>
     </row>
     <row r="382">
       <c r="AL382" s="26"/>
@@ -25158,6 +25721,7 @@
       <c r="BD382" s="26"/>
       <c r="BE382" s="26"/>
       <c r="BF382" s="26"/>
+      <c r="BG382" s="26"/>
     </row>
     <row r="383">
       <c r="AL383" s="26"/>
@@ -25181,6 +25745,7 @@
       <c r="BD383" s="26"/>
       <c r="BE383" s="26"/>
       <c r="BF383" s="26"/>
+      <c r="BG383" s="26"/>
     </row>
     <row r="384">
       <c r="AL384" s="26"/>
@@ -25204,6 +25769,7 @@
       <c r="BD384" s="26"/>
       <c r="BE384" s="26"/>
       <c r="BF384" s="26"/>
+      <c r="BG384" s="26"/>
     </row>
     <row r="385">
       <c r="AL385" s="26"/>
@@ -25227,6 +25793,7 @@
       <c r="BD385" s="26"/>
       <c r="BE385" s="26"/>
       <c r="BF385" s="26"/>
+      <c r="BG385" s="26"/>
     </row>
     <row r="386">
       <c r="AL386" s="26"/>
@@ -25250,6 +25817,7 @@
       <c r="BD386" s="26"/>
       <c r="BE386" s="26"/>
       <c r="BF386" s="26"/>
+      <c r="BG386" s="26"/>
     </row>
     <row r="387">
       <c r="AL387" s="26"/>
@@ -25273,6 +25841,7 @@
       <c r="BD387" s="26"/>
       <c r="BE387" s="26"/>
       <c r="BF387" s="26"/>
+      <c r="BG387" s="26"/>
     </row>
     <row r="388">
       <c r="AL388" s="26"/>
@@ -25296,6 +25865,7 @@
       <c r="BD388" s="26"/>
       <c r="BE388" s="26"/>
       <c r="BF388" s="26"/>
+      <c r="BG388" s="26"/>
     </row>
     <row r="389">
       <c r="AL389" s="26"/>
@@ -25319,6 +25889,7 @@
       <c r="BD389" s="26"/>
       <c r="BE389" s="26"/>
       <c r="BF389" s="26"/>
+      <c r="BG389" s="26"/>
     </row>
     <row r="390">
       <c r="AL390" s="26"/>
@@ -25342,6 +25913,7 @@
       <c r="BD390" s="26"/>
       <c r="BE390" s="26"/>
       <c r="BF390" s="26"/>
+      <c r="BG390" s="26"/>
     </row>
     <row r="391">
       <c r="AL391" s="26"/>
@@ -25365,6 +25937,7 @@
       <c r="BD391" s="26"/>
       <c r="BE391" s="26"/>
       <c r="BF391" s="26"/>
+      <c r="BG391" s="26"/>
     </row>
     <row r="392">
       <c r="AL392" s="26"/>
@@ -25388,6 +25961,7 @@
       <c r="BD392" s="26"/>
       <c r="BE392" s="26"/>
       <c r="BF392" s="26"/>
+      <c r="BG392" s="26"/>
     </row>
     <row r="393">
       <c r="AL393" s="26"/>
@@ -25411,6 +25985,7 @@
       <c r="BD393" s="26"/>
       <c r="BE393" s="26"/>
       <c r="BF393" s="26"/>
+      <c r="BG393" s="26"/>
     </row>
     <row r="394">
       <c r="AL394" s="26"/>
@@ -25434,6 +26009,7 @@
       <c r="BD394" s="26"/>
       <c r="BE394" s="26"/>
       <c r="BF394" s="26"/>
+      <c r="BG394" s="26"/>
     </row>
     <row r="395">
       <c r="AL395" s="26"/>
@@ -25457,6 +26033,7 @@
       <c r="BD395" s="26"/>
       <c r="BE395" s="26"/>
       <c r="BF395" s="26"/>
+      <c r="BG395" s="26"/>
     </row>
     <row r="396">
       <c r="AL396" s="26"/>
@@ -25480,6 +26057,7 @@
       <c r="BD396" s="26"/>
       <c r="BE396" s="26"/>
       <c r="BF396" s="26"/>
+      <c r="BG396" s="26"/>
     </row>
     <row r="397">
       <c r="AL397" s="26"/>
@@ -25503,6 +26081,7 @@
       <c r="BD397" s="26"/>
       <c r="BE397" s="26"/>
       <c r="BF397" s="26"/>
+      <c r="BG397" s="26"/>
     </row>
     <row r="398">
       <c r="AL398" s="26"/>
@@ -25526,6 +26105,7 @@
       <c r="BD398" s="26"/>
       <c r="BE398" s="26"/>
       <c r="BF398" s="26"/>
+      <c r="BG398" s="26"/>
     </row>
     <row r="399">
       <c r="AL399" s="26"/>
@@ -25549,6 +26129,7 @@
       <c r="BD399" s="26"/>
       <c r="BE399" s="26"/>
       <c r="BF399" s="26"/>
+      <c r="BG399" s="26"/>
     </row>
     <row r="400">
       <c r="AL400" s="26"/>
@@ -25572,6 +26153,7 @@
       <c r="BD400" s="26"/>
       <c r="BE400" s="26"/>
       <c r="BF400" s="26"/>
+      <c r="BG400" s="26"/>
     </row>
     <row r="401">
       <c r="AL401" s="26"/>
@@ -25595,6 +26177,7 @@
       <c r="BD401" s="26"/>
       <c r="BE401" s="26"/>
       <c r="BF401" s="26"/>
+      <c r="BG401" s="26"/>
     </row>
     <row r="402">
       <c r="AL402" s="26"/>
@@ -25618,6 +26201,7 @@
       <c r="BD402" s="26"/>
       <c r="BE402" s="26"/>
       <c r="BF402" s="26"/>
+      <c r="BG402" s="26"/>
     </row>
     <row r="403">
       <c r="AL403" s="26"/>
@@ -25641,6 +26225,7 @@
       <c r="BD403" s="26"/>
       <c r="BE403" s="26"/>
       <c r="BF403" s="26"/>
+      <c r="BG403" s="26"/>
     </row>
     <row r="404">
       <c r="AL404" s="26"/>
@@ -25664,6 +26249,7 @@
       <c r="BD404" s="26"/>
       <c r="BE404" s="26"/>
       <c r="BF404" s="26"/>
+      <c r="BG404" s="26"/>
     </row>
     <row r="405">
       <c r="AL405" s="26"/>
@@ -25687,6 +26273,7 @@
       <c r="BD405" s="26"/>
       <c r="BE405" s="26"/>
       <c r="BF405" s="26"/>
+      <c r="BG405" s="26"/>
     </row>
     <row r="406">
       <c r="AL406" s="26"/>
@@ -25710,6 +26297,7 @@
       <c r="BD406" s="26"/>
       <c r="BE406" s="26"/>
       <c r="BF406" s="26"/>
+      <c r="BG406" s="26"/>
     </row>
     <row r="407">
       <c r="AL407" s="26"/>
@@ -25733,6 +26321,7 @@
       <c r="BD407" s="26"/>
       <c r="BE407" s="26"/>
       <c r="BF407" s="26"/>
+      <c r="BG407" s="26"/>
     </row>
     <row r="408">
       <c r="AL408" s="26"/>
@@ -25756,6 +26345,7 @@
       <c r="BD408" s="26"/>
       <c r="BE408" s="26"/>
       <c r="BF408" s="26"/>
+      <c r="BG408" s="26"/>
     </row>
     <row r="409">
       <c r="AL409" s="26"/>
@@ -25779,6 +26369,7 @@
       <c r="BD409" s="26"/>
       <c r="BE409" s="26"/>
       <c r="BF409" s="26"/>
+      <c r="BG409" s="26"/>
     </row>
     <row r="410">
       <c r="AL410" s="26"/>
@@ -25802,6 +26393,7 @@
       <c r="BD410" s="26"/>
       <c r="BE410" s="26"/>
       <c r="BF410" s="26"/>
+      <c r="BG410" s="26"/>
     </row>
     <row r="411">
       <c r="AL411" s="26"/>
@@ -25825,6 +26417,7 @@
       <c r="BD411" s="26"/>
       <c r="BE411" s="26"/>
       <c r="BF411" s="26"/>
+      <c r="BG411" s="26"/>
     </row>
     <row r="412">
       <c r="AL412" s="26"/>
@@ -25848,6 +26441,7 @@
       <c r="BD412" s="26"/>
       <c r="BE412" s="26"/>
       <c r="BF412" s="26"/>
+      <c r="BG412" s="26"/>
     </row>
     <row r="413">
       <c r="AL413" s="26"/>
@@ -25871,6 +26465,7 @@
       <c r="BD413" s="26"/>
       <c r="BE413" s="26"/>
       <c r="BF413" s="26"/>
+      <c r="BG413" s="26"/>
     </row>
     <row r="414">
       <c r="AL414" s="26"/>
@@ -25894,6 +26489,7 @@
       <c r="BD414" s="26"/>
       <c r="BE414" s="26"/>
       <c r="BF414" s="26"/>
+      <c r="BG414" s="26"/>
     </row>
     <row r="415">
       <c r="AL415" s="26"/>
@@ -25917,6 +26513,7 @@
       <c r="BD415" s="26"/>
       <c r="BE415" s="26"/>
       <c r="BF415" s="26"/>
+      <c r="BG415" s="26"/>
     </row>
     <row r="416">
       <c r="AL416" s="26"/>
@@ -25940,6 +26537,7 @@
       <c r="BD416" s="26"/>
       <c r="BE416" s="26"/>
       <c r="BF416" s="26"/>
+      <c r="BG416" s="26"/>
     </row>
     <row r="417">
       <c r="AL417" s="26"/>
@@ -25963,6 +26561,7 @@
       <c r="BD417" s="26"/>
       <c r="BE417" s="26"/>
       <c r="BF417" s="26"/>
+      <c r="BG417" s="26"/>
     </row>
     <row r="418">
       <c r="AL418" s="26"/>
@@ -25986,6 +26585,7 @@
       <c r="BD418" s="26"/>
       <c r="BE418" s="26"/>
       <c r="BF418" s="26"/>
+      <c r="BG418" s="26"/>
     </row>
     <row r="419">
       <c r="AL419" s="26"/>
@@ -26009,6 +26609,7 @@
       <c r="BD419" s="26"/>
       <c r="BE419" s="26"/>
       <c r="BF419" s="26"/>
+      <c r="BG419" s="26"/>
     </row>
     <row r="420">
       <c r="AL420" s="26"/>
@@ -26032,6 +26633,7 @@
       <c r="BD420" s="26"/>
       <c r="BE420" s="26"/>
       <c r="BF420" s="26"/>
+      <c r="BG420" s="26"/>
     </row>
     <row r="421">
       <c r="AL421" s="26"/>
@@ -26055,6 +26657,7 @@
       <c r="BD421" s="26"/>
       <c r="BE421" s="26"/>
       <c r="BF421" s="26"/>
+      <c r="BG421" s="26"/>
     </row>
     <row r="422">
       <c r="AL422" s="26"/>
@@ -26078,6 +26681,7 @@
       <c r="BD422" s="26"/>
       <c r="BE422" s="26"/>
       <c r="BF422" s="26"/>
+      <c r="BG422" s="26"/>
     </row>
     <row r="423">
       <c r="AL423" s="26"/>
@@ -26101,6 +26705,7 @@
       <c r="BD423" s="26"/>
       <c r="BE423" s="26"/>
       <c r="BF423" s="26"/>
+      <c r="BG423" s="26"/>
     </row>
     <row r="424">
       <c r="AL424" s="26"/>
@@ -26124,6 +26729,7 @@
       <c r="BD424" s="26"/>
       <c r="BE424" s="26"/>
       <c r="BF424" s="26"/>
+      <c r="BG424" s="26"/>
     </row>
     <row r="425">
       <c r="AL425" s="26"/>
@@ -26147,6 +26753,7 @@
       <c r="BD425" s="26"/>
       <c r="BE425" s="26"/>
       <c r="BF425" s="26"/>
+      <c r="BG425" s="26"/>
     </row>
     <row r="426">
       <c r="AL426" s="26"/>
@@ -26170,6 +26777,7 @@
       <c r="BD426" s="26"/>
       <c r="BE426" s="26"/>
       <c r="BF426" s="26"/>
+      <c r="BG426" s="26"/>
     </row>
     <row r="427">
       <c r="AL427" s="26"/>
@@ -26193,6 +26801,7 @@
       <c r="BD427" s="26"/>
       <c r="BE427" s="26"/>
       <c r="BF427" s="26"/>
+      <c r="BG427" s="26"/>
     </row>
     <row r="428">
       <c r="AL428" s="26"/>
@@ -26216,6 +26825,7 @@
       <c r="BD428" s="26"/>
       <c r="BE428" s="26"/>
       <c r="BF428" s="26"/>
+      <c r="BG428" s="26"/>
     </row>
     <row r="429">
       <c r="AL429" s="26"/>
@@ -26239,6 +26849,7 @@
       <c r="BD429" s="26"/>
       <c r="BE429" s="26"/>
       <c r="BF429" s="26"/>
+      <c r="BG429" s="26"/>
     </row>
     <row r="430">
       <c r="AL430" s="26"/>
@@ -26262,6 +26873,7 @@
       <c r="BD430" s="26"/>
       <c r="BE430" s="26"/>
       <c r="BF430" s="26"/>
+      <c r="BG430" s="26"/>
     </row>
     <row r="431">
       <c r="AL431" s="26"/>
@@ -26285,6 +26897,7 @@
       <c r="BD431" s="26"/>
       <c r="BE431" s="26"/>
       <c r="BF431" s="26"/>
+      <c r="BG431" s="26"/>
     </row>
     <row r="432">
       <c r="AL432" s="26"/>
@@ -26308,6 +26921,7 @@
       <c r="BD432" s="26"/>
       <c r="BE432" s="26"/>
       <c r="BF432" s="26"/>
+      <c r="BG432" s="26"/>
     </row>
     <row r="433">
       <c r="AL433" s="26"/>
@@ -26331,6 +26945,7 @@
       <c r="BD433" s="26"/>
       <c r="BE433" s="26"/>
       <c r="BF433" s="26"/>
+      <c r="BG433" s="26"/>
     </row>
     <row r="434">
       <c r="AL434" s="26"/>
@@ -26354,6 +26969,7 @@
       <c r="BD434" s="26"/>
       <c r="BE434" s="26"/>
       <c r="BF434" s="26"/>
+      <c r="BG434" s="26"/>
     </row>
     <row r="435">
       <c r="AL435" s="26"/>
@@ -26377,6 +26993,7 @@
       <c r="BD435" s="26"/>
       <c r="BE435" s="26"/>
       <c r="BF435" s="26"/>
+      <c r="BG435" s="26"/>
     </row>
     <row r="436">
       <c r="AL436" s="26"/>
@@ -26400,6 +27017,7 @@
       <c r="BD436" s="26"/>
       <c r="BE436" s="26"/>
       <c r="BF436" s="26"/>
+      <c r="BG436" s="26"/>
     </row>
     <row r="437">
       <c r="AL437" s="26"/>
@@ -26423,6 +27041,7 @@
       <c r="BD437" s="26"/>
       <c r="BE437" s="26"/>
       <c r="BF437" s="26"/>
+      <c r="BG437" s="26"/>
     </row>
     <row r="438">
       <c r="AL438" s="26"/>
@@ -26446,6 +27065,7 @@
       <c r="BD438" s="26"/>
       <c r="BE438" s="26"/>
       <c r="BF438" s="26"/>
+      <c r="BG438" s="26"/>
     </row>
     <row r="439">
       <c r="AL439" s="26"/>
@@ -26469,6 +27089,7 @@
       <c r="BD439" s="26"/>
       <c r="BE439" s="26"/>
       <c r="BF439" s="26"/>
+      <c r="BG439" s="26"/>
     </row>
     <row r="440">
       <c r="AL440" s="26"/>
@@ -26492,6 +27113,7 @@
       <c r="BD440" s="26"/>
       <c r="BE440" s="26"/>
       <c r="BF440" s="26"/>
+      <c r="BG440" s="26"/>
     </row>
     <row r="441">
       <c r="AL441" s="26"/>
@@ -26515,6 +27137,7 @@
       <c r="BD441" s="26"/>
       <c r="BE441" s="26"/>
       <c r="BF441" s="26"/>
+      <c r="BG441" s="26"/>
     </row>
     <row r="442">
       <c r="AL442" s="26"/>
@@ -26538,6 +27161,7 @@
       <c r="BD442" s="26"/>
       <c r="BE442" s="26"/>
       <c r="BF442" s="26"/>
+      <c r="BG442" s="26"/>
     </row>
     <row r="443">
       <c r="AL443" s="26"/>
@@ -26561,6 +27185,7 @@
       <c r="BD443" s="26"/>
       <c r="BE443" s="26"/>
       <c r="BF443" s="26"/>
+      <c r="BG443" s="26"/>
     </row>
     <row r="444">
       <c r="AL444" s="26"/>
@@ -26584,6 +27209,7 @@
       <c r="BD444" s="26"/>
       <c r="BE444" s="26"/>
       <c r="BF444" s="26"/>
+      <c r="BG444" s="26"/>
     </row>
     <row r="445">
       <c r="AL445" s="26"/>
@@ -26607,6 +27233,7 @@
       <c r="BD445" s="26"/>
       <c r="BE445" s="26"/>
       <c r="BF445" s="26"/>
+      <c r="BG445" s="26"/>
     </row>
     <row r="446">
       <c r="AL446" s="26"/>
@@ -26630,6 +27257,7 @@
       <c r="BD446" s="26"/>
       <c r="BE446" s="26"/>
       <c r="BF446" s="26"/>
+      <c r="BG446" s="26"/>
     </row>
     <row r="447">
       <c r="AL447" s="26"/>
@@ -26653,6 +27281,7 @@
       <c r="BD447" s="26"/>
       <c r="BE447" s="26"/>
       <c r="BF447" s="26"/>
+      <c r="BG447" s="26"/>
     </row>
     <row r="448">
       <c r="AL448" s="26"/>
@@ -26676,6 +27305,7 @@
       <c r="BD448" s="26"/>
       <c r="BE448" s="26"/>
       <c r="BF448" s="26"/>
+      <c r="BG448" s="26"/>
     </row>
     <row r="449">
       <c r="AL449" s="26"/>
@@ -26699,6 +27329,7 @@
       <c r="BD449" s="26"/>
       <c r="BE449" s="26"/>
       <c r="BF449" s="26"/>
+      <c r="BG449" s="26"/>
     </row>
     <row r="450">
       <c r="AL450" s="26"/>
@@ -26722,6 +27353,7 @@
       <c r="BD450" s="26"/>
       <c r="BE450" s="26"/>
       <c r="BF450" s="26"/>
+      <c r="BG450" s="26"/>
     </row>
     <row r="451">
       <c r="AL451" s="26"/>
@@ -26745,6 +27377,7 @@
       <c r="BD451" s="26"/>
       <c r="BE451" s="26"/>
       <c r="BF451" s="26"/>
+      <c r="BG451" s="26"/>
     </row>
     <row r="452">
       <c r="AL452" s="26"/>
@@ -26768,6 +27401,7 @@
       <c r="BD452" s="26"/>
       <c r="BE452" s="26"/>
       <c r="BF452" s="26"/>
+      <c r="BG452" s="26"/>
     </row>
     <row r="453">
       <c r="AL453" s="26"/>
@@ -26791,6 +27425,7 @@
       <c r="BD453" s="26"/>
       <c r="BE453" s="26"/>
       <c r="BF453" s="26"/>
+      <c r="BG453" s="26"/>
     </row>
     <row r="454">
       <c r="AL454" s="26"/>
@@ -26814,6 +27449,7 @@
       <c r="BD454" s="26"/>
       <c r="BE454" s="26"/>
       <c r="BF454" s="26"/>
+      <c r="BG454" s="26"/>
     </row>
     <row r="455">
       <c r="AL455" s="26"/>
@@ -26837,6 +27473,7 @@
       <c r="BD455" s="26"/>
       <c r="BE455" s="26"/>
       <c r="BF455" s="26"/>
+      <c r="BG455" s="26"/>
     </row>
     <row r="456">
       <c r="AL456" s="26"/>
@@ -26860,6 +27497,7 @@
       <c r="BD456" s="26"/>
       <c r="BE456" s="26"/>
       <c r="BF456" s="26"/>
+      <c r="BG456" s="26"/>
     </row>
     <row r="457">
       <c r="AL457" s="26"/>
@@ -26883,6 +27521,7 @@
       <c r="BD457" s="26"/>
       <c r="BE457" s="26"/>
       <c r="BF457" s="26"/>
+      <c r="BG457" s="26"/>
     </row>
     <row r="458">
       <c r="AL458" s="26"/>
@@ -26906,6 +27545,7 @@
       <c r="BD458" s="26"/>
       <c r="BE458" s="26"/>
       <c r="BF458" s="26"/>
+      <c r="BG458" s="26"/>
     </row>
     <row r="459">
       <c r="AL459" s="26"/>
@@ -26929,6 +27569,7 @@
       <c r="BD459" s="26"/>
       <c r="BE459" s="26"/>
       <c r="BF459" s="26"/>
+      <c r="BG459" s="26"/>
     </row>
     <row r="460">
       <c r="AL460" s="26"/>
@@ -26952,6 +27593,7 @@
       <c r="BD460" s="26"/>
       <c r="BE460" s="26"/>
       <c r="BF460" s="26"/>
+      <c r="BG460" s="26"/>
     </row>
     <row r="461">
       <c r="AL461" s="26"/>
@@ -26975,6 +27617,7 @@
       <c r="BD461" s="26"/>
       <c r="BE461" s="26"/>
       <c r="BF461" s="26"/>
+      <c r="BG461" s="26"/>
     </row>
     <row r="462">
       <c r="AL462" s="26"/>
@@ -26998,6 +27641,7 @@
       <c r="BD462" s="26"/>
       <c r="BE462" s="26"/>
       <c r="BF462" s="26"/>
+      <c r="BG462" s="26"/>
     </row>
     <row r="463">
       <c r="AL463" s="26"/>
@@ -27021,6 +27665,7 @@
       <c r="BD463" s="26"/>
       <c r="BE463" s="26"/>
       <c r="BF463" s="26"/>
+      <c r="BG463" s="26"/>
     </row>
     <row r="464">
       <c r="AL464" s="26"/>
@@ -27044,6 +27689,7 @@
       <c r="BD464" s="26"/>
       <c r="BE464" s="26"/>
       <c r="BF464" s="26"/>
+      <c r="BG464" s="26"/>
     </row>
     <row r="465">
       <c r="AL465" s="26"/>
@@ -27067,6 +27713,7 @@
       <c r="BD465" s="26"/>
       <c r="BE465" s="26"/>
       <c r="BF465" s="26"/>
+      <c r="BG465" s="26"/>
     </row>
     <row r="466">
       <c r="AL466" s="26"/>
@@ -27090,6 +27737,7 @@
       <c r="BD466" s="26"/>
       <c r="BE466" s="26"/>
       <c r="BF466" s="26"/>
+      <c r="BG466" s="26"/>
     </row>
     <row r="467">
       <c r="AL467" s="26"/>
@@ -27113,6 +27761,7 @@
       <c r="BD467" s="26"/>
       <c r="BE467" s="26"/>
       <c r="BF467" s="26"/>
+      <c r="BG467" s="26"/>
     </row>
     <row r="468">
       <c r="AL468" s="26"/>
@@ -27136,6 +27785,7 @@
       <c r="BD468" s="26"/>
       <c r="BE468" s="26"/>
       <c r="BF468" s="26"/>
+      <c r="BG468" s="26"/>
     </row>
     <row r="469">
       <c r="AL469" s="26"/>
@@ -27159,6 +27809,7 @@
       <c r="BD469" s="26"/>
       <c r="BE469" s="26"/>
       <c r="BF469" s="26"/>
+      <c r="BG469" s="26"/>
     </row>
     <row r="470">
       <c r="AL470" s="26"/>
@@ -27182,6 +27833,7 @@
       <c r="BD470" s="26"/>
       <c r="BE470" s="26"/>
       <c r="BF470" s="26"/>
+      <c r="BG470" s="26"/>
     </row>
     <row r="471">
       <c r="AL471" s="26"/>
@@ -27205,6 +27857,7 @@
       <c r="BD471" s="26"/>
       <c r="BE471" s="26"/>
       <c r="BF471" s="26"/>
+      <c r="BG471" s="26"/>
     </row>
     <row r="472">
       <c r="AL472" s="26"/>
@@ -27228,6 +27881,7 @@
       <c r="BD472" s="26"/>
       <c r="BE472" s="26"/>
       <c r="BF472" s="26"/>
+      <c r="BG472" s="26"/>
     </row>
     <row r="473">
       <c r="AL473" s="26"/>
@@ -27251,6 +27905,7 @@
       <c r="BD473" s="26"/>
       <c r="BE473" s="26"/>
       <c r="BF473" s="26"/>
+      <c r="BG473" s="26"/>
     </row>
     <row r="474">
       <c r="AL474" s="26"/>
@@ -27274,6 +27929,7 @@
       <c r="BD474" s="26"/>
       <c r="BE474" s="26"/>
       <c r="BF474" s="26"/>
+      <c r="BG474" s="26"/>
     </row>
     <row r="475">
       <c r="AL475" s="26"/>
@@ -27297,6 +27953,7 @@
       <c r="BD475" s="26"/>
       <c r="BE475" s="26"/>
       <c r="BF475" s="26"/>
+      <c r="BG475" s="26"/>
     </row>
     <row r="476">
       <c r="AL476" s="26"/>
@@ -27320,6 +27977,7 @@
       <c r="BD476" s="26"/>
       <c r="BE476" s="26"/>
       <c r="BF476" s="26"/>
+      <c r="BG476" s="26"/>
     </row>
     <row r="477">
       <c r="AL477" s="26"/>
@@ -27343,6 +28001,7 @@
       <c r="BD477" s="26"/>
       <c r="BE477" s="26"/>
       <c r="BF477" s="26"/>
+      <c r="BG477" s="26"/>
     </row>
     <row r="478">
       <c r="AL478" s="26"/>
@@ -27366,6 +28025,7 @@
       <c r="BD478" s="26"/>
       <c r="BE478" s="26"/>
       <c r="BF478" s="26"/>
+      <c r="BG478" s="26"/>
     </row>
     <row r="479">
       <c r="AL479" s="26"/>
@@ -27389,6 +28049,7 @@
       <c r="BD479" s="26"/>
       <c r="BE479" s="26"/>
       <c r="BF479" s="26"/>
+      <c r="BG479" s="26"/>
     </row>
     <row r="480">
       <c r="AL480" s="26"/>
@@ -27412,6 +28073,7 @@
       <c r="BD480" s="26"/>
       <c r="BE480" s="26"/>
       <c r="BF480" s="26"/>
+      <c r="BG480" s="26"/>
     </row>
     <row r="481">
       <c r="AL481" s="26"/>
@@ -27435,6 +28097,7 @@
       <c r="BD481" s="26"/>
       <c r="BE481" s="26"/>
       <c r="BF481" s="26"/>
+      <c r="BG481" s="26"/>
     </row>
     <row r="482">
       <c r="AL482" s="26"/>
@@ -27458,6 +28121,7 @@
       <c r="BD482" s="26"/>
       <c r="BE482" s="26"/>
       <c r="BF482" s="26"/>
+      <c r="BG482" s="26"/>
     </row>
     <row r="483">
       <c r="AL483" s="26"/>
@@ -27481,6 +28145,7 @@
       <c r="BD483" s="26"/>
       <c r="BE483" s="26"/>
       <c r="BF483" s="26"/>
+      <c r="BG483" s="26"/>
     </row>
     <row r="484">
       <c r="AL484" s="26"/>
@@ -27504,6 +28169,7 @@
       <c r="BD484" s="26"/>
       <c r="BE484" s="26"/>
       <c r="BF484" s="26"/>
+      <c r="BG484" s="26"/>
     </row>
     <row r="485">
       <c r="AL485" s="26"/>
@@ -27527,6 +28193,7 @@
       <c r="BD485" s="26"/>
       <c r="BE485" s="26"/>
       <c r="BF485" s="26"/>
+      <c r="BG485" s="26"/>
     </row>
     <row r="486">
       <c r="AL486" s="26"/>
@@ -27550,6 +28217,7 @@
       <c r="BD486" s="26"/>
       <c r="BE486" s="26"/>
       <c r="BF486" s="26"/>
+      <c r="BG486" s="26"/>
     </row>
     <row r="487">
       <c r="AL487" s="26"/>
@@ -27573,6 +28241,7 @@
       <c r="BD487" s="26"/>
       <c r="BE487" s="26"/>
       <c r="BF487" s="26"/>
+      <c r="BG487" s="26"/>
     </row>
     <row r="488">
       <c r="AL488" s="26"/>
@@ -27596,6 +28265,7 @@
       <c r="BD488" s="26"/>
       <c r="BE488" s="26"/>
       <c r="BF488" s="26"/>
+      <c r="BG488" s="26"/>
     </row>
     <row r="489">
       <c r="AL489" s="26"/>
@@ -27619,6 +28289,7 @@
       <c r="BD489" s="26"/>
       <c r="BE489" s="26"/>
       <c r="BF489" s="26"/>
+      <c r="BG489" s="26"/>
     </row>
     <row r="490">
       <c r="AL490" s="26"/>
@@ -27642,6 +28313,7 @@
       <c r="BD490" s="26"/>
       <c r="BE490" s="26"/>
       <c r="BF490" s="26"/>
+      <c r="BG490" s="26"/>
     </row>
     <row r="491">
       <c r="AL491" s="26"/>
@@ -27665,6 +28337,7 @@
       <c r="BD491" s="26"/>
       <c r="BE491" s="26"/>
       <c r="BF491" s="26"/>
+      <c r="BG491" s="26"/>
     </row>
     <row r="492">
       <c r="AL492" s="26"/>
@@ -27688,6 +28361,7 @@
       <c r="BD492" s="26"/>
       <c r="BE492" s="26"/>
       <c r="BF492" s="26"/>
+      <c r="BG492" s="26"/>
     </row>
     <row r="493">
       <c r="AL493" s="26"/>
@@ -27711,6 +28385,7 @@
       <c r="BD493" s="26"/>
       <c r="BE493" s="26"/>
       <c r="BF493" s="26"/>
+      <c r="BG493" s="26"/>
     </row>
     <row r="494">
       <c r="AL494" s="26"/>
@@ -27734,6 +28409,7 @@
       <c r="BD494" s="26"/>
       <c r="BE494" s="26"/>
       <c r="BF494" s="26"/>
+      <c r="BG494" s="26"/>
     </row>
     <row r="495">
       <c r="AL495" s="26"/>
@@ -27757,6 +28433,7 @@
       <c r="BD495" s="26"/>
       <c r="BE495" s="26"/>
       <c r="BF495" s="26"/>
+      <c r="BG495" s="26"/>
     </row>
     <row r="496">
       <c r="AL496" s="26"/>
@@ -27780,6 +28457,7 @@
       <c r="BD496" s="26"/>
       <c r="BE496" s="26"/>
       <c r="BF496" s="26"/>
+      <c r="BG496" s="26"/>
     </row>
     <row r="497">
       <c r="AL497" s="26"/>
@@ -27803,6 +28481,7 @@
       <c r="BD497" s="26"/>
       <c r="BE497" s="26"/>
       <c r="BF497" s="26"/>
+      <c r="BG497" s="26"/>
     </row>
     <row r="498">
       <c r="AL498" s="26"/>
@@ -27826,6 +28505,7 @@
       <c r="BD498" s="26"/>
       <c r="BE498" s="26"/>
       <c r="BF498" s="26"/>
+      <c r="BG498" s="26"/>
     </row>
     <row r="499">
       <c r="AL499" s="26"/>
@@ -27849,6 +28529,7 @@
       <c r="BD499" s="26"/>
       <c r="BE499" s="26"/>
       <c r="BF499" s="26"/>
+      <c r="BG499" s="26"/>
     </row>
     <row r="500">
       <c r="AL500" s="26"/>
@@ -27872,6 +28553,7 @@
       <c r="BD500" s="26"/>
       <c r="BE500" s="26"/>
       <c r="BF500" s="26"/>
+      <c r="BG500" s="26"/>
     </row>
     <row r="501">
       <c r="AL501" s="26"/>
@@ -27895,6 +28577,7 @@
       <c r="BD501" s="26"/>
       <c r="BE501" s="26"/>
       <c r="BF501" s="26"/>
+      <c r="BG501" s="26"/>
     </row>
     <row r="502">
       <c r="AL502" s="26"/>
@@ -27918,6 +28601,7 @@
       <c r="BD502" s="26"/>
       <c r="BE502" s="26"/>
       <c r="BF502" s="26"/>
+      <c r="BG502" s="26"/>
     </row>
     <row r="503">
       <c r="AL503" s="26"/>
@@ -27941,6 +28625,7 @@
       <c r="BD503" s="26"/>
       <c r="BE503" s="26"/>
       <c r="BF503" s="26"/>
+      <c r="BG503" s="26"/>
     </row>
     <row r="504">
       <c r="AL504" s="26"/>
@@ -27964,6 +28649,7 @@
       <c r="BD504" s="26"/>
       <c r="BE504" s="26"/>
       <c r="BF504" s="26"/>
+      <c r="BG504" s="26"/>
     </row>
     <row r="505">
       <c r="AL505" s="26"/>
@@ -27987,6 +28673,7 @@
       <c r="BD505" s="26"/>
       <c r="BE505" s="26"/>
       <c r="BF505" s="26"/>
+      <c r="BG505" s="26"/>
     </row>
     <row r="506">
       <c r="AL506" s="26"/>
@@ -28010,6 +28697,7 @@
       <c r="BD506" s="26"/>
       <c r="BE506" s="26"/>
       <c r="BF506" s="26"/>
+      <c r="BG506" s="26"/>
     </row>
     <row r="507">
       <c r="AL507" s="26"/>
@@ -28033,6 +28721,7 @@
       <c r="BD507" s="26"/>
       <c r="BE507" s="26"/>
       <c r="BF507" s="26"/>
+      <c r="BG507" s="26"/>
     </row>
     <row r="508">
       <c r="AL508" s="26"/>
@@ -28056,6 +28745,7 @@
       <c r="BD508" s="26"/>
       <c r="BE508" s="26"/>
       <c r="BF508" s="26"/>
+      <c r="BG508" s="26"/>
     </row>
     <row r="509">
       <c r="AL509" s="26"/>
@@ -28079,6 +28769,7 @@
       <c r="BD509" s="26"/>
       <c r="BE509" s="26"/>
       <c r="BF509" s="26"/>
+      <c r="BG509" s="26"/>
     </row>
     <row r="510">
       <c r="AL510" s="26"/>
@@ -28102,6 +28793,7 @@
       <c r="BD510" s="26"/>
       <c r="BE510" s="26"/>
       <c r="BF510" s="26"/>
+      <c r="BG510" s="26"/>
     </row>
     <row r="511">
       <c r="AL511" s="26"/>
@@ -28125,6 +28817,7 @@
       <c r="BD511" s="26"/>
       <c r="BE511" s="26"/>
       <c r="BF511" s="26"/>
+      <c r="BG511" s="26"/>
     </row>
     <row r="512">
       <c r="AL512" s="26"/>
@@ -28148,6 +28841,7 @@
       <c r="BD512" s="26"/>
       <c r="BE512" s="26"/>
       <c r="BF512" s="26"/>
+      <c r="BG512" s="26"/>
     </row>
     <row r="513">
       <c r="AL513" s="26"/>
@@ -28171,6 +28865,7 @@
       <c r="BD513" s="26"/>
       <c r="BE513" s="26"/>
       <c r="BF513" s="26"/>
+      <c r="BG513" s="26"/>
     </row>
     <row r="514">
       <c r="AL514" s="26"/>
@@ -28194,6 +28889,7 @@
       <c r="BD514" s="26"/>
       <c r="BE514" s="26"/>
       <c r="BF514" s="26"/>
+      <c r="BG514" s="26"/>
     </row>
     <row r="515">
       <c r="AL515" s="26"/>
@@ -28217,6 +28913,7 @@
       <c r="BD515" s="26"/>
       <c r="BE515" s="26"/>
       <c r="BF515" s="26"/>
+      <c r="BG515" s="26"/>
     </row>
     <row r="516">
       <c r="AL516" s="26"/>
@@ -28240,6 +28937,7 @@
       <c r="BD516" s="26"/>
       <c r="BE516" s="26"/>
       <c r="BF516" s="26"/>
+      <c r="BG516" s="26"/>
     </row>
     <row r="517">
       <c r="AL517" s="26"/>
@@ -28263,6 +28961,7 @@
       <c r="BD517" s="26"/>
       <c r="BE517" s="26"/>
       <c r="BF517" s="26"/>
+      <c r="BG517" s="26"/>
     </row>
     <row r="518">
       <c r="AL518" s="26"/>
@@ -28286,6 +28985,7 @@
       <c r="BD518" s="26"/>
       <c r="BE518" s="26"/>
       <c r="BF518" s="26"/>
+      <c r="BG518" s="26"/>
     </row>
     <row r="519">
       <c r="AL519" s="26"/>
@@ -28309,6 +29009,7 @@
       <c r="BD519" s="26"/>
       <c r="BE519" s="26"/>
       <c r="BF519" s="26"/>
+      <c r="BG519" s="26"/>
     </row>
     <row r="520">
       <c r="AL520" s="26"/>
@@ -28332,6 +29033,7 @@
       <c r="BD520" s="26"/>
       <c r="BE520" s="26"/>
       <c r="BF520" s="26"/>
+      <c r="BG520" s="26"/>
     </row>
     <row r="521">
       <c r="AL521" s="26"/>
@@ -28355,6 +29057,7 @@
       <c r="BD521" s="26"/>
       <c r="BE521" s="26"/>
       <c r="BF521" s="26"/>
+      <c r="BG521" s="26"/>
     </row>
     <row r="522">
       <c r="AL522" s="26"/>
@@ -28378,6 +29081,7 @@
       <c r="BD522" s="26"/>
       <c r="BE522" s="26"/>
       <c r="BF522" s="26"/>
+      <c r="BG522" s="26"/>
     </row>
     <row r="523">
       <c r="AL523" s="26"/>
@@ -28401,6 +29105,7 @@
       <c r="BD523" s="26"/>
       <c r="BE523" s="26"/>
       <c r="BF523" s="26"/>
+      <c r="BG523" s="26"/>
     </row>
     <row r="524">
       <c r="AL524" s="26"/>
@@ -28424,6 +29129,7 @@
       <c r="BD524" s="26"/>
       <c r="BE524" s="26"/>
       <c r="BF524" s="26"/>
+      <c r="BG524" s="26"/>
     </row>
     <row r="525">
       <c r="AL525" s="26"/>
@@ -28447,6 +29153,7 @@
       <c r="BD525" s="26"/>
       <c r="BE525" s="26"/>
       <c r="BF525" s="26"/>
+      <c r="BG525" s="26"/>
     </row>
     <row r="526">
       <c r="AL526" s="26"/>
@@ -28470,6 +29177,7 @@
       <c r="BD526" s="26"/>
       <c r="BE526" s="26"/>
       <c r="BF526" s="26"/>
+      <c r="BG526" s="26"/>
     </row>
     <row r="527">
       <c r="AL527" s="26"/>
@@ -28493,6 +29201,7 @@
       <c r="BD527" s="26"/>
       <c r="BE527" s="26"/>
       <c r="BF527" s="26"/>
+      <c r="BG527" s="26"/>
     </row>
     <row r="528">
       <c r="AL528" s="26"/>
@@ -28516,6 +29225,7 @@
       <c r="BD528" s="26"/>
       <c r="BE528" s="26"/>
       <c r="BF528" s="26"/>
+      <c r="BG528" s="26"/>
     </row>
     <row r="529">
       <c r="AL529" s="26"/>
@@ -28539,6 +29249,7 @@
       <c r="BD529" s="26"/>
       <c r="BE529" s="26"/>
       <c r="BF529" s="26"/>
+      <c r="BG529" s="26"/>
     </row>
     <row r="530">
       <c r="AL530" s="26"/>
@@ -28562,6 +29273,7 @@
       <c r="BD530" s="26"/>
       <c r="BE530" s="26"/>
       <c r="BF530" s="26"/>
+      <c r="BG530" s="26"/>
     </row>
     <row r="531">
       <c r="AL531" s="26"/>
@@ -28585,6 +29297,7 @@
       <c r="BD531" s="26"/>
       <c r="BE531" s="26"/>
       <c r="BF531" s="26"/>
+      <c r="BG531" s="26"/>
     </row>
     <row r="532">
       <c r="AL532" s="26"/>
@@ -28608,6 +29321,7 @@
       <c r="BD532" s="26"/>
       <c r="BE532" s="26"/>
       <c r="BF532" s="26"/>
+      <c r="BG532" s="26"/>
     </row>
     <row r="533">
       <c r="AL533" s="26"/>
@@ -28631,6 +29345,7 @@
       <c r="BD533" s="26"/>
       <c r="BE533" s="26"/>
       <c r="BF533" s="26"/>
+      <c r="BG533" s="26"/>
     </row>
     <row r="534">
       <c r="AL534" s="26"/>
@@ -28654,6 +29369,7 @@
       <c r="BD534" s="26"/>
       <c r="BE534" s="26"/>
       <c r="BF534" s="26"/>
+      <c r="BG534" s="26"/>
     </row>
     <row r="535">
       <c r="AL535" s="26"/>
@@ -28677,6 +29393,7 @@
       <c r="BD535" s="26"/>
       <c r="BE535" s="26"/>
       <c r="BF535" s="26"/>
+      <c r="BG535" s="26"/>
     </row>
     <row r="536">
       <c r="AL536" s="26"/>
@@ -28700,6 +29417,7 @@
       <c r="BD536" s="26"/>
       <c r="BE536" s="26"/>
       <c r="BF536" s="26"/>
+      <c r="BG536" s="26"/>
     </row>
     <row r="537">
       <c r="AL537" s="26"/>
@@ -28723,6 +29441,7 @@
       <c r="BD537" s="26"/>
       <c r="BE537" s="26"/>
       <c r="BF537" s="26"/>
+      <c r="BG537" s="26"/>
     </row>
     <row r="538">
       <c r="AL538" s="26"/>
@@ -28746,6 +29465,7 @@
       <c r="BD538" s="26"/>
       <c r="BE538" s="26"/>
       <c r="BF538" s="26"/>
+      <c r="BG538" s="26"/>
     </row>
     <row r="539">
       <c r="AL539" s="26"/>
@@ -28769,6 +29489,7 @@
       <c r="BD539" s="26"/>
       <c r="BE539" s="26"/>
       <c r="BF539" s="26"/>
+      <c r="BG539" s="26"/>
     </row>
     <row r="540">
       <c r="AL540" s="26"/>
@@ -28792,6 +29513,7 @@
       <c r="BD540" s="26"/>
       <c r="BE540" s="26"/>
       <c r="BF540" s="26"/>
+      <c r="BG540" s="26"/>
     </row>
     <row r="541">
       <c r="AL541" s="26"/>
@@ -28815,6 +29537,7 @@
       <c r="BD541" s="26"/>
       <c r="BE541" s="26"/>
       <c r="BF541" s="26"/>
+      <c r="BG541" s="26"/>
     </row>
     <row r="542">
       <c r="AL542" s="26"/>
@@ -28838,6 +29561,7 @@
       <c r="BD542" s="26"/>
       <c r="BE542" s="26"/>
       <c r="BF542" s="26"/>
+      <c r="BG542" s="26"/>
     </row>
     <row r="543">
       <c r="AL543" s="26"/>
@@ -28861,6 +29585,7 @@
       <c r="BD543" s="26"/>
       <c r="BE543" s="26"/>
       <c r="BF543" s="26"/>
+      <c r="BG543" s="26"/>
     </row>
     <row r="544">
       <c r="AL544" s="26"/>
@@ -28884,6 +29609,7 @@
       <c r="BD544" s="26"/>
       <c r="BE544" s="26"/>
       <c r="BF544" s="26"/>
+      <c r="BG544" s="26"/>
     </row>
     <row r="545">
       <c r="AL545" s="26"/>
@@ -28907,6 +29633,7 @@
       <c r="BD545" s="26"/>
       <c r="BE545" s="26"/>
       <c r="BF545" s="26"/>
+      <c r="BG545" s="26"/>
     </row>
     <row r="546">
       <c r="AL546" s="26"/>
@@ -28930,6 +29657,7 @@
       <c r="BD546" s="26"/>
       <c r="BE546" s="26"/>
       <c r="BF546" s="26"/>
+      <c r="BG546" s="26"/>
     </row>
     <row r="547">
       <c r="AL547" s="26"/>
@@ -28953,6 +29681,7 @@
       <c r="BD547" s="26"/>
       <c r="BE547" s="26"/>
       <c r="BF547" s="26"/>
+      <c r="BG547" s="26"/>
     </row>
     <row r="548">
       <c r="AL548" s="26"/>
@@ -28976,6 +29705,7 @@
       <c r="BD548" s="26"/>
       <c r="BE548" s="26"/>
       <c r="BF548" s="26"/>
+      <c r="BG548" s="26"/>
     </row>
     <row r="549">
       <c r="AL549" s="26"/>
@@ -28999,6 +29729,7 @@
       <c r="BD549" s="26"/>
       <c r="BE549" s="26"/>
       <c r="BF549" s="26"/>
+      <c r="BG549" s="26"/>
     </row>
     <row r="550">
       <c r="AL550" s="26"/>
@@ -29022,6 +29753,7 @@
       <c r="BD550" s="26"/>
       <c r="BE550" s="26"/>
       <c r="BF550" s="26"/>
+      <c r="BG550" s="26"/>
     </row>
     <row r="551">
       <c r="AL551" s="26"/>
@@ -29045,6 +29777,7 @@
       <c r="BD551" s="26"/>
       <c r="BE551" s="26"/>
       <c r="BF551" s="26"/>
+      <c r="BG551" s="26"/>
     </row>
     <row r="552">
       <c r="AL552" s="26"/>
@@ -29068,6 +29801,7 @@
       <c r="BD552" s="26"/>
       <c r="BE552" s="26"/>
       <c r="BF552" s="26"/>
+      <c r="BG552" s="26"/>
     </row>
     <row r="553">
       <c r="AL553" s="26"/>
@@ -29091,6 +29825,7 @@
       <c r="BD553" s="26"/>
       <c r="BE553" s="26"/>
       <c r="BF553" s="26"/>
+      <c r="BG553" s="26"/>
     </row>
     <row r="554">
       <c r="AL554" s="26"/>
@@ -29114,6 +29849,7 @@
       <c r="BD554" s="26"/>
       <c r="BE554" s="26"/>
       <c r="BF554" s="26"/>
+      <c r="BG554" s="26"/>
     </row>
     <row r="555">
       <c r="AL555" s="26"/>
@@ -29137,6 +29873,7 @@
       <c r="BD555" s="26"/>
       <c r="BE555" s="26"/>
       <c r="BF555" s="26"/>
+      <c r="BG555" s="26"/>
     </row>
     <row r="556">
       <c r="AL556" s="26"/>
@@ -29160,6 +29897,7 @@
       <c r="BD556" s="26"/>
       <c r="BE556" s="26"/>
       <c r="BF556" s="26"/>
+      <c r="BG556" s="26"/>
     </row>
     <row r="557">
       <c r="AL557" s="26"/>
@@ -29183,6 +29921,7 @@
       <c r="BD557" s="26"/>
       <c r="BE557" s="26"/>
       <c r="BF557" s="26"/>
+      <c r="BG557" s="26"/>
     </row>
     <row r="558">
       <c r="AL558" s="26"/>
@@ -29206,6 +29945,7 @@
       <c r="BD558" s="26"/>
       <c r="BE558" s="26"/>
       <c r="BF558" s="26"/>
+      <c r="BG558" s="26"/>
     </row>
     <row r="559">
       <c r="AL559" s="26"/>
@@ -29229,6 +29969,7 @@
       <c r="BD559" s="26"/>
       <c r="BE559" s="26"/>
       <c r="BF559" s="26"/>
+      <c r="BG559" s="26"/>
     </row>
     <row r="560">
       <c r="AL560" s="26"/>
@@ -29252,6 +29993,7 @@
       <c r="BD560" s="26"/>
       <c r="BE560" s="26"/>
       <c r="BF560" s="26"/>
+      <c r="BG560" s="26"/>
     </row>
     <row r="561">
       <c r="AL561" s="26"/>
@@ -29275,6 +30017,7 @@
       <c r="BD561" s="26"/>
       <c r="BE561" s="26"/>
       <c r="BF561" s="26"/>
+      <c r="BG561" s="26"/>
     </row>
     <row r="562">
       <c r="AL562" s="26"/>
@@ -29298,6 +30041,7 @@
       <c r="BD562" s="26"/>
       <c r="BE562" s="26"/>
       <c r="BF562" s="26"/>
+      <c r="BG562" s="26"/>
     </row>
     <row r="563">
       <c r="AL563" s="26"/>
@@ -29321,6 +30065,7 @@
       <c r="BD563" s="26"/>
       <c r="BE563" s="26"/>
       <c r="BF563" s="26"/>
+      <c r="BG563" s="26"/>
     </row>
     <row r="564">
       <c r="AL564" s="26"/>
@@ -29344,6 +30089,7 @@
       <c r="BD564" s="26"/>
       <c r="BE564" s="26"/>
       <c r="BF564" s="26"/>
+      <c r="BG564" s="26"/>
     </row>
     <row r="565">
       <c r="AL565" s="26"/>
@@ -29367,6 +30113,7 @@
       <c r="BD565" s="26"/>
       <c r="BE565" s="26"/>
       <c r="BF565" s="26"/>
+      <c r="BG565" s="26"/>
     </row>
     <row r="566">
       <c r="AL566" s="26"/>
@@ -29390,6 +30137,7 @@
       <c r="BD566" s="26"/>
       <c r="BE566" s="26"/>
       <c r="BF566" s="26"/>
+      <c r="BG566" s="26"/>
     </row>
     <row r="567">
       <c r="AL567" s="26"/>
@@ -29413,6 +30161,7 @@
       <c r="BD567" s="26"/>
       <c r="BE567" s="26"/>
       <c r="BF567" s="26"/>
+      <c r="BG567" s="26"/>
     </row>
     <row r="568">
       <c r="AL568" s="26"/>
@@ -29436,6 +30185,7 @@
       <c r="BD568" s="26"/>
       <c r="BE568" s="26"/>
       <c r="BF568" s="26"/>
+      <c r="BG568" s="26"/>
     </row>
     <row r="569">
       <c r="AL569" s="26"/>
@@ -29459,6 +30209,7 @@
       <c r="BD569" s="26"/>
       <c r="BE569" s="26"/>
       <c r="BF569" s="26"/>
+      <c r="BG569" s="26"/>
     </row>
     <row r="570">
       <c r="AL570" s="26"/>
@@ -29482,6 +30233,7 @@
       <c r="BD570" s="26"/>
       <c r="BE570" s="26"/>
       <c r="BF570" s="26"/>
+      <c r="BG570" s="26"/>
     </row>
     <row r="571">
       <c r="AL571" s="26"/>
@@ -29505,6 +30257,7 @@
       <c r="BD571" s="26"/>
       <c r="BE571" s="26"/>
       <c r="BF571" s="26"/>
+      <c r="BG571" s="26"/>
     </row>
     <row r="572">
       <c r="AL572" s="26"/>
@@ -29528,6 +30281,7 @@
       <c r="BD572" s="26"/>
       <c r="BE572" s="26"/>
       <c r="BF572" s="26"/>
+      <c r="BG572" s="26"/>
     </row>
     <row r="573">
       <c r="AL573" s="26"/>
@@ -29551,6 +30305,7 @@
       <c r="BD573" s="26"/>
       <c r="BE573" s="26"/>
       <c r="BF573" s="26"/>
+      <c r="BG573" s="26"/>
     </row>
     <row r="574">
       <c r="AL574" s="26"/>
@@ -29574,6 +30329,7 @@
       <c r="BD574" s="26"/>
       <c r="BE574" s="26"/>
       <c r="BF574" s="26"/>
+      <c r="BG574" s="26"/>
     </row>
     <row r="575">
       <c r="AL575" s="26"/>
@@ -29597,6 +30353,7 @@
       <c r="BD575" s="26"/>
       <c r="BE575" s="26"/>
       <c r="BF575" s="26"/>
+      <c r="BG575" s="26"/>
     </row>
     <row r="576">
       <c r="AL576" s="26"/>
@@ -29620,6 +30377,7 @@
       <c r="BD576" s="26"/>
       <c r="BE576" s="26"/>
       <c r="BF576" s="26"/>
+      <c r="BG576" s="26"/>
     </row>
     <row r="577">
       <c r="AL577" s="26"/>
@@ -29643,6 +30401,7 @@
       <c r="BD577" s="26"/>
       <c r="BE577" s="26"/>
       <c r="BF577" s="26"/>
+      <c r="BG577" s="26"/>
     </row>
     <row r="578">
       <c r="AL578" s="26"/>
@@ -29666,6 +30425,7 @@
       <c r="BD578" s="26"/>
       <c r="BE578" s="26"/>
       <c r="BF578" s="26"/>
+      <c r="BG578" s="26"/>
     </row>
     <row r="579">
       <c r="AL579" s="26"/>
@@ -29689,6 +30449,7 @@
       <c r="BD579" s="26"/>
       <c r="BE579" s="26"/>
       <c r="BF579" s="26"/>
+      <c r="BG579" s="26"/>
     </row>
     <row r="580">
       <c r="AL580" s="26"/>
@@ -29712,6 +30473,7 @@
       <c r="BD580" s="26"/>
       <c r="BE580" s="26"/>
       <c r="BF580" s="26"/>
+      <c r="BG580" s="26"/>
     </row>
     <row r="581">
       <c r="AL581" s="26"/>
@@ -29735,6 +30497,7 @@
       <c r="BD581" s="26"/>
       <c r="BE581" s="26"/>
       <c r="BF581" s="26"/>
+      <c r="BG581" s="26"/>
     </row>
     <row r="582">
       <c r="AL582" s="26"/>
@@ -29758,6 +30521,7 @@
       <c r="BD582" s="26"/>
       <c r="BE582" s="26"/>
       <c r="BF582" s="26"/>
+      <c r="BG582" s="26"/>
     </row>
     <row r="583">
       <c r="AL583" s="26"/>
@@ -29781,6 +30545,7 @@
       <c r="BD583" s="26"/>
       <c r="BE583" s="26"/>
       <c r="BF583" s="26"/>
+      <c r="BG583" s="26"/>
     </row>
     <row r="584">
       <c r="AL584" s="26"/>
@@ -29804,6 +30569,7 @@
       <c r="BD584" s="26"/>
       <c r="BE584" s="26"/>
       <c r="BF584" s="26"/>
+      <c r="BG584" s="26"/>
     </row>
     <row r="585">
       <c r="AL585" s="26"/>
@@ -29827,6 +30593,7 @@
       <c r="BD585" s="26"/>
       <c r="BE585" s="26"/>
       <c r="BF585" s="26"/>
+      <c r="BG585" s="26"/>
     </row>
     <row r="586">
       <c r="AL586" s="26"/>
@@ -29850,6 +30617,7 @@
       <c r="BD586" s="26"/>
       <c r="BE586" s="26"/>
       <c r="BF586" s="26"/>
+      <c r="BG586" s="26"/>
     </row>
     <row r="587">
       <c r="AL587" s="26"/>
@@ -29873,6 +30641,7 @@
       <c r="BD587" s="26"/>
       <c r="BE587" s="26"/>
       <c r="BF587" s="26"/>
+      <c r="BG587" s="26"/>
     </row>
     <row r="588">
       <c r="AL588" s="26"/>
@@ -29896,6 +30665,7 @@
       <c r="BD588" s="26"/>
       <c r="BE588" s="26"/>
       <c r="BF588" s="26"/>
+      <c r="BG588" s="26"/>
     </row>
     <row r="589">
       <c r="AL589" s="26"/>
@@ -29919,6 +30689,7 @@
       <c r="BD589" s="26"/>
       <c r="BE589" s="26"/>
       <c r="BF589" s="26"/>
+      <c r="BG589" s="26"/>
     </row>
     <row r="590">
       <c r="AL590" s="26"/>
@@ -29942,6 +30713,7 @@
       <c r="BD590" s="26"/>
       <c r="BE590" s="26"/>
       <c r="BF590" s="26"/>
+      <c r="BG590" s="26"/>
     </row>
     <row r="591">
       <c r="AL591" s="26"/>
@@ -29965,6 +30737,7 @@
       <c r="BD591" s="26"/>
       <c r="BE591" s="26"/>
       <c r="BF591" s="26"/>
+      <c r="BG591" s="26"/>
     </row>
     <row r="592">
       <c r="AL592" s="26"/>
@@ -29988,6 +30761,7 @@
       <c r="BD592" s="26"/>
       <c r="BE592" s="26"/>
       <c r="BF592" s="26"/>
+      <c r="BG592" s="26"/>
     </row>
     <row r="593">
       <c r="AL593" s="26"/>
@@ -30011,6 +30785,7 @@
       <c r="BD593" s="26"/>
       <c r="BE593" s="26"/>
       <c r="BF593" s="26"/>
+      <c r="BG593" s="26"/>
     </row>
     <row r="594">
       <c r="AL594" s="26"/>
@@ -30034,6 +30809,7 @@
       <c r="BD594" s="26"/>
       <c r="BE594" s="26"/>
       <c r="BF594" s="26"/>
+      <c r="BG594" s="26"/>
     </row>
     <row r="595">
       <c r="AL595" s="26"/>
@@ -30057,6 +30833,7 @@
       <c r="BD595" s="26"/>
       <c r="BE595" s="26"/>
       <c r="BF595" s="26"/>
+      <c r="BG595" s="26"/>
     </row>
     <row r="596">
       <c r="AL596" s="26"/>
@@ -30080,6 +30857,7 @@
       <c r="BD596" s="26"/>
       <c r="BE596" s="26"/>
       <c r="BF596" s="26"/>
+      <c r="BG596" s="26"/>
     </row>
     <row r="597">
       <c r="AL597" s="26"/>
@@ -30103,6 +30881,7 @@
       <c r="BD597" s="26"/>
       <c r="BE597" s="26"/>
       <c r="BF597" s="26"/>
+      <c r="BG597" s="26"/>
     </row>
     <row r="598">
       <c r="AL598" s="26"/>
@@ -30126,6 +30905,7 @@
       <c r="BD598" s="26"/>
       <c r="BE598" s="26"/>
       <c r="BF598" s="26"/>
+      <c r="BG598" s="26"/>
     </row>
     <row r="599">
       <c r="AL599" s="26"/>
@@ -30149,6 +30929,7 @@
       <c r="BD599" s="26"/>
       <c r="BE599" s="26"/>
       <c r="BF599" s="26"/>
+      <c r="BG599" s="26"/>
     </row>
     <row r="600">
       <c r="AL600" s="26"/>
@@ -30172,6 +30953,7 @@
       <c r="BD600" s="26"/>
       <c r="BE600" s="26"/>
       <c r="BF600" s="26"/>
+      <c r="BG600" s="26"/>
     </row>
     <row r="601">
       <c r="AL601" s="26"/>
@@ -30195,6 +30977,7 @@
       <c r="BD601" s="26"/>
       <c r="BE601" s="26"/>
       <c r="BF601" s="26"/>
+      <c r="BG601" s="26"/>
     </row>
     <row r="602">
       <c r="AL602" s="26"/>
@@ -30218,6 +31001,7 @@
       <c r="BD602" s="26"/>
       <c r="BE602" s="26"/>
       <c r="BF602" s="26"/>
+      <c r="BG602" s="26"/>
     </row>
     <row r="603">
       <c r="AL603" s="26"/>
@@ -30241,6 +31025,7 @@
       <c r="BD603" s="26"/>
       <c r="BE603" s="26"/>
       <c r="BF603" s="26"/>
+      <c r="BG603" s="26"/>
     </row>
     <row r="604">
       <c r="AL604" s="26"/>
@@ -30264,6 +31049,7 @@
       <c r="BD604" s="26"/>
       <c r="BE604" s="26"/>
       <c r="BF604" s="26"/>
+      <c r="BG604" s="26"/>
     </row>
     <row r="605">
       <c r="AL605" s="26"/>
@@ -30287,6 +31073,7 @@
       <c r="BD605" s="26"/>
       <c r="BE605" s="26"/>
       <c r="BF605" s="26"/>
+      <c r="BG605" s="26"/>
     </row>
     <row r="606">
       <c r="AL606" s="26"/>
@@ -30310,6 +31097,7 @@
       <c r="BD606" s="26"/>
       <c r="BE606" s="26"/>
       <c r="BF606" s="26"/>
+      <c r="BG606" s="26"/>
     </row>
     <row r="607">
       <c r="AL607" s="26"/>
@@ -30333,6 +31121,7 @@
       <c r="BD607" s="26"/>
       <c r="BE607" s="26"/>
       <c r="BF607" s="26"/>
+      <c r="BG607" s="26"/>
     </row>
     <row r="608">
       <c r="AL608" s="26"/>
@@ -30356,6 +31145,7 @@
       <c r="BD608" s="26"/>
       <c r="BE608" s="26"/>
       <c r="BF608" s="26"/>
+      <c r="BG608" s="26"/>
     </row>
     <row r="609">
       <c r="AL609" s="26"/>
@@ -30379,6 +31169,7 @@
       <c r="BD609" s="26"/>
       <c r="BE609" s="26"/>
       <c r="BF609" s="26"/>
+      <c r="BG609" s="26"/>
     </row>
     <row r="610">
       <c r="AL610" s="26"/>
@@ -30402,6 +31193,7 @@
       <c r="BD610" s="26"/>
       <c r="BE610" s="26"/>
       <c r="BF610" s="26"/>
+      <c r="BG610" s="26"/>
     </row>
     <row r="611">
       <c r="AL611" s="26"/>
@@ -30425,6 +31217,7 @@
       <c r="BD611" s="26"/>
       <c r="BE611" s="26"/>
       <c r="BF611" s="26"/>
+      <c r="BG611" s="26"/>
     </row>
     <row r="612">
       <c r="AL612" s="26"/>
@@ -30448,6 +31241,7 @@
       <c r="BD612" s="26"/>
       <c r="BE612" s="26"/>
       <c r="BF612" s="26"/>
+      <c r="BG612" s="26"/>
     </row>
     <row r="613">
       <c r="AL613" s="26"/>
@@ -30471,6 +31265,7 @@
       <c r="BD613" s="26"/>
       <c r="BE613" s="26"/>
       <c r="BF613" s="26"/>
+      <c r="BG613" s="26"/>
     </row>
     <row r="614">
       <c r="AL614" s="26"/>
@@ -30494,6 +31289,7 @@
       <c r="BD614" s="26"/>
       <c r="BE614" s="26"/>
       <c r="BF614" s="26"/>
+      <c r="BG614" s="26"/>
     </row>
     <row r="615">
       <c r="AL615" s="26"/>
@@ -30517,6 +31313,7 @@
       <c r="BD615" s="26"/>
       <c r="BE615" s="26"/>
       <c r="BF615" s="26"/>
+      <c r="BG615" s="26"/>
     </row>
     <row r="616">
       <c r="AL616" s="26"/>
@@ -30540,6 +31337,7 @@
       <c r="BD616" s="26"/>
       <c r="BE616" s="26"/>
       <c r="BF616" s="26"/>
+      <c r="BG616" s="26"/>
     </row>
     <row r="617">
       <c r="AL617" s="26"/>
@@ -30563,6 +31361,7 @@
       <c r="BD617" s="26"/>
       <c r="BE617" s="26"/>
       <c r="BF617" s="26"/>
+      <c r="BG617" s="26"/>
     </row>
     <row r="618">
       <c r="AL618" s="26"/>
@@ -30586,6 +31385,7 @@
       <c r="BD618" s="26"/>
       <c r="BE618" s="26"/>
       <c r="BF618" s="26"/>
+      <c r="BG618" s="26"/>
     </row>
     <row r="619">
       <c r="AL619" s="26"/>
@@ -30609,6 +31409,7 @@
       <c r="BD619" s="26"/>
       <c r="BE619" s="26"/>
       <c r="BF619" s="26"/>
+      <c r="BG619" s="26"/>
     </row>
     <row r="620">
       <c r="AL620" s="26"/>
@@ -30632,6 +31433,7 @@
       <c r="BD620" s="26"/>
       <c r="BE620" s="26"/>
       <c r="BF620" s="26"/>
+      <c r="BG620" s="26"/>
     </row>
     <row r="621">
       <c r="AL621" s="26"/>
@@ -30655,6 +31457,7 @@
       <c r="BD621" s="26"/>
       <c r="BE621" s="26"/>
       <c r="BF621" s="26"/>
+      <c r="BG621" s="26"/>
     </row>
     <row r="622">
       <c r="AL622" s="26"/>
@@ -30678,6 +31481,7 @@
       <c r="BD622" s="26"/>
       <c r="BE622" s="26"/>
       <c r="BF622" s="26"/>
+      <c r="BG622" s="26"/>
     </row>
     <row r="623">
       <c r="AL623" s="26"/>
@@ -30701,6 +31505,7 @@
       <c r="BD623" s="26"/>
       <c r="BE623" s="26"/>
       <c r="BF623" s="26"/>
+      <c r="BG623" s="26"/>
     </row>
     <row r="624">
       <c r="AL624" s="26"/>
@@ -30724,6 +31529,7 @@
       <c r="BD624" s="26"/>
       <c r="BE624" s="26"/>
       <c r="BF624" s="26"/>
+      <c r="BG624" s="26"/>
     </row>
     <row r="625">
       <c r="AL625" s="26"/>
@@ -30747,6 +31553,7 @@
       <c r="BD625" s="26"/>
       <c r="BE625" s="26"/>
       <c r="BF625" s="26"/>
+      <c r="BG625" s="26"/>
     </row>
     <row r="626">
       <c r="AL626" s="26"/>
@@ -30770,6 +31577,7 @@
       <c r="BD626" s="26"/>
       <c r="BE626" s="26"/>
       <c r="BF626" s="26"/>
+      <c r="BG626" s="26"/>
     </row>
     <row r="627">
       <c r="AL627" s="26"/>
@@ -30793,6 +31601,7 @@
       <c r="BD627" s="26"/>
       <c r="BE627" s="26"/>
       <c r="BF627" s="26"/>
+      <c r="BG627" s="26"/>
     </row>
     <row r="628">
       <c r="AL628" s="26"/>
@@ -30816,6 +31625,7 @@
       <c r="BD628" s="26"/>
       <c r="BE628" s="26"/>
       <c r="BF628" s="26"/>
+      <c r="BG628" s="26"/>
     </row>
     <row r="629">
       <c r="AL629" s="26"/>
@@ -30839,6 +31649,7 @@
       <c r="BD629" s="26"/>
       <c r="BE629" s="26"/>
       <c r="BF629" s="26"/>
+      <c r="BG629" s="26"/>
     </row>
     <row r="630">
       <c r="AL630" s="26"/>
@@ -30862,6 +31673,7 @@
       <c r="BD630" s="26"/>
       <c r="BE630" s="26"/>
       <c r="BF630" s="26"/>
+      <c r="BG630" s="26"/>
     </row>
     <row r="631">
       <c r="AL631" s="26"/>
@@ -30885,6 +31697,7 @@
       <c r="BD631" s="26"/>
       <c r="BE631" s="26"/>
       <c r="BF631" s="26"/>
+      <c r="BG631" s="26"/>
     </row>
     <row r="632">
       <c r="AL632" s="26"/>
@@ -30908,6 +31721,7 @@
       <c r="BD632" s="26"/>
       <c r="BE632" s="26"/>
       <c r="BF632" s="26"/>
+      <c r="BG632" s="26"/>
     </row>
     <row r="633">
       <c r="AL633" s="26"/>
@@ -30931,6 +31745,7 @@
       <c r="BD633" s="26"/>
       <c r="BE633" s="26"/>
       <c r="BF633" s="26"/>
+      <c r="BG633" s="26"/>
     </row>
     <row r="634">
       <c r="AL634" s="26"/>
@@ -30954,6 +31769,7 @@
       <c r="BD634" s="26"/>
       <c r="BE634" s="26"/>
       <c r="BF634" s="26"/>
+      <c r="BG634" s="26"/>
     </row>
     <row r="635">
       <c r="AL635" s="26"/>
@@ -30977,6 +31793,7 @@
       <c r="BD635" s="26"/>
       <c r="BE635" s="26"/>
       <c r="BF635" s="26"/>
+      <c r="BG635" s="26"/>
     </row>
     <row r="636">
       <c r="AL636" s="26"/>
@@ -31000,6 +31817,7 @@
       <c r="BD636" s="26"/>
       <c r="BE636" s="26"/>
       <c r="BF636" s="26"/>
+      <c r="BG636" s="26"/>
     </row>
     <row r="637">
       <c r="AL637" s="26"/>
@@ -31023,6 +31841,7 @@
       <c r="BD637" s="26"/>
       <c r="BE637" s="26"/>
       <c r="BF637" s="26"/>
+      <c r="BG637" s="26"/>
     </row>
     <row r="638">
       <c r="AL638" s="26"/>
@@ -31046,6 +31865,7 @@
       <c r="BD638" s="26"/>
       <c r="BE638" s="26"/>
       <c r="BF638" s="26"/>
+      <c r="BG638" s="26"/>
     </row>
     <row r="639">
       <c r="AL639" s="26"/>
@@ -31069,6 +31889,7 @@
       <c r="BD639" s="26"/>
       <c r="BE639" s="26"/>
       <c r="BF639" s="26"/>
+      <c r="BG639" s="26"/>
     </row>
     <row r="640">
       <c r="AL640" s="26"/>
@@ -31092,6 +31913,7 @@
       <c r="BD640" s="26"/>
       <c r="BE640" s="26"/>
       <c r="BF640" s="26"/>
+      <c r="BG640" s="26"/>
     </row>
     <row r="641">
       <c r="AL641" s="26"/>
@@ -31115,6 +31937,7 @@
       <c r="BD641" s="26"/>
       <c r="BE641" s="26"/>
       <c r="BF641" s="26"/>
+      <c r="BG641" s="26"/>
     </row>
     <row r="642">
       <c r="AL642" s="26"/>
@@ -31138,6 +31961,7 @@
       <c r="BD642" s="26"/>
       <c r="BE642" s="26"/>
       <c r="BF642" s="26"/>
+      <c r="BG642" s="26"/>
     </row>
     <row r="643">
       <c r="AL643" s="26"/>
@@ -31161,6 +31985,7 @@
       <c r="BD643" s="26"/>
       <c r="BE643" s="26"/>
       <c r="BF643" s="26"/>
+      <c r="BG643" s="26"/>
     </row>
     <row r="644">
       <c r="AL644" s="26"/>
@@ -31184,6 +32009,7 @@
       <c r="BD644" s="26"/>
       <c r="BE644" s="26"/>
       <c r="BF644" s="26"/>
+      <c r="BG644" s="26"/>
     </row>
     <row r="645">
       <c r="AL645" s="26"/>
@@ -31207,6 +32033,7 @@
       <c r="BD645" s="26"/>
       <c r="BE645" s="26"/>
       <c r="BF645" s="26"/>
+      <c r="BG645" s="26"/>
     </row>
     <row r="646">
       <c r="AL646" s="26"/>
@@ -31230,6 +32057,7 @@
       <c r="BD646" s="26"/>
       <c r="BE646" s="26"/>
       <c r="BF646" s="26"/>
+      <c r="BG646" s="26"/>
     </row>
     <row r="647">
       <c r="AL647" s="26"/>
@@ -31253,6 +32081,7 @@
       <c r="BD647" s="26"/>
       <c r="BE647" s="26"/>
       <c r="BF647" s="26"/>
+      <c r="BG647" s="26"/>
     </row>
     <row r="648">
       <c r="AL648" s="26"/>
@@ -31276,6 +32105,7 @@
       <c r="BD648" s="26"/>
       <c r="BE648" s="26"/>
       <c r="BF648" s="26"/>
+      <c r="BG648" s="26"/>
     </row>
     <row r="649">
       <c r="AL649" s="26"/>
@@ -31299,6 +32129,7 @@
       <c r="BD649" s="26"/>
       <c r="BE649" s="26"/>
       <c r="BF649" s="26"/>
+      <c r="BG649" s="26"/>
     </row>
     <row r="650">
       <c r="AL650" s="26"/>
@@ -31322,6 +32153,7 @@
       <c r="BD650" s="26"/>
       <c r="BE650" s="26"/>
       <c r="BF650" s="26"/>
+      <c r="BG650" s="26"/>
     </row>
     <row r="651">
       <c r="AL651" s="26"/>
@@ -31345,6 +32177,7 @@
       <c r="BD651" s="26"/>
       <c r="BE651" s="26"/>
       <c r="BF651" s="26"/>
+      <c r="BG651" s="26"/>
     </row>
     <row r="652">
       <c r="AL652" s="26"/>
@@ -31368,6 +32201,7 @@
       <c r="BD652" s="26"/>
       <c r="BE652" s="26"/>
       <c r="BF652" s="26"/>
+      <c r="BG652" s="26"/>
     </row>
     <row r="653">
       <c r="AL653" s="26"/>
@@ -31391,6 +32225,7 @@
       <c r="BD653" s="26"/>
       <c r="BE653" s="26"/>
       <c r="BF653" s="26"/>
+      <c r="BG653" s="26"/>
     </row>
     <row r="654">
       <c r="AL654" s="26"/>
@@ -31414,6 +32249,7 @@
       <c r="BD654" s="26"/>
       <c r="BE654" s="26"/>
       <c r="BF654" s="26"/>
+      <c r="BG654" s="26"/>
     </row>
     <row r="655">
       <c r="AL655" s="26"/>
@@ -31437,6 +32273,7 @@
       <c r="BD655" s="26"/>
       <c r="BE655" s="26"/>
       <c r="BF655" s="26"/>
+      <c r="BG655" s="26"/>
     </row>
     <row r="656">
       <c r="AL656" s="26"/>
@@ -31460,6 +32297,7 @@
       <c r="BD656" s="26"/>
       <c r="BE656" s="26"/>
       <c r="BF656" s="26"/>
+      <c r="BG656" s="26"/>
     </row>
     <row r="657">
       <c r="AL657" s="26"/>
@@ -31483,6 +32321,7 @@
       <c r="BD657" s="26"/>
       <c r="BE657" s="26"/>
       <c r="BF657" s="26"/>
+      <c r="BG657" s="26"/>
     </row>
     <row r="658">
       <c r="AL658" s="26"/>
@@ -31506,6 +32345,7 @@
       <c r="BD658" s="26"/>
       <c r="BE658" s="26"/>
       <c r="BF658" s="26"/>
+      <c r="BG658" s="26"/>
     </row>
     <row r="659">
       <c r="AL659" s="26"/>
@@ -31529,6 +32369,7 @@
       <c r="BD659" s="26"/>
       <c r="BE659" s="26"/>
       <c r="BF659" s="26"/>
+      <c r="BG659" s="26"/>
     </row>
     <row r="660">
       <c r="AL660" s="26"/>
@@ -31552,6 +32393,7 @@
       <c r="BD660" s="26"/>
       <c r="BE660" s="26"/>
       <c r="BF660" s="26"/>
+      <c r="BG660" s="26"/>
     </row>
     <row r="661">
       <c r="AL661" s="26"/>
@@ -31575,6 +32417,7 @@
       <c r="BD661" s="26"/>
       <c r="BE661" s="26"/>
       <c r="BF661" s="26"/>
+      <c r="BG661" s="26"/>
     </row>
     <row r="662">
       <c r="AL662" s="26"/>
@@ -31598,6 +32441,7 @@
       <c r="BD662" s="26"/>
       <c r="BE662" s="26"/>
       <c r="BF662" s="26"/>
+      <c r="BG662" s="26"/>
     </row>
     <row r="663">
       <c r="AL663" s="26"/>
@@ -31621,6 +32465,7 @@
       <c r="BD663" s="26"/>
       <c r="BE663" s="26"/>
       <c r="BF663" s="26"/>
+      <c r="BG663" s="26"/>
     </row>
     <row r="664">
       <c r="AL664" s="26"/>
@@ -31644,6 +32489,7 @@
       <c r="BD664" s="26"/>
       <c r="BE664" s="26"/>
       <c r="BF664" s="26"/>
+      <c r="BG664" s="26"/>
     </row>
     <row r="665">
       <c r="AL665" s="26"/>
@@ -31667,6 +32513,7 @@
       <c r="BD665" s="26"/>
       <c r="BE665" s="26"/>
       <c r="BF665" s="26"/>
+      <c r="BG665" s="26"/>
     </row>
     <row r="666">
       <c r="AL666" s="26"/>
@@ -31690,6 +32537,7 @@
       <c r="BD666" s="26"/>
       <c r="BE666" s="26"/>
       <c r="BF666" s="26"/>
+      <c r="BG666" s="26"/>
     </row>
     <row r="667">
       <c r="AL667" s="26"/>
@@ -31713,6 +32561,7 @@
       <c r="BD667" s="26"/>
       <c r="BE667" s="26"/>
       <c r="BF667" s="26"/>
+      <c r="BG667" s="26"/>
     </row>
     <row r="668">
       <c r="AL668" s="26"/>
@@ -31736,6 +32585,7 @@
       <c r="BD668" s="26"/>
       <c r="BE668" s="26"/>
       <c r="BF668" s="26"/>
+      <c r="BG668" s="26"/>
     </row>
     <row r="669">
       <c r="AL669" s="26"/>
@@ -31759,6 +32609,7 @@
       <c r="BD669" s="26"/>
       <c r="BE669" s="26"/>
       <c r="BF669" s="26"/>
+      <c r="BG669" s="26"/>
     </row>
     <row r="670">
       <c r="AL670" s="26"/>
@@ -31782,6 +32633,7 @@
       <c r="BD670" s="26"/>
       <c r="BE670" s="26"/>
       <c r="BF670" s="26"/>
+      <c r="BG670" s="26"/>
     </row>
     <row r="671">
       <c r="AL671" s="26"/>
@@ -31805,6 +32657,7 @@
       <c r="BD671" s="26"/>
       <c r="BE671" s="26"/>
       <c r="BF671" s="26"/>
+      <c r="BG671" s="26"/>
     </row>
     <row r="672">
       <c r="AL672" s="26"/>
@@ -31828,6 +32681,7 @@
       <c r="BD672" s="26"/>
       <c r="BE672" s="26"/>
       <c r="BF672" s="26"/>
+      <c r="BG672" s="26"/>
     </row>
     <row r="673">
       <c r="AL673" s="26"/>
@@ -31851,6 +32705,7 @@
       <c r="BD673" s="26"/>
       <c r="BE673" s="26"/>
       <c r="BF673" s="26"/>
+      <c r="BG673" s="26"/>
     </row>
     <row r="674">
       <c r="AL674" s="26"/>
@@ -31874,6 +32729,7 @@
       <c r="BD674" s="26"/>
       <c r="BE674" s="26"/>
       <c r="BF674" s="26"/>
+      <c r="BG674" s="26"/>
     </row>
     <row r="675">
       <c r="AL675" s="26"/>
@@ -31897,6 +32753,7 @@
       <c r="BD675" s="26"/>
       <c r="BE675" s="26"/>
       <c r="BF675" s="26"/>
+      <c r="BG675" s="26"/>
     </row>
     <row r="676">
       <c r="AL676" s="26"/>
@@ -31920,6 +32777,7 @@
       <c r="BD676" s="26"/>
       <c r="BE676" s="26"/>
       <c r="BF676" s="26"/>
+      <c r="BG676" s="26"/>
     </row>
     <row r="677">
       <c r="AL677" s="26"/>
@@ -31943,6 +32801,7 @@
       <c r="BD677" s="26"/>
       <c r="BE677" s="26"/>
       <c r="BF677" s="26"/>
+      <c r="BG677" s="26"/>
     </row>
     <row r="678">
       <c r="AL678" s="26"/>
@@ -31966,6 +32825,7 @@
       <c r="BD678" s="26"/>
       <c r="BE678" s="26"/>
       <c r="BF678" s="26"/>
+      <c r="BG678" s="26"/>
     </row>
     <row r="679">
       <c r="AL679" s="26"/>
@@ -31989,6 +32849,7 @@
       <c r="BD679" s="26"/>
       <c r="BE679" s="26"/>
       <c r="BF679" s="26"/>
+      <c r="BG679" s="26"/>
     </row>
     <row r="680">
       <c r="AL680" s="26"/>
@@ -32012,6 +32873,7 @@
       <c r="BD680" s="26"/>
       <c r="BE680" s="26"/>
       <c r="BF680" s="26"/>
+      <c r="BG680" s="26"/>
     </row>
     <row r="681">
       <c r="AL681" s="26"/>
@@ -32035,6 +32897,7 @@
       <c r="BD681" s="26"/>
       <c r="BE681" s="26"/>
       <c r="BF681" s="26"/>
+      <c r="BG681" s="26"/>
     </row>
     <row r="682">
       <c r="AL682" s="26"/>
@@ -32058,6 +32921,7 @@
       <c r="BD682" s="26"/>
       <c r="BE682" s="26"/>
       <c r="BF682" s="26"/>
+      <c r="BG682" s="26"/>
     </row>
     <row r="683">
       <c r="AL683" s="26"/>
@@ -32081,6 +32945,7 @@
       <c r="BD683" s="26"/>
       <c r="BE683" s="26"/>
       <c r="BF683" s="26"/>
+      <c r="BG683" s="26"/>
     </row>
     <row r="684">
       <c r="AL684" s="26"/>
@@ -32104,6 +32969,7 @@
       <c r="BD684" s="26"/>
       <c r="BE684" s="26"/>
       <c r="BF684" s="26"/>
+      <c r="BG684" s="26"/>
     </row>
     <row r="685">
       <c r="AL685" s="26"/>
@@ -32127,6 +32993,7 @@
       <c r="BD685" s="26"/>
       <c r="BE685" s="26"/>
       <c r="BF685" s="26"/>
+      <c r="BG685" s="26"/>
     </row>
     <row r="686">
       <c r="AL686" s="26"/>
@@ -32150,6 +33017,7 @@
       <c r="BD686" s="26"/>
       <c r="BE686" s="26"/>
       <c r="BF686" s="26"/>
+      <c r="BG686" s="26"/>
     </row>
     <row r="687">
       <c r="AL687" s="26"/>
@@ -32173,6 +33041,7 @@
       <c r="BD687" s="26"/>
       <c r="BE687" s="26"/>
       <c r="BF687" s="26"/>
+      <c r="BG687" s="26"/>
     </row>
     <row r="688">
       <c r="AL688" s="26"/>
@@ -32196,6 +33065,7 @@
       <c r="BD688" s="26"/>
       <c r="BE688" s="26"/>
       <c r="BF688" s="26"/>
+      <c r="BG688" s="26"/>
     </row>
     <row r="689">
       <c r="AL689" s="26"/>
@@ -32219,6 +33089,7 @@
       <c r="BD689" s="26"/>
       <c r="BE689" s="26"/>
       <c r="BF689" s="26"/>
+      <c r="BG689" s="26"/>
     </row>
     <row r="690">
       <c r="AL690" s="26"/>
@@ -32242,6 +33113,7 @@
       <c r="BD690" s="26"/>
       <c r="BE690" s="26"/>
       <c r="BF690" s="26"/>
+      <c r="BG690" s="26"/>
     </row>
     <row r="691">
       <c r="AL691" s="26"/>
@@ -32265,6 +33137,7 @@
       <c r="BD691" s="26"/>
       <c r="BE691" s="26"/>
       <c r="BF691" s="26"/>
+      <c r="BG691" s="26"/>
     </row>
     <row r="692">
       <c r="AL692" s="26"/>
@@ -32288,6 +33161,7 @@
       <c r="BD692" s="26"/>
       <c r="BE692" s="26"/>
       <c r="BF692" s="26"/>
+      <c r="BG692" s="26"/>
     </row>
     <row r="693">
       <c r="AL693" s="26"/>
@@ -32311,6 +33185,7 @@
       <c r="BD693" s="26"/>
       <c r="BE693" s="26"/>
       <c r="BF693" s="26"/>
+      <c r="BG693" s="26"/>
     </row>
     <row r="694">
       <c r="AL694" s="26"/>
@@ -32334,6 +33209,7 @@
       <c r="BD694" s="26"/>
       <c r="BE694" s="26"/>
       <c r="BF694" s="26"/>
+      <c r="BG694" s="26"/>
     </row>
     <row r="695">
       <c r="AL695" s="26"/>
@@ -32357,6 +33233,7 @@
       <c r="BD695" s="26"/>
       <c r="BE695" s="26"/>
       <c r="BF695" s="26"/>
+      <c r="BG695" s="26"/>
     </row>
     <row r="696">
       <c r="AL696" s="26"/>
@@ -32380,6 +33257,7 @@
       <c r="BD696" s="26"/>
       <c r="BE696" s="26"/>
       <c r="BF696" s="26"/>
+      <c r="BG696" s="26"/>
     </row>
     <row r="697">
       <c r="AL697" s="26"/>
@@ -32403,6 +33281,7 @@
       <c r="BD697" s="26"/>
       <c r="BE697" s="26"/>
       <c r="BF697" s="26"/>
+      <c r="BG697" s="26"/>
     </row>
     <row r="698">
       <c r="AL698" s="26"/>
@@ -32426,6 +33305,7 @@
       <c r="BD698" s="26"/>
       <c r="BE698" s="26"/>
       <c r="BF698" s="26"/>
+      <c r="BG698" s="26"/>
     </row>
     <row r="699">
       <c r="AL699" s="26"/>
@@ -32449,6 +33329,7 @@
       <c r="BD699" s="26"/>
       <c r="BE699" s="26"/>
       <c r="BF699" s="26"/>
+      <c r="BG699" s="26"/>
     </row>
     <row r="700">
       <c r="AL700" s="26"/>
@@ -32472,6 +33353,7 @@
       <c r="BD700" s="26"/>
       <c r="BE700" s="26"/>
       <c r="BF700" s="26"/>
+      <c r="BG700" s="26"/>
     </row>
     <row r="701">
       <c r="AL701" s="26"/>
@@ -32495,6 +33377,7 @@
       <c r="BD701" s="26"/>
       <c r="BE701" s="26"/>
       <c r="BF701" s="26"/>
+      <c r="BG701" s="26"/>
     </row>
     <row r="702">
       <c r="AL702" s="26"/>
@@ -32518,6 +33401,7 @@
       <c r="BD702" s="26"/>
       <c r="BE702" s="26"/>
       <c r="BF702" s="26"/>
+      <c r="BG702" s="26"/>
     </row>
     <row r="703">
       <c r="AL703" s="26"/>
@@ -32541,6 +33425,7 @@
       <c r="BD703" s="26"/>
       <c r="BE703" s="26"/>
       <c r="BF703" s="26"/>
+      <c r="BG703" s="26"/>
     </row>
     <row r="704">
       <c r="AL704" s="26"/>
@@ -32564,6 +33449,7 @@
       <c r="BD704" s="26"/>
       <c r="BE704" s="26"/>
       <c r="BF704" s="26"/>
+      <c r="BG704" s="26"/>
     </row>
     <row r="705">
       <c r="AL705" s="26"/>
@@ -32587,6 +33473,7 @@
       <c r="BD705" s="26"/>
       <c r="BE705" s="26"/>
       <c r="BF705" s="26"/>
+      <c r="BG705" s="26"/>
     </row>
     <row r="706">
       <c r="AL706" s="26"/>
@@ -32610,6 +33497,7 @@
       <c r="BD706" s="26"/>
       <c r="BE706" s="26"/>
       <c r="BF706" s="26"/>
+      <c r="BG706" s="26"/>
     </row>
     <row r="707">
       <c r="AL707" s="26"/>
@@ -32633,6 +33521,7 @@
       <c r="BD707" s="26"/>
       <c r="BE707" s="26"/>
       <c r="BF707" s="26"/>
+      <c r="BG707" s="26"/>
     </row>
     <row r="708">
       <c r="AL708" s="26"/>
@@ -32656,6 +33545,7 @@
       <c r="BD708" s="26"/>
       <c r="BE708" s="26"/>
       <c r="BF708" s="26"/>
+      <c r="BG708" s="26"/>
     </row>
     <row r="709">
       <c r="AL709" s="26"/>
@@ -32679,6 +33569,7 @@
       <c r="BD709" s="26"/>
       <c r="BE709" s="26"/>
       <c r="BF709" s="26"/>
+      <c r="BG709" s="26"/>
     </row>
     <row r="710">
       <c r="AL710" s="26"/>
@@ -32702,6 +33593,7 @@
       <c r="BD710" s="26"/>
       <c r="BE710" s="26"/>
       <c r="BF710" s="26"/>
+      <c r="BG710" s="26"/>
     </row>
     <row r="711">
       <c r="AL711" s="26"/>
@@ -32725,6 +33617,7 @@
       <c r="BD711" s="26"/>
       <c r="BE711" s="26"/>
       <c r="BF711" s="26"/>
+      <c r="BG711" s="26"/>
     </row>
     <row r="712">
       <c r="AL712" s="26"/>
@@ -32748,6 +33641,7 @@
       <c r="BD712" s="26"/>
       <c r="BE712" s="26"/>
       <c r="BF712" s="26"/>
+      <c r="BG712" s="26"/>
     </row>
     <row r="713">
       <c r="AL713" s="26"/>
@@ -32771,6 +33665,7 @@
       <c r="BD713" s="26"/>
       <c r="BE713" s="26"/>
       <c r="BF713" s="26"/>
+      <c r="BG713" s="26"/>
     </row>
     <row r="714">
       <c r="AL714" s="26"/>
@@ -32794,6 +33689,7 @@
       <c r="BD714" s="26"/>
       <c r="BE714" s="26"/>
       <c r="BF714" s="26"/>
+      <c r="BG714" s="26"/>
     </row>
     <row r="715">
       <c r="AL715" s="26"/>
@@ -32817,6 +33713,7 @@
       <c r="BD715" s="26"/>
       <c r="BE715" s="26"/>
       <c r="BF715" s="26"/>
+      <c r="BG715" s="26"/>
     </row>
     <row r="716">
       <c r="AL716" s="26"/>
@@ -32840,6 +33737,7 @@
       <c r="BD716" s="26"/>
       <c r="BE716" s="26"/>
       <c r="BF716" s="26"/>
+      <c r="BG716" s="26"/>
     </row>
     <row r="717">
       <c r="AL717" s="26"/>
@@ -32863,6 +33761,7 @@
       <c r="BD717" s="26"/>
       <c r="BE717" s="26"/>
       <c r="BF717" s="26"/>
+      <c r="BG717" s="26"/>
     </row>
     <row r="718">
       <c r="AL718" s="26"/>
@@ -32886,6 +33785,7 @@
       <c r="BD718" s="26"/>
       <c r="BE718" s="26"/>
       <c r="BF718" s="26"/>
+      <c r="BG718" s="26"/>
     </row>
     <row r="719">
       <c r="AL719" s="26"/>
@@ -32909,6 +33809,7 @@
       <c r="BD719" s="26"/>
       <c r="BE719" s="26"/>
       <c r="BF719" s="26"/>
+      <c r="BG719" s="26"/>
     </row>
     <row r="720">
       <c r="AL720" s="26"/>
@@ -32932,6 +33833,7 @@
       <c r="BD720" s="26"/>
       <c r="BE720" s="26"/>
       <c r="BF720" s="26"/>
+      <c r="BG720" s="26"/>
     </row>
     <row r="721">
       <c r="AL721" s="26"/>
@@ -32955,6 +33857,7 @@
       <c r="BD721" s="26"/>
       <c r="BE721" s="26"/>
       <c r="BF721" s="26"/>
+      <c r="BG721" s="26"/>
     </row>
     <row r="722">
       <c r="AL722" s="26"/>
@@ -32978,6 +33881,7 @@
       <c r="BD722" s="26"/>
       <c r="BE722" s="26"/>
       <c r="BF722" s="26"/>
+      <c r="BG722" s="26"/>
     </row>
     <row r="723">
       <c r="AL723" s="26"/>
@@ -33001,6 +33905,7 @@
       <c r="BD723" s="26"/>
       <c r="BE723" s="26"/>
       <c r="BF723" s="26"/>
+      <c r="BG723" s="26"/>
     </row>
     <row r="724">
       <c r="AL724" s="26"/>
@@ -33024,6 +33929,7 @@
       <c r="BD724" s="26"/>
       <c r="BE724" s="26"/>
       <c r="BF724" s="26"/>
+      <c r="BG724" s="26"/>
     </row>
     <row r="725">
       <c r="AL725" s="26"/>
@@ -33047,6 +33953,7 @@
       <c r="BD725" s="26"/>
       <c r="BE725" s="26"/>
       <c r="BF725" s="26"/>
+      <c r="BG725" s="26"/>
     </row>
     <row r="726">
       <c r="AL726" s="26"/>
@@ -33070,6 +33977,7 @@
       <c r="BD726" s="26"/>
       <c r="BE726" s="26"/>
       <c r="BF726" s="26"/>
+      <c r="BG726" s="26"/>
     </row>
     <row r="727">
       <c r="AL727" s="26"/>
@@ -33093,6 +34001,7 @@
       <c r="BD727" s="26"/>
       <c r="BE727" s="26"/>
       <c r="BF727" s="26"/>
+      <c r="BG727" s="26"/>
     </row>
     <row r="728">
       <c r="AL728" s="26"/>
@@ -33116,6 +34025,7 @@
       <c r="BD728" s="26"/>
       <c r="BE728" s="26"/>
       <c r="BF728" s="26"/>
+      <c r="BG728" s="26"/>
     </row>
     <row r="729">
       <c r="AL729" s="26"/>
@@ -33139,6 +34049,7 @@
       <c r="BD729" s="26"/>
       <c r="BE729" s="26"/>
       <c r="BF729" s="26"/>
+      <c r="BG729" s="26"/>
     </row>
     <row r="730">
       <c r="AL730" s="26"/>
@@ -33162,6 +34073,7 @@
       <c r="BD730" s="26"/>
       <c r="BE730" s="26"/>
       <c r="BF730" s="26"/>
+      <c r="BG730" s="26"/>
     </row>
     <row r="731">
       <c r="AL731" s="26"/>
@@ -33185,6 +34097,7 @@
       <c r="BD731" s="26"/>
       <c r="BE731" s="26"/>
       <c r="BF731" s="26"/>
+      <c r="BG731" s="26"/>
     </row>
     <row r="732">
       <c r="AL732" s="26"/>
@@ -33208,6 +34121,7 @@
       <c r="BD732" s="26"/>
       <c r="BE732" s="26"/>
       <c r="BF732" s="26"/>
+      <c r="BG732" s="26"/>
     </row>
     <row r="733">
       <c r="AL733" s="26"/>
@@ -33231,6 +34145,7 @@
       <c r="BD733" s="26"/>
       <c r="BE733" s="26"/>
       <c r="BF733" s="26"/>
+      <c r="BG733" s="26"/>
     </row>
     <row r="734">
       <c r="AL734" s="26"/>
@@ -33254,6 +34169,7 @@
       <c r="BD734" s="26"/>
       <c r="BE734" s="26"/>
       <c r="BF734" s="26"/>
+      <c r="BG734" s="26"/>
     </row>
     <row r="735">
       <c r="AL735" s="26"/>
@@ -33277,6 +34193,7 @@
       <c r="BD735" s="26"/>
       <c r="BE735" s="26"/>
       <c r="BF735" s="26"/>
+      <c r="BG735" s="26"/>
     </row>
     <row r="736">
       <c r="AL736" s="26"/>
@@ -33300,6 +34217,7 @@
       <c r="BD736" s="26"/>
       <c r="BE736" s="26"/>
       <c r="BF736" s="26"/>
+      <c r="BG736" s="26"/>
     </row>
     <row r="737">
       <c r="AL737" s="26"/>
@@ -33323,6 +34241,7 @@
       <c r="BD737" s="26"/>
       <c r="BE737" s="26"/>
       <c r="BF737" s="26"/>
+      <c r="BG737" s="26"/>
     </row>
     <row r="738">
       <c r="AL738" s="26"/>
@@ -33346,6 +34265,7 @@
       <c r="BD738" s="26"/>
       <c r="BE738" s="26"/>
       <c r="BF738" s="26"/>
+      <c r="BG738" s="26"/>
     </row>
     <row r="739">
       <c r="AL739" s="26"/>
@@ -33369,6 +34289,7 @@
       <c r="BD739" s="26"/>
       <c r="BE739" s="26"/>
       <c r="BF739" s="26"/>
+      <c r="BG739" s="26"/>
     </row>
     <row r="740">
       <c r="AL740" s="26"/>
@@ -33392,6 +34313,7 @@
       <c r="BD740" s="26"/>
       <c r="BE740" s="26"/>
       <c r="BF740" s="26"/>
+      <c r="BG740" s="26"/>
     </row>
     <row r="741">
       <c r="AL741" s="26"/>
@@ -33415,6 +34337,7 @@
       <c r="BD741" s="26"/>
       <c r="BE741" s="26"/>
       <c r="BF741" s="26"/>
+      <c r="BG741" s="26"/>
     </row>
     <row r="742">
       <c r="AL742" s="26"/>
@@ -33438,6 +34361,7 @@
       <c r="BD742" s="26"/>
       <c r="BE742" s="26"/>
       <c r="BF742" s="26"/>
+      <c r="BG742" s="26"/>
     </row>
     <row r="743">
       <c r="AL743" s="26"/>
@@ -33461,6 +34385,7 @@
       <c r="BD743" s="26"/>
       <c r="BE743" s="26"/>
       <c r="BF743" s="26"/>
+      <c r="BG743" s="26"/>
     </row>
     <row r="744">
       <c r="AL744" s="26"/>
@@ -33484,6 +34409,7 @@
       <c r="BD744" s="26"/>
       <c r="BE744" s="26"/>
       <c r="BF744" s="26"/>
+      <c r="BG744" s="26"/>
     </row>
     <row r="745">
       <c r="AL745" s="26"/>
@@ -33507,6 +34433,7 @@
       <c r="BD745" s="26"/>
       <c r="BE745" s="26"/>
       <c r="BF745" s="26"/>
+      <c r="BG745" s="26"/>
     </row>
     <row r="746">
       <c r="AL746" s="26"/>
@@ -33530,6 +34457,7 @@
       <c r="BD746" s="26"/>
       <c r="BE746" s="26"/>
       <c r="BF746" s="26"/>
+      <c r="BG746" s="26"/>
     </row>
     <row r="747">
       <c r="AL747" s="26"/>
@@ -33553,6 +34481,7 @@
       <c r="BD747" s="26"/>
       <c r="BE747" s="26"/>
       <c r="BF747" s="26"/>
+      <c r="BG747" s="26"/>
     </row>
     <row r="748">
       <c r="AL748" s="26"/>
@@ -33576,6 +34505,7 @@
       <c r="BD748" s="26"/>
       <c r="BE748" s="26"/>
       <c r="BF748" s="26"/>
+      <c r="BG748" s="26"/>
     </row>
     <row r="749">
       <c r="AL749" s="26"/>
@@ -33599,6 +34529,7 @@
       <c r="BD749" s="26"/>
       <c r="BE749" s="26"/>
       <c r="BF749" s="26"/>
+      <c r="BG749" s="26"/>
     </row>
     <row r="750">
       <c r="AL750" s="26"/>
@@ -33622,6 +34553,7 @@
       <c r="BD750" s="26"/>
       <c r="BE750" s="26"/>
       <c r="BF750" s="26"/>
+      <c r="BG750" s="26"/>
     </row>
     <row r="751">
       <c r="AL751" s="26"/>
@@ -33645,6 +34577,7 @@
       <c r="BD751" s="26"/>
       <c r="BE751" s="26"/>
       <c r="BF751" s="26"/>
+      <c r="BG751" s="26"/>
     </row>
     <row r="752">
       <c r="AL752" s="26"/>
@@ -33668,6 +34601,7 @@
       <c r="BD752" s="26"/>
       <c r="BE752" s="26"/>
       <c r="BF752" s="26"/>
+      <c r="BG752" s="26"/>
     </row>
     <row r="753">
       <c r="AL753" s="26"/>
@@ -33691,6 +34625,7 @@
       <c r="BD753" s="26"/>
       <c r="BE753" s="26"/>
       <c r="BF753" s="26"/>
+      <c r="BG753" s="26"/>
     </row>
     <row r="754">
       <c r="AL754" s="26"/>
@@ -33714,6 +34649,7 @@
       <c r="BD754" s="26"/>
       <c r="BE754" s="26"/>
       <c r="BF754" s="26"/>
+      <c r="BG754" s="26"/>
     </row>
     <row r="755">
       <c r="AL755" s="26"/>
@@ -33737,6 +34673,7 @@
       <c r="BD755" s="26"/>
       <c r="BE755" s="26"/>
       <c r="BF755" s="26"/>
+      <c r="BG755" s="26"/>
     </row>
     <row r="756">
       <c r="AL756" s="26"/>
@@ -33760,6 +34697,7 @@
       <c r="BD756" s="26"/>
       <c r="BE756" s="26"/>
       <c r="BF756" s="26"/>
+      <c r="BG756" s="26"/>
     </row>
     <row r="757">
       <c r="AL757" s="26"/>
@@ -33783,6 +34721,7 @@
       <c r="BD757" s="26"/>
       <c r="BE757" s="26"/>
       <c r="BF757" s="26"/>
+      <c r="BG757" s="26"/>
     </row>
     <row r="758">
       <c r="AL758" s="26"/>
@@ -33806,6 +34745,7 @@
       <c r="BD758" s="26"/>
       <c r="BE758" s="26"/>
       <c r="BF758" s="26"/>
+      <c r="BG758" s="26"/>
     </row>
     <row r="759">
       <c r="AL759" s="26"/>
@@ -33829,6 +34769,7 @@
       <c r="BD759" s="26"/>
       <c r="BE759" s="26"/>
       <c r="BF759" s="26"/>
+      <c r="BG759" s="26"/>
     </row>
     <row r="760">
       <c r="AL760" s="26"/>
@@ -33852,6 +34793,7 @@
       <c r="BD760" s="26"/>
       <c r="BE760" s="26"/>
       <c r="BF760" s="26"/>
+      <c r="BG760" s="26"/>
     </row>
     <row r="761">
       <c r="AL761" s="26"/>
@@ -33875,6 +34817,7 @@
       <c r="BD761" s="26"/>
       <c r="BE761" s="26"/>
       <c r="BF761" s="26"/>
+      <c r="BG761" s="26"/>
     </row>
     <row r="762">
       <c r="AL762" s="26"/>
@@ -33898,6 +34841,7 @@
       <c r="BD762" s="26"/>
       <c r="BE762" s="26"/>
       <c r="BF762" s="26"/>
+      <c r="BG762" s="26"/>
     </row>
     <row r="763">
       <c r="AL763" s="26"/>
@@ -33921,6 +34865,7 @@
       <c r="BD763" s="26"/>
       <c r="BE763" s="26"/>
       <c r="BF763" s="26"/>
+      <c r="BG763" s="26"/>
     </row>
     <row r="764">
       <c r="AL764" s="26"/>
@@ -33944,6 +34889,7 @@
       <c r="BD764" s="26"/>
       <c r="BE764" s="26"/>
       <c r="BF764" s="26"/>
+      <c r="BG764" s="26"/>
     </row>
     <row r="765">
       <c r="AL765" s="26"/>
@@ -33967,6 +34913,7 @@
       <c r="BD765" s="26"/>
       <c r="BE765" s="26"/>
       <c r="BF765" s="26"/>
+      <c r="BG765" s="26"/>
     </row>
     <row r="766">
       <c r="AL766" s="26"/>
@@ -33990,6 +34937,7 @@
       <c r="BD766" s="26"/>
       <c r="BE766" s="26"/>
       <c r="BF766" s="26"/>
+      <c r="BG766" s="26"/>
     </row>
     <row r="767">
       <c r="AL767" s="26"/>
@@ -34013,6 +34961,7 @@
       <c r="BD767" s="26"/>
       <c r="BE767" s="26"/>
       <c r="BF767" s="26"/>
+      <c r="BG767" s="26"/>
     </row>
     <row r="768">
       <c r="AL768" s="26"/>
@@ -34036,6 +34985,7 @@
       <c r="BD768" s="26"/>
       <c r="BE768" s="26"/>
       <c r="BF768" s="26"/>
+      <c r="BG768" s="26"/>
     </row>
     <row r="769">
       <c r="AL769" s="26"/>
@@ -34059,6 +35009,7 @@
       <c r="BD769" s="26"/>
       <c r="BE769" s="26"/>
       <c r="BF769" s="26"/>
+      <c r="BG769" s="26"/>
     </row>
     <row r="770">
       <c r="AL770" s="26"/>
@@ -34082,6 +35033,7 @@
       <c r="BD770" s="26"/>
       <c r="BE770" s="26"/>
       <c r="BF770" s="26"/>
+      <c r="BG770" s="26"/>
     </row>
     <row r="771">
       <c r="AL771" s="26"/>
@@ -34105,6 +35057,7 @@
       <c r="BD771" s="26"/>
       <c r="BE771" s="26"/>
       <c r="BF771" s="26"/>
+      <c r="BG771" s="26"/>
     </row>
     <row r="772">
       <c r="AL772" s="26"/>
@@ -34128,6 +35081,7 @@
       <c r="BD772" s="26"/>
       <c r="BE772" s="26"/>
       <c r="BF772" s="26"/>
+      <c r="BG772" s="26"/>
     </row>
     <row r="773">
       <c r="AL773" s="26"/>
@@ -34151,6 +35105,7 @@
       <c r="BD773" s="26"/>
       <c r="BE773" s="26"/>
       <c r="BF773" s="26"/>
+      <c r="BG773" s="26"/>
     </row>
     <row r="774">
       <c r="AL774" s="26"/>
@@ -34174,6 +35129,7 @@
       <c r="BD774" s="26"/>
       <c r="BE774" s="26"/>
       <c r="BF774" s="26"/>
+      <c r="BG774" s="26"/>
     </row>
     <row r="775">
       <c r="AL775" s="26"/>
@@ -34197,6 +35153,7 @@
       <c r="BD775" s="26"/>
       <c r="BE775" s="26"/>
       <c r="BF775" s="26"/>
+      <c r="BG775" s="26"/>
     </row>
     <row r="776">
       <c r="AL776" s="26"/>
@@ -34220,6 +35177,7 @@
       <c r="BD776" s="26"/>
       <c r="BE776" s="26"/>
       <c r="BF776" s="26"/>
+      <c r="BG776" s="26"/>
     </row>
     <row r="777">
       <c r="AL777" s="26"/>
@@ -34243,6 +35201,7 @@
       <c r="BD777" s="26"/>
       <c r="BE777" s="26"/>
       <c r="BF777" s="26"/>
+      <c r="BG777" s="26"/>
     </row>
     <row r="778">
       <c r="AL778" s="26"/>
@@ -34266,6 +35225,7 @@
       <c r="BD778" s="26"/>
       <c r="BE778" s="26"/>
       <c r="BF778" s="26"/>
+      <c r="BG778" s="26"/>
     </row>
     <row r="779">
       <c r="AL779" s="26"/>
@@ -34289,6 +35249,7 @@
       <c r="BD779" s="26"/>
       <c r="BE779" s="26"/>
       <c r="BF779" s="26"/>
+      <c r="BG779" s="26"/>
     </row>
     <row r="780">
       <c r="AL780" s="26"/>
@@ -34312,6 +35273,7 @@
       <c r="BD780" s="26"/>
       <c r="BE780" s="26"/>
       <c r="BF780" s="26"/>
+      <c r="BG780" s="26"/>
     </row>
     <row r="781">
       <c r="AL781" s="26"/>
@@ -34335,6 +35297,7 @@
       <c r="BD781" s="26"/>
       <c r="BE781" s="26"/>
       <c r="BF781" s="26"/>
+      <c r="BG781" s="26"/>
     </row>
     <row r="782">
       <c r="AL782" s="26"/>
@@ -34358,6 +35321,7 @@
       <c r="BD782" s="26"/>
       <c r="BE782" s="26"/>
       <c r="BF782" s="26"/>
+      <c r="BG782" s="26"/>
     </row>
     <row r="783">
       <c r="AL783" s="26"/>
@@ -34381,6 +35345,7 @@
       <c r="BD783" s="26"/>
       <c r="BE783" s="26"/>
       <c r="BF783" s="26"/>
+      <c r="BG783" s="26"/>
     </row>
     <row r="784">
       <c r="AL784" s="26"/>
@@ -34404,6 +35369,7 @@
       <c r="BD784" s="26"/>
       <c r="BE784" s="26"/>
       <c r="BF784" s="26"/>
+      <c r="BG784" s="26"/>
     </row>
     <row r="785">
       <c r="AL785" s="26"/>
@@ -34427,6 +35393,7 @@
       <c r="BD785" s="26"/>
       <c r="BE785" s="26"/>
       <c r="BF785" s="26"/>
+      <c r="BG785" s="26"/>
     </row>
     <row r="786">
       <c r="AL786" s="26"/>
@@ -34450,6 +35417,7 @@
       <c r="BD786" s="26"/>
       <c r="BE786" s="26"/>
       <c r="BF786" s="26"/>
+      <c r="BG786" s="26"/>
     </row>
     <row r="787">
       <c r="AL787" s="26"/>
@@ -34473,6 +35441,7 @@
       <c r="BD787" s="26"/>
       <c r="BE787" s="26"/>
       <c r="BF787" s="26"/>
+      <c r="BG787" s="26"/>
     </row>
     <row r="788">
       <c r="AL788" s="26"/>
@@ -34496,6 +35465,7 @@
       <c r="BD788" s="26"/>
       <c r="BE788" s="26"/>
       <c r="BF788" s="26"/>
+      <c r="BG788" s="26"/>
     </row>
     <row r="789">
       <c r="AL789" s="26"/>
@@ -34519,6 +35489,7 @@
       <c r="BD789" s="26"/>
       <c r="BE789" s="26"/>
       <c r="BF789" s="26"/>
+      <c r="BG789" s="26"/>
     </row>
     <row r="790">
       <c r="AL790" s="26"/>
@@ -34542,6 +35513,7 @@
       <c r="BD790" s="26"/>
       <c r="BE790" s="26"/>
       <c r="BF790" s="26"/>
+      <c r="BG790" s="26"/>
     </row>
     <row r="791">
       <c r="AL791" s="26"/>
@@ -34565,6 +35537,7 @@
       <c r="BD791" s="26"/>
       <c r="BE791" s="26"/>
       <c r="BF791" s="26"/>
+      <c r="BG791" s="26"/>
     </row>
     <row r="792">
       <c r="AL792" s="26"/>
@@ -34588,6 +35561,7 @@
       <c r="BD792" s="26"/>
       <c r="BE792" s="26"/>
       <c r="BF792" s="26"/>
+      <c r="BG792" s="26"/>
     </row>
     <row r="793">
       <c r="AL793" s="26"/>
@@ -34611,6 +35585,7 @@
       <c r="BD793" s="26"/>
       <c r="BE793" s="26"/>
       <c r="BF793" s="26"/>
+      <c r="BG793" s="26"/>
     </row>
     <row r="794">
       <c r="AL794" s="26"/>
@@ -34634,6 +35609,7 @@
       <c r="BD794" s="26"/>
       <c r="BE794" s="26"/>
       <c r="BF794" s="26"/>
+      <c r="BG794" s="26"/>
     </row>
     <row r="795">
       <c r="AL795" s="26"/>
@@ -34657,6 +35633,7 @@
       <c r="BD795" s="26"/>
       <c r="BE795" s="26"/>
       <c r="BF795" s="26"/>
+      <c r="BG795" s="26"/>
     </row>
     <row r="796">
       <c r="AL796" s="26"/>
@@ -34680,6 +35657,7 @@
       <c r="BD796" s="26"/>
       <c r="BE796" s="26"/>
       <c r="BF796" s="26"/>
+      <c r="BG796" s="26"/>
     </row>
     <row r="797">
       <c r="AL797" s="26"/>
@@ -34703,6 +35681,7 @@
       <c r="BD797" s="26"/>
       <c r="BE797" s="26"/>
       <c r="BF797" s="26"/>
+      <c r="BG797" s="26"/>
     </row>
     <row r="798">
       <c r="AL798" s="26"/>
@@ -34726,6 +35705,7 @@
       <c r="BD798" s="26"/>
       <c r="BE798" s="26"/>
       <c r="BF798" s="26"/>
+      <c r="BG798" s="26"/>
     </row>
     <row r="799">
       <c r="AL799" s="26"/>
@@ -34749,6 +35729,7 @@
       <c r="BD799" s="26"/>
       <c r="BE799" s="26"/>
       <c r="BF799" s="26"/>
+      <c r="BG799" s="26"/>
     </row>
     <row r="800">
       <c r="AL800" s="26"/>
@@ -34772,6 +35753,7 @@
       <c r="BD800" s="26"/>
       <c r="BE800" s="26"/>
       <c r="BF800" s="26"/>
+      <c r="BG800" s="26"/>
     </row>
     <row r="801">
       <c r="AL801" s="26"/>
@@ -34795,6 +35777,7 @@
       <c r="BD801" s="26"/>
       <c r="BE801" s="26"/>
       <c r="BF801" s="26"/>
+      <c r="BG801" s="26"/>
     </row>
     <row r="802">
       <c r="AL802" s="26"/>
@@ -34818,6 +35801,7 @@
       <c r="BD802" s="26"/>
       <c r="BE802" s="26"/>
       <c r="BF802" s="26"/>
+      <c r="BG802" s="26"/>
     </row>
     <row r="803">
       <c r="AL803" s="26"/>
@@ -34841,6 +35825,7 @@
       <c r="BD803" s="26"/>
       <c r="BE803" s="26"/>
       <c r="BF803" s="26"/>
+      <c r="BG803" s="26"/>
     </row>
     <row r="804">
       <c r="AL804" s="26"/>
@@ -34864,6 +35849,7 @@
       <c r="BD804" s="26"/>
       <c r="BE804" s="26"/>
       <c r="BF804" s="26"/>
+      <c r="BG804" s="26"/>
     </row>
     <row r="805">
       <c r="AL805" s="26"/>
@@ -34887,6 +35873,7 @@
       <c r="BD805" s="26"/>
       <c r="BE805" s="26"/>
       <c r="BF805" s="26"/>
+      <c r="BG805" s="26"/>
     </row>
     <row r="806">
       <c r="AL806" s="26"/>
@@ -34910,6 +35897,7 @@
       <c r="BD806" s="26"/>
       <c r="BE806" s="26"/>
       <c r="BF806" s="26"/>
+      <c r="BG806" s="26"/>
     </row>
     <row r="807">
       <c r="AL807" s="26"/>
@@ -34933,6 +35921,7 @@
       <c r="BD807" s="26"/>
       <c r="BE807" s="26"/>
       <c r="BF807" s="26"/>
+      <c r="BG807" s="26"/>
     </row>
     <row r="808">
       <c r="AL808" s="26"/>
@@ -34956,6 +35945,7 @@
       <c r="BD808" s="26"/>
       <c r="BE808" s="26"/>
       <c r="BF808" s="26"/>
+      <c r="BG808" s="26"/>
     </row>
     <row r="809">
       <c r="AL809" s="26"/>
@@ -34979,6 +35969,7 @@
       <c r="BD809" s="26"/>
       <c r="BE809" s="26"/>
       <c r="BF809" s="26"/>
+      <c r="BG809" s="26"/>
     </row>
     <row r="810">
       <c r="AL810" s="26"/>
@@ -35002,6 +35993,7 @@
       <c r="BD810" s="26"/>
       <c r="BE810" s="26"/>
       <c r="BF810" s="26"/>
+      <c r="BG810" s="26"/>
     </row>
     <row r="811">
       <c r="AL811" s="26"/>
@@ -35025,6 +36017,7 @@
       <c r="BD811" s="26"/>
       <c r="BE811" s="26"/>
       <c r="BF811" s="26"/>
+      <c r="BG811" s="26"/>
     </row>
     <row r="812">
       <c r="AL812" s="26"/>
@@ -35048,6 +36041,7 @@
       <c r="BD812" s="26"/>
       <c r="BE812" s="26"/>
       <c r="BF812" s="26"/>
+      <c r="BG812" s="26"/>
     </row>
     <row r="813">
       <c r="AL813" s="26"/>
@@ -35071,6 +36065,7 @@
       <c r="BD813" s="26"/>
       <c r="BE813" s="26"/>
       <c r="BF813" s="26"/>
+      <c r="BG813" s="26"/>
     </row>
     <row r="814">
       <c r="AL814" s="26"/>
@@ -35094,6 +36089,7 @@
       <c r="BD814" s="26"/>
       <c r="BE814" s="26"/>
       <c r="BF814" s="26"/>
+      <c r="BG814" s="26"/>
     </row>
     <row r="815">
       <c r="AL815" s="26"/>
@@ -35117,6 +36113,7 @@
       <c r="BD815" s="26"/>
       <c r="BE815" s="26"/>
       <c r="BF815" s="26"/>
+      <c r="BG815" s="26"/>
     </row>
     <row r="816">
       <c r="AL816" s="26"/>
@@ -35140,6 +36137,7 @@
       <c r="BD816" s="26"/>
       <c r="BE816" s="26"/>
       <c r="BF816" s="26"/>
+      <c r="BG816" s="26"/>
     </row>
     <row r="817">
       <c r="AL817" s="26"/>
@@ -35163,6 +36161,7 @@
       <c r="BD817" s="26"/>
       <c r="BE817" s="26"/>
       <c r="BF817" s="26"/>
+      <c r="BG817" s="26"/>
     </row>
     <row r="818">
       <c r="AL818" s="26"/>
@@ -35186,6 +36185,7 @@
       <c r="BD818" s="26"/>
       <c r="BE818" s="26"/>
       <c r="BF818" s="26"/>
+      <c r="BG818" s="26"/>
     </row>
     <row r="819">
       <c r="AL819" s="26"/>
@@ -35209,6 +36209,7 @@
       <c r="BD819" s="26"/>
       <c r="BE819" s="26"/>
       <c r="BF819" s="26"/>
+      <c r="BG819" s="26"/>
     </row>
     <row r="820">
       <c r="AL820" s="26"/>
@@ -35232,6 +36233,7 @@
       <c r="BD820" s="26"/>
       <c r="BE820" s="26"/>
       <c r="BF820" s="26"/>
+      <c r="BG820" s="26"/>
     </row>
     <row r="821">
       <c r="AL821" s="26"/>
@@ -35255,6 +36257,7 @@
       <c r="BD821" s="26"/>
       <c r="BE821" s="26"/>
       <c r="BF821" s="26"/>
+      <c r="BG821" s="26"/>
     </row>
     <row r="822">
       <c r="AL822" s="26"/>
@@ -35278,6 +36281,7 @@
       <c r="BD822" s="26"/>
       <c r="BE822" s="26"/>
       <c r="BF822" s="26"/>
+      <c r="BG822" s="26"/>
     </row>
     <row r="823">
       <c r="AL823" s="26"/>
@@ -35301,6 +36305,7 @@
       <c r="BD823" s="26"/>
       <c r="BE823" s="26"/>
       <c r="BF823" s="26"/>
+      <c r="BG823" s="26"/>
     </row>
     <row r="824">
       <c r="AL824" s="26"/>
@@ -35324,6 +36329,7 @@
       <c r="BD824" s="26"/>
       <c r="BE824" s="26"/>
       <c r="BF824" s="26"/>
+      <c r="BG824" s="26"/>
     </row>
     <row r="825">
       <c r="AL825" s="26"/>
@@ -35347,6 +36353,7 @@
       <c r="BD825" s="26"/>
       <c r="BE825" s="26"/>
       <c r="BF825" s="26"/>
+      <c r="BG825" s="26"/>
     </row>
     <row r="826">
       <c r="AL826" s="26"/>
@@ -35370,6 +36377,7 @@
       <c r="BD826" s="26"/>
       <c r="BE826" s="26"/>
       <c r="BF826" s="26"/>
+      <c r="BG826" s="26"/>
     </row>
     <row r="827">
       <c r="AL827" s="26"/>
@@ -35393,6 +36401,7 @@
       <c r="BD827" s="26"/>
       <c r="BE827" s="26"/>
       <c r="BF827" s="26"/>
+      <c r="BG827" s="26"/>
     </row>
     <row r="828">
       <c r="AL828" s="26"/>
@@ -35416,6 +36425,7 @@
       <c r="BD828" s="26"/>
       <c r="BE828" s="26"/>
       <c r="BF828" s="26"/>
+      <c r="BG828" s="26"/>
     </row>
     <row r="829">
       <c r="AL829" s="26"/>
@@ -35439,6 +36449,7 @@
       <c r="BD829" s="26"/>
       <c r="BE829" s="26"/>
       <c r="BF829" s="26"/>
+      <c r="BG829" s="26"/>
     </row>
     <row r="830">
       <c r="AL830" s="26"/>
@@ -35462,6 +36473,7 @@
       <c r="BD830" s="26"/>
       <c r="BE830" s="26"/>
       <c r="BF830" s="26"/>
+      <c r="BG830" s="26"/>
     </row>
     <row r="831">
       <c r="AL831" s="26"/>
@@ -35485,6 +36497,7 @@
       <c r="BD831" s="26"/>
       <c r="BE831" s="26"/>
       <c r="BF831" s="26"/>
+      <c r="BG831" s="26"/>
     </row>
     <row r="832">
       <c r="AL832" s="26"/>
@@ -35508,6 +36521,7 @@
       <c r="BD832" s="26"/>
       <c r="BE832" s="26"/>
       <c r="BF832" s="26"/>
+      <c r="BG832" s="26"/>
     </row>
     <row r="833">
       <c r="AL833" s="26"/>
@@ -35531,6 +36545,7 @@
       <c r="BD833" s="26"/>
       <c r="BE833" s="26"/>
       <c r="BF833" s="26"/>
+      <c r="BG833" s="26"/>
     </row>
     <row r="834">
       <c r="AL834" s="26"/>
@@ -35554,6 +36569,7 @@
       <c r="BD834" s="26"/>
       <c r="BE834" s="26"/>
       <c r="BF834" s="26"/>
+      <c r="BG834" s="26"/>
     </row>
     <row r="835">
       <c r="AL835" s="26"/>
@@ -35577,6 +36593,7 @@
       <c r="BD835" s="26"/>
       <c r="BE835" s="26"/>
       <c r="BF835" s="26"/>
+      <c r="BG835" s="26"/>
     </row>
     <row r="836">
       <c r="AL836" s="26"/>
@@ -35600,6 +36617,7 @@
       <c r="BD836" s="26"/>
       <c r="BE836" s="26"/>
       <c r="BF836" s="26"/>
+      <c r="BG836" s="26"/>
     </row>
     <row r="837">
       <c r="AL837" s="26"/>
@@ -35623,6 +36641,7 @@
       <c r="BD837" s="26"/>
       <c r="BE837" s="26"/>
       <c r="BF837" s="26"/>
+      <c r="BG837" s="26"/>
     </row>
     <row r="838">
       <c r="AL838" s="26"/>
@@ -35646,6 +36665,7 @@
       <c r="BD838" s="26"/>
       <c r="BE838" s="26"/>
       <c r="BF838" s="26"/>
+      <c r="BG838" s="26"/>
     </row>
     <row r="839">
       <c r="AL839" s="26"/>
@@ -35669,6 +36689,7 @@
       <c r="BD839" s="26"/>
       <c r="BE839" s="26"/>
       <c r="BF839" s="26"/>
+      <c r="BG839" s="26"/>
     </row>
     <row r="840">
       <c r="AL840" s="26"/>
@@ -35692,6 +36713,7 @@
       <c r="BD840" s="26"/>
       <c r="BE840" s="26"/>
       <c r="BF840" s="26"/>
+      <c r="BG840" s="26"/>
     </row>
     <row r="841">
       <c r="AL841" s="26"/>
@@ -35715,6 +36737,7 @@
       <c r="BD841" s="26"/>
       <c r="BE841" s="26"/>
       <c r="BF841" s="26"/>
+      <c r="BG841" s="26"/>
     </row>
     <row r="842">
       <c r="AL842" s="26"/>
@@ -35738,6 +36761,7 @@
       <c r="BD842" s="26"/>
       <c r="BE842" s="26"/>
       <c r="BF842" s="26"/>
+      <c r="BG842" s="26"/>
     </row>
     <row r="843">
       <c r="AL843" s="26"/>
@@ -35761,6 +36785,7 @@
       <c r="BD843" s="26"/>
       <c r="BE843" s="26"/>
       <c r="BF843" s="26"/>
+      <c r="BG843" s="26"/>
     </row>
     <row r="844">
       <c r="AL844" s="26"/>
@@ -35784,6 +36809,7 @@
       <c r="BD844" s="26"/>
       <c r="BE844" s="26"/>
       <c r="BF844" s="26"/>
+      <c r="BG844" s="26"/>
     </row>
     <row r="845">
       <c r="AL845" s="26"/>
@@ -35807,6 +36833,7 @@
       <c r="BD845" s="26"/>
       <c r="BE845" s="26"/>
       <c r="BF845" s="26"/>
+      <c r="BG845" s="26"/>
     </row>
     <row r="846">
       <c r="AL846" s="26"/>
@@ -35830,6 +36857,7 @@
       <c r="BD846" s="26"/>
       <c r="BE846" s="26"/>
       <c r="BF846" s="26"/>
+      <c r="BG846" s="26"/>
     </row>
     <row r="847">
       <c r="AL847" s="26"/>
@@ -35853,6 +36881,7 @@
       <c r="BD847" s="26"/>
       <c r="BE847" s="26"/>
       <c r="BF847" s="26"/>
+      <c r="BG847" s="26"/>
     </row>
     <row r="848">
       <c r="AL848" s="26"/>
@@ -35876,6 +36905,7 @@
       <c r="BD848" s="26"/>
       <c r="BE848" s="26"/>
       <c r="BF848" s="26"/>
+      <c r="BG848" s="26"/>
     </row>
     <row r="849">
       <c r="AL849" s="26"/>
@@ -35899,6 +36929,7 @@
       <c r="BD849" s="26"/>
       <c r="BE849" s="26"/>
       <c r="BF849" s="26"/>
+      <c r="BG849" s="26"/>
     </row>
     <row r="850">
       <c r="AL850" s="26"/>
@@ -35922,6 +36953,7 @@
       <c r="BD850" s="26"/>
       <c r="BE850" s="26"/>
       <c r="BF850" s="26"/>
+      <c r="BG850" s="26"/>
     </row>
     <row r="851">
       <c r="AL851" s="26"/>
@@ -35945,6 +36977,7 @@
       <c r="BD851" s="26"/>
       <c r="BE851" s="26"/>
       <c r="BF851" s="26"/>
+      <c r="BG851" s="26"/>
     </row>
     <row r="852">
       <c r="AL852" s="26"/>
@@ -35968,6 +37001,7 @@
       <c r="BD852" s="26"/>
       <c r="BE852" s="26"/>
       <c r="BF852" s="26"/>
+      <c r="BG852" s="26"/>
     </row>
     <row r="853">
       <c r="AL853" s="26"/>
@@ -35991,6 +37025,7 @@
       <c r="BD853" s="26"/>
       <c r="BE853" s="26"/>
       <c r="BF853" s="26"/>
+      <c r="BG853" s="26"/>
     </row>
     <row r="854">
       <c r="AL854" s="26"/>
@@ -36014,6 +37049,7 @@
       <c r="BD854" s="26"/>
       <c r="BE854" s="26"/>
       <c r="BF854" s="26"/>
+      <c r="BG854" s="26"/>
     </row>
     <row r="855">
       <c r="AL855" s="26"/>
@@ -36037,6 +37073,7 @@
       <c r="BD855" s="26"/>
       <c r="BE855" s="26"/>
       <c r="BF855" s="26"/>
+      <c r="BG855" s="26"/>
     </row>
     <row r="856">
       <c r="AL856" s="26"/>
@@ -36060,6 +37097,7 @@
       <c r="BD856" s="26"/>
       <c r="BE856" s="26"/>
       <c r="BF856" s="26"/>
+      <c r="BG856" s="26"/>
     </row>
     <row r="857">
       <c r="AL857" s="26"/>
@@ -36083,6 +37121,7 @@
       <c r="BD857" s="26"/>
       <c r="BE857" s="26"/>
       <c r="BF857" s="26"/>
+      <c r="BG857" s="26"/>
     </row>
     <row r="858">
       <c r="AL858" s="26"/>
@@ -36106,6 +37145,7 @@
       <c r="BD858" s="26"/>
       <c r="BE858" s="26"/>
       <c r="BF858" s="26"/>
+      <c r="BG858" s="26"/>
     </row>
     <row r="859">
       <c r="AL859" s="26"/>
@@ -36129,6 +37169,7 @@
       <c r="BD859" s="26"/>
       <c r="BE859" s="26"/>
       <c r="BF859" s="26"/>
+      <c r="BG859" s="26"/>
     </row>
     <row r="860">
       <c r="AL860" s="26"/>
@@ -36152,6 +37193,7 @@
       <c r="BD860" s="26"/>
       <c r="BE860" s="26"/>
       <c r="BF860" s="26"/>
+      <c r="BG860" s="26"/>
     </row>
     <row r="861">
       <c r="AL861" s="26"/>
@@ -36175,6 +37217,7 @@
       <c r="BD861" s="26"/>
       <c r="BE861" s="26"/>
       <c r="BF861" s="26"/>
+      <c r="BG861" s="26"/>
     </row>
     <row r="862">
       <c r="AL862" s="26"/>
@@ -36198,6 +37241,7 @@
       <c r="BD862" s="26"/>
       <c r="BE862" s="26"/>
       <c r="BF862" s="26"/>
+      <c r="BG862" s="26"/>
     </row>
     <row r="863">
       <c r="AL863" s="26"/>
@@ -36221,6 +37265,7 @@
       <c r="BD863" s="26"/>
       <c r="BE863" s="26"/>
       <c r="BF863" s="26"/>
+      <c r="BG863" s="26"/>
     </row>
     <row r="864">
       <c r="AL864" s="26"/>
@@ -36244,6 +37289,7 @@
       <c r="BD864" s="26"/>
       <c r="BE864" s="26"/>
       <c r="BF864" s="26"/>
+      <c r="BG864" s="26"/>
     </row>
     <row r="865">
       <c r="AL865" s="26"/>
@@ -36267,6 +37313,7 @@
       <c r="BD865" s="26"/>
       <c r="BE865" s="26"/>
       <c r="BF865" s="26"/>
+      <c r="BG865" s="26"/>
     </row>
     <row r="866">
       <c r="AL866" s="26"/>
@@ -36290,6 +37337,7 @@
       <c r="BD866" s="26"/>
       <c r="BE866" s="26"/>
       <c r="BF866" s="26"/>
+      <c r="BG866" s="26"/>
     </row>
     <row r="867">
       <c r="AL867" s="26"/>
@@ -36313,6 +37361,7 @@
       <c r="BD867" s="26"/>
       <c r="BE867" s="26"/>
       <c r="BF867" s="26"/>
+      <c r="BG867" s="26"/>
     </row>
     <row r="868">
       <c r="AL868" s="26"/>
@@ -36336,6 +37385,7 @@
       <c r="BD868" s="26"/>
       <c r="BE868" s="26"/>
       <c r="BF868" s="26"/>
+      <c r="BG868" s="26"/>
     </row>
     <row r="869">
       <c r="AL869" s="26"/>
@@ -36359,6 +37409,7 @@
       <c r="BD869" s="26"/>
       <c r="BE869" s="26"/>
       <c r="BF869" s="26"/>
+      <c r="BG869" s="26"/>
     </row>
     <row r="870">
       <c r="AL870" s="26"/>
@@ -36382,6 +37433,7 @@
       <c r="BD870" s="26"/>
       <c r="BE870" s="26"/>
       <c r="BF870" s="26"/>
+      <c r="BG870" s="26"/>
     </row>
     <row r="871">
       <c r="AL871" s="26"/>
@@ -36405,6 +37457,7 @@
       <c r="BD871" s="26"/>
       <c r="BE871" s="26"/>
       <c r="BF871" s="26"/>
+      <c r="BG871" s="26"/>
     </row>
     <row r="872">
       <c r="AL872" s="26"/>
@@ -36428,6 +37481,7 @@
       <c r="BD872" s="26"/>
       <c r="BE872" s="26"/>
       <c r="BF872" s="26"/>
+      <c r="BG872" s="26"/>
     </row>
     <row r="873">
       <c r="AL873" s="26"/>
@@ -36451,6 +37505,7 @@
       <c r="BD873" s="26"/>
       <c r="BE873" s="26"/>
       <c r="BF873" s="26"/>
+      <c r="BG873" s="26"/>
     </row>
     <row r="874">
       <c r="AL874" s="26"/>
@@ -36474,6 +37529,7 @@
       <c r="BD874" s="26"/>
       <c r="BE874" s="26"/>
       <c r="BF874" s="26"/>
+      <c r="BG874" s="26"/>
     </row>
     <row r="875">
       <c r="AL875" s="26"/>
@@ -36497,6 +37553,7 @@
       <c r="BD875" s="26"/>
       <c r="BE875" s="26"/>
       <c r="BF875" s="26"/>
+      <c r="BG875" s="26"/>
     </row>
     <row r="876">
       <c r="AL876" s="26"/>
@@ -36520,6 +37577,7 @@
       <c r="BD876" s="26"/>
       <c r="BE876" s="26"/>
       <c r="BF876" s="26"/>
+      <c r="BG876" s="26"/>
     </row>
     <row r="877">
       <c r="AL877" s="26"/>
@@ -36543,6 +37601,7 @@
       <c r="BD877" s="26"/>
       <c r="BE877" s="26"/>
       <c r="BF877" s="26"/>
+      <c r="BG877" s="26"/>
     </row>
     <row r="878">
       <c r="AL878" s="26"/>
@@ -36566,6 +37625,7 @@
       <c r="BD878" s="26"/>
       <c r="BE878" s="26"/>
       <c r="BF878" s="26"/>
+      <c r="BG878" s="26"/>
     </row>
     <row r="879">
       <c r="AL879" s="26"/>
@@ -36589,6 +37649,7 @@
       <c r="BD879" s="26"/>
       <c r="BE879" s="26"/>
       <c r="BF879" s="26"/>
+      <c r="BG879" s="26"/>
     </row>
     <row r="880">
       <c r="AL880" s="26"/>
@@ -36612,6 +37673,7 @@
       <c r="BD880" s="26"/>
       <c r="BE880" s="26"/>
       <c r="BF880" s="26"/>
+      <c r="BG880" s="26"/>
     </row>
     <row r="881">
       <c r="AL881" s="26"/>
@@ -36635,6 +37697,7 @@
       <c r="BD881" s="26"/>
       <c r="BE881" s="26"/>
       <c r="BF881" s="26"/>
+      <c r="BG881" s="26"/>
     </row>
     <row r="882">
       <c r="AL882" s="26"/>
@@ -36658,6 +37721,7 @@
       <c r="BD882" s="26"/>
       <c r="BE882" s="26"/>
       <c r="BF882" s="26"/>
+      <c r="BG882" s="26"/>
     </row>
     <row r="883">
       <c r="AL883" s="26"/>
@@ -36681,6 +37745,7 @@
       <c r="BD883" s="26"/>
       <c r="BE883" s="26"/>
       <c r="BF883" s="26"/>
+      <c r="BG883" s="26"/>
     </row>
     <row r="884">
       <c r="AL884" s="26"/>
@@ -36704,6 +37769,7 @@
       <c r="BD884" s="26"/>
       <c r="BE884" s="26"/>
       <c r="BF884" s="26"/>
+      <c r="BG884" s="26"/>
     </row>
     <row r="885">
       <c r="AL885" s="26"/>
@@ -36727,6 +37793,7 @@
       <c r="BD885" s="26"/>
       <c r="BE885" s="26"/>
       <c r="BF885" s="26"/>
+      <c r="BG885" s="26"/>
     </row>
     <row r="886">
       <c r="AL886" s="26"/>
@@ -36750,6 +37817,7 @@
       <c r="BD886" s="26"/>
       <c r="BE886" s="26"/>
       <c r="BF886" s="26"/>
+      <c r="BG886" s="26"/>
     </row>
     <row r="887">
       <c r="AL887" s="26"/>
@@ -36773,6 +37841,7 @@
       <c r="BD887" s="26"/>
       <c r="BE887" s="26"/>
       <c r="BF887" s="26"/>
+      <c r="BG887" s="26"/>
     </row>
     <row r="888">
       <c r="AL888" s="26"/>
@@ -36796,6 +37865,7 @@
       <c r="BD888" s="26"/>
       <c r="BE888" s="26"/>
       <c r="BF888" s="26"/>
+      <c r="BG888" s="26"/>
     </row>
     <row r="889">
       <c r="AL889" s="26"/>
@@ -36819,6 +37889,7 @@
       <c r="BD889" s="26"/>
       <c r="BE889" s="26"/>
       <c r="BF889" s="26"/>
+      <c r="BG889" s="26"/>
     </row>
     <row r="890">
       <c r="AL890" s="26"/>
@@ -36842,6 +37913,7 @@
       <c r="BD890" s="26"/>
       <c r="BE890" s="26"/>
       <c r="BF890" s="26"/>
+      <c r="BG890" s="26"/>
     </row>
     <row r="891">
       <c r="AL891" s="26"/>
@@ -36865,6 +37937,7 @@
       <c r="BD891" s="26"/>
       <c r="BE891" s="26"/>
       <c r="BF891" s="26"/>
+      <c r="BG891" s="26"/>
     </row>
     <row r="892">
       <c r="AL892" s="26"/>
@@ -36888,6 +37961,7 @@
       <c r="BD892" s="26"/>
       <c r="BE892" s="26"/>
       <c r="BF892" s="26"/>
+      <c r="BG892" s="26"/>
     </row>
     <row r="893">
       <c r="AL893" s="26"/>
@@ -36911,6 +37985,7 @@
       <c r="BD893" s="26"/>
       <c r="BE893" s="26"/>
       <c r="BF893" s="26"/>
+      <c r="BG893" s="26"/>
     </row>
     <row r="894">
       <c r="AL894" s="26"/>
@@ -36934,6 +38009,7 @@
       <c r="BD894" s="26"/>
       <c r="BE894" s="26"/>
       <c r="BF894" s="26"/>
+      <c r="BG894" s="26"/>
     </row>
     <row r="895">
       <c r="AL895" s="26"/>
@@ -36957,6 +38033,7 @@
       <c r="BD895" s="26"/>
       <c r="BE895" s="26"/>
       <c r="BF895" s="26"/>
+      <c r="BG895" s="26"/>
     </row>
     <row r="896">
       <c r="AL896" s="26"/>
@@ -36980,6 +38057,7 @@
       <c r="BD896" s="26"/>
       <c r="BE896" s="26"/>
       <c r="BF896" s="26"/>
+      <c r="BG896" s="26"/>
     </row>
     <row r="897">
       <c r="AL897" s="26"/>
@@ -37003,6 +38081,7 @@
       <c r="BD897" s="26"/>
       <c r="BE897" s="26"/>
       <c r="BF897" s="26"/>
+      <c r="BG897" s="26"/>
     </row>
     <row r="898">
       <c r="AL898" s="26"/>
@@ -37026,6 +38105,7 @@
       <c r="BD898" s="26"/>
       <c r="BE898" s="26"/>
       <c r="BF898" s="26"/>
+      <c r="BG898" s="26"/>
     </row>
     <row r="899">
       <c r="AL899" s="26"/>
@@ -37049,6 +38129,7 @@
       <c r="BD899" s="26"/>
       <c r="BE899" s="26"/>
       <c r="BF899" s="26"/>
+      <c r="BG899" s="26"/>
     </row>
     <row r="900">
       <c r="AL900" s="26"/>
@@ -37072,6 +38153,7 @@
       <c r="BD900" s="26"/>
       <c r="BE900" s="26"/>
       <c r="BF900" s="26"/>
+      <c r="BG900" s="26"/>
     </row>
     <row r="901">
       <c r="AL901" s="26"/>
@@ -37095,6 +38177,7 @@
       <c r="BD901" s="26"/>
       <c r="BE901" s="26"/>
       <c r="BF901" s="26"/>
+      <c r="BG901" s="26"/>
     </row>
     <row r="902">
       <c r="AL902" s="26"/>
@@ -37118,6 +38201,7 @@
       <c r="BD902" s="26"/>
       <c r="BE902" s="26"/>
       <c r="BF902" s="26"/>
+      <c r="BG902" s="26"/>
     </row>
     <row r="903">
       <c r="AL903" s="26"/>
@@ -37141,6 +38225,7 @@
       <c r="BD903" s="26"/>
       <c r="BE903" s="26"/>
       <c r="BF903" s="26"/>
+      <c r="BG903" s="26"/>
     </row>
     <row r="904">
       <c r="AL904" s="26"/>
@@ -37164,6 +38249,7 @@
       <c r="BD904" s="26"/>
       <c r="BE904" s="26"/>
       <c r="BF904" s="26"/>
+      <c r="BG904" s="26"/>
     </row>
     <row r="905">
       <c r="AL905" s="26"/>
@@ -37187,6 +38273,7 @@
       <c r="BD905" s="26"/>
       <c r="BE905" s="26"/>
       <c r="BF905" s="26"/>
+      <c r="BG905" s="26"/>
     </row>
     <row r="906">
       <c r="AL906" s="26"/>
@@ -37210,6 +38297,7 @@
       <c r="BD906" s="26"/>
       <c r="BE906" s="26"/>
       <c r="BF906" s="26"/>
+      <c r="BG906" s="26"/>
     </row>
     <row r="907">
       <c r="AL907" s="26"/>
@@ -37233,6 +38321,7 @@
       <c r="BD907" s="26"/>
       <c r="BE907" s="26"/>
       <c r="BF907" s="26"/>
+      <c r="BG907" s="26"/>
     </row>
     <row r="908">
       <c r="AL908" s="26"/>
@@ -37256,6 +38345,7 @@
       <c r="BD908" s="26"/>
       <c r="BE908" s="26"/>
       <c r="BF908" s="26"/>
+      <c r="BG908" s="26"/>
     </row>
     <row r="909">
       <c r="AL909" s="26"/>
@@ -37279,6 +38369,7 @@
       <c r="BD909" s="26"/>
       <c r="BE909" s="26"/>
       <c r="BF909" s="26"/>
+      <c r="BG909" s="26"/>
     </row>
     <row r="910">
       <c r="AL910" s="26"/>
@@ -37302,6 +38393,7 @@
       <c r="BD910" s="26"/>
       <c r="BE910" s="26"/>
       <c r="BF910" s="26"/>
+      <c r="BG910" s="26"/>
     </row>
     <row r="911">
       <c r="AL911" s="26"/>
@@ -37325,6 +38417,7 @@
       <c r="BD911" s="26"/>
       <c r="BE911" s="26"/>
       <c r="BF911" s="26"/>
+      <c r="BG911" s="26"/>
     </row>
     <row r="912">
       <c r="AL912" s="26"/>
@@ -37348,6 +38441,7 @@
       <c r="BD912" s="26"/>
       <c r="BE912" s="26"/>
       <c r="BF912" s="26"/>
+      <c r="BG912" s="26"/>
     </row>
     <row r="913">
       <c r="AL913" s="26"/>
@@ -37371,6 +38465,7 @@
       <c r="BD913" s="26"/>
       <c r="BE913" s="26"/>
       <c r="BF913" s="26"/>
+      <c r="BG913" s="26"/>
     </row>
     <row r="914">
       <c r="AL914" s="26"/>
@@ -37394,6 +38489,7 @@
       <c r="BD914" s="26"/>
       <c r="BE914" s="26"/>
       <c r="BF914" s="26"/>
+      <c r="BG914" s="26"/>
     </row>
     <row r="915">
       <c r="AL915" s="26"/>
@@ -37417,6 +38513,7 @@
       <c r="BD915" s="26"/>
       <c r="BE915" s="26"/>
       <c r="BF915" s="26"/>
+      <c r="BG915" s="26"/>
     </row>
     <row r="916">
       <c r="AL916" s="26"/>
@@ -37440,6 +38537,7 @@
       <c r="BD916" s="26"/>
       <c r="BE916" s="26"/>
       <c r="BF916" s="26"/>
+      <c r="BG916" s="26"/>
     </row>
     <row r="917">
       <c r="AL917" s="26"/>
@@ -37463,6 +38561,7 @@
       <c r="BD917" s="26"/>
       <c r="BE917" s="26"/>
       <c r="BF917" s="26"/>
+      <c r="BG917" s="26"/>
     </row>
     <row r="918">
       <c r="AL918" s="26"/>
@@ -37486,6 +38585,7 @@
       <c r="BD918" s="26"/>
       <c r="BE918" s="26"/>
       <c r="BF918" s="26"/>
+      <c r="BG918" s="26"/>
     </row>
     <row r="919">
       <c r="AL919" s="26"/>
@@ -37509,6 +38609,7 @@
       <c r="BD919" s="26"/>
       <c r="BE919" s="26"/>
       <c r="BF919" s="26"/>
+      <c r="BG919" s="26"/>
     </row>
     <row r="920">
       <c r="AL920" s="26"/>
@@ -37532,6 +38633,7 @@
       <c r="BD920" s="26"/>
       <c r="BE920" s="26"/>
       <c r="BF920" s="26"/>
+      <c r="BG920" s="26"/>
     </row>
     <row r="921">
       <c r="AL921" s="26"/>
@@ -37555,6 +38657,7 @@
       <c r="BD921" s="26"/>
       <c r="BE921" s="26"/>
       <c r="BF921" s="26"/>
+      <c r="BG921" s="26"/>
     </row>
     <row r="922">
       <c r="AL922" s="26"/>
@@ -37578,6 +38681,7 @@
       <c r="BD922" s="26"/>
       <c r="BE922" s="26"/>
       <c r="BF922" s="26"/>
+      <c r="BG922" s="26"/>
     </row>
     <row r="923">
       <c r="AL923" s="26"/>
@@ -37601,6 +38705,7 @@
       <c r="BD923" s="26"/>
       <c r="BE923" s="26"/>
       <c r="BF923" s="26"/>
+      <c r="BG923" s="26"/>
     </row>
     <row r="924">
       <c r="AL924" s="26"/>
@@ -37624,6 +38729,7 @@
       <c r="BD924" s="26"/>
       <c r="BE924" s="26"/>
       <c r="BF924" s="26"/>
+      <c r="BG924" s="26"/>
     </row>
     <row r="925">
       <c r="AL925" s="26"/>
@@ -37647,6 +38753,7 @@
       <c r="BD925" s="26"/>
       <c r="BE925" s="26"/>
       <c r="BF925" s="26"/>
+      <c r="BG925" s="26"/>
     </row>
     <row r="926">
       <c r="AL926" s="26"/>
@@ -37670,6 +38777,7 @@
       <c r="BD926" s="26"/>
       <c r="BE926" s="26"/>
       <c r="BF926" s="26"/>
+      <c r="BG926" s="26"/>
     </row>
     <row r="927">
       <c r="AL927" s="26"/>
@@ -37693,6 +38801,7 @@
       <c r="BD927" s="26"/>
       <c r="BE927" s="26"/>
       <c r="BF927" s="26"/>
+      <c r="BG927" s="26"/>
     </row>
     <row r="928">
       <c r="AL928" s="26"/>
@@ -37716,6 +38825,7 @@
       <c r="BD928" s="26"/>
       <c r="BE928" s="26"/>
       <c r="BF928" s="26"/>
+      <c r="BG928" s="26"/>
     </row>
     <row r="929">
       <c r="AL929" s="26"/>
@@ -37739,6 +38849,7 @@
       <c r="BD929" s="26"/>
       <c r="BE929" s="26"/>
       <c r="BF929" s="26"/>
+      <c r="BG929" s="26"/>
     </row>
     <row r="930">
       <c r="AL930" s="26"/>
@@ -37762,6 +38873,7 @@
       <c r="BD930" s="26"/>
       <c r="BE930" s="26"/>
       <c r="BF930" s="26"/>
+      <c r="BG930" s="26"/>
     </row>
     <row r="931">
       <c r="AL931" s="26"/>
@@ -37785,6 +38897,7 @@
       <c r="BD931" s="26"/>
       <c r="BE931" s="26"/>
       <c r="BF931" s="26"/>
+      <c r="BG931" s="26"/>
     </row>
     <row r="932">
       <c r="AL932" s="26"/>
@@ -37808,6 +38921,7 @@
       <c r="BD932" s="26"/>
       <c r="BE932" s="26"/>
       <c r="BF932" s="26"/>
+      <c r="BG932" s="26"/>
     </row>
     <row r="933">
       <c r="AL933" s="26"/>
@@ -37831,6 +38945,7 @@
       <c r="BD933" s="26"/>
       <c r="BE933" s="26"/>
       <c r="BF933" s="26"/>
+      <c r="BG933" s="26"/>
     </row>
     <row r="934">
       <c r="AL934" s="26"/>
@@ -37854,6 +38969,7 @@
       <c r="BD934" s="26"/>
       <c r="BE934" s="26"/>
       <c r="BF934" s="26"/>
+      <c r="BG934" s="26"/>
     </row>
     <row r="935">
       <c r="AL935" s="26"/>
@@ -37877,6 +38993,7 @@
       <c r="BD935" s="26"/>
       <c r="BE935" s="26"/>
       <c r="BF935" s="26"/>
+      <c r="BG935" s="26"/>
     </row>
     <row r="936">
       <c r="AL936" s="26"/>
@@ -37900,6 +39017,7 @@
       <c r="BD936" s="26"/>
       <c r="BE936" s="26"/>
       <c r="BF936" s="26"/>
+      <c r="BG936" s="26"/>
     </row>
     <row r="937">
       <c r="AL937" s="26"/>
@@ -37923,6 +39041,7 @@
       <c r="BD937" s="26"/>
       <c r="BE937" s="26"/>
       <c r="BF937" s="26"/>
+      <c r="BG937" s="26"/>
     </row>
     <row r="938">
       <c r="AL938" s="26"/>
@@ -37946,6 +39065,7 @@
       <c r="BD938" s="26"/>
       <c r="BE938" s="26"/>
       <c r="BF938" s="26"/>
+      <c r="BG938" s="26"/>
     </row>
     <row r="939">
       <c r="AL939" s="26"/>
@@ -37969,6 +39089,7 @@
       <c r="BD939" s="26"/>
       <c r="BE939" s="26"/>
       <c r="BF939" s="26"/>
+      <c r="BG939" s="26"/>
     </row>
     <row r="940">
       <c r="AL940" s="26"/>
@@ -37992,6 +39113,7 @@
       <c r="BD940" s="26"/>
       <c r="BE940" s="26"/>
       <c r="BF940" s="26"/>
+      <c r="BG940" s="26"/>
     </row>
     <row r="941">
       <c r="AL941" s="26"/>
@@ -38015,6 +39137,7 @@
       <c r="BD941" s="26"/>
       <c r="BE941" s="26"/>
       <c r="BF941" s="26"/>
+      <c r="BG941" s="26"/>
     </row>
     <row r="942">
       <c r="AL942" s="26"/>
@@ -38038,6 +39161,7 @@
       <c r="BD942" s="26"/>
       <c r="BE942" s="26"/>
       <c r="BF942" s="26"/>
+      <c r="BG942" s="26"/>
     </row>
     <row r="943">
       <c r="AL943" s="26"/>
@@ -38061,6 +39185,7 @@
       <c r="BD943" s="26"/>
       <c r="BE943" s="26"/>
       <c r="BF943" s="26"/>
+      <c r="BG943" s="26"/>
     </row>
     <row r="944">
       <c r="AL944" s="26"/>
@@ -38084,6 +39209,7 @@
       <c r="BD944" s="26"/>
       <c r="BE944" s="26"/>
       <c r="BF944" s="26"/>
+      <c r="BG944" s="26"/>
     </row>
     <row r="945">
       <c r="AL945" s="26"/>
@@ -38107,6 +39233,7 @@
       <c r="BD945" s="26"/>
       <c r="BE945" s="26"/>
       <c r="BF945" s="26"/>
+      <c r="BG945" s="26"/>
     </row>
     <row r="946">
       <c r="AL946" s="26"/>
@@ -38130,6 +39257,7 @@
       <c r="BD946" s="26"/>
       <c r="BE946" s="26"/>
       <c r="BF946" s="26"/>
+      <c r="BG946" s="26"/>
     </row>
     <row r="947">
       <c r="AL947" s="26"/>
@@ -38153,6 +39281,7 @@
       <c r="BD947" s="26"/>
       <c r="BE947" s="26"/>
       <c r="BF947" s="26"/>
+      <c r="BG947" s="26"/>
     </row>
     <row r="948">
       <c r="AL948" s="26"/>
@@ -38176,6 +39305,7 @@
       <c r="BD948" s="26"/>
       <c r="BE948" s="26"/>
       <c r="BF948" s="26"/>
+      <c r="BG948" s="26"/>
     </row>
     <row r="949">
       <c r="AL949" s="26"/>
@@ -38199,6 +39329,7 @@
       <c r="BD949" s="26"/>
       <c r="BE949" s="26"/>
       <c r="BF949" s="26"/>
+      <c r="BG949" s="26"/>
     </row>
     <row r="950">
       <c r="AL950" s="26"/>
@@ -38222,6 +39353,7 @@
       <c r="BD950" s="26"/>
       <c r="BE950" s="26"/>
       <c r="BF950" s="26"/>
+      <c r="BG950" s="26"/>
     </row>
     <row r="951">
       <c r="AL951" s="26"/>
@@ -38245,6 +39377,7 @@
       <c r="BD951" s="26"/>
       <c r="BE951" s="26"/>
       <c r="BF951" s="26"/>
+      <c r="BG951" s="26"/>
     </row>
     <row r="952">
       <c r="AL952" s="26"/>
@@ -38268,6 +39401,7 @@
       <c r="BD952" s="26"/>
       <c r="BE952" s="26"/>
       <c r="BF952" s="26"/>
+      <c r="BG952" s="26"/>
     </row>
     <row r="953">
       <c r="AL953" s="26"/>
@@ -38291,6 +39425,7 @@
       <c r="BD953" s="26"/>
       <c r="BE953" s="26"/>
       <c r="BF953" s="26"/>
+      <c r="BG953" s="26"/>
     </row>
     <row r="954">
       <c r="AL954" s="26"/>
@@ -38314,6 +39449,7 @@
       <c r="BD954" s="26"/>
       <c r="BE954" s="26"/>
       <c r="BF954" s="26"/>
+      <c r="BG954" s="26"/>
     </row>
     <row r="955">
       <c r="AL955" s="26"/>
@@ -38337,6 +39473,7 @@
       <c r="BD955" s="26"/>
       <c r="BE955" s="26"/>
       <c r="BF955" s="26"/>
+      <c r="BG955" s="26"/>
     </row>
     <row r="956">
       <c r="AL956" s="26"/>
@@ -38360,6 +39497,7 @@
       <c r="BD956" s="26"/>
       <c r="BE956" s="26"/>
       <c r="BF956" s="26"/>
+      <c r="BG956" s="26"/>
     </row>
     <row r="957">
       <c r="AL957" s="26"/>
@@ -38383,6 +39521,7 @@
       <c r="BD957" s="26"/>
       <c r="BE957" s="26"/>
       <c r="BF957" s="26"/>
+      <c r="BG957" s="26"/>
     </row>
     <row r="958">
       <c r="AL958" s="26"/>
@@ -38406,6 +39545,7 @@
       <c r="BD958" s="26"/>
       <c r="BE958" s="26"/>
       <c r="BF958" s="26"/>
+      <c r="BG958" s="26"/>
     </row>
     <row r="959">
       <c r="AL959" s="26"/>
@@ -38429,6 +39569,7 @@
       <c r="BD959" s="26"/>
       <c r="BE959" s="26"/>
       <c r="BF959" s="26"/>
+      <c r="BG959" s="26"/>
     </row>
     <row r="960">
       <c r="AL960" s="26"/>
@@ -38452,6 +39593,7 @@
       <c r="BD960" s="26"/>
       <c r="BE960" s="26"/>
       <c r="BF960" s="26"/>
+      <c r="BG960" s="26"/>
     </row>
     <row r="961">
       <c r="AL961" s="26"/>
@@ -38475,6 +39617,7 @@
       <c r="BD961" s="26"/>
       <c r="BE961" s="26"/>
       <c r="BF961" s="26"/>
+      <c r="BG961" s="26"/>
     </row>
     <row r="962">
       <c r="AL962" s="26"/>
@@ -38498,6 +39641,7 @@
       <c r="BD962" s="26"/>
       <c r="BE962" s="26"/>
       <c r="BF962" s="26"/>
+      <c r="BG962" s="26"/>
     </row>
     <row r="963">
       <c r="AL963" s="26"/>
@@ -38521,6 +39665,7 @@
       <c r="BD963" s="26"/>
       <c r="BE963" s="26"/>
       <c r="BF963" s="26"/>
+      <c r="BG963" s="26"/>
     </row>
     <row r="964">
       <c r="AL964" s="26"/>
@@ -38544,6 +39689,7 @@
       <c r="BD964" s="26"/>
       <c r="BE964" s="26"/>
       <c r="BF964" s="26"/>
+      <c r="BG964" s="26"/>
     </row>
     <row r="965">
       <c r="AL965" s="26"/>
@@ -38567,6 +39713,7 @@
       <c r="BD965" s="26"/>
       <c r="BE965" s="26"/>
       <c r="BF965" s="26"/>
+      <c r="BG965" s="26"/>
     </row>
     <row r="966">
       <c r="AL966" s="26"/>
@@ -38590,6 +39737,7 @@
       <c r="BD966" s="26"/>
       <c r="BE966" s="26"/>
       <c r="BF966" s="26"/>
+      <c r="BG966" s="26"/>
     </row>
     <row r="967">
       <c r="AL967" s="26"/>
@@ -38613,6 +39761,7 @@
       <c r="BD967" s="26"/>
       <c r="BE967" s="26"/>
       <c r="BF967" s="26"/>
+      <c r="BG967" s="26"/>
     </row>
     <row r="968">
       <c r="AL968" s="26"/>
@@ -38636,6 +39785,7 @@
       <c r="BD968" s="26"/>
       <c r="BE968" s="26"/>
       <c r="BF968" s="26"/>
+      <c r="BG968" s="26"/>
     </row>
     <row r="969">
       <c r="AL969" s="26"/>
@@ -38659,6 +39809,7 @@
       <c r="BD969" s="26"/>
       <c r="BE969" s="26"/>
       <c r="BF969" s="26"/>
+      <c r="BG969" s="26"/>
     </row>
     <row r="970">
       <c r="AL970" s="26"/>
@@ -38682,6 +39833,7 @@
       <c r="BD970" s="26"/>
       <c r="BE970" s="26"/>
       <c r="BF970" s="26"/>
+      <c r="BG970" s="26"/>
     </row>
     <row r="971">
       <c r="AL971" s="26"/>
@@ -38705,6 +39857,7 @@
       <c r="BD971" s="26"/>
       <c r="BE971" s="26"/>
       <c r="BF971" s="26"/>
+      <c r="BG971" s="26"/>
     </row>
     <row r="972">
       <c r="AL972" s="26"/>
@@ -38728,6 +39881,7 @@
       <c r="BD972" s="26"/>
       <c r="BE972" s="26"/>
       <c r="BF972" s="26"/>
+      <c r="BG972" s="26"/>
     </row>
     <row r="973">
       <c r="AL973" s="26"/>
@@ -38751,6 +39905,7 @@
       <c r="BD973" s="26"/>
       <c r="BE973" s="26"/>
       <c r="BF973" s="26"/>
+      <c r="BG973" s="26"/>
     </row>
     <row r="974">
       <c r="AL974" s="26"/>
@@ -38774,6 +39929,7 @@
       <c r="BD974" s="26"/>
       <c r="BE974" s="26"/>
       <c r="BF974" s="26"/>
+      <c r="BG974" s="26"/>
     </row>
     <row r="975">
       <c r="AL975" s="26"/>
@@ -38797,6 +39953,7 @@
       <c r="BD975" s="26"/>
       <c r="BE975" s="26"/>
       <c r="BF975" s="26"/>
+      <c r="BG975" s="26"/>
     </row>
     <row r="976">
       <c r="AL976" s="26"/>
@@ -38820,6 +39977,7 @@
       <c r="BD976" s="26"/>
       <c r="BE976" s="26"/>
       <c r="BF976" s="26"/>
+      <c r="BG976" s="26"/>
     </row>
     <row r="977">
       <c r="AL977" s="26"/>
@@ -38843,6 +40001,7 @@
       <c r="BD977" s="26"/>
       <c r="BE977" s="26"/>
       <c r="BF977" s="26"/>
+      <c r="BG977" s="26"/>
     </row>
     <row r="978">
       <c r="AL978" s="26"/>
@@ -38866,6 +40025,7 @@
       <c r="BD978" s="26"/>
       <c r="BE978" s="26"/>
       <c r="BF978" s="26"/>
+      <c r="BG978" s="26"/>
     </row>
     <row r="979">
       <c r="AL979" s="26"/>
@@ -38889,6 +40049,7 @@
       <c r="BD979" s="26"/>
       <c r="BE979" s="26"/>
       <c r="BF979" s="26"/>
+      <c r="BG979" s="26"/>
     </row>
     <row r="980">
       <c r="AL980" s="26"/>
@@ -38912,6 +40073,7 @@
       <c r="BD980" s="26"/>
       <c r="BE980" s="26"/>
       <c r="BF980" s="26"/>
+      <c r="BG980" s="26"/>
     </row>
     <row r="981">
       <c r="AL981" s="26"/>
@@ -38935,6 +40097,7 @@
       <c r="BD981" s="26"/>
       <c r="BE981" s="26"/>
       <c r="BF981" s="26"/>
+      <c r="BG981" s="26"/>
     </row>
     <row r="982">
       <c r="AL982" s="26"/>
@@ -38958,6 +40121,7 @@
       <c r="BD982" s="26"/>
       <c r="BE982" s="26"/>
       <c r="BF982" s="26"/>
+      <c r="BG982" s="26"/>
     </row>
     <row r="983">
       <c r="AL983" s="26"/>
@@ -38981,6 +40145,7 @@
       <c r="BD983" s="26"/>
       <c r="BE983" s="26"/>
       <c r="BF983" s="26"/>
+      <c r="BG983" s="26"/>
     </row>
     <row r="984">
       <c r="AL984" s="26"/>
@@ -39004,6 +40169,7 @@
       <c r="BD984" s="26"/>
       <c r="BE984" s="26"/>
       <c r="BF984" s="26"/>
+      <c r="BG984" s="26"/>
     </row>
     <row r="985">
       <c r="AL985" s="26"/>
@@ -39027,6 +40193,7 @@
       <c r="BD985" s="26"/>
       <c r="BE985" s="26"/>
       <c r="BF985" s="26"/>
+      <c r="BG985" s="26"/>
     </row>
     <row r="986">
       <c r="AL986" s="26"/>
@@ -39050,6 +40217,7 @@
       <c r="BD986" s="26"/>
       <c r="BE986" s="26"/>
       <c r="BF986" s="26"/>
+      <c r="BG986" s="26"/>
     </row>
     <row r="987">
       <c r="AL987" s="26"/>
@@ -39073,6 +40241,7 @@
       <c r="BD987" s="26"/>
       <c r="BE987" s="26"/>
       <c r="BF987" s="26"/>
+      <c r="BG987" s="26"/>
     </row>
     <row r="988">
       <c r="AL988" s="26"/>
@@ -39096,6 +40265,7 @@
       <c r="BD988" s="26"/>
       <c r="BE988" s="26"/>
       <c r="BF988" s="26"/>
+      <c r="BG988" s="26"/>
     </row>
     <row r="989">
       <c r="AL989" s="26"/>
@@ -39119,6 +40289,7 @@
       <c r="BD989" s="26"/>
       <c r="BE989" s="26"/>
       <c r="BF989" s="26"/>
+      <c r="BG989" s="26"/>
     </row>
     <row r="990">
       <c r="AL990" s="26"/>
@@ -39142,6 +40313,7 @@
       <c r="BD990" s="26"/>
       <c r="BE990" s="26"/>
       <c r="BF990" s="26"/>
+      <c r="BG990" s="26"/>
     </row>
     <row r="991">
       <c r="AL991" s="26"/>
@@ -39165,6 +40337,7 @@
       <c r="BD991" s="26"/>
       <c r="BE991" s="26"/>
       <c r="BF991" s="26"/>
+      <c r="BG991" s="26"/>
     </row>
     <row r="992">
       <c r="AL992" s="26"/>
@@ -39188,6 +40361,7 @@
       <c r="BD992" s="26"/>
       <c r="BE992" s="26"/>
       <c r="BF992" s="26"/>
+      <c r="BG992" s="26"/>
     </row>
     <row r="993">
       <c r="AL993" s="26"/>
@@ -39211,6 +40385,7 @@
       <c r="BD993" s="26"/>
       <c r="BE993" s="26"/>
       <c r="BF993" s="26"/>
+      <c r="BG993" s="26"/>
     </row>
     <row r="994">
       <c r="AL994" s="26"/>
@@ -39234,6 +40409,7 @@
       <c r="BD994" s="26"/>
       <c r="BE994" s="26"/>
       <c r="BF994" s="26"/>
+      <c r="BG994" s="26"/>
     </row>
     <row r="995">
       <c r="AL995" s="26"/>
@@ -39257,6 +40433,7 @@
       <c r="BD995" s="26"/>
       <c r="BE995" s="26"/>
       <c r="BF995" s="26"/>
+      <c r="BG995" s="26"/>
     </row>
     <row r="996">
       <c r="AL996" s="26"/>
@@ -39280,6 +40457,7 @@
       <c r="BD996" s="26"/>
       <c r="BE996" s="26"/>
       <c r="BF996" s="26"/>
+      <c r="BG996" s="26"/>
     </row>
     <row r="997">
       <c r="AL997" s="26"/>
@@ -39303,6 +40481,7 @@
       <c r="BD997" s="26"/>
       <c r="BE997" s="26"/>
       <c r="BF997" s="26"/>
+      <c r="BG997" s="26"/>
     </row>
     <row r="998">
       <c r="AL998" s="26"/>
@@ -39326,6 +40505,7 @@
       <c r="BD998" s="26"/>
       <c r="BE998" s="26"/>
       <c r="BF998" s="26"/>
+      <c r="BG998" s="26"/>
     </row>
     <row r="999">
       <c r="AL999" s="26"/>
@@ -39349,6 +40529,7 @@
       <c r="BD999" s="26"/>
       <c r="BE999" s="26"/>
       <c r="BF999" s="26"/>
+      <c r="BG999" s="26"/>
     </row>
     <row r="1000">
       <c r="AL1000" s="26"/>
@@ -39372,6 +40553,7 @@
       <c r="BD1000" s="26"/>
       <c r="BE1000" s="26"/>
       <c r="BF1000" s="26"/>
+      <c r="BG1000" s="26"/>
     </row>
     <row r="1001">
       <c r="AL1001" s="26"/>
@@ -39395,6 +40577,7 @@
       <c r="BD1001" s="26"/>
       <c r="BE1001" s="26"/>
       <c r="BF1001" s="26"/>
+      <c r="BG1001" s="26"/>
     </row>
     <row r="1002">
       <c r="AL1002" s="26"/>
@@ -39418,6 +40601,7 @@
       <c r="BD1002" s="26"/>
       <c r="BE1002" s="26"/>
       <c r="BF1002" s="26"/>
+      <c r="BG1002" s="26"/>
     </row>
     <row r="1003">
       <c r="AL1003" s="26"/>
@@ -39441,6 +40625,7 @@
       <c r="BD1003" s="26"/>
       <c r="BE1003" s="26"/>
       <c r="BF1003" s="26"/>
+      <c r="BG1003" s="26"/>
     </row>
     <row r="1004">
       <c r="AL1004" s="26"/>
@@ -39464,6 +40649,7 @@
       <c r="BD1004" s="26"/>
       <c r="BE1004" s="26"/>
       <c r="BF1004" s="26"/>
+      <c r="BG1004" s="26"/>
     </row>
     <row r="1005">
       <c r="AL1005" s="26"/>
@@ -39487,6 +40673,7 @@
       <c r="BD1005" s="26"/>
       <c r="BE1005" s="26"/>
       <c r="BF1005" s="26"/>
+      <c r="BG1005" s="26"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -40290,6 +41477,14 @@
       </c>
       <c r="C95" s="2">
         <v>1311.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="22">
+        <v>45485.0</v>
+      </c>
+      <c r="C96" s="2">
+        <v>1411.0</v>
       </c>
     </row>
   </sheetData>
@@ -40377,6 +41572,7 @@
       <c r="BD1" s="23"/>
       <c r="BE1" s="23"/>
       <c r="BF1" s="23"/>
+      <c r="BG1" s="23"/>
     </row>
     <row r="2">
       <c r="A2" s="36" t="s">
@@ -40598,6 +41794,9 @@
       <c r="BF2" s="23">
         <v>45478.0</v>
       </c>
+      <c r="BG2" s="23">
+        <v>45485.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="38" t="s">
@@ -40831,6 +42030,10 @@
         <f>Census!BF45</f>
         <v>5870</v>
       </c>
+      <c r="BG3" s="30">
+        <f>Census!BG45</f>
+        <v>5886</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="38" t="s">
@@ -41064,6 +42267,10 @@
         <f>Census!BF6</f>
         <v>29</v>
       </c>
+      <c r="BG4" s="40">
+        <f>Census!BG6</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="36" t="s">
@@ -41238,7 +42445,9 @@
       <c r="AS38" s="1">
         <v>45478.0</v>
       </c>
-      <c r="AT38" s="1"/>
+      <c r="AT38" s="1">
+        <v>45485.0</v>
+      </c>
       <c r="AU38" s="1"/>
       <c r="AV38" s="1"/>
       <c r="AW38" s="1"/>
@@ -41251,6 +42460,7 @@
       <c r="BD38" s="1"/>
       <c r="BE38" s="1"/>
       <c r="BF38" s="1"/>
+      <c r="BG38" s="1"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
@@ -41260,7 +42470,7 @@
         <f>WeeklyMovement!O3</f>
         <v>11</v>
       </c>
-      <c r="C39" s="40">
+      <c r="C39" s="41">
         <f>WeeklyMovement!P3</f>
         <v>13</v>
       </c>
@@ -41431,6 +42641,9 @@
       <c r="AS39" s="2">
         <v>0.0</v>
       </c>
+      <c r="AT39" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
@@ -41513,6 +42726,9 @@
         <v>0</v>
       </c>
       <c r="AS40" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AT40" s="2">
         <v>0.0</v>
       </c>
     </row>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -709,11 +709,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1676593613"/>
-        <c:axId val="1123372423"/>
+        <c:axId val="420976432"/>
+        <c:axId val="265017679"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1676593613"/>
+        <c:axId val="420976432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -765,10 +765,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1123372423"/>
+        <c:crossAx val="265017679"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1123372423"/>
+        <c:axId val="265017679"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -843,7 +843,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1676593613"/>
+        <c:crossAx val="420976432"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -966,11 +966,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="945125167"/>
-        <c:axId val="925065573"/>
+        <c:axId val="864823575"/>
+        <c:axId val="1159194966"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="945125167"/>
+        <c:axId val="864823575"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1022,10 +1022,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="925065573"/>
+        <c:crossAx val="1159194966"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="925065573"/>
+        <c:axId val="1159194966"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1100,7 +1100,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="945125167"/>
+        <c:crossAx val="864823575"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -709,11 +709,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="420976432"/>
-        <c:axId val="265017679"/>
+        <c:axId val="407211083"/>
+        <c:axId val="591885257"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="420976432"/>
+        <c:axId val="407211083"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -765,10 +765,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="265017679"/>
+        <c:crossAx val="591885257"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="265017679"/>
+        <c:axId val="591885257"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -843,7 +843,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420976432"/>
+        <c:crossAx val="407211083"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -966,11 +966,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="864823575"/>
-        <c:axId val="1159194966"/>
+        <c:axId val="1369575932"/>
+        <c:axId val="250603443"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="864823575"/>
+        <c:axId val="1369575932"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1022,10 +1022,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1159194966"/>
+        <c:crossAx val="250603443"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1159194966"/>
+        <c:axId val="250603443"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1100,7 +1100,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="864823575"/>
+        <c:crossAx val="1369575932"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -709,11 +709,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="407211083"/>
-        <c:axId val="591885257"/>
+        <c:axId val="1742585899"/>
+        <c:axId val="311493644"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="407211083"/>
+        <c:axId val="1742585899"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -765,10 +765,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="591885257"/>
+        <c:crossAx val="311493644"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="591885257"/>
+        <c:axId val="311493644"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -843,7 +843,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="407211083"/>
+        <c:crossAx val="1742585899"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -966,11 +966,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1369575932"/>
-        <c:axId val="250603443"/>
+        <c:axId val="1348657163"/>
+        <c:axId val="1681854850"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1369575932"/>
+        <c:axId val="1348657163"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1022,10 +1022,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="250603443"/>
+        <c:crossAx val="1681854850"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="250603443"/>
+        <c:axId val="1681854850"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1100,7 +1100,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1369575932"/>
+        <c:crossAx val="1348657163"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -709,11 +709,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1742585899"/>
-        <c:axId val="311493644"/>
+        <c:axId val="75368037"/>
+        <c:axId val="972954448"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1742585899"/>
+        <c:axId val="75368037"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -765,10 +765,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="311493644"/>
+        <c:crossAx val="972954448"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="311493644"/>
+        <c:axId val="972954448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -843,7 +843,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1742585899"/>
+        <c:crossAx val="75368037"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -966,11 +966,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1348657163"/>
-        <c:axId val="1681854850"/>
+        <c:axId val="374541630"/>
+        <c:axId val="261593757"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1348657163"/>
+        <c:axId val="374541630"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1022,10 +1022,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1681854850"/>
+        <c:crossAx val="261593757"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1681854850"/>
+        <c:axId val="261593757"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1100,7 +1100,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1348657163"/>
+        <c:crossAx val="374541630"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -709,11 +709,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="75368037"/>
-        <c:axId val="972954448"/>
+        <c:axId val="87633631"/>
+        <c:axId val="1160120404"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="75368037"/>
+        <c:axId val="87633631"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -765,10 +765,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="972954448"/>
+        <c:crossAx val="1160120404"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="972954448"/>
+        <c:axId val="1160120404"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -843,7 +843,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75368037"/>
+        <c:crossAx val="87633631"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -966,11 +966,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="374541630"/>
-        <c:axId val="261593757"/>
+        <c:axId val="2023391366"/>
+        <c:axId val="1858353389"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="374541630"/>
+        <c:axId val="2023391366"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1022,10 +1022,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="261593757"/>
+        <c:crossAx val="1858353389"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="261593757"/>
+        <c:axId val="1858353389"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1100,7 +1100,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="374541630"/>
+        <c:crossAx val="2023391366"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -709,11 +709,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="87633631"/>
-        <c:axId val="1160120404"/>
+        <c:axId val="962901528"/>
+        <c:axId val="548900431"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="87633631"/>
+        <c:axId val="962901528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -765,10 +765,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1160120404"/>
+        <c:crossAx val="548900431"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1160120404"/>
+        <c:axId val="548900431"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -843,7 +843,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87633631"/>
+        <c:crossAx val="962901528"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -966,11 +966,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="2023391366"/>
-        <c:axId val="1858353389"/>
+        <c:axId val="2144307141"/>
+        <c:axId val="679346278"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2023391366"/>
+        <c:axId val="2144307141"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1022,10 +1022,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1858353389"/>
+        <c:crossAx val="679346278"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1858353389"/>
+        <c:axId val="679346278"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1100,7 +1100,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2023391366"/>
+        <c:crossAx val="2144307141"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -715,11 +715,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="798634262"/>
-        <c:axId val="228602328"/>
+        <c:axId val="1637818859"/>
+        <c:axId val="690929872"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="798634262"/>
+        <c:axId val="1637818859"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -771,10 +771,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228602328"/>
+        <c:crossAx val="690929872"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="228602328"/>
+        <c:axId val="690929872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -849,7 +849,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="798634262"/>
+        <c:crossAx val="1637818859"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -972,11 +972,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="426147218"/>
-        <c:axId val="244729235"/>
+        <c:axId val="235415959"/>
+        <c:axId val="1349482802"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="426147218"/>
+        <c:axId val="235415959"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1028,10 +1028,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244729235"/>
+        <c:crossAx val="1349482802"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="244729235"/>
+        <c:axId val="1349482802"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1106,7 +1106,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426147218"/>
+        <c:crossAx val="235415959"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -715,11 +715,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1637818859"/>
-        <c:axId val="690929872"/>
+        <c:axId val="201198326"/>
+        <c:axId val="1896136975"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1637818859"/>
+        <c:axId val="201198326"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -771,10 +771,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="690929872"/>
+        <c:crossAx val="1896136975"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="690929872"/>
+        <c:axId val="1896136975"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -849,7 +849,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1637818859"/>
+        <c:crossAx val="201198326"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -972,11 +972,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="235415959"/>
-        <c:axId val="1349482802"/>
+        <c:axId val="2130735191"/>
+        <c:axId val="712880610"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="235415959"/>
+        <c:axId val="2130735191"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1028,10 +1028,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1349482802"/>
+        <c:crossAx val="712880610"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1349482802"/>
+        <c:axId val="712880610"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1106,7 +1106,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235415959"/>
+        <c:crossAx val="2130735191"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -715,11 +715,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="201198326"/>
-        <c:axId val="1896136975"/>
+        <c:axId val="1676137546"/>
+        <c:axId val="652227792"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="201198326"/>
+        <c:axId val="1676137546"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -771,10 +771,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1896136975"/>
+        <c:crossAx val="652227792"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1896136975"/>
+        <c:axId val="652227792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -849,7 +849,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201198326"/>
+        <c:crossAx val="1676137546"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -972,11 +972,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="2130735191"/>
-        <c:axId val="712880610"/>
+        <c:axId val="412671245"/>
+        <c:axId val="1876220513"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2130735191"/>
+        <c:axId val="412671245"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1028,10 +1028,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="712880610"/>
+        <c:crossAx val="1876220513"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="712880610"/>
+        <c:axId val="1876220513"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1106,7 +1106,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2130735191"/>
+        <c:crossAx val="412671245"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -715,11 +715,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1676137546"/>
-        <c:axId val="652227792"/>
+        <c:axId val="1719628764"/>
+        <c:axId val="247249860"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1676137546"/>
+        <c:axId val="1719628764"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -771,10 +771,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="652227792"/>
+        <c:crossAx val="247249860"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="652227792"/>
+        <c:axId val="247249860"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -849,7 +849,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1676137546"/>
+        <c:crossAx val="1719628764"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -972,11 +972,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="412671245"/>
-        <c:axId val="1876220513"/>
+        <c:axId val="15848646"/>
+        <c:axId val="2761341"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="412671245"/>
+        <c:axId val="15848646"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1028,10 +1028,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1876220513"/>
+        <c:crossAx val="2761341"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1876220513"/>
+        <c:axId val="2761341"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1106,7 +1106,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="412671245"/>
+        <c:crossAx val="15848646"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -715,11 +715,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1719628764"/>
-        <c:axId val="247249860"/>
+        <c:axId val="1775559530"/>
+        <c:axId val="824176946"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1719628764"/>
+        <c:axId val="1775559530"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -771,10 +771,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247249860"/>
+        <c:crossAx val="824176946"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="247249860"/>
+        <c:axId val="824176946"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -849,7 +849,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1719628764"/>
+        <c:crossAx val="1775559530"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -972,11 +972,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="15848646"/>
-        <c:axId val="2761341"/>
+        <c:axId val="1604390132"/>
+        <c:axId val="801564272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="15848646"/>
+        <c:axId val="1604390132"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1028,10 +1028,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2761341"/>
+        <c:crossAx val="801564272"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2761341"/>
+        <c:axId val="801564272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1106,7 +1106,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15848646"/>
+        <c:crossAx val="1604390132"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -715,11 +715,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1775559530"/>
-        <c:axId val="824176946"/>
+        <c:axId val="1053473522"/>
+        <c:axId val="845420280"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1775559530"/>
+        <c:axId val="1053473522"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -771,10 +771,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="824176946"/>
+        <c:crossAx val="845420280"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="824176946"/>
+        <c:axId val="845420280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -849,7 +849,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1775559530"/>
+        <c:crossAx val="1053473522"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -972,11 +972,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1604390132"/>
-        <c:axId val="801564272"/>
+        <c:axId val="904799066"/>
+        <c:axId val="197536214"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1604390132"/>
+        <c:axId val="904799066"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1028,10 +1028,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="801564272"/>
+        <c:crossAx val="197536214"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="801564272"/>
+        <c:axId val="197536214"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1106,7 +1106,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1604390132"/>
+        <c:crossAx val="904799066"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -715,11 +715,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1053473522"/>
-        <c:axId val="845420280"/>
+        <c:axId val="131584527"/>
+        <c:axId val="1119234613"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1053473522"/>
+        <c:axId val="131584527"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -771,10 +771,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="845420280"/>
+        <c:crossAx val="1119234613"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="845420280"/>
+        <c:axId val="1119234613"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -849,7 +849,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1053473522"/>
+        <c:crossAx val="131584527"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -972,11 +972,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="904799066"/>
-        <c:axId val="197536214"/>
+        <c:axId val="323774308"/>
+        <c:axId val="1153198539"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="904799066"/>
+        <c:axId val="323774308"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1028,10 +1028,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197536214"/>
+        <c:crossAx val="1153198539"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197536214"/>
+        <c:axId val="1153198539"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1106,7 +1106,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="904799066"/>
+        <c:crossAx val="323774308"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -715,11 +715,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="131584527"/>
-        <c:axId val="1119234613"/>
+        <c:axId val="1778456508"/>
+        <c:axId val="113689519"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="131584527"/>
+        <c:axId val="1778456508"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -771,10 +771,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1119234613"/>
+        <c:crossAx val="113689519"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1119234613"/>
+        <c:axId val="113689519"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -849,7 +849,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131584527"/>
+        <c:crossAx val="1778456508"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -972,11 +972,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="323774308"/>
-        <c:axId val="1153198539"/>
+        <c:axId val="247864590"/>
+        <c:axId val="2066945940"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="323774308"/>
+        <c:axId val="247864590"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1028,10 +1028,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1153198539"/>
+        <c:crossAx val="2066945940"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1153198539"/>
+        <c:axId val="2066945940"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1106,7 +1106,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="323774308"/>
+        <c:crossAx val="247864590"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -715,11 +715,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1778456508"/>
-        <c:axId val="113689519"/>
+        <c:axId val="560680403"/>
+        <c:axId val="1031158504"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1778456508"/>
+        <c:axId val="560680403"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -771,10 +771,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113689519"/>
+        <c:crossAx val="1031158504"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113689519"/>
+        <c:axId val="1031158504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -849,7 +849,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1778456508"/>
+        <c:crossAx val="560680403"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -972,11 +972,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="247864590"/>
-        <c:axId val="2066945940"/>
+        <c:axId val="1141197093"/>
+        <c:axId val="589486785"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="247864590"/>
+        <c:axId val="1141197093"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1028,10 +1028,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2066945940"/>
+        <c:crossAx val="589486785"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2066945940"/>
+        <c:axId val="589486785"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1106,7 +1106,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247864590"/>
+        <c:crossAx val="1141197093"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -715,11 +715,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="560680403"/>
-        <c:axId val="1031158504"/>
+        <c:axId val="499362461"/>
+        <c:axId val="1678111932"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="560680403"/>
+        <c:axId val="499362461"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -771,10 +771,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1031158504"/>
+        <c:crossAx val="1678111932"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1031158504"/>
+        <c:axId val="1678111932"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -849,7 +849,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="560680403"/>
+        <c:crossAx val="499362461"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -972,11 +972,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1141197093"/>
-        <c:axId val="589486785"/>
+        <c:axId val="1089533709"/>
+        <c:axId val="2063863622"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1141197093"/>
+        <c:axId val="1089533709"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1028,10 +1028,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="589486785"/>
+        <c:crossAx val="2063863622"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="589486785"/>
+        <c:axId val="2063863622"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1106,7 +1106,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1141197093"/>
+        <c:crossAx val="1089533709"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -721,11 +721,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1146051188"/>
-        <c:axId val="2110215766"/>
+        <c:axId val="553075508"/>
+        <c:axId val="713085508"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1146051188"/>
+        <c:axId val="553075508"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -777,10 +777,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2110215766"/>
+        <c:crossAx val="713085508"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2110215766"/>
+        <c:axId val="713085508"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -855,7 +855,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1146051188"/>
+        <c:crossAx val="553075508"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -978,11 +978,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="756237365"/>
-        <c:axId val="1548559090"/>
+        <c:axId val="990614064"/>
+        <c:axId val="626829822"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="756237365"/>
+        <c:axId val="990614064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1034,10 +1034,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1548559090"/>
+        <c:crossAx val="626829822"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1548559090"/>
+        <c:axId val="626829822"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1112,7 +1112,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="756237365"/>
+        <c:crossAx val="990614064"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -721,11 +721,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="553075508"/>
-        <c:axId val="713085508"/>
+        <c:axId val="441165716"/>
+        <c:axId val="1939069018"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="553075508"/>
+        <c:axId val="441165716"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -777,10 +777,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="713085508"/>
+        <c:crossAx val="1939069018"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="713085508"/>
+        <c:axId val="1939069018"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -855,7 +855,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="553075508"/>
+        <c:crossAx val="441165716"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -978,11 +978,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="990614064"/>
-        <c:axId val="626829822"/>
+        <c:axId val="1022003709"/>
+        <c:axId val="1877507365"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="990614064"/>
+        <c:axId val="1022003709"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1034,10 +1034,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="626829822"/>
+        <c:crossAx val="1877507365"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="626829822"/>
+        <c:axId val="1877507365"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1112,7 +1112,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="990614064"/>
+        <c:crossAx val="1022003709"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -721,11 +721,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="441165716"/>
-        <c:axId val="1939069018"/>
+        <c:axId val="1210355287"/>
+        <c:axId val="188368239"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="441165716"/>
+        <c:axId val="1210355287"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -777,10 +777,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1939069018"/>
+        <c:crossAx val="188368239"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1939069018"/>
+        <c:axId val="188368239"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -855,7 +855,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441165716"/>
+        <c:crossAx val="1210355287"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -978,11 +978,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1022003709"/>
-        <c:axId val="1877507365"/>
+        <c:axId val="34074849"/>
+        <c:axId val="788507047"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1022003709"/>
+        <c:axId val="34074849"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1034,10 +1034,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1877507365"/>
+        <c:crossAx val="788507047"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1877507365"/>
+        <c:axId val="788507047"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1112,7 +1112,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1022003709"/>
+        <c:crossAx val="34074849"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -721,11 +721,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1210355287"/>
-        <c:axId val="188368239"/>
+        <c:axId val="786912141"/>
+        <c:axId val="490311025"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1210355287"/>
+        <c:axId val="786912141"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -777,10 +777,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188368239"/>
+        <c:crossAx val="490311025"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="188368239"/>
+        <c:axId val="490311025"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -855,7 +855,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1210355287"/>
+        <c:crossAx val="786912141"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -978,11 +978,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="34074849"/>
-        <c:axId val="788507047"/>
+        <c:axId val="2060992815"/>
+        <c:axId val="776465783"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="34074849"/>
+        <c:axId val="2060992815"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1034,10 +1034,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="788507047"/>
+        <c:crossAx val="776465783"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="788507047"/>
+        <c:axId val="776465783"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1112,7 +1112,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34074849"/>
+        <c:crossAx val="2060992815"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -721,11 +721,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1026306754"/>
-        <c:axId val="321454696"/>
+        <c:axId val="974317365"/>
+        <c:axId val="39890059"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1026306754"/>
+        <c:axId val="974317365"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -777,10 +777,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="321454696"/>
+        <c:crossAx val="39890059"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="321454696"/>
+        <c:axId val="39890059"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -855,7 +855,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1026306754"/>
+        <c:crossAx val="974317365"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -978,11 +978,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1362877131"/>
-        <c:axId val="434715843"/>
+        <c:axId val="394949083"/>
+        <c:axId val="1544446139"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1362877131"/>
+        <c:axId val="394949083"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1034,10 +1034,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434715843"/>
+        <c:crossAx val="1544446139"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="434715843"/>
+        <c:axId val="1544446139"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1112,7 +1112,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1362877131"/>
+        <c:crossAx val="394949083"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -721,11 +721,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="974317365"/>
-        <c:axId val="39890059"/>
+        <c:axId val="1009819398"/>
+        <c:axId val="808977636"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="974317365"/>
+        <c:axId val="1009819398"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -777,10 +777,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39890059"/>
+        <c:crossAx val="808977636"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39890059"/>
+        <c:axId val="808977636"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -855,7 +855,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="974317365"/>
+        <c:crossAx val="1009819398"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -978,11 +978,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="394949083"/>
-        <c:axId val="1544446139"/>
+        <c:axId val="2024632109"/>
+        <c:axId val="267068128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="394949083"/>
+        <c:axId val="2024632109"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1034,10 +1034,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1544446139"/>
+        <c:crossAx val="267068128"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1544446139"/>
+        <c:axId val="267068128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1112,7 +1112,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="394949083"/>
+        <c:crossAx val="2024632109"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -728,11 +728,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="429455315"/>
-        <c:axId val="886701532"/>
+        <c:axId val="690783567"/>
+        <c:axId val="810123033"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="429455315"/>
+        <c:axId val="690783567"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -784,10 +784,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="886701532"/>
+        <c:crossAx val="810123033"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="886701532"/>
+        <c:axId val="810123033"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -862,7 +862,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429455315"/>
+        <c:crossAx val="690783567"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -985,11 +985,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="2079240911"/>
-        <c:axId val="1569051812"/>
+        <c:axId val="570336959"/>
+        <c:axId val="325614358"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2079240911"/>
+        <c:axId val="570336959"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1041,10 +1041,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1569051812"/>
+        <c:crossAx val="325614358"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1569051812"/>
+        <c:axId val="325614358"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1119,7 +1119,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2079240911"/>
+        <c:crossAx val="570336959"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1212,11 +1212,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="859844173"/>
-        <c:axId val="940386390"/>
+        <c:axId val="1170506313"/>
+        <c:axId val="2130341158"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="859844173"/>
+        <c:axId val="1170506313"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1268,10 +1268,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="940386390"/>
+        <c:crossAx val="2130341158"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="940386390"/>
+        <c:axId val="2130341158"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1346,7 +1346,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="859844173"/>
+        <c:crossAx val="1170506313"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -8,8 +8,9 @@
     <sheet state="visible" name="CountryTotal" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="EvictionsTotal" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="Census" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Charts" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="INACTIVE  CountryWeekly" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="DailyCensus" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="Charts" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="INACTIVE  CountryWeekly" sheetId="8" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="131">
   <si>
     <t>Total New Arrivals to Date</t>
   </si>
@@ -323,6 +324,12 @@
     <t>Minors Currently in Shelters</t>
   </si>
   <si>
+    <t>Total Shelter Residents</t>
+  </si>
+  <si>
+    <t>Total Awaiting Placement</t>
+  </si>
+  <si>
     <t>NEW ARRIVALS CENSUS</t>
   </si>
   <si>
@@ -333,6 +340,21 @@
   </si>
   <si>
     <t>Outside Landing Zone Bus Arrivals in Last 7 Days</t>
+  </si>
+  <si>
+    <t>DAILY CENSUS</t>
+  </si>
+  <si>
+    <t>DATE RANGE</t>
+  </si>
+  <si>
+    <t>EXITS VS RETURNS TO LZ</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>COUNTRY OF ORIGIN</t>
   </si>
   <si>
     <t>INACTIVE DATA SET</t>
@@ -490,7 +512,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -586,12 +608,21 @@
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="2" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -605,14 +636,13 @@
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
@@ -621,7 +651,18 @@
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -728,11 +769,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="690783567"/>
-        <c:axId val="810123033"/>
+        <c:axId val="1976718476"/>
+        <c:axId val="1575498417"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="690783567"/>
+        <c:axId val="1976718476"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -784,10 +825,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="810123033"/>
+        <c:crossAx val="1575498417"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="810123033"/>
+        <c:axId val="1575498417"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -862,7 +903,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="690783567"/>
+        <c:crossAx val="1976718476"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -985,11 +1026,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="570336959"/>
-        <c:axId val="325614358"/>
+        <c:axId val="789188570"/>
+        <c:axId val="626229109"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="570336959"/>
+        <c:axId val="789188570"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1041,10 +1082,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="325614358"/>
+        <c:crossAx val="626229109"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="325614358"/>
+        <c:axId val="626229109"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1119,7 +1160,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="570336959"/>
+        <c:crossAx val="789188570"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1212,11 +1253,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1170506313"/>
-        <c:axId val="2130341158"/>
+        <c:axId val="225713346"/>
+        <c:axId val="863395151"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1170506313"/>
+        <c:axId val="225713346"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1268,10 +1309,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2130341158"/>
+        <c:crossAx val="863395151"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2130341158"/>
+        <c:axId val="863395151"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1346,7 +1387,715 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1170506313"/>
+        <c:crossAx val="225713346"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Total Residents In Shelter - Daily</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$A$73</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$B$72:$H$72</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$B$73:$H$73</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="617812306"/>
+        <c:axId val="662577648"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="617812306"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="662577648"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="662577648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6000.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="617812306"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Total Awaiting Shelter - Daily</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$A$74</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$B$72:$H$72</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$B$74:$H$74</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="260626060"/>
+        <c:axId val="1482855717"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="260626060"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1482855717"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1482855717"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="260626060"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>60 Day Exits and Returns to Landing Zone</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$A$97</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$B$96:$R$96</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$B$97:$R$97</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$A$97</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$B$96:$R$96</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$B$97:$R$97</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="1792335697"/>
+        <c:axId val="660080118"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1792335697"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="660080118"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="660080118"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1792335697"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1393,6 +2142,10 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -1469,10 +2222,85 @@
     </xdr:graphicFrame>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 4" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5791200" cy="3581400"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 5" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 6" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -42514,6 +43342,190 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="18">
+        <v>45474.0</v>
+      </c>
+      <c r="C1" s="18">
+        <v>45475.0</v>
+      </c>
+      <c r="D1" s="18">
+        <v>45476.0</v>
+      </c>
+      <c r="E1" s="18">
+        <v>45477.0</v>
+      </c>
+      <c r="F1" s="18">
+        <v>45478.0</v>
+      </c>
+      <c r="G1" s="18">
+        <v>45479.0</v>
+      </c>
+      <c r="H1" s="18">
+        <v>45480.0</v>
+      </c>
+      <c r="I1" s="18">
+        <v>45507.0</v>
+      </c>
+      <c r="J1" s="18">
+        <v>45508.0</v>
+      </c>
+      <c r="K1" s="18">
+        <v>45509.0</v>
+      </c>
+      <c r="L1" s="18">
+        <v>45510.0</v>
+      </c>
+      <c r="M1" s="18">
+        <v>45511.0</v>
+      </c>
+      <c r="N1" s="18">
+        <v>45512.0</v>
+      </c>
+      <c r="O1" s="18">
+        <v>45513.0</v>
+      </c>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+    </row>
+    <row r="2" ht="29.25" customHeight="1">
+      <c r="A2" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="34">
+        <v>5969.0</v>
+      </c>
+      <c r="C2" s="34">
+        <v>5950.0</v>
+      </c>
+      <c r="D2" s="34">
+        <v>5934.0</v>
+      </c>
+      <c r="E2" s="34">
+        <v>5918.0</v>
+      </c>
+      <c r="F2" s="34">
+        <v>5876.0</v>
+      </c>
+      <c r="G2" s="34">
+        <v>5879.0</v>
+      </c>
+      <c r="H2" s="34">
+        <v>5866.0</v>
+      </c>
+      <c r="I2" s="34">
+        <v>5596.0</v>
+      </c>
+      <c r="J2" s="34">
+        <v>5567.0</v>
+      </c>
+      <c r="K2" s="34">
+        <v>5584.0</v>
+      </c>
+      <c r="L2" s="34">
+        <v>5567.0</v>
+      </c>
+      <c r="M2" s="34">
+        <v>5566.0</v>
+      </c>
+      <c r="N2" s="34">
+        <v>5596.0</v>
+      </c>
+      <c r="O2" s="33">
+        <v>5592.0</v>
+      </c>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+    </row>
+    <row r="3" ht="25.5" customHeight="1">
+      <c r="A3" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="33">
+        <v>16.0</v>
+      </c>
+      <c r="C3" s="33">
+        <v>14.0</v>
+      </c>
+      <c r="D3" s="33">
+        <v>17.0</v>
+      </c>
+      <c r="E3" s="33">
+        <v>3.0</v>
+      </c>
+      <c r="F3" s="33">
+        <v>31.0</v>
+      </c>
+      <c r="G3" s="33">
+        <v>32.0</v>
+      </c>
+      <c r="H3" s="33">
+        <v>12.0</v>
+      </c>
+      <c r="I3" s="33">
+        <v>9.0</v>
+      </c>
+      <c r="J3" s="33">
+        <v>30.0</v>
+      </c>
+      <c r="K3" s="33">
+        <v>9.0</v>
+      </c>
+      <c r="L3" s="33">
+        <v>5.0</v>
+      </c>
+      <c r="M3" s="33">
+        <v>33.0</v>
+      </c>
+      <c r="N3" s="33">
+        <v>23.0</v>
+      </c>
+      <c r="O3" s="33">
+        <v>9.0</v>
+      </c>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="I2">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(I2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="C2" sqref="C2" pane="topRight"/>
@@ -42525,8 +43537,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="33" t="s">
-        <v>98</v>
+      <c r="A1" s="36" t="s">
+        <v>100</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -42541,7 +43553,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
-      <c r="O1" s="34"/>
+      <c r="O1" s="37"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
@@ -42559,7 +43571,7 @@
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
-      <c r="AG1" s="34"/>
+      <c r="AG1" s="37"/>
       <c r="AH1" s="1"/>
       <c r="AI1" s="18"/>
       <c r="AJ1" s="18"/>
@@ -42592,7 +43604,7 @@
       <c r="BK1" s="23"/>
     </row>
     <row r="2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="36" t="s">
         <v>47</v>
       </c>
       <c r="B2" s="1">
@@ -42647,7 +43659,7 @@
         <f>Census!N1</f>
         <v>45170</v>
       </c>
-      <c r="O2" s="34">
+      <c r="O2" s="37">
         <f>Census!O1</f>
         <v>45177</v>
       </c>
@@ -42719,7 +43731,7 @@
         <f>Census!AF1</f>
         <v>45296</v>
       </c>
-      <c r="AG2" s="34">
+      <c r="AG2" s="37">
         <f>Census!AG1</f>
         <v>45303</v>
       </c>
@@ -42828,7 +43840,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="38" t="s">
         <v>96</v>
       </c>
       <c r="B3" s="8">
@@ -42883,7 +43895,7 @@
         <f>Census!N46</f>
         <v>6662</v>
       </c>
-      <c r="O3" s="36">
+      <c r="O3" s="39">
         <f>Census!O46</f>
         <v>6991</v>
       </c>
@@ -42955,7 +43967,7 @@
         <f>Census!AF46</f>
         <v>14734</v>
       </c>
-      <c r="AG3" s="36">
+      <c r="AG3" s="39">
         <f>Census!AG46</f>
         <v>14824</v>
       </c>
@@ -43081,7 +44093,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="38" t="s">
         <v>59</v>
       </c>
       <c r="B4" s="8">
@@ -43136,7 +44148,7 @@
         <f>Census!N6</f>
         <v>1994</v>
       </c>
-      <c r="O4" s="36">
+      <c r="O4" s="39">
         <f>Census!O6</f>
         <v>2032</v>
       </c>
@@ -43208,7 +44220,7 @@
         <f>Census!AF6</f>
         <v>262</v>
       </c>
-      <c r="AG4" s="36">
+      <c r="AG4" s="39">
         <f>Census!AG6</f>
         <v>406</v>
       </c>
@@ -43312,34 +44324,130 @@
         <f>Census!BF6</f>
         <v>29</v>
       </c>
-      <c r="BG4" s="37">
+      <c r="BG4" s="40">
         <f>Census!BG6</f>
         <v>6</v>
       </c>
-      <c r="BH4" s="38">
+      <c r="BH4" s="41">
         <f>Census!BH6</f>
         <v>8</v>
       </c>
-      <c r="BI4" s="38">
+      <c r="BI4" s="41">
         <f>Census!BI6</f>
         <v>33</v>
       </c>
-      <c r="BJ4" s="38">
+      <c r="BJ4" s="41">
         <f>Census!BJ6</f>
         <v>35</v>
       </c>
-      <c r="BK4" s="38">
+      <c r="BK4" s="41">
         <f>Census!BK6</f>
         <v>9</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="35"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="35"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="35"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="35"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="35"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="35"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="35"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="35"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="35"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="35"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="35"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="35"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="35"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="35"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="35"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="35"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="35"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="35"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="35"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="35"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="35"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="35"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="35"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="35"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="35"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="35"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="35"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="35"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="35"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="35"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="35"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="35"/>
+    </row>
     <row r="37">
-      <c r="A37" s="33" t="s">
-        <v>99</v>
+      <c r="A37" s="36" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="36" t="s">
         <v>47</v>
       </c>
       <c r="B38" s="1">
@@ -43536,14 +44644,14 @@
       <c r="BK38" s="1"/>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="s">
-        <v>100</v>
+      <c r="A39" s="33" t="s">
+        <v>102</v>
       </c>
       <c r="B39" s="2">
         <f>WeeklyMovement!O3</f>
         <v>11</v>
       </c>
-      <c r="C39" s="39">
+      <c r="C39" s="42">
         <f>WeeklyMovement!P3</f>
         <v>13</v>
       </c>
@@ -43737,8 +44845,8 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="s">
-        <v>101</v>
+      <c r="A40" s="33" t="s">
+        <v>103</v>
       </c>
       <c r="Z40" s="2">
         <f>WeeklyMovement!AM4</f>
@@ -43842,208 +44950,3396 @@
       </c>
     </row>
     <row r="41" ht="27.0" customHeight="1">
-      <c r="A41" s="40" t="s">
+      <c r="A41" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="41">
+      <c r="C41" s="44">
         <f>WeeklyMovement!P9</f>
         <v>602</v>
       </c>
-      <c r="D41" s="41">
+      <c r="D41" s="44">
         <f>WeeklyMovement!Q9</f>
         <v>826</v>
       </c>
-      <c r="E41" s="41">
+      <c r="E41" s="44">
         <f>WeeklyMovement!R9</f>
         <v>1532</v>
       </c>
-      <c r="F41" s="41">
+      <c r="F41" s="44">
         <f>WeeklyMovement!S9</f>
         <v>2910</v>
       </c>
-      <c r="G41" s="41">
+      <c r="G41" s="44">
         <f>WeeklyMovement!T9</f>
         <v>1739</v>
       </c>
-      <c r="H41" s="41">
+      <c r="H41" s="44">
         <f>WeeklyMovement!U9</f>
         <v>1180</v>
       </c>
-      <c r="I41" s="41">
+      <c r="I41" s="44">
         <f>WeeklyMovement!V9</f>
         <v>646</v>
       </c>
-      <c r="J41" s="41">
+      <c r="J41" s="44">
         <f>WeeklyMovement!W9</f>
         <v>744</v>
       </c>
-      <c r="K41" s="41">
+      <c r="K41" s="44">
         <f>WeeklyMovement!X9</f>
         <v>714</v>
       </c>
-      <c r="L41" s="41">
+      <c r="L41" s="44">
         <f>WeeklyMovement!Y9</f>
         <v>800</v>
       </c>
-      <c r="M41" s="41">
+      <c r="M41" s="44">
         <f>WeeklyMovement!Z9</f>
         <v>1006</v>
       </c>
-      <c r="N41" s="41">
+      <c r="N41" s="44">
         <f>WeeklyMovement!AA9</f>
         <v>1175</v>
       </c>
-      <c r="O41" s="41">
+      <c r="O41" s="44">
         <f>WeeklyMovement!AB9</f>
         <v>1634</v>
       </c>
-      <c r="P41" s="41">
+      <c r="P41" s="44">
         <f>WeeklyMovement!AC9</f>
         <v>1115</v>
       </c>
-      <c r="Q41" s="41">
+      <c r="Q41" s="44">
         <f>WeeklyMovement!AD9</f>
         <v>667</v>
       </c>
-      <c r="R41" s="41">
+      <c r="R41" s="44">
         <f>WeeklyMovement!AE9</f>
         <v>182</v>
       </c>
-      <c r="S41" s="41">
+      <c r="S41" s="44">
         <f>WeeklyMovement!AF9</f>
         <v>0</v>
       </c>
-      <c r="T41" s="41">
+      <c r="T41" s="44">
         <f>WeeklyMovement!AG9</f>
         <v>0</v>
       </c>
-      <c r="U41" s="41">
+      <c r="U41" s="44">
         <f>WeeklyMovement!AH9</f>
         <v>15</v>
       </c>
-      <c r="V41" s="41">
+      <c r="V41" s="44">
         <f>WeeklyMovement!AI9</f>
         <v>5</v>
       </c>
-      <c r="W41" s="41">
+      <c r="W41" s="44">
         <f>WeeklyMovement!AJ9</f>
         <v>2</v>
       </c>
-      <c r="X41" s="41">
+      <c r="X41" s="44">
         <f>WeeklyMovement!AK9</f>
         <v>0</v>
       </c>
-      <c r="Y41" s="41">
+      <c r="Y41" s="44">
         <f>WeeklyMovement!AL9</f>
         <v>0</v>
       </c>
-      <c r="Z41" s="41">
+      <c r="Z41" s="44">
         <f>WeeklyMovement!AM9</f>
         <v>64</v>
       </c>
-      <c r="AA41" s="41">
+      <c r="AA41" s="44">
         <f>WeeklyMovement!AN9</f>
         <v>149</v>
       </c>
-      <c r="AB41" s="41">
+      <c r="AB41" s="44">
         <f>WeeklyMovement!AO9</f>
         <v>253</v>
       </c>
-      <c r="AC41" s="41">
+      <c r="AC41" s="44">
         <f>WeeklyMovement!AP9</f>
         <v>529</v>
       </c>
-      <c r="AD41" s="41">
+      <c r="AD41" s="44">
         <f>WeeklyMovement!AQ9</f>
         <v>525</v>
       </c>
-      <c r="AE41" s="41">
+      <c r="AE41" s="44">
         <f>WeeklyMovement!AR9</f>
         <v>459</v>
       </c>
-      <c r="AF41" s="41">
+      <c r="AF41" s="44">
         <f>WeeklyMovement!AS9</f>
         <v>453</v>
       </c>
-      <c r="AG41" s="41">
+      <c r="AG41" s="44">
         <f>WeeklyMovement!AT9</f>
         <v>522</v>
       </c>
-      <c r="AH41" s="41">
+      <c r="AH41" s="44">
         <f>WeeklyMovement!AU9</f>
         <v>284</v>
       </c>
-      <c r="AI41" s="41">
+      <c r="AI41" s="44">
         <f>WeeklyMovement!AV9</f>
         <v>537</v>
       </c>
-      <c r="AJ41" s="41">
+      <c r="AJ41" s="44">
         <f>WeeklyMovement!AW9</f>
         <v>250</v>
       </c>
-      <c r="AK41" s="41">
+      <c r="AK41" s="44">
         <f>WeeklyMovement!AX9</f>
         <v>155</v>
       </c>
-      <c r="AL41" s="41">
+      <c r="AL41" s="44">
         <f>WeeklyMovement!AY9</f>
         <v>154</v>
       </c>
-      <c r="AM41" s="41">
+      <c r="AM41" s="44">
         <f>WeeklyMovement!AZ9</f>
         <v>272</v>
       </c>
-      <c r="AN41" s="41">
+      <c r="AN41" s="44">
         <f>WeeklyMovement!BA9</f>
         <v>262</v>
       </c>
-      <c r="AO41" s="41">
+      <c r="AO41" s="44">
         <f>WeeklyMovement!BB9</f>
         <v>232</v>
       </c>
-      <c r="AP41" s="41">
+      <c r="AP41" s="44">
         <f>WeeklyMovement!BC9</f>
         <v>0</v>
       </c>
-      <c r="AQ41" s="41">
+      <c r="AQ41" s="44">
         <f>WeeklyMovement!BD9</f>
         <v>0</v>
       </c>
-      <c r="AR41" s="41">
+      <c r="AR41" s="44">
         <f>WeeklyMovement!BE9</f>
         <v>0</v>
       </c>
-      <c r="AS41" s="41">
+      <c r="AS41" s="44">
         <f>WeeklyMovement!BF9</f>
         <v>0</v>
       </c>
-      <c r="AT41" s="41">
+      <c r="AT41" s="44">
         <f>WeeklyMovement!BG9</f>
         <v>0</v>
       </c>
-      <c r="AU41" s="41">
+      <c r="AU41" s="44">
         <f>WeeklyMovement!BH9</f>
         <v>0</v>
       </c>
-      <c r="AV41" s="41">
+      <c r="AV41" s="44">
         <f>WeeklyMovement!BI9</f>
         <v>0</v>
       </c>
-      <c r="AW41" s="41">
+      <c r="AW41" s="44">
         <f>WeeklyMovement!BJ9</f>
         <v>0</v>
       </c>
-      <c r="AX41" s="41">
+      <c r="AX41" s="44">
         <f>WeeklyMovement!BK9</f>
         <v>0</v>
       </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="35"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="35"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="35"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="35"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="35"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="35"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="35"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="35"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="35"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="35"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="35"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="35"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="35"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="35"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="35"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="35"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="35"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="35"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="35"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="35"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="35"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="35"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="35"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="35"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="35"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="35"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="35"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="35"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="35"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="33" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="B72" s="18">
+        <v>45507.0</v>
+      </c>
+      <c r="C72" s="18">
+        <v>45508.0</v>
+      </c>
+      <c r="D72" s="18">
+        <v>45509.0</v>
+      </c>
+      <c r="E72" s="18">
+        <v>45510.0</v>
+      </c>
+      <c r="F72" s="18">
+        <v>45511.0</v>
+      </c>
+      <c r="G72" s="18">
+        <v>45512.0</v>
+      </c>
+      <c r="H72" s="18">
+        <v>45513.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="B73" s="45">
+        <f>DailyCensus!H2</f>
+        <v>5866</v>
+      </c>
+      <c r="C73" s="45">
+        <f>DailyCensus!I2</f>
+        <v>5596</v>
+      </c>
+      <c r="D73" s="45">
+        <f>DailyCensus!J2</f>
+        <v>5567</v>
+      </c>
+      <c r="E73" s="45">
+        <f>DailyCensus!K2</f>
+        <v>5584</v>
+      </c>
+      <c r="F73" s="45">
+        <f>DailyCensus!L2</f>
+        <v>5567</v>
+      </c>
+      <c r="G73" s="45">
+        <f>DailyCensus!M2</f>
+        <v>5566</v>
+      </c>
+      <c r="H73" s="45">
+        <f>DailyCensus!N2</f>
+        <v>5596</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B74" s="44">
+        <f>DailyCensus!H3</f>
+        <v>12</v>
+      </c>
+      <c r="C74" s="44">
+        <f>DailyCensus!I3</f>
+        <v>9</v>
+      </c>
+      <c r="D74" s="44">
+        <f>DailyCensus!J3</f>
+        <v>30</v>
+      </c>
+      <c r="E74" s="44">
+        <f>DailyCensus!K3</f>
+        <v>9</v>
+      </c>
+      <c r="F74" s="44">
+        <f>DailyCensus!L3</f>
+        <v>5</v>
+      </c>
+      <c r="G74" s="44">
+        <f>DailyCensus!M3</f>
+        <v>33</v>
+      </c>
+      <c r="H74" s="44">
+        <f>DailyCensus!N3</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="35"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="35"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="35"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="35"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="35"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="35"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="35"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="35"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="35"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="35"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="35"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="35"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="35"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="35"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="35"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="35"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="35"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="35"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="35"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="33" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B96" s="46">
+        <f>WeeklyMovement!AU1</f>
+        <v>45401</v>
+      </c>
+      <c r="C96" s="46">
+        <f>WeeklyMovement!AV1</f>
+        <v>45408</v>
+      </c>
+      <c r="D96" s="46">
+        <f>WeeklyMovement!AW1</f>
+        <v>45415</v>
+      </c>
+      <c r="E96" s="46">
+        <f>WeeklyMovement!AX1</f>
+        <v>45422</v>
+      </c>
+      <c r="F96" s="46">
+        <f>WeeklyMovement!AY1</f>
+        <v>45429</v>
+      </c>
+      <c r="G96" s="46">
+        <f>WeeklyMovement!AZ1</f>
+        <v>45436</v>
+      </c>
+      <c r="H96" s="46">
+        <f>WeeklyMovement!BA1</f>
+        <v>45443</v>
+      </c>
+      <c r="I96" s="46">
+        <f>WeeklyMovement!BB1</f>
+        <v>45450</v>
+      </c>
+      <c r="J96" s="46">
+        <f>WeeklyMovement!BC1</f>
+        <v>45457</v>
+      </c>
+      <c r="K96" s="46">
+        <f>WeeklyMovement!BD1</f>
+        <v>45464</v>
+      </c>
+      <c r="L96" s="46">
+        <f>WeeklyMovement!BE1</f>
+        <v>45471</v>
+      </c>
+      <c r="M96" s="46">
+        <f>WeeklyMovement!BF1</f>
+        <v>45478</v>
+      </c>
+      <c r="N96" s="46">
+        <f>WeeklyMovement!BG1</f>
+        <v>45485</v>
+      </c>
+      <c r="O96" s="46">
+        <f>WeeklyMovement!BH1</f>
+        <v>45492</v>
+      </c>
+      <c r="P96" s="46">
+        <f>WeeklyMovement!BI1</f>
+        <v>45499</v>
+      </c>
+      <c r="Q96" s="46">
+        <f>WeeklyMovement!BJ1</f>
+        <v>45506</v>
+      </c>
+      <c r="R96" s="46">
+        <f>WeeklyMovement!BK1</f>
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B97" s="44">
+        <f>WeeklyMovement!AU7</f>
+        <v>86</v>
+      </c>
+      <c r="C97" s="44">
+        <f>WeeklyMovement!AV7</f>
+        <v>177</v>
+      </c>
+      <c r="D97" s="44">
+        <f>WeeklyMovement!AW7</f>
+        <v>232</v>
+      </c>
+      <c r="E97" s="44">
+        <f>WeeklyMovement!AX7</f>
+        <v>55</v>
+      </c>
+      <c r="F97" s="44">
+        <f>WeeklyMovement!AY7</f>
+        <v>64</v>
+      </c>
+      <c r="G97" s="44">
+        <f>WeeklyMovement!AZ7</f>
+        <v>51</v>
+      </c>
+      <c r="H97" s="44">
+        <f>WeeklyMovement!BA7</f>
+        <v>68</v>
+      </c>
+      <c r="I97" s="44">
+        <f>WeeklyMovement!BB7</f>
+        <v>86</v>
+      </c>
+      <c r="J97" s="44">
+        <f>WeeklyMovement!BC7</f>
+        <v>51</v>
+      </c>
+      <c r="K97" s="44">
+        <f>WeeklyMovement!BD7</f>
+        <v>117</v>
+      </c>
+      <c r="L97" s="44">
+        <f>WeeklyMovement!BE7</f>
+        <v>152</v>
+      </c>
+      <c r="M97" s="44">
+        <f>WeeklyMovement!BF7</f>
+        <v>68</v>
+      </c>
+      <c r="N97" s="44">
+        <f>WeeklyMovement!BG7</f>
+        <v>100</v>
+      </c>
+      <c r="O97" s="44">
+        <f>WeeklyMovement!BH7</f>
+        <v>65</v>
+      </c>
+      <c r="P97" s="44">
+        <f>WeeklyMovement!BI7</f>
+        <v>198</v>
+      </c>
+      <c r="Q97" s="44">
+        <f>WeeklyMovement!BJ7</f>
+        <v>129</v>
+      </c>
+      <c r="R97" s="44">
+        <f>WeeklyMovement!BK7</f>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" s="44">
+        <f>WeeklyMovement!AU8</f>
+        <v>70</v>
+      </c>
+      <c r="C98" s="44">
+        <f>WeeklyMovement!AV8</f>
+        <v>108</v>
+      </c>
+      <c r="D98" s="44">
+        <f>WeeklyMovement!AW8</f>
+        <v>83</v>
+      </c>
+      <c r="E98" s="44">
+        <f>WeeklyMovement!AX8</f>
+        <v>33</v>
+      </c>
+      <c r="F98" s="44">
+        <f>WeeklyMovement!AY8</f>
+        <v>36</v>
+      </c>
+      <c r="G98" s="44">
+        <f>WeeklyMovement!AZ8</f>
+        <v>37</v>
+      </c>
+      <c r="H98" s="44">
+        <f>WeeklyMovement!BA8</f>
+        <v>45</v>
+      </c>
+      <c r="I98" s="44">
+        <f>WeeklyMovement!BB8</f>
+        <v>40</v>
+      </c>
+      <c r="J98" s="44">
+        <f>WeeklyMovement!BC8</f>
+        <v>32</v>
+      </c>
+      <c r="K98" s="44">
+        <f>WeeklyMovement!BD8</f>
+        <v>78</v>
+      </c>
+      <c r="L98" s="44">
+        <f>WeeklyMovement!BE8</f>
+        <v>125</v>
+      </c>
+      <c r="M98" s="44">
+        <f>WeeklyMovement!BF8</f>
+        <v>51</v>
+      </c>
+      <c r="N98" s="44">
+        <f>WeeklyMovement!BG8</f>
+        <v>89</v>
+      </c>
+      <c r="O98" s="44">
+        <f>WeeklyMovement!BH8</f>
+        <v>50</v>
+      </c>
+      <c r="P98" s="44">
+        <f>WeeklyMovement!BI8</f>
+        <v>172</v>
+      </c>
+      <c r="Q98" s="44">
+        <f>WeeklyMovement!BJ8</f>
+        <v>115</v>
+      </c>
+      <c r="R98" s="44">
+        <f>WeeklyMovement!BK8</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="35"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="35"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="35"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="35"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="35"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="35"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="35"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="35"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="35"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="35"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="35"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="35"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="35"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="35"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="35"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="35"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="35"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="35"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="35"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="35"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="33" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="35"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="35"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="35"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="35"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="35"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="35"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="35"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="35"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="35"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="35"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="35"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="35"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="35"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="35"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="35"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="35"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="35"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="35"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="35"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="35"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="35"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="35"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="35"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="35"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="35"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="35"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="35"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="35"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="35"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="35"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="35"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="35"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="35"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="35"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="35"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="35"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="35"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="35"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="35"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="35"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="35"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="35"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="35"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="35"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="35"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="35"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="35"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="35"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="35"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="35"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="35"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="35"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="35"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="35"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="35"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="35"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="35"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="35"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="35"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="35"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="35"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="35"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="35"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="35"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="35"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="35"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="35"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="35"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="35"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="35"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="35"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="35"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="35"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="35"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="35"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="35"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="35"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="35"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="35"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="35"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="35"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="35"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="35"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="35"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="35"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="35"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="35"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="35"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="35"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="35"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="35"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="35"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="35"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="35"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="35"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="35"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="35"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="35"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="35"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="35"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="35"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="35"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="35"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="35"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="35"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="35"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="35"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="35"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="35"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="35"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="35"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="35"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="35"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="35"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="35"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="35"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="35"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="35"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="35"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="35"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="35"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="35"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="35"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="35"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="35"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="35"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="35"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="35"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="35"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="35"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="35"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="35"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="35"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="35"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="35"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="35"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="35"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="35"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="35"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="35"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="35"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="35"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="35"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="35"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="35"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="35"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="35"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="35"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="35"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="35"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="35"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="35"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="35"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="35"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="35"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="35"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="35"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="35"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="35"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="35"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="35"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="35"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="35"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="35"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="35"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="35"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="35"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="35"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="35"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="35"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="35"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="35"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="35"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="35"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="35"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="35"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="35"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="35"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="35"/>
+    </row>
+    <row r="299">
+      <c r="A299" s="35"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="35"/>
+    </row>
+    <row r="301">
+      <c r="A301" s="35"/>
+    </row>
+    <row r="302">
+      <c r="A302" s="35"/>
+    </row>
+    <row r="303">
+      <c r="A303" s="35"/>
+    </row>
+    <row r="304">
+      <c r="A304" s="35"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="35"/>
+    </row>
+    <row r="306">
+      <c r="A306" s="35"/>
+    </row>
+    <row r="307">
+      <c r="A307" s="35"/>
+    </row>
+    <row r="308">
+      <c r="A308" s="35"/>
+    </row>
+    <row r="309">
+      <c r="A309" s="35"/>
+    </row>
+    <row r="310">
+      <c r="A310" s="35"/>
+    </row>
+    <row r="311">
+      <c r="A311" s="35"/>
+    </row>
+    <row r="312">
+      <c r="A312" s="35"/>
+    </row>
+    <row r="313">
+      <c r="A313" s="35"/>
+    </row>
+    <row r="314">
+      <c r="A314" s="35"/>
+    </row>
+    <row r="315">
+      <c r="A315" s="35"/>
+    </row>
+    <row r="316">
+      <c r="A316" s="35"/>
+    </row>
+    <row r="317">
+      <c r="A317" s="35"/>
+    </row>
+    <row r="318">
+      <c r="A318" s="35"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="35"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="35"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="35"/>
+    </row>
+    <row r="322">
+      <c r="A322" s="35"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="35"/>
+    </row>
+    <row r="324">
+      <c r="A324" s="35"/>
+    </row>
+    <row r="325">
+      <c r="A325" s="35"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="35"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="35"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="35"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="35"/>
+    </row>
+    <row r="330">
+      <c r="A330" s="35"/>
+    </row>
+    <row r="331">
+      <c r="A331" s="35"/>
+    </row>
+    <row r="332">
+      <c r="A332" s="35"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="35"/>
+    </row>
+    <row r="334">
+      <c r="A334" s="35"/>
+    </row>
+    <row r="335">
+      <c r="A335" s="35"/>
+    </row>
+    <row r="336">
+      <c r="A336" s="35"/>
+    </row>
+    <row r="337">
+      <c r="A337" s="35"/>
+    </row>
+    <row r="338">
+      <c r="A338" s="35"/>
+    </row>
+    <row r="339">
+      <c r="A339" s="35"/>
+    </row>
+    <row r="340">
+      <c r="A340" s="35"/>
+    </row>
+    <row r="341">
+      <c r="A341" s="35"/>
+    </row>
+    <row r="342">
+      <c r="A342" s="35"/>
+    </row>
+    <row r="343">
+      <c r="A343" s="35"/>
+    </row>
+    <row r="344">
+      <c r="A344" s="35"/>
+    </row>
+    <row r="345">
+      <c r="A345" s="35"/>
+    </row>
+    <row r="346">
+      <c r="A346" s="35"/>
+    </row>
+    <row r="347">
+      <c r="A347" s="35"/>
+    </row>
+    <row r="348">
+      <c r="A348" s="35"/>
+    </row>
+    <row r="349">
+      <c r="A349" s="35"/>
+    </row>
+    <row r="350">
+      <c r="A350" s="35"/>
+    </row>
+    <row r="351">
+      <c r="A351" s="35"/>
+    </row>
+    <row r="352">
+      <c r="A352" s="35"/>
+    </row>
+    <row r="353">
+      <c r="A353" s="35"/>
+    </row>
+    <row r="354">
+      <c r="A354" s="35"/>
+    </row>
+    <row r="355">
+      <c r="A355" s="35"/>
+    </row>
+    <row r="356">
+      <c r="A356" s="35"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="35"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="35"/>
+    </row>
+    <row r="359">
+      <c r="A359" s="35"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="35"/>
+    </row>
+    <row r="361">
+      <c r="A361" s="35"/>
+    </row>
+    <row r="362">
+      <c r="A362" s="35"/>
+    </row>
+    <row r="363">
+      <c r="A363" s="35"/>
+    </row>
+    <row r="364">
+      <c r="A364" s="35"/>
+    </row>
+    <row r="365">
+      <c r="A365" s="35"/>
+    </row>
+    <row r="366">
+      <c r="A366" s="35"/>
+    </row>
+    <row r="367">
+      <c r="A367" s="35"/>
+    </row>
+    <row r="368">
+      <c r="A368" s="35"/>
+    </row>
+    <row r="369">
+      <c r="A369" s="35"/>
+    </row>
+    <row r="370">
+      <c r="A370" s="35"/>
+    </row>
+    <row r="371">
+      <c r="A371" s="35"/>
+    </row>
+    <row r="372">
+      <c r="A372" s="35"/>
+    </row>
+    <row r="373">
+      <c r="A373" s="35"/>
+    </row>
+    <row r="374">
+      <c r="A374" s="35"/>
+    </row>
+    <row r="375">
+      <c r="A375" s="35"/>
+    </row>
+    <row r="376">
+      <c r="A376" s="35"/>
+    </row>
+    <row r="377">
+      <c r="A377" s="35"/>
+    </row>
+    <row r="378">
+      <c r="A378" s="35"/>
+    </row>
+    <row r="379">
+      <c r="A379" s="35"/>
+    </row>
+    <row r="380">
+      <c r="A380" s="35"/>
+    </row>
+    <row r="381">
+      <c r="A381" s="35"/>
+    </row>
+    <row r="382">
+      <c r="A382" s="35"/>
+    </row>
+    <row r="383">
+      <c r="A383" s="35"/>
+    </row>
+    <row r="384">
+      <c r="A384" s="35"/>
+    </row>
+    <row r="385">
+      <c r="A385" s="35"/>
+    </row>
+    <row r="386">
+      <c r="A386" s="35"/>
+    </row>
+    <row r="387">
+      <c r="A387" s="35"/>
+    </row>
+    <row r="388">
+      <c r="A388" s="35"/>
+    </row>
+    <row r="389">
+      <c r="A389" s="35"/>
+    </row>
+    <row r="390">
+      <c r="A390" s="35"/>
+    </row>
+    <row r="391">
+      <c r="A391" s="35"/>
+    </row>
+    <row r="392">
+      <c r="A392" s="35"/>
+    </row>
+    <row r="393">
+      <c r="A393" s="35"/>
+    </row>
+    <row r="394">
+      <c r="A394" s="35"/>
+    </row>
+    <row r="395">
+      <c r="A395" s="35"/>
+    </row>
+    <row r="396">
+      <c r="A396" s="35"/>
+    </row>
+    <row r="397">
+      <c r="A397" s="35"/>
+    </row>
+    <row r="398">
+      <c r="A398" s="35"/>
+    </row>
+    <row r="399">
+      <c r="A399" s="35"/>
+    </row>
+    <row r="400">
+      <c r="A400" s="35"/>
+    </row>
+    <row r="401">
+      <c r="A401" s="35"/>
+    </row>
+    <row r="402">
+      <c r="A402" s="35"/>
+    </row>
+    <row r="403">
+      <c r="A403" s="35"/>
+    </row>
+    <row r="404">
+      <c r="A404" s="35"/>
+    </row>
+    <row r="405">
+      <c r="A405" s="35"/>
+    </row>
+    <row r="406">
+      <c r="A406" s="35"/>
+    </row>
+    <row r="407">
+      <c r="A407" s="35"/>
+    </row>
+    <row r="408">
+      <c r="A408" s="35"/>
+    </row>
+    <row r="409">
+      <c r="A409" s="35"/>
+    </row>
+    <row r="410">
+      <c r="A410" s="35"/>
+    </row>
+    <row r="411">
+      <c r="A411" s="35"/>
+    </row>
+    <row r="412">
+      <c r="A412" s="35"/>
+    </row>
+    <row r="413">
+      <c r="A413" s="35"/>
+    </row>
+    <row r="414">
+      <c r="A414" s="35"/>
+    </row>
+    <row r="415">
+      <c r="A415" s="35"/>
+    </row>
+    <row r="416">
+      <c r="A416" s="35"/>
+    </row>
+    <row r="417">
+      <c r="A417" s="35"/>
+    </row>
+    <row r="418">
+      <c r="A418" s="35"/>
+    </row>
+    <row r="419">
+      <c r="A419" s="35"/>
+    </row>
+    <row r="420">
+      <c r="A420" s="35"/>
+    </row>
+    <row r="421">
+      <c r="A421" s="35"/>
+    </row>
+    <row r="422">
+      <c r="A422" s="35"/>
+    </row>
+    <row r="423">
+      <c r="A423" s="35"/>
+    </row>
+    <row r="424">
+      <c r="A424" s="35"/>
+    </row>
+    <row r="425">
+      <c r="A425" s="35"/>
+    </row>
+    <row r="426">
+      <c r="A426" s="35"/>
+    </row>
+    <row r="427">
+      <c r="A427" s="35"/>
+    </row>
+    <row r="428">
+      <c r="A428" s="35"/>
+    </row>
+    <row r="429">
+      <c r="A429" s="35"/>
+    </row>
+    <row r="430">
+      <c r="A430" s="35"/>
+    </row>
+    <row r="431">
+      <c r="A431" s="35"/>
+    </row>
+    <row r="432">
+      <c r="A432" s="35"/>
+    </row>
+    <row r="433">
+      <c r="A433" s="35"/>
+    </row>
+    <row r="434">
+      <c r="A434" s="35"/>
+    </row>
+    <row r="435">
+      <c r="A435" s="35"/>
+    </row>
+    <row r="436">
+      <c r="A436" s="35"/>
+    </row>
+    <row r="437">
+      <c r="A437" s="35"/>
+    </row>
+    <row r="438">
+      <c r="A438" s="35"/>
+    </row>
+    <row r="439">
+      <c r="A439" s="35"/>
+    </row>
+    <row r="440">
+      <c r="A440" s="35"/>
+    </row>
+    <row r="441">
+      <c r="A441" s="35"/>
+    </row>
+    <row r="442">
+      <c r="A442" s="35"/>
+    </row>
+    <row r="443">
+      <c r="A443" s="35"/>
+    </row>
+    <row r="444">
+      <c r="A444" s="35"/>
+    </row>
+    <row r="445">
+      <c r="A445" s="35"/>
+    </row>
+    <row r="446">
+      <c r="A446" s="35"/>
+    </row>
+    <row r="447">
+      <c r="A447" s="35"/>
+    </row>
+    <row r="448">
+      <c r="A448" s="35"/>
+    </row>
+    <row r="449">
+      <c r="A449" s="35"/>
+    </row>
+    <row r="450">
+      <c r="A450" s="35"/>
+    </row>
+    <row r="451">
+      <c r="A451" s="35"/>
+    </row>
+    <row r="452">
+      <c r="A452" s="35"/>
+    </row>
+    <row r="453">
+      <c r="A453" s="35"/>
+    </row>
+    <row r="454">
+      <c r="A454" s="35"/>
+    </row>
+    <row r="455">
+      <c r="A455" s="35"/>
+    </row>
+    <row r="456">
+      <c r="A456" s="35"/>
+    </row>
+    <row r="457">
+      <c r="A457" s="35"/>
+    </row>
+    <row r="458">
+      <c r="A458" s="35"/>
+    </row>
+    <row r="459">
+      <c r="A459" s="35"/>
+    </row>
+    <row r="460">
+      <c r="A460" s="35"/>
+    </row>
+    <row r="461">
+      <c r="A461" s="35"/>
+    </row>
+    <row r="462">
+      <c r="A462" s="35"/>
+    </row>
+    <row r="463">
+      <c r="A463" s="35"/>
+    </row>
+    <row r="464">
+      <c r="A464" s="35"/>
+    </row>
+    <row r="465">
+      <c r="A465" s="35"/>
+    </row>
+    <row r="466">
+      <c r="A466" s="35"/>
+    </row>
+    <row r="467">
+      <c r="A467" s="35"/>
+    </row>
+    <row r="468">
+      <c r="A468" s="35"/>
+    </row>
+    <row r="469">
+      <c r="A469" s="35"/>
+    </row>
+    <row r="470">
+      <c r="A470" s="35"/>
+    </row>
+    <row r="471">
+      <c r="A471" s="35"/>
+    </row>
+    <row r="472">
+      <c r="A472" s="35"/>
+    </row>
+    <row r="473">
+      <c r="A473" s="35"/>
+    </row>
+    <row r="474">
+      <c r="A474" s="35"/>
+    </row>
+    <row r="475">
+      <c r="A475" s="35"/>
+    </row>
+    <row r="476">
+      <c r="A476" s="35"/>
+    </row>
+    <row r="477">
+      <c r="A477" s="35"/>
+    </row>
+    <row r="478">
+      <c r="A478" s="35"/>
+    </row>
+    <row r="479">
+      <c r="A479" s="35"/>
+    </row>
+    <row r="480">
+      <c r="A480" s="35"/>
+    </row>
+    <row r="481">
+      <c r="A481" s="35"/>
+    </row>
+    <row r="482">
+      <c r="A482" s="35"/>
+    </row>
+    <row r="483">
+      <c r="A483" s="35"/>
+    </row>
+    <row r="484">
+      <c r="A484" s="35"/>
+    </row>
+    <row r="485">
+      <c r="A485" s="35"/>
+    </row>
+    <row r="486">
+      <c r="A486" s="35"/>
+    </row>
+    <row r="487">
+      <c r="A487" s="35"/>
+    </row>
+    <row r="488">
+      <c r="A488" s="35"/>
+    </row>
+    <row r="489">
+      <c r="A489" s="35"/>
+    </row>
+    <row r="490">
+      <c r="A490" s="35"/>
+    </row>
+    <row r="491">
+      <c r="A491" s="35"/>
+    </row>
+    <row r="492">
+      <c r="A492" s="35"/>
+    </row>
+    <row r="493">
+      <c r="A493" s="35"/>
+    </row>
+    <row r="494">
+      <c r="A494" s="35"/>
+    </row>
+    <row r="495">
+      <c r="A495" s="35"/>
+    </row>
+    <row r="496">
+      <c r="A496" s="35"/>
+    </row>
+    <row r="497">
+      <c r="A497" s="35"/>
+    </row>
+    <row r="498">
+      <c r="A498" s="35"/>
+    </row>
+    <row r="499">
+      <c r="A499" s="35"/>
+    </row>
+    <row r="500">
+      <c r="A500" s="35"/>
+    </row>
+    <row r="501">
+      <c r="A501" s="35"/>
+    </row>
+    <row r="502">
+      <c r="A502" s="35"/>
+    </row>
+    <row r="503">
+      <c r="A503" s="35"/>
+    </row>
+    <row r="504">
+      <c r="A504" s="35"/>
+    </row>
+    <row r="505">
+      <c r="A505" s="35"/>
+    </row>
+    <row r="506">
+      <c r="A506" s="35"/>
+    </row>
+    <row r="507">
+      <c r="A507" s="35"/>
+    </row>
+    <row r="508">
+      <c r="A508" s="35"/>
+    </row>
+    <row r="509">
+      <c r="A509" s="35"/>
+    </row>
+    <row r="510">
+      <c r="A510" s="35"/>
+    </row>
+    <row r="511">
+      <c r="A511" s="35"/>
+    </row>
+    <row r="512">
+      <c r="A512" s="35"/>
+    </row>
+    <row r="513">
+      <c r="A513" s="35"/>
+    </row>
+    <row r="514">
+      <c r="A514" s="35"/>
+    </row>
+    <row r="515">
+      <c r="A515" s="35"/>
+    </row>
+    <row r="516">
+      <c r="A516" s="35"/>
+    </row>
+    <row r="517">
+      <c r="A517" s="35"/>
+    </row>
+    <row r="518">
+      <c r="A518" s="35"/>
+    </row>
+    <row r="519">
+      <c r="A519" s="35"/>
+    </row>
+    <row r="520">
+      <c r="A520" s="35"/>
+    </row>
+    <row r="521">
+      <c r="A521" s="35"/>
+    </row>
+    <row r="522">
+      <c r="A522" s="35"/>
+    </row>
+    <row r="523">
+      <c r="A523" s="35"/>
+    </row>
+    <row r="524">
+      <c r="A524" s="35"/>
+    </row>
+    <row r="525">
+      <c r="A525" s="35"/>
+    </row>
+    <row r="526">
+      <c r="A526" s="35"/>
+    </row>
+    <row r="527">
+      <c r="A527" s="35"/>
+    </row>
+    <row r="528">
+      <c r="A528" s="35"/>
+    </row>
+    <row r="529">
+      <c r="A529" s="35"/>
+    </row>
+    <row r="530">
+      <c r="A530" s="35"/>
+    </row>
+    <row r="531">
+      <c r="A531" s="35"/>
+    </row>
+    <row r="532">
+      <c r="A532" s="35"/>
+    </row>
+    <row r="533">
+      <c r="A533" s="35"/>
+    </row>
+    <row r="534">
+      <c r="A534" s="35"/>
+    </row>
+    <row r="535">
+      <c r="A535" s="35"/>
+    </row>
+    <row r="536">
+      <c r="A536" s="35"/>
+    </row>
+    <row r="537">
+      <c r="A537" s="35"/>
+    </row>
+    <row r="538">
+      <c r="A538" s="35"/>
+    </row>
+    <row r="539">
+      <c r="A539" s="35"/>
+    </row>
+    <row r="540">
+      <c r="A540" s="35"/>
+    </row>
+    <row r="541">
+      <c r="A541" s="35"/>
+    </row>
+    <row r="542">
+      <c r="A542" s="35"/>
+    </row>
+    <row r="543">
+      <c r="A543" s="35"/>
+    </row>
+    <row r="544">
+      <c r="A544" s="35"/>
+    </row>
+    <row r="545">
+      <c r="A545" s="35"/>
+    </row>
+    <row r="546">
+      <c r="A546" s="35"/>
+    </row>
+    <row r="547">
+      <c r="A547" s="35"/>
+    </row>
+    <row r="548">
+      <c r="A548" s="35"/>
+    </row>
+    <row r="549">
+      <c r="A549" s="35"/>
+    </row>
+    <row r="550">
+      <c r="A550" s="35"/>
+    </row>
+    <row r="551">
+      <c r="A551" s="35"/>
+    </row>
+    <row r="552">
+      <c r="A552" s="35"/>
+    </row>
+    <row r="553">
+      <c r="A553" s="35"/>
+    </row>
+    <row r="554">
+      <c r="A554" s="35"/>
+    </row>
+    <row r="555">
+      <c r="A555" s="35"/>
+    </row>
+    <row r="556">
+      <c r="A556" s="35"/>
+    </row>
+    <row r="557">
+      <c r="A557" s="35"/>
+    </row>
+    <row r="558">
+      <c r="A558" s="35"/>
+    </row>
+    <row r="559">
+      <c r="A559" s="35"/>
+    </row>
+    <row r="560">
+      <c r="A560" s="35"/>
+    </row>
+    <row r="561">
+      <c r="A561" s="35"/>
+    </row>
+    <row r="562">
+      <c r="A562" s="35"/>
+    </row>
+    <row r="563">
+      <c r="A563" s="35"/>
+    </row>
+    <row r="564">
+      <c r="A564" s="35"/>
+    </row>
+    <row r="565">
+      <c r="A565" s="35"/>
+    </row>
+    <row r="566">
+      <c r="A566" s="35"/>
+    </row>
+    <row r="567">
+      <c r="A567" s="35"/>
+    </row>
+    <row r="568">
+      <c r="A568" s="35"/>
+    </row>
+    <row r="569">
+      <c r="A569" s="35"/>
+    </row>
+    <row r="570">
+      <c r="A570" s="35"/>
+    </row>
+    <row r="571">
+      <c r="A571" s="35"/>
+    </row>
+    <row r="572">
+      <c r="A572" s="35"/>
+    </row>
+    <row r="573">
+      <c r="A573" s="35"/>
+    </row>
+    <row r="574">
+      <c r="A574" s="35"/>
+    </row>
+    <row r="575">
+      <c r="A575" s="35"/>
+    </row>
+    <row r="576">
+      <c r="A576" s="35"/>
+    </row>
+    <row r="577">
+      <c r="A577" s="35"/>
+    </row>
+    <row r="578">
+      <c r="A578" s="35"/>
+    </row>
+    <row r="579">
+      <c r="A579" s="35"/>
+    </row>
+    <row r="580">
+      <c r="A580" s="35"/>
+    </row>
+    <row r="581">
+      <c r="A581" s="35"/>
+    </row>
+    <row r="582">
+      <c r="A582" s="35"/>
+    </row>
+    <row r="583">
+      <c r="A583" s="35"/>
+    </row>
+    <row r="584">
+      <c r="A584" s="35"/>
+    </row>
+    <row r="585">
+      <c r="A585" s="35"/>
+    </row>
+    <row r="586">
+      <c r="A586" s="35"/>
+    </row>
+    <row r="587">
+      <c r="A587" s="35"/>
+    </row>
+    <row r="588">
+      <c r="A588" s="35"/>
+    </row>
+    <row r="589">
+      <c r="A589" s="35"/>
+    </row>
+    <row r="590">
+      <c r="A590" s="35"/>
+    </row>
+    <row r="591">
+      <c r="A591" s="35"/>
+    </row>
+    <row r="592">
+      <c r="A592" s="35"/>
+    </row>
+    <row r="593">
+      <c r="A593" s="35"/>
+    </row>
+    <row r="594">
+      <c r="A594" s="35"/>
+    </row>
+    <row r="595">
+      <c r="A595" s="35"/>
+    </row>
+    <row r="596">
+      <c r="A596" s="35"/>
+    </row>
+    <row r="597">
+      <c r="A597" s="35"/>
+    </row>
+    <row r="598">
+      <c r="A598" s="35"/>
+    </row>
+    <row r="599">
+      <c r="A599" s="35"/>
+    </row>
+    <row r="600">
+      <c r="A600" s="35"/>
+    </row>
+    <row r="601">
+      <c r="A601" s="35"/>
+    </row>
+    <row r="602">
+      <c r="A602" s="35"/>
+    </row>
+    <row r="603">
+      <c r="A603" s="35"/>
+    </row>
+    <row r="604">
+      <c r="A604" s="35"/>
+    </row>
+    <row r="605">
+      <c r="A605" s="35"/>
+    </row>
+    <row r="606">
+      <c r="A606" s="35"/>
+    </row>
+    <row r="607">
+      <c r="A607" s="35"/>
+    </row>
+    <row r="608">
+      <c r="A608" s="35"/>
+    </row>
+    <row r="609">
+      <c r="A609" s="35"/>
+    </row>
+    <row r="610">
+      <c r="A610" s="35"/>
+    </row>
+    <row r="611">
+      <c r="A611" s="35"/>
+    </row>
+    <row r="612">
+      <c r="A612" s="35"/>
+    </row>
+    <row r="613">
+      <c r="A613" s="35"/>
+    </row>
+    <row r="614">
+      <c r="A614" s="35"/>
+    </row>
+    <row r="615">
+      <c r="A615" s="35"/>
+    </row>
+    <row r="616">
+      <c r="A616" s="35"/>
+    </row>
+    <row r="617">
+      <c r="A617" s="35"/>
+    </row>
+    <row r="618">
+      <c r="A618" s="35"/>
+    </row>
+    <row r="619">
+      <c r="A619" s="35"/>
+    </row>
+    <row r="620">
+      <c r="A620" s="35"/>
+    </row>
+    <row r="621">
+      <c r="A621" s="35"/>
+    </row>
+    <row r="622">
+      <c r="A622" s="35"/>
+    </row>
+    <row r="623">
+      <c r="A623" s="35"/>
+    </row>
+    <row r="624">
+      <c r="A624" s="35"/>
+    </row>
+    <row r="625">
+      <c r="A625" s="35"/>
+    </row>
+    <row r="626">
+      <c r="A626" s="35"/>
+    </row>
+    <row r="627">
+      <c r="A627" s="35"/>
+    </row>
+    <row r="628">
+      <c r="A628" s="35"/>
+    </row>
+    <row r="629">
+      <c r="A629" s="35"/>
+    </row>
+    <row r="630">
+      <c r="A630" s="35"/>
+    </row>
+    <row r="631">
+      <c r="A631" s="35"/>
+    </row>
+    <row r="632">
+      <c r="A632" s="35"/>
+    </row>
+    <row r="633">
+      <c r="A633" s="35"/>
+    </row>
+    <row r="634">
+      <c r="A634" s="35"/>
+    </row>
+    <row r="635">
+      <c r="A635" s="35"/>
+    </row>
+    <row r="636">
+      <c r="A636" s="35"/>
+    </row>
+    <row r="637">
+      <c r="A637" s="35"/>
+    </row>
+    <row r="638">
+      <c r="A638" s="35"/>
+    </row>
+    <row r="639">
+      <c r="A639" s="35"/>
+    </row>
+    <row r="640">
+      <c r="A640" s="35"/>
+    </row>
+    <row r="641">
+      <c r="A641" s="35"/>
+    </row>
+    <row r="642">
+      <c r="A642" s="35"/>
+    </row>
+    <row r="643">
+      <c r="A643" s="35"/>
+    </row>
+    <row r="644">
+      <c r="A644" s="35"/>
+    </row>
+    <row r="645">
+      <c r="A645" s="35"/>
+    </row>
+    <row r="646">
+      <c r="A646" s="35"/>
+    </row>
+    <row r="647">
+      <c r="A647" s="35"/>
+    </row>
+    <row r="648">
+      <c r="A648" s="35"/>
+    </row>
+    <row r="649">
+      <c r="A649" s="35"/>
+    </row>
+    <row r="650">
+      <c r="A650" s="35"/>
+    </row>
+    <row r="651">
+      <c r="A651" s="35"/>
+    </row>
+    <row r="652">
+      <c r="A652" s="35"/>
+    </row>
+    <row r="653">
+      <c r="A653" s="35"/>
+    </row>
+    <row r="654">
+      <c r="A654" s="35"/>
+    </row>
+    <row r="655">
+      <c r="A655" s="35"/>
+    </row>
+    <row r="656">
+      <c r="A656" s="35"/>
+    </row>
+    <row r="657">
+      <c r="A657" s="35"/>
+    </row>
+    <row r="658">
+      <c r="A658" s="35"/>
+    </row>
+    <row r="659">
+      <c r="A659" s="35"/>
+    </row>
+    <row r="660">
+      <c r="A660" s="35"/>
+    </row>
+    <row r="661">
+      <c r="A661" s="35"/>
+    </row>
+    <row r="662">
+      <c r="A662" s="35"/>
+    </row>
+    <row r="663">
+      <c r="A663" s="35"/>
+    </row>
+    <row r="664">
+      <c r="A664" s="35"/>
+    </row>
+    <row r="665">
+      <c r="A665" s="35"/>
+    </row>
+    <row r="666">
+      <c r="A666" s="35"/>
+    </row>
+    <row r="667">
+      <c r="A667" s="35"/>
+    </row>
+    <row r="668">
+      <c r="A668" s="35"/>
+    </row>
+    <row r="669">
+      <c r="A669" s="35"/>
+    </row>
+    <row r="670">
+      <c r="A670" s="35"/>
+    </row>
+    <row r="671">
+      <c r="A671" s="35"/>
+    </row>
+    <row r="672">
+      <c r="A672" s="35"/>
+    </row>
+    <row r="673">
+      <c r="A673" s="35"/>
+    </row>
+    <row r="674">
+      <c r="A674" s="35"/>
+    </row>
+    <row r="675">
+      <c r="A675" s="35"/>
+    </row>
+    <row r="676">
+      <c r="A676" s="35"/>
+    </row>
+    <row r="677">
+      <c r="A677" s="35"/>
+    </row>
+    <row r="678">
+      <c r="A678" s="35"/>
+    </row>
+    <row r="679">
+      <c r="A679" s="35"/>
+    </row>
+    <row r="680">
+      <c r="A680" s="35"/>
+    </row>
+    <row r="681">
+      <c r="A681" s="35"/>
+    </row>
+    <row r="682">
+      <c r="A682" s="35"/>
+    </row>
+    <row r="683">
+      <c r="A683" s="35"/>
+    </row>
+    <row r="684">
+      <c r="A684" s="35"/>
+    </row>
+    <row r="685">
+      <c r="A685" s="35"/>
+    </row>
+    <row r="686">
+      <c r="A686" s="35"/>
+    </row>
+    <row r="687">
+      <c r="A687" s="35"/>
+    </row>
+    <row r="688">
+      <c r="A688" s="35"/>
+    </row>
+    <row r="689">
+      <c r="A689" s="35"/>
+    </row>
+    <row r="690">
+      <c r="A690" s="35"/>
+    </row>
+    <row r="691">
+      <c r="A691" s="35"/>
+    </row>
+    <row r="692">
+      <c r="A692" s="35"/>
+    </row>
+    <row r="693">
+      <c r="A693" s="35"/>
+    </row>
+    <row r="694">
+      <c r="A694" s="35"/>
+    </row>
+    <row r="695">
+      <c r="A695" s="35"/>
+    </row>
+    <row r="696">
+      <c r="A696" s="35"/>
+    </row>
+    <row r="697">
+      <c r="A697" s="35"/>
+    </row>
+    <row r="698">
+      <c r="A698" s="35"/>
+    </row>
+    <row r="699">
+      <c r="A699" s="35"/>
+    </row>
+    <row r="700">
+      <c r="A700" s="35"/>
+    </row>
+    <row r="701">
+      <c r="A701" s="35"/>
+    </row>
+    <row r="702">
+      <c r="A702" s="35"/>
+    </row>
+    <row r="703">
+      <c r="A703" s="35"/>
+    </row>
+    <row r="704">
+      <c r="A704" s="35"/>
+    </row>
+    <row r="705">
+      <c r="A705" s="35"/>
+    </row>
+    <row r="706">
+      <c r="A706" s="35"/>
+    </row>
+    <row r="707">
+      <c r="A707" s="35"/>
+    </row>
+    <row r="708">
+      <c r="A708" s="35"/>
+    </row>
+    <row r="709">
+      <c r="A709" s="35"/>
+    </row>
+    <row r="710">
+      <c r="A710" s="35"/>
+    </row>
+    <row r="711">
+      <c r="A711" s="35"/>
+    </row>
+    <row r="712">
+      <c r="A712" s="35"/>
+    </row>
+    <row r="713">
+      <c r="A713" s="35"/>
+    </row>
+    <row r="714">
+      <c r="A714" s="35"/>
+    </row>
+    <row r="715">
+      <c r="A715" s="35"/>
+    </row>
+    <row r="716">
+      <c r="A716" s="35"/>
+    </row>
+    <row r="717">
+      <c r="A717" s="35"/>
+    </row>
+    <row r="718">
+      <c r="A718" s="35"/>
+    </row>
+    <row r="719">
+      <c r="A719" s="35"/>
+    </row>
+    <row r="720">
+      <c r="A720" s="35"/>
+    </row>
+    <row r="721">
+      <c r="A721" s="35"/>
+    </row>
+    <row r="722">
+      <c r="A722" s="35"/>
+    </row>
+    <row r="723">
+      <c r="A723" s="35"/>
+    </row>
+    <row r="724">
+      <c r="A724" s="35"/>
+    </row>
+    <row r="725">
+      <c r="A725" s="35"/>
+    </row>
+    <row r="726">
+      <c r="A726" s="35"/>
+    </row>
+    <row r="727">
+      <c r="A727" s="35"/>
+    </row>
+    <row r="728">
+      <c r="A728" s="35"/>
+    </row>
+    <row r="729">
+      <c r="A729" s="35"/>
+    </row>
+    <row r="730">
+      <c r="A730" s="35"/>
+    </row>
+    <row r="731">
+      <c r="A731" s="35"/>
+    </row>
+    <row r="732">
+      <c r="A732" s="35"/>
+    </row>
+    <row r="733">
+      <c r="A733" s="35"/>
+    </row>
+    <row r="734">
+      <c r="A734" s="35"/>
+    </row>
+    <row r="735">
+      <c r="A735" s="35"/>
+    </row>
+    <row r="736">
+      <c r="A736" s="35"/>
+    </row>
+    <row r="737">
+      <c r="A737" s="35"/>
+    </row>
+    <row r="738">
+      <c r="A738" s="35"/>
+    </row>
+    <row r="739">
+      <c r="A739" s="35"/>
+    </row>
+    <row r="740">
+      <c r="A740" s="35"/>
+    </row>
+    <row r="741">
+      <c r="A741" s="35"/>
+    </row>
+    <row r="742">
+      <c r="A742" s="35"/>
+    </row>
+    <row r="743">
+      <c r="A743" s="35"/>
+    </row>
+    <row r="744">
+      <c r="A744" s="35"/>
+    </row>
+    <row r="745">
+      <c r="A745" s="35"/>
+    </row>
+    <row r="746">
+      <c r="A746" s="35"/>
+    </row>
+    <row r="747">
+      <c r="A747" s="35"/>
+    </row>
+    <row r="748">
+      <c r="A748" s="35"/>
+    </row>
+    <row r="749">
+      <c r="A749" s="35"/>
+    </row>
+    <row r="750">
+      <c r="A750" s="35"/>
+    </row>
+    <row r="751">
+      <c r="A751" s="35"/>
+    </row>
+    <row r="752">
+      <c r="A752" s="35"/>
+    </row>
+    <row r="753">
+      <c r="A753" s="35"/>
+    </row>
+    <row r="754">
+      <c r="A754" s="35"/>
+    </row>
+    <row r="755">
+      <c r="A755" s="35"/>
+    </row>
+    <row r="756">
+      <c r="A756" s="35"/>
+    </row>
+    <row r="757">
+      <c r="A757" s="35"/>
+    </row>
+    <row r="758">
+      <c r="A758" s="35"/>
+    </row>
+    <row r="759">
+      <c r="A759" s="35"/>
+    </row>
+    <row r="760">
+      <c r="A760" s="35"/>
+    </row>
+    <row r="761">
+      <c r="A761" s="35"/>
+    </row>
+    <row r="762">
+      <c r="A762" s="35"/>
+    </row>
+    <row r="763">
+      <c r="A763" s="35"/>
+    </row>
+    <row r="764">
+      <c r="A764" s="35"/>
+    </row>
+    <row r="765">
+      <c r="A765" s="35"/>
+    </row>
+    <row r="766">
+      <c r="A766" s="35"/>
+    </row>
+    <row r="767">
+      <c r="A767" s="35"/>
+    </row>
+    <row r="768">
+      <c r="A768" s="35"/>
+    </row>
+    <row r="769">
+      <c r="A769" s="35"/>
+    </row>
+    <row r="770">
+      <c r="A770" s="35"/>
+    </row>
+    <row r="771">
+      <c r="A771" s="35"/>
+    </row>
+    <row r="772">
+      <c r="A772" s="35"/>
+    </row>
+    <row r="773">
+      <c r="A773" s="35"/>
+    </row>
+    <row r="774">
+      <c r="A774" s="35"/>
+    </row>
+    <row r="775">
+      <c r="A775" s="35"/>
+    </row>
+    <row r="776">
+      <c r="A776" s="35"/>
+    </row>
+    <row r="777">
+      <c r="A777" s="35"/>
+    </row>
+    <row r="778">
+      <c r="A778" s="35"/>
+    </row>
+    <row r="779">
+      <c r="A779" s="35"/>
+    </row>
+    <row r="780">
+      <c r="A780" s="35"/>
+    </row>
+    <row r="781">
+      <c r="A781" s="35"/>
+    </row>
+    <row r="782">
+      <c r="A782" s="35"/>
+    </row>
+    <row r="783">
+      <c r="A783" s="35"/>
+    </row>
+    <row r="784">
+      <c r="A784" s="35"/>
+    </row>
+    <row r="785">
+      <c r="A785" s="35"/>
+    </row>
+    <row r="786">
+      <c r="A786" s="35"/>
+    </row>
+    <row r="787">
+      <c r="A787" s="35"/>
+    </row>
+    <row r="788">
+      <c r="A788" s="35"/>
+    </row>
+    <row r="789">
+      <c r="A789" s="35"/>
+    </row>
+    <row r="790">
+      <c r="A790" s="35"/>
+    </row>
+    <row r="791">
+      <c r="A791" s="35"/>
+    </row>
+    <row r="792">
+      <c r="A792" s="35"/>
+    </row>
+    <row r="793">
+      <c r="A793" s="35"/>
+    </row>
+    <row r="794">
+      <c r="A794" s="35"/>
+    </row>
+    <row r="795">
+      <c r="A795" s="35"/>
+    </row>
+    <row r="796">
+      <c r="A796" s="35"/>
+    </row>
+    <row r="797">
+      <c r="A797" s="35"/>
+    </row>
+    <row r="798">
+      <c r="A798" s="35"/>
+    </row>
+    <row r="799">
+      <c r="A799" s="35"/>
+    </row>
+    <row r="800">
+      <c r="A800" s="35"/>
+    </row>
+    <row r="801">
+      <c r="A801" s="35"/>
+    </row>
+    <row r="802">
+      <c r="A802" s="35"/>
+    </row>
+    <row r="803">
+      <c r="A803" s="35"/>
+    </row>
+    <row r="804">
+      <c r="A804" s="35"/>
+    </row>
+    <row r="805">
+      <c r="A805" s="35"/>
+    </row>
+    <row r="806">
+      <c r="A806" s="35"/>
+    </row>
+    <row r="807">
+      <c r="A807" s="35"/>
+    </row>
+    <row r="808">
+      <c r="A808" s="35"/>
+    </row>
+    <row r="809">
+      <c r="A809" s="35"/>
+    </row>
+    <row r="810">
+      <c r="A810" s="35"/>
+    </row>
+    <row r="811">
+      <c r="A811" s="35"/>
+    </row>
+    <row r="812">
+      <c r="A812" s="35"/>
+    </row>
+    <row r="813">
+      <c r="A813" s="35"/>
+    </row>
+    <row r="814">
+      <c r="A814" s="35"/>
+    </row>
+    <row r="815">
+      <c r="A815" s="35"/>
+    </row>
+    <row r="816">
+      <c r="A816" s="35"/>
+    </row>
+    <row r="817">
+      <c r="A817" s="35"/>
+    </row>
+    <row r="818">
+      <c r="A818" s="35"/>
+    </row>
+    <row r="819">
+      <c r="A819" s="35"/>
+    </row>
+    <row r="820">
+      <c r="A820" s="35"/>
+    </row>
+    <row r="821">
+      <c r="A821" s="35"/>
+    </row>
+    <row r="822">
+      <c r="A822" s="35"/>
+    </row>
+    <row r="823">
+      <c r="A823" s="35"/>
+    </row>
+    <row r="824">
+      <c r="A824" s="35"/>
+    </row>
+    <row r="825">
+      <c r="A825" s="35"/>
+    </row>
+    <row r="826">
+      <c r="A826" s="35"/>
+    </row>
+    <row r="827">
+      <c r="A827" s="35"/>
+    </row>
+    <row r="828">
+      <c r="A828" s="35"/>
+    </row>
+    <row r="829">
+      <c r="A829" s="35"/>
+    </row>
+    <row r="830">
+      <c r="A830" s="35"/>
+    </row>
+    <row r="831">
+      <c r="A831" s="35"/>
+    </row>
+    <row r="832">
+      <c r="A832" s="35"/>
+    </row>
+    <row r="833">
+      <c r="A833" s="35"/>
+    </row>
+    <row r="834">
+      <c r="A834" s="35"/>
+    </row>
+    <row r="835">
+      <c r="A835" s="35"/>
+    </row>
+    <row r="836">
+      <c r="A836" s="35"/>
+    </row>
+    <row r="837">
+      <c r="A837" s="35"/>
+    </row>
+    <row r="838">
+      <c r="A838" s="35"/>
+    </row>
+    <row r="839">
+      <c r="A839" s="35"/>
+    </row>
+    <row r="840">
+      <c r="A840" s="35"/>
+    </row>
+    <row r="841">
+      <c r="A841" s="35"/>
+    </row>
+    <row r="842">
+      <c r="A842" s="35"/>
+    </row>
+    <row r="843">
+      <c r="A843" s="35"/>
+    </row>
+    <row r="844">
+      <c r="A844" s="35"/>
+    </row>
+    <row r="845">
+      <c r="A845" s="35"/>
+    </row>
+    <row r="846">
+      <c r="A846" s="35"/>
+    </row>
+    <row r="847">
+      <c r="A847" s="35"/>
+    </row>
+    <row r="848">
+      <c r="A848" s="35"/>
+    </row>
+    <row r="849">
+      <c r="A849" s="35"/>
+    </row>
+    <row r="850">
+      <c r="A850" s="35"/>
+    </row>
+    <row r="851">
+      <c r="A851" s="35"/>
+    </row>
+    <row r="852">
+      <c r="A852" s="35"/>
+    </row>
+    <row r="853">
+      <c r="A853" s="35"/>
+    </row>
+    <row r="854">
+      <c r="A854" s="35"/>
+    </row>
+    <row r="855">
+      <c r="A855" s="35"/>
+    </row>
+    <row r="856">
+      <c r="A856" s="35"/>
+    </row>
+    <row r="857">
+      <c r="A857" s="35"/>
+    </row>
+    <row r="858">
+      <c r="A858" s="35"/>
+    </row>
+    <row r="859">
+      <c r="A859" s="35"/>
+    </row>
+    <row r="860">
+      <c r="A860" s="35"/>
+    </row>
+    <row r="861">
+      <c r="A861" s="35"/>
+    </row>
+    <row r="862">
+      <c r="A862" s="35"/>
+    </row>
+    <row r="863">
+      <c r="A863" s="35"/>
+    </row>
+    <row r="864">
+      <c r="A864" s="35"/>
+    </row>
+    <row r="865">
+      <c r="A865" s="35"/>
+    </row>
+    <row r="866">
+      <c r="A866" s="35"/>
+    </row>
+    <row r="867">
+      <c r="A867" s="35"/>
+    </row>
+    <row r="868">
+      <c r="A868" s="35"/>
+    </row>
+    <row r="869">
+      <c r="A869" s="35"/>
+    </row>
+    <row r="870">
+      <c r="A870" s="35"/>
+    </row>
+    <row r="871">
+      <c r="A871" s="35"/>
+    </row>
+    <row r="872">
+      <c r="A872" s="35"/>
+    </row>
+    <row r="873">
+      <c r="A873" s="35"/>
+    </row>
+    <row r="874">
+      <c r="A874" s="35"/>
+    </row>
+    <row r="875">
+      <c r="A875" s="35"/>
+    </row>
+    <row r="876">
+      <c r="A876" s="35"/>
+    </row>
+    <row r="877">
+      <c r="A877" s="35"/>
+    </row>
+    <row r="878">
+      <c r="A878" s="35"/>
+    </row>
+    <row r="879">
+      <c r="A879" s="35"/>
+    </row>
+    <row r="880">
+      <c r="A880" s="35"/>
+    </row>
+    <row r="881">
+      <c r="A881" s="35"/>
+    </row>
+    <row r="882">
+      <c r="A882" s="35"/>
+    </row>
+    <row r="883">
+      <c r="A883" s="35"/>
+    </row>
+    <row r="884">
+      <c r="A884" s="35"/>
+    </row>
+    <row r="885">
+      <c r="A885" s="35"/>
+    </row>
+    <row r="886">
+      <c r="A886" s="35"/>
+    </row>
+    <row r="887">
+      <c r="A887" s="35"/>
+    </row>
+    <row r="888">
+      <c r="A888" s="35"/>
+    </row>
+    <row r="889">
+      <c r="A889" s="35"/>
+    </row>
+    <row r="890">
+      <c r="A890" s="35"/>
+    </row>
+    <row r="891">
+      <c r="A891" s="35"/>
+    </row>
+    <row r="892">
+      <c r="A892" s="35"/>
+    </row>
+    <row r="893">
+      <c r="A893" s="35"/>
+    </row>
+    <row r="894">
+      <c r="A894" s="35"/>
+    </row>
+    <row r="895">
+      <c r="A895" s="35"/>
+    </row>
+    <row r="896">
+      <c r="A896" s="35"/>
+    </row>
+    <row r="897">
+      <c r="A897" s="35"/>
+    </row>
+    <row r="898">
+      <c r="A898" s="35"/>
+    </row>
+    <row r="899">
+      <c r="A899" s="35"/>
+    </row>
+    <row r="900">
+      <c r="A900" s="35"/>
+    </row>
+    <row r="901">
+      <c r="A901" s="35"/>
+    </row>
+    <row r="902">
+      <c r="A902" s="35"/>
+    </row>
+    <row r="903">
+      <c r="A903" s="35"/>
+    </row>
+    <row r="904">
+      <c r="A904" s="35"/>
+    </row>
+    <row r="905">
+      <c r="A905" s="35"/>
+    </row>
+    <row r="906">
+      <c r="A906" s="35"/>
+    </row>
+    <row r="907">
+      <c r="A907" s="35"/>
+    </row>
+    <row r="908">
+      <c r="A908" s="35"/>
+    </row>
+    <row r="909">
+      <c r="A909" s="35"/>
+    </row>
+    <row r="910">
+      <c r="A910" s="35"/>
+    </row>
+    <row r="911">
+      <c r="A911" s="35"/>
+    </row>
+    <row r="912">
+      <c r="A912" s="35"/>
+    </row>
+    <row r="913">
+      <c r="A913" s="35"/>
+    </row>
+    <row r="914">
+      <c r="A914" s="35"/>
+    </row>
+    <row r="915">
+      <c r="A915" s="35"/>
+    </row>
+    <row r="916">
+      <c r="A916" s="35"/>
+    </row>
+    <row r="917">
+      <c r="A917" s="35"/>
+    </row>
+    <row r="918">
+      <c r="A918" s="35"/>
+    </row>
+    <row r="919">
+      <c r="A919" s="35"/>
+    </row>
+    <row r="920">
+      <c r="A920" s="35"/>
+    </row>
+    <row r="921">
+      <c r="A921" s="35"/>
+    </row>
+    <row r="922">
+      <c r="A922" s="35"/>
+    </row>
+    <row r="923">
+      <c r="A923" s="35"/>
+    </row>
+    <row r="924">
+      <c r="A924" s="35"/>
+    </row>
+    <row r="925">
+      <c r="A925" s="35"/>
+    </row>
+    <row r="926">
+      <c r="A926" s="35"/>
+    </row>
+    <row r="927">
+      <c r="A927" s="35"/>
+    </row>
+    <row r="928">
+      <c r="A928" s="35"/>
+    </row>
+    <row r="929">
+      <c r="A929" s="35"/>
+    </row>
+    <row r="930">
+      <c r="A930" s="35"/>
+    </row>
+    <row r="931">
+      <c r="A931" s="35"/>
+    </row>
+    <row r="932">
+      <c r="A932" s="35"/>
+    </row>
+    <row r="933">
+      <c r="A933" s="35"/>
+    </row>
+    <row r="934">
+      <c r="A934" s="35"/>
+    </row>
+    <row r="935">
+      <c r="A935" s="35"/>
+    </row>
+    <row r="936">
+      <c r="A936" s="35"/>
+    </row>
+    <row r="937">
+      <c r="A937" s="35"/>
+    </row>
+    <row r="938">
+      <c r="A938" s="35"/>
+    </row>
+    <row r="939">
+      <c r="A939" s="35"/>
+    </row>
+    <row r="940">
+      <c r="A940" s="35"/>
+    </row>
+    <row r="941">
+      <c r="A941" s="35"/>
+    </row>
+    <row r="942">
+      <c r="A942" s="35"/>
+    </row>
+    <row r="943">
+      <c r="A943" s="35"/>
+    </row>
+    <row r="944">
+      <c r="A944" s="35"/>
+    </row>
+    <row r="945">
+      <c r="A945" s="35"/>
+    </row>
+    <row r="946">
+      <c r="A946" s="35"/>
+    </row>
+    <row r="947">
+      <c r="A947" s="35"/>
+    </row>
+    <row r="948">
+      <c r="A948" s="35"/>
+    </row>
+    <row r="949">
+      <c r="A949" s="35"/>
+    </row>
+    <row r="950">
+      <c r="A950" s="35"/>
+    </row>
+    <row r="951">
+      <c r="A951" s="35"/>
+    </row>
+    <row r="952">
+      <c r="A952" s="35"/>
+    </row>
+    <row r="953">
+      <c r="A953" s="35"/>
+    </row>
+    <row r="954">
+      <c r="A954" s="35"/>
+    </row>
+    <row r="955">
+      <c r="A955" s="35"/>
+    </row>
+    <row r="956">
+      <c r="A956" s="35"/>
+    </row>
+    <row r="957">
+      <c r="A957" s="35"/>
+    </row>
+    <row r="958">
+      <c r="A958" s="35"/>
+    </row>
+    <row r="959">
+      <c r="A959" s="35"/>
+    </row>
+    <row r="960">
+      <c r="A960" s="35"/>
+    </row>
+    <row r="961">
+      <c r="A961" s="35"/>
+    </row>
+    <row r="962">
+      <c r="A962" s="35"/>
+    </row>
+    <row r="963">
+      <c r="A963" s="35"/>
+    </row>
+    <row r="964">
+      <c r="A964" s="35"/>
+    </row>
+    <row r="965">
+      <c r="A965" s="35"/>
+    </row>
+    <row r="966">
+      <c r="A966" s="35"/>
+    </row>
+    <row r="967">
+      <c r="A967" s="35"/>
+    </row>
+    <row r="968">
+      <c r="A968" s="35"/>
+    </row>
+    <row r="969">
+      <c r="A969" s="35"/>
+    </row>
+    <row r="970">
+      <c r="A970" s="35"/>
+    </row>
+    <row r="971">
+      <c r="A971" s="35"/>
+    </row>
+    <row r="972">
+      <c r="A972" s="35"/>
+    </row>
+    <row r="973">
+      <c r="A973" s="35"/>
+    </row>
+    <row r="974">
+      <c r="A974" s="35"/>
+    </row>
+    <row r="975">
+      <c r="A975" s="35"/>
+    </row>
+    <row r="976">
+      <c r="A976" s="35"/>
+    </row>
+    <row r="977">
+      <c r="A977" s="35"/>
+    </row>
+    <row r="978">
+      <c r="A978" s="35"/>
+    </row>
+    <row r="979">
+      <c r="A979" s="35"/>
+    </row>
+    <row r="980">
+      <c r="A980" s="35"/>
+    </row>
+    <row r="981">
+      <c r="A981" s="35"/>
+    </row>
+    <row r="982">
+      <c r="A982" s="35"/>
+    </row>
+    <row r="983">
+      <c r="A983" s="35"/>
+    </row>
+    <row r="984">
+      <c r="A984" s="35"/>
+    </row>
+    <row r="985">
+      <c r="A985" s="35"/>
+    </row>
+    <row r="986">
+      <c r="A986" s="35"/>
+    </row>
+    <row r="987">
+      <c r="A987" s="35"/>
+    </row>
+    <row r="988">
+      <c r="A988" s="35"/>
+    </row>
+    <row r="989">
+      <c r="A989" s="35"/>
+    </row>
+    <row r="990">
+      <c r="A990" s="35"/>
+    </row>
+    <row r="991">
+      <c r="A991" s="35"/>
+    </row>
+    <row r="992">
+      <c r="A992" s="35"/>
+    </row>
+    <row r="993">
+      <c r="A993" s="35"/>
+    </row>
+    <row r="994">
+      <c r="A994" s="35"/>
+    </row>
+    <row r="995">
+      <c r="A995" s="35"/>
+    </row>
+    <row r="996">
+      <c r="A996" s="35"/>
+    </row>
+    <row r="997">
+      <c r="A997" s="35"/>
+    </row>
+    <row r="998">
+      <c r="A998" s="35"/>
+    </row>
+    <row r="999">
+      <c r="A999" s="35"/>
+    </row>
+    <row r="1000">
+      <c r="A1000" s="35"/>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="35"/>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="35"/>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="35"/>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="35"/>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="35"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -44060,8 +48356,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="42" t="s">
-        <v>102</v>
+      <c r="A1" s="47" t="s">
+        <v>109</v>
       </c>
       <c r="B1" s="1">
         <v>45093.0</v>
@@ -44240,7 +48536,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -44292,29 +48588,29 @@
       <c r="AW2" s="2"/>
       <c r="AX2" s="2"/>
       <c r="AY2" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="BF2" s="2"/>
       <c r="BG2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B3" s="2">
         <v>0.0</v>
@@ -44489,7 +48785,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -45459,7 +49755,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -45725,7 +50021,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B12" s="2">
         <v>0.0</v>
@@ -46075,7 +50371,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B14" s="2">
         <v>1.0</v>
@@ -46250,7 +50546,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B15" s="2">
         <v>5.0</v>
@@ -46425,7 +50721,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B16" s="2">
         <v>1.0</v>
@@ -46600,7 +50896,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B17" s="2">
         <v>0.0</v>
@@ -46775,7 +51071,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B18" s="2">
         <v>0.0</v>
@@ -46950,7 +51246,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B19" s="2">
         <v>0.0</v>
@@ -47125,7 +51421,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B20" s="2">
         <v>2.0</v>
@@ -47300,7 +51596,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B21" s="6">
         <v>1.0</v>
@@ -47475,7 +51771,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B22" s="2">
         <v>128.0</v>
@@ -47660,21 +51956,21 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
       <c r="Y23" s="5"/>
-      <c r="Z23" s="43"/>
+      <c r="Z23" s="48"/>
       <c r="AA23" s="12"/>
-      <c r="AW23" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="AX23" s="44"/>
-      <c r="AY23" s="44"/>
-      <c r="AZ23" s="44"/>
-      <c r="BA23" s="44"/>
-      <c r="BB23" s="44"/>
-      <c r="BC23" s="44"/>
-      <c r="BD23" s="44"/>
-      <c r="BE23" s="44"/>
-      <c r="BF23" s="44"/>
-      <c r="BG23" s="44"/>
+      <c r="AW23" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="AX23" s="33"/>
+      <c r="AY23" s="33"/>
+      <c r="AZ23" s="33"/>
+      <c r="BA23" s="33"/>
+      <c r="BB23" s="33"/>
+      <c r="BC23" s="33"/>
+      <c r="BD23" s="33"/>
+      <c r="BE23" s="33"/>
+      <c r="BF23" s="33"/>
+      <c r="BG23" s="33"/>
     </row>
     <row r="24">
       <c r="B24" s="12"/>
@@ -47688,7 +51984,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
       <c r="Y24" s="5"/>
-      <c r="Z24" s="43"/>
+      <c r="Z24" s="48"/>
       <c r="AA24" s="12"/>
     </row>
     <row r="25">
@@ -47705,13 +52001,13 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
       <c r="Y25" s="5"/>
-      <c r="Z25" s="43"/>
+      <c r="Z25" s="48"/>
       <c r="AA25" s="12"/>
       <c r="AB25" s="5"/>
       <c r="AC25" s="11"/>
       <c r="AD25" s="12"/>
       <c r="AE25" s="5"/>
-      <c r="AF25" s="43"/>
+      <c r="AF25" s="48"/>
       <c r="AG25" s="12"/>
       <c r="AH25" s="12"/>
       <c r="AI25" s="12"/>
@@ -47756,11 +52052,11 @@
       <c r="Q26" s="5"/>
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
-      <c r="AB26" s="43"/>
+      <c r="AB26" s="48"/>
       <c r="AC26" s="12"/>
-      <c r="AD26" s="45"/>
+      <c r="AD26" s="49"/>
       <c r="AE26" s="5"/>
-      <c r="AF26" s="43"/>
+      <c r="AF26" s="48"/>
       <c r="AG26" s="12"/>
       <c r="AH26" s="12"/>
       <c r="AI26" s="12"/>
@@ -47802,11 +52098,11 @@
       <c r="O27" s="5"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="5"/>
-      <c r="R27" s="43"/>
+      <c r="R27" s="48"/>
       <c r="S27" s="12"/>
       <c r="X27" s="4"/>
       <c r="AA27" s="4"/>
-      <c r="AB27" s="43"/>
+      <c r="AB27" s="48"/>
       <c r="AC27" s="11"/>
       <c r="AD27" s="11"/>
     </row>
@@ -47822,7 +52118,7 @@
       <c r="O28" s="5"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="5"/>
-      <c r="R28" s="43"/>
+      <c r="R28" s="48"/>
       <c r="S28" s="12"/>
       <c r="X28" s="4"/>
       <c r="AA28" s="4"/>
@@ -47843,7 +52139,7 @@
       <c r="O29" s="5"/>
       <c r="P29" s="4"/>
       <c r="Q29" s="5"/>
-      <c r="R29" s="43"/>
+      <c r="R29" s="48"/>
       <c r="S29" s="12"/>
       <c r="X29" s="4"/>
       <c r="AA29" s="4"/>
@@ -47878,7 +52174,7 @@
       <c r="X31" s="4"/>
       <c r="AA31" s="4"/>
       <c r="AC31" s="11"/>
-      <c r="AD31" s="43"/>
+      <c r="AD31" s="48"/>
     </row>
     <row r="32">
       <c r="B32" s="4"/>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -651,18 +651,7 @@
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
 </styleSheet>
 </file>
 
@@ -769,11 +758,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1976718476"/>
-        <c:axId val="1575498417"/>
+        <c:axId val="1634699986"/>
+        <c:axId val="726786104"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1976718476"/>
+        <c:axId val="1634699986"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -825,10 +814,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1575498417"/>
+        <c:crossAx val="726786104"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1575498417"/>
+        <c:axId val="726786104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -903,7 +892,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1976718476"/>
+        <c:crossAx val="1634699986"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1026,11 +1015,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="789188570"/>
-        <c:axId val="626229109"/>
+        <c:axId val="1843863661"/>
+        <c:axId val="1907645835"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="789188570"/>
+        <c:axId val="1843863661"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1082,10 +1071,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="626229109"/>
+        <c:crossAx val="1907645835"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="626229109"/>
+        <c:axId val="1907645835"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1160,7 +1149,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="789188570"/>
+        <c:crossAx val="1843863661"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1242,22 +1231,22 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Charts!$B$38:$BK$38</c:f>
+              <c:f>Charts!$B$38:$AX$38</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$B$41:$BK$41</c:f>
+              <c:f>Charts!$B$41:$AX$41</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="225713346"/>
-        <c:axId val="863395151"/>
+        <c:axId val="1470439131"/>
+        <c:axId val="720762868"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="225713346"/>
+        <c:axId val="1470439131"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1309,10 +1298,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="863395151"/>
+        <c:crossAx val="720762868"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="863395151"/>
+        <c:axId val="720762868"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1387,7 +1376,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225713346"/>
+        <c:crossAx val="1470439131"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1479,11 +1468,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="617812306"/>
-        <c:axId val="662577648"/>
+        <c:axId val="34403626"/>
+        <c:axId val="1215526690"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="617812306"/>
+        <c:axId val="34403626"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1535,10 +1524,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="662577648"/>
+        <c:crossAx val="1215526690"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="662577648"/>
+        <c:axId val="1215526690"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6000.0"/>
@@ -1614,7 +1603,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617812306"/>
+        <c:crossAx val="34403626"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1706,11 +1695,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="260626060"/>
-        <c:axId val="1482855717"/>
+        <c:axId val="966783062"/>
+        <c:axId val="1470842195"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="260626060"/>
+        <c:axId val="966783062"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1762,10 +1751,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1482855717"/>
+        <c:crossAx val="1470842195"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1482855717"/>
+        <c:axId val="1470842195"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1840,7 +1829,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="260626060"/>
+        <c:crossAx val="966783062"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1936,7 +1925,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Charts!$A$97</c:f>
+              <c:f>Charts!$A$98</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -1956,16 +1945,16 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$B$97:$R$97</c:f>
+              <c:f>Charts!$B$98:$R$98</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1792335697"/>
-        <c:axId val="660080118"/>
+        <c:axId val="1725402776"/>
+        <c:axId val="1244857510"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1792335697"/>
+        <c:axId val="1725402776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2017,10 +2006,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="660080118"/>
+        <c:crossAx val="1244857510"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="660080118"/>
+        <c:axId val="1244857510"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2095,7 +2084,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1792335697"/>
+        <c:crossAx val="1725402776"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -43348,174 +43337,106 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="18">
-        <v>45474.0</v>
+        <v>45507.0</v>
       </c>
       <c r="C1" s="18">
-        <v>45475.0</v>
+        <v>45508.0</v>
       </c>
       <c r="D1" s="18">
-        <v>45476.0</v>
+        <v>45509.0</v>
       </c>
       <c r="E1" s="18">
-        <v>45477.0</v>
+        <v>45510.0</v>
       </c>
       <c r="F1" s="18">
-        <v>45478.0</v>
+        <v>45511.0</v>
       </c>
       <c r="G1" s="18">
-        <v>45479.0</v>
+        <v>45512.0</v>
       </c>
       <c r="H1" s="18">
-        <v>45480.0</v>
-      </c>
-      <c r="I1" s="18">
-        <v>45507.0</v>
-      </c>
-      <c r="J1" s="18">
-        <v>45508.0</v>
-      </c>
-      <c r="K1" s="18">
-        <v>45509.0</v>
-      </c>
-      <c r="L1" s="18">
-        <v>45510.0</v>
-      </c>
-      <c r="M1" s="18">
-        <v>45511.0</v>
-      </c>
-      <c r="N1" s="18">
-        <v>45512.0</v>
-      </c>
-      <c r="O1" s="18">
         <v>45513.0</v>
       </c>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
     </row>
     <row r="2" ht="29.25" customHeight="1">
       <c r="A2" s="33" t="s">
         <v>98</v>
       </c>
       <c r="B2" s="34">
-        <v>5969.0</v>
+        <v>5596.0</v>
       </c>
       <c r="C2" s="34">
-        <v>5950.0</v>
+        <v>5567.0</v>
       </c>
       <c r="D2" s="34">
-        <v>5934.0</v>
+        <v>5584.0</v>
       </c>
       <c r="E2" s="34">
-        <v>5918.0</v>
+        <v>5567.0</v>
       </c>
       <c r="F2" s="34">
-        <v>5876.0</v>
+        <v>5566.0</v>
       </c>
       <c r="G2" s="34">
-        <v>5879.0</v>
-      </c>
-      <c r="H2" s="34">
-        <v>5866.0</v>
-      </c>
-      <c r="I2" s="34">
         <v>5596.0</v>
       </c>
-      <c r="J2" s="34">
-        <v>5567.0</v>
-      </c>
-      <c r="K2" s="34">
-        <v>5584.0</v>
-      </c>
-      <c r="L2" s="34">
-        <v>5567.0</v>
-      </c>
-      <c r="M2" s="34">
-        <v>5566.0</v>
-      </c>
-      <c r="N2" s="34">
-        <v>5596.0</v>
-      </c>
-      <c r="O2" s="33">
+      <c r="H2" s="33">
         <v>5592.0</v>
       </c>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
       <c r="P2" s="35"/>
       <c r="Q2" s="35"/>
       <c r="R2" s="35"/>
       <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
     </row>
     <row r="3" ht="25.5" customHeight="1">
       <c r="A3" s="33" t="s">
         <v>99</v>
       </c>
       <c r="B3" s="33">
-        <v>16.0</v>
+        <v>9.0</v>
       </c>
       <c r="C3" s="33">
-        <v>14.0</v>
+        <v>30.0</v>
       </c>
       <c r="D3" s="33">
-        <v>17.0</v>
+        <v>9.0</v>
       </c>
       <c r="E3" s="33">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="F3" s="33">
-        <v>31.0</v>
+        <v>33.0</v>
       </c>
       <c r="G3" s="33">
-        <v>32.0</v>
+        <v>23.0</v>
       </c>
       <c r="H3" s="33">
-        <v>12.0</v>
-      </c>
-      <c r="I3" s="33">
         <v>9.0</v>
       </c>
-      <c r="J3" s="33">
-        <v>30.0</v>
-      </c>
-      <c r="K3" s="33">
-        <v>9.0</v>
-      </c>
-      <c r="L3" s="33">
-        <v>5.0</v>
-      </c>
-      <c r="M3" s="33">
-        <v>33.0</v>
-      </c>
-      <c r="N3" s="33">
-        <v>23.0</v>
-      </c>
-      <c r="O3" s="33">
-        <v>9.0</v>
-      </c>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
       <c r="P3" s="35"/>
       <c r="Q3" s="35"/>
       <c r="R3" s="35"/>
       <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="35"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I2">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(I2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -45243,7 +45164,7 @@
         <v>105</v>
       </c>
       <c r="B72" s="18">
-        <v>45507.0</v>
+        <v>45506.0</v>
       </c>
       <c r="C72" s="18">
         <v>45508.0</v>
@@ -45269,32 +45190,32 @@
         <v>98</v>
       </c>
       <c r="B73" s="45">
+        <f>DailyCensus!B2</f>
+        <v>5596</v>
+      </c>
+      <c r="C73" s="45">
+        <f>DailyCensus!C2</f>
+        <v>5567</v>
+      </c>
+      <c r="D73" s="45">
+        <f>DailyCensus!D2</f>
+        <v>5584</v>
+      </c>
+      <c r="E73" s="45">
+        <f>DailyCensus!E2</f>
+        <v>5567</v>
+      </c>
+      <c r="F73" s="45">
+        <f>DailyCensus!F2</f>
+        <v>5566</v>
+      </c>
+      <c r="G73" s="45">
+        <f>DailyCensus!G2</f>
+        <v>5596</v>
+      </c>
+      <c r="H73" s="44">
         <f>DailyCensus!H2</f>
-        <v>5866</v>
-      </c>
-      <c r="C73" s="45">
-        <f>DailyCensus!I2</f>
-        <v>5596</v>
-      </c>
-      <c r="D73" s="45">
-        <f>DailyCensus!J2</f>
-        <v>5567</v>
-      </c>
-      <c r="E73" s="45">
-        <f>DailyCensus!K2</f>
-        <v>5584</v>
-      </c>
-      <c r="F73" s="45">
-        <f>DailyCensus!L2</f>
-        <v>5567</v>
-      </c>
-      <c r="G73" s="45">
-        <f>DailyCensus!M2</f>
-        <v>5566</v>
-      </c>
-      <c r="H73" s="45">
-        <f>DailyCensus!N2</f>
-        <v>5596</v>
+        <v>5592</v>
       </c>
     </row>
     <row r="74">
@@ -45302,32 +45223,32 @@
         <v>99</v>
       </c>
       <c r="B74" s="44">
+        <f>DailyCensus!B3</f>
+        <v>9</v>
+      </c>
+      <c r="C74" s="44">
+        <f>DailyCensus!C3</f>
+        <v>30</v>
+      </c>
+      <c r="D74" s="44">
+        <f>DailyCensus!D3</f>
+        <v>9</v>
+      </c>
+      <c r="E74" s="44">
+        <f>DailyCensus!E3</f>
+        <v>5</v>
+      </c>
+      <c r="F74" s="44">
+        <f>DailyCensus!F3</f>
+        <v>33</v>
+      </c>
+      <c r="G74" s="44">
+        <f>DailyCensus!G3</f>
+        <v>23</v>
+      </c>
+      <c r="H74" s="44">
         <f>DailyCensus!H3</f>
-        <v>12</v>
-      </c>
-      <c r="C74" s="44">
-        <f>DailyCensus!I3</f>
         <v>9</v>
-      </c>
-      <c r="D74" s="44">
-        <f>DailyCensus!J3</f>
-        <v>30</v>
-      </c>
-      <c r="E74" s="44">
-        <f>DailyCensus!K3</f>
-        <v>9</v>
-      </c>
-      <c r="F74" s="44">
-        <f>DailyCensus!L3</f>
-        <v>5</v>
-      </c>
-      <c r="G74" s="44">
-        <f>DailyCensus!M3</f>
-        <v>33</v>
-      </c>
-      <c r="H74" s="44">
-        <f>DailyCensus!N3</f>
-        <v>23</v>
       </c>
     </row>
     <row r="75">

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -758,11 +758,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1634699986"/>
-        <c:axId val="726786104"/>
+        <c:axId val="1166171045"/>
+        <c:axId val="455287811"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1634699986"/>
+        <c:axId val="1166171045"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -814,10 +814,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="726786104"/>
+        <c:crossAx val="455287811"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="726786104"/>
+        <c:axId val="455287811"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -892,7 +892,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1634699986"/>
+        <c:crossAx val="1166171045"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1015,11 +1015,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1843863661"/>
-        <c:axId val="1907645835"/>
+        <c:axId val="2079003677"/>
+        <c:axId val="175886226"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1843863661"/>
+        <c:axId val="2079003677"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1071,10 +1071,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1907645835"/>
+        <c:crossAx val="175886226"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1907645835"/>
+        <c:axId val="175886226"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1149,7 +1149,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1843863661"/>
+        <c:crossAx val="2079003677"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1242,11 +1242,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1470439131"/>
-        <c:axId val="720762868"/>
+        <c:axId val="666494348"/>
+        <c:axId val="27158561"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1470439131"/>
+        <c:axId val="666494348"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1298,10 +1298,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="720762868"/>
+        <c:crossAx val="27158561"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="720762868"/>
+        <c:axId val="27158561"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1376,7 +1376,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1470439131"/>
+        <c:crossAx val="666494348"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1468,11 +1468,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="34403626"/>
-        <c:axId val="1215526690"/>
+        <c:axId val="715848052"/>
+        <c:axId val="471615275"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="34403626"/>
+        <c:axId val="715848052"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1524,10 +1524,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1215526690"/>
+        <c:crossAx val="471615275"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1215526690"/>
+        <c:axId val="471615275"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6000.0"/>
@@ -1603,7 +1603,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34403626"/>
+        <c:crossAx val="715848052"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1695,11 +1695,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="966783062"/>
-        <c:axId val="1470842195"/>
+        <c:axId val="1478449700"/>
+        <c:axId val="1850016949"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="966783062"/>
+        <c:axId val="1478449700"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1751,10 +1751,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1470842195"/>
+        <c:crossAx val="1850016949"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1470842195"/>
+        <c:axId val="1850016949"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1829,7 +1829,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="966783062"/>
+        <c:crossAx val="1478449700"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1950,11 +1950,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1725402776"/>
-        <c:axId val="1244857510"/>
+        <c:axId val="1124893814"/>
+        <c:axId val="1394130309"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1725402776"/>
+        <c:axId val="1124893814"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2006,10 +2006,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1244857510"/>
+        <c:crossAx val="1394130309"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1244857510"/>
+        <c:axId val="1394130309"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2084,7 +2084,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1725402776"/>
+        <c:crossAx val="1124893814"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -758,11 +758,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1166171045"/>
-        <c:axId val="455287811"/>
+        <c:axId val="610649873"/>
+        <c:axId val="2084549644"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1166171045"/>
+        <c:axId val="610649873"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -814,10 +814,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455287811"/>
+        <c:crossAx val="2084549644"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="455287811"/>
+        <c:axId val="2084549644"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -892,7 +892,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1166171045"/>
+        <c:crossAx val="610649873"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1015,11 +1015,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="2079003677"/>
-        <c:axId val="175886226"/>
+        <c:axId val="986571127"/>
+        <c:axId val="167510323"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2079003677"/>
+        <c:axId val="986571127"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1071,10 +1071,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="175886226"/>
+        <c:crossAx val="167510323"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="175886226"/>
+        <c:axId val="167510323"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1149,7 +1149,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2079003677"/>
+        <c:crossAx val="986571127"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1242,11 +1242,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="666494348"/>
-        <c:axId val="27158561"/>
+        <c:axId val="2067767590"/>
+        <c:axId val="1387698194"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="666494348"/>
+        <c:axId val="2067767590"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1298,10 +1298,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27158561"/>
+        <c:crossAx val="1387698194"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="27158561"/>
+        <c:axId val="1387698194"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1376,7 +1376,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="666494348"/>
+        <c:crossAx val="2067767590"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1468,11 +1468,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="715848052"/>
-        <c:axId val="471615275"/>
+        <c:axId val="1829499095"/>
+        <c:axId val="2038154264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="715848052"/>
+        <c:axId val="1829499095"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1524,10 +1524,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471615275"/>
+        <c:crossAx val="2038154264"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="471615275"/>
+        <c:axId val="2038154264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6000.0"/>
@@ -1603,7 +1603,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="715848052"/>
+        <c:crossAx val="1829499095"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1695,11 +1695,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1478449700"/>
-        <c:axId val="1850016949"/>
+        <c:axId val="1293680685"/>
+        <c:axId val="1691234523"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1478449700"/>
+        <c:axId val="1293680685"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1751,10 +1751,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1850016949"/>
+        <c:crossAx val="1691234523"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1850016949"/>
+        <c:axId val="1691234523"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1829,7 +1829,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1478449700"/>
+        <c:crossAx val="1293680685"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1950,11 +1950,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1124893814"/>
-        <c:axId val="1394130309"/>
+        <c:axId val="1727166415"/>
+        <c:axId val="1759610630"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1124893814"/>
+        <c:axId val="1727166415"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2006,10 +2006,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1394130309"/>
+        <c:crossAx val="1759610630"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1394130309"/>
+        <c:axId val="1759610630"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2084,7 +2084,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1124893814"/>
+        <c:crossAx val="1727166415"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -758,11 +758,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="610649873"/>
-        <c:axId val="2084549644"/>
+        <c:axId val="893418018"/>
+        <c:axId val="65296114"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="610649873"/>
+        <c:axId val="893418018"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -814,10 +814,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2084549644"/>
+        <c:crossAx val="65296114"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2084549644"/>
+        <c:axId val="65296114"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -892,7 +892,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="610649873"/>
+        <c:crossAx val="893418018"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1015,11 +1015,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="986571127"/>
-        <c:axId val="167510323"/>
+        <c:axId val="1700225473"/>
+        <c:axId val="1161498693"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="986571127"/>
+        <c:axId val="1700225473"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1071,10 +1071,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="167510323"/>
+        <c:crossAx val="1161498693"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="167510323"/>
+        <c:axId val="1161498693"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1149,7 +1149,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="986571127"/>
+        <c:crossAx val="1700225473"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1242,11 +1242,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="2067767590"/>
-        <c:axId val="1387698194"/>
+        <c:axId val="50963765"/>
+        <c:axId val="2086224044"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2067767590"/>
+        <c:axId val="50963765"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1298,10 +1298,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1387698194"/>
+        <c:crossAx val="2086224044"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1387698194"/>
+        <c:axId val="2086224044"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1376,7 +1376,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2067767590"/>
+        <c:crossAx val="50963765"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1468,11 +1468,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1829499095"/>
-        <c:axId val="2038154264"/>
+        <c:axId val="935911747"/>
+        <c:axId val="1850315715"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1829499095"/>
+        <c:axId val="935911747"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1524,10 +1524,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2038154264"/>
+        <c:crossAx val="1850315715"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2038154264"/>
+        <c:axId val="1850315715"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6000.0"/>
@@ -1603,7 +1603,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1829499095"/>
+        <c:crossAx val="935911747"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1695,11 +1695,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1293680685"/>
-        <c:axId val="1691234523"/>
+        <c:axId val="429715543"/>
+        <c:axId val="1875619394"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1293680685"/>
+        <c:axId val="429715543"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1751,10 +1751,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1691234523"/>
+        <c:crossAx val="1875619394"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1691234523"/>
+        <c:axId val="1875619394"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1829,7 +1829,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1293680685"/>
+        <c:crossAx val="429715543"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1950,11 +1950,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1727166415"/>
-        <c:axId val="1759610630"/>
+        <c:axId val="1498131098"/>
+        <c:axId val="1915975421"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1727166415"/>
+        <c:axId val="1498131098"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2006,10 +2006,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1759610630"/>
+        <c:crossAx val="1915975421"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1759610630"/>
+        <c:axId val="1915975421"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2084,7 +2084,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1727166415"/>
+        <c:crossAx val="1498131098"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -512,7 +512,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -632,11 +632,10 @@
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -714,12 +713,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Charts!$B$2:$BK$2</c:f>
+              <c:f>Charts!$B$2:$BL$2</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$B$3:$BK$3</c:f>
+              <c:f>Charts!$B$3:$BL$3</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -748,21 +747,21 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Charts!$B$2:$BK$2</c:f>
+              <c:f>Charts!$B$2:$BL$2</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$B$4:$BK$4</c:f>
+              <c:f>Charts!$B$4:$BL$4</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="893418018"/>
-        <c:axId val="65296114"/>
+        <c:axId val="499275672"/>
+        <c:axId val="699355601"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="893418018"/>
+        <c:axId val="499275672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -814,10 +813,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65296114"/>
+        <c:crossAx val="699355601"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65296114"/>
+        <c:axId val="699355601"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -892,7 +891,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="893418018"/>
+        <c:crossAx val="499275672"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -974,12 +973,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Charts!$B$38:$AX$38</c:f>
+              <c:f>Charts!$B$38:$AY$38</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$B$39:$AX$39</c:f>
+              <c:f>Charts!$B$39:$AY$39</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -1004,22 +1003,22 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Charts!$B$38:$AX$38</c:f>
+              <c:f>Charts!$B$38:$AY$38</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$B$40:$AX$40</c:f>
+              <c:f>Charts!$B$40:$AY$40</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1700225473"/>
-        <c:axId val="1161498693"/>
+        <c:axId val="1568704056"/>
+        <c:axId val="1124337697"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1700225473"/>
+        <c:axId val="1568704056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1071,10 +1070,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1161498693"/>
+        <c:crossAx val="1124337697"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1161498693"/>
+        <c:axId val="1124337697"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1149,7 +1148,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1700225473"/>
+        <c:crossAx val="1568704056"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1231,22 +1230,22 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Charts!$B$38:$AX$38</c:f>
+              <c:f>Charts!$B$38:$AY$38</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$B$41:$AX$41</c:f>
+              <c:f>Charts!$B$41:$AY$41</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="50963765"/>
-        <c:axId val="2086224044"/>
+        <c:axId val="1476029285"/>
+        <c:axId val="1040555011"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="50963765"/>
+        <c:axId val="1476029285"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1298,10 +1297,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2086224044"/>
+        <c:crossAx val="1040555011"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2086224044"/>
+        <c:axId val="1040555011"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1376,7 +1375,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50963765"/>
+        <c:crossAx val="1476029285"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1468,11 +1467,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="935911747"/>
-        <c:axId val="1850315715"/>
+        <c:axId val="1469471145"/>
+        <c:axId val="1455106292"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="935911747"/>
+        <c:axId val="1469471145"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1524,10 +1523,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1850315715"/>
+        <c:crossAx val="1455106292"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1850315715"/>
+        <c:axId val="1455106292"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6000.0"/>
@@ -1603,7 +1602,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="935911747"/>
+        <c:crossAx val="1469471145"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1695,11 +1694,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="429715543"/>
-        <c:axId val="1875619394"/>
+        <c:axId val="306805131"/>
+        <c:axId val="133468995"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="429715543"/>
+        <c:axId val="306805131"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1751,10 +1750,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1875619394"/>
+        <c:crossAx val="133468995"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1875619394"/>
+        <c:axId val="133468995"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1829,7 +1828,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429715543"/>
+        <c:crossAx val="306805131"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1910,12 +1909,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Charts!$B$96:$R$96</c:f>
+              <c:f>Charts!$B$96:$S$96</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$B$97:$R$97</c:f>
+              <c:f>Charts!$B$97:$S$97</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -1940,21 +1939,21 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Charts!$B$96:$R$96</c:f>
+              <c:f>Charts!$B$96:$S$96</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$B$98:$R$98</c:f>
+              <c:f>Charts!$B$98:$S$98</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1498131098"/>
-        <c:axId val="1915975421"/>
+        <c:axId val="298236024"/>
+        <c:axId val="1912855405"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1498131098"/>
+        <c:axId val="298236024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2006,10 +2005,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1915975421"/>
+        <c:crossAx val="1912855405"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1915975421"/>
+        <c:axId val="1912855405"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2084,7 +2083,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1498131098"/>
+        <c:crossAx val="298236024"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2193,7 +2192,7 @@
       <xdr:row>41</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:ext cx="9172575" cy="4933950"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 3" title="Chart"/>
@@ -2690,6 +2689,9 @@
       <c r="BK1" s="1">
         <v>45513.0</v>
       </c>
+      <c r="BL1" s="1">
+        <v>45520.0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -2878,6 +2880,9 @@
       </c>
       <c r="BK2" s="3">
         <v>46186.0</v>
+      </c>
+      <c r="BL2" s="3">
+        <v>46611.0</v>
       </c>
     </row>
     <row r="3">
@@ -3057,6 +3062,7 @@
       <c r="BI3" s="2"/>
       <c r="BJ3" s="2"/>
       <c r="BK3" s="2"/>
+      <c r="BL3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -3236,6 +3242,9 @@
       </c>
       <c r="BK4" s="3">
         <v>34322.0</v>
+      </c>
+      <c r="BL4" s="3">
+        <v>34593.0</v>
       </c>
     </row>
     <row r="5">
@@ -3532,6 +3541,9 @@
       </c>
       <c r="BK1" s="1">
         <v>45513.0</v>
+      </c>
+      <c r="BL1" s="1">
+        <v>45520.0</v>
       </c>
     </row>
     <row r="2">
@@ -3587,6 +3599,7 @@
       <c r="BI2" s="2"/>
       <c r="BJ2" s="2"/>
       <c r="BK2" s="2"/>
+      <c r="BL2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -3737,6 +3750,9 @@
         <v>0.0</v>
       </c>
       <c r="BK3" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="BL3" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -3841,6 +3857,9 @@
         <v>0.0</v>
       </c>
       <c r="BK4" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="BL4" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -3905,6 +3924,7 @@
       <c r="BI5" s="2"/>
       <c r="BJ5" s="2"/>
       <c r="BK5" s="2"/>
+      <c r="BL5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -4067,6 +4087,9 @@
       <c r="BK7" s="2">
         <v>87.0</v>
       </c>
+      <c r="BL7" s="2">
+        <v>67.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
@@ -4167,6 +4190,9 @@
       <c r="BK8" s="2">
         <v>76.0</v>
       </c>
+      <c r="BL8" s="2">
+        <v>55.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
@@ -4345,6 +4371,9 @@
         <v>0.0</v>
       </c>
       <c r="BK9" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="BL9" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -4444,6 +4473,9 @@
       </c>
       <c r="BK10" s="2">
         <v>411.0</v>
+      </c>
+      <c r="BL10" s="2">
+        <v>370.0</v>
       </c>
     </row>
     <row r="11">
@@ -4509,6 +4541,7 @@
       <c r="BI11" s="2"/>
       <c r="BJ11" s="2"/>
       <c r="BK11" s="2"/>
+      <c r="BL11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
@@ -4697,6 +4730,9 @@
       <c r="BK12" s="2">
         <v>140.0</v>
       </c>
+      <c r="BL12" s="2">
+        <v>104.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
@@ -4885,6 +4921,9 @@
       <c r="BK13" s="2">
         <v>21.0</v>
       </c>
+      <c r="BL13" s="2">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
@@ -5072,6 +5111,9 @@
       </c>
       <c r="BK14" s="2">
         <v>249.0</v>
+      </c>
+      <c r="BL14" s="2">
+        <v>246.0</v>
       </c>
     </row>
     <row r="15">
@@ -5204,6 +5246,9 @@
       <c r="BK16" s="2">
         <v>371.0</v>
       </c>
+      <c r="BL16" s="2">
+        <v>340.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="C17" s="6"/>
@@ -5281,6 +5326,7 @@
       <c r="BI19" s="2"/>
       <c r="BJ19" s="2"/>
       <c r="BK19" s="2"/>
+      <c r="BL19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
@@ -5892,6 +5938,9 @@
       </c>
       <c r="BJ1" s="1">
         <v>45513.0</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>45520.0</v>
       </c>
     </row>
     <row r="2">
@@ -5959,6 +6008,7 @@
       <c r="BH2" s="8"/>
       <c r="BI2" s="8"/>
       <c r="BJ2" s="8"/>
+      <c r="BK2" s="8"/>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
@@ -6025,6 +6075,7 @@
       <c r="BH3" s="8"/>
       <c r="BI3" s="8"/>
       <c r="BJ3" s="8"/>
+      <c r="BK3" s="8"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -6205,6 +6256,9 @@
         <v>24.0</v>
       </c>
       <c r="BJ4" s="8">
+        <v>22.0</v>
+      </c>
+      <c r="BK4" s="8">
         <v>22.0</v>
       </c>
     </row>
@@ -6322,6 +6376,7 @@
       <c r="BH5" s="8"/>
       <c r="BI5" s="8"/>
       <c r="BJ5" s="8"/>
+      <c r="BK5" s="8"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -6373,6 +6428,9 @@
       <c r="BJ6" s="8">
         <v>12.0</v>
       </c>
+      <c r="BK6" s="8">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
@@ -6474,6 +6532,9 @@
       <c r="BJ7" s="8">
         <v>15.0</v>
       </c>
+      <c r="BK7" s="8">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
@@ -6661,6 +6722,9 @@
       </c>
       <c r="BJ8" s="8">
         <v>454.0</v>
+      </c>
+      <c r="BK8" s="8">
+        <v>461.0</v>
       </c>
     </row>
     <row r="9">
@@ -6769,6 +6833,7 @@
       <c r="BH9" s="8"/>
       <c r="BI9" s="8"/>
       <c r="BJ9" s="8"/>
+      <c r="BK9" s="8"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
@@ -6806,6 +6871,7 @@
       <c r="BH10" s="9"/>
       <c r="BI10" s="9"/>
       <c r="BJ10" s="9"/>
+      <c r="BK10" s="9"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
@@ -6993,6 +7059,9 @@
       </c>
       <c r="BJ11" s="8">
         <v>248.0</v>
+      </c>
+      <c r="BK11" s="8">
+        <v>249.0</v>
       </c>
     </row>
     <row r="12">
@@ -7073,6 +7142,7 @@
       <c r="BH12" s="8"/>
       <c r="BI12" s="8"/>
       <c r="BJ12" s="8"/>
+      <c r="BK12" s="8"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
@@ -7203,6 +7273,9 @@
       <c r="BJ13" s="8">
         <v>15.0</v>
       </c>
+      <c r="BK13" s="8">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
@@ -7362,6 +7435,9 @@
       <c r="BJ14" s="8">
         <v>67.0</v>
       </c>
+      <c r="BK14" s="8">
+        <v>61.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
@@ -7548,6 +7624,9 @@
         <v>26.0</v>
       </c>
       <c r="BJ15" s="8">
+        <v>26.0</v>
+      </c>
+      <c r="BK15" s="8">
         <v>26.0</v>
       </c>
     </row>
@@ -7670,6 +7749,7 @@
       <c r="BH16" s="8"/>
       <c r="BI16" s="8"/>
       <c r="BJ16" s="8"/>
+      <c r="BK16" s="8"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
@@ -7857,6 +7937,9 @@
       </c>
       <c r="BJ17" s="8">
         <v>35.0</v>
+      </c>
+      <c r="BK17" s="8">
+        <v>37.0</v>
       </c>
     </row>
     <row r="18">
@@ -7928,6 +8011,7 @@
       <c r="BH18" s="8"/>
       <c r="BI18" s="8"/>
       <c r="BJ18" s="8"/>
+      <c r="BK18" s="8"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
@@ -8116,6 +8200,9 @@
       <c r="BJ19" s="8">
         <v>26.0</v>
       </c>
+      <c r="BK19" s="8">
+        <v>24.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
@@ -8291,6 +8378,9 @@
       <c r="BJ20" s="8">
         <v>10.0</v>
       </c>
+      <c r="BK20" s="8">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
@@ -8478,6 +8568,9 @@
       </c>
       <c r="BJ21" s="8">
         <v>68.0</v>
+      </c>
+      <c r="BK21" s="8">
+        <v>60.0</v>
       </c>
     </row>
     <row r="22">
@@ -8520,6 +8613,7 @@
       <c r="BH22" s="9"/>
       <c r="BI22" s="9"/>
       <c r="BJ22" s="9"/>
+      <c r="BK22" s="9"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
@@ -8605,6 +8699,9 @@
       <c r="BJ23" s="15">
         <v>13.0</v>
       </c>
+      <c r="BK23" s="15">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
@@ -8768,6 +8865,7 @@
       <c r="BH24" s="15"/>
       <c r="BI24" s="15"/>
       <c r="BJ24" s="15"/>
+      <c r="BK24" s="15"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
@@ -8955,6 +9053,9 @@
       </c>
       <c r="BJ25" s="8">
         <v>3919.0</v>
+      </c>
+      <c r="BK25" s="8">
+        <v>3869.0</v>
       </c>
     </row>
     <row r="26">
@@ -9941,6 +10042,14 @@
       </c>
       <c r="C100" s="2">
         <v>1893.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="18">
+        <v>45520.0</v>
+      </c>
+      <c r="C101" s="2">
+        <v>1961.0</v>
       </c>
     </row>
   </sheetData>
@@ -10159,6 +10268,9 @@
       <c r="BK1" s="23">
         <v>45513.0</v>
       </c>
+      <c r="BL1" s="23">
+        <v>45520.0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -10259,6 +10371,9 @@
       <c r="BK2" s="24">
         <v>8.0</v>
       </c>
+      <c r="BL2" s="24">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -10448,6 +10563,9 @@
         <v>0.0</v>
       </c>
       <c r="BK3" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="BL3" s="24">
         <v>0.0</v>
       </c>
     </row>
@@ -10625,6 +10743,9 @@
       <c r="BK4" s="24">
         <v>0.0</v>
       </c>
+      <c r="BL4" s="24">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
@@ -10816,6 +10937,9 @@
       <c r="BK5" s="24">
         <v>1.0</v>
       </c>
+      <c r="BL5" s="24">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -11057,6 +11181,9 @@
       </c>
       <c r="BK6" s="15">
         <v>9.0</v>
+      </c>
+      <c r="BL6" s="15">
+        <v>5.0</v>
       </c>
     </row>
     <row r="7">
@@ -11206,6 +11333,7 @@
       <c r="BI7" s="6"/>
       <c r="BJ7" s="6"/>
       <c r="BK7" s="6"/>
+      <c r="BL7" s="6"/>
     </row>
     <row r="8">
       <c r="A8" s="2"/>
@@ -11268,6 +11396,7 @@
       <c r="BI8" s="26"/>
       <c r="BJ8" s="26"/>
       <c r="BK8" s="26"/>
+      <c r="BL8" s="26"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
@@ -11492,6 +11621,9 @@
       </c>
       <c r="BK9" s="23">
         <v>45513.0</v>
+      </c>
+      <c r="BL9" s="23">
+        <v>45520.0</v>
       </c>
     </row>
     <row r="10">
@@ -11661,6 +11793,9 @@
       </c>
       <c r="BK10" s="28">
         <v>477.0</v>
+      </c>
+      <c r="BL10" s="28">
+        <v>438.0</v>
       </c>
     </row>
     <row r="11">
@@ -11781,6 +11916,9 @@
       <c r="BK11" s="28">
         <v>702.0</v>
       </c>
+      <c r="BL11" s="28">
+        <v>702.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
@@ -11930,6 +12068,9 @@
       <c r="BK12" s="29">
         <v>535.0</v>
       </c>
+      <c r="BL12" s="29">
+        <v>545.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
@@ -12120,6 +12261,9 @@
       </c>
       <c r="BK13" s="30">
         <v>752.0</v>
+      </c>
+      <c r="BL13" s="30">
+        <v>720.0</v>
       </c>
     </row>
     <row r="14">
@@ -12275,6 +12419,9 @@
       </c>
       <c r="BK14" s="24">
         <v>374.0</v>
+      </c>
+      <c r="BL14" s="24">
+        <v>405.0</v>
       </c>
     </row>
     <row r="15">
@@ -12377,6 +12524,9 @@
       </c>
       <c r="BK15" s="24">
         <v>129.0</v>
+      </c>
+      <c r="BL15" s="24">
+        <v>142.0</v>
       </c>
     </row>
     <row r="16">
@@ -12430,6 +12580,9 @@
       <c r="BK16" s="24">
         <v>119.0</v>
       </c>
+      <c r="BL16" s="24">
+        <v>131.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
@@ -12580,6 +12733,9 @@
       <c r="BK17" s="24">
         <v>252.0</v>
       </c>
+      <c r="BL17" s="24">
+        <v>229.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
@@ -12708,6 +12864,9 @@
       <c r="BK18" s="24">
         <v>125.0</v>
       </c>
+      <c r="BL18" s="24">
+        <v>144.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
@@ -12857,6 +13016,9 @@
       <c r="BK19" s="24">
         <v>337.0</v>
       </c>
+      <c r="BL19" s="24">
+        <v>352.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
@@ -13006,6 +13168,9 @@
       <c r="BK20" s="24">
         <v>177.0</v>
       </c>
+      <c r="BL20" s="24">
+        <v>183.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
@@ -13196,6 +13361,9 @@
       </c>
       <c r="BK21" s="24">
         <v>255.0</v>
+      </c>
+      <c r="BL21" s="24">
+        <v>251.0</v>
       </c>
     </row>
     <row r="22">
@@ -13302,6 +13470,9 @@
       <c r="BK22" s="24">
         <v>265.0</v>
       </c>
+      <c r="BL22" s="24">
+        <v>243.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
@@ -13472,6 +13643,9 @@
       </c>
       <c r="BK23" s="24">
         <v>151.0</v>
+      </c>
+      <c r="BL23" s="24">
+        <v>158.0</v>
       </c>
     </row>
     <row r="24">
@@ -13620,6 +13794,9 @@
       </c>
       <c r="BK24" s="24">
         <v>421.0</v>
+      </c>
+      <c r="BL24" s="24">
+        <v>394.0</v>
       </c>
     </row>
     <row r="25">
@@ -13761,6 +13938,9 @@
       <c r="BK25" s="24">
         <v>284.0</v>
       </c>
+      <c r="BL25" s="24">
+        <v>282.0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
@@ -13951,6 +14131,9 @@
       </c>
       <c r="BK26" s="24">
         <v>237.0</v>
+      </c>
+      <c r="BL26" s="24">
+        <v>232.0</v>
       </c>
     </row>
     <row r="27">
@@ -13982,6 +14165,7 @@
       <c r="BI27" s="26"/>
       <c r="BJ27" s="26"/>
       <c r="BK27" s="26"/>
+      <c r="BL27" s="26"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
@@ -14015,6 +14199,7 @@
       <c r="BI28" s="26"/>
       <c r="BJ28" s="26"/>
       <c r="BK28" s="26"/>
+      <c r="BL28" s="26"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
@@ -14088,6 +14273,7 @@
       <c r="BI29" s="28"/>
       <c r="BJ29" s="28"/>
       <c r="BK29" s="28"/>
+      <c r="BL29" s="28"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
@@ -14245,6 +14431,7 @@
       <c r="BI30" s="28"/>
       <c r="BJ30" s="28"/>
       <c r="BK30" s="28"/>
+      <c r="BL30" s="28"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
@@ -14378,6 +14565,7 @@
       <c r="BI31" s="28"/>
       <c r="BJ31" s="28"/>
       <c r="BK31" s="28"/>
+      <c r="BL31" s="28"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
@@ -14463,6 +14651,7 @@
       <c r="BI32" s="24"/>
       <c r="BJ32" s="24"/>
       <c r="BK32" s="24"/>
+      <c r="BL32" s="24"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
@@ -14642,6 +14831,7 @@
       <c r="BI33" s="28"/>
       <c r="BJ33" s="28"/>
       <c r="BK33" s="28"/>
+      <c r="BL33" s="28"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
@@ -14791,6 +14981,7 @@
       <c r="BI34" s="28"/>
       <c r="BJ34" s="28"/>
       <c r="BK34" s="28"/>
+      <c r="BL34" s="28"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
@@ -14852,6 +15043,7 @@
       <c r="BI35" s="24"/>
       <c r="BJ35" s="24"/>
       <c r="BK35" s="24"/>
+      <c r="BL35" s="24"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
@@ -15005,6 +15197,7 @@
       <c r="BI36" s="24"/>
       <c r="BJ36" s="24"/>
       <c r="BK36" s="24"/>
+      <c r="BL36" s="24"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
@@ -15164,6 +15357,7 @@
       <c r="BI37" s="24"/>
       <c r="BJ37" s="24"/>
       <c r="BK37" s="24"/>
+      <c r="BL37" s="24"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
@@ -15293,6 +15487,7 @@
       <c r="BI38" s="24"/>
       <c r="BJ38" s="24"/>
       <c r="BK38" s="24"/>
+      <c r="BL38" s="24"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
@@ -15408,6 +15603,7 @@
       <c r="BI39" s="24"/>
       <c r="BJ39" s="24"/>
       <c r="BK39" s="24"/>
+      <c r="BL39" s="24"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
@@ -15549,6 +15745,7 @@
       <c r="BI40" s="24"/>
       <c r="BJ40" s="24"/>
       <c r="BK40" s="24"/>
+      <c r="BL40" s="24"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
@@ -15702,6 +15899,7 @@
       <c r="BI41" s="24"/>
       <c r="BJ41" s="24"/>
       <c r="BK41" s="24"/>
+      <c r="BL41" s="24"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
@@ -15742,6 +15940,7 @@
       <c r="BI42" s="26"/>
       <c r="BJ42" s="26"/>
       <c r="BK42" s="26"/>
+      <c r="BL42" s="26"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
@@ -15907,6 +16106,7 @@
       <c r="BI43" s="24"/>
       <c r="BJ43" s="24"/>
       <c r="BK43" s="24"/>
+      <c r="BL43" s="24"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
@@ -15964,6 +16164,7 @@
       <c r="BI44" s="26"/>
       <c r="BJ44" s="26"/>
       <c r="BK44" s="26"/>
+      <c r="BL44" s="26"/>
     </row>
     <row r="45">
       <c r="B45" s="31"/>
@@ -15994,6 +16195,7 @@
       <c r="BI45" s="8"/>
       <c r="BJ45" s="8"/>
       <c r="BK45" s="8"/>
+      <c r="BL45" s="8"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
@@ -16216,7 +16418,7 @@
         <v>6750</v>
       </c>
       <c r="BD46" s="8">
-        <f t="shared" ref="BD46:BK46" si="7">sum(BD10:BD44)</f>
+        <f t="shared" ref="BD46:BL46" si="7">sum(BD10:BD44)</f>
         <v>6310</v>
       </c>
       <c r="BE46" s="8">
@@ -16247,6 +16449,10 @@
         <f t="shared" si="7"/>
         <v>5592</v>
       </c>
+      <c r="BL46" s="8">
+        <f t="shared" si="7"/>
+        <v>5551</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
@@ -16434,6 +16640,9 @@
       </c>
       <c r="BK47" s="8">
         <v>1966.0</v>
+      </c>
+      <c r="BL47" s="8">
+        <v>1950.0</v>
       </c>
     </row>
     <row r="48">
@@ -16465,6 +16674,7 @@
       <c r="BI48" s="26"/>
       <c r="BJ48" s="26"/>
       <c r="BK48" s="26"/>
+      <c r="BL48" s="26"/>
     </row>
     <row r="49">
       <c r="B49" s="31"/>
@@ -16495,6 +16705,7 @@
       <c r="BI49" s="26"/>
       <c r="BJ49" s="26"/>
       <c r="BK49" s="26"/>
+      <c r="BL49" s="26"/>
     </row>
     <row r="50">
       <c r="B50" s="31"/>
@@ -16525,6 +16736,7 @@
       <c r="BI50" s="26"/>
       <c r="BJ50" s="26"/>
       <c r="BK50" s="26"/>
+      <c r="BL50" s="26"/>
     </row>
     <row r="51">
       <c r="B51" s="31"/>
@@ -16555,6 +16767,7 @@
       <c r="BI51" s="26"/>
       <c r="BJ51" s="26"/>
       <c r="BK51" s="26"/>
+      <c r="BL51" s="26"/>
     </row>
     <row r="52">
       <c r="B52" s="31"/>
@@ -16585,6 +16798,7 @@
       <c r="BI52" s="26"/>
       <c r="BJ52" s="26"/>
       <c r="BK52" s="26"/>
+      <c r="BL52" s="26"/>
     </row>
     <row r="53">
       <c r="B53" s="31"/>
@@ -16615,6 +16829,7 @@
       <c r="BI53" s="26"/>
       <c r="BJ53" s="26"/>
       <c r="BK53" s="26"/>
+      <c r="BL53" s="26"/>
     </row>
     <row r="54">
       <c r="B54" s="31"/>
@@ -16645,6 +16860,7 @@
       <c r="BI54" s="26"/>
       <c r="BJ54" s="26"/>
       <c r="BK54" s="26"/>
+      <c r="BL54" s="26"/>
     </row>
     <row r="55">
       <c r="B55" s="31"/>
@@ -16674,6 +16890,7 @@
       <c r="BI55" s="26"/>
       <c r="BJ55" s="26"/>
       <c r="BK55" s="26"/>
+      <c r="BL55" s="26"/>
     </row>
     <row r="56">
       <c r="B56" s="31"/>
@@ -16703,6 +16920,7 @@
       <c r="BI56" s="26"/>
       <c r="BJ56" s="26"/>
       <c r="BK56" s="26"/>
+      <c r="BL56" s="26"/>
     </row>
     <row r="57">
       <c r="B57" s="5"/>
@@ -16732,6 +16950,7 @@
       <c r="BI57" s="26"/>
       <c r="BJ57" s="26"/>
       <c r="BK57" s="26"/>
+      <c r="BL57" s="26"/>
     </row>
     <row r="58">
       <c r="B58" s="5"/>
@@ -16761,6 +16980,7 @@
       <c r="BI58" s="26"/>
       <c r="BJ58" s="26"/>
       <c r="BK58" s="26"/>
+      <c r="BL58" s="26"/>
     </row>
     <row r="59">
       <c r="B59" s="5"/>
@@ -16790,6 +17010,7 @@
       <c r="BI59" s="26"/>
       <c r="BJ59" s="26"/>
       <c r="BK59" s="26"/>
+      <c r="BL59" s="26"/>
     </row>
     <row r="60">
       <c r="B60" s="5"/>
@@ -16819,6 +17040,7 @@
       <c r="BI60" s="26"/>
       <c r="BJ60" s="26"/>
       <c r="BK60" s="26"/>
+      <c r="BL60" s="26"/>
     </row>
     <row r="61">
       <c r="B61" s="5"/>
@@ -16848,6 +17070,7 @@
       <c r="BI61" s="26"/>
       <c r="BJ61" s="26"/>
       <c r="BK61" s="26"/>
+      <c r="BL61" s="26"/>
     </row>
     <row r="62">
       <c r="B62" s="5"/>
@@ -16877,6 +17100,7 @@
       <c r="BI62" s="26"/>
       <c r="BJ62" s="26"/>
       <c r="BK62" s="26"/>
+      <c r="BL62" s="26"/>
     </row>
     <row r="63">
       <c r="B63" s="5"/>
@@ -16906,6 +17130,7 @@
       <c r="BI63" s="26"/>
       <c r="BJ63" s="26"/>
       <c r="BK63" s="26"/>
+      <c r="BL63" s="26"/>
     </row>
     <row r="64">
       <c r="B64" s="5"/>
@@ -16935,6 +17160,7 @@
       <c r="BI64" s="26"/>
       <c r="BJ64" s="26"/>
       <c r="BK64" s="26"/>
+      <c r="BL64" s="26"/>
     </row>
     <row r="65">
       <c r="B65" s="5"/>
@@ -16964,6 +17190,7 @@
       <c r="BI65" s="26"/>
       <c r="BJ65" s="26"/>
       <c r="BK65" s="26"/>
+      <c r="BL65" s="26"/>
     </row>
     <row r="66">
       <c r="B66" s="5"/>
@@ -16993,6 +17220,7 @@
       <c r="BI66" s="26"/>
       <c r="BJ66" s="26"/>
       <c r="BK66" s="26"/>
+      <c r="BL66" s="26"/>
     </row>
     <row r="67">
       <c r="B67" s="5"/>
@@ -17022,6 +17250,7 @@
       <c r="BI67" s="26"/>
       <c r="BJ67" s="26"/>
       <c r="BK67" s="26"/>
+      <c r="BL67" s="26"/>
     </row>
     <row r="68">
       <c r="B68" s="5"/>
@@ -17051,6 +17280,7 @@
       <c r="BI68" s="26"/>
       <c r="BJ68" s="26"/>
       <c r="BK68" s="26"/>
+      <c r="BL68" s="26"/>
     </row>
     <row r="69">
       <c r="B69" s="5"/>
@@ -17080,6 +17310,7 @@
       <c r="BI69" s="26"/>
       <c r="BJ69" s="26"/>
       <c r="BK69" s="26"/>
+      <c r="BL69" s="26"/>
     </row>
     <row r="70">
       <c r="B70" s="5"/>
@@ -17109,6 +17340,7 @@
       <c r="BI70" s="26"/>
       <c r="BJ70" s="26"/>
       <c r="BK70" s="26"/>
+      <c r="BL70" s="26"/>
     </row>
     <row r="71">
       <c r="B71" s="5"/>
@@ -17138,6 +17370,7 @@
       <c r="BI71" s="26"/>
       <c r="BJ71" s="26"/>
       <c r="BK71" s="26"/>
+      <c r="BL71" s="26"/>
     </row>
     <row r="72">
       <c r="AL72" s="26"/>
@@ -17166,6 +17399,7 @@
       <c r="BI72" s="26"/>
       <c r="BJ72" s="26"/>
       <c r="BK72" s="26"/>
+      <c r="BL72" s="26"/>
     </row>
     <row r="73">
       <c r="AL73" s="26"/>
@@ -17194,6 +17428,7 @@
       <c r="BI73" s="26"/>
       <c r="BJ73" s="26"/>
       <c r="BK73" s="26"/>
+      <c r="BL73" s="26"/>
     </row>
     <row r="74">
       <c r="AL74" s="26"/>
@@ -17222,6 +17457,7 @@
       <c r="BI74" s="26"/>
       <c r="BJ74" s="26"/>
       <c r="BK74" s="26"/>
+      <c r="BL74" s="26"/>
     </row>
     <row r="75">
       <c r="AL75" s="26"/>
@@ -17250,6 +17486,7 @@
       <c r="BI75" s="26"/>
       <c r="BJ75" s="26"/>
       <c r="BK75" s="26"/>
+      <c r="BL75" s="26"/>
     </row>
     <row r="76">
       <c r="AL76" s="26"/>
@@ -17278,6 +17515,7 @@
       <c r="BI76" s="26"/>
       <c r="BJ76" s="26"/>
       <c r="BK76" s="26"/>
+      <c r="BL76" s="26"/>
     </row>
     <row r="77">
       <c r="AL77" s="26"/>
@@ -17306,6 +17544,7 @@
       <c r="BI77" s="26"/>
       <c r="BJ77" s="26"/>
       <c r="BK77" s="26"/>
+      <c r="BL77" s="26"/>
     </row>
     <row r="78">
       <c r="AL78" s="26"/>
@@ -17334,6 +17573,7 @@
       <c r="BI78" s="26"/>
       <c r="BJ78" s="26"/>
       <c r="BK78" s="26"/>
+      <c r="BL78" s="26"/>
     </row>
     <row r="79">
       <c r="AL79" s="26"/>
@@ -17362,6 +17602,7 @@
       <c r="BI79" s="26"/>
       <c r="BJ79" s="26"/>
       <c r="BK79" s="26"/>
+      <c r="BL79" s="26"/>
     </row>
     <row r="80">
       <c r="AL80" s="26"/>
@@ -17390,6 +17631,7 @@
       <c r="BI80" s="26"/>
       <c r="BJ80" s="26"/>
       <c r="BK80" s="26"/>
+      <c r="BL80" s="26"/>
     </row>
     <row r="81">
       <c r="AL81" s="26"/>
@@ -17418,6 +17660,7 @@
       <c r="BI81" s="26"/>
       <c r="BJ81" s="26"/>
       <c r="BK81" s="26"/>
+      <c r="BL81" s="26"/>
     </row>
     <row r="82">
       <c r="AL82" s="26"/>
@@ -17446,6 +17689,7 @@
       <c r="BI82" s="26"/>
       <c r="BJ82" s="26"/>
       <c r="BK82" s="26"/>
+      <c r="BL82" s="26"/>
     </row>
     <row r="83">
       <c r="AL83" s="26"/>
@@ -17474,6 +17718,7 @@
       <c r="BI83" s="26"/>
       <c r="BJ83" s="26"/>
       <c r="BK83" s="26"/>
+      <c r="BL83" s="26"/>
     </row>
     <row r="84">
       <c r="AL84" s="26"/>
@@ -17502,6 +17747,7 @@
       <c r="BI84" s="26"/>
       <c r="BJ84" s="26"/>
       <c r="BK84" s="26"/>
+      <c r="BL84" s="26"/>
     </row>
     <row r="85">
       <c r="AL85" s="26"/>
@@ -17530,6 +17776,7 @@
       <c r="BI85" s="26"/>
       <c r="BJ85" s="26"/>
       <c r="BK85" s="26"/>
+      <c r="BL85" s="26"/>
     </row>
     <row r="86">
       <c r="AL86" s="26"/>
@@ -17558,6 +17805,7 @@
       <c r="BI86" s="26"/>
       <c r="BJ86" s="26"/>
       <c r="BK86" s="26"/>
+      <c r="BL86" s="26"/>
     </row>
     <row r="87">
       <c r="AL87" s="26"/>
@@ -17586,6 +17834,7 @@
       <c r="BI87" s="26"/>
       <c r="BJ87" s="26"/>
       <c r="BK87" s="26"/>
+      <c r="BL87" s="26"/>
     </row>
     <row r="88">
       <c r="AL88" s="26"/>
@@ -17614,6 +17863,7 @@
       <c r="BI88" s="26"/>
       <c r="BJ88" s="26"/>
       <c r="BK88" s="26"/>
+      <c r="BL88" s="26"/>
     </row>
     <row r="89">
       <c r="AL89" s="26"/>
@@ -17642,6 +17892,7 @@
       <c r="BI89" s="26"/>
       <c r="BJ89" s="26"/>
       <c r="BK89" s="26"/>
+      <c r="BL89" s="26"/>
     </row>
     <row r="90">
       <c r="AL90" s="26"/>
@@ -17670,6 +17921,7 @@
       <c r="BI90" s="26"/>
       <c r="BJ90" s="26"/>
       <c r="BK90" s="26"/>
+      <c r="BL90" s="26"/>
     </row>
     <row r="91">
       <c r="AL91" s="26"/>
@@ -17698,6 +17950,7 @@
       <c r="BI91" s="26"/>
       <c r="BJ91" s="26"/>
       <c r="BK91" s="26"/>
+      <c r="BL91" s="26"/>
     </row>
     <row r="92">
       <c r="AL92" s="26"/>
@@ -17726,6 +17979,7 @@
       <c r="BI92" s="26"/>
       <c r="BJ92" s="26"/>
       <c r="BK92" s="26"/>
+      <c r="BL92" s="26"/>
     </row>
     <row r="93">
       <c r="AL93" s="26"/>
@@ -17754,6 +18008,7 @@
       <c r="BI93" s="26"/>
       <c r="BJ93" s="26"/>
       <c r="BK93" s="26"/>
+      <c r="BL93" s="26"/>
     </row>
     <row r="94">
       <c r="AL94" s="26"/>
@@ -17782,6 +18037,7 @@
       <c r="BI94" s="26"/>
       <c r="BJ94" s="26"/>
       <c r="BK94" s="26"/>
+      <c r="BL94" s="26"/>
     </row>
     <row r="95">
       <c r="AL95" s="26"/>
@@ -17810,6 +18066,7 @@
       <c r="BI95" s="26"/>
       <c r="BJ95" s="26"/>
       <c r="BK95" s="26"/>
+      <c r="BL95" s="26"/>
     </row>
     <row r="96">
       <c r="AL96" s="26"/>
@@ -17838,6 +18095,7 @@
       <c r="BI96" s="26"/>
       <c r="BJ96" s="26"/>
       <c r="BK96" s="26"/>
+      <c r="BL96" s="26"/>
     </row>
     <row r="97">
       <c r="AL97" s="26"/>
@@ -17866,6 +18124,7 @@
       <c r="BI97" s="26"/>
       <c r="BJ97" s="26"/>
       <c r="BK97" s="26"/>
+      <c r="BL97" s="26"/>
     </row>
     <row r="98">
       <c r="AL98" s="26"/>
@@ -17894,6 +18153,7 @@
       <c r="BI98" s="26"/>
       <c r="BJ98" s="26"/>
       <c r="BK98" s="26"/>
+      <c r="BL98" s="26"/>
     </row>
     <row r="99">
       <c r="AL99" s="26"/>
@@ -17922,6 +18182,7 @@
       <c r="BI99" s="26"/>
       <c r="BJ99" s="26"/>
       <c r="BK99" s="26"/>
+      <c r="BL99" s="26"/>
     </row>
     <row r="100">
       <c r="AL100" s="26"/>
@@ -17950,6 +18211,7 @@
       <c r="BI100" s="26"/>
       <c r="BJ100" s="26"/>
       <c r="BK100" s="26"/>
+      <c r="BL100" s="26"/>
     </row>
     <row r="101">
       <c r="AL101" s="26"/>
@@ -17978,6 +18240,7 @@
       <c r="BI101" s="26"/>
       <c r="BJ101" s="26"/>
       <c r="BK101" s="26"/>
+      <c r="BL101" s="26"/>
     </row>
     <row r="102">
       <c r="AL102" s="26"/>
@@ -18006,6 +18269,7 @@
       <c r="BI102" s="26"/>
       <c r="BJ102" s="26"/>
       <c r="BK102" s="26"/>
+      <c r="BL102" s="26"/>
     </row>
     <row r="103">
       <c r="AL103" s="26"/>
@@ -18034,6 +18298,7 @@
       <c r="BI103" s="26"/>
       <c r="BJ103" s="26"/>
       <c r="BK103" s="26"/>
+      <c r="BL103" s="26"/>
     </row>
     <row r="104">
       <c r="AL104" s="26"/>
@@ -18062,6 +18327,7 @@
       <c r="BI104" s="26"/>
       <c r="BJ104" s="26"/>
       <c r="BK104" s="26"/>
+      <c r="BL104" s="26"/>
     </row>
     <row r="105">
       <c r="AL105" s="26"/>
@@ -18090,6 +18356,7 @@
       <c r="BI105" s="26"/>
       <c r="BJ105" s="26"/>
       <c r="BK105" s="26"/>
+      <c r="BL105" s="26"/>
     </row>
     <row r="106">
       <c r="AL106" s="26"/>
@@ -18118,6 +18385,7 @@
       <c r="BI106" s="26"/>
       <c r="BJ106" s="26"/>
       <c r="BK106" s="26"/>
+      <c r="BL106" s="26"/>
     </row>
     <row r="107">
       <c r="AL107" s="26"/>
@@ -18146,6 +18414,7 @@
       <c r="BI107" s="26"/>
       <c r="BJ107" s="26"/>
       <c r="BK107" s="26"/>
+      <c r="BL107" s="26"/>
     </row>
     <row r="108">
       <c r="AL108" s="26"/>
@@ -18174,6 +18443,7 @@
       <c r="BI108" s="26"/>
       <c r="BJ108" s="26"/>
       <c r="BK108" s="26"/>
+      <c r="BL108" s="26"/>
     </row>
     <row r="109">
       <c r="AL109" s="26"/>
@@ -18202,6 +18472,7 @@
       <c r="BI109" s="26"/>
       <c r="BJ109" s="26"/>
       <c r="BK109" s="26"/>
+      <c r="BL109" s="26"/>
     </row>
     <row r="110">
       <c r="AL110" s="26"/>
@@ -18230,6 +18501,7 @@
       <c r="BI110" s="26"/>
       <c r="BJ110" s="26"/>
       <c r="BK110" s="26"/>
+      <c r="BL110" s="26"/>
     </row>
     <row r="111">
       <c r="AL111" s="26"/>
@@ -18258,6 +18530,7 @@
       <c r="BI111" s="26"/>
       <c r="BJ111" s="26"/>
       <c r="BK111" s="26"/>
+      <c r="BL111" s="26"/>
     </row>
     <row r="112">
       <c r="AL112" s="26"/>
@@ -18286,6 +18559,7 @@
       <c r="BI112" s="26"/>
       <c r="BJ112" s="26"/>
       <c r="BK112" s="26"/>
+      <c r="BL112" s="26"/>
     </row>
     <row r="113">
       <c r="AL113" s="26"/>
@@ -18314,6 +18588,7 @@
       <c r="BI113" s="26"/>
       <c r="BJ113" s="26"/>
       <c r="BK113" s="26"/>
+      <c r="BL113" s="26"/>
     </row>
     <row r="114">
       <c r="AL114" s="26"/>
@@ -18342,6 +18617,7 @@
       <c r="BI114" s="26"/>
       <c r="BJ114" s="26"/>
       <c r="BK114" s="26"/>
+      <c r="BL114" s="26"/>
     </row>
     <row r="115">
       <c r="AL115" s="26"/>
@@ -18370,6 +18646,7 @@
       <c r="BI115" s="26"/>
       <c r="BJ115" s="26"/>
       <c r="BK115" s="26"/>
+      <c r="BL115" s="26"/>
     </row>
     <row r="116">
       <c r="AL116" s="26"/>
@@ -18398,6 +18675,7 @@
       <c r="BI116" s="26"/>
       <c r="BJ116" s="26"/>
       <c r="BK116" s="26"/>
+      <c r="BL116" s="26"/>
     </row>
     <row r="117">
       <c r="AL117" s="26"/>
@@ -18426,6 +18704,7 @@
       <c r="BI117" s="26"/>
       <c r="BJ117" s="26"/>
       <c r="BK117" s="26"/>
+      <c r="BL117" s="26"/>
     </row>
     <row r="118">
       <c r="AL118" s="26"/>
@@ -18454,6 +18733,7 @@
       <c r="BI118" s="26"/>
       <c r="BJ118" s="26"/>
       <c r="BK118" s="26"/>
+      <c r="BL118" s="26"/>
     </row>
     <row r="119">
       <c r="AL119" s="26"/>
@@ -18482,6 +18762,7 @@
       <c r="BI119" s="26"/>
       <c r="BJ119" s="26"/>
       <c r="BK119" s="26"/>
+      <c r="BL119" s="26"/>
     </row>
     <row r="120">
       <c r="AL120" s="26"/>
@@ -18510,6 +18791,7 @@
       <c r="BI120" s="26"/>
       <c r="BJ120" s="26"/>
       <c r="BK120" s="26"/>
+      <c r="BL120" s="26"/>
     </row>
     <row r="121">
       <c r="AL121" s="26"/>
@@ -18538,6 +18820,7 @@
       <c r="BI121" s="26"/>
       <c r="BJ121" s="26"/>
       <c r="BK121" s="26"/>
+      <c r="BL121" s="26"/>
     </row>
     <row r="122">
       <c r="AL122" s="26"/>
@@ -18566,6 +18849,7 @@
       <c r="BI122" s="26"/>
       <c r="BJ122" s="26"/>
       <c r="BK122" s="26"/>
+      <c r="BL122" s="26"/>
     </row>
     <row r="123">
       <c r="AL123" s="26"/>
@@ -18594,6 +18878,7 @@
       <c r="BI123" s="26"/>
       <c r="BJ123" s="26"/>
       <c r="BK123" s="26"/>
+      <c r="BL123" s="26"/>
     </row>
     <row r="124">
       <c r="AL124" s="26"/>
@@ -18622,6 +18907,7 @@
       <c r="BI124" s="26"/>
       <c r="BJ124" s="26"/>
       <c r="BK124" s="26"/>
+      <c r="BL124" s="26"/>
     </row>
     <row r="125">
       <c r="AL125" s="26"/>
@@ -18650,6 +18936,7 @@
       <c r="BI125" s="26"/>
       <c r="BJ125" s="26"/>
       <c r="BK125" s="26"/>
+      <c r="BL125" s="26"/>
     </row>
     <row r="126">
       <c r="AL126" s="26"/>
@@ -18678,6 +18965,7 @@
       <c r="BI126" s="26"/>
       <c r="BJ126" s="26"/>
       <c r="BK126" s="26"/>
+      <c r="BL126" s="26"/>
     </row>
     <row r="127">
       <c r="AL127" s="26"/>
@@ -18706,6 +18994,7 @@
       <c r="BI127" s="26"/>
       <c r="BJ127" s="26"/>
       <c r="BK127" s="26"/>
+      <c r="BL127" s="26"/>
     </row>
     <row r="128">
       <c r="AL128" s="26"/>
@@ -18734,6 +19023,7 @@
       <c r="BI128" s="26"/>
       <c r="BJ128" s="26"/>
       <c r="BK128" s="26"/>
+      <c r="BL128" s="26"/>
     </row>
     <row r="129">
       <c r="AL129" s="26"/>
@@ -18762,6 +19052,7 @@
       <c r="BI129" s="26"/>
       <c r="BJ129" s="26"/>
       <c r="BK129" s="26"/>
+      <c r="BL129" s="26"/>
     </row>
     <row r="130">
       <c r="AL130" s="26"/>
@@ -18790,6 +19081,7 @@
       <c r="BI130" s="26"/>
       <c r="BJ130" s="26"/>
       <c r="BK130" s="26"/>
+      <c r="BL130" s="26"/>
     </row>
     <row r="131">
       <c r="AL131" s="26"/>
@@ -18818,6 +19110,7 @@
       <c r="BI131" s="26"/>
       <c r="BJ131" s="26"/>
       <c r="BK131" s="26"/>
+      <c r="BL131" s="26"/>
     </row>
     <row r="132">
       <c r="AL132" s="26"/>
@@ -18846,6 +19139,7 @@
       <c r="BI132" s="26"/>
       <c r="BJ132" s="26"/>
       <c r="BK132" s="26"/>
+      <c r="BL132" s="26"/>
     </row>
     <row r="133">
       <c r="AL133" s="26"/>
@@ -18874,6 +19168,7 @@
       <c r="BI133" s="26"/>
       <c r="BJ133" s="26"/>
       <c r="BK133" s="26"/>
+      <c r="BL133" s="26"/>
     </row>
     <row r="134">
       <c r="AL134" s="26"/>
@@ -18902,6 +19197,7 @@
       <c r="BI134" s="26"/>
       <c r="BJ134" s="26"/>
       <c r="BK134" s="26"/>
+      <c r="BL134" s="26"/>
     </row>
     <row r="135">
       <c r="AL135" s="26"/>
@@ -18930,6 +19226,7 @@
       <c r="BI135" s="26"/>
       <c r="BJ135" s="26"/>
       <c r="BK135" s="26"/>
+      <c r="BL135" s="26"/>
     </row>
     <row r="136">
       <c r="AL136" s="26"/>
@@ -18958,6 +19255,7 @@
       <c r="BI136" s="26"/>
       <c r="BJ136" s="26"/>
       <c r="BK136" s="26"/>
+      <c r="BL136" s="26"/>
     </row>
     <row r="137">
       <c r="AL137" s="26"/>
@@ -18986,6 +19284,7 @@
       <c r="BI137" s="26"/>
       <c r="BJ137" s="26"/>
       <c r="BK137" s="26"/>
+      <c r="BL137" s="26"/>
     </row>
     <row r="138">
       <c r="AL138" s="26"/>
@@ -19014,6 +19313,7 @@
       <c r="BI138" s="26"/>
       <c r="BJ138" s="26"/>
       <c r="BK138" s="26"/>
+      <c r="BL138" s="26"/>
     </row>
     <row r="139">
       <c r="AL139" s="26"/>
@@ -19042,6 +19342,7 @@
       <c r="BI139" s="26"/>
       <c r="BJ139" s="26"/>
       <c r="BK139" s="26"/>
+      <c r="BL139" s="26"/>
     </row>
     <row r="140">
       <c r="AL140" s="26"/>
@@ -19070,6 +19371,7 @@
       <c r="BI140" s="26"/>
       <c r="BJ140" s="26"/>
       <c r="BK140" s="26"/>
+      <c r="BL140" s="26"/>
     </row>
     <row r="141">
       <c r="AL141" s="26"/>
@@ -19098,6 +19400,7 @@
       <c r="BI141" s="26"/>
       <c r="BJ141" s="26"/>
       <c r="BK141" s="26"/>
+      <c r="BL141" s="26"/>
     </row>
     <row r="142">
       <c r="AL142" s="26"/>
@@ -19126,6 +19429,7 @@
       <c r="BI142" s="26"/>
       <c r="BJ142" s="26"/>
       <c r="BK142" s="26"/>
+      <c r="BL142" s="26"/>
     </row>
     <row r="143">
       <c r="AL143" s="26"/>
@@ -19154,6 +19458,7 @@
       <c r="BI143" s="26"/>
       <c r="BJ143" s="26"/>
       <c r="BK143" s="26"/>
+      <c r="BL143" s="26"/>
     </row>
     <row r="144">
       <c r="AL144" s="26"/>
@@ -19182,6 +19487,7 @@
       <c r="BI144" s="26"/>
       <c r="BJ144" s="26"/>
       <c r="BK144" s="26"/>
+      <c r="BL144" s="26"/>
     </row>
     <row r="145">
       <c r="AL145" s="26"/>
@@ -19210,6 +19516,7 @@
       <c r="BI145" s="26"/>
       <c r="BJ145" s="26"/>
       <c r="BK145" s="26"/>
+      <c r="BL145" s="26"/>
     </row>
     <row r="146">
       <c r="AL146" s="26"/>
@@ -19238,6 +19545,7 @@
       <c r="BI146" s="26"/>
       <c r="BJ146" s="26"/>
       <c r="BK146" s="26"/>
+      <c r="BL146" s="26"/>
     </row>
     <row r="147">
       <c r="AL147" s="26"/>
@@ -19266,6 +19574,7 @@
       <c r="BI147" s="26"/>
       <c r="BJ147" s="26"/>
       <c r="BK147" s="26"/>
+      <c r="BL147" s="26"/>
     </row>
     <row r="148">
       <c r="AL148" s="26"/>
@@ -19294,6 +19603,7 @@
       <c r="BI148" s="26"/>
       <c r="BJ148" s="26"/>
       <c r="BK148" s="26"/>
+      <c r="BL148" s="26"/>
     </row>
     <row r="149">
       <c r="AL149" s="26"/>
@@ -19322,6 +19632,7 @@
       <c r="BI149" s="26"/>
       <c r="BJ149" s="26"/>
       <c r="BK149" s="26"/>
+      <c r="BL149" s="26"/>
     </row>
     <row r="150">
       <c r="AL150" s="26"/>
@@ -19350,6 +19661,7 @@
       <c r="BI150" s="26"/>
       <c r="BJ150" s="26"/>
       <c r="BK150" s="26"/>
+      <c r="BL150" s="26"/>
     </row>
     <row r="151">
       <c r="AL151" s="26"/>
@@ -19378,6 +19690,7 @@
       <c r="BI151" s="26"/>
       <c r="BJ151" s="26"/>
       <c r="BK151" s="26"/>
+      <c r="BL151" s="26"/>
     </row>
     <row r="152">
       <c r="AL152" s="26"/>
@@ -19406,6 +19719,7 @@
       <c r="BI152" s="26"/>
       <c r="BJ152" s="26"/>
       <c r="BK152" s="26"/>
+      <c r="BL152" s="26"/>
     </row>
     <row r="153">
       <c r="AL153" s="26"/>
@@ -19434,6 +19748,7 @@
       <c r="BI153" s="26"/>
       <c r="BJ153" s="26"/>
       <c r="BK153" s="26"/>
+      <c r="BL153" s="26"/>
     </row>
     <row r="154">
       <c r="AL154" s="26"/>
@@ -19462,6 +19777,7 @@
       <c r="BI154" s="26"/>
       <c r="BJ154" s="26"/>
       <c r="BK154" s="26"/>
+      <c r="BL154" s="26"/>
     </row>
     <row r="155">
       <c r="AL155" s="26"/>
@@ -19490,6 +19806,7 @@
       <c r="BI155" s="26"/>
       <c r="BJ155" s="26"/>
       <c r="BK155" s="26"/>
+      <c r="BL155" s="26"/>
     </row>
     <row r="156">
       <c r="AL156" s="26"/>
@@ -19518,6 +19835,7 @@
       <c r="BI156" s="26"/>
       <c r="BJ156" s="26"/>
       <c r="BK156" s="26"/>
+      <c r="BL156" s="26"/>
     </row>
     <row r="157">
       <c r="AL157" s="26"/>
@@ -19546,6 +19864,7 @@
       <c r="BI157" s="26"/>
       <c r="BJ157" s="26"/>
       <c r="BK157" s="26"/>
+      <c r="BL157" s="26"/>
     </row>
     <row r="158">
       <c r="AL158" s="26"/>
@@ -19574,6 +19893,7 @@
       <c r="BI158" s="26"/>
       <c r="BJ158" s="26"/>
       <c r="BK158" s="26"/>
+      <c r="BL158" s="26"/>
     </row>
     <row r="159">
       <c r="AL159" s="26"/>
@@ -19602,6 +19922,7 @@
       <c r="BI159" s="26"/>
       <c r="BJ159" s="26"/>
       <c r="BK159" s="26"/>
+      <c r="BL159" s="26"/>
     </row>
     <row r="160">
       <c r="AL160" s="26"/>
@@ -19630,6 +19951,7 @@
       <c r="BI160" s="26"/>
       <c r="BJ160" s="26"/>
       <c r="BK160" s="26"/>
+      <c r="BL160" s="26"/>
     </row>
     <row r="161">
       <c r="AL161" s="26"/>
@@ -19658,6 +19980,7 @@
       <c r="BI161" s="26"/>
       <c r="BJ161" s="26"/>
       <c r="BK161" s="26"/>
+      <c r="BL161" s="26"/>
     </row>
     <row r="162">
       <c r="AL162" s="26"/>
@@ -19686,6 +20009,7 @@
       <c r="BI162" s="26"/>
       <c r="BJ162" s="26"/>
       <c r="BK162" s="26"/>
+      <c r="BL162" s="26"/>
     </row>
     <row r="163">
       <c r="AL163" s="26"/>
@@ -19714,6 +20038,7 @@
       <c r="BI163" s="26"/>
       <c r="BJ163" s="26"/>
       <c r="BK163" s="26"/>
+      <c r="BL163" s="26"/>
     </row>
     <row r="164">
       <c r="AL164" s="26"/>
@@ -19742,6 +20067,7 @@
       <c r="BI164" s="26"/>
       <c r="BJ164" s="26"/>
       <c r="BK164" s="26"/>
+      <c r="BL164" s="26"/>
     </row>
     <row r="165">
       <c r="AL165" s="26"/>
@@ -19770,6 +20096,7 @@
       <c r="BI165" s="26"/>
       <c r="BJ165" s="26"/>
       <c r="BK165" s="26"/>
+      <c r="BL165" s="26"/>
     </row>
     <row r="166">
       <c r="AL166" s="26"/>
@@ -19798,6 +20125,7 @@
       <c r="BI166" s="26"/>
       <c r="BJ166" s="26"/>
       <c r="BK166" s="26"/>
+      <c r="BL166" s="26"/>
     </row>
     <row r="167">
       <c r="AL167" s="26"/>
@@ -19826,6 +20154,7 @@
       <c r="BI167" s="26"/>
       <c r="BJ167" s="26"/>
       <c r="BK167" s="26"/>
+      <c r="BL167" s="26"/>
     </row>
     <row r="168">
       <c r="AL168" s="26"/>
@@ -19854,6 +20183,7 @@
       <c r="BI168" s="26"/>
       <c r="BJ168" s="26"/>
       <c r="BK168" s="26"/>
+      <c r="BL168" s="26"/>
     </row>
     <row r="169">
       <c r="AL169" s="26"/>
@@ -19882,6 +20212,7 @@
       <c r="BI169" s="26"/>
       <c r="BJ169" s="26"/>
       <c r="BK169" s="26"/>
+      <c r="BL169" s="26"/>
     </row>
     <row r="170">
       <c r="AL170" s="26"/>
@@ -19910,6 +20241,7 @@
       <c r="BI170" s="26"/>
       <c r="BJ170" s="26"/>
       <c r="BK170" s="26"/>
+      <c r="BL170" s="26"/>
     </row>
     <row r="171">
       <c r="AL171" s="26"/>
@@ -19938,6 +20270,7 @@
       <c r="BI171" s="26"/>
       <c r="BJ171" s="26"/>
       <c r="BK171" s="26"/>
+      <c r="BL171" s="26"/>
     </row>
     <row r="172">
       <c r="AL172" s="26"/>
@@ -19966,6 +20299,7 @@
       <c r="BI172" s="26"/>
       <c r="BJ172" s="26"/>
       <c r="BK172" s="26"/>
+      <c r="BL172" s="26"/>
     </row>
     <row r="173">
       <c r="AL173" s="26"/>
@@ -19994,6 +20328,7 @@
       <c r="BI173" s="26"/>
       <c r="BJ173" s="26"/>
       <c r="BK173" s="26"/>
+      <c r="BL173" s="26"/>
     </row>
     <row r="174">
       <c r="AL174" s="26"/>
@@ -20022,6 +20357,7 @@
       <c r="BI174" s="26"/>
       <c r="BJ174" s="26"/>
       <c r="BK174" s="26"/>
+      <c r="BL174" s="26"/>
     </row>
     <row r="175">
       <c r="AL175" s="26"/>
@@ -20050,6 +20386,7 @@
       <c r="BI175" s="26"/>
       <c r="BJ175" s="26"/>
       <c r="BK175" s="26"/>
+      <c r="BL175" s="26"/>
     </row>
     <row r="176">
       <c r="AL176" s="26"/>
@@ -20078,6 +20415,7 @@
       <c r="BI176" s="26"/>
       <c r="BJ176" s="26"/>
       <c r="BK176" s="26"/>
+      <c r="BL176" s="26"/>
     </row>
     <row r="177">
       <c r="AL177" s="26"/>
@@ -20106,6 +20444,7 @@
       <c r="BI177" s="26"/>
       <c r="BJ177" s="26"/>
       <c r="BK177" s="26"/>
+      <c r="BL177" s="26"/>
     </row>
     <row r="178">
       <c r="AL178" s="26"/>
@@ -20134,6 +20473,7 @@
       <c r="BI178" s="26"/>
       <c r="BJ178" s="26"/>
       <c r="BK178" s="26"/>
+      <c r="BL178" s="26"/>
     </row>
     <row r="179">
       <c r="H179" s="31"/>
@@ -20163,6 +20503,7 @@
       <c r="BI179" s="26"/>
       <c r="BJ179" s="26"/>
       <c r="BK179" s="26"/>
+      <c r="BL179" s="26"/>
     </row>
     <row r="180">
       <c r="AL180" s="26"/>
@@ -20191,6 +20532,7 @@
       <c r="BI180" s="26"/>
       <c r="BJ180" s="26"/>
       <c r="BK180" s="26"/>
+      <c r="BL180" s="26"/>
     </row>
     <row r="181">
       <c r="AL181" s="26"/>
@@ -20219,6 +20561,7 @@
       <c r="BI181" s="26"/>
       <c r="BJ181" s="26"/>
       <c r="BK181" s="26"/>
+      <c r="BL181" s="26"/>
     </row>
     <row r="182">
       <c r="AL182" s="26"/>
@@ -20247,6 +20590,7 @@
       <c r="BI182" s="26"/>
       <c r="BJ182" s="26"/>
       <c r="BK182" s="26"/>
+      <c r="BL182" s="26"/>
     </row>
     <row r="183">
       <c r="AL183" s="26"/>
@@ -20275,6 +20619,7 @@
       <c r="BI183" s="26"/>
       <c r="BJ183" s="26"/>
       <c r="BK183" s="26"/>
+      <c r="BL183" s="26"/>
     </row>
     <row r="184">
       <c r="AL184" s="26"/>
@@ -20303,6 +20648,7 @@
       <c r="BI184" s="26"/>
       <c r="BJ184" s="26"/>
       <c r="BK184" s="26"/>
+      <c r="BL184" s="26"/>
     </row>
     <row r="185">
       <c r="AL185" s="26"/>
@@ -20331,6 +20677,7 @@
       <c r="BI185" s="26"/>
       <c r="BJ185" s="26"/>
       <c r="BK185" s="26"/>
+      <c r="BL185" s="26"/>
     </row>
     <row r="186">
       <c r="AL186" s="26"/>
@@ -20359,6 +20706,7 @@
       <c r="BI186" s="26"/>
       <c r="BJ186" s="26"/>
       <c r="BK186" s="26"/>
+      <c r="BL186" s="26"/>
     </row>
     <row r="187">
       <c r="AL187" s="26"/>
@@ -20387,6 +20735,7 @@
       <c r="BI187" s="26"/>
       <c r="BJ187" s="26"/>
       <c r="BK187" s="26"/>
+      <c r="BL187" s="26"/>
     </row>
     <row r="188">
       <c r="AL188" s="26"/>
@@ -20415,6 +20764,7 @@
       <c r="BI188" s="26"/>
       <c r="BJ188" s="26"/>
       <c r="BK188" s="26"/>
+      <c r="BL188" s="26"/>
     </row>
     <row r="189">
       <c r="AL189" s="26"/>
@@ -20443,6 +20793,7 @@
       <c r="BI189" s="26"/>
       <c r="BJ189" s="26"/>
       <c r="BK189" s="26"/>
+      <c r="BL189" s="26"/>
     </row>
     <row r="190">
       <c r="AL190" s="26"/>
@@ -20471,6 +20822,7 @@
       <c r="BI190" s="26"/>
       <c r="BJ190" s="26"/>
       <c r="BK190" s="26"/>
+      <c r="BL190" s="26"/>
     </row>
     <row r="191">
       <c r="AL191" s="26"/>
@@ -20499,6 +20851,7 @@
       <c r="BI191" s="26"/>
       <c r="BJ191" s="26"/>
       <c r="BK191" s="26"/>
+      <c r="BL191" s="26"/>
     </row>
     <row r="192">
       <c r="AL192" s="26"/>
@@ -20527,6 +20880,7 @@
       <c r="BI192" s="26"/>
       <c r="BJ192" s="26"/>
       <c r="BK192" s="26"/>
+      <c r="BL192" s="26"/>
     </row>
     <row r="193">
       <c r="AL193" s="26"/>
@@ -20555,6 +20909,7 @@
       <c r="BI193" s="26"/>
       <c r="BJ193" s="26"/>
       <c r="BK193" s="26"/>
+      <c r="BL193" s="26"/>
     </row>
     <row r="194">
       <c r="AL194" s="26"/>
@@ -20583,6 +20938,7 @@
       <c r="BI194" s="26"/>
       <c r="BJ194" s="26"/>
       <c r="BK194" s="26"/>
+      <c r="BL194" s="26"/>
     </row>
     <row r="195">
       <c r="AL195" s="26"/>
@@ -20611,6 +20967,7 @@
       <c r="BI195" s="26"/>
       <c r="BJ195" s="26"/>
       <c r="BK195" s="26"/>
+      <c r="BL195" s="26"/>
     </row>
     <row r="196">
       <c r="AL196" s="26"/>
@@ -20639,6 +20996,7 @@
       <c r="BI196" s="26"/>
       <c r="BJ196" s="26"/>
       <c r="BK196" s="26"/>
+      <c r="BL196" s="26"/>
     </row>
     <row r="197">
       <c r="AL197" s="26"/>
@@ -20667,6 +21025,7 @@
       <c r="BI197" s="26"/>
       <c r="BJ197" s="26"/>
       <c r="BK197" s="26"/>
+      <c r="BL197" s="26"/>
     </row>
     <row r="198">
       <c r="AL198" s="26"/>
@@ -20695,6 +21054,7 @@
       <c r="BI198" s="26"/>
       <c r="BJ198" s="26"/>
       <c r="BK198" s="26"/>
+      <c r="BL198" s="26"/>
     </row>
     <row r="199">
       <c r="AL199" s="26"/>
@@ -20723,6 +21083,7 @@
       <c r="BI199" s="26"/>
       <c r="BJ199" s="26"/>
       <c r="BK199" s="26"/>
+      <c r="BL199" s="26"/>
     </row>
     <row r="200">
       <c r="AL200" s="26"/>
@@ -20751,6 +21112,7 @@
       <c r="BI200" s="26"/>
       <c r="BJ200" s="26"/>
       <c r="BK200" s="26"/>
+      <c r="BL200" s="26"/>
     </row>
     <row r="201">
       <c r="AL201" s="26"/>
@@ -20779,6 +21141,7 @@
       <c r="BI201" s="26"/>
       <c r="BJ201" s="26"/>
       <c r="BK201" s="26"/>
+      <c r="BL201" s="26"/>
     </row>
     <row r="202">
       <c r="AL202" s="26"/>
@@ -20807,6 +21170,7 @@
       <c r="BI202" s="26"/>
       <c r="BJ202" s="26"/>
       <c r="BK202" s="26"/>
+      <c r="BL202" s="26"/>
     </row>
     <row r="203">
       <c r="AL203" s="26"/>
@@ -20835,6 +21199,7 @@
       <c r="BI203" s="26"/>
       <c r="BJ203" s="26"/>
       <c r="BK203" s="26"/>
+      <c r="BL203" s="26"/>
     </row>
     <row r="204">
       <c r="AL204" s="26"/>
@@ -20863,6 +21228,7 @@
       <c r="BI204" s="26"/>
       <c r="BJ204" s="26"/>
       <c r="BK204" s="26"/>
+      <c r="BL204" s="26"/>
     </row>
     <row r="205">
       <c r="AL205" s="26"/>
@@ -20891,6 +21257,7 @@
       <c r="BI205" s="26"/>
       <c r="BJ205" s="26"/>
       <c r="BK205" s="26"/>
+      <c r="BL205" s="26"/>
     </row>
     <row r="206">
       <c r="AL206" s="26"/>
@@ -20919,6 +21286,7 @@
       <c r="BI206" s="26"/>
       <c r="BJ206" s="26"/>
       <c r="BK206" s="26"/>
+      <c r="BL206" s="26"/>
     </row>
     <row r="207">
       <c r="AL207" s="26"/>
@@ -20947,6 +21315,7 @@
       <c r="BI207" s="26"/>
       <c r="BJ207" s="26"/>
       <c r="BK207" s="26"/>
+      <c r="BL207" s="26"/>
     </row>
     <row r="208">
       <c r="AL208" s="26"/>
@@ -20975,6 +21344,7 @@
       <c r="BI208" s="26"/>
       <c r="BJ208" s="26"/>
       <c r="BK208" s="26"/>
+      <c r="BL208" s="26"/>
     </row>
     <row r="209">
       <c r="AL209" s="26"/>
@@ -21003,6 +21373,7 @@
       <c r="BI209" s="26"/>
       <c r="BJ209" s="26"/>
       <c r="BK209" s="26"/>
+      <c r="BL209" s="26"/>
     </row>
     <row r="210">
       <c r="AL210" s="26"/>
@@ -21031,6 +21402,7 @@
       <c r="BI210" s="26"/>
       <c r="BJ210" s="26"/>
       <c r="BK210" s="26"/>
+      <c r="BL210" s="26"/>
     </row>
     <row r="211">
       <c r="AL211" s="26"/>
@@ -21059,6 +21431,7 @@
       <c r="BI211" s="26"/>
       <c r="BJ211" s="26"/>
       <c r="BK211" s="26"/>
+      <c r="BL211" s="26"/>
     </row>
     <row r="212">
       <c r="AL212" s="26"/>
@@ -21087,6 +21460,7 @@
       <c r="BI212" s="26"/>
       <c r="BJ212" s="26"/>
       <c r="BK212" s="26"/>
+      <c r="BL212" s="26"/>
     </row>
     <row r="213">
       <c r="AL213" s="26"/>
@@ -21115,6 +21489,7 @@
       <c r="BI213" s="26"/>
       <c r="BJ213" s="26"/>
       <c r="BK213" s="26"/>
+      <c r="BL213" s="26"/>
     </row>
     <row r="214">
       <c r="AL214" s="26"/>
@@ -21143,6 +21518,7 @@
       <c r="BI214" s="26"/>
       <c r="BJ214" s="26"/>
       <c r="BK214" s="26"/>
+      <c r="BL214" s="26"/>
     </row>
     <row r="215">
       <c r="AL215" s="26"/>
@@ -21171,6 +21547,7 @@
       <c r="BI215" s="26"/>
       <c r="BJ215" s="26"/>
       <c r="BK215" s="26"/>
+      <c r="BL215" s="26"/>
     </row>
     <row r="216">
       <c r="AL216" s="26"/>
@@ -21199,6 +21576,7 @@
       <c r="BI216" s="26"/>
       <c r="BJ216" s="26"/>
       <c r="BK216" s="26"/>
+      <c r="BL216" s="26"/>
     </row>
     <row r="217">
       <c r="AL217" s="26"/>
@@ -21227,6 +21605,7 @@
       <c r="BI217" s="26"/>
       <c r="BJ217" s="26"/>
       <c r="BK217" s="26"/>
+      <c r="BL217" s="26"/>
     </row>
     <row r="218">
       <c r="AL218" s="26"/>
@@ -21255,6 +21634,7 @@
       <c r="BI218" s="26"/>
       <c r="BJ218" s="26"/>
       <c r="BK218" s="26"/>
+      <c r="BL218" s="26"/>
     </row>
     <row r="219">
       <c r="AL219" s="26"/>
@@ -21283,6 +21663,7 @@
       <c r="BI219" s="26"/>
       <c r="BJ219" s="26"/>
       <c r="BK219" s="26"/>
+      <c r="BL219" s="26"/>
     </row>
     <row r="220">
       <c r="AL220" s="26"/>
@@ -21311,6 +21692,7 @@
       <c r="BI220" s="26"/>
       <c r="BJ220" s="26"/>
       <c r="BK220" s="26"/>
+      <c r="BL220" s="26"/>
     </row>
     <row r="221">
       <c r="AL221" s="26"/>
@@ -21339,6 +21721,7 @@
       <c r="BI221" s="26"/>
       <c r="BJ221" s="26"/>
       <c r="BK221" s="26"/>
+      <c r="BL221" s="26"/>
     </row>
     <row r="222">
       <c r="AL222" s="26"/>
@@ -21367,6 +21750,7 @@
       <c r="BI222" s="26"/>
       <c r="BJ222" s="26"/>
       <c r="BK222" s="26"/>
+      <c r="BL222" s="26"/>
     </row>
     <row r="223">
       <c r="AL223" s="26"/>
@@ -21395,6 +21779,7 @@
       <c r="BI223" s="26"/>
       <c r="BJ223" s="26"/>
       <c r="BK223" s="26"/>
+      <c r="BL223" s="26"/>
     </row>
     <row r="224">
       <c r="AL224" s="26"/>
@@ -21423,6 +21808,7 @@
       <c r="BI224" s="26"/>
       <c r="BJ224" s="26"/>
       <c r="BK224" s="26"/>
+      <c r="BL224" s="26"/>
     </row>
     <row r="225">
       <c r="AL225" s="26"/>
@@ -21451,6 +21837,7 @@
       <c r="BI225" s="26"/>
       <c r="BJ225" s="26"/>
       <c r="BK225" s="26"/>
+      <c r="BL225" s="26"/>
     </row>
     <row r="226">
       <c r="AL226" s="26"/>
@@ -21479,6 +21866,7 @@
       <c r="BI226" s="26"/>
       <c r="BJ226" s="26"/>
       <c r="BK226" s="26"/>
+      <c r="BL226" s="26"/>
     </row>
     <row r="227">
       <c r="AL227" s="26"/>
@@ -21507,6 +21895,7 @@
       <c r="BI227" s="26"/>
       <c r="BJ227" s="26"/>
       <c r="BK227" s="26"/>
+      <c r="BL227" s="26"/>
     </row>
     <row r="228">
       <c r="AL228" s="26"/>
@@ -21535,6 +21924,7 @@
       <c r="BI228" s="26"/>
       <c r="BJ228" s="26"/>
       <c r="BK228" s="26"/>
+      <c r="BL228" s="26"/>
     </row>
     <row r="229">
       <c r="AL229" s="26"/>
@@ -21563,6 +21953,7 @@
       <c r="BI229" s="26"/>
       <c r="BJ229" s="26"/>
       <c r="BK229" s="26"/>
+      <c r="BL229" s="26"/>
     </row>
     <row r="230">
       <c r="AL230" s="26"/>
@@ -21591,6 +21982,7 @@
       <c r="BI230" s="26"/>
       <c r="BJ230" s="26"/>
       <c r="BK230" s="26"/>
+      <c r="BL230" s="26"/>
     </row>
     <row r="231">
       <c r="AL231" s="26"/>
@@ -21619,6 +22011,7 @@
       <c r="BI231" s="26"/>
       <c r="BJ231" s="26"/>
       <c r="BK231" s="26"/>
+      <c r="BL231" s="26"/>
     </row>
     <row r="232">
       <c r="AL232" s="26"/>
@@ -21647,6 +22040,7 @@
       <c r="BI232" s="26"/>
       <c r="BJ232" s="26"/>
       <c r="BK232" s="26"/>
+      <c r="BL232" s="26"/>
     </row>
     <row r="233">
       <c r="AL233" s="26"/>
@@ -21675,6 +22069,7 @@
       <c r="BI233" s="26"/>
       <c r="BJ233" s="26"/>
       <c r="BK233" s="26"/>
+      <c r="BL233" s="26"/>
     </row>
     <row r="234">
       <c r="AL234" s="26"/>
@@ -21703,6 +22098,7 @@
       <c r="BI234" s="26"/>
       <c r="BJ234" s="26"/>
       <c r="BK234" s="26"/>
+      <c r="BL234" s="26"/>
     </row>
     <row r="235">
       <c r="AL235" s="26"/>
@@ -21731,6 +22127,7 @@
       <c r="BI235" s="26"/>
       <c r="BJ235" s="26"/>
       <c r="BK235" s="26"/>
+      <c r="BL235" s="26"/>
     </row>
     <row r="236">
       <c r="AL236" s="26"/>
@@ -21759,6 +22156,7 @@
       <c r="BI236" s="26"/>
       <c r="BJ236" s="26"/>
       <c r="BK236" s="26"/>
+      <c r="BL236" s="26"/>
     </row>
     <row r="237">
       <c r="AL237" s="26"/>
@@ -21787,6 +22185,7 @@
       <c r="BI237" s="26"/>
       <c r="BJ237" s="26"/>
       <c r="BK237" s="26"/>
+      <c r="BL237" s="26"/>
     </row>
     <row r="238">
       <c r="AL238" s="26"/>
@@ -21815,6 +22214,7 @@
       <c r="BI238" s="26"/>
       <c r="BJ238" s="26"/>
       <c r="BK238" s="26"/>
+      <c r="BL238" s="26"/>
     </row>
     <row r="239">
       <c r="AL239" s="26"/>
@@ -21843,6 +22243,7 @@
       <c r="BI239" s="26"/>
       <c r="BJ239" s="26"/>
       <c r="BK239" s="26"/>
+      <c r="BL239" s="26"/>
     </row>
     <row r="240">
       <c r="AL240" s="26"/>
@@ -21871,6 +22272,7 @@
       <c r="BI240" s="26"/>
       <c r="BJ240" s="26"/>
       <c r="BK240" s="26"/>
+      <c r="BL240" s="26"/>
     </row>
     <row r="241">
       <c r="AL241" s="26"/>
@@ -21899,6 +22301,7 @@
       <c r="BI241" s="26"/>
       <c r="BJ241" s="26"/>
       <c r="BK241" s="26"/>
+      <c r="BL241" s="26"/>
     </row>
     <row r="242">
       <c r="AL242" s="26"/>
@@ -21927,6 +22330,7 @@
       <c r="BI242" s="26"/>
       <c r="BJ242" s="26"/>
       <c r="BK242" s="26"/>
+      <c r="BL242" s="26"/>
     </row>
     <row r="243">
       <c r="AL243" s="26"/>
@@ -21955,6 +22359,7 @@
       <c r="BI243" s="26"/>
       <c r="BJ243" s="26"/>
       <c r="BK243" s="26"/>
+      <c r="BL243" s="26"/>
     </row>
     <row r="244">
       <c r="AL244" s="26"/>
@@ -21983,6 +22388,7 @@
       <c r="BI244" s="26"/>
       <c r="BJ244" s="26"/>
       <c r="BK244" s="26"/>
+      <c r="BL244" s="26"/>
     </row>
     <row r="245">
       <c r="AL245" s="26"/>
@@ -22011,6 +22417,7 @@
       <c r="BI245" s="26"/>
       <c r="BJ245" s="26"/>
       <c r="BK245" s="26"/>
+      <c r="BL245" s="26"/>
     </row>
     <row r="246">
       <c r="AL246" s="26"/>
@@ -22039,6 +22446,7 @@
       <c r="BI246" s="26"/>
       <c r="BJ246" s="26"/>
       <c r="BK246" s="26"/>
+      <c r="BL246" s="26"/>
     </row>
     <row r="247">
       <c r="AL247" s="26"/>
@@ -22067,6 +22475,7 @@
       <c r="BI247" s="26"/>
       <c r="BJ247" s="26"/>
       <c r="BK247" s="26"/>
+      <c r="BL247" s="26"/>
     </row>
     <row r="248">
       <c r="AL248" s="26"/>
@@ -22095,6 +22504,7 @@
       <c r="BI248" s="26"/>
       <c r="BJ248" s="26"/>
       <c r="BK248" s="26"/>
+      <c r="BL248" s="26"/>
     </row>
     <row r="249">
       <c r="AL249" s="26"/>
@@ -22123,6 +22533,7 @@
       <c r="BI249" s="26"/>
       <c r="BJ249" s="26"/>
       <c r="BK249" s="26"/>
+      <c r="BL249" s="26"/>
     </row>
     <row r="250">
       <c r="AL250" s="26"/>
@@ -22151,6 +22562,7 @@
       <c r="BI250" s="26"/>
       <c r="BJ250" s="26"/>
       <c r="BK250" s="26"/>
+      <c r="BL250" s="26"/>
     </row>
     <row r="251">
       <c r="AL251" s="26"/>
@@ -22179,6 +22591,7 @@
       <c r="BI251" s="26"/>
       <c r="BJ251" s="26"/>
       <c r="BK251" s="26"/>
+      <c r="BL251" s="26"/>
     </row>
     <row r="252">
       <c r="AL252" s="26"/>
@@ -22207,6 +22620,7 @@
       <c r="BI252" s="26"/>
       <c r="BJ252" s="26"/>
       <c r="BK252" s="26"/>
+      <c r="BL252" s="26"/>
     </row>
     <row r="253">
       <c r="AL253" s="26"/>
@@ -22235,6 +22649,7 @@
       <c r="BI253" s="26"/>
       <c r="BJ253" s="26"/>
       <c r="BK253" s="26"/>
+      <c r="BL253" s="26"/>
     </row>
     <row r="254">
       <c r="AL254" s="26"/>
@@ -22263,6 +22678,7 @@
       <c r="BI254" s="26"/>
       <c r="BJ254" s="26"/>
       <c r="BK254" s="26"/>
+      <c r="BL254" s="26"/>
     </row>
     <row r="255">
       <c r="AL255" s="26"/>
@@ -22291,6 +22707,7 @@
       <c r="BI255" s="26"/>
       <c r="BJ255" s="26"/>
       <c r="BK255" s="26"/>
+      <c r="BL255" s="26"/>
     </row>
     <row r="256">
       <c r="AL256" s="26"/>
@@ -22319,6 +22736,7 @@
       <c r="BI256" s="26"/>
       <c r="BJ256" s="26"/>
       <c r="BK256" s="26"/>
+      <c r="BL256" s="26"/>
     </row>
     <row r="257">
       <c r="AL257" s="26"/>
@@ -22347,6 +22765,7 @@
       <c r="BI257" s="26"/>
       <c r="BJ257" s="26"/>
       <c r="BK257" s="26"/>
+      <c r="BL257" s="26"/>
     </row>
     <row r="258">
       <c r="AL258" s="26"/>
@@ -22375,6 +22794,7 @@
       <c r="BI258" s="26"/>
       <c r="BJ258" s="26"/>
       <c r="BK258" s="26"/>
+      <c r="BL258" s="26"/>
     </row>
     <row r="259">
       <c r="AL259" s="26"/>
@@ -22403,6 +22823,7 @@
       <c r="BI259" s="26"/>
       <c r="BJ259" s="26"/>
       <c r="BK259" s="26"/>
+      <c r="BL259" s="26"/>
     </row>
     <row r="260">
       <c r="AL260" s="26"/>
@@ -22431,6 +22852,7 @@
       <c r="BI260" s="26"/>
       <c r="BJ260" s="26"/>
       <c r="BK260" s="26"/>
+      <c r="BL260" s="26"/>
     </row>
     <row r="261">
       <c r="AL261" s="26"/>
@@ -22459,6 +22881,7 @@
       <c r="BI261" s="26"/>
       <c r="BJ261" s="26"/>
       <c r="BK261" s="26"/>
+      <c r="BL261" s="26"/>
     </row>
     <row r="262">
       <c r="AL262" s="26"/>
@@ -22487,6 +22910,7 @@
       <c r="BI262" s="26"/>
       <c r="BJ262" s="26"/>
       <c r="BK262" s="26"/>
+      <c r="BL262" s="26"/>
     </row>
     <row r="263">
       <c r="AL263" s="26"/>
@@ -22515,6 +22939,7 @@
       <c r="BI263" s="26"/>
       <c r="BJ263" s="26"/>
       <c r="BK263" s="26"/>
+      <c r="BL263" s="26"/>
     </row>
     <row r="264">
       <c r="AL264" s="26"/>
@@ -22543,6 +22968,7 @@
       <c r="BI264" s="26"/>
       <c r="BJ264" s="26"/>
       <c r="BK264" s="26"/>
+      <c r="BL264" s="26"/>
     </row>
     <row r="265">
       <c r="AL265" s="26"/>
@@ -22571,6 +22997,7 @@
       <c r="BI265" s="26"/>
       <c r="BJ265" s="26"/>
       <c r="BK265" s="26"/>
+      <c r="BL265" s="26"/>
     </row>
     <row r="266">
       <c r="AL266" s="26"/>
@@ -22599,6 +23026,7 @@
       <c r="BI266" s="26"/>
       <c r="BJ266" s="26"/>
       <c r="BK266" s="26"/>
+      <c r="BL266" s="26"/>
     </row>
     <row r="267">
       <c r="AL267" s="26"/>
@@ -22627,6 +23055,7 @@
       <c r="BI267" s="26"/>
       <c r="BJ267" s="26"/>
       <c r="BK267" s="26"/>
+      <c r="BL267" s="26"/>
     </row>
     <row r="268">
       <c r="AL268" s="26"/>
@@ -22655,6 +23084,7 @@
       <c r="BI268" s="26"/>
       <c r="BJ268" s="26"/>
       <c r="BK268" s="26"/>
+      <c r="BL268" s="26"/>
     </row>
     <row r="269">
       <c r="AL269" s="26"/>
@@ -22683,6 +23113,7 @@
       <c r="BI269" s="26"/>
       <c r="BJ269" s="26"/>
       <c r="BK269" s="26"/>
+      <c r="BL269" s="26"/>
     </row>
     <row r="270">
       <c r="AL270" s="26"/>
@@ -22711,6 +23142,7 @@
       <c r="BI270" s="26"/>
       <c r="BJ270" s="26"/>
       <c r="BK270" s="26"/>
+      <c r="BL270" s="26"/>
     </row>
     <row r="271">
       <c r="AL271" s="26"/>
@@ -22739,6 +23171,7 @@
       <c r="BI271" s="26"/>
       <c r="BJ271" s="26"/>
       <c r="BK271" s="26"/>
+      <c r="BL271" s="26"/>
     </row>
     <row r="272">
       <c r="AL272" s="26"/>
@@ -22767,6 +23200,7 @@
       <c r="BI272" s="26"/>
       <c r="BJ272" s="26"/>
       <c r="BK272" s="26"/>
+      <c r="BL272" s="26"/>
     </row>
     <row r="273">
       <c r="AL273" s="26"/>
@@ -22795,6 +23229,7 @@
       <c r="BI273" s="26"/>
       <c r="BJ273" s="26"/>
       <c r="BK273" s="26"/>
+      <c r="BL273" s="26"/>
     </row>
     <row r="274">
       <c r="AL274" s="26"/>
@@ -22823,6 +23258,7 @@
       <c r="BI274" s="26"/>
       <c r="BJ274" s="26"/>
       <c r="BK274" s="26"/>
+      <c r="BL274" s="26"/>
     </row>
     <row r="275">
       <c r="AL275" s="26"/>
@@ -22851,6 +23287,7 @@
       <c r="BI275" s="26"/>
       <c r="BJ275" s="26"/>
       <c r="BK275" s="26"/>
+      <c r="BL275" s="26"/>
     </row>
     <row r="276">
       <c r="AL276" s="26"/>
@@ -22879,6 +23316,7 @@
       <c r="BI276" s="26"/>
       <c r="BJ276" s="26"/>
       <c r="BK276" s="26"/>
+      <c r="BL276" s="26"/>
     </row>
     <row r="277">
       <c r="AL277" s="26"/>
@@ -22907,6 +23345,7 @@
       <c r="BI277" s="26"/>
       <c r="BJ277" s="26"/>
       <c r="BK277" s="26"/>
+      <c r="BL277" s="26"/>
     </row>
     <row r="278">
       <c r="AL278" s="26"/>
@@ -22935,6 +23374,7 @@
       <c r="BI278" s="26"/>
       <c r="BJ278" s="26"/>
       <c r="BK278" s="26"/>
+      <c r="BL278" s="26"/>
     </row>
     <row r="279">
       <c r="AL279" s="26"/>
@@ -22963,6 +23403,7 @@
       <c r="BI279" s="26"/>
       <c r="BJ279" s="26"/>
       <c r="BK279" s="26"/>
+      <c r="BL279" s="26"/>
     </row>
     <row r="280">
       <c r="AL280" s="26"/>
@@ -22991,6 +23432,7 @@
       <c r="BI280" s="26"/>
       <c r="BJ280" s="26"/>
       <c r="BK280" s="26"/>
+      <c r="BL280" s="26"/>
     </row>
     <row r="281">
       <c r="AL281" s="26"/>
@@ -23019,6 +23461,7 @@
       <c r="BI281" s="26"/>
       <c r="BJ281" s="26"/>
       <c r="BK281" s="26"/>
+      <c r="BL281" s="26"/>
     </row>
     <row r="282">
       <c r="AL282" s="26"/>
@@ -23047,6 +23490,7 @@
       <c r="BI282" s="26"/>
       <c r="BJ282" s="26"/>
       <c r="BK282" s="26"/>
+      <c r="BL282" s="26"/>
     </row>
     <row r="283">
       <c r="AL283" s="26"/>
@@ -23075,6 +23519,7 @@
       <c r="BI283" s="26"/>
       <c r="BJ283" s="26"/>
       <c r="BK283" s="26"/>
+      <c r="BL283" s="26"/>
     </row>
     <row r="284">
       <c r="AL284" s="26"/>
@@ -23103,6 +23548,7 @@
       <c r="BI284" s="26"/>
       <c r="BJ284" s="26"/>
       <c r="BK284" s="26"/>
+      <c r="BL284" s="26"/>
     </row>
     <row r="285">
       <c r="AL285" s="26"/>
@@ -23131,6 +23577,7 @@
       <c r="BI285" s="26"/>
       <c r="BJ285" s="26"/>
       <c r="BK285" s="26"/>
+      <c r="BL285" s="26"/>
     </row>
     <row r="286">
       <c r="AL286" s="26"/>
@@ -23159,6 +23606,7 @@
       <c r="BI286" s="26"/>
       <c r="BJ286" s="26"/>
       <c r="BK286" s="26"/>
+      <c r="BL286" s="26"/>
     </row>
     <row r="287">
       <c r="AL287" s="26"/>
@@ -23187,6 +23635,7 @@
       <c r="BI287" s="26"/>
       <c r="BJ287" s="26"/>
       <c r="BK287" s="26"/>
+      <c r="BL287" s="26"/>
     </row>
     <row r="288">
       <c r="AL288" s="26"/>
@@ -23215,6 +23664,7 @@
       <c r="BI288" s="26"/>
       <c r="BJ288" s="26"/>
       <c r="BK288" s="26"/>
+      <c r="BL288" s="26"/>
     </row>
     <row r="289">
       <c r="AL289" s="26"/>
@@ -23243,6 +23693,7 @@
       <c r="BI289" s="26"/>
       <c r="BJ289" s="26"/>
       <c r="BK289" s="26"/>
+      <c r="BL289" s="26"/>
     </row>
     <row r="290">
       <c r="AL290" s="26"/>
@@ -23271,6 +23722,7 @@
       <c r="BI290" s="26"/>
       <c r="BJ290" s="26"/>
       <c r="BK290" s="26"/>
+      <c r="BL290" s="26"/>
     </row>
     <row r="291">
       <c r="AL291" s="26"/>
@@ -23299,6 +23751,7 @@
       <c r="BI291" s="26"/>
       <c r="BJ291" s="26"/>
       <c r="BK291" s="26"/>
+      <c r="BL291" s="26"/>
     </row>
     <row r="292">
       <c r="AL292" s="26"/>
@@ -23327,6 +23780,7 @@
       <c r="BI292" s="26"/>
       <c r="BJ292" s="26"/>
       <c r="BK292" s="26"/>
+      <c r="BL292" s="26"/>
     </row>
     <row r="293">
       <c r="AL293" s="26"/>
@@ -23355,6 +23809,7 @@
       <c r="BI293" s="26"/>
       <c r="BJ293" s="26"/>
       <c r="BK293" s="26"/>
+      <c r="BL293" s="26"/>
     </row>
     <row r="294">
       <c r="AL294" s="26"/>
@@ -23383,6 +23838,7 @@
       <c r="BI294" s="26"/>
       <c r="BJ294" s="26"/>
       <c r="BK294" s="26"/>
+      <c r="BL294" s="26"/>
     </row>
     <row r="295">
       <c r="AL295" s="26"/>
@@ -23411,6 +23867,7 @@
       <c r="BI295" s="26"/>
       <c r="BJ295" s="26"/>
       <c r="BK295" s="26"/>
+      <c r="BL295" s="26"/>
     </row>
     <row r="296">
       <c r="AL296" s="26"/>
@@ -23439,6 +23896,7 @@
       <c r="BI296" s="26"/>
       <c r="BJ296" s="26"/>
       <c r="BK296" s="26"/>
+      <c r="BL296" s="26"/>
     </row>
     <row r="297">
       <c r="AL297" s="26"/>
@@ -23467,6 +23925,7 @@
       <c r="BI297" s="26"/>
       <c r="BJ297" s="26"/>
       <c r="BK297" s="26"/>
+      <c r="BL297" s="26"/>
     </row>
     <row r="298">
       <c r="AL298" s="26"/>
@@ -23495,6 +23954,7 @@
       <c r="BI298" s="26"/>
       <c r="BJ298" s="26"/>
       <c r="BK298" s="26"/>
+      <c r="BL298" s="26"/>
     </row>
     <row r="299">
       <c r="AL299" s="26"/>
@@ -23523,6 +23983,7 @@
       <c r="BI299" s="26"/>
       <c r="BJ299" s="26"/>
       <c r="BK299" s="26"/>
+      <c r="BL299" s="26"/>
     </row>
     <row r="300">
       <c r="AL300" s="26"/>
@@ -23551,6 +24012,7 @@
       <c r="BI300" s="26"/>
       <c r="BJ300" s="26"/>
       <c r="BK300" s="26"/>
+      <c r="BL300" s="26"/>
     </row>
     <row r="301">
       <c r="AL301" s="26"/>
@@ -23579,6 +24041,7 @@
       <c r="BI301" s="26"/>
       <c r="BJ301" s="26"/>
       <c r="BK301" s="26"/>
+      <c r="BL301" s="26"/>
     </row>
     <row r="302">
       <c r="AL302" s="26"/>
@@ -23607,6 +24070,7 @@
       <c r="BI302" s="26"/>
       <c r="BJ302" s="26"/>
       <c r="BK302" s="26"/>
+      <c r="BL302" s="26"/>
     </row>
     <row r="303">
       <c r="AL303" s="26"/>
@@ -23635,6 +24099,7 @@
       <c r="BI303" s="26"/>
       <c r="BJ303" s="26"/>
       <c r="BK303" s="26"/>
+      <c r="BL303" s="26"/>
     </row>
     <row r="304">
       <c r="AL304" s="26"/>
@@ -23663,6 +24128,7 @@
       <c r="BI304" s="26"/>
       <c r="BJ304" s="26"/>
       <c r="BK304" s="26"/>
+      <c r="BL304" s="26"/>
     </row>
     <row r="305">
       <c r="AL305" s="26"/>
@@ -23691,6 +24157,7 @@
       <c r="BI305" s="26"/>
       <c r="BJ305" s="26"/>
       <c r="BK305" s="26"/>
+      <c r="BL305" s="26"/>
     </row>
     <row r="306">
       <c r="AL306" s="26"/>
@@ -23719,6 +24186,7 @@
       <c r="BI306" s="26"/>
       <c r="BJ306" s="26"/>
       <c r="BK306" s="26"/>
+      <c r="BL306" s="26"/>
     </row>
     <row r="307">
       <c r="AL307" s="26"/>
@@ -23747,6 +24215,7 @@
       <c r="BI307" s="26"/>
       <c r="BJ307" s="26"/>
       <c r="BK307" s="26"/>
+      <c r="BL307" s="26"/>
     </row>
     <row r="308">
       <c r="AL308" s="26"/>
@@ -23775,6 +24244,7 @@
       <c r="BI308" s="26"/>
       <c r="BJ308" s="26"/>
       <c r="BK308" s="26"/>
+      <c r="BL308" s="26"/>
     </row>
     <row r="309">
       <c r="AL309" s="26"/>
@@ -23803,6 +24273,7 @@
       <c r="BI309" s="26"/>
       <c r="BJ309" s="26"/>
       <c r="BK309" s="26"/>
+      <c r="BL309" s="26"/>
     </row>
     <row r="310">
       <c r="AL310" s="26"/>
@@ -23831,6 +24302,7 @@
       <c r="BI310" s="26"/>
       <c r="BJ310" s="26"/>
       <c r="BK310" s="26"/>
+      <c r="BL310" s="26"/>
     </row>
     <row r="311">
       <c r="AL311" s="26"/>
@@ -23859,6 +24331,7 @@
       <c r="BI311" s="26"/>
       <c r="BJ311" s="26"/>
       <c r="BK311" s="26"/>
+      <c r="BL311" s="26"/>
     </row>
     <row r="312">
       <c r="AL312" s="26"/>
@@ -23887,6 +24360,7 @@
       <c r="BI312" s="26"/>
       <c r="BJ312" s="26"/>
       <c r="BK312" s="26"/>
+      <c r="BL312" s="26"/>
     </row>
     <row r="313">
       <c r="AL313" s="26"/>
@@ -23915,6 +24389,7 @@
       <c r="BI313" s="26"/>
       <c r="BJ313" s="26"/>
       <c r="BK313" s="26"/>
+      <c r="BL313" s="26"/>
     </row>
     <row r="314">
       <c r="AL314" s="26"/>
@@ -23943,6 +24418,7 @@
       <c r="BI314" s="26"/>
       <c r="BJ314" s="26"/>
       <c r="BK314" s="26"/>
+      <c r="BL314" s="26"/>
     </row>
     <row r="315">
       <c r="AL315" s="26"/>
@@ -23971,6 +24447,7 @@
       <c r="BI315" s="26"/>
       <c r="BJ315" s="26"/>
       <c r="BK315" s="26"/>
+      <c r="BL315" s="26"/>
     </row>
     <row r="316">
       <c r="AL316" s="26"/>
@@ -23999,6 +24476,7 @@
       <c r="BI316" s="26"/>
       <c r="BJ316" s="26"/>
       <c r="BK316" s="26"/>
+      <c r="BL316" s="26"/>
     </row>
     <row r="317">
       <c r="AL317" s="26"/>
@@ -24027,6 +24505,7 @@
       <c r="BI317" s="26"/>
       <c r="BJ317" s="26"/>
       <c r="BK317" s="26"/>
+      <c r="BL317" s="26"/>
     </row>
     <row r="318">
       <c r="AL318" s="26"/>
@@ -24055,6 +24534,7 @@
       <c r="BI318" s="26"/>
       <c r="BJ318" s="26"/>
       <c r="BK318" s="26"/>
+      <c r="BL318" s="26"/>
     </row>
     <row r="319">
       <c r="AL319" s="26"/>
@@ -24083,6 +24563,7 @@
       <c r="BI319" s="26"/>
       <c r="BJ319" s="26"/>
       <c r="BK319" s="26"/>
+      <c r="BL319" s="26"/>
     </row>
     <row r="320">
       <c r="AL320" s="26"/>
@@ -24111,6 +24592,7 @@
       <c r="BI320" s="26"/>
       <c r="BJ320" s="26"/>
       <c r="BK320" s="26"/>
+      <c r="BL320" s="26"/>
     </row>
     <row r="321">
       <c r="AL321" s="26"/>
@@ -24139,6 +24621,7 @@
       <c r="BI321" s="26"/>
       <c r="BJ321" s="26"/>
       <c r="BK321" s="26"/>
+      <c r="BL321" s="26"/>
     </row>
     <row r="322">
       <c r="AL322" s="26"/>
@@ -24167,6 +24650,7 @@
       <c r="BI322" s="26"/>
       <c r="BJ322" s="26"/>
       <c r="BK322" s="26"/>
+      <c r="BL322" s="26"/>
     </row>
     <row r="323">
       <c r="AL323" s="26"/>
@@ -24195,6 +24679,7 @@
       <c r="BI323" s="26"/>
       <c r="BJ323" s="26"/>
       <c r="BK323" s="26"/>
+      <c r="BL323" s="26"/>
     </row>
     <row r="324">
       <c r="AL324" s="26"/>
@@ -24223,6 +24708,7 @@
       <c r="BI324" s="26"/>
       <c r="BJ324" s="26"/>
       <c r="BK324" s="26"/>
+      <c r="BL324" s="26"/>
     </row>
     <row r="325">
       <c r="AL325" s="26"/>
@@ -24251,6 +24737,7 @@
       <c r="BI325" s="26"/>
       <c r="BJ325" s="26"/>
       <c r="BK325" s="26"/>
+      <c r="BL325" s="26"/>
     </row>
     <row r="326">
       <c r="AL326" s="26"/>
@@ -24279,6 +24766,7 @@
       <c r="BI326" s="26"/>
       <c r="BJ326" s="26"/>
       <c r="BK326" s="26"/>
+      <c r="BL326" s="26"/>
     </row>
     <row r="327">
       <c r="AL327" s="26"/>
@@ -24307,6 +24795,7 @@
       <c r="BI327" s="26"/>
       <c r="BJ327" s="26"/>
       <c r="BK327" s="26"/>
+      <c r="BL327" s="26"/>
     </row>
     <row r="328">
       <c r="AL328" s="26"/>
@@ -24335,6 +24824,7 @@
       <c r="BI328" s="26"/>
       <c r="BJ328" s="26"/>
       <c r="BK328" s="26"/>
+      <c r="BL328" s="26"/>
     </row>
     <row r="329">
       <c r="AL329" s="26"/>
@@ -24363,6 +24853,7 @@
       <c r="BI329" s="26"/>
       <c r="BJ329" s="26"/>
       <c r="BK329" s="26"/>
+      <c r="BL329" s="26"/>
     </row>
     <row r="330">
       <c r="AL330" s="26"/>
@@ -24391,6 +24882,7 @@
       <c r="BI330" s="26"/>
       <c r="BJ330" s="26"/>
       <c r="BK330" s="26"/>
+      <c r="BL330" s="26"/>
     </row>
     <row r="331">
       <c r="AL331" s="26"/>
@@ -24419,6 +24911,7 @@
       <c r="BI331" s="26"/>
       <c r="BJ331" s="26"/>
       <c r="BK331" s="26"/>
+      <c r="BL331" s="26"/>
     </row>
     <row r="332">
       <c r="AL332" s="26"/>
@@ -24447,6 +24940,7 @@
       <c r="BI332" s="26"/>
       <c r="BJ332" s="26"/>
       <c r="BK332" s="26"/>
+      <c r="BL332" s="26"/>
     </row>
     <row r="333">
       <c r="AL333" s="26"/>
@@ -24475,6 +24969,7 @@
       <c r="BI333" s="26"/>
       <c r="BJ333" s="26"/>
       <c r="BK333" s="26"/>
+      <c r="BL333" s="26"/>
     </row>
     <row r="334">
       <c r="AL334" s="26"/>
@@ -24503,6 +24998,7 @@
       <c r="BI334" s="26"/>
       <c r="BJ334" s="26"/>
       <c r="BK334" s="26"/>
+      <c r="BL334" s="26"/>
     </row>
     <row r="335">
       <c r="AL335" s="26"/>
@@ -24531,6 +25027,7 @@
       <c r="BI335" s="26"/>
       <c r="BJ335" s="26"/>
       <c r="BK335" s="26"/>
+      <c r="BL335" s="26"/>
     </row>
     <row r="336">
       <c r="AL336" s="26"/>
@@ -24559,6 +25056,7 @@
       <c r="BI336" s="26"/>
       <c r="BJ336" s="26"/>
       <c r="BK336" s="26"/>
+      <c r="BL336" s="26"/>
     </row>
     <row r="337">
       <c r="AL337" s="26"/>
@@ -24587,6 +25085,7 @@
       <c r="BI337" s="26"/>
       <c r="BJ337" s="26"/>
       <c r="BK337" s="26"/>
+      <c r="BL337" s="26"/>
     </row>
     <row r="338">
       <c r="AL338" s="26"/>
@@ -24615,6 +25114,7 @@
       <c r="BI338" s="26"/>
       <c r="BJ338" s="26"/>
       <c r="BK338" s="26"/>
+      <c r="BL338" s="26"/>
     </row>
     <row r="339">
       <c r="AL339" s="26"/>
@@ -24643,6 +25143,7 @@
       <c r="BI339" s="26"/>
       <c r="BJ339" s="26"/>
       <c r="BK339" s="26"/>
+      <c r="BL339" s="26"/>
     </row>
     <row r="340">
       <c r="AL340" s="26"/>
@@ -24671,6 +25172,7 @@
       <c r="BI340" s="26"/>
       <c r="BJ340" s="26"/>
       <c r="BK340" s="26"/>
+      <c r="BL340" s="26"/>
     </row>
     <row r="341">
       <c r="AL341" s="26"/>
@@ -24699,6 +25201,7 @@
       <c r="BI341" s="26"/>
       <c r="BJ341" s="26"/>
       <c r="BK341" s="26"/>
+      <c r="BL341" s="26"/>
     </row>
     <row r="342">
       <c r="AL342" s="26"/>
@@ -24727,6 +25230,7 @@
       <c r="BI342" s="26"/>
       <c r="BJ342" s="26"/>
       <c r="BK342" s="26"/>
+      <c r="BL342" s="26"/>
     </row>
     <row r="343">
       <c r="AL343" s="26"/>
@@ -24755,6 +25259,7 @@
       <c r="BI343" s="26"/>
       <c r="BJ343" s="26"/>
       <c r="BK343" s="26"/>
+      <c r="BL343" s="26"/>
     </row>
     <row r="344">
       <c r="AL344" s="26"/>
@@ -24783,6 +25288,7 @@
       <c r="BI344" s="26"/>
       <c r="BJ344" s="26"/>
       <c r="BK344" s="26"/>
+      <c r="BL344" s="26"/>
     </row>
     <row r="345">
       <c r="AL345" s="26"/>
@@ -24811,6 +25317,7 @@
       <c r="BI345" s="26"/>
       <c r="BJ345" s="26"/>
       <c r="BK345" s="26"/>
+      <c r="BL345" s="26"/>
     </row>
     <row r="346">
       <c r="AL346" s="26"/>
@@ -24839,6 +25346,7 @@
       <c r="BI346" s="26"/>
       <c r="BJ346" s="26"/>
       <c r="BK346" s="26"/>
+      <c r="BL346" s="26"/>
     </row>
     <row r="347">
       <c r="AL347" s="26"/>
@@ -24867,6 +25375,7 @@
       <c r="BI347" s="26"/>
       <c r="BJ347" s="26"/>
       <c r="BK347" s="26"/>
+      <c r="BL347" s="26"/>
     </row>
     <row r="348">
       <c r="AL348" s="26"/>
@@ -24895,6 +25404,7 @@
       <c r="BI348" s="26"/>
       <c r="BJ348" s="26"/>
       <c r="BK348" s="26"/>
+      <c r="BL348" s="26"/>
     </row>
     <row r="349">
       <c r="AL349" s="26"/>
@@ -24923,6 +25433,7 @@
       <c r="BI349" s="26"/>
       <c r="BJ349" s="26"/>
       <c r="BK349" s="26"/>
+      <c r="BL349" s="26"/>
     </row>
     <row r="350">
       <c r="AL350" s="26"/>
@@ -24951,6 +25462,7 @@
       <c r="BI350" s="26"/>
       <c r="BJ350" s="26"/>
       <c r="BK350" s="26"/>
+      <c r="BL350" s="26"/>
     </row>
     <row r="351">
       <c r="AL351" s="26"/>
@@ -24979,6 +25491,7 @@
       <c r="BI351" s="26"/>
       <c r="BJ351" s="26"/>
       <c r="BK351" s="26"/>
+      <c r="BL351" s="26"/>
     </row>
     <row r="352">
       <c r="AL352" s="26"/>
@@ -25007,6 +25520,7 @@
       <c r="BI352" s="26"/>
       <c r="BJ352" s="26"/>
       <c r="BK352" s="26"/>
+      <c r="BL352" s="26"/>
     </row>
     <row r="353">
       <c r="AL353" s="26"/>
@@ -25035,6 +25549,7 @@
       <c r="BI353" s="26"/>
       <c r="BJ353" s="26"/>
       <c r="BK353" s="26"/>
+      <c r="BL353" s="26"/>
     </row>
     <row r="354">
       <c r="AL354" s="26"/>
@@ -25063,6 +25578,7 @@
       <c r="BI354" s="26"/>
       <c r="BJ354" s="26"/>
       <c r="BK354" s="26"/>
+      <c r="BL354" s="26"/>
     </row>
     <row r="355">
       <c r="AL355" s="26"/>
@@ -25091,6 +25607,7 @@
       <c r="BI355" s="26"/>
       <c r="BJ355" s="26"/>
       <c r="BK355" s="26"/>
+      <c r="BL355" s="26"/>
     </row>
     <row r="356">
       <c r="AL356" s="26"/>
@@ -25119,6 +25636,7 @@
       <c r="BI356" s="26"/>
       <c r="BJ356" s="26"/>
       <c r="BK356" s="26"/>
+      <c r="BL356" s="26"/>
     </row>
     <row r="357">
       <c r="AL357" s="26"/>
@@ -25147,6 +25665,7 @@
       <c r="BI357" s="26"/>
       <c r="BJ357" s="26"/>
       <c r="BK357" s="26"/>
+      <c r="BL357" s="26"/>
     </row>
     <row r="358">
       <c r="AL358" s="26"/>
@@ -25175,6 +25694,7 @@
       <c r="BI358" s="26"/>
       <c r="BJ358" s="26"/>
       <c r="BK358" s="26"/>
+      <c r="BL358" s="26"/>
     </row>
     <row r="359">
       <c r="AL359" s="26"/>
@@ -25203,6 +25723,7 @@
       <c r="BI359" s="26"/>
       <c r="BJ359" s="26"/>
       <c r="BK359" s="26"/>
+      <c r="BL359" s="26"/>
     </row>
     <row r="360">
       <c r="AL360" s="26"/>
@@ -25231,6 +25752,7 @@
       <c r="BI360" s="26"/>
       <c r="BJ360" s="26"/>
       <c r="BK360" s="26"/>
+      <c r="BL360" s="26"/>
     </row>
     <row r="361">
       <c r="AL361" s="26"/>
@@ -25259,6 +25781,7 @@
       <c r="BI361" s="26"/>
       <c r="BJ361" s="26"/>
       <c r="BK361" s="26"/>
+      <c r="BL361" s="26"/>
     </row>
     <row r="362">
       <c r="AL362" s="26"/>
@@ -25287,6 +25810,7 @@
       <c r="BI362" s="26"/>
       <c r="BJ362" s="26"/>
       <c r="BK362" s="26"/>
+      <c r="BL362" s="26"/>
     </row>
     <row r="363">
       <c r="AL363" s="26"/>
@@ -25315,6 +25839,7 @@
       <c r="BI363" s="26"/>
       <c r="BJ363" s="26"/>
       <c r="BK363" s="26"/>
+      <c r="BL363" s="26"/>
     </row>
     <row r="364">
       <c r="AL364" s="26"/>
@@ -25343,6 +25868,7 @@
       <c r="BI364" s="26"/>
       <c r="BJ364" s="26"/>
       <c r="BK364" s="26"/>
+      <c r="BL364" s="26"/>
     </row>
     <row r="365">
       <c r="AL365" s="26"/>
@@ -25371,6 +25897,7 @@
       <c r="BI365" s="26"/>
       <c r="BJ365" s="26"/>
       <c r="BK365" s="26"/>
+      <c r="BL365" s="26"/>
     </row>
     <row r="366">
       <c r="AL366" s="26"/>
@@ -25399,6 +25926,7 @@
       <c r="BI366" s="26"/>
       <c r="BJ366" s="26"/>
       <c r="BK366" s="26"/>
+      <c r="BL366" s="26"/>
     </row>
     <row r="367">
       <c r="AL367" s="26"/>
@@ -25427,6 +25955,7 @@
       <c r="BI367" s="26"/>
       <c r="BJ367" s="26"/>
       <c r="BK367" s="26"/>
+      <c r="BL367" s="26"/>
     </row>
     <row r="368">
       <c r="AL368" s="26"/>
@@ -25455,6 +25984,7 @@
       <c r="BI368" s="26"/>
       <c r="BJ368" s="26"/>
       <c r="BK368" s="26"/>
+      <c r="BL368" s="26"/>
     </row>
     <row r="369">
       <c r="AL369" s="26"/>
@@ -25483,6 +26013,7 @@
       <c r="BI369" s="26"/>
       <c r="BJ369" s="26"/>
       <c r="BK369" s="26"/>
+      <c r="BL369" s="26"/>
     </row>
     <row r="370">
       <c r="AL370" s="26"/>
@@ -25511,6 +26042,7 @@
       <c r="BI370" s="26"/>
       <c r="BJ370" s="26"/>
       <c r="BK370" s="26"/>
+      <c r="BL370" s="26"/>
     </row>
     <row r="371">
       <c r="AL371" s="26"/>
@@ -25539,6 +26071,7 @@
       <c r="BI371" s="26"/>
       <c r="BJ371" s="26"/>
       <c r="BK371" s="26"/>
+      <c r="BL371" s="26"/>
     </row>
     <row r="372">
       <c r="AL372" s="26"/>
@@ -25567,6 +26100,7 @@
       <c r="BI372" s="26"/>
       <c r="BJ372" s="26"/>
       <c r="BK372" s="26"/>
+      <c r="BL372" s="26"/>
     </row>
     <row r="373">
       <c r="AL373" s="26"/>
@@ -25595,6 +26129,7 @@
       <c r="BI373" s="26"/>
       <c r="BJ373" s="26"/>
       <c r="BK373" s="26"/>
+      <c r="BL373" s="26"/>
     </row>
     <row r="374">
       <c r="AL374" s="26"/>
@@ -25623,6 +26158,7 @@
       <c r="BI374" s="26"/>
       <c r="BJ374" s="26"/>
       <c r="BK374" s="26"/>
+      <c r="BL374" s="26"/>
     </row>
     <row r="375">
       <c r="AL375" s="26"/>
@@ -25651,6 +26187,7 @@
       <c r="BI375" s="26"/>
       <c r="BJ375" s="26"/>
       <c r="BK375" s="26"/>
+      <c r="BL375" s="26"/>
     </row>
     <row r="376">
       <c r="AL376" s="26"/>
@@ -25679,6 +26216,7 @@
       <c r="BI376" s="26"/>
       <c r="BJ376" s="26"/>
       <c r="BK376" s="26"/>
+      <c r="BL376" s="26"/>
     </row>
     <row r="377">
       <c r="AL377" s="26"/>
@@ -25707,6 +26245,7 @@
       <c r="BI377" s="26"/>
       <c r="BJ377" s="26"/>
       <c r="BK377" s="26"/>
+      <c r="BL377" s="26"/>
     </row>
     <row r="378">
       <c r="AL378" s="26"/>
@@ -25735,6 +26274,7 @@
       <c r="BI378" s="26"/>
       <c r="BJ378" s="26"/>
       <c r="BK378" s="26"/>
+      <c r="BL378" s="26"/>
     </row>
     <row r="379">
       <c r="AL379" s="26"/>
@@ -25763,6 +26303,7 @@
       <c r="BI379" s="26"/>
       <c r="BJ379" s="26"/>
       <c r="BK379" s="26"/>
+      <c r="BL379" s="26"/>
     </row>
     <row r="380">
       <c r="AL380" s="26"/>
@@ -25791,6 +26332,7 @@
       <c r="BI380" s="26"/>
       <c r="BJ380" s="26"/>
       <c r="BK380" s="26"/>
+      <c r="BL380" s="26"/>
     </row>
     <row r="381">
       <c r="AL381" s="26"/>
@@ -25819,6 +26361,7 @@
       <c r="BI381" s="26"/>
       <c r="BJ381" s="26"/>
       <c r="BK381" s="26"/>
+      <c r="BL381" s="26"/>
     </row>
     <row r="382">
       <c r="AL382" s="26"/>
@@ -25847,6 +26390,7 @@
       <c r="BI382" s="26"/>
       <c r="BJ382" s="26"/>
       <c r="BK382" s="26"/>
+      <c r="BL382" s="26"/>
     </row>
     <row r="383">
       <c r="AL383" s="26"/>
@@ -25875,6 +26419,7 @@
       <c r="BI383" s="26"/>
       <c r="BJ383" s="26"/>
       <c r="BK383" s="26"/>
+      <c r="BL383" s="26"/>
     </row>
     <row r="384">
       <c r="AL384" s="26"/>
@@ -25903,6 +26448,7 @@
       <c r="BI384" s="26"/>
       <c r="BJ384" s="26"/>
       <c r="BK384" s="26"/>
+      <c r="BL384" s="26"/>
     </row>
     <row r="385">
       <c r="AL385" s="26"/>
@@ -25931,6 +26477,7 @@
       <c r="BI385" s="26"/>
       <c r="BJ385" s="26"/>
       <c r="BK385" s="26"/>
+      <c r="BL385" s="26"/>
     </row>
     <row r="386">
       <c r="AL386" s="26"/>
@@ -25959,6 +26506,7 @@
       <c r="BI386" s="26"/>
       <c r="BJ386" s="26"/>
       <c r="BK386" s="26"/>
+      <c r="BL386" s="26"/>
     </row>
     <row r="387">
       <c r="AL387" s="26"/>
@@ -25987,6 +26535,7 @@
       <c r="BI387" s="26"/>
       <c r="BJ387" s="26"/>
       <c r="BK387" s="26"/>
+      <c r="BL387" s="26"/>
     </row>
     <row r="388">
       <c r="AL388" s="26"/>
@@ -26015,6 +26564,7 @@
       <c r="BI388" s="26"/>
       <c r="BJ388" s="26"/>
       <c r="BK388" s="26"/>
+      <c r="BL388" s="26"/>
     </row>
     <row r="389">
       <c r="AL389" s="26"/>
@@ -26043,6 +26593,7 @@
       <c r="BI389" s="26"/>
       <c r="BJ389" s="26"/>
       <c r="BK389" s="26"/>
+      <c r="BL389" s="26"/>
     </row>
     <row r="390">
       <c r="AL390" s="26"/>
@@ -26071,6 +26622,7 @@
       <c r="BI390" s="26"/>
       <c r="BJ390" s="26"/>
       <c r="BK390" s="26"/>
+      <c r="BL390" s="26"/>
     </row>
     <row r="391">
       <c r="AL391" s="26"/>
@@ -26099,6 +26651,7 @@
       <c r="BI391" s="26"/>
       <c r="BJ391" s="26"/>
       <c r="BK391" s="26"/>
+      <c r="BL391" s="26"/>
     </row>
     <row r="392">
       <c r="AL392" s="26"/>
@@ -26127,6 +26680,7 @@
       <c r="BI392" s="26"/>
       <c r="BJ392" s="26"/>
       <c r="BK392" s="26"/>
+      <c r="BL392" s="26"/>
     </row>
     <row r="393">
       <c r="AL393" s="26"/>
@@ -26155,6 +26709,7 @@
       <c r="BI393" s="26"/>
       <c r="BJ393" s="26"/>
       <c r="BK393" s="26"/>
+      <c r="BL393" s="26"/>
     </row>
     <row r="394">
       <c r="AL394" s="26"/>
@@ -26183,6 +26738,7 @@
       <c r="BI394" s="26"/>
       <c r="BJ394" s="26"/>
       <c r="BK394" s="26"/>
+      <c r="BL394" s="26"/>
     </row>
     <row r="395">
       <c r="AL395" s="26"/>
@@ -26211,6 +26767,7 @@
       <c r="BI395" s="26"/>
       <c r="BJ395" s="26"/>
       <c r="BK395" s="26"/>
+      <c r="BL395" s="26"/>
     </row>
     <row r="396">
       <c r="AL396" s="26"/>
@@ -26239,6 +26796,7 @@
       <c r="BI396" s="26"/>
       <c r="BJ396" s="26"/>
       <c r="BK396" s="26"/>
+      <c r="BL396" s="26"/>
     </row>
     <row r="397">
       <c r="AL397" s="26"/>
@@ -26267,6 +26825,7 @@
       <c r="BI397" s="26"/>
       <c r="BJ397" s="26"/>
       <c r="BK397" s="26"/>
+      <c r="BL397" s="26"/>
     </row>
     <row r="398">
       <c r="AL398" s="26"/>
@@ -26295,6 +26854,7 @@
       <c r="BI398" s="26"/>
       <c r="BJ398" s="26"/>
       <c r="BK398" s="26"/>
+      <c r="BL398" s="26"/>
     </row>
     <row r="399">
       <c r="AL399" s="26"/>
@@ -26323,6 +26883,7 @@
       <c r="BI399" s="26"/>
       <c r="BJ399" s="26"/>
       <c r="BK399" s="26"/>
+      <c r="BL399" s="26"/>
     </row>
     <row r="400">
       <c r="AL400" s="26"/>
@@ -26351,6 +26912,7 @@
       <c r="BI400" s="26"/>
       <c r="BJ400" s="26"/>
       <c r="BK400" s="26"/>
+      <c r="BL400" s="26"/>
     </row>
     <row r="401">
       <c r="AL401" s="26"/>
@@ -26379,6 +26941,7 @@
       <c r="BI401" s="26"/>
       <c r="BJ401" s="26"/>
       <c r="BK401" s="26"/>
+      <c r="BL401" s="26"/>
     </row>
     <row r="402">
       <c r="AL402" s="26"/>
@@ -26407,6 +26970,7 @@
       <c r="BI402" s="26"/>
       <c r="BJ402" s="26"/>
       <c r="BK402" s="26"/>
+      <c r="BL402" s="26"/>
     </row>
     <row r="403">
       <c r="AL403" s="26"/>
@@ -26435,6 +26999,7 @@
       <c r="BI403" s="26"/>
       <c r="BJ403" s="26"/>
       <c r="BK403" s="26"/>
+      <c r="BL403" s="26"/>
     </row>
     <row r="404">
       <c r="AL404" s="26"/>
@@ -26463,6 +27028,7 @@
       <c r="BI404" s="26"/>
       <c r="BJ404" s="26"/>
       <c r="BK404" s="26"/>
+      <c r="BL404" s="26"/>
     </row>
     <row r="405">
       <c r="AL405" s="26"/>
@@ -26491,6 +27057,7 @@
       <c r="BI405" s="26"/>
       <c r="BJ405" s="26"/>
       <c r="BK405" s="26"/>
+      <c r="BL405" s="26"/>
     </row>
     <row r="406">
       <c r="AL406" s="26"/>
@@ -26519,6 +27086,7 @@
       <c r="BI406" s="26"/>
       <c r="BJ406" s="26"/>
       <c r="BK406" s="26"/>
+      <c r="BL406" s="26"/>
     </row>
     <row r="407">
       <c r="AL407" s="26"/>
@@ -26547,6 +27115,7 @@
       <c r="BI407" s="26"/>
       <c r="BJ407" s="26"/>
       <c r="BK407" s="26"/>
+      <c r="BL407" s="26"/>
     </row>
     <row r="408">
       <c r="AL408" s="26"/>
@@ -26575,6 +27144,7 @@
       <c r="BI408" s="26"/>
       <c r="BJ408" s="26"/>
       <c r="BK408" s="26"/>
+      <c r="BL408" s="26"/>
     </row>
     <row r="409">
       <c r="AL409" s="26"/>
@@ -26603,6 +27173,7 @@
       <c r="BI409" s="26"/>
       <c r="BJ409" s="26"/>
       <c r="BK409" s="26"/>
+      <c r="BL409" s="26"/>
     </row>
     <row r="410">
       <c r="AL410" s="26"/>
@@ -26631,6 +27202,7 @@
       <c r="BI410" s="26"/>
       <c r="BJ410" s="26"/>
       <c r="BK410" s="26"/>
+      <c r="BL410" s="26"/>
     </row>
     <row r="411">
       <c r="AL411" s="26"/>
@@ -26659,6 +27231,7 @@
       <c r="BI411" s="26"/>
       <c r="BJ411" s="26"/>
       <c r="BK411" s="26"/>
+      <c r="BL411" s="26"/>
     </row>
     <row r="412">
       <c r="AL412" s="26"/>
@@ -26687,6 +27260,7 @@
       <c r="BI412" s="26"/>
       <c r="BJ412" s="26"/>
       <c r="BK412" s="26"/>
+      <c r="BL412" s="26"/>
     </row>
     <row r="413">
       <c r="AL413" s="26"/>
@@ -26715,6 +27289,7 @@
       <c r="BI413" s="26"/>
       <c r="BJ413" s="26"/>
       <c r="BK413" s="26"/>
+      <c r="BL413" s="26"/>
     </row>
     <row r="414">
       <c r="AL414" s="26"/>
@@ -26743,6 +27318,7 @@
       <c r="BI414" s="26"/>
       <c r="BJ414" s="26"/>
       <c r="BK414" s="26"/>
+      <c r="BL414" s="26"/>
     </row>
     <row r="415">
       <c r="AL415" s="26"/>
@@ -26771,6 +27347,7 @@
       <c r="BI415" s="26"/>
       <c r="BJ415" s="26"/>
       <c r="BK415" s="26"/>
+      <c r="BL415" s="26"/>
     </row>
     <row r="416">
       <c r="AL416" s="26"/>
@@ -26799,6 +27376,7 @@
       <c r="BI416" s="26"/>
       <c r="BJ416" s="26"/>
       <c r="BK416" s="26"/>
+      <c r="BL416" s="26"/>
     </row>
     <row r="417">
       <c r="AL417" s="26"/>
@@ -26827,6 +27405,7 @@
       <c r="BI417" s="26"/>
       <c r="BJ417" s="26"/>
       <c r="BK417" s="26"/>
+      <c r="BL417" s="26"/>
     </row>
     <row r="418">
       <c r="AL418" s="26"/>
@@ -26855,6 +27434,7 @@
       <c r="BI418" s="26"/>
       <c r="BJ418" s="26"/>
       <c r="BK418" s="26"/>
+      <c r="BL418" s="26"/>
     </row>
     <row r="419">
       <c r="AL419" s="26"/>
@@ -26883,6 +27463,7 @@
       <c r="BI419" s="26"/>
       <c r="BJ419" s="26"/>
       <c r="BK419" s="26"/>
+      <c r="BL419" s="26"/>
     </row>
     <row r="420">
       <c r="AL420" s="26"/>
@@ -26911,6 +27492,7 @@
       <c r="BI420" s="26"/>
       <c r="BJ420" s="26"/>
       <c r="BK420" s="26"/>
+      <c r="BL420" s="26"/>
     </row>
     <row r="421">
       <c r="AL421" s="26"/>
@@ -26939,6 +27521,7 @@
       <c r="BI421" s="26"/>
       <c r="BJ421" s="26"/>
       <c r="BK421" s="26"/>
+      <c r="BL421" s="26"/>
     </row>
     <row r="422">
       <c r="AL422" s="26"/>
@@ -26967,6 +27550,7 @@
       <c r="BI422" s="26"/>
       <c r="BJ422" s="26"/>
       <c r="BK422" s="26"/>
+      <c r="BL422" s="26"/>
     </row>
     <row r="423">
       <c r="AL423" s="26"/>
@@ -26995,6 +27579,7 @@
       <c r="BI423" s="26"/>
       <c r="BJ423" s="26"/>
       <c r="BK423" s="26"/>
+      <c r="BL423" s="26"/>
     </row>
     <row r="424">
       <c r="AL424" s="26"/>
@@ -27023,6 +27608,7 @@
       <c r="BI424" s="26"/>
       <c r="BJ424" s="26"/>
       <c r="BK424" s="26"/>
+      <c r="BL424" s="26"/>
     </row>
     <row r="425">
       <c r="AL425" s="26"/>
@@ -27051,6 +27637,7 @@
       <c r="BI425" s="26"/>
       <c r="BJ425" s="26"/>
       <c r="BK425" s="26"/>
+      <c r="BL425" s="26"/>
     </row>
     <row r="426">
       <c r="AL426" s="26"/>
@@ -27079,6 +27666,7 @@
       <c r="BI426" s="26"/>
       <c r="BJ426" s="26"/>
       <c r="BK426" s="26"/>
+      <c r="BL426" s="26"/>
     </row>
     <row r="427">
       <c r="AL427" s="26"/>
@@ -27107,6 +27695,7 @@
       <c r="BI427" s="26"/>
       <c r="BJ427" s="26"/>
       <c r="BK427" s="26"/>
+      <c r="BL427" s="26"/>
     </row>
     <row r="428">
       <c r="AL428" s="26"/>
@@ -27135,6 +27724,7 @@
       <c r="BI428" s="26"/>
       <c r="BJ428" s="26"/>
       <c r="BK428" s="26"/>
+      <c r="BL428" s="26"/>
     </row>
     <row r="429">
       <c r="AL429" s="26"/>
@@ -27163,6 +27753,7 @@
       <c r="BI429" s="26"/>
       <c r="BJ429" s="26"/>
       <c r="BK429" s="26"/>
+      <c r="BL429" s="26"/>
     </row>
     <row r="430">
       <c r="AL430" s="26"/>
@@ -27191,6 +27782,7 @@
       <c r="BI430" s="26"/>
       <c r="BJ430" s="26"/>
       <c r="BK430" s="26"/>
+      <c r="BL430" s="26"/>
     </row>
     <row r="431">
       <c r="AL431" s="26"/>
@@ -27219,6 +27811,7 @@
       <c r="BI431" s="26"/>
       <c r="BJ431" s="26"/>
       <c r="BK431" s="26"/>
+      <c r="BL431" s="26"/>
     </row>
     <row r="432">
       <c r="AL432" s="26"/>
@@ -27247,6 +27840,7 @@
       <c r="BI432" s="26"/>
       <c r="BJ432" s="26"/>
       <c r="BK432" s="26"/>
+      <c r="BL432" s="26"/>
     </row>
     <row r="433">
       <c r="AL433" s="26"/>
@@ -27275,6 +27869,7 @@
       <c r="BI433" s="26"/>
       <c r="BJ433" s="26"/>
       <c r="BK433" s="26"/>
+      <c r="BL433" s="26"/>
     </row>
     <row r="434">
       <c r="AL434" s="26"/>
@@ -27303,6 +27898,7 @@
       <c r="BI434" s="26"/>
       <c r="BJ434" s="26"/>
       <c r="BK434" s="26"/>
+      <c r="BL434" s="26"/>
     </row>
     <row r="435">
       <c r="AL435" s="26"/>
@@ -27331,6 +27927,7 @@
       <c r="BI435" s="26"/>
       <c r="BJ435" s="26"/>
       <c r="BK435" s="26"/>
+      <c r="BL435" s="26"/>
     </row>
     <row r="436">
       <c r="AL436" s="26"/>
@@ -27359,6 +27956,7 @@
       <c r="BI436" s="26"/>
       <c r="BJ436" s="26"/>
       <c r="BK436" s="26"/>
+      <c r="BL436" s="26"/>
     </row>
     <row r="437">
       <c r="AL437" s="26"/>
@@ -27387,6 +27985,7 @@
       <c r="BI437" s="26"/>
       <c r="BJ437" s="26"/>
       <c r="BK437" s="26"/>
+      <c r="BL437" s="26"/>
     </row>
     <row r="438">
       <c r="AL438" s="26"/>
@@ -27415,6 +28014,7 @@
       <c r="BI438" s="26"/>
       <c r="BJ438" s="26"/>
       <c r="BK438" s="26"/>
+      <c r="BL438" s="26"/>
     </row>
     <row r="439">
       <c r="AL439" s="26"/>
@@ -27443,6 +28043,7 @@
       <c r="BI439" s="26"/>
       <c r="BJ439" s="26"/>
       <c r="BK439" s="26"/>
+      <c r="BL439" s="26"/>
     </row>
     <row r="440">
       <c r="AL440" s="26"/>
@@ -27471,6 +28072,7 @@
       <c r="BI440" s="26"/>
       <c r="BJ440" s="26"/>
       <c r="BK440" s="26"/>
+      <c r="BL440" s="26"/>
     </row>
     <row r="441">
       <c r="AL441" s="26"/>
@@ -27499,6 +28101,7 @@
       <c r="BI441" s="26"/>
       <c r="BJ441" s="26"/>
       <c r="BK441" s="26"/>
+      <c r="BL441" s="26"/>
     </row>
     <row r="442">
       <c r="AL442" s="26"/>
@@ -27527,6 +28130,7 @@
       <c r="BI442" s="26"/>
       <c r="BJ442" s="26"/>
       <c r="BK442" s="26"/>
+      <c r="BL442" s="26"/>
     </row>
     <row r="443">
       <c r="AL443" s="26"/>
@@ -27555,6 +28159,7 @@
       <c r="BI443" s="26"/>
       <c r="BJ443" s="26"/>
       <c r="BK443" s="26"/>
+      <c r="BL443" s="26"/>
     </row>
     <row r="444">
       <c r="AL444" s="26"/>
@@ -27583,6 +28188,7 @@
       <c r="BI444" s="26"/>
       <c r="BJ444" s="26"/>
       <c r="BK444" s="26"/>
+      <c r="BL444" s="26"/>
     </row>
     <row r="445">
       <c r="AL445" s="26"/>
@@ -27611,6 +28217,7 @@
       <c r="BI445" s="26"/>
       <c r="BJ445" s="26"/>
       <c r="BK445" s="26"/>
+      <c r="BL445" s="26"/>
     </row>
     <row r="446">
       <c r="AL446" s="26"/>
@@ -27639,6 +28246,7 @@
       <c r="BI446" s="26"/>
       <c r="BJ446" s="26"/>
       <c r="BK446" s="26"/>
+      <c r="BL446" s="26"/>
     </row>
     <row r="447">
       <c r="AL447" s="26"/>
@@ -27667,6 +28275,7 @@
       <c r="BI447" s="26"/>
       <c r="BJ447" s="26"/>
       <c r="BK447" s="26"/>
+      <c r="BL447" s="26"/>
     </row>
     <row r="448">
       <c r="AL448" s="26"/>
@@ -27695,6 +28304,7 @@
       <c r="BI448" s="26"/>
       <c r="BJ448" s="26"/>
       <c r="BK448" s="26"/>
+      <c r="BL448" s="26"/>
     </row>
     <row r="449">
       <c r="AL449" s="26"/>
@@ -27723,6 +28333,7 @@
       <c r="BI449" s="26"/>
       <c r="BJ449" s="26"/>
       <c r="BK449" s="26"/>
+      <c r="BL449" s="26"/>
     </row>
     <row r="450">
       <c r="AL450" s="26"/>
@@ -27751,6 +28362,7 @@
       <c r="BI450" s="26"/>
       <c r="BJ450" s="26"/>
       <c r="BK450" s="26"/>
+      <c r="BL450" s="26"/>
     </row>
     <row r="451">
       <c r="AL451" s="26"/>
@@ -27779,6 +28391,7 @@
       <c r="BI451" s="26"/>
       <c r="BJ451" s="26"/>
       <c r="BK451" s="26"/>
+      <c r="BL451" s="26"/>
     </row>
     <row r="452">
       <c r="AL452" s="26"/>
@@ -27807,6 +28420,7 @@
       <c r="BI452" s="26"/>
       <c r="BJ452" s="26"/>
       <c r="BK452" s="26"/>
+      <c r="BL452" s="26"/>
     </row>
     <row r="453">
       <c r="AL453" s="26"/>
@@ -27835,6 +28449,7 @@
       <c r="BI453" s="26"/>
       <c r="BJ453" s="26"/>
       <c r="BK453" s="26"/>
+      <c r="BL453" s="26"/>
     </row>
     <row r="454">
       <c r="AL454" s="26"/>
@@ -27863,6 +28478,7 @@
       <c r="BI454" s="26"/>
       <c r="BJ454" s="26"/>
       <c r="BK454" s="26"/>
+      <c r="BL454" s="26"/>
     </row>
     <row r="455">
       <c r="AL455" s="26"/>
@@ -27891,6 +28507,7 @@
       <c r="BI455" s="26"/>
       <c r="BJ455" s="26"/>
       <c r="BK455" s="26"/>
+      <c r="BL455" s="26"/>
     </row>
     <row r="456">
       <c r="AL456" s="26"/>
@@ -27919,6 +28536,7 @@
       <c r="BI456" s="26"/>
       <c r="BJ456" s="26"/>
       <c r="BK456" s="26"/>
+      <c r="BL456" s="26"/>
     </row>
     <row r="457">
       <c r="AL457" s="26"/>
@@ -27947,6 +28565,7 @@
       <c r="BI457" s="26"/>
       <c r="BJ457" s="26"/>
       <c r="BK457" s="26"/>
+      <c r="BL457" s="26"/>
     </row>
     <row r="458">
       <c r="AL458" s="26"/>
@@ -27975,6 +28594,7 @@
       <c r="BI458" s="26"/>
       <c r="BJ458" s="26"/>
       <c r="BK458" s="26"/>
+      <c r="BL458" s="26"/>
     </row>
     <row r="459">
       <c r="AL459" s="26"/>
@@ -28003,6 +28623,7 @@
       <c r="BI459" s="26"/>
       <c r="BJ459" s="26"/>
       <c r="BK459" s="26"/>
+      <c r="BL459" s="26"/>
     </row>
     <row r="460">
       <c r="AL460" s="26"/>
@@ -28031,6 +28652,7 @@
       <c r="BI460" s="26"/>
       <c r="BJ460" s="26"/>
       <c r="BK460" s="26"/>
+      <c r="BL460" s="26"/>
     </row>
     <row r="461">
       <c r="AL461" s="26"/>
@@ -28059,6 +28681,7 @@
       <c r="BI461" s="26"/>
       <c r="BJ461" s="26"/>
       <c r="BK461" s="26"/>
+      <c r="BL461" s="26"/>
     </row>
     <row r="462">
       <c r="AL462" s="26"/>
@@ -28087,6 +28710,7 @@
       <c r="BI462" s="26"/>
       <c r="BJ462" s="26"/>
       <c r="BK462" s="26"/>
+      <c r="BL462" s="26"/>
     </row>
     <row r="463">
       <c r="AL463" s="26"/>
@@ -28115,6 +28739,7 @@
       <c r="BI463" s="26"/>
       <c r="BJ463" s="26"/>
       <c r="BK463" s="26"/>
+      <c r="BL463" s="26"/>
     </row>
     <row r="464">
       <c r="AL464" s="26"/>
@@ -28143,6 +28768,7 @@
       <c r="BI464" s="26"/>
       <c r="BJ464" s="26"/>
       <c r="BK464" s="26"/>
+      <c r="BL464" s="26"/>
     </row>
     <row r="465">
       <c r="AL465" s="26"/>
@@ -28171,6 +28797,7 @@
       <c r="BI465" s="26"/>
       <c r="BJ465" s="26"/>
       <c r="BK465" s="26"/>
+      <c r="BL465" s="26"/>
     </row>
     <row r="466">
       <c r="AL466" s="26"/>
@@ -28199,6 +28826,7 @@
       <c r="BI466" s="26"/>
       <c r="BJ466" s="26"/>
       <c r="BK466" s="26"/>
+      <c r="BL466" s="26"/>
     </row>
     <row r="467">
       <c r="AL467" s="26"/>
@@ -28227,6 +28855,7 @@
       <c r="BI467" s="26"/>
       <c r="BJ467" s="26"/>
       <c r="BK467" s="26"/>
+      <c r="BL467" s="26"/>
     </row>
     <row r="468">
       <c r="AL468" s="26"/>
@@ -28255,6 +28884,7 @@
       <c r="BI468" s="26"/>
       <c r="BJ468" s="26"/>
       <c r="BK468" s="26"/>
+      <c r="BL468" s="26"/>
     </row>
     <row r="469">
       <c r="AL469" s="26"/>
@@ -28283,6 +28913,7 @@
       <c r="BI469" s="26"/>
       <c r="BJ469" s="26"/>
       <c r="BK469" s="26"/>
+      <c r="BL469" s="26"/>
     </row>
     <row r="470">
       <c r="AL470" s="26"/>
@@ -28311,6 +28942,7 @@
       <c r="BI470" s="26"/>
       <c r="BJ470" s="26"/>
       <c r="BK470" s="26"/>
+      <c r="BL470" s="26"/>
     </row>
     <row r="471">
       <c r="AL471" s="26"/>
@@ -28339,6 +28971,7 @@
       <c r="BI471" s="26"/>
       <c r="BJ471" s="26"/>
       <c r="BK471" s="26"/>
+      <c r="BL471" s="26"/>
     </row>
     <row r="472">
       <c r="AL472" s="26"/>
@@ -28367,6 +29000,7 @@
       <c r="BI472" s="26"/>
       <c r="BJ472" s="26"/>
       <c r="BK472" s="26"/>
+      <c r="BL472" s="26"/>
     </row>
     <row r="473">
       <c r="AL473" s="26"/>
@@ -28395,6 +29029,7 @@
       <c r="BI473" s="26"/>
       <c r="BJ473" s="26"/>
       <c r="BK473" s="26"/>
+      <c r="BL473" s="26"/>
     </row>
     <row r="474">
       <c r="AL474" s="26"/>
@@ -28423,6 +29058,7 @@
       <c r="BI474" s="26"/>
       <c r="BJ474" s="26"/>
       <c r="BK474" s="26"/>
+      <c r="BL474" s="26"/>
     </row>
     <row r="475">
       <c r="AL475" s="26"/>
@@ -28451,6 +29087,7 @@
       <c r="BI475" s="26"/>
       <c r="BJ475" s="26"/>
       <c r="BK475" s="26"/>
+      <c r="BL475" s="26"/>
     </row>
     <row r="476">
       <c r="AL476" s="26"/>
@@ -28479,6 +29116,7 @@
       <c r="BI476" s="26"/>
       <c r="BJ476" s="26"/>
       <c r="BK476" s="26"/>
+      <c r="BL476" s="26"/>
     </row>
     <row r="477">
       <c r="AL477" s="26"/>
@@ -28507,6 +29145,7 @@
       <c r="BI477" s="26"/>
       <c r="BJ477" s="26"/>
       <c r="BK477" s="26"/>
+      <c r="BL477" s="26"/>
     </row>
     <row r="478">
       <c r="AL478" s="26"/>
@@ -28535,6 +29174,7 @@
       <c r="BI478" s="26"/>
       <c r="BJ478" s="26"/>
       <c r="BK478" s="26"/>
+      <c r="BL478" s="26"/>
     </row>
     <row r="479">
       <c r="AL479" s="26"/>
@@ -28563,6 +29203,7 @@
       <c r="BI479" s="26"/>
       <c r="BJ479" s="26"/>
       <c r="BK479" s="26"/>
+      <c r="BL479" s="26"/>
     </row>
     <row r="480">
       <c r="AL480" s="26"/>
@@ -28591,6 +29232,7 @@
       <c r="BI480" s="26"/>
       <c r="BJ480" s="26"/>
       <c r="BK480" s="26"/>
+      <c r="BL480" s="26"/>
     </row>
     <row r="481">
       <c r="AL481" s="26"/>
@@ -28619,6 +29261,7 @@
       <c r="BI481" s="26"/>
       <c r="BJ481" s="26"/>
       <c r="BK481" s="26"/>
+      <c r="BL481" s="26"/>
     </row>
     <row r="482">
       <c r="AL482" s="26"/>
@@ -28647,6 +29290,7 @@
       <c r="BI482" s="26"/>
       <c r="BJ482" s="26"/>
       <c r="BK482" s="26"/>
+      <c r="BL482" s="26"/>
     </row>
     <row r="483">
       <c r="AL483" s="26"/>
@@ -28675,6 +29319,7 @@
       <c r="BI483" s="26"/>
       <c r="BJ483" s="26"/>
       <c r="BK483" s="26"/>
+      <c r="BL483" s="26"/>
     </row>
     <row r="484">
       <c r="AL484" s="26"/>
@@ -28703,6 +29348,7 @@
       <c r="BI484" s="26"/>
       <c r="BJ484" s="26"/>
       <c r="BK484" s="26"/>
+      <c r="BL484" s="26"/>
     </row>
     <row r="485">
       <c r="AL485" s="26"/>
@@ -28731,6 +29377,7 @@
       <c r="BI485" s="26"/>
       <c r="BJ485" s="26"/>
       <c r="BK485" s="26"/>
+      <c r="BL485" s="26"/>
     </row>
     <row r="486">
       <c r="AL486" s="26"/>
@@ -28759,6 +29406,7 @@
       <c r="BI486" s="26"/>
       <c r="BJ486" s="26"/>
       <c r="BK486" s="26"/>
+      <c r="BL486" s="26"/>
     </row>
     <row r="487">
       <c r="AL487" s="26"/>
@@ -28787,6 +29435,7 @@
       <c r="BI487" s="26"/>
       <c r="BJ487" s="26"/>
       <c r="BK487" s="26"/>
+      <c r="BL487" s="26"/>
     </row>
     <row r="488">
       <c r="AL488" s="26"/>
@@ -28815,6 +29464,7 @@
       <c r="BI488" s="26"/>
       <c r="BJ488" s="26"/>
       <c r="BK488" s="26"/>
+      <c r="BL488" s="26"/>
     </row>
     <row r="489">
       <c r="AL489" s="26"/>
@@ -28843,6 +29493,7 @@
       <c r="BI489" s="26"/>
       <c r="BJ489" s="26"/>
       <c r="BK489" s="26"/>
+      <c r="BL489" s="26"/>
     </row>
     <row r="490">
       <c r="AL490" s="26"/>
@@ -28871,6 +29522,7 @@
       <c r="BI490" s="26"/>
       <c r="BJ490" s="26"/>
       <c r="BK490" s="26"/>
+      <c r="BL490" s="26"/>
     </row>
     <row r="491">
       <c r="AL491" s="26"/>
@@ -28899,6 +29551,7 @@
       <c r="BI491" s="26"/>
       <c r="BJ491" s="26"/>
       <c r="BK491" s="26"/>
+      <c r="BL491" s="26"/>
     </row>
     <row r="492">
       <c r="AL492" s="26"/>
@@ -28927,6 +29580,7 @@
       <c r="BI492" s="26"/>
       <c r="BJ492" s="26"/>
       <c r="BK492" s="26"/>
+      <c r="BL492" s="26"/>
     </row>
     <row r="493">
       <c r="AL493" s="26"/>
@@ -28955,6 +29609,7 @@
       <c r="BI493" s="26"/>
       <c r="BJ493" s="26"/>
       <c r="BK493" s="26"/>
+      <c r="BL493" s="26"/>
     </row>
     <row r="494">
       <c r="AL494" s="26"/>
@@ -28983,6 +29638,7 @@
       <c r="BI494" s="26"/>
       <c r="BJ494" s="26"/>
       <c r="BK494" s="26"/>
+      <c r="BL494" s="26"/>
     </row>
     <row r="495">
       <c r="AL495" s="26"/>
@@ -29011,6 +29667,7 @@
       <c r="BI495" s="26"/>
       <c r="BJ495" s="26"/>
       <c r="BK495" s="26"/>
+      <c r="BL495" s="26"/>
     </row>
     <row r="496">
       <c r="AL496" s="26"/>
@@ -29039,6 +29696,7 @@
       <c r="BI496" s="26"/>
       <c r="BJ496" s="26"/>
       <c r="BK496" s="26"/>
+      <c r="BL496" s="26"/>
     </row>
     <row r="497">
       <c r="AL497" s="26"/>
@@ -29067,6 +29725,7 @@
       <c r="BI497" s="26"/>
       <c r="BJ497" s="26"/>
       <c r="BK497" s="26"/>
+      <c r="BL497" s="26"/>
     </row>
     <row r="498">
       <c r="AL498" s="26"/>
@@ -29095,6 +29754,7 @@
       <c r="BI498" s="26"/>
       <c r="BJ498" s="26"/>
       <c r="BK498" s="26"/>
+      <c r="BL498" s="26"/>
     </row>
     <row r="499">
       <c r="AL499" s="26"/>
@@ -29123,6 +29783,7 @@
       <c r="BI499" s="26"/>
       <c r="BJ499" s="26"/>
       <c r="BK499" s="26"/>
+      <c r="BL499" s="26"/>
     </row>
     <row r="500">
       <c r="AL500" s="26"/>
@@ -29151,6 +29812,7 @@
       <c r="BI500" s="26"/>
       <c r="BJ500" s="26"/>
       <c r="BK500" s="26"/>
+      <c r="BL500" s="26"/>
     </row>
     <row r="501">
       <c r="AL501" s="26"/>
@@ -29179,6 +29841,7 @@
       <c r="BI501" s="26"/>
       <c r="BJ501" s="26"/>
       <c r="BK501" s="26"/>
+      <c r="BL501" s="26"/>
     </row>
     <row r="502">
       <c r="AL502" s="26"/>
@@ -29207,6 +29870,7 @@
       <c r="BI502" s="26"/>
       <c r="BJ502" s="26"/>
       <c r="BK502" s="26"/>
+      <c r="BL502" s="26"/>
     </row>
     <row r="503">
       <c r="AL503" s="26"/>
@@ -29235,6 +29899,7 @@
       <c r="BI503" s="26"/>
       <c r="BJ503" s="26"/>
       <c r="BK503" s="26"/>
+      <c r="BL503" s="26"/>
     </row>
     <row r="504">
       <c r="AL504" s="26"/>
@@ -29263,6 +29928,7 @@
       <c r="BI504" s="26"/>
       <c r="BJ504" s="26"/>
       <c r="BK504" s="26"/>
+      <c r="BL504" s="26"/>
     </row>
     <row r="505">
       <c r="AL505" s="26"/>
@@ -29291,6 +29957,7 @@
       <c r="BI505" s="26"/>
       <c r="BJ505" s="26"/>
       <c r="BK505" s="26"/>
+      <c r="BL505" s="26"/>
     </row>
     <row r="506">
       <c r="AL506" s="26"/>
@@ -29319,6 +29986,7 @@
       <c r="BI506" s="26"/>
       <c r="BJ506" s="26"/>
       <c r="BK506" s="26"/>
+      <c r="BL506" s="26"/>
     </row>
     <row r="507">
       <c r="AL507" s="26"/>
@@ -29347,6 +30015,7 @@
       <c r="BI507" s="26"/>
       <c r="BJ507" s="26"/>
       <c r="BK507" s="26"/>
+      <c r="BL507" s="26"/>
     </row>
     <row r="508">
       <c r="AL508" s="26"/>
@@ -29375,6 +30044,7 @@
       <c r="BI508" s="26"/>
       <c r="BJ508" s="26"/>
       <c r="BK508" s="26"/>
+      <c r="BL508" s="26"/>
     </row>
     <row r="509">
       <c r="AL509" s="26"/>
@@ -29403,6 +30073,7 @@
       <c r="BI509" s="26"/>
       <c r="BJ509" s="26"/>
       <c r="BK509" s="26"/>
+      <c r="BL509" s="26"/>
     </row>
     <row r="510">
       <c r="AL510" s="26"/>
@@ -29431,6 +30102,7 @@
       <c r="BI510" s="26"/>
       <c r="BJ510" s="26"/>
       <c r="BK510" s="26"/>
+      <c r="BL510" s="26"/>
     </row>
     <row r="511">
       <c r="AL511" s="26"/>
@@ -29459,6 +30131,7 @@
       <c r="BI511" s="26"/>
       <c r="BJ511" s="26"/>
       <c r="BK511" s="26"/>
+      <c r="BL511" s="26"/>
     </row>
     <row r="512">
       <c r="AL512" s="26"/>
@@ -29487,6 +30160,7 @@
       <c r="BI512" s="26"/>
       <c r="BJ512" s="26"/>
       <c r="BK512" s="26"/>
+      <c r="BL512" s="26"/>
     </row>
     <row r="513">
       <c r="AL513" s="26"/>
@@ -29515,6 +30189,7 @@
       <c r="BI513" s="26"/>
       <c r="BJ513" s="26"/>
       <c r="BK513" s="26"/>
+      <c r="BL513" s="26"/>
     </row>
     <row r="514">
       <c r="AL514" s="26"/>
@@ -29543,6 +30218,7 @@
       <c r="BI514" s="26"/>
       <c r="BJ514" s="26"/>
       <c r="BK514" s="26"/>
+      <c r="BL514" s="26"/>
     </row>
     <row r="515">
       <c r="AL515" s="26"/>
@@ -29571,6 +30247,7 @@
       <c r="BI515" s="26"/>
       <c r="BJ515" s="26"/>
       <c r="BK515" s="26"/>
+      <c r="BL515" s="26"/>
     </row>
     <row r="516">
       <c r="AL516" s="26"/>
@@ -29599,6 +30276,7 @@
       <c r="BI516" s="26"/>
       <c r="BJ516" s="26"/>
       <c r="BK516" s="26"/>
+      <c r="BL516" s="26"/>
     </row>
     <row r="517">
       <c r="AL517" s="26"/>
@@ -29627,6 +30305,7 @@
       <c r="BI517" s="26"/>
       <c r="BJ517" s="26"/>
       <c r="BK517" s="26"/>
+      <c r="BL517" s="26"/>
     </row>
     <row r="518">
       <c r="AL518" s="26"/>
@@ -29655,6 +30334,7 @@
       <c r="BI518" s="26"/>
       <c r="BJ518" s="26"/>
       <c r="BK518" s="26"/>
+      <c r="BL518" s="26"/>
     </row>
     <row r="519">
       <c r="AL519" s="26"/>
@@ -29683,6 +30363,7 @@
       <c r="BI519" s="26"/>
       <c r="BJ519" s="26"/>
       <c r="BK519" s="26"/>
+      <c r="BL519" s="26"/>
     </row>
     <row r="520">
       <c r="AL520" s="26"/>
@@ -29711,6 +30392,7 @@
       <c r="BI520" s="26"/>
       <c r="BJ520" s="26"/>
       <c r="BK520" s="26"/>
+      <c r="BL520" s="26"/>
     </row>
     <row r="521">
       <c r="AL521" s="26"/>
@@ -29739,6 +30421,7 @@
       <c r="BI521" s="26"/>
       <c r="BJ521" s="26"/>
       <c r="BK521" s="26"/>
+      <c r="BL521" s="26"/>
     </row>
     <row r="522">
       <c r="AL522" s="26"/>
@@ -29767,6 +30450,7 @@
       <c r="BI522" s="26"/>
       <c r="BJ522" s="26"/>
       <c r="BK522" s="26"/>
+      <c r="BL522" s="26"/>
     </row>
     <row r="523">
       <c r="AL523" s="26"/>
@@ -29795,6 +30479,7 @@
       <c r="BI523" s="26"/>
       <c r="BJ523" s="26"/>
       <c r="BK523" s="26"/>
+      <c r="BL523" s="26"/>
     </row>
     <row r="524">
       <c r="AL524" s="26"/>
@@ -29823,6 +30508,7 @@
       <c r="BI524" s="26"/>
       <c r="BJ524" s="26"/>
       <c r="BK524" s="26"/>
+      <c r="BL524" s="26"/>
     </row>
     <row r="525">
       <c r="AL525" s="26"/>
@@ -29851,6 +30537,7 @@
       <c r="BI525" s="26"/>
       <c r="BJ525" s="26"/>
       <c r="BK525" s="26"/>
+      <c r="BL525" s="26"/>
     </row>
     <row r="526">
       <c r="AL526" s="26"/>
@@ -29879,6 +30566,7 @@
       <c r="BI526" s="26"/>
       <c r="BJ526" s="26"/>
       <c r="BK526" s="26"/>
+      <c r="BL526" s="26"/>
     </row>
     <row r="527">
       <c r="AL527" s="26"/>
@@ -29907,6 +30595,7 @@
       <c r="BI527" s="26"/>
       <c r="BJ527" s="26"/>
       <c r="BK527" s="26"/>
+      <c r="BL527" s="26"/>
     </row>
     <row r="528">
       <c r="AL528" s="26"/>
@@ -29935,6 +30624,7 @@
       <c r="BI528" s="26"/>
       <c r="BJ528" s="26"/>
       <c r="BK528" s="26"/>
+      <c r="BL528" s="26"/>
     </row>
     <row r="529">
       <c r="AL529" s="26"/>
@@ -29963,6 +30653,7 @@
       <c r="BI529" s="26"/>
       <c r="BJ529" s="26"/>
       <c r="BK529" s="26"/>
+      <c r="BL529" s="26"/>
     </row>
     <row r="530">
       <c r="AL530" s="26"/>
@@ -29991,6 +30682,7 @@
       <c r="BI530" s="26"/>
       <c r="BJ530" s="26"/>
       <c r="BK530" s="26"/>
+      <c r="BL530" s="26"/>
     </row>
     <row r="531">
       <c r="AL531" s="26"/>
@@ -30019,6 +30711,7 @@
       <c r="BI531" s="26"/>
       <c r="BJ531" s="26"/>
       <c r="BK531" s="26"/>
+      <c r="BL531" s="26"/>
     </row>
     <row r="532">
       <c r="AL532" s="26"/>
@@ -30047,6 +30740,7 @@
       <c r="BI532" s="26"/>
       <c r="BJ532" s="26"/>
       <c r="BK532" s="26"/>
+      <c r="BL532" s="26"/>
     </row>
     <row r="533">
       <c r="AL533" s="26"/>
@@ -30075,6 +30769,7 @@
       <c r="BI533" s="26"/>
       <c r="BJ533" s="26"/>
       <c r="BK533" s="26"/>
+      <c r="BL533" s="26"/>
     </row>
     <row r="534">
       <c r="AL534" s="26"/>
@@ -30103,6 +30798,7 @@
       <c r="BI534" s="26"/>
       <c r="BJ534" s="26"/>
       <c r="BK534" s="26"/>
+      <c r="BL534" s="26"/>
     </row>
     <row r="535">
       <c r="AL535" s="26"/>
@@ -30131,6 +30827,7 @@
       <c r="BI535" s="26"/>
       <c r="BJ535" s="26"/>
       <c r="BK535" s="26"/>
+      <c r="BL535" s="26"/>
     </row>
     <row r="536">
       <c r="AL536" s="26"/>
@@ -30159,6 +30856,7 @@
       <c r="BI536" s="26"/>
       <c r="BJ536" s="26"/>
       <c r="BK536" s="26"/>
+      <c r="BL536" s="26"/>
     </row>
     <row r="537">
       <c r="AL537" s="26"/>
@@ -30187,6 +30885,7 @@
       <c r="BI537" s="26"/>
       <c r="BJ537" s="26"/>
       <c r="BK537" s="26"/>
+      <c r="BL537" s="26"/>
     </row>
     <row r="538">
       <c r="AL538" s="26"/>
@@ -30215,6 +30914,7 @@
       <c r="BI538" s="26"/>
       <c r="BJ538" s="26"/>
       <c r="BK538" s="26"/>
+      <c r="BL538" s="26"/>
     </row>
     <row r="539">
       <c r="AL539" s="26"/>
@@ -30243,6 +30943,7 @@
       <c r="BI539" s="26"/>
       <c r="BJ539" s="26"/>
       <c r="BK539" s="26"/>
+      <c r="BL539" s="26"/>
     </row>
     <row r="540">
       <c r="AL540" s="26"/>
@@ -30271,6 +30972,7 @@
       <c r="BI540" s="26"/>
       <c r="BJ540" s="26"/>
       <c r="BK540" s="26"/>
+      <c r="BL540" s="26"/>
     </row>
     <row r="541">
       <c r="AL541" s="26"/>
@@ -30299,6 +31001,7 @@
       <c r="BI541" s="26"/>
       <c r="BJ541" s="26"/>
       <c r="BK541" s="26"/>
+      <c r="BL541" s="26"/>
     </row>
     <row r="542">
       <c r="AL542" s="26"/>
@@ -30327,6 +31030,7 @@
       <c r="BI542" s="26"/>
       <c r="BJ542" s="26"/>
       <c r="BK542" s="26"/>
+      <c r="BL542" s="26"/>
     </row>
     <row r="543">
       <c r="AL543" s="26"/>
@@ -30355,6 +31059,7 @@
       <c r="BI543" s="26"/>
       <c r="BJ543" s="26"/>
       <c r="BK543" s="26"/>
+      <c r="BL543" s="26"/>
     </row>
     <row r="544">
       <c r="AL544" s="26"/>
@@ -30383,6 +31088,7 @@
       <c r="BI544" s="26"/>
       <c r="BJ544" s="26"/>
       <c r="BK544" s="26"/>
+      <c r="BL544" s="26"/>
     </row>
     <row r="545">
       <c r="AL545" s="26"/>
@@ -30411,6 +31117,7 @@
       <c r="BI545" s="26"/>
       <c r="BJ545" s="26"/>
       <c r="BK545" s="26"/>
+      <c r="BL545" s="26"/>
     </row>
     <row r="546">
       <c r="AL546" s="26"/>
@@ -30439,6 +31146,7 @@
       <c r="BI546" s="26"/>
       <c r="BJ546" s="26"/>
       <c r="BK546" s="26"/>
+      <c r="BL546" s="26"/>
     </row>
     <row r="547">
       <c r="AL547" s="26"/>
@@ -30467,6 +31175,7 @@
       <c r="BI547" s="26"/>
       <c r="BJ547" s="26"/>
       <c r="BK547" s="26"/>
+      <c r="BL547" s="26"/>
     </row>
     <row r="548">
       <c r="AL548" s="26"/>
@@ -30495,6 +31204,7 @@
       <c r="BI548" s="26"/>
       <c r="BJ548" s="26"/>
       <c r="BK548" s="26"/>
+      <c r="BL548" s="26"/>
     </row>
     <row r="549">
       <c r="AL549" s="26"/>
@@ -30523,6 +31233,7 @@
       <c r="BI549" s="26"/>
       <c r="BJ549" s="26"/>
       <c r="BK549" s="26"/>
+      <c r="BL549" s="26"/>
     </row>
     <row r="550">
       <c r="AL550" s="26"/>
@@ -30551,6 +31262,7 @@
       <c r="BI550" s="26"/>
       <c r="BJ550" s="26"/>
       <c r="BK550" s="26"/>
+      <c r="BL550" s="26"/>
     </row>
     <row r="551">
       <c r="AL551" s="26"/>
@@ -30579,6 +31291,7 @@
       <c r="BI551" s="26"/>
       <c r="BJ551" s="26"/>
       <c r="BK551" s="26"/>
+      <c r="BL551" s="26"/>
     </row>
     <row r="552">
       <c r="AL552" s="26"/>
@@ -30607,6 +31320,7 @@
       <c r="BI552" s="26"/>
       <c r="BJ552" s="26"/>
       <c r="BK552" s="26"/>
+      <c r="BL552" s="26"/>
     </row>
     <row r="553">
       <c r="AL553" s="26"/>
@@ -30635,6 +31349,7 @@
       <c r="BI553" s="26"/>
       <c r="BJ553" s="26"/>
       <c r="BK553" s="26"/>
+      <c r="BL553" s="26"/>
     </row>
     <row r="554">
       <c r="AL554" s="26"/>
@@ -30663,6 +31378,7 @@
       <c r="BI554" s="26"/>
       <c r="BJ554" s="26"/>
       <c r="BK554" s="26"/>
+      <c r="BL554" s="26"/>
     </row>
     <row r="555">
       <c r="AL555" s="26"/>
@@ -30691,6 +31407,7 @@
       <c r="BI555" s="26"/>
       <c r="BJ555" s="26"/>
       <c r="BK555" s="26"/>
+      <c r="BL555" s="26"/>
     </row>
     <row r="556">
       <c r="AL556" s="26"/>
@@ -30719,6 +31436,7 @@
       <c r="BI556" s="26"/>
       <c r="BJ556" s="26"/>
       <c r="BK556" s="26"/>
+      <c r="BL556" s="26"/>
     </row>
     <row r="557">
       <c r="AL557" s="26"/>
@@ -30747,6 +31465,7 @@
       <c r="BI557" s="26"/>
       <c r="BJ557" s="26"/>
       <c r="BK557" s="26"/>
+      <c r="BL557" s="26"/>
     </row>
     <row r="558">
       <c r="AL558" s="26"/>
@@ -30775,6 +31494,7 @@
       <c r="BI558" s="26"/>
       <c r="BJ558" s="26"/>
       <c r="BK558" s="26"/>
+      <c r="BL558" s="26"/>
     </row>
     <row r="559">
       <c r="AL559" s="26"/>
@@ -30803,6 +31523,7 @@
       <c r="BI559" s="26"/>
       <c r="BJ559" s="26"/>
       <c r="BK559" s="26"/>
+      <c r="BL559" s="26"/>
     </row>
     <row r="560">
       <c r="AL560" s="26"/>
@@ -30831,6 +31552,7 @@
       <c r="BI560" s="26"/>
       <c r="BJ560" s="26"/>
       <c r="BK560" s="26"/>
+      <c r="BL560" s="26"/>
     </row>
     <row r="561">
       <c r="AL561" s="26"/>
@@ -30859,6 +31581,7 @@
       <c r="BI561" s="26"/>
       <c r="BJ561" s="26"/>
       <c r="BK561" s="26"/>
+      <c r="BL561" s="26"/>
     </row>
     <row r="562">
       <c r="AL562" s="26"/>
@@ -30887,6 +31610,7 @@
       <c r="BI562" s="26"/>
       <c r="BJ562" s="26"/>
       <c r="BK562" s="26"/>
+      <c r="BL562" s="26"/>
     </row>
     <row r="563">
       <c r="AL563" s="26"/>
@@ -30915,6 +31639,7 @@
       <c r="BI563" s="26"/>
       <c r="BJ563" s="26"/>
       <c r="BK563" s="26"/>
+      <c r="BL563" s="26"/>
     </row>
     <row r="564">
       <c r="AL564" s="26"/>
@@ -30943,6 +31668,7 @@
       <c r="BI564" s="26"/>
       <c r="BJ564" s="26"/>
       <c r="BK564" s="26"/>
+      <c r="BL564" s="26"/>
     </row>
     <row r="565">
       <c r="AL565" s="26"/>
@@ -30971,6 +31697,7 @@
       <c r="BI565" s="26"/>
       <c r="BJ565" s="26"/>
       <c r="BK565" s="26"/>
+      <c r="BL565" s="26"/>
     </row>
     <row r="566">
       <c r="AL566" s="26"/>
@@ -30999,6 +31726,7 @@
       <c r="BI566" s="26"/>
       <c r="BJ566" s="26"/>
       <c r="BK566" s="26"/>
+      <c r="BL566" s="26"/>
     </row>
     <row r="567">
       <c r="AL567" s="26"/>
@@ -31027,6 +31755,7 @@
       <c r="BI567" s="26"/>
       <c r="BJ567" s="26"/>
       <c r="BK567" s="26"/>
+      <c r="BL567" s="26"/>
     </row>
     <row r="568">
       <c r="AL568" s="26"/>
@@ -31055,6 +31784,7 @@
       <c r="BI568" s="26"/>
       <c r="BJ568" s="26"/>
       <c r="BK568" s="26"/>
+      <c r="BL568" s="26"/>
     </row>
     <row r="569">
       <c r="AL569" s="26"/>
@@ -31083,6 +31813,7 @@
       <c r="BI569" s="26"/>
       <c r="BJ569" s="26"/>
       <c r="BK569" s="26"/>
+      <c r="BL569" s="26"/>
     </row>
     <row r="570">
       <c r="AL570" s="26"/>
@@ -31111,6 +31842,7 @@
       <c r="BI570" s="26"/>
       <c r="BJ570" s="26"/>
       <c r="BK570" s="26"/>
+      <c r="BL570" s="26"/>
     </row>
     <row r="571">
       <c r="AL571" s="26"/>
@@ -31139,6 +31871,7 @@
       <c r="BI571" s="26"/>
       <c r="BJ571" s="26"/>
       <c r="BK571" s="26"/>
+      <c r="BL571" s="26"/>
     </row>
     <row r="572">
       <c r="AL572" s="26"/>
@@ -31167,6 +31900,7 @@
       <c r="BI572" s="26"/>
       <c r="BJ572" s="26"/>
       <c r="BK572" s="26"/>
+      <c r="BL572" s="26"/>
     </row>
     <row r="573">
       <c r="AL573" s="26"/>
@@ -31195,6 +31929,7 @@
       <c r="BI573" s="26"/>
       <c r="BJ573" s="26"/>
       <c r="BK573" s="26"/>
+      <c r="BL573" s="26"/>
     </row>
     <row r="574">
       <c r="AL574" s="26"/>
@@ -31223,6 +31958,7 @@
       <c r="BI574" s="26"/>
       <c r="BJ574" s="26"/>
       <c r="BK574" s="26"/>
+      <c r="BL574" s="26"/>
     </row>
     <row r="575">
       <c r="AL575" s="26"/>
@@ -31251,6 +31987,7 @@
       <c r="BI575" s="26"/>
       <c r="BJ575" s="26"/>
       <c r="BK575" s="26"/>
+      <c r="BL575" s="26"/>
     </row>
     <row r="576">
       <c r="AL576" s="26"/>
@@ -31279,6 +32016,7 @@
       <c r="BI576" s="26"/>
       <c r="BJ576" s="26"/>
       <c r="BK576" s="26"/>
+      <c r="BL576" s="26"/>
     </row>
     <row r="577">
       <c r="AL577" s="26"/>
@@ -31307,6 +32045,7 @@
       <c r="BI577" s="26"/>
       <c r="BJ577" s="26"/>
       <c r="BK577" s="26"/>
+      <c r="BL577" s="26"/>
     </row>
     <row r="578">
       <c r="AL578" s="26"/>
@@ -31335,6 +32074,7 @@
       <c r="BI578" s="26"/>
       <c r="BJ578" s="26"/>
       <c r="BK578" s="26"/>
+      <c r="BL578" s="26"/>
     </row>
     <row r="579">
       <c r="AL579" s="26"/>
@@ -31363,6 +32103,7 @@
       <c r="BI579" s="26"/>
       <c r="BJ579" s="26"/>
       <c r="BK579" s="26"/>
+      <c r="BL579" s="26"/>
     </row>
     <row r="580">
       <c r="AL580" s="26"/>
@@ -31391,6 +32132,7 @@
       <c r="BI580" s="26"/>
       <c r="BJ580" s="26"/>
       <c r="BK580" s="26"/>
+      <c r="BL580" s="26"/>
     </row>
     <row r="581">
       <c r="AL581" s="26"/>
@@ -31419,6 +32161,7 @@
       <c r="BI581" s="26"/>
       <c r="BJ581" s="26"/>
       <c r="BK581" s="26"/>
+      <c r="BL581" s="26"/>
     </row>
     <row r="582">
       <c r="AL582" s="26"/>
@@ -31447,6 +32190,7 @@
       <c r="BI582" s="26"/>
       <c r="BJ582" s="26"/>
       <c r="BK582" s="26"/>
+      <c r="BL582" s="26"/>
     </row>
     <row r="583">
       <c r="AL583" s="26"/>
@@ -31475,6 +32219,7 @@
       <c r="BI583" s="26"/>
       <c r="BJ583" s="26"/>
       <c r="BK583" s="26"/>
+      <c r="BL583" s="26"/>
     </row>
     <row r="584">
       <c r="AL584" s="26"/>
@@ -31503,6 +32248,7 @@
       <c r="BI584" s="26"/>
       <c r="BJ584" s="26"/>
       <c r="BK584" s="26"/>
+      <c r="BL584" s="26"/>
     </row>
     <row r="585">
       <c r="AL585" s="26"/>
@@ -31531,6 +32277,7 @@
       <c r="BI585" s="26"/>
       <c r="BJ585" s="26"/>
       <c r="BK585" s="26"/>
+      <c r="BL585" s="26"/>
     </row>
     <row r="586">
       <c r="AL586" s="26"/>
@@ -31559,6 +32306,7 @@
       <c r="BI586" s="26"/>
       <c r="BJ586" s="26"/>
       <c r="BK586" s="26"/>
+      <c r="BL586" s="26"/>
     </row>
     <row r="587">
       <c r="AL587" s="26"/>
@@ -31587,6 +32335,7 @@
       <c r="BI587" s="26"/>
       <c r="BJ587" s="26"/>
       <c r="BK587" s="26"/>
+      <c r="BL587" s="26"/>
     </row>
     <row r="588">
       <c r="AL588" s="26"/>
@@ -31615,6 +32364,7 @@
       <c r="BI588" s="26"/>
       <c r="BJ588" s="26"/>
       <c r="BK588" s="26"/>
+      <c r="BL588" s="26"/>
     </row>
     <row r="589">
       <c r="AL589" s="26"/>
@@ -31643,6 +32393,7 @@
       <c r="BI589" s="26"/>
       <c r="BJ589" s="26"/>
       <c r="BK589" s="26"/>
+      <c r="BL589" s="26"/>
     </row>
     <row r="590">
       <c r="AL590" s="26"/>
@@ -31671,6 +32422,7 @@
       <c r="BI590" s="26"/>
       <c r="BJ590" s="26"/>
       <c r="BK590" s="26"/>
+      <c r="BL590" s="26"/>
     </row>
     <row r="591">
       <c r="AL591" s="26"/>
@@ -31699,6 +32451,7 @@
       <c r="BI591" s="26"/>
       <c r="BJ591" s="26"/>
       <c r="BK591" s="26"/>
+      <c r="BL591" s="26"/>
     </row>
     <row r="592">
       <c r="AL592" s="26"/>
@@ -31727,6 +32480,7 @@
       <c r="BI592" s="26"/>
       <c r="BJ592" s="26"/>
       <c r="BK592" s="26"/>
+      <c r="BL592" s="26"/>
     </row>
     <row r="593">
       <c r="AL593" s="26"/>
@@ -31755,6 +32509,7 @@
       <c r="BI593" s="26"/>
       <c r="BJ593" s="26"/>
       <c r="BK593" s="26"/>
+      <c r="BL593" s="26"/>
     </row>
     <row r="594">
       <c r="AL594" s="26"/>
@@ -31783,6 +32538,7 @@
       <c r="BI594" s="26"/>
       <c r="BJ594" s="26"/>
       <c r="BK594" s="26"/>
+      <c r="BL594" s="26"/>
     </row>
     <row r="595">
       <c r="AL595" s="26"/>
@@ -31811,6 +32567,7 @@
       <c r="BI595" s="26"/>
       <c r="BJ595" s="26"/>
       <c r="BK595" s="26"/>
+      <c r="BL595" s="26"/>
     </row>
     <row r="596">
       <c r="AL596" s="26"/>
@@ -31839,6 +32596,7 @@
       <c r="BI596" s="26"/>
       <c r="BJ596" s="26"/>
       <c r="BK596" s="26"/>
+      <c r="BL596" s="26"/>
     </row>
     <row r="597">
       <c r="AL597" s="26"/>
@@ -31867,6 +32625,7 @@
       <c r="BI597" s="26"/>
       <c r="BJ597" s="26"/>
       <c r="BK597" s="26"/>
+      <c r="BL597" s="26"/>
     </row>
     <row r="598">
       <c r="AL598" s="26"/>
@@ -31895,6 +32654,7 @@
       <c r="BI598" s="26"/>
       <c r="BJ598" s="26"/>
       <c r="BK598" s="26"/>
+      <c r="BL598" s="26"/>
     </row>
     <row r="599">
       <c r="AL599" s="26"/>
@@ -31923,6 +32683,7 @@
       <c r="BI599" s="26"/>
       <c r="BJ599" s="26"/>
       <c r="BK599" s="26"/>
+      <c r="BL599" s="26"/>
     </row>
     <row r="600">
       <c r="AL600" s="26"/>
@@ -31951,6 +32712,7 @@
       <c r="BI600" s="26"/>
       <c r="BJ600" s="26"/>
       <c r="BK600" s="26"/>
+      <c r="BL600" s="26"/>
     </row>
     <row r="601">
       <c r="AL601" s="26"/>
@@ -31979,6 +32741,7 @@
       <c r="BI601" s="26"/>
       <c r="BJ601" s="26"/>
       <c r="BK601" s="26"/>
+      <c r="BL601" s="26"/>
     </row>
     <row r="602">
       <c r="AL602" s="26"/>
@@ -32007,6 +32770,7 @@
       <c r="BI602" s="26"/>
       <c r="BJ602" s="26"/>
       <c r="BK602" s="26"/>
+      <c r="BL602" s="26"/>
     </row>
     <row r="603">
       <c r="AL603" s="26"/>
@@ -32035,6 +32799,7 @@
       <c r="BI603" s="26"/>
       <c r="BJ603" s="26"/>
       <c r="BK603" s="26"/>
+      <c r="BL603" s="26"/>
     </row>
     <row r="604">
       <c r="AL604" s="26"/>
@@ -32063,6 +32828,7 @@
       <c r="BI604" s="26"/>
       <c r="BJ604" s="26"/>
       <c r="BK604" s="26"/>
+      <c r="BL604" s="26"/>
     </row>
     <row r="605">
       <c r="AL605" s="26"/>
@@ -32091,6 +32857,7 @@
       <c r="BI605" s="26"/>
       <c r="BJ605" s="26"/>
       <c r="BK605" s="26"/>
+      <c r="BL605" s="26"/>
     </row>
     <row r="606">
       <c r="AL606" s="26"/>
@@ -32119,6 +32886,7 @@
       <c r="BI606" s="26"/>
       <c r="BJ606" s="26"/>
       <c r="BK606" s="26"/>
+      <c r="BL606" s="26"/>
     </row>
     <row r="607">
       <c r="AL607" s="26"/>
@@ -32147,6 +32915,7 @@
       <c r="BI607" s="26"/>
       <c r="BJ607" s="26"/>
       <c r="BK607" s="26"/>
+      <c r="BL607" s="26"/>
     </row>
     <row r="608">
       <c r="AL608" s="26"/>
@@ -32175,6 +32944,7 @@
       <c r="BI608" s="26"/>
       <c r="BJ608" s="26"/>
       <c r="BK608" s="26"/>
+      <c r="BL608" s="26"/>
     </row>
     <row r="609">
       <c r="AL609" s="26"/>
@@ -32203,6 +32973,7 @@
       <c r="BI609" s="26"/>
       <c r="BJ609" s="26"/>
       <c r="BK609" s="26"/>
+      <c r="BL609" s="26"/>
     </row>
     <row r="610">
       <c r="AL610" s="26"/>
@@ -32231,6 +33002,7 @@
       <c r="BI610" s="26"/>
       <c r="BJ610" s="26"/>
       <c r="BK610" s="26"/>
+      <c r="BL610" s="26"/>
     </row>
     <row r="611">
       <c r="AL611" s="26"/>
@@ -32259,6 +33031,7 @@
       <c r="BI611" s="26"/>
       <c r="BJ611" s="26"/>
       <c r="BK611" s="26"/>
+      <c r="BL611" s="26"/>
     </row>
     <row r="612">
       <c r="AL612" s="26"/>
@@ -32287,6 +33060,7 @@
       <c r="BI612" s="26"/>
       <c r="BJ612" s="26"/>
       <c r="BK612" s="26"/>
+      <c r="BL612" s="26"/>
     </row>
     <row r="613">
       <c r="AL613" s="26"/>
@@ -32315,6 +33089,7 @@
       <c r="BI613" s="26"/>
       <c r="BJ613" s="26"/>
       <c r="BK613" s="26"/>
+      <c r="BL613" s="26"/>
     </row>
     <row r="614">
       <c r="AL614" s="26"/>
@@ -32343,6 +33118,7 @@
       <c r="BI614" s="26"/>
       <c r="BJ614" s="26"/>
       <c r="BK614" s="26"/>
+      <c r="BL614" s="26"/>
     </row>
     <row r="615">
       <c r="AL615" s="26"/>
@@ -32371,6 +33147,7 @@
       <c r="BI615" s="26"/>
       <c r="BJ615" s="26"/>
       <c r="BK615" s="26"/>
+      <c r="BL615" s="26"/>
     </row>
     <row r="616">
       <c r="AL616" s="26"/>
@@ -32399,6 +33176,7 @@
       <c r="BI616" s="26"/>
       <c r="BJ616" s="26"/>
       <c r="BK616" s="26"/>
+      <c r="BL616" s="26"/>
     </row>
     <row r="617">
       <c r="AL617" s="26"/>
@@ -32427,6 +33205,7 @@
       <c r="BI617" s="26"/>
       <c r="BJ617" s="26"/>
       <c r="BK617" s="26"/>
+      <c r="BL617" s="26"/>
     </row>
     <row r="618">
       <c r="AL618" s="26"/>
@@ -32455,6 +33234,7 @@
       <c r="BI618" s="26"/>
       <c r="BJ618" s="26"/>
       <c r="BK618" s="26"/>
+      <c r="BL618" s="26"/>
     </row>
     <row r="619">
       <c r="AL619" s="26"/>
@@ -32483,6 +33263,7 @@
       <c r="BI619" s="26"/>
       <c r="BJ619" s="26"/>
       <c r="BK619" s="26"/>
+      <c r="BL619" s="26"/>
     </row>
     <row r="620">
       <c r="AL620" s="26"/>
@@ -32511,6 +33292,7 @@
       <c r="BI620" s="26"/>
       <c r="BJ620" s="26"/>
       <c r="BK620" s="26"/>
+      <c r="BL620" s="26"/>
     </row>
     <row r="621">
       <c r="AL621" s="26"/>
@@ -32539,6 +33321,7 @@
       <c r="BI621" s="26"/>
       <c r="BJ621" s="26"/>
       <c r="BK621" s="26"/>
+      <c r="BL621" s="26"/>
     </row>
     <row r="622">
       <c r="AL622" s="26"/>
@@ -32567,6 +33350,7 @@
       <c r="BI622" s="26"/>
       <c r="BJ622" s="26"/>
       <c r="BK622" s="26"/>
+      <c r="BL622" s="26"/>
     </row>
     <row r="623">
       <c r="AL623" s="26"/>
@@ -32595,6 +33379,7 @@
       <c r="BI623" s="26"/>
       <c r="BJ623" s="26"/>
       <c r="BK623" s="26"/>
+      <c r="BL623" s="26"/>
     </row>
     <row r="624">
       <c r="AL624" s="26"/>
@@ -32623,6 +33408,7 @@
       <c r="BI624" s="26"/>
       <c r="BJ624" s="26"/>
       <c r="BK624" s="26"/>
+      <c r="BL624" s="26"/>
     </row>
     <row r="625">
       <c r="AL625" s="26"/>
@@ -32651,6 +33437,7 @@
       <c r="BI625" s="26"/>
       <c r="BJ625" s="26"/>
       <c r="BK625" s="26"/>
+      <c r="BL625" s="26"/>
     </row>
     <row r="626">
       <c r="AL626" s="26"/>
@@ -32679,6 +33466,7 @@
       <c r="BI626" s="26"/>
       <c r="BJ626" s="26"/>
       <c r="BK626" s="26"/>
+      <c r="BL626" s="26"/>
     </row>
     <row r="627">
       <c r="AL627" s="26"/>
@@ -32707,6 +33495,7 @@
       <c r="BI627" s="26"/>
       <c r="BJ627" s="26"/>
       <c r="BK627" s="26"/>
+      <c r="BL627" s="26"/>
     </row>
     <row r="628">
       <c r="AL628" s="26"/>
@@ -32735,6 +33524,7 @@
       <c r="BI628" s="26"/>
       <c r="BJ628" s="26"/>
       <c r="BK628" s="26"/>
+      <c r="BL628" s="26"/>
     </row>
     <row r="629">
       <c r="AL629" s="26"/>
@@ -32763,6 +33553,7 @@
       <c r="BI629" s="26"/>
       <c r="BJ629" s="26"/>
       <c r="BK629" s="26"/>
+      <c r="BL629" s="26"/>
     </row>
     <row r="630">
       <c r="AL630" s="26"/>
@@ -32791,6 +33582,7 @@
       <c r="BI630" s="26"/>
       <c r="BJ630" s="26"/>
       <c r="BK630" s="26"/>
+      <c r="BL630" s="26"/>
     </row>
     <row r="631">
       <c r="AL631" s="26"/>
@@ -32819,6 +33611,7 @@
       <c r="BI631" s="26"/>
       <c r="BJ631" s="26"/>
       <c r="BK631" s="26"/>
+      <c r="BL631" s="26"/>
     </row>
     <row r="632">
       <c r="AL632" s="26"/>
@@ -32847,6 +33640,7 @@
       <c r="BI632" s="26"/>
       <c r="BJ632" s="26"/>
       <c r="BK632" s="26"/>
+      <c r="BL632" s="26"/>
     </row>
     <row r="633">
       <c r="AL633" s="26"/>
@@ -32875,6 +33669,7 @@
       <c r="BI633" s="26"/>
       <c r="BJ633" s="26"/>
       <c r="BK633" s="26"/>
+      <c r="BL633" s="26"/>
     </row>
     <row r="634">
       <c r="AL634" s="26"/>
@@ -32903,6 +33698,7 @@
       <c r="BI634" s="26"/>
       <c r="BJ634" s="26"/>
       <c r="BK634" s="26"/>
+      <c r="BL634" s="26"/>
     </row>
     <row r="635">
       <c r="AL635" s="26"/>
@@ -32931,6 +33727,7 @@
       <c r="BI635" s="26"/>
       <c r="BJ635" s="26"/>
       <c r="BK635" s="26"/>
+      <c r="BL635" s="26"/>
     </row>
     <row r="636">
       <c r="AL636" s="26"/>
@@ -32959,6 +33756,7 @@
       <c r="BI636" s="26"/>
       <c r="BJ636" s="26"/>
       <c r="BK636" s="26"/>
+      <c r="BL636" s="26"/>
     </row>
     <row r="637">
       <c r="AL637" s="26"/>
@@ -32987,6 +33785,7 @@
       <c r="BI637" s="26"/>
       <c r="BJ637" s="26"/>
       <c r="BK637" s="26"/>
+      <c r="BL637" s="26"/>
     </row>
     <row r="638">
       <c r="AL638" s="26"/>
@@ -33015,6 +33814,7 @@
       <c r="BI638" s="26"/>
       <c r="BJ638" s="26"/>
       <c r="BK638" s="26"/>
+      <c r="BL638" s="26"/>
     </row>
     <row r="639">
       <c r="AL639" s="26"/>
@@ -33043,6 +33843,7 @@
       <c r="BI639" s="26"/>
       <c r="BJ639" s="26"/>
       <c r="BK639" s="26"/>
+      <c r="BL639" s="26"/>
     </row>
     <row r="640">
       <c r="AL640" s="26"/>
@@ -33071,6 +33872,7 @@
       <c r="BI640" s="26"/>
       <c r="BJ640" s="26"/>
       <c r="BK640" s="26"/>
+      <c r="BL640" s="26"/>
     </row>
     <row r="641">
       <c r="AL641" s="26"/>
@@ -33099,6 +33901,7 @@
       <c r="BI641" s="26"/>
       <c r="BJ641" s="26"/>
       <c r="BK641" s="26"/>
+      <c r="BL641" s="26"/>
     </row>
     <row r="642">
       <c r="AL642" s="26"/>
@@ -33127,6 +33930,7 @@
       <c r="BI642" s="26"/>
       <c r="BJ642" s="26"/>
       <c r="BK642" s="26"/>
+      <c r="BL642" s="26"/>
     </row>
     <row r="643">
       <c r="AL643" s="26"/>
@@ -33155,6 +33959,7 @@
       <c r="BI643" s="26"/>
       <c r="BJ643" s="26"/>
       <c r="BK643" s="26"/>
+      <c r="BL643" s="26"/>
     </row>
     <row r="644">
       <c r="AL644" s="26"/>
@@ -33183,6 +33988,7 @@
       <c r="BI644" s="26"/>
       <c r="BJ644" s="26"/>
       <c r="BK644" s="26"/>
+      <c r="BL644" s="26"/>
     </row>
     <row r="645">
       <c r="AL645" s="26"/>
@@ -33211,6 +34017,7 @@
       <c r="BI645" s="26"/>
       <c r="BJ645" s="26"/>
       <c r="BK645" s="26"/>
+      <c r="BL645" s="26"/>
     </row>
     <row r="646">
       <c r="AL646" s="26"/>
@@ -33239,6 +34046,7 @@
       <c r="BI646" s="26"/>
       <c r="BJ646" s="26"/>
       <c r="BK646" s="26"/>
+      <c r="BL646" s="26"/>
     </row>
     <row r="647">
       <c r="AL647" s="26"/>
@@ -33267,6 +34075,7 @@
       <c r="BI647" s="26"/>
       <c r="BJ647" s="26"/>
       <c r="BK647" s="26"/>
+      <c r="BL647" s="26"/>
     </row>
     <row r="648">
       <c r="AL648" s="26"/>
@@ -33295,6 +34104,7 @@
       <c r="BI648" s="26"/>
       <c r="BJ648" s="26"/>
       <c r="BK648" s="26"/>
+      <c r="BL648" s="26"/>
     </row>
     <row r="649">
       <c r="AL649" s="26"/>
@@ -33323,6 +34133,7 @@
       <c r="BI649" s="26"/>
       <c r="BJ649" s="26"/>
       <c r="BK649" s="26"/>
+      <c r="BL649" s="26"/>
     </row>
     <row r="650">
       <c r="AL650" s="26"/>
@@ -33351,6 +34162,7 @@
       <c r="BI650" s="26"/>
       <c r="BJ650" s="26"/>
       <c r="BK650" s="26"/>
+      <c r="BL650" s="26"/>
     </row>
     <row r="651">
       <c r="AL651" s="26"/>
@@ -33379,6 +34191,7 @@
       <c r="BI651" s="26"/>
       <c r="BJ651" s="26"/>
       <c r="BK651" s="26"/>
+      <c r="BL651" s="26"/>
     </row>
     <row r="652">
       <c r="AL652" s="26"/>
@@ -33407,6 +34220,7 @@
       <c r="BI652" s="26"/>
       <c r="BJ652" s="26"/>
       <c r="BK652" s="26"/>
+      <c r="BL652" s="26"/>
     </row>
     <row r="653">
       <c r="AL653" s="26"/>
@@ -33435,6 +34249,7 @@
       <c r="BI653" s="26"/>
       <c r="BJ653" s="26"/>
       <c r="BK653" s="26"/>
+      <c r="BL653" s="26"/>
     </row>
     <row r="654">
       <c r="AL654" s="26"/>
@@ -33463,6 +34278,7 @@
       <c r="BI654" s="26"/>
       <c r="BJ654" s="26"/>
       <c r="BK654" s="26"/>
+      <c r="BL654" s="26"/>
     </row>
     <row r="655">
       <c r="AL655" s="26"/>
@@ -33491,6 +34307,7 @@
       <c r="BI655" s="26"/>
       <c r="BJ655" s="26"/>
       <c r="BK655" s="26"/>
+      <c r="BL655" s="26"/>
     </row>
     <row r="656">
       <c r="AL656" s="26"/>
@@ -33519,6 +34336,7 @@
       <c r="BI656" s="26"/>
       <c r="BJ656" s="26"/>
       <c r="BK656" s="26"/>
+      <c r="BL656" s="26"/>
     </row>
     <row r="657">
       <c r="AL657" s="26"/>
@@ -33547,6 +34365,7 @@
       <c r="BI657" s="26"/>
       <c r="BJ657" s="26"/>
       <c r="BK657" s="26"/>
+      <c r="BL657" s="26"/>
     </row>
     <row r="658">
       <c r="AL658" s="26"/>
@@ -33575,6 +34394,7 @@
       <c r="BI658" s="26"/>
       <c r="BJ658" s="26"/>
       <c r="BK658" s="26"/>
+      <c r="BL658" s="26"/>
     </row>
     <row r="659">
       <c r="AL659" s="26"/>
@@ -33603,6 +34423,7 @@
       <c r="BI659" s="26"/>
       <c r="BJ659" s="26"/>
       <c r="BK659" s="26"/>
+      <c r="BL659" s="26"/>
     </row>
     <row r="660">
       <c r="AL660" s="26"/>
@@ -33631,6 +34452,7 @@
       <c r="BI660" s="26"/>
       <c r="BJ660" s="26"/>
       <c r="BK660" s="26"/>
+      <c r="BL660" s="26"/>
     </row>
     <row r="661">
       <c r="AL661" s="26"/>
@@ -33659,6 +34481,7 @@
       <c r="BI661" s="26"/>
       <c r="BJ661" s="26"/>
       <c r="BK661" s="26"/>
+      <c r="BL661" s="26"/>
     </row>
     <row r="662">
       <c r="AL662" s="26"/>
@@ -33687,6 +34510,7 @@
       <c r="BI662" s="26"/>
       <c r="BJ662" s="26"/>
       <c r="BK662" s="26"/>
+      <c r="BL662" s="26"/>
     </row>
     <row r="663">
       <c r="AL663" s="26"/>
@@ -33715,6 +34539,7 @@
       <c r="BI663" s="26"/>
       <c r="BJ663" s="26"/>
       <c r="BK663" s="26"/>
+      <c r="BL663" s="26"/>
     </row>
     <row r="664">
       <c r="AL664" s="26"/>
@@ -33743,6 +34568,7 @@
       <c r="BI664" s="26"/>
       <c r="BJ664" s="26"/>
       <c r="BK664" s="26"/>
+      <c r="BL664" s="26"/>
     </row>
     <row r="665">
       <c r="AL665" s="26"/>
@@ -33771,6 +34597,7 @@
       <c r="BI665" s="26"/>
       <c r="BJ665" s="26"/>
       <c r="BK665" s="26"/>
+      <c r="BL665" s="26"/>
     </row>
     <row r="666">
       <c r="AL666" s="26"/>
@@ -33799,6 +34626,7 @@
       <c r="BI666" s="26"/>
       <c r="BJ666" s="26"/>
       <c r="BK666" s="26"/>
+      <c r="BL666" s="26"/>
     </row>
     <row r="667">
       <c r="AL667" s="26"/>
@@ -33827,6 +34655,7 @@
       <c r="BI667" s="26"/>
       <c r="BJ667" s="26"/>
       <c r="BK667" s="26"/>
+      <c r="BL667" s="26"/>
     </row>
     <row r="668">
       <c r="AL668" s="26"/>
@@ -33855,6 +34684,7 @@
       <c r="BI668" s="26"/>
       <c r="BJ668" s="26"/>
       <c r="BK668" s="26"/>
+      <c r="BL668" s="26"/>
     </row>
     <row r="669">
       <c r="AL669" s="26"/>
@@ -33883,6 +34713,7 @@
       <c r="BI669" s="26"/>
       <c r="BJ669" s="26"/>
       <c r="BK669" s="26"/>
+      <c r="BL669" s="26"/>
     </row>
     <row r="670">
       <c r="AL670" s="26"/>
@@ -33911,6 +34742,7 @@
       <c r="BI670" s="26"/>
       <c r="BJ670" s="26"/>
       <c r="BK670" s="26"/>
+      <c r="BL670" s="26"/>
     </row>
     <row r="671">
       <c r="AL671" s="26"/>
@@ -33939,6 +34771,7 @@
       <c r="BI671" s="26"/>
       <c r="BJ671" s="26"/>
       <c r="BK671" s="26"/>
+      <c r="BL671" s="26"/>
     </row>
     <row r="672">
       <c r="AL672" s="26"/>
@@ -33967,6 +34800,7 @@
       <c r="BI672" s="26"/>
       <c r="BJ672" s="26"/>
       <c r="BK672" s="26"/>
+      <c r="BL672" s="26"/>
     </row>
     <row r="673">
       <c r="AL673" s="26"/>
@@ -33995,6 +34829,7 @@
       <c r="BI673" s="26"/>
       <c r="BJ673" s="26"/>
       <c r="BK673" s="26"/>
+      <c r="BL673" s="26"/>
     </row>
     <row r="674">
       <c r="AL674" s="26"/>
@@ -34023,6 +34858,7 @@
       <c r="BI674" s="26"/>
       <c r="BJ674" s="26"/>
       <c r="BK674" s="26"/>
+      <c r="BL674" s="26"/>
     </row>
     <row r="675">
       <c r="AL675" s="26"/>
@@ -34051,6 +34887,7 @@
       <c r="BI675" s="26"/>
       <c r="BJ675" s="26"/>
       <c r="BK675" s="26"/>
+      <c r="BL675" s="26"/>
     </row>
     <row r="676">
       <c r="AL676" s="26"/>
@@ -34079,6 +34916,7 @@
       <c r="BI676" s="26"/>
       <c r="BJ676" s="26"/>
       <c r="BK676" s="26"/>
+      <c r="BL676" s="26"/>
     </row>
     <row r="677">
       <c r="AL677" s="26"/>
@@ -34107,6 +34945,7 @@
       <c r="BI677" s="26"/>
       <c r="BJ677" s="26"/>
       <c r="BK677" s="26"/>
+      <c r="BL677" s="26"/>
     </row>
     <row r="678">
       <c r="AL678" s="26"/>
@@ -34135,6 +34974,7 @@
       <c r="BI678" s="26"/>
       <c r="BJ678" s="26"/>
       <c r="BK678" s="26"/>
+      <c r="BL678" s="26"/>
     </row>
     <row r="679">
       <c r="AL679" s="26"/>
@@ -34163,6 +35003,7 @@
       <c r="BI679" s="26"/>
       <c r="BJ679" s="26"/>
       <c r="BK679" s="26"/>
+      <c r="BL679" s="26"/>
     </row>
     <row r="680">
       <c r="AL680" s="26"/>
@@ -34191,6 +35032,7 @@
       <c r="BI680" s="26"/>
       <c r="BJ680" s="26"/>
       <c r="BK680" s="26"/>
+      <c r="BL680" s="26"/>
     </row>
     <row r="681">
       <c r="AL681" s="26"/>
@@ -34219,6 +35061,7 @@
       <c r="BI681" s="26"/>
       <c r="BJ681" s="26"/>
       <c r="BK681" s="26"/>
+      <c r="BL681" s="26"/>
     </row>
     <row r="682">
       <c r="AL682" s="26"/>
@@ -34247,6 +35090,7 @@
       <c r="BI682" s="26"/>
       <c r="BJ682" s="26"/>
       <c r="BK682" s="26"/>
+      <c r="BL682" s="26"/>
     </row>
     <row r="683">
       <c r="AL683" s="26"/>
@@ -34275,6 +35119,7 @@
       <c r="BI683" s="26"/>
       <c r="BJ683" s="26"/>
       <c r="BK683" s="26"/>
+      <c r="BL683" s="26"/>
     </row>
     <row r="684">
       <c r="AL684" s="26"/>
@@ -34303,6 +35148,7 @@
       <c r="BI684" s="26"/>
       <c r="BJ684" s="26"/>
       <c r="BK684" s="26"/>
+      <c r="BL684" s="26"/>
     </row>
     <row r="685">
       <c r="AL685" s="26"/>
@@ -34331,6 +35177,7 @@
       <c r="BI685" s="26"/>
       <c r="BJ685" s="26"/>
       <c r="BK685" s="26"/>
+      <c r="BL685" s="26"/>
     </row>
     <row r="686">
       <c r="AL686" s="26"/>
@@ -34359,6 +35206,7 @@
       <c r="BI686" s="26"/>
       <c r="BJ686" s="26"/>
       <c r="BK686" s="26"/>
+      <c r="BL686" s="26"/>
     </row>
     <row r="687">
       <c r="AL687" s="26"/>
@@ -34387,6 +35235,7 @@
       <c r="BI687" s="26"/>
       <c r="BJ687" s="26"/>
       <c r="BK687" s="26"/>
+      <c r="BL687" s="26"/>
     </row>
     <row r="688">
       <c r="AL688" s="26"/>
@@ -34415,6 +35264,7 @@
       <c r="BI688" s="26"/>
       <c r="BJ688" s="26"/>
       <c r="BK688" s="26"/>
+      <c r="BL688" s="26"/>
     </row>
     <row r="689">
       <c r="AL689" s="26"/>
@@ -34443,6 +35293,7 @@
       <c r="BI689" s="26"/>
       <c r="BJ689" s="26"/>
       <c r="BK689" s="26"/>
+      <c r="BL689" s="26"/>
     </row>
     <row r="690">
       <c r="AL690" s="26"/>
@@ -34471,6 +35322,7 @@
       <c r="BI690" s="26"/>
       <c r="BJ690" s="26"/>
       <c r="BK690" s="26"/>
+      <c r="BL690" s="26"/>
     </row>
     <row r="691">
       <c r="AL691" s="26"/>
@@ -34499,6 +35351,7 @@
       <c r="BI691" s="26"/>
       <c r="BJ691" s="26"/>
       <c r="BK691" s="26"/>
+      <c r="BL691" s="26"/>
     </row>
     <row r="692">
       <c r="AL692" s="26"/>
@@ -34527,6 +35380,7 @@
       <c r="BI692" s="26"/>
       <c r="BJ692" s="26"/>
       <c r="BK692" s="26"/>
+      <c r="BL692" s="26"/>
     </row>
     <row r="693">
       <c r="AL693" s="26"/>
@@ -34555,6 +35409,7 @@
       <c r="BI693" s="26"/>
       <c r="BJ693" s="26"/>
       <c r="BK693" s="26"/>
+      <c r="BL693" s="26"/>
     </row>
     <row r="694">
       <c r="AL694" s="26"/>
@@ -34583,6 +35438,7 @@
       <c r="BI694" s="26"/>
       <c r="BJ694" s="26"/>
       <c r="BK694" s="26"/>
+      <c r="BL694" s="26"/>
     </row>
     <row r="695">
       <c r="AL695" s="26"/>
@@ -34611,6 +35467,7 @@
       <c r="BI695" s="26"/>
       <c r="BJ695" s="26"/>
       <c r="BK695" s="26"/>
+      <c r="BL695" s="26"/>
     </row>
     <row r="696">
       <c r="AL696" s="26"/>
@@ -34639,6 +35496,7 @@
       <c r="BI696" s="26"/>
       <c r="BJ696" s="26"/>
       <c r="BK696" s="26"/>
+      <c r="BL696" s="26"/>
     </row>
     <row r="697">
       <c r="AL697" s="26"/>
@@ -34667,6 +35525,7 @@
       <c r="BI697" s="26"/>
       <c r="BJ697" s="26"/>
       <c r="BK697" s="26"/>
+      <c r="BL697" s="26"/>
     </row>
     <row r="698">
       <c r="AL698" s="26"/>
@@ -34695,6 +35554,7 @@
       <c r="BI698" s="26"/>
       <c r="BJ698" s="26"/>
       <c r="BK698" s="26"/>
+      <c r="BL698" s="26"/>
     </row>
     <row r="699">
       <c r="AL699" s="26"/>
@@ -34723,6 +35583,7 @@
       <c r="BI699" s="26"/>
       <c r="BJ699" s="26"/>
       <c r="BK699" s="26"/>
+      <c r="BL699" s="26"/>
     </row>
     <row r="700">
       <c r="AL700" s="26"/>
@@ -34751,6 +35612,7 @@
       <c r="BI700" s="26"/>
       <c r="BJ700" s="26"/>
       <c r="BK700" s="26"/>
+      <c r="BL700" s="26"/>
     </row>
     <row r="701">
       <c r="AL701" s="26"/>
@@ -34779,6 +35641,7 @@
       <c r="BI701" s="26"/>
       <c r="BJ701" s="26"/>
       <c r="BK701" s="26"/>
+      <c r="BL701" s="26"/>
     </row>
     <row r="702">
       <c r="AL702" s="26"/>
@@ -34807,6 +35670,7 @@
       <c r="BI702" s="26"/>
       <c r="BJ702" s="26"/>
       <c r="BK702" s="26"/>
+      <c r="BL702" s="26"/>
     </row>
     <row r="703">
       <c r="AL703" s="26"/>
@@ -34835,6 +35699,7 @@
       <c r="BI703" s="26"/>
       <c r="BJ703" s="26"/>
       <c r="BK703" s="26"/>
+      <c r="BL703" s="26"/>
     </row>
     <row r="704">
       <c r="AL704" s="26"/>
@@ -34863,6 +35728,7 @@
       <c r="BI704" s="26"/>
       <c r="BJ704" s="26"/>
       <c r="BK704" s="26"/>
+      <c r="BL704" s="26"/>
     </row>
     <row r="705">
       <c r="AL705" s="26"/>
@@ -34891,6 +35757,7 @@
       <c r="BI705" s="26"/>
       <c r="BJ705" s="26"/>
       <c r="BK705" s="26"/>
+      <c r="BL705" s="26"/>
     </row>
     <row r="706">
       <c r="AL706" s="26"/>
@@ -34919,6 +35786,7 @@
       <c r="BI706" s="26"/>
       <c r="BJ706" s="26"/>
       <c r="BK706" s="26"/>
+      <c r="BL706" s="26"/>
     </row>
     <row r="707">
       <c r="AL707" s="26"/>
@@ -34947,6 +35815,7 @@
       <c r="BI707" s="26"/>
       <c r="BJ707" s="26"/>
       <c r="BK707" s="26"/>
+      <c r="BL707" s="26"/>
     </row>
     <row r="708">
       <c r="AL708" s="26"/>
@@ -34975,6 +35844,7 @@
       <c r="BI708" s="26"/>
       <c r="BJ708" s="26"/>
       <c r="BK708" s="26"/>
+      <c r="BL708" s="26"/>
     </row>
     <row r="709">
       <c r="AL709" s="26"/>
@@ -35003,6 +35873,7 @@
       <c r="BI709" s="26"/>
       <c r="BJ709" s="26"/>
       <c r="BK709" s="26"/>
+      <c r="BL709" s="26"/>
     </row>
     <row r="710">
       <c r="AL710" s="26"/>
@@ -35031,6 +35902,7 @@
       <c r="BI710" s="26"/>
       <c r="BJ710" s="26"/>
       <c r="BK710" s="26"/>
+      <c r="BL710" s="26"/>
     </row>
     <row r="711">
       <c r="AL711" s="26"/>
@@ -35059,6 +35931,7 @@
       <c r="BI711" s="26"/>
       <c r="BJ711" s="26"/>
       <c r="BK711" s="26"/>
+      <c r="BL711" s="26"/>
     </row>
     <row r="712">
       <c r="AL712" s="26"/>
@@ -35087,6 +35960,7 @@
       <c r="BI712" s="26"/>
       <c r="BJ712" s="26"/>
       <c r="BK712" s="26"/>
+      <c r="BL712" s="26"/>
     </row>
     <row r="713">
       <c r="AL713" s="26"/>
@@ -35115,6 +35989,7 @@
       <c r="BI713" s="26"/>
       <c r="BJ713" s="26"/>
       <c r="BK713" s="26"/>
+      <c r="BL713" s="26"/>
     </row>
     <row r="714">
       <c r="AL714" s="26"/>
@@ -35143,6 +36018,7 @@
       <c r="BI714" s="26"/>
       <c r="BJ714" s="26"/>
       <c r="BK714" s="26"/>
+      <c r="BL714" s="26"/>
     </row>
     <row r="715">
       <c r="AL715" s="26"/>
@@ -35171,6 +36047,7 @@
       <c r="BI715" s="26"/>
       <c r="BJ715" s="26"/>
       <c r="BK715" s="26"/>
+      <c r="BL715" s="26"/>
     </row>
     <row r="716">
       <c r="AL716" s="26"/>
@@ -35199,6 +36076,7 @@
       <c r="BI716" s="26"/>
       <c r="BJ716" s="26"/>
       <c r="BK716" s="26"/>
+      <c r="BL716" s="26"/>
     </row>
     <row r="717">
       <c r="AL717" s="26"/>
@@ -35227,6 +36105,7 @@
       <c r="BI717" s="26"/>
       <c r="BJ717" s="26"/>
       <c r="BK717" s="26"/>
+      <c r="BL717" s="26"/>
     </row>
     <row r="718">
       <c r="AL718" s="26"/>
@@ -35255,6 +36134,7 @@
       <c r="BI718" s="26"/>
       <c r="BJ718" s="26"/>
       <c r="BK718" s="26"/>
+      <c r="BL718" s="26"/>
     </row>
     <row r="719">
       <c r="AL719" s="26"/>
@@ -35283,6 +36163,7 @@
       <c r="BI719" s="26"/>
       <c r="BJ719" s="26"/>
       <c r="BK719" s="26"/>
+      <c r="BL719" s="26"/>
     </row>
     <row r="720">
       <c r="AL720" s="26"/>
@@ -35311,6 +36192,7 @@
       <c r="BI720" s="26"/>
       <c r="BJ720" s="26"/>
       <c r="BK720" s="26"/>
+      <c r="BL720" s="26"/>
     </row>
     <row r="721">
       <c r="AL721" s="26"/>
@@ -35339,6 +36221,7 @@
       <c r="BI721" s="26"/>
       <c r="BJ721" s="26"/>
       <c r="BK721" s="26"/>
+      <c r="BL721" s="26"/>
     </row>
     <row r="722">
       <c r="AL722" s="26"/>
@@ -35367,6 +36250,7 @@
       <c r="BI722" s="26"/>
       <c r="BJ722" s="26"/>
       <c r="BK722" s="26"/>
+      <c r="BL722" s="26"/>
     </row>
     <row r="723">
       <c r="AL723" s="26"/>
@@ -35395,6 +36279,7 @@
       <c r="BI723" s="26"/>
       <c r="BJ723" s="26"/>
       <c r="BK723" s="26"/>
+      <c r="BL723" s="26"/>
     </row>
     <row r="724">
       <c r="AL724" s="26"/>
@@ -35423,6 +36308,7 @@
       <c r="BI724" s="26"/>
       <c r="BJ724" s="26"/>
       <c r="BK724" s="26"/>
+      <c r="BL724" s="26"/>
     </row>
     <row r="725">
       <c r="AL725" s="26"/>
@@ -35451,6 +36337,7 @@
       <c r="BI725" s="26"/>
       <c r="BJ725" s="26"/>
       <c r="BK725" s="26"/>
+      <c r="BL725" s="26"/>
     </row>
     <row r="726">
       <c r="AL726" s="26"/>
@@ -35479,6 +36366,7 @@
       <c r="BI726" s="26"/>
       <c r="BJ726" s="26"/>
       <c r="BK726" s="26"/>
+      <c r="BL726" s="26"/>
     </row>
     <row r="727">
       <c r="AL727" s="26"/>
@@ -35507,6 +36395,7 @@
       <c r="BI727" s="26"/>
       <c r="BJ727" s="26"/>
       <c r="BK727" s="26"/>
+      <c r="BL727" s="26"/>
     </row>
     <row r="728">
       <c r="AL728" s="26"/>
@@ -35535,6 +36424,7 @@
       <c r="BI728" s="26"/>
       <c r="BJ728" s="26"/>
       <c r="BK728" s="26"/>
+      <c r="BL728" s="26"/>
     </row>
     <row r="729">
       <c r="AL729" s="26"/>
@@ -35563,6 +36453,7 @@
       <c r="BI729" s="26"/>
       <c r="BJ729" s="26"/>
       <c r="BK729" s="26"/>
+      <c r="BL729" s="26"/>
     </row>
     <row r="730">
       <c r="AL730" s="26"/>
@@ -35591,6 +36482,7 @@
       <c r="BI730" s="26"/>
       <c r="BJ730" s="26"/>
       <c r="BK730" s="26"/>
+      <c r="BL730" s="26"/>
     </row>
     <row r="731">
       <c r="AL731" s="26"/>
@@ -35619,6 +36511,7 @@
       <c r="BI731" s="26"/>
       <c r="BJ731" s="26"/>
       <c r="BK731" s="26"/>
+      <c r="BL731" s="26"/>
     </row>
     <row r="732">
       <c r="AL732" s="26"/>
@@ -35647,6 +36540,7 @@
       <c r="BI732" s="26"/>
       <c r="BJ732" s="26"/>
       <c r="BK732" s="26"/>
+      <c r="BL732" s="26"/>
     </row>
     <row r="733">
       <c r="AL733" s="26"/>
@@ -35675,6 +36569,7 @@
       <c r="BI733" s="26"/>
       <c r="BJ733" s="26"/>
       <c r="BK733" s="26"/>
+      <c r="BL733" s="26"/>
     </row>
     <row r="734">
       <c r="AL734" s="26"/>
@@ -35703,6 +36598,7 @@
       <c r="BI734" s="26"/>
       <c r="BJ734" s="26"/>
       <c r="BK734" s="26"/>
+      <c r="BL734" s="26"/>
     </row>
     <row r="735">
       <c r="AL735" s="26"/>
@@ -35731,6 +36627,7 @@
       <c r="BI735" s="26"/>
       <c r="BJ735" s="26"/>
       <c r="BK735" s="26"/>
+      <c r="BL735" s="26"/>
     </row>
     <row r="736">
       <c r="AL736" s="26"/>
@@ -35759,6 +36656,7 @@
       <c r="BI736" s="26"/>
       <c r="BJ736" s="26"/>
       <c r="BK736" s="26"/>
+      <c r="BL736" s="26"/>
     </row>
     <row r="737">
       <c r="AL737" s="26"/>
@@ -35787,6 +36685,7 @@
       <c r="BI737" s="26"/>
       <c r="BJ737" s="26"/>
       <c r="BK737" s="26"/>
+      <c r="BL737" s="26"/>
     </row>
     <row r="738">
       <c r="AL738" s="26"/>
@@ -35815,6 +36714,7 @@
       <c r="BI738" s="26"/>
       <c r="BJ738" s="26"/>
       <c r="BK738" s="26"/>
+      <c r="BL738" s="26"/>
     </row>
     <row r="739">
       <c r="AL739" s="26"/>
@@ -35843,6 +36743,7 @@
       <c r="BI739" s="26"/>
       <c r="BJ739" s="26"/>
       <c r="BK739" s="26"/>
+      <c r="BL739" s="26"/>
     </row>
     <row r="740">
       <c r="AL740" s="26"/>
@@ -35871,6 +36772,7 @@
       <c r="BI740" s="26"/>
       <c r="BJ740" s="26"/>
       <c r="BK740" s="26"/>
+      <c r="BL740" s="26"/>
     </row>
     <row r="741">
       <c r="AL741" s="26"/>
@@ -35899,6 +36801,7 @@
       <c r="BI741" s="26"/>
       <c r="BJ741" s="26"/>
       <c r="BK741" s="26"/>
+      <c r="BL741" s="26"/>
     </row>
     <row r="742">
       <c r="AL742" s="26"/>
@@ -35927,6 +36830,7 @@
       <c r="BI742" s="26"/>
       <c r="BJ742" s="26"/>
       <c r="BK742" s="26"/>
+      <c r="BL742" s="26"/>
     </row>
     <row r="743">
       <c r="AL743" s="26"/>
@@ -35955,6 +36859,7 @@
       <c r="BI743" s="26"/>
       <c r="BJ743" s="26"/>
       <c r="BK743" s="26"/>
+      <c r="BL743" s="26"/>
     </row>
     <row r="744">
       <c r="AL744" s="26"/>
@@ -35983,6 +36888,7 @@
       <c r="BI744" s="26"/>
       <c r="BJ744" s="26"/>
       <c r="BK744" s="26"/>
+      <c r="BL744" s="26"/>
     </row>
     <row r="745">
       <c r="AL745" s="26"/>
@@ -36011,6 +36917,7 @@
       <c r="BI745" s="26"/>
       <c r="BJ745" s="26"/>
       <c r="BK745" s="26"/>
+      <c r="BL745" s="26"/>
     </row>
     <row r="746">
       <c r="AL746" s="26"/>
@@ -36039,6 +36946,7 @@
       <c r="BI746" s="26"/>
       <c r="BJ746" s="26"/>
       <c r="BK746" s="26"/>
+      <c r="BL746" s="26"/>
     </row>
     <row r="747">
       <c r="AL747" s="26"/>
@@ -36067,6 +36975,7 @@
       <c r="BI747" s="26"/>
       <c r="BJ747" s="26"/>
       <c r="BK747" s="26"/>
+      <c r="BL747" s="26"/>
     </row>
     <row r="748">
       <c r="AL748" s="26"/>
@@ -36095,6 +37004,7 @@
       <c r="BI748" s="26"/>
       <c r="BJ748" s="26"/>
       <c r="BK748" s="26"/>
+      <c r="BL748" s="26"/>
     </row>
     <row r="749">
       <c r="AL749" s="26"/>
@@ -36123,6 +37033,7 @@
       <c r="BI749" s="26"/>
       <c r="BJ749" s="26"/>
       <c r="BK749" s="26"/>
+      <c r="BL749" s="26"/>
     </row>
     <row r="750">
       <c r="AL750" s="26"/>
@@ -36151,6 +37062,7 @@
       <c r="BI750" s="26"/>
       <c r="BJ750" s="26"/>
       <c r="BK750" s="26"/>
+      <c r="BL750" s="26"/>
     </row>
     <row r="751">
       <c r="AL751" s="26"/>
@@ -36179,6 +37091,7 @@
       <c r="BI751" s="26"/>
       <c r="BJ751" s="26"/>
       <c r="BK751" s="26"/>
+      <c r="BL751" s="26"/>
     </row>
     <row r="752">
       <c r="AL752" s="26"/>
@@ -36207,6 +37120,7 @@
       <c r="BI752" s="26"/>
       <c r="BJ752" s="26"/>
       <c r="BK752" s="26"/>
+      <c r="BL752" s="26"/>
     </row>
     <row r="753">
       <c r="AL753" s="26"/>
@@ -36235,6 +37149,7 @@
       <c r="BI753" s="26"/>
       <c r="BJ753" s="26"/>
       <c r="BK753" s="26"/>
+      <c r="BL753" s="26"/>
     </row>
     <row r="754">
       <c r="AL754" s="26"/>
@@ -36263,6 +37178,7 @@
       <c r="BI754" s="26"/>
       <c r="BJ754" s="26"/>
       <c r="BK754" s="26"/>
+      <c r="BL754" s="26"/>
     </row>
     <row r="755">
       <c r="AL755" s="26"/>
@@ -36291,6 +37207,7 @@
       <c r="BI755" s="26"/>
       <c r="BJ755" s="26"/>
       <c r="BK755" s="26"/>
+      <c r="BL755" s="26"/>
     </row>
     <row r="756">
       <c r="AL756" s="26"/>
@@ -36319,6 +37236,7 @@
       <c r="BI756" s="26"/>
       <c r="BJ756" s="26"/>
       <c r="BK756" s="26"/>
+      <c r="BL756" s="26"/>
     </row>
     <row r="757">
       <c r="AL757" s="26"/>
@@ -36347,6 +37265,7 @@
       <c r="BI757" s="26"/>
       <c r="BJ757" s="26"/>
       <c r="BK757" s="26"/>
+      <c r="BL757" s="26"/>
     </row>
     <row r="758">
       <c r="AL758" s="26"/>
@@ -36375,6 +37294,7 @@
       <c r="BI758" s="26"/>
       <c r="BJ758" s="26"/>
       <c r="BK758" s="26"/>
+      <c r="BL758" s="26"/>
     </row>
     <row r="759">
       <c r="AL759" s="26"/>
@@ -36403,6 +37323,7 @@
       <c r="BI759" s="26"/>
       <c r="BJ759" s="26"/>
       <c r="BK759" s="26"/>
+      <c r="BL759" s="26"/>
     </row>
     <row r="760">
       <c r="AL760" s="26"/>
@@ -36431,6 +37352,7 @@
       <c r="BI760" s="26"/>
       <c r="BJ760" s="26"/>
       <c r="BK760" s="26"/>
+      <c r="BL760" s="26"/>
     </row>
     <row r="761">
       <c r="AL761" s="26"/>
@@ -36459,6 +37381,7 @@
       <c r="BI761" s="26"/>
       <c r="BJ761" s="26"/>
       <c r="BK761" s="26"/>
+      <c r="BL761" s="26"/>
     </row>
     <row r="762">
       <c r="AL762" s="26"/>
@@ -36487,6 +37410,7 @@
       <c r="BI762" s="26"/>
       <c r="BJ762" s="26"/>
       <c r="BK762" s="26"/>
+      <c r="BL762" s="26"/>
     </row>
     <row r="763">
       <c r="AL763" s="26"/>
@@ -36515,6 +37439,7 @@
       <c r="BI763" s="26"/>
       <c r="BJ763" s="26"/>
       <c r="BK763" s="26"/>
+      <c r="BL763" s="26"/>
     </row>
     <row r="764">
       <c r="AL764" s="26"/>
@@ -36543,6 +37468,7 @@
       <c r="BI764" s="26"/>
       <c r="BJ764" s="26"/>
       <c r="BK764" s="26"/>
+      <c r="BL764" s="26"/>
     </row>
     <row r="765">
       <c r="AL765" s="26"/>
@@ -36571,6 +37497,7 @@
       <c r="BI765" s="26"/>
       <c r="BJ765" s="26"/>
       <c r="BK765" s="26"/>
+      <c r="BL765" s="26"/>
     </row>
     <row r="766">
       <c r="AL766" s="26"/>
@@ -36599,6 +37526,7 @@
       <c r="BI766" s="26"/>
       <c r="BJ766" s="26"/>
       <c r="BK766" s="26"/>
+      <c r="BL766" s="26"/>
     </row>
     <row r="767">
       <c r="AL767" s="26"/>
@@ -36627,6 +37555,7 @@
       <c r="BI767" s="26"/>
       <c r="BJ767" s="26"/>
       <c r="BK767" s="26"/>
+      <c r="BL767" s="26"/>
     </row>
     <row r="768">
       <c r="AL768" s="26"/>
@@ -36655,6 +37584,7 @@
       <c r="BI768" s="26"/>
       <c r="BJ768" s="26"/>
       <c r="BK768" s="26"/>
+      <c r="BL768" s="26"/>
     </row>
     <row r="769">
       <c r="AL769" s="26"/>
@@ -36683,6 +37613,7 @@
       <c r="BI769" s="26"/>
       <c r="BJ769" s="26"/>
       <c r="BK769" s="26"/>
+      <c r="BL769" s="26"/>
     </row>
     <row r="770">
       <c r="AL770" s="26"/>
@@ -36711,6 +37642,7 @@
       <c r="BI770" s="26"/>
       <c r="BJ770" s="26"/>
       <c r="BK770" s="26"/>
+      <c r="BL770" s="26"/>
     </row>
     <row r="771">
       <c r="AL771" s="26"/>
@@ -36739,6 +37671,7 @@
       <c r="BI771" s="26"/>
       <c r="BJ771" s="26"/>
       <c r="BK771" s="26"/>
+      <c r="BL771" s="26"/>
     </row>
     <row r="772">
       <c r="AL772" s="26"/>
@@ -36767,6 +37700,7 @@
       <c r="BI772" s="26"/>
       <c r="BJ772" s="26"/>
       <c r="BK772" s="26"/>
+      <c r="BL772" s="26"/>
     </row>
     <row r="773">
       <c r="AL773" s="26"/>
@@ -36795,6 +37729,7 @@
       <c r="BI773" s="26"/>
       <c r="BJ773" s="26"/>
       <c r="BK773" s="26"/>
+      <c r="BL773" s="26"/>
     </row>
     <row r="774">
       <c r="AL774" s="26"/>
@@ -36823,6 +37758,7 @@
       <c r="BI774" s="26"/>
       <c r="BJ774" s="26"/>
       <c r="BK774" s="26"/>
+      <c r="BL774" s="26"/>
     </row>
     <row r="775">
       <c r="AL775" s="26"/>
@@ -36851,6 +37787,7 @@
       <c r="BI775" s="26"/>
       <c r="BJ775" s="26"/>
       <c r="BK775" s="26"/>
+      <c r="BL775" s="26"/>
     </row>
     <row r="776">
       <c r="AL776" s="26"/>
@@ -36879,6 +37816,7 @@
       <c r="BI776" s="26"/>
       <c r="BJ776" s="26"/>
       <c r="BK776" s="26"/>
+      <c r="BL776" s="26"/>
     </row>
     <row r="777">
       <c r="AL777" s="26"/>
@@ -36907,6 +37845,7 @@
       <c r="BI777" s="26"/>
       <c r="BJ777" s="26"/>
       <c r="BK777" s="26"/>
+      <c r="BL777" s="26"/>
     </row>
     <row r="778">
       <c r="AL778" s="26"/>
@@ -36935,6 +37874,7 @@
       <c r="BI778" s="26"/>
       <c r="BJ778" s="26"/>
       <c r="BK778" s="26"/>
+      <c r="BL778" s="26"/>
     </row>
     <row r="779">
       <c r="AL779" s="26"/>
@@ -36963,6 +37903,7 @@
       <c r="BI779" s="26"/>
       <c r="BJ779" s="26"/>
       <c r="BK779" s="26"/>
+      <c r="BL779" s="26"/>
     </row>
     <row r="780">
       <c r="AL780" s="26"/>
@@ -36991,6 +37932,7 @@
       <c r="BI780" s="26"/>
       <c r="BJ780" s="26"/>
       <c r="BK780" s="26"/>
+      <c r="BL780" s="26"/>
     </row>
     <row r="781">
       <c r="AL781" s="26"/>
@@ -37019,6 +37961,7 @@
       <c r="BI781" s="26"/>
       <c r="BJ781" s="26"/>
       <c r="BK781" s="26"/>
+      <c r="BL781" s="26"/>
     </row>
     <row r="782">
       <c r="AL782" s="26"/>
@@ -37047,6 +37990,7 @@
       <c r="BI782" s="26"/>
       <c r="BJ782" s="26"/>
       <c r="BK782" s="26"/>
+      <c r="BL782" s="26"/>
     </row>
     <row r="783">
       <c r="AL783" s="26"/>
@@ -37075,6 +38019,7 @@
       <c r="BI783" s="26"/>
       <c r="BJ783" s="26"/>
       <c r="BK783" s="26"/>
+      <c r="BL783" s="26"/>
     </row>
     <row r="784">
       <c r="AL784" s="26"/>
@@ -37103,6 +38048,7 @@
       <c r="BI784" s="26"/>
       <c r="BJ784" s="26"/>
       <c r="BK784" s="26"/>
+      <c r="BL784" s="26"/>
     </row>
     <row r="785">
       <c r="AL785" s="26"/>
@@ -37131,6 +38077,7 @@
       <c r="BI785" s="26"/>
       <c r="BJ785" s="26"/>
       <c r="BK785" s="26"/>
+      <c r="BL785" s="26"/>
     </row>
     <row r="786">
       <c r="AL786" s="26"/>
@@ -37159,6 +38106,7 @@
       <c r="BI786" s="26"/>
       <c r="BJ786" s="26"/>
       <c r="BK786" s="26"/>
+      <c r="BL786" s="26"/>
     </row>
     <row r="787">
       <c r="AL787" s="26"/>
@@ -37187,6 +38135,7 @@
       <c r="BI787" s="26"/>
       <c r="BJ787" s="26"/>
       <c r="BK787" s="26"/>
+      <c r="BL787" s="26"/>
     </row>
     <row r="788">
       <c r="AL788" s="26"/>
@@ -37215,6 +38164,7 @@
       <c r="BI788" s="26"/>
       <c r="BJ788" s="26"/>
       <c r="BK788" s="26"/>
+      <c r="BL788" s="26"/>
     </row>
     <row r="789">
       <c r="AL789" s="26"/>
@@ -37243,6 +38193,7 @@
       <c r="BI789" s="26"/>
       <c r="BJ789" s="26"/>
       <c r="BK789" s="26"/>
+      <c r="BL789" s="26"/>
     </row>
     <row r="790">
       <c r="AL790" s="26"/>
@@ -37271,6 +38222,7 @@
       <c r="BI790" s="26"/>
       <c r="BJ790" s="26"/>
       <c r="BK790" s="26"/>
+      <c r="BL790" s="26"/>
     </row>
     <row r="791">
       <c r="AL791" s="26"/>
@@ -37299,6 +38251,7 @@
       <c r="BI791" s="26"/>
       <c r="BJ791" s="26"/>
       <c r="BK791" s="26"/>
+      <c r="BL791" s="26"/>
     </row>
     <row r="792">
       <c r="AL792" s="26"/>
@@ -37327,6 +38280,7 @@
       <c r="BI792" s="26"/>
       <c r="BJ792" s="26"/>
       <c r="BK792" s="26"/>
+      <c r="BL792" s="26"/>
     </row>
     <row r="793">
       <c r="AL793" s="26"/>
@@ -37355,6 +38309,7 @@
       <c r="BI793" s="26"/>
       <c r="BJ793" s="26"/>
       <c r="BK793" s="26"/>
+      <c r="BL793" s="26"/>
     </row>
     <row r="794">
       <c r="AL794" s="26"/>
@@ -37383,6 +38338,7 @@
       <c r="BI794" s="26"/>
       <c r="BJ794" s="26"/>
       <c r="BK794" s="26"/>
+      <c r="BL794" s="26"/>
     </row>
     <row r="795">
       <c r="AL795" s="26"/>
@@ -37411,6 +38367,7 @@
       <c r="BI795" s="26"/>
       <c r="BJ795" s="26"/>
       <c r="BK795" s="26"/>
+      <c r="BL795" s="26"/>
     </row>
     <row r="796">
       <c r="AL796" s="26"/>
@@ -37439,6 +38396,7 @@
       <c r="BI796" s="26"/>
       <c r="BJ796" s="26"/>
       <c r="BK796" s="26"/>
+      <c r="BL796" s="26"/>
     </row>
     <row r="797">
       <c r="AL797" s="26"/>
@@ -37467,6 +38425,7 @@
       <c r="BI797" s="26"/>
       <c r="BJ797" s="26"/>
       <c r="BK797" s="26"/>
+      <c r="BL797" s="26"/>
     </row>
     <row r="798">
       <c r="AL798" s="26"/>
@@ -37495,6 +38454,7 @@
       <c r="BI798" s="26"/>
       <c r="BJ798" s="26"/>
       <c r="BK798" s="26"/>
+      <c r="BL798" s="26"/>
     </row>
     <row r="799">
       <c r="AL799" s="26"/>
@@ -37523,6 +38483,7 @@
       <c r="BI799" s="26"/>
       <c r="BJ799" s="26"/>
       <c r="BK799" s="26"/>
+      <c r="BL799" s="26"/>
     </row>
     <row r="800">
       <c r="AL800" s="26"/>
@@ -37551,6 +38512,7 @@
       <c r="BI800" s="26"/>
       <c r="BJ800" s="26"/>
       <c r="BK800" s="26"/>
+      <c r="BL800" s="26"/>
     </row>
     <row r="801">
       <c r="AL801" s="26"/>
@@ -37579,6 +38541,7 @@
       <c r="BI801" s="26"/>
       <c r="BJ801" s="26"/>
       <c r="BK801" s="26"/>
+      <c r="BL801" s="26"/>
     </row>
     <row r="802">
       <c r="AL802" s="26"/>
@@ -37607,6 +38570,7 @@
       <c r="BI802" s="26"/>
       <c r="BJ802" s="26"/>
       <c r="BK802" s="26"/>
+      <c r="BL802" s="26"/>
     </row>
     <row r="803">
       <c r="AL803" s="26"/>
@@ -37635,6 +38599,7 @@
       <c r="BI803" s="26"/>
       <c r="BJ803" s="26"/>
       <c r="BK803" s="26"/>
+      <c r="BL803" s="26"/>
     </row>
     <row r="804">
       <c r="AL804" s="26"/>
@@ -37663,6 +38628,7 @@
       <c r="BI804" s="26"/>
       <c r="BJ804" s="26"/>
       <c r="BK804" s="26"/>
+      <c r="BL804" s="26"/>
     </row>
     <row r="805">
       <c r="AL805" s="26"/>
@@ -37691,6 +38657,7 @@
       <c r="BI805" s="26"/>
       <c r="BJ805" s="26"/>
       <c r="BK805" s="26"/>
+      <c r="BL805" s="26"/>
     </row>
     <row r="806">
       <c r="AL806" s="26"/>
@@ -37719,6 +38686,7 @@
       <c r="BI806" s="26"/>
       <c r="BJ806" s="26"/>
       <c r="BK806" s="26"/>
+      <c r="BL806" s="26"/>
     </row>
     <row r="807">
       <c r="AL807" s="26"/>
@@ -37747,6 +38715,7 @@
       <c r="BI807" s="26"/>
       <c r="BJ807" s="26"/>
       <c r="BK807" s="26"/>
+      <c r="BL807" s="26"/>
     </row>
     <row r="808">
       <c r="AL808" s="26"/>
@@ -37775,6 +38744,7 @@
       <c r="BI808" s="26"/>
       <c r="BJ808" s="26"/>
       <c r="BK808" s="26"/>
+      <c r="BL808" s="26"/>
     </row>
     <row r="809">
       <c r="AL809" s="26"/>
@@ -37803,6 +38773,7 @@
       <c r="BI809" s="26"/>
       <c r="BJ809" s="26"/>
       <c r="BK809" s="26"/>
+      <c r="BL809" s="26"/>
     </row>
     <row r="810">
       <c r="AL810" s="26"/>
@@ -37831,6 +38802,7 @@
       <c r="BI810" s="26"/>
       <c r="BJ810" s="26"/>
       <c r="BK810" s="26"/>
+      <c r="BL810" s="26"/>
     </row>
     <row r="811">
       <c r="AL811" s="26"/>
@@ -37859,6 +38831,7 @@
       <c r="BI811" s="26"/>
       <c r="BJ811" s="26"/>
       <c r="BK811" s="26"/>
+      <c r="BL811" s="26"/>
     </row>
     <row r="812">
       <c r="AL812" s="26"/>
@@ -37887,6 +38860,7 @@
       <c r="BI812" s="26"/>
       <c r="BJ812" s="26"/>
       <c r="BK812" s="26"/>
+      <c r="BL812" s="26"/>
     </row>
     <row r="813">
       <c r="AL813" s="26"/>
@@ -37915,6 +38889,7 @@
       <c r="BI813" s="26"/>
       <c r="BJ813" s="26"/>
       <c r="BK813" s="26"/>
+      <c r="BL813" s="26"/>
     </row>
     <row r="814">
       <c r="AL814" s="26"/>
@@ -37943,6 +38918,7 @@
       <c r="BI814" s="26"/>
       <c r="BJ814" s="26"/>
       <c r="BK814" s="26"/>
+      <c r="BL814" s="26"/>
     </row>
     <row r="815">
       <c r="AL815" s="26"/>
@@ -37971,6 +38947,7 @@
       <c r="BI815" s="26"/>
       <c r="BJ815" s="26"/>
       <c r="BK815" s="26"/>
+      <c r="BL815" s="26"/>
     </row>
     <row r="816">
       <c r="AL816" s="26"/>
@@ -37999,6 +38976,7 @@
       <c r="BI816" s="26"/>
       <c r="BJ816" s="26"/>
       <c r="BK816" s="26"/>
+      <c r="BL816" s="26"/>
     </row>
     <row r="817">
       <c r="AL817" s="26"/>
@@ -38027,6 +39005,7 @@
       <c r="BI817" s="26"/>
       <c r="BJ817" s="26"/>
       <c r="BK817" s="26"/>
+      <c r="BL817" s="26"/>
     </row>
     <row r="818">
       <c r="AL818" s="26"/>
@@ -38055,6 +39034,7 @@
       <c r="BI818" s="26"/>
       <c r="BJ818" s="26"/>
       <c r="BK818" s="26"/>
+      <c r="BL818" s="26"/>
     </row>
     <row r="819">
       <c r="AL819" s="26"/>
@@ -38083,6 +39063,7 @@
       <c r="BI819" s="26"/>
       <c r="BJ819" s="26"/>
       <c r="BK819" s="26"/>
+      <c r="BL819" s="26"/>
     </row>
     <row r="820">
       <c r="AL820" s="26"/>
@@ -38111,6 +39092,7 @@
       <c r="BI820" s="26"/>
       <c r="BJ820" s="26"/>
       <c r="BK820" s="26"/>
+      <c r="BL820" s="26"/>
     </row>
     <row r="821">
       <c r="AL821" s="26"/>
@@ -38139,6 +39121,7 @@
       <c r="BI821" s="26"/>
       <c r="BJ821" s="26"/>
       <c r="BK821" s="26"/>
+      <c r="BL821" s="26"/>
     </row>
     <row r="822">
       <c r="AL822" s="26"/>
@@ -38167,6 +39150,7 @@
       <c r="BI822" s="26"/>
       <c r="BJ822" s="26"/>
       <c r="BK822" s="26"/>
+      <c r="BL822" s="26"/>
     </row>
     <row r="823">
       <c r="AL823" s="26"/>
@@ -38195,6 +39179,7 @@
       <c r="BI823" s="26"/>
       <c r="BJ823" s="26"/>
       <c r="BK823" s="26"/>
+      <c r="BL823" s="26"/>
     </row>
     <row r="824">
       <c r="AL824" s="26"/>
@@ -38223,6 +39208,7 @@
       <c r="BI824" s="26"/>
       <c r="BJ824" s="26"/>
       <c r="BK824" s="26"/>
+      <c r="BL824" s="26"/>
     </row>
     <row r="825">
       <c r="AL825" s="26"/>
@@ -38251,6 +39237,7 @@
       <c r="BI825" s="26"/>
       <c r="BJ825" s="26"/>
       <c r="BK825" s="26"/>
+      <c r="BL825" s="26"/>
     </row>
     <row r="826">
       <c r="AL826" s="26"/>
@@ -38279,6 +39266,7 @@
       <c r="BI826" s="26"/>
       <c r="BJ826" s="26"/>
       <c r="BK826" s="26"/>
+      <c r="BL826" s="26"/>
     </row>
     <row r="827">
       <c r="AL827" s="26"/>
@@ -38307,6 +39295,7 @@
       <c r="BI827" s="26"/>
       <c r="BJ827" s="26"/>
       <c r="BK827" s="26"/>
+      <c r="BL827" s="26"/>
     </row>
     <row r="828">
       <c r="AL828" s="26"/>
@@ -38335,6 +39324,7 @@
       <c r="BI828" s="26"/>
       <c r="BJ828" s="26"/>
       <c r="BK828" s="26"/>
+      <c r="BL828" s="26"/>
     </row>
     <row r="829">
       <c r="AL829" s="26"/>
@@ -38363,6 +39353,7 @@
       <c r="BI829" s="26"/>
       <c r="BJ829" s="26"/>
       <c r="BK829" s="26"/>
+      <c r="BL829" s="26"/>
     </row>
     <row r="830">
       <c r="AL830" s="26"/>
@@ -38391,6 +39382,7 @@
       <c r="BI830" s="26"/>
       <c r="BJ830" s="26"/>
       <c r="BK830" s="26"/>
+      <c r="BL830" s="26"/>
     </row>
     <row r="831">
       <c r="AL831" s="26"/>
@@ -38419,6 +39411,7 @@
       <c r="BI831" s="26"/>
       <c r="BJ831" s="26"/>
       <c r="BK831" s="26"/>
+      <c r="BL831" s="26"/>
     </row>
     <row r="832">
       <c r="AL832" s="26"/>
@@ -38447,6 +39440,7 @@
       <c r="BI832" s="26"/>
       <c r="BJ832" s="26"/>
       <c r="BK832" s="26"/>
+      <c r="BL832" s="26"/>
     </row>
     <row r="833">
       <c r="AL833" s="26"/>
@@ -38475,6 +39469,7 @@
       <c r="BI833" s="26"/>
       <c r="BJ833" s="26"/>
       <c r="BK833" s="26"/>
+      <c r="BL833" s="26"/>
     </row>
     <row r="834">
       <c r="AL834" s="26"/>
@@ -38503,6 +39498,7 @@
       <c r="BI834" s="26"/>
       <c r="BJ834" s="26"/>
       <c r="BK834" s="26"/>
+      <c r="BL834" s="26"/>
     </row>
     <row r="835">
       <c r="AL835" s="26"/>
@@ -38531,6 +39527,7 @@
       <c r="BI835" s="26"/>
       <c r="BJ835" s="26"/>
       <c r="BK835" s="26"/>
+      <c r="BL835" s="26"/>
     </row>
     <row r="836">
       <c r="AL836" s="26"/>
@@ -38559,6 +39556,7 @@
       <c r="BI836" s="26"/>
       <c r="BJ836" s="26"/>
       <c r="BK836" s="26"/>
+      <c r="BL836" s="26"/>
     </row>
     <row r="837">
       <c r="AL837" s="26"/>
@@ -38587,6 +39585,7 @@
       <c r="BI837" s="26"/>
       <c r="BJ837" s="26"/>
       <c r="BK837" s="26"/>
+      <c r="BL837" s="26"/>
     </row>
     <row r="838">
       <c r="AL838" s="26"/>
@@ -38615,6 +39614,7 @@
       <c r="BI838" s="26"/>
       <c r="BJ838" s="26"/>
       <c r="BK838" s="26"/>
+      <c r="BL838" s="26"/>
     </row>
     <row r="839">
       <c r="AL839" s="26"/>
@@ -38643,6 +39643,7 @@
       <c r="BI839" s="26"/>
       <c r="BJ839" s="26"/>
       <c r="BK839" s="26"/>
+      <c r="BL839" s="26"/>
     </row>
     <row r="840">
       <c r="AL840" s="26"/>
@@ -38671,6 +39672,7 @@
       <c r="BI840" s="26"/>
       <c r="BJ840" s="26"/>
       <c r="BK840" s="26"/>
+      <c r="BL840" s="26"/>
     </row>
     <row r="841">
       <c r="AL841" s="26"/>
@@ -38699,6 +39701,7 @@
       <c r="BI841" s="26"/>
       <c r="BJ841" s="26"/>
       <c r="BK841" s="26"/>
+      <c r="BL841" s="26"/>
     </row>
     <row r="842">
       <c r="AL842" s="26"/>
@@ -38727,6 +39730,7 @@
       <c r="BI842" s="26"/>
       <c r="BJ842" s="26"/>
       <c r="BK842" s="26"/>
+      <c r="BL842" s="26"/>
     </row>
     <row r="843">
       <c r="AL843" s="26"/>
@@ -38755,6 +39759,7 @@
       <c r="BI843" s="26"/>
       <c r="BJ843" s="26"/>
       <c r="BK843" s="26"/>
+      <c r="BL843" s="26"/>
     </row>
     <row r="844">
       <c r="AL844" s="26"/>
@@ -38783,6 +39788,7 @@
       <c r="BI844" s="26"/>
       <c r="BJ844" s="26"/>
       <c r="BK844" s="26"/>
+      <c r="BL844" s="26"/>
     </row>
     <row r="845">
       <c r="AL845" s="26"/>
@@ -38811,6 +39817,7 @@
       <c r="BI845" s="26"/>
       <c r="BJ845" s="26"/>
       <c r="BK845" s="26"/>
+      <c r="BL845" s="26"/>
     </row>
     <row r="846">
       <c r="AL846" s="26"/>
@@ -38839,6 +39846,7 @@
       <c r="BI846" s="26"/>
       <c r="BJ846" s="26"/>
       <c r="BK846" s="26"/>
+      <c r="BL846" s="26"/>
     </row>
     <row r="847">
       <c r="AL847" s="26"/>
@@ -38867,6 +39875,7 @@
       <c r="BI847" s="26"/>
       <c r="BJ847" s="26"/>
       <c r="BK847" s="26"/>
+      <c r="BL847" s="26"/>
     </row>
     <row r="848">
       <c r="AL848" s="26"/>
@@ -38895,6 +39904,7 @@
       <c r="BI848" s="26"/>
       <c r="BJ848" s="26"/>
       <c r="BK848" s="26"/>
+      <c r="BL848" s="26"/>
     </row>
     <row r="849">
       <c r="AL849" s="26"/>
@@ -38923,6 +39933,7 @@
       <c r="BI849" s="26"/>
       <c r="BJ849" s="26"/>
       <c r="BK849" s="26"/>
+      <c r="BL849" s="26"/>
     </row>
     <row r="850">
       <c r="AL850" s="26"/>
@@ -38951,6 +39962,7 @@
       <c r="BI850" s="26"/>
       <c r="BJ850" s="26"/>
       <c r="BK850" s="26"/>
+      <c r="BL850" s="26"/>
     </row>
     <row r="851">
       <c r="AL851" s="26"/>
@@ -38979,6 +39991,7 @@
       <c r="BI851" s="26"/>
       <c r="BJ851" s="26"/>
       <c r="BK851" s="26"/>
+      <c r="BL851" s="26"/>
     </row>
     <row r="852">
       <c r="AL852" s="26"/>
@@ -39007,6 +40020,7 @@
       <c r="BI852" s="26"/>
       <c r="BJ852" s="26"/>
       <c r="BK852" s="26"/>
+      <c r="BL852" s="26"/>
     </row>
     <row r="853">
       <c r="AL853" s="26"/>
@@ -39035,6 +40049,7 @@
       <c r="BI853" s="26"/>
       <c r="BJ853" s="26"/>
       <c r="BK853" s="26"/>
+      <c r="BL853" s="26"/>
     </row>
     <row r="854">
       <c r="AL854" s="26"/>
@@ -39063,6 +40078,7 @@
       <c r="BI854" s="26"/>
       <c r="BJ854" s="26"/>
       <c r="BK854" s="26"/>
+      <c r="BL854" s="26"/>
     </row>
     <row r="855">
       <c r="AL855" s="26"/>
@@ -39091,6 +40107,7 @@
       <c r="BI855" s="26"/>
       <c r="BJ855" s="26"/>
       <c r="BK855" s="26"/>
+      <c r="BL855" s="26"/>
     </row>
     <row r="856">
       <c r="AL856" s="26"/>
@@ -39119,6 +40136,7 @@
       <c r="BI856" s="26"/>
       <c r="BJ856" s="26"/>
       <c r="BK856" s="26"/>
+      <c r="BL856" s="26"/>
     </row>
     <row r="857">
       <c r="AL857" s="26"/>
@@ -39147,6 +40165,7 @@
       <c r="BI857" s="26"/>
       <c r="BJ857" s="26"/>
       <c r="BK857" s="26"/>
+      <c r="BL857" s="26"/>
     </row>
     <row r="858">
       <c r="AL858" s="26"/>
@@ -39175,6 +40194,7 @@
       <c r="BI858" s="26"/>
       <c r="BJ858" s="26"/>
       <c r="BK858" s="26"/>
+      <c r="BL858" s="26"/>
     </row>
     <row r="859">
       <c r="AL859" s="26"/>
@@ -39203,6 +40223,7 @@
       <c r="BI859" s="26"/>
       <c r="BJ859" s="26"/>
       <c r="BK859" s="26"/>
+      <c r="BL859" s="26"/>
     </row>
     <row r="860">
       <c r="AL860" s="26"/>
@@ -39231,6 +40252,7 @@
       <c r="BI860" s="26"/>
       <c r="BJ860" s="26"/>
       <c r="BK860" s="26"/>
+      <c r="BL860" s="26"/>
     </row>
     <row r="861">
       <c r="AL861" s="26"/>
@@ -39259,6 +40281,7 @@
       <c r="BI861" s="26"/>
       <c r="BJ861" s="26"/>
       <c r="BK861" s="26"/>
+      <c r="BL861" s="26"/>
     </row>
     <row r="862">
       <c r="AL862" s="26"/>
@@ -39287,6 +40310,7 @@
       <c r="BI862" s="26"/>
       <c r="BJ862" s="26"/>
       <c r="BK862" s="26"/>
+      <c r="BL862" s="26"/>
     </row>
     <row r="863">
       <c r="AL863" s="26"/>
@@ -39315,6 +40339,7 @@
       <c r="BI863" s="26"/>
       <c r="BJ863" s="26"/>
       <c r="BK863" s="26"/>
+      <c r="BL863" s="26"/>
     </row>
     <row r="864">
       <c r="AL864" s="26"/>
@@ -39343,6 +40368,7 @@
       <c r="BI864" s="26"/>
       <c r="BJ864" s="26"/>
       <c r="BK864" s="26"/>
+      <c r="BL864" s="26"/>
     </row>
     <row r="865">
       <c r="AL865" s="26"/>
@@ -39371,6 +40397,7 @@
       <c r="BI865" s="26"/>
       <c r="BJ865" s="26"/>
       <c r="BK865" s="26"/>
+      <c r="BL865" s="26"/>
     </row>
     <row r="866">
       <c r="AL866" s="26"/>
@@ -39399,6 +40426,7 @@
       <c r="BI866" s="26"/>
       <c r="BJ866" s="26"/>
       <c r="BK866" s="26"/>
+      <c r="BL866" s="26"/>
     </row>
     <row r="867">
       <c r="AL867" s="26"/>
@@ -39427,6 +40455,7 @@
       <c r="BI867" s="26"/>
       <c r="BJ867" s="26"/>
       <c r="BK867" s="26"/>
+      <c r="BL867" s="26"/>
     </row>
     <row r="868">
       <c r="AL868" s="26"/>
@@ -39455,6 +40484,7 @@
       <c r="BI868" s="26"/>
       <c r="BJ868" s="26"/>
       <c r="BK868" s="26"/>
+      <c r="BL868" s="26"/>
     </row>
     <row r="869">
       <c r="AL869" s="26"/>
@@ -39483,6 +40513,7 @@
       <c r="BI869" s="26"/>
       <c r="BJ869" s="26"/>
       <c r="BK869" s="26"/>
+      <c r="BL869" s="26"/>
     </row>
     <row r="870">
       <c r="AL870" s="26"/>
@@ -39511,6 +40542,7 @@
       <c r="BI870" s="26"/>
       <c r="BJ870" s="26"/>
       <c r="BK870" s="26"/>
+      <c r="BL870" s="26"/>
     </row>
     <row r="871">
       <c r="AL871" s="26"/>
@@ -39539,6 +40571,7 @@
       <c r="BI871" s="26"/>
       <c r="BJ871" s="26"/>
       <c r="BK871" s="26"/>
+      <c r="BL871" s="26"/>
     </row>
     <row r="872">
       <c r="AL872" s="26"/>
@@ -39567,6 +40600,7 @@
       <c r="BI872" s="26"/>
       <c r="BJ872" s="26"/>
       <c r="BK872" s="26"/>
+      <c r="BL872" s="26"/>
     </row>
     <row r="873">
       <c r="AL873" s="26"/>
@@ -39595,6 +40629,7 @@
       <c r="BI873" s="26"/>
       <c r="BJ873" s="26"/>
       <c r="BK873" s="26"/>
+      <c r="BL873" s="26"/>
     </row>
     <row r="874">
       <c r="AL874" s="26"/>
@@ -39623,6 +40658,7 @@
       <c r="BI874" s="26"/>
       <c r="BJ874" s="26"/>
       <c r="BK874" s="26"/>
+      <c r="BL874" s="26"/>
     </row>
     <row r="875">
       <c r="AL875" s="26"/>
@@ -39651,6 +40687,7 @@
       <c r="BI875" s="26"/>
       <c r="BJ875" s="26"/>
       <c r="BK875" s="26"/>
+      <c r="BL875" s="26"/>
     </row>
     <row r="876">
       <c r="AL876" s="26"/>
@@ -39679,6 +40716,7 @@
       <c r="BI876" s="26"/>
       <c r="BJ876" s="26"/>
       <c r="BK876" s="26"/>
+      <c r="BL876" s="26"/>
     </row>
     <row r="877">
       <c r="AL877" s="26"/>
@@ -39707,6 +40745,7 @@
       <c r="BI877" s="26"/>
       <c r="BJ877" s="26"/>
       <c r="BK877" s="26"/>
+      <c r="BL877" s="26"/>
     </row>
     <row r="878">
       <c r="AL878" s="26"/>
@@ -39735,6 +40774,7 @@
       <c r="BI878" s="26"/>
       <c r="BJ878" s="26"/>
       <c r="BK878" s="26"/>
+      <c r="BL878" s="26"/>
     </row>
     <row r="879">
       <c r="AL879" s="26"/>
@@ -39763,6 +40803,7 @@
       <c r="BI879" s="26"/>
       <c r="BJ879" s="26"/>
       <c r="BK879" s="26"/>
+      <c r="BL879" s="26"/>
     </row>
     <row r="880">
       <c r="AL880" s="26"/>
@@ -39791,6 +40832,7 @@
       <c r="BI880" s="26"/>
       <c r="BJ880" s="26"/>
       <c r="BK880" s="26"/>
+      <c r="BL880" s="26"/>
     </row>
     <row r="881">
       <c r="AL881" s="26"/>
@@ -39819,6 +40861,7 @@
       <c r="BI881" s="26"/>
       <c r="BJ881" s="26"/>
       <c r="BK881" s="26"/>
+      <c r="BL881" s="26"/>
     </row>
     <row r="882">
       <c r="AL882" s="26"/>
@@ -39847,6 +40890,7 @@
       <c r="BI882" s="26"/>
       <c r="BJ882" s="26"/>
       <c r="BK882" s="26"/>
+      <c r="BL882" s="26"/>
     </row>
     <row r="883">
       <c r="AL883" s="26"/>
@@ -39875,6 +40919,7 @@
       <c r="BI883" s="26"/>
       <c r="BJ883" s="26"/>
       <c r="BK883" s="26"/>
+      <c r="BL883" s="26"/>
     </row>
     <row r="884">
       <c r="AL884" s="26"/>
@@ -39903,6 +40948,7 @@
       <c r="BI884" s="26"/>
       <c r="BJ884" s="26"/>
       <c r="BK884" s="26"/>
+      <c r="BL884" s="26"/>
     </row>
     <row r="885">
       <c r="AL885" s="26"/>
@@ -39931,6 +40977,7 @@
       <c r="BI885" s="26"/>
       <c r="BJ885" s="26"/>
       <c r="BK885" s="26"/>
+      <c r="BL885" s="26"/>
     </row>
     <row r="886">
       <c r="AL886" s="26"/>
@@ -39959,6 +41006,7 @@
       <c r="BI886" s="26"/>
       <c r="BJ886" s="26"/>
       <c r="BK886" s="26"/>
+      <c r="BL886" s="26"/>
     </row>
     <row r="887">
       <c r="AL887" s="26"/>
@@ -39987,6 +41035,7 @@
       <c r="BI887" s="26"/>
       <c r="BJ887" s="26"/>
       <c r="BK887" s="26"/>
+      <c r="BL887" s="26"/>
     </row>
     <row r="888">
       <c r="AL888" s="26"/>
@@ -40015,6 +41064,7 @@
       <c r="BI888" s="26"/>
       <c r="BJ888" s="26"/>
       <c r="BK888" s="26"/>
+      <c r="BL888" s="26"/>
     </row>
     <row r="889">
       <c r="AL889" s="26"/>
@@ -40043,6 +41093,7 @@
       <c r="BI889" s="26"/>
       <c r="BJ889" s="26"/>
       <c r="BK889" s="26"/>
+      <c r="BL889" s="26"/>
     </row>
     <row r="890">
       <c r="AL890" s="26"/>
@@ -40071,6 +41122,7 @@
       <c r="BI890" s="26"/>
       <c r="BJ890" s="26"/>
       <c r="BK890" s="26"/>
+      <c r="BL890" s="26"/>
     </row>
     <row r="891">
       <c r="AL891" s="26"/>
@@ -40099,6 +41151,7 @@
       <c r="BI891" s="26"/>
       <c r="BJ891" s="26"/>
       <c r="BK891" s="26"/>
+      <c r="BL891" s="26"/>
     </row>
     <row r="892">
       <c r="AL892" s="26"/>
@@ -40127,6 +41180,7 @@
       <c r="BI892" s="26"/>
       <c r="BJ892" s="26"/>
       <c r="BK892" s="26"/>
+      <c r="BL892" s="26"/>
     </row>
     <row r="893">
       <c r="AL893" s="26"/>
@@ -40155,6 +41209,7 @@
       <c r="BI893" s="26"/>
       <c r="BJ893" s="26"/>
       <c r="BK893" s="26"/>
+      <c r="BL893" s="26"/>
     </row>
     <row r="894">
       <c r="AL894" s="26"/>
@@ -40183,6 +41238,7 @@
       <c r="BI894" s="26"/>
       <c r="BJ894" s="26"/>
       <c r="BK894" s="26"/>
+      <c r="BL894" s="26"/>
     </row>
     <row r="895">
       <c r="AL895" s="26"/>
@@ -40211,6 +41267,7 @@
       <c r="BI895" s="26"/>
       <c r="BJ895" s="26"/>
       <c r="BK895" s="26"/>
+      <c r="BL895" s="26"/>
     </row>
     <row r="896">
       <c r="AL896" s="26"/>
@@ -40239,6 +41296,7 @@
       <c r="BI896" s="26"/>
       <c r="BJ896" s="26"/>
       <c r="BK896" s="26"/>
+      <c r="BL896" s="26"/>
     </row>
     <row r="897">
       <c r="AL897" s="26"/>
@@ -40267,6 +41325,7 @@
       <c r="BI897" s="26"/>
       <c r="BJ897" s="26"/>
       <c r="BK897" s="26"/>
+      <c r="BL897" s="26"/>
     </row>
     <row r="898">
       <c r="AL898" s="26"/>
@@ -40295,6 +41354,7 @@
       <c r="BI898" s="26"/>
       <c r="BJ898" s="26"/>
       <c r="BK898" s="26"/>
+      <c r="BL898" s="26"/>
     </row>
     <row r="899">
       <c r="AL899" s="26"/>
@@ -40323,6 +41383,7 @@
       <c r="BI899" s="26"/>
       <c r="BJ899" s="26"/>
       <c r="BK899" s="26"/>
+      <c r="BL899" s="26"/>
     </row>
     <row r="900">
       <c r="AL900" s="26"/>
@@ -40351,6 +41412,7 @@
       <c r="BI900" s="26"/>
       <c r="BJ900" s="26"/>
       <c r="BK900" s="26"/>
+      <c r="BL900" s="26"/>
     </row>
     <row r="901">
       <c r="AL901" s="26"/>
@@ -40379,6 +41441,7 @@
       <c r="BI901" s="26"/>
       <c r="BJ901" s="26"/>
       <c r="BK901" s="26"/>
+      <c r="BL901" s="26"/>
     </row>
     <row r="902">
       <c r="AL902" s="26"/>
@@ -40407,6 +41470,7 @@
       <c r="BI902" s="26"/>
       <c r="BJ902" s="26"/>
       <c r="BK902" s="26"/>
+      <c r="BL902" s="26"/>
     </row>
     <row r="903">
       <c r="AL903" s="26"/>
@@ -40435,6 +41499,7 @@
       <c r="BI903" s="26"/>
       <c r="BJ903" s="26"/>
       <c r="BK903" s="26"/>
+      <c r="BL903" s="26"/>
     </row>
     <row r="904">
       <c r="AL904" s="26"/>
@@ -40463,6 +41528,7 @@
       <c r="BI904" s="26"/>
       <c r="BJ904" s="26"/>
       <c r="BK904" s="26"/>
+      <c r="BL904" s="26"/>
     </row>
     <row r="905">
       <c r="AL905" s="26"/>
@@ -40491,6 +41557,7 @@
       <c r="BI905" s="26"/>
       <c r="BJ905" s="26"/>
       <c r="BK905" s="26"/>
+      <c r="BL905" s="26"/>
     </row>
     <row r="906">
       <c r="AL906" s="26"/>
@@ -40519,6 +41586,7 @@
       <c r="BI906" s="26"/>
       <c r="BJ906" s="26"/>
       <c r="BK906" s="26"/>
+      <c r="BL906" s="26"/>
     </row>
     <row r="907">
       <c r="AL907" s="26"/>
@@ -40547,6 +41615,7 @@
       <c r="BI907" s="26"/>
       <c r="BJ907" s="26"/>
       <c r="BK907" s="26"/>
+      <c r="BL907" s="26"/>
     </row>
     <row r="908">
       <c r="AL908" s="26"/>
@@ -40575,6 +41644,7 @@
       <c r="BI908" s="26"/>
       <c r="BJ908" s="26"/>
       <c r="BK908" s="26"/>
+      <c r="BL908" s="26"/>
     </row>
     <row r="909">
       <c r="AL909" s="26"/>
@@ -40603,6 +41673,7 @@
       <c r="BI909" s="26"/>
       <c r="BJ909" s="26"/>
       <c r="BK909" s="26"/>
+      <c r="BL909" s="26"/>
     </row>
     <row r="910">
       <c r="AL910" s="26"/>
@@ -40631,6 +41702,7 @@
       <c r="BI910" s="26"/>
       <c r="BJ910" s="26"/>
       <c r="BK910" s="26"/>
+      <c r="BL910" s="26"/>
     </row>
     <row r="911">
       <c r="AL911" s="26"/>
@@ -40659,6 +41731,7 @@
       <c r="BI911" s="26"/>
       <c r="BJ911" s="26"/>
       <c r="BK911" s="26"/>
+      <c r="BL911" s="26"/>
     </row>
     <row r="912">
       <c r="AL912" s="26"/>
@@ -40687,6 +41760,7 @@
       <c r="BI912" s="26"/>
       <c r="BJ912" s="26"/>
       <c r="BK912" s="26"/>
+      <c r="BL912" s="26"/>
     </row>
     <row r="913">
       <c r="AL913" s="26"/>
@@ -40715,6 +41789,7 @@
       <c r="BI913" s="26"/>
       <c r="BJ913" s="26"/>
       <c r="BK913" s="26"/>
+      <c r="BL913" s="26"/>
     </row>
     <row r="914">
       <c r="AL914" s="26"/>
@@ -40743,6 +41818,7 @@
       <c r="BI914" s="26"/>
       <c r="BJ914" s="26"/>
       <c r="BK914" s="26"/>
+      <c r="BL914" s="26"/>
     </row>
     <row r="915">
       <c r="AL915" s="26"/>
@@ -40771,6 +41847,7 @@
       <c r="BI915" s="26"/>
       <c r="BJ915" s="26"/>
       <c r="BK915" s="26"/>
+      <c r="BL915" s="26"/>
     </row>
     <row r="916">
       <c r="AL916" s="26"/>
@@ -40799,6 +41876,7 @@
       <c r="BI916" s="26"/>
       <c r="BJ916" s="26"/>
       <c r="BK916" s="26"/>
+      <c r="BL916" s="26"/>
     </row>
     <row r="917">
       <c r="AL917" s="26"/>
@@ -40827,6 +41905,7 @@
       <c r="BI917" s="26"/>
       <c r="BJ917" s="26"/>
       <c r="BK917" s="26"/>
+      <c r="BL917" s="26"/>
     </row>
     <row r="918">
       <c r="AL918" s="26"/>
@@ -40855,6 +41934,7 @@
       <c r="BI918" s="26"/>
       <c r="BJ918" s="26"/>
       <c r="BK918" s="26"/>
+      <c r="BL918" s="26"/>
     </row>
     <row r="919">
       <c r="AL919" s="26"/>
@@ -40883,6 +41963,7 @@
       <c r="BI919" s="26"/>
       <c r="BJ919" s="26"/>
       <c r="BK919" s="26"/>
+      <c r="BL919" s="26"/>
     </row>
     <row r="920">
       <c r="AL920" s="26"/>
@@ -40911,6 +41992,7 @@
       <c r="BI920" s="26"/>
       <c r="BJ920" s="26"/>
       <c r="BK920" s="26"/>
+      <c r="BL920" s="26"/>
     </row>
     <row r="921">
       <c r="AL921" s="26"/>
@@ -40939,6 +42021,7 @@
       <c r="BI921" s="26"/>
       <c r="BJ921" s="26"/>
       <c r="BK921" s="26"/>
+      <c r="BL921" s="26"/>
     </row>
     <row r="922">
       <c r="AL922" s="26"/>
@@ -40967,6 +42050,7 @@
       <c r="BI922" s="26"/>
       <c r="BJ922" s="26"/>
       <c r="BK922" s="26"/>
+      <c r="BL922" s="26"/>
     </row>
     <row r="923">
       <c r="AL923" s="26"/>
@@ -40995,6 +42079,7 @@
       <c r="BI923" s="26"/>
       <c r="BJ923" s="26"/>
       <c r="BK923" s="26"/>
+      <c r="BL923" s="26"/>
     </row>
     <row r="924">
       <c r="AL924" s="26"/>
@@ -41023,6 +42108,7 @@
       <c r="BI924" s="26"/>
       <c r="BJ924" s="26"/>
       <c r="BK924" s="26"/>
+      <c r="BL924" s="26"/>
     </row>
     <row r="925">
       <c r="AL925" s="26"/>
@@ -41051,6 +42137,7 @@
       <c r="BI925" s="26"/>
       <c r="BJ925" s="26"/>
       <c r="BK925" s="26"/>
+      <c r="BL925" s="26"/>
     </row>
     <row r="926">
       <c r="AL926" s="26"/>
@@ -41079,6 +42166,7 @@
       <c r="BI926" s="26"/>
       <c r="BJ926" s="26"/>
       <c r="BK926" s="26"/>
+      <c r="BL926" s="26"/>
     </row>
     <row r="927">
       <c r="AL927" s="26"/>
@@ -41107,6 +42195,7 @@
       <c r="BI927" s="26"/>
       <c r="BJ927" s="26"/>
       <c r="BK927" s="26"/>
+      <c r="BL927" s="26"/>
     </row>
     <row r="928">
       <c r="AL928" s="26"/>
@@ -41135,6 +42224,7 @@
       <c r="BI928" s="26"/>
       <c r="BJ928" s="26"/>
       <c r="BK928" s="26"/>
+      <c r="BL928" s="26"/>
     </row>
     <row r="929">
       <c r="AL929" s="26"/>
@@ -41163,6 +42253,7 @@
       <c r="BI929" s="26"/>
       <c r="BJ929" s="26"/>
       <c r="BK929" s="26"/>
+      <c r="BL929" s="26"/>
     </row>
     <row r="930">
       <c r="AL930" s="26"/>
@@ -41191,6 +42282,7 @@
       <c r="BI930" s="26"/>
       <c r="BJ930" s="26"/>
       <c r="BK930" s="26"/>
+      <c r="BL930" s="26"/>
     </row>
     <row r="931">
       <c r="AL931" s="26"/>
@@ -41219,6 +42311,7 @@
       <c r="BI931" s="26"/>
       <c r="BJ931" s="26"/>
       <c r="BK931" s="26"/>
+      <c r="BL931" s="26"/>
     </row>
     <row r="932">
       <c r="AL932" s="26"/>
@@ -41247,6 +42340,7 @@
       <c r="BI932" s="26"/>
       <c r="BJ932" s="26"/>
       <c r="BK932" s="26"/>
+      <c r="BL932" s="26"/>
     </row>
     <row r="933">
       <c r="AL933" s="26"/>
@@ -41275,6 +42369,7 @@
       <c r="BI933" s="26"/>
       <c r="BJ933" s="26"/>
       <c r="BK933" s="26"/>
+      <c r="BL933" s="26"/>
     </row>
     <row r="934">
       <c r="AL934" s="26"/>
@@ -41303,6 +42398,7 @@
       <c r="BI934" s="26"/>
       <c r="BJ934" s="26"/>
       <c r="BK934" s="26"/>
+      <c r="BL934" s="26"/>
     </row>
     <row r="935">
       <c r="AL935" s="26"/>
@@ -41331,6 +42427,7 @@
       <c r="BI935" s="26"/>
       <c r="BJ935" s="26"/>
       <c r="BK935" s="26"/>
+      <c r="BL935" s="26"/>
     </row>
     <row r="936">
       <c r="AL936" s="26"/>
@@ -41359,6 +42456,7 @@
       <c r="BI936" s="26"/>
       <c r="BJ936" s="26"/>
       <c r="BK936" s="26"/>
+      <c r="BL936" s="26"/>
     </row>
     <row r="937">
       <c r="AL937" s="26"/>
@@ -41387,6 +42485,7 @@
       <c r="BI937" s="26"/>
       <c r="BJ937" s="26"/>
       <c r="BK937" s="26"/>
+      <c r="BL937" s="26"/>
     </row>
     <row r="938">
       <c r="AL938" s="26"/>
@@ -41415,6 +42514,7 @@
       <c r="BI938" s="26"/>
       <c r="BJ938" s="26"/>
       <c r="BK938" s="26"/>
+      <c r="BL938" s="26"/>
     </row>
     <row r="939">
       <c r="AL939" s="26"/>
@@ -41443,6 +42543,7 @@
       <c r="BI939" s="26"/>
       <c r="BJ939" s="26"/>
       <c r="BK939" s="26"/>
+      <c r="BL939" s="26"/>
     </row>
     <row r="940">
       <c r="AL940" s="26"/>
@@ -41471,6 +42572,7 @@
       <c r="BI940" s="26"/>
       <c r="BJ940" s="26"/>
       <c r="BK940" s="26"/>
+      <c r="BL940" s="26"/>
     </row>
     <row r="941">
       <c r="AL941" s="26"/>
@@ -41499,6 +42601,7 @@
       <c r="BI941" s="26"/>
       <c r="BJ941" s="26"/>
       <c r="BK941" s="26"/>
+      <c r="BL941" s="26"/>
     </row>
     <row r="942">
       <c r="AL942" s="26"/>
@@ -41527,6 +42630,7 @@
       <c r="BI942" s="26"/>
       <c r="BJ942" s="26"/>
       <c r="BK942" s="26"/>
+      <c r="BL942" s="26"/>
     </row>
     <row r="943">
       <c r="AL943" s="26"/>
@@ -41555,6 +42659,7 @@
       <c r="BI943" s="26"/>
       <c r="BJ943" s="26"/>
       <c r="BK943" s="26"/>
+      <c r="BL943" s="26"/>
     </row>
     <row r="944">
       <c r="AL944" s="26"/>
@@ -41583,6 +42688,7 @@
       <c r="BI944" s="26"/>
       <c r="BJ944" s="26"/>
       <c r="BK944" s="26"/>
+      <c r="BL944" s="26"/>
     </row>
     <row r="945">
       <c r="AL945" s="26"/>
@@ -41611,6 +42717,7 @@
       <c r="BI945" s="26"/>
       <c r="BJ945" s="26"/>
       <c r="BK945" s="26"/>
+      <c r="BL945" s="26"/>
     </row>
     <row r="946">
       <c r="AL946" s="26"/>
@@ -41639,6 +42746,7 @@
       <c r="BI946" s="26"/>
       <c r="BJ946" s="26"/>
       <c r="BK946" s="26"/>
+      <c r="BL946" s="26"/>
     </row>
     <row r="947">
       <c r="AL947" s="26"/>
@@ -41667,6 +42775,7 @@
       <c r="BI947" s="26"/>
       <c r="BJ947" s="26"/>
       <c r="BK947" s="26"/>
+      <c r="BL947" s="26"/>
     </row>
     <row r="948">
       <c r="AL948" s="26"/>
@@ -41695,6 +42804,7 @@
       <c r="BI948" s="26"/>
       <c r="BJ948" s="26"/>
       <c r="BK948" s="26"/>
+      <c r="BL948" s="26"/>
     </row>
     <row r="949">
       <c r="AL949" s="26"/>
@@ -41723,6 +42833,7 @@
       <c r="BI949" s="26"/>
       <c r="BJ949" s="26"/>
       <c r="BK949" s="26"/>
+      <c r="BL949" s="26"/>
     </row>
     <row r="950">
       <c r="AL950" s="26"/>
@@ -41751,6 +42862,7 @@
       <c r="BI950" s="26"/>
       <c r="BJ950" s="26"/>
       <c r="BK950" s="26"/>
+      <c r="BL950" s="26"/>
     </row>
     <row r="951">
       <c r="AL951" s="26"/>
@@ -41779,6 +42891,7 @@
       <c r="BI951" s="26"/>
       <c r="BJ951" s="26"/>
       <c r="BK951" s="26"/>
+      <c r="BL951" s="26"/>
     </row>
     <row r="952">
       <c r="AL952" s="26"/>
@@ -41807,6 +42920,7 @@
       <c r="BI952" s="26"/>
       <c r="BJ952" s="26"/>
       <c r="BK952" s="26"/>
+      <c r="BL952" s="26"/>
     </row>
     <row r="953">
       <c r="AL953" s="26"/>
@@ -41835,6 +42949,7 @@
       <c r="BI953" s="26"/>
       <c r="BJ953" s="26"/>
       <c r="BK953" s="26"/>
+      <c r="BL953" s="26"/>
     </row>
     <row r="954">
       <c r="AL954" s="26"/>
@@ -41863,6 +42978,7 @@
       <c r="BI954" s="26"/>
       <c r="BJ954" s="26"/>
       <c r="BK954" s="26"/>
+      <c r="BL954" s="26"/>
     </row>
     <row r="955">
       <c r="AL955" s="26"/>
@@ -41891,6 +43007,7 @@
       <c r="BI955" s="26"/>
       <c r="BJ955" s="26"/>
       <c r="BK955" s="26"/>
+      <c r="BL955" s="26"/>
     </row>
     <row r="956">
       <c r="AL956" s="26"/>
@@ -41919,6 +43036,7 @@
       <c r="BI956" s="26"/>
       <c r="BJ956" s="26"/>
       <c r="BK956" s="26"/>
+      <c r="BL956" s="26"/>
     </row>
     <row r="957">
       <c r="AL957" s="26"/>
@@ -41947,6 +43065,7 @@
       <c r="BI957" s="26"/>
       <c r="BJ957" s="26"/>
       <c r="BK957" s="26"/>
+      <c r="BL957" s="26"/>
     </row>
     <row r="958">
       <c r="AL958" s="26"/>
@@ -41975,6 +43094,7 @@
       <c r="BI958" s="26"/>
       <c r="BJ958" s="26"/>
       <c r="BK958" s="26"/>
+      <c r="BL958" s="26"/>
     </row>
     <row r="959">
       <c r="AL959" s="26"/>
@@ -42003,6 +43123,7 @@
       <c r="BI959" s="26"/>
       <c r="BJ959" s="26"/>
       <c r="BK959" s="26"/>
+      <c r="BL959" s="26"/>
     </row>
     <row r="960">
       <c r="AL960" s="26"/>
@@ -42031,6 +43152,7 @@
       <c r="BI960" s="26"/>
       <c r="BJ960" s="26"/>
       <c r="BK960" s="26"/>
+      <c r="BL960" s="26"/>
     </row>
     <row r="961">
       <c r="AL961" s="26"/>
@@ -42059,6 +43181,7 @@
       <c r="BI961" s="26"/>
       <c r="BJ961" s="26"/>
       <c r="BK961" s="26"/>
+      <c r="BL961" s="26"/>
     </row>
     <row r="962">
       <c r="AL962" s="26"/>
@@ -42087,6 +43210,7 @@
       <c r="BI962" s="26"/>
       <c r="BJ962" s="26"/>
       <c r="BK962" s="26"/>
+      <c r="BL962" s="26"/>
     </row>
     <row r="963">
       <c r="AL963" s="26"/>
@@ -42115,6 +43239,7 @@
       <c r="BI963" s="26"/>
       <c r="BJ963" s="26"/>
       <c r="BK963" s="26"/>
+      <c r="BL963" s="26"/>
     </row>
     <row r="964">
       <c r="AL964" s="26"/>
@@ -42143,6 +43268,7 @@
       <c r="BI964" s="26"/>
       <c r="BJ964" s="26"/>
       <c r="BK964" s="26"/>
+      <c r="BL964" s="26"/>
     </row>
     <row r="965">
       <c r="AL965" s="26"/>
@@ -42171,6 +43297,7 @@
       <c r="BI965" s="26"/>
       <c r="BJ965" s="26"/>
       <c r="BK965" s="26"/>
+      <c r="BL965" s="26"/>
     </row>
     <row r="966">
       <c r="AL966" s="26"/>
@@ -42199,6 +43326,7 @@
       <c r="BI966" s="26"/>
       <c r="BJ966" s="26"/>
       <c r="BK966" s="26"/>
+      <c r="BL966" s="26"/>
     </row>
     <row r="967">
       <c r="AL967" s="26"/>
@@ -42227,6 +43355,7 @@
       <c r="BI967" s="26"/>
       <c r="BJ967" s="26"/>
       <c r="BK967" s="26"/>
+      <c r="BL967" s="26"/>
     </row>
     <row r="968">
       <c r="AL968" s="26"/>
@@ -42255,6 +43384,7 @@
       <c r="BI968" s="26"/>
       <c r="BJ968" s="26"/>
       <c r="BK968" s="26"/>
+      <c r="BL968" s="26"/>
     </row>
     <row r="969">
       <c r="AL969" s="26"/>
@@ -42283,6 +43413,7 @@
       <c r="BI969" s="26"/>
       <c r="BJ969" s="26"/>
       <c r="BK969" s="26"/>
+      <c r="BL969" s="26"/>
     </row>
     <row r="970">
       <c r="AL970" s="26"/>
@@ -42311,6 +43442,7 @@
       <c r="BI970" s="26"/>
       <c r="BJ970" s="26"/>
       <c r="BK970" s="26"/>
+      <c r="BL970" s="26"/>
     </row>
     <row r="971">
       <c r="AL971" s="26"/>
@@ -42339,6 +43471,7 @@
       <c r="BI971" s="26"/>
       <c r="BJ971" s="26"/>
       <c r="BK971" s="26"/>
+      <c r="BL971" s="26"/>
     </row>
     <row r="972">
       <c r="AL972" s="26"/>
@@ -42367,6 +43500,7 @@
       <c r="BI972" s="26"/>
       <c r="BJ972" s="26"/>
       <c r="BK972" s="26"/>
+      <c r="BL972" s="26"/>
     </row>
     <row r="973">
       <c r="AL973" s="26"/>
@@ -42395,6 +43529,7 @@
       <c r="BI973" s="26"/>
       <c r="BJ973" s="26"/>
       <c r="BK973" s="26"/>
+      <c r="BL973" s="26"/>
     </row>
     <row r="974">
       <c r="AL974" s="26"/>
@@ -42423,6 +43558,7 @@
       <c r="BI974" s="26"/>
       <c r="BJ974" s="26"/>
       <c r="BK974" s="26"/>
+      <c r="BL974" s="26"/>
     </row>
     <row r="975">
       <c r="AL975" s="26"/>
@@ -42451,6 +43587,7 @@
       <c r="BI975" s="26"/>
       <c r="BJ975" s="26"/>
       <c r="BK975" s="26"/>
+      <c r="BL975" s="26"/>
     </row>
     <row r="976">
       <c r="AL976" s="26"/>
@@ -42479,6 +43616,7 @@
       <c r="BI976" s="26"/>
       <c r="BJ976" s="26"/>
       <c r="BK976" s="26"/>
+      <c r="BL976" s="26"/>
     </row>
     <row r="977">
       <c r="AL977" s="26"/>
@@ -42507,6 +43645,7 @@
       <c r="BI977" s="26"/>
       <c r="BJ977" s="26"/>
       <c r="BK977" s="26"/>
+      <c r="BL977" s="26"/>
     </row>
     <row r="978">
       <c r="AL978" s="26"/>
@@ -42535,6 +43674,7 @@
       <c r="BI978" s="26"/>
       <c r="BJ978" s="26"/>
       <c r="BK978" s="26"/>
+      <c r="BL978" s="26"/>
     </row>
     <row r="979">
       <c r="AL979" s="26"/>
@@ -42563,6 +43703,7 @@
       <c r="BI979" s="26"/>
       <c r="BJ979" s="26"/>
       <c r="BK979" s="26"/>
+      <c r="BL979" s="26"/>
     </row>
     <row r="980">
       <c r="AL980" s="26"/>
@@ -42591,6 +43732,7 @@
       <c r="BI980" s="26"/>
       <c r="BJ980" s="26"/>
       <c r="BK980" s="26"/>
+      <c r="BL980" s="26"/>
     </row>
     <row r="981">
       <c r="AL981" s="26"/>
@@ -42619,6 +43761,7 @@
       <c r="BI981" s="26"/>
       <c r="BJ981" s="26"/>
       <c r="BK981" s="26"/>
+      <c r="BL981" s="26"/>
     </row>
     <row r="982">
       <c r="AL982" s="26"/>
@@ -42647,6 +43790,7 @@
       <c r="BI982" s="26"/>
       <c r="BJ982" s="26"/>
       <c r="BK982" s="26"/>
+      <c r="BL982" s="26"/>
     </row>
     <row r="983">
       <c r="AL983" s="26"/>
@@ -42675,6 +43819,7 @@
       <c r="BI983" s="26"/>
       <c r="BJ983" s="26"/>
       <c r="BK983" s="26"/>
+      <c r="BL983" s="26"/>
     </row>
     <row r="984">
       <c r="AL984" s="26"/>
@@ -42703,6 +43848,7 @@
       <c r="BI984" s="26"/>
       <c r="BJ984" s="26"/>
       <c r="BK984" s="26"/>
+      <c r="BL984" s="26"/>
     </row>
     <row r="985">
       <c r="AL985" s="26"/>
@@ -42731,6 +43877,7 @@
       <c r="BI985" s="26"/>
       <c r="BJ985" s="26"/>
       <c r="BK985" s="26"/>
+      <c r="BL985" s="26"/>
     </row>
     <row r="986">
       <c r="AL986" s="26"/>
@@ -42759,6 +43906,7 @@
       <c r="BI986" s="26"/>
       <c r="BJ986" s="26"/>
       <c r="BK986" s="26"/>
+      <c r="BL986" s="26"/>
     </row>
     <row r="987">
       <c r="AL987" s="26"/>
@@ -42787,6 +43935,7 @@
       <c r="BI987" s="26"/>
       <c r="BJ987" s="26"/>
       <c r="BK987" s="26"/>
+      <c r="BL987" s="26"/>
     </row>
     <row r="988">
       <c r="AL988" s="26"/>
@@ -42815,6 +43964,7 @@
       <c r="BI988" s="26"/>
       <c r="BJ988" s="26"/>
       <c r="BK988" s="26"/>
+      <c r="BL988" s="26"/>
     </row>
     <row r="989">
       <c r="AL989" s="26"/>
@@ -42843,6 +43993,7 @@
       <c r="BI989" s="26"/>
       <c r="BJ989" s="26"/>
       <c r="BK989" s="26"/>
+      <c r="BL989" s="26"/>
     </row>
     <row r="990">
       <c r="AL990" s="26"/>
@@ -42871,6 +44022,7 @@
       <c r="BI990" s="26"/>
       <c r="BJ990" s="26"/>
       <c r="BK990" s="26"/>
+      <c r="BL990" s="26"/>
     </row>
     <row r="991">
       <c r="AL991" s="26"/>
@@ -42899,6 +44051,7 @@
       <c r="BI991" s="26"/>
       <c r="BJ991" s="26"/>
       <c r="BK991" s="26"/>
+      <c r="BL991" s="26"/>
     </row>
     <row r="992">
       <c r="AL992" s="26"/>
@@ -42927,6 +44080,7 @@
       <c r="BI992" s="26"/>
       <c r="BJ992" s="26"/>
       <c r="BK992" s="26"/>
+      <c r="BL992" s="26"/>
     </row>
     <row r="993">
       <c r="AL993" s="26"/>
@@ -42955,6 +44109,7 @@
       <c r="BI993" s="26"/>
       <c r="BJ993" s="26"/>
       <c r="BK993" s="26"/>
+      <c r="BL993" s="26"/>
     </row>
     <row r="994">
       <c r="AL994" s="26"/>
@@ -42983,6 +44138,7 @@
       <c r="BI994" s="26"/>
       <c r="BJ994" s="26"/>
       <c r="BK994" s="26"/>
+      <c r="BL994" s="26"/>
     </row>
     <row r="995">
       <c r="AL995" s="26"/>
@@ -43011,6 +44167,7 @@
       <c r="BI995" s="26"/>
       <c r="BJ995" s="26"/>
       <c r="BK995" s="26"/>
+      <c r="BL995" s="26"/>
     </row>
     <row r="996">
       <c r="AL996" s="26"/>
@@ -43039,6 +44196,7 @@
       <c r="BI996" s="26"/>
       <c r="BJ996" s="26"/>
       <c r="BK996" s="26"/>
+      <c r="BL996" s="26"/>
     </row>
     <row r="997">
       <c r="AL997" s="26"/>
@@ -43067,6 +44225,7 @@
       <c r="BI997" s="26"/>
       <c r="BJ997" s="26"/>
       <c r="BK997" s="26"/>
+      <c r="BL997" s="26"/>
     </row>
     <row r="998">
       <c r="AL998" s="26"/>
@@ -43095,6 +44254,7 @@
       <c r="BI998" s="26"/>
       <c r="BJ998" s="26"/>
       <c r="BK998" s="26"/>
+      <c r="BL998" s="26"/>
     </row>
     <row r="999">
       <c r="AL999" s="26"/>
@@ -43123,6 +44283,7 @@
       <c r="BI999" s="26"/>
       <c r="BJ999" s="26"/>
       <c r="BK999" s="26"/>
+      <c r="BL999" s="26"/>
     </row>
     <row r="1000">
       <c r="AL1000" s="26"/>
@@ -43151,6 +44312,7 @@
       <c r="BI1000" s="26"/>
       <c r="BJ1000" s="26"/>
       <c r="BK1000" s="26"/>
+      <c r="BL1000" s="26"/>
     </row>
     <row r="1001">
       <c r="AL1001" s="26"/>
@@ -43179,6 +44341,7 @@
       <c r="BI1001" s="26"/>
       <c r="BJ1001" s="26"/>
       <c r="BK1001" s="26"/>
+      <c r="BL1001" s="26"/>
     </row>
     <row r="1002">
       <c r="AL1002" s="26"/>
@@ -43207,6 +44370,7 @@
       <c r="BI1002" s="26"/>
       <c r="BJ1002" s="26"/>
       <c r="BK1002" s="26"/>
+      <c r="BL1002" s="26"/>
     </row>
     <row r="1003">
       <c r="AL1003" s="26"/>
@@ -43235,6 +44399,7 @@
       <c r="BI1003" s="26"/>
       <c r="BJ1003" s="26"/>
       <c r="BK1003" s="26"/>
+      <c r="BL1003" s="26"/>
     </row>
     <row r="1004">
       <c r="AL1004" s="26"/>
@@ -43263,6 +44428,7 @@
       <c r="BI1004" s="26"/>
       <c r="BJ1004" s="26"/>
       <c r="BK1004" s="26"/>
+      <c r="BL1004" s="26"/>
     </row>
     <row r="1005">
       <c r="AL1005" s="26"/>
@@ -43291,6 +44457,7 @@
       <c r="BI1005" s="26"/>
       <c r="BJ1005" s="26"/>
       <c r="BK1005" s="26"/>
+      <c r="BL1005" s="26"/>
     </row>
     <row r="1006">
       <c r="AL1006" s="26"/>
@@ -43319,6 +44486,7 @@
       <c r="BI1006" s="26"/>
       <c r="BJ1006" s="26"/>
       <c r="BK1006" s="26"/>
+      <c r="BL1006" s="26"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -43357,10 +44525,27 @@
       <c r="H1" s="18">
         <v>45513.0</v>
       </c>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
+      <c r="I1" s="18">
+        <v>45514.0</v>
+      </c>
+      <c r="J1" s="18">
+        <v>45515.0</v>
+      </c>
+      <c r="K1" s="18">
+        <v>45516.0</v>
+      </c>
+      <c r="L1" s="18">
+        <v>45517.0</v>
+      </c>
+      <c r="M1" s="18">
+        <v>45518.0</v>
+      </c>
+      <c r="N1" s="18">
+        <v>45519.0</v>
+      </c>
+      <c r="O1" s="18">
+        <v>45520.0</v>
+      </c>
     </row>
     <row r="2" ht="29.25" customHeight="1">
       <c r="A2" s="33" t="s">
@@ -43387,13 +44572,27 @@
       <c r="H2" s="33">
         <v>5592.0</v>
       </c>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
+      <c r="I2" s="33">
+        <v>5571.0</v>
+      </c>
+      <c r="J2" s="33">
+        <v>5568.0</v>
+      </c>
+      <c r="K2" s="33">
+        <v>5506.0</v>
+      </c>
+      <c r="L2" s="33">
+        <v>5560.0</v>
+      </c>
+      <c r="M2" s="33">
+        <v>5579.0</v>
+      </c>
+      <c r="N2" s="33">
+        <v>5590.0</v>
+      </c>
+      <c r="O2" s="33">
+        <v>5567.0</v>
+      </c>
       <c r="P2" s="35"/>
       <c r="Q2" s="35"/>
       <c r="R2" s="35"/>
@@ -43424,13 +44623,27 @@
       <c r="H3" s="33">
         <v>9.0</v>
       </c>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
+      <c r="I3" s="33">
+        <v>22.0</v>
+      </c>
+      <c r="J3" s="33">
+        <v>6.0</v>
+      </c>
+      <c r="K3" s="33">
+        <v>11.0</v>
+      </c>
+      <c r="L3" s="33">
+        <v>7.0</v>
+      </c>
+      <c r="M3" s="33">
+        <v>43.0</v>
+      </c>
+      <c r="N3" s="33">
+        <v>14.0</v>
+      </c>
+      <c r="O3" s="33">
+        <v>5.0</v>
+      </c>
       <c r="P3" s="35"/>
       <c r="Q3" s="35"/>
       <c r="R3" s="35"/>
@@ -43523,6 +44736,7 @@
       <c r="BI1" s="23"/>
       <c r="BJ1" s="23"/>
       <c r="BK1" s="23"/>
+      <c r="BL1" s="23"/>
     </row>
     <row r="2">
       <c r="A2" s="36" t="s">
@@ -43759,6 +44973,9 @@
       <c r="BK2" s="23">
         <v>45513.0</v>
       </c>
+      <c r="BL2" s="23">
+        <v>45520.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="38" t="s">
@@ -44012,6 +45229,10 @@
         <f>Census!BK46</f>
         <v>5592</v>
       </c>
+      <c r="BL3" s="30">
+        <f>Census!BL46</f>
+        <v>5551</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="38" t="s">
@@ -44265,6 +45486,10 @@
         <f>Census!BK6</f>
         <v>9</v>
       </c>
+      <c r="BL4" s="41">
+        <f>Census!BL6</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="35"/>
@@ -44550,7 +45775,9 @@
       <c r="AX38" s="1">
         <v>45513.0</v>
       </c>
-      <c r="AY38" s="1"/>
+      <c r="AY38" s="1">
+        <v>45520.0</v>
+      </c>
       <c r="AZ38" s="1"/>
       <c r="BA38" s="1"/>
       <c r="BB38" s="1"/>
@@ -44563,6 +45790,7 @@
       <c r="BI38" s="1"/>
       <c r="BJ38" s="1"/>
       <c r="BK38" s="1"/>
+      <c r="BL38" s="1"/>
     </row>
     <row r="39">
       <c r="A39" s="33" t="s">
@@ -44764,6 +45992,10 @@
         <f>WeeklyMovement!BK3</f>
         <v>0</v>
       </c>
+      <c r="AY39" s="43">
+        <f>WeeklyMovement!BL3</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="33" t="s">
@@ -44869,201 +46101,209 @@
         <f>WeeklyMovement!BK4</f>
         <v>0</v>
       </c>
+      <c r="AY40" s="43">
+        <f>WeeklyMovement!BL4</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="41" ht="27.0" customHeight="1">
-      <c r="A41" s="43" t="s">
+      <c r="A41" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="44">
+      <c r="C41" s="43">
         <f>WeeklyMovement!P9</f>
         <v>602</v>
       </c>
-      <c r="D41" s="44">
+      <c r="D41" s="43">
         <f>WeeklyMovement!Q9</f>
         <v>826</v>
       </c>
-      <c r="E41" s="44">
+      <c r="E41" s="43">
         <f>WeeklyMovement!R9</f>
         <v>1532</v>
       </c>
-      <c r="F41" s="44">
+      <c r="F41" s="43">
         <f>WeeklyMovement!S9</f>
         <v>2910</v>
       </c>
-      <c r="G41" s="44">
+      <c r="G41" s="43">
         <f>WeeklyMovement!T9</f>
         <v>1739</v>
       </c>
-      <c r="H41" s="44">
+      <c r="H41" s="43">
         <f>WeeklyMovement!U9</f>
         <v>1180</v>
       </c>
-      <c r="I41" s="44">
+      <c r="I41" s="43">
         <f>WeeklyMovement!V9</f>
         <v>646</v>
       </c>
-      <c r="J41" s="44">
+      <c r="J41" s="43">
         <f>WeeklyMovement!W9</f>
         <v>744</v>
       </c>
-      <c r="K41" s="44">
+      <c r="K41" s="43">
         <f>WeeklyMovement!X9</f>
         <v>714</v>
       </c>
-      <c r="L41" s="44">
+      <c r="L41" s="43">
         <f>WeeklyMovement!Y9</f>
         <v>800</v>
       </c>
-      <c r="M41" s="44">
+      <c r="M41" s="43">
         <f>WeeklyMovement!Z9</f>
         <v>1006</v>
       </c>
-      <c r="N41" s="44">
+      <c r="N41" s="43">
         <f>WeeklyMovement!AA9</f>
         <v>1175</v>
       </c>
-      <c r="O41" s="44">
+      <c r="O41" s="43">
         <f>WeeklyMovement!AB9</f>
         <v>1634</v>
       </c>
-      <c r="P41" s="44">
+      <c r="P41" s="43">
         <f>WeeklyMovement!AC9</f>
         <v>1115</v>
       </c>
-      <c r="Q41" s="44">
+      <c r="Q41" s="43">
         <f>WeeklyMovement!AD9</f>
         <v>667</v>
       </c>
-      <c r="R41" s="44">
+      <c r="R41" s="43">
         <f>WeeklyMovement!AE9</f>
         <v>182</v>
       </c>
-      <c r="S41" s="44">
+      <c r="S41" s="43">
         <f>WeeklyMovement!AF9</f>
         <v>0</v>
       </c>
-      <c r="T41" s="44">
+      <c r="T41" s="43">
         <f>WeeklyMovement!AG9</f>
         <v>0</v>
       </c>
-      <c r="U41" s="44">
+      <c r="U41" s="43">
         <f>WeeklyMovement!AH9</f>
         <v>15</v>
       </c>
-      <c r="V41" s="44">
+      <c r="V41" s="43">
         <f>WeeklyMovement!AI9</f>
         <v>5</v>
       </c>
-      <c r="W41" s="44">
+      <c r="W41" s="43">
         <f>WeeklyMovement!AJ9</f>
         <v>2</v>
       </c>
-      <c r="X41" s="44">
+      <c r="X41" s="43">
         <f>WeeklyMovement!AK9</f>
         <v>0</v>
       </c>
-      <c r="Y41" s="44">
+      <c r="Y41" s="43">
         <f>WeeklyMovement!AL9</f>
         <v>0</v>
       </c>
-      <c r="Z41" s="44">
+      <c r="Z41" s="43">
         <f>WeeklyMovement!AM9</f>
         <v>64</v>
       </c>
-      <c r="AA41" s="44">
+      <c r="AA41" s="43">
         <f>WeeklyMovement!AN9</f>
         <v>149</v>
       </c>
-      <c r="AB41" s="44">
+      <c r="AB41" s="43">
         <f>WeeklyMovement!AO9</f>
         <v>253</v>
       </c>
-      <c r="AC41" s="44">
+      <c r="AC41" s="43">
         <f>WeeklyMovement!AP9</f>
         <v>529</v>
       </c>
-      <c r="AD41" s="44">
+      <c r="AD41" s="43">
         <f>WeeklyMovement!AQ9</f>
         <v>525</v>
       </c>
-      <c r="AE41" s="44">
+      <c r="AE41" s="43">
         <f>WeeklyMovement!AR9</f>
         <v>459</v>
       </c>
-      <c r="AF41" s="44">
+      <c r="AF41" s="43">
         <f>WeeklyMovement!AS9</f>
         <v>453</v>
       </c>
-      <c r="AG41" s="44">
+      <c r="AG41" s="43">
         <f>WeeklyMovement!AT9</f>
         <v>522</v>
       </c>
-      <c r="AH41" s="44">
+      <c r="AH41" s="43">
         <f>WeeklyMovement!AU9</f>
         <v>284</v>
       </c>
-      <c r="AI41" s="44">
+      <c r="AI41" s="43">
         <f>WeeklyMovement!AV9</f>
         <v>537</v>
       </c>
-      <c r="AJ41" s="44">
+      <c r="AJ41" s="43">
         <f>WeeklyMovement!AW9</f>
         <v>250</v>
       </c>
-      <c r="AK41" s="44">
+      <c r="AK41" s="43">
         <f>WeeklyMovement!AX9</f>
         <v>155</v>
       </c>
-      <c r="AL41" s="44">
+      <c r="AL41" s="43">
         <f>WeeklyMovement!AY9</f>
         <v>154</v>
       </c>
-      <c r="AM41" s="44">
+      <c r="AM41" s="43">
         <f>WeeklyMovement!AZ9</f>
         <v>272</v>
       </c>
-      <c r="AN41" s="44">
+      <c r="AN41" s="43">
         <f>WeeklyMovement!BA9</f>
         <v>262</v>
       </c>
-      <c r="AO41" s="44">
+      <c r="AO41" s="43">
         <f>WeeklyMovement!BB9</f>
         <v>232</v>
       </c>
-      <c r="AP41" s="44">
+      <c r="AP41" s="43">
         <f>WeeklyMovement!BC9</f>
         <v>0</v>
       </c>
-      <c r="AQ41" s="44">
+      <c r="AQ41" s="43">
         <f>WeeklyMovement!BD9</f>
         <v>0</v>
       </c>
-      <c r="AR41" s="44">
+      <c r="AR41" s="43">
         <f>WeeklyMovement!BE9</f>
         <v>0</v>
       </c>
-      <c r="AS41" s="44">
+      <c r="AS41" s="43">
         <f>WeeklyMovement!BF9</f>
         <v>0</v>
       </c>
-      <c r="AT41" s="44">
+      <c r="AT41" s="43">
         <f>WeeklyMovement!BG9</f>
         <v>0</v>
       </c>
-      <c r="AU41" s="44">
+      <c r="AU41" s="43">
         <f>WeeklyMovement!BH9</f>
         <v>0</v>
       </c>
-      <c r="AV41" s="44">
+      <c r="AV41" s="43">
         <f>WeeklyMovement!BI9</f>
         <v>0</v>
       </c>
-      <c r="AW41" s="44">
+      <c r="AW41" s="43">
         <f>WeeklyMovement!BJ9</f>
         <v>0</v>
       </c>
-      <c r="AX41" s="44">
+      <c r="AX41" s="43">
         <f>WeeklyMovement!BK9</f>
+        <v>0</v>
+      </c>
+      <c r="AY41" s="43">
+        <f>WeeklyMovement!BL9</f>
         <v>0</v>
       </c>
     </row>
@@ -45164,91 +46404,91 @@
         <v>105</v>
       </c>
       <c r="B72" s="18">
-        <v>45506.0</v>
+        <v>45514.0</v>
       </c>
       <c r="C72" s="18">
-        <v>45508.0</v>
+        <v>45515.0</v>
       </c>
       <c r="D72" s="18">
-        <v>45509.0</v>
+        <v>45516.0</v>
       </c>
       <c r="E72" s="18">
-        <v>45510.0</v>
+        <v>45517.0</v>
       </c>
       <c r="F72" s="18">
-        <v>45511.0</v>
+        <v>45518.0</v>
       </c>
       <c r="G72" s="18">
-        <v>45512.0</v>
+        <v>45519.0</v>
       </c>
       <c r="H72" s="18">
-        <v>45513.0</v>
+        <v>45520.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="B73" s="45">
-        <f>DailyCensus!B2</f>
-        <v>5596</v>
-      </c>
-      <c r="C73" s="45">
-        <f>DailyCensus!C2</f>
+      <c r="B73" s="43">
+        <f>DailyCensus!I2</f>
+        <v>5571</v>
+      </c>
+      <c r="C73" s="43">
+        <f>DailyCensus!J2</f>
+        <v>5568</v>
+      </c>
+      <c r="D73" s="43">
+        <f>DailyCensus!K2</f>
+        <v>5506</v>
+      </c>
+      <c r="E73" s="43">
+        <f>DailyCensus!L2</f>
+        <v>5560</v>
+      </c>
+      <c r="F73" s="43">
+        <f>DailyCensus!M2</f>
+        <v>5579</v>
+      </c>
+      <c r="G73" s="43">
+        <f>DailyCensus!N2</f>
+        <v>5590</v>
+      </c>
+      <c r="H73" s="43">
+        <f>DailyCensus!O2</f>
         <v>5567</v>
-      </c>
-      <c r="D73" s="45">
-        <f>DailyCensus!D2</f>
-        <v>5584</v>
-      </c>
-      <c r="E73" s="45">
-        <f>DailyCensus!E2</f>
-        <v>5567</v>
-      </c>
-      <c r="F73" s="45">
-        <f>DailyCensus!F2</f>
-        <v>5566</v>
-      </c>
-      <c r="G73" s="45">
-        <f>DailyCensus!G2</f>
-        <v>5596</v>
-      </c>
-      <c r="H73" s="44">
-        <f>DailyCensus!H2</f>
-        <v>5592</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="B74" s="44">
-        <f>DailyCensus!B3</f>
-        <v>9</v>
-      </c>
-      <c r="C74" s="44">
-        <f>DailyCensus!C3</f>
-        <v>30</v>
-      </c>
-      <c r="D74" s="44">
-        <f>DailyCensus!D3</f>
-        <v>9</v>
-      </c>
-      <c r="E74" s="44">
-        <f>DailyCensus!E3</f>
+      <c r="B74" s="43">
+        <f>DailyCensus!I3</f>
+        <v>22</v>
+      </c>
+      <c r="C74" s="43">
+        <f>DailyCensus!J3</f>
+        <v>6</v>
+      </c>
+      <c r="D74" s="43">
+        <f>DailyCensus!K3</f>
+        <v>11</v>
+      </c>
+      <c r="E74" s="43">
+        <f>DailyCensus!L3</f>
+        <v>7</v>
+      </c>
+      <c r="F74" s="43">
+        <f>DailyCensus!M3</f>
+        <v>43</v>
+      </c>
+      <c r="G74" s="43">
+        <f>DailyCensus!N3</f>
+        <v>14</v>
+      </c>
+      <c r="H74" s="43">
+        <f>DailyCensus!O3</f>
         <v>5</v>
-      </c>
-      <c r="F74" s="44">
-        <f>DailyCensus!F3</f>
-        <v>33</v>
-      </c>
-      <c r="G74" s="44">
-        <f>DailyCensus!G3</f>
-        <v>23</v>
-      </c>
-      <c r="H74" s="44">
-        <f>DailyCensus!H3</f>
-        <v>9</v>
       </c>
     </row>
     <row r="75">
@@ -45317,219 +46557,230 @@
       <c r="A96" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B96" s="46">
+      <c r="B96" s="45">
         <f>WeeklyMovement!AU1</f>
         <v>45401</v>
       </c>
-      <c r="C96" s="46">
+      <c r="C96" s="45">
         <f>WeeklyMovement!AV1</f>
         <v>45408</v>
       </c>
-      <c r="D96" s="46">
+      <c r="D96" s="45">
         <f>WeeklyMovement!AW1</f>
         <v>45415</v>
       </c>
-      <c r="E96" s="46">
+      <c r="E96" s="45">
         <f>WeeklyMovement!AX1</f>
         <v>45422</v>
       </c>
-      <c r="F96" s="46">
+      <c r="F96" s="45">
         <f>WeeklyMovement!AY1</f>
         <v>45429</v>
       </c>
-      <c r="G96" s="46">
+      <c r="G96" s="45">
         <f>WeeklyMovement!AZ1</f>
         <v>45436</v>
       </c>
-      <c r="H96" s="46">
+      <c r="H96" s="45">
         <f>WeeklyMovement!BA1</f>
         <v>45443</v>
       </c>
-      <c r="I96" s="46">
+      <c r="I96" s="45">
         <f>WeeklyMovement!BB1</f>
         <v>45450</v>
       </c>
-      <c r="J96" s="46">
+      <c r="J96" s="45">
         <f>WeeklyMovement!BC1</f>
         <v>45457</v>
       </c>
-      <c r="K96" s="46">
+      <c r="K96" s="45">
         <f>WeeklyMovement!BD1</f>
         <v>45464</v>
       </c>
-      <c r="L96" s="46">
+      <c r="L96" s="45">
         <f>WeeklyMovement!BE1</f>
         <v>45471</v>
       </c>
-      <c r="M96" s="46">
+      <c r="M96" s="45">
         <f>WeeklyMovement!BF1</f>
         <v>45478</v>
       </c>
-      <c r="N96" s="46">
+      <c r="N96" s="45">
         <f>WeeklyMovement!BG1</f>
         <v>45485</v>
       </c>
-      <c r="O96" s="46">
+      <c r="O96" s="45">
         <f>WeeklyMovement!BH1</f>
         <v>45492</v>
       </c>
-      <c r="P96" s="46">
+      <c r="P96" s="45">
         <f>WeeklyMovement!BI1</f>
         <v>45499</v>
       </c>
-      <c r="Q96" s="46">
+      <c r="Q96" s="45">
         <f>WeeklyMovement!BJ1</f>
         <v>45506</v>
       </c>
-      <c r="R96" s="46">
+      <c r="R96" s="45">
         <f>WeeklyMovement!BK1</f>
         <v>45513</v>
+      </c>
+      <c r="S96" s="18">
+        <v>45520.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B97" s="44">
+      <c r="B97" s="43">
         <f>WeeklyMovement!AU7</f>
         <v>86</v>
       </c>
-      <c r="C97" s="44">
+      <c r="C97" s="43">
         <f>WeeklyMovement!AV7</f>
         <v>177</v>
       </c>
-      <c r="D97" s="44">
+      <c r="D97" s="43">
         <f>WeeklyMovement!AW7</f>
         <v>232</v>
       </c>
-      <c r="E97" s="44">
+      <c r="E97" s="43">
         <f>WeeklyMovement!AX7</f>
         <v>55</v>
       </c>
-      <c r="F97" s="44">
+      <c r="F97" s="43">
         <f>WeeklyMovement!AY7</f>
         <v>64</v>
       </c>
-      <c r="G97" s="44">
+      <c r="G97" s="43">
         <f>WeeklyMovement!AZ7</f>
         <v>51</v>
       </c>
-      <c r="H97" s="44">
+      <c r="H97" s="43">
         <f>WeeklyMovement!BA7</f>
         <v>68</v>
       </c>
-      <c r="I97" s="44">
+      <c r="I97" s="43">
         <f>WeeklyMovement!BB7</f>
         <v>86</v>
       </c>
-      <c r="J97" s="44">
+      <c r="J97" s="43">
         <f>WeeklyMovement!BC7</f>
         <v>51</v>
       </c>
-      <c r="K97" s="44">
+      <c r="K97" s="43">
         <f>WeeklyMovement!BD7</f>
         <v>117</v>
       </c>
-      <c r="L97" s="44">
+      <c r="L97" s="43">
         <f>WeeklyMovement!BE7</f>
         <v>152</v>
       </c>
-      <c r="M97" s="44">
+      <c r="M97" s="43">
         <f>WeeklyMovement!BF7</f>
         <v>68</v>
       </c>
-      <c r="N97" s="44">
+      <c r="N97" s="43">
         <f>WeeklyMovement!BG7</f>
         <v>100</v>
       </c>
-      <c r="O97" s="44">
+      <c r="O97" s="43">
         <f>WeeklyMovement!BH7</f>
         <v>65</v>
       </c>
-      <c r="P97" s="44">
+      <c r="P97" s="43">
         <f>WeeklyMovement!BI7</f>
         <v>198</v>
       </c>
-      <c r="Q97" s="44">
+      <c r="Q97" s="43">
         <f>WeeklyMovement!BJ7</f>
         <v>129</v>
       </c>
-      <c r="R97" s="44">
+      <c r="R97" s="43">
         <f>WeeklyMovement!BK7</f>
         <v>87</v>
+      </c>
+      <c r="S97" s="43">
+        <f>WeeklyMovement!BL7</f>
+        <v>67</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B98" s="44">
+      <c r="B98" s="43">
         <f>WeeklyMovement!AU8</f>
         <v>70</v>
       </c>
-      <c r="C98" s="44">
+      <c r="C98" s="43">
         <f>WeeklyMovement!AV8</f>
         <v>108</v>
       </c>
-      <c r="D98" s="44">
+      <c r="D98" s="43">
         <f>WeeklyMovement!AW8</f>
         <v>83</v>
       </c>
-      <c r="E98" s="44">
+      <c r="E98" s="43">
         <f>WeeklyMovement!AX8</f>
         <v>33</v>
       </c>
-      <c r="F98" s="44">
+      <c r="F98" s="43">
         <f>WeeklyMovement!AY8</f>
         <v>36</v>
       </c>
-      <c r="G98" s="44">
+      <c r="G98" s="43">
         <f>WeeklyMovement!AZ8</f>
         <v>37</v>
       </c>
-      <c r="H98" s="44">
+      <c r="H98" s="43">
         <f>WeeklyMovement!BA8</f>
         <v>45</v>
       </c>
-      <c r="I98" s="44">
+      <c r="I98" s="43">
         <f>WeeklyMovement!BB8</f>
         <v>40</v>
       </c>
-      <c r="J98" s="44">
+      <c r="J98" s="43">
         <f>WeeklyMovement!BC8</f>
         <v>32</v>
       </c>
-      <c r="K98" s="44">
+      <c r="K98" s="43">
         <f>WeeklyMovement!BD8</f>
         <v>78</v>
       </c>
-      <c r="L98" s="44">
+      <c r="L98" s="43">
         <f>WeeklyMovement!BE8</f>
         <v>125</v>
       </c>
-      <c r="M98" s="44">
+      <c r="M98" s="43">
         <f>WeeklyMovement!BF8</f>
         <v>51</v>
       </c>
-      <c r="N98" s="44">
+      <c r="N98" s="43">
         <f>WeeklyMovement!BG8</f>
         <v>89</v>
       </c>
-      <c r="O98" s="44">
+      <c r="O98" s="43">
         <f>WeeklyMovement!BH8</f>
         <v>50</v>
       </c>
-      <c r="P98" s="44">
+      <c r="P98" s="43">
         <f>WeeklyMovement!BI8</f>
         <v>172</v>
       </c>
-      <c r="Q98" s="44">
+      <c r="Q98" s="43">
         <f>WeeklyMovement!BJ8</f>
         <v>115</v>
       </c>
-      <c r="R98" s="44">
+      <c r="R98" s="43">
         <f>WeeklyMovement!BK8</f>
         <v>76</v>
+      </c>
+      <c r="S98" s="43">
+        <f>WeeklyMovement!BL8</f>
+        <v>55</v>
       </c>
     </row>
     <row r="99">
@@ -48277,7 +49528,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>109</v>
       </c>
       <c r="B1" s="1">
@@ -51877,7 +53128,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
       <c r="Y23" s="5"/>
-      <c r="Z23" s="48"/>
+      <c r="Z23" s="47"/>
       <c r="AA23" s="12"/>
       <c r="AW23" s="33" t="s">
         <v>130</v>
@@ -51905,7 +53156,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
       <c r="Y24" s="5"/>
-      <c r="Z24" s="48"/>
+      <c r="Z24" s="47"/>
       <c r="AA24" s="12"/>
     </row>
     <row r="25">
@@ -51922,13 +53173,13 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
       <c r="Y25" s="5"/>
-      <c r="Z25" s="48"/>
+      <c r="Z25" s="47"/>
       <c r="AA25" s="12"/>
       <c r="AB25" s="5"/>
       <c r="AC25" s="11"/>
       <c r="AD25" s="12"/>
       <c r="AE25" s="5"/>
-      <c r="AF25" s="48"/>
+      <c r="AF25" s="47"/>
       <c r="AG25" s="12"/>
       <c r="AH25" s="12"/>
       <c r="AI25" s="12"/>
@@ -51973,11 +53224,11 @@
       <c r="Q26" s="5"/>
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
-      <c r="AB26" s="48"/>
+      <c r="AB26" s="47"/>
       <c r="AC26" s="12"/>
-      <c r="AD26" s="49"/>
+      <c r="AD26" s="48"/>
       <c r="AE26" s="5"/>
-      <c r="AF26" s="48"/>
+      <c r="AF26" s="47"/>
       <c r="AG26" s="12"/>
       <c r="AH26" s="12"/>
       <c r="AI26" s="12"/>
@@ -52019,11 +53270,11 @@
       <c r="O27" s="5"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="5"/>
-      <c r="R27" s="48"/>
+      <c r="R27" s="47"/>
       <c r="S27" s="12"/>
       <c r="X27" s="4"/>
       <c r="AA27" s="4"/>
-      <c r="AB27" s="48"/>
+      <c r="AB27" s="47"/>
       <c r="AC27" s="11"/>
       <c r="AD27" s="11"/>
     </row>
@@ -52039,7 +53290,7 @@
       <c r="O28" s="5"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="5"/>
-      <c r="R28" s="48"/>
+      <c r="R28" s="47"/>
       <c r="S28" s="12"/>
       <c r="X28" s="4"/>
       <c r="AA28" s="4"/>
@@ -52060,7 +53311,7 @@
       <c r="O29" s="5"/>
       <c r="P29" s="4"/>
       <c r="Q29" s="5"/>
-      <c r="R29" s="48"/>
+      <c r="R29" s="47"/>
       <c r="S29" s="12"/>
       <c r="X29" s="4"/>
       <c r="AA29" s="4"/>
@@ -52095,7 +53346,7 @@
       <c r="X31" s="4"/>
       <c r="AA31" s="4"/>
       <c r="AC31" s="11"/>
-      <c r="AD31" s="48"/>
+      <c r="AD31" s="47"/>
     </row>
     <row r="32">
       <c r="B32" s="4"/>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -757,11 +757,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="499275672"/>
-        <c:axId val="699355601"/>
+        <c:axId val="428040067"/>
+        <c:axId val="994792337"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="499275672"/>
+        <c:axId val="428040067"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -813,10 +813,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="699355601"/>
+        <c:crossAx val="994792337"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="699355601"/>
+        <c:axId val="994792337"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -891,7 +891,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499275672"/>
+        <c:crossAx val="428040067"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1014,11 +1014,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1568704056"/>
-        <c:axId val="1124337697"/>
+        <c:axId val="3552128"/>
+        <c:axId val="399026844"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1568704056"/>
+        <c:axId val="3552128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1070,10 +1070,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1124337697"/>
+        <c:crossAx val="399026844"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1124337697"/>
+        <c:axId val="399026844"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1148,7 +1148,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1568704056"/>
+        <c:crossAx val="3552128"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1241,11 +1241,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1476029285"/>
-        <c:axId val="1040555011"/>
+        <c:axId val="394871516"/>
+        <c:axId val="838938335"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1476029285"/>
+        <c:axId val="394871516"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1297,10 +1297,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1040555011"/>
+        <c:crossAx val="838938335"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1040555011"/>
+        <c:axId val="838938335"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1375,7 +1375,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1476029285"/>
+        <c:crossAx val="394871516"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1467,11 +1467,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1469471145"/>
-        <c:axId val="1455106292"/>
+        <c:axId val="2029276214"/>
+        <c:axId val="234231"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1469471145"/>
+        <c:axId val="2029276214"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1523,10 +1523,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1455106292"/>
+        <c:crossAx val="234231"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1455106292"/>
+        <c:axId val="234231"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6000.0"/>
@@ -1602,7 +1602,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1469471145"/>
+        <c:crossAx val="2029276214"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1694,11 +1694,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="306805131"/>
-        <c:axId val="133468995"/>
+        <c:axId val="1516602904"/>
+        <c:axId val="1844134125"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="306805131"/>
+        <c:axId val="1516602904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1750,10 +1750,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133468995"/>
+        <c:crossAx val="1844134125"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133468995"/>
+        <c:axId val="1844134125"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1828,7 +1828,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="306805131"/>
+        <c:crossAx val="1516602904"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1949,11 +1949,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="298236024"/>
-        <c:axId val="1912855405"/>
+        <c:axId val="1236978668"/>
+        <c:axId val="868799479"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="298236024"/>
+        <c:axId val="1236978668"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2005,10 +2005,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1912855405"/>
+        <c:crossAx val="868799479"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1912855405"/>
+        <c:axId val="868799479"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2083,7 +2083,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="298236024"/>
+        <c:crossAx val="1236978668"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -757,11 +757,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="428040067"/>
-        <c:axId val="994792337"/>
+        <c:axId val="518601086"/>
+        <c:axId val="1089934291"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="428040067"/>
+        <c:axId val="518601086"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -813,10 +813,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="994792337"/>
+        <c:crossAx val="1089934291"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="994792337"/>
+        <c:axId val="1089934291"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -891,7 +891,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428040067"/>
+        <c:crossAx val="518601086"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1014,11 +1014,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="3552128"/>
-        <c:axId val="399026844"/>
+        <c:axId val="1397452279"/>
+        <c:axId val="394498284"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="3552128"/>
+        <c:axId val="1397452279"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1070,10 +1070,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399026844"/>
+        <c:crossAx val="394498284"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="399026844"/>
+        <c:axId val="394498284"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1148,7 +1148,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3552128"/>
+        <c:crossAx val="1397452279"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1241,11 +1241,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="394871516"/>
-        <c:axId val="838938335"/>
+        <c:axId val="903238577"/>
+        <c:axId val="1509480891"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="394871516"/>
+        <c:axId val="903238577"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1297,10 +1297,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="838938335"/>
+        <c:crossAx val="1509480891"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="838938335"/>
+        <c:axId val="1509480891"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1375,7 +1375,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="394871516"/>
+        <c:crossAx val="903238577"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1467,11 +1467,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="2029276214"/>
-        <c:axId val="234231"/>
+        <c:axId val="1632075442"/>
+        <c:axId val="579447488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2029276214"/>
+        <c:axId val="1632075442"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1523,10 +1523,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="234231"/>
+        <c:crossAx val="579447488"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="234231"/>
+        <c:axId val="579447488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6000.0"/>
@@ -1602,7 +1602,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2029276214"/>
+        <c:crossAx val="1632075442"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1694,11 +1694,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1516602904"/>
-        <c:axId val="1844134125"/>
+        <c:axId val="2125601759"/>
+        <c:axId val="1600891419"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1516602904"/>
+        <c:axId val="2125601759"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1750,10 +1750,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1844134125"/>
+        <c:crossAx val="1600891419"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1844134125"/>
+        <c:axId val="1600891419"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1828,7 +1828,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1516602904"/>
+        <c:crossAx val="2125601759"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1949,11 +1949,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1236978668"/>
-        <c:axId val="868799479"/>
+        <c:axId val="1086035536"/>
+        <c:axId val="2119929904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1236978668"/>
+        <c:axId val="1086035536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2005,10 +2005,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="868799479"/>
+        <c:crossAx val="2119929904"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="868799479"/>
+        <c:axId val="2119929904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2083,7 +2083,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1236978668"/>
+        <c:crossAx val="1086035536"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -757,11 +757,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="518601086"/>
-        <c:axId val="1089934291"/>
+        <c:axId val="471332268"/>
+        <c:axId val="1098519041"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="518601086"/>
+        <c:axId val="471332268"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -813,10 +813,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1089934291"/>
+        <c:crossAx val="1098519041"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1089934291"/>
+        <c:axId val="1098519041"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -891,7 +891,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518601086"/>
+        <c:crossAx val="471332268"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1014,11 +1014,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1397452279"/>
-        <c:axId val="394498284"/>
+        <c:axId val="554468309"/>
+        <c:axId val="2030119444"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1397452279"/>
+        <c:axId val="554468309"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1070,10 +1070,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="394498284"/>
+        <c:crossAx val="2030119444"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="394498284"/>
+        <c:axId val="2030119444"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1148,7 +1148,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1397452279"/>
+        <c:crossAx val="554468309"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1241,11 +1241,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="903238577"/>
-        <c:axId val="1509480891"/>
+        <c:axId val="141256708"/>
+        <c:axId val="1112301352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="903238577"/>
+        <c:axId val="141256708"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1297,10 +1297,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1509480891"/>
+        <c:crossAx val="1112301352"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1509480891"/>
+        <c:axId val="1112301352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1375,7 +1375,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="903238577"/>
+        <c:crossAx val="141256708"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1467,11 +1467,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1632075442"/>
-        <c:axId val="579447488"/>
+        <c:axId val="1968389124"/>
+        <c:axId val="730812574"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1632075442"/>
+        <c:axId val="1968389124"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1523,10 +1523,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="579447488"/>
+        <c:crossAx val="730812574"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="579447488"/>
+        <c:axId val="730812574"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6000.0"/>
@@ -1602,7 +1602,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1632075442"/>
+        <c:crossAx val="1968389124"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1694,11 +1694,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="2125601759"/>
-        <c:axId val="1600891419"/>
+        <c:axId val="1711924704"/>
+        <c:axId val="1130692945"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2125601759"/>
+        <c:axId val="1711924704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1750,10 +1750,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1600891419"/>
+        <c:crossAx val="1130692945"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1600891419"/>
+        <c:axId val="1130692945"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1828,7 +1828,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2125601759"/>
+        <c:crossAx val="1711924704"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1949,11 +1949,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1086035536"/>
-        <c:axId val="2119929904"/>
+        <c:axId val="1177515405"/>
+        <c:axId val="870370443"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1086035536"/>
+        <c:axId val="1177515405"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2005,10 +2005,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2119929904"/>
+        <c:crossAx val="870370443"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2119929904"/>
+        <c:axId val="870370443"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2083,7 +2083,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1086035536"/>
+        <c:crossAx val="1177515405"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -757,11 +757,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="471332268"/>
-        <c:axId val="1098519041"/>
+        <c:axId val="1048805584"/>
+        <c:axId val="1621569493"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="471332268"/>
+        <c:axId val="1048805584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -813,10 +813,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1098519041"/>
+        <c:crossAx val="1621569493"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1098519041"/>
+        <c:axId val="1621569493"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -891,7 +891,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471332268"/>
+        <c:crossAx val="1048805584"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1014,11 +1014,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="554468309"/>
-        <c:axId val="2030119444"/>
+        <c:axId val="571639239"/>
+        <c:axId val="1188872778"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="554468309"/>
+        <c:axId val="571639239"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1070,10 +1070,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2030119444"/>
+        <c:crossAx val="1188872778"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2030119444"/>
+        <c:axId val="1188872778"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1148,7 +1148,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="554468309"/>
+        <c:crossAx val="571639239"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1241,11 +1241,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="141256708"/>
-        <c:axId val="1112301352"/>
+        <c:axId val="999902286"/>
+        <c:axId val="137812337"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="141256708"/>
+        <c:axId val="999902286"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1297,10 +1297,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1112301352"/>
+        <c:crossAx val="137812337"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1112301352"/>
+        <c:axId val="137812337"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1375,7 +1375,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141256708"/>
+        <c:crossAx val="999902286"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1467,11 +1467,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1968389124"/>
-        <c:axId val="730812574"/>
+        <c:axId val="1483126552"/>
+        <c:axId val="875287504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1968389124"/>
+        <c:axId val="1483126552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1523,10 +1523,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="730812574"/>
+        <c:crossAx val="875287504"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="730812574"/>
+        <c:axId val="875287504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6000.0"/>
@@ -1602,7 +1602,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1968389124"/>
+        <c:crossAx val="1483126552"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1694,11 +1694,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1711924704"/>
-        <c:axId val="1130692945"/>
+        <c:axId val="942406380"/>
+        <c:axId val="867038707"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1711924704"/>
+        <c:axId val="942406380"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1750,10 +1750,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1130692945"/>
+        <c:crossAx val="867038707"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1130692945"/>
+        <c:axId val="867038707"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1828,7 +1828,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1711924704"/>
+        <c:crossAx val="942406380"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1949,11 +1949,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1177515405"/>
-        <c:axId val="870370443"/>
+        <c:axId val="1750178667"/>
+        <c:axId val="834096361"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1177515405"/>
+        <c:axId val="1750178667"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2005,10 +2005,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="870370443"/>
+        <c:crossAx val="834096361"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="870370443"/>
+        <c:axId val="834096361"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2083,7 +2083,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1177515405"/>
+        <c:crossAx val="1750178667"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -757,11 +757,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1048805584"/>
-        <c:axId val="1621569493"/>
+        <c:axId val="1798438717"/>
+        <c:axId val="2079037663"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1048805584"/>
+        <c:axId val="1798438717"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -813,10 +813,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1621569493"/>
+        <c:crossAx val="2079037663"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1621569493"/>
+        <c:axId val="2079037663"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -891,7 +891,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1048805584"/>
+        <c:crossAx val="1798438717"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1014,11 +1014,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="571639239"/>
-        <c:axId val="1188872778"/>
+        <c:axId val="851092321"/>
+        <c:axId val="560080751"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="571639239"/>
+        <c:axId val="851092321"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1070,10 +1070,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1188872778"/>
+        <c:crossAx val="560080751"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1188872778"/>
+        <c:axId val="560080751"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1148,7 +1148,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="571639239"/>
+        <c:crossAx val="851092321"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1241,11 +1241,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="999902286"/>
-        <c:axId val="137812337"/>
+        <c:axId val="2141046492"/>
+        <c:axId val="1809348569"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="999902286"/>
+        <c:axId val="2141046492"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1297,10 +1297,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137812337"/>
+        <c:crossAx val="1809348569"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="137812337"/>
+        <c:axId val="1809348569"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1375,7 +1375,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="999902286"/>
+        <c:crossAx val="2141046492"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1467,11 +1467,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1483126552"/>
-        <c:axId val="875287504"/>
+        <c:axId val="1621828323"/>
+        <c:axId val="1852705102"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1483126552"/>
+        <c:axId val="1621828323"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1523,10 +1523,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="875287504"/>
+        <c:crossAx val="1852705102"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="875287504"/>
+        <c:axId val="1852705102"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6000.0"/>
@@ -1602,7 +1602,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1483126552"/>
+        <c:crossAx val="1621828323"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1694,11 +1694,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="942406380"/>
-        <c:axId val="867038707"/>
+        <c:axId val="1719480984"/>
+        <c:axId val="876718497"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="942406380"/>
+        <c:axId val="1719480984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1750,10 +1750,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="867038707"/>
+        <c:crossAx val="876718497"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="867038707"/>
+        <c:axId val="876718497"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1828,7 +1828,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="942406380"/>
+        <c:crossAx val="1719480984"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1949,11 +1949,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1750178667"/>
-        <c:axId val="834096361"/>
+        <c:axId val="313938745"/>
+        <c:axId val="345444048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1750178667"/>
+        <c:axId val="313938745"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2005,10 +2005,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="834096361"/>
+        <c:crossAx val="345444048"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="834096361"/>
+        <c:axId val="345444048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2083,7 +2083,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1750178667"/>
+        <c:crossAx val="313938745"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -757,11 +757,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1798438717"/>
-        <c:axId val="2079037663"/>
+        <c:axId val="982096604"/>
+        <c:axId val="482947119"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1798438717"/>
+        <c:axId val="982096604"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -813,10 +813,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2079037663"/>
+        <c:crossAx val="482947119"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2079037663"/>
+        <c:axId val="482947119"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -891,7 +891,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1798438717"/>
+        <c:crossAx val="982096604"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1014,11 +1014,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="851092321"/>
-        <c:axId val="560080751"/>
+        <c:axId val="616933153"/>
+        <c:axId val="422728454"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="851092321"/>
+        <c:axId val="616933153"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1070,10 +1070,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="560080751"/>
+        <c:crossAx val="422728454"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="560080751"/>
+        <c:axId val="422728454"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1148,7 +1148,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="851092321"/>
+        <c:crossAx val="616933153"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1241,11 +1241,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="2141046492"/>
-        <c:axId val="1809348569"/>
+        <c:axId val="2137942368"/>
+        <c:axId val="27392957"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2141046492"/>
+        <c:axId val="2137942368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1297,10 +1297,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1809348569"/>
+        <c:crossAx val="27392957"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1809348569"/>
+        <c:axId val="27392957"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1375,7 +1375,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2141046492"/>
+        <c:crossAx val="2137942368"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1467,11 +1467,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1621828323"/>
-        <c:axId val="1852705102"/>
+        <c:axId val="2091258355"/>
+        <c:axId val="1405439271"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1621828323"/>
+        <c:axId val="2091258355"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1523,10 +1523,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1852705102"/>
+        <c:crossAx val="1405439271"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1852705102"/>
+        <c:axId val="1405439271"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6000.0"/>
@@ -1602,7 +1602,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1621828323"/>
+        <c:crossAx val="2091258355"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1694,11 +1694,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1719480984"/>
-        <c:axId val="876718497"/>
+        <c:axId val="1396866526"/>
+        <c:axId val="1761122303"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1719480984"/>
+        <c:axId val="1396866526"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1750,10 +1750,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="876718497"/>
+        <c:crossAx val="1761122303"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="876718497"/>
+        <c:axId val="1761122303"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1828,7 +1828,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1719480984"/>
+        <c:crossAx val="1396866526"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1949,11 +1949,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="313938745"/>
-        <c:axId val="345444048"/>
+        <c:axId val="1192152365"/>
+        <c:axId val="1545473407"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="313938745"/>
+        <c:axId val="1192152365"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2005,10 +2005,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="345444048"/>
+        <c:crossAx val="1545473407"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="345444048"/>
+        <c:axId val="1545473407"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2083,7 +2083,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="313938745"/>
+        <c:crossAx val="1192152365"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -757,11 +757,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="982096604"/>
-        <c:axId val="482947119"/>
+        <c:axId val="1375063819"/>
+        <c:axId val="751390075"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="982096604"/>
+        <c:axId val="1375063819"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -813,10 +813,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482947119"/>
+        <c:crossAx val="751390075"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="482947119"/>
+        <c:axId val="751390075"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -891,7 +891,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="982096604"/>
+        <c:crossAx val="1375063819"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1014,11 +1014,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="616933153"/>
-        <c:axId val="422728454"/>
+        <c:axId val="653919663"/>
+        <c:axId val="775092381"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="616933153"/>
+        <c:axId val="653919663"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1070,10 +1070,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="422728454"/>
+        <c:crossAx val="775092381"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="422728454"/>
+        <c:axId val="775092381"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1148,7 +1148,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616933153"/>
+        <c:crossAx val="653919663"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1241,11 +1241,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="2137942368"/>
-        <c:axId val="27392957"/>
+        <c:axId val="1031729599"/>
+        <c:axId val="118291530"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2137942368"/>
+        <c:axId val="1031729599"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1297,10 +1297,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27392957"/>
+        <c:crossAx val="118291530"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="27392957"/>
+        <c:axId val="118291530"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1375,7 +1375,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2137942368"/>
+        <c:crossAx val="1031729599"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1467,11 +1467,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="2091258355"/>
-        <c:axId val="1405439271"/>
+        <c:axId val="396171672"/>
+        <c:axId val="959523890"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2091258355"/>
+        <c:axId val="396171672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1523,10 +1523,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1405439271"/>
+        <c:crossAx val="959523890"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1405439271"/>
+        <c:axId val="959523890"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6000.0"/>
@@ -1602,7 +1602,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2091258355"/>
+        <c:crossAx val="396171672"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1694,11 +1694,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1396866526"/>
-        <c:axId val="1761122303"/>
+        <c:axId val="383229797"/>
+        <c:axId val="1622944865"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1396866526"/>
+        <c:axId val="383229797"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1750,10 +1750,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1761122303"/>
+        <c:crossAx val="1622944865"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1761122303"/>
+        <c:axId val="1622944865"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1828,7 +1828,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1396866526"/>
+        <c:crossAx val="383229797"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1949,11 +1949,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1192152365"/>
-        <c:axId val="1545473407"/>
+        <c:axId val="1668475285"/>
+        <c:axId val="883114292"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1192152365"/>
+        <c:axId val="1668475285"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2005,10 +2005,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1545473407"/>
+        <c:crossAx val="883114292"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1545473407"/>
+        <c:axId val="883114292"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2083,7 +2083,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1192152365"/>
+        <c:crossAx val="1668475285"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -760,11 +760,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="3903437"/>
-        <c:axId val="1998453469"/>
+        <c:axId val="2048000913"/>
+        <c:axId val="849933064"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="3903437"/>
+        <c:axId val="2048000913"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -816,10 +816,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1998453469"/>
+        <c:crossAx val="849933064"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1998453469"/>
+        <c:axId val="849933064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -894,7 +894,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3903437"/>
+        <c:crossAx val="2048000913"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1017,11 +1017,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="2100098980"/>
-        <c:axId val="488951853"/>
+        <c:axId val="1400841068"/>
+        <c:axId val="1821448772"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2100098980"/>
+        <c:axId val="1400841068"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1073,10 +1073,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488951853"/>
+        <c:crossAx val="1821448772"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="488951853"/>
+        <c:axId val="1821448772"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1151,7 +1151,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2100098980"/>
+        <c:crossAx val="1400841068"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1244,11 +1244,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1978778686"/>
-        <c:axId val="1391667281"/>
+        <c:axId val="936236642"/>
+        <c:axId val="1194677893"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1978778686"/>
+        <c:axId val="936236642"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1300,10 +1300,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1391667281"/>
+        <c:crossAx val="1194677893"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1391667281"/>
+        <c:axId val="1194677893"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1378,7 +1378,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1978778686"/>
+        <c:crossAx val="936236642"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1470,11 +1470,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="441281856"/>
-        <c:axId val="825992851"/>
+        <c:axId val="1512586130"/>
+        <c:axId val="166222485"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="441281856"/>
+        <c:axId val="1512586130"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1526,10 +1526,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="825992851"/>
+        <c:crossAx val="166222485"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="825992851"/>
+        <c:axId val="166222485"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6000.0"/>
@@ -1605,7 +1605,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441281856"/>
+        <c:crossAx val="1512586130"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1697,11 +1697,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="616416823"/>
-        <c:axId val="178056337"/>
+        <c:axId val="1463477657"/>
+        <c:axId val="1697666973"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="616416823"/>
+        <c:axId val="1463477657"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1753,10 +1753,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178056337"/>
+        <c:crossAx val="1697666973"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="178056337"/>
+        <c:axId val="1697666973"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1831,7 +1831,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616416823"/>
+        <c:crossAx val="1463477657"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1952,11 +1952,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="352204573"/>
-        <c:axId val="1991346498"/>
+        <c:axId val="1740842106"/>
+        <c:axId val="331729529"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="352204573"/>
+        <c:axId val="1740842106"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2008,10 +2008,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1991346498"/>
+        <c:crossAx val="331729529"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1991346498"/>
+        <c:axId val="331729529"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2086,7 +2086,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352204573"/>
+        <c:crossAx val="1740842106"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -760,11 +760,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="2048000913"/>
-        <c:axId val="849933064"/>
+        <c:axId val="1104196640"/>
+        <c:axId val="1444495734"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="2048000913"/>
+        <c:axId val="1104196640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -816,10 +816,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="849933064"/>
+        <c:crossAx val="1444495734"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="849933064"/>
+        <c:axId val="1444495734"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -894,7 +894,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2048000913"/>
+        <c:crossAx val="1104196640"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1017,11 +1017,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1400841068"/>
-        <c:axId val="1821448772"/>
+        <c:axId val="994529704"/>
+        <c:axId val="1443573938"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1400841068"/>
+        <c:axId val="994529704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1073,10 +1073,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1821448772"/>
+        <c:crossAx val="1443573938"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1821448772"/>
+        <c:axId val="1443573938"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1151,7 +1151,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1400841068"/>
+        <c:crossAx val="994529704"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1244,11 +1244,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="936236642"/>
-        <c:axId val="1194677893"/>
+        <c:axId val="850623754"/>
+        <c:axId val="869571597"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="936236642"/>
+        <c:axId val="850623754"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1300,10 +1300,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1194677893"/>
+        <c:crossAx val="869571597"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1194677893"/>
+        <c:axId val="869571597"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1378,7 +1378,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="936236642"/>
+        <c:crossAx val="850623754"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1470,11 +1470,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1512586130"/>
-        <c:axId val="166222485"/>
+        <c:axId val="1905581930"/>
+        <c:axId val="355131371"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1512586130"/>
+        <c:axId val="1905581930"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1526,10 +1526,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166222485"/>
+        <c:crossAx val="355131371"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="166222485"/>
+        <c:axId val="355131371"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6000.0"/>
@@ -1605,7 +1605,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1512586130"/>
+        <c:crossAx val="1905581930"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1697,11 +1697,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1463477657"/>
-        <c:axId val="1697666973"/>
+        <c:axId val="142915573"/>
+        <c:axId val="2071109137"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1463477657"/>
+        <c:axId val="142915573"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1753,10 +1753,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1697666973"/>
+        <c:crossAx val="2071109137"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1697666973"/>
+        <c:axId val="2071109137"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1831,7 +1831,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1463477657"/>
+        <c:crossAx val="142915573"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1952,11 +1952,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1740842106"/>
-        <c:axId val="331729529"/>
+        <c:axId val="355633930"/>
+        <c:axId val="303103491"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1740842106"/>
+        <c:axId val="355633930"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2008,10 +2008,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331729529"/>
+        <c:crossAx val="303103491"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="331729529"/>
+        <c:axId val="303103491"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2086,7 +2086,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1740842106"/>
+        <c:crossAx val="355633930"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -760,11 +760,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1104196640"/>
-        <c:axId val="1444495734"/>
+        <c:axId val="132694725"/>
+        <c:axId val="677647933"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1104196640"/>
+        <c:axId val="132694725"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -816,10 +816,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1444495734"/>
+        <c:crossAx val="677647933"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1444495734"/>
+        <c:axId val="677647933"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -894,7 +894,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1104196640"/>
+        <c:crossAx val="132694725"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1017,11 +1017,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="994529704"/>
-        <c:axId val="1443573938"/>
+        <c:axId val="725700158"/>
+        <c:axId val="15297504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="994529704"/>
+        <c:axId val="725700158"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1073,10 +1073,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1443573938"/>
+        <c:crossAx val="15297504"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1443573938"/>
+        <c:axId val="15297504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1151,7 +1151,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="994529704"/>
+        <c:crossAx val="725700158"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1244,11 +1244,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="850623754"/>
-        <c:axId val="869571597"/>
+        <c:axId val="40851668"/>
+        <c:axId val="462353364"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="850623754"/>
+        <c:axId val="40851668"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1300,10 +1300,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="869571597"/>
+        <c:crossAx val="462353364"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="869571597"/>
+        <c:axId val="462353364"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1378,7 +1378,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="850623754"/>
+        <c:crossAx val="40851668"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1470,11 +1470,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1905581930"/>
-        <c:axId val="355131371"/>
+        <c:axId val="1543393756"/>
+        <c:axId val="375185284"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1905581930"/>
+        <c:axId val="1543393756"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1526,10 +1526,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="355131371"/>
+        <c:crossAx val="375185284"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="355131371"/>
+        <c:axId val="375185284"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6000.0"/>
@@ -1605,7 +1605,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1905581930"/>
+        <c:crossAx val="1543393756"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1697,11 +1697,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="142915573"/>
-        <c:axId val="2071109137"/>
+        <c:axId val="1615006258"/>
+        <c:axId val="254593805"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="142915573"/>
+        <c:axId val="1615006258"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1753,10 +1753,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2071109137"/>
+        <c:crossAx val="254593805"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2071109137"/>
+        <c:axId val="254593805"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1831,7 +1831,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142915573"/>
+        <c:crossAx val="1615006258"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1952,11 +1952,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="355633930"/>
-        <c:axId val="303103491"/>
+        <c:axId val="1848118290"/>
+        <c:axId val="1109790856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="355633930"/>
+        <c:axId val="1848118290"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2008,10 +2008,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="303103491"/>
+        <c:crossAx val="1109790856"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="303103491"/>
+        <c:axId val="1109790856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2086,7 +2086,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="355633930"/>
+        <c:crossAx val="1848118290"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -760,11 +760,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="930798922"/>
-        <c:axId val="969110427"/>
+        <c:axId val="527482810"/>
+        <c:axId val="1713743906"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="930798922"/>
+        <c:axId val="527482810"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -816,10 +816,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="969110427"/>
+        <c:crossAx val="1713743906"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="969110427"/>
+        <c:axId val="1713743906"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -894,7 +894,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="930798922"/>
+        <c:crossAx val="527482810"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1017,11 +1017,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1909090826"/>
-        <c:axId val="1454350372"/>
+        <c:axId val="1697503818"/>
+        <c:axId val="1994095107"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1909090826"/>
+        <c:axId val="1697503818"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1073,10 +1073,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1454350372"/>
+        <c:crossAx val="1994095107"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1454350372"/>
+        <c:axId val="1994095107"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1151,7 +1151,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1909090826"/>
+        <c:crossAx val="1697503818"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1244,11 +1244,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="897002791"/>
-        <c:axId val="1071531869"/>
+        <c:axId val="1003134417"/>
+        <c:axId val="306828975"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="897002791"/>
+        <c:axId val="1003134417"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1300,10 +1300,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1071531869"/>
+        <c:crossAx val="306828975"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1071531869"/>
+        <c:axId val="306828975"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1378,7 +1378,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="897002791"/>
+        <c:crossAx val="1003134417"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1470,11 +1470,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="660063352"/>
-        <c:axId val="1945663031"/>
+        <c:axId val="494200612"/>
+        <c:axId val="160495159"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="660063352"/>
+        <c:axId val="494200612"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1526,10 +1526,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1945663031"/>
+        <c:crossAx val="160495159"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1945663031"/>
+        <c:axId val="160495159"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6000.0"/>
@@ -1605,7 +1605,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="660063352"/>
+        <c:crossAx val="494200612"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1697,11 +1697,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1597123691"/>
-        <c:axId val="966508788"/>
+        <c:axId val="164146947"/>
+        <c:axId val="105440861"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1597123691"/>
+        <c:axId val="164146947"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1753,10 +1753,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="966508788"/>
+        <c:crossAx val="105440861"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="966508788"/>
+        <c:axId val="105440861"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1831,7 +1831,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1597123691"/>
+        <c:crossAx val="164146947"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1952,11 +1952,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="2001798847"/>
-        <c:axId val="640387637"/>
+        <c:axId val="741644288"/>
+        <c:axId val="422621679"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2001798847"/>
+        <c:axId val="741644288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2008,10 +2008,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="640387637"/>
+        <c:crossAx val="422621679"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="640387637"/>
+        <c:axId val="422621679"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2086,7 +2086,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2001798847"/>
+        <c:crossAx val="741644288"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -760,11 +760,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="527482810"/>
-        <c:axId val="1713743906"/>
+        <c:axId val="1819889389"/>
+        <c:axId val="1344617280"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="527482810"/>
+        <c:axId val="1819889389"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -816,10 +816,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1713743906"/>
+        <c:crossAx val="1344617280"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1713743906"/>
+        <c:axId val="1344617280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -894,7 +894,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527482810"/>
+        <c:crossAx val="1819889389"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1017,11 +1017,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1697503818"/>
-        <c:axId val="1994095107"/>
+        <c:axId val="1326396960"/>
+        <c:axId val="783566619"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1697503818"/>
+        <c:axId val="1326396960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1073,10 +1073,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1994095107"/>
+        <c:crossAx val="783566619"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1994095107"/>
+        <c:axId val="783566619"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1151,7 +1151,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1697503818"/>
+        <c:crossAx val="1326396960"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1244,11 +1244,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1003134417"/>
-        <c:axId val="306828975"/>
+        <c:axId val="1988130843"/>
+        <c:axId val="317929027"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1003134417"/>
+        <c:axId val="1988130843"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1300,10 +1300,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="306828975"/>
+        <c:crossAx val="317929027"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="306828975"/>
+        <c:axId val="317929027"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1378,7 +1378,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1003134417"/>
+        <c:crossAx val="1988130843"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1470,11 +1470,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="494200612"/>
-        <c:axId val="160495159"/>
+        <c:axId val="1885052143"/>
+        <c:axId val="1892068999"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="494200612"/>
+        <c:axId val="1885052143"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1526,10 +1526,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160495159"/>
+        <c:crossAx val="1892068999"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160495159"/>
+        <c:axId val="1892068999"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6000.0"/>
@@ -1605,7 +1605,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494200612"/>
+        <c:crossAx val="1885052143"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1697,11 +1697,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="164146947"/>
-        <c:axId val="105440861"/>
+        <c:axId val="1200104089"/>
+        <c:axId val="82282355"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="164146947"/>
+        <c:axId val="1200104089"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1753,10 +1753,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105440861"/>
+        <c:crossAx val="82282355"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105440861"/>
+        <c:axId val="82282355"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1831,7 +1831,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164146947"/>
+        <c:crossAx val="1200104089"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1952,11 +1952,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="741644288"/>
-        <c:axId val="422621679"/>
+        <c:axId val="77093875"/>
+        <c:axId val="124577797"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="741644288"/>
+        <c:axId val="77093875"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2008,10 +2008,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="422621679"/>
+        <c:crossAx val="124577797"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="422621679"/>
+        <c:axId val="124577797"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2086,7 +2086,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="741644288"/>
+        <c:crossAx val="77093875"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -760,11 +760,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1819889389"/>
-        <c:axId val="1344617280"/>
+        <c:axId val="1967427192"/>
+        <c:axId val="718706781"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1819889389"/>
+        <c:axId val="1967427192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -816,10 +816,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1344617280"/>
+        <c:crossAx val="718706781"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1344617280"/>
+        <c:axId val="718706781"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -894,7 +894,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1819889389"/>
+        <c:crossAx val="1967427192"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1017,11 +1017,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1326396960"/>
-        <c:axId val="783566619"/>
+        <c:axId val="137815540"/>
+        <c:axId val="90485557"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1326396960"/>
+        <c:axId val="137815540"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1073,10 +1073,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="783566619"/>
+        <c:crossAx val="90485557"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="783566619"/>
+        <c:axId val="90485557"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1151,7 +1151,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1326396960"/>
+        <c:crossAx val="137815540"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1244,11 +1244,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1988130843"/>
-        <c:axId val="317929027"/>
+        <c:axId val="771728988"/>
+        <c:axId val="1689873408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1988130843"/>
+        <c:axId val="771728988"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1300,10 +1300,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317929027"/>
+        <c:crossAx val="1689873408"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="317929027"/>
+        <c:axId val="1689873408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1378,7 +1378,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1988130843"/>
+        <c:crossAx val="771728988"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1470,11 +1470,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1885052143"/>
-        <c:axId val="1892068999"/>
+        <c:axId val="1560409729"/>
+        <c:axId val="33290802"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1885052143"/>
+        <c:axId val="1560409729"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1526,10 +1526,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1892068999"/>
+        <c:crossAx val="33290802"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1892068999"/>
+        <c:axId val="33290802"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6000.0"/>
@@ -1605,7 +1605,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1885052143"/>
+        <c:crossAx val="1560409729"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1697,11 +1697,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1200104089"/>
-        <c:axId val="82282355"/>
+        <c:axId val="1077622841"/>
+        <c:axId val="1277104890"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1200104089"/>
+        <c:axId val="1077622841"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1753,10 +1753,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82282355"/>
+        <c:crossAx val="1277104890"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82282355"/>
+        <c:axId val="1277104890"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1831,7 +1831,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1200104089"/>
+        <c:crossAx val="1077622841"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1952,11 +1952,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="77093875"/>
-        <c:axId val="124577797"/>
+        <c:axId val="649513194"/>
+        <c:axId val="1560450402"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="77093875"/>
+        <c:axId val="649513194"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2008,10 +2008,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124577797"/>
+        <c:crossAx val="1560450402"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="124577797"/>
+        <c:axId val="1560450402"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2086,7 +2086,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77093875"/>
+        <c:crossAx val="649513194"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -760,11 +760,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1967427192"/>
-        <c:axId val="718706781"/>
+        <c:axId val="204035154"/>
+        <c:axId val="139589219"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1967427192"/>
+        <c:axId val="204035154"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -816,10 +816,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="718706781"/>
+        <c:crossAx val="139589219"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="718706781"/>
+        <c:axId val="139589219"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -894,7 +894,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1967427192"/>
+        <c:crossAx val="204035154"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1017,11 +1017,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="137815540"/>
-        <c:axId val="90485557"/>
+        <c:axId val="566187986"/>
+        <c:axId val="1042005483"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="137815540"/>
+        <c:axId val="566187986"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1073,10 +1073,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90485557"/>
+        <c:crossAx val="1042005483"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90485557"/>
+        <c:axId val="1042005483"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1151,7 +1151,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137815540"/>
+        <c:crossAx val="566187986"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1244,11 +1244,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="771728988"/>
-        <c:axId val="1689873408"/>
+        <c:axId val="950511201"/>
+        <c:axId val="356157180"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="771728988"/>
+        <c:axId val="950511201"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1300,10 +1300,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1689873408"/>
+        <c:crossAx val="356157180"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1689873408"/>
+        <c:axId val="356157180"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1378,7 +1378,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="771728988"/>
+        <c:crossAx val="950511201"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1470,11 +1470,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1560409729"/>
-        <c:axId val="33290802"/>
+        <c:axId val="476774214"/>
+        <c:axId val="736167572"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1560409729"/>
+        <c:axId val="476774214"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1526,10 +1526,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33290802"/>
+        <c:crossAx val="736167572"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="33290802"/>
+        <c:axId val="736167572"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6000.0"/>
@@ -1605,7 +1605,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1560409729"/>
+        <c:crossAx val="476774214"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1697,11 +1697,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1077622841"/>
-        <c:axId val="1277104890"/>
+        <c:axId val="587701843"/>
+        <c:axId val="1394149071"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1077622841"/>
+        <c:axId val="587701843"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1753,10 +1753,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1277104890"/>
+        <c:crossAx val="1394149071"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1277104890"/>
+        <c:axId val="1394149071"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1831,7 +1831,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1077622841"/>
+        <c:crossAx val="587701843"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1952,11 +1952,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="649513194"/>
-        <c:axId val="1560450402"/>
+        <c:axId val="30729393"/>
+        <c:axId val="1094588036"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="649513194"/>
+        <c:axId val="30729393"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2008,10 +2008,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1560450402"/>
+        <c:crossAx val="1094588036"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1560450402"/>
+        <c:axId val="1094588036"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2086,7 +2086,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="649513194"/>
+        <c:crossAx val="30729393"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -760,11 +760,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="204035154"/>
-        <c:axId val="139589219"/>
+        <c:axId val="1850311226"/>
+        <c:axId val="874282338"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="204035154"/>
+        <c:axId val="1850311226"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -816,10 +816,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139589219"/>
+        <c:crossAx val="874282338"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139589219"/>
+        <c:axId val="874282338"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -894,7 +894,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="204035154"/>
+        <c:crossAx val="1850311226"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1017,11 +1017,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="566187986"/>
-        <c:axId val="1042005483"/>
+        <c:axId val="236183222"/>
+        <c:axId val="1877118464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="566187986"/>
+        <c:axId val="236183222"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1073,10 +1073,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1042005483"/>
+        <c:crossAx val="1877118464"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1042005483"/>
+        <c:axId val="1877118464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1151,7 +1151,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="566187986"/>
+        <c:crossAx val="236183222"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1244,11 +1244,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="950511201"/>
-        <c:axId val="356157180"/>
+        <c:axId val="1177042173"/>
+        <c:axId val="1053264648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="950511201"/>
+        <c:axId val="1177042173"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1300,10 +1300,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="356157180"/>
+        <c:crossAx val="1053264648"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="356157180"/>
+        <c:axId val="1053264648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1378,7 +1378,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="950511201"/>
+        <c:crossAx val="1177042173"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1470,11 +1470,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="476774214"/>
-        <c:axId val="736167572"/>
+        <c:axId val="633767873"/>
+        <c:axId val="355075121"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="476774214"/>
+        <c:axId val="633767873"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1526,10 +1526,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="736167572"/>
+        <c:crossAx val="355075121"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="736167572"/>
+        <c:axId val="355075121"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6000.0"/>
@@ -1605,7 +1605,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476774214"/>
+        <c:crossAx val="633767873"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1697,11 +1697,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="587701843"/>
-        <c:axId val="1394149071"/>
+        <c:axId val="799597940"/>
+        <c:axId val="1189622790"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="587701843"/>
+        <c:axId val="799597940"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1753,10 +1753,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1394149071"/>
+        <c:crossAx val="1189622790"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1394149071"/>
+        <c:axId val="1189622790"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1831,7 +1831,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="587701843"/>
+        <c:crossAx val="799597940"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1952,11 +1952,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="30729393"/>
-        <c:axId val="1094588036"/>
+        <c:axId val="53907915"/>
+        <c:axId val="1883048949"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="30729393"/>
+        <c:axId val="53907915"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2008,10 +2008,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1094588036"/>
+        <c:crossAx val="1883048949"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1094588036"/>
+        <c:axId val="1883048949"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2086,7 +2086,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30729393"/>
+        <c:crossAx val="53907915"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -760,11 +760,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1850311226"/>
-        <c:axId val="874282338"/>
+        <c:axId val="698535035"/>
+        <c:axId val="1822702642"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1850311226"/>
+        <c:axId val="698535035"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -816,10 +816,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="874282338"/>
+        <c:crossAx val="1822702642"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="874282338"/>
+        <c:axId val="1822702642"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -894,7 +894,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1850311226"/>
+        <c:crossAx val="698535035"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1017,11 +1017,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="236183222"/>
-        <c:axId val="1877118464"/>
+        <c:axId val="1151072751"/>
+        <c:axId val="869758891"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="236183222"/>
+        <c:axId val="1151072751"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1073,10 +1073,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1877118464"/>
+        <c:crossAx val="869758891"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1877118464"/>
+        <c:axId val="869758891"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1151,7 +1151,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="236183222"/>
+        <c:crossAx val="1151072751"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1244,11 +1244,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1177042173"/>
-        <c:axId val="1053264648"/>
+        <c:axId val="1390547184"/>
+        <c:axId val="2097110696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1177042173"/>
+        <c:axId val="1390547184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1300,10 +1300,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1053264648"/>
+        <c:crossAx val="2097110696"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1053264648"/>
+        <c:axId val="2097110696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1378,7 +1378,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1177042173"/>
+        <c:crossAx val="1390547184"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1470,11 +1470,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="633767873"/>
-        <c:axId val="355075121"/>
+        <c:axId val="539304820"/>
+        <c:axId val="1993811165"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="633767873"/>
+        <c:axId val="539304820"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1526,10 +1526,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="355075121"/>
+        <c:crossAx val="1993811165"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="355075121"/>
+        <c:axId val="1993811165"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6000.0"/>
@@ -1605,7 +1605,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="633767873"/>
+        <c:crossAx val="539304820"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1697,11 +1697,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="799597940"/>
-        <c:axId val="1189622790"/>
+        <c:axId val="169802828"/>
+        <c:axId val="543550308"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="799597940"/>
+        <c:axId val="169802828"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1753,10 +1753,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1189622790"/>
+        <c:crossAx val="543550308"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1189622790"/>
+        <c:axId val="543550308"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1831,7 +1831,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="799597940"/>
+        <c:crossAx val="169802828"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1952,11 +1952,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="53907915"/>
-        <c:axId val="1883048949"/>
+        <c:axId val="510731067"/>
+        <c:axId val="1710012131"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="53907915"/>
+        <c:axId val="510731067"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2008,10 +2008,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1883048949"/>
+        <c:crossAx val="1710012131"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1883048949"/>
+        <c:axId val="1710012131"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2086,7 +2086,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53907915"/>
+        <c:crossAx val="510731067"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -760,11 +760,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="698535035"/>
-        <c:axId val="1822702642"/>
+        <c:axId val="1700923886"/>
+        <c:axId val="1294964002"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="698535035"/>
+        <c:axId val="1700923886"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -816,10 +816,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1822702642"/>
+        <c:crossAx val="1294964002"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1822702642"/>
+        <c:axId val="1294964002"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -894,7 +894,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="698535035"/>
+        <c:crossAx val="1700923886"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1017,11 +1017,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1151072751"/>
-        <c:axId val="869758891"/>
+        <c:axId val="946499572"/>
+        <c:axId val="1881738813"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1151072751"/>
+        <c:axId val="946499572"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1073,10 +1073,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="869758891"/>
+        <c:crossAx val="1881738813"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="869758891"/>
+        <c:axId val="1881738813"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1151,7 +1151,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1151072751"/>
+        <c:crossAx val="946499572"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1244,11 +1244,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1390547184"/>
-        <c:axId val="2097110696"/>
+        <c:axId val="1918805061"/>
+        <c:axId val="293504354"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1390547184"/>
+        <c:axId val="1918805061"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1300,10 +1300,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2097110696"/>
+        <c:crossAx val="293504354"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2097110696"/>
+        <c:axId val="293504354"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1378,7 +1378,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1390547184"/>
+        <c:crossAx val="1918805061"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1470,11 +1470,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="539304820"/>
-        <c:axId val="1993811165"/>
+        <c:axId val="1265277413"/>
+        <c:axId val="720023725"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="539304820"/>
+        <c:axId val="1265277413"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1526,10 +1526,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1993811165"/>
+        <c:crossAx val="720023725"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1993811165"/>
+        <c:axId val="720023725"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6000.0"/>
@@ -1605,7 +1605,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="539304820"/>
+        <c:crossAx val="1265277413"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1697,11 +1697,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="169802828"/>
-        <c:axId val="543550308"/>
+        <c:axId val="1860610647"/>
+        <c:axId val="803170541"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="169802828"/>
+        <c:axId val="1860610647"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1753,10 +1753,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543550308"/>
+        <c:crossAx val="803170541"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="543550308"/>
+        <c:axId val="803170541"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1831,7 +1831,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="169802828"/>
+        <c:crossAx val="1860610647"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1952,11 +1952,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="510731067"/>
-        <c:axId val="1710012131"/>
+        <c:axId val="1733276930"/>
+        <c:axId val="1469621871"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="510731067"/>
+        <c:axId val="1733276930"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2008,10 +2008,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1710012131"/>
+        <c:crossAx val="1469621871"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1710012131"/>
+        <c:axId val="1469621871"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2086,7 +2086,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510731067"/>
+        <c:crossAx val="1733276930"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -716,12 +716,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Charts!$B$2:$BM$2</c:f>
+              <c:f>Charts!$B$2:$BO$2</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$B$3:$BM$3</c:f>
+              <c:f>Charts!$B$3:$BO$3</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -750,21 +750,21 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Charts!$B$2:$BM$2</c:f>
+              <c:f>Charts!$B$2:$BO$2</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$B$4:$BM$4</c:f>
+              <c:f>Charts!$B$4:$BO$4</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1700923886"/>
-        <c:axId val="1294964002"/>
+        <c:axId val="537783434"/>
+        <c:axId val="1313704740"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1700923886"/>
+        <c:axId val="537783434"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -816,10 +816,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1294964002"/>
+        <c:crossAx val="1313704740"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1294964002"/>
+        <c:axId val="1313704740"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -894,7 +894,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1700923886"/>
+        <c:crossAx val="537783434"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -976,12 +976,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Charts!$B$38:$AZ$38</c:f>
+              <c:f>Charts!$B$38:$BB$38</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$B$39:$AZ$39</c:f>
+              <c:f>Charts!$B$39:$BB$39</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -1006,22 +1006,22 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Charts!$B$38:$AZ$38</c:f>
+              <c:f>Charts!$B$38:$BB$38</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$B$40:$AZ$40</c:f>
+              <c:f>Charts!$B$40:$BB$40</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="946499572"/>
-        <c:axId val="1881738813"/>
+        <c:axId val="960767257"/>
+        <c:axId val="1891083240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="946499572"/>
+        <c:axId val="960767257"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1073,10 +1073,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1881738813"/>
+        <c:crossAx val="1891083240"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1881738813"/>
+        <c:axId val="1891083240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1151,7 +1151,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="946499572"/>
+        <c:crossAx val="960767257"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1233,22 +1233,22 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Charts!$B$38:$AZ$38</c:f>
+              <c:f>Charts!$B$38:$BB$38</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$B$41:$AZ$41</c:f>
+              <c:f>Charts!$B$41:$BB$41</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1918805061"/>
-        <c:axId val="293504354"/>
+        <c:axId val="1907262653"/>
+        <c:axId val="774935002"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1918805061"/>
+        <c:axId val="1907262653"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1300,10 +1300,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="293504354"/>
+        <c:crossAx val="774935002"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="293504354"/>
+        <c:axId val="774935002"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1378,7 +1378,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1918805061"/>
+        <c:crossAx val="1907262653"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1438,7 +1438,6 @@
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1459,22 +1458,53 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Charts!$B$72:$J$72</c:f>
+              <c:f>Charts!$B$72:$Q$72</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$B$73:$J$73</c:f>
+              <c:f>Charts!$B$73:$Q$73</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1265277413"/>
-        <c:axId val="720023725"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$A$72</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="EA4335"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$B$72:$Q$72</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$B$72:$Q$72</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1864459371"/>
+        <c:axId val="1875017586"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1265277413"/>
+        <c:axId val="1864459371"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1526,10 +1556,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="720023725"/>
+        <c:crossAx val="1875017586"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="720023725"/>
+        <c:axId val="1875017586"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6000.0"/>
@@ -1605,7 +1635,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1265277413"/>
+        <c:crossAx val="1864459371"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1686,22 +1716,22 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Charts!$B$72:$J$72</c:f>
+              <c:f>Charts!$B$72:$Q$72</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$B$74:$J$74</c:f>
+              <c:f>Charts!$B$74:$Q$74</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1860610647"/>
-        <c:axId val="803170541"/>
+        <c:axId val="518666213"/>
+        <c:axId val="2044997491"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1860610647"/>
+        <c:axId val="518666213"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1753,10 +1783,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="803170541"/>
+        <c:crossAx val="2044997491"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="803170541"/>
+        <c:axId val="2044997491"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1831,7 +1861,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1860610647"/>
+        <c:crossAx val="518666213"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1912,12 +1942,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Charts!$B$96:$T$96</c:f>
+              <c:f>Charts!$B$96:$V$96</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$B$97:$T$97</c:f>
+              <c:f>Charts!$B$97:$V$97</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -1942,21 +1972,21 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Charts!$B$96:$T$96</c:f>
+              <c:f>Charts!$B$96:$V$96</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$B$98:$T$98</c:f>
+              <c:f>Charts!$B$98:$V$98</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1733276930"/>
-        <c:axId val="1469621871"/>
+        <c:axId val="1949069001"/>
+        <c:axId val="943682472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1733276930"/>
+        <c:axId val="1949069001"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2008,10 +2038,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1469621871"/>
+        <c:crossAx val="943682472"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1469621871"/>
+        <c:axId val="943682472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2086,7 +2116,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1733276930"/>
+        <c:crossAx val="1949069001"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2701,6 +2731,9 @@
       <c r="BN1" s="1">
         <v>45534.0</v>
       </c>
+      <c r="BO1" s="1">
+        <v>45541.0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -2899,6 +2932,9 @@
       <c r="BN2" s="3">
         <v>47292.0</v>
       </c>
+      <c r="BO2" s="3">
+        <v>47580.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -3087,6 +3123,9 @@
       </c>
       <c r="BN3" s="3">
         <v>35119.0</v>
+      </c>
+      <c r="BO3" s="3">
+        <v>35417.0</v>
       </c>
     </row>
     <row r="4">
@@ -3278,6 +3317,7 @@
       <c r="BL6" s="2"/>
       <c r="BM6" s="2"/>
       <c r="BN6" s="2"/>
+      <c r="BO6" s="2"/>
     </row>
     <row r="7">
       <c r="D7" s="4"/>
@@ -4226,6 +4266,14 @@
       </c>
       <c r="C103" s="2">
         <v>2134.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="5">
+        <v>45541.0</v>
+      </c>
+      <c r="C104" s="10">
+        <v>2152.0</v>
       </c>
     </row>
   </sheetData>
@@ -4447,6 +4495,9 @@
       </c>
       <c r="BN1" s="1">
         <v>45534.0</v>
+      </c>
+      <c r="BO1" s="1">
+        <v>45541.0</v>
       </c>
     </row>
     <row r="2">
@@ -4505,6 +4556,7 @@
       <c r="BL2" s="2"/>
       <c r="BM2" s="2"/>
       <c r="BN2" s="2"/>
+      <c r="BO2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -4664,6 +4716,9 @@
         <v>0.0</v>
       </c>
       <c r="BN3" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="BO3" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -4777,6 +4832,9 @@
         <v>0.0</v>
       </c>
       <c r="BN4" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="BO4" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -4844,6 +4902,7 @@
       <c r="BL5" s="2"/>
       <c r="BM5" s="2"/>
       <c r="BN5" s="2"/>
+      <c r="BO5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -5015,6 +5074,9 @@
       <c r="BN7" s="2">
         <v>67.0</v>
       </c>
+      <c r="BO7" s="2">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
@@ -5124,6 +5186,9 @@
       <c r="BN8" s="2">
         <v>54.0</v>
       </c>
+      <c r="BO8" s="2">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
@@ -5311,6 +5376,9 @@
         <v>0.0</v>
       </c>
       <c r="BN9" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="BO9" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -5419,6 +5487,9 @@
       </c>
       <c r="BN10" s="2">
         <v>346.0</v>
+      </c>
+      <c r="BO10" s="2">
+        <v>286.0</v>
       </c>
     </row>
     <row r="11">
@@ -5487,6 +5558,7 @@
       <c r="BL11" s="2"/>
       <c r="BM11" s="2"/>
       <c r="BN11" s="2"/>
+      <c r="BO11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
@@ -5684,6 +5756,9 @@
       <c r="BN12" s="2">
         <v>120.0</v>
       </c>
+      <c r="BO12" s="2">
+        <v>105.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
@@ -5881,6 +5956,9 @@
       <c r="BN13" s="2">
         <v>30.0</v>
       </c>
+      <c r="BO13" s="2">
+        <v>26.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
@@ -6077,6 +6155,9 @@
       </c>
       <c r="BN14" s="2">
         <v>196.0</v>
+      </c>
+      <c r="BO14" s="2">
+        <v>155.0</v>
       </c>
     </row>
     <row r="15">
@@ -6218,6 +6299,9 @@
       <c r="BN16" s="2">
         <v>306.0</v>
       </c>
+      <c r="BO16" s="2">
+        <v>242.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="C17" s="12"/>
@@ -6298,6 +6382,7 @@
       <c r="BL19" s="2"/>
       <c r="BM19" s="2"/>
       <c r="BN19" s="2"/>
+      <c r="BO19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
@@ -6925,6 +7010,9 @@
       <c r="BN1" s="13">
         <v>45534.0</v>
       </c>
+      <c r="BO1" s="13">
+        <v>45541.0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -7034,6 +7122,9 @@
       <c r="BN2" s="14">
         <v>12.0</v>
       </c>
+      <c r="BO2" s="14">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -7233,6 +7324,9 @@
       </c>
       <c r="BN3" s="14">
         <v>0.0</v>
+      </c>
+      <c r="BO3" s="14">
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
@@ -7418,6 +7512,9 @@
       <c r="BN4" s="14">
         <v>0.0</v>
       </c>
+      <c r="BO4" s="14">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
@@ -7618,6 +7715,9 @@
       <c r="BN5" s="14">
         <v>0.0</v>
       </c>
+      <c r="BO5" s="14">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -7867,8 +7967,12 @@
         <v>7.0</v>
       </c>
       <c r="BN6" s="16">
-        <f>SUM(BN2:BN5)</f>
+        <f t="shared" ref="BN6:BO6" si="4">SUM(BN2:BN5)</f>
         <v>12</v>
+      </c>
+      <c r="BO6" s="16">
+        <f t="shared" si="4"/>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -8021,6 +8125,7 @@
       <c r="BL7" s="12"/>
       <c r="BM7" s="12"/>
       <c r="BN7" s="12"/>
+      <c r="BO7" s="12"/>
     </row>
     <row r="8">
       <c r="A8" s="2"/>
@@ -8086,145 +8191,146 @@
       <c r="BL8" s="17"/>
       <c r="BM8" s="17"/>
       <c r="BN8" s="17"/>
+      <c r="BO8" s="17"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B9" s="1">
-        <f t="shared" ref="B9:AI9" si="4">B1</f>
+        <f t="shared" ref="B9:AI9" si="5">B1</f>
         <v>45086</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45093</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45100</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45107</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45114</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45121</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45128</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45135</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45142</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45149</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45156</v>
       </c>
       <c r="M9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45163</v>
       </c>
       <c r="N9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45170</v>
       </c>
       <c r="O9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45177</v>
       </c>
       <c r="P9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45184</v>
       </c>
       <c r="Q9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45191</v>
       </c>
       <c r="R9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45198</v>
       </c>
       <c r="S9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45205</v>
       </c>
       <c r="T9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45212</v>
       </c>
       <c r="U9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45219</v>
       </c>
       <c r="V9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45226</v>
       </c>
       <c r="W9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45233</v>
       </c>
       <c r="X9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45240</v>
       </c>
       <c r="Y9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45247</v>
       </c>
       <c r="Z9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45254</v>
       </c>
       <c r="AA9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45261</v>
       </c>
       <c r="AB9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45268</v>
       </c>
       <c r="AC9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45275</v>
       </c>
       <c r="AD9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45282</v>
       </c>
       <c r="AE9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45289</v>
       </c>
       <c r="AF9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45296</v>
       </c>
       <c r="AG9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45303</v>
       </c>
       <c r="AH9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45310</v>
       </c>
       <c r="AI9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45317</v>
       </c>
       <c r="AJ9" s="1">
@@ -8319,6 +8425,9 @@
       </c>
       <c r="BN9" s="13">
         <v>45534.0</v>
+      </c>
+      <c r="BO9" s="13">
+        <v>45541.0</v>
       </c>
     </row>
     <row r="10">
@@ -8497,6 +8606,9 @@
       </c>
       <c r="BN10" s="19">
         <v>411.0</v>
+      </c>
+      <c r="BO10" s="19">
+        <v>400.0</v>
       </c>
     </row>
     <row r="11">
@@ -8626,6 +8738,9 @@
       <c r="BN11" s="19">
         <v>762.0</v>
       </c>
+      <c r="BO11" s="19">
+        <v>771.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
@@ -8784,6 +8899,9 @@
       <c r="BN12" s="20">
         <v>542.0</v>
       </c>
+      <c r="BO12" s="20">
+        <v>551.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
@@ -8983,6 +9101,9 @@
       </c>
       <c r="BN13" s="21">
         <v>731.0</v>
+      </c>
+      <c r="BO13" s="21">
+        <v>739.0</v>
       </c>
     </row>
     <row r="14">
@@ -9147,6 +9268,9 @@
       </c>
       <c r="BN14" s="14">
         <v>384.0</v>
+      </c>
+      <c r="BO14" s="14">
+        <v>380.0</v>
       </c>
     </row>
     <row r="15">
@@ -9258,6 +9382,9 @@
       </c>
       <c r="BN15" s="14">
         <v>140.0</v>
+      </c>
+      <c r="BO15" s="14">
+        <v>132.0</v>
       </c>
     </row>
     <row r="16">
@@ -9320,6 +9447,9 @@
       <c r="BN16" s="14">
         <v>160.0</v>
       </c>
+      <c r="BO16" s="14">
+        <v>151.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
@@ -9479,6 +9609,9 @@
       <c r="BN17" s="14">
         <v>211.0</v>
       </c>
+      <c r="BO17" s="14">
+        <v>203.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
@@ -9616,6 +9749,9 @@
       <c r="BN18" s="14">
         <v>136.0</v>
       </c>
+      <c r="BO18" s="14">
+        <v>174.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
@@ -9774,6 +9910,9 @@
       <c r="BN19" s="14">
         <v>323.0</v>
       </c>
+      <c r="BO19" s="14">
+        <v>317.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
@@ -9932,6 +10071,9 @@
       <c r="BN20" s="14">
         <v>177.0</v>
       </c>
+      <c r="BO20" s="14">
+        <v>184.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
@@ -10131,6 +10273,9 @@
       </c>
       <c r="BN21" s="14">
         <v>234.0</v>
+      </c>
+      <c r="BO21" s="14">
+        <v>216.0</v>
       </c>
     </row>
     <row r="22">
@@ -10246,6 +10391,9 @@
       <c r="BN22" s="14">
         <v>242.0</v>
       </c>
+      <c r="BO22" s="14">
+        <v>239.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
@@ -10425,6 +10573,9 @@
       </c>
       <c r="BN23" s="14">
         <v>140.0</v>
+      </c>
+      <c r="BO23" s="14">
+        <v>137.0</v>
       </c>
     </row>
     <row r="24">
@@ -10582,6 +10733,9 @@
       </c>
       <c r="BN24" s="14">
         <v>376.0</v>
+      </c>
+      <c r="BO24" s="14">
+        <v>338.0</v>
       </c>
     </row>
     <row r="25">
@@ -10732,6 +10886,9 @@
       <c r="BN25" s="14">
         <v>279.0</v>
       </c>
+      <c r="BO25" s="14">
+        <v>291.0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
@@ -10931,6 +11088,9 @@
       </c>
       <c r="BN26" s="14">
         <v>222.0</v>
+      </c>
+      <c r="BO26" s="14">
+        <v>208.0</v>
       </c>
     </row>
     <row r="27">
@@ -10965,6 +11125,7 @@
       <c r="BL27" s="17"/>
       <c r="BM27" s="17"/>
       <c r="BN27" s="17"/>
+      <c r="BO27" s="17"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
@@ -11001,6 +11162,7 @@
       <c r="BL28" s="17"/>
       <c r="BM28" s="17"/>
       <c r="BN28" s="17"/>
+      <c r="BO28" s="17"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
@@ -11077,6 +11239,7 @@
       <c r="BL29" s="19"/>
       <c r="BM29" s="19"/>
       <c r="BN29" s="19"/>
+      <c r="BO29" s="19"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
@@ -11237,6 +11400,7 @@
       <c r="BL30" s="19"/>
       <c r="BM30" s="19"/>
       <c r="BN30" s="19"/>
+      <c r="BO30" s="19"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
@@ -11373,6 +11537,7 @@
       <c r="BL31" s="19"/>
       <c r="BM31" s="19"/>
       <c r="BN31" s="19"/>
+      <c r="BO31" s="19"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
@@ -11461,6 +11626,7 @@
       <c r="BL32" s="14"/>
       <c r="BM32" s="14"/>
       <c r="BN32" s="14"/>
+      <c r="BO32" s="14"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
@@ -11643,6 +11809,7 @@
       <c r="BL33" s="19"/>
       <c r="BM33" s="19"/>
       <c r="BN33" s="19"/>
+      <c r="BO33" s="19"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
@@ -11795,6 +11962,7 @@
       <c r="BL34" s="19"/>
       <c r="BM34" s="19"/>
       <c r="BN34" s="19"/>
+      <c r="BO34" s="19"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
@@ -11859,6 +12027,7 @@
       <c r="BL35" s="14"/>
       <c r="BM35" s="14"/>
       <c r="BN35" s="14"/>
+      <c r="BO35" s="14"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
@@ -12015,6 +12184,7 @@
       <c r="BL36" s="14"/>
       <c r="BM36" s="14"/>
       <c r="BN36" s="14"/>
+      <c r="BO36" s="14"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
@@ -12177,6 +12347,7 @@
       <c r="BL37" s="14"/>
       <c r="BM37" s="14"/>
       <c r="BN37" s="14"/>
+      <c r="BO37" s="14"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
@@ -12309,6 +12480,7 @@
       <c r="BL38" s="14"/>
       <c r="BM38" s="14"/>
       <c r="BN38" s="14"/>
+      <c r="BO38" s="14"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
@@ -12427,6 +12599,7 @@
       <c r="BL39" s="14"/>
       <c r="BM39" s="14"/>
       <c r="BN39" s="14"/>
+      <c r="BO39" s="14"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
@@ -12571,6 +12744,7 @@
       <c r="BL40" s="14"/>
       <c r="BM40" s="14"/>
       <c r="BN40" s="14"/>
+      <c r="BO40" s="14"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
@@ -12727,6 +12901,7 @@
       <c r="BL41" s="14"/>
       <c r="BM41" s="14"/>
       <c r="BN41" s="14"/>
+      <c r="BO41" s="14"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
@@ -12770,6 +12945,7 @@
       <c r="BL42" s="17"/>
       <c r="BM42" s="17"/>
       <c r="BN42" s="17"/>
+      <c r="BO42" s="17"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
@@ -12938,6 +13114,7 @@
       <c r="BL43" s="14"/>
       <c r="BM43" s="14"/>
       <c r="BN43" s="14"/>
+      <c r="BO43" s="14"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
@@ -12998,6 +13175,7 @@
       <c r="BL44" s="17"/>
       <c r="BM44" s="17"/>
       <c r="BN44" s="17"/>
+      <c r="BO44" s="17"/>
     </row>
     <row r="45">
       <c r="B45" s="22"/>
@@ -13031,270 +13209,275 @@
       <c r="BL45" s="10"/>
       <c r="BM45" s="10"/>
       <c r="BN45" s="10"/>
+      <c r="BO45" s="10"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B46" s="22">
-        <f t="shared" ref="B46:BA46" si="5">sum(B10:B44)</f>
+        <f t="shared" ref="B46:BA46" si="6">sum(B10:B44)</f>
         <v>4647</v>
       </c>
       <c r="C46" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4693</v>
       </c>
       <c r="D46" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4830</v>
       </c>
       <c r="E46" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5072</v>
       </c>
       <c r="F46" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5166</v>
       </c>
       <c r="G46" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5268</v>
       </c>
       <c r="H46" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5407</v>
       </c>
       <c r="I46" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5763</v>
       </c>
       <c r="J46" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6054</v>
       </c>
       <c r="K46" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6128</v>
       </c>
       <c r="L46" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6360</v>
       </c>
       <c r="M46" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6527</v>
       </c>
       <c r="N46" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6662</v>
       </c>
       <c r="O46" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6991</v>
       </c>
       <c r="P46" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7370</v>
       </c>
       <c r="Q46" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8460</v>
       </c>
       <c r="R46" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9361</v>
       </c>
       <c r="S46" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9860</v>
       </c>
       <c r="T46" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11018</v>
       </c>
       <c r="U46" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11278</v>
       </c>
       <c r="V46" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11749</v>
       </c>
       <c r="W46" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11750</v>
       </c>
       <c r="X46" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12125</v>
       </c>
       <c r="Y46" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12121</v>
       </c>
       <c r="Z46" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12198</v>
       </c>
       <c r="AA46" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13222</v>
       </c>
       <c r="AB46" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13600</v>
       </c>
       <c r="AC46" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14033</v>
       </c>
       <c r="AD46" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14505</v>
       </c>
       <c r="AE46" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14700</v>
       </c>
       <c r="AF46" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14734</v>
       </c>
       <c r="AG46" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14824</v>
       </c>
       <c r="AH46" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14649</v>
       </c>
       <c r="AI46" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14088</v>
       </c>
       <c r="AJ46" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13749</v>
       </c>
       <c r="AK46" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13156</v>
       </c>
       <c r="AL46" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12722</v>
       </c>
       <c r="AM46" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12350</v>
       </c>
       <c r="AN46" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12084</v>
       </c>
       <c r="AO46" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11592</v>
       </c>
       <c r="AP46" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11207</v>
       </c>
       <c r="AQ46" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10643</v>
       </c>
       <c r="AR46" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10208</v>
       </c>
       <c r="AS46" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9700</v>
       </c>
       <c r="AT46" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9398</v>
       </c>
       <c r="AU46" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8967</v>
       </c>
       <c r="AV46" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8605</v>
       </c>
       <c r="AW46" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8190</v>
       </c>
       <c r="AX46" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7793</v>
       </c>
       <c r="AY46" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7603</v>
       </c>
       <c r="AZ46" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7387</v>
       </c>
       <c r="BA46" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7182</v>
       </c>
       <c r="BB46" s="17">
-        <f t="shared" ref="BB46:BC46" si="6">SUM(BB10:BB45)</f>
+        <f t="shared" ref="BB46:BC46" si="7">SUM(BB10:BB45)</f>
         <v>6937</v>
       </c>
       <c r="BC46" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6750</v>
       </c>
       <c r="BD46" s="10">
-        <f t="shared" ref="BD46:BN46" si="7">sum(BD10:BD44)</f>
+        <f t="shared" ref="BD46:BO46" si="8">sum(BD10:BD44)</f>
         <v>6310</v>
       </c>
       <c r="BE46" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5778</v>
       </c>
       <c r="BF46" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5870</v>
       </c>
       <c r="BG46" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5909</v>
       </c>
       <c r="BH46" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5673</v>
       </c>
       <c r="BI46" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5579</v>
       </c>
       <c r="BJ46" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5565</v>
       </c>
       <c r="BK46" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5592</v>
       </c>
       <c r="BL46" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5551</v>
       </c>
       <c r="BM46" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5464</v>
       </c>
       <c r="BN46" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5470</v>
+      </c>
+      <c r="BO46" s="10">
+        <f t="shared" si="8"/>
+        <v>5431</v>
       </c>
     </row>
     <row r="47">
@@ -13492,6 +13675,9 @@
       </c>
       <c r="BN47" s="10">
         <v>1883.0</v>
+      </c>
+      <c r="BO47" s="10">
+        <v>1856.0</v>
       </c>
     </row>
     <row r="48">
@@ -13526,6 +13712,7 @@
       <c r="BL48" s="17"/>
       <c r="BM48" s="17"/>
       <c r="BN48" s="17"/>
+      <c r="BO48" s="17"/>
     </row>
     <row r="49">
       <c r="B49" s="22"/>
@@ -13559,6 +13746,7 @@
       <c r="BL49" s="17"/>
       <c r="BM49" s="17"/>
       <c r="BN49" s="17"/>
+      <c r="BO49" s="17"/>
     </row>
     <row r="50">
       <c r="B50" s="22"/>
@@ -13592,6 +13780,7 @@
       <c r="BL50" s="17"/>
       <c r="BM50" s="17"/>
       <c r="BN50" s="17"/>
+      <c r="BO50" s="17"/>
     </row>
     <row r="51">
       <c r="B51" s="22"/>
@@ -13625,6 +13814,7 @@
       <c r="BL51" s="17"/>
       <c r="BM51" s="17"/>
       <c r="BN51" s="17"/>
+      <c r="BO51" s="17"/>
     </row>
     <row r="52">
       <c r="B52" s="22"/>
@@ -13658,6 +13848,7 @@
       <c r="BL52" s="17"/>
       <c r="BM52" s="17"/>
       <c r="BN52" s="17"/>
+      <c r="BO52" s="17"/>
     </row>
     <row r="53">
       <c r="B53" s="22"/>
@@ -13691,6 +13882,7 @@
       <c r="BL53" s="17"/>
       <c r="BM53" s="17"/>
       <c r="BN53" s="17"/>
+      <c r="BO53" s="17"/>
     </row>
     <row r="54">
       <c r="B54" s="22"/>
@@ -13724,6 +13916,7 @@
       <c r="BL54" s="17"/>
       <c r="BM54" s="17"/>
       <c r="BN54" s="17"/>
+      <c r="BO54" s="17"/>
     </row>
     <row r="55">
       <c r="B55" s="22"/>
@@ -13756,6 +13949,7 @@
       <c r="BL55" s="17"/>
       <c r="BM55" s="17"/>
       <c r="BN55" s="17"/>
+      <c r="BO55" s="17"/>
     </row>
     <row r="56">
       <c r="B56" s="22"/>
@@ -13788,6 +13982,7 @@
       <c r="BL56" s="17"/>
       <c r="BM56" s="17"/>
       <c r="BN56" s="17"/>
+      <c r="BO56" s="17"/>
     </row>
     <row r="57">
       <c r="B57" s="11"/>
@@ -13820,6 +14015,7 @@
       <c r="BL57" s="17"/>
       <c r="BM57" s="17"/>
       <c r="BN57" s="17"/>
+      <c r="BO57" s="17"/>
     </row>
     <row r="58">
       <c r="B58" s="11"/>
@@ -13852,6 +14048,7 @@
       <c r="BL58" s="17"/>
       <c r="BM58" s="17"/>
       <c r="BN58" s="17"/>
+      <c r="BO58" s="17"/>
     </row>
     <row r="59">
       <c r="B59" s="11"/>
@@ -13884,6 +14081,7 @@
       <c r="BL59" s="17"/>
       <c r="BM59" s="17"/>
       <c r="BN59" s="17"/>
+      <c r="BO59" s="17"/>
     </row>
     <row r="60">
       <c r="B60" s="11"/>
@@ -13916,6 +14114,7 @@
       <c r="BL60" s="17"/>
       <c r="BM60" s="17"/>
       <c r="BN60" s="17"/>
+      <c r="BO60" s="17"/>
     </row>
     <row r="61">
       <c r="B61" s="11"/>
@@ -13948,6 +14147,7 @@
       <c r="BL61" s="17"/>
       <c r="BM61" s="17"/>
       <c r="BN61" s="17"/>
+      <c r="BO61" s="17"/>
     </row>
     <row r="62">
       <c r="B62" s="11"/>
@@ -13980,6 +14180,7 @@
       <c r="BL62" s="17"/>
       <c r="BM62" s="17"/>
       <c r="BN62" s="17"/>
+      <c r="BO62" s="17"/>
     </row>
     <row r="63">
       <c r="B63" s="11"/>
@@ -14012,6 +14213,7 @@
       <c r="BL63" s="17"/>
       <c r="BM63" s="17"/>
       <c r="BN63" s="17"/>
+      <c r="BO63" s="17"/>
     </row>
     <row r="64">
       <c r="B64" s="11"/>
@@ -14044,6 +14246,7 @@
       <c r="BL64" s="17"/>
       <c r="BM64" s="17"/>
       <c r="BN64" s="17"/>
+      <c r="BO64" s="17"/>
     </row>
     <row r="65">
       <c r="B65" s="11"/>
@@ -14076,6 +14279,7 @@
       <c r="BL65" s="17"/>
       <c r="BM65" s="17"/>
       <c r="BN65" s="17"/>
+      <c r="BO65" s="17"/>
     </row>
     <row r="66">
       <c r="B66" s="11"/>
@@ -14108,6 +14312,7 @@
       <c r="BL66" s="17"/>
       <c r="BM66" s="17"/>
       <c r="BN66" s="17"/>
+      <c r="BO66" s="17"/>
     </row>
     <row r="67">
       <c r="B67" s="11"/>
@@ -14140,6 +14345,7 @@
       <c r="BL67" s="17"/>
       <c r="BM67" s="17"/>
       <c r="BN67" s="17"/>
+      <c r="BO67" s="17"/>
     </row>
     <row r="68">
       <c r="B68" s="11"/>
@@ -14172,6 +14378,7 @@
       <c r="BL68" s="17"/>
       <c r="BM68" s="17"/>
       <c r="BN68" s="17"/>
+      <c r="BO68" s="17"/>
     </row>
     <row r="69">
       <c r="B69" s="11"/>
@@ -14204,6 +14411,7 @@
       <c r="BL69" s="17"/>
       <c r="BM69" s="17"/>
       <c r="BN69" s="17"/>
+      <c r="BO69" s="17"/>
     </row>
     <row r="70">
       <c r="B70" s="11"/>
@@ -14236,6 +14444,7 @@
       <c r="BL70" s="17"/>
       <c r="BM70" s="17"/>
       <c r="BN70" s="17"/>
+      <c r="BO70" s="17"/>
     </row>
     <row r="71">
       <c r="B71" s="11"/>
@@ -14268,6 +14477,7 @@
       <c r="BL71" s="17"/>
       <c r="BM71" s="17"/>
       <c r="BN71" s="17"/>
+      <c r="BO71" s="17"/>
     </row>
     <row r="72">
       <c r="AL72" s="17"/>
@@ -14299,6 +14509,7 @@
       <c r="BL72" s="17"/>
       <c r="BM72" s="17"/>
       <c r="BN72" s="17"/>
+      <c r="BO72" s="17"/>
     </row>
     <row r="73">
       <c r="AL73" s="17"/>
@@ -14330,6 +14541,7 @@
       <c r="BL73" s="17"/>
       <c r="BM73" s="17"/>
       <c r="BN73" s="17"/>
+      <c r="BO73" s="17"/>
     </row>
     <row r="74">
       <c r="AL74" s="17"/>
@@ -14361,6 +14573,7 @@
       <c r="BL74" s="17"/>
       <c r="BM74" s="17"/>
       <c r="BN74" s="17"/>
+      <c r="BO74" s="17"/>
     </row>
     <row r="75">
       <c r="AL75" s="17"/>
@@ -14392,6 +14605,7 @@
       <c r="BL75" s="17"/>
       <c r="BM75" s="17"/>
       <c r="BN75" s="17"/>
+      <c r="BO75" s="17"/>
     </row>
     <row r="76">
       <c r="AL76" s="17"/>
@@ -14423,6 +14637,7 @@
       <c r="BL76" s="17"/>
       <c r="BM76" s="17"/>
       <c r="BN76" s="17"/>
+      <c r="BO76" s="17"/>
     </row>
     <row r="77">
       <c r="AL77" s="17"/>
@@ -14454,6 +14669,7 @@
       <c r="BL77" s="17"/>
       <c r="BM77" s="17"/>
       <c r="BN77" s="17"/>
+      <c r="BO77" s="17"/>
     </row>
     <row r="78">
       <c r="AL78" s="17"/>
@@ -14485,6 +14701,7 @@
       <c r="BL78" s="17"/>
       <c r="BM78" s="17"/>
       <c r="BN78" s="17"/>
+      <c r="BO78" s="17"/>
     </row>
     <row r="79">
       <c r="AL79" s="17"/>
@@ -14516,6 +14733,7 @@
       <c r="BL79" s="17"/>
       <c r="BM79" s="17"/>
       <c r="BN79" s="17"/>
+      <c r="BO79" s="17"/>
     </row>
     <row r="80">
       <c r="AL80" s="17"/>
@@ -14547,6 +14765,7 @@
       <c r="BL80" s="17"/>
       <c r="BM80" s="17"/>
       <c r="BN80" s="17"/>
+      <c r="BO80" s="17"/>
     </row>
     <row r="81">
       <c r="AL81" s="17"/>
@@ -14578,6 +14797,7 @@
       <c r="BL81" s="17"/>
       <c r="BM81" s="17"/>
       <c r="BN81" s="17"/>
+      <c r="BO81" s="17"/>
     </row>
     <row r="82">
       <c r="AL82" s="17"/>
@@ -14609,6 +14829,7 @@
       <c r="BL82" s="17"/>
       <c r="BM82" s="17"/>
       <c r="BN82" s="17"/>
+      <c r="BO82" s="17"/>
     </row>
     <row r="83">
       <c r="AL83" s="17"/>
@@ -14640,6 +14861,7 @@
       <c r="BL83" s="17"/>
       <c r="BM83" s="17"/>
       <c r="BN83" s="17"/>
+      <c r="BO83" s="17"/>
     </row>
     <row r="84">
       <c r="AL84" s="17"/>
@@ -14671,6 +14893,7 @@
       <c r="BL84" s="17"/>
       <c r="BM84" s="17"/>
       <c r="BN84" s="17"/>
+      <c r="BO84" s="17"/>
     </row>
     <row r="85">
       <c r="AL85" s="17"/>
@@ -14702,6 +14925,7 @@
       <c r="BL85" s="17"/>
       <c r="BM85" s="17"/>
       <c r="BN85" s="17"/>
+      <c r="BO85" s="17"/>
     </row>
     <row r="86">
       <c r="AL86" s="17"/>
@@ -14733,6 +14957,7 @@
       <c r="BL86" s="17"/>
       <c r="BM86" s="17"/>
       <c r="BN86" s="17"/>
+      <c r="BO86" s="17"/>
     </row>
     <row r="87">
       <c r="AL87" s="17"/>
@@ -14764,6 +14989,7 @@
       <c r="BL87" s="17"/>
       <c r="BM87" s="17"/>
       <c r="BN87" s="17"/>
+      <c r="BO87" s="17"/>
     </row>
     <row r="88">
       <c r="AL88" s="17"/>
@@ -14795,6 +15021,7 @@
       <c r="BL88" s="17"/>
       <c r="BM88" s="17"/>
       <c r="BN88" s="17"/>
+      <c r="BO88" s="17"/>
     </row>
     <row r="89">
       <c r="AL89" s="17"/>
@@ -14826,6 +15053,7 @@
       <c r="BL89" s="17"/>
       <c r="BM89" s="17"/>
       <c r="BN89" s="17"/>
+      <c r="BO89" s="17"/>
     </row>
     <row r="90">
       <c r="AL90" s="17"/>
@@ -14857,6 +15085,7 @@
       <c r="BL90" s="17"/>
       <c r="BM90" s="17"/>
       <c r="BN90" s="17"/>
+      <c r="BO90" s="17"/>
     </row>
     <row r="91">
       <c r="AL91" s="17"/>
@@ -14888,6 +15117,7 @@
       <c r="BL91" s="17"/>
       <c r="BM91" s="17"/>
       <c r="BN91" s="17"/>
+      <c r="BO91" s="17"/>
     </row>
     <row r="92">
       <c r="AL92" s="17"/>
@@ -14919,6 +15149,7 @@
       <c r="BL92" s="17"/>
       <c r="BM92" s="17"/>
       <c r="BN92" s="17"/>
+      <c r="BO92" s="17"/>
     </row>
     <row r="93">
       <c r="AL93" s="17"/>
@@ -14950,6 +15181,7 @@
       <c r="BL93" s="17"/>
       <c r="BM93" s="17"/>
       <c r="BN93" s="17"/>
+      <c r="BO93" s="17"/>
     </row>
     <row r="94">
       <c r="AL94" s="17"/>
@@ -14981,6 +15213,7 @@
       <c r="BL94" s="17"/>
       <c r="BM94" s="17"/>
       <c r="BN94" s="17"/>
+      <c r="BO94" s="17"/>
     </row>
     <row r="95">
       <c r="AL95" s="17"/>
@@ -15012,6 +15245,7 @@
       <c r="BL95" s="17"/>
       <c r="BM95" s="17"/>
       <c r="BN95" s="17"/>
+      <c r="BO95" s="17"/>
     </row>
     <row r="96">
       <c r="AL96" s="17"/>
@@ -15043,6 +15277,7 @@
       <c r="BL96" s="17"/>
       <c r="BM96" s="17"/>
       <c r="BN96" s="17"/>
+      <c r="BO96" s="17"/>
     </row>
     <row r="97">
       <c r="AL97" s="17"/>
@@ -15074,6 +15309,7 @@
       <c r="BL97" s="17"/>
       <c r="BM97" s="17"/>
       <c r="BN97" s="17"/>
+      <c r="BO97" s="17"/>
     </row>
     <row r="98">
       <c r="AL98" s="17"/>
@@ -15105,6 +15341,7 @@
       <c r="BL98" s="17"/>
       <c r="BM98" s="17"/>
       <c r="BN98" s="17"/>
+      <c r="BO98" s="17"/>
     </row>
     <row r="99">
       <c r="AL99" s="17"/>
@@ -15136,6 +15373,7 @@
       <c r="BL99" s="17"/>
       <c r="BM99" s="17"/>
       <c r="BN99" s="17"/>
+      <c r="BO99" s="17"/>
     </row>
     <row r="100">
       <c r="AL100" s="17"/>
@@ -15167,6 +15405,7 @@
       <c r="BL100" s="17"/>
       <c r="BM100" s="17"/>
       <c r="BN100" s="17"/>
+      <c r="BO100" s="17"/>
     </row>
     <row r="101">
       <c r="AL101" s="17"/>
@@ -15198,6 +15437,7 @@
       <c r="BL101" s="17"/>
       <c r="BM101" s="17"/>
       <c r="BN101" s="17"/>
+      <c r="BO101" s="17"/>
     </row>
     <row r="102">
       <c r="AL102" s="17"/>
@@ -15229,6 +15469,7 @@
       <c r="BL102" s="17"/>
       <c r="BM102" s="17"/>
       <c r="BN102" s="17"/>
+      <c r="BO102" s="17"/>
     </row>
     <row r="103">
       <c r="AL103" s="17"/>
@@ -15260,6 +15501,7 @@
       <c r="BL103" s="17"/>
       <c r="BM103" s="17"/>
       <c r="BN103" s="17"/>
+      <c r="BO103" s="17"/>
     </row>
     <row r="104">
       <c r="AL104" s="17"/>
@@ -15291,6 +15533,7 @@
       <c r="BL104" s="17"/>
       <c r="BM104" s="17"/>
       <c r="BN104" s="17"/>
+      <c r="BO104" s="17"/>
     </row>
     <row r="105">
       <c r="AL105" s="17"/>
@@ -15322,6 +15565,7 @@
       <c r="BL105" s="17"/>
       <c r="BM105" s="17"/>
       <c r="BN105" s="17"/>
+      <c r="BO105" s="17"/>
     </row>
     <row r="106">
       <c r="AL106" s="17"/>
@@ -15353,6 +15597,7 @@
       <c r="BL106" s="17"/>
       <c r="BM106" s="17"/>
       <c r="BN106" s="17"/>
+      <c r="BO106" s="17"/>
     </row>
     <row r="107">
       <c r="AL107" s="17"/>
@@ -15384,6 +15629,7 @@
       <c r="BL107" s="17"/>
       <c r="BM107" s="17"/>
       <c r="BN107" s="17"/>
+      <c r="BO107" s="17"/>
     </row>
     <row r="108">
       <c r="AL108" s="17"/>
@@ -15415,6 +15661,7 @@
       <c r="BL108" s="17"/>
       <c r="BM108" s="17"/>
       <c r="BN108" s="17"/>
+      <c r="BO108" s="17"/>
     </row>
     <row r="109">
       <c r="AL109" s="17"/>
@@ -15446,6 +15693,7 @@
       <c r="BL109" s="17"/>
       <c r="BM109" s="17"/>
       <c r="BN109" s="17"/>
+      <c r="BO109" s="17"/>
     </row>
     <row r="110">
       <c r="AL110" s="17"/>
@@ -15477,6 +15725,7 @@
       <c r="BL110" s="17"/>
       <c r="BM110" s="17"/>
       <c r="BN110" s="17"/>
+      <c r="BO110" s="17"/>
     </row>
     <row r="111">
       <c r="AL111" s="17"/>
@@ -15508,6 +15757,7 @@
       <c r="BL111" s="17"/>
       <c r="BM111" s="17"/>
       <c r="BN111" s="17"/>
+      <c r="BO111" s="17"/>
     </row>
     <row r="112">
       <c r="AL112" s="17"/>
@@ -15539,6 +15789,7 @@
       <c r="BL112" s="17"/>
       <c r="BM112" s="17"/>
       <c r="BN112" s="17"/>
+      <c r="BO112" s="17"/>
     </row>
     <row r="113">
       <c r="AL113" s="17"/>
@@ -15570,6 +15821,7 @@
       <c r="BL113" s="17"/>
       <c r="BM113" s="17"/>
       <c r="BN113" s="17"/>
+      <c r="BO113" s="17"/>
     </row>
     <row r="114">
       <c r="AL114" s="17"/>
@@ -15601,6 +15853,7 @@
       <c r="BL114" s="17"/>
       <c r="BM114" s="17"/>
       <c r="BN114" s="17"/>
+      <c r="BO114" s="17"/>
     </row>
     <row r="115">
       <c r="AL115" s="17"/>
@@ -15632,6 +15885,7 @@
       <c r="BL115" s="17"/>
       <c r="BM115" s="17"/>
       <c r="BN115" s="17"/>
+      <c r="BO115" s="17"/>
     </row>
     <row r="116">
       <c r="AL116" s="17"/>
@@ -15663,6 +15917,7 @@
       <c r="BL116" s="17"/>
       <c r="BM116" s="17"/>
       <c r="BN116" s="17"/>
+      <c r="BO116" s="17"/>
     </row>
     <row r="117">
       <c r="AL117" s="17"/>
@@ -15694,6 +15949,7 @@
       <c r="BL117" s="17"/>
       <c r="BM117" s="17"/>
       <c r="BN117" s="17"/>
+      <c r="BO117" s="17"/>
     </row>
     <row r="118">
       <c r="AL118" s="17"/>
@@ -15725,6 +15981,7 @@
       <c r="BL118" s="17"/>
       <c r="BM118" s="17"/>
       <c r="BN118" s="17"/>
+      <c r="BO118" s="17"/>
     </row>
     <row r="119">
       <c r="AL119" s="17"/>
@@ -15756,6 +16013,7 @@
       <c r="BL119" s="17"/>
       <c r="BM119" s="17"/>
       <c r="BN119" s="17"/>
+      <c r="BO119" s="17"/>
     </row>
     <row r="120">
       <c r="AL120" s="17"/>
@@ -15787,6 +16045,7 @@
       <c r="BL120" s="17"/>
       <c r="BM120" s="17"/>
       <c r="BN120" s="17"/>
+      <c r="BO120" s="17"/>
     </row>
     <row r="121">
       <c r="AL121" s="17"/>
@@ -15818,6 +16077,7 @@
       <c r="BL121" s="17"/>
       <c r="BM121" s="17"/>
       <c r="BN121" s="17"/>
+      <c r="BO121" s="17"/>
     </row>
     <row r="122">
       <c r="AL122" s="17"/>
@@ -15849,6 +16109,7 @@
       <c r="BL122" s="17"/>
       <c r="BM122" s="17"/>
       <c r="BN122" s="17"/>
+      <c r="BO122" s="17"/>
     </row>
     <row r="123">
       <c r="AL123" s="17"/>
@@ -15880,6 +16141,7 @@
       <c r="BL123" s="17"/>
       <c r="BM123" s="17"/>
       <c r="BN123" s="17"/>
+      <c r="BO123" s="17"/>
     </row>
     <row r="124">
       <c r="AL124" s="17"/>
@@ -15911,6 +16173,7 @@
       <c r="BL124" s="17"/>
       <c r="BM124" s="17"/>
       <c r="BN124" s="17"/>
+      <c r="BO124" s="17"/>
     </row>
     <row r="125">
       <c r="AL125" s="17"/>
@@ -15942,6 +16205,7 @@
       <c r="BL125" s="17"/>
       <c r="BM125" s="17"/>
       <c r="BN125" s="17"/>
+      <c r="BO125" s="17"/>
     </row>
     <row r="126">
       <c r="AL126" s="17"/>
@@ -15973,6 +16237,7 @@
       <c r="BL126" s="17"/>
       <c r="BM126" s="17"/>
       <c r="BN126" s="17"/>
+      <c r="BO126" s="17"/>
     </row>
     <row r="127">
       <c r="AL127" s="17"/>
@@ -16004,6 +16269,7 @@
       <c r="BL127" s="17"/>
       <c r="BM127" s="17"/>
       <c r="BN127" s="17"/>
+      <c r="BO127" s="17"/>
     </row>
     <row r="128">
       <c r="AL128" s="17"/>
@@ -16035,6 +16301,7 @@
       <c r="BL128" s="17"/>
       <c r="BM128" s="17"/>
       <c r="BN128" s="17"/>
+      <c r="BO128" s="17"/>
     </row>
     <row r="129">
       <c r="AL129" s="17"/>
@@ -16066,6 +16333,7 @@
       <c r="BL129" s="17"/>
       <c r="BM129" s="17"/>
       <c r="BN129" s="17"/>
+      <c r="BO129" s="17"/>
     </row>
     <row r="130">
       <c r="AL130" s="17"/>
@@ -16097,6 +16365,7 @@
       <c r="BL130" s="17"/>
       <c r="BM130" s="17"/>
       <c r="BN130" s="17"/>
+      <c r="BO130" s="17"/>
     </row>
     <row r="131">
       <c r="AL131" s="17"/>
@@ -16128,6 +16397,7 @@
       <c r="BL131" s="17"/>
       <c r="BM131" s="17"/>
       <c r="BN131" s="17"/>
+      <c r="BO131" s="17"/>
     </row>
     <row r="132">
       <c r="AL132" s="17"/>
@@ -16159,6 +16429,7 @@
       <c r="BL132" s="17"/>
       <c r="BM132" s="17"/>
       <c r="BN132" s="17"/>
+      <c r="BO132" s="17"/>
     </row>
     <row r="133">
       <c r="AL133" s="17"/>
@@ -16190,6 +16461,7 @@
       <c r="BL133" s="17"/>
       <c r="BM133" s="17"/>
       <c r="BN133" s="17"/>
+      <c r="BO133" s="17"/>
     </row>
     <row r="134">
       <c r="AL134" s="17"/>
@@ -16221,6 +16493,7 @@
       <c r="BL134" s="17"/>
       <c r="BM134" s="17"/>
       <c r="BN134" s="17"/>
+      <c r="BO134" s="17"/>
     </row>
     <row r="135">
       <c r="AL135" s="17"/>
@@ -16252,6 +16525,7 @@
       <c r="BL135" s="17"/>
       <c r="BM135" s="17"/>
       <c r="BN135" s="17"/>
+      <c r="BO135" s="17"/>
     </row>
     <row r="136">
       <c r="AL136" s="17"/>
@@ -16283,6 +16557,7 @@
       <c r="BL136" s="17"/>
       <c r="BM136" s="17"/>
       <c r="BN136" s="17"/>
+      <c r="BO136" s="17"/>
     </row>
     <row r="137">
       <c r="AL137" s="17"/>
@@ -16314,6 +16589,7 @@
       <c r="BL137" s="17"/>
       <c r="BM137" s="17"/>
       <c r="BN137" s="17"/>
+      <c r="BO137" s="17"/>
     </row>
     <row r="138">
       <c r="AL138" s="17"/>
@@ -16345,6 +16621,7 @@
       <c r="BL138" s="17"/>
       <c r="BM138" s="17"/>
       <c r="BN138" s="17"/>
+      <c r="BO138" s="17"/>
     </row>
     <row r="139">
       <c r="AL139" s="17"/>
@@ -16376,6 +16653,7 @@
       <c r="BL139" s="17"/>
       <c r="BM139" s="17"/>
       <c r="BN139" s="17"/>
+      <c r="BO139" s="17"/>
     </row>
     <row r="140">
       <c r="AL140" s="17"/>
@@ -16407,6 +16685,7 @@
       <c r="BL140" s="17"/>
       <c r="BM140" s="17"/>
       <c r="BN140" s="17"/>
+      <c r="BO140" s="17"/>
     </row>
     <row r="141">
       <c r="AL141" s="17"/>
@@ -16438,6 +16717,7 @@
       <c r="BL141" s="17"/>
       <c r="BM141" s="17"/>
       <c r="BN141" s="17"/>
+      <c r="BO141" s="17"/>
     </row>
     <row r="142">
       <c r="AL142" s="17"/>
@@ -16469,6 +16749,7 @@
       <c r="BL142" s="17"/>
       <c r="BM142" s="17"/>
       <c r="BN142" s="17"/>
+      <c r="BO142" s="17"/>
     </row>
     <row r="143">
       <c r="AL143" s="17"/>
@@ -16500,6 +16781,7 @@
       <c r="BL143" s="17"/>
       <c r="BM143" s="17"/>
       <c r="BN143" s="17"/>
+      <c r="BO143" s="17"/>
     </row>
     <row r="144">
       <c r="AL144" s="17"/>
@@ -16531,6 +16813,7 @@
       <c r="BL144" s="17"/>
       <c r="BM144" s="17"/>
       <c r="BN144" s="17"/>
+      <c r="BO144" s="17"/>
     </row>
     <row r="145">
       <c r="AL145" s="17"/>
@@ -16562,6 +16845,7 @@
       <c r="BL145" s="17"/>
       <c r="BM145" s="17"/>
       <c r="BN145" s="17"/>
+      <c r="BO145" s="17"/>
     </row>
     <row r="146">
       <c r="AL146" s="17"/>
@@ -16593,6 +16877,7 @@
       <c r="BL146" s="17"/>
       <c r="BM146" s="17"/>
       <c r="BN146" s="17"/>
+      <c r="BO146" s="17"/>
     </row>
     <row r="147">
       <c r="AL147" s="17"/>
@@ -16624,6 +16909,7 @@
       <c r="BL147" s="17"/>
       <c r="BM147" s="17"/>
       <c r="BN147" s="17"/>
+      <c r="BO147" s="17"/>
     </row>
     <row r="148">
       <c r="AL148" s="17"/>
@@ -16655,6 +16941,7 @@
       <c r="BL148" s="17"/>
       <c r="BM148" s="17"/>
       <c r="BN148" s="17"/>
+      <c r="BO148" s="17"/>
     </row>
     <row r="149">
       <c r="AL149" s="17"/>
@@ -16686,6 +16973,7 @@
       <c r="BL149" s="17"/>
       <c r="BM149" s="17"/>
       <c r="BN149" s="17"/>
+      <c r="BO149" s="17"/>
     </row>
     <row r="150">
       <c r="AL150" s="17"/>
@@ -16717,6 +17005,7 @@
       <c r="BL150" s="17"/>
       <c r="BM150" s="17"/>
       <c r="BN150" s="17"/>
+      <c r="BO150" s="17"/>
     </row>
     <row r="151">
       <c r="AL151" s="17"/>
@@ -16748,6 +17037,7 @@
       <c r="BL151" s="17"/>
       <c r="BM151" s="17"/>
       <c r="BN151" s="17"/>
+      <c r="BO151" s="17"/>
     </row>
     <row r="152">
       <c r="AL152" s="17"/>
@@ -16779,6 +17069,7 @@
       <c r="BL152" s="17"/>
       <c r="BM152" s="17"/>
       <c r="BN152" s="17"/>
+      <c r="BO152" s="17"/>
     </row>
     <row r="153">
       <c r="AL153" s="17"/>
@@ -16810,6 +17101,7 @@
       <c r="BL153" s="17"/>
       <c r="BM153" s="17"/>
       <c r="BN153" s="17"/>
+      <c r="BO153" s="17"/>
     </row>
     <row r="154">
       <c r="AL154" s="17"/>
@@ -16841,6 +17133,7 @@
       <c r="BL154" s="17"/>
       <c r="BM154" s="17"/>
       <c r="BN154" s="17"/>
+      <c r="BO154" s="17"/>
     </row>
     <row r="155">
       <c r="AL155" s="17"/>
@@ -16872,6 +17165,7 @@
       <c r="BL155" s="17"/>
       <c r="BM155" s="17"/>
       <c r="BN155" s="17"/>
+      <c r="BO155" s="17"/>
     </row>
     <row r="156">
       <c r="AL156" s="17"/>
@@ -16903,6 +17197,7 @@
       <c r="BL156" s="17"/>
       <c r="BM156" s="17"/>
       <c r="BN156" s="17"/>
+      <c r="BO156" s="17"/>
     </row>
     <row r="157">
       <c r="AL157" s="17"/>
@@ -16934,6 +17229,7 @@
       <c r="BL157" s="17"/>
       <c r="BM157" s="17"/>
       <c r="BN157" s="17"/>
+      <c r="BO157" s="17"/>
     </row>
     <row r="158">
       <c r="AL158" s="17"/>
@@ -16965,6 +17261,7 @@
       <c r="BL158" s="17"/>
       <c r="BM158" s="17"/>
       <c r="BN158" s="17"/>
+      <c r="BO158" s="17"/>
     </row>
     <row r="159">
       <c r="AL159" s="17"/>
@@ -16996,6 +17293,7 @@
       <c r="BL159" s="17"/>
       <c r="BM159" s="17"/>
       <c r="BN159" s="17"/>
+      <c r="BO159" s="17"/>
     </row>
     <row r="160">
       <c r="AL160" s="17"/>
@@ -17027,6 +17325,7 @@
       <c r="BL160" s="17"/>
       <c r="BM160" s="17"/>
       <c r="BN160" s="17"/>
+      <c r="BO160" s="17"/>
     </row>
     <row r="161">
       <c r="AL161" s="17"/>
@@ -17058,6 +17357,7 @@
       <c r="BL161" s="17"/>
       <c r="BM161" s="17"/>
       <c r="BN161" s="17"/>
+      <c r="BO161" s="17"/>
     </row>
     <row r="162">
       <c r="AL162" s="17"/>
@@ -17089,6 +17389,7 @@
       <c r="BL162" s="17"/>
       <c r="BM162" s="17"/>
       <c r="BN162" s="17"/>
+      <c r="BO162" s="17"/>
     </row>
     <row r="163">
       <c r="AL163" s="17"/>
@@ -17120,6 +17421,7 @@
       <c r="BL163" s="17"/>
       <c r="BM163" s="17"/>
       <c r="BN163" s="17"/>
+      <c r="BO163" s="17"/>
     </row>
     <row r="164">
       <c r="AL164" s="17"/>
@@ -17151,6 +17453,7 @@
       <c r="BL164" s="17"/>
       <c r="BM164" s="17"/>
       <c r="BN164" s="17"/>
+      <c r="BO164" s="17"/>
     </row>
     <row r="165">
       <c r="AL165" s="17"/>
@@ -17182,6 +17485,7 @@
       <c r="BL165" s="17"/>
       <c r="BM165" s="17"/>
       <c r="BN165" s="17"/>
+      <c r="BO165" s="17"/>
     </row>
     <row r="166">
       <c r="AL166" s="17"/>
@@ -17213,6 +17517,7 @@
       <c r="BL166" s="17"/>
       <c r="BM166" s="17"/>
       <c r="BN166" s="17"/>
+      <c r="BO166" s="17"/>
     </row>
     <row r="167">
       <c r="AL167" s="17"/>
@@ -17244,6 +17549,7 @@
       <c r="BL167" s="17"/>
       <c r="BM167" s="17"/>
       <c r="BN167" s="17"/>
+      <c r="BO167" s="17"/>
     </row>
     <row r="168">
       <c r="AL168" s="17"/>
@@ -17275,6 +17581,7 @@
       <c r="BL168" s="17"/>
       <c r="BM168" s="17"/>
       <c r="BN168" s="17"/>
+      <c r="BO168" s="17"/>
     </row>
     <row r="169">
       <c r="AL169" s="17"/>
@@ -17306,6 +17613,7 @@
       <c r="BL169" s="17"/>
       <c r="BM169" s="17"/>
       <c r="BN169" s="17"/>
+      <c r="BO169" s="17"/>
     </row>
     <row r="170">
       <c r="AL170" s="17"/>
@@ -17337,6 +17645,7 @@
       <c r="BL170" s="17"/>
       <c r="BM170" s="17"/>
       <c r="BN170" s="17"/>
+      <c r="BO170" s="17"/>
     </row>
     <row r="171">
       <c r="AL171" s="17"/>
@@ -17368,6 +17677,7 @@
       <c r="BL171" s="17"/>
       <c r="BM171" s="17"/>
       <c r="BN171" s="17"/>
+      <c r="BO171" s="17"/>
     </row>
     <row r="172">
       <c r="AL172" s="17"/>
@@ -17399,6 +17709,7 @@
       <c r="BL172" s="17"/>
       <c r="BM172" s="17"/>
       <c r="BN172" s="17"/>
+      <c r="BO172" s="17"/>
     </row>
     <row r="173">
       <c r="AL173" s="17"/>
@@ -17430,6 +17741,7 @@
       <c r="BL173" s="17"/>
       <c r="BM173" s="17"/>
       <c r="BN173" s="17"/>
+      <c r="BO173" s="17"/>
     </row>
     <row r="174">
       <c r="AL174" s="17"/>
@@ -17461,6 +17773,7 @@
       <c r="BL174" s="17"/>
       <c r="BM174" s="17"/>
       <c r="BN174" s="17"/>
+      <c r="BO174" s="17"/>
     </row>
     <row r="175">
       <c r="AL175" s="17"/>
@@ -17492,6 +17805,7 @@
       <c r="BL175" s="17"/>
       <c r="BM175" s="17"/>
       <c r="BN175" s="17"/>
+      <c r="BO175" s="17"/>
     </row>
     <row r="176">
       <c r="AL176" s="17"/>
@@ -17523,6 +17837,7 @@
       <c r="BL176" s="17"/>
       <c r="BM176" s="17"/>
       <c r="BN176" s="17"/>
+      <c r="BO176" s="17"/>
     </row>
     <row r="177">
       <c r="AL177" s="17"/>
@@ -17554,6 +17869,7 @@
       <c r="BL177" s="17"/>
       <c r="BM177" s="17"/>
       <c r="BN177" s="17"/>
+      <c r="BO177" s="17"/>
     </row>
     <row r="178">
       <c r="AL178" s="17"/>
@@ -17585,6 +17901,7 @@
       <c r="BL178" s="17"/>
       <c r="BM178" s="17"/>
       <c r="BN178" s="17"/>
+      <c r="BO178" s="17"/>
     </row>
     <row r="179">
       <c r="H179" s="22"/>
@@ -17617,6 +17934,7 @@
       <c r="BL179" s="17"/>
       <c r="BM179" s="17"/>
       <c r="BN179" s="17"/>
+      <c r="BO179" s="17"/>
     </row>
     <row r="180">
       <c r="AL180" s="17"/>
@@ -17648,6 +17966,7 @@
       <c r="BL180" s="17"/>
       <c r="BM180" s="17"/>
       <c r="BN180" s="17"/>
+      <c r="BO180" s="17"/>
     </row>
     <row r="181">
       <c r="AL181" s="17"/>
@@ -17679,6 +17998,7 @@
       <c r="BL181" s="17"/>
       <c r="BM181" s="17"/>
       <c r="BN181" s="17"/>
+      <c r="BO181" s="17"/>
     </row>
     <row r="182">
       <c r="AL182" s="17"/>
@@ -17710,6 +18030,7 @@
       <c r="BL182" s="17"/>
       <c r="BM182" s="17"/>
       <c r="BN182" s="17"/>
+      <c r="BO182" s="17"/>
     </row>
     <row r="183">
       <c r="AL183" s="17"/>
@@ -17741,6 +18062,7 @@
       <c r="BL183" s="17"/>
       <c r="BM183" s="17"/>
       <c r="BN183" s="17"/>
+      <c r="BO183" s="17"/>
     </row>
     <row r="184">
       <c r="AL184" s="17"/>
@@ -17772,6 +18094,7 @@
       <c r="BL184" s="17"/>
       <c r="BM184" s="17"/>
       <c r="BN184" s="17"/>
+      <c r="BO184" s="17"/>
     </row>
     <row r="185">
       <c r="AL185" s="17"/>
@@ -17803,6 +18126,7 @@
       <c r="BL185" s="17"/>
       <c r="BM185" s="17"/>
       <c r="BN185" s="17"/>
+      <c r="BO185" s="17"/>
     </row>
     <row r="186">
       <c r="AL186" s="17"/>
@@ -17834,6 +18158,7 @@
       <c r="BL186" s="17"/>
       <c r="BM186" s="17"/>
       <c r="BN186" s="17"/>
+      <c r="BO186" s="17"/>
     </row>
     <row r="187">
       <c r="AL187" s="17"/>
@@ -17865,6 +18190,7 @@
       <c r="BL187" s="17"/>
       <c r="BM187" s="17"/>
       <c r="BN187" s="17"/>
+      <c r="BO187" s="17"/>
     </row>
     <row r="188">
       <c r="AL188" s="17"/>
@@ -17896,6 +18222,7 @@
       <c r="BL188" s="17"/>
       <c r="BM188" s="17"/>
       <c r="BN188" s="17"/>
+      <c r="BO188" s="17"/>
     </row>
     <row r="189">
       <c r="AL189" s="17"/>
@@ -17927,6 +18254,7 @@
       <c r="BL189" s="17"/>
       <c r="BM189" s="17"/>
       <c r="BN189" s="17"/>
+      <c r="BO189" s="17"/>
     </row>
     <row r="190">
       <c r="AL190" s="17"/>
@@ -17958,6 +18286,7 @@
       <c r="BL190" s="17"/>
       <c r="BM190" s="17"/>
       <c r="BN190" s="17"/>
+      <c r="BO190" s="17"/>
     </row>
     <row r="191">
       <c r="AL191" s="17"/>
@@ -17989,6 +18318,7 @@
       <c r="BL191" s="17"/>
       <c r="BM191" s="17"/>
       <c r="BN191" s="17"/>
+      <c r="BO191" s="17"/>
     </row>
     <row r="192">
       <c r="AL192" s="17"/>
@@ -18020,6 +18350,7 @@
       <c r="BL192" s="17"/>
       <c r="BM192" s="17"/>
       <c r="BN192" s="17"/>
+      <c r="BO192" s="17"/>
     </row>
     <row r="193">
       <c r="AL193" s="17"/>
@@ -18051,6 +18382,7 @@
       <c r="BL193" s="17"/>
       <c r="BM193" s="17"/>
       <c r="BN193" s="17"/>
+      <c r="BO193" s="17"/>
     </row>
     <row r="194">
       <c r="AL194" s="17"/>
@@ -18082,6 +18414,7 @@
       <c r="BL194" s="17"/>
       <c r="BM194" s="17"/>
       <c r="BN194" s="17"/>
+      <c r="BO194" s="17"/>
     </row>
     <row r="195">
       <c r="AL195" s="17"/>
@@ -18113,6 +18446,7 @@
       <c r="BL195" s="17"/>
       <c r="BM195" s="17"/>
       <c r="BN195" s="17"/>
+      <c r="BO195" s="17"/>
     </row>
     <row r="196">
       <c r="AL196" s="17"/>
@@ -18144,6 +18478,7 @@
       <c r="BL196" s="17"/>
       <c r="BM196" s="17"/>
       <c r="BN196" s="17"/>
+      <c r="BO196" s="17"/>
     </row>
     <row r="197">
       <c r="AL197" s="17"/>
@@ -18175,6 +18510,7 @@
       <c r="BL197" s="17"/>
       <c r="BM197" s="17"/>
       <c r="BN197" s="17"/>
+      <c r="BO197" s="17"/>
     </row>
     <row r="198">
       <c r="AL198" s="17"/>
@@ -18206,6 +18542,7 @@
       <c r="BL198" s="17"/>
       <c r="BM198" s="17"/>
       <c r="BN198" s="17"/>
+      <c r="BO198" s="17"/>
     </row>
     <row r="199">
       <c r="AL199" s="17"/>
@@ -18237,6 +18574,7 @@
       <c r="BL199" s="17"/>
       <c r="BM199" s="17"/>
       <c r="BN199" s="17"/>
+      <c r="BO199" s="17"/>
     </row>
     <row r="200">
       <c r="AL200" s="17"/>
@@ -18268,6 +18606,7 @@
       <c r="BL200" s="17"/>
       <c r="BM200" s="17"/>
       <c r="BN200" s="17"/>
+      <c r="BO200" s="17"/>
     </row>
     <row r="201">
       <c r="AL201" s="17"/>
@@ -18299,6 +18638,7 @@
       <c r="BL201" s="17"/>
       <c r="BM201" s="17"/>
       <c r="BN201" s="17"/>
+      <c r="BO201" s="17"/>
     </row>
     <row r="202">
       <c r="AL202" s="17"/>
@@ -18330,6 +18670,7 @@
       <c r="BL202" s="17"/>
       <c r="BM202" s="17"/>
       <c r="BN202" s="17"/>
+      <c r="BO202" s="17"/>
     </row>
     <row r="203">
       <c r="AL203" s="17"/>
@@ -18361,6 +18702,7 @@
       <c r="BL203" s="17"/>
       <c r="BM203" s="17"/>
       <c r="BN203" s="17"/>
+      <c r="BO203" s="17"/>
     </row>
     <row r="204">
       <c r="AL204" s="17"/>
@@ -18392,6 +18734,7 @@
       <c r="BL204" s="17"/>
       <c r="BM204" s="17"/>
       <c r="BN204" s="17"/>
+      <c r="BO204" s="17"/>
     </row>
     <row r="205">
       <c r="AL205" s="17"/>
@@ -18423,6 +18766,7 @@
       <c r="BL205" s="17"/>
       <c r="BM205" s="17"/>
       <c r="BN205" s="17"/>
+      <c r="BO205" s="17"/>
     </row>
     <row r="206">
       <c r="AL206" s="17"/>
@@ -18454,6 +18798,7 @@
       <c r="BL206" s="17"/>
       <c r="BM206" s="17"/>
       <c r="BN206" s="17"/>
+      <c r="BO206" s="17"/>
     </row>
     <row r="207">
       <c r="AL207" s="17"/>
@@ -18485,6 +18830,7 @@
       <c r="BL207" s="17"/>
       <c r="BM207" s="17"/>
       <c r="BN207" s="17"/>
+      <c r="BO207" s="17"/>
     </row>
     <row r="208">
       <c r="AL208" s="17"/>
@@ -18516,6 +18862,7 @@
       <c r="BL208" s="17"/>
       <c r="BM208" s="17"/>
       <c r="BN208" s="17"/>
+      <c r="BO208" s="17"/>
     </row>
     <row r="209">
       <c r="AL209" s="17"/>
@@ -18547,6 +18894,7 @@
       <c r="BL209" s="17"/>
       <c r="BM209" s="17"/>
       <c r="BN209" s="17"/>
+      <c r="BO209" s="17"/>
     </row>
     <row r="210">
       <c r="AL210" s="17"/>
@@ -18578,6 +18926,7 @@
       <c r="BL210" s="17"/>
       <c r="BM210" s="17"/>
       <c r="BN210" s="17"/>
+      <c r="BO210" s="17"/>
     </row>
     <row r="211">
       <c r="AL211" s="17"/>
@@ -18609,6 +18958,7 @@
       <c r="BL211" s="17"/>
       <c r="BM211" s="17"/>
       <c r="BN211" s="17"/>
+      <c r="BO211" s="17"/>
     </row>
     <row r="212">
       <c r="AL212" s="17"/>
@@ -18640,6 +18990,7 @@
       <c r="BL212" s="17"/>
       <c r="BM212" s="17"/>
       <c r="BN212" s="17"/>
+      <c r="BO212" s="17"/>
     </row>
     <row r="213">
       <c r="AL213" s="17"/>
@@ -18671,6 +19022,7 @@
       <c r="BL213" s="17"/>
       <c r="BM213" s="17"/>
       <c r="BN213" s="17"/>
+      <c r="BO213" s="17"/>
     </row>
     <row r="214">
       <c r="AL214" s="17"/>
@@ -18702,6 +19054,7 @@
       <c r="BL214" s="17"/>
       <c r="BM214" s="17"/>
       <c r="BN214" s="17"/>
+      <c r="BO214" s="17"/>
     </row>
     <row r="215">
       <c r="AL215" s="17"/>
@@ -18733,6 +19086,7 @@
       <c r="BL215" s="17"/>
       <c r="BM215" s="17"/>
       <c r="BN215" s="17"/>
+      <c r="BO215" s="17"/>
     </row>
     <row r="216">
       <c r="AL216" s="17"/>
@@ -18764,6 +19118,7 @@
       <c r="BL216" s="17"/>
       <c r="BM216" s="17"/>
       <c r="BN216" s="17"/>
+      <c r="BO216" s="17"/>
     </row>
     <row r="217">
       <c r="AL217" s="17"/>
@@ -18795,6 +19150,7 @@
       <c r="BL217" s="17"/>
       <c r="BM217" s="17"/>
       <c r="BN217" s="17"/>
+      <c r="BO217" s="17"/>
     </row>
     <row r="218">
       <c r="AL218" s="17"/>
@@ -18826,6 +19182,7 @@
       <c r="BL218" s="17"/>
       <c r="BM218" s="17"/>
       <c r="BN218" s="17"/>
+      <c r="BO218" s="17"/>
     </row>
     <row r="219">
       <c r="AL219" s="17"/>
@@ -18857,6 +19214,7 @@
       <c r="BL219" s="17"/>
       <c r="BM219" s="17"/>
       <c r="BN219" s="17"/>
+      <c r="BO219" s="17"/>
     </row>
     <row r="220">
       <c r="AL220" s="17"/>
@@ -18888,6 +19246,7 @@
       <c r="BL220" s="17"/>
       <c r="BM220" s="17"/>
       <c r="BN220" s="17"/>
+      <c r="BO220" s="17"/>
     </row>
     <row r="221">
       <c r="AL221" s="17"/>
@@ -18919,6 +19278,7 @@
       <c r="BL221" s="17"/>
       <c r="BM221" s="17"/>
       <c r="BN221" s="17"/>
+      <c r="BO221" s="17"/>
     </row>
     <row r="222">
       <c r="AL222" s="17"/>
@@ -18950,6 +19310,7 @@
       <c r="BL222" s="17"/>
       <c r="BM222" s="17"/>
       <c r="BN222" s="17"/>
+      <c r="BO222" s="17"/>
     </row>
     <row r="223">
       <c r="AL223" s="17"/>
@@ -18981,6 +19342,7 @@
       <c r="BL223" s="17"/>
       <c r="BM223" s="17"/>
       <c r="BN223" s="17"/>
+      <c r="BO223" s="17"/>
     </row>
     <row r="224">
       <c r="AL224" s="17"/>
@@ -19012,6 +19374,7 @@
       <c r="BL224" s="17"/>
       <c r="BM224" s="17"/>
       <c r="BN224" s="17"/>
+      <c r="BO224" s="17"/>
     </row>
     <row r="225">
       <c r="AL225" s="17"/>
@@ -19043,6 +19406,7 @@
       <c r="BL225" s="17"/>
       <c r="BM225" s="17"/>
       <c r="BN225" s="17"/>
+      <c r="BO225" s="17"/>
     </row>
     <row r="226">
       <c r="AL226" s="17"/>
@@ -19074,6 +19438,7 @@
       <c r="BL226" s="17"/>
       <c r="BM226" s="17"/>
       <c r="BN226" s="17"/>
+      <c r="BO226" s="17"/>
     </row>
     <row r="227">
       <c r="AL227" s="17"/>
@@ -19105,6 +19470,7 @@
       <c r="BL227" s="17"/>
       <c r="BM227" s="17"/>
       <c r="BN227" s="17"/>
+      <c r="BO227" s="17"/>
     </row>
     <row r="228">
       <c r="AL228" s="17"/>
@@ -19136,6 +19502,7 @@
       <c r="BL228" s="17"/>
       <c r="BM228" s="17"/>
       <c r="BN228" s="17"/>
+      <c r="BO228" s="17"/>
     </row>
     <row r="229">
       <c r="AL229" s="17"/>
@@ -19167,6 +19534,7 @@
       <c r="BL229" s="17"/>
       <c r="BM229" s="17"/>
       <c r="BN229" s="17"/>
+      <c r="BO229" s="17"/>
     </row>
     <row r="230">
       <c r="AL230" s="17"/>
@@ -19198,6 +19566,7 @@
       <c r="BL230" s="17"/>
       <c r="BM230" s="17"/>
       <c r="BN230" s="17"/>
+      <c r="BO230" s="17"/>
     </row>
     <row r="231">
       <c r="AL231" s="17"/>
@@ -19229,6 +19598,7 @@
       <c r="BL231" s="17"/>
       <c r="BM231" s="17"/>
       <c r="BN231" s="17"/>
+      <c r="BO231" s="17"/>
     </row>
     <row r="232">
       <c r="AL232" s="17"/>
@@ -19260,6 +19630,7 @@
       <c r="BL232" s="17"/>
       <c r="BM232" s="17"/>
       <c r="BN232" s="17"/>
+      <c r="BO232" s="17"/>
     </row>
     <row r="233">
       <c r="AL233" s="17"/>
@@ -19291,6 +19662,7 @@
       <c r="BL233" s="17"/>
       <c r="BM233" s="17"/>
       <c r="BN233" s="17"/>
+      <c r="BO233" s="17"/>
     </row>
     <row r="234">
       <c r="AL234" s="17"/>
@@ -19322,6 +19694,7 @@
       <c r="BL234" s="17"/>
       <c r="BM234" s="17"/>
       <c r="BN234" s="17"/>
+      <c r="BO234" s="17"/>
     </row>
     <row r="235">
       <c r="AL235" s="17"/>
@@ -19353,6 +19726,7 @@
       <c r="BL235" s="17"/>
       <c r="BM235" s="17"/>
       <c r="BN235" s="17"/>
+      <c r="BO235" s="17"/>
     </row>
     <row r="236">
       <c r="AL236" s="17"/>
@@ -19384,6 +19758,7 @@
       <c r="BL236" s="17"/>
       <c r="BM236" s="17"/>
       <c r="BN236" s="17"/>
+      <c r="BO236" s="17"/>
     </row>
     <row r="237">
       <c r="AL237" s="17"/>
@@ -19415,6 +19790,7 @@
       <c r="BL237" s="17"/>
       <c r="BM237" s="17"/>
       <c r="BN237" s="17"/>
+      <c r="BO237" s="17"/>
     </row>
     <row r="238">
       <c r="AL238" s="17"/>
@@ -19446,6 +19822,7 @@
       <c r="BL238" s="17"/>
       <c r="BM238" s="17"/>
       <c r="BN238" s="17"/>
+      <c r="BO238" s="17"/>
     </row>
     <row r="239">
       <c r="AL239" s="17"/>
@@ -19477,6 +19854,7 @@
       <c r="BL239" s="17"/>
       <c r="BM239" s="17"/>
       <c r="BN239" s="17"/>
+      <c r="BO239" s="17"/>
     </row>
     <row r="240">
       <c r="AL240" s="17"/>
@@ -19508,6 +19886,7 @@
       <c r="BL240" s="17"/>
       <c r="BM240" s="17"/>
       <c r="BN240" s="17"/>
+      <c r="BO240" s="17"/>
     </row>
     <row r="241">
       <c r="AL241" s="17"/>
@@ -19539,6 +19918,7 @@
       <c r="BL241" s="17"/>
       <c r="BM241" s="17"/>
       <c r="BN241" s="17"/>
+      <c r="BO241" s="17"/>
     </row>
     <row r="242">
       <c r="AL242" s="17"/>
@@ -19570,6 +19950,7 @@
       <c r="BL242" s="17"/>
       <c r="BM242" s="17"/>
       <c r="BN242" s="17"/>
+      <c r="BO242" s="17"/>
     </row>
     <row r="243">
       <c r="AL243" s="17"/>
@@ -19601,6 +19982,7 @@
       <c r="BL243" s="17"/>
       <c r="BM243" s="17"/>
       <c r="BN243" s="17"/>
+      <c r="BO243" s="17"/>
     </row>
     <row r="244">
       <c r="AL244" s="17"/>
@@ -19632,6 +20014,7 @@
       <c r="BL244" s="17"/>
       <c r="BM244" s="17"/>
       <c r="BN244" s="17"/>
+      <c r="BO244" s="17"/>
     </row>
     <row r="245">
       <c r="AL245" s="17"/>
@@ -19663,6 +20046,7 @@
       <c r="BL245" s="17"/>
       <c r="BM245" s="17"/>
       <c r="BN245" s="17"/>
+      <c r="BO245" s="17"/>
     </row>
     <row r="246">
       <c r="AL246" s="17"/>
@@ -19694,6 +20078,7 @@
       <c r="BL246" s="17"/>
       <c r="BM246" s="17"/>
       <c r="BN246" s="17"/>
+      <c r="BO246" s="17"/>
     </row>
     <row r="247">
       <c r="AL247" s="17"/>
@@ -19725,6 +20110,7 @@
       <c r="BL247" s="17"/>
       <c r="BM247" s="17"/>
       <c r="BN247" s="17"/>
+      <c r="BO247" s="17"/>
     </row>
     <row r="248">
       <c r="AL248" s="17"/>
@@ -19756,6 +20142,7 @@
       <c r="BL248" s="17"/>
       <c r="BM248" s="17"/>
       <c r="BN248" s="17"/>
+      <c r="BO248" s="17"/>
     </row>
     <row r="249">
       <c r="AL249" s="17"/>
@@ -19787,6 +20174,7 @@
       <c r="BL249" s="17"/>
       <c r="BM249" s="17"/>
       <c r="BN249" s="17"/>
+      <c r="BO249" s="17"/>
     </row>
     <row r="250">
       <c r="AL250" s="17"/>
@@ -19818,6 +20206,7 @@
       <c r="BL250" s="17"/>
       <c r="BM250" s="17"/>
       <c r="BN250" s="17"/>
+      <c r="BO250" s="17"/>
     </row>
     <row r="251">
       <c r="AL251" s="17"/>
@@ -19849,6 +20238,7 @@
       <c r="BL251" s="17"/>
       <c r="BM251" s="17"/>
       <c r="BN251" s="17"/>
+      <c r="BO251" s="17"/>
     </row>
     <row r="252">
       <c r="AL252" s="17"/>
@@ -19880,6 +20270,7 @@
       <c r="BL252" s="17"/>
       <c r="BM252" s="17"/>
       <c r="BN252" s="17"/>
+      <c r="BO252" s="17"/>
     </row>
     <row r="253">
       <c r="AL253" s="17"/>
@@ -19911,6 +20302,7 @@
       <c r="BL253" s="17"/>
       <c r="BM253" s="17"/>
       <c r="BN253" s="17"/>
+      <c r="BO253" s="17"/>
     </row>
     <row r="254">
       <c r="AL254" s="17"/>
@@ -19942,6 +20334,7 @@
       <c r="BL254" s="17"/>
       <c r="BM254" s="17"/>
       <c r="BN254" s="17"/>
+      <c r="BO254" s="17"/>
     </row>
     <row r="255">
       <c r="AL255" s="17"/>
@@ -19973,6 +20366,7 @@
       <c r="BL255" s="17"/>
       <c r="BM255" s="17"/>
       <c r="BN255" s="17"/>
+      <c r="BO255" s="17"/>
     </row>
     <row r="256">
       <c r="AL256" s="17"/>
@@ -20004,6 +20398,7 @@
       <c r="BL256" s="17"/>
       <c r="BM256" s="17"/>
       <c r="BN256" s="17"/>
+      <c r="BO256" s="17"/>
     </row>
     <row r="257">
       <c r="AL257" s="17"/>
@@ -20035,6 +20430,7 @@
       <c r="BL257" s="17"/>
       <c r="BM257" s="17"/>
       <c r="BN257" s="17"/>
+      <c r="BO257" s="17"/>
     </row>
     <row r="258">
       <c r="AL258" s="17"/>
@@ -20066,6 +20462,7 @@
       <c r="BL258" s="17"/>
       <c r="BM258" s="17"/>
       <c r="BN258" s="17"/>
+      <c r="BO258" s="17"/>
     </row>
     <row r="259">
       <c r="AL259" s="17"/>
@@ -20097,6 +20494,7 @@
       <c r="BL259" s="17"/>
       <c r="BM259" s="17"/>
       <c r="BN259" s="17"/>
+      <c r="BO259" s="17"/>
     </row>
     <row r="260">
       <c r="AL260" s="17"/>
@@ -20128,6 +20526,7 @@
       <c r="BL260" s="17"/>
       <c r="BM260" s="17"/>
       <c r="BN260" s="17"/>
+      <c r="BO260" s="17"/>
     </row>
     <row r="261">
       <c r="AL261" s="17"/>
@@ -20159,6 +20558,7 @@
       <c r="BL261" s="17"/>
       <c r="BM261" s="17"/>
       <c r="BN261" s="17"/>
+      <c r="BO261" s="17"/>
     </row>
     <row r="262">
       <c r="AL262" s="17"/>
@@ -20190,6 +20590,7 @@
       <c r="BL262" s="17"/>
       <c r="BM262" s="17"/>
       <c r="BN262" s="17"/>
+      <c r="BO262" s="17"/>
     </row>
     <row r="263">
       <c r="AL263" s="17"/>
@@ -20221,6 +20622,7 @@
       <c r="BL263" s="17"/>
       <c r="BM263" s="17"/>
       <c r="BN263" s="17"/>
+      <c r="BO263" s="17"/>
     </row>
     <row r="264">
       <c r="AL264" s="17"/>
@@ -20252,6 +20654,7 @@
       <c r="BL264" s="17"/>
       <c r="BM264" s="17"/>
       <c r="BN264" s="17"/>
+      <c r="BO264" s="17"/>
     </row>
     <row r="265">
       <c r="AL265" s="17"/>
@@ -20283,6 +20686,7 @@
       <c r="BL265" s="17"/>
       <c r="BM265" s="17"/>
       <c r="BN265" s="17"/>
+      <c r="BO265" s="17"/>
     </row>
     <row r="266">
       <c r="AL266" s="17"/>
@@ -20314,6 +20718,7 @@
       <c r="BL266" s="17"/>
       <c r="BM266" s="17"/>
       <c r="BN266" s="17"/>
+      <c r="BO266" s="17"/>
     </row>
     <row r="267">
       <c r="AL267" s="17"/>
@@ -20345,6 +20750,7 @@
       <c r="BL267" s="17"/>
       <c r="BM267" s="17"/>
       <c r="BN267" s="17"/>
+      <c r="BO267" s="17"/>
     </row>
     <row r="268">
       <c r="AL268" s="17"/>
@@ -20376,6 +20782,7 @@
       <c r="BL268" s="17"/>
       <c r="BM268" s="17"/>
       <c r="BN268" s="17"/>
+      <c r="BO268" s="17"/>
     </row>
     <row r="269">
       <c r="AL269" s="17"/>
@@ -20407,6 +20814,7 @@
       <c r="BL269" s="17"/>
       <c r="BM269" s="17"/>
       <c r="BN269" s="17"/>
+      <c r="BO269" s="17"/>
     </row>
     <row r="270">
       <c r="AL270" s="17"/>
@@ -20438,6 +20846,7 @@
       <c r="BL270" s="17"/>
       <c r="BM270" s="17"/>
       <c r="BN270" s="17"/>
+      <c r="BO270" s="17"/>
     </row>
     <row r="271">
       <c r="AL271" s="17"/>
@@ -20469,6 +20878,7 @@
       <c r="BL271" s="17"/>
       <c r="BM271" s="17"/>
       <c r="BN271" s="17"/>
+      <c r="BO271" s="17"/>
     </row>
     <row r="272">
       <c r="AL272" s="17"/>
@@ -20500,6 +20910,7 @@
       <c r="BL272" s="17"/>
       <c r="BM272" s="17"/>
       <c r="BN272" s="17"/>
+      <c r="BO272" s="17"/>
     </row>
     <row r="273">
       <c r="AL273" s="17"/>
@@ -20531,6 +20942,7 @@
       <c r="BL273" s="17"/>
       <c r="BM273" s="17"/>
       <c r="BN273" s="17"/>
+      <c r="BO273" s="17"/>
     </row>
     <row r="274">
       <c r="AL274" s="17"/>
@@ -20562,6 +20974,7 @@
       <c r="BL274" s="17"/>
       <c r="BM274" s="17"/>
       <c r="BN274" s="17"/>
+      <c r="BO274" s="17"/>
     </row>
     <row r="275">
       <c r="AL275" s="17"/>
@@ -20593,6 +21006,7 @@
       <c r="BL275" s="17"/>
       <c r="BM275" s="17"/>
       <c r="BN275" s="17"/>
+      <c r="BO275" s="17"/>
     </row>
     <row r="276">
       <c r="AL276" s="17"/>
@@ -20624,6 +21038,7 @@
       <c r="BL276" s="17"/>
       <c r="BM276" s="17"/>
       <c r="BN276" s="17"/>
+      <c r="BO276" s="17"/>
     </row>
     <row r="277">
       <c r="AL277" s="17"/>
@@ -20655,6 +21070,7 @@
       <c r="BL277" s="17"/>
       <c r="BM277" s="17"/>
       <c r="BN277" s="17"/>
+      <c r="BO277" s="17"/>
     </row>
     <row r="278">
       <c r="AL278" s="17"/>
@@ -20686,6 +21102,7 @@
       <c r="BL278" s="17"/>
       <c r="BM278" s="17"/>
       <c r="BN278" s="17"/>
+      <c r="BO278" s="17"/>
     </row>
     <row r="279">
       <c r="AL279" s="17"/>
@@ -20717,6 +21134,7 @@
       <c r="BL279" s="17"/>
       <c r="BM279" s="17"/>
       <c r="BN279" s="17"/>
+      <c r="BO279" s="17"/>
     </row>
     <row r="280">
       <c r="AL280" s="17"/>
@@ -20748,6 +21166,7 @@
       <c r="BL280" s="17"/>
       <c r="BM280" s="17"/>
       <c r="BN280" s="17"/>
+      <c r="BO280" s="17"/>
     </row>
     <row r="281">
       <c r="AL281" s="17"/>
@@ -20779,6 +21198,7 @@
       <c r="BL281" s="17"/>
       <c r="BM281" s="17"/>
       <c r="BN281" s="17"/>
+      <c r="BO281" s="17"/>
     </row>
     <row r="282">
       <c r="AL282" s="17"/>
@@ -20810,6 +21230,7 @@
       <c r="BL282" s="17"/>
       <c r="BM282" s="17"/>
       <c r="BN282" s="17"/>
+      <c r="BO282" s="17"/>
     </row>
     <row r="283">
       <c r="AL283" s="17"/>
@@ -20841,6 +21262,7 @@
       <c r="BL283" s="17"/>
       <c r="BM283" s="17"/>
       <c r="BN283" s="17"/>
+      <c r="BO283" s="17"/>
     </row>
     <row r="284">
       <c r="AL284" s="17"/>
@@ -20872,6 +21294,7 @@
       <c r="BL284" s="17"/>
       <c r="BM284" s="17"/>
       <c r="BN284" s="17"/>
+      <c r="BO284" s="17"/>
     </row>
     <row r="285">
       <c r="AL285" s="17"/>
@@ -20903,6 +21326,7 @@
       <c r="BL285" s="17"/>
       <c r="BM285" s="17"/>
       <c r="BN285" s="17"/>
+      <c r="BO285" s="17"/>
     </row>
     <row r="286">
       <c r="AL286" s="17"/>
@@ -20934,6 +21358,7 @@
       <c r="BL286" s="17"/>
       <c r="BM286" s="17"/>
       <c r="BN286" s="17"/>
+      <c r="BO286" s="17"/>
     </row>
     <row r="287">
       <c r="AL287" s="17"/>
@@ -20965,6 +21390,7 @@
       <c r="BL287" s="17"/>
       <c r="BM287" s="17"/>
       <c r="BN287" s="17"/>
+      <c r="BO287" s="17"/>
     </row>
     <row r="288">
       <c r="AL288" s="17"/>
@@ -20996,6 +21422,7 @@
       <c r="BL288" s="17"/>
       <c r="BM288" s="17"/>
       <c r="BN288" s="17"/>
+      <c r="BO288" s="17"/>
     </row>
     <row r="289">
       <c r="AL289" s="17"/>
@@ -21027,6 +21454,7 @@
       <c r="BL289" s="17"/>
       <c r="BM289" s="17"/>
       <c r="BN289" s="17"/>
+      <c r="BO289" s="17"/>
     </row>
     <row r="290">
       <c r="AL290" s="17"/>
@@ -21058,6 +21486,7 @@
       <c r="BL290" s="17"/>
       <c r="BM290" s="17"/>
       <c r="BN290" s="17"/>
+      <c r="BO290" s="17"/>
     </row>
     <row r="291">
       <c r="AL291" s="17"/>
@@ -21089,6 +21518,7 @@
       <c r="BL291" s="17"/>
       <c r="BM291" s="17"/>
       <c r="BN291" s="17"/>
+      <c r="BO291" s="17"/>
     </row>
     <row r="292">
       <c r="AL292" s="17"/>
@@ -21120,6 +21550,7 @@
       <c r="BL292" s="17"/>
       <c r="BM292" s="17"/>
       <c r="BN292" s="17"/>
+      <c r="BO292" s="17"/>
     </row>
     <row r="293">
       <c r="AL293" s="17"/>
@@ -21151,6 +21582,7 @@
       <c r="BL293" s="17"/>
       <c r="BM293" s="17"/>
       <c r="BN293" s="17"/>
+      <c r="BO293" s="17"/>
     </row>
     <row r="294">
       <c r="AL294" s="17"/>
@@ -21182,6 +21614,7 @@
       <c r="BL294" s="17"/>
       <c r="BM294" s="17"/>
       <c r="BN294" s="17"/>
+      <c r="BO294" s="17"/>
     </row>
     <row r="295">
       <c r="AL295" s="17"/>
@@ -21213,6 +21646,7 @@
       <c r="BL295" s="17"/>
       <c r="BM295" s="17"/>
       <c r="BN295" s="17"/>
+      <c r="BO295" s="17"/>
     </row>
     <row r="296">
       <c r="AL296" s="17"/>
@@ -21244,6 +21678,7 @@
       <c r="BL296" s="17"/>
       <c r="BM296" s="17"/>
       <c r="BN296" s="17"/>
+      <c r="BO296" s="17"/>
     </row>
     <row r="297">
       <c r="AL297" s="17"/>
@@ -21275,6 +21710,7 @@
       <c r="BL297" s="17"/>
       <c r="BM297" s="17"/>
       <c r="BN297" s="17"/>
+      <c r="BO297" s="17"/>
     </row>
     <row r="298">
       <c r="AL298" s="17"/>
@@ -21306,6 +21742,7 @@
       <c r="BL298" s="17"/>
       <c r="BM298" s="17"/>
       <c r="BN298" s="17"/>
+      <c r="BO298" s="17"/>
     </row>
     <row r="299">
       <c r="AL299" s="17"/>
@@ -21337,6 +21774,7 @@
       <c r="BL299" s="17"/>
       <c r="BM299" s="17"/>
       <c r="BN299" s="17"/>
+      <c r="BO299" s="17"/>
     </row>
     <row r="300">
       <c r="AL300" s="17"/>
@@ -21368,6 +21806,7 @@
       <c r="BL300" s="17"/>
       <c r="BM300" s="17"/>
       <c r="BN300" s="17"/>
+      <c r="BO300" s="17"/>
     </row>
     <row r="301">
       <c r="AL301" s="17"/>
@@ -21399,6 +21838,7 @@
       <c r="BL301" s="17"/>
       <c r="BM301" s="17"/>
       <c r="BN301" s="17"/>
+      <c r="BO301" s="17"/>
     </row>
     <row r="302">
       <c r="AL302" s="17"/>
@@ -21430,6 +21870,7 @@
       <c r="BL302" s="17"/>
       <c r="BM302" s="17"/>
       <c r="BN302" s="17"/>
+      <c r="BO302" s="17"/>
     </row>
     <row r="303">
       <c r="AL303" s="17"/>
@@ -21461,6 +21902,7 @@
       <c r="BL303" s="17"/>
       <c r="BM303" s="17"/>
       <c r="BN303" s="17"/>
+      <c r="BO303" s="17"/>
     </row>
     <row r="304">
       <c r="AL304" s="17"/>
@@ -21492,6 +21934,7 @@
       <c r="BL304" s="17"/>
       <c r="BM304" s="17"/>
       <c r="BN304" s="17"/>
+      <c r="BO304" s="17"/>
     </row>
     <row r="305">
       <c r="AL305" s="17"/>
@@ -21523,6 +21966,7 @@
       <c r="BL305" s="17"/>
       <c r="BM305" s="17"/>
       <c r="BN305" s="17"/>
+      <c r="BO305" s="17"/>
     </row>
     <row r="306">
       <c r="AL306" s="17"/>
@@ -21554,6 +21998,7 @@
       <c r="BL306" s="17"/>
       <c r="BM306" s="17"/>
       <c r="BN306" s="17"/>
+      <c r="BO306" s="17"/>
     </row>
     <row r="307">
       <c r="AL307" s="17"/>
@@ -21585,6 +22030,7 @@
       <c r="BL307" s="17"/>
       <c r="BM307" s="17"/>
       <c r="BN307" s="17"/>
+      <c r="BO307" s="17"/>
     </row>
     <row r="308">
       <c r="AL308" s="17"/>
@@ -21616,6 +22062,7 @@
       <c r="BL308" s="17"/>
       <c r="BM308" s="17"/>
       <c r="BN308" s="17"/>
+      <c r="BO308" s="17"/>
     </row>
     <row r="309">
       <c r="AL309" s="17"/>
@@ -21647,6 +22094,7 @@
       <c r="BL309" s="17"/>
       <c r="BM309" s="17"/>
       <c r="BN309" s="17"/>
+      <c r="BO309" s="17"/>
     </row>
     <row r="310">
       <c r="AL310" s="17"/>
@@ -21678,6 +22126,7 @@
       <c r="BL310" s="17"/>
       <c r="BM310" s="17"/>
       <c r="BN310" s="17"/>
+      <c r="BO310" s="17"/>
     </row>
     <row r="311">
       <c r="AL311" s="17"/>
@@ -21709,6 +22158,7 @@
       <c r="BL311" s="17"/>
       <c r="BM311" s="17"/>
       <c r="BN311" s="17"/>
+      <c r="BO311" s="17"/>
     </row>
     <row r="312">
       <c r="AL312" s="17"/>
@@ -21740,6 +22190,7 @@
       <c r="BL312" s="17"/>
       <c r="BM312" s="17"/>
       <c r="BN312" s="17"/>
+      <c r="BO312" s="17"/>
     </row>
     <row r="313">
       <c r="AL313" s="17"/>
@@ -21771,6 +22222,7 @@
       <c r="BL313" s="17"/>
       <c r="BM313" s="17"/>
       <c r="BN313" s="17"/>
+      <c r="BO313" s="17"/>
     </row>
     <row r="314">
       <c r="AL314" s="17"/>
@@ -21802,6 +22254,7 @@
       <c r="BL314" s="17"/>
       <c r="BM314" s="17"/>
       <c r="BN314" s="17"/>
+      <c r="BO314" s="17"/>
     </row>
     <row r="315">
       <c r="AL315" s="17"/>
@@ -21833,6 +22286,7 @@
       <c r="BL315" s="17"/>
       <c r="BM315" s="17"/>
       <c r="BN315" s="17"/>
+      <c r="BO315" s="17"/>
     </row>
     <row r="316">
       <c r="AL316" s="17"/>
@@ -21864,6 +22318,7 @@
       <c r="BL316" s="17"/>
       <c r="BM316" s="17"/>
       <c r="BN316" s="17"/>
+      <c r="BO316" s="17"/>
     </row>
     <row r="317">
       <c r="AL317" s="17"/>
@@ -21895,6 +22350,7 @@
       <c r="BL317" s="17"/>
       <c r="BM317" s="17"/>
       <c r="BN317" s="17"/>
+      <c r="BO317" s="17"/>
     </row>
     <row r="318">
       <c r="AL318" s="17"/>
@@ -21926,6 +22382,7 @@
       <c r="BL318" s="17"/>
       <c r="BM318" s="17"/>
       <c r="BN318" s="17"/>
+      <c r="BO318" s="17"/>
     </row>
     <row r="319">
       <c r="AL319" s="17"/>
@@ -21957,6 +22414,7 @@
       <c r="BL319" s="17"/>
       <c r="BM319" s="17"/>
       <c r="BN319" s="17"/>
+      <c r="BO319" s="17"/>
     </row>
     <row r="320">
       <c r="AL320" s="17"/>
@@ -21988,6 +22446,7 @@
       <c r="BL320" s="17"/>
       <c r="BM320" s="17"/>
       <c r="BN320" s="17"/>
+      <c r="BO320" s="17"/>
     </row>
     <row r="321">
       <c r="AL321" s="17"/>
@@ -22019,6 +22478,7 @@
       <c r="BL321" s="17"/>
       <c r="BM321" s="17"/>
       <c r="BN321" s="17"/>
+      <c r="BO321" s="17"/>
     </row>
     <row r="322">
       <c r="AL322" s="17"/>
@@ -22050,6 +22510,7 @@
       <c r="BL322" s="17"/>
       <c r="BM322" s="17"/>
       <c r="BN322" s="17"/>
+      <c r="BO322" s="17"/>
     </row>
     <row r="323">
       <c r="AL323" s="17"/>
@@ -22081,6 +22542,7 @@
       <c r="BL323" s="17"/>
       <c r="BM323" s="17"/>
       <c r="BN323" s="17"/>
+      <c r="BO323" s="17"/>
     </row>
     <row r="324">
       <c r="AL324" s="17"/>
@@ -22112,6 +22574,7 @@
       <c r="BL324" s="17"/>
       <c r="BM324" s="17"/>
       <c r="BN324" s="17"/>
+      <c r="BO324" s="17"/>
     </row>
     <row r="325">
       <c r="AL325" s="17"/>
@@ -22143,6 +22606,7 @@
       <c r="BL325" s="17"/>
       <c r="BM325" s="17"/>
       <c r="BN325" s="17"/>
+      <c r="BO325" s="17"/>
     </row>
     <row r="326">
       <c r="AL326" s="17"/>
@@ -22174,6 +22638,7 @@
       <c r="BL326" s="17"/>
       <c r="BM326" s="17"/>
       <c r="BN326" s="17"/>
+      <c r="BO326" s="17"/>
     </row>
     <row r="327">
       <c r="AL327" s="17"/>
@@ -22205,6 +22670,7 @@
       <c r="BL327" s="17"/>
       <c r="BM327" s="17"/>
       <c r="BN327" s="17"/>
+      <c r="BO327" s="17"/>
     </row>
     <row r="328">
       <c r="AL328" s="17"/>
@@ -22236,6 +22702,7 @@
       <c r="BL328" s="17"/>
       <c r="BM328" s="17"/>
       <c r="BN328" s="17"/>
+      <c r="BO328" s="17"/>
     </row>
     <row r="329">
       <c r="AL329" s="17"/>
@@ -22267,6 +22734,7 @@
       <c r="BL329" s="17"/>
       <c r="BM329" s="17"/>
       <c r="BN329" s="17"/>
+      <c r="BO329" s="17"/>
     </row>
     <row r="330">
       <c r="AL330" s="17"/>
@@ -22298,6 +22766,7 @@
       <c r="BL330" s="17"/>
       <c r="BM330" s="17"/>
       <c r="BN330" s="17"/>
+      <c r="BO330" s="17"/>
     </row>
     <row r="331">
       <c r="AL331" s="17"/>
@@ -22329,6 +22798,7 @@
       <c r="BL331" s="17"/>
       <c r="BM331" s="17"/>
       <c r="BN331" s="17"/>
+      <c r="BO331" s="17"/>
     </row>
     <row r="332">
       <c r="AL332" s="17"/>
@@ -22360,6 +22830,7 @@
       <c r="BL332" s="17"/>
       <c r="BM332" s="17"/>
       <c r="BN332" s="17"/>
+      <c r="BO332" s="17"/>
     </row>
     <row r="333">
       <c r="AL333" s="17"/>
@@ -22391,6 +22862,7 @@
       <c r="BL333" s="17"/>
       <c r="BM333" s="17"/>
       <c r="BN333" s="17"/>
+      <c r="BO333" s="17"/>
     </row>
     <row r="334">
       <c r="AL334" s="17"/>
@@ -22422,6 +22894,7 @@
       <c r="BL334" s="17"/>
       <c r="BM334" s="17"/>
       <c r="BN334" s="17"/>
+      <c r="BO334" s="17"/>
     </row>
     <row r="335">
       <c r="AL335" s="17"/>
@@ -22453,6 +22926,7 @@
       <c r="BL335" s="17"/>
       <c r="BM335" s="17"/>
       <c r="BN335" s="17"/>
+      <c r="BO335" s="17"/>
     </row>
     <row r="336">
       <c r="AL336" s="17"/>
@@ -22484,6 +22958,7 @@
       <c r="BL336" s="17"/>
       <c r="BM336" s="17"/>
       <c r="BN336" s="17"/>
+      <c r="BO336" s="17"/>
     </row>
     <row r="337">
       <c r="AL337" s="17"/>
@@ -22515,6 +22990,7 @@
       <c r="BL337" s="17"/>
       <c r="BM337" s="17"/>
       <c r="BN337" s="17"/>
+      <c r="BO337" s="17"/>
     </row>
     <row r="338">
       <c r="AL338" s="17"/>
@@ -22546,6 +23022,7 @@
       <c r="BL338" s="17"/>
       <c r="BM338" s="17"/>
       <c r="BN338" s="17"/>
+      <c r="BO338" s="17"/>
     </row>
     <row r="339">
       <c r="AL339" s="17"/>
@@ -22577,6 +23054,7 @@
       <c r="BL339" s="17"/>
       <c r="BM339" s="17"/>
       <c r="BN339" s="17"/>
+      <c r="BO339" s="17"/>
     </row>
     <row r="340">
       <c r="AL340" s="17"/>
@@ -22608,6 +23086,7 @@
       <c r="BL340" s="17"/>
       <c r="BM340" s="17"/>
       <c r="BN340" s="17"/>
+      <c r="BO340" s="17"/>
     </row>
     <row r="341">
       <c r="AL341" s="17"/>
@@ -22639,6 +23118,7 @@
       <c r="BL341" s="17"/>
       <c r="BM341" s="17"/>
       <c r="BN341" s="17"/>
+      <c r="BO341" s="17"/>
     </row>
     <row r="342">
       <c r="AL342" s="17"/>
@@ -22670,6 +23150,7 @@
       <c r="BL342" s="17"/>
       <c r="BM342" s="17"/>
       <c r="BN342" s="17"/>
+      <c r="BO342" s="17"/>
     </row>
     <row r="343">
       <c r="AL343" s="17"/>
@@ -22701,6 +23182,7 @@
       <c r="BL343" s="17"/>
       <c r="BM343" s="17"/>
       <c r="BN343" s="17"/>
+      <c r="BO343" s="17"/>
     </row>
     <row r="344">
       <c r="AL344" s="17"/>
@@ -22732,6 +23214,7 @@
       <c r="BL344" s="17"/>
       <c r="BM344" s="17"/>
       <c r="BN344" s="17"/>
+      <c r="BO344" s="17"/>
     </row>
     <row r="345">
       <c r="AL345" s="17"/>
@@ -22763,6 +23246,7 @@
       <c r="BL345" s="17"/>
       <c r="BM345" s="17"/>
       <c r="BN345" s="17"/>
+      <c r="BO345" s="17"/>
     </row>
     <row r="346">
       <c r="AL346" s="17"/>
@@ -22794,6 +23278,7 @@
       <c r="BL346" s="17"/>
       <c r="BM346" s="17"/>
       <c r="BN346" s="17"/>
+      <c r="BO346" s="17"/>
     </row>
     <row r="347">
       <c r="AL347" s="17"/>
@@ -22825,6 +23310,7 @@
       <c r="BL347" s="17"/>
       <c r="BM347" s="17"/>
       <c r="BN347" s="17"/>
+      <c r="BO347" s="17"/>
     </row>
     <row r="348">
       <c r="AL348" s="17"/>
@@ -22856,6 +23342,7 @@
       <c r="BL348" s="17"/>
       <c r="BM348" s="17"/>
       <c r="BN348" s="17"/>
+      <c r="BO348" s="17"/>
     </row>
     <row r="349">
       <c r="AL349" s="17"/>
@@ -22887,6 +23374,7 @@
       <c r="BL349" s="17"/>
       <c r="BM349" s="17"/>
       <c r="BN349" s="17"/>
+      <c r="BO349" s="17"/>
     </row>
     <row r="350">
       <c r="AL350" s="17"/>
@@ -22918,6 +23406,7 @@
       <c r="BL350" s="17"/>
       <c r="BM350" s="17"/>
       <c r="BN350" s="17"/>
+      <c r="BO350" s="17"/>
     </row>
     <row r="351">
       <c r="AL351" s="17"/>
@@ -22949,6 +23438,7 @@
       <c r="BL351" s="17"/>
       <c r="BM351" s="17"/>
       <c r="BN351" s="17"/>
+      <c r="BO351" s="17"/>
     </row>
     <row r="352">
       <c r="AL352" s="17"/>
@@ -22980,6 +23470,7 @@
       <c r="BL352" s="17"/>
       <c r="BM352" s="17"/>
       <c r="BN352" s="17"/>
+      <c r="BO352" s="17"/>
     </row>
     <row r="353">
       <c r="AL353" s="17"/>
@@ -23011,6 +23502,7 @@
       <c r="BL353" s="17"/>
       <c r="BM353" s="17"/>
       <c r="BN353" s="17"/>
+      <c r="BO353" s="17"/>
     </row>
     <row r="354">
       <c r="AL354" s="17"/>
@@ -23042,6 +23534,7 @@
       <c r="BL354" s="17"/>
       <c r="BM354" s="17"/>
       <c r="BN354" s="17"/>
+      <c r="BO354" s="17"/>
     </row>
     <row r="355">
       <c r="AL355" s="17"/>
@@ -23073,6 +23566,7 @@
       <c r="BL355" s="17"/>
       <c r="BM355" s="17"/>
       <c r="BN355" s="17"/>
+      <c r="BO355" s="17"/>
     </row>
     <row r="356">
       <c r="AL356" s="17"/>
@@ -23104,6 +23598,7 @@
       <c r="BL356" s="17"/>
       <c r="BM356" s="17"/>
       <c r="BN356" s="17"/>
+      <c r="BO356" s="17"/>
     </row>
     <row r="357">
       <c r="AL357" s="17"/>
@@ -23135,6 +23630,7 @@
       <c r="BL357" s="17"/>
       <c r="BM357" s="17"/>
       <c r="BN357" s="17"/>
+      <c r="BO357" s="17"/>
     </row>
     <row r="358">
       <c r="AL358" s="17"/>
@@ -23166,6 +23662,7 @@
       <c r="BL358" s="17"/>
       <c r="BM358" s="17"/>
       <c r="BN358" s="17"/>
+      <c r="BO358" s="17"/>
     </row>
     <row r="359">
       <c r="AL359" s="17"/>
@@ -23197,6 +23694,7 @@
       <c r="BL359" s="17"/>
       <c r="BM359" s="17"/>
       <c r="BN359" s="17"/>
+      <c r="BO359" s="17"/>
     </row>
     <row r="360">
       <c r="AL360" s="17"/>
@@ -23228,6 +23726,7 @@
       <c r="BL360" s="17"/>
       <c r="BM360" s="17"/>
       <c r="BN360" s="17"/>
+      <c r="BO360" s="17"/>
     </row>
     <row r="361">
       <c r="AL361" s="17"/>
@@ -23259,6 +23758,7 @@
       <c r="BL361" s="17"/>
       <c r="BM361" s="17"/>
       <c r="BN361" s="17"/>
+      <c r="BO361" s="17"/>
     </row>
     <row r="362">
       <c r="AL362" s="17"/>
@@ -23290,6 +23790,7 @@
       <c r="BL362" s="17"/>
       <c r="BM362" s="17"/>
       <c r="BN362" s="17"/>
+      <c r="BO362" s="17"/>
     </row>
     <row r="363">
       <c r="AL363" s="17"/>
@@ -23321,6 +23822,7 @@
       <c r="BL363" s="17"/>
       <c r="BM363" s="17"/>
       <c r="BN363" s="17"/>
+      <c r="BO363" s="17"/>
     </row>
     <row r="364">
       <c r="AL364" s="17"/>
@@ -23352,6 +23854,7 @@
       <c r="BL364" s="17"/>
       <c r="BM364" s="17"/>
       <c r="BN364" s="17"/>
+      <c r="BO364" s="17"/>
     </row>
     <row r="365">
       <c r="AL365" s="17"/>
@@ -23383,6 +23886,7 @@
       <c r="BL365" s="17"/>
       <c r="BM365" s="17"/>
       <c r="BN365" s="17"/>
+      <c r="BO365" s="17"/>
     </row>
     <row r="366">
       <c r="AL366" s="17"/>
@@ -23414,6 +23918,7 @@
       <c r="BL366" s="17"/>
       <c r="BM366" s="17"/>
       <c r="BN366" s="17"/>
+      <c r="BO366" s="17"/>
     </row>
     <row r="367">
       <c r="AL367" s="17"/>
@@ -23445,6 +23950,7 @@
       <c r="BL367" s="17"/>
       <c r="BM367" s="17"/>
       <c r="BN367" s="17"/>
+      <c r="BO367" s="17"/>
     </row>
     <row r="368">
       <c r="AL368" s="17"/>
@@ -23476,6 +23982,7 @@
       <c r="BL368" s="17"/>
       <c r="BM368" s="17"/>
       <c r="BN368" s="17"/>
+      <c r="BO368" s="17"/>
     </row>
     <row r="369">
       <c r="AL369" s="17"/>
@@ -23507,6 +24014,7 @@
       <c r="BL369" s="17"/>
       <c r="BM369" s="17"/>
       <c r="BN369" s="17"/>
+      <c r="BO369" s="17"/>
     </row>
     <row r="370">
       <c r="AL370" s="17"/>
@@ -23538,6 +24046,7 @@
       <c r="BL370" s="17"/>
       <c r="BM370" s="17"/>
       <c r="BN370" s="17"/>
+      <c r="BO370" s="17"/>
     </row>
     <row r="371">
       <c r="AL371" s="17"/>
@@ -23569,6 +24078,7 @@
       <c r="BL371" s="17"/>
       <c r="BM371" s="17"/>
       <c r="BN371" s="17"/>
+      <c r="BO371" s="17"/>
     </row>
     <row r="372">
       <c r="AL372" s="17"/>
@@ -23600,6 +24110,7 @@
       <c r="BL372" s="17"/>
       <c r="BM372" s="17"/>
       <c r="BN372" s="17"/>
+      <c r="BO372" s="17"/>
     </row>
     <row r="373">
       <c r="AL373" s="17"/>
@@ -23631,6 +24142,7 @@
       <c r="BL373" s="17"/>
       <c r="BM373" s="17"/>
       <c r="BN373" s="17"/>
+      <c r="BO373" s="17"/>
     </row>
     <row r="374">
       <c r="AL374" s="17"/>
@@ -23662,6 +24174,7 @@
       <c r="BL374" s="17"/>
       <c r="BM374" s="17"/>
       <c r="BN374" s="17"/>
+      <c r="BO374" s="17"/>
     </row>
     <row r="375">
       <c r="AL375" s="17"/>
@@ -23693,6 +24206,7 @@
       <c r="BL375" s="17"/>
       <c r="BM375" s="17"/>
       <c r="BN375" s="17"/>
+      <c r="BO375" s="17"/>
     </row>
     <row r="376">
       <c r="AL376" s="17"/>
@@ -23724,6 +24238,7 @@
       <c r="BL376" s="17"/>
       <c r="BM376" s="17"/>
       <c r="BN376" s="17"/>
+      <c r="BO376" s="17"/>
     </row>
     <row r="377">
       <c r="AL377" s="17"/>
@@ -23755,6 +24270,7 @@
       <c r="BL377" s="17"/>
       <c r="BM377" s="17"/>
       <c r="BN377" s="17"/>
+      <c r="BO377" s="17"/>
     </row>
     <row r="378">
       <c r="AL378" s="17"/>
@@ -23786,6 +24302,7 @@
       <c r="BL378" s="17"/>
       <c r="BM378" s="17"/>
       <c r="BN378" s="17"/>
+      <c r="BO378" s="17"/>
     </row>
     <row r="379">
       <c r="AL379" s="17"/>
@@ -23817,6 +24334,7 @@
       <c r="BL379" s="17"/>
       <c r="BM379" s="17"/>
       <c r="BN379" s="17"/>
+      <c r="BO379" s="17"/>
     </row>
     <row r="380">
       <c r="AL380" s="17"/>
@@ -23848,6 +24366,7 @@
       <c r="BL380" s="17"/>
       <c r="BM380" s="17"/>
       <c r="BN380" s="17"/>
+      <c r="BO380" s="17"/>
     </row>
     <row r="381">
       <c r="AL381" s="17"/>
@@ -23879,6 +24398,7 @@
       <c r="BL381" s="17"/>
       <c r="BM381" s="17"/>
       <c r="BN381" s="17"/>
+      <c r="BO381" s="17"/>
     </row>
     <row r="382">
       <c r="AL382" s="17"/>
@@ -23910,6 +24430,7 @@
       <c r="BL382" s="17"/>
       <c r="BM382" s="17"/>
       <c r="BN382" s="17"/>
+      <c r="BO382" s="17"/>
     </row>
     <row r="383">
       <c r="AL383" s="17"/>
@@ -23941,6 +24462,7 @@
       <c r="BL383" s="17"/>
       <c r="BM383" s="17"/>
       <c r="BN383" s="17"/>
+      <c r="BO383" s="17"/>
     </row>
     <row r="384">
       <c r="AL384" s="17"/>
@@ -23972,6 +24494,7 @@
       <c r="BL384" s="17"/>
       <c r="BM384" s="17"/>
       <c r="BN384" s="17"/>
+      <c r="BO384" s="17"/>
     </row>
     <row r="385">
       <c r="AL385" s="17"/>
@@ -24003,6 +24526,7 @@
       <c r="BL385" s="17"/>
       <c r="BM385" s="17"/>
       <c r="BN385" s="17"/>
+      <c r="BO385" s="17"/>
     </row>
     <row r="386">
       <c r="AL386" s="17"/>
@@ -24034,6 +24558,7 @@
       <c r="BL386" s="17"/>
       <c r="BM386" s="17"/>
       <c r="BN386" s="17"/>
+      <c r="BO386" s="17"/>
     </row>
     <row r="387">
       <c r="AL387" s="17"/>
@@ -24065,6 +24590,7 @@
       <c r="BL387" s="17"/>
       <c r="BM387" s="17"/>
       <c r="BN387" s="17"/>
+      <c r="BO387" s="17"/>
     </row>
     <row r="388">
       <c r="AL388" s="17"/>
@@ -24096,6 +24622,7 @@
       <c r="BL388" s="17"/>
       <c r="BM388" s="17"/>
       <c r="BN388" s="17"/>
+      <c r="BO388" s="17"/>
     </row>
     <row r="389">
       <c r="AL389" s="17"/>
@@ -24127,6 +24654,7 @@
       <c r="BL389" s="17"/>
       <c r="BM389" s="17"/>
       <c r="BN389" s="17"/>
+      <c r="BO389" s="17"/>
     </row>
     <row r="390">
       <c r="AL390" s="17"/>
@@ -24158,6 +24686,7 @@
       <c r="BL390" s="17"/>
       <c r="BM390" s="17"/>
       <c r="BN390" s="17"/>
+      <c r="BO390" s="17"/>
     </row>
     <row r="391">
       <c r="AL391" s="17"/>
@@ -24189,6 +24718,7 @@
       <c r="BL391" s="17"/>
       <c r="BM391" s="17"/>
       <c r="BN391" s="17"/>
+      <c r="BO391" s="17"/>
     </row>
     <row r="392">
       <c r="AL392" s="17"/>
@@ -24220,6 +24750,7 @@
       <c r="BL392" s="17"/>
       <c r="BM392" s="17"/>
       <c r="BN392" s="17"/>
+      <c r="BO392" s="17"/>
     </row>
     <row r="393">
       <c r="AL393" s="17"/>
@@ -24251,6 +24782,7 @@
       <c r="BL393" s="17"/>
       <c r="BM393" s="17"/>
       <c r="BN393" s="17"/>
+      <c r="BO393" s="17"/>
     </row>
     <row r="394">
       <c r="AL394" s="17"/>
@@ -24282,6 +24814,7 @@
       <c r="BL394" s="17"/>
       <c r="BM394" s="17"/>
       <c r="BN394" s="17"/>
+      <c r="BO394" s="17"/>
     </row>
     <row r="395">
       <c r="AL395" s="17"/>
@@ -24313,6 +24846,7 @@
       <c r="BL395" s="17"/>
       <c r="BM395" s="17"/>
       <c r="BN395" s="17"/>
+      <c r="BO395" s="17"/>
     </row>
     <row r="396">
       <c r="AL396" s="17"/>
@@ -24344,6 +24878,7 @@
       <c r="BL396" s="17"/>
       <c r="BM396" s="17"/>
       <c r="BN396" s="17"/>
+      <c r="BO396" s="17"/>
     </row>
     <row r="397">
       <c r="AL397" s="17"/>
@@ -24375,6 +24910,7 @@
       <c r="BL397" s="17"/>
       <c r="BM397" s="17"/>
       <c r="BN397" s="17"/>
+      <c r="BO397" s="17"/>
     </row>
     <row r="398">
       <c r="AL398" s="17"/>
@@ -24406,6 +24942,7 @@
       <c r="BL398" s="17"/>
       <c r="BM398" s="17"/>
       <c r="BN398" s="17"/>
+      <c r="BO398" s="17"/>
     </row>
     <row r="399">
       <c r="AL399" s="17"/>
@@ -24437,6 +24974,7 @@
       <c r="BL399" s="17"/>
       <c r="BM399" s="17"/>
       <c r="BN399" s="17"/>
+      <c r="BO399" s="17"/>
     </row>
     <row r="400">
       <c r="AL400" s="17"/>
@@ -24468,6 +25006,7 @@
       <c r="BL400" s="17"/>
       <c r="BM400" s="17"/>
       <c r="BN400" s="17"/>
+      <c r="BO400" s="17"/>
     </row>
     <row r="401">
       <c r="AL401" s="17"/>
@@ -24499,6 +25038,7 @@
       <c r="BL401" s="17"/>
       <c r="BM401" s="17"/>
       <c r="BN401" s="17"/>
+      <c r="BO401" s="17"/>
     </row>
     <row r="402">
       <c r="AL402" s="17"/>
@@ -24530,6 +25070,7 @@
       <c r="BL402" s="17"/>
       <c r="BM402" s="17"/>
       <c r="BN402" s="17"/>
+      <c r="BO402" s="17"/>
     </row>
     <row r="403">
       <c r="AL403" s="17"/>
@@ -24561,6 +25102,7 @@
       <c r="BL403" s="17"/>
       <c r="BM403" s="17"/>
       <c r="BN403" s="17"/>
+      <c r="BO403" s="17"/>
     </row>
     <row r="404">
       <c r="AL404" s="17"/>
@@ -24592,6 +25134,7 @@
       <c r="BL404" s="17"/>
       <c r="BM404" s="17"/>
       <c r="BN404" s="17"/>
+      <c r="BO404" s="17"/>
     </row>
     <row r="405">
       <c r="AL405" s="17"/>
@@ -24623,6 +25166,7 @@
       <c r="BL405" s="17"/>
       <c r="BM405" s="17"/>
       <c r="BN405" s="17"/>
+      <c r="BO405" s="17"/>
     </row>
     <row r="406">
       <c r="AL406" s="17"/>
@@ -24654,6 +25198,7 @@
       <c r="BL406" s="17"/>
       <c r="BM406" s="17"/>
       <c r="BN406" s="17"/>
+      <c r="BO406" s="17"/>
     </row>
     <row r="407">
       <c r="AL407" s="17"/>
@@ -24685,6 +25230,7 @@
       <c r="BL407" s="17"/>
       <c r="BM407" s="17"/>
       <c r="BN407" s="17"/>
+      <c r="BO407" s="17"/>
     </row>
     <row r="408">
       <c r="AL408" s="17"/>
@@ -24716,6 +25262,7 @@
       <c r="BL408" s="17"/>
       <c r="BM408" s="17"/>
       <c r="BN408" s="17"/>
+      <c r="BO408" s="17"/>
     </row>
     <row r="409">
       <c r="AL409" s="17"/>
@@ -24747,6 +25294,7 @@
       <c r="BL409" s="17"/>
       <c r="BM409" s="17"/>
       <c r="BN409" s="17"/>
+      <c r="BO409" s="17"/>
     </row>
     <row r="410">
       <c r="AL410" s="17"/>
@@ -24778,6 +25326,7 @@
       <c r="BL410" s="17"/>
       <c r="BM410" s="17"/>
       <c r="BN410" s="17"/>
+      <c r="BO410" s="17"/>
     </row>
     <row r="411">
       <c r="AL411" s="17"/>
@@ -24809,6 +25358,7 @@
       <c r="BL411" s="17"/>
       <c r="BM411" s="17"/>
       <c r="BN411" s="17"/>
+      <c r="BO411" s="17"/>
     </row>
     <row r="412">
       <c r="AL412" s="17"/>
@@ -24840,6 +25390,7 @@
       <c r="BL412" s="17"/>
       <c r="BM412" s="17"/>
       <c r="BN412" s="17"/>
+      <c r="BO412" s="17"/>
     </row>
     <row r="413">
       <c r="AL413" s="17"/>
@@ -24871,6 +25422,7 @@
       <c r="BL413" s="17"/>
       <c r="BM413" s="17"/>
       <c r="BN413" s="17"/>
+      <c r="BO413" s="17"/>
     </row>
     <row r="414">
       <c r="AL414" s="17"/>
@@ -24902,6 +25454,7 @@
       <c r="BL414" s="17"/>
       <c r="BM414" s="17"/>
       <c r="BN414" s="17"/>
+      <c r="BO414" s="17"/>
     </row>
     <row r="415">
       <c r="AL415" s="17"/>
@@ -24933,6 +25486,7 @@
       <c r="BL415" s="17"/>
       <c r="BM415" s="17"/>
       <c r="BN415" s="17"/>
+      <c r="BO415" s="17"/>
     </row>
     <row r="416">
       <c r="AL416" s="17"/>
@@ -24964,6 +25518,7 @@
       <c r="BL416" s="17"/>
       <c r="BM416" s="17"/>
       <c r="BN416" s="17"/>
+      <c r="BO416" s="17"/>
     </row>
     <row r="417">
       <c r="AL417" s="17"/>
@@ -24995,6 +25550,7 @@
       <c r="BL417" s="17"/>
       <c r="BM417" s="17"/>
       <c r="BN417" s="17"/>
+      <c r="BO417" s="17"/>
     </row>
     <row r="418">
       <c r="AL418" s="17"/>
@@ -25026,6 +25582,7 @@
       <c r="BL418" s="17"/>
       <c r="BM418" s="17"/>
       <c r="BN418" s="17"/>
+      <c r="BO418" s="17"/>
     </row>
     <row r="419">
       <c r="AL419" s="17"/>
@@ -25057,6 +25614,7 @@
       <c r="BL419" s="17"/>
       <c r="BM419" s="17"/>
       <c r="BN419" s="17"/>
+      <c r="BO419" s="17"/>
     </row>
     <row r="420">
       <c r="AL420" s="17"/>
@@ -25088,6 +25646,7 @@
       <c r="BL420" s="17"/>
       <c r="BM420" s="17"/>
       <c r="BN420" s="17"/>
+      <c r="BO420" s="17"/>
     </row>
     <row r="421">
       <c r="AL421" s="17"/>
@@ -25119,6 +25678,7 @@
       <c r="BL421" s="17"/>
       <c r="BM421" s="17"/>
       <c r="BN421" s="17"/>
+      <c r="BO421" s="17"/>
     </row>
     <row r="422">
       <c r="AL422" s="17"/>
@@ -25150,6 +25710,7 @@
       <c r="BL422" s="17"/>
       <c r="BM422" s="17"/>
       <c r="BN422" s="17"/>
+      <c r="BO422" s="17"/>
     </row>
     <row r="423">
       <c r="AL423" s="17"/>
@@ -25181,6 +25742,7 @@
       <c r="BL423" s="17"/>
       <c r="BM423" s="17"/>
       <c r="BN423" s="17"/>
+      <c r="BO423" s="17"/>
     </row>
     <row r="424">
       <c r="AL424" s="17"/>
@@ -25212,6 +25774,7 @@
       <c r="BL424" s="17"/>
       <c r="BM424" s="17"/>
       <c r="BN424" s="17"/>
+      <c r="BO424" s="17"/>
     </row>
     <row r="425">
       <c r="AL425" s="17"/>
@@ -25243,6 +25806,7 @@
       <c r="BL425" s="17"/>
       <c r="BM425" s="17"/>
       <c r="BN425" s="17"/>
+      <c r="BO425" s="17"/>
     </row>
     <row r="426">
       <c r="AL426" s="17"/>
@@ -25274,6 +25838,7 @@
       <c r="BL426" s="17"/>
       <c r="BM426" s="17"/>
       <c r="BN426" s="17"/>
+      <c r="BO426" s="17"/>
     </row>
     <row r="427">
       <c r="AL427" s="17"/>
@@ -25305,6 +25870,7 @@
       <c r="BL427" s="17"/>
       <c r="BM427" s="17"/>
       <c r="BN427" s="17"/>
+      <c r="BO427" s="17"/>
     </row>
     <row r="428">
       <c r="AL428" s="17"/>
@@ -25336,6 +25902,7 @@
       <c r="BL428" s="17"/>
       <c r="BM428" s="17"/>
       <c r="BN428" s="17"/>
+      <c r="BO428" s="17"/>
     </row>
     <row r="429">
       <c r="AL429" s="17"/>
@@ -25367,6 +25934,7 @@
       <c r="BL429" s="17"/>
       <c r="BM429" s="17"/>
       <c r="BN429" s="17"/>
+      <c r="BO429" s="17"/>
     </row>
     <row r="430">
       <c r="AL430" s="17"/>
@@ -25398,6 +25966,7 @@
       <c r="BL430" s="17"/>
       <c r="BM430" s="17"/>
       <c r="BN430" s="17"/>
+      <c r="BO430" s="17"/>
     </row>
     <row r="431">
       <c r="AL431" s="17"/>
@@ -25429,6 +25998,7 @@
       <c r="BL431" s="17"/>
       <c r="BM431" s="17"/>
       <c r="BN431" s="17"/>
+      <c r="BO431" s="17"/>
     </row>
     <row r="432">
       <c r="AL432" s="17"/>
@@ -25460,6 +26030,7 @@
       <c r="BL432" s="17"/>
       <c r="BM432" s="17"/>
       <c r="BN432" s="17"/>
+      <c r="BO432" s="17"/>
     </row>
     <row r="433">
       <c r="AL433" s="17"/>
@@ -25491,6 +26062,7 @@
       <c r="BL433" s="17"/>
       <c r="BM433" s="17"/>
       <c r="BN433" s="17"/>
+      <c r="BO433" s="17"/>
     </row>
     <row r="434">
       <c r="AL434" s="17"/>
@@ -25522,6 +26094,7 @@
       <c r="BL434" s="17"/>
       <c r="BM434" s="17"/>
       <c r="BN434" s="17"/>
+      <c r="BO434" s="17"/>
     </row>
     <row r="435">
       <c r="AL435" s="17"/>
@@ -25553,6 +26126,7 @@
       <c r="BL435" s="17"/>
       <c r="BM435" s="17"/>
       <c r="BN435" s="17"/>
+      <c r="BO435" s="17"/>
     </row>
     <row r="436">
       <c r="AL436" s="17"/>
@@ -25584,6 +26158,7 @@
       <c r="BL436" s="17"/>
       <c r="BM436" s="17"/>
       <c r="BN436" s="17"/>
+      <c r="BO436" s="17"/>
     </row>
     <row r="437">
       <c r="AL437" s="17"/>
@@ -25615,6 +26190,7 @@
       <c r="BL437" s="17"/>
       <c r="BM437" s="17"/>
       <c r="BN437" s="17"/>
+      <c r="BO437" s="17"/>
     </row>
     <row r="438">
       <c r="AL438" s="17"/>
@@ -25646,6 +26222,7 @@
       <c r="BL438" s="17"/>
       <c r="BM438" s="17"/>
       <c r="BN438" s="17"/>
+      <c r="BO438" s="17"/>
     </row>
     <row r="439">
       <c r="AL439" s="17"/>
@@ -25677,6 +26254,7 @@
       <c r="BL439" s="17"/>
       <c r="BM439" s="17"/>
       <c r="BN439" s="17"/>
+      <c r="BO439" s="17"/>
     </row>
     <row r="440">
       <c r="AL440" s="17"/>
@@ -25708,6 +26286,7 @@
       <c r="BL440" s="17"/>
       <c r="BM440" s="17"/>
       <c r="BN440" s="17"/>
+      <c r="BO440" s="17"/>
     </row>
     <row r="441">
       <c r="AL441" s="17"/>
@@ -25739,6 +26318,7 @@
       <c r="BL441" s="17"/>
       <c r="BM441" s="17"/>
       <c r="BN441" s="17"/>
+      <c r="BO441" s="17"/>
     </row>
     <row r="442">
       <c r="AL442" s="17"/>
@@ -25770,6 +26350,7 @@
       <c r="BL442" s="17"/>
       <c r="BM442" s="17"/>
       <c r="BN442" s="17"/>
+      <c r="BO442" s="17"/>
     </row>
     <row r="443">
       <c r="AL443" s="17"/>
@@ -25801,6 +26382,7 @@
       <c r="BL443" s="17"/>
       <c r="BM443" s="17"/>
       <c r="BN443" s="17"/>
+      <c r="BO443" s="17"/>
     </row>
     <row r="444">
       <c r="AL444" s="17"/>
@@ -25832,6 +26414,7 @@
       <c r="BL444" s="17"/>
       <c r="BM444" s="17"/>
       <c r="BN444" s="17"/>
+      <c r="BO444" s="17"/>
     </row>
     <row r="445">
       <c r="AL445" s="17"/>
@@ -25863,6 +26446,7 @@
       <c r="BL445" s="17"/>
       <c r="BM445" s="17"/>
       <c r="BN445" s="17"/>
+      <c r="BO445" s="17"/>
     </row>
     <row r="446">
       <c r="AL446" s="17"/>
@@ -25894,6 +26478,7 @@
       <c r="BL446" s="17"/>
       <c r="BM446" s="17"/>
       <c r="BN446" s="17"/>
+      <c r="BO446" s="17"/>
     </row>
     <row r="447">
       <c r="AL447" s="17"/>
@@ -25925,6 +26510,7 @@
       <c r="BL447" s="17"/>
       <c r="BM447" s="17"/>
       <c r="BN447" s="17"/>
+      <c r="BO447" s="17"/>
     </row>
     <row r="448">
       <c r="AL448" s="17"/>
@@ -25956,6 +26542,7 @@
       <c r="BL448" s="17"/>
       <c r="BM448" s="17"/>
       <c r="BN448" s="17"/>
+      <c r="BO448" s="17"/>
     </row>
     <row r="449">
       <c r="AL449" s="17"/>
@@ -25987,6 +26574,7 @@
       <c r="BL449" s="17"/>
       <c r="BM449" s="17"/>
       <c r="BN449" s="17"/>
+      <c r="BO449" s="17"/>
     </row>
     <row r="450">
       <c r="AL450" s="17"/>
@@ -26018,6 +26606,7 @@
       <c r="BL450" s="17"/>
       <c r="BM450" s="17"/>
       <c r="BN450" s="17"/>
+      <c r="BO450" s="17"/>
     </row>
     <row r="451">
       <c r="AL451" s="17"/>
@@ -26049,6 +26638,7 @@
       <c r="BL451" s="17"/>
       <c r="BM451" s="17"/>
       <c r="BN451" s="17"/>
+      <c r="BO451" s="17"/>
     </row>
     <row r="452">
       <c r="AL452" s="17"/>
@@ -26080,6 +26670,7 @@
       <c r="BL452" s="17"/>
       <c r="BM452" s="17"/>
       <c r="BN452" s="17"/>
+      <c r="BO452" s="17"/>
     </row>
     <row r="453">
       <c r="AL453" s="17"/>
@@ -26111,6 +26702,7 @@
       <c r="BL453" s="17"/>
       <c r="BM453" s="17"/>
       <c r="BN453" s="17"/>
+      <c r="BO453" s="17"/>
     </row>
     <row r="454">
       <c r="AL454" s="17"/>
@@ -26142,6 +26734,7 @@
       <c r="BL454" s="17"/>
       <c r="BM454" s="17"/>
       <c r="BN454" s="17"/>
+      <c r="BO454" s="17"/>
     </row>
     <row r="455">
       <c r="AL455" s="17"/>
@@ -26173,6 +26766,7 @@
       <c r="BL455" s="17"/>
       <c r="BM455" s="17"/>
       <c r="BN455" s="17"/>
+      <c r="BO455" s="17"/>
     </row>
     <row r="456">
       <c r="AL456" s="17"/>
@@ -26204,6 +26798,7 @@
       <c r="BL456" s="17"/>
       <c r="BM456" s="17"/>
       <c r="BN456" s="17"/>
+      <c r="BO456" s="17"/>
     </row>
     <row r="457">
       <c r="AL457" s="17"/>
@@ -26235,6 +26830,7 @@
       <c r="BL457" s="17"/>
       <c r="BM457" s="17"/>
       <c r="BN457" s="17"/>
+      <c r="BO457" s="17"/>
     </row>
     <row r="458">
       <c r="AL458" s="17"/>
@@ -26266,6 +26862,7 @@
       <c r="BL458" s="17"/>
       <c r="BM458" s="17"/>
       <c r="BN458" s="17"/>
+      <c r="BO458" s="17"/>
     </row>
     <row r="459">
       <c r="AL459" s="17"/>
@@ -26297,6 +26894,7 @@
       <c r="BL459" s="17"/>
       <c r="BM459" s="17"/>
       <c r="BN459" s="17"/>
+      <c r="BO459" s="17"/>
     </row>
     <row r="460">
       <c r="AL460" s="17"/>
@@ -26328,6 +26926,7 @@
       <c r="BL460" s="17"/>
       <c r="BM460" s="17"/>
       <c r="BN460" s="17"/>
+      <c r="BO460" s="17"/>
     </row>
     <row r="461">
       <c r="AL461" s="17"/>
@@ -26359,6 +26958,7 @@
       <c r="BL461" s="17"/>
       <c r="BM461" s="17"/>
       <c r="BN461" s="17"/>
+      <c r="BO461" s="17"/>
     </row>
     <row r="462">
       <c r="AL462" s="17"/>
@@ -26390,6 +26990,7 @@
       <c r="BL462" s="17"/>
       <c r="BM462" s="17"/>
       <c r="BN462" s="17"/>
+      <c r="BO462" s="17"/>
     </row>
     <row r="463">
       <c r="AL463" s="17"/>
@@ -26421,6 +27022,7 @@
       <c r="BL463" s="17"/>
       <c r="BM463" s="17"/>
       <c r="BN463" s="17"/>
+      <c r="BO463" s="17"/>
     </row>
     <row r="464">
       <c r="AL464" s="17"/>
@@ -26452,6 +27054,7 @@
       <c r="BL464" s="17"/>
       <c r="BM464" s="17"/>
       <c r="BN464" s="17"/>
+      <c r="BO464" s="17"/>
     </row>
     <row r="465">
       <c r="AL465" s="17"/>
@@ -26483,6 +27086,7 @@
       <c r="BL465" s="17"/>
       <c r="BM465" s="17"/>
       <c r="BN465" s="17"/>
+      <c r="BO465" s="17"/>
     </row>
     <row r="466">
       <c r="AL466" s="17"/>
@@ -26514,6 +27118,7 @@
       <c r="BL466" s="17"/>
       <c r="BM466" s="17"/>
       <c r="BN466" s="17"/>
+      <c r="BO466" s="17"/>
     </row>
     <row r="467">
       <c r="AL467" s="17"/>
@@ -26545,6 +27150,7 @@
       <c r="BL467" s="17"/>
       <c r="BM467" s="17"/>
       <c r="BN467" s="17"/>
+      <c r="BO467" s="17"/>
     </row>
     <row r="468">
       <c r="AL468" s="17"/>
@@ -26576,6 +27182,7 @@
       <c r="BL468" s="17"/>
       <c r="BM468" s="17"/>
       <c r="BN468" s="17"/>
+      <c r="BO468" s="17"/>
     </row>
     <row r="469">
       <c r="AL469" s="17"/>
@@ -26607,6 +27214,7 @@
       <c r="BL469" s="17"/>
       <c r="BM469" s="17"/>
       <c r="BN469" s="17"/>
+      <c r="BO469" s="17"/>
     </row>
     <row r="470">
       <c r="AL470" s="17"/>
@@ -26638,6 +27246,7 @@
       <c r="BL470" s="17"/>
       <c r="BM470" s="17"/>
       <c r="BN470" s="17"/>
+      <c r="BO470" s="17"/>
     </row>
     <row r="471">
       <c r="AL471" s="17"/>
@@ -26669,6 +27278,7 @@
       <c r="BL471" s="17"/>
       <c r="BM471" s="17"/>
       <c r="BN471" s="17"/>
+      <c r="BO471" s="17"/>
     </row>
     <row r="472">
       <c r="AL472" s="17"/>
@@ -26700,6 +27310,7 @@
       <c r="BL472" s="17"/>
       <c r="BM472" s="17"/>
       <c r="BN472" s="17"/>
+      <c r="BO472" s="17"/>
     </row>
     <row r="473">
       <c r="AL473" s="17"/>
@@ -26731,6 +27342,7 @@
       <c r="BL473" s="17"/>
       <c r="BM473" s="17"/>
       <c r="BN473" s="17"/>
+      <c r="BO473" s="17"/>
     </row>
     <row r="474">
       <c r="AL474" s="17"/>
@@ -26762,6 +27374,7 @@
       <c r="BL474" s="17"/>
       <c r="BM474" s="17"/>
       <c r="BN474" s="17"/>
+      <c r="BO474" s="17"/>
     </row>
     <row r="475">
       <c r="AL475" s="17"/>
@@ -26793,6 +27406,7 @@
       <c r="BL475" s="17"/>
       <c r="BM475" s="17"/>
       <c r="BN475" s="17"/>
+      <c r="BO475" s="17"/>
     </row>
     <row r="476">
       <c r="AL476" s="17"/>
@@ -26824,6 +27438,7 @@
       <c r="BL476" s="17"/>
       <c r="BM476" s="17"/>
       <c r="BN476" s="17"/>
+      <c r="BO476" s="17"/>
     </row>
     <row r="477">
       <c r="AL477" s="17"/>
@@ -26855,6 +27470,7 @@
       <c r="BL477" s="17"/>
       <c r="BM477" s="17"/>
       <c r="BN477" s="17"/>
+      <c r="BO477" s="17"/>
     </row>
     <row r="478">
       <c r="AL478" s="17"/>
@@ -26886,6 +27502,7 @@
       <c r="BL478" s="17"/>
       <c r="BM478" s="17"/>
       <c r="BN478" s="17"/>
+      <c r="BO478" s="17"/>
     </row>
     <row r="479">
       <c r="AL479" s="17"/>
@@ -26917,6 +27534,7 @@
       <c r="BL479" s="17"/>
       <c r="BM479" s="17"/>
       <c r="BN479" s="17"/>
+      <c r="BO479" s="17"/>
     </row>
     <row r="480">
       <c r="AL480" s="17"/>
@@ -26948,6 +27566,7 @@
       <c r="BL480" s="17"/>
       <c r="BM480" s="17"/>
       <c r="BN480" s="17"/>
+      <c r="BO480" s="17"/>
     </row>
     <row r="481">
       <c r="AL481" s="17"/>
@@ -26979,6 +27598,7 @@
       <c r="BL481" s="17"/>
       <c r="BM481" s="17"/>
       <c r="BN481" s="17"/>
+      <c r="BO481" s="17"/>
     </row>
     <row r="482">
       <c r="AL482" s="17"/>
@@ -27010,6 +27630,7 @@
       <c r="BL482" s="17"/>
       <c r="BM482" s="17"/>
       <c r="BN482" s="17"/>
+      <c r="BO482" s="17"/>
     </row>
     <row r="483">
       <c r="AL483" s="17"/>
@@ -27041,6 +27662,7 @@
       <c r="BL483" s="17"/>
       <c r="BM483" s="17"/>
       <c r="BN483" s="17"/>
+      <c r="BO483" s="17"/>
     </row>
     <row r="484">
       <c r="AL484" s="17"/>
@@ -27072,6 +27694,7 @@
       <c r="BL484" s="17"/>
       <c r="BM484" s="17"/>
       <c r="BN484" s="17"/>
+      <c r="BO484" s="17"/>
     </row>
     <row r="485">
       <c r="AL485" s="17"/>
@@ -27103,6 +27726,7 @@
       <c r="BL485" s="17"/>
       <c r="BM485" s="17"/>
       <c r="BN485" s="17"/>
+      <c r="BO485" s="17"/>
     </row>
     <row r="486">
       <c r="AL486" s="17"/>
@@ -27134,6 +27758,7 @@
       <c r="BL486" s="17"/>
       <c r="BM486" s="17"/>
       <c r="BN486" s="17"/>
+      <c r="BO486" s="17"/>
     </row>
     <row r="487">
       <c r="AL487" s="17"/>
@@ -27165,6 +27790,7 @@
       <c r="BL487" s="17"/>
       <c r="BM487" s="17"/>
       <c r="BN487" s="17"/>
+      <c r="BO487" s="17"/>
     </row>
     <row r="488">
       <c r="AL488" s="17"/>
@@ -27196,6 +27822,7 @@
       <c r="BL488" s="17"/>
       <c r="BM488" s="17"/>
       <c r="BN488" s="17"/>
+      <c r="BO488" s="17"/>
     </row>
     <row r="489">
       <c r="AL489" s="17"/>
@@ -27227,6 +27854,7 @@
       <c r="BL489" s="17"/>
       <c r="BM489" s="17"/>
       <c r="BN489" s="17"/>
+      <c r="BO489" s="17"/>
     </row>
     <row r="490">
       <c r="AL490" s="17"/>
@@ -27258,6 +27886,7 @@
       <c r="BL490" s="17"/>
       <c r="BM490" s="17"/>
       <c r="BN490" s="17"/>
+      <c r="BO490" s="17"/>
     </row>
     <row r="491">
       <c r="AL491" s="17"/>
@@ -27289,6 +27918,7 @@
       <c r="BL491" s="17"/>
       <c r="BM491" s="17"/>
       <c r="BN491" s="17"/>
+      <c r="BO491" s="17"/>
     </row>
     <row r="492">
       <c r="AL492" s="17"/>
@@ -27320,6 +27950,7 @@
       <c r="BL492" s="17"/>
       <c r="BM492" s="17"/>
       <c r="BN492" s="17"/>
+      <c r="BO492" s="17"/>
     </row>
     <row r="493">
       <c r="AL493" s="17"/>
@@ -27351,6 +27982,7 @@
       <c r="BL493" s="17"/>
       <c r="BM493" s="17"/>
       <c r="BN493" s="17"/>
+      <c r="BO493" s="17"/>
     </row>
     <row r="494">
       <c r="AL494" s="17"/>
@@ -27382,6 +28014,7 @@
       <c r="BL494" s="17"/>
       <c r="BM494" s="17"/>
       <c r="BN494" s="17"/>
+      <c r="BO494" s="17"/>
     </row>
     <row r="495">
       <c r="AL495" s="17"/>
@@ -27413,6 +28046,7 @@
       <c r="BL495" s="17"/>
       <c r="BM495" s="17"/>
       <c r="BN495" s="17"/>
+      <c r="BO495" s="17"/>
     </row>
     <row r="496">
       <c r="AL496" s="17"/>
@@ -27444,6 +28078,7 @@
       <c r="BL496" s="17"/>
       <c r="BM496" s="17"/>
       <c r="BN496" s="17"/>
+      <c r="BO496" s="17"/>
     </row>
     <row r="497">
       <c r="AL497" s="17"/>
@@ -27475,6 +28110,7 @@
       <c r="BL497" s="17"/>
       <c r="BM497" s="17"/>
       <c r="BN497" s="17"/>
+      <c r="BO497" s="17"/>
     </row>
     <row r="498">
       <c r="AL498" s="17"/>
@@ -27506,6 +28142,7 @@
       <c r="BL498" s="17"/>
       <c r="BM498" s="17"/>
       <c r="BN498" s="17"/>
+      <c r="BO498" s="17"/>
     </row>
     <row r="499">
       <c r="AL499" s="17"/>
@@ -27537,6 +28174,7 @@
       <c r="BL499" s="17"/>
       <c r="BM499" s="17"/>
       <c r="BN499" s="17"/>
+      <c r="BO499" s="17"/>
     </row>
     <row r="500">
       <c r="AL500" s="17"/>
@@ -27568,6 +28206,7 @@
       <c r="BL500" s="17"/>
       <c r="BM500" s="17"/>
       <c r="BN500" s="17"/>
+      <c r="BO500" s="17"/>
     </row>
     <row r="501">
       <c r="AL501" s="17"/>
@@ -27599,6 +28238,7 @@
       <c r="BL501" s="17"/>
       <c r="BM501" s="17"/>
       <c r="BN501" s="17"/>
+      <c r="BO501" s="17"/>
     </row>
     <row r="502">
       <c r="AL502" s="17"/>
@@ -27630,6 +28270,7 @@
       <c r="BL502" s="17"/>
       <c r="BM502" s="17"/>
       <c r="BN502" s="17"/>
+      <c r="BO502" s="17"/>
     </row>
     <row r="503">
       <c r="AL503" s="17"/>
@@ -27661,6 +28302,7 @@
       <c r="BL503" s="17"/>
       <c r="BM503" s="17"/>
       <c r="BN503" s="17"/>
+      <c r="BO503" s="17"/>
     </row>
     <row r="504">
       <c r="AL504" s="17"/>
@@ -27692,6 +28334,7 @@
       <c r="BL504" s="17"/>
       <c r="BM504" s="17"/>
       <c r="BN504" s="17"/>
+      <c r="BO504" s="17"/>
     </row>
     <row r="505">
       <c r="AL505" s="17"/>
@@ -27723,6 +28366,7 @@
       <c r="BL505" s="17"/>
       <c r="BM505" s="17"/>
       <c r="BN505" s="17"/>
+      <c r="BO505" s="17"/>
     </row>
     <row r="506">
       <c r="AL506" s="17"/>
@@ -27754,6 +28398,7 @@
       <c r="BL506" s="17"/>
       <c r="BM506" s="17"/>
       <c r="BN506" s="17"/>
+      <c r="BO506" s="17"/>
     </row>
     <row r="507">
       <c r="AL507" s="17"/>
@@ -27785,6 +28430,7 @@
       <c r="BL507" s="17"/>
       <c r="BM507" s="17"/>
       <c r="BN507" s="17"/>
+      <c r="BO507" s="17"/>
     </row>
     <row r="508">
       <c r="AL508" s="17"/>
@@ -27816,6 +28462,7 @@
       <c r="BL508" s="17"/>
       <c r="BM508" s="17"/>
       <c r="BN508" s="17"/>
+      <c r="BO508" s="17"/>
     </row>
     <row r="509">
       <c r="AL509" s="17"/>
@@ -27847,6 +28494,7 @@
       <c r="BL509" s="17"/>
       <c r="BM509" s="17"/>
       <c r="BN509" s="17"/>
+      <c r="BO509" s="17"/>
     </row>
     <row r="510">
       <c r="AL510" s="17"/>
@@ -27878,6 +28526,7 @@
       <c r="BL510" s="17"/>
       <c r="BM510" s="17"/>
       <c r="BN510" s="17"/>
+      <c r="BO510" s="17"/>
     </row>
     <row r="511">
       <c r="AL511" s="17"/>
@@ -27909,6 +28558,7 @@
       <c r="BL511" s="17"/>
       <c r="BM511" s="17"/>
       <c r="BN511" s="17"/>
+      <c r="BO511" s="17"/>
     </row>
     <row r="512">
       <c r="AL512" s="17"/>
@@ -27940,6 +28590,7 @@
       <c r="BL512" s="17"/>
       <c r="BM512" s="17"/>
       <c r="BN512" s="17"/>
+      <c r="BO512" s="17"/>
     </row>
     <row r="513">
       <c r="AL513" s="17"/>
@@ -27971,6 +28622,7 @@
       <c r="BL513" s="17"/>
       <c r="BM513" s="17"/>
       <c r="BN513" s="17"/>
+      <c r="BO513" s="17"/>
     </row>
     <row r="514">
       <c r="AL514" s="17"/>
@@ -28002,6 +28654,7 @@
       <c r="BL514" s="17"/>
       <c r="BM514" s="17"/>
       <c r="BN514" s="17"/>
+      <c r="BO514" s="17"/>
     </row>
     <row r="515">
       <c r="AL515" s="17"/>
@@ -28033,6 +28686,7 @@
       <c r="BL515" s="17"/>
       <c r="BM515" s="17"/>
       <c r="BN515" s="17"/>
+      <c r="BO515" s="17"/>
     </row>
     <row r="516">
       <c r="AL516" s="17"/>
@@ -28064,6 +28718,7 @@
       <c r="BL516" s="17"/>
       <c r="BM516" s="17"/>
       <c r="BN516" s="17"/>
+      <c r="BO516" s="17"/>
     </row>
     <row r="517">
       <c r="AL517" s="17"/>
@@ -28095,6 +28750,7 @@
       <c r="BL517" s="17"/>
       <c r="BM517" s="17"/>
       <c r="BN517" s="17"/>
+      <c r="BO517" s="17"/>
     </row>
     <row r="518">
       <c r="AL518" s="17"/>
@@ -28126,6 +28782,7 @@
       <c r="BL518" s="17"/>
       <c r="BM518" s="17"/>
       <c r="BN518" s="17"/>
+      <c r="BO518" s="17"/>
     </row>
     <row r="519">
       <c r="AL519" s="17"/>
@@ -28157,6 +28814,7 @@
       <c r="BL519" s="17"/>
       <c r="BM519" s="17"/>
       <c r="BN519" s="17"/>
+      <c r="BO519" s="17"/>
     </row>
     <row r="520">
       <c r="AL520" s="17"/>
@@ -28188,6 +28846,7 @@
       <c r="BL520" s="17"/>
       <c r="BM520" s="17"/>
       <c r="BN520" s="17"/>
+      <c r="BO520" s="17"/>
     </row>
     <row r="521">
       <c r="AL521" s="17"/>
@@ -28219,6 +28878,7 @@
       <c r="BL521" s="17"/>
       <c r="BM521" s="17"/>
       <c r="BN521" s="17"/>
+      <c r="BO521" s="17"/>
     </row>
     <row r="522">
       <c r="AL522" s="17"/>
@@ -28250,6 +28910,7 @@
       <c r="BL522" s="17"/>
       <c r="BM522" s="17"/>
       <c r="BN522" s="17"/>
+      <c r="BO522" s="17"/>
     </row>
     <row r="523">
       <c r="AL523" s="17"/>
@@ -28281,6 +28942,7 @@
       <c r="BL523" s="17"/>
       <c r="BM523" s="17"/>
       <c r="BN523" s="17"/>
+      <c r="BO523" s="17"/>
     </row>
     <row r="524">
       <c r="AL524" s="17"/>
@@ -28312,6 +28974,7 @@
       <c r="BL524" s="17"/>
       <c r="BM524" s="17"/>
       <c r="BN524" s="17"/>
+      <c r="BO524" s="17"/>
     </row>
     <row r="525">
       <c r="AL525" s="17"/>
@@ -28343,6 +29006,7 @@
       <c r="BL525" s="17"/>
       <c r="BM525" s="17"/>
       <c r="BN525" s="17"/>
+      <c r="BO525" s="17"/>
     </row>
     <row r="526">
       <c r="AL526" s="17"/>
@@ -28374,6 +29038,7 @@
       <c r="BL526" s="17"/>
       <c r="BM526" s="17"/>
       <c r="BN526" s="17"/>
+      <c r="BO526" s="17"/>
     </row>
     <row r="527">
       <c r="AL527" s="17"/>
@@ -28405,6 +29070,7 @@
       <c r="BL527" s="17"/>
       <c r="BM527" s="17"/>
       <c r="BN527" s="17"/>
+      <c r="BO527" s="17"/>
     </row>
     <row r="528">
       <c r="AL528" s="17"/>
@@ -28436,6 +29102,7 @@
       <c r="BL528" s="17"/>
       <c r="BM528" s="17"/>
       <c r="BN528" s="17"/>
+      <c r="BO528" s="17"/>
     </row>
     <row r="529">
       <c r="AL529" s="17"/>
@@ -28467,6 +29134,7 @@
       <c r="BL529" s="17"/>
       <c r="BM529" s="17"/>
       <c r="BN529" s="17"/>
+      <c r="BO529" s="17"/>
     </row>
     <row r="530">
       <c r="AL530" s="17"/>
@@ -28498,6 +29166,7 @@
       <c r="BL530" s="17"/>
       <c r="BM530" s="17"/>
       <c r="BN530" s="17"/>
+      <c r="BO530" s="17"/>
     </row>
     <row r="531">
       <c r="AL531" s="17"/>
@@ -28529,6 +29198,7 @@
       <c r="BL531" s="17"/>
       <c r="BM531" s="17"/>
       <c r="BN531" s="17"/>
+      <c r="BO531" s="17"/>
     </row>
     <row r="532">
       <c r="AL532" s="17"/>
@@ -28560,6 +29230,7 @@
       <c r="BL532" s="17"/>
       <c r="BM532" s="17"/>
       <c r="BN532" s="17"/>
+      <c r="BO532" s="17"/>
     </row>
     <row r="533">
       <c r="AL533" s="17"/>
@@ -28591,6 +29262,7 @@
       <c r="BL533" s="17"/>
       <c r="BM533" s="17"/>
       <c r="BN533" s="17"/>
+      <c r="BO533" s="17"/>
     </row>
     <row r="534">
       <c r="AL534" s="17"/>
@@ -28622,6 +29294,7 @@
       <c r="BL534" s="17"/>
       <c r="BM534" s="17"/>
       <c r="BN534" s="17"/>
+      <c r="BO534" s="17"/>
     </row>
     <row r="535">
       <c r="AL535" s="17"/>
@@ -28653,6 +29326,7 @@
       <c r="BL535" s="17"/>
       <c r="BM535" s="17"/>
       <c r="BN535" s="17"/>
+      <c r="BO535" s="17"/>
     </row>
     <row r="536">
       <c r="AL536" s="17"/>
@@ -28684,6 +29358,7 @@
       <c r="BL536" s="17"/>
       <c r="BM536" s="17"/>
       <c r="BN536" s="17"/>
+      <c r="BO536" s="17"/>
     </row>
     <row r="537">
       <c r="AL537" s="17"/>
@@ -28715,6 +29390,7 @@
       <c r="BL537" s="17"/>
       <c r="BM537" s="17"/>
       <c r="BN537" s="17"/>
+      <c r="BO537" s="17"/>
     </row>
     <row r="538">
       <c r="AL538" s="17"/>
@@ -28746,6 +29422,7 @@
       <c r="BL538" s="17"/>
       <c r="BM538" s="17"/>
       <c r="BN538" s="17"/>
+      <c r="BO538" s="17"/>
     </row>
     <row r="539">
       <c r="AL539" s="17"/>
@@ -28777,6 +29454,7 @@
       <c r="BL539" s="17"/>
       <c r="BM539" s="17"/>
       <c r="BN539" s="17"/>
+      <c r="BO539" s="17"/>
     </row>
     <row r="540">
       <c r="AL540" s="17"/>
@@ -28808,6 +29486,7 @@
       <c r="BL540" s="17"/>
       <c r="BM540" s="17"/>
       <c r="BN540" s="17"/>
+      <c r="BO540" s="17"/>
     </row>
     <row r="541">
       <c r="AL541" s="17"/>
@@ -28839,6 +29518,7 @@
       <c r="BL541" s="17"/>
       <c r="BM541" s="17"/>
       <c r="BN541" s="17"/>
+      <c r="BO541" s="17"/>
     </row>
     <row r="542">
       <c r="AL542" s="17"/>
@@ -28870,6 +29550,7 @@
       <c r="BL542" s="17"/>
       <c r="BM542" s="17"/>
       <c r="BN542" s="17"/>
+      <c r="BO542" s="17"/>
     </row>
     <row r="543">
       <c r="AL543" s="17"/>
@@ -28901,6 +29582,7 @@
       <c r="BL543" s="17"/>
       <c r="BM543" s="17"/>
       <c r="BN543" s="17"/>
+      <c r="BO543" s="17"/>
     </row>
     <row r="544">
       <c r="AL544" s="17"/>
@@ -28932,6 +29614,7 @@
       <c r="BL544" s="17"/>
       <c r="BM544" s="17"/>
       <c r="BN544" s="17"/>
+      <c r="BO544" s="17"/>
     </row>
     <row r="545">
       <c r="AL545" s="17"/>
@@ -28963,6 +29646,7 @@
       <c r="BL545" s="17"/>
       <c r="BM545" s="17"/>
       <c r="BN545" s="17"/>
+      <c r="BO545" s="17"/>
     </row>
     <row r="546">
       <c r="AL546" s="17"/>
@@ -28994,6 +29678,7 @@
       <c r="BL546" s="17"/>
       <c r="BM546" s="17"/>
       <c r="BN546" s="17"/>
+      <c r="BO546" s="17"/>
     </row>
     <row r="547">
       <c r="AL547" s="17"/>
@@ -29025,6 +29710,7 @@
       <c r="BL547" s="17"/>
       <c r="BM547" s="17"/>
       <c r="BN547" s="17"/>
+      <c r="BO547" s="17"/>
     </row>
     <row r="548">
       <c r="AL548" s="17"/>
@@ -29056,6 +29742,7 @@
       <c r="BL548" s="17"/>
       <c r="BM548" s="17"/>
       <c r="BN548" s="17"/>
+      <c r="BO548" s="17"/>
     </row>
     <row r="549">
       <c r="AL549" s="17"/>
@@ -29087,6 +29774,7 @@
       <c r="BL549" s="17"/>
       <c r="BM549" s="17"/>
       <c r="BN549" s="17"/>
+      <c r="BO549" s="17"/>
     </row>
     <row r="550">
       <c r="AL550" s="17"/>
@@ -29118,6 +29806,7 @@
       <c r="BL550" s="17"/>
       <c r="BM550" s="17"/>
       <c r="BN550" s="17"/>
+      <c r="BO550" s="17"/>
     </row>
     <row r="551">
       <c r="AL551" s="17"/>
@@ -29149,6 +29838,7 @@
       <c r="BL551" s="17"/>
       <c r="BM551" s="17"/>
       <c r="BN551" s="17"/>
+      <c r="BO551" s="17"/>
     </row>
     <row r="552">
       <c r="AL552" s="17"/>
@@ -29180,6 +29870,7 @@
       <c r="BL552" s="17"/>
       <c r="BM552" s="17"/>
       <c r="BN552" s="17"/>
+      <c r="BO552" s="17"/>
     </row>
     <row r="553">
       <c r="AL553" s="17"/>
@@ -29211,6 +29902,7 @@
       <c r="BL553" s="17"/>
       <c r="BM553" s="17"/>
       <c r="BN553" s="17"/>
+      <c r="BO553" s="17"/>
     </row>
     <row r="554">
       <c r="AL554" s="17"/>
@@ -29242,6 +29934,7 @@
       <c r="BL554" s="17"/>
       <c r="BM554" s="17"/>
       <c r="BN554" s="17"/>
+      <c r="BO554" s="17"/>
     </row>
     <row r="555">
       <c r="AL555" s="17"/>
@@ -29273,6 +29966,7 @@
       <c r="BL555" s="17"/>
       <c r="BM555" s="17"/>
       <c r="BN555" s="17"/>
+      <c r="BO555" s="17"/>
     </row>
     <row r="556">
       <c r="AL556" s="17"/>
@@ -29304,6 +29998,7 @@
       <c r="BL556" s="17"/>
       <c r="BM556" s="17"/>
       <c r="BN556" s="17"/>
+      <c r="BO556" s="17"/>
     </row>
     <row r="557">
       <c r="AL557" s="17"/>
@@ -29335,6 +30030,7 @@
       <c r="BL557" s="17"/>
       <c r="BM557" s="17"/>
       <c r="BN557" s="17"/>
+      <c r="BO557" s="17"/>
     </row>
     <row r="558">
       <c r="AL558" s="17"/>
@@ -29366,6 +30062,7 @@
       <c r="BL558" s="17"/>
       <c r="BM558" s="17"/>
       <c r="BN558" s="17"/>
+      <c r="BO558" s="17"/>
     </row>
     <row r="559">
       <c r="AL559" s="17"/>
@@ -29397,6 +30094,7 @@
       <c r="BL559" s="17"/>
       <c r="BM559" s="17"/>
       <c r="BN559" s="17"/>
+      <c r="BO559" s="17"/>
     </row>
     <row r="560">
       <c r="AL560" s="17"/>
@@ -29428,6 +30126,7 @@
       <c r="BL560" s="17"/>
       <c r="BM560" s="17"/>
       <c r="BN560" s="17"/>
+      <c r="BO560" s="17"/>
     </row>
     <row r="561">
       <c r="AL561" s="17"/>
@@ -29459,6 +30158,7 @@
       <c r="BL561" s="17"/>
       <c r="BM561" s="17"/>
       <c r="BN561" s="17"/>
+      <c r="BO561" s="17"/>
     </row>
     <row r="562">
       <c r="AL562" s="17"/>
@@ -29490,6 +30190,7 @@
       <c r="BL562" s="17"/>
       <c r="BM562" s="17"/>
       <c r="BN562" s="17"/>
+      <c r="BO562" s="17"/>
     </row>
     <row r="563">
       <c r="AL563" s="17"/>
@@ -29521,6 +30222,7 @@
       <c r="BL563" s="17"/>
       <c r="BM563" s="17"/>
       <c r="BN563" s="17"/>
+      <c r="BO563" s="17"/>
     </row>
     <row r="564">
       <c r="AL564" s="17"/>
@@ -29552,6 +30254,7 @@
       <c r="BL564" s="17"/>
       <c r="BM564" s="17"/>
       <c r="BN564" s="17"/>
+      <c r="BO564" s="17"/>
     </row>
     <row r="565">
       <c r="AL565" s="17"/>
@@ -29583,6 +30286,7 @@
       <c r="BL565" s="17"/>
       <c r="BM565" s="17"/>
       <c r="BN565" s="17"/>
+      <c r="BO565" s="17"/>
     </row>
     <row r="566">
       <c r="AL566" s="17"/>
@@ -29614,6 +30318,7 @@
       <c r="BL566" s="17"/>
       <c r="BM566" s="17"/>
       <c r="BN566" s="17"/>
+      <c r="BO566" s="17"/>
     </row>
     <row r="567">
       <c r="AL567" s="17"/>
@@ -29645,6 +30350,7 @@
       <c r="BL567" s="17"/>
       <c r="BM567" s="17"/>
       <c r="BN567" s="17"/>
+      <c r="BO567" s="17"/>
     </row>
     <row r="568">
       <c r="AL568" s="17"/>
@@ -29676,6 +30382,7 @@
       <c r="BL568" s="17"/>
       <c r="BM568" s="17"/>
       <c r="BN568" s="17"/>
+      <c r="BO568" s="17"/>
     </row>
     <row r="569">
       <c r="AL569" s="17"/>
@@ -29707,6 +30414,7 @@
       <c r="BL569" s="17"/>
       <c r="BM569" s="17"/>
       <c r="BN569" s="17"/>
+      <c r="BO569" s="17"/>
     </row>
     <row r="570">
       <c r="AL570" s="17"/>
@@ -29738,6 +30446,7 @@
       <c r="BL570" s="17"/>
       <c r="BM570" s="17"/>
       <c r="BN570" s="17"/>
+      <c r="BO570" s="17"/>
     </row>
     <row r="571">
       <c r="AL571" s="17"/>
@@ -29769,6 +30478,7 @@
       <c r="BL571" s="17"/>
       <c r="BM571" s="17"/>
       <c r="BN571" s="17"/>
+      <c r="BO571" s="17"/>
     </row>
     <row r="572">
       <c r="AL572" s="17"/>
@@ -29800,6 +30510,7 @@
       <c r="BL572" s="17"/>
       <c r="BM572" s="17"/>
       <c r="BN572" s="17"/>
+      <c r="BO572" s="17"/>
     </row>
     <row r="573">
       <c r="AL573" s="17"/>
@@ -29831,6 +30542,7 @@
       <c r="BL573" s="17"/>
       <c r="BM573" s="17"/>
       <c r="BN573" s="17"/>
+      <c r="BO573" s="17"/>
     </row>
     <row r="574">
       <c r="AL574" s="17"/>
@@ -29862,6 +30574,7 @@
       <c r="BL574" s="17"/>
       <c r="BM574" s="17"/>
       <c r="BN574" s="17"/>
+      <c r="BO574" s="17"/>
     </row>
     <row r="575">
       <c r="AL575" s="17"/>
@@ -29893,6 +30606,7 @@
       <c r="BL575" s="17"/>
       <c r="BM575" s="17"/>
       <c r="BN575" s="17"/>
+      <c r="BO575" s="17"/>
     </row>
     <row r="576">
       <c r="AL576" s="17"/>
@@ -29924,6 +30638,7 @@
       <c r="BL576" s="17"/>
       <c r="BM576" s="17"/>
       <c r="BN576" s="17"/>
+      <c r="BO576" s="17"/>
     </row>
     <row r="577">
       <c r="AL577" s="17"/>
@@ -29955,6 +30670,7 @@
       <c r="BL577" s="17"/>
       <c r="BM577" s="17"/>
       <c r="BN577" s="17"/>
+      <c r="BO577" s="17"/>
     </row>
     <row r="578">
       <c r="AL578" s="17"/>
@@ -29986,6 +30702,7 @@
       <c r="BL578" s="17"/>
       <c r="BM578" s="17"/>
       <c r="BN578" s="17"/>
+      <c r="BO578" s="17"/>
     </row>
     <row r="579">
       <c r="AL579" s="17"/>
@@ -30017,6 +30734,7 @@
       <c r="BL579" s="17"/>
       <c r="BM579" s="17"/>
       <c r="BN579" s="17"/>
+      <c r="BO579" s="17"/>
     </row>
     <row r="580">
       <c r="AL580" s="17"/>
@@ -30048,6 +30766,7 @@
       <c r="BL580" s="17"/>
       <c r="BM580" s="17"/>
       <c r="BN580" s="17"/>
+      <c r="BO580" s="17"/>
     </row>
     <row r="581">
       <c r="AL581" s="17"/>
@@ -30079,6 +30798,7 @@
       <c r="BL581" s="17"/>
       <c r="BM581" s="17"/>
       <c r="BN581" s="17"/>
+      <c r="BO581" s="17"/>
     </row>
     <row r="582">
       <c r="AL582" s="17"/>
@@ -30110,6 +30830,7 @@
       <c r="BL582" s="17"/>
       <c r="BM582" s="17"/>
       <c r="BN582" s="17"/>
+      <c r="BO582" s="17"/>
     </row>
     <row r="583">
       <c r="AL583" s="17"/>
@@ -30141,6 +30862,7 @@
       <c r="BL583" s="17"/>
       <c r="BM583" s="17"/>
       <c r="BN583" s="17"/>
+      <c r="BO583" s="17"/>
     </row>
     <row r="584">
       <c r="AL584" s="17"/>
@@ -30172,6 +30894,7 @@
       <c r="BL584" s="17"/>
       <c r="BM584" s="17"/>
       <c r="BN584" s="17"/>
+      <c r="BO584" s="17"/>
     </row>
     <row r="585">
       <c r="AL585" s="17"/>
@@ -30203,6 +30926,7 @@
       <c r="BL585" s="17"/>
       <c r="BM585" s="17"/>
       <c r="BN585" s="17"/>
+      <c r="BO585" s="17"/>
     </row>
     <row r="586">
       <c r="AL586" s="17"/>
@@ -30234,6 +30958,7 @@
       <c r="BL586" s="17"/>
       <c r="BM586" s="17"/>
       <c r="BN586" s="17"/>
+      <c r="BO586" s="17"/>
     </row>
     <row r="587">
       <c r="AL587" s="17"/>
@@ -30265,6 +30990,7 @@
       <c r="BL587" s="17"/>
       <c r="BM587" s="17"/>
       <c r="BN587" s="17"/>
+      <c r="BO587" s="17"/>
     </row>
     <row r="588">
       <c r="AL588" s="17"/>
@@ -30296,6 +31022,7 @@
       <c r="BL588" s="17"/>
       <c r="BM588" s="17"/>
       <c r="BN588" s="17"/>
+      <c r="BO588" s="17"/>
     </row>
     <row r="589">
       <c r="AL589" s="17"/>
@@ -30327,6 +31054,7 @@
       <c r="BL589" s="17"/>
       <c r="BM589" s="17"/>
       <c r="BN589" s="17"/>
+      <c r="BO589" s="17"/>
     </row>
     <row r="590">
       <c r="AL590" s="17"/>
@@ -30358,6 +31086,7 @@
       <c r="BL590" s="17"/>
       <c r="BM590" s="17"/>
       <c r="BN590" s="17"/>
+      <c r="BO590" s="17"/>
     </row>
     <row r="591">
       <c r="AL591" s="17"/>
@@ -30389,6 +31118,7 @@
       <c r="BL591" s="17"/>
       <c r="BM591" s="17"/>
       <c r="BN591" s="17"/>
+      <c r="BO591" s="17"/>
     </row>
     <row r="592">
       <c r="AL592" s="17"/>
@@ -30420,6 +31150,7 @@
       <c r="BL592" s="17"/>
       <c r="BM592" s="17"/>
       <c r="BN592" s="17"/>
+      <c r="BO592" s="17"/>
     </row>
     <row r="593">
       <c r="AL593" s="17"/>
@@ -30451,6 +31182,7 @@
       <c r="BL593" s="17"/>
       <c r="BM593" s="17"/>
       <c r="BN593" s="17"/>
+      <c r="BO593" s="17"/>
     </row>
     <row r="594">
       <c r="AL594" s="17"/>
@@ -30482,6 +31214,7 @@
       <c r="BL594" s="17"/>
       <c r="BM594" s="17"/>
       <c r="BN594" s="17"/>
+      <c r="BO594" s="17"/>
     </row>
     <row r="595">
       <c r="AL595" s="17"/>
@@ -30513,6 +31246,7 @@
       <c r="BL595" s="17"/>
       <c r="BM595" s="17"/>
       <c r="BN595" s="17"/>
+      <c r="BO595" s="17"/>
     </row>
     <row r="596">
       <c r="AL596" s="17"/>
@@ -30544,6 +31278,7 @@
       <c r="BL596" s="17"/>
       <c r="BM596" s="17"/>
       <c r="BN596" s="17"/>
+      <c r="BO596" s="17"/>
     </row>
     <row r="597">
       <c r="AL597" s="17"/>
@@ -30575,6 +31310,7 @@
       <c r="BL597" s="17"/>
       <c r="BM597" s="17"/>
       <c r="BN597" s="17"/>
+      <c r="BO597" s="17"/>
     </row>
     <row r="598">
       <c r="AL598" s="17"/>
@@ -30606,6 +31342,7 @@
       <c r="BL598" s="17"/>
       <c r="BM598" s="17"/>
       <c r="BN598" s="17"/>
+      <c r="BO598" s="17"/>
     </row>
     <row r="599">
       <c r="AL599" s="17"/>
@@ -30637,6 +31374,7 @@
       <c r="BL599" s="17"/>
       <c r="BM599" s="17"/>
       <c r="BN599" s="17"/>
+      <c r="BO599" s="17"/>
     </row>
     <row r="600">
       <c r="AL600" s="17"/>
@@ -30668,6 +31406,7 @@
       <c r="BL600" s="17"/>
       <c r="BM600" s="17"/>
       <c r="BN600" s="17"/>
+      <c r="BO600" s="17"/>
     </row>
     <row r="601">
       <c r="AL601" s="17"/>
@@ -30699,6 +31438,7 @@
       <c r="BL601" s="17"/>
       <c r="BM601" s="17"/>
       <c r="BN601" s="17"/>
+      <c r="BO601" s="17"/>
     </row>
     <row r="602">
       <c r="AL602" s="17"/>
@@ -30730,6 +31470,7 @@
       <c r="BL602" s="17"/>
       <c r="BM602" s="17"/>
       <c r="BN602" s="17"/>
+      <c r="BO602" s="17"/>
     </row>
     <row r="603">
       <c r="AL603" s="17"/>
@@ -30761,6 +31502,7 @@
       <c r="BL603" s="17"/>
       <c r="BM603" s="17"/>
       <c r="BN603" s="17"/>
+      <c r="BO603" s="17"/>
     </row>
     <row r="604">
       <c r="AL604" s="17"/>
@@ -30792,6 +31534,7 @@
       <c r="BL604" s="17"/>
       <c r="BM604" s="17"/>
       <c r="BN604" s="17"/>
+      <c r="BO604" s="17"/>
     </row>
     <row r="605">
       <c r="AL605" s="17"/>
@@ -30823,6 +31566,7 @@
       <c r="BL605" s="17"/>
       <c r="BM605" s="17"/>
       <c r="BN605" s="17"/>
+      <c r="BO605" s="17"/>
     </row>
     <row r="606">
       <c r="AL606" s="17"/>
@@ -30854,6 +31598,7 @@
       <c r="BL606" s="17"/>
       <c r="BM606" s="17"/>
       <c r="BN606" s="17"/>
+      <c r="BO606" s="17"/>
     </row>
     <row r="607">
       <c r="AL607" s="17"/>
@@ -30885,6 +31630,7 @@
       <c r="BL607" s="17"/>
       <c r="BM607" s="17"/>
       <c r="BN607" s="17"/>
+      <c r="BO607" s="17"/>
     </row>
     <row r="608">
       <c r="AL608" s="17"/>
@@ -30916,6 +31662,7 @@
       <c r="BL608" s="17"/>
       <c r="BM608" s="17"/>
       <c r="BN608" s="17"/>
+      <c r="BO608" s="17"/>
     </row>
     <row r="609">
       <c r="AL609" s="17"/>
@@ -30947,6 +31694,7 @@
       <c r="BL609" s="17"/>
       <c r="BM609" s="17"/>
       <c r="BN609" s="17"/>
+      <c r="BO609" s="17"/>
     </row>
     <row r="610">
       <c r="AL610" s="17"/>
@@ -30978,6 +31726,7 @@
       <c r="BL610" s="17"/>
       <c r="BM610" s="17"/>
       <c r="BN610" s="17"/>
+      <c r="BO610" s="17"/>
     </row>
     <row r="611">
       <c r="AL611" s="17"/>
@@ -31009,6 +31758,7 @@
       <c r="BL611" s="17"/>
       <c r="BM611" s="17"/>
       <c r="BN611" s="17"/>
+      <c r="BO611" s="17"/>
     </row>
     <row r="612">
       <c r="AL612" s="17"/>
@@ -31040,6 +31790,7 @@
       <c r="BL612" s="17"/>
       <c r="BM612" s="17"/>
       <c r="BN612" s="17"/>
+      <c r="BO612" s="17"/>
     </row>
     <row r="613">
       <c r="AL613" s="17"/>
@@ -31071,6 +31822,7 @@
       <c r="BL613" s="17"/>
       <c r="BM613" s="17"/>
       <c r="BN613" s="17"/>
+      <c r="BO613" s="17"/>
     </row>
     <row r="614">
       <c r="AL614" s="17"/>
@@ -31102,6 +31854,7 @@
       <c r="BL614" s="17"/>
       <c r="BM614" s="17"/>
       <c r="BN614" s="17"/>
+      <c r="BO614" s="17"/>
     </row>
     <row r="615">
       <c r="AL615" s="17"/>
@@ -31133,6 +31886,7 @@
       <c r="BL615" s="17"/>
       <c r="BM615" s="17"/>
       <c r="BN615" s="17"/>
+      <c r="BO615" s="17"/>
     </row>
     <row r="616">
       <c r="AL616" s="17"/>
@@ -31164,6 +31918,7 @@
       <c r="BL616" s="17"/>
       <c r="BM616" s="17"/>
       <c r="BN616" s="17"/>
+      <c r="BO616" s="17"/>
     </row>
     <row r="617">
       <c r="AL617" s="17"/>
@@ -31195,6 +31950,7 @@
       <c r="BL617" s="17"/>
       <c r="BM617" s="17"/>
       <c r="BN617" s="17"/>
+      <c r="BO617" s="17"/>
     </row>
     <row r="618">
       <c r="AL618" s="17"/>
@@ -31226,6 +31982,7 @@
       <c r="BL618" s="17"/>
       <c r="BM618" s="17"/>
       <c r="BN618" s="17"/>
+      <c r="BO618" s="17"/>
     </row>
     <row r="619">
       <c r="AL619" s="17"/>
@@ -31257,6 +32014,7 @@
       <c r="BL619" s="17"/>
       <c r="BM619" s="17"/>
       <c r="BN619" s="17"/>
+      <c r="BO619" s="17"/>
     </row>
     <row r="620">
       <c r="AL620" s="17"/>
@@ -31288,6 +32046,7 @@
       <c r="BL620" s="17"/>
       <c r="BM620" s="17"/>
       <c r="BN620" s="17"/>
+      <c r="BO620" s="17"/>
     </row>
     <row r="621">
       <c r="AL621" s="17"/>
@@ -31319,6 +32078,7 @@
       <c r="BL621" s="17"/>
       <c r="BM621" s="17"/>
       <c r="BN621" s="17"/>
+      <c r="BO621" s="17"/>
     </row>
     <row r="622">
       <c r="AL622" s="17"/>
@@ -31350,6 +32110,7 @@
       <c r="BL622" s="17"/>
       <c r="BM622" s="17"/>
       <c r="BN622" s="17"/>
+      <c r="BO622" s="17"/>
     </row>
     <row r="623">
       <c r="AL623" s="17"/>
@@ -31381,6 +32142,7 @@
       <c r="BL623" s="17"/>
       <c r="BM623" s="17"/>
       <c r="BN623" s="17"/>
+      <c r="BO623" s="17"/>
     </row>
     <row r="624">
       <c r="AL624" s="17"/>
@@ -31412,6 +32174,7 @@
       <c r="BL624" s="17"/>
       <c r="BM624" s="17"/>
       <c r="BN624" s="17"/>
+      <c r="BO624" s="17"/>
     </row>
     <row r="625">
       <c r="AL625" s="17"/>
@@ -31443,6 +32206,7 @@
       <c r="BL625" s="17"/>
       <c r="BM625" s="17"/>
       <c r="BN625" s="17"/>
+      <c r="BO625" s="17"/>
     </row>
     <row r="626">
       <c r="AL626" s="17"/>
@@ -31474,6 +32238,7 @@
       <c r="BL626" s="17"/>
       <c r="BM626" s="17"/>
       <c r="BN626" s="17"/>
+      <c r="BO626" s="17"/>
     </row>
     <row r="627">
       <c r="AL627" s="17"/>
@@ -31505,6 +32270,7 @@
       <c r="BL627" s="17"/>
       <c r="BM627" s="17"/>
       <c r="BN627" s="17"/>
+      <c r="BO627" s="17"/>
     </row>
     <row r="628">
       <c r="AL628" s="17"/>
@@ -31536,6 +32302,7 @@
       <c r="BL628" s="17"/>
       <c r="BM628" s="17"/>
       <c r="BN628" s="17"/>
+      <c r="BO628" s="17"/>
     </row>
     <row r="629">
       <c r="AL629" s="17"/>
@@ -31567,6 +32334,7 @@
       <c r="BL629" s="17"/>
       <c r="BM629" s="17"/>
       <c r="BN629" s="17"/>
+      <c r="BO629" s="17"/>
     </row>
     <row r="630">
       <c r="AL630" s="17"/>
@@ -31598,6 +32366,7 @@
       <c r="BL630" s="17"/>
       <c r="BM630" s="17"/>
       <c r="BN630" s="17"/>
+      <c r="BO630" s="17"/>
     </row>
     <row r="631">
       <c r="AL631" s="17"/>
@@ -31629,6 +32398,7 @@
       <c r="BL631" s="17"/>
       <c r="BM631" s="17"/>
       <c r="BN631" s="17"/>
+      <c r="BO631" s="17"/>
     </row>
     <row r="632">
       <c r="AL632" s="17"/>
@@ -31660,6 +32430,7 @@
       <c r="BL632" s="17"/>
       <c r="BM632" s="17"/>
       <c r="BN632" s="17"/>
+      <c r="BO632" s="17"/>
     </row>
     <row r="633">
       <c r="AL633" s="17"/>
@@ -31691,6 +32462,7 @@
       <c r="BL633" s="17"/>
       <c r="BM633" s="17"/>
       <c r="BN633" s="17"/>
+      <c r="BO633" s="17"/>
     </row>
     <row r="634">
       <c r="AL634" s="17"/>
@@ -31722,6 +32494,7 @@
       <c r="BL634" s="17"/>
       <c r="BM634" s="17"/>
       <c r="BN634" s="17"/>
+      <c r="BO634" s="17"/>
     </row>
     <row r="635">
       <c r="AL635" s="17"/>
@@ -31753,6 +32526,7 @@
       <c r="BL635" s="17"/>
       <c r="BM635" s="17"/>
       <c r="BN635" s="17"/>
+      <c r="BO635" s="17"/>
     </row>
     <row r="636">
       <c r="AL636" s="17"/>
@@ -31784,6 +32558,7 @@
       <c r="BL636" s="17"/>
       <c r="BM636" s="17"/>
       <c r="BN636" s="17"/>
+      <c r="BO636" s="17"/>
     </row>
     <row r="637">
       <c r="AL637" s="17"/>
@@ -31815,6 +32590,7 @@
       <c r="BL637" s="17"/>
       <c r="BM637" s="17"/>
       <c r="BN637" s="17"/>
+      <c r="BO637" s="17"/>
     </row>
     <row r="638">
       <c r="AL638" s="17"/>
@@ -31846,6 +32622,7 @@
       <c r="BL638" s="17"/>
       <c r="BM638" s="17"/>
       <c r="BN638" s="17"/>
+      <c r="BO638" s="17"/>
     </row>
     <row r="639">
       <c r="AL639" s="17"/>
@@ -31877,6 +32654,7 @@
       <c r="BL639" s="17"/>
       <c r="BM639" s="17"/>
       <c r="BN639" s="17"/>
+      <c r="BO639" s="17"/>
     </row>
     <row r="640">
       <c r="AL640" s="17"/>
@@ -31908,6 +32686,7 @@
       <c r="BL640" s="17"/>
       <c r="BM640" s="17"/>
       <c r="BN640" s="17"/>
+      <c r="BO640" s="17"/>
     </row>
     <row r="641">
       <c r="AL641" s="17"/>
@@ -31939,6 +32718,7 @@
       <c r="BL641" s="17"/>
       <c r="BM641" s="17"/>
       <c r="BN641" s="17"/>
+      <c r="BO641" s="17"/>
     </row>
     <row r="642">
       <c r="AL642" s="17"/>
@@ -31970,6 +32750,7 @@
       <c r="BL642" s="17"/>
       <c r="BM642" s="17"/>
       <c r="BN642" s="17"/>
+      <c r="BO642" s="17"/>
     </row>
     <row r="643">
       <c r="AL643" s="17"/>
@@ -32001,6 +32782,7 @@
       <c r="BL643" s="17"/>
       <c r="BM643" s="17"/>
       <c r="BN643" s="17"/>
+      <c r="BO643" s="17"/>
     </row>
     <row r="644">
       <c r="AL644" s="17"/>
@@ -32032,6 +32814,7 @@
       <c r="BL644" s="17"/>
       <c r="BM644" s="17"/>
       <c r="BN644" s="17"/>
+      <c r="BO644" s="17"/>
     </row>
     <row r="645">
       <c r="AL645" s="17"/>
@@ -32063,6 +32846,7 @@
       <c r="BL645" s="17"/>
       <c r="BM645" s="17"/>
       <c r="BN645" s="17"/>
+      <c r="BO645" s="17"/>
     </row>
     <row r="646">
       <c r="AL646" s="17"/>
@@ -32094,6 +32878,7 @@
       <c r="BL646" s="17"/>
       <c r="BM646" s="17"/>
       <c r="BN646" s="17"/>
+      <c r="BO646" s="17"/>
     </row>
     <row r="647">
       <c r="AL647" s="17"/>
@@ -32125,6 +32910,7 @@
       <c r="BL647" s="17"/>
       <c r="BM647" s="17"/>
       <c r="BN647" s="17"/>
+      <c r="BO647" s="17"/>
     </row>
     <row r="648">
       <c r="AL648" s="17"/>
@@ -32156,6 +32942,7 @@
       <c r="BL648" s="17"/>
       <c r="BM648" s="17"/>
       <c r="BN648" s="17"/>
+      <c r="BO648" s="17"/>
     </row>
     <row r="649">
       <c r="AL649" s="17"/>
@@ -32187,6 +32974,7 @@
       <c r="BL649" s="17"/>
       <c r="BM649" s="17"/>
       <c r="BN649" s="17"/>
+      <c r="BO649" s="17"/>
     </row>
     <row r="650">
       <c r="AL650" s="17"/>
@@ -32218,6 +33006,7 @@
       <c r="BL650" s="17"/>
       <c r="BM650" s="17"/>
       <c r="BN650" s="17"/>
+      <c r="BO650" s="17"/>
     </row>
     <row r="651">
       <c r="AL651" s="17"/>
@@ -32249,6 +33038,7 @@
       <c r="BL651" s="17"/>
       <c r="BM651" s="17"/>
       <c r="BN651" s="17"/>
+      <c r="BO651" s="17"/>
     </row>
     <row r="652">
       <c r="AL652" s="17"/>
@@ -32280,6 +33070,7 @@
       <c r="BL652" s="17"/>
       <c r="BM652" s="17"/>
       <c r="BN652" s="17"/>
+      <c r="BO652" s="17"/>
     </row>
     <row r="653">
       <c r="AL653" s="17"/>
@@ -32311,6 +33102,7 @@
       <c r="BL653" s="17"/>
       <c r="BM653" s="17"/>
       <c r="BN653" s="17"/>
+      <c r="BO653" s="17"/>
     </row>
     <row r="654">
       <c r="AL654" s="17"/>
@@ -32342,6 +33134,7 @@
       <c r="BL654" s="17"/>
       <c r="BM654" s="17"/>
       <c r="BN654" s="17"/>
+      <c r="BO654" s="17"/>
     </row>
     <row r="655">
       <c r="AL655" s="17"/>
@@ -32373,6 +33166,7 @@
       <c r="BL655" s="17"/>
       <c r="BM655" s="17"/>
       <c r="BN655" s="17"/>
+      <c r="BO655" s="17"/>
     </row>
     <row r="656">
       <c r="AL656" s="17"/>
@@ -32404,6 +33198,7 @@
       <c r="BL656" s="17"/>
       <c r="BM656" s="17"/>
       <c r="BN656" s="17"/>
+      <c r="BO656" s="17"/>
     </row>
     <row r="657">
       <c r="AL657" s="17"/>
@@ -32435,6 +33230,7 @@
       <c r="BL657" s="17"/>
       <c r="BM657" s="17"/>
       <c r="BN657" s="17"/>
+      <c r="BO657" s="17"/>
     </row>
     <row r="658">
       <c r="AL658" s="17"/>
@@ -32466,6 +33262,7 @@
       <c r="BL658" s="17"/>
       <c r="BM658" s="17"/>
       <c r="BN658" s="17"/>
+      <c r="BO658" s="17"/>
     </row>
     <row r="659">
       <c r="AL659" s="17"/>
@@ -32497,6 +33294,7 @@
       <c r="BL659" s="17"/>
       <c r="BM659" s="17"/>
       <c r="BN659" s="17"/>
+      <c r="BO659" s="17"/>
     </row>
     <row r="660">
       <c r="AL660" s="17"/>
@@ -32528,6 +33326,7 @@
       <c r="BL660" s="17"/>
       <c r="BM660" s="17"/>
       <c r="BN660" s="17"/>
+      <c r="BO660" s="17"/>
     </row>
     <row r="661">
       <c r="AL661" s="17"/>
@@ -32559,6 +33358,7 @@
       <c r="BL661" s="17"/>
       <c r="BM661" s="17"/>
       <c r="BN661" s="17"/>
+      <c r="BO661" s="17"/>
     </row>
     <row r="662">
       <c r="AL662" s="17"/>
@@ -32590,6 +33390,7 @@
       <c r="BL662" s="17"/>
       <c r="BM662" s="17"/>
       <c r="BN662" s="17"/>
+      <c r="BO662" s="17"/>
     </row>
     <row r="663">
       <c r="AL663" s="17"/>
@@ -32621,6 +33422,7 @@
       <c r="BL663" s="17"/>
       <c r="BM663" s="17"/>
       <c r="BN663" s="17"/>
+      <c r="BO663" s="17"/>
     </row>
     <row r="664">
       <c r="AL664" s="17"/>
@@ -32652,6 +33454,7 @@
       <c r="BL664" s="17"/>
       <c r="BM664" s="17"/>
       <c r="BN664" s="17"/>
+      <c r="BO664" s="17"/>
     </row>
     <row r="665">
       <c r="AL665" s="17"/>
@@ -32683,6 +33486,7 @@
       <c r="BL665" s="17"/>
       <c r="BM665" s="17"/>
       <c r="BN665" s="17"/>
+      <c r="BO665" s="17"/>
     </row>
     <row r="666">
       <c r="AL666" s="17"/>
@@ -32714,6 +33518,7 @@
       <c r="BL666" s="17"/>
       <c r="BM666" s="17"/>
       <c r="BN666" s="17"/>
+      <c r="BO666" s="17"/>
     </row>
     <row r="667">
       <c r="AL667" s="17"/>
@@ -32745,6 +33550,7 @@
       <c r="BL667" s="17"/>
       <c r="BM667" s="17"/>
       <c r="BN667" s="17"/>
+      <c r="BO667" s="17"/>
     </row>
     <row r="668">
       <c r="AL668" s="17"/>
@@ -32776,6 +33582,7 @@
       <c r="BL668" s="17"/>
       <c r="BM668" s="17"/>
       <c r="BN668" s="17"/>
+      <c r="BO668" s="17"/>
     </row>
     <row r="669">
       <c r="AL669" s="17"/>
@@ -32807,6 +33614,7 @@
       <c r="BL669" s="17"/>
       <c r="BM669" s="17"/>
       <c r="BN669" s="17"/>
+      <c r="BO669" s="17"/>
     </row>
     <row r="670">
       <c r="AL670" s="17"/>
@@ -32838,6 +33646,7 @@
       <c r="BL670" s="17"/>
       <c r="BM670" s="17"/>
       <c r="BN670" s="17"/>
+      <c r="BO670" s="17"/>
     </row>
     <row r="671">
       <c r="AL671" s="17"/>
@@ -32869,6 +33678,7 @@
       <c r="BL671" s="17"/>
       <c r="BM671" s="17"/>
       <c r="BN671" s="17"/>
+      <c r="BO671" s="17"/>
     </row>
     <row r="672">
       <c r="AL672" s="17"/>
@@ -32900,6 +33710,7 @@
       <c r="BL672" s="17"/>
       <c r="BM672" s="17"/>
       <c r="BN672" s="17"/>
+      <c r="BO672" s="17"/>
     </row>
     <row r="673">
       <c r="AL673" s="17"/>
@@ -32931,6 +33742,7 @@
       <c r="BL673" s="17"/>
       <c r="BM673" s="17"/>
       <c r="BN673" s="17"/>
+      <c r="BO673" s="17"/>
     </row>
     <row r="674">
       <c r="AL674" s="17"/>
@@ -32962,6 +33774,7 @@
       <c r="BL674" s="17"/>
       <c r="BM674" s="17"/>
       <c r="BN674" s="17"/>
+      <c r="BO674" s="17"/>
     </row>
     <row r="675">
       <c r="AL675" s="17"/>
@@ -32993,6 +33806,7 @@
       <c r="BL675" s="17"/>
       <c r="BM675" s="17"/>
       <c r="BN675" s="17"/>
+      <c r="BO675" s="17"/>
     </row>
     <row r="676">
       <c r="AL676" s="17"/>
@@ -33024,6 +33838,7 @@
       <c r="BL676" s="17"/>
       <c r="BM676" s="17"/>
       <c r="BN676" s="17"/>
+      <c r="BO676" s="17"/>
     </row>
     <row r="677">
       <c r="AL677" s="17"/>
@@ -33055,6 +33870,7 @@
       <c r="BL677" s="17"/>
       <c r="BM677" s="17"/>
       <c r="BN677" s="17"/>
+      <c r="BO677" s="17"/>
     </row>
     <row r="678">
       <c r="AL678" s="17"/>
@@ -33086,6 +33902,7 @@
       <c r="BL678" s="17"/>
       <c r="BM678" s="17"/>
       <c r="BN678" s="17"/>
+      <c r="BO678" s="17"/>
     </row>
     <row r="679">
       <c r="AL679" s="17"/>
@@ -33117,6 +33934,7 @@
       <c r="BL679" s="17"/>
       <c r="BM679" s="17"/>
       <c r="BN679" s="17"/>
+      <c r="BO679" s="17"/>
     </row>
     <row r="680">
       <c r="AL680" s="17"/>
@@ -33148,6 +33966,7 @@
       <c r="BL680" s="17"/>
       <c r="BM680" s="17"/>
       <c r="BN680" s="17"/>
+      <c r="BO680" s="17"/>
     </row>
     <row r="681">
       <c r="AL681" s="17"/>
@@ -33179,6 +33998,7 @@
       <c r="BL681" s="17"/>
       <c r="BM681" s="17"/>
       <c r="BN681" s="17"/>
+      <c r="BO681" s="17"/>
     </row>
     <row r="682">
       <c r="AL682" s="17"/>
@@ -33210,6 +34030,7 @@
       <c r="BL682" s="17"/>
       <c r="BM682" s="17"/>
       <c r="BN682" s="17"/>
+      <c r="BO682" s="17"/>
     </row>
     <row r="683">
       <c r="AL683" s="17"/>
@@ -33241,6 +34062,7 @@
       <c r="BL683" s="17"/>
       <c r="BM683" s="17"/>
       <c r="BN683" s="17"/>
+      <c r="BO683" s="17"/>
     </row>
     <row r="684">
       <c r="AL684" s="17"/>
@@ -33272,6 +34094,7 @@
       <c r="BL684" s="17"/>
       <c r="BM684" s="17"/>
       <c r="BN684" s="17"/>
+      <c r="BO684" s="17"/>
     </row>
     <row r="685">
       <c r="AL685" s="17"/>
@@ -33303,6 +34126,7 @@
       <c r="BL685" s="17"/>
       <c r="BM685" s="17"/>
       <c r="BN685" s="17"/>
+      <c r="BO685" s="17"/>
     </row>
     <row r="686">
       <c r="AL686" s="17"/>
@@ -33334,6 +34158,7 @@
       <c r="BL686" s="17"/>
       <c r="BM686" s="17"/>
       <c r="BN686" s="17"/>
+      <c r="BO686" s="17"/>
     </row>
     <row r="687">
       <c r="AL687" s="17"/>
@@ -33365,6 +34190,7 @@
       <c r="BL687" s="17"/>
       <c r="BM687" s="17"/>
       <c r="BN687" s="17"/>
+      <c r="BO687" s="17"/>
     </row>
     <row r="688">
       <c r="AL688" s="17"/>
@@ -33396,6 +34222,7 @@
       <c r="BL688" s="17"/>
       <c r="BM688" s="17"/>
       <c r="BN688" s="17"/>
+      <c r="BO688" s="17"/>
     </row>
     <row r="689">
       <c r="AL689" s="17"/>
@@ -33427,6 +34254,7 @@
       <c r="BL689" s="17"/>
       <c r="BM689" s="17"/>
       <c r="BN689" s="17"/>
+      <c r="BO689" s="17"/>
     </row>
     <row r="690">
       <c r="AL690" s="17"/>
@@ -33458,6 +34286,7 @@
       <c r="BL690" s="17"/>
       <c r="BM690" s="17"/>
       <c r="BN690" s="17"/>
+      <c r="BO690" s="17"/>
     </row>
     <row r="691">
       <c r="AL691" s="17"/>
@@ -33489,6 +34318,7 @@
       <c r="BL691" s="17"/>
       <c r="BM691" s="17"/>
       <c r="BN691" s="17"/>
+      <c r="BO691" s="17"/>
     </row>
     <row r="692">
       <c r="AL692" s="17"/>
@@ -33520,6 +34350,7 @@
       <c r="BL692" s="17"/>
       <c r="BM692" s="17"/>
       <c r="BN692" s="17"/>
+      <c r="BO692" s="17"/>
     </row>
     <row r="693">
       <c r="AL693" s="17"/>
@@ -33551,6 +34382,7 @@
       <c r="BL693" s="17"/>
       <c r="BM693" s="17"/>
       <c r="BN693" s="17"/>
+      <c r="BO693" s="17"/>
     </row>
     <row r="694">
       <c r="AL694" s="17"/>
@@ -33582,6 +34414,7 @@
       <c r="BL694" s="17"/>
       <c r="BM694" s="17"/>
       <c r="BN694" s="17"/>
+      <c r="BO694" s="17"/>
     </row>
     <row r="695">
       <c r="AL695" s="17"/>
@@ -33613,6 +34446,7 @@
       <c r="BL695" s="17"/>
       <c r="BM695" s="17"/>
       <c r="BN695" s="17"/>
+      <c r="BO695" s="17"/>
     </row>
     <row r="696">
       <c r="AL696" s="17"/>
@@ -33644,6 +34478,7 @@
       <c r="BL696" s="17"/>
       <c r="BM696" s="17"/>
       <c r="BN696" s="17"/>
+      <c r="BO696" s="17"/>
     </row>
     <row r="697">
       <c r="AL697" s="17"/>
@@ -33675,6 +34510,7 @@
       <c r="BL697" s="17"/>
       <c r="BM697" s="17"/>
       <c r="BN697" s="17"/>
+      <c r="BO697" s="17"/>
     </row>
     <row r="698">
       <c r="AL698" s="17"/>
@@ -33706,6 +34542,7 @@
       <c r="BL698" s="17"/>
       <c r="BM698" s="17"/>
       <c r="BN698" s="17"/>
+      <c r="BO698" s="17"/>
     </row>
     <row r="699">
       <c r="AL699" s="17"/>
@@ -33737,6 +34574,7 @@
       <c r="BL699" s="17"/>
       <c r="BM699" s="17"/>
       <c r="BN699" s="17"/>
+      <c r="BO699" s="17"/>
     </row>
     <row r="700">
       <c r="AL700" s="17"/>
@@ -33768,6 +34606,7 @@
       <c r="BL700" s="17"/>
       <c r="BM700" s="17"/>
       <c r="BN700" s="17"/>
+      <c r="BO700" s="17"/>
     </row>
     <row r="701">
       <c r="AL701" s="17"/>
@@ -33799,6 +34638,7 @@
       <c r="BL701" s="17"/>
       <c r="BM701" s="17"/>
       <c r="BN701" s="17"/>
+      <c r="BO701" s="17"/>
     </row>
     <row r="702">
       <c r="AL702" s="17"/>
@@ -33830,6 +34670,7 @@
       <c r="BL702" s="17"/>
       <c r="BM702" s="17"/>
       <c r="BN702" s="17"/>
+      <c r="BO702" s="17"/>
     </row>
     <row r="703">
       <c r="AL703" s="17"/>
@@ -33861,6 +34702,7 @@
       <c r="BL703" s="17"/>
       <c r="BM703" s="17"/>
       <c r="BN703" s="17"/>
+      <c r="BO703" s="17"/>
     </row>
     <row r="704">
       <c r="AL704" s="17"/>
@@ -33892,6 +34734,7 @@
       <c r="BL704" s="17"/>
       <c r="BM704" s="17"/>
       <c r="BN704" s="17"/>
+      <c r="BO704" s="17"/>
     </row>
     <row r="705">
       <c r="AL705" s="17"/>
@@ -33923,6 +34766,7 @@
       <c r="BL705" s="17"/>
       <c r="BM705" s="17"/>
       <c r="BN705" s="17"/>
+      <c r="BO705" s="17"/>
     </row>
     <row r="706">
       <c r="AL706" s="17"/>
@@ -33954,6 +34798,7 @@
       <c r="BL706" s="17"/>
       <c r="BM706" s="17"/>
       <c r="BN706" s="17"/>
+      <c r="BO706" s="17"/>
     </row>
     <row r="707">
       <c r="AL707" s="17"/>
@@ -33985,6 +34830,7 @@
       <c r="BL707" s="17"/>
       <c r="BM707" s="17"/>
       <c r="BN707" s="17"/>
+      <c r="BO707" s="17"/>
     </row>
     <row r="708">
       <c r="AL708" s="17"/>
@@ -34016,6 +34862,7 @@
       <c r="BL708" s="17"/>
       <c r="BM708" s="17"/>
       <c r="BN708" s="17"/>
+      <c r="BO708" s="17"/>
     </row>
     <row r="709">
       <c r="AL709" s="17"/>
@@ -34047,6 +34894,7 @@
       <c r="BL709" s="17"/>
       <c r="BM709" s="17"/>
       <c r="BN709" s="17"/>
+      <c r="BO709" s="17"/>
     </row>
     <row r="710">
       <c r="AL710" s="17"/>
@@ -34078,6 +34926,7 @@
       <c r="BL710" s="17"/>
       <c r="BM710" s="17"/>
       <c r="BN710" s="17"/>
+      <c r="BO710" s="17"/>
     </row>
     <row r="711">
       <c r="AL711" s="17"/>
@@ -34109,6 +34958,7 @@
       <c r="BL711" s="17"/>
       <c r="BM711" s="17"/>
       <c r="BN711" s="17"/>
+      <c r="BO711" s="17"/>
     </row>
     <row r="712">
       <c r="AL712" s="17"/>
@@ -34140,6 +34990,7 @@
       <c r="BL712" s="17"/>
       <c r="BM712" s="17"/>
       <c r="BN712" s="17"/>
+      <c r="BO712" s="17"/>
     </row>
     <row r="713">
       <c r="AL713" s="17"/>
@@ -34171,6 +35022,7 @@
       <c r="BL713" s="17"/>
       <c r="BM713" s="17"/>
       <c r="BN713" s="17"/>
+      <c r="BO713" s="17"/>
     </row>
     <row r="714">
       <c r="AL714" s="17"/>
@@ -34202,6 +35054,7 @@
       <c r="BL714" s="17"/>
       <c r="BM714" s="17"/>
       <c r="BN714" s="17"/>
+      <c r="BO714" s="17"/>
     </row>
     <row r="715">
       <c r="AL715" s="17"/>
@@ -34233,6 +35086,7 @@
       <c r="BL715" s="17"/>
       <c r="BM715" s="17"/>
       <c r="BN715" s="17"/>
+      <c r="BO715" s="17"/>
     </row>
     <row r="716">
       <c r="AL716" s="17"/>
@@ -34264,6 +35118,7 @@
       <c r="BL716" s="17"/>
       <c r="BM716" s="17"/>
       <c r="BN716" s="17"/>
+      <c r="BO716" s="17"/>
     </row>
     <row r="717">
       <c r="AL717" s="17"/>
@@ -34295,6 +35150,7 @@
       <c r="BL717" s="17"/>
       <c r="BM717" s="17"/>
       <c r="BN717" s="17"/>
+      <c r="BO717" s="17"/>
     </row>
     <row r="718">
       <c r="AL718" s="17"/>
@@ -34326,6 +35182,7 @@
       <c r="BL718" s="17"/>
       <c r="BM718" s="17"/>
       <c r="BN718" s="17"/>
+      <c r="BO718" s="17"/>
     </row>
     <row r="719">
       <c r="AL719" s="17"/>
@@ -34357,6 +35214,7 @@
       <c r="BL719" s="17"/>
       <c r="BM719" s="17"/>
       <c r="BN719" s="17"/>
+      <c r="BO719" s="17"/>
     </row>
     <row r="720">
       <c r="AL720" s="17"/>
@@ -34388,6 +35246,7 @@
       <c r="BL720" s="17"/>
       <c r="BM720" s="17"/>
       <c r="BN720" s="17"/>
+      <c r="BO720" s="17"/>
     </row>
     <row r="721">
       <c r="AL721" s="17"/>
@@ -34419,6 +35278,7 @@
       <c r="BL721" s="17"/>
       <c r="BM721" s="17"/>
       <c r="BN721" s="17"/>
+      <c r="BO721" s="17"/>
     </row>
     <row r="722">
       <c r="AL722" s="17"/>
@@ -34450,6 +35310,7 @@
       <c r="BL722" s="17"/>
       <c r="BM722" s="17"/>
       <c r="BN722" s="17"/>
+      <c r="BO722" s="17"/>
     </row>
     <row r="723">
       <c r="AL723" s="17"/>
@@ -34481,6 +35342,7 @@
       <c r="BL723" s="17"/>
       <c r="BM723" s="17"/>
       <c r="BN723" s="17"/>
+      <c r="BO723" s="17"/>
     </row>
     <row r="724">
       <c r="AL724" s="17"/>
@@ -34512,6 +35374,7 @@
       <c r="BL724" s="17"/>
       <c r="BM724" s="17"/>
       <c r="BN724" s="17"/>
+      <c r="BO724" s="17"/>
     </row>
     <row r="725">
       <c r="AL725" s="17"/>
@@ -34543,6 +35406,7 @@
       <c r="BL725" s="17"/>
       <c r="BM725" s="17"/>
       <c r="BN725" s="17"/>
+      <c r="BO725" s="17"/>
     </row>
     <row r="726">
       <c r="AL726" s="17"/>
@@ -34574,6 +35438,7 @@
       <c r="BL726" s="17"/>
       <c r="BM726" s="17"/>
       <c r="BN726" s="17"/>
+      <c r="BO726" s="17"/>
     </row>
     <row r="727">
       <c r="AL727" s="17"/>
@@ -34605,6 +35470,7 @@
       <c r="BL727" s="17"/>
       <c r="BM727" s="17"/>
       <c r="BN727" s="17"/>
+      <c r="BO727" s="17"/>
     </row>
     <row r="728">
       <c r="AL728" s="17"/>
@@ -34636,6 +35502,7 @@
       <c r="BL728" s="17"/>
       <c r="BM728" s="17"/>
       <c r="BN728" s="17"/>
+      <c r="BO728" s="17"/>
     </row>
     <row r="729">
       <c r="AL729" s="17"/>
@@ -34667,6 +35534,7 @@
       <c r="BL729" s="17"/>
       <c r="BM729" s="17"/>
       <c r="BN729" s="17"/>
+      <c r="BO729" s="17"/>
     </row>
     <row r="730">
       <c r="AL730" s="17"/>
@@ -34698,6 +35566,7 @@
       <c r="BL730" s="17"/>
       <c r="BM730" s="17"/>
       <c r="BN730" s="17"/>
+      <c r="BO730" s="17"/>
     </row>
     <row r="731">
       <c r="AL731" s="17"/>
@@ -34729,6 +35598,7 @@
       <c r="BL731" s="17"/>
       <c r="BM731" s="17"/>
       <c r="BN731" s="17"/>
+      <c r="BO731" s="17"/>
     </row>
     <row r="732">
       <c r="AL732" s="17"/>
@@ -34760,6 +35630,7 @@
       <c r="BL732" s="17"/>
       <c r="BM732" s="17"/>
       <c r="BN732" s="17"/>
+      <c r="BO732" s="17"/>
     </row>
     <row r="733">
       <c r="AL733" s="17"/>
@@ -34791,6 +35662,7 @@
       <c r="BL733" s="17"/>
       <c r="BM733" s="17"/>
       <c r="BN733" s="17"/>
+      <c r="BO733" s="17"/>
     </row>
     <row r="734">
       <c r="AL734" s="17"/>
@@ -34822,6 +35694,7 @@
       <c r="BL734" s="17"/>
       <c r="BM734" s="17"/>
       <c r="BN734" s="17"/>
+      <c r="BO734" s="17"/>
     </row>
     <row r="735">
       <c r="AL735" s="17"/>
@@ -34853,6 +35726,7 @@
       <c r="BL735" s="17"/>
       <c r="BM735" s="17"/>
       <c r="BN735" s="17"/>
+      <c r="BO735" s="17"/>
     </row>
     <row r="736">
       <c r="AL736" s="17"/>
@@ -34884,6 +35758,7 @@
       <c r="BL736" s="17"/>
       <c r="BM736" s="17"/>
       <c r="BN736" s="17"/>
+      <c r="BO736" s="17"/>
     </row>
     <row r="737">
       <c r="AL737" s="17"/>
@@ -34915,6 +35790,7 @@
       <c r="BL737" s="17"/>
       <c r="BM737" s="17"/>
       <c r="BN737" s="17"/>
+      <c r="BO737" s="17"/>
     </row>
     <row r="738">
       <c r="AL738" s="17"/>
@@ -34946,6 +35822,7 @@
       <c r="BL738" s="17"/>
       <c r="BM738" s="17"/>
       <c r="BN738" s="17"/>
+      <c r="BO738" s="17"/>
     </row>
     <row r="739">
       <c r="AL739" s="17"/>
@@ -34977,6 +35854,7 @@
       <c r="BL739" s="17"/>
       <c r="BM739" s="17"/>
       <c r="BN739" s="17"/>
+      <c r="BO739" s="17"/>
     </row>
     <row r="740">
       <c r="AL740" s="17"/>
@@ -35008,6 +35886,7 @@
       <c r="BL740" s="17"/>
       <c r="BM740" s="17"/>
       <c r="BN740" s="17"/>
+      <c r="BO740" s="17"/>
     </row>
     <row r="741">
       <c r="AL741" s="17"/>
@@ -35039,6 +35918,7 @@
       <c r="BL741" s="17"/>
       <c r="BM741" s="17"/>
       <c r="BN741" s="17"/>
+      <c r="BO741" s="17"/>
     </row>
     <row r="742">
       <c r="AL742" s="17"/>
@@ -35070,6 +35950,7 @@
       <c r="BL742" s="17"/>
       <c r="BM742" s="17"/>
       <c r="BN742" s="17"/>
+      <c r="BO742" s="17"/>
     </row>
     <row r="743">
       <c r="AL743" s="17"/>
@@ -35101,6 +35982,7 @@
       <c r="BL743" s="17"/>
       <c r="BM743" s="17"/>
       <c r="BN743" s="17"/>
+      <c r="BO743" s="17"/>
     </row>
     <row r="744">
       <c r="AL744" s="17"/>
@@ -35132,6 +36014,7 @@
       <c r="BL744" s="17"/>
       <c r="BM744" s="17"/>
       <c r="BN744" s="17"/>
+      <c r="BO744" s="17"/>
     </row>
     <row r="745">
       <c r="AL745" s="17"/>
@@ -35163,6 +36046,7 @@
       <c r="BL745" s="17"/>
       <c r="BM745" s="17"/>
       <c r="BN745" s="17"/>
+      <c r="BO745" s="17"/>
     </row>
     <row r="746">
       <c r="AL746" s="17"/>
@@ -35194,6 +36078,7 @@
       <c r="BL746" s="17"/>
       <c r="BM746" s="17"/>
       <c r="BN746" s="17"/>
+      <c r="BO746" s="17"/>
     </row>
     <row r="747">
       <c r="AL747" s="17"/>
@@ -35225,6 +36110,7 @@
       <c r="BL747" s="17"/>
       <c r="BM747" s="17"/>
       <c r="BN747" s="17"/>
+      <c r="BO747" s="17"/>
     </row>
     <row r="748">
       <c r="AL748" s="17"/>
@@ -35256,6 +36142,7 @@
       <c r="BL748" s="17"/>
       <c r="BM748" s="17"/>
       <c r="BN748" s="17"/>
+      <c r="BO748" s="17"/>
     </row>
     <row r="749">
       <c r="AL749" s="17"/>
@@ -35287,6 +36174,7 @@
       <c r="BL749" s="17"/>
       <c r="BM749" s="17"/>
       <c r="BN749" s="17"/>
+      <c r="BO749" s="17"/>
     </row>
     <row r="750">
       <c r="AL750" s="17"/>
@@ -35318,6 +36206,7 @@
       <c r="BL750" s="17"/>
       <c r="BM750" s="17"/>
       <c r="BN750" s="17"/>
+      <c r="BO750" s="17"/>
     </row>
     <row r="751">
       <c r="AL751" s="17"/>
@@ -35349,6 +36238,7 @@
       <c r="BL751" s="17"/>
       <c r="BM751" s="17"/>
       <c r="BN751" s="17"/>
+      <c r="BO751" s="17"/>
     </row>
     <row r="752">
       <c r="AL752" s="17"/>
@@ -35380,6 +36270,7 @@
       <c r="BL752" s="17"/>
       <c r="BM752" s="17"/>
       <c r="BN752" s="17"/>
+      <c r="BO752" s="17"/>
     </row>
     <row r="753">
       <c r="AL753" s="17"/>
@@ -35411,6 +36302,7 @@
       <c r="BL753" s="17"/>
       <c r="BM753" s="17"/>
       <c r="BN753" s="17"/>
+      <c r="BO753" s="17"/>
     </row>
     <row r="754">
       <c r="AL754" s="17"/>
@@ -35442,6 +36334,7 @@
       <c r="BL754" s="17"/>
       <c r="BM754" s="17"/>
       <c r="BN754" s="17"/>
+      <c r="BO754" s="17"/>
     </row>
     <row r="755">
       <c r="AL755" s="17"/>
@@ -35473,6 +36366,7 @@
       <c r="BL755" s="17"/>
       <c r="BM755" s="17"/>
       <c r="BN755" s="17"/>
+      <c r="BO755" s="17"/>
     </row>
     <row r="756">
       <c r="AL756" s="17"/>
@@ -35504,6 +36398,7 @@
       <c r="BL756" s="17"/>
       <c r="BM756" s="17"/>
       <c r="BN756" s="17"/>
+      <c r="BO756" s="17"/>
     </row>
     <row r="757">
       <c r="AL757" s="17"/>
@@ -35535,6 +36430,7 @@
       <c r="BL757" s="17"/>
       <c r="BM757" s="17"/>
       <c r="BN757" s="17"/>
+      <c r="BO757" s="17"/>
     </row>
     <row r="758">
       <c r="AL758" s="17"/>
@@ -35566,6 +36462,7 @@
       <c r="BL758" s="17"/>
       <c r="BM758" s="17"/>
       <c r="BN758" s="17"/>
+      <c r="BO758" s="17"/>
     </row>
     <row r="759">
       <c r="AL759" s="17"/>
@@ -35597,6 +36494,7 @@
       <c r="BL759" s="17"/>
       <c r="BM759" s="17"/>
       <c r="BN759" s="17"/>
+      <c r="BO759" s="17"/>
     </row>
     <row r="760">
       <c r="AL760" s="17"/>
@@ -35628,6 +36526,7 @@
       <c r="BL760" s="17"/>
       <c r="BM760" s="17"/>
       <c r="BN760" s="17"/>
+      <c r="BO760" s="17"/>
     </row>
     <row r="761">
       <c r="AL761" s="17"/>
@@ -35659,6 +36558,7 @@
       <c r="BL761" s="17"/>
       <c r="BM761" s="17"/>
       <c r="BN761" s="17"/>
+      <c r="BO761" s="17"/>
     </row>
     <row r="762">
       <c r="AL762" s="17"/>
@@ -35690,6 +36590,7 @@
       <c r="BL762" s="17"/>
       <c r="BM762" s="17"/>
       <c r="BN762" s="17"/>
+      <c r="BO762" s="17"/>
     </row>
     <row r="763">
       <c r="AL763" s="17"/>
@@ -35721,6 +36622,7 @@
       <c r="BL763" s="17"/>
       <c r="BM763" s="17"/>
       <c r="BN763" s="17"/>
+      <c r="BO763" s="17"/>
     </row>
     <row r="764">
       <c r="AL764" s="17"/>
@@ -35752,6 +36654,7 @@
       <c r="BL764" s="17"/>
       <c r="BM764" s="17"/>
       <c r="BN764" s="17"/>
+      <c r="BO764" s="17"/>
     </row>
     <row r="765">
       <c r="AL765" s="17"/>
@@ -35783,6 +36686,7 @@
       <c r="BL765" s="17"/>
       <c r="BM765" s="17"/>
       <c r="BN765" s="17"/>
+      <c r="BO765" s="17"/>
     </row>
     <row r="766">
       <c r="AL766" s="17"/>
@@ -35814,6 +36718,7 @@
       <c r="BL766" s="17"/>
       <c r="BM766" s="17"/>
       <c r="BN766" s="17"/>
+      <c r="BO766" s="17"/>
     </row>
     <row r="767">
       <c r="AL767" s="17"/>
@@ -35845,6 +36750,7 @@
       <c r="BL767" s="17"/>
       <c r="BM767" s="17"/>
       <c r="BN767" s="17"/>
+      <c r="BO767" s="17"/>
     </row>
     <row r="768">
       <c r="AL768" s="17"/>
@@ -35876,6 +36782,7 @@
       <c r="BL768" s="17"/>
       <c r="BM768" s="17"/>
       <c r="BN768" s="17"/>
+      <c r="BO768" s="17"/>
     </row>
     <row r="769">
       <c r="AL769" s="17"/>
@@ -35907,6 +36814,7 @@
       <c r="BL769" s="17"/>
       <c r="BM769" s="17"/>
       <c r="BN769" s="17"/>
+      <c r="BO769" s="17"/>
     </row>
     <row r="770">
       <c r="AL770" s="17"/>
@@ -35938,6 +36846,7 @@
       <c r="BL770" s="17"/>
       <c r="BM770" s="17"/>
       <c r="BN770" s="17"/>
+      <c r="BO770" s="17"/>
     </row>
     <row r="771">
       <c r="AL771" s="17"/>
@@ -35969,6 +36878,7 @@
       <c r="BL771" s="17"/>
       <c r="BM771" s="17"/>
       <c r="BN771" s="17"/>
+      <c r="BO771" s="17"/>
     </row>
     <row r="772">
       <c r="AL772" s="17"/>
@@ -36000,6 +36910,7 @@
       <c r="BL772" s="17"/>
       <c r="BM772" s="17"/>
       <c r="BN772" s="17"/>
+      <c r="BO772" s="17"/>
     </row>
     <row r="773">
       <c r="AL773" s="17"/>
@@ -36031,6 +36942,7 @@
       <c r="BL773" s="17"/>
       <c r="BM773" s="17"/>
       <c r="BN773" s="17"/>
+      <c r="BO773" s="17"/>
     </row>
     <row r="774">
       <c r="AL774" s="17"/>
@@ -36062,6 +36974,7 @@
       <c r="BL774" s="17"/>
       <c r="BM774" s="17"/>
       <c r="BN774" s="17"/>
+      <c r="BO774" s="17"/>
     </row>
     <row r="775">
       <c r="AL775" s="17"/>
@@ -36093,6 +37006,7 @@
       <c r="BL775" s="17"/>
       <c r="BM775" s="17"/>
       <c r="BN775" s="17"/>
+      <c r="BO775" s="17"/>
     </row>
     <row r="776">
       <c r="AL776" s="17"/>
@@ -36124,6 +37038,7 @@
       <c r="BL776" s="17"/>
       <c r="BM776" s="17"/>
       <c r="BN776" s="17"/>
+      <c r="BO776" s="17"/>
     </row>
     <row r="777">
       <c r="AL777" s="17"/>
@@ -36155,6 +37070,7 @@
       <c r="BL777" s="17"/>
       <c r="BM777" s="17"/>
       <c r="BN777" s="17"/>
+      <c r="BO777" s="17"/>
     </row>
     <row r="778">
       <c r="AL778" s="17"/>
@@ -36186,6 +37102,7 @@
       <c r="BL778" s="17"/>
       <c r="BM778" s="17"/>
       <c r="BN778" s="17"/>
+      <c r="BO778" s="17"/>
     </row>
     <row r="779">
       <c r="AL779" s="17"/>
@@ -36217,6 +37134,7 @@
       <c r="BL779" s="17"/>
       <c r="BM779" s="17"/>
       <c r="BN779" s="17"/>
+      <c r="BO779" s="17"/>
     </row>
     <row r="780">
       <c r="AL780" s="17"/>
@@ -36248,6 +37166,7 @@
       <c r="BL780" s="17"/>
       <c r="BM780" s="17"/>
       <c r="BN780" s="17"/>
+      <c r="BO780" s="17"/>
     </row>
     <row r="781">
       <c r="AL781" s="17"/>
@@ -36279,6 +37198,7 @@
       <c r="BL781" s="17"/>
       <c r="BM781" s="17"/>
       <c r="BN781" s="17"/>
+      <c r="BO781" s="17"/>
     </row>
     <row r="782">
       <c r="AL782" s="17"/>
@@ -36310,6 +37230,7 @@
       <c r="BL782" s="17"/>
       <c r="BM782" s="17"/>
       <c r="BN782" s="17"/>
+      <c r="BO782" s="17"/>
     </row>
     <row r="783">
       <c r="AL783" s="17"/>
@@ -36341,6 +37262,7 @@
       <c r="BL783" s="17"/>
       <c r="BM783" s="17"/>
       <c r="BN783" s="17"/>
+      <c r="BO783" s="17"/>
     </row>
     <row r="784">
       <c r="AL784" s="17"/>
@@ -36372,6 +37294,7 @@
       <c r="BL784" s="17"/>
       <c r="BM784" s="17"/>
       <c r="BN784" s="17"/>
+      <c r="BO784" s="17"/>
     </row>
     <row r="785">
       <c r="AL785" s="17"/>
@@ -36403,6 +37326,7 @@
       <c r="BL785" s="17"/>
       <c r="BM785" s="17"/>
       <c r="BN785" s="17"/>
+      <c r="BO785" s="17"/>
     </row>
     <row r="786">
       <c r="AL786" s="17"/>
@@ -36434,6 +37358,7 @@
       <c r="BL786" s="17"/>
       <c r="BM786" s="17"/>
       <c r="BN786" s="17"/>
+      <c r="BO786" s="17"/>
     </row>
     <row r="787">
       <c r="AL787" s="17"/>
@@ -36465,6 +37390,7 @@
       <c r="BL787" s="17"/>
       <c r="BM787" s="17"/>
       <c r="BN787" s="17"/>
+      <c r="BO787" s="17"/>
     </row>
     <row r="788">
       <c r="AL788" s="17"/>
@@ -36496,6 +37422,7 @@
       <c r="BL788" s="17"/>
       <c r="BM788" s="17"/>
       <c r="BN788" s="17"/>
+      <c r="BO788" s="17"/>
     </row>
     <row r="789">
       <c r="AL789" s="17"/>
@@ -36527,6 +37454,7 @@
       <c r="BL789" s="17"/>
       <c r="BM789" s="17"/>
       <c r="BN789" s="17"/>
+      <c r="BO789" s="17"/>
     </row>
     <row r="790">
       <c r="AL790" s="17"/>
@@ -36558,6 +37486,7 @@
       <c r="BL790" s="17"/>
       <c r="BM790" s="17"/>
       <c r="BN790" s="17"/>
+      <c r="BO790" s="17"/>
     </row>
     <row r="791">
       <c r="AL791" s="17"/>
@@ -36589,6 +37518,7 @@
       <c r="BL791" s="17"/>
       <c r="BM791" s="17"/>
       <c r="BN791" s="17"/>
+      <c r="BO791" s="17"/>
     </row>
     <row r="792">
       <c r="AL792" s="17"/>
@@ -36620,6 +37550,7 @@
       <c r="BL792" s="17"/>
       <c r="BM792" s="17"/>
       <c r="BN792" s="17"/>
+      <c r="BO792" s="17"/>
     </row>
     <row r="793">
       <c r="AL793" s="17"/>
@@ -36651,6 +37582,7 @@
       <c r="BL793" s="17"/>
       <c r="BM793" s="17"/>
       <c r="BN793" s="17"/>
+      <c r="BO793" s="17"/>
     </row>
     <row r="794">
       <c r="AL794" s="17"/>
@@ -36682,6 +37614,7 @@
       <c r="BL794" s="17"/>
       <c r="BM794" s="17"/>
       <c r="BN794" s="17"/>
+      <c r="BO794" s="17"/>
     </row>
     <row r="795">
       <c r="AL795" s="17"/>
@@ -36713,6 +37646,7 @@
       <c r="BL795" s="17"/>
       <c r="BM795" s="17"/>
       <c r="BN795" s="17"/>
+      <c r="BO795" s="17"/>
     </row>
     <row r="796">
       <c r="AL796" s="17"/>
@@ -36744,6 +37678,7 @@
       <c r="BL796" s="17"/>
       <c r="BM796" s="17"/>
       <c r="BN796" s="17"/>
+      <c r="BO796" s="17"/>
     </row>
     <row r="797">
       <c r="AL797" s="17"/>
@@ -36775,6 +37710,7 @@
       <c r="BL797" s="17"/>
       <c r="BM797" s="17"/>
       <c r="BN797" s="17"/>
+      <c r="BO797" s="17"/>
     </row>
     <row r="798">
       <c r="AL798" s="17"/>
@@ -36806,6 +37742,7 @@
       <c r="BL798" s="17"/>
       <c r="BM798" s="17"/>
       <c r="BN798" s="17"/>
+      <c r="BO798" s="17"/>
     </row>
     <row r="799">
       <c r="AL799" s="17"/>
@@ -36837,6 +37774,7 @@
       <c r="BL799" s="17"/>
       <c r="BM799" s="17"/>
       <c r="BN799" s="17"/>
+      <c r="BO799" s="17"/>
     </row>
     <row r="800">
       <c r="AL800" s="17"/>
@@ -36868,6 +37806,7 @@
       <c r="BL800" s="17"/>
       <c r="BM800" s="17"/>
       <c r="BN800" s="17"/>
+      <c r="BO800" s="17"/>
     </row>
     <row r="801">
       <c r="AL801" s="17"/>
@@ -36899,6 +37838,7 @@
       <c r="BL801" s="17"/>
       <c r="BM801" s="17"/>
       <c r="BN801" s="17"/>
+      <c r="BO801" s="17"/>
     </row>
     <row r="802">
       <c r="AL802" s="17"/>
@@ -36930,6 +37870,7 @@
       <c r="BL802" s="17"/>
       <c r="BM802" s="17"/>
       <c r="BN802" s="17"/>
+      <c r="BO802" s="17"/>
     </row>
     <row r="803">
       <c r="AL803" s="17"/>
@@ -36961,6 +37902,7 @@
       <c r="BL803" s="17"/>
       <c r="BM803" s="17"/>
       <c r="BN803" s="17"/>
+      <c r="BO803" s="17"/>
     </row>
     <row r="804">
       <c r="AL804" s="17"/>
@@ -36992,6 +37934,7 @@
       <c r="BL804" s="17"/>
       <c r="BM804" s="17"/>
       <c r="BN804" s="17"/>
+      <c r="BO804" s="17"/>
     </row>
     <row r="805">
       <c r="AL805" s="17"/>
@@ -37023,6 +37966,7 @@
       <c r="BL805" s="17"/>
       <c r="BM805" s="17"/>
       <c r="BN805" s="17"/>
+      <c r="BO805" s="17"/>
     </row>
     <row r="806">
       <c r="AL806" s="17"/>
@@ -37054,6 +37998,7 @@
       <c r="BL806" s="17"/>
       <c r="BM806" s="17"/>
       <c r="BN806" s="17"/>
+      <c r="BO806" s="17"/>
     </row>
     <row r="807">
       <c r="AL807" s="17"/>
@@ -37085,6 +38030,7 @@
       <c r="BL807" s="17"/>
       <c r="BM807" s="17"/>
       <c r="BN807" s="17"/>
+      <c r="BO807" s="17"/>
     </row>
     <row r="808">
       <c r="AL808" s="17"/>
@@ -37116,6 +38062,7 @@
       <c r="BL808" s="17"/>
       <c r="BM808" s="17"/>
       <c r="BN808" s="17"/>
+      <c r="BO808" s="17"/>
     </row>
     <row r="809">
       <c r="AL809" s="17"/>
@@ -37147,6 +38094,7 @@
       <c r="BL809" s="17"/>
       <c r="BM809" s="17"/>
       <c r="BN809" s="17"/>
+      <c r="BO809" s="17"/>
     </row>
     <row r="810">
       <c r="AL810" s="17"/>
@@ -37178,6 +38126,7 @@
       <c r="BL810" s="17"/>
       <c r="BM810" s="17"/>
       <c r="BN810" s="17"/>
+      <c r="BO810" s="17"/>
     </row>
     <row r="811">
       <c r="AL811" s="17"/>
@@ -37209,6 +38158,7 @@
       <c r="BL811" s="17"/>
       <c r="BM811" s="17"/>
       <c r="BN811" s="17"/>
+      <c r="BO811" s="17"/>
     </row>
     <row r="812">
       <c r="AL812" s="17"/>
@@ -37240,6 +38190,7 @@
       <c r="BL812" s="17"/>
       <c r="BM812" s="17"/>
       <c r="BN812" s="17"/>
+      <c r="BO812" s="17"/>
     </row>
     <row r="813">
       <c r="AL813" s="17"/>
@@ -37271,6 +38222,7 @@
       <c r="BL813" s="17"/>
       <c r="BM813" s="17"/>
       <c r="BN813" s="17"/>
+      <c r="BO813" s="17"/>
     </row>
     <row r="814">
       <c r="AL814" s="17"/>
@@ -37302,6 +38254,7 @@
       <c r="BL814" s="17"/>
       <c r="BM814" s="17"/>
       <c r="BN814" s="17"/>
+      <c r="BO814" s="17"/>
     </row>
     <row r="815">
       <c r="AL815" s="17"/>
@@ -37333,6 +38286,7 @@
       <c r="BL815" s="17"/>
       <c r="BM815" s="17"/>
       <c r="BN815" s="17"/>
+      <c r="BO815" s="17"/>
     </row>
     <row r="816">
       <c r="AL816" s="17"/>
@@ -37364,6 +38318,7 @@
       <c r="BL816" s="17"/>
       <c r="BM816" s="17"/>
       <c r="BN816" s="17"/>
+      <c r="BO816" s="17"/>
     </row>
     <row r="817">
       <c r="AL817" s="17"/>
@@ -37395,6 +38350,7 @@
       <c r="BL817" s="17"/>
       <c r="BM817" s="17"/>
       <c r="BN817" s="17"/>
+      <c r="BO817" s="17"/>
     </row>
     <row r="818">
       <c r="AL818" s="17"/>
@@ -37426,6 +38382,7 @@
       <c r="BL818" s="17"/>
       <c r="BM818" s="17"/>
       <c r="BN818" s="17"/>
+      <c r="BO818" s="17"/>
     </row>
     <row r="819">
       <c r="AL819" s="17"/>
@@ -37457,6 +38414,7 @@
       <c r="BL819" s="17"/>
       <c r="BM819" s="17"/>
       <c r="BN819" s="17"/>
+      <c r="BO819" s="17"/>
     </row>
     <row r="820">
       <c r="AL820" s="17"/>
@@ -37488,6 +38446,7 @@
       <c r="BL820" s="17"/>
       <c r="BM820" s="17"/>
       <c r="BN820" s="17"/>
+      <c r="BO820" s="17"/>
     </row>
     <row r="821">
       <c r="AL821" s="17"/>
@@ -37519,6 +38478,7 @@
       <c r="BL821" s="17"/>
       <c r="BM821" s="17"/>
       <c r="BN821" s="17"/>
+      <c r="BO821" s="17"/>
     </row>
     <row r="822">
       <c r="AL822" s="17"/>
@@ -37550,6 +38510,7 @@
       <c r="BL822" s="17"/>
       <c r="BM822" s="17"/>
       <c r="BN822" s="17"/>
+      <c r="BO822" s="17"/>
     </row>
     <row r="823">
       <c r="AL823" s="17"/>
@@ -37581,6 +38542,7 @@
       <c r="BL823" s="17"/>
       <c r="BM823" s="17"/>
       <c r="BN823" s="17"/>
+      <c r="BO823" s="17"/>
     </row>
     <row r="824">
       <c r="AL824" s="17"/>
@@ -37612,6 +38574,7 @@
       <c r="BL824" s="17"/>
       <c r="BM824" s="17"/>
       <c r="BN824" s="17"/>
+      <c r="BO824" s="17"/>
     </row>
     <row r="825">
       <c r="AL825" s="17"/>
@@ -37643,6 +38606,7 @@
       <c r="BL825" s="17"/>
       <c r="BM825" s="17"/>
       <c r="BN825" s="17"/>
+      <c r="BO825" s="17"/>
     </row>
     <row r="826">
       <c r="AL826" s="17"/>
@@ -37674,6 +38638,7 @@
       <c r="BL826" s="17"/>
       <c r="BM826" s="17"/>
       <c r="BN826" s="17"/>
+      <c r="BO826" s="17"/>
     </row>
     <row r="827">
       <c r="AL827" s="17"/>
@@ -37705,6 +38670,7 @@
       <c r="BL827" s="17"/>
       <c r="BM827" s="17"/>
       <c r="BN827" s="17"/>
+      <c r="BO827" s="17"/>
     </row>
     <row r="828">
       <c r="AL828" s="17"/>
@@ -37736,6 +38702,7 @@
       <c r="BL828" s="17"/>
       <c r="BM828" s="17"/>
       <c r="BN828" s="17"/>
+      <c r="BO828" s="17"/>
     </row>
     <row r="829">
       <c r="AL829" s="17"/>
@@ -37767,6 +38734,7 @@
       <c r="BL829" s="17"/>
       <c r="BM829" s="17"/>
       <c r="BN829" s="17"/>
+      <c r="BO829" s="17"/>
     </row>
     <row r="830">
       <c r="AL830" s="17"/>
@@ -37798,6 +38766,7 @@
       <c r="BL830" s="17"/>
       <c r="BM830" s="17"/>
       <c r="BN830" s="17"/>
+      <c r="BO830" s="17"/>
     </row>
     <row r="831">
       <c r="AL831" s="17"/>
@@ -37829,6 +38798,7 @@
       <c r="BL831" s="17"/>
       <c r="BM831" s="17"/>
       <c r="BN831" s="17"/>
+      <c r="BO831" s="17"/>
     </row>
     <row r="832">
       <c r="AL832" s="17"/>
@@ -37860,6 +38830,7 @@
       <c r="BL832" s="17"/>
       <c r="BM832" s="17"/>
       <c r="BN832" s="17"/>
+      <c r="BO832" s="17"/>
     </row>
     <row r="833">
       <c r="AL833" s="17"/>
@@ -37891,6 +38862,7 @@
       <c r="BL833" s="17"/>
       <c r="BM833" s="17"/>
       <c r="BN833" s="17"/>
+      <c r="BO833" s="17"/>
     </row>
     <row r="834">
       <c r="AL834" s="17"/>
@@ -37922,6 +38894,7 @@
       <c r="BL834" s="17"/>
       <c r="BM834" s="17"/>
       <c r="BN834" s="17"/>
+      <c r="BO834" s="17"/>
     </row>
     <row r="835">
       <c r="AL835" s="17"/>
@@ -37953,6 +38926,7 @@
       <c r="BL835" s="17"/>
       <c r="BM835" s="17"/>
       <c r="BN835" s="17"/>
+      <c r="BO835" s="17"/>
     </row>
     <row r="836">
       <c r="AL836" s="17"/>
@@ -37984,6 +38958,7 @@
       <c r="BL836" s="17"/>
       <c r="BM836" s="17"/>
       <c r="BN836" s="17"/>
+      <c r="BO836" s="17"/>
     </row>
     <row r="837">
       <c r="AL837" s="17"/>
@@ -38015,6 +38990,7 @@
       <c r="BL837" s="17"/>
       <c r="BM837" s="17"/>
       <c r="BN837" s="17"/>
+      <c r="BO837" s="17"/>
     </row>
     <row r="838">
       <c r="AL838" s="17"/>
@@ -38046,6 +39022,7 @@
       <c r="BL838" s="17"/>
       <c r="BM838" s="17"/>
       <c r="BN838" s="17"/>
+      <c r="BO838" s="17"/>
     </row>
     <row r="839">
       <c r="AL839" s="17"/>
@@ -38077,6 +39054,7 @@
       <c r="BL839" s="17"/>
       <c r="BM839" s="17"/>
       <c r="BN839" s="17"/>
+      <c r="BO839" s="17"/>
     </row>
     <row r="840">
       <c r="AL840" s="17"/>
@@ -38108,6 +39086,7 @@
       <c r="BL840" s="17"/>
       <c r="BM840" s="17"/>
       <c r="BN840" s="17"/>
+      <c r="BO840" s="17"/>
     </row>
     <row r="841">
       <c r="AL841" s="17"/>
@@ -38139,6 +39118,7 @@
       <c r="BL841" s="17"/>
       <c r="BM841" s="17"/>
       <c r="BN841" s="17"/>
+      <c r="BO841" s="17"/>
     </row>
     <row r="842">
       <c r="AL842" s="17"/>
@@ -38170,6 +39150,7 @@
       <c r="BL842" s="17"/>
       <c r="BM842" s="17"/>
       <c r="BN842" s="17"/>
+      <c r="BO842" s="17"/>
     </row>
     <row r="843">
       <c r="AL843" s="17"/>
@@ -38201,6 +39182,7 @@
       <c r="BL843" s="17"/>
       <c r="BM843" s="17"/>
       <c r="BN843" s="17"/>
+      <c r="BO843" s="17"/>
     </row>
     <row r="844">
       <c r="AL844" s="17"/>
@@ -38232,6 +39214,7 @@
       <c r="BL844" s="17"/>
       <c r="BM844" s="17"/>
       <c r="BN844" s="17"/>
+      <c r="BO844" s="17"/>
     </row>
     <row r="845">
       <c r="AL845" s="17"/>
@@ -38263,6 +39246,7 @@
       <c r="BL845" s="17"/>
       <c r="BM845" s="17"/>
       <c r="BN845" s="17"/>
+      <c r="BO845" s="17"/>
     </row>
     <row r="846">
       <c r="AL846" s="17"/>
@@ -38294,6 +39278,7 @@
       <c r="BL846" s="17"/>
       <c r="BM846" s="17"/>
       <c r="BN846" s="17"/>
+      <c r="BO846" s="17"/>
     </row>
     <row r="847">
       <c r="AL847" s="17"/>
@@ -38325,6 +39310,7 @@
       <c r="BL847" s="17"/>
       <c r="BM847" s="17"/>
       <c r="BN847" s="17"/>
+      <c r="BO847" s="17"/>
     </row>
     <row r="848">
       <c r="AL848" s="17"/>
@@ -38356,6 +39342,7 @@
       <c r="BL848" s="17"/>
       <c r="BM848" s="17"/>
       <c r="BN848" s="17"/>
+      <c r="BO848" s="17"/>
     </row>
     <row r="849">
       <c r="AL849" s="17"/>
@@ -38387,6 +39374,7 @@
       <c r="BL849" s="17"/>
       <c r="BM849" s="17"/>
       <c r="BN849" s="17"/>
+      <c r="BO849" s="17"/>
     </row>
     <row r="850">
       <c r="AL850" s="17"/>
@@ -38418,6 +39406,7 @@
       <c r="BL850" s="17"/>
       <c r="BM850" s="17"/>
       <c r="BN850" s="17"/>
+      <c r="BO850" s="17"/>
     </row>
     <row r="851">
       <c r="AL851" s="17"/>
@@ -38449,6 +39438,7 @@
       <c r="BL851" s="17"/>
       <c r="BM851" s="17"/>
       <c r="BN851" s="17"/>
+      <c r="BO851" s="17"/>
     </row>
     <row r="852">
       <c r="AL852" s="17"/>
@@ -38480,6 +39470,7 @@
       <c r="BL852" s="17"/>
       <c r="BM852" s="17"/>
       <c r="BN852" s="17"/>
+      <c r="BO852" s="17"/>
     </row>
     <row r="853">
       <c r="AL853" s="17"/>
@@ -38511,6 +39502,7 @@
       <c r="BL853" s="17"/>
       <c r="BM853" s="17"/>
       <c r="BN853" s="17"/>
+      <c r="BO853" s="17"/>
     </row>
     <row r="854">
       <c r="AL854" s="17"/>
@@ -38542,6 +39534,7 @@
       <c r="BL854" s="17"/>
       <c r="BM854" s="17"/>
       <c r="BN854" s="17"/>
+      <c r="BO854" s="17"/>
     </row>
     <row r="855">
       <c r="AL855" s="17"/>
@@ -38573,6 +39566,7 @@
       <c r="BL855" s="17"/>
       <c r="BM855" s="17"/>
       <c r="BN855" s="17"/>
+      <c r="BO855" s="17"/>
     </row>
     <row r="856">
       <c r="AL856" s="17"/>
@@ -38604,6 +39598,7 @@
       <c r="BL856" s="17"/>
       <c r="BM856" s="17"/>
       <c r="BN856" s="17"/>
+      <c r="BO856" s="17"/>
     </row>
     <row r="857">
       <c r="AL857" s="17"/>
@@ -38635,6 +39630,7 @@
       <c r="BL857" s="17"/>
       <c r="BM857" s="17"/>
       <c r="BN857" s="17"/>
+      <c r="BO857" s="17"/>
     </row>
     <row r="858">
       <c r="AL858" s="17"/>
@@ -38666,6 +39662,7 @@
       <c r="BL858" s="17"/>
       <c r="BM858" s="17"/>
       <c r="BN858" s="17"/>
+      <c r="BO858" s="17"/>
     </row>
     <row r="859">
       <c r="AL859" s="17"/>
@@ -38697,6 +39694,7 @@
       <c r="BL859" s="17"/>
       <c r="BM859" s="17"/>
       <c r="BN859" s="17"/>
+      <c r="BO859" s="17"/>
     </row>
     <row r="860">
       <c r="AL860" s="17"/>
@@ -38728,6 +39726,7 @@
       <c r="BL860" s="17"/>
       <c r="BM860" s="17"/>
       <c r="BN860" s="17"/>
+      <c r="BO860" s="17"/>
     </row>
     <row r="861">
       <c r="AL861" s="17"/>
@@ -38759,6 +39758,7 @@
       <c r="BL861" s="17"/>
       <c r="BM861" s="17"/>
       <c r="BN861" s="17"/>
+      <c r="BO861" s="17"/>
     </row>
     <row r="862">
       <c r="AL862" s="17"/>
@@ -38790,6 +39790,7 @@
       <c r="BL862" s="17"/>
       <c r="BM862" s="17"/>
       <c r="BN862" s="17"/>
+      <c r="BO862" s="17"/>
     </row>
     <row r="863">
       <c r="AL863" s="17"/>
@@ -38821,6 +39822,7 @@
       <c r="BL863" s="17"/>
       <c r="BM863" s="17"/>
       <c r="BN863" s="17"/>
+      <c r="BO863" s="17"/>
     </row>
     <row r="864">
       <c r="AL864" s="17"/>
@@ -38852,6 +39854,7 @@
       <c r="BL864" s="17"/>
       <c r="BM864" s="17"/>
       <c r="BN864" s="17"/>
+      <c r="BO864" s="17"/>
     </row>
     <row r="865">
       <c r="AL865" s="17"/>
@@ -38883,6 +39886,7 @@
       <c r="BL865" s="17"/>
       <c r="BM865" s="17"/>
       <c r="BN865" s="17"/>
+      <c r="BO865" s="17"/>
     </row>
     <row r="866">
       <c r="AL866" s="17"/>
@@ -38914,6 +39918,7 @@
       <c r="BL866" s="17"/>
       <c r="BM866" s="17"/>
       <c r="BN866" s="17"/>
+      <c r="BO866" s="17"/>
     </row>
     <row r="867">
       <c r="AL867" s="17"/>
@@ -38945,6 +39950,7 @@
       <c r="BL867" s="17"/>
       <c r="BM867" s="17"/>
       <c r="BN867" s="17"/>
+      <c r="BO867" s="17"/>
     </row>
     <row r="868">
       <c r="AL868" s="17"/>
@@ -38976,6 +39982,7 @@
       <c r="BL868" s="17"/>
       <c r="BM868" s="17"/>
       <c r="BN868" s="17"/>
+      <c r="BO868" s="17"/>
     </row>
     <row r="869">
       <c r="AL869" s="17"/>
@@ -39007,6 +40014,7 @@
       <c r="BL869" s="17"/>
       <c r="BM869" s="17"/>
       <c r="BN869" s="17"/>
+      <c r="BO869" s="17"/>
     </row>
     <row r="870">
       <c r="AL870" s="17"/>
@@ -39038,6 +40046,7 @@
       <c r="BL870" s="17"/>
       <c r="BM870" s="17"/>
       <c r="BN870" s="17"/>
+      <c r="BO870" s="17"/>
     </row>
     <row r="871">
       <c r="AL871" s="17"/>
@@ -39069,6 +40078,7 @@
       <c r="BL871" s="17"/>
       <c r="BM871" s="17"/>
       <c r="BN871" s="17"/>
+      <c r="BO871" s="17"/>
     </row>
     <row r="872">
       <c r="AL872" s="17"/>
@@ -39100,6 +40110,7 @@
       <c r="BL872" s="17"/>
       <c r="BM872" s="17"/>
       <c r="BN872" s="17"/>
+      <c r="BO872" s="17"/>
     </row>
     <row r="873">
       <c r="AL873" s="17"/>
@@ -39131,6 +40142,7 @@
       <c r="BL873" s="17"/>
       <c r="BM873" s="17"/>
       <c r="BN873" s="17"/>
+      <c r="BO873" s="17"/>
     </row>
     <row r="874">
       <c r="AL874" s="17"/>
@@ -39162,6 +40174,7 @@
       <c r="BL874" s="17"/>
       <c r="BM874" s="17"/>
       <c r="BN874" s="17"/>
+      <c r="BO874" s="17"/>
     </row>
     <row r="875">
       <c r="AL875" s="17"/>
@@ -39193,6 +40206,7 @@
       <c r="BL875" s="17"/>
       <c r="BM875" s="17"/>
       <c r="BN875" s="17"/>
+      <c r="BO875" s="17"/>
     </row>
     <row r="876">
       <c r="AL876" s="17"/>
@@ -39224,6 +40238,7 @@
       <c r="BL876" s="17"/>
       <c r="BM876" s="17"/>
       <c r="BN876" s="17"/>
+      <c r="BO876" s="17"/>
     </row>
     <row r="877">
       <c r="AL877" s="17"/>
@@ -39255,6 +40270,7 @@
       <c r="BL877" s="17"/>
       <c r="BM877" s="17"/>
       <c r="BN877" s="17"/>
+      <c r="BO877" s="17"/>
     </row>
     <row r="878">
       <c r="AL878" s="17"/>
@@ -39286,6 +40302,7 @@
       <c r="BL878" s="17"/>
       <c r="BM878" s="17"/>
       <c r="BN878" s="17"/>
+      <c r="BO878" s="17"/>
     </row>
     <row r="879">
       <c r="AL879" s="17"/>
@@ -39317,6 +40334,7 @@
       <c r="BL879" s="17"/>
       <c r="BM879" s="17"/>
       <c r="BN879" s="17"/>
+      <c r="BO879" s="17"/>
     </row>
     <row r="880">
       <c r="AL880" s="17"/>
@@ -39348,6 +40366,7 @@
       <c r="BL880" s="17"/>
       <c r="BM880" s="17"/>
       <c r="BN880" s="17"/>
+      <c r="BO880" s="17"/>
     </row>
     <row r="881">
       <c r="AL881" s="17"/>
@@ -39379,6 +40398,7 @@
       <c r="BL881" s="17"/>
       <c r="BM881" s="17"/>
       <c r="BN881" s="17"/>
+      <c r="BO881" s="17"/>
     </row>
     <row r="882">
       <c r="AL882" s="17"/>
@@ -39410,6 +40430,7 @@
       <c r="BL882" s="17"/>
       <c r="BM882" s="17"/>
       <c r="BN882" s="17"/>
+      <c r="BO882" s="17"/>
     </row>
     <row r="883">
       <c r="AL883" s="17"/>
@@ -39441,6 +40462,7 @@
       <c r="BL883" s="17"/>
       <c r="BM883" s="17"/>
       <c r="BN883" s="17"/>
+      <c r="BO883" s="17"/>
     </row>
     <row r="884">
       <c r="AL884" s="17"/>
@@ -39472,6 +40494,7 @@
       <c r="BL884" s="17"/>
       <c r="BM884" s="17"/>
       <c r="BN884" s="17"/>
+      <c r="BO884" s="17"/>
     </row>
     <row r="885">
       <c r="AL885" s="17"/>
@@ -39503,6 +40526,7 @@
       <c r="BL885" s="17"/>
       <c r="BM885" s="17"/>
       <c r="BN885" s="17"/>
+      <c r="BO885" s="17"/>
     </row>
     <row r="886">
       <c r="AL886" s="17"/>
@@ -39534,6 +40558,7 @@
       <c r="BL886" s="17"/>
       <c r="BM886" s="17"/>
       <c r="BN886" s="17"/>
+      <c r="BO886" s="17"/>
     </row>
     <row r="887">
       <c r="AL887" s="17"/>
@@ -39565,6 +40590,7 @@
       <c r="BL887" s="17"/>
       <c r="BM887" s="17"/>
       <c r="BN887" s="17"/>
+      <c r="BO887" s="17"/>
     </row>
     <row r="888">
       <c r="AL888" s="17"/>
@@ -39596,6 +40622,7 @@
       <c r="BL888" s="17"/>
       <c r="BM888" s="17"/>
       <c r="BN888" s="17"/>
+      <c r="BO888" s="17"/>
     </row>
     <row r="889">
       <c r="AL889" s="17"/>
@@ -39627,6 +40654,7 @@
       <c r="BL889" s="17"/>
       <c r="BM889" s="17"/>
       <c r="BN889" s="17"/>
+      <c r="BO889" s="17"/>
     </row>
     <row r="890">
       <c r="AL890" s="17"/>
@@ -39658,6 +40686,7 @@
       <c r="BL890" s="17"/>
       <c r="BM890" s="17"/>
       <c r="BN890" s="17"/>
+      <c r="BO890" s="17"/>
     </row>
     <row r="891">
       <c r="AL891" s="17"/>
@@ -39689,6 +40718,7 @@
       <c r="BL891" s="17"/>
       <c r="BM891" s="17"/>
       <c r="BN891" s="17"/>
+      <c r="BO891" s="17"/>
     </row>
     <row r="892">
       <c r="AL892" s="17"/>
@@ -39720,6 +40750,7 @@
       <c r="BL892" s="17"/>
       <c r="BM892" s="17"/>
       <c r="BN892" s="17"/>
+      <c r="BO892" s="17"/>
     </row>
     <row r="893">
       <c r="AL893" s="17"/>
@@ -39751,6 +40782,7 @@
       <c r="BL893" s="17"/>
       <c r="BM893" s="17"/>
       <c r="BN893" s="17"/>
+      <c r="BO893" s="17"/>
     </row>
     <row r="894">
       <c r="AL894" s="17"/>
@@ -39782,6 +40814,7 @@
       <c r="BL894" s="17"/>
       <c r="BM894" s="17"/>
       <c r="BN894" s="17"/>
+      <c r="BO894" s="17"/>
     </row>
     <row r="895">
       <c r="AL895" s="17"/>
@@ -39813,6 +40846,7 @@
       <c r="BL895" s="17"/>
       <c r="BM895" s="17"/>
       <c r="BN895" s="17"/>
+      <c r="BO895" s="17"/>
     </row>
     <row r="896">
       <c r="AL896" s="17"/>
@@ -39844,6 +40878,7 @@
       <c r="BL896" s="17"/>
       <c r="BM896" s="17"/>
       <c r="BN896" s="17"/>
+      <c r="BO896" s="17"/>
     </row>
     <row r="897">
       <c r="AL897" s="17"/>
@@ -39875,6 +40910,7 @@
       <c r="BL897" s="17"/>
       <c r="BM897" s="17"/>
       <c r="BN897" s="17"/>
+      <c r="BO897" s="17"/>
     </row>
     <row r="898">
       <c r="AL898" s="17"/>
@@ -39906,6 +40942,7 @@
       <c r="BL898" s="17"/>
       <c r="BM898" s="17"/>
       <c r="BN898" s="17"/>
+      <c r="BO898" s="17"/>
     </row>
     <row r="899">
       <c r="AL899" s="17"/>
@@ -39937,6 +40974,7 @@
       <c r="BL899" s="17"/>
       <c r="BM899" s="17"/>
       <c r="BN899" s="17"/>
+      <c r="BO899" s="17"/>
     </row>
     <row r="900">
       <c r="AL900" s="17"/>
@@ -39968,6 +41006,7 @@
       <c r="BL900" s="17"/>
       <c r="BM900" s="17"/>
       <c r="BN900" s="17"/>
+      <c r="BO900" s="17"/>
     </row>
     <row r="901">
       <c r="AL901" s="17"/>
@@ -39999,6 +41038,7 @@
       <c r="BL901" s="17"/>
       <c r="BM901" s="17"/>
       <c r="BN901" s="17"/>
+      <c r="BO901" s="17"/>
     </row>
     <row r="902">
       <c r="AL902" s="17"/>
@@ -40030,6 +41070,7 @@
       <c r="BL902" s="17"/>
       <c r="BM902" s="17"/>
       <c r="BN902" s="17"/>
+      <c r="BO902" s="17"/>
     </row>
     <row r="903">
       <c r="AL903" s="17"/>
@@ -40061,6 +41102,7 @@
       <c r="BL903" s="17"/>
       <c r="BM903" s="17"/>
       <c r="BN903" s="17"/>
+      <c r="BO903" s="17"/>
     </row>
     <row r="904">
       <c r="AL904" s="17"/>
@@ -40092,6 +41134,7 @@
       <c r="BL904" s="17"/>
       <c r="BM904" s="17"/>
       <c r="BN904" s="17"/>
+      <c r="BO904" s="17"/>
     </row>
     <row r="905">
       <c r="AL905" s="17"/>
@@ -40123,6 +41166,7 @@
       <c r="BL905" s="17"/>
       <c r="BM905" s="17"/>
       <c r="BN905" s="17"/>
+      <c r="BO905" s="17"/>
     </row>
     <row r="906">
       <c r="AL906" s="17"/>
@@ -40154,6 +41198,7 @@
       <c r="BL906" s="17"/>
       <c r="BM906" s="17"/>
       <c r="BN906" s="17"/>
+      <c r="BO906" s="17"/>
     </row>
     <row r="907">
       <c r="AL907" s="17"/>
@@ -40185,6 +41230,7 @@
       <c r="BL907" s="17"/>
       <c r="BM907" s="17"/>
       <c r="BN907" s="17"/>
+      <c r="BO907" s="17"/>
     </row>
     <row r="908">
       <c r="AL908" s="17"/>
@@ -40216,6 +41262,7 @@
       <c r="BL908" s="17"/>
       <c r="BM908" s="17"/>
       <c r="BN908" s="17"/>
+      <c r="BO908" s="17"/>
     </row>
     <row r="909">
       <c r="AL909" s="17"/>
@@ -40247,6 +41294,7 @@
       <c r="BL909" s="17"/>
       <c r="BM909" s="17"/>
       <c r="BN909" s="17"/>
+      <c r="BO909" s="17"/>
     </row>
     <row r="910">
       <c r="AL910" s="17"/>
@@ -40278,6 +41326,7 @@
       <c r="BL910" s="17"/>
       <c r="BM910" s="17"/>
       <c r="BN910" s="17"/>
+      <c r="BO910" s="17"/>
     </row>
     <row r="911">
       <c r="AL911" s="17"/>
@@ -40309,6 +41358,7 @@
       <c r="BL911" s="17"/>
       <c r="BM911" s="17"/>
       <c r="BN911" s="17"/>
+      <c r="BO911" s="17"/>
     </row>
     <row r="912">
       <c r="AL912" s="17"/>
@@ -40340,6 +41390,7 @@
       <c r="BL912" s="17"/>
       <c r="BM912" s="17"/>
       <c r="BN912" s="17"/>
+      <c r="BO912" s="17"/>
     </row>
     <row r="913">
       <c r="AL913" s="17"/>
@@ -40371,6 +41422,7 @@
       <c r="BL913" s="17"/>
       <c r="BM913" s="17"/>
       <c r="BN913" s="17"/>
+      <c r="BO913" s="17"/>
     </row>
     <row r="914">
       <c r="AL914" s="17"/>
@@ -40402,6 +41454,7 @@
       <c r="BL914" s="17"/>
       <c r="BM914" s="17"/>
       <c r="BN914" s="17"/>
+      <c r="BO914" s="17"/>
     </row>
     <row r="915">
       <c r="AL915" s="17"/>
@@ -40433,6 +41486,7 @@
       <c r="BL915" s="17"/>
       <c r="BM915" s="17"/>
       <c r="BN915" s="17"/>
+      <c r="BO915" s="17"/>
     </row>
     <row r="916">
       <c r="AL916" s="17"/>
@@ -40464,6 +41518,7 @@
       <c r="BL916" s="17"/>
       <c r="BM916" s="17"/>
       <c r="BN916" s="17"/>
+      <c r="BO916" s="17"/>
     </row>
     <row r="917">
       <c r="AL917" s="17"/>
@@ -40495,6 +41550,7 @@
       <c r="BL917" s="17"/>
       <c r="BM917" s="17"/>
       <c r="BN917" s="17"/>
+      <c r="BO917" s="17"/>
     </row>
     <row r="918">
       <c r="AL918" s="17"/>
@@ -40526,6 +41582,7 @@
       <c r="BL918" s="17"/>
       <c r="BM918" s="17"/>
       <c r="BN918" s="17"/>
+      <c r="BO918" s="17"/>
     </row>
     <row r="919">
       <c r="AL919" s="17"/>
@@ -40557,6 +41614,7 @@
       <c r="BL919" s="17"/>
       <c r="BM919" s="17"/>
       <c r="BN919" s="17"/>
+      <c r="BO919" s="17"/>
     </row>
     <row r="920">
       <c r="AL920" s="17"/>
@@ -40588,6 +41646,7 @@
       <c r="BL920" s="17"/>
       <c r="BM920" s="17"/>
       <c r="BN920" s="17"/>
+      <c r="BO920" s="17"/>
     </row>
     <row r="921">
       <c r="AL921" s="17"/>
@@ -40619,6 +41678,7 @@
       <c r="BL921" s="17"/>
       <c r="BM921" s="17"/>
       <c r="BN921" s="17"/>
+      <c r="BO921" s="17"/>
     </row>
     <row r="922">
       <c r="AL922" s="17"/>
@@ -40650,6 +41710,7 @@
       <c r="BL922" s="17"/>
       <c r="BM922" s="17"/>
       <c r="BN922" s="17"/>
+      <c r="BO922" s="17"/>
     </row>
     <row r="923">
       <c r="AL923" s="17"/>
@@ -40681,6 +41742,7 @@
       <c r="BL923" s="17"/>
       <c r="BM923" s="17"/>
       <c r="BN923" s="17"/>
+      <c r="BO923" s="17"/>
     </row>
     <row r="924">
       <c r="AL924" s="17"/>
@@ -40712,6 +41774,7 @@
       <c r="BL924" s="17"/>
       <c r="BM924" s="17"/>
       <c r="BN924" s="17"/>
+      <c r="BO924" s="17"/>
     </row>
     <row r="925">
       <c r="AL925" s="17"/>
@@ -40743,6 +41806,7 @@
       <c r="BL925" s="17"/>
       <c r="BM925" s="17"/>
       <c r="BN925" s="17"/>
+      <c r="BO925" s="17"/>
     </row>
     <row r="926">
       <c r="AL926" s="17"/>
@@ -40774,6 +41838,7 @@
       <c r="BL926" s="17"/>
       <c r="BM926" s="17"/>
       <c r="BN926" s="17"/>
+      <c r="BO926" s="17"/>
     </row>
     <row r="927">
       <c r="AL927" s="17"/>
@@ -40805,6 +41870,7 @@
       <c r="BL927" s="17"/>
       <c r="BM927" s="17"/>
       <c r="BN927" s="17"/>
+      <c r="BO927" s="17"/>
     </row>
     <row r="928">
       <c r="AL928" s="17"/>
@@ -40836,6 +41902,7 @@
       <c r="BL928" s="17"/>
       <c r="BM928" s="17"/>
       <c r="BN928" s="17"/>
+      <c r="BO928" s="17"/>
     </row>
     <row r="929">
       <c r="AL929" s="17"/>
@@ -40867,6 +41934,7 @@
       <c r="BL929" s="17"/>
       <c r="BM929" s="17"/>
       <c r="BN929" s="17"/>
+      <c r="BO929" s="17"/>
     </row>
     <row r="930">
       <c r="AL930" s="17"/>
@@ -40898,6 +41966,7 @@
       <c r="BL930" s="17"/>
       <c r="BM930" s="17"/>
       <c r="BN930" s="17"/>
+      <c r="BO930" s="17"/>
     </row>
     <row r="931">
       <c r="AL931" s="17"/>
@@ -40929,6 +41998,7 @@
       <c r="BL931" s="17"/>
       <c r="BM931" s="17"/>
       <c r="BN931" s="17"/>
+      <c r="BO931" s="17"/>
     </row>
     <row r="932">
       <c r="AL932" s="17"/>
@@ -40960,6 +42030,7 @@
       <c r="BL932" s="17"/>
       <c r="BM932" s="17"/>
       <c r="BN932" s="17"/>
+      <c r="BO932" s="17"/>
     </row>
     <row r="933">
       <c r="AL933" s="17"/>
@@ -40991,6 +42062,7 @@
       <c r="BL933" s="17"/>
       <c r="BM933" s="17"/>
       <c r="BN933" s="17"/>
+      <c r="BO933" s="17"/>
     </row>
     <row r="934">
       <c r="AL934" s="17"/>
@@ -41022,6 +42094,7 @@
       <c r="BL934" s="17"/>
       <c r="BM934" s="17"/>
       <c r="BN934" s="17"/>
+      <c r="BO934" s="17"/>
     </row>
     <row r="935">
       <c r="AL935" s="17"/>
@@ -41053,6 +42126,7 @@
       <c r="BL935" s="17"/>
       <c r="BM935" s="17"/>
       <c r="BN935" s="17"/>
+      <c r="BO935" s="17"/>
     </row>
     <row r="936">
       <c r="AL936" s="17"/>
@@ -41084,6 +42158,7 @@
       <c r="BL936" s="17"/>
       <c r="BM936" s="17"/>
       <c r="BN936" s="17"/>
+      <c r="BO936" s="17"/>
     </row>
     <row r="937">
       <c r="AL937" s="17"/>
@@ -41115,6 +42190,7 @@
       <c r="BL937" s="17"/>
       <c r="BM937" s="17"/>
       <c r="BN937" s="17"/>
+      <c r="BO937" s="17"/>
     </row>
     <row r="938">
       <c r="AL938" s="17"/>
@@ -41146,6 +42222,7 @@
       <c r="BL938" s="17"/>
       <c r="BM938" s="17"/>
       <c r="BN938" s="17"/>
+      <c r="BO938" s="17"/>
     </row>
     <row r="939">
       <c r="AL939" s="17"/>
@@ -41177,6 +42254,7 @@
       <c r="BL939" s="17"/>
       <c r="BM939" s="17"/>
       <c r="BN939" s="17"/>
+      <c r="BO939" s="17"/>
     </row>
     <row r="940">
       <c r="AL940" s="17"/>
@@ -41208,6 +42286,7 @@
       <c r="BL940" s="17"/>
       <c r="BM940" s="17"/>
       <c r="BN940" s="17"/>
+      <c r="BO940" s="17"/>
     </row>
     <row r="941">
       <c r="AL941" s="17"/>
@@ -41239,6 +42318,7 @@
       <c r="BL941" s="17"/>
       <c r="BM941" s="17"/>
       <c r="BN941" s="17"/>
+      <c r="BO941" s="17"/>
     </row>
     <row r="942">
       <c r="AL942" s="17"/>
@@ -41270,6 +42350,7 @@
       <c r="BL942" s="17"/>
       <c r="BM942" s="17"/>
       <c r="BN942" s="17"/>
+      <c r="BO942" s="17"/>
     </row>
     <row r="943">
       <c r="AL943" s="17"/>
@@ -41301,6 +42382,7 @@
       <c r="BL943" s="17"/>
       <c r="BM943" s="17"/>
       <c r="BN943" s="17"/>
+      <c r="BO943" s="17"/>
     </row>
     <row r="944">
       <c r="AL944" s="17"/>
@@ -41332,6 +42414,7 @@
       <c r="BL944" s="17"/>
       <c r="BM944" s="17"/>
       <c r="BN944" s="17"/>
+      <c r="BO944" s="17"/>
     </row>
     <row r="945">
       <c r="AL945" s="17"/>
@@ -41363,6 +42446,7 @@
       <c r="BL945" s="17"/>
       <c r="BM945" s="17"/>
       <c r="BN945" s="17"/>
+      <c r="BO945" s="17"/>
     </row>
     <row r="946">
       <c r="AL946" s="17"/>
@@ -41394,6 +42478,7 @@
       <c r="BL946" s="17"/>
       <c r="BM946" s="17"/>
       <c r="BN946" s="17"/>
+      <c r="BO946" s="17"/>
     </row>
     <row r="947">
       <c r="AL947" s="17"/>
@@ -41425,6 +42510,7 @@
       <c r="BL947" s="17"/>
       <c r="BM947" s="17"/>
       <c r="BN947" s="17"/>
+      <c r="BO947" s="17"/>
     </row>
     <row r="948">
       <c r="AL948" s="17"/>
@@ -41456,6 +42542,7 @@
       <c r="BL948" s="17"/>
       <c r="BM948" s="17"/>
       <c r="BN948" s="17"/>
+      <c r="BO948" s="17"/>
     </row>
     <row r="949">
       <c r="AL949" s="17"/>
@@ -41487,6 +42574,7 @@
       <c r="BL949" s="17"/>
       <c r="BM949" s="17"/>
       <c r="BN949" s="17"/>
+      <c r="BO949" s="17"/>
     </row>
     <row r="950">
       <c r="AL950" s="17"/>
@@ -41518,6 +42606,7 @@
       <c r="BL950" s="17"/>
       <c r="BM950" s="17"/>
       <c r="BN950" s="17"/>
+      <c r="BO950" s="17"/>
     </row>
     <row r="951">
       <c r="AL951" s="17"/>
@@ -41549,6 +42638,7 @@
       <c r="BL951" s="17"/>
       <c r="BM951" s="17"/>
       <c r="BN951" s="17"/>
+      <c r="BO951" s="17"/>
     </row>
     <row r="952">
       <c r="AL952" s="17"/>
@@ -41580,6 +42670,7 @@
       <c r="BL952" s="17"/>
       <c r="BM952" s="17"/>
       <c r="BN952" s="17"/>
+      <c r="BO952" s="17"/>
     </row>
     <row r="953">
       <c r="AL953" s="17"/>
@@ -41611,6 +42702,7 @@
       <c r="BL953" s="17"/>
       <c r="BM953" s="17"/>
       <c r="BN953" s="17"/>
+      <c r="BO953" s="17"/>
     </row>
     <row r="954">
       <c r="AL954" s="17"/>
@@ -41642,6 +42734,7 @@
       <c r="BL954" s="17"/>
       <c r="BM954" s="17"/>
       <c r="BN954" s="17"/>
+      <c r="BO954" s="17"/>
     </row>
     <row r="955">
       <c r="AL955" s="17"/>
@@ -41673,6 +42766,7 @@
       <c r="BL955" s="17"/>
       <c r="BM955" s="17"/>
       <c r="BN955" s="17"/>
+      <c r="BO955" s="17"/>
     </row>
     <row r="956">
       <c r="AL956" s="17"/>
@@ -41704,6 +42798,7 @@
       <c r="BL956" s="17"/>
       <c r="BM956" s="17"/>
       <c r="BN956" s="17"/>
+      <c r="BO956" s="17"/>
     </row>
     <row r="957">
       <c r="AL957" s="17"/>
@@ -41735,6 +42830,7 @@
       <c r="BL957" s="17"/>
       <c r="BM957" s="17"/>
       <c r="BN957" s="17"/>
+      <c r="BO957" s="17"/>
     </row>
     <row r="958">
       <c r="AL958" s="17"/>
@@ -41766,6 +42862,7 @@
       <c r="BL958" s="17"/>
       <c r="BM958" s="17"/>
       <c r="BN958" s="17"/>
+      <c r="BO958" s="17"/>
     </row>
     <row r="959">
       <c r="AL959" s="17"/>
@@ -41797,6 +42894,7 @@
       <c r="BL959" s="17"/>
       <c r="BM959" s="17"/>
       <c r="BN959" s="17"/>
+      <c r="BO959" s="17"/>
     </row>
     <row r="960">
       <c r="AL960" s="17"/>
@@ -41828,6 +42926,7 @@
       <c r="BL960" s="17"/>
       <c r="BM960" s="17"/>
       <c r="BN960" s="17"/>
+      <c r="BO960" s="17"/>
     </row>
     <row r="961">
       <c r="AL961" s="17"/>
@@ -41859,6 +42958,7 @@
       <c r="BL961" s="17"/>
       <c r="BM961" s="17"/>
       <c r="BN961" s="17"/>
+      <c r="BO961" s="17"/>
     </row>
     <row r="962">
       <c r="AL962" s="17"/>
@@ -41890,6 +42990,7 @@
       <c r="BL962" s="17"/>
       <c r="BM962" s="17"/>
       <c r="BN962" s="17"/>
+      <c r="BO962" s="17"/>
     </row>
     <row r="963">
       <c r="AL963" s="17"/>
@@ -41921,6 +43022,7 @@
       <c r="BL963" s="17"/>
       <c r="BM963" s="17"/>
       <c r="BN963" s="17"/>
+      <c r="BO963" s="17"/>
     </row>
     <row r="964">
       <c r="AL964" s="17"/>
@@ -41952,6 +43054,7 @@
       <c r="BL964" s="17"/>
       <c r="BM964" s="17"/>
       <c r="BN964" s="17"/>
+      <c r="BO964" s="17"/>
     </row>
     <row r="965">
       <c r="AL965" s="17"/>
@@ -41983,6 +43086,7 @@
       <c r="BL965" s="17"/>
       <c r="BM965" s="17"/>
       <c r="BN965" s="17"/>
+      <c r="BO965" s="17"/>
     </row>
     <row r="966">
       <c r="AL966" s="17"/>
@@ -42014,6 +43118,7 @@
       <c r="BL966" s="17"/>
       <c r="BM966" s="17"/>
       <c r="BN966" s="17"/>
+      <c r="BO966" s="17"/>
     </row>
     <row r="967">
       <c r="AL967" s="17"/>
@@ -42045,6 +43150,7 @@
       <c r="BL967" s="17"/>
       <c r="BM967" s="17"/>
       <c r="BN967" s="17"/>
+      <c r="BO967" s="17"/>
     </row>
     <row r="968">
       <c r="AL968" s="17"/>
@@ -42076,6 +43182,7 @@
       <c r="BL968" s="17"/>
       <c r="BM968" s="17"/>
       <c r="BN968" s="17"/>
+      <c r="BO968" s="17"/>
     </row>
     <row r="969">
       <c r="AL969" s="17"/>
@@ -42107,6 +43214,7 @@
       <c r="BL969" s="17"/>
       <c r="BM969" s="17"/>
       <c r="BN969" s="17"/>
+      <c r="BO969" s="17"/>
     </row>
     <row r="970">
       <c r="AL970" s="17"/>
@@ -42138,6 +43246,7 @@
       <c r="BL970" s="17"/>
       <c r="BM970" s="17"/>
       <c r="BN970" s="17"/>
+      <c r="BO970" s="17"/>
     </row>
     <row r="971">
       <c r="AL971" s="17"/>
@@ -42169,6 +43278,7 @@
       <c r="BL971" s="17"/>
       <c r="BM971" s="17"/>
       <c r="BN971" s="17"/>
+      <c r="BO971" s="17"/>
     </row>
     <row r="972">
       <c r="AL972" s="17"/>
@@ -42200,6 +43310,7 @@
       <c r="BL972" s="17"/>
       <c r="BM972" s="17"/>
       <c r="BN972" s="17"/>
+      <c r="BO972" s="17"/>
     </row>
     <row r="973">
       <c r="AL973" s="17"/>
@@ -42231,6 +43342,7 @@
       <c r="BL973" s="17"/>
       <c r="BM973" s="17"/>
       <c r="BN973" s="17"/>
+      <c r="BO973" s="17"/>
     </row>
     <row r="974">
       <c r="AL974" s="17"/>
@@ -42262,6 +43374,7 @@
       <c r="BL974" s="17"/>
       <c r="BM974" s="17"/>
       <c r="BN974" s="17"/>
+      <c r="BO974" s="17"/>
     </row>
     <row r="975">
       <c r="AL975" s="17"/>
@@ -42293,6 +43406,7 @@
       <c r="BL975" s="17"/>
       <c r="BM975" s="17"/>
       <c r="BN975" s="17"/>
+      <c r="BO975" s="17"/>
     </row>
     <row r="976">
       <c r="AL976" s="17"/>
@@ -42324,6 +43438,7 @@
       <c r="BL976" s="17"/>
       <c r="BM976" s="17"/>
       <c r="BN976" s="17"/>
+      <c r="BO976" s="17"/>
     </row>
     <row r="977">
       <c r="AL977" s="17"/>
@@ -42355,6 +43470,7 @@
       <c r="BL977" s="17"/>
       <c r="BM977" s="17"/>
       <c r="BN977" s="17"/>
+      <c r="BO977" s="17"/>
     </row>
     <row r="978">
       <c r="AL978" s="17"/>
@@ -42386,6 +43502,7 @@
       <c r="BL978" s="17"/>
       <c r="BM978" s="17"/>
       <c r="BN978" s="17"/>
+      <c r="BO978" s="17"/>
     </row>
     <row r="979">
       <c r="AL979" s="17"/>
@@ -42417,6 +43534,7 @@
       <c r="BL979" s="17"/>
       <c r="BM979" s="17"/>
       <c r="BN979" s="17"/>
+      <c r="BO979" s="17"/>
     </row>
     <row r="980">
       <c r="AL980" s="17"/>
@@ -42448,6 +43566,7 @@
       <c r="BL980" s="17"/>
       <c r="BM980" s="17"/>
       <c r="BN980" s="17"/>
+      <c r="BO980" s="17"/>
     </row>
     <row r="981">
       <c r="AL981" s="17"/>
@@ -42479,6 +43598,7 @@
       <c r="BL981" s="17"/>
       <c r="BM981" s="17"/>
       <c r="BN981" s="17"/>
+      <c r="BO981" s="17"/>
     </row>
     <row r="982">
       <c r="AL982" s="17"/>
@@ -42510,6 +43630,7 @@
       <c r="BL982" s="17"/>
       <c r="BM982" s="17"/>
       <c r="BN982" s="17"/>
+      <c r="BO982" s="17"/>
     </row>
     <row r="983">
       <c r="AL983" s="17"/>
@@ -42541,6 +43662,7 @@
       <c r="BL983" s="17"/>
       <c r="BM983" s="17"/>
       <c r="BN983" s="17"/>
+      <c r="BO983" s="17"/>
     </row>
     <row r="984">
       <c r="AL984" s="17"/>
@@ -42572,6 +43694,7 @@
       <c r="BL984" s="17"/>
       <c r="BM984" s="17"/>
       <c r="BN984" s="17"/>
+      <c r="BO984" s="17"/>
     </row>
     <row r="985">
       <c r="AL985" s="17"/>
@@ -42603,6 +43726,7 @@
       <c r="BL985" s="17"/>
       <c r="BM985" s="17"/>
       <c r="BN985" s="17"/>
+      <c r="BO985" s="17"/>
     </row>
     <row r="986">
       <c r="AL986" s="17"/>
@@ -42634,6 +43758,7 @@
       <c r="BL986" s="17"/>
       <c r="BM986" s="17"/>
       <c r="BN986" s="17"/>
+      <c r="BO986" s="17"/>
     </row>
     <row r="987">
       <c r="AL987" s="17"/>
@@ -42665,6 +43790,7 @@
       <c r="BL987" s="17"/>
       <c r="BM987" s="17"/>
       <c r="BN987" s="17"/>
+      <c r="BO987" s="17"/>
     </row>
     <row r="988">
       <c r="AL988" s="17"/>
@@ -42696,6 +43822,7 @@
       <c r="BL988" s="17"/>
       <c r="BM988" s="17"/>
       <c r="BN988" s="17"/>
+      <c r="BO988" s="17"/>
     </row>
     <row r="989">
       <c r="AL989" s="17"/>
@@ -42727,6 +43854,7 @@
       <c r="BL989" s="17"/>
       <c r="BM989" s="17"/>
       <c r="BN989" s="17"/>
+      <c r="BO989" s="17"/>
     </row>
     <row r="990">
       <c r="AL990" s="17"/>
@@ -42758,6 +43886,7 @@
       <c r="BL990" s="17"/>
       <c r="BM990" s="17"/>
       <c r="BN990" s="17"/>
+      <c r="BO990" s="17"/>
     </row>
     <row r="991">
       <c r="AL991" s="17"/>
@@ -42789,6 +43918,7 @@
       <c r="BL991" s="17"/>
       <c r="BM991" s="17"/>
       <c r="BN991" s="17"/>
+      <c r="BO991" s="17"/>
     </row>
     <row r="992">
       <c r="AL992" s="17"/>
@@ -42820,6 +43950,7 @@
       <c r="BL992" s="17"/>
       <c r="BM992" s="17"/>
       <c r="BN992" s="17"/>
+      <c r="BO992" s="17"/>
     </row>
     <row r="993">
       <c r="AL993" s="17"/>
@@ -42851,6 +43982,7 @@
       <c r="BL993" s="17"/>
       <c r="BM993" s="17"/>
       <c r="BN993" s="17"/>
+      <c r="BO993" s="17"/>
     </row>
     <row r="994">
       <c r="AL994" s="17"/>
@@ -42882,6 +44014,7 @@
       <c r="BL994" s="17"/>
       <c r="BM994" s="17"/>
       <c r="BN994" s="17"/>
+      <c r="BO994" s="17"/>
     </row>
     <row r="995">
       <c r="AL995" s="17"/>
@@ -42913,6 +44046,7 @@
       <c r="BL995" s="17"/>
       <c r="BM995" s="17"/>
       <c r="BN995" s="17"/>
+      <c r="BO995" s="17"/>
     </row>
     <row r="996">
       <c r="AL996" s="17"/>
@@ -42944,6 +44078,7 @@
       <c r="BL996" s="17"/>
       <c r="BM996" s="17"/>
       <c r="BN996" s="17"/>
+      <c r="BO996" s="17"/>
     </row>
     <row r="997">
       <c r="AL997" s="17"/>
@@ -42975,6 +44110,7 @@
       <c r="BL997" s="17"/>
       <c r="BM997" s="17"/>
       <c r="BN997" s="17"/>
+      <c r="BO997" s="17"/>
     </row>
     <row r="998">
       <c r="AL998" s="17"/>
@@ -43006,6 +44142,7 @@
       <c r="BL998" s="17"/>
       <c r="BM998" s="17"/>
       <c r="BN998" s="17"/>
+      <c r="BO998" s="17"/>
     </row>
     <row r="999">
       <c r="AL999" s="17"/>
@@ -43037,6 +44174,7 @@
       <c r="BL999" s="17"/>
       <c r="BM999" s="17"/>
       <c r="BN999" s="17"/>
+      <c r="BO999" s="17"/>
     </row>
     <row r="1000">
       <c r="AL1000" s="17"/>
@@ -43068,6 +44206,7 @@
       <c r="BL1000" s="17"/>
       <c r="BM1000" s="17"/>
       <c r="BN1000" s="17"/>
+      <c r="BO1000" s="17"/>
     </row>
     <row r="1001">
       <c r="AL1001" s="17"/>
@@ -43099,6 +44238,7 @@
       <c r="BL1001" s="17"/>
       <c r="BM1001" s="17"/>
       <c r="BN1001" s="17"/>
+      <c r="BO1001" s="17"/>
     </row>
     <row r="1002">
       <c r="AL1002" s="17"/>
@@ -43130,6 +44270,7 @@
       <c r="BL1002" s="17"/>
       <c r="BM1002" s="17"/>
       <c r="BN1002" s="17"/>
+      <c r="BO1002" s="17"/>
     </row>
     <row r="1003">
       <c r="AL1003" s="17"/>
@@ -43161,6 +44302,7 @@
       <c r="BL1003" s="17"/>
       <c r="BM1003" s="17"/>
       <c r="BN1003" s="17"/>
+      <c r="BO1003" s="17"/>
     </row>
     <row r="1004">
       <c r="AL1004" s="17"/>
@@ -43192,6 +44334,7 @@
       <c r="BL1004" s="17"/>
       <c r="BM1004" s="17"/>
       <c r="BN1004" s="17"/>
+      <c r="BO1004" s="17"/>
     </row>
     <row r="1005">
       <c r="AL1005" s="17"/>
@@ -43223,6 +44366,7 @@
       <c r="BL1005" s="17"/>
       <c r="BM1005" s="17"/>
       <c r="BN1005" s="17"/>
+      <c r="BO1005" s="17"/>
     </row>
     <row r="1006">
       <c r="AL1006" s="17"/>
@@ -43254,6 +44398,7 @@
       <c r="BL1006" s="17"/>
       <c r="BM1006" s="17"/>
       <c r="BN1006" s="17"/>
+      <c r="BO1006" s="17"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -43470,6 +44615,9 @@
       </c>
       <c r="BM1" s="1">
         <v>45534.0</v>
+      </c>
+      <c r="BN1" s="1">
+        <v>45541.0</v>
       </c>
     </row>
     <row r="2">
@@ -43540,6 +44688,7 @@
       <c r="BK2" s="10"/>
       <c r="BL2" s="10"/>
       <c r="BM2" s="10"/>
+      <c r="BN2" s="10"/>
     </row>
     <row r="3">
       <c r="A3" s="24" t="s">
@@ -43609,6 +44758,7 @@
       <c r="BK3" s="10"/>
       <c r="BL3" s="10"/>
       <c r="BM3" s="10"/>
+      <c r="BN3" s="10"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -43806,6 +44956,9 @@
       <c r="BM4" s="10">
         <v>3743.0</v>
       </c>
+      <c r="BN4" s="10">
+        <v>3724.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
@@ -44003,6 +45156,9 @@
       <c r="BM5" s="10">
         <v>447.0</v>
       </c>
+      <c r="BN5" s="10">
+        <v>451.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -44200,6 +45356,9 @@
       <c r="BM6" s="10">
         <v>232.0</v>
       </c>
+      <c r="BN6" s="10">
+        <v>229.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
@@ -44368,6 +45527,9 @@
       <c r="BM7" s="10">
         <v>66.0</v>
       </c>
+      <c r="BN7" s="10">
+        <v>63.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
@@ -44565,6 +45727,9 @@
       <c r="BM8" s="10">
         <v>59.0</v>
       </c>
+      <c r="BN8" s="10">
+        <v>62.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
@@ -44762,6 +45927,9 @@
       <c r="BM9" s="10">
         <v>42.0</v>
       </c>
+      <c r="BN9" s="10">
+        <v>41.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
@@ -44959,6 +46127,9 @@
       <c r="BM10" s="10">
         <v>27.0</v>
       </c>
+      <c r="BN10" s="10">
+        <v>26.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
@@ -45154,6 +46325,9 @@
         <v>24.0</v>
       </c>
       <c r="BM11" s="10">
+        <v>24.0</v>
+      </c>
+      <c r="BN11" s="10">
         <v>24.0</v>
       </c>
     </row>
@@ -45250,6 +46424,9 @@
       <c r="BM12" s="16">
         <v>23.0</v>
       </c>
+      <c r="BN12" s="16">
+        <v>23.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
@@ -45441,6 +46618,9 @@
       <c r="BM13" s="10">
         <v>22.0</v>
       </c>
+      <c r="BN13" s="10">
+        <v>22.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
@@ -45549,6 +46729,9 @@
         <v>19.0</v>
       </c>
       <c r="BM14" s="10">
+        <v>18.0</v>
+      </c>
+      <c r="BN14" s="10">
         <v>18.0</v>
       </c>
     </row>
@@ -45688,6 +46871,9 @@
         <v>15.0</v>
       </c>
       <c r="BM15" s="10">
+        <v>16.0</v>
+      </c>
+      <c r="BN15" s="10">
         <v>16.0</v>
       </c>
     </row>
@@ -45750,6 +46936,9 @@
       <c r="BM16" s="10">
         <v>12.0</v>
       </c>
+      <c r="BN16" s="10">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
@@ -45932,6 +47121,9 @@
         <v>10.0</v>
       </c>
       <c r="BM17" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="BN17" s="10">
         <v>10.0</v>
       </c>
     </row>
@@ -46052,6 +47244,7 @@
       <c r="BK18" s="10"/>
       <c r="BL18" s="10"/>
       <c r="BM18" s="10"/>
+      <c r="BN18" s="10"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
@@ -46162,6 +47355,7 @@
       <c r="BK19" s="10"/>
       <c r="BL19" s="10"/>
       <c r="BM19" s="10"/>
+      <c r="BN19" s="10"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
@@ -46202,6 +47396,7 @@
       <c r="BK20" s="29"/>
       <c r="BL20" s="29"/>
       <c r="BM20" s="29"/>
+      <c r="BN20" s="29"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
@@ -46284,6 +47479,7 @@
       <c r="BK21" s="10"/>
       <c r="BL21" s="10"/>
       <c r="BM21" s="10"/>
+      <c r="BN21" s="10"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
@@ -46407,6 +47603,7 @@
       <c r="BK22" s="10"/>
       <c r="BL22" s="10"/>
       <c r="BM22" s="10"/>
+      <c r="BN22" s="10"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
@@ -46480,6 +47677,7 @@
       <c r="BK23" s="10"/>
       <c r="BL23" s="10"/>
       <c r="BM23" s="10"/>
+      <c r="BN23" s="10"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
@@ -46524,6 +47722,7 @@
       <c r="BK24" s="29"/>
       <c r="BL24" s="29"/>
       <c r="BM24" s="29"/>
+      <c r="BN24" s="29"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
@@ -46690,6 +47889,7 @@
       <c r="BK25" s="16"/>
       <c r="BL25" s="16"/>
       <c r="BM25" s="16"/>
+      <c r="BN25" s="16"/>
     </row>
     <row r="26">
       <c r="D26" s="31"/>
@@ -46900,6 +48100,28 @@
       <c r="Q1" s="5">
         <v>45522.0</v>
       </c>
+      <c r="R1" s="5">
+        <v>45538.0</v>
+      </c>
+      <c r="S1" s="5">
+        <v>45539.0</v>
+      </c>
+      <c r="T1" s="5">
+        <v>45540.0</v>
+      </c>
+      <c r="U1" s="5">
+        <v>45541.0</v>
+      </c>
+      <c r="V1" s="5">
+        <v>45542.0</v>
+      </c>
+      <c r="W1" s="5">
+        <v>45543.0</v>
+      </c>
+      <c r="X1" s="5">
+        <v>45544.0</v>
+      </c>
+      <c r="Y1" s="5"/>
     </row>
     <row r="2">
       <c r="A2" s="33" t="s">
@@ -46953,6 +48175,28 @@
       <c r="Q2" s="35">
         <v>5514.0</v>
       </c>
+      <c r="R2" s="2">
+        <v>5413.0</v>
+      </c>
+      <c r="S2" s="10">
+        <v>5421.0</v>
+      </c>
+      <c r="T2" s="2">
+        <v>5409.0</v>
+      </c>
+      <c r="U2" s="2">
+        <v>5431.0</v>
+      </c>
+      <c r="V2" s="2">
+        <v>5451.0</v>
+      </c>
+      <c r="W2" s="2">
+        <v>5438.0</v>
+      </c>
+      <c r="X2" s="2">
+        <v>5425.0</v>
+      </c>
+      <c r="Y2" s="35"/>
     </row>
     <row r="3">
       <c r="A3" s="33" t="s">
@@ -47006,6 +48250,28 @@
       <c r="Q3" s="33">
         <v>11.0</v>
       </c>
+      <c r="R3" s="2">
+        <v>43.0</v>
+      </c>
+      <c r="S3" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="T3" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="U3" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="V3" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="W3" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="X3" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="Y3" s="33"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -47096,6 +48362,8 @@
       <c r="BK1" s="13"/>
       <c r="BL1" s="13"/>
       <c r="BM1" s="13"/>
+      <c r="BN1" s="13"/>
+      <c r="BO1" s="13"/>
     </row>
     <row r="2">
       <c r="A2" s="36" t="s">
@@ -47338,6 +48606,12 @@
       <c r="BM2" s="13">
         <v>45527.0</v>
       </c>
+      <c r="BN2" s="13">
+        <v>45534.0</v>
+      </c>
+      <c r="BO2" s="13">
+        <v>45541.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="38" t="s">
@@ -47599,6 +48873,14 @@
         <f>WeeklyCensus!BM46</f>
         <v>5464</v>
       </c>
+      <c r="BN3" s="21">
+        <f>WeeklyCensus!BN46</f>
+        <v>5470</v>
+      </c>
+      <c r="BO3" s="21">
+        <f>WeeklyCensus!BO46</f>
+        <v>5431</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="38" t="s">
@@ -47860,6 +49142,14 @@
         <f>WeeklyCensus!BM6</f>
         <v>7</v>
       </c>
+      <c r="BN4" s="41">
+        <f>WeeklyCensus!BN6</f>
+        <v>12</v>
+      </c>
+      <c r="BO4" s="41">
+        <f>WeeklyCensus!BO6</f>
+        <v>13</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="42"/>
@@ -48151,8 +49441,12 @@
       <c r="AZ38" s="1">
         <v>45527.0</v>
       </c>
-      <c r="BA38" s="1"/>
-      <c r="BB38" s="1"/>
+      <c r="BA38" s="1">
+        <v>45534.0</v>
+      </c>
+      <c r="BB38" s="1">
+        <v>45541.0</v>
+      </c>
       <c r="BC38" s="1"/>
       <c r="BD38" s="1"/>
       <c r="BE38" s="1"/>
@@ -48164,6 +49458,8 @@
       <c r="BK38" s="1"/>
       <c r="BL38" s="1"/>
       <c r="BM38" s="1"/>
+      <c r="BN38" s="1"/>
+      <c r="BO38" s="1"/>
     </row>
     <row r="39">
       <c r="A39" s="33" t="s">
@@ -48373,6 +49669,14 @@
         <f>WeeklyMovement!BM3</f>
         <v>0</v>
       </c>
+      <c r="BA39" s="44">
+        <f>WeeklyMovement!BN3</f>
+        <v>0</v>
+      </c>
+      <c r="BB39" s="44">
+        <f>WeeklyMovement!BO3</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="33" t="s">
@@ -48486,6 +49790,14 @@
         <f>WeeklyMovement!BM4</f>
         <v>0</v>
       </c>
+      <c r="BA40" s="44">
+        <f>WeeklyMovement!BN4</f>
+        <v>0</v>
+      </c>
+      <c r="BB40" s="44">
+        <f>WeeklyMovement!BO4</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="41" ht="27.0" customHeight="1">
       <c r="A41" s="45" t="s">
@@ -48691,6 +50003,14 @@
         <f>WeeklyMovement!BM9</f>
         <v>0</v>
       </c>
+      <c r="BA41" s="44">
+        <f>WeeklyMovement!BN9</f>
+        <v>0</v>
+      </c>
+      <c r="BB41" s="44">
+        <f>WeeklyMovement!BO9</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="42"/>
@@ -48815,6 +50135,27 @@
       <c r="J72" s="5">
         <v>45522.0</v>
       </c>
+      <c r="K72" s="5">
+        <v>45538.0</v>
+      </c>
+      <c r="L72" s="5">
+        <v>45539.0</v>
+      </c>
+      <c r="M72" s="5">
+        <v>45540.0</v>
+      </c>
+      <c r="N72" s="5">
+        <v>45541.0</v>
+      </c>
+      <c r="O72" s="5">
+        <v>45542.0</v>
+      </c>
+      <c r="P72" s="5">
+        <v>45543.0</v>
+      </c>
+      <c r="Q72" s="5">
+        <v>45544.0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="33" t="s">
@@ -48856,6 +50197,34 @@
         <f>DailyCensus!Q2</f>
         <v>5514</v>
       </c>
+      <c r="K73" s="44">
+        <f>DailyCensus!R2</f>
+        <v>5413</v>
+      </c>
+      <c r="L73" s="29">
+        <f>DailyCensus!S2</f>
+        <v>5421</v>
+      </c>
+      <c r="M73" s="44">
+        <f>DailyCensus!T2</f>
+        <v>5409</v>
+      </c>
+      <c r="N73" s="44">
+        <f>DailyCensus!U2</f>
+        <v>5431</v>
+      </c>
+      <c r="O73" s="44">
+        <f>DailyCensus!V2</f>
+        <v>5451</v>
+      </c>
+      <c r="P73" s="44">
+        <f>DailyCensus!W2</f>
+        <v>5438</v>
+      </c>
+      <c r="Q73" s="44">
+        <f>DailyCensus!X2</f>
+        <v>5425</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="33" t="s">
@@ -48897,6 +50266,34 @@
         <f>DailyCensus!Q3</f>
         <v>11</v>
       </c>
+      <c r="K74" s="44">
+        <f>DailyCensus!R3</f>
+        <v>43</v>
+      </c>
+      <c r="L74" s="44">
+        <f>DailyCensus!S3</f>
+        <v>12</v>
+      </c>
+      <c r="M74" s="44">
+        <f>DailyCensus!T3</f>
+        <v>20</v>
+      </c>
+      <c r="N74" s="44">
+        <f>DailyCensus!U3</f>
+        <v>13</v>
+      </c>
+      <c r="O74" s="44">
+        <f>DailyCensus!V3</f>
+        <v>15</v>
+      </c>
+      <c r="P74" s="44">
+        <f>DailyCensus!W3</f>
+        <v>20</v>
+      </c>
+      <c r="Q74" s="44">
+        <f>DailyCensus!X3</f>
+        <v>25</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="42"/>
@@ -49038,6 +50435,12 @@
       <c r="T96" s="5">
         <v>45527.0</v>
       </c>
+      <c r="U96" s="5">
+        <v>45534.0</v>
+      </c>
+      <c r="V96" s="5">
+        <v>45541.0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="33" t="s">
@@ -49119,6 +50522,14 @@
         <f>WeeklyMovement!BM7</f>
         <v>106</v>
       </c>
+      <c r="U97" s="44">
+        <f>WeeklyMovement!BN7</f>
+        <v>67</v>
+      </c>
+      <c r="V97" s="44">
+        <f>WeeklyMovement!BO7</f>
+        <v>18</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="33" t="s">
@@ -49199,6 +50610,14 @@
       <c r="T98" s="44">
         <f>WeeklyMovement!BM8</f>
         <v>87</v>
+      </c>
+      <c r="U98" s="44">
+        <f>WeeklyMovement!BN8</f>
+        <v>54</v>
+      </c>
+      <c r="V98" s="44">
+        <f>WeeklyMovement!BO8</f>
+        <v>14</v>
       </c>
     </row>
     <row r="99">

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -760,11 +760,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="537783434"/>
-        <c:axId val="1313704740"/>
+        <c:axId val="1833924787"/>
+        <c:axId val="1247234857"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="537783434"/>
+        <c:axId val="1833924787"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -816,10 +816,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1313704740"/>
+        <c:crossAx val="1247234857"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1313704740"/>
+        <c:axId val="1247234857"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -894,7 +894,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537783434"/>
+        <c:crossAx val="1833924787"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1017,11 +1017,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="960767257"/>
-        <c:axId val="1891083240"/>
+        <c:axId val="1423675879"/>
+        <c:axId val="771829798"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="960767257"/>
+        <c:axId val="1423675879"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1073,10 +1073,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1891083240"/>
+        <c:crossAx val="771829798"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1891083240"/>
+        <c:axId val="771829798"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1151,7 +1151,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="960767257"/>
+        <c:crossAx val="1423675879"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1244,11 +1244,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1907262653"/>
-        <c:axId val="774935002"/>
+        <c:axId val="2116664083"/>
+        <c:axId val="1144566893"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1907262653"/>
+        <c:axId val="2116664083"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1300,10 +1300,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="774935002"/>
+        <c:crossAx val="1144566893"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="774935002"/>
+        <c:axId val="1144566893"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1378,7 +1378,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1907262653"/>
+        <c:crossAx val="2116664083"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1500,11 +1500,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1864459371"/>
-        <c:axId val="1875017586"/>
+        <c:axId val="1232064720"/>
+        <c:axId val="1355000870"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1864459371"/>
+        <c:axId val="1232064720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1556,10 +1556,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1875017586"/>
+        <c:crossAx val="1355000870"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1875017586"/>
+        <c:axId val="1355000870"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6000.0"/>
@@ -1635,7 +1635,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1864459371"/>
+        <c:crossAx val="1232064720"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1727,11 +1727,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="518666213"/>
-        <c:axId val="2044997491"/>
+        <c:axId val="581979883"/>
+        <c:axId val="1926357736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="518666213"/>
+        <c:axId val="581979883"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1783,10 +1783,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2044997491"/>
+        <c:crossAx val="1926357736"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2044997491"/>
+        <c:axId val="1926357736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1861,7 +1861,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518666213"/>
+        <c:crossAx val="581979883"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1982,11 +1982,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1949069001"/>
-        <c:axId val="943682472"/>
+        <c:axId val="1448969627"/>
+        <c:axId val="503809378"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1949069001"/>
+        <c:axId val="1448969627"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2038,10 +2038,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="943682472"/>
+        <c:crossAx val="503809378"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="943682472"/>
+        <c:axId val="503809378"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2116,7 +2116,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1949069001"/>
+        <c:crossAx val="1448969627"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -760,11 +760,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1833924787"/>
-        <c:axId val="1247234857"/>
+        <c:axId val="489821202"/>
+        <c:axId val="1388931758"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1833924787"/>
+        <c:axId val="489821202"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -816,10 +816,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1247234857"/>
+        <c:crossAx val="1388931758"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1247234857"/>
+        <c:axId val="1388931758"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -894,7 +894,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1833924787"/>
+        <c:crossAx val="489821202"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1017,11 +1017,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1423675879"/>
-        <c:axId val="771829798"/>
+        <c:axId val="75077103"/>
+        <c:axId val="108945485"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1423675879"/>
+        <c:axId val="75077103"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1073,10 +1073,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="771829798"/>
+        <c:crossAx val="108945485"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="771829798"/>
+        <c:axId val="108945485"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1151,7 +1151,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1423675879"/>
+        <c:crossAx val="75077103"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1244,11 +1244,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="2116664083"/>
-        <c:axId val="1144566893"/>
+        <c:axId val="664808207"/>
+        <c:axId val="1920985136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2116664083"/>
+        <c:axId val="664808207"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1300,10 +1300,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1144566893"/>
+        <c:crossAx val="1920985136"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1144566893"/>
+        <c:axId val="1920985136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1378,7 +1378,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2116664083"/>
+        <c:crossAx val="664808207"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1500,11 +1500,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1232064720"/>
-        <c:axId val="1355000870"/>
+        <c:axId val="1760600227"/>
+        <c:axId val="769497351"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1232064720"/>
+        <c:axId val="1760600227"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1556,10 +1556,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1355000870"/>
+        <c:crossAx val="769497351"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1355000870"/>
+        <c:axId val="769497351"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6000.0"/>
@@ -1635,7 +1635,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1232064720"/>
+        <c:crossAx val="1760600227"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1727,11 +1727,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="581979883"/>
-        <c:axId val="1926357736"/>
+        <c:axId val="290835608"/>
+        <c:axId val="680362245"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="581979883"/>
+        <c:axId val="290835608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1783,10 +1783,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1926357736"/>
+        <c:crossAx val="680362245"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1926357736"/>
+        <c:axId val="680362245"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1861,7 +1861,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="581979883"/>
+        <c:crossAx val="290835608"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1982,11 +1982,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1448969627"/>
-        <c:axId val="503809378"/>
+        <c:axId val="2057297816"/>
+        <c:axId val="1735121915"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1448969627"/>
+        <c:axId val="2057297816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2038,10 +2038,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503809378"/>
+        <c:crossAx val="1735121915"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="503809378"/>
+        <c:axId val="1735121915"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2116,7 +2116,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1448969627"/>
+        <c:crossAx val="2057297816"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -760,11 +760,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="489821202"/>
-        <c:axId val="1388931758"/>
+        <c:axId val="1194480276"/>
+        <c:axId val="1234844612"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="489821202"/>
+        <c:axId val="1194480276"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -816,10 +816,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1388931758"/>
+        <c:crossAx val="1234844612"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1388931758"/>
+        <c:axId val="1234844612"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -894,7 +894,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489821202"/>
+        <c:crossAx val="1194480276"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1017,11 +1017,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="75077103"/>
-        <c:axId val="108945485"/>
+        <c:axId val="1060450702"/>
+        <c:axId val="657366058"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="75077103"/>
+        <c:axId val="1060450702"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1073,10 +1073,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108945485"/>
+        <c:crossAx val="657366058"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108945485"/>
+        <c:axId val="657366058"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1151,7 +1151,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75077103"/>
+        <c:crossAx val="1060450702"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1244,11 +1244,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="664808207"/>
-        <c:axId val="1920985136"/>
+        <c:axId val="1168575106"/>
+        <c:axId val="2002133141"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="664808207"/>
+        <c:axId val="1168575106"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1300,10 +1300,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1920985136"/>
+        <c:crossAx val="2002133141"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1920985136"/>
+        <c:axId val="2002133141"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1378,7 +1378,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="664808207"/>
+        <c:crossAx val="1168575106"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1500,11 +1500,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1760600227"/>
-        <c:axId val="769497351"/>
+        <c:axId val="908075704"/>
+        <c:axId val="347282515"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1760600227"/>
+        <c:axId val="908075704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1556,10 +1556,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="769497351"/>
+        <c:crossAx val="347282515"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="769497351"/>
+        <c:axId val="347282515"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6000.0"/>
@@ -1635,7 +1635,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1760600227"/>
+        <c:crossAx val="908075704"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1727,11 +1727,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="290835608"/>
-        <c:axId val="680362245"/>
+        <c:axId val="1767636468"/>
+        <c:axId val="37468943"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="290835608"/>
+        <c:axId val="1767636468"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1783,10 +1783,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="680362245"/>
+        <c:crossAx val="37468943"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="680362245"/>
+        <c:axId val="37468943"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1861,7 +1861,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="290835608"/>
+        <c:crossAx val="1767636468"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1982,11 +1982,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="2057297816"/>
-        <c:axId val="1735121915"/>
+        <c:axId val="1871610879"/>
+        <c:axId val="547569072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2057297816"/>
+        <c:axId val="1871610879"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2038,10 +2038,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1735121915"/>
+        <c:crossAx val="547569072"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1735121915"/>
+        <c:axId val="547569072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2116,7 +2116,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2057297816"/>
+        <c:crossAx val="1871610879"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -760,11 +760,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1194480276"/>
-        <c:axId val="1234844612"/>
+        <c:axId val="277365051"/>
+        <c:axId val="1925298434"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1194480276"/>
+        <c:axId val="277365051"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -816,10 +816,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1234844612"/>
+        <c:crossAx val="1925298434"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1234844612"/>
+        <c:axId val="1925298434"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -894,7 +894,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1194480276"/>
+        <c:crossAx val="277365051"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1017,11 +1017,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1060450702"/>
-        <c:axId val="657366058"/>
+        <c:axId val="158690491"/>
+        <c:axId val="1589582910"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1060450702"/>
+        <c:axId val="158690491"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1073,10 +1073,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="657366058"/>
+        <c:crossAx val="1589582910"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="657366058"/>
+        <c:axId val="1589582910"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1151,7 +1151,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1060450702"/>
+        <c:crossAx val="158690491"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1244,11 +1244,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1168575106"/>
-        <c:axId val="2002133141"/>
+        <c:axId val="987645602"/>
+        <c:axId val="1773414732"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1168575106"/>
+        <c:axId val="987645602"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1300,10 +1300,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2002133141"/>
+        <c:crossAx val="1773414732"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2002133141"/>
+        <c:axId val="1773414732"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1378,7 +1378,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1168575106"/>
+        <c:crossAx val="987645602"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1500,11 +1500,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="908075704"/>
-        <c:axId val="347282515"/>
+        <c:axId val="1124808196"/>
+        <c:axId val="183114247"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="908075704"/>
+        <c:axId val="1124808196"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1556,10 +1556,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="347282515"/>
+        <c:crossAx val="183114247"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="347282515"/>
+        <c:axId val="183114247"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6000.0"/>
@@ -1635,7 +1635,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="908075704"/>
+        <c:crossAx val="1124808196"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1727,11 +1727,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1767636468"/>
-        <c:axId val="37468943"/>
+        <c:axId val="366936885"/>
+        <c:axId val="1034781995"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1767636468"/>
+        <c:axId val="366936885"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1783,10 +1783,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37468943"/>
+        <c:crossAx val="1034781995"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="37468943"/>
+        <c:axId val="1034781995"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1861,7 +1861,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1767636468"/>
+        <c:crossAx val="366936885"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1982,11 +1982,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1871610879"/>
-        <c:axId val="547569072"/>
+        <c:axId val="1924244907"/>
+        <c:axId val="1652410886"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1871610879"/>
+        <c:axId val="1924244907"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2038,10 +2038,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="547569072"/>
+        <c:crossAx val="1652410886"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="547569072"/>
+        <c:axId val="1652410886"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2116,7 +2116,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1871610879"/>
+        <c:crossAx val="1924244907"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -760,11 +760,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="277365051"/>
-        <c:axId val="1925298434"/>
+        <c:axId val="709944399"/>
+        <c:axId val="1157752792"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="277365051"/>
+        <c:axId val="709944399"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -816,10 +816,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1925298434"/>
+        <c:crossAx val="1157752792"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1925298434"/>
+        <c:axId val="1157752792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -894,7 +894,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="277365051"/>
+        <c:crossAx val="709944399"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1017,11 +1017,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="158690491"/>
-        <c:axId val="1589582910"/>
+        <c:axId val="1005419298"/>
+        <c:axId val="1167556779"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="158690491"/>
+        <c:axId val="1005419298"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1073,10 +1073,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1589582910"/>
+        <c:crossAx val="1167556779"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1589582910"/>
+        <c:axId val="1167556779"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1151,7 +1151,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="158690491"/>
+        <c:crossAx val="1005419298"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1244,11 +1244,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="987645602"/>
-        <c:axId val="1773414732"/>
+        <c:axId val="2046500947"/>
+        <c:axId val="2014273680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="987645602"/>
+        <c:axId val="2046500947"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1300,10 +1300,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1773414732"/>
+        <c:crossAx val="2014273680"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1773414732"/>
+        <c:axId val="2014273680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1378,7 +1378,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="987645602"/>
+        <c:crossAx val="2046500947"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1500,11 +1500,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1124808196"/>
-        <c:axId val="183114247"/>
+        <c:axId val="627473511"/>
+        <c:axId val="1540098422"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1124808196"/>
+        <c:axId val="627473511"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1556,10 +1556,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183114247"/>
+        <c:crossAx val="1540098422"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183114247"/>
+        <c:axId val="1540098422"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6000.0"/>
@@ -1635,7 +1635,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1124808196"/>
+        <c:crossAx val="627473511"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1727,11 +1727,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="366936885"/>
-        <c:axId val="1034781995"/>
+        <c:axId val="700933618"/>
+        <c:axId val="1312993881"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="366936885"/>
+        <c:axId val="700933618"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1783,10 +1783,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1034781995"/>
+        <c:crossAx val="1312993881"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1034781995"/>
+        <c:axId val="1312993881"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1861,7 +1861,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="366936885"/>
+        <c:crossAx val="700933618"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1982,11 +1982,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1924244907"/>
-        <c:axId val="1652410886"/>
+        <c:axId val="1860647710"/>
+        <c:axId val="1880474340"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1924244907"/>
+        <c:axId val="1860647710"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2038,10 +2038,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1652410886"/>
+        <c:crossAx val="1880474340"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1652410886"/>
+        <c:axId val="1880474340"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2116,7 +2116,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1924244907"/>
+        <c:crossAx val="1860647710"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/new_arrivals.xlsx
+++ b/new_arrivals.xlsx
@@ -760,11 +760,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="709944399"/>
-        <c:axId val="1157752792"/>
+        <c:axId val="3746822"/>
+        <c:axId val="1344776056"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="709944399"/>
+        <c:axId val="3746822"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -816,10 +816,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1157752792"/>
+        <c:crossAx val="1344776056"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1157752792"/>
+        <c:axId val="1344776056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -894,7 +894,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="709944399"/>
+        <c:crossAx val="3746822"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1017,11 +1017,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1005419298"/>
-        <c:axId val="1167556779"/>
+        <c:axId val="1654959370"/>
+        <c:axId val="1711336491"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1005419298"/>
+        <c:axId val="1654959370"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1073,10 +1073,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1167556779"/>
+        <c:crossAx val="1711336491"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1167556779"/>
+        <c:axId val="1711336491"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1151,7 +1151,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1005419298"/>
+        <c:crossAx val="1654959370"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1244,11 +1244,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="2046500947"/>
-        <c:axId val="2014273680"/>
+        <c:axId val="1855233984"/>
+        <c:axId val="15490710"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2046500947"/>
+        <c:axId val="1855233984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1300,10 +1300,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2014273680"/>
+        <c:crossAx val="15490710"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2014273680"/>
+        <c:axId val="15490710"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1378,7 +1378,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2046500947"/>
+        <c:crossAx val="1855233984"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1500,11 +1500,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="627473511"/>
-        <c:axId val="1540098422"/>
+        <c:axId val="1817922022"/>
+        <c:axId val="1443771307"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="627473511"/>
+        <c:axId val="1817922022"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1556,10 +1556,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1540098422"/>
+        <c:crossAx val="1443771307"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1540098422"/>
+        <c:axId val="1443771307"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6000.0"/>
@@ -1635,7 +1635,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627473511"/>
+        <c:crossAx val="1817922022"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1727,11 +1727,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="700933618"/>
-        <c:axId val="1312993881"/>
+        <c:axId val="1694741784"/>
+        <c:axId val="1615513608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="700933618"/>
+        <c:axId val="1694741784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1783,10 +1783,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1312993881"/>
+        <c:crossAx val="1615513608"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1312993881"/>
+        <c:axId val="1615513608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1861,7 +1861,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="700933618"/>
+        <c:crossAx val="1694741784"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1982,11 +1982,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1860647710"/>
-        <c:axId val="1880474340"/>
+        <c:axId val="608136549"/>
+        <c:axId val="1971276977"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1860647710"/>
+        <c:axId val="608136549"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2038,10 +2038,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1880474340"/>
+        <c:crossAx val="1971276977"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1880474340"/>
+        <c:axId val="1971276977"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2116,7 +2116,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1860647710"/>
+        <c:crossAx val="608136549"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
